--- a/lod_analysis/excels/artists.xlsx
+++ b/lod_analysis/excels/artists.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="447">
   <si>
     <t>artist_id</t>
   </si>
@@ -40,1402 +40,1321 @@
     <t>geonames_download_time</t>
   </si>
   <si>
-    <t>05fG473iIaoy82BF1aGhL8</t>
-  </si>
-  <si>
-    <t>0nmQIMXWTXfhgOBdNzhGOs</t>
-  </si>
-  <si>
-    <t>14pVkFUHDL207LzLHtSA18</t>
-  </si>
-  <si>
-    <t>5eAWCfyUhZtHHtBdNk56l1</t>
-  </si>
-  <si>
-    <t>64tNsm6TnZe2zpcMVMOoHL</t>
-  </si>
-  <si>
-    <t>6JW8wliOEwaDZ231ZY7cf4</t>
-  </si>
-  <si>
-    <t>3TOqt5oJwL9BE2NG9MEwDa</t>
-  </si>
-  <si>
-    <t>6gZq1Q6bdOxsUPUG1TaFbF</t>
-  </si>
-  <si>
-    <t>1DFr97A9HnbV3SKTJFu62M</t>
-  </si>
-  <si>
-    <t>0GDGKpJFhVpcjIGF8N6Ewt</t>
-  </si>
-  <si>
-    <t>1Qp56T7n950O3EGMsSl81D</t>
-  </si>
-  <si>
-    <t>6wWVKhxIU2cEi0K81v7HvP</t>
-  </si>
-  <si>
-    <t>2Pfv2w8a20xzC7Dr7QXRqM</t>
-  </si>
-  <si>
-    <t>6Ghvu1VvMGScGpOUJBAHNH</t>
-  </si>
-  <si>
-    <t>17Mb968quDHpjCkIyq30QV</t>
-  </si>
-  <si>
-    <t>1Dvfqq39HxvCJ3GvfeIFuT</t>
-  </si>
-  <si>
-    <t>2VYQTNDsvvKN9wmU5W7xpj</t>
-  </si>
-  <si>
-    <t>37394IP6uhnjIpsawpMu4l</t>
-  </si>
-  <si>
-    <t>278ZYwGhdK6QTzE3MFePnP</t>
-  </si>
-  <si>
-    <t>1E4r4z7ivGUcSAnCbINJ9v</t>
+    <t>3q7HBObVc0L8jNeTe5Gofh</t>
+  </si>
+  <si>
+    <t>49qiE8dj4JuNdpYGRPdKbF</t>
+  </si>
+  <si>
+    <t>2YVF0Ou5zIc4mpgtLIlGN0</t>
+  </si>
+  <si>
+    <t>2p4FqHnazRucYQHyDCdBrJ</t>
+  </si>
+  <si>
+    <t>5SbkVQYYzlw1kte75QIabH</t>
+  </si>
+  <si>
+    <t>20p5D2KrE8CGuOjHtxsyTp</t>
+  </si>
+  <si>
+    <t>31TPClRtHm23RisEBtV3X7</t>
+  </si>
+  <si>
+    <t>7wJ9NwdRWtN92NunmXuwBk</t>
+  </si>
+  <si>
+    <t>2YTbBGa3Tf2rRPhiJxWoUN</t>
+  </si>
+  <si>
+    <t>1yjAx9cww4f1QuAaN3dUI2</t>
+  </si>
+  <si>
+    <t>6TLwD7HPWuiOzvXEa3oCNe</t>
+  </si>
+  <si>
+    <t>4LqXqd68BBoEk9RDYeS0ls</t>
+  </si>
+  <si>
+    <t>6qqNVTkY8uBg9cP3Jd7DAH</t>
+  </si>
+  <si>
+    <t>5K4W6rqBFWDnAN6FQUkS6x</t>
+  </si>
+  <si>
+    <t>4uN3DsfENc7dp0OLO0FEIb</t>
+  </si>
+  <si>
+    <t>4EnEZVjo3w1cwcQYePccay</t>
+  </si>
+  <si>
+    <t>6J7biCazzYhU3gM9j1wfid</t>
+  </si>
+  <si>
+    <t>3JsMj0DEzyWc0VDlHuy9Bx</t>
+  </si>
+  <si>
+    <t>5ksRONqssB7BR161NTtJAm</t>
+  </si>
+  <si>
+    <t>26PDtWYDJ1KD0brukKsJH1</t>
+  </si>
+  <si>
+    <t>7KMqksf0UMdyA0UCf4R3ux</t>
+  </si>
+  <si>
+    <t>7knmbOGe07k85GmK50vACB</t>
+  </si>
+  <si>
+    <t>54R6Y0I7jGUCveDTtI21nb</t>
+  </si>
+  <si>
+    <t>2o5jDhtHVPhrJdv3cEQ99Z</t>
+  </si>
+  <si>
+    <t>6XyY86QOPPrYVGvF9ch6wz</t>
+  </si>
+  <si>
+    <t>11wRdbnoYqRddKBrpHt4Ue</t>
+  </si>
+  <si>
+    <t>0jgAONnsHxrwAlhkMUVS78</t>
+  </si>
+  <si>
+    <t>69GGBxA162lTqCwzJG5jLp</t>
+  </si>
+  <si>
+    <t>14Gi3Uph96lpNB3utkoVAD</t>
+  </si>
+  <si>
+    <t>488v7rQzthLNK22r0UvMie</t>
+  </si>
+  <si>
+    <t>5vCOdeiQt9LyzdI87kt5Sh</t>
+  </si>
+  <si>
+    <t>25uiPmTg16RbhZWAqwLBy5</t>
+  </si>
+  <si>
+    <t>02da1vDJ2hWqfK7aJL6SJm</t>
+  </si>
+  <si>
+    <t>3ot6fEzKvRrCnWy5BWlnxU</t>
+  </si>
+  <si>
+    <t>2d0hyoQ5ynDBnkvAbJKORj</t>
+  </si>
+  <si>
+    <t>0Je74SitssvJg1w4Ra2EK7</t>
+  </si>
+  <si>
+    <t>5Rl15oVamLq7FbSb0NNBNy</t>
+  </si>
+  <si>
+    <t>06YQ6XwCdPUn8rAXV70gge</t>
+  </si>
+  <si>
+    <t>5LfGQac0EIXyAN8aUwmNAQ</t>
+  </si>
+  <si>
+    <t>4sD9znwiVFx9cgRPZ42aQ1</t>
+  </si>
+  <si>
+    <t>6eoJpTIlcuxJNjV5fDzDJH</t>
+  </si>
+  <si>
+    <t>46h3caIKtqPlEfRHuSdibg</t>
+  </si>
+  <si>
+    <t>6TZdvF1kFzwnQLgHQynzsO</t>
+  </si>
+  <si>
+    <t>6S2OmqARrzebs0tKUEyXyp</t>
+  </si>
+  <si>
+    <t>2ziB7fzrXBoh1HUPS6sVFn</t>
+  </si>
+  <si>
+    <t>7vXwfZyDp3spzIVNXDaTPN</t>
+  </si>
+  <si>
+    <t>63yrD80RY3RNEM2YDpUpO8</t>
+  </si>
+  <si>
+    <t>0f3EsoviYnRKTkmayI3cux</t>
+  </si>
+  <si>
+    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
+  </si>
+  <si>
+    <t>5N6EzjkOoyABhNZJggeXi6</t>
+  </si>
+  <si>
+    <t>1Yox196W7bzVNZI7RBaPnf</t>
+  </si>
+  <si>
+    <t>63MQldklfxkjYDoUE4Tppz</t>
+  </si>
+  <si>
+    <t>0smy8yDrRoI4CnhpOuthg0</t>
+  </si>
+  <si>
+    <t>41ekW4MXG59xJMXR8dX1OG</t>
+  </si>
+  <si>
+    <t>1LZEQNv7sE11VDY3SdxQeN</t>
+  </si>
+  <si>
+    <t>0EdvGhlC1FkGItLOWQzG4J</t>
+  </si>
+  <si>
+    <t>5mqguTgtaoCMNMZD6txCh6</t>
+  </si>
+  <si>
+    <t>0oea1hwGMfUxZbLxJc1XUN</t>
+  </si>
+  <si>
+    <t>3l0CmX0FuQjFxr8SK7Vqag</t>
+  </si>
+  <si>
+    <t>0iVrCROxeyon7MZUW3MfzT</t>
+  </si>
+  <si>
+    <t>7MqnCTCAX6SsIYYdJCQj9B</t>
+  </si>
+  <si>
+    <t>1dIdBZaaHRW2bDTkHNfWln</t>
+  </si>
+  <si>
+    <t>3vRclCt9VnNhYIxFMQCxuM</t>
+  </si>
+  <si>
+    <t>3Ngh2zDBRPEriyxQDAMKd1</t>
+  </si>
+  <si>
+    <t>5ApKaVHAStk5kAuyBW1wG8</t>
+  </si>
+  <si>
+    <t>3eqjTLE0HfPfh78zjh6TqT</t>
+  </si>
+  <si>
+    <t>4DToQR3aKrHQSSRzSz8Nzt</t>
+  </si>
+  <si>
+    <t>0BmLNz4nSLfoWYW1cYsElL</t>
+  </si>
+  <si>
+    <t>416gMRzj1LnFJvSBF5PO2R</t>
+  </si>
+  <si>
+    <t>2S5hlvw4CMtMGswFtfdK15</t>
+  </si>
+  <si>
+    <t>2tRsMl4eGxwoNabM08Dm4I</t>
+  </si>
+  <si>
+    <t>0ym94xKp2PIOJtTZKpxbAa</t>
+  </si>
+  <si>
+    <t>5nGIFgo0shDenQYSE0Sn7c</t>
+  </si>
+  <si>
+    <t>6zvul52xwTWzilBZl6BUbT</t>
+  </si>
+  <si>
+    <t>3mQBpAOMWYqAZyxtyeo4Lo</t>
+  </si>
+  <si>
+    <t>085pc2PYOi8bGKj0PNjekA</t>
+  </si>
+  <si>
+    <t>7A9yZMTrFZcgEWAX2kBfK6</t>
+  </si>
+  <si>
+    <t>7siPLyFwRFYQkKgWKJ5Sod</t>
+  </si>
+  <si>
+    <t>1aX2dmV8XoHYCOQRxjPESG</t>
+  </si>
+  <si>
+    <t>711MCceyCBcFnzjGY4Q7Un</t>
+  </si>
+  <si>
+    <t>23fqKkggKUBHNkbKtXEls4</t>
+  </si>
+  <si>
+    <t>1gR0gsQYfi6joyO1dlp76N</t>
+  </si>
+  <si>
+    <t>6ASri4ePR7RlsvIQgWPJpS</t>
+  </si>
+  <si>
+    <t>3ngKsDXZAssmljeXCvEgOe</t>
+  </si>
+  <si>
+    <t>3oZa8Xs6IjlIUGLAhVyK4G</t>
+  </si>
+  <si>
+    <t>6VuMaDnrHyPL1p4EHjYLi7</t>
+  </si>
+  <si>
+    <t>0uAjBatvB4ubpd4kCfjmNt</t>
+  </si>
+  <si>
+    <t>5iNrZmtVMtYev5M9yoWpEq</t>
+  </si>
+  <si>
+    <t>13ccXrK7AmXb4TddMkE7jy</t>
+  </si>
+  <si>
+    <t>6x9QLdzo6eBZxJ1bHsDkjg</t>
   </si>
   <si>
     <t>3HVdAiMNjYrQIKlOGxoGh5</t>
   </si>
   <si>
-    <t>7iWiAD5LLKyiox2grgfmUT</t>
-  </si>
-  <si>
-    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
-  </si>
-  <si>
-    <t>5he5w2lnU9x7JFhnwcekXX</t>
-  </si>
-  <si>
-    <t>2xiIXseIJcq3nG7C8fHeBj</t>
-  </si>
-  <si>
-    <t>5BtHciL0e0zOP7prIHn3pP</t>
-  </si>
-  <si>
-    <t>1vNvn4iArxt8rtXw8LvwBj</t>
-  </si>
-  <si>
-    <t>5t28BP42x2axFnqOOMg3CM</t>
-  </si>
-  <si>
-    <t>7CTjkl9M3enzBBfm1u10Sy</t>
-  </si>
-  <si>
-    <t>6W8xq7TXME3WXP7c7LMWBR</t>
-  </si>
-  <si>
-    <t>6p9q2PEuRNRMIXy0mxtDaf</t>
-  </si>
-  <si>
-    <t>0ZMRPS0nmaMsLth9slhzIL</t>
-  </si>
-  <si>
-    <t>6B5c4sch27tWHAGdarpPaW</t>
-  </si>
-  <si>
-    <t>0fGVuq5ed21pM7iWwTcMyk</t>
-  </si>
-  <si>
-    <t>3ggwAqZD3lyT2sbovlmfQY</t>
-  </si>
-  <si>
-    <t>4DWX7u8BV0vZIQSpJQQDWU</t>
-  </si>
-  <si>
-    <t>49qiE8dj4JuNdpYGRPdKbF</t>
-  </si>
-  <si>
-    <t>59CIPNdUfewexxn1CJEdp5</t>
-  </si>
-  <si>
-    <t>0L5fC7Ogm2YwgqVCRcF1bT</t>
-  </si>
-  <si>
-    <t>6XyY86QOPPrYVGvF9ch6wz</t>
-  </si>
-  <si>
-    <t>5nGIFgo0shDenQYSE0Sn7c</t>
-  </si>
-  <si>
-    <t>1Ffb6ejR6Fe5IamqA5oRUF</t>
-  </si>
-  <si>
-    <t>6Wr3hh341P84m3EI8qdn9O</t>
-  </si>
-  <si>
-    <t>2ye2Wgw4gimLv2eAKyk1NB</t>
-  </si>
-  <si>
-    <t>4RddZ3iHvSpGV4dvATac9X</t>
-  </si>
-  <si>
-    <t>49bzE5vRBRIota4qeHtQM8</t>
-  </si>
-  <si>
-    <t>74eX4C98E4FCrAMl39qRsJ</t>
-  </si>
-  <si>
-    <t>6GfiCQDFYANz5wUkSmb3Dr</t>
-  </si>
-  <si>
-    <t>3dXaa6jwM7B52GZpaJEIr5</t>
-  </si>
-  <si>
-    <t>5S6hjAxgxjsLylsTtMIimO</t>
-  </si>
-  <si>
-    <t>6om12Ev5ppgoMy3OYSoech</t>
-  </si>
-  <si>
-    <t>12Chz98pHFMPJEknJQMWvI</t>
-  </si>
-  <si>
-    <t>7qAcXJgt1PWnxwUgxMdyuk</t>
-  </si>
-  <si>
-    <t>2AVVj8ezW2mJ0v8u7XydiF</t>
-  </si>
-  <si>
-    <t>2RTUTCvo6onsAnheUk3aL9</t>
-  </si>
-  <si>
-    <t>2R57sY41L9XvGPiIgHOaYq</t>
-  </si>
-  <si>
-    <t>39VNwvlQTqE9SvgPjjnMpc</t>
-  </si>
-  <si>
-    <t>6tbLPxj1uQ6vsRQZI2YFCT</t>
-  </si>
-  <si>
-    <t>1UdQqCUR7RwB9YYJONwbdM</t>
-  </si>
-  <si>
-    <t>56dO9zeHKuU5Gvfc2kxHNw</t>
-  </si>
-  <si>
-    <t>7JDSHlDdVTo7aZKdQZ53Vf</t>
-  </si>
-  <si>
-    <t>44tQC1PjxXIpEgW0i8uN00</t>
-  </si>
-  <si>
-    <t>70BYFdaZbEKbeauJ670ysI</t>
-  </si>
-  <si>
-    <t>3JFsVIxOn7STeilPICkkB2</t>
-  </si>
-  <si>
-    <t>2zgG1GPDvjaBgxeQaVXI14</t>
-  </si>
-  <si>
-    <t>3hE8S8ohRErocpkY7uJW4a</t>
-  </si>
-  <si>
-    <t>3a0Ol9AaugGXjf1ZQcAs1U</t>
-  </si>
-  <si>
-    <t>35Uu85Pq33mK8x1jYqsHY2</t>
-  </si>
-  <si>
-    <t>3Uobr6LgQpBbk6k4QGAb3V</t>
-  </si>
-  <si>
-    <t>5KDIH2gF0VpelTqyQS7udb</t>
-  </si>
-  <si>
-    <t>0niJkG4tKkne3zwr7I8n9n</t>
-  </si>
-  <si>
-    <t>7fWgqc4HJi3pcHhK8hKg2p</t>
-  </si>
-  <si>
-    <t>6vunRaBya0Sx6CMJZAlHTZ</t>
-  </si>
-  <si>
-    <t>3iYvxketuV7AAPCJuWSDH2</t>
-  </si>
-  <si>
-    <t>0nhDd1RWjZ6SDV1Vg1Ku2Q</t>
-  </si>
-  <si>
-    <t>1pRaG81GsVtaTBuVSpldt2</t>
-  </si>
-  <si>
-    <t>1B0155rdv175D1tQ8VH7Oy</t>
-  </si>
-  <si>
-    <t>6iswhpc2w6na3lS1vehFXF</t>
-  </si>
-  <si>
-    <t>23ytwhG1pzX6DIVWRWvW1r</t>
-  </si>
-  <si>
-    <t>6v9XKyEf4HKmUMr3D6weIO</t>
-  </si>
-  <si>
-    <t>03YfzFNcD7l9uskxK7WaPP</t>
-  </si>
-  <si>
-    <t>0lVlNsuGaOr9vMHCZIAKMt</t>
-  </si>
-  <si>
-    <t>0uNj4RxFjG0iVPlZS753en</t>
-  </si>
-  <si>
-    <t>3pulcT2wt7FEG10lQlqDJL</t>
-  </si>
-  <si>
-    <t>4jpaXieuls7LVzG1uma5Rs</t>
-  </si>
-  <si>
-    <t>5mscNJ6lE9Kj7tWv4iCk7y</t>
-  </si>
-  <si>
-    <t>0b2B3PwcYzQAhuJacmcYgc</t>
-  </si>
-  <si>
-    <t>4Ri061lbxtCwNoqDnprznA</t>
-  </si>
-  <si>
-    <t>3LkSiHbjqOHCKCqBfEZOTv</t>
-  </si>
-  <si>
-    <t>3NChzMpu9exTlNPiqUQ2DE</t>
-  </si>
-  <si>
-    <t>0H9lbVkJq2aj6SbqJKBVy5</t>
-  </si>
-  <si>
-    <t>6bu7CtcOMWcS0BMq7snHW6</t>
-  </si>
-  <si>
-    <t>0eI3X5rAzHRZVe5FPk4MN1</t>
-  </si>
-  <si>
-    <t>3o2dn2O0FCVsWDFSh8qxgG</t>
-  </si>
-  <si>
-    <t>1MK0sGeyTNkbefYGj673e9</t>
-  </si>
-  <si>
-    <t>1bkf8u8ot6vEpWTJFBzKZB</t>
-  </si>
-  <si>
-    <t>01crEa9G3pNpXZ5m7wuHOk</t>
-  </si>
-  <si>
-    <t>5274obTQJjzjyycRyJlfml</t>
-  </si>
-  <si>
-    <t>4sy5qWfwUwpGYBnCKnwfcW</t>
-  </si>
-  <si>
-    <t>4PoYwGOztIrPpBfRIlMSxP</t>
-  </si>
-  <si>
-    <t>Slipknot</t>
-  </si>
-  <si>
-    <t>Avenged Sevenfold</t>
-  </si>
-  <si>
-    <t>Pantera</t>
-  </si>
-  <si>
-    <t>System Of A Down</t>
-  </si>
-  <si>
-    <t>Alice In Chains</t>
-  </si>
-  <si>
-    <t>Sepultura</t>
-  </si>
-  <si>
-    <t>Disturbed</t>
-  </si>
-  <si>
-    <t>Godsmack</t>
-  </si>
-  <si>
-    <t>Motörhead</t>
-  </si>
-  <si>
-    <t>Gojira</t>
-  </si>
-  <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>Rammstein</t>
-  </si>
-  <si>
-    <t>Mudvayne</t>
-  </si>
-  <si>
-    <t>Deftones</t>
-  </si>
-  <si>
-    <t>Hatebreed</t>
-  </si>
-  <si>
-    <t>Mastodon</t>
-  </si>
-  <si>
-    <t>Marilyn Manson</t>
-  </si>
-  <si>
-    <t>Killswitch Engage</t>
-  </si>
-  <si>
-    <t>Trivium</t>
-  </si>
-  <si>
-    <t>Drowning Pool</t>
+    <t>2jLE4BoXHriQ96JagEtiDP</t>
+  </si>
+  <si>
+    <t>64KEffDW9EtZ1y2vBYgq8T</t>
+  </si>
+  <si>
+    <t>0uq5PttqEjj3IH1bzwcrXF</t>
+  </si>
+  <si>
+    <t>2hO4YtXUFJiUYS2uYFvHNK</t>
+  </si>
+  <si>
+    <t>4dwdTW1Lfiq0cM8nBAqIIz</t>
+  </si>
+  <si>
+    <t>34PLzyi7CdXUekiLHYyqXq</t>
+  </si>
+  <si>
+    <t>3bmFPbLMiLxtR9tFrTcKcP</t>
+  </si>
+  <si>
+    <t>5BvJzeQpmsdsFp4HGUYUEx</t>
+  </si>
+  <si>
+    <t>6kXp61QMZFPcKMcRPqoiVj</t>
+  </si>
+  <si>
+    <t>50 Cent</t>
+  </si>
+  <si>
+    <t>Stone Sour</t>
+  </si>
+  <si>
+    <t>Robert Miles</t>
+  </si>
+  <si>
+    <t>Simple Plan</t>
+  </si>
+  <si>
+    <t>Gnarls Barkley</t>
+  </si>
+  <si>
+    <t>Fine Young Cannibals</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Orchestral Manoeuvres In The Dark</t>
+  </si>
+  <si>
+    <t>Camouflage</t>
+  </si>
+  <si>
+    <t>Desireless</t>
+  </si>
+  <si>
+    <t>Oliver Tree</t>
+  </si>
+  <si>
+    <t>Big Ali</t>
+  </si>
+  <si>
+    <t>Billie Eilish</t>
+  </si>
+  <si>
+    <t>Kanye West</t>
+  </si>
+  <si>
+    <t>Sugar Ray</t>
+  </si>
+  <si>
+    <t>N.W.A.</t>
+  </si>
+  <si>
+    <t>Jamiroquai</t>
+  </si>
+  <si>
+    <t>Supertramp</t>
+  </si>
+  <si>
+    <t>Ace of Base</t>
+  </si>
+  <si>
+    <t>Jennifer Paige</t>
+  </si>
+  <si>
+    <t>James Blunt</t>
+  </si>
+  <si>
+    <t>Indochine</t>
+  </si>
+  <si>
+    <t>Boney M.</t>
+  </si>
+  <si>
+    <t>Tiësto</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>Kasabian</t>
+  </si>
+  <si>
+    <t>Eddie Rabbitt</t>
+  </si>
+  <si>
+    <t>The Chainsmokers</t>
+  </si>
+  <si>
+    <t>Hard-FI</t>
+  </si>
+  <si>
+    <t>La Bouche</t>
+  </si>
+  <si>
+    <t>AronChupa</t>
+  </si>
+  <si>
+    <t>Charli XCX</t>
+  </si>
+  <si>
+    <t>Soul Asylum</t>
+  </si>
+  <si>
+    <t>Vita</t>
+  </si>
+  <si>
+    <t>Rage Against The Machine</t>
+  </si>
+  <si>
+    <t>4 Non Blondes</t>
+  </si>
+  <si>
+    <t>5 Seconds of Summer</t>
+  </si>
+  <si>
+    <t>Republica</t>
+  </si>
+  <si>
+    <t>The Offspring</t>
+  </si>
+  <si>
+    <t>Sinéad O'Connor</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>The Beloved</t>
+  </si>
+  <si>
+    <t>Alien Ant Farm</t>
+  </si>
+  <si>
+    <t>Demi Lovato</t>
+  </si>
+  <si>
+    <t>Audioslave</t>
+  </si>
+  <si>
+    <t>Metro Station</t>
+  </si>
+  <si>
+    <t>Melanie Martinez</t>
+  </si>
+  <si>
+    <t>Men At Work</t>
+  </si>
+  <si>
+    <t>Korn</t>
+  </si>
+  <si>
+    <t>Mousse T.</t>
+  </si>
+  <si>
+    <t>Megadeth</t>
+  </si>
+  <si>
+    <t>M83</t>
+  </si>
+  <si>
+    <t>Corey Hart</t>
+  </si>
+  <si>
+    <t>Alpha Blondy</t>
+  </si>
+  <si>
+    <t>Bee Gees</t>
+  </si>
+  <si>
+    <t>Sublime</t>
+  </si>
+  <si>
+    <t>Phum Viphurit</t>
+  </si>
+  <si>
+    <t>Peter Tosh</t>
+  </si>
+  <si>
+    <t>Clairo</t>
+  </si>
+  <si>
+    <t>Montell Jordan</t>
+  </si>
+  <si>
+    <t>Pendulum</t>
+  </si>
+  <si>
+    <t>The Veronicas</t>
+  </si>
+  <si>
+    <t>Milli Vanilli</t>
+  </si>
+  <si>
+    <t>Matchbox Twenty</t>
+  </si>
+  <si>
+    <t>Yazz</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>The Hives</t>
+  </si>
+  <si>
+    <t>Alexandra Stan</t>
+  </si>
+  <si>
+    <t>Chickenfoot</t>
+  </si>
+  <si>
+    <t>Royal Blood</t>
+  </si>
+  <si>
+    <t>Judas Priest</t>
+  </si>
+  <si>
+    <t>Samantha Fox</t>
+  </si>
+  <si>
+    <t>Evanescence</t>
+  </si>
+  <si>
+    <t>Pixies</t>
+  </si>
+  <si>
+    <t>KC &amp; The Sunshine Band</t>
+  </si>
+  <si>
+    <t>will.i.am</t>
+  </si>
+  <si>
+    <t>Huey Lewis &amp; The News</t>
+  </si>
+  <si>
+    <t>The Dandy Warhols</t>
+  </si>
+  <si>
+    <t>The Human League</t>
+  </si>
+  <si>
+    <t>AC/DC</t>
+  </si>
+  <si>
+    <t>Kygo</t>
+  </si>
+  <si>
+    <t>Justice</t>
+  </si>
+  <si>
+    <t>iann dior</t>
+  </si>
+  <si>
+    <t>Eagle-Eye Cherry</t>
+  </si>
+  <si>
+    <t>Irene Cara</t>
+  </si>
+  <si>
+    <t>Charlie Puth</t>
+  </si>
+  <si>
+    <t>A Flock Of Seagulls</t>
+  </si>
+  <si>
+    <t>Seeb</t>
+  </si>
+  <si>
+    <t>Everything But The Girl</t>
+  </si>
+  <si>
+    <t>Sisqo</t>
   </si>
   <si>
     <t>Rob Zombie</t>
   </si>
   <si>
-    <t>Bullet For My Valentine</t>
-  </si>
-  <si>
-    <t>Korn</t>
-  </si>
-  <si>
-    <t>Skrillex</t>
-  </si>
-  <si>
-    <t>Three Days Grace</t>
-  </si>
-  <si>
-    <t>Breaking Benjamin</t>
-  </si>
-  <si>
-    <t>Valora</t>
-  </si>
-  <si>
-    <t>Five Finger Death Punch</t>
-  </si>
-  <si>
-    <t>Rob Halford</t>
-  </si>
-  <si>
-    <t>Maria Brink</t>
-  </si>
-  <si>
-    <t>Max Cavalera</t>
-  </si>
-  <si>
-    <t>Jamey Jasta</t>
-  </si>
-  <si>
-    <t>Seether</t>
-  </si>
-  <si>
-    <t>Amy Lee</t>
-  </si>
-  <si>
-    <t>Meshuggah</t>
-  </si>
-  <si>
-    <t>Alter Bridge</t>
-  </si>
-  <si>
-    <t>Stone Sour</t>
-  </si>
-  <si>
-    <t>Fozzy</t>
-  </si>
-  <si>
-    <t>Volbeat</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
-  </si>
-  <si>
-    <t>Evanescence</t>
-  </si>
-  <si>
-    <t>Bring Me The Horizon</t>
-  </si>
-  <si>
-    <t>Rise Against</t>
-  </si>
-  <si>
-    <t>Metallica</t>
-  </si>
-  <si>
-    <t>Papa Roach</t>
-  </si>
-  <si>
-    <t>Skillet</t>
-  </si>
-  <si>
-    <t>Theory of a Deadman</t>
-  </si>
-  <si>
-    <t>Thousand Foot Krutch</t>
-  </si>
-  <si>
-    <t>Puddle Of Mudd</t>
-  </si>
-  <si>
-    <t>Saliva</t>
-  </si>
-  <si>
-    <t>Halestorm</t>
-  </si>
-  <si>
-    <t>Muse</t>
-  </si>
-  <si>
-    <t>Sick Puppies</t>
-  </si>
-  <si>
-    <t>Saving Abel</t>
-  </si>
-  <si>
-    <t>3 Doors Down</t>
-  </si>
-  <si>
-    <t>The Pretty Reckless</t>
-  </si>
-  <si>
-    <t>NOTHING MORE</t>
-  </si>
-  <si>
-    <t>In This Moment</t>
-  </si>
-  <si>
-    <t>Trapt</t>
-  </si>
-  <si>
-    <t>Chevelle</t>
-  </si>
-  <si>
-    <t>Static-X</t>
-  </si>
-  <si>
-    <t>Tremonti</t>
-  </si>
-  <si>
-    <t>Shinedown</t>
-  </si>
-  <si>
-    <t>Lamb of God</t>
-  </si>
-  <si>
-    <t>All That Remains</t>
-  </si>
-  <si>
-    <t>Within Temptation</t>
-  </si>
-  <si>
-    <t>Jacoby Shaddix</t>
-  </si>
-  <si>
-    <t>Sevendust</t>
-  </si>
-  <si>
-    <t>I Prevail</t>
-  </si>
-  <si>
-    <t>Staind</t>
-  </si>
-  <si>
-    <t>Finger Eleven</t>
-  </si>
-  <si>
-    <t>Dope</t>
-  </si>
-  <si>
-    <t>Rahzel</t>
-  </si>
-  <si>
-    <t>Johan Olsen</t>
-  </si>
-  <si>
-    <t>Corey Taylor</t>
-  </si>
-  <si>
-    <t>Pop Evil</t>
-  </si>
-  <si>
-    <t>FEVER 333</t>
-  </si>
-  <si>
-    <t>Otep</t>
-  </si>
-  <si>
-    <t>TesseracT</t>
-  </si>
-  <si>
-    <t>Textures</t>
-  </si>
-  <si>
-    <t>Toothgrinder</t>
-  </si>
-  <si>
-    <t>Machine Head</t>
-  </si>
-  <si>
-    <t>After The Burial</t>
-  </si>
-  <si>
-    <t>Amon Amarth</t>
-  </si>
-  <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t>Within The Ruins</t>
-  </si>
-  <si>
-    <t>The HU</t>
-  </si>
-  <si>
-    <t>Bobaflex</t>
-  </si>
-  <si>
-    <t>Atreyu</t>
-  </si>
-  <si>
-    <t>Thrice</t>
-  </si>
-  <si>
-    <t>Righteous Vendetta</t>
-  </si>
-  <si>
-    <t>Wage War</t>
-  </si>
-  <si>
-    <t>Bad Wolves</t>
-  </si>
-  <si>
-    <t>Sabaton</t>
-  </si>
-  <si>
-    <t>Behemoth</t>
-  </si>
-  <si>
-    <t>Dream Evil</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Whitechapel</t>
-  </si>
-  <si>
-    <t>Heaven Shall Burn</t>
-  </si>
-  <si>
-    <t>Soil</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Slipknot', 'annotations': {'description': '&lt;p&gt;Slipknot is a metal group based in Des Moines, Iowa. They were formed in 1995, and are well known for their live shows and their image of nine masked performers. They are one of the most important bands of the NWOAHM (New Wave of American Heavy Metal).&lt;/p&gt;\n\n&lt;p&gt;The band released their demo album &lt;em&gt;Mate, Feed, Kill, Repeat&lt;/em&gt; on October 31st, 1996. Slipknot went through several lineup changes before settling with their most known line-up: Sid Wilson, Joey Jordison, Paul Gray, Chris Fehn, Jim Root, Craig Jones, Shawn “Clown” Crahan, Mick Thompson, and Corey Taylor.&lt;/p&gt;\n\n&lt;p&gt;This core line-up rose to the spotlight after their self-titled debut in 1999 which contained the breakout singles &lt;a href="https://genius.com/Slipknot-wait-and-bleed-lyrics" rel="noopener" data-api_path="/songs/73691"&gt;“Wait and Bleed”&lt;/a&gt; and &lt;a href="https://genius.com/Slipknot-spit-it-out-lyrics" rel="noopener" data-api_path="/songs/73693"&gt;“Spit it Out.”&lt;/a&gt; They would go on to release &lt;em&gt;Iowa&lt;/em&gt; (2001), &lt;em&gt;Vol.3: The Subliminal Verses&lt;/em&gt; (2004), and &lt;em&gt;All Hope Is Gone&lt;/em&gt; (2008), and &lt;em&gt;.5: The Gray Chapter&lt;/em&gt; (2014) and &lt;em&gt;We Are Not Your Kind&lt;/em&gt; (2019). The band has sold millions of records worldwide.&lt;/p&gt;\n\n&lt;p&gt;On May 24th, 2010, bassist and founding member Paul Gray died. Although Slipknot continued to tour, Gray’s death called into the question the possibility of new material. However, in 2013, Slipknot went into the studio to write and record what would be their fifth album. On December 12th of the same year, the band parted ways with drummer and founding member Joey Jordison. It was later revealed in 2016 that Jordison suffered from a rare disease called transverse myelitis (which affected his nerves and left him unable to play the drums).&lt;/p&gt;\n\n&lt;p&gt;During the recording process, Slipknot recruited two new members whose identities were, at the time, kept secret. They released &lt;em&gt;.5: The Gray Chapter&lt;/em&gt; on October 21st, 2014. After a year of touring, it has been confirmed that Alessandro Venturella and Jay Weinberg were the new bassist and drummer of Slipknot.&lt;/p&gt;\n\n&lt;p&gt;On March 14, 2019, Chris Fehn filed a lawsuit against the band citing withheld payments. Fehn specifically accused Corey Taylor and Shawn Crahan of setting up several band-related business entities, in different states, that collect money from the band. Fehn called for full forensic accounting to be done on all of the band’s companies and assets in order to collect any profits and damages he may be owed. On March 17, 2019, the band officially announced, via their website, that Chris Fehn was no longer a member of the band, stating:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Slipknot’s focus is on making album #6, and our upcoming shows around the world, our best ever. Chris knows why he is no longer a part of Slipknot. We are disappointed that he chose to point fingers and manufacture claims, rather than doing what was necessary to continue to be a part of Slipknot. We would have preferred he not take the path that he has, but evolution in all things is a necessary part of this life. Long Live The Knot.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': ['Meld']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Avenged-sevenfold', 'annotations': {'description': '&lt;p&gt;Avenged Sevenfold (sometimes abbreviated as A7X) are an American heavy metal band from Huntington Beach, California, formed in 1999. To date, the band have released seven studio albums, one DVD, and one live album. Two of their studio albums, &lt;em&gt;Nightmare&lt;/em&gt; and &lt;em&gt;Hail to the King&lt;/em&gt;, have debuted at #1 on the Billboard charts.&lt;/p&gt;\n\n&lt;p&gt;Until December 2009, the band’s lineup consisted of vocalist M. Shadows, lead guitarist Synyster Gates, rhythm guitarist Zacky Vengeance, bassist Johnny Christ, and drummer Jimmy “The Rev” Sullivan, who died of an accidental drug overdose while the band was making their fifth album, &lt;em&gt;Nightmare&lt;/em&gt;. For &lt;em&gt;Nightmare&lt;/em&gt;, The Rev was temporarily replaced by ex-&lt;a href="https://genius.com/artists/Dream-theater" rel="noopener" data-api_path="/artists/19712"&gt;Dream Theater&lt;/a&gt; drummer Mike Portnoy, before the band found a permanent replacement with Arin Ilejay. In July 2015, however, it was announced that the band would be moving forward without Ilejay. He was replaced by &lt;a href="https://genius.com/artists/Brooks-wackerman" rel="noopener" data-api_path="/artists/1016534"&gt;Brooks Wackerman&lt;/a&gt; of &lt;a href="https://genius.com/artists/Bad-religion" rel="noopener" data-api_path="/artists/27995"&gt;Bad Religion&lt;/a&gt;, who made his first contribution in Call of Duty: Black Ops III’s score “Jade Helm” (2015). In October 2016, the band have released their seventh studio album, “The Stage.”&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/314bfa844f3dd9e91f8c63711f6132f7.700x394x1.jpg" alt="" width="700" height="394" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['A7X']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Pantera', 'annotations': {'description': '&lt;p&gt;Pantera was an American heavy metal band from &lt;a href="https://www.arlingtontx.gov/" rel="noopener nofollow"&gt;Arlington, Texas&lt;/a&gt;. Often celebrated as &lt;a href="http://ultimateclassicrock.com/pantera-far-beyond-driven/" rel="noopener nofollow"&gt;one of the most influential&lt;/a&gt; heavy metal groups of all time, Pantera pioneered a unique style sometimes referred to as “groove metal” that features heavy guitar riffing mostly at mid-tempo (instead of breakneck) speeds.&lt;/p&gt;\n\n&lt;p&gt;Originally conceived as a glam metal act, Pantera changed direction in 1990 and found commercial success with a heavier and more aggressive sound, becoming one of the most well-known and respected heavy metal bands of all time.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The Texan band started as a glam metal band in the early ‘80s. &lt;a href="http://www.fullinbloommusic.com/tlee.html" rel="noopener nofollow"&gt;After a couple lineup changes&lt;/a&gt;, the band found local success with the Abbott brothers &lt;a href="https://genius.com/artists/Vinnie-paul" rel="noopener" data-api_path="/artists/575016"&gt;Vinnie Paul&lt;/a&gt; and &lt;a href="https://genius.com/artists/Dimebag-darrell" rel="noopener" data-api_path="/artists/645583"&gt;Dimebag Darrell&lt;/a&gt; (then known as Diamond Darrell) on drums and guitar respectively, &lt;a href="https://genius.com/artists/Rex-brown" rel="noopener" data-api_path="/artists/755041"&gt;Rex Brown&lt;/a&gt; (then known as Rex Rocker) on bass and &lt;a href="https://genius.com/artists/Terry-glaze" rel="noopener" data-api_path="/artists/1516988"&gt;Terry Glaze&lt;/a&gt; as lead vocalist. The band independently released three glam metal records from 1983 to 1985 which gained them some regional popularity), but no nationwide breakthrough.&lt;/p&gt;\n\n&lt;p&gt;In 1986 and 1987, thrash metal albums like &lt;a href="https://genius.com/albums/Slayer/Reign-in-blood" rel="noopener" data-api_path="/albums/32969"&gt;&lt;i&gt;Reign in Blood&lt;/i&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Megadeth/Peace-sells-but-who-s-buying" rel="noopener" data-api_path="/albums/22490"&gt;&lt;i&gt;Peace Sells… But Who’s Buying?&lt;/i&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Metallica/Master-of-puppets" rel="noopener" data-api_path="/albums/13102"&gt;&lt;i&gt;Master of Puppets&lt;/i&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Anthrax/Among-the-living" rel="noopener" data-api_path="/albums/41916"&gt;&lt;i&gt;Among the Living&lt;/i&gt;&lt;/a&gt; were released, which were dominating the metal scene, consequently making Pantera want to play heavier. Terry Glaze &lt;a href="http://www.blabbermouth.net/news/original-pantera-singer-terry-glaze-couldnt-believe-that-dimebag-was-dead/" rel="noopener nofollow"&gt;left the band&lt;/a&gt; with New Orleans native &lt;a href="https://genius.com/artists/Phil-anselmo" rel="noopener" data-api_path="/artists/550809"&gt;Phil Anselmo&lt;/a&gt; replacing him in 1987.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Pantera/Power-metal" rel="noopener" data-api_path="/albums/100631"&gt;&lt;i&gt;Power Metal&lt;/i&gt;&lt;/a&gt;, the band’s first album with Anselmo, was still not a full out heavy metal album, but was much heavier than the first three. Diamond Darrell auditioned for &lt;a href="https://genius.com/artists/Megadeth" rel="noopener" data-api_path="/artists/19444"&gt;Megadeth&lt;/a&gt; shortly after and was offered the position, but he declined it because his brother couldn’t join.&lt;/p&gt;\n\n&lt;p&gt;The band’s next album, &lt;a href="https://genius.com/albums/Pantera/Cowboys-from-hell" rel="noopener" data-api_path="/albums/44637"&gt;&lt;i&gt;Cowboys from Hell&lt;/i&gt;&lt;/a&gt;, showed them leaving their glam roots behind in favor of a thrash metal sound. The band considered it their first proper album, as the previous four albums aren’t even included on the band’s website. Rex Rocker and Diamond Darrell changed their stage names to emphasize their shift away from glam metal; adopting the names Rex Brown and Dimebag Darrell.&lt;/p&gt;\n\n&lt;p&gt;Their next two albums (and perhaps their most highly successful), &lt;a href="https://genius.com/albums/Pantera/Vulgar-display-of-power" rel="noopener" data-api_path="/albums/41239"&gt;&lt;i&gt;Vulgar Display of Power&lt;/i&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Pantera/Far-beyond-driven" rel="noopener" data-api_path="/albums/44638"&gt;&lt;i&gt;Far Beyond Driven&lt;/i&gt;&lt;/a&gt;, showcased an even heavier sound and pioneered what became the ‘groove metal’ sound. Both albums were enormously successful, the latter &lt;a href="http://ultimateclassicrock.com/pantera-far-beyond-driven/" rel="noopener nofollow"&gt;debuting at #1&lt;/a&gt; on the US Album Chart, one of the heaviest albums ever to do so.&lt;/p&gt;\n\n&lt;p&gt;The band’s last two albums, &lt;a href="https://genius.com/albums/Pantera/The-great-southern-trendkill" rel="noopener" data-api_path="/albums/98520"&gt;&lt;i&gt;The Great Southern Trendkill&lt;/i&gt;&lt;/a&gt; (which was the peak of the band’s holistic heaviness) and &lt;a href="https://genius.com/albums/Pantera/Reinventing-the-steel" rel="noopener" data-api_path="/albums/78447"&gt;&lt;i&gt;Reinventing the Steel&lt;/i&gt;&lt;/a&gt;, despite not having as much of a beloved reception their previous three albums had, were still very successful. However, the band’s tensions continued to tear them apart. Dimebag’s alcoholism took its toll on Anselmo, who also began behaving strangely due to his back pain and subsequent alcohol overuse to quell it. The singer refused to get surgery, feeling it would take him away from the band too long, so he started to use heroin to fight the pain. In 1996, &lt;a href="http://articles.latimes.com/1996-07-28/entertainment/ca-28729_1_drug-abuse" rel="noopener nofollow"&gt;Anselmo nearly overdosed&lt;/a&gt; on heroin onstage. His heart stopped beating, but was revived and promised the other band members to quit using drugs. Anselmo also started doing a lot of side-projects around this time, which annoyed the other band members, who felt he should give his all to Pantera.&lt;/p&gt;\n\n&lt;p&gt;Following 9/11 and the resultant cancellation of their tour, Anselmo and Dimebag’s &lt;a href="http://www.blabbermouth.net/news/philip-anselmo-dimebag-darrell-deserves-to-be-beaten-severely/" rel="noopener nofollow"&gt;relationship got worse&lt;/a&gt;. Anselmo released 2 albums with his side-projects &lt;a href="https://genius.com/artists/Down" rel="noopener" data-api_path="/artists/9692"&gt;Down&lt;/a&gt; and &lt;a href="https://genius.com/artists/Superjoint-ritual" rel="noopener" data-api_path="/artists/344374"&gt;Superjoint Ritual&lt;/a&gt;. The Abbott brothers were frustrated and decided to break up Pantera in 2003, concluding Anselmo had abandoned the band.&lt;/p&gt;\n\n&lt;p&gt;The brothers formed &lt;a href="https://genius.com/artists/Damageplan" rel="noopener" data-api_path="/artists/350976"&gt;Damageplan&lt;/a&gt;, but a war of words between them and Anselmo continued, with &lt;a href="http://www.blabbermouth.net/news/philip-anselmo-dimebag-darrell-deserves-to-be-beaten-severely/" rel="noopener nofollow"&gt;the latter eventually telling &lt;em&gt;Metal Hammer&lt;/em&gt; magazine&lt;/a&gt; that “Dimebag deserves to be beaten severely.” A week later, on December 8, 2004, while performing with Damageplan, Dimebag Darrell was shot and killed along with 3 others by a deranged fan. After this tragic event, any hopes for ever seeing a reunion of Pantera were destroyed.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/System-of-a-down', 'annotations': {'description': '&lt;p&gt;System of a Down, also known by the acronym ‘SOAD’ and often shortened to ‘System,’ are an Armenian four-piece rock band from Southern California, formed in 1994.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;The band achieved commercial success with the release of five studio albums, and &lt;a href="https://genius.com/albums/System-of-a-down/Toxicity" rel="noopener" data-api_path="/albums/18852"&gt;&lt;em&gt;Toxicity&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/System-of-a-down/Mezmerize" rel="noopener" data-api_path="/albums/20128"&gt;&lt;em&gt;Mezmerize&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/System-of-a-down/Hypnotize" rel="noopener" data-api_path="/albums/26057"&gt;&lt;em&gt;Hypnotize&lt;/em&gt;&lt;/a&gt; have all debuted at number one on the Billboard 200. System of a Down has been nominated for four Grammy Awards, and their song &lt;a href="https://genius.com/System-of-a-down-byob-lyrics" rel="noopener" data-api_path="/songs/75978"&gt;“B.Y.O.B.”&lt;/a&gt; won the Best Hard Rock Performance of 2006.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/6721d312ac721b756f51a7f55359521a.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(&lt;em&gt;Toxicity&lt;/em&gt;’s album art)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;The group briefly disbanded in August 2006 and reunited in November 2010, embarking on a tour for the following three years. They had two subsequent worldwide tours in 2015 and 2017.&lt;br&gt;\nThey returned with two singles, &lt;a href="https://genius.com/System-of-a-down-protect-the-land-lyrics" rel="noopener" data-api_path="/songs/6139655"&gt;“Protect the Land”&lt;/a&gt; and &lt;a href="https://genius.com/System-of-a-down-genocidal-humanoidz-lyrics" rel="noopener" data-api_path="/songs/6139659"&gt;“Genocidal Humanoidz”&lt;/a&gt; in November 2020, after fifteen years since their last studio album.&lt;/p&gt;\n\n&lt;p&gt;System of a Down has sold over 40 million records worldwide, and two of their singles, &lt;a href="https://genius.com/System-of-a-down-aerials-lyrics" rel="noopener" data-api_path="/songs/94438"&gt;“Aerials”&lt;/a&gt; and &lt;a href="https://genius.com/System-of-a-down-hypnotize-lyrics" rel="noopener" data-api_path="/songs/105732"&gt;“Hypnotize,”&lt;/a&gt; reached number one on Billboard’s Alternative Songs chart.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;The band currently consists of four Armenian Americans:&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;&lt;a href="https://genius.com/artists/Serj-tankian" rel="noopener" data-api_path="/artists/11189"&gt;Serj Tankian&lt;/a&gt;:&lt;/strong&gt; lead vocals, keyboards, guitar on occasion.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Daron-malakian" rel="noopener" data-api_path="/artists/126460"&gt;Daron Malakian&lt;/a&gt;:&lt;/strong&gt; vocals, guitar.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Shavo-odadijan" rel="noopener"&gt;Shavo Odadjian&lt;/a&gt;:&lt;/strong&gt; bass, backing vocals.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/John-dolmayan" rel="noopener" data-api_path="/artists/646522"&gt;John Dolmayan&lt;/a&gt;:&lt;/strong&gt; drums.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ee9fd1183055081763eedde0c6953a99.620x400x1.jpg" alt="" width="620" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;center&gt;&lt;small&gt;(SOAD’s actual formation)\n&lt;/small&gt;&lt;/center&gt;', 'alternate_names': ['SOAD']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alice-in-chains', 'annotations': {'description': '&lt;p&gt;Alice in Chains are a Seattle-based rock band. They rose to international fame in the early 1990s as part of the ‘grunge’ movement. They are one of the most critically and commercially acclaimed acts of the 90s. Their first 3 studio albums all went multi-platinum and they have received 8 Grammy nominations for Best Hard Rock performance (sadly, never winning once).&lt;/p&gt;\n\n&lt;p&gt;Their unique sound comes from the harmonized vocals of co-founders &lt;a href="https://genius.com/artists/layne-staley" rel="noopener" data-api_path="/artists/461445"&gt;Layne Staley&lt;/a&gt; and &lt;a href="https://genius.com/artists/jerry-cantrell" rel="noopener" data-api_path="/artists/159296"&gt;Jerry Cantrell&lt;/a&gt;, as showcased in some of their biggest songs like &lt;a href="https://genius.com/Alice-in-chains-no-excuses-lyrics" rel="noopener" data-api_path="/songs/339309"&gt;“No Excuses”&lt;/a&gt; from &lt;a href="https://genius.com/albums/alice-in-chains/jar-of-flies" rel="noopener" data-api_path="/albums/38745"&gt;&lt;em&gt;Jar of Flies&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Alice-in-chains-angry-chair-lyrics" rel="noopener" data-api_path="/songs/391256"&gt;“Angry Chair”&lt;/a&gt; from &lt;a href="https://genius.com/albums/alice-in-chains/dirt" rel="noopener" data-api_path="/albums/38159"&gt;&lt;em&gt;Dirt&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/Alice-in-chains-again-lyrics" rel="noopener" data-api_path="/songs/113953"&gt;“Again”&lt;/a&gt; from the &lt;a href="https://genius.com/albums/alice-in-chains/alice-in-chains" rel="noopener" data-api_path="/albums/27730"&gt;self-titled&lt;/a&gt; album. Cantrell also serves as the primary songwriter and guitarist of the band.&lt;/p&gt;\n\n&lt;p&gt;The band was never restricted to grunge. Cantrell believes it to be heavy metal; and indeed a lot of modern heavy metal bands &lt;a href="https://en.wikipedia.org/wiki/Alice_in_Chains#Legacy" rel="noopener nofollow"&gt;cite Alice in Chains as an influence&lt;/a&gt;, including &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt; for &lt;a href="https://genius.com/albums/Metallica/Death-magnetic" rel="noopener" data-api_path="/albums/40083"&gt;Death Magnetic&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band’s frontman, Layne Staley, suffered throughout his life from depression and substance abuse, which eventually took his life in 2002. It was a huge blow to the industry and many prominent bands recorded &lt;a href="https://genius.com/Staind-layne-lyrics" rel="noopener" data-api_path="/songs/2303320"&gt;songs&lt;/a&gt; as odes to Staley.&lt;/p&gt;\n\n&lt;p&gt;After extended inactivity, the band recruited &lt;a href="https://genius.com/artists/william-duvall" rel="noopener" data-api_path="/artists/574582"&gt;William DuVall&lt;/a&gt; and have released three successful studio albums since his inclusion.&lt;/p&gt;', 'alternate_names': ['AIC']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sepultura', 'annotations': {'description': '&lt;p&gt;Sepultura is a Brazilian heavy metal band from Belo Horizonte. Formed in 1984 by brothers &lt;a href="https://genius.com/artists/Max-cavalera" rel="noopener" data-api_path="/artists/1856"&gt;Max&lt;/a&gt; and &lt;a href="https://genius.com/artists/Igor-cavalera" rel="noopener" data-api_path="/artists/995489"&gt;Igor Cavalera&lt;/a&gt;, the band was a major force in the death metal, thrash metal, and groove metal genres during the late 1980s and early 1990s, with their later experiments drawing influence from alternative metal, world music, nu-metal, hardcore punk, and industrial metal.&lt;/p&gt;\n\n&lt;p&gt;The first Sepultura show was on December 4th, 1984. The band played two songs that never were re-recorded or released. The band name comes from a Portuguese translation of &lt;a href="https://genius.com/artists/Motorhead" rel="noopener" data-api_path="/artists/14780"&gt;Motörhead&lt;/a&gt;’s song &lt;a href="https://genius.com/Motorhead-dancing-on-your-grave-lyrics" rel="noopener" data-api_path="/songs/712238"&gt;“Dancing on Your Grave”&lt;/a&gt; which is “Dançando na sua Sepultura”. Sepultura means “grave” (sepulchre) in Portuguese (and in some other Latin-based languages). Originally, they wanted to call the band Tropa de Choque (Shock Troops), but found that the name had been used before.&lt;/p&gt;\n\n&lt;p&gt;Sepultura played the Donington Monsters of Rock festival in England in 1996 as a three piece with Andreas Kisser on lead vocals after Max Cavalera learned about the murder of his stepson Dana Wells.&lt;/p&gt;\n\n&lt;p&gt;Max left Sepultura in December 1996 after the rest of the band had clashes with his wife (Dana Wells\' mother) and band manager Gloria Bujnowski. He went on to form the band &lt;a href="https://genius.com/artists/Soulfly" rel="noopener" data-api_path="/artists/301317"&gt;Soulfly&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Derrick Green, originally from Cleveland, Ohio relocated to Brazil to replace Max as vocalist. Sepultura have largely played as a single guitar band since then, though Green has occasionally played rhythm onstage.&lt;/p&gt;\n\n&lt;p&gt;Roy Mayorga filled-in for Igor Cavalera during the European tour with In Flames in 2006. Igor quit Sepultura permanently later the same year. The Cavalera brothers then reunited in the &lt;a href="https://genius.com/artists/Cavalera-conspiracy" rel="noopener" data-api_path="/artists/359888"&gt;Cavalera Conspiracy&lt;/a&gt; project.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n\n\n&lt;h3&gt;Members&lt;/h3&gt;\n\n\n\n\n&lt;h4&gt;Current&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Paulo-jr" rel="noopener" data-api_path="/artists/1016999"&gt;Paulo Jr.&lt;/a&gt; – bass (1984-present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Andreas-kisser" rel="noopener" data-api_path="/artists/351029"&gt;Andreas Kisser&lt;/a&gt; – guitars (1987-present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Derrick-green" rel="noopener" data-api_path="/artists/667497"&gt;Derrick Green&lt;/a&gt; – vocals (1998-present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Eloy-casagrande" rel="noopener" data-api_path="/artists/2056049"&gt;Eloy Casagrande&lt;/a&gt; – drums (2011-present)&lt;/p&gt;\n\n&lt;h4&gt;Past&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Max-cavalera" rel="noopener" data-api_path="/artists/1856"&gt;Max Cavalera&lt;/a&gt; – guitars, vocals (1984-1996)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Igor-cavalera" rel="noopener" data-api_path="/artists/995489"&gt;Igor Cavalera&lt;/a&gt; – drums (1984-2006)&lt;br&gt;\nBeto Pinga – drums (1984)&lt;br&gt;\nCássio – guitars (1984)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Wagner-lamounier" rel="noopener" data-api_path="/artists/1878890"&gt;Wagner Lamounier&lt;/a&gt; – vocals (1984-1985)&lt;br&gt;\nRoberto UFO – guitars (1984)&lt;br&gt;\nRoberto Raffan – bass (1984)&lt;br&gt;\nJulio Franco – guitars (1985)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jairo-guedz" rel="noopener" data-api_path="/artists/1016998"&gt;Jairo Guedz&lt;/a&gt; – guitars (1985-1987)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jean-dolabella" rel="noopener" data-api_path="/artists/325743"&gt;Jean Dolabella&lt;/a&gt; – drums (2006-2011)&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Disturbed', 'annotations': {'description': '&lt;p&gt;Disturbed is an American heavy metal band formed in 1994 (named Brawl at this time) from Chicago, Illinois. In 1996 singer Erich Awalt was replaced by David Draiman and the band was renamed “Disturbed”.&lt;/p&gt;\n\n&lt;p&gt;Disturbed is most famously known for their songs “&lt;a href="https://genius.com/Disturbed-down-with-the-sickness-lyrics" rel="noopener" data-api_path="/songs/97449"&gt;Down With The Sickness&lt;/a&gt;” and their cover of “&lt;a href="https://genius.com/Disturbed-the-sound-of-silence-lyrics" rel="noopener" data-api_path="/songs/2282530"&gt;The Sound of Silence&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Disturbed went on hiatus in July 2011, to get a break from touring, but started to miss it and engaged in some side projects; &lt;a href="https://genius.com/artists/Device" rel="noopener" data-api_path="/artists/170170"&gt;Device&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fight-or-flight" rel="noopener" data-api_path="/artists/343727"&gt;Fight Or Flight&lt;/a&gt;, &lt;a href="https://genius.com/artists/Adrenaline-mob" rel="noopener" data-api_path="/artists/329908"&gt;Adrenaline Mob&lt;/a&gt; and &lt;a href="https://genius.com/artists/Art-of-anarchy" rel="noopener" data-api_path="/artists/1019795"&gt;Art Of Anarchy&lt;/a&gt;.&lt;br&gt;\nDisturbed returned in 2015 announcing their return with their new album – &lt;em&gt;&lt;a href="https://genius.com/albums/Disturbed/Immortalized" rel="noopener" data-api_path="/albums/126740"&gt;Immortalized&lt;/a&gt;&lt;/em&gt;, which was recorded in secret and releasing the first single from the album, “&lt;a href="https://genius.com/Disturbed-the-vengeful-one-lyrics" rel="noopener" data-api_path="/songs/2149822"&gt;The Vengeful One&lt;/a&gt;,” in advance.&lt;br&gt;\n&lt;em&gt;Immortalized&lt;/em&gt; was &lt;a href="https://www.billboard.com/articles/columns/chart-beat/6678673/disturbed-scores-fifth-no-1-album-on-billboard-200-chart" rel="noopener nofollow"&gt;Disturbed’s fifth straight No. 1-debuting studio album on Billboard 200&lt;/a&gt;, making them the third group in history to have achieved five consecutive studio albums at No. 1. The other two being &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt; and &lt;a href="https://genius.com/artists/Dave-matthews-band" rel="noopener" data-api_path="/artists/18451"&gt;Dave Matthews Band&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Members:&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/David-draiman" rel="noopener" data-api_path="/artists/71550"&gt;David Draiman&lt;/a&gt; – vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Dan-donegan" rel="noopener" data-api_path="/artists/177598"&gt;Dan Donegan&lt;/a&gt; – guitar, keyboards&lt;br&gt;\n&lt;a href="https://genius.com/artists/John-moyer" rel="noopener" data-api_path="/artists/684586"&gt;John Moyer&lt;/a&gt; – bass, backing vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Mike-wengren" rel="noopener" data-api_path="/artists/177599"&gt;Mike Wengren&lt;/a&gt; – drums&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Godsmack', 'annotations': {'description': '&lt;p&gt;Godsmack is an American alternative metal band from Lawrence, Massachusetts, formed in 1995. The band is composed of founder, frontman and songwriter Sully Erna, guitarist Tony Rombola, bassist Robbie Merrill, and drummer Shannon Larkin. Since its formation, Godsmack has released six studio albums, one EP, four DVDs, one compilation album, and one live album.&lt;/p&gt;\n\n&lt;p&gt;The band has had three consecutive number-one albums (Faceless, IV, and The Oracle) on the Billboard 200. The band also has 20 top ten rock radio hits, including 15 songs in the top five, a record number of top ten singles by a rock artist.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Motorhead', 'annotations': {'description': '&lt;p&gt;Motörhead was a heavy metal band (though they prefer to say they play “Rock and Roll” instead) that formed in London, England in 1975 and was fronted by vocalist/bassist Ian “Lemmy” Kilmister. They were considered one of the early pioneers of the New Wave of British Heavy Metal that started in the late 70s, and have left behind a massive legacy that’s spread across 40 years. They have gone through many lineup changes over the years, but their most remembered and “classic” lineup included Lemmy on vocals and bass, “Fast” Eddie Clarke on guitars, and Phil “Philthy Animal” Taylor on drums. Their signature song is &lt;a href="https://genius.com/Motorhead-ace-of-spades-lyrics" rel="noopener" data-api_path="/songs/72697"&gt;“Ace Of Spades”&lt;/a&gt; from the album of the same name.&lt;/p&gt;\n\n&lt;p&gt;On December 28, 2015, the band &lt;a href="https://www.facebook.com/OfficialMotorhead/posts/1107561019276205" rel="noopener nofollow"&gt;announced&lt;/a&gt; via their official Facebook page that Lemmy had passed away at the age of 70 after a short battle with an extremely aggressive cancer, all while in front of his favourite video game and surrounded by his family. The next day, drummer Mikkey Dee &lt;a href="http://www.expressen.se/noje/after-lemmys-death-motorhead-is-over/" rel="noopener nofollow"&gt;confirmed&lt;/a&gt; that the band has disbanded, but despite that, it still lives on in the hearts of many.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Gojira', 'annotations': {'description': '&lt;p&gt;Gojira is a technical/progressive death metal band from Ondres, France.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/5402a6f2a59dc0b33b1841022629c0f4.1000x562x1.jpg" alt="" width="1000" height="562" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Gojira is composed of Joe Duplantier on vocals and rhythm guitar, his brother Mario Duplantier on drums, Christian Andreu on lead guitar, and Jean-Michel Labadie on bass. However, Labadie has only been in the band since 2001; his predecessor was Alex Cornillon, who then became a theatre actor.&lt;/p&gt;\n\n&lt;p&gt;Common lyrical themes include the environment, spirituality, life &amp;amp; death, and biophilia. Although their early material was straight technical death metal, their sound has become slightly softer over time. Their 2016 album, &lt;em&gt;Magma&lt;/em&gt;, appears to have abandoned death entirely and transitioned to straight progressive metal.&lt;/p&gt;\n\n&lt;p&gt;The band was known as Godzilla until 2001, changing their name due to &lt;a href="http://www.thegauntlet.com/bio/1611/Gojira.html" rel="noopener nofollow"&gt;legal issues&lt;/a&gt; with &lt;a href="https://en.wikipedia.org/wiki/Godzilla" rel="noopener nofollow"&gt;the giant fictional monster of the same name&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Ghost', 'annotations': {'description': '&lt;p&gt;Ghost, formerly known as “Ghost B.C.” in the US until the release of &lt;a href="https://genius.com/albums/Ghost-bc/Meliora" rel="noopener" data-api_path="/albums/125769"&gt;&lt;em&gt;Meliora&lt;/em&gt;,&lt;/a&gt; is a Swedish metal band with psychedelic elements that harkens back to a more eerie period of metal, evoking the sound of bands like &lt;a href="https://genius.com/artists/Black-sabbath" rel="noopener" data-api_path="/artists/1121"&gt;Black Sabbath&lt;/a&gt; and &lt;a href="https://genius.com/artists/Blue-oyster-cult" rel="noopener" data-api_path="/artists/50622"&gt;Blue Öyster Cult.&lt;/a&gt; They won the &lt;a href="https://www.youtube.com/watch?v=TeRDSwEXw9g" rel="noopener nofollow"&gt;Grammy in 2016 for Best Metal Performance.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;They are well known for their occult-themed lyrics in their songs, as well as the way they portray themselves in a distantly tongue-in-cheek manner as a dark, sinister religious sect, commanded by the Emeritus bloodline.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f89030f2fbca7cb37e1ea5f650131e32.564x564x1.jpg" alt="" width="564" height="564" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(Papa Nihil, the oldest family member)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The band members retain a greater degree of anonymity, five of whom are known by name as, “Nameless Ghouls,” signing their names as the alchemical symbol they’ve each been assigned:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;&lt;a href="https://genius.com/15170631" rel="noopener" data-api_path="/referents/15170631"&gt;Fire (lead guitarist)&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/15170704" rel="noopener" data-api_path="/referents/15170704"&gt;Water (bassist)&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/15170799" rel="noopener" data-api_path="/referents/15170799"&gt;Air (keyboardist)&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/15170865" rel="noopener" data-api_path="/referents/15170865"&gt;Earth (drummer)&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/15170877" rel="noopener" data-api_path="/referents/15170877"&gt;Aether (rhythm guitarist)&lt;/a&gt;&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f1d4be754585c96f4d98598e080665f6.400x500x1.jpg" alt="" width="400" height="500" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;These symbols represented each of the band members until the launch of &lt;a href="https://genius.com/albums/Ghost/Prequelle" rel="noopener" data-api_path="/albums/419497"&gt;&lt;em&gt;Prequelle&lt;/em&gt;&lt;/a&gt; in 2018 where they &lt;a href="https://genius.com/15162012" rel="noopener" data-api_path="/referents/15162012"&gt;removed the alchemical symbols altogether.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;It is also noted that all songs are written by “A Ghoul Writer,” but it’s known that &lt;a href="https://genius.com/artists/Tobias-forge" rel="noopener" data-api_path="/artists/1055157"&gt;Tobias Forge&lt;/a&gt; writes the songs and only 2-3 members are part of the songwriting process.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;Papa Emeritus himself has changed appearances thrice and now, for &lt;a href="https://genius.com/albums/Ghost/Prequelle" rel="noopener" data-api_path="/albums/419497"&gt;&lt;em&gt;Prequelle&lt;/em&gt;&lt;/a&gt;, the lead singer is known by &lt;a href="https://genius.com/artists/Cardinal-copia" rel="noopener" data-api_path="/artists/1445918"&gt;Cardinal Copia&lt;/a&gt; (though the vocalist himself remains the same man).&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/c20bac9303bf832727bcc25bd1857fb5.550x497x1.jpg" alt="" width="550" height="497" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;&lt;a href="https://genius.com/artists/Papa-emeritus" rel="noopener" data-api_path="/artists/988633"&gt;(Papa Emeritus)&lt;/a&gt;&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;The first such instance occurred on 12/12/12, when Papa Emeritus introduced a younger man in a similar costume as Papa Emeritus II.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/af5346ca53692e7b8dff35ef7803dc04.640x640x1.jpg" alt="" width="640" height="640" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;&lt;a href="https://genius.com/artists/Papa-emeritus-ii" rel="noopener" data-api_path="/artists/745639"&gt;(Papa Emeritus II)&lt;/a&gt;&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;The second instance occurred on June 3rd, 2015, when an ad released by the band revealed that P.E. II had been ‘fired’ for not having opened any churches, toppled any governments, or converted any world leaders in his time as Papa Emeritus. &lt;a href="https://www.youtube.com/watch?v=D6Jo8f95RLY" rel="noopener nofollow"&gt;Papa Emeritus III was introduced as his younger brother.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/d79c02dcc32b9d22ab337635b6af0741.600x600x1.jpg" alt="" width="600" height="600" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;&lt;a href="https://genius.com/artists/Papa-emeritus-iii" rel="noopener" data-api_path="/artists/988634"&gt;(Papa Emeritus III)&lt;/a&gt;&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=QcIwc6pelic" rel="noopener nofollow"&gt;Papa Emeritus III was after kicked off by Papa Emeritus 0,&lt;/a&gt; known for being the oldest member of the family. After some months, for the band’s fourth album &lt;a href="https://genius.com/albums/Ghost/Prequelle" rel="noopener" data-api_path="/albums/419497"&gt;&lt;em&gt;Prequelle&lt;/em&gt;,&lt;/a&gt; &lt;a href="https://www.youtube.com/watch?v=e_74Ijj6EpY" rel="noopener nofollow"&gt;a new leader was announced, Cardinal Copia,&lt;/a&gt; the only lead singer that is formally not of the Emeritus’ bloodline (though he is suspected to be the bastard child of &lt;a href="https://genius.com/artists/Papa-nihil" rel="noopener" data-api_path="/artists/1549385"&gt;Papa Nihil&lt;/a&gt; and &lt;a href="https://genius.com/artists/Sister-imperator" rel="noopener" data-api_path="/artists/1948852"&gt;Sister Imperator&lt;/a&gt;).&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/4608fcab08b978063b8f610bf291a97e.1000x600x1.jpg" alt="" width="1000" height="600" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;&lt;a href="https://genius.com/artists/Cardinal-copia" rel="noopener" data-api_path="/artists/1445918"&gt;(Cardinal Copia)&lt;/a&gt;&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;In a ritual (concert) in Mexico in 2020, Papa Nihil was killed by the Ghouls and Cardinal Copia ascended to become Papa Emeritus IV.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://i.genius.com/29cbe63c828b896cc8041421283493741be326ee?url=https%3A%2F%2Fnextmosh.com%2Fwp-content%2Fuploads%2F2020%2F03%2FPapa-Emeritus-IV.jpg" alt=""&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(Papa Emeritus IV)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;Regarding the small change of name during a period form “Ghost” to “Ghost B.C.,” a Nameless Ghoul &lt;a href="https://www.westword.com/music/a-nameless-ghoul-from-ghost-bc-on-papa-emeritus-ii-being-too-evil-for-the-vatican-5699472" rel="noopener nofollow"&gt;said:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The “B.C.” is for “Because of Copyright” or “Before Coachella,” if you want. No, it’s just an amendment. We don’t call ourselves that. The name of the band is still Ghost. We are still referred to as Ghost. That’s what we are. We just put on the “B.C.” when we need to do that. It’s like saying, “Let’s go to the ‘Jack in the Box, LLC.’” You don’t do that.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': ['Ghost B.C.']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rammstein', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Rammstein&lt;/strong&gt; ist eine Band des Genres “Neue Deutsche Härte” aus Berlin, die 1994 gegründet wurde. Der Name der Band, ursprünglich Rammstein-Flugschau, bezieht sich auf das &lt;a href="https://de.wikipedia.org/wiki/Flugtagungl%C3%BCck_von_Ramstein" rel="noopener nofollow"&gt;Flugtagunglück von Ramstein.&lt;/a&gt; Die Band nannte sich später nur noch “Rammstein” und bestritt jede Verbindung mit der Airshow-Katastrophe. Der Begriff Rammstein bedeutet wörtlich Rammbock aus Stein. Die Band behauptet, der Name beziehe sich auf Rammsteine, die türstopperähnliche Geräte sind, die an alten Toren zu finden sind.&lt;/p&gt;\n\n&lt;p&gt;Seit ihrer Gründung im Jahr 1994, hatte Rammstein keine Änderungen in ihrer Bandbesetzung und keine Mitglieder haben die Band verlassen.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;Rammstein&lt;/strong&gt; is a Neue Deutsche Härte band from Berlin, Germany formed in 1994. Their name, originally &lt;em&gt;Rammstein-Flugschau&lt;/em&gt;, literally translating to “Rammstein Airshow,” presumably refers to the &lt;a href="https://en.wikipedia.org/wiki/Ramstein_air_show_disaster" rel="noopener nofollow"&gt;Ramstein air show disaster of 1988.&lt;/a&gt; The band later left it at just &lt;em&gt;Rammstein&lt;/em&gt; and denied any association with the airshow disaster. The term, &lt;em&gt;Rammstein&lt;/em&gt; literally means a battering ram made of stone. The band claims the name refers to &lt;em&gt;Rammsteine&lt;/em&gt; which are doorstop-like devices found on old gates.&lt;/p&gt;\n\n&lt;p&gt;Since their formation in 1994, Rammstein has had no changes in their band line-up, nor have any members left the band.&lt;/p&gt;\n\n&lt;p&gt;Studio albums released:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/albums/Rammstein/Herzeleid" rel="noopener" data-api_path="/albums/16148"&gt;&lt;em&gt;Herzeleid (Heartache)&lt;/em&gt;&lt;/a&gt; (1995)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/albums/Rammstein/Sehnsucht" rel="noopener" data-api_path="/albums/14287"&gt;&lt;em&gt;Sehnsucht (Longing)&lt;/em&gt;&lt;/a&gt; (1997)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/albums/Rammstein/Mutter" rel="noopener" data-api_path="/albums/14598"&gt;&lt;em&gt;Mutter (Mother)&lt;/em&gt;&lt;/a&gt; (2001)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/albums/Rammstein/Reise-reise" rel="noopener" data-api_path="/albums/14837"&gt;&lt;em&gt;Reise, Reise (Travel, Travel)&lt;/em&gt;&lt;/a&gt; (2004)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/albums/Rammstein/Rosenrot" rel="noopener" data-api_path="/albums/16145"&gt;&lt;em&gt;Rosenrot (Rose Red)&lt;/em&gt;&lt;/a&gt; (2005)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/albums/Rammstein/Liebe-ist-fur-alle-da" rel="noopener" data-api_path="/albums/14013"&gt;&lt;em&gt;Liebe ist für alle da (Love is for everyone)&lt;/em&gt;&lt;/a&gt; (2009)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/albums/Rammstein/rammstein" rel="noopener" data-api_path="/albums/516241"&gt;&lt;em&gt;RAMMSTEIN&lt;/em&gt;&lt;/a&gt; &lt;em&gt;(2019)&lt;/em&gt;\n&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;Band members:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Till-lindemann" rel="noopener" data-api_path="/artists/338482"&gt;Till Lindemann&lt;/a&gt; (lead vocals)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Richard-z-kruspe" rel="noopener" data-api_path="/artists/685005"&gt;Richard Z. Kruspe&lt;/a&gt; (lead guitar and backing vocals)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Paul-landers" rel="noopener" data-api_path="/artists/685006"&gt;Paul Landers&lt;/a&gt; (rhythm guitar, backing vocals)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Oliver-Riedel" rel="noopener" data-api_path="/artists/685008"&gt;Oliver “Ollie” Riedel&lt;/a&gt; (bass guitar)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Christoph-Schneider" rel="noopener" data-api_path="/artists/689508"&gt;Christoph “Doom” Schneider&lt;/a&gt; (drums and electronicpercussion)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Christian-Lorenz" rel="noopener" data-api_path="/artists/689509"&gt;Christian “Flake” Lorenz&lt;/a&gt; (keyboards)&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': ['Rammstein-Flugschau']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Mudvayne', 'annotations': {'description': '&lt;p&gt;Heavy metal quartet Mudvayne formed in Peoria, IL, in 1996, its members adopting the unusual pseudonyms sPaG (M. McDonough) (drums), Gurrg (G. Tribbett) (guitar), and Kud (Chad Gray) (vocals). The group’s original bassist was replaced after two years by Ryknow (Ryan Martinie). During their development, the bandmembers began the practice of applying bizarre makeup. After self-releasing their first album, Kill, I Oughta, they were signed by Epic Records and recorded their major-label debut, L.D. 50, which was released in August 2000 shortly after the end of their first national tour opening for Slipknot.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Deftones', 'annotations': {'description': '&lt;p&gt;Deftones is an American rock band formed in Sacramento, California in 1988. Originally a part of the “nu-metal” scene of the mid-90s, starting with their 2000 album &lt;a href="https://genius.com/albums/Deftones/White-pony" rel="noopener" data-api_path="/albums/20963"&gt;&lt;em&gt;White Pony&lt;/em&gt;&lt;/a&gt;, they began incorporating a wide variety of styles into their sound, including shoegaze, trip-hop, and post-rock. The band currently consists of vocalist and guitarist &lt;a href="https://genius.com/artists/chino-moreno" rel="noopener" data-api_path="/artists/59009"&gt;Chino Moreno&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/stephen-carpenter" rel="noopener" data-api_path="/artists/656821"&gt;Stephen Carpenter&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/sergio-vega" rel="noopener" data-api_path="/artists/363241"&gt;Sergio Vega&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/abe-cunningham" rel="noopener" data-api_path="/artists/656822"&gt;Abe Cunningham&lt;/a&gt;, and keyboardist and turntablist &lt;a href="https://genius.com/artists/frank-delgado" rel="noopener" data-api_path="/artists/363970"&gt;Frank Delgado&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Hatebreed', 'annotations': {'description': '&lt;p&gt;&lt;b&gt;Hatebreed&lt;/b&gt; is an American metalcore band from Bridgeport, Connecticut, formed in 1994. Their musical style blends influences from hardcore punk and heavy metal; a prominent band within the hardcore scene, they are also considered a part of the metal scene.&lt;/p&gt;\n\n&lt;h1&gt;Current members:&lt;/h1&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Jasta" rel="noopener" data-api_path="/artists/405207"&gt;Jamey Jasta&lt;/a&gt; – lead vocals&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Chris-the-xmas-bitch-beattie" rel="noopener" data-api_path="/artists/1658396"&gt;Chris Beattie&lt;/a&gt; – bass&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Matt-byrne" rel="noopener" data-api_path="/artists/1658434"&gt;Matt Byrne&lt;/a&gt; – drums&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Frank-novinec" rel="noopener" data-api_path="/artists/2369252"&gt;Frank Novinec&lt;/a&gt; – rhythm guitar, backing vocals&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Wayne-lozinak" rel="noopener" data-api_path="/artists/1132458"&gt;Wayne Lozinak&lt;/a&gt; – lead guitar, backing vocals&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;h1&gt;Former members:&lt;/h1&gt;\n\n&lt;ul&gt;\n&lt;li&gt;Larry Dwyer, Jr. – rhythm guitar, backing vocals (1994–1996)&lt;/li&gt;\n&lt;li&gt;Dave Russo – drums (1994–1996)&lt;/li&gt;\n&lt;li&gt;Nick “Nickel P” Papantoniou – drums (1996–1997)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Matt-mcintosh" rel="noopener" data-api_path="/artists/364285"&gt;Matt McIntosh&lt;/a&gt; – lead guitar, backing vocals (1996–1999)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Jamie-pushbutton-muckinhaupt" rel="noopener" data-api_path="/artists/1658418"&gt;Jamie “Pushbutton” Muckinhaupt&lt;/a&gt; – drums (1997–1999)&lt;/li&gt;\n&lt;li&gt;Rigg Ross – drums (1999–2001)&lt;/li&gt;\n&lt;li&gt;Lou Richards – rhythm guitar, backing vocals (1996–2002; died 2006)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Sean-martin" rel="noopener" data-api_path="/artists/42889"&gt;Sean Martin&lt;/a&gt; – lead guitar, backing vocals (1999–2009)&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Mastodon', 'annotations': {'description': '&lt;p&gt;An American sludge metal and alternative metal band based out of Atlanta, Georgia. Founded in 2000 after its members — bassist/singer Troy Sanders, lead guitarist/singer Brent Hinds, rhythm guitarist Bill Kelliher and drummer/singer Brann Dailor — met at a &lt;a href="https://genius.com/artists/High-on-fire" rel="noopener" data-api_path="/artists/344638"&gt;High on Fire&lt;/a&gt; concert. Known for sludge metal with a progressive element that also is accessible, Mastodon rose to popularity behind three successive concept records during the 2000s. In the 2010s, the band found itself cleaning up its vocals and production while still trying to retain some of its former gusto.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/e9f75daf6a4c6cf14eb210d93a26dcd3.720x477x1.jpg" alt="" width="720" height="477" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Marilyn-manson', 'annotations': {'description': '&lt;p&gt;Brian Hugh Warner who is better known under his stage name of &lt;strong&gt;Marilyn Manson&lt;/strong&gt; is a musician, painter, actor, multimedia artist, and former music journalist. His stage name is a combination of the names of two American icons, actress &lt;a href="https://genius.com/artists/Marilyn-monroe" rel="noopener" data-api_path="/artists/1949"&gt;Marilyn Monroe&lt;/a&gt; and multiple murder conspiracy convict &lt;a href="https://genius.com/artists/Charles-manson" rel="noopener" data-api_path="/artists/25277"&gt;Charles Manson&lt;/a&gt;.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I picked that (Marilyn Manson) as the fakest stage name of all to say that this is what show business is, fake. Marilyn Monroe wasn’t even her real name, Charles Manson isn’t his real name, and now, I’m taking that to be my real name. But what’s real? You can’t find the truth, you just pick the lie you like the best. As long as you know everything’s a lie, you can’t hurt yourself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—&lt;a href="http://hollywoodlife.com/celeb/marilyn-manson/" rel="noopener nofollow"&gt;Marylin Manson&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Marilyn Manson is also the name of his rock band, originally “Marilyn Manson and the Spooky Kids”, where everyone had the same naming convention as the singer:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Twiggy-ramirez" rel="noopener" data-api_path="/artists/1099065"&gt;Twiggy Ramirez&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://genius.com/artists/Twiggy" rel="noopener" data-api_path="/artists/19553"&gt;Twiggy&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Richard_Ramirez" rel="noopener nofollow"&gt;Richard Ramirez&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Madonna-wayne-gacy" rel="noopener" data-api_path="/artists/649881"&gt;Madonna Wayne Gacy&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://genius.com/artists/Madonna" rel="noopener" data-api_path="/artists/276"&gt;Madonna&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/John_Wayne_Gacy" rel="noopener nofollow"&gt;John Wayne Gacy&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Ginger-fish" rel="noopener" data-api_path="/artists/649880"&gt;Ginger Fish&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://genius.com/artists/Fred-astaire-and-ginger-rogers" rel="noopener" data-api_path="/artists/382665"&gt;Ginger Roberts&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Albert_Fish" rel="noopener nofollow"&gt;Albert FIsh&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Daisy-berkowitz" rel="noopener" data-api_path="/artists/404173"&gt;Daisy Berkowitz&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Daisy_Duke" rel="noopener nofollow"&gt;Daisy Duke&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/David_Berkowitz" rel="noopener nofollow"&gt;David “Son of Sam” Berkowitz&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Gidget-gein" rel="noopener" data-api_path="/artists/526358"&gt;Gidget Gein&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Gidget" rel="noopener nofollow"&gt;Gidget&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Ed_Gein" rel="noopener nofollow"&gt;Ed Gein&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Sara-lee-lucas" rel="noopener" data-api_path="/artists/491172"&gt;Sara Lee Lucas&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Sara_Lee_Corporation" rel="noopener nofollow"&gt;Sara Lee&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Henry_Lee_Lucas" rel="noopener nofollow"&gt;Henry Lee Lucas&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;Plus &lt;a href="https://genius.com/artists/Olivia-newton-john" rel="noopener" data-api_path="/artists/281740"&gt;Olivia Newton&lt;/a&gt;, &lt;a href="https://en.wikipedia.org/wiki/Ted_Bundy" rel="noopener nofollow"&gt;Bundy&lt;/a&gt; and &lt;a href="https://genius.com/artists/Zsa-zsa-gabor" rel="noopener" data-api_path="/artists/14183"&gt;Zsa Zsa&lt;/a&gt; &lt;a href="https://en.wikipedia.org/wiki/Richard_Speck" rel="noopener nofollow"&gt;Speck&lt;/a&gt;, who left early in the band.&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': ['Brian H. Warner', 'Brian Hugh Warner', 'Brian Warner']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Killswitch-engage', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.allmusic.com/artist/killswitch-engage-mn0000771792/biography" rel="noopener nofollow"&gt;Killswitch Engage&lt;/a&gt; formed in 1999, in Westfield, Massachusetts, after the disbanding of the two bands &lt;a href="https://genius.com/artists/Overcast" rel="noopener" data-api_path="/artists/368028"&gt;Overcast&lt;/a&gt; and &lt;a href="https://genius.com/artists/Aftershock" rel="noopener" data-api_path="/artists/349564"&gt;Aftershock&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 1998 when Overcast split, D\'Antonio started his search to find the right people to fuse hardcore and metal with melody.&lt;br&gt;\nD\'Antonio got in contact with Adam Dutkiewicz, and Joel Stroetzel, the drummer respectively guitarist for Aftershock. The band was completed when Jesse Leach, vocalist for Corrin and Nothing Stays Gold joined.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://m.axs.com/5-interesting-facts-about-killswitch-engage-46963" rel="noopener nofollow"&gt;The band’s name&lt;/a&gt; comes from an episode of the television series &lt;em&gt;The X-Files&lt;/em&gt; entitled “Kill Switch”.&lt;/p&gt;\n\n&lt;p&gt;After the release of their debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Killswitch-engage/Alive-or-just-breathing" rel="noopener" data-api_path="/albums/54976"&gt;Alive Or Just Breathing&lt;/a&gt;&lt;/em&gt; and the following tour, in 2002 – &lt;a href="https://web.archive.org/web/20071225194310/http://www.roadrunnerrecords.com/blabbermouth.net/news.aspx?mode=Article&amp;amp;newsitemID=4557" rel="noopener nofollow"&gt;Jesse Leach quit Killswitch Engage&lt;/a&gt; due to struggles with straining his voice combined with being a newly-wed, with his wife missing him.&lt;br&gt;\nLeach was soon replaced by &lt;a href="https://genius.com/artists/Howard-jones-rock" rel="noopener" data-api_path="/artists/1157271"&gt;Howard Jones&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After nine years of service and taking the band to fame, &lt;a href="https://web.archive.org/web/20120108163920/http://www.metalhammer.co.uk/top-posts/howard-jones-leaves-killswitch-engage" rel="noopener nofollow"&gt;Howard quit the band in 2012&lt;/a&gt;. &lt;a href="https://www.ultimate-guitar.com/news/general_music_news/howard_jones_explains_killswitch_engage_departure.html?no_takeover" rel="noopener nofollow"&gt;He later stated&lt;/a&gt; it was due to the heretic lifestyle in combination with his diabetes.&lt;/p&gt;\n\n&lt;p&gt;To replace Howard, the band held auditions for a new vocalist. They had a lot of applicants at try-outs, &lt;a href="http://www.radiometal.com/article/killswitch-engage-jesse-leachs-return-as-seen-by-adam-dutkiewicz,103989" rel="noopener nofollow"&gt;but they wound choosing their former vocalist – Jesse Leach&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Trivium', 'annotations': {'description': '&lt;p&gt;Trivium is an American Heavy Metal band founded in Orlando, Florida. They released their first album, &lt;em&gt;Ember To Inferno&lt;/em&gt;, on Lifeforce Records before being signed by Roadrunner Records. The band has released a total of 9 studio albums and over 20 singles. Their latest album, &lt;i&gt;What the Dead Men Say&lt;/i&gt;, was released on April 24, 2020. The band has sold over one million albums worldwide.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Drowning-pool', 'annotations': {'description': '&lt;p&gt;Drowning Pool is an American metal band named after the movie of the same name. They’ve released six albums and are mostly known for their song ‘Bodies’.&lt;/p&gt;', 'alternate_names': []}}</t>
+    <t>Lauren Bennett</t>
+  </si>
+  <si>
+    <t>Marshmello</t>
+  </si>
+  <si>
+    <t>Spice Girls</t>
+  </si>
+  <si>
+    <t>Traveling Wilburys</t>
+  </si>
+  <si>
+    <t>Of Monsters and Men</t>
+  </si>
+  <si>
+    <t>Men Without Hats</t>
+  </si>
+  <si>
+    <t>Matthew Wilder</t>
+  </si>
+  <si>
+    <t>Vampire Weekend</t>
+  </si>
+  <si>
+    <t>Gin Blossoms</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/50-cent', 'annotations': {'description': '&lt;p&gt;Curtis James Jackson III (born July 6, 1975), better known by his stage name &lt;strong&gt;50 Cent&lt;/strong&gt;, is an American rapper, entrepreneur, investor, record producer, and actor.&lt;/p&gt;\n\n&lt;p&gt;After recording a never-released album with Columbia, 50 got on his grind and rose to fame via a string of well-received mixtapes, thus setting the template for rap stardom in the modern era.&lt;/p&gt;\n\n&lt;p&gt;50’s crowning success came in 2003 with the release of the album &lt;em&gt;Get Rich or Die Tryin\'&lt;/em&gt; which sold 872,000 copies in four days and was certified 8x platinum by the RIAA. Since that monster hit, he has continued to make music while also delving into movies, sports drinks, video games, mass charity campaigns, and more.&lt;/p&gt;\n\n&lt;p&gt;The moniker 50 Cent might seem like an unusual, downright humble name for a rapper, but it has nothing to do with the cash in Jackson’s pocket. He adopted the name after his criminal past as a drug dealer and a subsequent conviction. Trying to better himself, he saw “50 Cent” &lt;a href="https://www.vanityfair.com/hollywood/2013/03/50-cent-bullet-shrapnel-tongue" rel="noopener nofollow"&gt;as a metaphor for &lt;em&gt;change&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Curtis James Jackson III', "Curtis '50 Cent' Jackson", 'Curtis Jackson']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Stone-sour', 'annotations': {'description': '&lt;p&gt;Stone Sour is an American rock band formed in Des Moines, Iowa in 1992.&lt;/p&gt;\n\n&lt;p&gt;Stone Sour earned the group two Grammy Award nominations, both for Best Metal Performance, for the singles “Get Inside”, in 2003, and “Inhale”, in 2004. The album went on to become RIAA certified Gold.&lt;/p&gt;\n\n&lt;p&gt;In 2006, following the release of &lt;em&gt;Come What(ever) May&lt;/em&gt;, the group received another Grammy Award nomination for Best Metal Performance for the single “30/30-150”.&lt;/p&gt;\n\n&lt;p&gt;Stone Sour has sold over four million albums worldwide.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Robert-miles', 'annotations': {'description': '&lt;p&gt;Roberto Concina (born November, 3, 1969 and dead May, 9 2017,, or as he is better known, Robert Miles, was an electronica and house producer who rose to fame in 1996 for his smash hit debut album Dreamland which peaked at #2 on the Swiss charts and sold platinum in nearly half a dozen countries. He is best known for the internationally renowned #1 hit “Children.”&lt;/p&gt;', 'alternate_names': ['Roberto Concina']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Simple-plan', 'annotations': {'description': '&lt;p&gt;Simple Plan, the multi-platinum, Montreal-based band boasts worldwide sales topping 10 million\xa0and have accumulated over 1 billion streams across all streaming platforms\xa0.\xa0They’ve received numerous awards including\xa0Teen Choice Award, JUNO Fan Choice Award, Allan Slaight Humanitarian Spirit Award, NRJ award, Allan Waters Humanitarian Award,\xa0among others.\xa0The band has collaborated with many multi-platinum artists Mark Hoppus (Blink-182), Rivers Cuomo (Weezer), Sean Paul and Natasha Bedingfield, among others.\xa0The band has played in over 55 countries, including Israel, Indonesia, China, Peru, India, the United Arab Emirates and Russia.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Gnarls-barkley', 'annotations': {'description': '&lt;p&gt;Gnarls Barkley is the soul-music duo consisting of producer &lt;a href="https://genius.com/artists/Danger-mouse" rel="noopener" data-api_path="/artists/8957"&gt;Danger Mouse&lt;/a&gt; and singer &lt;a href="https://genius.com/artists/Cee-lo-green" rel="noopener" data-api_path="/artists/4413"&gt;Cee-Lo Green&lt;/a&gt;, having released two studio albums together before moving into a long period of inactivity, beginning in 2008 despite recent rumors of new record releases.&lt;/p&gt;\n\n&lt;p&gt;Wielding a name that literally comes from a parody of NBA superstar Charles Barkley’s name, Gnarls Barkley is a sonic and lyrical tour-de-force, often cryptically elaborating on Green’s complex, neurotic conscience over expertly crafted beats from Danger Mouse. Originally rising to prominence with massive hit &lt;a href="https://genius.com/Gnarls-barkley-crazy-lyrics" rel="noopener" data-api_path="/songs/21248"&gt;“Crazy”&lt;/a&gt;, Gnarls Barkley made a name for itself in the late 00s alternative/soul scene. Gnarls Barkley’s typically equipped with a glossy, eerie set of production values and equally evocative lyrics, and it pays off. The duo has successfully pirouetted on thicker subjects like &lt;a href="https://genius.com/1637528" rel="noopener" data-api_path="/referents/1637528"&gt;materialism&lt;/a&gt;, &lt;a href="https://genius.com/Gnarls-barkley-surprise-lyrics" rel="noopener" data-api_path="/songs/21243"&gt;loneliness&lt;/a&gt;, &lt;a href="https://genius.com/8699602" rel="noopener" data-api_path="/referents/8699602"&gt;schizophrenic behavior&lt;/a&gt; and &lt;a href="https://genius.com/1637488" rel="noopener" data-api_path="/referents/1637488"&gt;glorification&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Impressionable, and highly nuanced, Gnarls Barkley is certainly a soul act for the ages – contemplative and very, very honest.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Fine-young-cannibals', 'annotations': {'description': '&lt;p&gt;Their name came from the 1960 film &lt;em&gt;All the Fine Young Cannibals&lt;/em&gt;&lt;/p&gt;', 'alternate_names': ['A Drum Machine and a Trumpet', 'Two Men']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Justin-timberlake', 'annotations': {'description': '&lt;p&gt;Justin Randall Timberlake (born January 31, 1981) is an American singer, songwriter, and actor. Born in Memphis, Tennessee, he appeared on the television shows &lt;em&gt;Star Search&lt;/em&gt; and &lt;em&gt;The All-New Mickey Mouse Club&lt;/em&gt; as a child. In the late 1990s, Timberlake rose to prominence as one of the two lead vocalists and youngest member of the boy band &lt;a href="https://genius.com/artists/N-sync" rel="noopener" data-api_path="/artists/8625"&gt;NSYNC&lt;/a&gt;, which eventually became one of the best-selling boy bands of all time.&lt;/p&gt;\n\n&lt;p&gt;In 2002, Timberlake released his solo debut, &lt;em&gt;Justified,&lt;/em&gt; with some help from The Neptunes and Timbaland on production. Timbaland and Timberlake would continue their collaboration on 2006’s &lt;em&gt;FutueSex/LoveSounds&lt;/em&gt;, on which Timbaland produced all but two tracks.&lt;/p&gt;', 'alternate_names': ['Justin Randall', 'Justin R. Timberlake', 'Justin Randall Timberlake']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Orchestral-manoeuvres-in-the-dark', 'annotations': {'description': '&lt;p&gt;Orchestral Manoeuvres in the Dark began as a synth-pop duo in Merseyside, England. Paul Humphreys and Andy McCluskey played together in The Id before joining forces as Orchestral Manoeuvres.&lt;/p&gt;', 'alternate_names': ['OMD']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Camouflage', 'annotations': {'description': '&lt;p&gt;Camouflage is a German synth-pop trio consisting of lead singer Marcus Meyn, Heiko Maile and Oliver Kreyssig.&lt;br&gt;\nTheir only Billboard Hot 100 hit was “The Great Commandment”, which earned No. 59 place in 1988, and earned three weeks at No. 1 on the US dance chart. They also had two additional minor dance hits in 1989 out which “Love Is A Shield reached No. 9 on the German chart. They were included in the music compilation listing ‘Tucker Rock’ in December of 2018. This honor was validated by the band’s listing on the Pandora Station by the same name.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Desireless', 'annotations': {'description': '&lt;p&gt;Claudie Fritsch-Mentrop, known by her stage name Desireless (born 25 December 1952, Paris, France), is a French singer. Between 1986 and 1988, her hit single “Voyage, voyage” made it to number one in many European and Asian single charts and sold over five million copies.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Oliver-tree', 'annotations': {'description': '&lt;p&gt;Oliver Tree Nickell (Born June 29, 1993) is a vocalist, producer, and prolific scooter rider hailing from Santa Cruz, California. On March 27, 2016, Oliver released a video on Vine, entitled, &lt;a href="https://youtu.be/_hhAd8C4SvY" rel="noopener nofollow"&gt;“I’m Turbo”&lt;/a&gt;, which was the first appearance of his persona, Turbo.&lt;/p&gt;\n\n&lt;p&gt;He released music under the name Tree before “When I’m Down”, his upbeat dance song with collaborator Whethan went viral, leading him to sign with Atlantic Records in 2017.&lt;/p&gt;\n\n&lt;p&gt;The genre-defying &lt;a href="https://genius.com/albums/Oliver-tree/Alien-boy-ep" rel="noopener" data-api_path="/albums/403753"&gt;&lt;i&gt;Alien Boy&lt;/i&gt;&lt;/a&gt; EP, the world’s first glimpse at Oliver’s potential, followed the next year and earned tens of millions of streams. Known for his big-budget music videos and the comedic clips posted on his social media, Oliver joined The Chainsmokers on select dates of their tour and played many festivals while attracting attention to his unique and unorthodox fashion sense.&lt;/p&gt;\n\n&lt;p&gt;The Huffington Post described Oliver as “an enigma of genre. While (Oliver is) primarily a pianist, guitarist, and producer, his real-instruments-based-production incorporates rap, male and female vocal harmonies, poetic lyrics, strings and a hearty dose of synth…”&lt;/p&gt;\n\n&lt;p&gt;Oliver’s debut album, &lt;a href="https://genius.com/albums/Oliver-tree/Ugly-is-beautiful" rel="noopener" data-api_path="/albums/487099"&gt;&lt;i&gt;Ugly is Beautiful&lt;/i&gt;&lt;/a&gt;, released July 17th, to astonishing fanfare, reaching top 3 on the iTunes charts within 24 hours of it being released.&lt;/p&gt;\n\n&lt;p&gt;Oliver followed up the release of Ugly is Beautiful almost a year later with a Deluxe edition of the album that released on May 28th, 2021.&lt;/p&gt;', 'alternate_names': ['Tree', 'Oliver Tree Nickell']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Big-ali', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Billie-eilish', 'annotations': {'description': '&lt;p&gt;Billie Eilish Pirate Baird O\'Connell (b. December 18, 2001), known professionally as Billie Eilish, is an American singer and songwriter born and raised in Los Angeles, California.&lt;/p&gt;\n\n&lt;p&gt;Working alongside her older brother &lt;a href="https://genius.com/artists/Finneas" rel="noopener" data-api_path="/artists/615565"&gt;Finneas&lt;/a&gt;, her co-writer and producer, she’s taken the internet by storm with her haunting vocals and eerily beautiful lyrics and genre-defying production that was poised to breakout.&lt;/p&gt;\n\n&lt;p&gt;For Billie, creating music wasn’t always her niche—dancing was. Born and raised in the entertainment mecca of Los Angeles, from a family comprised of musicians and actors, Billie was enthralled in the spotlight of dance. However, amid a &lt;a href="https://www.interviewmagazine.com/music/discovery-billie-eilish" rel="noopener nofollow"&gt;growth plate injury in 2015&lt;/a&gt;, she was in practice for a recital dancing eleven hours a week for, she became an underground pop sensation.&lt;/p&gt;\n\n&lt;p&gt;Singing and songwriting had never been unknown to Billie, having &lt;a href="http://www.bbc.com/news/entertainment-arts-40580489" rel="noopener nofollow"&gt;written her first song at four and joined the Los Angeles Children’s Choir at eight&lt;/a&gt;. &lt;a href="https://www.harpersbazaar.com/culture/art-books-music/a13040159/billie-eilish-interview/" rel="noopener nofollow"&gt;So when her dance instructor was looking for a song to choreograph&lt;/a&gt;, Billie, with help from Finneas, created &lt;a href="https://genius.com/Billie-eilish-ocean-eyes-lyrics" rel="noopener" data-api_path="/songs/2403346"&gt;“ocean eyes.”&lt;/a&gt; The two also agreed to upload it to SoundCloud, where it went viral with over two million streams, landing her a record deal with Interscope.&lt;/p&gt;\n\n&lt;p&gt;From there, &lt;a href="https://open.spotify.com/artist/6qqNVTkY8uBg9cP3Jd7DAH" rel="noopener nofollow"&gt;several remixes spawned and a follow-up single&lt;/a&gt; &lt;a href="https://genius.com/Billie-eilish-six-feet-under-lyrics" rel="noopener" data-api_path="/songs/2800298"&gt;“Six Feet Under”&lt;/a&gt; &lt;a href="https://open.spotify.com/artist/6qqNVTkY8uBg9cP3Jd7DAH" rel="noopener nofollow"&gt;was released the following year.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In 2017, she released her debut EP, &lt;a href="https://genius.com/albums/Billie-eilish/Dont-smile-at-me-ep" rel="noopener" data-api_path="/albums/353310"&gt;&lt;i&gt;dont smile at me&lt;/i&gt;&lt;/a&gt;, which received mainstream applause and landed her a spot on Apple Music’s showcase for upcoming artists, &lt;a href="https://itunes.apple.com/us/show/up-next-billie-eilish/1271486673" rel="noopener nofollow"&gt;&lt;i&gt;UpNext&lt;/i&gt;.&lt;/a&gt; The EP also hit the top 40 on the &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8467303/billboard-200-chart-moves-billie-eilishs-dont-smile-at-me-top-40" rel="noopener nofollow"&gt;&lt;i&gt;Billboard 200&lt;/i&gt;&lt;/a&gt; on July 19th.&lt;/p&gt;\n\n&lt;p&gt;On March 29th, 2019, Billie Eilish released her highly anticipated debut album, &lt;a href="https://genius.com/albums/Billie-eilish/When-we-all-fall-asleep-where-do-we-go" rel="noopener" data-api_path="/albums/418893"&gt;&lt;em&gt;WHEN WE ALL FALL ASLEEP, WHERE DO WE GO?&lt;/em&gt;&lt;/a&gt; — a record centered around Eilish’s fascination with dreams and nightmares. Two weeks before its release, the album was officially &lt;a href="https://www.macrumors.com/2019/03/22/billie-eilish-breaks-record-pre-adding/" rel="noopener nofollow"&gt;given the title&lt;/a&gt; of “most pre-saved album of all time on Apple Music,” with over 800,000 to its name.&lt;/p&gt;\n\n&lt;p&gt;In 2020, Billie Eilish was nominated for 6 categories for the &lt;a href="https://www.grammy.com/grammys/news/2020-grammy-awards-nominations-complete-winners-list" rel="noopener nofollow"&gt;62nd Grammy Awards&lt;/a&gt; ceremony, alongside with her brother Finneas. She was nominated in the five main categories (“Album of the Year”, “Best New Artist”, “Best Pop Solo Performance”, “Song of the Year”, Record of the Year") and “Best Pop Vocal Album”. Finneas was nominated in “Producer of the Year – non classical” and he won. Eilish won 5 Grammys in the 62nd ceremony: Album of the Year (“WHEN WE ALL FALL ASLEEP, WHERE DO WE GO ?”), Song of the Year (“bad guy”), Record of the Year (“bad guy”), Best New Artist and Best Pop Vocal Album (“WHEN WE ALL FALL ASLEEP, WHERE DO WE GO ?).&lt;/p&gt;\n\n&lt;p&gt;In 2021, Billie and Finneas also won in the &lt;a href="https://www.grammy.com/grammys/news/2021-grammys-complete-winners-nominees-list" rel="noopener nofollow"&gt;63rd Grammy Awards&lt;/a&gt; with two categories: Best Song Written for a Visual Media (“&lt;a href="https://genius.com/Billie-eilish-no-time-to-die-lyrics" rel="noopener" data-api_path="/songs/5173169"&gt;No Time To Die&lt;/a&gt;”, for the last James Bond movie) and Record of the Year (“&lt;a href="https://genius.com/Billie-eilish-everything-i-wanted-lyrics" rel="noopener" data-api_path="/songs/5013279"&gt;everything i wanted&lt;/a&gt;”, released in 2019).&lt;/p&gt;\n\n&lt;p&gt;On April 26, 2021, Billie Eilish &lt;a href="https://twitter.com/billieeilish/status/1386711797906898946" rel="noopener nofollow"&gt;teased&lt;/a&gt; the album’s title track, &lt;a href="https://genius.com/Billie-eilish-happier-than-ever-lyrics" rel="noopener" data-api_path="/songs/6533253"&gt;&lt;em&gt;Happier Than Ever.&lt;/em&gt;&lt;/a&gt; Shortly after, &lt;a href="https://twitter.com/kelsucker/status/1387018534337843200" rel="noopener nofollow"&gt;billboards&lt;/a&gt; appeared in different locations that revealed the album’s title and release date of July 30, 2021, and an &lt;a href="https://www.instagram.com/p/COLIii2FB_R/?utm_source=ig_web_copy_link" rel="noopener nofollow"&gt;Instagram post&lt;/a&gt; from April 27 revealed the album’s cover artwork and announced the release of a new single on April 29, 2021. Eilish &lt;a href="https://www.musictimes.com/articles/82556/20210730/billie-eilish-breaks-record-happier-listen.htm" rel="noopener nofollow"&gt;broke her previous record&lt;/a&gt; for the most pre-saved album with a whopping 1,028,000 pre-saves for &lt;em&gt;Happier Than Ever.&lt;/em&gt;&lt;/p&gt;', 'alternate_names': ["Billie Eilish O'Connell", "Billie O'Connell", "Billie Eilish Pirate Baird O'Connell"]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kanye-west', 'annotations': {'description': '&lt;p&gt;The ubiquitous &lt;a href="https://www.kanyewest.com/" rel="noopener nofollow"&gt;Kanye West&lt;/a&gt;—from his famous quip, &lt;a href="http://www.youtube.com/watch?v=zIUzLpO1kxI" rel="noopener nofollow"&gt;“George Bush doesn’t care about black people,”&lt;/a&gt; to &lt;a href="http://www.youtube.com/watch?v=1z8gCZ7zpsQ#t=43" rel="noopener nofollow"&gt;“I\'ma let you finish,”&lt;/a&gt; to marrying &lt;a href="https://genius.com/artists/Kim-kardashian" rel="noopener" data-api_path="/artists/55920"&gt;Kim Kardashian&lt;/a&gt; (and later divorcing her), to announcing that he’s &lt;a href="http://www.cnn.com/2015/08/31/politics/kanye-west-2020-running-for-president-vma/" rel="noopener nofollow"&gt;running for President&lt;/a&gt;, and admitting his &lt;a href="https://twitter.com/kanyewest/status/989179757651574784" rel="noopener nofollow"&gt;love for President Trump&lt;/a&gt;—you can see that he’s a staple of the tabloids and the entertainment world, industry-wide.&lt;/p&gt;\n\n&lt;p&gt;That certainly doesn’t take anything away from his music; as a matter of fact, it only seems to add to his fortuitous career. For instance, his 2010 album, &lt;a href="https://genius.com/albums/Kanye-west/My-beautiful-dark-twisted-fantasy" rel="noopener" data-api_path="/albums/4343"&gt;&lt;em&gt;My Beautiful Dark Twisted Fantasy&lt;/em&gt;&lt;/a&gt;, was universally praised by fans and critics alike; it was recorded during the backlash he received from the Swift interruption and during his break-up with then-girlfriend &lt;a href="https://genius.com/artists/Amber-rose" rel="noopener" data-api_path="/artists/16391"&gt;Amber Rose&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He has scored other well-known hits, as well, from each of his previous studio albums—such as &lt;a href="https://genius.com/Kanye-west-stronger-lyrics" rel="noopener" data-api_path="/songs/525"&gt;“Stronger,”&lt;/a&gt; &lt;a href="https://genius.com/Kanye-west-heartless-lyrics" rel="noopener" data-api_path="/songs/526"&gt;“Heartless,”&lt;/a&gt; and &lt;a href="https://genius.com/Kanye-west-gold-digger-lyrics" rel="noopener" data-api_path="/songs/1267"&gt;“Gold Digger.”&lt;/a&gt; Each of his albums has been a massive critical and commercial success, including his collaboration album with &lt;a href="https://genius.com/artists/Jay-z" rel="noopener" data-api_path="/artists/2"&gt;JAY-Z&lt;/a&gt;, &lt;a href="https://genius.com/albums/Jay-z-and-kanye-west/Watch-the-throne" rel="noopener" data-api_path="/albums/350432"&gt;&lt;em&gt;Watch the Throne&lt;/em&gt;&lt;/a&gt;. As of 2021, West has won an astounding &lt;a href="https://www.grammy.com/grammys/artists/kanye-west" rel="noopener nofollow"&gt;22 Grammys&lt;/a&gt;, as the second most decorated hip-hop artist in Grammy history, only behind JAY-Z’s record-holding 23 wins.&lt;/p&gt;\n\n&lt;p&gt;Kanye’s sixth solo album, &lt;a href="https://genius.com/albums/Kanye-west/Yeezus" rel="noopener" data-api_path="/albums/34024"&gt;&lt;em&gt;Yeezus&lt;/em&gt;&lt;/a&gt;, polarized his fan base and the general public but was heaped with rave reviews by music critics. In 2016, West released his seventh and most delayed body of work, &lt;a href="https://genius.com/albums/Kanye-west/The-Life-of-Pablo" rel="noopener" data-api_path="/albums/120604"&gt;&lt;em&gt;The Life of Pablo&lt;/em&gt;&lt;/a&gt;, which was &lt;a href="http://www.independent.co.uk/arts-entertainment/music/news/kanye-west-life-of-pablo-illegally-downloaded-500,000-times-already-a6878741.html" rel="noopener nofollow"&gt;illegally downloaded over 500,000 times,&lt;/a&gt; frustrating fans after its TIDAL-exclusive release. West notably updated the album multiple times on TIDAL after its release.&lt;/p&gt;\n\n&lt;p&gt;Quite possibly West’s most surprising contribution to the music industry was his production streak during the summer of 2018, in which he produced five albums. Among these was a collaborative project with &lt;a href="https://genius.com/artists/Kid-cudi" rel="noopener" data-api_path="/artists/68"&gt;Kid Cudi&lt;/a&gt;, titled &lt;a href="https://genius.com/albums/Kids-see-ghosts/Kids-see-ghosts" rel="noopener" data-api_path="/albums/425948"&gt;&lt;em&gt;KIDS SEE GHOSTS&lt;/em&gt;&lt;/a&gt;; along with his eighth studio album, &lt;a href="https://genius.com/albums/Kanye-west/Ye" rel="noopener" data-api_path="/albums/424304"&gt;&lt;em&gt;ye&lt;/em&gt;&lt;/a&gt;, which tied &lt;a href="https://genius.com/artists/Eminem" rel="noopener" data-api_path="/artists/45"&gt;Eminem&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt; for &lt;a href="https://www.nytimes.com/2018/06/11/arts/music/kanye-west-ye-billboard-no-1-chart.html" rel="noopener nofollow"&gt;eight consecutive chart-topping releases&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The public’s love for Kanye West has been apparent from the get-go, and each of his solo albums, barring his 2004 debut, &lt;a href="https://genius.com/albums/Kanye-west/The-college-dropout" rel="noopener" data-api_path="/albums/4342"&gt;&lt;em&gt;The College Dropout&lt;/em&gt;&lt;/a&gt;, has peaked at #1 on the U.S. &lt;a href="https://www.billboard.com/music/kanye-west/chart-history/billboard-200" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt; 200&lt;/a&gt; Album Chart. Another major standout, 2008’s &lt;a href="https://genius.com/albums/Kanye-west/808s-heartbreak" rel="noopener" data-api_path="/albums/4339"&gt;&lt;em&gt;808s &amp;amp; Heartbreak&lt;/em&gt;&lt;/a&gt;, is largely credited with influencing the next generation of rappers; from the emphasis on heavy beats and melodic instrumentals to the use of auto-tune.&lt;/p&gt;\n\n&lt;p&gt;His ninth studio album, &lt;em&gt;Yandhi&lt;/em&gt;, was originally scheduled to be released on September 29, 2018, and then again on November 26, 2018. However, West rescheduled the album release, because he felt it wasn’t finished yet. On August 29, 2019, Kim Kardashian-West teased a new Kanye album tracklist &lt;a href="https://twitter.com/KimKardashian/status/1167154538643513344?s=19" rel="noopener nofollow"&gt;via Twitter&lt;/a&gt;, with the title &lt;a href="https://genius.com/albums/Kanye-west/Jesus-is-king" rel="noopener" data-api_path="/albums/558030"&gt;&lt;em&gt;Jesus is King&lt;/em&gt;. &lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Kanye seemed to confirm this by clearing his official website and posting the same image of the tracklist with the expected drop date at the bottom, September 27, 2019; almost a year after &lt;em&gt;Yandhi&lt;/em&gt; was supposed to be released. However, the release was delayed to October 25th, to release along with his accompanying documentary.&lt;/p&gt;\n\n&lt;p&gt;Furthermore, after years of claiming he would run for President, he finally &lt;a href="https://twitter.com/kanyewest/status/1279575273365594112?s=20" rel="noopener nofollow"&gt;announced so on Twitter&lt;/a&gt; which was met with much controversy, many claiming it was a publicity stunt for his forthcoming album, &lt;a href="https://genius.com/albums/Kanye-west/Donda" rel="noopener" data-api_path="/albums/579559"&gt;&lt;em&gt;Donda&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On August 24, 2021, West applied to have his name changed from Kanye Omari West to Ye, he cited “personal reasons” for the change. On October 18, 2021, the request was granted. West had alluded to wishing to change his name since 2018 and had used Ye as a nickname for several years prior. In a &lt;a href="https://www.newsweek.com/why-has-kanye-west-changed-his-name-ye-meaning-explained-1640228" rel="noopener nofollow"&gt;June 2018 interview&lt;/a&gt;, he explained:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I believe ‘ye’ is the most commonly used word in the Bible. In the Bible it means you. So, I’m you. I’m us. It’s us. It went from being Kanye, which means the only one, to just Ye. Just being a reflection of our good, our bad, our confused – everything. It’s more of a reflection of who we are [as] beings.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': ['Ye', 'Kanye', 'Yeezus', 'Kanye Omari West', 'Mr. West', 'Yeezy', 'Louis Vuitton Don', 'Yandhi', 'Martin Louis The King Jr', 'Christian Genius Billionaire', 'Kanye O. West']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sugar-ray', 'annotations': {'description': '&lt;p&gt;Sugar Ray is an American rock band from Newport Beach, California. Originally forming in 1986. They originally played rap-rock, with early singles like “Iron Mic” and “Mean Machine”. The band achieved mainstream popularity in 1997 with their more pop-influenced single, “Fly”. The song’s success led the band to shift its style dramatically to the more radio-friendly pop sound with their newer releases. Their best-selling album, 14:59, was released in 1999, and featured popular singles “Every Morning”, “Someday”, and “When It’s Over”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Nwa', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Eazy-e" rel="noopener" data-api_path="/artists/496"&gt;Eazy-E&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dr-dre" rel="noopener" data-api_path="/artists/123"&gt;Dr.\xa0Dre&lt;/a&gt;, &lt;a href="https://genius.com/artists/Ice-cube" rel="noopener" data-api_path="/artists/186"&gt;Ice Cube&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mc-ren" rel="noopener" data-api_path="/artists/1436"&gt;MC Ren&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dj-yella" rel="noopener" data-api_path="/artists/7973"&gt;DJ Yella&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Arabian-prince" rel="noopener" data-api_path="/artists/3183"&gt;Arabian Prince&lt;/a&gt; initially formed the collective known as “the world’s most dangerous group,” N.W.A.—Niggaz With Attitudes.&lt;/p&gt;\n\n&lt;p&gt;Following Ice Cube’s stint in &lt;a href="https://genius.com/artists/Cia" rel="noopener" data-api_path="/artists/1064"&gt;C.I.A.&lt;/a&gt; and Dre and Yella’s departure from the &lt;a href="https://genius.com/artists/World-class-wreckin-cru" rel="noopener" data-api_path="/artists/11169"&gt;World Class Wreckin Cru&lt;/a&gt;, they got together with Compton hustler Eric “Eazy-E” Wright, who formed Ruthless Records and released Eazy’s single &lt;a href="https://genius.com/Eazy-e-boyz-n-the-hood-lyrics" rel="noopener" data-api_path="/songs/380408"&gt;“Boyz n the Hood,”&lt;/a&gt; written by Cube and produced by Dre. A compilation entitled &lt;em&gt;N.W.A. and the Posse&lt;/em&gt; was released in 1987 but the group’s seminal debut, &lt;a href="https://genius.com/albums/Nwa/Straight-outta-compton" rel="noopener" data-api_path="/albums/7242"&gt;&lt;em&gt;Straight Outta Compton&lt;/em&gt;&lt;/a&gt;, was released on August 8, 1988. It led to the rise of gangsta rap and West Coast hip-hop in general with their tales of “reality rap” from the streets of Compton and South Central Los Angeles. Their song “Fuck tha Police” even put the group on the hit list of the FBI.&lt;/p&gt;\n\n&lt;p&gt;Arabian Prince was the first to leave the group in 1988 over a financial dispute. Ice Cube left N.W.A. in 1989 after his own financial dispute, leading to the other members to diss him on their subsequent releases: the 1990 EP &lt;a href="https://genius.com/albums/Nwa/100-miles-and-runnin" rel="noopener" data-api_path="/albums/11052"&gt;&lt;em&gt;100 Miles and Runnin\'&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Nwa/Efil4zaggin" rel="noopener" data-api_path="/albums/7232"&gt;&lt;em&gt;EFIL4ZAGGIN&lt;/em&gt;&lt;/a&gt;, which was released in 1991 and peaked at #1 on the Billboard 200 chart. &lt;a href="https://genius.com/artists/The-doc" rel="noopener" data-api_path="/artists/1129"&gt;The D.O.C.&lt;/a&gt;, who contributed to &lt;em&gt;Straight Outta Compton&lt;/em&gt; and was still recovering from a car accident that severly altered his strong voice, wrote more rhymes for Dr. Dre and Eazy-E on the &lt;em&gt;EFIL4ZAGGIN&lt;/em&gt; album in attempt to fill the void left by Cube.&lt;/p&gt;\n\n&lt;p&gt;Following N.W.A.’s jabs, Ice Cube threw the knockout blow to the group with his track &lt;a href="https://genius.com/Ice-cube-no-vaseline-lyrics" rel="noopener" data-api_path="/songs/761"&gt;“No Vaseline,”&lt;/a&gt; which, in part, led to Dr. Dre leaving N.W.A. and Ruthless Records with his own financial dispute similar to Cube’s two years earlier. Dre and The D.O.C. went on to establish Death Row Records with Suge Knight in 1992, where Dre would innovate the G-Funk sound and further establish the success of the West Coast sound in hip-hop.&lt;/p&gt;\n\n&lt;p&gt;After back-and-forth disses between &lt;a href="https://genius.com/Dr-dre-fuck-wit-dre-day-and-everybodys-celebratin-lyrics" rel="noopener" data-api_path="/songs/1398"&gt;Dr. Dre&lt;/a&gt; and &lt;a href="https://genius.com/Eazy-e-real-muthaphuckkin-gs-lyrics" rel="noopener" data-api_path="/songs/902"&gt;Eazy-E&lt;/a&gt;, plans for an N.W.A. reunion were in the discussion stages when Eazy-E died of AIDS in 1995. Ice Cube, Dr. Dre, and MC Ren have since reunited to record the tracks &lt;a href="https://genius.com/Nwa-chin-check-lyrics" rel="noopener" data-api_path="/songs/4833"&gt;“Chin Check”&lt;/a&gt; and &lt;a href="https://genius.com/Ice-cube-hello-lyrics" rel="noopener" data-api_path="/songs/23066"&gt;“Hello.”&lt;/a&gt; In 2015, a biographical drama titled &lt;a href="https://www.imdb.com/title/tt1398426/" rel="noopener nofollow"&gt;&lt;em&gt;Straight Outta Compton&lt;/em&gt;&lt;/a&gt; was released to critical acclaim and a box office gross of over $200 million worldwide. The group was inducted into the Rock and Roll Hall of Fame in 2016.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f7c82b07938f54dd0f3a32ec6349c0be.500x220x1.png" alt="" width="500" height="220" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['Niggaz Wit Attitudes', 'Niggaz With Attitudes', 'Dr. Dre x Ice Cube x Eazy-E x MC Ren x DJ Yella', '(N.W.A.) The D.O.C']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jamiroquai', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Jamiroquai&lt;/strong&gt; is an acid-jazz band formed in London in 1992. It’s led by frontman &lt;a href="https://genius.com/artists/Jason-kay" rel="noopener" data-api_path="/artists/2521215"&gt;Jay Kay&lt;/a&gt;, the band’s best-known and only remaining original member. Early Jamiroquai records were known for the use of a didgeridoo, played by &lt;a href="https://genius.com/artists/Wallis-buchanan" rel="noopener" data-api_path="/artists/989947"&gt;Wallis Buchanan&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The name “Jamiroquai” is a portmanteau of “jam session” and the Native American “Iroquoi” tribe. Jay Kay’s interest in Native Americans can be seen clearly in the video for &lt;a href="https://genius.com/Jamiroquai-too-young-to-die-lyrics" rel="noopener" data-api_path="/songs/2165125"&gt;“Too Young To Die.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;As of January 2017, Jamiroquai is:&lt;br&gt;\n– Jay Kay&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Derrick-mckenzie" rel="noopener" data-api_path="/artists/514811"&gt;Derrick McKenzie&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Sola-akingbola" rel="noopener" data-api_path="/artists/989949"&gt;Sola Akingbola&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Rob-harris" rel="noopener" data-api_path="/artists/430309"&gt;Rob Harris&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Matthew-johnson" rel="noopener" data-api_path="/artists/669257"&gt;Matthew Johnson&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Paul-turner" rel="noopener" data-api_path="/artists/531823"&gt;Paul Turner&lt;/a&gt;&lt;br&gt;\n– Jim Corry&lt;br&gt;\n– Malcolm Strachan&lt;/p&gt;\n\n&lt;p&gt;The group’s 7th album titled &lt;a href="https://genius.com/albums/Jamiroquai/Automaton" rel="noopener" data-api_path="/albums/327380"&gt;&lt;em&gt;Automaton&lt;/em&gt;&lt;/a&gt; was released on 31 March, 2017, nearly 6,5 years after the release of &lt;a href="https://genius.com/albums/Jamiroquai/Rock-dust-light-star" rel="noopener" data-api_path="/albums/125040"&gt;&lt;em&gt;Rock Dust Light Star.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Supertramp', 'annotations': {'description': '&lt;p&gt;Supertramp are an English rock band formed in 1969 (assuming this name in 1970). Their style oscillates between progressive rock and a more mainstream pop rock. The band’s work is marked by the songwriting of founders Rick Davies and Roger Hodgson and the prominent use of Wurlitzer electric piano and saxophone.&lt;/p&gt;\n\n&lt;p&gt;Garnering tremendous success in the latter half of the ‘70s, Supertramp created several very popular and recognisable hit singles, beginning with &lt;a href="https://genius.com/Supertramp-school-lyrics" rel="noopener" data-api_path="/songs/307015"&gt;School&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-dreamer-lyrics" rel="noopener" data-api_path="/songs/732412"&gt;Dreamer&lt;/a&gt; off their 1974 commercial breakthrough, &lt;a href="https://genius.com/albums/Supertramp/Crime-of-the-century" rel="noopener" data-api_path="/albums/67354"&gt;&lt;em&gt;Crime Of The Century&lt;/em&gt;&lt;/a&gt;. 1977’s &lt;a href="https://genius.com/albums/Supertramp/Even-in-the-quietest-moments" rel="noopener" data-api_path="/albums/147348"&gt;&lt;em&gt;Even In The Quietest Moments…&lt;/em&gt;&lt;/a&gt; saw two more Hodgson-penned highlights in &lt;a href="https://genius.com/Supertramp-give-a-little-bit-lyrics" rel="noopener" data-api_path="/songs/967668"&gt;Give A Little Bit&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-fools-overture-lyrics" rel="noopener" data-api_path="/songs/1645350"&gt;Fool’s Overture&lt;/a&gt;, before the band and its leading duo reached their peak with the band’s top-selling record, 1979’s &lt;a href="https://genius.com/albums/Supertramp/Breakfast-in-america" rel="noopener" data-api_path="/albums/82564"&gt;&lt;em&gt;Breakfast In America&lt;/em&gt;&lt;/a&gt;. This album alone includes no less than 6 popular tracks: four of Hodgson’s (&lt;a href="https://genius.com/Supertramp-the-logical-song-lyrics" rel="noopener" data-api_path="/songs/440468"&gt;The Logical Song&lt;/a&gt;, &lt;a href="https://genius.com/Supertramp-take-the-long-way-home-lyrics" rel="noopener" data-api_path="/songs/482326"&gt;Take The Long Way Home&lt;/a&gt;, &lt;a href="https://genius.com/Supertramp-child-of-vision-lyrics" rel="noopener" data-api_path="/songs/477112"&gt;Child Of Vision&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-breakfast-in-america-lyrics" rel="noopener" data-api_path="/songs/482324"&gt;the title track&lt;/a&gt;) and the two most well-known of Davies’ creations, &lt;a href="https://genius.com/Supertramp-gone-hollywood-lyrics" rel="noopener" data-api_path="/songs/482321"&gt;Gone Hollywood&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-goodbye-stranger-lyrics" rel="noopener" data-api_path="/songs/361826"&gt;Goodbye Stranger&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The next album would be the last including Roger Hodgson, after which Richard Davies helmed the band alone into the ‘80s and the rise of digital synthesizers.&lt;/p&gt;\n\n&lt;p&gt;While Supertramp still exists, the latest album by the band was released in 2002.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ace-of-base', 'annotations': {'description': '&lt;p&gt;Ace of Base Is a Swedish pop group who scored a string of international hits in the early-to-mid 1990s. They’re best known for their upbeat reggae-tinged dance-pop songs, including &lt;a href="https://genius.com/Ace-of-base-the-sign-lyrics" rel="noopener" data-api_path="/songs/120213"&gt;“The Sign”&lt;/a&gt;, which was the biggest hit of 1994, according to The Billboard US chart.&lt;/p&gt;\n\n&lt;p&gt;The group’s core lineup consisted of producers &lt;a href="https://genius.com/artists/Ulf-ekberg" rel="noopener" data-api_path="/artists/669002"&gt;Ulf “Buddha” Ekberg&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jonas-berggren" rel="noopener" data-api_path="/artists/669001"&gt;Jonas “Joker” Berggren&lt;/a&gt;, along with singers &lt;a href="https://genius.com/artists/Malin-berggren" rel="noopener" data-api_path="/artists/1212896"&gt;Malin “Linn” Berggren&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jenny-berggren" rel="noopener" data-api_path="/artists/352130"&gt;Jenny Berggren&lt;/a&gt; (the three Berggrens are siblings). In the early ’90s, their debut single &lt;a href="https://genius.com/Ace-of-base-wheel-of-fortune-lyrics" rel="noopener" data-api_path="/songs/1674536"&gt;“Wheel of Fortune”&lt;/a&gt; became a hit in Scandinavia, which led to the group connecting with producer &lt;a href="https://genius.com/artists/Denniz-pop" rel="noopener" data-api_path="/artists/39124"&gt;Denniz Pop&lt;/a&gt; (who would later spawn the careers Backstreet Boys, Britney Spears, and Max Martin).&lt;/p&gt;\n\n&lt;p&gt;After the group’s 1992 debut &lt;a href="https://genius.com/albums/Ace-of-base/Happy-nation" rel="noopener" data-api_path="/albums/28819"&gt;&lt;em&gt;Happy Nation&lt;/em&gt;&lt;/a&gt; became an international hit (going on to sell 21 million copies), it was re-released in North America in 1993 as &lt;a href="https://genius.com/albums/Ace-of-base/The-sign" rel="noopener" data-api_path="/albums/148640"&gt;&lt;em&gt;The Sign&lt;/em&gt;&lt;/a&gt;. Three singles from the album became top five pop hits in the US, including &lt;a href="https://genius.com/Ace-of-base-all-that-she-wants-lyrics" rel="noopener" data-api_path="/songs/434050"&gt;“All That She Wants”&lt;/a&gt; (#2), &lt;a href="https://genius.com/Ace-of-base-dont-turn-around-lyrics" rel="noopener" data-api_path="/songs/1405061"&gt;“Don’t Turn Around”&lt;/a&gt; (#4), and “The Sign” (#1 for six weeks). &lt;em&gt;The Sign&lt;/em&gt; went on to sell over 10 million copies.&lt;/p&gt;\n\n&lt;p&gt;The group’s 1995 album &lt;a href="https://genius.com/albums/Ace-of-base/The-bridge" rel="noopener" data-api_path="/albums/148660"&gt;&lt;em&gt;The Bridge&lt;/em&gt;&lt;/a&gt; sold 7 million copies worldwide, including 2 million in the US. The album’s most successful single was &lt;a href="https://genius.com/Ace-of-base-beautiful-life-lyrics" rel="noopener" data-api_path="/songs/1256263"&gt;“Beautiful Life,”&lt;/a&gt; which topped the US Dance chart and reached #15 on the Hot 100.&lt;/p&gt;\n\n&lt;p&gt;Following the formal departure of singer Linn in 2007, the band performed a series of concerts as a trio in Europe and Asia between 2007 and 2009. Jenny Berggren said in November 2009 that she would be taking an indefinite leave of absence from the band to focus on a solo career. In 2009, Jonas and Ulf recruited two new female vocalists, Clara Hagman and Julia Williamson, and released &lt;a href="https://genius.com/albums/Ace-of-base/The-golden-ratio" rel="noopener" data-api_path="/albums/237379"&gt;&lt;em&gt;The Golden Ratio&lt;/em&gt;&lt;/a&gt; in September 2010.&lt;/p&gt;\n\n&lt;p&gt;In 2012, it was confirmed that Clara Hagman and Julia Williamson had left the group. The group released the compilation &lt;a href="https://genius.com/albums/Ace-of-base/Hidden-gems" rel="noopener" data-api_path="/albums/148662"&gt;&lt;em&gt;Hidden Gems&lt;/em&gt;&lt;/a&gt;, featuring previously unreleased tracks and deep cuts. The band is currently on hiatus indefinitely, with the members publicly stating that a reunion is unlikely.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jennifer-paige', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Jennifer Scoggins', 'Jennifer P. Scoggins', 'Jennifer Paige Scoggins']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/James-blunt', 'annotations': {'description': '&lt;p&gt;A former British Army officer, singer/songwriter James Blunt is a thoughtful performer with a knack for crafting melodic contemporary soft rock tunes.&lt;/p&gt;\n\n&lt;p&gt;Born in Tidworth, Wiltshire, England in 1974 to a family with a long military history, Blunt entered the Army after graduating from the Royal Military Academy Sandhurst. Ultimately achieving the rank of captain, Blunt served with the NATO peacekeeping force in Kosovo and finished out his time in the military as a member of the Life Guard Regiment in the British Household Cavalry. Having long been interested in music, Blunt wasted no time in pursuing a pop career after leaving the Army.&lt;/p&gt;\n\n&lt;p&gt;A subsequent performance at the South by Southwest festival in Austin, Texas brought Blunt to the attention of 4 Non Blondes singer/producer Linda Perry, who signed Blunt to her Custard Records label.&lt;/p&gt;\n\n&lt;p&gt;Released in 2005, Blunt’s debut album, &lt;a href="https://genius.com/albums/James-blunt/Back-to-bedlam" rel="noopener" data-api_path="/albums/48390"&gt;&lt;em&gt;Back to Bedlam&lt;/em&gt;&lt;/a&gt;, and its hit single, &lt;a href="https://genius.com/James-blunt-youre-beautiful-lyrics" rel="noopener" data-api_path="/songs/95061"&gt;“You’re Beautiful”&lt;/a&gt;, were hugely successful – the single hit number one in over a dozen countries, and sold over ten million copies worldwide.&lt;/p&gt;\n\n&lt;p&gt;Blunt toured for much of 2005 and 2006, then released the two-disc “odds and sods” CD/DVD &lt;a href="https://genius.com/albums/James-blunt/Chasing-time-the-bedlam-sessions" rel="noopener" data-api_path="/albums/354560"&gt;&lt;em&gt;Chasing Time: The Bedlam Sessions&lt;/em&gt;&lt;/a&gt; in 2006. He had been writing songs while on the road, and brought Back to Bedlam producer Tom Rothrock in again to record. (The songs featured writing collaborations with Mark Batson, Jimmy Hogarth, Steve McEwan, and Max Martin, while the recordings featured Blunt’s live backing band.)&lt;/p&gt;\n\n&lt;p&gt;His sophomore effort, &lt;a href="https://genius.com/albums/James-blunt/All-the-lost-souls" rel="noopener" data-api_path="/albums/113071"&gt;&lt;em&gt;All the Lost Souls&lt;/em&gt;&lt;/a&gt;, featuring the leadoff single &lt;a href="https://genius.com/James-blunt-1973-lyrics" rel="noopener" data-api_path="/songs/531200"&gt;“1973”&lt;/a&gt;, finally dropped in September 2007.&lt;/p&gt;\n\n&lt;p&gt;Disillusioned by success and what he felt as a perceived loss of artistic credibility, Blunt took a break from music before coming back in 2010 with his third full-length effort, &lt;a href="https://genius.com/albums/James-blunt/Some-kind-of-trouble" rel="noopener" data-api_path="/albums/18815"&gt;&lt;em&gt;Some Kind of Trouble&lt;/em&gt;&lt;/a&gt;, a more optimistic, spontaneous album influenced by ‘70s U.S. pop/rock, which sold well despite not being critically well-received.&lt;/p&gt;\n\n&lt;p&gt;In 2012 he returned to the studio with Tom Rothrock to track his fourth album, &lt;a href="https://genius.com/albums/James-blunt/Moon-landing" rel="noopener" data-api_path="/albums/110213"&gt;&lt;em&gt;Moon Landing&lt;/em&gt;&lt;/a&gt;. Featuring &lt;a href="https://genius.com/James-blunt-miss-america-lyrics" rel="noopener" data-api_path="/songs/493595"&gt;“Miss America,”&lt;/a&gt; Blunt’s tribute to the late Whitney Houston, and the country-folk-influenced single &lt;a href="https://genius.com/James-blunt-bonfire-heart-lyrics" rel="noopener" data-api_path="/songs/197282"&gt;“Bonfire Heart,”&lt;/a&gt; the record was released in October 2013.&lt;/p&gt;\n\n&lt;p&gt;Roughly four years passed before Blunt would release another album. He returned in early 2017 with his fifth studio album, &lt;a href="https://genius.com/albums/James-blunt/The-afterlove" rel="noopener" data-api_path="/albums/327366"&gt;&lt;em&gt;The Afterlove&lt;/em&gt;&lt;/a&gt;, which featured songwriting assistance from Blunt’s friend &lt;a href="https://genius.com/artists/Ed-sheeran" rel="noopener" data-api_path="/artists/12418"&gt;Ed Sheeran&lt;/a&gt; and OneRepublic’s &lt;a href="https://genius.com/artists/Ryan-tedder" rel="noopener" data-api_path="/artists/1653"&gt;Ryan Tedder&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['James Hillier Blount']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Indochine', 'annotations': {'description': '&lt;p&gt;Indochine est un groupe de pop rock français formé en 1981. Composé de &lt;strong&gt;Nicolas Sirkis&lt;/strong&gt; (chanson), de &lt;strong&gt;Marc Éliard&lt;/strong&gt; (basse), d\'&lt;strong&gt;Olivier Gérard&lt;/strong&gt; (guitare, clavier) et de &lt;strong&gt;Ludwig Dahlberg&lt;/strong&gt; (batterie), le groupe est célèbre pour &lt;em&gt;L’Aventurier&lt;/em&gt;, &lt;em&gt;Trois nuits par semaine&lt;/em&gt;, &lt;em&gt;Alice et June&lt;/em&gt; ou plus récemment &lt;em&gt;College Boy&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Indochine is a French Pop/Rock and New Wave band formed in Paris in 1981 and they have been active since. Indochine’s current members are:&lt;br&gt;\nNicola Sirkis (vocals, guitar, synthesizer, harmonica), Marc Eliard (bass), Boris Jardel (guitar), Oli de Sat (keyboards and guitar), Ludwig Dahlberg (drums)&lt;br&gt;\nThe band has won multiple awards but the most outstanding awards is &lt;em&gt;MTV Europe Music Awards&lt;/em&gt; for &lt;strong&gt;Best French Act&lt;/strong&gt; in 2003.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/74a7b525cd1d48555cdb7695419ca95c.1000x667x1.jpg" alt="" width="1000" height="667" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt; &lt;a href="https://commons.wikimedia.org/wiki/File:Indochine-Meteor-1.jpg" rel="noopener nofollow"&gt;Météor Tour d\'Indochine (Neosis-Kane, Wikipédia)&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Boney-m', 'annotations': {'description': '&lt;p&gt;Boney M. is a Euro-Caribbean vocal group created by German record producer Frank Farian. Originally based in West Germany, the four original members of the group’s official line-up were Liz Mitchell and Marcia Barrett from Jamaica, Maizie Williams from Montserrat and Bobby Farrell, a performing-artist from Aruba. The group was formed in 1976 and achieved popularity during the disco era of the late 1970s. Since the 1980s, various line-ups of the band have performed with different personnel.&lt;/p&gt;\n\n&lt;p&gt;The band has sold around 100 million records worldwide and is known for huge international hits such as “Daddy Cool”, “Ma Baker”, “Sunny”, “Rasputin”, “Mary’s Boy Child – Oh My Lord” and “Rivers of Babylon”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tiesto-and-dzeko', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Linkin-park', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/albums/Linkin-park/Hybrid-theory" rel="noopener" data-api_path="/albums/15321"&gt;&lt;em&gt;Hybrid Theory&lt;/em&gt;&lt;/a&gt; isn’t just the title of Linkin Park’s chart-topping debut album, but a career mission statement.&lt;/p&gt;\n\n&lt;p&gt;From day one, the same six players (lead vocalist &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt;, drummer/percussionist &lt;a href="https://genius.com/artists/Rob-bourdon" rel="noopener" data-api_path="/artists/643808"&gt;Rob Bourdon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Brad-delson" rel="noopener" data-api_path="/artists/177201"&gt;Brad Delson&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Dave-farrell" rel="noopener" data-api_path="/artists/635618"&gt;Dave ‘Phoenix’ Farrell&lt;/a&gt;, DJ/Programmer &lt;a href="https://genius.com/artists/Joe-hahn" rel="noopener" data-api_path="/artists/271318"&gt;Joe Hahn&lt;/a&gt;, and keyboardist, guitarist, and co-lead vocals &lt;a href="https://genius.com/artists/Mike-shinoda" rel="noopener" data-api_path="/artists/4431"&gt;Mike Shinoda&lt;/a&gt;) built the band by fusing all their favorite styles of music into one unmistakable signature sound. With each album, Linkin Park defiantly challenges themselves and their fans by blasting into new musical territory. After setting the template for rock that incorporated hip-hop influences with &lt;em&gt;Hybrid Theory&lt;/em&gt; and &lt;a href="https://genius.com/albums/Linkin-park/Meteora" rel="noopener" data-api_path="/albums/5986"&gt;&lt;em&gt;Meteora&lt;/em&gt;&lt;/a&gt;, they shifted gears completely and defied expectations with the polychromatic &lt;a href="https://genius.com/albums/Linkin-park/Minutes-to-midnight" rel="noopener" data-api_path="/albums/16008"&gt;&lt;em&gt;Minutes to Midnight&lt;/em&gt;&lt;/a&gt;, and again with the esoteric &lt;a href="https://genius.com/albums/Linkin-park/A-thousand-suns" rel="noopener" data-api_path="/albums/15414"&gt;&lt;em&gt;A Thousand Suns&lt;/em&gt;&lt;/a&gt;, before melding a piece of them all into 2012’s &lt;a href="https://genius.com/albums/Linkin-park/Living-things" rel="noopener" data-api_path="/albums/16392"&gt;&lt;em&gt;LIVING THINGS&lt;/em&gt;&lt;/a&gt;. With their 2014 release and heaviest offering in years, &lt;a href="https://genius.com/albums/Linkin-park/The-hunting-party" rel="noopener" data-api_path="/albums/100521"&gt;&lt;em&gt;The Hunting Party&lt;/em&gt;&lt;/a&gt;, Linkin Park manage to capture their ever-innovative spirit with a hunger seldom seen in bands on their seventh album. &lt;a href="https://genius.com/albums/Linkin-park/One-more-light" rel="noopener" data-api_path="/albums/330664"&gt;&lt;em&gt;One More Light&lt;/em&gt;&lt;/a&gt; (2017) is an interesting personal album, filled with a lot of emotion.&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, on July 20, 2017, Chester unexpectedly &lt;a href="http://www.tmz.com/2017/07/20/linkin-park-singer-chester-bennington-dead-commits-suicide/" rel="noopener nofollow"&gt;died by suicide&lt;/a&gt;, shocking and saddening both fans and his own band members alike.&lt;/p&gt;\n\n&lt;p&gt;As for the band’s name, they were originally called Hybrid Theory, but trademark issues with a band called Hybrid forced the band to rethink their name. According to &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names/P1" rel="noopener nofollow"&gt;&lt;em&gt;Alternative Press&lt;/em&gt;&lt;/a&gt;, Bennington suggested “Lincoln Park” since he had to drive past there after band practice to get home. However, the domain name “lincolnpark.com” cost more than the band could afford so they changed the spelling to Linkin Park. It was also suggested that the name change would help them appear right next to Limp Bizkit at record stores.&lt;/p&gt;', 'alternate_names': ['Hybrid Theory', 'Xero', 'MMM...COOKIES']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kasabian', 'annotations': {'description': '&lt;p&gt;Kasabian are a British rock band, formed in Leicester, England in 1997. It consists of singer Tom Meighan, guitarist and singer Sergio Pizzorno, bassist Chris Edwards, drummer Ian Matthews and guitarist Tim Carter, plus touring members Ben Kealey and Gary Alesbrook. Kasabian have released six studio albums to date.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Eddie-rabbitt', 'annotations': {'description': '&lt;p&gt;Edward Thomas Rabbitt was born November 27, 1941 in Brooklyn, New York to Irish immigrant parents.  He was raised in East Orange, New Jersey.  On his 35th birthday, he married Janine Girardi.  They had three children.  One daughter, Demelza, and two sons, Timmy &amp;amp; Tommy.  Timmy was born with biliary atresia and died in childhood after a failed liver transplant intended to save his life.  In March 1997, Eddie learned that he had lung cancer.  He passed away on May 7, 1998.  Rabbitt received several awards over the years.  The Academy of Country Music Awards Top New Male Vocalist in 1977.  Music City News Country Songwriter of the Year and BMI’s Robert J. Burton Award for &lt;a href="https://genius.com/Eddie-rabbitt-suspicions-lyrics" rel="noopener" data-api_path="/songs/2278080"&gt;“Suspicions”&lt;/a&gt; in 1979. 1980 brought BMI’s Song of the Year for “Suspicions.”  In 1996 he pulled in BMI’s Three Million-Air Award and Two Million-Air Awards for &lt;a href="https://genius.com/Eddie-rabbitt-i-love-a-rainy-night-lyrics" rel="noopener" data-api_path="/songs/146840"&gt;“I Love a Rainy Night”&lt;/a&gt; and &lt;a href="https://genius.com/Eddie-rabbitt-kentucky-rain-lyrics" rel="noopener" data-api_path="/songs/1030438"&gt;“Kentucky Rain”&lt;/a&gt;, respectively.  He was inducted into the Nashville Songwriters Hall of Fame the year of his death, 1998.  Eddie’s final #1 hit came in 1989 with &lt;a href="https://genius.com/Eddie-rabbitt-on-second-thought-lyrics" rel="noopener" data-api_path="/songs/2263489"&gt;“On Second Thought”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Edward Rabbitt', 'Edward Thomas Rabbitt']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-chainsmokers', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://thechainsmokers.com/" rel="noopener nofollow"&gt;The Chainsmokers&lt;/a&gt; are a New York City-based duo consisting of &lt;a href="https://genius.com/artists/andrew-taggart" rel="noopener" data-api_path="/artists/660558"&gt;Andrew Taggart&lt;/a&gt; and &lt;a href="https://genius.com/artists/alex-pall" rel="noopener" data-api_path="/artists/567252"&gt;Alex Pall&lt;/a&gt;. They write and produce their songs, and often feature guest vocalists.&lt;/p&gt;\n\n&lt;p&gt;The duo rose to fame with their 2014 viral hit, &lt;a href="https://genius.com/The-chainsmokers-selfie-lyrics" rel="noopener" data-api_path="/songs/375924"&gt;“#Selfie”&lt;/a&gt; and then broke into the mainstream with their hit song &lt;a href="https://genius.com/The-chainsmokers-roses-lyrics" rel="noopener" data-api_path="/songs/2138429"&gt;“Roses”&lt;/a&gt; and their debut EP &lt;a href="https://genius.com/albums/The-chainsmokers/Bouquet-ep" rel="noopener" data-api_path="/albums/133672"&gt;&lt;em&gt;Bouquet&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In &lt;a href="https://www.youtube.com/watch?v=joC69WPyQqU" rel="noopener nofollow"&gt;a March 2016 YouTube video&lt;/a&gt;, the duo talked about plans to release songs featuring their vocals. This was proven when &lt;a href="https://genius.com/The-chainsmokers-closer-lyrics" rel="noopener" data-api_path="/songs/2458848"&gt;“Closer”&lt;/a&gt; was released on July 2016 with Andrew Taggart as co-vocalist, alongside American singer-songwriter &lt;a href="https://genius.com/artists/halsey" rel="noopener" data-api_path="/artists/228636"&gt;Halsey&lt;/a&gt;. “Closer” became both The Chainsmokers and Halsey’s most famous song.&lt;/p&gt;\n\n&lt;p&gt;2016 proved to be a breakout year for The Chainsmokers, with original songs &lt;a href="https://genius.com/The-chainsmokers-dont-let-me-down-lyrics" rel="noopener" data-api_path="/songs/2416822"&gt;“Don’t Let Me Down”&lt;/a&gt; and &lt;a href="https://genius.com/The-chainsmokers-closer-lyrics" rel="noopener" data-api_path="/songs/2458848"&gt;“Closer,”&lt;/a&gt; both certified platinum and headlining their sophomore EP &lt;a href="https://genius.com/albums/The-chainsmokers/Collage-ep" rel="noopener" data-api_path="/albums/269796"&gt;&lt;em&gt;Collage&lt;/em&gt;&lt;/a&gt;. The duo finished off their most successful year yet with &lt;a href="https://www.grammy.com/artist/the-chainsmokers" rel="noopener nofollow"&gt;three GRAMMY nominations&lt;/a&gt;, winning one GRAMMY for Best Dance Recording for “Don’t Let Me Down.”&lt;/p&gt;\n\n&lt;p&gt;Following their first GRAMMY win, the duo announced their debut LP, &lt;a href="https://genius.com/albums/The-chainsmokers/Memories-do-not-open" rel="noopener" data-api_path="/albums/330516"&gt;&lt;i&gt;Memories…Do Not Open&lt;/i&gt;&lt;/a&gt;, on February 12, 2017 in &lt;a href="https://www.youtube.com/watch?v=ghvjz1_RKyo" rel="noopener nofollow"&gt;a red carpet interview with Entertainment Weekly&lt;/a&gt;. The album was released on April 7, 2017, and was followed by a US tour titled “Memories: Do Not Open.”&lt;/p&gt;\n\n&lt;p&gt;The duo achieved further commercial success in 2017, with the releases of &lt;a href="https://genius.com/The-chainsmokers-paris-lyrics" rel="noopener" data-api_path="/songs/2944779"&gt;“Paris”&lt;/a&gt; and &lt;a href="https://genius.com/The-chainsmokers-and-coldplay-something-just-like-this-lyrics" rel="noopener" data-api_path="/songs/2998843"&gt;“Something Just Like This”&lt;/a&gt; helping The Chainsmokers &lt;a href="http://www.billboard.com/articles/columns/chart-beat/7710297/hot-100-chainsmokers-three-songs-top-ten-ed-sheeran-number-one" rel="noopener nofollow"&gt;tie The Beatles and the Bee Gees with three simultaneous songs on the &lt;em&gt;Billboard Hot 100&lt;/em&gt;’s Top 10&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After going on a hiatus of releasing songs, the duo returned in January 2018 with the release of &lt;a href="https://genius.com/The-chainsmokers-sick-boy-lyrics" rel="noopener" data-api_path="/songs/3113471"&gt;“Sick Boy”&lt;/a&gt;, the first single from their second album &lt;a href="https://genius.com/albums/The-chainsmokers/Sick-boy" rel="noopener" data-api_path="/albums/461201"&gt;of the same name&lt;/a&gt;. The Chainsmokers\' plan to build an album by releasing a song roughly every month was &lt;a href="https://www.billboard.com/articles/business/8257719/inside-the-chainsmokers-plan-rethink-album-cycle" rel="noopener nofollow"&gt;detailed in a Billboard article&lt;/a&gt;. The album spawned the minor hits of &lt;a href="https://genius.com/The-chainsmokers-this-feeling-lyrics" rel="noopener" data-api_path="/songs/3944273"&gt;“This Feeling”&lt;/a&gt;, &lt;a href="https://genius.com/The-chainsmokers-sick-boy-lyrics" rel="noopener" data-api_path="/songs/3113471"&gt;“Sick Boy”&lt;/a&gt;, &lt;a href="https://genius.com/The-chainsmokers-side-effects-lyrics" rel="noopener" data-api_path="/songs/3857798"&gt;“Side Effects”&lt;/a&gt;, and &lt;a href="https://genius.com/The-chainsmokers-everybody-hates-me-lyrics" rel="noopener" data-api_path="/songs/3516743"&gt;“Everybody Hates Me”&lt;/a&gt; which peaked at numbers 50, 65, 66, and 100, respectively, &lt;a href="https://www.billboard.com/music/the-chainsmokers/chart-history/hot-100" rel="noopener nofollow"&gt;on the Billboard Hot 100&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The duo wasted no time in announcing their third album, &lt;a href="https://genius.com/albums/The-chainsmokers/World-war-joy" rel="noopener" data-api_path="/albums/502022"&gt;&lt;em&gt;World War Joy&lt;/em&gt;&lt;/a&gt;, along with &lt;a href="https://www.instagram.com/p/BtyFtipAdph/?utm_source=ig_web_copy_link" rel="noopener nofollow"&gt;their second arena tour&lt;/a&gt; set for the Fall of 2019. The first single off the album, &lt;a href="https://genius.com/The-chainsmokers-who-do-you-love-lyrics" rel="noopener" data-api_path="/songs/4287454"&gt;“Who Do You Love”&lt;/a&gt; with Australian pop-rock group &lt;a href="https://genius.com/artists/5-seconds-of-summer" rel="noopener" data-api_path="/artists/64610"&gt;5 Seconds of Summer&lt;/a&gt; became an instant hit, rising up the charts where it peaked at number 54 on the Hot 100 and was certified Platinum by the RIAA. The album also spawned two other hits in the form of the Platinum single &lt;a href="https://genius.com/The-chainsmokers-and-bebe-rexha-call-you-mine-lyrics" rel="noopener" data-api_path="/songs/4587720"&gt;“Call You Mine”&lt;/a&gt; with American singer/songwriter &lt;a href="https://genius.com/artists/Bebe-rexha" rel="noopener" data-api_path="/artists/104044"&gt;Bebe Rexha&lt;/a&gt; and the Gold single &lt;a href="https://genius.com/The-chainsmokers-and-illenium-takeaway-lyrics" rel="noopener" data-api_path="/songs/3554433"&gt;“Takeaway”&lt;/a&gt; with the American DJ/producer &lt;a href="https://genius.com/artists/Illenium" rel="noopener" data-api_path="/artists/582595"&gt;Illenium&lt;/a&gt; and featuring Nashville-based recording artist &lt;a href="https://genius.com/artists/Lennon-stella" rel="noopener" data-api_path="/artists/376704"&gt;Lennon Stella&lt;/a&gt;, both of which charted on the Billboard Hot 100 at the number 56 and 69 spot, respectively. The album as a whole was released on December 6, 2019, debuting at #65 on the Billboard 200 albums chart and at #1 on the Billboard Top Dance/Electronic Albums chart, &lt;a href="https://www.billboard.com/articles/business/chart-beat/8546815/chainsmokers-debut-number-1-top-dance-electronic-albums" rel="noopener nofollow"&gt;shipping 14,000 units in its first week&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On February 24, 2020 the duo &lt;a href="https://www.instagram.com/p/B89Qw0jg7uo/" rel="noopener nofollow"&gt;announced they would be going on a social media hiatus&lt;/a&gt; to focus on the creation of their fourth, currently untitled studio album. The duo finally came out of hiatus after almost two years on January 6, 2022, &lt;a href="https://www.instagram.com/p/CYZQHy3BIIZ/" rel="noopener nofollow"&gt;announcing the upcoming release&lt;/a&gt; of &lt;a href="https://genius.com/The-chainsmokers-high-lyrics" rel="noopener" data-api_path="/songs/7563883"&gt;“High”&lt;/a&gt;, their first new music since 2019. The song released on January 28, 2022 and &lt;a href="https://www.billboard.com/artist/the-chainsmokers/chart-history/hsi/" rel="noopener nofollow"&gt;charted at #57 on the Hot 100&lt;/a&gt; during its first week, making a &lt;a href="https://headlineplanet.com/home/2022/01/29/the-chainsmokers-high-closed-day-one-with-over-1250-pop-radio-plays/" rel="noopener nofollow"&gt;massive impact on pop radio&lt;/a&gt; and immediately debuting inside the top 30 on pop radio.&lt;/p&gt;\n\n&lt;p&gt;To date, the duo has &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=The+chainsmokers&amp;amp;col=format&amp;amp;ord=desc#search_section" rel="noopener nofollow"&gt;certified sales&lt;/a&gt; of over 50 million singles and nearly 5 million albums in the United States alone.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Hard-fi', 'annotations': {'description': '&lt;p&gt;Hard-Fi are an English rock band formed in Staines, Surrey in 2003. The band’s members are Richard Archer (lead vocals and guitar), Kai Stephens (bass guitar and backing vocals) and Steve Kemp (drums and backing vocals).&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/La-bouche', 'annotations': {'description': '&lt;p&gt;La Bouche is a duo, created in 1987. Their career started to take off when they released “Sweet Dreams” and “Be My Lover” which both were hits on the Billboard Hot 100, peaking at #13 and #6, respectively. In 2018, They came back with a new single called ‘Night After Night’.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Aronchupa', 'annotations': {'description': '&lt;p&gt;Aron Michael Ekberg (AronChupa) is a rapper, singer, songwriter, DJ, record producer, and record label owner from Sweden.&lt;/p&gt;\n\n&lt;p&gt;Aron started his career as a &lt;a href="http://www.lol-la.com/interview-swedish-soccer-player-turned-dj-aronchupa-talks-im-an-albatraoz-much-more/" rel="noopener nofollow"&gt;soccer player&lt;/a&gt;, and later created an electro-hip hop group called Albatraoz (Signed to Sony Music Sweden), along with his friends/members of the soccer club he played for.&lt;/p&gt;\n\n&lt;p&gt;His most Popular song is &lt;a href="https://genius.com/Aronchupa-im-an-albatraoz-lyrics" rel="noopener" data-api_path="/songs/582508"&gt;“I’m an Albatroz,”&lt;/a&gt; and his only album so far is &lt;a href="https://play.spotify.com/album/1PoAlIDkhgVSoX7oskyAF1" rel="noopener nofollow"&gt;&lt;em&gt;Russ&lt;/em&gt;&lt;/a&gt;, released in 2014.&lt;/p&gt;', 'alternate_names': ['Aron Ekberg', 'Aron Michael Ekberg']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Charli-xcx', 'annotations': {'description': '&lt;p&gt;Charlotte Emma Aitchison (born 2 August 1992), known professionally as Charli XCX, is an English singer-songwriter known for her eclectic style. She began making music at fourteen, and her debut release was a 2008 limited-edition album aptly titled &lt;a href="https://genius.com/albums/Charli-xcx/14" rel="noopener" data-api_path="/albums/112231"&gt;&lt;em&gt;14&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;By 2010, Charli signed to &lt;a href="https://genius.com/artists/Atlantic-records" rel="noopener" data-api_path="/artists/68978"&gt;Atlantic Records&lt;/a&gt;, and released her debut single &lt;a href="https://genius.com/Charli-xcx-stay-away-lyrics" rel="noopener" data-api_path="/songs/138395"&gt;“Stay Away”&lt;/a&gt; in May 2011. She released her “real” debut album, &lt;a href="https://genius.com/albums/Charli-xcx/True-romance" rel="noopener" data-api_path="/albums/31411"&gt;&lt;em&gt;True Romance&lt;/em&gt;&lt;/a&gt;, in 2013. The record met critical acclaim but failed to attain much commercial success. Charli’s true breakthrough came with the release of hit collaborations like Iggy Azalea’s &lt;a href="https://genius.com/Iggy-azalea-fancy-lyrics" rel="noopener" data-api_path="/songs/352612"&gt;“Fancy”&lt;/a&gt; and Icona Pop’s &lt;a href="https://genius.com/Icona-pop-i-love-it-lyrics" rel="noopener" data-api_path="/songs/78587"&gt;“I Love It.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In April 2014, Charli found solo success with &lt;a href="https://genius.com/Charli-xcx-boom-clap-lyrics" rel="noopener" data-api_path="/songs/402853"&gt;“Boom Clap,”&lt;/a&gt; which was featured on the soundtrack of &lt;a href="https://genius.com/albums/Various-artists/The-fault-in-our-stars-music-from-the-motion-picture" rel="noopener" data-api_path="/albums/101354"&gt;&lt;em&gt;The Fault in Our Stars&lt;/em&gt;&lt;/a&gt;. It’s now certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=Charli+XCX&amp;amp;ti=Boom+Clap#search_section" rel="noopener nofollow"&gt;triple platinum&lt;/a&gt; in the United States and &lt;a href="https://www.bpi.co.uk/brit-certified/" rel="noopener nofollow"&gt;gold&lt;/a&gt; in her native United Kingdom. Her sophomore album, &lt;a href="https://genius.com/albums/Charli-xcx/Sucker" rel="noopener" data-api_path="/albums/110738"&gt;&lt;em&gt;Sucker&lt;/em&gt;&lt;/a&gt;, was a pop-punk oriented effort and enjoyed more success than her debut. &lt;a href="https://genius.com/Charli-xcx-break-the-rules-lyrics" rel="noopener" data-api_path="/songs/499525"&gt;“Break The Rules,”&lt;/a&gt; &lt;a href="https://genius.com/Charli-xcx-doing-it-lyrics" rel="noopener" data-api_path="/songs/616885"&gt;“Doing It”&lt;/a&gt; (featuring &lt;a href="https://genius.com/artists/Rita-ora" rel="noopener" data-api_path="/artists/17853"&gt;Rita Ora&lt;/a&gt;), and &lt;a href="https://genius.com/Charli-xcx-famous-lyrics" rel="noopener" data-api_path="/songs/609342"&gt;“Famous”&lt;/a&gt; all performed well on the UK singles chart.&lt;/p&gt;\n\n&lt;p&gt;By 2015, Charli began work on a third studio album, teaming up with &lt;em&gt;PC Music&lt;/em&gt; artists and affiliates such as &lt;a href="https://genius.com/artists/Sophie" rel="noopener" data-api_path="/artists/210722"&gt;SOPHIE&lt;/a&gt;, &lt;a href="https://genius.com/artists/Danny-l-harle" rel="noopener" data-api_path="/artists/210725"&gt;Danny L Harle&lt;/a&gt; and &lt;a href="https://genius.com/artists/A-g-cook" rel="noopener" data-api_path="/artists/210974"&gt;A. G. Cook&lt;/a&gt; to create harsher, more electronic music. Critics hailed the &lt;a href="https://genius.com/albums/Charli-xcx/Vroom-vroom-ep" rel="noopener" data-api_path="/albums/144811"&gt;&lt;em&gt;Vroom Vroom&lt;/em&gt;&lt;/a&gt; EP as a groundbreaking new form of pop. Despite this, her record label was dissatisfied with how the singles were performing: &lt;a href="https://genius.com/Charli-xcx-after-the-afterparty-lyrics" rel="noopener" data-api_path="/songs/2880792"&gt;“After the Afterparty”&lt;/a&gt; and &lt;a href="https://genius.com/Charli-xcx-boys-lyrics" rel="noopener" data-api_path="/songs/3151350"&gt;“Boys”&lt;/a&gt; both reached the UK Top 40 but had little success elsewhere.&lt;/p&gt;\n\n&lt;p&gt;Defying her label’s commercial expectations, she released two “mixtapes” in 2017: &lt;a href="https://genius.com/albums/Charli-xcx/Number-1-angel" rel="noopener" data-api_path="/albums/329741"&gt;&lt;em&gt;Number 1 Angel&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Charli-xcx/Pop-2" rel="noopener" data-api_path="/albums/385021"&gt;&lt;em&gt;Pop 2&lt;/em&gt;&lt;/a&gt;, which featured collaborations with the likes of &lt;a href="https://genius.com/artists/M" rel="noopener" data-api_path="/artists/21871"&gt;MØ&lt;/a&gt;, &lt;a href="https://genius.com/artists/Cupcakke" rel="noopener" data-api_path="/artists/576538"&gt;\u200bCupcakKe&lt;/a&gt;, &lt;a href="https://genius.com/artists/Carly-rae-jepsen" rel="noopener" data-api_path="/artists/21150"&gt;Carly Rae Jepsen&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Tove-lo" rel="noopener" data-api_path="/artists/127642"&gt;Tove Lo&lt;/a&gt;. Critics again reacted positively to these releases, with the latter attaining an 84 score on Metacritic.&lt;/p&gt;\n\n&lt;p&gt;Throughout 2018, she released a handful of singles, including formerly-unreleased fan favorites &lt;a href="https://genius.com/Charli-xcx-girls-night-out-lyrics" rel="noopener" data-api_path="/songs/2429535"&gt;“Girls Night Out”&lt;/a&gt; and &lt;a href="https://genius.com/Charli-xcx-no-angel-lyrics" rel="noopener" data-api_path="/songs/2907544"&gt;“No Angel,”&lt;/a&gt;. From May to August, Charli joined pop superstar &lt;a href="https://genius.com/artists/Taylor-swift" rel="noopener" data-api_path="/artists/1177"&gt;Taylor Swift&lt;/a&gt; on her &lt;a href="https://genius.com/albums/taylor-swift/reputation" rel="noopener" data-api_path="/albums/350247"&gt;&lt;em&gt;reputation&lt;/em&gt;&lt;/a&gt; Stadium Tour, introducing her to a whole new audience.&lt;/p&gt;\n\n&lt;p&gt;The following summer, she released a 15 song &lt;a href="https://genius.com/albums/Charli-xcx/Charli" rel="noopener" data-api_path="/albums/390866"&gt;self-titled&lt;/a&gt; album, featuring many previous collaborators. Notable new collaborators for the project included &lt;a href="https://genius.com/artists/Troye-sivan" rel="noopener" data-api_path="/artists/161507"&gt;Troye Sivan&lt;/a&gt;, &lt;a href="https://genius.com/artists/Big-freedia" rel="noopener" data-api_path="/artists/148814"&gt;Big Freedia&lt;/a&gt;, &lt;a href="https://genius.com/artists/Planet-1999" rel="noopener" data-api_path="/artists/1837106"&gt;Planet 1999&lt;/a&gt;, &lt;a href="https://genius.com/artists/Christine-and-the-queens" rel="noopener" data-api_path="/artists/327334"&gt;Christine and the Queens&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Lizzo" rel="noopener" data-api_path="/artists/84514"&gt;Lizzo&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2020, she recorded a new project almost entirely during the first few months of the Covid-19 global pandemic: &lt;em&gt;&lt;a href="https://genius.com/albums/Charli-xcx/How-im-feeling-now" rel="noopener" data-api_path="/albums/621267"&gt;how i’m feeling now&lt;/a&gt;.&lt;/em&gt; The project was created largely with the help of Cook and &lt;a href="https://genius.com/artists/Bon-iver" rel="noopener" data-api_path="/artists/589"&gt;Bon Iver&lt;/a&gt; producer &lt;a href="https://genius.com/artists/Bj-burton" rel="noopener" data-api_path="/artists/623586"&gt;BJ Burton&lt;/a&gt;. A documentary about the project’s recording, called &lt;em&gt;&lt;a href="https://www.dazeddigital.com/music/article/51906/1/charli-xcx-quarantine-documentary-alone-together-premiere-virtual-sxsw" rel="noopener nofollow"&gt;Alone Together&lt;/a&gt;&lt;/em&gt;, premiered at SXSW the following spring.&lt;/p&gt;', 'alternate_names': ['Charlotte Aitchison', 'Charlotte Emma Aitchison']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Soul-asylum', 'annotations': {'description': '&lt;p&gt;Soul Asylum is an American alternative rock band formed in 1981 in Minneapolis, Minnesota, best known for the Grammy-winning 1993 hit “Runaway Train”. The band was originally called Loud Fast Rules, with a lineup consisting of Dave Pirner, Dan Murphy, Karl Mueller, and Pat Morley. They changed their name to Soul Asylum in 1983. Morley was replaced by Grant Young in 1984. The band recorded three albums with Twin/Tone Records and two with A&amp;amp;M Records, with little commercial success. In 1992, they released the triple-platinum album Grave Dancers Union, featuring “Runaway Train”. The band played at the inauguration of President Bill Clinton early the next year. They also scored a platinum record with the album Let Your Dim Light Shine three years later.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f7ed8205179ddd2b4c40090997cd9664.653x827x1.jpg" alt="" width="653" height="827" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Vita', 'annotations': {'description': '&lt;p&gt;LaVita Raynor (born September 25, 1981) known simply as Vita, is an American rapper, lingerie designer and actress. She is most known as an actress for playing DMX’s side chick Kionna in the 1998 film Belly.&lt;/p&gt;', 'alternate_names': ['LaVita Gwendolyn Raynor', 'L. Raymor', 'L. Raynor', 'Hot Totti', 'LaVita Raynor']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Rage-against-the-machine', 'annotations': {'description': '&lt;p&gt;Formed in Los Angeles in 1991, Rage Against the Machine are critically acclaimed for their aggressive, politically charged rhymes. During the 1990s, they found huge success with their politicised image, broad array of influences and punk attitudes. The band represents an important intersection in 90s culture – between the musical expression of urban black rebels (hip-hop, funk) and their white counterpart (metal, punk rock).&lt;/p&gt;\n\n&lt;p&gt;Accompanying a musical fusion of punk, hip-hop and metal, the lyricism of frontman &lt;a href="https://genius.com/artists/Zack-de-la-rocha" rel="noopener" data-api_path="/artists/9775"&gt;Zack de la Rocha&lt;/a&gt; provides a fiery critique of corporate America, government oppression, and cultural imperialism. Both de la Rocha and guitarist &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt; were &lt;a href="http://www.rollingstone.com/music/artists/rage-against-the-machine/biography" rel="noopener nofollow"&gt;born into activist families&lt;/a&gt;, influential to shaping the band’s political views and activism. De la Rocha’s father devoted his artistic work to Chicano causes, and Morello was raised by a civil rights activist mother and a Kenyan rebel-turned-diplomat father.&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine view their music as a &lt;a href="http://www.musicfanclubs.org/rage/articles/juice00.htm" rel="noopener nofollow"&gt;vehicle for social activism&lt;/a&gt;, and de la Rocha has explained this by saying:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’m interested in spreading those ideas through art, because music has the power to cross borders, to break military sieges and to establish real dialogue.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Over their career, Rage Against the Machine have &lt;a href="http://www.rollingstone.com/music/news/the-battle-of-rage-against-the-machine-19991125" rel="noopener nofollow"&gt;championed numerous causes&lt;/a&gt;, including death-row inmate Mumia Abu-Jamal’s fight for a new trial, the Zapatista freedom fighters in Mexico, and the treatment of sweatshop workers. The band’s leftist and revolutionary political views are further represented in almost all of their songs, and this politically fuelled commentary is key to their identity. Notable examples of these beliefs are discussed in &lt;a href="https://genius.com/Rage-against-the-machine-killing-in-the-name-lyrics" rel="noopener" data-api_path="/songs/4569"&gt;“Killing in the Name”&lt;/a&gt; (addressing racism and police corruption), &lt;a href="https://genius.com/Rage-against-the-machine-wake-up-lyrics" rel="noopener" data-api_path="/songs/39712"&gt;“Wake Up”&lt;/a&gt; (addressing racism in the American government), and &lt;a href="https://genius.com/Rage-against-the-machine-freedom-lyrics" rel="noopener" data-api_path="/songs/39703"&gt;“Freedom”&lt;/a&gt; (supporting imprisoned American-Indian activist Leonard Peltier).&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine split up in 2000, with three of the band members joining &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;’s &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt; to form rock supergroup &lt;a href="https://genius.com/artists/Audioslave" rel="noopener" data-api_path="/artists/39547"&gt;Audioslave&lt;/a&gt;. They reunited in 2007, and since then have sporadically performed major live events, but are yet to record any new material. In May 2016, it was revealed that &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt;, &lt;a href="https://genius.com/artists/Brad-wilk" rel="noopener" data-api_path="/artists/646889"&gt;Brad Wilk&lt;/a&gt; and &lt;a href="https://genius.com/artists/Tim-commerford" rel="noopener" data-api_path="/artists/646888"&gt;Tim Commerford&lt;/a&gt; had united with &lt;a href="https://genius.com/artists/Chuck-d" rel="noopener" data-api_path="/artists/1884"&gt;Chuck D&lt;/a&gt; of &lt;a href="https://genius.com/artists/Public-enemy" rel="noopener" data-api_path="/artists/203"&gt;Public Enemy&lt;/a&gt; and &lt;a href="https://genius.com/artists/B-real" rel="noopener" data-api_path="/artists/998"&gt;B-Real&lt;/a&gt; of &lt;a href="https://genius.com/artists/Cypress-hill" rel="noopener" data-api_path="/artists/1317"&gt;Cypress Hill&lt;/a&gt; to form the supergroup, &lt;a href="https://genius.com/artists/Prophets-of-rage" rel="noopener" data-api_path="/artists/980209"&gt;Prophets of Rage&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/4-non-blondes', 'annotations': {'description': '&lt;p&gt;4 Non Blondes began in 1989 as four San Fransciso lesbians who built a local following &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;and got&lt;/a&gt; ‘a lot of press’ in the area, attracting a number of record labels who smelled a hit in their ballad “What’s Up?” – a song so powerful that bass player Christa Hillhouse actually &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;stopped having sex&lt;/a&gt; and ran down the hall when she first heard Linda Perry playing the song to express how much she liked it.&lt;/p&gt;\n\n&lt;p&gt;The band chose Interscope Records and recorded at a studio in Calabasas, California. During these sessions, drummer Wanda Day &lt;a href="https://en.slowradio.com/artists/4-non-blondes" rel="noopener nofollow"&gt;was fired&lt;/a&gt; due to drug problems (she later died in 1997) and guitarist Shaunna Hall left the band over differences with the album’s producer, who &lt;a href="https://web.archive.org/web/20121028192212/http://www.sfbg.com/40/01/noise_miss_understood.html" rel="noopener nofollow"&gt;told Day’s replacement&lt;/a&gt; “the record is not happening with your guitar player”.&lt;/p&gt;\n\n&lt;p&gt;In 1992, Interscope released “Dear Mr President” as the album’s first single. It found small success in the UK and reached the bottom of the top 40 in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=4+Non+Blondes&amp;amp;titel=Dear+Mr%2E+President&amp;amp;cat=s" rel="noopener nofollow"&gt;New Zealand&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;When “What’s Up?” was released as the second single, the band rocketed into international stardom. It &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=4+Non+Blondes&amp;amp;titel=What%27s+Up%3F&amp;amp;cat=s" rel="noopener nofollow"&gt;topped the charts&lt;/a&gt; in seven countries, reached #2 in three more (including &lt;a href="http://www.officialcharts.com/artist/28984/4-non-blondes/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;) and peaked at #14 in the US, &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;making them&lt;/a&gt; the first openly lesbian group to reach the top 40 there.&lt;/p&gt;\n\n&lt;p&gt;“Spaceman” was the group’s third single. It &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=4+Non+Blondes&amp;amp;titel=Spaceman&amp;amp;cat=s" rel="noopener nofollow"&gt;reached the top 40&lt;/a&gt; in six countries overseas and would be their last to chart anywhere. “Drifting” was the album’s fourth and final single, aside from the &lt;a href="https://www.discogs.com/4-Non-Blondes-Superfly/release/7263997" rel="noopener nofollow"&gt;Spain-only release&lt;/a&gt; of “Superfly”.&lt;/p&gt;\n\n&lt;p&gt;Two more songs were released in 1994 on film soundtracks as the band began work on a follow-up album. However, Perry &lt;a href="https://web.archive.org/web/20121028192212/http://www.sfbg.com/40/01/noise_miss_understood.html" rel="noopener nofollow"&gt;began writing&lt;/a&gt; melancholy music in the direction of Pink Floyd’s &lt;em&gt;Dark Side of the Moon&lt;/em&gt;, the rest of the band wanted to continue making rock songs like “Superfly”, and the label &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;kept pressuring them&lt;/a&gt; to come up with “What’s Up, version 2”.&lt;/p&gt;\n\n&lt;p&gt;Perry left by the end of the year and released two solo albums on Interscope Records in 1996 and 1999. She claims to have &lt;a href="https://web.archive.org/web/20121028192212/http://www.sfbg.com/40/01/noise_miss_understood.html" rel="noopener nofollow"&gt;told her A&amp;amp;R rep&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“I will kill myself if you do not let me off this label. I am so unhappy with you guys. I will never write you another ‘What’s Up’, so why would you hold onto me?”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Perry got her wish and was released from Interscope due to poor sales of those solo albums. By then, she’d blown through all of the money she’d made from 4 Non Blondes. But three weeks after becoming broke, P!nk seeked her out and they began a lucrative songwriting partnership beginning with the Perry-penned #4 smash hit &lt;a href="https://genius.com/P-nk-get-the-party-started-lyrics" rel="noopener" data-api_path="/songs/195076"&gt;“Get The Party Started”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2011, Perry &lt;a href="https://www.rollingstone.com/music/music-news/linda-perry-forms-new-band-admits-she-never-liked-4-non-blondes-234661/" rel="noopener nofollow"&gt;told Rolling Stone&lt;/a&gt; she would not be performing “What’s Up?” or any other 4 Non Blonde songs with her new band Deep Dark Robot because she didn’t like &lt;em&gt;Bigger, Better, Faster, More&lt;/em&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wasn’t really a big fan of my band. I didn’t like the record at all. ‘Drifting’ was the only song I loved. I did love ‘What’s Up?’ but I hated the production. When I heard our record for the first time I cried. It didn’t sound like me. It made me belligerent and a real asshole. I wanted to say, ‘We’re a fucking, bad-ass cool band. We’re not that fluffy polished bullshit that you’re listening to.’ It was really difficult.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/5-seconds-of-summer', 'annotations': {'description': '&lt;p&gt;5 Seconds of Summer is an Australian pop-punk band composed of &lt;a href="https://genius.com/artists/Luke-hemmings" rel="noopener" data-api_path="/artists/550520"&gt;Luke Hemmings&lt;/a&gt;, &lt;a href="https://genius.com/artists/calum-hood" rel="noopener" data-api_path="/artists/550521"&gt;Calum Hood&lt;/a&gt;, &lt;a href="https://genius.com/artists/ashton-irwin" rel="noopener" data-api_path="/artists/588148"&gt;Ashton Irwin&lt;/a&gt;, and &lt;a href="https://genius.com/artists/michael-clifford" rel="noopener" data-api_path="/artists/579752"&gt;Michael Clifford&lt;/a&gt;. They formed in 2011 and rose to international fame when &lt;a href="https://genius.com/artists/One-direction" rel="noopener" data-api_path="/artists/19657"&gt;One Direction&lt;/a&gt; found their covers of songs on YouTube in 2013. Shortly afterwards, they released their award winning single &lt;a href="https://genius.com/5-seconds-of-summer-she-looks-so-perfect-lyrics" rel="noopener" data-api_path="/songs/369417"&gt;“She Looks So Perfect.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Their first EP, &lt;em&gt;&lt;a href="https://genius.com/albums/5-seconds-of-summer/Somewhere-new-ep" rel="noopener" data-api_path="/albums/91763"&gt;Somewhere New,&lt;/a&gt;&lt;/em&gt; was released December 7th, 2012, and featured &lt;a href="https://genius.com/5-seconds-of-summer-unpredictable-lyrics" rel="noopener" data-api_path="/songs/434646"&gt;“Unpredictable,”&lt;/a&gt; &lt;a href="https://genius.com/5-seconds-of-summer-out-of-my-limit-lyrics" rel="noopener" data-api_path="/songs/397002"&gt;“Out of My Limit,”&lt;/a&gt; &lt;a href="https://genius.com/5-seconds-of-summer-beside-you-lyrics" rel="noopener" data-api_path="/songs/397096"&gt;“Beside You,”&lt;/a&gt; and &lt;a href="https://genius.com/5-seconds-of-summer-gotta-get-out-lyrics" rel="noopener" data-api_path="/songs/639510"&gt;“Gotta Get Out”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band’s &lt;a href="https://genius.com/albums/5-seconds-of-summer/5-seconds-of-summer" rel="noopener" data-api_path="/albums/541746"&gt;self-titled&lt;/a&gt; debut studio album was released June 27th, 2014. &lt;a href="https://genius.com/5-seconds-of-summer-she-looks-so-perfect-lyrics" rel="noopener" data-api_path="/songs/369417"&gt;“She Looks So Perfect,”&lt;/a&gt; &lt;a href="https://genius.com/5-seconds-of-summer-dont-stop-lyrics" rel="noopener" data-api_path="/songs/429626"&gt;“Don’t Stop,”&lt;/a&gt; &lt;a href="https://genius.com/5-seconds-of-summer-amnesia-lyrics" rel="noopener" data-api_path="/songs/460168"&gt;“Amnesia,”&lt;/a&gt; and &lt;a href="https://genius.com/5-seconds-of-summer-good-girls-lyrics" rel="noopener" data-api_path="/songs/432668"&gt;“Good Girls”&lt;/a&gt; were released as singles, each earning a music video. &lt;a href="https://genius.com/5-seconds-of-summer-beside-you-lyrics" rel="noopener" data-api_path="/songs/397096"&gt;“Beside You”&lt;/a&gt; was remastered and put on the album.&lt;/p&gt;\n\n&lt;p&gt;Their sophomore album, &lt;em&gt;&lt;a href="https://genius.com/albums/5-seconds-of-summer/Sounds-good-feels-good" rel="noopener" data-api_path="/albums/129054"&gt;Sounds Good Feels Good&lt;/a&gt;&lt;/em&gt;, came out on October 23rd, 2015. The album was preceded by lead single &lt;a href="https://genius.com/5-seconds-of-summer-shes-kinda-hot-lyrics" rel="noopener" data-api_path="/songs/2243400"&gt;“She’s Kinda Hot,”&lt;/a&gt; which gave fans a preview of the band’s new pop punk sound.&lt;/p&gt;\n\n&lt;p&gt;In early 2018, they broadcasted their new sound and released two singles, &lt;a href="https://genius.com/5-seconds-of-summer-want-you-back-lyrics" rel="noopener" data-api_path="/songs/3529304"&gt;“Want You Back”&lt;/a&gt; and &lt;a href="https://genius.com/5-seconds-of-summer-youngblood-lyrics" rel="noopener" data-api_path="/songs/3593894"&gt;“Youngblood”&lt;/a&gt; in preparation for their third album. They released their third studio album &lt;a href="https://genius.com/albums/5-seconds-of-summer/Youngblood" rel="noopener" data-api_path="/albums/405224"&gt;&lt;em&gt;Youngblood&lt;/em&gt;&lt;/a&gt; on June 15th, 2018, topping charts worldwide within hours of its release.&lt;/p&gt;\n\n&lt;p&gt;In May 2019, 5SOS debuted &lt;a href="https://genius.com/5-seconds-of-summer-easier-lyrics" rel="noopener" data-api_path="/songs/4565635"&gt;“Easier,”&lt;/a&gt; the first offering from their fourth studio album, &lt;a href="https://genius.com/albums/5-seconds-of-summer/Calm" rel="noopener" data-api_path="/albums/531462"&gt;&lt;em&gt;CALM&lt;/em&gt;&lt;/a&gt;. On August 23, they released &lt;a href="https://genius.com/5-seconds-of-summer-teeth-lyrics" rel="noopener" data-api_path="/songs/4787875"&gt;“Teeth”&lt;/a&gt; as the second single from the album, and in February 2020, they released &lt;a href="https://genius.com/5-seconds-of-summer-no-shame-lyrics" rel="noopener" data-api_path="/songs/5059411"&gt;“No Shame”&lt;/a&gt; as the third single. “Old Me” was released on March 6 as the fourth single, and “Wildflower” was released on March 25 as the fifth single before the album was released on March 27.&lt;/p&gt;', 'alternate_names': ['5SOS', 'Five Seconds Of Summer']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Republica', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-offspring', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;The Offspring&lt;/strong&gt; is an American punk rock band from &lt;a href="http://en.wikipedia.org/wiki/Huntington_Beach,_California" rel="noopener nofollow"&gt;Huntington Beach, California&lt;/a&gt;, formed in 1984. The current line-up of the band includes: Brian Keith “Dexter” Holland (vocals, guitar), Kevin “Noodles” Wasserman (lead guitar), Todd Morse (bass), and Pete Parada (drums).&lt;/p&gt;\n\n&lt;p&gt;The Offspring is currently one of the biggest punk rock acts, along with the likes of &lt;a href="http://https.genius.com/artists/green-day" rel="noopener" data-api_path="/artists/632"&gt;Green Day,&lt;/a&gt; &lt;a href="http://https.genius.com/artists/rancid" rel="noopener" data-api_path="/artists/30419"&gt;Rancid,&lt;/a&gt; and &lt;a href="http://https.genius.com/artists/sublime" rel="noopener" data-api_path="/artists/659"&gt;Sublime,&lt;/a&gt; all of which come from California. The Offspring and other groups are credited for reviving main-stream punk rock, though it isn’t as popular as it was in the ‘80s.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sinead-oconnor', 'annotations': {'description': '&lt;p&gt;Sinéad O\'Connor (who goes by Shuhada\' Sadaqat in her private life) is an Irish singer-songwriter who rose to fame in the late 80s with her album &lt;em&gt;The Lion and the Cobra&lt;/em&gt; and achieved worldwide success with her cover of Prince’s “Nothing Compares 2 U”.&lt;/p&gt;\n\n&lt;p&gt;O\'Connor was discovered in 1985 when Nigel Grainge of Ensign Records saw her band Ton Ton Macoute perform. Although he was not fond of the band’s music, he was impressed by O\'Connor’s ‘amazing voice’. Grainge had O\'Connor record four songs with Karl Wallinger (World Party) and &lt;a href="https://www.oldies.com/artist-biography/Sinead-OConnor.html" rel="noopener nofollow"&gt;signed her to his label&lt;/a&gt;. O\'Connor’s first single was the song “Heroine” which she co-wrote with U2’s guitarist The Edge for the film &lt;em&gt;Captive&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Her debut album &lt;em&gt;The Lion and the Cobra&lt;/em&gt; was a sensation when it was released in 1987, reaching gold record status and &lt;a href="https://www.grammy.com/grammys/artists/sin%C3%A9ad-oconnor" rel="noopener nofollow"&gt;earning&lt;/a&gt; a Best Female Rock Vocal Performance Grammy nomination. O\'Connor’s debut single “Troy” charted in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=Troy&amp;amp;cat=s" rel="noopener nofollow"&gt;The Netherlands and Belgium&lt;/a&gt;, and “Mandinka”, released in late 1987, cracked the top 20 &lt;a href="http://www.officialcharts.com/artist/24657/sinead-o\'connor/" rel="noopener nofollow"&gt;in the UK&lt;/a&gt; and top 30 in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=Mandinka&amp;amp;cat=s" rel="noopener nofollow"&gt;three other European countries&lt;/a&gt;, helping her album chart well &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=The+Lion+And+The+Cobra&amp;amp;cat=a" rel="noopener nofollow"&gt;in Europe&lt;/a&gt;. Spin Magazine &lt;a href="https://www.spin.com/featured/sinead-oconnor-interview-spin-30-cover-story/" rel="noopener nofollow"&gt;described&lt;/a&gt; the album as a “remarkable, still-spine-tingling first record”.&lt;/p&gt;\n\n&lt;p&gt;In 1990, the lead single from her sophomore album &lt;em&gt;I Do Not Want What I Haven’t Got&lt;/em&gt;, a cover of the Prince-penned song “Nothing Compares 2 U” (originally performed by &lt;a href="https://genius.com/The-family-nothing-compares-2-u-lyrics" rel="noopener" data-api_path="/songs/2891977"&gt;The Family&lt;/a&gt;), became an &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=Nothing+Compares+2+U&amp;amp;cat=s" rel="noopener nofollow"&gt;international smash hit&lt;/a&gt;, topping the charts in eleven countries including &lt;a href="http://www.officialcharts.com/artist/24657/sinead-o\'connor/" rel="noopener nofollow"&gt;the UK&lt;/a&gt; and &lt;a href="https://www.billboard.com/music/sinead-oconnor/chart-history/hot-100" rel="noopener nofollow"&gt;the US&lt;/a&gt;, propelling O\'Connor into worldwide stardom. Its second single “The Emperor’s New Clothes” was a top 30 hit &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=The+Emperor%27s+New+Clothes&amp;amp;cat=s" rel="noopener nofollow"&gt;in several European countries&lt;/a&gt;, but only a modest one &lt;a href="https://www.billboard.com/music/sinead-oconnor/chart-history/hot-100" rel="noopener nofollow"&gt;in the US&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Almost immediately, controversy brewed around O\'Connor. A canceled Saturday Night Live performance was followed by &lt;a href="https://www.theguardian.com/music/2012/sep/21/sinead-o-connor-pope-photo" rel="noopener nofollow"&gt;ripping a photo&lt;/a&gt; of the Pope in half on the show two years later. She refused to allow the American National Anthem be sung before one of her concerts, leading to a local FM station banning her music and a senator calling for the boycotting of her shows. She refused to attend the 1990 Grammys despite receiving &lt;a href="https://www.grammy.com/grammys/artists/sin%C3%A9ad-oconnor" rel="noopener nofollow"&gt;four nominations&lt;/a&gt;. And she claimed a meeting with Prince included a threat that he was going to beat her, which he denied.&lt;/p&gt;\n\n&lt;p&gt;Her subsequent releases through the 90’s found &lt;a href="https://dutchcharts.nl/artist/Sinead_O\'Connor" rel="noopener nofollow"&gt;moderate success&lt;/a&gt; &lt;a href="http://www.officialcharts.com/artist/24657/sinead-o\'connor/" rel="noopener nofollow"&gt;overseas&lt;/a&gt;, and though album sales in the US &lt;a href="https://www.billboard.com/music/sinead-oconnor/chart-history/billboard-200" rel="noopener nofollow"&gt;were marginal&lt;/a&gt;, she had no further hits there. After 2000’s &lt;em&gt;Faith And Courage&lt;/em&gt;, O\'Connor’s success worldwide &lt;a href="https://dutchcharts.nl/artist/Sinead_O\'Connor" rel="noopener nofollow"&gt;diminished&lt;/a&gt;, with her songs only charting modestly in Ireland.&lt;/p&gt;\n\n&lt;p&gt;In addition to a fading career, a suicide attempt in 1999, three short-lived marriages between 2001-2012, and &lt;a href="https://www.news.com.au/entertainment/celebrity-life/celebrity-kids/sinead-oconnors-worrying-message-after-losing-custody-of-her-child/news-story/0a607587e38640e6fcfd183bde84d4ab" rel="noopener nofollow"&gt;losing custody&lt;/a&gt; of her son left her in a deteriorated mental state that culminated in a 12-minute profanity-laced video on her Facebook page in 2017 where she &lt;a href="https://www.telegraph.co.uk/news/2017/08/08/sinead-oconnor-sparks-fears-mental-health-posting-tearful-video/" rel="noopener nofollow"&gt;talks about&lt;/a&gt; wanting to kill herself. A month later she &lt;a href="https://variety.com/2017/tv/news/sinead-oconnor-dr-phil-interview-video-1202555641/" rel="noopener nofollow"&gt;appeared on a talk show&lt;/a&gt; stating, “I’m very excited to be getting some proper help”. However, in 2018 she changed her name from Sinéad O\'Connor to Magda Davitt, then to Shuhada Sadaqat, converted to Islam and &lt;a href="https://consequenceofsound.net/2018/11/sinead-oconnor-twitter/" rel="noopener nofollow"&gt;tweeted&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;What I’m about to say is something so racist I never thought my soul could ever feel it. But truly I never wanna spend time with white people again (if that’s what non-muslims are called). Not for one moment, for any reason. They are disgusting … If its ‘Crazy’ to care. Then by all means, spank my ass and call me Fruity loops.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In 2019, O\'Connor released a demo of new song “Milestones” and announced a new upcoming LP &lt;em&gt;No Mud No Lotus&lt;/em&gt; (also the title of a 2014 book by Zen Master Thich Nhat Hanh) was scheduled for release later in the year, but a cover of gospel singer Mahalia Jackson’s “Trouble Of The World”, a song &lt;a href="https://www.hotpress.com/music/exclusive-sinead-oconnor-talks-trouble-of-the-world-in-the-next-issue-of-hot-press-22828112" rel="noopener nofollow"&gt;in support&lt;/a&gt; of the Black Lives Matter cause, appeared in 2020 instead. In June 2021, she &lt;a href="https://www.spin.com/2021/06/sinead-oconnor-retirement/" rel="noopener nofollow"&gt;announced&lt;/a&gt; her retirement from music, revealing that her upcoming album &lt;em&gt;No Veteran Dies Alone&lt;/em&gt; will be her last, and added to her claims of abuse by Prince back in the 1990s in her memoir &lt;em&gt;&lt;a href="https://www.npr.org/2021/06/01/992501997/sinead-oconnor-has-a-new-memoir-and-no-regrets" rel="noopener nofollow"&gt;Rememberings&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': ['Magda Davitt', "Sinead O'connor"]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-beloved', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alien-ant-farm', 'annotations': {'description': '&lt;p&gt;Alien Ant Farm is an American rock band &lt;a href="http://www.mtv.com/news/1454457/alien-ant-farm-injured-in-bus-accident/" rel="noopener nofollow"&gt;of childhood friends&lt;/a&gt; formed in Riverside, California, in 1995. Their name comes &lt;a href="https://www.fredericksburg.com/calendar/charity_fundraisers/alien-ant-farm-at-hard-times/event_262095da-7025-11e4-9677-c392b372c9ea.html" rel="noopener nofollow"&gt;from an idea&lt;/a&gt; original guitarist Terry Corso had about aliens and the Earth:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was just my daydream about our planet being seeded by entities from other dimensions.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After self-releasing two EPs, AAF released their first &lt;a href="https://www.discogs.com/Alien-Ant-Farm-Greatest-Hits/release/3402074" rel="noopener nofollow"&gt;full album&lt;/a&gt; &lt;em&gt;Greatest Hits&lt;/em&gt; on Chick Music Records, featuring the original recordings of two future hits “Movies” and a cover of Michael Jackson’s “Smooth Criminal” (listed as “Slick Thief”). The &lt;a href="http://archives.starbulletin.com/2005/08/19/features/index3.html" rel="noopener nofollow"&gt;album won&lt;/a&gt; Best Independent Album at that year’s LA Music Awards and, through a friendship with Papa Roach, AAF was signed to DreamWorks Records.&lt;/p&gt;\n\n&lt;p&gt;In 2001 AAF released &lt;em&gt;ANThology&lt;/em&gt; with “Movies” as the band’s first single. It originally reached #53 in the UK and #18 on the &lt;a href="https://www.billboard.com/music/alien-ant-farm/chart-history/alternative-songs" rel="noopener nofollow"&gt;US Alternative Chart&lt;/a&gt; in the first half of 2001. Next “Smooth Criminal” was released and it became an international smash hit, reaching the top 30 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Smooth+Criminal&amp;amp;cat=s" rel="noopener nofollow"&gt;in fifteen countries&lt;/a&gt;. While “Criminal” was gaining steam, AAF toured with Linkin Park and Papa Roach, traveled with The Warped Tour, and headlined an MTV Fall Tour.&lt;/p&gt;\n\n&lt;p&gt;The success of “Criminal” shot “Movies” up to #5 in the UK and the top 30 in &lt;a href="https://australian-charts.com/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Movies&amp;amp;cat=s" rel="noopener nofollow"&gt;Australia &amp;amp; New Zealand&lt;/a&gt; in early 2002. The band appeared at several European festivals that year, Australia’s Big Day Out and headlined in Japan.  On the way to a festival in Spain, the band’s tour bus &lt;a href="http://www.mtv.com/news/1454457/alien-ant-farm-injured-in-bus-accident/" rel="noopener nofollow"&gt;collided with&lt;/a&gt; a parked truck, killing the bus driver and injuring several members of the band and their crew, one ending up in a coma.&lt;/p&gt;\n\n&lt;p&gt;In 2003, AAF released &lt;em&gt;Truant&lt;/em&gt; and &lt;a href="http://genxsummer.com/alienantfarm.html" rel="noopener nofollow"&gt;toured Europe&lt;/a&gt; with Metallica. The album’s lead single “These Days” was a minor Alternative and Rock hit in the US. The follow-up single “Glow” reached #5 &lt;a href="https://charts.nz/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Glow&amp;amp;cat=s" rel="noopener nofollow"&gt;in New Zealand&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;DreamWorks Records was soon after sold to Universal and the band was placed under Universal’s Geffen Records, who shelved the band’s fourth album. AAF &lt;a href="http://www.popentertainment.com/alienantfarm.htm" rel="noopener nofollow"&gt;responded by&lt;/a&gt; bootlegging it and selling ‘a few thousand’ copies to fans.&lt;/p&gt;\n\n&lt;p&gt;Eventually Geffen relented and allowed the release of the album on a different label owned by Universal. The song “Forgive And Forget” was added and it was released as &lt;em&gt;Up In The Attic&lt;/em&gt; in 2006. None of the album’s singles charted. Its lack of success led to an &lt;a href="https://answerstoall.com/language/why-did-alien-ant-farm-break-up/" rel="noopener nofollow"&gt;unannounced 2007 breakup&lt;/a&gt;, that would only last until 2008. The band then toured for a few years before beginning work on their fifth album &lt;em&gt;Always And Forever&lt;/em&gt; in 2012, which found little success upon release in 2015.&lt;/p&gt;\n\n&lt;p&gt;Since then, the band continues to tour, taking part in 2016’s Make America Rock Again tour with Saliva, Saving Abel, Tantric, Trapt, Crazy Town and 12 Stones, as well as 2018’s Gen-X Summer Tour with Buckcherry, Lit and POD. As of summer 2018, the band had &lt;a href="http://genxsummer.com/alienantfarm.html" rel="noopener nofollow"&gt;sold over 5 million units&lt;/a&gt; worldwide.  In 2020, during their Covid-19 quarantine, AAF released another 80s cover, this time Wham’s “Everything She Wants”. Its  &lt;a href="https://www.youtube.com/watch?v=Kfg4t-PAcBg" rel="noopener nofollow"&gt;music video&lt;/a&gt; features cameos by several famous musicians.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Demi-lovato', 'annotations': {'description': '&lt;p&gt;Demetria Devonne “Demi” Lovato (born August 20, 1992) is an American singer-songwriter, musician, and actor. Lovato &lt;a href="https://www.hollywoodreporter.com/news/music-news/demi-lovato-non-binary-pronouns-they-them-1234955698/" rel="noopener nofollow"&gt;identifies&lt;/a&gt; as non-binary and uses they/them pronouns. They made their debut as a child actor in &lt;a href="https://www.imdb.com/title/tt0144701/" rel="noopener nofollow"&gt;&lt;em&gt;Barney &amp;amp; Friends&lt;/em&gt;&lt;/a&gt;. In 2008, they came to prominence as a starring cast member in the television film &lt;a href="https://www.imdb.com/title/tt1055366/" rel="noopener nofollow"&gt;&lt;em&gt;Camp Rock&lt;/em&gt;&lt;/a&gt;. They signed to &lt;a href="https://genius.com/artists/Hollywood-records" rel="noopener" data-api_path="/artists/58977"&gt;Hollywood Records&lt;/a&gt; the same year, and released their debut studio album &lt;a href="https://genius.com/albums/Demi-lovato/Dont-forget" rel="noopener" data-api_path="/albums/29162"&gt;&lt;em&gt;Don’t Forget&lt;/em&gt;&lt;/a&gt; in September 2008. It has been &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=Demi+Lovato&amp;amp;ti=Don%27t+Forget#search_section" rel="noopener nofollow"&gt;certified Gold&lt;/a&gt; by the Recording Industry Association of America (RIAA). In 2009, Lovato was commissioned for their Disney Channel television series, &lt;a href="https://www.imdb.com/title/tt1252374/" rel="noopener nofollow"&gt;&lt;em&gt;Sonny with a Chance&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;As of 2021, they have released seven studio albums: &lt;em&gt;Don’t Forget&lt;/em&gt;, &lt;a href="https://genius.com/albums/Demi-lovato/Here-we-go-again" rel="noopener" data-api_path="/albums/40337"&gt;&lt;em&gt;Here We Go Again&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Demi-lovato/Unbroken" rel="noopener" data-api_path="/albums/15632"&gt;&lt;em&gt;Unbroken&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Demi-lovato/Demi" rel="noopener" data-api_path="/albums/34708"&gt;&lt;em&gt;Demi&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Demi-lovato/Confident" rel="noopener" data-api_path="/albums/130936"&gt;&lt;em&gt;Confident&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Demi-lovato/Tell-me-you-love-me" rel="noopener" data-api_path="/albums/364894"&gt;&lt;em&gt;Tell Me You Love Me&lt;/em&gt;&lt;/a&gt; and most recently, &lt;a href="https://genius.com/albums/Demi-lovato/Dancing-with-the-devil-the-art-of-starting-over" rel="noopener" data-api_path="/albums/439486"&gt;&lt;em&gt;Dancing With the Devil…The Art of Starting Over&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Demetria Lovato', 'Demetria Devonne Lovato']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Audioslave', 'annotations': {'description': '&lt;p&gt;Audioslave was an American rock supergroup that formed in Los Angeles, California in 2001 and disbanded in 2007. Its members consisted of lead vocalist/rhythm guitarist &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt; (who at the time broke away from the band &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;), lead guitarist &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/tim-commerford" rel="noopener" data-api_path="/artists/646888"&gt;Tim Commerford&lt;/a&gt;, and drummer &lt;a href="https://genius.com/artists/brad-wilk" rel="noopener" data-api_path="/artists/646889"&gt;Brad Wilk&lt;/a&gt; (all three of which were members of the then-broken-up band &lt;a href="https://genius.com/artists/Rage-against-the-machine" rel="noopener" data-api_path="/artists/1499"&gt;Rage Against the Machine&lt;/a&gt;). Thus, they were initially described as a combination of both bands, but by the time their 2005 album &lt;em&gt;Out of Exile&lt;/em&gt; came out, they became noted as being their own band.&lt;/p&gt;\n\n&lt;p&gt;They produced three studio albums and received just as many Grammy nominations over their six years of existence, and were the first American rock band to perform an open-air concert in Cuba. Their biggest hit was &lt;a href="https://genius.com/Audioslave-like-a-stone-lyrics" rel="noopener" data-api_path="/songs/121557"&gt;“Like A Stone”&lt;/a&gt; from their 2002 self-titled debut album.&lt;/p&gt;\n\n&lt;p&gt;They broke up in 2007 due to “irresolvable personality conflicts as well as musical differences”, according to Cornell, which was later solidified by the reunion tour of Rage and solo album releases by Morello and Cornell in the same year.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Metro-station', 'annotations': {'description': '&lt;p&gt;Metro Station is an American pop band that was formed in Los Angeles by &lt;a href="https://genius.com/artists/Trace-cyrus" rel="noopener" data-api_path="/artists/59818"&gt;Trace Cyrus&lt;/a&gt; and &lt;a href="https://genius.com/artists/Mason-musso" rel="noopener" data-api_path="/artists/681526"&gt;Mason Musso&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Melanie-martinez', 'annotations': {'description': '&lt;p&gt;Melanie Adele Martinez (born April 28, 1995) is an American singer-songwriter born in Astoria, Queens and raised in Baldwin, New York.&lt;/p&gt;\n\n&lt;p&gt;Born to Dominican and Puerto Rican parents, Melanie first rose to fame on the Emmy Award-winning TV show &lt;a href="http://NBC.com/the-voice" rel="noopener nofollow"&gt;&lt;em&gt;The Voice USA&lt;/em&gt;&lt;/a&gt; at the age of 17. Although she did not win, Melanie was inspired to produce their first single &lt;a href="https://genius.com/Melanie-martinez-dollhouse-lyrics" rel="noopener" data-api_path="/songs/381520"&gt;“Dollhouse”&lt;/a&gt;, followed by their sophomore single&lt;a href="https://genius.com/Melanie-martinez-carousel-lyrics" rel="noopener" data-api_path="/songs/435278"&gt;“Carousel”&lt;/a&gt; was used in &lt;a href="https://www.youtube.com/watch?v=bE1cV4TgWiw" rel="noopener nofollow"&gt;promos for &lt;em&gt;American Horror Story: Freak Show&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Starting her independent career, Melanie signed with &lt;a href="https://genius.com/artists/Atlantic-records" rel="noopener" data-api_path="/artists/68978"&gt;&lt;em&gt;Atlantic Records&lt;/em&gt;&lt;/a&gt;. In 2014, Melanie would release their debut EP &lt;a href="https://genius.com/albums/Melanie-martinez/Dollhouse" rel="noopener" data-api_path="/albums/117979"&gt;&lt;em&gt;Dollhouse&lt;/em&gt;&lt;/a&gt;, which introduced her alter-ego Cry Baby and would lay the foundation for their first studio album &lt;a href="https://genius.com/albums/Melanie-martinez/Cry-baby" rel="noopener" data-api_path="/albums/125507"&gt;&lt;em&gt;Cry Baby&lt;/em&gt;&lt;/a&gt;, which debuted August 14, 2015 and featured &lt;a href="https://genius.com/artists/Kinetics" rel="noopener" data-api_path="/artists/12128"&gt;Kinetics&lt;/a&gt; and &lt;a href="https://genius.com/artists/One-love" rel="noopener" data-api_path="/artists/28165"&gt;One Love&lt;/a&gt; as its producers.&lt;/p&gt;\n\n&lt;p&gt;On December 4, 2017, Melanie would be embroiled in controversy, after singer-songwriter &lt;a href="https://genius.com/artists/Timothy-heller" rel="noopener" data-api_path="/artists/1274650"&gt;Timothy Heller&lt;/a&gt;, a former close friend, accused her of sexual assault and rape. Melanie addressed the accusation, saying that “[Timothy] had never said no to what we chose to do together”, and asserting that Heller’s statements were false. Melanie then took a four-year-hiatus from actively producing music.&lt;/p&gt;\n\n&lt;p&gt;On September 6, 2019, Melanie released their second studio album &lt;a href="https://genius.com/albums/Melanie-martinez/K-12" rel="noopener" data-api_path="/albums/413895"&gt;&lt;em&gt;K-12&lt;/em&gt;&lt;/a&gt;, which was accompanied by her &lt;a href="https://www.youtube.com/watch?v=2HtaIvb61Uk&amp;amp;list=PLhpyBoWxiusije5j7TXxcRjUF0fcPsw83" rel="noopener nofollow"&gt;self-directed film&lt;/a&gt; of the same name.&lt;/p&gt;\n\n&lt;p&gt;On September 25, 2020, Melanie released a follow-up EP: &lt;a href="https://genius.com/albums/Melanie-martinez/After-school" rel="noopener" data-api_path="/albums/592434"&gt;&lt;em&gt;After School&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Melanie’s dreamy but dark aesthetic and unique style of writing, singing, and story-telling has garnered her an enormous fanbase. On songs like &lt;a href="https://genius.com/melanie-martinez-mrs-potato-head-lyrics" rel="noopener" data-api_path="/songs/2266331"&gt;“Mrs. Potato Head”&lt;/a&gt; and &lt;a href="https://genius.com/melanie-martinez-dollhouse-lyrics" rel="noopener" data-api_path="/songs/381520"&gt;“Dollhouse”&lt;/a&gt; Melanie comments on issues in today’s society, and on other songs like &lt;a href="https://genius.com/melanie-martinez-alphabet-boy-lyrics" rel="noopener" data-api_path="/songs/654738"&gt;“Alphabet Boy”&lt;/a&gt; and &lt;a href="https://genius.com/melanie-martinez-cry-baby-lyrics" rel="noopener" data-api_path="/songs/390271"&gt;“Cry Baby”&lt;/a&gt; she gives listeners a relatable glimpse into their personal life.&lt;/p&gt;\n\n&lt;p&gt;Melanie cites other alternative artists &lt;a href="https://genius.com/artists/Lana-del-rey" rel="noopener" data-api_path="/artists/15740"&gt;Lana Del Rey&lt;/a&gt;, &lt;a href="https://genius.com/artists/Regina-spektor" rel="noopener" data-api_path="/artists/19191"&gt;Regina Spektor&lt;/a&gt;, &lt;a href="https://genius.com/artists/Feist" rel="noopener" data-api_path="/artists/18072"&gt;Feist&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fiona-apple" rel="noopener" data-api_path="/artists/653"&gt;Fiona Apple&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Marina-and-the-diamonds" rel="noopener" data-api_path="/artists/27048"&gt;Marina and the Diamonds&lt;/a&gt; as major influences on her music.&lt;/p&gt;\n\n&lt;p&gt;In addition to her accounts on Instagram, Twitter, and Facebook, Melanie also uses &lt;a href="http://melaniemartinezmusic.tumblr.com/" rel="noopener nofollow"&gt;Tumblr,&lt;/a&gt; &lt;a href="https://www.youtube.com/user/Melmartinezx3" rel="noopener nofollow"&gt;YouTube,&lt;/a&gt; and her &lt;a href="http://melaniemartinezmusic.com/?frontpage-true" rel="noopener nofollow"&gt;official website&lt;/a&gt; to connect with fans.&lt;/p&gt;', 'alternate_names': ['Melanie A. Martinez', 'Melanie Adele Martinez']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Men-at-work', 'annotations': {'description': '&lt;p&gt;Formed in 1978 with Colin Hay, Jerry Speiser, and Ron Strykert (Greg Ham and John Rees later joined the band in the early 1980s)&lt;br&gt;\nHad their biggest hit in 1981 with “Down Under”&lt;br&gt;\nPerformed at the closing ceremony of the 2000 Summer Olympics in Sydney, Australia&lt;br&gt;\nBroke up in 1986; reformed in 1996 only to break up again six years later. The band occasionally reunited until 2012.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Korn', 'annotations': {'description': '&lt;p&gt;Bakersfield friends James “Munky” Shaffer, Reginald “Fieldy” Arvizu and David Silveria &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;formed the funk-rock band LAPD&lt;/a&gt; in 1989 and moved to Los Angeles with another friend Brian “Head” Welch as their roadie. Later, with Welch as second guitarist, the band named themselves Creep and recorded a demo with pal Ross Robinson.&lt;/p&gt;\n\n&lt;p&gt;However, when Shaffer and Welch visited family in Bakersfield, they met Jonathan Davis who added a darker, goth-tinged edge to the band’s heavy groove. &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;Robinson recalled&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The band wasn’t dark yet; it had, like, killer grooves and good riffs, but there was some happy edge to it. And when (Davis) walked into the room, it went dark and goth. Basically, during the first song, to audition in the rehearsal room, he started freaking the hell out [laughs]. You couldn’t hear his voice, but you felt chills all over your body, and it was instantly like, “Oh my God, yeah – he’s the one.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;They chose the name Korn (based on &lt;a href="https://www.youtube.com/watch?v=ZYnk4layQqs" rel="noopener nofollow"&gt;a gross story&lt;/a&gt; Davis once overheard) and recorded four songs &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;inspired by acts like&lt;/a&gt; Pantera, Ice Cube, Duran Duran, Cypress Hill, The Cure, Primus and potentially anything in between. That demo attracted Immortal Records. Their debut album only peaked at #72 in the US, but over time became the seed that sprouted into a whole new style of heavy music most commonly called nu-metal. &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;Davis explained&lt;/a&gt; in 2015:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;At the time in rock, there was nothing new or different, and it felt so stagnant. And here come these guys from Bakersfield with this bouncing sound, and I’m screaming my throat out, being super emotional and bringing up all this weird shit … It changed everything, man. And I’m not saying that because I was in the band, but I started seeing kids in baggy clothes and metal kids in Adidas.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Korn’s second album &lt;em&gt;Life Is Peachy&lt;/em&gt; began to expand the band’s sound from just dark and serious into frivolity, with a light-hearted cover of “Low Rider” and the band’s first almost-hit in the US “ADIDAS”. The formula worked in the UK where all three singles reached the top 30.&lt;/p&gt;\n\n&lt;p&gt;It was the band’s third album &lt;em&gt;Follow The Leader&lt;/em&gt;, another collection of dark songs mixed in with some silly ones, that broke the band in the US. Despite two of its singles only reaching the top 20 on two rock charts (but not crossing over to mainstream success), Korn became &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;what Noisey called&lt;/a&gt; “the biggest band in the fucking world”.&lt;/p&gt;\n\n&lt;p&gt;With an established sound, the band continued releasing successful albums and playing to packed arenas through the 2000s. But aside from their experimental tenth album &lt;em&gt;The Path Of Totality&lt;/em&gt; – a mixing of metal and dubstep – their albums remained formulaic and predictable. They are still best remembered for their self-titled debut and third album &lt;em&gt;Follow The Leader&lt;/em&gt;. In 2005, it was common to refer to Korn as a band whose best albums are &lt;a href="https://www.nme.com/reviews/album/reviews-nme-6437" rel="noopener nofollow"&gt;their odd-numbered ones&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The received wisdom about Korn is that they deliver on the odd numbers. Album one, ‘Korn’, revitalised metal, dragging it out of the middle ages into the modern era. Album three, ‘Follow The Leader’, took the form into the mainstream, blowing boundaries and preconceptions. Album four, ‘Issues’, was dense and impenetrable.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Welch quit in 2005 after having “Revelation of Christ” and Silveria left silently in 2006, but years later &lt;a href="https://www.ultimate-guitar.com/news/general_music_news/jonathan_davis_on_david_silveria_reunion_never_never_again.html" rel="noopener nofollow"&gt;revealed&lt;/a&gt; one reason for leaving was that he “was being asked to be a puppet and dumb down my playing” while producers made “cookie cutter Korn songs”. Welch later rejoined in 2013.&lt;/p&gt;\n\n&lt;p&gt;The band’s lifestyles have changed drastically over the band’s three-decade career, moving away from the spoils of excess to inspiring others to overcome their addictions and depression. In 2016, Davis &lt;a href="https://www.theguardian.com/music/2016/oct/21/korn-serenity-of-suffering-jonathan-davis-interview" rel="noopener nofollow"&gt;told The Guardian&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Nothing brings more joy into my fucking heart than seeing our music help a kid who is depressed, or suicidal, or going through an episode. That’s the payoff to me, that’s why we keep coming out here, that’s why we keep making records. Because we like to see people smile.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;As of 2020, the band has released 13 albums. The first seven are certified platinum and the band is &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;widely recognized as&lt;/a&gt; a pioneer of “one of heavy music’s biggest paradigm shifts”. They’re credited with creating the genre ‘nu-metal’ – a label &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;Davis originally rejected&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’d like to find that fucking writer that coined that term, nu-metal … Yeah, we’re heavy and downtuned, but metal, to me, is like Judas Priest and Iron Maiden. That’s metal, man. I always thought of us as a funk band, that funky groovy shit.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mousse-t', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Mustafa Gündoğdu']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Megadeth', 'annotations': {'description': '&lt;p&gt;After being &lt;a href="http://loudwire.com/dave-mustaine-fired-from-metallica-anniversary/" rel="noopener nofollow"&gt;kicked out of&lt;/a&gt; &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt;, Dave Mustaine decided to form a thrash metal band that not only rivaled his former band, but played faster, more technical metal. Along with bassist David ‘Junior’ Ellefson and a revolving door of guitarists and drummers, Mustaine &lt;a href="https://genius.com/Megadeth-set-the-world-afire-lyrics" rel="noopener" data-api_path="/songs/92396"&gt;set the world afire&lt;/a&gt; as Megadeth became known as the world’s state-of-the-art speed metal band throughout the 80s and the early 90s. One of the &lt;a href="https://genius.com/discussions/169443-Rank-the-big-four" rel="noopener"&gt;Big Four&lt;/a&gt; of &lt;a href="https://en.wikipedia.org/wiki/The_Big_Four:_Live_from_Sofia,_Bulgaria" rel="noopener nofollow"&gt;thrash metal&lt;/a&gt;, Megadeth remains one of metal’s most popular acts today.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;However, Dave Mustaine’s fledgling band got off to a shaky start. Initially unable to find like-minded individuals, it was not until an altercation with his (underage) downstairs neighbours Dave Ellefson and Greg Handevidt, that led to him buying them beer and forming the first incarnation of the band with drummer Dijon Carruthers in 1983.&lt;/p&gt;\n\n&lt;p&gt;The band was named after a political pamphlet that referred to a “megadeath” (one million deaths by nuclear explosion):&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The arsenal of megadeath can’t be rid no matter what the peace treaties come to&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After a few line-up changes, including &lt;a href="https://genius.com/artists/Slayer" rel="noopener" data-api_path="/artists/6596"&gt;Slayer&lt;/a&gt; guitarist Kerry King, the band settled on the first stable Megadeth line-up of the two Daves (Mustaine and Ellefson), guitarist Chris Poland, and drummer Gar Samuelson. Together they released 1985’s &lt;em&gt;&lt;a href="https://genius.com/albums/Megadeth/Killing-is-my-business-and-business-is-good" rel="noopener" data-api_path="/albums/22489"&gt;Killing Is My Business… and Business Is Good&lt;/a&gt;&lt;/em&gt; and 1986’s well-received &lt;em&gt;&lt;a href="https://genius.com/albums/Megadeth/Peace-sells-but-who-s-buying" rel="noopener" data-api_path="/albums/22490"&gt;Peace Sells… but Who’s Buying?&lt;/a&gt;&lt;/em&gt;, which both featured band mascot &lt;a href="https://en.wikipedia.org/wiki/Vic_Rattlehead" rel="noopener nofollow"&gt;Vic Rattlehead&lt;/a&gt; (a homage to both &lt;a href="http://maiden-world.com/articles/history-of-eddie.html" rel="noopener nofollow"&gt;Eddie the Head&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Mot%C3%B6rhead#Cover_art" rel="noopener nofollow"&gt;Snaggletooth&lt;/a&gt;) on the front cover. &lt;em&gt;Peace Sells… but Who’s Buying?&lt;/em&gt; included political themes, which in addition to the technical guitar work on display, became a staple of future Megadeth. Ironically, given the circumstances around Mustaine’s Metallica firing, both Poland and Samuelson were fired soon after &lt;em&gt;Peace Sells… but Who’s Buying?&lt;/em&gt; for excessive drug (heroin) abuse.&lt;/p&gt;\n\n&lt;p&gt;1988’s &lt;a href="https://genius.com/albums/Megadeth/So-far-so-good-so-what" rel="noopener" data-api_path="/albums/22492"&gt;&lt;em&gt;So Far, So Good… So What!&lt;/em&gt;&lt;/a&gt; continued in a similar vein both lyrically and musically, but was less cohesive than &lt;em&gt;Peace Sells… but Who’s Buying?&lt;/em&gt;, perhaps due to the line-up change, questionable mixing/engineering and alcohol/drug addiction. The subsequent firing of Jeff Young and Chuck Behler and newfound sobriety of Mustaine, led to the classic Megadeth line-up: the two Daves, Nick Menza on drums, and Marty Friedman on guitars. They started with great success, producing the Grammy-nominated and definitive thrash metal album, &lt;a href="https://genius.com/albums/Megadeth/Rust-in-peace" rel="noopener" data-api_path="/albums/16297"&gt;&lt;em&gt;Rust in Peace&lt;/em&gt;&lt;/a&gt;, with the popular singles &lt;a href="https://genius.com/Megadeth-holy-wars-the-punishment-due-lyrics" rel="noopener" data-api_path="/songs/109944"&gt;“Holy Wars… the Punishment Due”&lt;/a&gt; and &lt;a href="https://genius.com/Megadeth-hangar-18-lyrics" rel="noopener" data-api_path="/songs/118018"&gt;“Hangar 18”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;This classic line-up stayed together throughout the 90s, receiving six consecutive Grammy nominations (losing twice to Metallica and twice to &lt;a href="https://genius.com/artists/Nine-inch-nails" rel="noopener" data-api_path="/artists/12757"&gt;Nine Inch Nails&lt;/a&gt;), however the frustration of not achieving the same success as Metallica led Megadeth to progressively eschew their signature fast-paced thrash metal sound for a more traditional heavy metal and Hard Rock sound, culminating in the 1999’s incredibly poorly-received &lt;a href="https://genius.com/albums/Megadeth/Risk" rel="noopener" data-api_path="/albums/27049"&gt;&lt;em&gt;Risk&lt;/em&gt;&lt;/a&gt;. An attempt to right ship, with &lt;a href="https://genius.com/albums/Megadeth/The-world-needs-a-hero" rel="noopener" data-api_path="/albums/27366"&gt;&lt;em&gt;The World Needs a Hero&lt;/em&gt;&lt;/a&gt; was unsuccessful and following a nerve injury to Mustaine’s left arm, he disbanded Megadeth.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;With a comeback album, &lt;a href="https://genius.com/albums/Megadeth/The-system-has-failed" rel="noopener" data-api_path="/albums/28083"&gt;&lt;em&gt;The System has Failed&lt;/em&gt;&lt;/a&gt; in 2004, that saw a return to Megadeth’s thrash metal and speed metal roots, the band begun to regain the popularity it had lost in the late 90s, with increasing acclaim with each subsequent album. 2007’s &lt;a href="https://genius.com/albums/Megadeth/United-abominations" rel="noopener" data-api_path="/albums/28084"&gt;&lt;em&gt;United Abominations&lt;/em&gt;&lt;/a&gt; was the band’s highest-charting album since 1994’s &lt;a href="https://genius.com/albums/Megadeth/Youthanasia" rel="noopener" data-api_path="/albums/24189"&gt;&lt;em&gt;Youthanasia&lt;/em&gt;&lt;/a&gt; and was voted Metal album of the year by Guitar World. 2009’s &lt;a href="https://genius.com/albums/Megadeth/Endgame" rel="noopener" data-api_path="/albums/28104"&gt;&lt;em&gt;Endgame&lt;/em&gt;&lt;/a&gt; contained Grammy-nominated single &lt;a href="https://genius.com/Megadeth-headcrusher-lyrics" rel="noopener" data-api_path="/songs/116278"&gt;“Head Crusher”&lt;/a&gt;, and 2011’s &lt;a href="https://genius.com/albums/Megadeth/Th1rt3en" rel="noopener" data-api_path="/albums/28106"&gt;&lt;em&gt;TH1RT3EN&lt;/em&gt;&lt;/a&gt; contained three Grammy-nominated singles (and the return of Dave Ellefson to the band).&lt;/p&gt;\n\n&lt;p&gt;This increase in popularity was evident when the band’s fourteenth album &lt;a href="https://genius.com/albums/Megadeth/Super-collider" rel="noopener" data-api_path="/albums/74399"&gt;&lt;em&gt;Super Collider&lt;/em&gt;&lt;/a&gt; debuted at number six on the Billboard chart in 2013. &lt;a href="https://genius.com/albums/Megadeth/Dystopia" rel="noopener" data-api_path="/albums/141136"&gt;&lt;em&gt;Dystopia&lt;/em&gt;&lt;/a&gt;, their fifteenth album, was expected to be released on October 2nd, 2015, but was eventually delayed to January 22nd, 2016.&lt;/p&gt;\n\n&lt;p&gt;Following Mustaine’s Throat Cancer diagnosis and recovery, the band reconvened to work on their next album. On May 2021, following leaked private videos, Mustaine announced that the band had once again parted ways with David Ellefson. Mustaine confirmed the bass tracks recorded by Ellefson would not appear on the album and would be re-recorded by a different bassist, but he didn’t reveal the bassist’s name. Former bass player James LoMenzo filled in for the band’s tour. The new album called &lt;em&gt;The Sick, the Dying… and the Dead!&lt;/em&gt; is scheduled to be released in the spring of 2022.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n\n\n&lt;h3&gt;Members&lt;/h3&gt;\n\n\n\n\n&lt;h4&gt;Current&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://www.metal-archives.com/artists/Dave_Mustaine/184" rel="noopener nofollow"&gt;Dave Mustaine&lt;/a&gt; – vocals, guitars (1983–2002; 2004–present)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Kiko_Loureiro/3826" rel="noopener nofollow"&gt;Kiko Loureiro&lt;/a&gt; – guitars (2015–present)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Dirk_Verbeuren/1391" rel="noopener nofollow"&gt;Dirk Verbeuren&lt;/a&gt; – drums (2016–present)&lt;/p&gt;\n\n&lt;h4&gt;Past&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://www.metal-archives.com/artists/David_Ellefson/218" rel="noopener nofollow"&gt;David Ellefson&lt;/a&gt; – bass (1983–2002; 2010–2021)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Greg_Handevidt/2702" rel="noopener nofollow"&gt;Greg Handevidt&lt;/a&gt; – guitars (1983)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Dijon_Carruthers/2763" rel="noopener nofollow"&gt;Dijon Carruthers&lt;/a&gt; – drums (1983)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Lee_Rauch/2768" rel="noopener nofollow"&gt;Lee Rausch&lt;/a&gt; – drums (1984)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chris_Poland/2716" rel="noopener nofollow"&gt;Chris Poland&lt;/a&gt; – guitars (1984–1987)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Gar_Samuelson/2772" rel="noopener nofollow"&gt;Gar Samuelson&lt;/a&gt; – drums (1984–1987)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Jeff_Young/2723" rel="noopener nofollow"&gt;Jeff Young&lt;/a&gt; – guitars (1987–1989)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chuck_Behler/2774" rel="noopener nofollow"&gt;Chuck Behler&lt;/a&gt; – drums (1987–1989)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Nick_Menza/2790" rel="noopener nofollow"&gt;Nick Menza&lt;/a&gt; – drums (1989–1998)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Marty_Friedman/2741" rel="noopener nofollow"&gt;Marty Friedman&lt;/a&gt; – guitars (1990–2000)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Jimmy_DeGrasso/2793" rel="noopener nofollow"&gt;Jimmy DeGrasso&lt;/a&gt; – drums (1998–2002)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Al_Pitrelli/2748" rel="noopener nofollow"&gt;Al Pitrelli&lt;/a&gt; – guitars (2000–2002)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Glen_Drover/2754" rel="noopener nofollow"&gt;Glen Drover&lt;/a&gt; – guitars (2004–2008)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Shawn_Drover/223" rel="noopener nofollow"&gt;Shawn Drover&lt;/a&gt; – drums (2004–2014)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/James_MacDonough/2833" rel="noopener nofollow"&gt;James MacDonough&lt;/a&gt; – bass (2004–2006)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/James_LoMenzo/2836" rel="noopener nofollow"&gt;James LoMenzo&lt;/a&gt; – bass (2006–2010)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chris_Broderick/215" rel="noopener nofollow"&gt;Chris Broderick&lt;/a&gt; – guitars (2008–2014)&lt;/p&gt;\n\n&lt;h4&gt;Touring&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://www.metal-archives.com/artists/Kerry_King/267" rel="noopener nofollow"&gt;Kerry King&lt;/a&gt; – guitars (1984)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Mike_Albert/139584" rel="noopener nofollow"&gt;Mike Albert&lt;/a&gt; – guitars (1985)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chris_Adler/10965" rel="noopener nofollow"&gt;Chris Adler&lt;/a&gt; – drums (2015–2016)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Tony_Laureano/434" rel="noopener nofollow"&gt;Tony Laureano&lt;/a&gt; – drums (2015–2016)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/James_LoMenzo/2836" rel="noopener nofollow"&gt;James LoMenzo&lt;/a&gt; – bass (2021–present)&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/M83', 'annotations': {'description': '&lt;p&gt;M83 is a French electronic/shoegaze/pop band from Antibes, formed in 2001 by Anthony Gonzalez and Nicolas Fromageau. Gonzalez remains the primary member of the band after Fromageau’s departure after the release of their second album. The band is named after the spiral galaxy Messier 83, and its musical aesthetic is influenced by shoegaze in its extensive use of reverb effects and lyrics spoken softly over loud instrumentals, although M83’s songs employ considerably less guitar than most shoegaze bands.&lt;/p&gt;\n\n&lt;p&gt;After the release of the crossover smash hit “Midnight City” from their 2011 double album &lt;em&gt;Hurry Up, We’re Dreaming&lt;/em&gt;, M83 gained massive mainstream recognition, and has continued to tour and make music for movies and television.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Corey-hart', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Corey Mitchell Hart']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alpha-blondy', 'annotations': {'description': "&lt;p&gt;Hailing from the Cote d'Ivoire, Alpha Blondy is among the world’s most popular reggae artists. With his 12-piece band Solar System, Blondy offers a reggae beat with a distinctive African cast. Calling himself an African Rasta, Blondy creates Jah-centered anthems promoting morality, love, peace, and social consciousness. With a range that moves from sensitivity to rage over injustice, much of Blondy’s music empathizes with the impoverished and those on society’s fringe. Blondy is also a staunch supporter of African unity, and to this end, he sings to Muslim audiences in Hebrew and sings in Arabic to Israelis. Some of his best-known songs include “Cocody Rock,” “Jerusalem,” and “Apartheid Is Nazism.”&lt;/p&gt;", 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bee-gees', 'annotations': {'description': '&lt;p&gt;The three Gibb brothers were very close as children and spent most of their time together. Barry was born in 1946, and his twin brothers Maurice and Robin were born in 1949. Together, they went on to become one of the most popular bands of the 1970s.&lt;/p&gt;\n\n&lt;p&gt;The Bee Gees have sold more than 220 million records worldwide, and functioned as a group almost continuously from 1958 to 2003, when Maurice Gibb &lt;a href="http://www.theguardian.com/world/2003/jan/13/arts.artsnews" rel="noopener nofollow"&gt;suddenly died during a coma&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sublime', 'annotations': {'description': '&lt;p&gt;Sublime was an American ska punk and alternative rock band from Long Beach, California, formed in 1988. The band’s line-up, unchanged until their breakup, consisted of Bradley Nowell (vocals and guitar), Eric Wilson (bass) and Bud Gaugh (drums). Lou Dog, Nowell’s dalmatian, was the mascot of the band. Michael ‘Miguel’ Happoldt and Marshall Goodman “Ras MG” contributed to and co-wrote several Sublime songs. Nowell died of a heroin overdose in 1996. In 1997, posthumous songs such as “Santeria”, “Wrong Way”, “Doin\' Time”, and “April 29, 1992 (Miami)” were released to U.S. radio.&lt;/p&gt;\n\n&lt;p&gt;Sublime released three studio albums, one live album, five compilation albums (one of which also contains never-before released material), three EPs and one box set. Although their first two albums (40oz. to Freedom [1992] and Robbin\' the Hood [1994]) were quite popular in the United States, Sublime did not experience major commercial success until 1996 with their self-titled third album. Released two months after Nowell’s death, it peaked at number 13 on the Billboard 200 and spawned the single “What I Got”, which remains the band’s only number one hit single (on the Billboard Alternative Songs chart) in their musical career. As of 2009, the band has sold over 17 million albums worldwide, including about 10 million in the U.S. alone.&lt;/p&gt;\n\n&lt;p&gt;See also &lt;a href="https://genius.com/artists/Sublime-with-rome" rel="noopener" data-api_path="/artists/21304"&gt;Sublime With Rome&lt;/a&gt;, a collaboration between Eric Wilson and vocalist/guitarist &lt;a href="https://genius.com/artists/Rome-ramirez" rel="noopener" data-api_path="/artists/44898"&gt;Rome Ramirez&lt;/a&gt; who managed to release a few albums of their own.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Phum-viphurit', 'annotations': {'description': '&lt;p&gt;Phum Viphurit is a Thai born, New Zealand raised, Bangkok resident singer-songwriter.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Peter-tosh', 'annotations': {'description': '&lt;p&gt;Hubert Winston McIntosh (October 19, 1944 – September 11, 1987), better known by his stage name Peter Tosh, was a talented reggae multi-instrumentalist, songwriter, and vocalist from Jamaica. In addition to being a founding member of &lt;a href="https://genius.com/artists/The-wailers" rel="noopener" data-api_path="/artists/16126"&gt;The Wailers&lt;/a&gt;, Tosh would go on to distinguish himself as one of the biggest reggae artists of the 1970’s and 1980’s.&lt;/p&gt;\n\n&lt;p&gt;Many of the songs that he wrote for the Wailers were influenced by the prevailing &lt;a href="http://www.jamaicaobserver.com/news/the-making-of-peter-tosh-live-at-the-one-love-peace-concert_131076" rel="noopener nofollow"&gt;political and economic repression.&lt;/a&gt; Sung with his rich baritone, Wailer hits like &lt;a href="https://genius.com/The-wailers-no-sympathy-lyrics" rel="noopener" data-api_path="/songs/809985"&gt;“No Sympathy,”&lt;/a&gt; &lt;a href="https://genius.com/The-wailers-400-years-lyrics" rel="noopener" data-api_path="/songs/810134"&gt;“400 Years,”&lt;/a&gt; and “&lt;a href="https://genius.com/The-wailers-stop-that-train-lyrics" rel="noopener" data-api_path="/songs/306027"&gt;Stop That Train"&lt;/a&gt; all reflect his response to the political and social situation of the oppressed. He also co-wrote one of the most celebrated reggae anthems, &lt;a href="https://genius.com/The-wailers-get-up-stand-up-lyrics" rel="noopener" data-api_path="/songs/4743273"&gt;“Get Up, Stand Up,”&lt;/a&gt; with Bob Marley.&lt;/p&gt;\n\n&lt;p&gt;By the time The Wailers\' released their 1973 album, &lt;em&gt;Burnin\'&lt;/em&gt;, Tosh &lt;a href="https://web.archive.org/web/20120709081953/http://lareviewofbooks.org/article.php?type=&amp;amp;id=688&amp;amp;fulltext=1&amp;amp;media=" rel="noopener nofollow"&gt;had begun to chafe&lt;/a&gt; at Island Records insistence on marketing the group as Bob Marley &amp;amp; The Wailers. Resentful of the perception that he was merely backing up his old friend (Bob Marley), Tosh decided to become a solo artist. His 1976 debut album, &lt;a href="https://genius.com/albums/Peter-tosh/Legalize-it" rel="noopener" data-api_path="/albums/27664"&gt;&lt;em&gt;Legalize It&lt;/em&gt;,&lt;/a&gt; spent two weeks in the &lt;a href="https://www.billboard.com/music/peter-tosh/chart-history/billboard-200/song/194689" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt; and even got platinum certified. Its title track &lt;a href="http://petertosh.com/legalize-it-jamaicas-weed-decriminalization-explained-by-the-wailers-lyrics-of-peter-tosh/" rel="noopener nofollow"&gt;became an international mantra&lt;/a&gt; as it espoused decriminalizing the use and possession of marijuana.&lt;/p&gt;\n\n&lt;p&gt;Tosh was murdered by robbers at the age of 42, he died &lt;a href="https://www.nytimes.com/1987/09/13/world/gunmen-kill-peter-tosh-reggae-star-in-jamaica.html" rel="noopener nofollow"&gt;from gunshot wounds&lt;/a&gt; sustained during a home invasion in 1987. In 2012, Tosh was posthumously awarded Jamaica’s &lt;a href="http://www.jamaicaobserver.com/news/Peter-Tosh-heads-national-honours-list_12208356" rel="noopener nofollow"&gt;Order of Merit&lt;/a&gt;, and a museum commemorating his life has been open to the public in Kingston, Jamaica since 2016.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Clairo', 'annotations': {'description': '&lt;p&gt;Claire Elizabeth Cottrill (born August 18, 1998), better known by her stage name Clairo, is an American singer-songwriter from Atlanta, Georgia.&lt;/p&gt;\n\n&lt;p&gt;She was born in Atlanta, GA, where she lived for seven years, and then she moved to Bellevue, WA and eventually Carlisle, MA.&lt;/p&gt;\n\n&lt;p&gt;Her parents are marketing executive &lt;a href="https://en.wikipedia.org/wiki/Geoff_Cottrill" rel="noopener nofollow"&gt;Geoff Cottrill&lt;/a&gt; and photographer &lt;a href="https://www.allisoncottrillphotography.com/" rel="noopener nofollow"&gt;Allie E. Cottrill&lt;/a&gt;, who influenced her music taste. Clairo told &lt;a href="https://youtu.be/2RsucCjZlvk?t=34" rel="noopener nofollow"&gt;Beats 1&lt;/a&gt;, “My dad is the reason why I love &lt;a href="https://genius.com/artists/Al-green" rel="noopener" data-api_path="/artists/1610"&gt;Al Green&lt;/a&gt; so much, and my mom is the reason why I love &lt;a href="https://genius.com/artists/Cocteau-twins" rel="noopener" data-api_path="/artists/138662"&gt;Cocteau Twins&lt;/a&gt; so much.”&lt;/p&gt;\n\n&lt;p&gt;Clairo’s first EP, titled &lt;a href="https://genius.com/albums/Clairo/Do-u-wanna-fall-in-love" rel="noopener" data-api_path="/albums/369340"&gt;&lt;em&gt;Do U Wanna Fall In Love?&lt;/em&gt;&lt;/a&gt;, was released in December of 2014.&lt;/p&gt;\n\n&lt;p&gt;She originally rose to prominence with her song “&lt;a href="https://genius.com/Clairo-pretty-girl-lyrics" rel="noopener" data-api_path="/songs/3185563"&gt;Pretty Girl&lt;/a&gt;”, which was released in 2017 and soon went viral. Her first full-length, &lt;em&gt;&lt;a href="https://genius.com/albums/Clairo/Immunity" rel="noopener" data-api_path="/albums/531649"&gt;Immunity&lt;/a&gt;,&lt;/em&gt; was released in 2019.&lt;/p&gt;', 'alternate_names': ['Claire Elizabeth Cottrill', 'Claire Cottrill', 'DJ Baby Benz']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Montell-jordan', 'annotations': {'description': '&lt;p&gt;Montell Du\'Sean Barnett (born December 3, 1968 in Los Angeles, CA), known professionally as Montell Jordan, is an American singer, songwriter and record producer, best known for his 1995 single “&lt;a href="https://genius.com/Montell-jordan-this-is-how-we-do-it-lyrics" rel="noopener" data-api_path="/songs/49817"&gt;This Is How We Do It&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Jordan was the primary male solo artist on &lt;a href="https://en.wikipedia.org/wiki/Def_Jam_Recordings" rel="noopener nofollow"&gt;Def Jam&lt;/a&gt;’s Def Soul imprint until leaving the label in 2003.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Jordan left the music business to become the worship leader at &lt;a href="https://en.wikipedia.org/wiki/Victory_World_Church" rel="noopener nofollow"&gt;Victory World Church&lt;/a&gt; in Norcross, Georgia.&lt;/p&gt;', 'alternate_names': ["Montell Du'Sean Barnett Jordan"]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Pendulum', 'annotations': {'description': '&lt;p&gt;Pendulum is an Australian/British drum and bass group, known for incorporating rock-inspired guitar riffs into their songs. The group was on hiatus from 2012 to 2016, after which they returned to perform in Ultra Music Festival as a live act.&lt;/p&gt;\n\n&lt;p&gt;The members in the band include &lt;a href="https://genius.com/artists/Rob-swire" rel="noopener" data-api_path="/artists/47976"&gt;Rob Swire&lt;/a&gt; and &lt;a href="https://genius.com/artists/Gareth-mcgrillen" rel="noopener" data-api_path="/artists/61592"&gt;Gareth McGrillen&lt;/a&gt; (in which they also worked as &lt;a href="https://genius.com/artists/Knife-party" rel="noopener" data-api_path="/artists/62572"&gt;Knife Party&lt;/a&gt; during the Hiatus),  Ben Mount on MC, Peredur ap Gwynedd on guitar, and KJ Sawka on Drums (Paul Kodish used to be on the drums from when the live band was formed in 2006 to 2009). In events where Pendulum does DJ Sets, MC Ben Mount and Paul Harding perform as DJs.&lt;/p&gt;\n\n&lt;p&gt;After many years without releases, Pendulum is set to release a new remix album in 2018 entitled &lt;em&gt;Reworks&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-veronicas', 'annotations': {'description': '&lt;p&gt;Hailing from Brisbane, Australia, identical twins Jess and Lisa Origliasso formed The Veronicas in 2005. Their style has changed over the years from pop rock, to dance and electro pop. They released two successful albums &lt;a href="https://genius.com/albums/The-veronicas/The-secret-life-of" rel="noopener" data-api_path="/albums/120322"&gt;&lt;em&gt;The Secret Life Of…&lt;/em&gt;&lt;/a&gt; (2005) and &lt;a href="https://genius.com/albums/The-veronicas/Hook-me-up" rel="noopener" data-api_path="/albums/110066"&gt;&lt;em&gt;Hook Me Up&lt;/em&gt;&lt;/a&gt; (2007) before a lengthy hiatus, during which they experimented in music and did low-profile projects. This was partly due to contract issues with their label at the time, Warner Music.&lt;/p&gt;\n\n&lt;p&gt;In 2014, they released &lt;a href="https://genius.com/albums/The-veronicas/the-veronicas" rel="noopener" data-api_path="/albums/121206"&gt;&lt;em&gt;The Veronicas&lt;/em&gt;&lt;/a&gt; as a statement of a renewed identity. They described the album as their version of ‘progressive pop’. Jess said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;If things were one dimensional on the first and second record, like, we would say exactly how we felt, and it was all just, total passion, we really didn’t overthink it, we just put down what we were feeling, [this record] is more, 3D-4D… There’s more depth and there’s more thought, and more light and shade."&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Their latest single &lt;a href="https://genius.com/The-veronicas-in-my-blood-lyrics" rel="noopener" data-api_path="/songs/2492568"&gt;“In My Blood”&lt;/a&gt; was certified platinum in Australia. The Veronicas are expected to release a new album in 2017.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Milli-vanilli', 'annotations': {'description': '&lt;p&gt;Milli Vanilli was a German pop/R&amp;amp;B group that rose to fame in the late 1980s. After winning a Grammy for Best New Artist, it was revealed that the two “members” of the group, Rob Pilatus and Fab Morvan, were frauds. &lt;a href="http://articles.latimes.com/1990-11-16/entertainment/ca-4894_1_milli-vanilli" rel="noopener nofollow"&gt;They had not performed any of the music themselves&lt;/a&gt;, and had lip-synced all of their performances. Numerous lawsuits were filed after this revelation and their Grammy was revoked, marking the first time a Grammy had ever been rescinded from an artist.&lt;/p&gt;\n\n&lt;p&gt;Their debut album, &lt;em&gt;&lt;a href="https://genius.com/albums/Milli-vanilli/Girl-you-know-it-s-true" rel="noopener" data-api_path="/albums/122205"&gt;Girl You Know It’s True&lt;/a&gt;&lt;/em&gt;, went 6x Platinum before being completely deleted from the catalog of Arista Records, making it one of the largest-selling albums ever to be taken out of print.&lt;/p&gt;\n\n&lt;p&gt;After the controversy, Milli Vanilli split into two different groups. Rob Pilatus and Fab Morvan became Rob &amp;amp; Fab, and released a self-titled album that commercially flopped, selling only around 2,000 copies. The actual studio performers formed The Real Milli Vanilli (also known as Try ‘N’ B to avoid any name recognition), and released an album called &lt;em&gt;The Moment of Truth&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Pilatus and Morvan later reunited in 1997 and attempted to rebuild Milli Vanilli. They recorded a new album and planned a tour in 1998. The night before the start of the promotional tour for the album, &lt;a href="https://www.rollingstone.com/music/news/milli-vanillis-rob-pilatus-dead-at-33-19980406" rel="noopener nofollow"&gt;Pilatus was found dead&lt;/a&gt; from a suspected alcohol and prescription drug overdose. Though his death was ruled accidental, it is commonly believed to be a suicide. Morvan went on to release a solo album, 2003’s &lt;em&gt;Love Revolution&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Matchbox-twenty', 'annotations': {'description': "&lt;p&gt;Upon the release of their debut album, Yourself or Someone Like You, in fall 1996, Matchbox Twenty was pigeonholed as one of the legions of post-grunge guitar bands that roamed the American pop scene in the middle of that decade. As their first single, “Push,” climbed the charts, it was widely assumed (at least by cynical critics) that they were a one-hit wonder, but Yourself or Someone Like You continued to spin off singles well into 1998. By that time, the group’s blend of ‘70s arena rock and early-'90s American alt-rock – closer to Pearl Jam and maybe R.E.M. than Nirvana – had become the sound of mainstream American rock. That transition slipped underneath the radar of many pop music critics and fans. Yourself or Someone Like You sold millions of copies without ever truly dominating the charts – by 1998, it had gone platinum five times; by 2000, ten times. At no time did the record top the charts, but it was always around, a staple of modern rock, adult alternative, and Top 40 radio alike. Matchbox Twenty was omnipresent because they managed to blend the structure and sentiment of '70s arena rock with '90s hard rock, thereby winning a large audience by seeming simultaneously classicist and modern. They were a little more classicist than modern, but that’s the reason why they became America’s most popular rock band of the late '90s – even if nobody quite realized they had achieved that status.&lt;/p&gt;\n\n&lt;p&gt;The de facto leader of Matchbox Twenty is lead singer and songwriter Rob Thomas. An Army brat born on a military base in Germany, Thomas spent much of his childhood between his mother’s house in Florida and his grandmother’s place in South Carolina. The stress of the constant movement spilled over into his schoolwork, and he dropped out of high school at the age of 17. He spent some time wandering around the Southeast, singing in a variety of rock bands before he made Orlando, Florida his home base. There, he met bassist Brian Yale and drummer Paul Doucette, and the three spent several years drifting through local bands before Matchbox Twenty officially formed. They rounded out the lineup with Adam Gaynor (rhythm guitar, vocals), who had previously worked at the Criteria Recording Studios in Miami, and Kyle Cook (lead guitar), a former student of the Atlanta Institute of Music.&lt;/p&gt;\n\n&lt;p&gt;The band hooked up with Collective Soul producer Matt Serletic and recorded a batch of demos, which helped the band secure gigs throughout the U.S. Soon, the band signed to Lava, a subsidiary of Atlantic Records, and recorded its debut, Yourself or Someone Like You, also with Serletic. The album was released in October 1996 to little attention, but Matchbox Twenty continued to tour America, cultivating a fan base. They eventually landed their single “Long Day” on several influential radio stations, which paved the way for their breakthrough hit, “Push.” In spring 1997, “Push” began climbing its way to the top of the modern rock charts, as it received heavy airplay from radio and MTV. By the summer, the single was in the modern rock Top Ten, and Yourself or Someone Like You had reached the album Top 40 and gone gold.&lt;/p&gt;\n\n&lt;p&gt;As it turns out, “Push” wasn’t the culmination of their work but the beginning of a somewhat surprising success story. During fall 1997, the record picked up momentum, as “3am” became a bigger hit than “Push,” propelling Yourself or Someone Like You to multi-platinum status. Early in 1998, the group was named Best New Band by Rolling Stone’s annual reader’s poll – proof that, even if Matchbox Twenty wasn’t winning critics, they were winning over a wide, mainstream audience. The band and its debut album continued to sell at a steady pace throughout the year as the singles “Real World” and “Back 2 Good” joined “Push” and “3am” as radio favorites. Throughout it all, Matchbox Twenty stayed on the road, at home and abroad. They did well in foreign territories, including Canada, but they truly connected with Australia, where they went platinum eight times; in neighboring New Zealand, the band went quintuple platinum.&lt;/p&gt;\n\n&lt;p&gt;Matchbox Twenty reserved 1999 as the year to record their eagerly anticipated second album, but they didn’t disappear from the spotlight, due to the unexpected success of “Smooth,” a Santana song co-written and sung by Rob Thomas. “Smooth” was one of many songs sung by celebrities on Santana’s cameo-studded comeback album Supernatural, but it was the one chosen as the lead single. A wise choice, as it turned out, since it became a true pop phenomenon, topping many radio charts and driving Supernatural to multi-platinum sales and many industry awards. Throughout the second half of 1999, “Smooth” was inescapable, as it and Supernatural sat on the top of the pop charts. Its success brought more attention to Matchbox Twenty, and Yourself or Someone Like You rocketed to over ten million copies sold – which now qualified it for the RIAA’s Diamond Award, which is only granted to records that have moved over ten million units. On top of that, Thomas was named BMI’s 1999 Pop Songwriter of the Year, for “Smooth” and his work with Matchbox Twenty. Early in 2000, Thomas won three Grammys for “Smooth” – Song of the Year, Record of the Year, and Best Pop Collaboration with Vocals.&lt;/p&gt;\n\n&lt;p&gt;All of this success happened as Matchbox Twenty was recording their second album, again with producer Matt Serletic. The success raised expectations for the new album, entitled Mad Season, which was released in May 2000. Two years later, the band emerged with its third album, More Than You Think You Are. With this particular record, the band shared songwriting duties as a whole for the first time ever. Despite, or perhaps because of, the band’s success and frequent touring, Matchbox Twenty decided to take a break from recording and in 2005, Thomas released his debut solo album, Something to Be. Featuring a more polished funk and dance-influenced sound, the album sold well and spawned several hit songs, including “Lonely No More” and “This Is How a Heart Breaks.” In 2007, the reunited Matchbox Twenty – with Doucette now on guitar replacing Gaynor, who left the band in 2005, and Push Stars' Ryan MacMillan on drums – delivered the hits collection Exile on Mainstream which included a bonus EP of new tracks. North, the band’s fourth studio album, and first official release since 2002, arrived in September 2012.&lt;/p&gt;", 'alternate_names': ['Matchbox 20']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Yazz', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bruce-springsteen', 'annotations': {'description': '&lt;p&gt;Bruce Springsteen is a rock ‘n’ roll icon from the great state of New Jersey. Nicknamed “The Boss,” he’s known for spirited sax-powered anthems about working-class people making their way in the world. Backed by the trusty E Street Band, he’s sold more than 120 million records, won numerous awards (including 20 Grammys and an Oscar), sold out stadiums around the globe, and earned a place alongside his teenage heroes in the Rock and Roll Hall of Fame.&lt;/p&gt;\n\n&lt;p&gt;Although he’s a living legend who ranks among the most important artists in rock history, Springsteen wasn’t an overnight success. Around the time of his first album, 1973’s &lt;em&gt;Greetings from Asbury Park, N.J.&lt;/em&gt;, he was dismissed as just another “new Dylan"—some scruffy folk singer with a decent vocabulary looking to follow in Bob’s footsteps. In the decade that followed, Springsteen proved himself to be much more.&lt;/p&gt;\n\n&lt;p&gt;His breakthrough came with his third album, 1975’s &lt;em&gt;Born to Run&lt;/em&gt;. The record hit No. 3 on the Billboard 200 and landed the singer-songwriter on the cover of both &lt;em&gt;Time&lt;/em&gt; and &lt;em&gt;Newsweek&lt;/em&gt;. Bruce nabbed his first chart-topping album five years later with &lt;em&gt;The River&lt;/em&gt;, and in 1984, he went global with &lt;em&gt;Born in the U.S.A.&lt;/em&gt;, a critical and commercial smash that produced seven Top 10 singles.&lt;/p&gt;\n\n&lt;p&gt;With its mix of upbeat rock ‘n’ roll and hard-hitting lyrics about unemployment, racism, and the collapse of the American dream, &lt;em&gt;Born in the U.S.A.&lt;/em&gt; captures much of what makes Springsteen such a unique artist. More than 30 years later, he remains a spokesman for baby boomers and a hero to young rock fans looking for an example of a guy who’s never sold out or phoned it in. He speaks truth to power—then jumps up on the piano and cues the sax solo.&lt;/p&gt;\n\n&lt;p&gt;To this day, the Boss gives three-hour concerts that typically end with him inviting fans onstage to groove along to “Dancing In the Dark,” one of his ‘80s favorites. Many have called on him to run for president, but don’t expect him to quit his day job.&lt;/p&gt;', 'alternate_names': ['Bruce Frederick Joseph Springsteen']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-hives', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://www.thehivesbroadcastingservice.com/" rel="noopener nofollow"&gt;The Hives&lt;/a&gt; are a Swedish garage punk band that rose to prominence in the early 2000’s during the post-punk revival. Their mainstream success came with the release of their 2000 album &lt;em&gt;Veni Vidi Vicious&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Vocals – &lt;a href="https://genius.com/artists/Howlin-pelle-almqvist" rel="noopener" data-api_path="/artists/1047323"&gt;Howlin\' Pelle Almqvist&lt;/a&gt;&lt;br&gt;\nGuitar (Lead) – &lt;a href="https://genius.com/artists/Nicholaus-arson" rel="noopener" data-api_path="/artists/1047325"&gt;Nicholaus Arson&lt;/a&gt;&lt;br&gt;\nGuitar  (Rhythm) – &lt;a href="https://genius.com/artists/Vigilante-carlstroem" rel="noopener" data-api_path="/artists/1047324"&gt;Vigilante Carlstroem&lt;/a&gt;&lt;br&gt;\nBass – &lt;a href="https://genius.com/artists/The-johan-and-only" rel="noopener" data-api_path="/artists/538846"&gt;The Johan and Only&lt;/a&gt;&lt;br&gt;\nDrums – &lt;a href="https://genius.com/artists/Chris-dangerous" rel="noopener" data-api_path="/artists/1047327"&gt;Chris Dangerous&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Former Members:&lt;br&gt;\nBass – &lt;a href="https://genius.com/artists/Dr-matt-destruction" rel="noopener" data-api_path="/artists/1047326"&gt;Dr. Matt Destruction&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alexandra-stan', 'annotations': {'description': '&lt;p&gt;Born on June 10, 1989 in &lt;a href="https://en.wikipedia.org/wiki/Constan%C8%9Ba" rel="noopener nofollow"&gt;Constanța&lt;/a&gt;, &lt;b&gt;Alexandra Stan&lt;/b&gt; is a Romanian singer-songwriter.&lt;/p&gt;\n\n&lt;p&gt;After she was invited to sing in a televised show at the age of 15, she eventually participated in various music-related contests, including the Mamaia Music Festival in 2009. Producers and songwriters &lt;a href="https://genius.com/artists/Marcel-prodan" rel="noopener" data-api_path="/artists/61567"&gt;Marcel Prodan&lt;/a&gt; and &lt;a href="https://genius.com/artists/Andrei-nemirschi" rel="noopener" data-api_path="/artists/491341"&gt;Andrei Nemirschi&lt;/a&gt; discovered Stan that year at a karaoke bar in Constanța. They offered her a record deal with their label &lt;i&gt;Maan Records&lt;/i&gt;, which she accepted, and later went on to record a promotional single titled “&lt;a href="https://genius.com/Alexandra-stan-show-me-the-way-lyrics" rel="noopener" data-api_path="/songs/485119"&gt;Show Me the Way&lt;/a&gt;”. Her debut single, “&lt;a href="https://genius.com/Alexandra-stan-lollipop-param-pam-pam-lyrics" rel="noopener" data-api_path="/songs/485101"&gt;Lollipop (Param Pam Pam)&lt;/a&gt;”, released on December 16, 2009,  was given notable radio airplay. The song’s provocative, low-budget music video was criticized by some viewers for emphasizing her physical and not her vocal qualities.&lt;/p&gt;\n\n&lt;p&gt;In 2011, Stan made her international breakthrough with the single “&lt;a href="https://genius.com/Alexandra-stan-mr-saxobeat-lyrics" rel="noopener" data-api_path="/songs/601770"&gt;Mr. Saxobeat&lt;/a&gt;”. The song first achieved success in Romania, where it peaked at number one on the Romanian Top 100 for eight consecutive weeks. It then became acclaimed worldwide, topping the record charts in several other countries, and selling almost one million copies in less than year. At the 2011 Romanian Music Awards, Stan and “Mr. Saxobeat” won several awards and nominations. Stan also won the Best Romanian Act and a nomination for Best European Act at the 2011 MTV Europe Music Awards.&lt;/p&gt;\n\n&lt;p&gt;The follow-up single “&lt;a href="https://genius.com/Alexandra-stan-get-back-asap-lyrics" rel="noopener" data-api_path="/songs/482269"&gt;Get Back&lt;/a&gt;”, achieved modest success and reached the top 10 in Finland and Romania, and the top 20 in other European countries. The singer’s debut studio album &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Saxobeats" rel="noopener" data-api_path="/albums/108678"&gt;Saxobeats&lt;/a&gt;&lt;/i&gt; was released in August 2011, and was moderately successful in Japan and Europe. Her chart success followed in 2012 with “&lt;a href="https://genius.com/Alexandra-stan-lemonade-lyrics" rel="noopener" data-api_path="/songs/482278"&gt;Lemonade&lt;/a&gt;”, which was certified Gold in Italy. The release of Stan’s second studio album was postponed following &lt;a href="https://en.wikipedia.org/wiki/Dec._No._5946/212/2015" rel="noopener nofollow"&gt;an alleged violent incident&lt;/a&gt; between her and Prodan, in June 2013. The case attracted widespread media coverage in Romania. Later that year, the singer launched a campaign against domestic violence called “Nu bate! Mai bine cântă!”.&lt;/p&gt;\n\n&lt;p&gt;Her comeback single, “&lt;a href="https://genius.com/Alexandra-stan-thanks-for-leaving-lyrics" rel="noopener" data-api_path="/songs/485130"&gt;Thanks for Leaving&lt;/a&gt;”, was released in April 2014, which she said was personal. The follow-up “&lt;a href="https://genius.com/Alexandra-stan-cherry-pop-lyrics" rel="noopener" data-api_path="/songs/482258"&gt;Cherry Pop&lt;/a&gt;” became the most sought-after ringtone on the Recochoku service in Japan within two hours of its release, while “&lt;a href="https://genius.com/Alexandra-stan-dance-lyrics" rel="noopener" data-api_path="/songs/482271"&gt;Dance&lt;/a&gt;” experienced similar success on its release. &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Unlocked" rel="noopener" data-api_path="/albums/121207"&gt;Unlocked&lt;/a&gt;&lt;/i&gt;, Stan’s second studio album, was premiered on August 27, 2014, and charted within the top 30 in Japan. The music video for “&lt;a href="https://genius.com/Alexandra-stan-give-me-your-everything-lyrics" rel="noopener" data-api_path="/songs/2025862"&gt;Give Me Your Everything&lt;/a&gt;”, the fourth single from &lt;i&gt;Unlocked&lt;/i&gt;, caused controversy for a scene that features Stan wearing a robe inscribed with masonic symbols.&lt;/p&gt;\n\n&lt;p&gt;In June 2015, Stan released “&lt;a href="https://genius.com/Alexandra-stan-and-inna-we-wanna-lyrics" rel="noopener" data-api_path="/songs/2131883"&gt;We Wanna&lt;/a&gt;”, a collaboration with Romanian singer &lt;a href="https://genius.com/artists/Inna" rel="noopener" data-api_path="/artists/22636"&gt;INNA&lt;/a&gt; and American reggaeton performer &lt;a href="https://genius.com/artists/Daddy-yankee" rel="noopener" data-api_path="/artists/1823"&gt;Daddy Yankee&lt;/a&gt;. The track reached the top 60 in multiple countries including Romania, Argentina and Italy. It was certified Gold in the latter region. In November 2015, she released the single “&lt;a href="https://genius.com/Alexandra-stan-i-did-it-mama-lyrics" rel="noopener" data-api_path="/songs/2387162"&gt;I Did It, Mama!&lt;/a&gt;”, which reached the top ten in Romania. The singer’s third studio album &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Alesta-international-version" rel="noopener" data-api_path="/albums/399505"&gt;Alesta&lt;/a&gt;&lt;/i&gt; followed in March 2016. It debuted at number 34 on the Japanese Albums Chart.&lt;/p&gt;\n\n&lt;p&gt;The singer joined the supergroup &lt;a href="https://genius.com/artists/G-girls" rel="noopener" data-api_path="/artists/678090"&gt;G Girls&lt;/a&gt; along with &lt;a href="https://genius.com/artists/Antonia" rel="noopener" data-api_path="/artists/37365"&gt;Antonia&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lori" rel="noopener" data-api_path="/artists/135505"&gt;Lori&lt;/a&gt;, and INNA, and premiered the single “&lt;a href="https://genius.com/G-girls-call-the-police-lyrics" rel="noopener" data-api_path="/songs/2486651"&gt;Call the Police&lt;/a&gt;”, which was successful in Poland.&lt;/p&gt;\n\n&lt;p&gt;To promote the launch of &lt;a href="https://en.wikipedia.org/wiki/Virgin_Radio_Romania" rel="noopener nofollow"&gt;Virgin Radio Romania&lt;/a&gt; in early 2017, Stan recorded &lt;a href="https://genius.com/Alexandra-stan-like-a-virgin-lyrics" rel="noopener" data-api_path="/songs/2966851"&gt;a cover version&lt;/a&gt; of &lt;a href="https://genius.com/artists/Madonna" rel="noopener" data-api_path="/artists/276"&gt;Madonna&lt;/a&gt;’s song “&lt;a href="https://genius.com/Madonna-like-a-virgin-lyrics" rel="noopener" data-api_path="/songs/151415"&gt;Like a Virgin&lt;/a&gt;”, saying she was a fan of it. She also recorded “&lt;a href="https://genius.com/Alexandra-stan-favorite-game-lyrics" rel="noopener" data-api_path="/songs/3335724"&gt;Favorite Game&lt;/a&gt;” for the soundtrack of the Japanese movie &lt;i&gt;Miko Girl&lt;/i&gt;.&lt;/p&gt;\n\n&lt;p&gt;In April 2018, Stan released her fourth studio album titled &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Mami-international-version_" rel="noopener"&gt;Mami&lt;/a&gt;&lt;/i&gt;, which peaked at number 119 in Japan. Stan contributed guest vocals on &lt;a href="https://genius.com/artists/Manuel-riva" rel="noopener" data-api_path="/artists/1411574"&gt;Manuel Riva&lt;/a&gt;’s track “&lt;a href="https://genius.com/Manuel-riva-miami-lyrics" rel="noopener" data-api_path="/songs/3566370"&gt;Miami&lt;/a&gt;”, which reached the top ten on the US Dance Club Songs chart. It also reached the top 10 in Romania. The singer opened the 2018 Neversea Festival, which had selected “Miami” as its anthem. At the 2018 Beirut International Awards Festival, Stan was awarded a special prize for her career, after being referred to as one of the most successful Romanian artists alongside INNA.&lt;/p&gt;', 'alternate_names': ['Alexandra Ioana Stan']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Chickenfoot', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Royal-blood', 'annotations': {'description': '&lt;p&gt;Two piece rock band (consisting of members Mike Kerr and Ben Thatcher) with only bass and drums, formed in Brighton UK. Their sound is expanded by the use of effects to fill the space where other instruments would normally be.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Judas-priest', 'annotations': {'description': '&lt;p&gt;Judas Priest is a British heavy metal band from Birmingham, England. Formed in 1969, Judas Priest is one of the most influential and pioneering heavy metal bands of all time. Emerged at the beginning of the new wave of British heavy metal movement, their influence, while mainly &lt;a href="https://genius.com/artists/Rob-halford" rel="noopener" data-api_path="/artists/162143"&gt;Rob Halford&lt;/a&gt;’s operatic vocal style and the twin guitar sound, has been adopted by many bands. Their image of leather, spikes and other taboo articles of clothing were widely influential during the 1980s.&lt;/p&gt;\n\n&lt;p&gt;Despite an innovative and pioneering body of work in the latter half of the 1970s, the band struggled with indifferently-produced records, repeated changes of drummer and a lack of major commercial success or attention until 1980, when they adopted a more simplified sound on the album &lt;a href="https://genius.com/albums/Judas-priest/British-steel" rel="noopener" data-api_path="/albums/107404"&gt;&lt;em&gt;British Steel&lt;/em&gt;&lt;/a&gt;, which helped shoot them to rock superstar status.&lt;/p&gt;\n\n&lt;p&gt;The band was originally formed under the name Freight by schoolmates &lt;a href="https://genius.com/artists/Kk-downing" rel="noopener" data-api_path="/artists/454885"&gt;Kenneth “K. K.” Downing&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ian-hill" rel="noopener" data-api_path="/artists/989418"&gt;Ian Hill&lt;/a&gt; in 1969. Joined by vocalist &lt;a href="https://genius.com/artists/Al-atkins" rel="noopener" data-api_path="/artists/348935"&gt;Al Atkins&lt;/a&gt; and drummer John Ellis, the band played their first concert in 1971. Atkins\' previous band was called Judas Priest, which was named after a &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt; song called &lt;a href="https://genius.com/Bob-dylan-the-ballad-of-frankie-lee-and-judas-priest-lyrics" rel="noopener" data-api_path="/songs/117556"&gt;“The Ballad of Frankie Lee and Judas Priest,”&lt;/a&gt; yet the members decided it was the best name for the new band. After performing numerous shows, in 1971, Ellis was replaced by &lt;a href="https://genius.com/artists/Alan-skip-moore" rel="noopener" data-api_path="/artists/1061405"&gt;Alan “Skip” Moore&lt;/a&gt;, and by the end of the year, Chris Campbell replaced Moore. Atkins and Campbell left the band in 1973 and were replaced by vocalist &lt;a href="https://genius.com/artists/Rob-halford" rel="noopener" data-api_path="/artists/162143"&gt;Rob Halford&lt;/a&gt; and drummer &lt;a href="https://genius.com/artists/John-hinch" rel="noopener" data-api_path="/artists/1061410"&gt;John Hinch&lt;/a&gt;. The band was joined by &lt;a href="https://genius.com/artists/Glenn-tipton" rel="noopener" data-api_path="/artists/344759"&gt;Glenn Tipton&lt;/a&gt; as the second guitarist, before recording their debut album.&lt;/p&gt;\n\n&lt;p&gt;In September 1974, Judas Priest released their first studio album &lt;a href="https://genius.com/albums/Judas-priest/Rocka-rolla" rel="noopener" data-api_path="/albums/117846"&gt;&lt;em&gt;Rocka Rolla&lt;/em&gt;&lt;/a&gt;. The album was produced by  &lt;a href="https://genius.com/artists/Rodger-bain" rel="noopener" data-api_path="/artists/40465"&gt;Rodger Bain&lt;/a&gt; who also produced &lt;a href="https://genius.com/artists/Black-sabbath" rel="noopener" data-api_path="/artists/1121"&gt;Black Sabbath&lt;/a&gt;’s first three albums. It was the only album to feature drummer &lt;a href="https://genius.com/artists/John-hinch" rel="noopener" data-api_path="/artists/1061410"&gt;John Hinch&lt;/a&gt; who left the band and was replaced by &lt;a href="https://genius.com/artists/Alan-skip-moore" rel="noopener" data-api_path="/artists/1061405"&gt;Alan “Skip” Moore&lt;/a&gt;. In 1976, the band released their second full-length album, &lt;a href="https://genius.com/albums/Judas-priest/Sad-wings-of-destiny" rel="noopener" data-api_path="/albums/117851"&gt;&lt;em&gt;Sad Wings of Destiny&lt;/em&gt;&lt;/a&gt;. This is considered the album on which Judas Priest consolidated their heavy metal sound and image. &lt;em&gt;Sad Wings of Destiny&lt;/em&gt; caught the attention of &lt;a href="https://genius.com/artists/Columbia-records" rel="noopener" data-api_path="/artists/30372"&gt;CBS Records&lt;/a&gt;. The band signed with CBS and received a budget for their next album. In 1977, Judas Priest released their third studio album &lt;a href="https://genius.com/albums/Judas-priest/Sin-after-sin" rel="noopener" data-api_path="/albums/77035"&gt;&lt;em&gt;Sin After Sin&lt;/em&gt;&lt;/a&gt; which was their major-label debut. It was produced by &lt;a href="https://genius.com/artists/Deep-purple" rel="noopener" data-api_path="/artists/34310"&gt;Deep Purple&lt;/a&gt;’s bassist &lt;a href="https://genius.com/artists/Roger-glover" rel="noopener" data-api_path="/artists/103632"&gt;Roger Glover&lt;/a&gt;. After Moore’s departure, &lt;a href="https://genius.com/artists/Simon-phillips" rel="noopener" data-api_path="/artists/69710"&gt;Simon Phillips&lt;/a&gt; recorded the drum tracks for the album, but he didn’t join the band as a permanent member of Judas Priest. The band hired drummer &lt;a href="https://genius.com/artists/Les-binks" rel="noopener" data-api_path="/artists/1425882"&gt;Les Binks&lt;/a&gt; on Glover’s recommendation.&lt;/p&gt;\n\n&lt;p&gt;Judas Priest recorded their fourth album &lt;a href="https://genius.com/albums/Judas-priest/Stained-class" rel="noopener" data-api_path="/albums/118087"&gt;&lt;em&gt;Stained Class&lt;/em&gt;&lt;/a&gt;, in 1978. This is the first album to feature the band’s now-classic logo, replacing the Gothic Script logo which appeared on the band’s previous albums. Later that year, the band released their fifth studio album &lt;a href="https://genius.com/albums/Judas-priest/Killing-machine" rel="noopener" data-api_path="/albums/118085"&gt;&lt;em&gt;Killing Machine&lt;/em&gt;&lt;/a&gt;. It was retitled &lt;em&gt;Hell Bent for Leather&lt;/em&gt; for its United States release in early 1979. The album pushed Judas Priest towards a more commercial sound. At about the same time, Judas Priest adopted their leather-and-studs image, inspired by &lt;a href="https://genius.com/artists/Rob-halford" rel="noopener" data-api_path="/artists/162143"&gt;Rob Halford&lt;/a&gt;’s interest in leather culture. In 1979, the band released their first live album &lt;a href="https://genius.com/albums/Judas-priest/Unleashed-in-the-east" rel="noopener" data-api_path="/albums/599675"&gt;&lt;em&gt;Unleashed in the East&lt;/em&gt;&lt;/a&gt;. It became the band’s best-selling album up to that point. In late 1979, drummer &lt;a href="https://genius.com/artists/Les-binks" rel="noopener" data-api_path="/artists/1425882"&gt;Les Binks&lt;/a&gt; left the band and was replaced by &lt;a href="https://genius.com/artists/Dave-holland" rel="noopener" data-api_path="/artists/643497"&gt;Dave Holland&lt;/a&gt; of &lt;a href="https://genius.com/artists/Trapeze" rel="noopener" data-api_path="/artists/365802"&gt;Trapeze&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;…&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n\n\n&lt;h3&gt;Members&lt;/h3&gt;\n\n\n\n\n&lt;h4&gt;Current&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Ian-hill" rel="noopener" data-api_path="/artists/989418"&gt;Ian Hill&lt;/a&gt; – bass (1970–1992, 1996–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Rob-halford" rel="noopener" data-api_path="/artists/162143"&gt;Rob Halford&lt;/a&gt; – vocals (1973–1992, 2003–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Glenn-tipton" rel="noopener" data-api_path="/artists/344759"&gt;Glenn Tipton&lt;/a&gt; – guitars, keyboards (1974–1992, 1996–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Scott-travis" rel="noopener" data-api_path="/artists/1061401"&gt;Scott Travis&lt;/a&gt; – drums (1989–1992, 1996-present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Richie-faulkner" rel="noopener" data-api_path="/artists/580538"&gt;Richie Faulkner&lt;/a&gt; – guitars (2011-present)&lt;/p&gt;\n\n&lt;h4&gt;Past&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Kk-downing" rel="noopener" data-api_path="/artists/454885"&gt;K. K. Downing&lt;/a&gt; – guitars (1970–1992, 1996–2011)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Al-atkins" rel="noopener" data-api_path="/artists/348935"&gt;Al Atkins&lt;/a&gt; – vocals (1970–1973)&lt;br&gt;\n&lt;a href="https://genius.com/artists/John-ellis-drummer" rel="noopener"&gt;John Ellis&lt;/a&gt; – drums (1970-1971)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Alan-skip-moore" rel="noopener" data-api_path="/artists/1061405"&gt;Alan “Skip” Moore&lt;/a&gt; – drums (1971, 1975–1976)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Chris-campbell" rel="noopener" data-api_path="/artists/1249723"&gt;Chris Campbell&lt;/a&gt; – drums (1971–1973)&lt;br&gt;\n&lt;a href="https://genius.com/artists/John-hinch" rel="noopener" data-api_path="/artists/1061410"&gt;John Hinch&lt;/a&gt; – drums (1973–1975)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Les-binks" rel="noopener" data-api_path="/artists/1425882"&gt;Les Binks&lt;/a&gt; – drums (1977–1979)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Dave-holland" rel="noopener" data-api_path="/artists/643497"&gt;Dave Holland&lt;/a&gt; – drums (1979–1989)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Tim-ripper-owens" rel="noopener" data-api_path="/artists/374763"&gt;Tim “Ripper” Owens&lt;/a&gt; – vocals (1996–2003)&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Samantha-fox', 'annotations': {'description': '&lt;p&gt;Samantha Karen Fox (born April 15, 1966) is an English singer-songwriter and actress. She rose to fame in the 1980s as a Page 3 model, but became a legitimate star after the release of her debut single, “&lt;a href="https://genius.com/Samantha-fox-touch-me-i-want-your-body-lyrics" rel="noopener" data-api_path="/songs/1929749"&gt;Touch Me (I Want Your Body)&lt;/a&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Evanescence', 'annotations': {'description': '&lt;p&gt;Evanescence is an American rock band founded in Little Rock, Arkansas in 1995 by singer/pianist Amy Lee and guitarist Ben Moody. Evanescence was originally promoted in Christian stores. Later, the band made it clear they did not want to be considered part of the Christian rock genre, like fellow Wind-up Records artists Creed. Some of their most popular hits include: “&lt;a href="https://genius.com/Evanescence-bring-me-to-life-lyrics" rel="noopener" data-api_path="/songs/67202"&gt;Bring Me to Life&lt;/a&gt;,” “&lt;a href="https://genius.com/Evanescence-my-immortal-lyrics" rel="noopener" data-api_path="/songs/113158"&gt;My Immortal&lt;/a&gt;,” and “&lt;a href="https://genius.com/Evanescence-what-you-want-lyrics" rel="noopener" data-api_path="/songs/218592"&gt;What You Want&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;In 2014, the band &lt;a href="https://twitter.com/AmyLeeEV/status/446110328418349056" rel="noopener nofollow"&gt;parted ways&lt;/a&gt; with their long-term record label Wind-Up and became independent artists. In late 2016, they released a &lt;em&gt;Ultimate Collection&lt;/em&gt; box set featuring all their albums along with the 2000 demo album &lt;a href="https://genius.com/albums/Evanescence/Origin" rel="noopener" data-api_path="/albums/45335"&gt;&lt;em&gt;Origin&lt;/em&gt;&lt;/a&gt; and a B-sides compilation &lt;a href="https://genius.com/albums/Evanescence/Lost-whispers" rel="noopener" data-api_path="/albums/332896"&gt;&lt;em&gt;Lost Whispers&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In November 2017, they released their fourth album, &lt;a href="https://genius.com/albums/Evanescence/Synthesis" rel="noopener" data-api_path="/albums/363298"&gt;&lt;em&gt;Synthesis&lt;/em&gt;&lt;/a&gt;, featuring a reimagining of some of their past songs plus two new original songs with the spotlight on full orchestra and electronics.&lt;/p&gt;\n\n&lt;p&gt;Their fifth album, &lt;a href="https://genius.com/albums/Evanescence/The-bitter-truth" rel="noopener" data-api_path="/albums/624604"&gt;&lt;em&gt;The Bitter Truth&lt;/em&gt;&lt;/a&gt;, was released in March 2021.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Pixies', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;“In 1988, the Pixies sounded like no other band. By 1991, every band sounded like the Pixies.”&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;Pixies are an American alternative rock band which formed in Boston, Massachusetts, United States in 1986. The band consists of &lt;a href="https://genius.com/artists/Frank-black" rel="noopener" data-api_path="/artists/184148"&gt;Charles “Black Francis” Thompson IV&lt;/a&gt; (vocals, guitar; also known as ‘’Frank Black’‘), &lt;a href="https://genius.com/artists/Joey-santiago" rel="noopener" data-api_path="/artists/1122511"&gt;Joey Santiago&lt;/a&gt; (lead guitar) and &lt;a href="https://genius.com/artists/David-lovering" rel="noopener" data-api_path="/artists/1003552"&gt;David Lovering&lt;/a&gt; (drums). Until 2013, the band also featured &lt;a href="https://genius.com/artists/Kim-deal" rel="noopener" data-api_path="/artists/28934"&gt;Kim Deal&lt;/a&gt; on bass and vocals. The band officially split in 1993 and reunited in 2004. They went on hiatus in 2007, with each band member pursuing projects of their own, only to reunite in 2009, with the announcement of a new tour commencing in Europe that summer.&lt;/p&gt;\n\n&lt;p&gt;The band’s style of alternative rock music is heavily influenced by punk and surf rock, and while highly melodic, is capable of being tremendously abrasive at the same time. Francis is the Pixies’ primary songwriter and singer and has a distinctly desperate, yowling delivery. He has typically written cryptic songs about offbeat subjects, such as UFOs and surrealism. References to mental instability, violent Biblical imagery, and physical injury feature in many of the band’s songs.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kc-and-the-sunshine-band', 'annotations': {'description': "&lt;p&gt;KC and the Sunshine Band are an American disco and funk band, founded in 1973 in Hialeah, Florida. Their best-known songs include the hits “That’s the Way (I Like It)”, “(Shake, Shake, Shake) Shake Your Booty”, “I’m Your Boogie Man”, “Keep It Comin' Love”, “Get Down Tonight”, “Boogie Shoes”, “Please Don’t Go” and “Give It Up”. The band took its name from lead vocalist Harry Wayne Casey’s last name (“KC”) and the “Sunshine Band” from KC’s home state of Florida, the Sunshine State. The group scored 6 top 10 singles, 5 number one singles and one number two single on the Billboard Hot 100 chart.&lt;/p&gt;", 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Huey-lewis-and-the-news', 'annotations': {'description': '&lt;p&gt;Huey Lewis and the News is a pop rock band from San Francisco who had a series of hit singles in the 1980s and early 90s. They’re best known for their “instantly memorable hooks, driven home with economical precision by a tight bar band,” &lt;a href="http://www.allmusic.com/album/sports-mw0000195256" rel="noopener nofollow"&gt;[1]&lt;/a&gt; especially in their back-to-back multiplatinum albums &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Sports" rel="noopener" data-api_path="/albums/125836"&gt;&lt;em&gt;Sports&lt;/em&gt;&lt;/a&gt; (1983) and &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore&lt;/em&gt;&lt;/a&gt; (1986). Their song &lt;a href="https://genius.com/Huey-lewis-and-the-news-hip-to-be-square-lyrics" rel="noopener" data-api_path="/songs/147345"&gt;“Hip to be Square,”&lt;/a&gt; on &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore!&lt;/em&gt;&lt;/a&gt;, was made famous in a scene in &lt;em&gt;American Psycho&lt;/em&gt;, in which Pat Bateman says:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;In ‘87, Huey released &lt;em&gt;Fore!&lt;/em&gt;, their most accomplished album. I think their undisputed masterpiece is “Hip to Be Square,” a song so catchy most people probably don’t listen to the lyrics. But they &lt;em&gt;should&lt;/em&gt;, because it’s not just about the pleasures of conformity, and the importance of trends, it’s also a personal statement about the band itself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The band got its start when singer and harmonica player &lt;a href="https://genius.com/artists/Huey-lewis" rel="noopener" data-api_path="/artists/61400"&gt;Huey Lewis&lt;/a&gt; and keyboardist &lt;a href="https://genius.com/artists/Sean-hopper" rel="noopener" data-api_path="/artists/582291"&gt;Sean Hopper&lt;/a&gt; hooked up with a Bay Area jazz-funk band called &lt;a href="https://genius.com/artists/Clover" rel="noopener" data-api_path="/artists/355320"&gt;Clover&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After &lt;em&gt;Fore!&lt;/em&gt; the band declined in stature, and the lineup changed substantially. They recorded the theme song to the 2008 movie &lt;em&gt;Pineapple Express&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-dandy-warhols', 'annotations': {'description': '&lt;p&gt;The Dandy Warhols are an American rock band, formed in Portland, Oregon, in 1994 by singer-guitarist Courtney Taylor-Taylor and guitarist Peter Holmström, who were joined by keyboardist Zia McCabe and drummer Eric Hedford. Hedford left in 1998 and was replaced by Taylor-Taylor’s cousin Brent DeBoer.&lt;/p&gt;\n\n&lt;p&gt;The band gained recognition after they were signed to Capitol Records and released their major label album debut, &lt;a href="https://genius.com/albums/The-dandy-warhols/Come-on-feel-the-dandy-warhols" rel="noopener" data-api_path="/albums/127512"&gt;&lt;em&gt;…The Dandy Warhols Come Down&lt;/em&gt;&lt;/a&gt;, in 1997. In 2001, the band rose to new levels of fame after their song &lt;a href="https://genius.com/The-dandy-warhols-bohemian-like-you-lyrics" rel="noopener" data-api_path="/songs/98433"&gt;“Bohemian Like You”&lt;/a&gt; enjoyed extensive exposure thanks to its being featured in a Vodafone advertisement. The Dandy Warhols have released eight studio albums to date.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-human-league', 'annotations': {'description': '&lt;p&gt;The Human League are a synth pop band from Sheffield, England, formed in 1977. They generated a string of synthesizer-backed dance pop hits throughout the 80s. David Bowie dubbed the group “the sound of the future” in 1981.&lt;/p&gt;\n\n&lt;p&gt;The band is best known for its third studio album released in 1981, &lt;a href="https://genius.com/albums/The-human-league/Dare" rel="noopener" data-api_path="/albums/111021"&gt;&lt;em&gt;Dare!&lt;/em&gt;&lt;/a&gt; The fourth single from &lt;em&gt;Dare&lt;/em&gt;, &lt;a href="https://genius.com/The-human-league-dont-you-want-me-lyrics" rel="noopener" data-api_path="/songs/501821"&gt;“Don’t You Want Me,”&lt;/a&gt; catapulted to #1 in the UK and US.&lt;/p&gt;\n\n&lt;p&gt;Phil Oakey is the only core member of the group. The band’s first incarnation was as an arty all-male synthesizer group, composed of Oakey, Martyn Ware, and Ian Craig Marsh. In the 1980s, Ware and Marsh left the group after continued conflicts with Oakey—they went on to form &lt;a href="https://genius.com/artists/Heaven-17" rel="noopener" data-api_path="/artists/100911"&gt;Heaven 17&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Oakey then recruited two 17-year-old girls, Susan Ann Sulley and Joanne Catherall to be background singers and dancers after his then-girlfriend saw them performing a complex routine to Visage’s &lt;a href="https://genius.com/Visage-fade-to-grey-lyrics" rel="noopener" data-api_path="/songs/321565"&gt;“Fade To Grey”&lt;/a&gt; in a local nightclub. Since 1987, The Human League has remained a trio composed of Oakey, Sulley and Catherall.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ac-dc', 'annotations': {'description': '&lt;p&gt;AC/DC is an Australian rock band, formed in 1973 by brothers &lt;a href="https://genius.com/artists/Malcolm-young" rel="noopener" data-api_path="/artists/539433"&gt;Malcolm&lt;/a&gt; and &lt;a href="https://genius.com/artists/Angus-young" rel="noopener" data-api_path="/artists/539432"&gt;Angus Young&lt;/a&gt;, who have remained the sole constant members (though Malcolm left prior to the recording of 2015’s &lt;em&gt;Rock or Bust&lt;/em&gt; due to medical issues and has since died). Commonly classified as hard rock, they are considered pioneers of heavy metal and are sometimes classified as such, though they themselves have always classified their music as simply “rock and roll”. To date, they are one of the highest grossing bands of all time.&lt;/p&gt;\n\n&lt;p&gt;But when their vocalist, Bon Scott died after a night out in London, the group wanted to disband. That didn’t happen. Instead, Scott was replaced with Brian Johnson. Their only statement to Scott’s Death was that he had “drunken himself to Death.”&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names" rel="noopener nofollow"&gt;Malcolm and Angus Young came up with the band name&lt;/a&gt; after their sister saw “AC/DC” on the side of an electric sewing machine, and ended up asking, “Why not AC/DC?”&lt;/p&gt;\n\n&lt;p&gt;As of 2010, AC/DC had sold more than 200 million albums worldwide, including 71 million albums in the United States alone. 1980’s &lt;em&gt;&lt;a href="https://genius.com/albums/ac-dc/back-in-black" rel="noopener" data-api_path="/albums/17546"&gt;Back in Black&lt;/a&gt;&lt;/em&gt;, the first album with singer &lt;a href="https://genius.com/artists/Brian-johnson" rel="noopener" data-api_path="/artists/158121"&gt;Brian Johnson&lt;/a&gt;, has sold an estimated 49 million units worldwide, making it the third highest-selling album by any artist, and the second highest-selling album by any band, behind &lt;a href="https://genius.com/artists/Pink-floyd" rel="noopener" data-api_path="/artists/694"&gt;Pink Floyd&lt;/a&gt;’s &lt;em&gt;&lt;a href="https://genius.com/albums/pink-floyd/the-dark-side-of-the-moon" rel="noopener" data-api_path="/albums/14530"&gt;Dark Side of The Moon&lt;/a&gt;&lt;/em&gt; and &lt;a href="https://genius.com/artists/Michael-jackson" rel="noopener" data-api_path="/artists/835"&gt;Michael Jackson&lt;/a&gt;’s &lt;em&gt;&lt;a href="https://genius.com/albums/Michael-jackson-thriller" rel="noopener"&gt;Thriller&lt;/a&gt;&lt;/em&gt;. The album has sold 22 million units in the U.S. alone, where it is the fifth-highest-selling album of all-time. AC/DC ranked fourth on VH1’s list of the “100 Greatest Artists of Hard Rock” and was named the seventh “Greatest Heavy Metal Band of All Time” by MTV. In 2004, AC/DC was ranked number 72 in the Rolling Stone list of the “100 Greatest Artists of All Time”. In 2010, AC/DC were ranked number 23 on the VH1 list of the “100 Greatest Artists of All Time”.&lt;/p&gt;\n\n&lt;p&gt;Members:&lt;br&gt;\n-&lt;a href="https://genius.com/artists/Angus-young" rel="noopener" data-api_path="/artists/539432"&gt;Angus Young&lt;/a&gt; – lead guitar (1973–present)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Cliff-williams" rel="noopener" data-api_path="/artists/379851"&gt;Cliff Williams&lt;/a&gt; – bass guitar, backing vocals (1977–2016[retired following the Rock or Bust Tour])&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Stevie-young" rel="noopener" data-api_path="/artists/21918"&gt;Stevie Young&lt;/a&gt; – rhythm guitar, backing vocals (1988 [touring member], 2014–present)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Chris-slade" rel="noopener" data-api_path="/artists/270232"&gt;Chris Slade&lt;/a&gt; – drums (1989–1994, 2015–present)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Brian-johnson" rel="noopener" data-api_path="/artists/158121"&gt;Brian Johnson&lt;/a&gt; – lead and backing vocals (1980–2016 [Indefinite Hiatus])&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Axl-rose" rel="noopener" data-api_path="/artists/101616"&gt;Axl Rose&lt;/a&gt; – lead vocals (2016 [touring member])&lt;/p&gt;\n\n&lt;p&gt;Former members&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Malcolm-young" rel="noopener" data-api_path="/artists/539433"&gt;Malcolm Young&lt;/a&gt; – rhythm guitar, backing vocals (1973–2014)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Dave-evans" rel="noopener" data-api_path="/artists/386528"&gt;Dave Evans&lt;/a&gt; – lead vocals (1973–1974)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Bon-scott" rel="noopener" data-api_path="/artists/576622"&gt;Bon Scott&lt;/a&gt; – lead vocals (1974–1980)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Mark-evans" rel="noopener" data-api_path="/artists/1001993"&gt;Mark Evans&lt;/a&gt; – bass guitar (1975–1977)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Phil-rudd" rel="noopener" data-api_path="/artists/640042"&gt;Phil Rudd&lt;/a&gt; – drums (1975–1983, 1994–2015)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Simon-wright" rel="noopener" data-api_path="/artists/459346"&gt;Simon Wright&lt;/a&gt; – drums (1983–1989)&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kygo', 'annotations': {'description': '&lt;p&gt;Kyrre Gørvell-Dahll (born on September 11, 1991), better known by his stage name, &lt;strong&gt;Kygo&lt;/strong&gt;, is a Norwegian DJ and record producer born in Singapore. He grew up in Bergen, Vestland.&lt;/p&gt;\n\n&lt;p&gt;A remix of &lt;a href="https://genius.com/artists/ed-sheeran" rel="noopener" data-api_path="/artists/12418"&gt;Ed Sheeran’s&lt;/a&gt; &lt;a href="https://genius.com/Ed-sheeran-i-see-fire-lyrics" rel="noopener" data-api_path="/songs/255107"&gt;“I See Fire”&lt;/a&gt; started his career, but he’s mostly known for his hits &lt;a href="https://genius.com/kygo-firestone-lyrics" rel="noopener" data-api_path="/songs/601430"&gt;“Firestone”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Conrad-sewell" rel="noopener" data-api_path="/artists/336753"&gt;Conrad Sewell&lt;/a&gt; and &lt;a href="https://genius.com/kygo-stole-the-show-lyrics" rel="noopener" data-api_path="/songs/725422"&gt;“Stole the Show”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Parson-james" rel="noopener" data-api_path="/artists/336702"&gt;Parson James&lt;/a&gt;. At the end of 2015, Kygo released his third hit-single &lt;a href="https://genius.com/Kygo-stay-lyrics" rel="noopener" data-api_path="/songs/2381894"&gt;“Stay”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/Maty-noyes" rel="noopener" data-api_path="/artists/554061"&gt;Maty Noyes&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On 13 May 2016, Kygo released his debut studio album &lt;a href="https://genius.com/albums/Kygo/Cloud-nine" rel="noopener" data-api_path="/albums/143924"&gt;&lt;em&gt;Cloud Nine&lt;/em&gt;&lt;/a&gt; with less popular tracks like &lt;a href="https://genius.com/Kygo-raging-lyrics" rel="noopener" data-api_path="/songs/2448177"&gt;“Raging”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/Kodaline" rel="noopener" data-api_path="/artists/28458"&gt;Kodaline&lt;/a&gt; and &lt;a href="https://genius.com/Kygo-carry-me-lyrics" rel="noopener" data-api_path="/songs/2432553"&gt;“Carry Me”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/Julia-michaels" rel="noopener" data-api_path="/artists/409643"&gt;Julia Michaels&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;He went on making more tracks and released &lt;a href="https://genius.com/Kygo-it-aint-me-lyrics" rel="noopener" data-api_path="/songs/2971662"&gt;“It Ain’t Me”&lt;/a&gt; with vocals from &lt;a href="https://genius.com/artists/Selena-gomez" rel="noopener" data-api_path="/artists/45372"&gt;Selena Gomez&lt;/a&gt; being the first single of his sophomore album. This song peaked on the charts for months.&lt;/p&gt;', 'alternate_names': ['Kyrre Gørvell-Dahll']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Victoria-justice', 'annotations': {'description': '&lt;p&gt;Victoria Justice (born February 19, 1993) is an American actress, singer-songwriter, and dancer. She debuted as an actress at the age of 10 and has since appeared in several films and television series including the Nickelodeon series &lt;a href="https://en.wikipedia.org/wiki/Zoey_101" rel="noopener nofollow"&gt;Zoey 101&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Victorious" rel="noopener nofollow"&gt;Victorious&lt;/a&gt;. When not filming or recording music, Victoria is participating in several charity events.&lt;/p&gt;', 'alternate_names': ['Victoria Dawn Justice']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Iann-dior', 'annotations': {'description': '&lt;p&gt;Michael Ian Olmo (b. March 25, 1999), better known by his stage name &lt;strong&gt;iann dior&lt;/strong&gt;, is a recording artist from Arecibo, Puerto Rico. He moved to Corpus Christi, Texas at a young age, where he grew up for most of his early life.&lt;/p&gt;\n\n&lt;p&gt;He began releasing music in 2017 under the mononym &lt;b&gt;Olmo&lt;/b&gt;, and stage name &lt;b&gt;Lil Rock&lt;/b&gt;, though his come-up is a blur due to having it seemingly covered following his signing.&lt;/p&gt;\n\n&lt;p&gt;With his first release under &lt;a href="https://genius.com/artists/Internet-money" rel="noopener" data-api_path="/artists/1025407"&gt;Internet Money&lt;/a&gt; for &lt;a href="https://genius.com/Iann-dior-cutthroat-lyrics" rel="noopener" data-api_path="/songs/4280641"&gt;“cutthroat,”&lt;/a&gt; iann worked with producer &lt;a href="https://genius.com/artists/Nick-mira" rel="noopener" data-api_path="/artists/485229"&gt;Nick Mira&lt;/a&gt; who has produced for artists such as &lt;a href="https://genius.com/artists/Juice-wrld" rel="noopener" data-api_path="/artists/1237094"&gt;Juice WRLD&lt;/a&gt;, &lt;a href="https://genius.com/artists/Xxxtentacion" rel="noopener" data-api_path="/artists/396565"&gt;XXXTENTACION&lt;/a&gt; and &lt;a href="https://genius.com/artists/Lil-skies" rel="noopener" data-api_path="/artists/1015007"&gt;Lil Skies&lt;/a&gt;. He has worked with artists such as &lt;a href="https://genius.com/artists/Bernard-jabs" rel="noopener" data-api_path="/artists/407353"&gt;Bernard Jabs&lt;/a&gt; and &lt;a href="https://genius.com/artists/Pnb-rock" rel="noopener" data-api_path="/artists/248458"&gt;PnB Rock&lt;/a&gt; on his tracks &lt;a href="https://genius.com/Iann-dior-molly-lyrics" rel="noopener" data-api_path="/songs/4312665"&gt;“molly”&lt;/a&gt; and &lt;a href="https://genius.com/Iann-dior-romance361-lyrics" rel="noopener" data-api_path="/songs/4329896"&gt;“romance361”&lt;/a&gt; respectively.&lt;/p&gt;\n\n&lt;p&gt;iann quickly gained attention in early 2019, with him signing to &lt;a href="https://genius.com/artists/Tenthousand-projects" rel="noopener" data-api_path="/artists/1399195"&gt;TenThousand Projects&lt;/a&gt; in the following April.&lt;/p&gt;\n\n&lt;p&gt;On November 8, 2019, iann dropped his debut studio album, &lt;a href="https://genius.com/albums/Iann-dior/Industry-plant" rel="noopener" data-api_path="/albums/532639"&gt;&lt;em&gt;Industry Plant&lt;/em&gt;&lt;/a&gt;. The project included featured artists such as &lt;a href="https://genius.com/artists/Trippie-redd" rel="noopener" data-api_path="/artists/1086436"&gt;Trippie Redd&lt;/a&gt;, &lt;a href="https://genius.com/artists/Gunna" rel="noopener" data-api_path="/artists/91049"&gt;Gunna&lt;/a&gt; and &lt;a href="https://genius.com/artists/Travis-barker" rel="noopener" data-api_path="/artists/1604"&gt;Travis Barker&lt;/a&gt; on the tracks &lt;a href="https://genius.com/Iann-dior-gone-girl-lyrics" rel="noopener" data-api_path="/songs/4654510"&gt;“gone girl,”&lt;/a&gt; &lt;a href="https://genius.com/Iann-dior-strings-lyrics" rel="noopener" data-api_path="/songs/4874879"&gt;“Strings”&lt;/a&gt; and &lt;a href="https://genius.com/Iann-dior-darkside-lyrics" rel="noopener" data-api_path="/songs/4833977"&gt;“Darkside”&lt;/a&gt; respectively.&lt;/p&gt;\n\n&lt;p&gt;The artist planned releasing his first studio EP, &lt;a href="https://genius.com/albums/Iann-dior/Im-gone" rel="noopener" data-api_path="/albums/579140"&gt;&lt;em&gt;I’m Gone&lt;/em&gt;&lt;/a&gt; on June 5, 2020. However, due to tumultuous conditions particularly in the United States around the time with the &lt;a href="https://www.instagram.com/explore/tags/blacklivesmatter/" rel="noopener nofollow"&gt;#BlackLivesMatter&lt;/a&gt; movement, iann dior postponed the release of the EP to June 12, 2020. This project contained features with artists such as &lt;a href="https://genius.com/artists/Travis-barker" rel="noopener" data-api_path="/artists/1604"&gt;Travis Barker&lt;/a&gt; and &lt;a href="https://genius.com/artists/Machine-gun-kelly" rel="noopener" data-api_path="/artists/1665"&gt;Machine Gun Kelly&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;iann dior and his friend &lt;a href="https://genius.com/artists/24kGoldn" rel="noopener" data-api_path="/artists/1450588"&gt;24kGoldn&lt;/a&gt; released a collaboration single named &lt;a href="https://genius.com/24kgoldn-mood-lyrics" rel="noopener" data-api_path="/songs/5596421"&gt;“Mood”&lt;/a&gt; on July 24, 2020. Both have previously worked together on albums such as &lt;em&gt;Industry Plant&lt;/em&gt; and &lt;a href="https://genius.com/albums/Iann-dior/Nothings-ever-good-enough" rel="noopener" data-api_path="/albums/519998"&gt;&lt;em&gt;nothings ever good enough&lt;/em&gt;&lt;/a&gt;. During the week ending October 24, 2020, “Mood” &lt;a href="https://twitter.com/chartdata/status/1318241688326995971" rel="noopener nofollow"&gt;peaked at #1&lt;/a&gt; on the Hot 100. It is both 24kGoldn and iann dior’s &lt;a href="https://twitter.com/chartdata/status/1318241844669665281" rel="noopener nofollow"&gt;first song to top the chart&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Olmo', '\u200bsad boy dior', 'Lil Rock', 'Michael Ian Olmo', 'Michael I. Olmo', 'Michael Olmo']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Eagle-eye-cherry', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Eagle-Eye Lanoo Cherry']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Irene-cara', 'annotations': {'description': '&lt;p&gt;An 80s pop star. Most famous for her work on the Flashdance soundtrack and her role in Fame.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Charlie-puth', 'annotations': {'description': '&lt;p&gt;Charlie Puth is an American singer-songwriter who started by making and covering songs on &lt;a href="https://www.youtube.com/user/CharliesVlogs" rel="noopener nofollow"&gt;his YouTube channel.&lt;/a&gt; His big break came when he was featured on the &lt;em&gt;Furious 7&lt;/em&gt; song &lt;a href="https://genius.com/Wiz-khalifa-see-you-again" rel="noopener"&gt;“See You Again,”&lt;/a&gt; which he had written for a friend who passed away in a similar accident. The song reached #1 on the &lt;em&gt;Billboard&lt;/em&gt; Hot 100 and stayed there for twelve weeks, becoming the longest-running rap number one along with Eminem’s &lt;a href="https://genius.com/Eminem-lose-yourself-lyrics" rel="noopener" data-api_path="/songs/207"&gt;“Lose Yourself.”&lt;/a&gt; The song’s iconic music video was also the most viewed video on all of YouTube for a short amount of time when it passed PSY’s &lt;a href="https://genius.com/Psy-gangnam-style-lyrics" rel="noopener" data-api_path="/songs/88368"&gt;“Gangnam Style”&lt;/a&gt; in July 2017.&lt;/p&gt;\n\n&lt;p&gt;His first project, &lt;a href="https://genius.com/albums/Charlie-puth/The-otto-tunes" rel="noopener" data-api_path="/albums/333753"&gt;&lt;em&gt;The Otto Tunes,&lt;/em&gt;&lt;/a&gt; was released in 2010, with the title being a play on his middle name, Otto, and autotune. His second release, &lt;a href="https://genius.com/albums/charlie-puth/ego" rel="noopener" data-api_path="/albums/245154"&gt;&lt;em&gt;Ego,&lt;/em&gt;&lt;/a&gt; was also self-produced and dropped in October 2013.&lt;/p&gt;\n\n&lt;p&gt;His major-label debut &lt;a href="https://genius.com/albums/Charlie-puth/Nine-track-mind" rel="noopener" data-api_path="/albums/129375"&gt;&lt;em&gt;Nine Track Mind&lt;/em&gt;&lt;/a&gt; was released January 29, 2016, and lead single &lt;a href="https://genius.com/Charlie-puth-marvin-gaye-lyrics" rel="noopener" data-api_path="/songs/706298"&gt;“Marvin Gaye”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Meghan-trainor" rel="noopener" data-api_path="/artists/201194"&gt;Meghan Trainor&lt;/a&gt; topped the charts in the UK and reached the top twenty-five in the US, peaking at #21. His next single &lt;a href="https://genius.com/Charlie-puth-one-call-away-lyrics" rel="noopener" data-api_path="/songs/2276633"&gt;“One Call Away”&lt;/a&gt; fared even better, hitting #12 in the US and establishing Puth as a full-blown star as opposed to a two-hit wonder. A deluxe edition of the record was released in November 2016.&lt;/p&gt;\n\n&lt;p&gt;The next year saw the release of &lt;a href="https://genius.com/Charlie-puth-attention-lyrics" rel="noopener" data-api_path="/songs/3060662"&gt;“Attention”&lt;/a&gt; and eventually &lt;a href="https://genius.com/albums/Charlie-puth/Voicenotes" rel="noopener" data-api_path="/albums/367901"&gt;&lt;em&gt;Voicenotes,&lt;/em&gt;&lt;/a&gt; Charlie’s second studio album.&lt;/p&gt;\n\n&lt;p&gt;Puth has what is known as &lt;a href="https://www.earmaster.com/wiki/ear-training/perfect-pitch-relative-pitch.html" rel="noopener nofollow"&gt;perfect pitch,&lt;/a&gt; the ability to identify a note by ear. This talent allowed him to &lt;a href="http://www.independent.co.uk/arts-entertainment/music/charlie-puth-interview-being-bullied-for-pitch-perfect-talent-and-selena-gomezs-advice-on-dealing-a6841501.html" rel="noopener nofollow"&gt;step in for a church organist&lt;/a&gt; and played all of the songs that were part of the service from memory.&lt;/p&gt;', 'alternate_names': ['Charlie Otto Puth', 'Charles Otto Puth Jr.']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/A-flock-of-seagulls', 'annotations': {'description': '&lt;p&gt;A Flock of Seagulls are an English new wave band formed by brothers Mike and Ali Score in Liverpool in 1980. They are famous for their international hits “I Ran”, “Space Age Love Song,” “Wishing (If I Had a Photograph of You)” and “The More You Live, the More You Love” – and infamous for the unique hairstyle of frontman Mike Score, which was &lt;a href="http://www.worcestermag.com/2017/04/26/mike-score-still-flying-with-flock-of-seagulls" rel="noopener nofollow"&gt;accidentally created one night&lt;/a&gt; as the band was rushing to get on stage.&lt;/p&gt;\n\n&lt;p&gt;Originally named Level 7, the members were at a Stranglers concert when the singer &lt;a href="http://www.worcestermag.com/2017/04/26/mike-score-still-flying-with-flock-of-seagulls" rel="noopener nofollow"&gt;looked directly at them&lt;/a&gt; and sang the lyric &lt;a href="https://genius.com/15461027" rel="noopener" data-api_path="/referents/15461027"&gt;“a flock of seagulls!”&lt;/a&gt; They took this as a sign to change their name.&lt;/p&gt;\n\n&lt;p&gt;Their 1982 self-titled debut album has been called “a pioneering mixture of angular guitar riffs, skewed melodies and vibrant synths” that found &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=A+Flock+Of+Seagulls&amp;amp;titel=A+Flock+Of+Seagulls&amp;amp;cat=a" rel="noopener nofollow"&gt;international success&lt;/a&gt; including a #10 peak &lt;a href="https://www.billboard.com/music/a-flock-of-seagulls/chart-history/billboard-200" rel="noopener nofollow"&gt;in the US&lt;/a&gt;. The single “I Ran” was a massive hit, reaching the top 10 in four countries and making the top 50 in four others. The follow-up single “Space Age Love Song” was also a success, reaching the top 30 in three countries.&lt;/p&gt;\n\n&lt;p&gt;“Wishing (If I Had A Photograph Of You)”, the lead single of their sophomore album &lt;em&gt;Listen&lt;/em&gt;, reached the top 10 in four countries, their first and only in their homeland &lt;a href="http://www.officialcharts.com/artist/19502/a-flock-of-seagulls/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;. The next two singles performed well &lt;a href="http://www.officialcharts.com/artist/19502/a-flock-of-seagulls/" rel="noopener nofollow"&gt;in the UK&lt;/a&gt; but had sporadic success elsewhere.&lt;/p&gt;\n\n&lt;p&gt;A third album &lt;em&gt;The Story of a Young Heart&lt;/em&gt; spawned the band’s final hit “The More You Live, The More You Love”, performing admirably in six countries. Their fourth album &lt;em&gt;Dream Come True&lt;/em&gt; made no impact outside of the UK in 1986. The band broke up later that year when the Score brothers &lt;a href="https://www.axs.com/whatever-happened-to-a-flock-of-seagulls-112566" rel="noopener nofollow"&gt;had a falling out&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Mike Score revived the band a couple years later on his own, moving to Philedelphia and &lt;a href="https://yeahthatstheticket.wordpress.com/2015/08/29/1988-11-18-a-flock-of-seagulls/" rel="noopener nofollow"&gt;recruiting local musicians&lt;/a&gt;. But both a 1989 single and a 1995 album &lt;em&gt;The Light at the End of the World&lt;/em&gt; did not chart internationally.&lt;/p&gt;\n\n&lt;p&gt;In 2003 the band &lt;a href="https://www.rollingstone.com/music/music-lists/where-are-they-now-1982s-biggest-pop-acts-20600/a-flock-of-seagulls-65603/" rel="noopener nofollow"&gt;briefly reunited&lt;/a&gt; for a one-off performance on the VH1 series &lt;em&gt;Bands Reunited&lt;/em&gt;, followed by a brief tour of the US, but frontman Mike Score &lt;a href="https://www.billboard.com/articles/columns/rock/8457384/a-flock-of-seagulls-reunion-new-album-interview" rel="noopener nofollow"&gt;later shared&lt;/a&gt; “that didn’t work out well for me”. However in 2017, August Day Records approached him to reunite the band again to re-record their songs with an orchestra. He agreed and the four original members were assembled to create &lt;em&gt;Ascension&lt;/em&gt; in 2018, re-recordings of their earlier songs with accompaniment by the Prague Philharmonic Orchestra. A second orchestral album &lt;em&gt;String Theory&lt;/em&gt; &lt;a href="https://www.iconvsicon.com/2021/06/28/a-flock-of-seagulls-return-with-say-you-love-me-single-from-their-new-album-string-theory/" rel="noopener nofollow"&gt;arrived in 2021&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Seeb', 'annotations': {'description': '&lt;p&gt;Seeb is a Norwegian EDM production duo from Oslo, Norway, comprised of &lt;a href="https://genius.com/artists/Simen-eriksrud" rel="noopener" data-api_path="/artists/993370"&gt;Simen Eriksrud&lt;/a&gt; and &lt;a href="https://genius.com/artists/Espen-berg" rel="noopener" data-api_path="/artists/1055228"&gt;Espen Berg&lt;/a&gt;. The name ‘Seeb’ comes from the initials of the first and last names of the duo respectively.&lt;/p&gt;\n\n&lt;p&gt;The duo’s breakthrough came in 2015 with their remix of Mike Posner’s, &lt;a href="https://genius.com/Mike-posner-i-took-a-pill-in-ibiza-seeb-remix-lyrics" rel="noopener" data-api_path="/songs/2435615"&gt;“I Took A Pill In Ibiza,”&lt;/a&gt; which received high acclaim worldwide, reaching number one in the UK, Norway, and the Netherlands. They followed this up in 2016 with the release of their debut EP, &lt;a href="https://genius.com/albums/Seeb/Intro-to-seeb-ep" rel="noopener" data-api_path="/albums/660279"&gt;&lt;em&gt;Intro to Seeb&lt;/em&gt;&lt;/a&gt;, comprised of two singles and four remixes produced by the duo.&lt;/p&gt;\n\n&lt;p&gt;In 2017, the duo released their biggest collaboration yet, &lt;a href="https://genius.com/Onerepublic-and-seeb-rich-love-lyrics" rel="noopener" data-api_path="/songs/3155565"&gt;“Rich Love”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Onerepublic" rel="noopener" data-api_path="/artists/934"&gt;OneRepublic&lt;/a&gt; before releasing their second EP, &lt;a href="https://genius.com/albums/Seeb/Nice-to-meet-you" rel="noopener" data-api_path="/albums/421642"&gt;&lt;em&gt;Nice to Meet You&lt;/em&gt;&lt;/a&gt; in 2018, featuring six original songs produced by the duo.&lt;/p&gt;\n\n&lt;p&gt;They continued their success into 2019 releasing more singles and collaborating with a range of artists such as &lt;a href="https://genius.com/artists/Highasakite" rel="noopener" data-api_path="/artists/235814"&gt;Highasakite&lt;/a&gt; on &lt;a href="https://genius.com/Seeb-and-highasakite-free-to-go-lyrics" rel="noopener" data-api_path="/songs/4464424"&gt;“Free To Go”&lt;/a&gt; and &lt;a href="https://genius.com/artists/Justin-jesso" rel="noopener" data-api_path="/artists/1220431"&gt;Justin Jesso&lt;/a&gt; on &lt;a href="https://genius.com/Justin-jesso-and-seeb-bigger-than-lyrics" rel="noopener" data-api_path="/songs/5021730"&gt;“Bigger Than,”&lt;/a&gt; which saw them win the &lt;a href="https://spellemann.no/detalj/8071" rel="noopener nofollow"&gt;Spellemanprisen Pop Group of the Year Award&lt;/a&gt; for 2019. In 2020, they released their debut album, &lt;a href="https://genius.com/albums/Seeb/Sad-in-scandinavia" rel="noopener" data-api_path="/albums/643895"&gt;&lt;em&gt;Sad in Scandinavia&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Everything-but-the-girl', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.genius.com/9b2a35be2e15fab3ed53f7c328e07795.620x387x1.jpg" alt="" width="620" height="387" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Originating at the turn of the 1980s as a leader of the lite-jazz movement, Everything but the Girl became an unlikely success story more than a decade later, emerging at the vanguard of the fusion between pop and electronica.&lt;/p&gt;\n\n&lt;p&gt;Founded in 1982 by Hull University students Tracey Thorn  and Ben Watt, the duo took their name from a sign placed in the window of a local furniture shop, which claimed “for your bedroom needs, we sell everything but the girl.” At the time of their formation, both vocalist Thorn and songwriter/multi-instrumentalist Watt were already signed independently to the Cherry Red label; Thorn was a member of the sublime Marine Girls, while Watt had issued several solo singles and also collaborated with Robert Wyatt.&lt;/p&gt;\n\n&lt;p&gt;Everything but the Girl debuted in 1982 with a samba interpretation of Cole Porter’s “Night and Day”; the single was a success on the U.K. independent charts, but the duo nonetheless went on hiatus as Thorn recorded a solo EP, A Distant Shore, while Watt checked in with the full-length North Marine Drive in 1983. EBTG soon reunited to record a cover of the Jam’s “English Rose” for an NME sampler; the track so impressed former Jam frontman Paul Weller that he invited the duo to contribute to the 1984 LP Cafe Bleu, the debut from his new project, the Style Council.&lt;/p&gt;\n\n&lt;p&gt;Everything but the Girl’s own beguiling 1984 debut, Eden, followed on the heels of the single “Each and Every One,” a U.K. Top 40 hit. The jazz-pop confections of the group’s early work gave way to shimmering jangle rock by the time of 1985’s Love Not Money, while a subtle country influence crept into the mix for 1986’s lush, orchestral Baby, the Stars Shine Bright. The beautifully spare Idlewild followed in 1988, spawning the single “I Don’t Want to Talk About It,” a poignant cover of a song by the late Crazy Horse guitarist Danny Whitten which became EBTG’s biggest hit to date, landing at the number three spot on the British charts.&lt;/p&gt;\n\n&lt;p&gt;Watt and Thorn traveled to Los Angeles to record 1990’s slick, commercial The Language of Life, produced by Tommy LiPuma and featuring a guest appearance by jazz great Stan Getz. After a return to pop textures with 1991’s Worldwide, Everything but the Girl mounted a series of club performances which resulted in 1992’s Acoustic, a spartan set of covers (including Elvis Costello’s “Alison,” Bruce Springsteen’s “Tougher Than the Rest,” and Mickey &amp;amp; Sylvia’s “Love Is Strange”) which presaged the coming ascendancy of the “Unplugged” concept. In the wake of the record’s release, Watt fell prey to Churg-Strauss Syndrome, a rare auto-immune system disease which brought him to the brink of death; after a year in recovery, he wrote several new songs which the duo recorded for inclusion on Home Movies, a 1993 hits collection.&lt;/p&gt;\n\n&lt;p&gt;In 1994, EBTG collaborated with trip-hop innovators Massive Attack on their LP Protection; Thorn’s vocal turn highlighted the hit title track, and the cinematic Massive Attack sound clearly informed Everything but the Girl’s own 1994 effort, Amplified Heart, another strong and eclectic outing featuring an appearance by guitar great Richard Thompson. In 1995 the soulful single “Missing” was innovatively remixed by Todd Terry, and after first becoming a club sensation the track blossomed as a major international hit, reaching the number two position on the U.S. pop charts. More importantly, Terry’s remix, combined with the lessons of the Massive Attack sessions, launched the duo into an entirely new – and equally satisfying – musical direction: with 1996’s brilliant Walking Wounded, Everything but the Girl dove headfirst into electronica, crafting sophisticated, assured excursions into trip-hop and drum\'n\'bass. In 1999, the duo reappeared with Temperamental. Back to Mine was issued by Ultra in spring 2001.&lt;/p&gt;\n\n&lt;p&gt;~ Jason Ankeny, Rovi&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Rob-zombie', 'annotations': {'description': '&lt;p&gt;Rob Zombie (born Robert Bartleh Cummings; January 12, 1965) is an American musician, film director, screenwriter and film producer. Zombie rose to fame as a founding member of the heavy metal band &lt;a href="https://genius.com/artists/White-zombie" rel="noopener" data-api_path="/artists/165622"&gt;White Zombie&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Robert Zombie', 'Robert W. Zombie', 'Robert Wolfgang Zombie', 'Robert Cummings', 'Robert B. Cummings', 'Robert Bartleh Cummings']}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/Bullet-for-my-valentine', 'annotations': {'description': '&lt;p&gt;Bullet For My Valentine are a Welsh heavy metal band, formed in 1998 under the name &lt;a href="https://genius.com/artists/Jeff-killed-john" rel="noopener" data-api_path="/artists/1493923"&gt;‘Jeff Killed John’&lt;/a&gt;. The band changed their name in 2003 in addition to reworking their musical style and image.&lt;/p&gt;\n\n&lt;p&gt;Bullet For My Valentine’s music has often been labelled as heavy metal, metalcore and hard rock although it is difficult to place them in a specific genre. For example, &lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Scream-aim-fire" rel="noopener" data-api_path="/albums/81429"&gt;&lt;em&gt;Scream Aim Fire&lt;/em&gt;&lt;/a&gt; is a mix of heavy metal and metalcore with lots of thrash metal influences. On the other hand, &lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Gravity" rel="noopener" data-api_path="/albums/415984"&gt;&lt;em&gt;Gravity&lt;/em&gt;&lt;/a&gt; sees the band stepping out of their comfort zone by infusing electronical elements with their instruments, resulting in a new and unique sound, yet still recognisable.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Discography:&lt;/strong&gt;&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Bullet-for-my-valentine" rel="noopener" data-api_path="/albums/784390"&gt;&lt;em&gt;Bullet for My Valentine&lt;/em&gt; EP&lt;/a&gt; (2004)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Hand-of-blood" rel="noopener" data-api_path="/albums/240662"&gt;&lt;em&gt;Hand of Blood&lt;/em&gt; EP&lt;/a&gt; (2004)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/The-poison" rel="noopener" data-api_path="/albums/28088"&gt;&lt;em&gt;The Poison&lt;/em&gt;&lt;/a&gt; (2005)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Rare-cuts" rel="noopener" data-api_path="/albums/234956"&gt;&lt;em&gt;Rare Cuts&lt;/em&gt; EP&lt;/a&gt; (2007)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Scream-aim-fire" rel="noopener" data-api_path="/albums/81429"&gt;&lt;em&gt;Scream Aim Fire&lt;/em&gt;&lt;/a&gt; (2008)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Fever" rel="noopener" data-api_path="/albums/40634"&gt;&lt;em&gt;Fever&lt;/em&gt;&lt;/a&gt; (2010)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Temper-temper" rel="noopener" data-api_path="/albums/86401"&gt;&lt;em&gt;Temper Temper&lt;/em&gt;&lt;/a&gt; (2013)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Venom" rel="noopener" data-api_path="/albums/124763"&gt;&lt;em&gt;Venom&lt;/em&gt;&lt;/a&gt; (2015)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Gravity" rel="noopener" data-api_path="/albums/415984"&gt;&lt;em&gt;Gravity&lt;/em&gt;&lt;/a&gt; (2018)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Bullet-for-my-valentine" rel="noopener" data-api_path="/albums/784390"&gt;&lt;em&gt;Bullet For My Valentine&lt;/em&gt;&lt;/a&gt; (2021)&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Members:&lt;/strong&gt;&lt;br&gt;\n&lt;a href="https://genius.com/artists/Matt-tuck" rel="noopener" data-api_path="/artists/1221735"&gt;&lt;strong&gt;Matt Tuck&lt;/strong&gt;&lt;/a&gt;: Lead Vocals, Rhythm Guitar (1998–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Michael-padge-paget" rel="noopener" data-api_path="/artists/1493991"&gt;&lt;strong&gt;Michael “Padge” Paget&lt;/strong&gt;&lt;/a&gt;: Lead Guitar, Backing Vocals (1998–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jamie-mathias" rel="noopener" data-api_path="/artists/1506712"&gt;&lt;strong&gt;Jamie Mathias&lt;/strong&gt;&lt;/a&gt;: Bass, Vocals (2015–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-bowld" rel="noopener" data-api_path="/artists/1492103"&gt;&lt;strong&gt;Jason Bowld&lt;/strong&gt;&lt;/a&gt;: Drums (2017–present)&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Michael-moose-thomas" rel="noopener" data-api_path="/artists/1493992"&gt;Michael “Moose” Thomas&lt;/a&gt;: Drums (1998–2016)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-jay-james" rel="noopener" data-api_path="/artists/1494007"&gt;Jason “Jay” James&lt;/a&gt;: Bass, Backing Vocals (2003–2015)&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/7ff6c48f799e64087701a832831942a5.1000x760x1.png" alt="" width="1000" height="760" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;Padge, Matt, Jason &amp;amp; Jamie&lt;/center&gt;\n&lt;small&gt;&lt;/small&gt;&lt;/small&gt;&lt;/p&gt;', 'alternate_names': ['BFMV']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Korn', 'annotations': {'description': '&lt;p&gt;Bakersfield friends James “Munky” Shaffer, Reginald “Fieldy” Arvizu and David Silveria &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;formed the funk-rock band LAPD&lt;/a&gt; in 1989 and moved to Los Angeles with another friend Brian “Head” Welch as their roadie. Later, with Welch as second guitarist, the band named themselves Creep and recorded a demo with pal Ross Robinson.&lt;/p&gt;\n\n&lt;p&gt;However, when Shaffer and Welch visited family in Bakersfield, they met Jonathan Davis who added a darker, goth-tinged edge to the band’s heavy groove. &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;Robinson recalled&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The band wasn’t dark yet; it had, like, killer grooves and good riffs, but there was some happy edge to it. And when (Davis) walked into the room, it went dark and goth. Basically, during the first song, to audition in the rehearsal room, he started freaking the hell out [laughs]. You couldn’t hear his voice, but you felt chills all over your body, and it was instantly like, “Oh my God, yeah – he’s the one.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;They chose the name Korn (based on &lt;a href="https://www.youtube.com/watch?v=ZYnk4layQqs" rel="noopener nofollow"&gt;a gross story&lt;/a&gt; Davis once overheard) and recorded four songs &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;inspired by acts like&lt;/a&gt; Pantera, Ice Cube, Duran Duran, Cypress Hill, The Cure, Primus and potentially anything in between. That demo attracted Immortal Records. Their debut album only peaked at #72 in the US, but over time became the seed that sprouted into a whole new style of heavy music most commonly called nu-metal. &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;Davis explained&lt;/a&gt; in 2015:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;At the time in rock, there was nothing new or different, and it felt so stagnant. And here come these guys from Bakersfield with this bouncing sound, and I’m screaming my throat out, being super emotional and bringing up all this weird shit … It changed everything, man. And I’m not saying that because I was in the band, but I started seeing kids in baggy clothes and metal kids in Adidas.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Korn’s second album &lt;em&gt;Life Is Peachy&lt;/em&gt; began to expand the band’s sound from just dark and serious into frivolity, with a light-hearted cover of “Low Rider” and the band’s first almost-hit in the US “ADIDAS”. The formula worked in the UK where all three singles reached the top 30.&lt;/p&gt;\n\n&lt;p&gt;It was the band’s third album &lt;em&gt;Follow The Leader&lt;/em&gt;, another collection of dark songs mixed in with some silly ones, that broke the band in the US. Despite two of its singles only reaching the top 20 on two rock charts (but not crossing over to mainstream success), Korn became &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;what Noisey called&lt;/a&gt; “the biggest band in the fucking world”.&lt;/p&gt;\n\n&lt;p&gt;With an established sound, the band continued releasing successful albums and playing to packed arenas through the 2000s. But aside from their experimental tenth album &lt;em&gt;The Path Of Totality&lt;/em&gt; – a mixing of metal and dubstep – their albums remained formulaic and predictable. They are still best remembered for their self-titled debut and third album &lt;em&gt;Follow The Leader&lt;/em&gt;. In 2005, it was common to refer to Korn as a band whose best albums are &lt;a href="https://www.nme.com/reviews/album/reviews-nme-6437" rel="noopener nofollow"&gt;their odd-numbered ones&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The received wisdom about Korn is that they deliver on the odd numbers. Album one, ‘Korn’, revitalised metal, dragging it out of the middle ages into the modern era. Album three, ‘Follow The Leader’, took the form into the mainstream, blowing boundaries and preconceptions. Album four, ‘Issues’, was dense and impenetrable.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Welch quit in 2005 after having “Revelation of Christ” and Silveria left silently in 2006, but years later &lt;a href="https://www.ultimate-guitar.com/news/general_music_news/jonathan_davis_on_david_silveria_reunion_never_never_again.html" rel="noopener nofollow"&gt;revealed&lt;/a&gt; one reason for leaving was that he “was being asked to be a puppet and dumb down my playing” while producers made “cookie cutter Korn songs”. Welch later rejoined in 2013.&lt;/p&gt;\n\n&lt;p&gt;The band’s lifestyles have changed drastically over the band’s three-decade career, moving away from the spoils of excess to inspiring others to overcome their addictions and depression. In 2016, Davis &lt;a href="https://www.theguardian.com/music/2016/oct/21/korn-serenity-of-suffering-jonathan-davis-interview" rel="noopener nofollow"&gt;told The Guardian&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Nothing brings more joy into my fucking heart than seeing our music help a kid who is depressed, or suicidal, or going through an episode. That’s the payoff to me, that’s why we keep coming out here, that’s why we keep making records. Because we like to see people smile.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;As of 2020, the band has released 13 albums. The first seven are certified platinum and the band is &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;widely recognized as&lt;/a&gt; a pioneer of “one of heavy music’s biggest paradigm shifts”. They’re credited with creating the genre ‘nu-metal’ – a label &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;Davis originally rejected&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’d like to find that fucking writer that coined that term, nu-metal … Yeah, we’re heavy and downtuned, but metal, to me, is like Judas Priest and Iron Maiden. That’s metal, man. I always thought of us as a funk band, that funky groovy shit.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Skrillex', 'annotations': {'description': '&lt;p&gt;Sonny Moore found club and mainstream stardom beginning in 2008, when he swapped his gig as post-hardcore frontman for &lt;a href="https://genius.com/artists/From-first-to-last" rel="noopener" data-api_path="/artists/58750"&gt;From First to Last&lt;/a&gt; and created the dancefloor-oriented project, Skrillex. He initially used the name for live DJ sets, but in 2009 the project moved into the studio with Skrillex remixing the likes of &lt;a href="https://genius.com/artists/Lady-gaga" rel="noopener" data-api_path="/artists/447"&gt;Lady Gaga&lt;/a&gt; and &lt;a href="https://genius.com/artists/Snoop-dogg" rel="noopener" data-api_path="/artists/46"&gt;Snoop Dogg&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Now he strives in mainstream success, playing monstrous live sets, releasing songs that rack up millions of listens and producing for the likes of &lt;a href="https://genius.com/artists/justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt;, &lt;a href="https://genius.com/artists/A-ap-rocky" rel="noopener" data-api_path="/artists/12417"&gt;A$AP Rocky&lt;/a&gt;, &lt;a href="https://genius.com/artists/ty-dolla-ign" rel="noopener" data-api_path="/artists/25005"&gt;Ty Dolla Sign&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Ellie-goulding" rel="noopener" data-api_path="/artists/1838"&gt;Ellie Goulding&lt;/a&gt;, and formed the duo &lt;a href="https://genius.com/artists/jack-u" rel="noopener" data-api_path="/artists/72045"&gt;Jack U&lt;/a&gt; with equally successful producer &lt;a href="https://genius.com/artists/diplo" rel="noopener" data-api_path="/artists/12908"&gt;Thomas “Diplo” Pentz&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Twipz', 'Sonny Moore', 'Sonny J. Moore', 'Sonny John Moore']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Three-days-grace', 'annotations': {'description': '&lt;p&gt;Three Days Grace is a Canadian alternative rock band formed in 1997 and now based in Toronto. Consisting of lead vocalist &lt;a href="https://genius.com/artists/Matt-walst" rel="noopener" data-api_path="/artists/1102458"&gt;Matt Walst&lt;/a&gt;, lead guitarist &lt;a href="https://genius.com/artists/Barry-stock" rel="noopener" data-api_path="/artists/73436"&gt;Barry Stock&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Neil-sanderson" rel="noopener" data-api_path="/artists/73434"&gt;Neil Sanderson&lt;/a&gt;, and bassist &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt;, the band is best known for their metal-influenced, hard rock sound and clever songwriting.&lt;/p&gt;\n\n&lt;p&gt;TDG grew out of &lt;a href="https://genius.com/artists/Groundswell" rel="noopener" data-api_path="/artists/62823"&gt;Groundswell&lt;/a&gt;, a five-member high-school band founded in 1992. With &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt; as lead vocalist, &lt;a href="https://genius.com/artists/Neil-sanderson" rel="noopener" data-api_path="/artists/73434"&gt;Neil Sanderson&lt;/a&gt; as drummer, &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt; as bassist, &lt;a href="https://genius.com/artists/Phil-crowe" rel="noopener" data-api_path="/artists/2060493"&gt;Phil Crowe&lt;/a&gt; as lead guitarist, and &lt;a href="https://genius.com/artists/Joe-grant" rel="noopener" data-api_path="/artists/1216873"&gt;Joe Grant&lt;/a&gt; as rhythm guitarist, Groundswell released one album, &lt;a href="https://genius.com/albums/Groundswell/Wave-of-popular-feeling" rel="noopener" data-api_path="/albums/235662"&gt;&lt;em&gt;Wave of Popular Feeling&lt;/em&gt;&lt;/a&gt; in 1995. That same year, the band broke up, and it was not until 1997 that &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt;, &lt;a href="https://genius.com/artists/Neil-sanderson" rel="noopener" data-api_path="/artists/73434"&gt;Neil Sanderson&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt; got together as “Three Days Grace”.&lt;/p&gt;\n\n&lt;p&gt;Working with local producer &lt;a href="https://genius.com/artists/Gavin-brown" rel="noopener" data-api_path="/artists/128850"&gt;Gavin Brown&lt;/a&gt;, the trio re-worked a number of their past songs and compiled a demo album. After handing it to &lt;a href="https://genius.com/artists/Emi-music-publishing" rel="noopener" data-api_path="/artists/648041"&gt;EMI Music Publishing Canada&lt;/a&gt;, TDG produced their smash single &lt;a href="https://genius.com/Three-days-grace-i-hate-everything-about-you-lyrics" rel="noopener" data-api_path="/songs/107580"&gt;“I Hate Everything About You”&lt;/a&gt;, which would be released in 2003 alongside their eponymous debut album &lt;a href="https://genius.com/albums/Three-days-grace/Three-days-grace" rel="noopener" data-api_path="/albums/26399"&gt;&lt;em&gt;Three Days Grace&lt;/em&gt;&lt;/a&gt; through American label &lt;a href="https://genius.com/artists/Jive-records" rel="noopener" data-api_path="/artists/649293"&gt;Jive Records&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In late 2003, the band welcomed lead guitarist &lt;a href="https://genius.com/artists/Barry-stock" rel="noopener" data-api_path="/artists/73436"&gt;Barry Stock&lt;/a&gt;, and released two additional singles, &lt;a href="https://genius.com/Three-days-grace-just-like-you-lyrics" rel="noopener" data-api_path="/songs/424351"&gt;Just Like You&lt;/a&gt; and &lt;a href="https://genius.com/Three-days-grace-home-lyrics" rel="noopener" data-api_path="/songs/383357"&gt;“Home”&lt;/a&gt;. Going on tour for TDG’s debut album, lead singer &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt; developed a prescription drug addiction, and with the support of his friends and family, checked into rehab in 2005.&lt;/p&gt;\n\n&lt;p&gt;While undergoing treatment, Gontier wrote songs about his journey to recovery, which would become tracks on TDG’s second album. After leaving the center, Gontier continued producing music with the band, culminating in 2006’s &lt;a href="https://genius.com/albums/Three-days-grace/One-x-special-edition" rel="noopener" data-api_path="/albums/18897"&gt;&lt;em&gt;One-X&lt;/em&gt;&lt;/a&gt;. The album was positively received: TDG catapulted to the top of Billboard’s 2007 charts, the single &lt;a href="https://genius.com/Three-days-grace-animal-i-have-become-lyrics" rel="noopener" data-api_path="/songs/80495"&gt;“Animal I Have Become”&lt;/a&gt; became the band’s most successful track, and &lt;em&gt;One-X&lt;/em&gt; was certified double platinum July 2007 in Canada. Later in 2016, the album would earn triple platinum in the US.&lt;/p&gt;\n\n&lt;p&gt;In 2009, TDG released their third album, &lt;a href="https://genius.com/albums/Three-days-grace/Life-starts-now" rel="noopener" data-api_path="/albums/82833"&gt;&lt;em&gt;Life Starts Now&lt;/em&gt;&lt;/a&gt;, transitioning from the dark lyrics of their previous records into a lighter and more mature era.&lt;/p&gt;\n\n&lt;p&gt;In 2011, following the disbanding of &lt;a href="https://genius.com/artists/Jive-records" rel="noopener" data-api_path="/artists/649293"&gt;Jive Records&lt;/a&gt;, TDG signed on to &lt;a href="https://genius.com/artists/Rca-records-ltd" rel="noopener" data-api_path="/artists/2538696"&gt;RCA Records&lt;/a&gt;. On June 5, 2012, TDG announced their fourth studio album, &lt;a href="https://genius.com/albums/Three-days-grace/Transit-of-venus" rel="noopener" data-api_path="/albums/82577"&gt;Transit of Venus&lt;/a&gt;, inspired by the rare astrological phenomenon that had occurred that day and released later in October.&lt;/p&gt;\n\n&lt;p&gt;In a surprise announcement on January 9, 2013, lead singer &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt; revealed that he was leaving TDG. He was replaced by bassist &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt;’s brother &lt;a href="https://genius.com/artists/Matt-walst" rel="noopener" data-api_path="/artists/1102458"&gt;Matt Walst&lt;/a&gt;, who remains the band’s lead singer today.&lt;/p&gt;\n\n&lt;p&gt;In April 2014, the band released their first single of the year, &lt;a href="https://genius.com/Three-days-grace-painkiller-lyrics" rel="noopener" data-api_path="/songs/393555"&gt;“Painkiller”&lt;/a&gt;, which shot to No. 1 on Billboard’s Mainstream Rock Chart in August. The following month, TDG released their next single, &lt;a href="https://genius.com/Three-days-grace-i-am-machine-lyrics" rel="noopener" data-api_path="/songs/528054"&gt;“I Am Machine”&lt;/a&gt;, and on January 26, 2015, the band confirmed that the title of their next album. In March 2015, TDG released the third single &lt;a href="https://genius.com/Three-days-grace-human-race-lyrics" rel="noopener" data-api_path="/songs/729619"&gt;“Human Race”&lt;/a&gt;, and a week later, they released their fifth studio album, &lt;a href="https://genius.com/albums/Three-days-grace/Human" rel="noopener" data-api_path="/albums/122280"&gt;&lt;em&gt;Human&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Throughout 2015, TDG went on tour, performing in US and Canada, and in early 2016, Europe and Russia. In November 2016, they released a cover single of &lt;a href="https://genius.com/artists/Phantogram" rel="noopener" data-api_path="/artists/12520"&gt;Phantogram&lt;/a&gt;’s &lt;a href="https://genius.com/Three-days-grace-you-dont-get-me-high-anymore-lyrics" rel="noopener" data-api_path="/songs/2911417"&gt;“You Don’t Get Me High Anymore”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Over the summer of 2017, TDG began working on their sixth studio album, &lt;a href="https://genius.com/albums/Three-days-grace/Outsider" rel="noopener" data-api_path="/albums/396513"&gt;“Outsider”&lt;/a&gt;, which was released in March 2018. The first single of the album, &lt;a href="https://genius.com/Three-days-grace-the-mountain-lyrics" rel="noopener" data-api_path="/songs/3461381"&gt;“The Mountain”&lt;/a&gt;, was released January 2018, and followed by &lt;a href="https://genius.com/Three-days-grace-infra-red-lyrics" rel="noopener" data-api_path="/songs/3522134"&gt;“Infra-Red”&lt;/a&gt; in June and &lt;a href="https://genius.com/Three-days-grace-right-left-wrong-lyrics" rel="noopener" data-api_path="/songs/3522132"&gt;“Right Left Wrong”&lt;/a&gt; in November. All three singles made a No. 1 debut on Billboard’s Mainstream Rock Chart, setting the band a record of 15 smash-hit singles. In 2019, the TDG won iHeart Radio’s Rock Artist of the Year.&lt;/p&gt;\n\n&lt;p&gt;In July of 2020, TDG released a cover of &lt;a href="https://genius.com/artists/Gotye" rel="noopener" data-api_path="/artists/17395"&gt;Gotye&lt;/a&gt;’s &lt;a href="https://genius.com/Three-days-grace-somebody-that-i-used-to-know-lyrics" rel="noopener" data-api_path="/songs/5788123"&gt;“Somebody That I Used To Know”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Breaking-benjamin', 'annotations': {'description': '&lt;p&gt;Breaking Benjamin is a rock band from Wilkes-Barre, Pennsylvania. The band was formed in 1999 by lead singer &lt;a href="https://genius.com/artists/Benjamin-burnley" rel="noopener" data-api_path="/artists/502352"&gt;Ben Burnley&lt;/a&gt; and former drummer &lt;a href="https://genius.com/artists/Jeremy-hummel" rel="noopener" data-api_path="/artists/1087832"&gt;Jeremy Hummel&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band was originally named Plan 9, which is a reference to the 1959 film &lt;a href="https://www.imdb.com/title/tt0052077/" rel="noopener nofollow"&gt;&lt;em&gt;Plan 9 from Outer Space&lt;/em&gt;&lt;/a&gt;. The band continuously was misnamed as Planet 9 and drove them to change their name to Breaking Benjamin (Which was the name of Ben’s previous band.) The name originates from  an incident in which Ben accidentally dropped the mic, and the sound man yelled&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Thanks to Benjamin for breaking my fucking mic!”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In 2004, their sophomore album &lt;a href="https://genius.com/albums/Breaking-benjamin/We-are-not-alone" rel="noopener" data-api_path="/albums/76017"&gt;&lt;em&gt;We Are Not Alone&lt;/em&gt;&lt;/a&gt; was released. They collaborated with &lt;a href="https://genius.com/artists/Smashing-pumpkins" rel="noopener" data-api_path="/artists/12025"&gt;Smashing Pumpkins&lt;/a&gt; vocalist &lt;a href="https://genius.com/artists/Billy-corgan" rel="noopener" data-api_path="/artists/42637"&gt;Billy Corgan&lt;/a&gt; on writing their songs &lt;a href="https://genius.com/Breaking-benjamin-rain-lyrics" rel="noopener" data-api_path="/songs/424617"&gt;“Rain”&lt;/a&gt;, &lt;a href="https://genius.com/Breaking-benjamin-forget-it-lyrics" rel="noopener" data-api_path="/songs/399168"&gt;“Forget It”&lt;/a&gt;, and &lt;a href="https://genius.com/Breaking-benjamin-follow-radio-edit-lyrics" rel="noopener" data-api_path="/songs/424537"&gt;“Follow”&lt;/a&gt;. The album peaked at #20 on the &lt;a href="https://www.billboard.com/music/breaking-benjamin/chart-history/billboard-200/song/457115" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt; and has been certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=BREAKING+BENJAMIN&amp;amp;ti=WE+ARE+NOT+ALONE" rel="noopener nofollow"&gt;platinum&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2005, they released their second platinum album &lt;a href="https://genius.com/albums/Breaking-benjamin/Phobia" rel="noopener" data-api_path="/albums/18447"&gt;&lt;em&gt;Phobia&lt;/em&gt;&lt;/a&gt;. The albums lead single &lt;a href="https://genius.com/Breaking-benjamin-the-diary-of-jane-lyrics" rel="noopener" data-api_path="/songs/79054"&gt;“Diary of Jane”&lt;/a&gt; peaked at #2 on the Billboard &lt;a href="https://www.billboard.com/music/breaking-benjamin/chart-history/hot-mainstream-rock-tracks/song/502058" rel="noopener nofollow"&gt;Mainstream Rock Chart&lt;/a&gt;. It received a double-platinum certification and was the fastest single added to radio stations in Hollywood Records history.&lt;/p&gt;\n\n&lt;p&gt;The band began their hiatus in 2010 after a dispute between band members about the release of the &lt;a href="https://genius.com/Breaking-benjamin-blow-me-away-feat-valora-lyrics" rel="noopener" data-api_path="/songs/1513040"&gt;“Blow Me Away”&lt;/a&gt; remix with Syndee Duran.&lt;/p&gt;\n\n&lt;p&gt;Ben returned in 2014 with a whole new lineup. Their first album together &lt;a href="https://genius.com/albums/Breaking-benjamin/Dark-before-dawn" rel="noopener" data-api_path="/albums/126578"&gt;&lt;em&gt;Dark Before Dawn&lt;/em&gt;&lt;/a&gt; made its way up the charts very quickly and peaked at #1 on the Billboard 200. It was certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=BREAKING+BENJAMIN&amp;amp;ti=DARK+BEFORE+DAWN" rel="noopener nofollow"&gt;gold&lt;/a&gt; in 2016.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Valora', 'annotations': {'description': '&lt;p&gt;Valora is a Rock band from Los Angeles, CA featuring electrifying frontwoman Syd Duran. Syd’s powerful vocals and stage presence have catapulted the band from obscurity to national attention. Syd’s sister Taelor Duran was a flaming addition in 2009 on keys and second vocals. Taelor’s rich, sultry harmonies are the anchor to Syd’s soaring vocals. The sibling interaction is alluring and entertaining.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Five-finger-death-punch', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Five Finger Death Punch&lt;/strong&gt;, often shortened to Death Punch and abbreviated as &lt;strong&gt;5FDP&lt;/strong&gt; or &lt;strong&gt;FFDP,&lt;/strong&gt; is an American heavy metal band from Los Angeles, California.&lt;/p&gt;\n\n&lt;p&gt;Formed in 2005, the band’s name is derived from a fictional martial arts maneuver in the 2003 film Kill Bill. The band originally consisted of vocalist Ivan Moody, guitarist Zoltan Bathory, guitarist Caleb Andrew Bingham, bassist Matt Snell, and drummer Jeremy Spencer. Bingham was replaced by guitarist Darrell Roberts in 2006, who was then replaced by Jason Hook in 2009. Bassist Matt Snell departed from the band in 2010, and was replaced by Chris Kael in 2011. Drummer Jeremy Spencer was replaced by Charlie Engen in 2018 due to re-occurring back issues. They are one of the most successful groove metal bands, and are known for their raw aesthetic voices.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/624d64cd46fb90d0e8bf51039b3142ca.735x400x1.jpg" alt="" width="735" height="400" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['5 Finger Death Punch', 'FFDP', '5FDP']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rob-halford', 'annotations': {'description': '&lt;p&gt;Robert John Arthur Halford (Born; 25 August 1951) is an English singer and songwriter, who is best known as the lead vocalist for heavy metal band &lt;a href="https://genius.com/artists/Judas-priest" rel="noopener" data-api_path="/artists/17236"&gt;Judas Priest&lt;/a&gt; and famed for his powerful wide ranging operatic voice.&lt;/p&gt;', 'alternate_names': ['Metal God', 'Robert Halford']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Maria-brink', 'annotations': {'description': '&lt;p&gt;Maria Diane Brink (born December 18, 1977) is an American singer and songwriter. She made her performing debut in an Albany-based band Pulse. In the 2000s, she formed &lt;a href="https://genius.com/artists/In-this-moment" rel="noopener" data-api_path="/artists/259507"&gt;In This Moment&lt;/a&gt;, which has helped her to gain popularity.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Max-cavalera', 'annotations': {'description': '&lt;p&gt;Massimiliano Antonio Cavalera (born in Belo Horizonte, Brazil on August 4th, 1969) is a Brazilian musician best known as the former vocalist, guitarist, and songwriter of &lt;a href="https://genius.com/artists/Sepultura" rel="noopener" data-api_path="/artists/344507"&gt;Sepultura&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He currently plays in heavy metal bands &lt;a href="https://genius.com/artists/Soulfly" rel="noopener" data-api_path="/artists/301317"&gt;Soulfly&lt;/a&gt;, &lt;a href="https://genius.com/artists/Cavalera-conspiracy" rel="noopener" data-api_path="/artists/359888"&gt;Cavalera Conspiracy&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Killer-be-killed" rel="noopener" data-api_path="/artists/356866"&gt;Killer Be Killed&lt;/a&gt;. Max was also involved in a side project called &lt;a href="https://genius.com/artists/Nailbomb" rel="noopener" data-api_path="/artists/363563"&gt;Nailbomb&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Cavalera co-founded the death/thrash metal band &lt;a href="https://genius.com/artists/Sepultura" rel="noopener" data-api_path="/artists/344507"&gt;Sepultura&lt;/a&gt; with his brother &lt;a href="https://genius.com/artists/Igor-Cavalera" rel="noopener" data-api_path="/artists/995489"&gt;Igor Cavalera&lt;/a&gt; and was the band’s lead vocalist and rhythm guitarist until 1996. He appeared on the band’s first six iconic albums. After departure from &lt;a href="https://genius.com/artists/Sepultura" rel="noopener" data-api_path="/artists/344507"&gt;Sepultura&lt;/a&gt;, Max formed the band &lt;a href="https://genius.com/artists/Soulfly" rel="noopener" data-api_path="/artists/301317"&gt;Soulfly&lt;/a&gt; which has released 11 studio albums to this day.&lt;/p&gt;\n\n&lt;p&gt;In 2006, Max and his brother Igor formed the band &lt;a href="https://genius.com/artists/Cavalera-conspiracy" rel="noopener" data-api_path="/artists/359888"&gt;Cavalera Conspiracy&lt;/a&gt;. The band’s creation marked the end of a 10-year feud between the Cavalera brothers.&lt;/p&gt;', 'alternate_names': ['Max Possessed', 'Massimiliano Antonio Cavalera']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jasta', 'annotations': {'description': '&lt;p&gt;Jamey Jasta is most well known as the lead singer of the east coast heavy metal band Hatebreed.&lt;/p&gt;', 'alternate_names': ['James Vincent Shanahan', 'Jamey Jasta']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Seether', 'annotations': {'description': '&lt;p&gt;Seether is a rock band founded in Pretoria, South Africa, 1999.&lt;/p&gt;\n\n&lt;p&gt;The band originally performed under the name Saron Gas until 2002, when they moved to the United States and changed it to Seether, after the &lt;a href="https://genius.com/artists/Veruca-salt" rel="noopener" data-api_path="/artists/356519"&gt;Veruca Salt&lt;/a&gt; song, to avoid confusion with the deadly chemical known as &lt;a href="https://emergency.cdc.gov/agent/sarin/basics/facts.asp" rel="noopener nofollow"&gt;sarin gas&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;They gained mainstream popularity in 2002 with their single &lt;a href="https://genius.com/Seether-fine-again-lyrics" rel="noopener" data-api_path="/songs/99710"&gt;“Fine Again,”&lt;/a&gt; and their success was sustained in 2004 with the single &lt;a href="https://genius.com/Seether-broken-lyrics" rel="noopener" data-api_path="/songs/2422300"&gt;“Broken”&lt;/a&gt; which peaked at #20 on the &lt;a href="https://www.billboard.com/music/seether/chart-history/hot-100/song/431934" rel="noopener nofollow"&gt;Billboard Hot 100&lt;/a&gt;. They have experienced continued success with hits such as &lt;a href="https://genius.com/Seether-remedy-lyrics" rel="noopener" data-api_path="/songs/741588"&gt;“Remedy,”&lt;/a&gt; &lt;a href="https://genius.com/Seether-fake-it-lyrics" rel="noopener" data-api_path="/songs/192151"&gt;“Fake It,”&lt;/a&gt; and &lt;a href="https://genius.com/Seether-words-as-weapons-lyrics" rel="noopener" data-api_path="/songs/419632"&gt;“Words as Weapons”&lt;/a&gt; to name a few.&lt;/p&gt;\n\n&lt;p&gt;They won ‘Artist of the Year’ and ‘Best Alternative Artist’ at the 2008 &lt;a href="http://www.mtv.com/vma" rel="noopener nofollow"&gt;MTV Africa Music Awards&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Saron Gas']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Amy-lee', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Amy Lee&lt;/strong&gt; is an U.S. singer, songwriter, record producer, and multi-instrumentalist, famous as the lead singer and co-founder of &lt;a href="https://genius.com/artists/Evanescence" rel="noopener" data-api_path="/artists/17912"&gt;Evanescence&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Meshuggah', 'annotations': {'description': '&lt;p&gt;Meshuggah is an extreme metal band from Umeå, Sweden.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/b5193992ec36500e26f6128662cb1aa4.1000x665x1.jpg" alt="" width="1000" height="665" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Meshuggah’s line-up consists of founding members vocalist Jens Kidman and lead guitarist Fredrik Thordendal, drummer Tomas Haake, who joined in 1990, rhythm guitarist Mårten Hagström, who joined in 1992 and bassist Dick Lövgren since 2004.&lt;/p&gt;\n\n&lt;p&gt;Often esoteric and conceptual, Meshuggah’s lyrics explore themes such as existentialism.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alter-bridge', 'annotations': {'description': '&lt;p&gt;Alter Bridge is a rock band from Orlando, Florida, formed in 2004. Following &lt;a href="https://genius.com/artists/Creed" rel="noopener" data-api_path="/artists/13217"&gt;Creed&lt;/a&gt;’s disbandment in 2004, former members &lt;a href="https://genius.com/artists/mark-tremonti" rel="noopener" data-api_path="/artists/359858"&gt;Mark Tremonti&lt;/a&gt; (Guitar and backing vocals), &lt;a href="https://genius.com/artists/Brian-Marshall" rel="noopener" data-api_path="/artists/793733"&gt;Brian Marshall&lt;/a&gt; (Bass), and &lt;a href="https://genius.com/artists/Scott-phillips" rel="noopener" data-api_path="/artists/793732"&gt;Scott Phillips&lt;/a&gt; (Drums) began working with &lt;a href="https://genius.com/artists/Myles-Kennedy" rel="noopener" data-api_path="/artists/176315"&gt;Myles Kennedy&lt;/a&gt; (Guitar and Vocal), formerly of &lt;a href="https://genius.com/artists/The-mayfield-four" rel="noopener" data-api_path="/artists/362463"&gt;The Mayfield Four&lt;/a&gt;. The band’s name comes from a bridge that once existed on Alter Road near Tremonti’s former home in Detroit, Michigan.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Stone-sour', 'annotations': {'description': '&lt;p&gt;Stone Sour is an American rock band formed in Des Moines, Iowa in 1992.&lt;/p&gt;\n\n&lt;p&gt;Stone Sour earned the group two Grammy Award nominations, both for Best Metal Performance, for the singles “Get Inside”, in 2003, and “Inhale”, in 2004. The album went on to become RIAA certified Gold.&lt;/p&gt;\n\n&lt;p&gt;In 2006, following the release of &lt;em&gt;Come What(ever) May&lt;/em&gt;, the group received another Grammy Award nomination for Best Metal Performance for the single “30/30-150”.&lt;/p&gt;\n\n&lt;p&gt;Stone Sour has sold over four million albums worldwide.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Fozzy', 'annotations': {'description': '&lt;p&gt;A heavy metal band formed by &lt;a href="https://genius.com/artists/Rich-ward" rel="noopener" data-api_path="/artists/1515302"&gt;Rich Ward&lt;/a&gt; of &lt;a href="https://genius.com/artists/Stuck-mojo" rel="noopener" data-api_path="/artists/358514"&gt;Stuck Mojo&lt;/a&gt; and any musicians he could find.  Wrestler &lt;a href="https://genius.com/artists/Chris-jericho" rel="noopener" data-api_path="/artists/284145"&gt;Chris Jericho&lt;/a&gt; joined and helped develop the band’s fictitious backstory about being trapped in Japan for 20 years and having to watch other bands find success with “their” songs.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Volbeat', 'annotations': {'description': '&lt;p&gt;Volbeat is a Danish rock band formed in Copenhagen in 2001. They play a fusion of rock and roll, heavy metal, and rockabilly. Their current line-up consists of vocalist and guitarist &lt;a href="https://genius.com/artists/Michael-poulsen" rel="noopener" data-api_path="/artists/664303"&gt;Michael Poulsen&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Rob-caggiano" rel="noopener" data-api_path="/artists/214690"&gt;Rob Caggiano&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Jon-larsen" rel="noopener" data-api_path="/artists/1104130"&gt;Jon Larsen&lt;/a&gt; and bassist &lt;a href="https://genius.com/artists/Kaspar-boye-larsen" rel="noopener" data-api_path="/artists/1824690"&gt;Kaspar Boye Larsen&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Singer Michael Poulsen’s first band was death metal act &lt;a href="https://genius.com/artists/Dominus" rel="noopener" data-api_path="/artists/354240"&gt;Dominus&lt;/a&gt;. In 2000, Poulsen became fed up with the death metal music scene, causing Dominus to break up. In 2001, Poulsen went on to form a new band with some friends and other former Dominus members. This was the beginning of Volbeat.&lt;/p&gt;\n\n&lt;p&gt;The band name “Volbeat” was derived from Dominus’s third album name, which was called &lt;a href="https://genius.com/albums/Dominus/Vol-beat" rel="noopener" data-api_path="/albums/226124"&gt;&lt;em&gt;Vol.Beat&lt;/em&gt;&lt;/a&gt; (read as: Volume Beat). After selling 1,000 copies of their &lt;a href="https://genius.com/albums/Volbeat/Beat-the-meat" rel="noopener" data-api_path="/albums/213919"&gt;&lt;em&gt;Beat the Meat&lt;/em&gt;&lt;/a&gt; demo tape, Volbeat was signed to a record deal by &lt;a href="https://genius.com/artists/Rebel-monster-records" rel="noopener" data-api_path="/artists/1108254"&gt;Rebel Monster Records&lt;/a&gt;, a sub-label of &lt;a href="https://genius.com/artists/Mascot-records" rel="noopener" data-api_path="/artists/1108255"&gt;Mascot Records&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band is currently signed to Dutch label Mascot Records and has released six studio albums and one DVD. All of their studio albums have been certified gold in Denmark. Their second album &lt;a href="https://genius.com/albums/Volbeat/Rock-the-rebel-metal-the-devil" rel="noopener" data-api_path="/albums/41582"&gt;&lt;em&gt;Rock the Rebel/Metal the Devil&lt;/em&gt;&lt;/a&gt; received platinum status, and their 2010-release &lt;a href="https://genius.com/albums/Volbeat/Beyond-heaven-above-hell" rel="noopener" data-api_path="/albums/56985"&gt;&lt;em&gt;Beyond Hell/Above Heaven&lt;/em&gt;&lt;/a&gt; was subject to widespread international critical acclaim, receiving double platinum in Denmark, platinum in Finland and Germany, and gold in the United States, Sweden, and Austria.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Linkin-park', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/albums/Linkin-park/Hybrid-theory" rel="noopener" data-api_path="/albums/15321"&gt;&lt;em&gt;Hybrid Theory&lt;/em&gt;&lt;/a&gt; isn’t just the title of Linkin Park’s chart-topping debut album, but a career mission statement.&lt;/p&gt;\n\n&lt;p&gt;From day one, the same six players (lead vocalist &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt;, drummer/percussionist &lt;a href="https://genius.com/artists/Rob-bourdon" rel="noopener" data-api_path="/artists/643808"&gt;Rob Bourdon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Brad-delson" rel="noopener" data-api_path="/artists/177201"&gt;Brad Delson&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Dave-farrell" rel="noopener" data-api_path="/artists/635618"&gt;Dave ‘Phoenix’ Farrell&lt;/a&gt;, DJ/Programmer &lt;a href="https://genius.com/artists/Joe-hahn" rel="noopener" data-api_path="/artists/271318"&gt;Joe Hahn&lt;/a&gt;, and keyboardist, guitarist, and co-lead vocals &lt;a href="https://genius.com/artists/Mike-shinoda" rel="noopener" data-api_path="/artists/4431"&gt;Mike Shinoda&lt;/a&gt;) built the band by fusing all their favorite styles of music into one unmistakable signature sound. With each album, Linkin Park defiantly challenges themselves and their fans by blasting into new musical territory. After setting the template for rock that incorporated hip-hop influences with &lt;em&gt;Hybrid Theory&lt;/em&gt; and &lt;a href="https://genius.com/albums/Linkin-park/Meteora" rel="noopener" data-api_path="/albums/5986"&gt;&lt;em&gt;Meteora&lt;/em&gt;&lt;/a&gt;, they shifted gears completely and defied expectations with the polychromatic &lt;a href="https://genius.com/albums/Linkin-park/Minutes-to-midnight" rel="noopener" data-api_path="/albums/16008"&gt;&lt;em&gt;Minutes to Midnight&lt;/em&gt;&lt;/a&gt;, and again with the esoteric &lt;a href="https://genius.com/albums/Linkin-park/A-thousand-suns" rel="noopener" data-api_path="/albums/15414"&gt;&lt;em&gt;A Thousand Suns&lt;/em&gt;&lt;/a&gt;, before melding a piece of them all into 2012’s &lt;a href="https://genius.com/albums/Linkin-park/Living-things" rel="noopener" data-api_path="/albums/16392"&gt;&lt;em&gt;LIVING THINGS&lt;/em&gt;&lt;/a&gt;. With their 2014 release and heaviest offering in years, &lt;a href="https://genius.com/albums/Linkin-park/The-hunting-party" rel="noopener" data-api_path="/albums/100521"&gt;&lt;em&gt;The Hunting Party&lt;/em&gt;&lt;/a&gt;, Linkin Park manage to capture their ever-innovative spirit with a hunger seldom seen in bands on their seventh album. &lt;a href="https://genius.com/albums/Linkin-park/One-more-light" rel="noopener" data-api_path="/albums/330664"&gt;&lt;em&gt;One More Light&lt;/em&gt;&lt;/a&gt; (2017) is an interesting personal album, filled with a lot of emotion.&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, on July 20, 2017, Chester unexpectedly &lt;a href="http://www.tmz.com/2017/07/20/linkin-park-singer-chester-bennington-dead-commits-suicide/" rel="noopener nofollow"&gt;died by suicide&lt;/a&gt;, shocking and saddening both fans and his own band members alike.&lt;/p&gt;\n\n&lt;p&gt;As for the band’s name, they were originally called Hybrid Theory, but trademark issues with a band called Hybrid forced the band to rethink their name. According to &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names/P1" rel="noopener nofollow"&gt;&lt;em&gt;Alternative Press&lt;/em&gt;&lt;/a&gt;, Bennington suggested “Lincoln Park” since he had to drive past there after band practice to get home. However, the domain name “lincolnpark.com” cost more than the band could afford so they changed the spelling to Linkin Park. It was also suggested that the name change would help them appear right next to Limp Bizkit at record stores.&lt;/p&gt;', 'alternate_names': ['Hybrid Theory', 'Xero', 'MMM...COOKIES']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Evanescence', 'annotations': {'description': '&lt;p&gt;Evanescence is an American rock band founded in Little Rock, Arkansas in 1995 by singer/pianist Amy Lee and guitarist Ben Moody. Evanescence was originally promoted in Christian stores. Later, the band made it clear they did not want to be considered part of the Christian rock genre, like fellow Wind-up Records artists Creed. Some of their most popular hits include: “&lt;a href="https://genius.com/Evanescence-bring-me-to-life-lyrics" rel="noopener" data-api_path="/songs/67202"&gt;Bring Me to Life&lt;/a&gt;,” “&lt;a href="https://genius.com/Evanescence-my-immortal-lyrics" rel="noopener" data-api_path="/songs/113158"&gt;My Immortal&lt;/a&gt;,” and “&lt;a href="https://genius.com/Evanescence-what-you-want-lyrics" rel="noopener" data-api_path="/songs/218592"&gt;What You Want&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;In 2014, the band &lt;a href="https://twitter.com/AmyLeeEV/status/446110328418349056" rel="noopener nofollow"&gt;parted ways&lt;/a&gt; with their long-term record label Wind-Up and became independent artists. In late 2016, they released a &lt;em&gt;Ultimate Collection&lt;/em&gt; box set featuring all their albums along with the 2000 demo album &lt;a href="https://genius.com/albums/Evanescence/Origin" rel="noopener" data-api_path="/albums/45335"&gt;&lt;em&gt;Origin&lt;/em&gt;&lt;/a&gt; and a B-sides compilation &lt;a href="https://genius.com/albums/Evanescence/Lost-whispers" rel="noopener" data-api_path="/albums/332896"&gt;&lt;em&gt;Lost Whispers&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In November 2017, they released their fourth album, &lt;a href="https://genius.com/albums/Evanescence/Synthesis" rel="noopener" data-api_path="/albums/363298"&gt;&lt;em&gt;Synthesis&lt;/em&gt;&lt;/a&gt;, featuring a reimagining of some of their past songs plus two new original songs with the spotlight on full orchestra and electronics.&lt;/p&gt;\n\n&lt;p&gt;Their fifth album, &lt;a href="https://genius.com/albums/Evanescence/The-bitter-truth" rel="noopener" data-api_path="/albums/624604"&gt;&lt;em&gt;The Bitter Truth&lt;/em&gt;&lt;/a&gt;, was released in March 2021.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bring-me-the-horizon', 'annotations': {'description': '&lt;p&gt;Bring Me The Horizon are a British &lt;a href="https://genius.com/tags/alternative-rock" rel="noopener"&gt;alternative rock&lt;/a&gt; band from Sheffield, Yorkshire—often stylised as simply “BMTH” or shortened to “Bring Me.” Formed in 2003, the group currently consists of lead vocalist &lt;a href="https://genius.com/artists/Oliver-sykes" rel="noopener" data-api_path="/artists/1007693"&gt;Oliver “Oli” Sykes,&lt;/a&gt; lead guitarist &lt;a href="https://genius.com/artists/Lee-malia" rel="noopener" data-api_path="/artists/1007694"&gt;Lee Malia,&lt;/a&gt; bassist &lt;a href="https://genius.com/artists/Matt-kean" rel="noopener" data-api_path="/artists/1094009"&gt;Matt Kean,&lt;/a&gt; drummer &lt;a href="https://genius.com/artists/Matt-nicholls" rel="noopener" data-api_path="/artists/1094010"&gt;Matt Nicholls,&lt;/a&gt; and keyboardist &lt;a href="https://genius.com/artists/Jordan-fish" rel="noopener" data-api_path="/artists/566546"&gt;Jordan Fish.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/c642295d139a03e53746037448f49329.1000x563x1.jpg" alt="" width="1000" height="563" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The name of the band was taken from &lt;a href="https://www.imdb.com/title/tt0325980/characters/nm0000136" rel="noopener nofollow"&gt;Captain Jack Sparrow’s&lt;/a&gt; line in the first &lt;a href="https://www.imdb.com/title/tt0325980/" rel="noopener nofollow"&gt;&lt;em&gt;Pirates of the Caribbean&lt;/em&gt;&lt;/a&gt; which he says: &lt;a href="https://youtu.be/eZ69WdGN9Ys?t=18" rel="noopener nofollow"&gt;“Bring me that horizon.”&lt;/a&gt; Oli stated in an &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names" rel="noopener nofollow"&gt;interview with &lt;em&gt;Spin&lt;/em&gt;&lt;/a&gt; how the name connects with his vision of the band:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Right at the end of the film—it might even be the very last line—&lt;a href="https://www.imdb.com/name/nm0000136/" rel="noopener nofollow"&gt;Johnny Depp&lt;/a&gt; says, “Bring me that horizon.” That was really inspiring. I was still living with my parents in Sheffield, England, when the movie came out [in 2003]. For me and the band, playing music was always wrapped up with the idea of touring and traveling and seeing the rest of England and the rest of the world. We never thought doing that was possible, but that’s what we wanted to do. So that quote sort of stands in for our feeling of wanting to see what the planet had to offer.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/a3eb78e16fb419fb99e064b798c430da.500x210x14.gif" alt="" width="500" height="210" data-animated="true"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;BMTH’s sound has changed dramatically over the years. In their original incarnation, they were known for fast blast beats and &lt;a href="https://genius.com/tags/deathcore" rel="noopener"&gt;deathcore&lt;/a&gt; influences. With the official addition of Jordan Fish on 2013’s &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Sempiternal" rel="noopener" data-api_path="/albums/29438"&gt;&lt;em&gt;Sempiternal&lt;/em&gt;,&lt;/a&gt; the group has steered towards a more stadium-friendly &lt;a href="https://genius.com/tags/alternative-rock" rel="noopener"&gt;alternative rock&lt;/a&gt; sound. This was a conscious decision for the band to embrace melody and reach a wider audience.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.independent.co.uk/arts-entertainment/music/oli-sykes-interview-bring-me-the-horizon-tour-o2-arena-royal-albert-hall-a7388161.html" rel="noopener nofollow"&gt;Oli explained the shift&lt;/a&gt; as due to maturing in age and shifting interests, as well as a desire to take the band further than ever before:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We were just a metal band at one point. We were doing alright and playing some shows and now… now we’re one of the biggest heavy rock bands in the world. We want more now. It’s no longer just a fantasy; people know who we are. This can go as far as we want it to go. The only limit is us.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Two years after &lt;em&gt;Sempiternal&lt;/em&gt;, &lt;a href="https://genius.com/albums/Bring-me-the-horizon/That-s-the-spirit" rel="noopener" data-api_path="/albums/127993"&gt;&lt;em&gt;That’s The Spirit&lt;/em&gt;&lt;/a&gt; was released with even more approach to &lt;a href="https://genius.com/tags/alternative-rock" rel="noopener"&gt;alternative rock,&lt;/a&gt; becoming the band’s best selling album to date, with hits like &lt;a href="https://genius.com/Bring-me-the-horizon-drown-lyrics" rel="noopener" data-api_path="/songs/548384"&gt;“Drown,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-happy-song-lyrics" rel="noopener" data-api_path="/songs/2174634"&gt;“Happy Song,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-throne-lyrics" rel="noopener" data-api_path="/songs/2261403"&gt;“Throne”&lt;/a&gt; and &lt;a href="https://genius.com/Bring-me-the-horizon-follow-you-lyrics" rel="noopener" data-api_path="/songs/2291901"&gt;“Follow You.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;On January 25th, 2019, their sixth studio album &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Amo" rel="noopener" data-api_path="/albums/415250"&gt;&lt;em&gt;amo&lt;/em&gt;&lt;/a&gt; was released. The record is very experimental and mixes pop and electronic elements, inspired also by &lt;a href="https://genius.com/tags/trap" rel="noopener"&gt;trap music&lt;/a&gt; on &lt;a href="https://genius.com/Bring-me-the-horizon-why-you-gotta-kick-me-when-im-down-lyrics" rel="noopener" data-api_path="/songs/4034879"&gt;“why you gotta kick me when i’m down.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;During 2020 COVID-19 pandemic, Bring Me started teasing videos of music prodution. At October 30, &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Post-human-survival-horror" rel="noopener" data-api_path="/albums/614710"&gt;&lt;em&gt;POST HUMAN: SURVIVAL HORROR&lt;/em&gt;&lt;/a&gt; was released as a callback to the band’s old style. It features four singles, &lt;a href="https://genius.com/Bring-me-the-horizon-ludens-lyrics" rel="noopener" data-api_path="/songs/4912244"&gt;“Ludens,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-parasite-eve-lyrics" rel="noopener" data-api_path="/songs/5405239"&gt;“Parasite Eve,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-obey-lyrics" rel="noopener" data-api_path="/songs/5904555"&gt;“Obey”&lt;/a&gt; and &lt;a href="https://genius.com/Bring-me-the-horizon-teardrops-lyrics" rel="noopener" data-api_path="/songs/6058777"&gt;“Teardrops.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The band’s logo is called “Antivist Symbol” and it’s  an &lt;a href="https://en.wikipedia.org/wiki/Unicursal_hexagram" rel="noopener nofollow"&gt;unicursal hexagram,&lt;/a&gt; used since 2013’s &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Sempiternal" rel="noopener" data-api_path="/albums/29438"&gt;&lt;em&gt;Sempiternal&lt;/em&gt;&lt;/a&gt; release, because of the song &lt;a href="https://genius.com/Bring-me-the-horizon-antivist-lyrics" rel="noopener" data-api_path="/songs/124028"&gt;“Antivist.”&lt;/a&gt; In Aleister Crowley’s &lt;a href="https://en.wikipedia.org/wiki/Thelema" rel="noopener nofollow"&gt;Thelema,&lt;/a&gt; it means that everybody has one true goal in life.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/151384cf60ce8791a1e2c06ad36d2e5a.878x1000x1.png" alt="" width="878" height="1000" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(First version)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/5fbd85da18e95ecf67085e285dac11bc.400x400x1.jpg" alt="" width="400" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(Actual version)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;h3&gt;Current Lineup:&lt;/h3&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Oliver-sykes" rel="noopener" data-api_path="/artists/1007693"&gt;Oliver “Oli” Sykes:&lt;/a&gt; lead vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jordan-fish" rel="noopener" data-api_path="/artists/566546"&gt;Jordan Fish:&lt;/a&gt; electronics, percussion, vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Lee-malia" rel="noopener" data-api_path="/artists/1007694"&gt;Lee Malia:&lt;/a&gt; lead guitar&lt;br&gt;\n&lt;a href="https://genius.com/artists/Matt-kean" rel="noopener" data-api_path="/artists/1094009"&gt;Matt Kean:&lt;/a&gt; bass&lt;br&gt;\n&lt;a href="https://genius.com/artists/Matt-nicholls" rel="noopener" data-api_path="/artists/1094010"&gt;Matt Nicholls:&lt;/a&gt; drums&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/6613c20b24031bece922ae1e86da30cf.800x450x1.jpg" alt="" width="800" height="450" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(BMTH’s current lineup)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;', 'alternate_names': ['BMTH']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rise-against', 'annotations': {'description': '&lt;p&gt;Rise Against is an American punk rock band from Chicago, Illinois, formed in December 1999. The band currently consists of &lt;a href="https://genius.com/artists/Tim-mcilrath" rel="noopener" data-api_path="/artists/2421"&gt;Tim McIlrath&lt;/a&gt; (lead vocals, rhythm guitar), &lt;a href="https://genius.com/artists/Zach-blair" rel="noopener" data-api_path="/artists/1232435"&gt;Zach Blair&lt;/a&gt; (lead guitar, backing vocals), &lt;a href="https://genius.com/artists/Joe-principe" rel="noopener" data-api_path="/artists/1033459"&gt;Joe Principe&lt;/a&gt; (bass guitar, backing vocals) and &lt;a href="https://genius.com/artists/Brandon-barnes" rel="noopener" data-api_path="/artists/205662"&gt;Brandon Barnes&lt;/a&gt; (drums, percussion).&lt;/p&gt;\n\n&lt;p&gt;The band is known for its advocacy of progressive organizations such as Amnesty International and It Gets Better Project. The band actively promotes animal rights and all members are straight edge (excluding Barnes), PETA supporters, and vegetarians.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Metallica', 'annotations': {'description': '&lt;p&gt;Like &lt;a href="https://genius.com/artists/Black-sabbath" rel="noopener" data-api_path="/artists/1121"&gt;Black Sabbath&lt;/a&gt; and &lt;a href="https://genius.com/artists/Iron-maiden" rel="noopener" data-api_path="/artists/22163"&gt;Iron Maiden&lt;/a&gt; before, Metallica has managed to transcend the genre from which it originated. To their metal fanbase they are considered one of the &lt;a href="https://genius.com/discussions/169443-Rank-the-big-four" rel="noopener"&gt;Big Four&lt;/a&gt; bands of thrash metal, alongside &lt;a href="https://genius.com/artists/Megadeth" rel="noopener" data-api_path="/artists/19444"&gt;Megadeth&lt;/a&gt;, &lt;a href="https://genius.com/artists/Anthrax" rel="noopener" data-api_path="/artists/11082"&gt;Anthrax&lt;/a&gt; and &lt;a href="https://genius.com/artists/Slayer" rel="noopener" data-api_path="/artists/6596"&gt;Slayer&lt;/a&gt;; however Metallica is also one of the most commercially successful bands in all of rock music, having sold 110 million records, including the 16x platinum &lt;a href="https://genius.com/albums/Metallica/Metallica" rel="noopener" data-api_path="/albums/10852"&gt;&lt;em&gt;Metallica&lt;/em&gt;&lt;/a&gt;, which stands as both the highest selling metal album of all time and one of the &lt;a href="http://www.metalinjection.net/its-just-business/record-sales/metallicas-black-album-sells-16-million-copies-becomes-highest-selling-album-of-the-last-23-years" rel="noopener nofollow"&gt;most successful albums of the modern age&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Metallica was formed in 1981 in Los Angeles, after drummer &lt;a href="https://genius.com/artists/Lars-ulrich" rel="noopener" data-api_path="/artists/63062"&gt;Lars Ulrich&lt;/a&gt; placed an ad in the classifieds which was answered by singer/rhythm guitarist &lt;a href="https://genius.com/artists/James-hetfield" rel="noopener" data-api_path="/artists/63061"&gt;James Hetfield&lt;/a&gt;. They were soon joined by lead guitarist &lt;a href="https://genius.com/artists/Dave-mustaine" rel="noopener" data-api_path="/artists/124416"&gt;Dave Mustaine&lt;/a&gt;, who later formed &lt;a href="https://genius.com/artists/Megadeth" rel="noopener" data-api_path="/artists/19444"&gt;Megadeth&lt;/a&gt; after &lt;a href="http://loudwire.com/dave-mustaine-fired-from-metallica-anniversary/" rel="noopener nofollow"&gt;being kicked out of the band&lt;/a&gt; due to substance abuse, and bassist &lt;a href="https://genius.com/artists/Ron-mcgovney" rel="noopener" data-api_path="/artists/626422"&gt;Ron McGovney&lt;/a&gt;, a childhood friend of Hetfield. These two early members were replaced with &lt;a href="https://genius.com/artists/Cliff-burton" rel="noopener" data-api_path="/artists/575963"&gt;Cliff Burton&lt;/a&gt;—who relocated the band to San Francisco—and ex-&lt;a href="https://genius.com/artists/Exodus" rel="noopener" data-api_path="/artists/66511"&gt;Exodus&lt;/a&gt; lead guitarist, &lt;a href="https://genius.com/artists/Kirk-hammett" rel="noopener" data-api_path="/artists/31938"&gt;Kirk Hammett&lt;/a&gt;, to form the band’s classic line-up.&lt;/p&gt;\n\n&lt;p&gt;They released three albums, 1983’s &lt;a href="https://genius.com/albums/Metallica/Kill-em-all" rel="noopener" data-api_path="/albums/15114"&gt;&lt;em&gt;Kill ‘Em All&lt;/em&gt;&lt;/a&gt;, 1984’s &lt;a href="https://genius.com/albums/Metallica/Ride-the-lightning" rel="noopener" data-api_path="/albums/11990"&gt;&lt;em&gt;Ride The Lightning&lt;/em&gt;&lt;/a&gt; and 1986’s &lt;a href="https://genius.com/albums/Metallica/Master-of-puppets" rel="noopener" data-api_path="/albums/13102"&gt;&lt;em&gt;Master of Puppets&lt;/em&gt;&lt;/a&gt;, before &lt;a href="http://ultimateclassicrock.com/metallica-bassist-cliff-burton-dies-in-a-bus-accident/" rel="noopener nofollow"&gt;the tragic and untimely death of Cliff Burton&lt;/a&gt; on September 27, 1986.&lt;/p&gt;\n\n&lt;p&gt;The band chose to go on and, after lengthy auditions, selected &lt;a href="https://genius.com/artists/Flotsam-and-jetsam" rel="noopener" data-api_path="/artists/352109"&gt;Flotsam And Jetsam&lt;/a&gt; bassist &lt;a href="https://genius.com/artists/Jason-newsted" rel="noopener" data-api_path="/artists/548794"&gt;Jason Newsted&lt;/a&gt;. They produced 1988’s Grammy nominated &lt;a href="https://genius.com/albums/Metallica/And-justice-for-all" rel="noopener" data-api_path="/albums/20959"&gt;&lt;em&gt;…And Justice For All&lt;/em&gt;&lt;/a&gt;, which included the 1989 Grammy winning single &lt;a href="https://genius.com/Metallica-one-lyrics" rel="noopener" data-api_path="/songs/86916"&gt;“One.”&lt;/a&gt; The bleak and overtly complex nature of the album inspired the band to seek a stylistic change. With &lt;a href="https://genius.com/artists/Motley-crue" rel="noopener" data-api_path="/artists/34312"&gt;Mötley Crüe&lt;/a&gt; producer &lt;a href="https://genius.com/artists/Bob-rock" rel="noopener" data-api_path="/artists/34423"&gt;Bob Rock&lt;/a&gt;, Metallica recorded the more mainstream sounding self-titled fifth album, &lt;a href="https://genius.com/albums/Metallica/Metallica" rel="noopener" data-api_path="/albums/10852"&gt;&lt;em&gt;Metallica&lt;/em&gt;&lt;/a&gt;. Released in 1991 and featuring various successful singles, the so-called “Black Album” launched them to commercial success as stadium rock staples.&lt;/p&gt;\n\n&lt;p&gt;The rest of the 1990s saw Metallica releasing more blues-influenced hard rock with 1996’s &lt;a href="https://genius.com/albums/Metallica/Load" rel="noopener" data-api_path="/albums/41512"&gt;&lt;em&gt;Load&lt;/em&gt;&lt;/a&gt; and its companion album, 1997’s &lt;a href="https://genius.com/albums/Metallica/Reload" rel="noopener" data-api_path="/albums/40839"&gt;&lt;em&gt;Reload&lt;/em&gt;&lt;/a&gt;.  While the band’s creative output during this period was markedly different from their earlier metal roots, they continued to sell out stadiums, top charts, and push the boundaries of rock music; both &lt;em&gt;Load&lt;/em&gt; and &lt;em&gt;Reload&lt;/em&gt; debuted at number one on the US Billboard charts, while the 1999 live album, &lt;a href="https://genius.com/albums/Metallica/sm" rel="noopener"&gt;&lt;em&gt;S&amp;amp;M&lt;/em&gt;&lt;/a&gt;, featured the San Francisco Symphony orchestra in a daring cross-genre move.&lt;/p&gt;\n\n&lt;p&gt;This era was not all positive; Lars Ulrich found himself at the center of a &lt;a href="http://archive.wired.com/politics/law/news/2000/04/35670" rel="noopener nofollow"&gt;war with file-sharing network Napster&lt;/a&gt; and was later &lt;a href="http://www.blabbermouth.net/news/metallica-s-lars-ulrich-discusses-breakdown-on-plane/" rel="noopener nofollow"&gt;hospitalized following anxiety attacks&lt;/a&gt; while on tour. James Hetfield also checked into &lt;a href="http://www.mtv.com/news/1452494/metallicas-james-hetfield-calls-rehab-challenging-gratifying/" rel="noopener nofollow"&gt;rehab to deal with alcohol abuse&lt;/a&gt;. After an infamous &lt;a href="https://web.archive.org/web/20090404205425/http://www.playboy.com:80/articles/metallica-interview/index.html" rel="noopener nofollow"&gt;&lt;em&gt;Playboy&lt;/em&gt; magazine interview&lt;/a&gt; in 2001, Jason Newsted left the band; Bob Rock covered bass duties during the recording sessions for 2003’s &lt;a href="https://genius.com/albums/Metallica/St-anger" rel="noopener" data-api_path="/albums/19563"&gt;&lt;em&gt;St. Anger&lt;/em&gt;&lt;/a&gt;. With lyrics conveying the band’s angst—as documented in the 2004 documentary &lt;em&gt;Some Kind of Monster&lt;/em&gt;—and a controversial sound change featuring no solos and poor drum audio, &lt;em&gt;St. Anger&lt;/em&gt; achieved commercial success, but was widely criticized by reviewers and fans. For the tour, the bassist role was eventually filled by &lt;a href="https://genius.com/artists/Robert-trujillo" rel="noopener" data-api_path="/artists/69277"&gt;Robert Trujillo&lt;/a&gt;, formerly of &lt;a href="https://genius.com/artists/Suicidal-tendencies" rel="noopener" data-api_path="/artists/26232"&gt;Suicidal Tendencies&lt;/a&gt;, &lt;a href="https://genius.com/artists/Infectious-grooves" rel="noopener" data-api_path="/artists/355167"&gt;Infectious Grooves&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ozzy-osbourne" rel="noopener" data-api_path="/artists/3347"&gt;Ozzy Osbourne&lt;/a&gt;’s band; with the latter taking Newsted as his bassist.&lt;/p&gt;\n\n&lt;p&gt;In the aftermath of &lt;em&gt;St. Anger&lt;/em&gt;, as well as a resurgence in the popularity of metal, the band decided to return to their earlier roots and in 2008 released their ninth studio album, the &lt;a href="https://genius.com/artists/Rick-rubin" rel="noopener" data-api_path="/artists/27794"&gt;Rick Rubin&lt;/a&gt;-produced &lt;a href="https://genius.com/albums/Metallica/Death-magnetic" rel="noopener" data-api_path="/albums/40083"&gt;&lt;em&gt;Death Magnetic&lt;/em&gt;&lt;/a&gt;. The album was critically appraised and again debuted at #1 on the US Billboard chart, making them the first band to have five consecutive debuts at that position.&lt;/p&gt;\n\n&lt;p&gt;On April 4, 2009, Metallica was &lt;a href="https://m.youtube.com/watch?v=YKxvJGKhlhk" rel="noopener nofollow"&gt;inducted&lt;/a&gt; into the Rock &amp;amp; Roll Hall of Fame.&lt;/p&gt;\n\n&lt;p&gt;Their tenth album, &lt;a href="https://genius.com/albums/Metallica/Hardwired-to-self-destruct" rel="noopener" data-api_path="/albums/164160"&gt;&lt;em&gt;Hardwired… To Self-Destruct&lt;/em&gt;&lt;/a&gt;, was released on November 18, 2016. It received good reviews and topped the Billboard 200, making them one of four artists with six #1 debuts—the second group after the &lt;a href="https://genius.com/artists/Dave-matthews-band" rel="noopener" data-api_path="/artists/18451"&gt;Dave Matthews Band&lt;/a&gt;; the overall record is seven by &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;LINEUP:&lt;br&gt;\n&lt;a href="https://genius.com/artists/James-hetfield" rel="noopener" data-api_path="/artists/63061"&gt;James Hetfield&lt;/a&gt;: Vocals, Guitars (1981 – date)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Kirk-hammett" rel="noopener" data-api_path="/artists/31938"&gt;Kirk Hammett&lt;/a&gt;: Guitars (1983 – date)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Robert-trujillo" rel="noopener" data-api_path="/artists/69277"&gt;Robert Trujillo&lt;/a&gt;: Bass guitar (2003 – date)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Lars-ulrich" rel="noopener" data-api_path="/artists/63062"&gt;Lars Ulrich&lt;/a&gt;: Drums (1981 – date)&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Ron-mcgovney" rel="noopener" data-api_path="/artists/626422"&gt;Ron McGovney&lt;/a&gt;: Bass guitar (1982)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Cliff-burton" rel="noopener" data-api_path="/artists/575963"&gt;Cliff Burton&lt;/a&gt;: Bass guitar (1982 – 1986)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-newsted" rel="noopener" data-api_path="/artists/548794"&gt;Jason Newsted&lt;/a&gt;: Bass guitar (1986 – 2001)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Dave-mustaine" rel="noopener" data-api_path="/artists/124416"&gt;Dave Mustaine&lt;/a&gt;: Lead guitar (1982–1983)&lt;br&gt;\n(plus &lt;a href="https://genius.com/artists/Bob-rock" rel="noopener" data-api_path="/artists/34423"&gt;Bob Rock&lt;/a&gt; as an interim bassist following Jason’s departure)&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Papa-roach', 'annotations': {'description': '&lt;p&gt;Papa Roach is an American rock band  from Vacaville, California. Formed in 1993, they would release two EPs (&lt;em&gt;Potatoes for Christmas&lt;/em&gt; and &lt;em&gt;Caca Bonita&lt;/em&gt;) and a self-produced album (&lt;a href="https://genius.com/albums/Papa-roach/Old-friends-from-young-years" rel="noopener" data-api_path="/albums/76384"&gt;&lt;em&gt;Old Friends from Young Years&lt;/em&gt;&lt;/a&gt;) before getting signed to a major label. Their first major-label release was the triple-platinum album &lt;a href="https://genius.com/albums/Papa-roach/Infest" rel="noopener" data-api_path="/albums/36538"&gt;&lt;em&gt;Infest&lt;/em&gt;&lt;/a&gt; in 2000.&lt;/p&gt;\n\n&lt;p&gt;Papa Roach has sold more than 20 million album copies worldwide and are known for their songs “Last Resort”, &lt;a href="https://genius.com/Papa-roach-last-resort-lyrics" rel="noopener" data-api_path="/songs/170534"&gt;&lt;em&gt;Between Angels and Insects&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Papa-roach-she-loves-me-not-lyrics" rel="noopener" data-api_path="/songs/338428"&gt;&lt;em&gt;She Loves Me Not&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Papa-roach-scars-lyrics" rel="noopener" data-api_path="/songs/67321"&gt;&lt;em&gt;Scars&lt;/em&gt;&lt;/a&gt;, and “ &lt;a href="https://genius.com/Papa-roach-born-for-greatness-lyrics" rel="noopener" data-api_path="/songs/3040558"&gt;&lt;em&gt;Born for Greatness&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Skillet', 'annotations': {'description': '&lt;p&gt;Skillet is a heavy rock band from Memphis, TN that has been a voice in both the mainstream and Christian music industries. The band has been led by John Cooper since the band’s start in 1996. Later on in 2000, the year the band’s third album &lt;em&gt;Invincible&lt;/em&gt; came out, Cooper’s wife Korey joined the band as rhythm guitarist and pianist.&lt;/p&gt;\n\n&lt;p&gt;The band started gaining mainstream attention when moving from Ardent Records to Atlantic Records in 2003. The band’s first breakthrough album, &lt;em&gt;Comatose&lt;/em&gt;, making it to No. 55 on the Billboard 200 and certified Gold by the RIAA. Skillet continued to rise up on the charts with their 8&lt;sup&gt;th&lt;/sup&gt; studio album, &lt;em&gt;Awake&lt;/em&gt;, charting at No. 2 on the Billboard 200. The album featured a new addition to the band, Jen Ledger, who provided both drums and vocals.&lt;/p&gt;\n\n&lt;p&gt;Since then, Skillet has continued to see mainstream success with their 9&lt;sup&gt;th&lt;/sup&gt; studio album, &lt;em&gt;Unleashed&lt;/em&gt;, with their lead single “Feel Invincible” becoming one of the theme songs for WWE’s Battleground (2016).&lt;/p&gt;\n\n&lt;p&gt;In 2018, both Jen Ledger and John Cooper released their own side projects &lt;a href="https://genius.com/artists/ledger" rel="noopener" data-api_path="/artists/656529"&gt;LEDGER&lt;/a&gt; and &lt;a href="https://genius.com/artists/fight-the-fury" rel="noopener" data-api_path="/artists/1582744"&gt;Fight the Fury&lt;/a&gt;, respectively. The intention behind the projects was not to disband Skillet, but instead to explore each artist’s own creative sides.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Theory', 'annotations': {'description': '&lt;p&gt;Theory is a Canadian rock band formed in Delta, British Columbia, in 2001.&lt;/p&gt;\n\n&lt;p&gt;Originally named Theory of a Deadman, their name comes from their song &lt;a href="https://genius.com/Theory-of-a-deadman-the-last-song-lyrics" rel="noopener" data-api_path="/songs/517134"&gt;“The Last Song”&lt;/a&gt; (Originally titled “Theory of a Deadman”) which describes a man about to commit suicide.&lt;/p&gt;\n\n&lt;p&gt;In 2008, they released their third album &lt;a href="https://genius.com/albums/Theory-of-a-deadman/Scars-and-souvenirs" rel="noopener" data-api_path="/albums/20339"&gt;&lt;em&gt;Scars &amp;amp; Souvenirs&lt;/em&gt;&lt;/a&gt;, which features vocals from &lt;a href="https://genius.com/artists/Chris-daughtry" rel="noopener" data-api_path="/artists/152338"&gt;Chris Daughtry&lt;/a&gt; and &lt;a href="https://genius.com/artists/Robin-diaz" rel="noopener" data-api_path="/artists/648354"&gt;Robin Diaz&lt;/a&gt;. The album was certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=THEORY+OF+A+DEADMAN&amp;amp;ti=SCARS+%26amp%3B+SOUVENIRS" rel="noopener nofollow"&gt;platinum&lt;/a&gt; in 2011. The album’s singles &lt;a href="https://genius.com/Theory-of-a-deadman-bad-girlfriend-lyrics" rel="noopener" data-api_path="/songs/245138"&gt;“Bad Girlfriend”&lt;/a&gt;, &lt;a href="https://genius.com/Theory-of-a-deadman-all-or-nothing-lyrics" rel="noopener" data-api_path="/songs/516566"&gt;“All or Nothing”&lt;/a&gt;, and &lt;a href="https://genius.com/Theory-of-a-deadman-all-or-nothing-lyrics" rel="noopener" data-api_path="/songs/516566"&gt;“Not Meant to Be”&lt;/a&gt; all made their way onto the &lt;a href="https://www.billboard.com/music/theory-of-a-deadman/chart-history" rel="noopener nofollow"&gt;Billboard Hot 100 Chart&lt;/a&gt;. The band shortened their name to Theory in 2017.&lt;/p&gt;\n\n&lt;p&gt;They’ve been nominated for a handful of &lt;a href="https://junoawards.ca/" rel="noopener nofollow"&gt;Juno Awards&lt;/a&gt; and have won the ‘New Group of the Year’ award in 2003.&lt;/p&gt;', 'alternate_names': ['Theory of a Deadman']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Thousand-foot-krutch', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.genius.com/3962028e132c86f93fa8c9f6dca791c8.225x94x1.png" alt="" width="225" height="94" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Thousand Foot Krutch is a Canadian Christian rock band formed in 1995. Thousand Foot Krutch’s music has always been enveloped with heat and energy. The interplay between the pulsing bass, courtesy of Joel Bruyere, and pounding drums of Steve Augustine are the backbone over which Trevor spits out some of the most rapid fire and melodic lyrics in rock and roll. While musically “heavy,”they’ve always veered more towards the funk of Rage Against the Machine while simultaneously incorporating the fast-paced, rhythmic singing of Michael Jackson circa the Bad days. Bending genres and styles, their songs have been featured prominently in numerous commercials, sports promos, and film trailers.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Puddle-of-mudd', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Puddle of Mudd&lt;/strong&gt; is an American rock band. They formed in 1991 in Kansas City, Missouri. The group currently consists of Wes Scantlin, Dave Moreno, Michael John Adams, and Matt Fuller.&lt;/p&gt;\n\n&lt;p&gt;The group is best known for a series of hits in the 2000s, including &lt;em&gt;“Blurry”&lt;/em&gt;, &lt;em&gt;“She Hates Me”&lt;/em&gt;, and “&lt;em&gt;Psycho&lt;/em&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Saliva', 'annotations': {'description': '&lt;p&gt;Saliva is an American rock band formed in Memphis, Tennessee in 1996. Saliva released their self-titled debut album on August 26, 1997, through Rockingchair Records, a record label owned and operated by Mark Yoshida, who recorded and produced the release at his studio, Rockingchair Studios.&lt;/p&gt;\n\n&lt;p&gt;They were signed to Island Records and went on to release their second studio album Every Six Seconds. Saliva later released their third studio album titled Back into Your System on November 12, 2002 which reached No. 19 on the Billboard 200. Back into Your System launched one of Saliva’s most successful songs, “Always”, reaching No. 51 on the Billboard Hot 100 and No. 1 on the Modern Rock Chart. Three years after Survival of the Sickest, Saliva released Blood Stained Love Story on January 23, 2007, repeating Back into Your System’s chart performance at No. 19 on the Billboard 200. Its first single, “Ladies and Gentlemen”, peaked at No. 2 on the Mainstream Rock Chart.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Halestorm', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://web.archive.org/web/20101015030019/http://www.halestormrocks.com/bio/" rel="noopener nofollow"&gt;Halestorm&lt;/a&gt; is an American rock band from Red Lion, Pennsylvania.&lt;/p&gt;\n\n&lt;p&gt;Lzzy and her brother Arejay formed Halestorm when they were still in middle school, back in 1998. With their dad, Roger Hale on bass they soon started playing local shows and started to earn a crowd throughout Pennsylvania.&lt;/p&gt;\n\n&lt;p&gt;In 2003 Joe Hottinger and in 2004 Josh Smith respectively took over as lead guitarist and basist and in 2005 Halestorm signed with &lt;a href="http://www.atlanticrecords.com/" rel="noopener nofollow"&gt;Atlantic&lt;/a&gt; and released the live EP, &lt;em&gt;&lt;a href="https://genius.com/albums/Halestorm/One-and-done" rel="noopener" data-api_path="/albums/252641"&gt;One and Done&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;After years of making a name for themselves playing countless gigs and festivals Halestorm got to record their debut self-titled studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Halestorm/Halestorm" rel="noopener" data-api_path="/albums/90807"&gt;Halestorm&lt;/a&gt;&lt;/em&gt; in 2008.&lt;/p&gt;\n\n&lt;p&gt;Current members:&lt;br&gt;\nLzzy Hale – lead vocals, rhythm guitar, acoustic guitar, keyboards, piano (1997–present)&lt;br&gt;\nArejay Hale – drums, backing vocals (1997–present)&lt;br&gt;\nJoe Hottinger – lead guitar, acoustic guitar, backing vocals (2003–present)&lt;br&gt;\nJosh Smith – bass, keyboards, piano, backing vocals (2004–present)&lt;/p&gt;\n\n&lt;p&gt;Past members:&lt;br&gt;\nLeo Nessinger – lead guitar (2000–2003)&lt;br&gt;\nRoger Hale – bass (1998–2004)&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Muse', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.muse.mu/" rel="noopener nofollow"&gt;Muse&lt;/a&gt; is an English rock band from Teignmouth, Devon, consisting of &lt;a href="http://www.musewiki.org/Matthew_Bellamy" rel="noopener nofollow"&gt;Matthew Bellamy&lt;/a&gt; (guitarist, keyboardist, singer, songwriter, middle of the picture), &lt;a href="http://www.musewiki.org/Christopher_Wolstenholme" rel="noopener nofollow"&gt;Christopher Wolstenholme&lt;/a&gt; (bassist, background vocalist, to the left of the picture), and &lt;a href="http://www.musewiki.org/Dominic_Howard" rel="noopener nofollow"&gt;Dominic Howard&lt;/a&gt; (drummer, to the right of the picture). They often infuse classical piano and strings (and sometimes even choirs) with catchy guitar and piano hooks.&lt;/p&gt;\n\n&lt;p&gt;Muse is mostly known due to their alternative genre of music and also their &lt;a href="https://en.wikipedia.org/wiki/List_of_awards_and_nominations_received_by_Muse" rel="noopener nofollow"&gt;live performances&lt;/a&gt;.&lt;br&gt;\n&lt;a href="http://www.musewiki.org/Radiohead" rel="noopener nofollow"&gt;Some have compared Muse to other bands such as Radiohead&lt;/a&gt;; Though this analogy has faded during past years since Muse has changed its taste.&lt;/p&gt;\n\n&lt;p&gt;The band always has an Apocalyptic background theme in their albums; In every album, there is a different apocalyptic perspective. &lt;em&gt;&lt;a href="https://genius.com/Muse-showbiz-lyrics" rel="noopener" data-api_path="/songs/200054"&gt;Showbiz&lt;/a&gt;&lt;/em&gt; (Anxiety), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Origin-of-symmetry" rel="noopener" data-api_path="/albums/21027"&gt;Origin of Symmetry&lt;/a&gt;&lt;/em&gt; (Mental Disorder), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Absolution" rel="noopener" data-api_path="/albums/18003"&gt;Absolution&lt;/a&gt;&lt;/em&gt; (Religion and atheism), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Black-holes-and-revelations" rel="noopener" data-api_path="/albums/18443"&gt;Black Holes and Revelations&lt;/a&gt;&lt;/em&gt; (Alien’s Attack), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/The-resistance" rel="noopener" data-api_path="/albums/11837"&gt;The Resistance&lt;/a&gt;&lt;/em&gt; (Mind Control), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/The-2nd-law" rel="noopener" data-api_path="/albums/20776"&gt;The 2nd Law&lt;/a&gt;&lt;/em&gt; (The 2nd Law of thermodynamics and the world moving toward destruction – Entropy), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Drones" rel="noopener" data-api_path="/albums/121389"&gt;Drones&lt;/a&gt;&lt;/em&gt; (War) and &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Simulation-theory" rel="noopener" data-api_path="/albums/403783"&gt;Simulation Theory&lt;/a&gt;&lt;/em&gt; (Life is a simulation and we should escape this fragile world and move toward the bigger picture).&lt;/p&gt;\n\n&lt;p&gt;Their official website is &lt;a href="http://muse.mu/" rel="noopener nofollow"&gt;muse.mu&lt;/a&gt;.&lt;br&gt;\nFor more information about the band, check out &lt;a href="http://musewiki.org/" rel="noopener nofollow"&gt;musewiki.org&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sick-puppies', 'annotations': {'description': '&lt;p&gt;Sick Puppies is a hard rock band from Australia that formed in 1997. The band currently consists of:&lt;/p&gt;\n\n&lt;p&gt;Bryan Scott – lead vocals, guitar&lt;br&gt;\nEmma Anzai – bass, vocals&lt;br&gt;\nMark Goodwin – drums, backing vocals&lt;/p&gt;\n\n&lt;p&gt;They initially rose to fame from their song All The Same being posted on YouTube in a music video.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Saving-abel', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.genius.com/fc94fb0c3ed8a8f909dbc7630a0987ff.1x1x1.gif" alt="" width="1" height="1" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt; Saving Abel is an American rock band from Corinth, Mississippi, who started in 2004 by Jared Weeks and Jason Null. The band title is from the ancient biblical story of Cain and Abel, that is about a brother who killed his own brother. Band member Jason Null thought up the band title saying “I Googled the story of Cain and Abel and found a line about ‘there was no saving Abel,’ which just jumped out at me.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/3-doors-down', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;3 Doors Down&lt;/strong&gt; is an American rock band. The band was formed in 1996 in Mississippi. The band consists of front-man Brad Arnold, guitarist Chris Henderson, drummer Greg Upchurch, guitarist Chet Roberts, and bassist Justin Biltonen.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names" rel="noopener nofollow"&gt;The name 3 Doors Down came while the band was tour&lt;/a&gt; and they saw a building that had a sign with most of its letters fallen off, leaving it to read “Doors Down”. At the time, there were only three members in the band and so decided for the name 3 Doors Down.&lt;/p&gt;\n\n&lt;p&gt;The group enjoyed mainstream success in the mid-to-late nineties and the early 2000’s, with “Here Without You”, “Kryptonite”, and “When I’m Gone”.&lt;/p&gt;\n\n&lt;p&gt;Recently, the group received a large amount of media attention over their decision to perform at the inauguration of President Donald J. Trump in early 2017.&lt;/p&gt;', 'alternate_names': ['Three Doors Down']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-pretty-reckless', 'annotations': {'description': '&lt;p&gt;The Pretty Reckless is an American rock band from New York City. The band was formed in 2009, and the current members are &lt;a href="https://genius.com/artists/Taylor-momsen" rel="noopener" data-api_path="/artists/145850"&gt;Taylor Momsen&lt;/a&gt; (lead vocals, rhythm guitar), Ben Phillips (lead guitar, backing vocals), Mark Damon (bass) and Jamie Perkins (drums).&lt;/p&gt;\n\n&lt;p&gt;After she began working with the producer Kato Khandwala, Taylor Momsen was introduced to guitarist Ben Philips, and the trio soon began writing together. Before signing to Interscope Records, The Pretty Reckless performed a number of small concerts around New York City and toured North America as the opening act for &lt;a href="https://genius.com/artists/The-veronicas" rel="noopener" data-api_path="/artists/22134"&gt;The Veronicas&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On August 31 2010, the band released their first studio album, &lt;a href="https://genius.com/albums/The-pretty-reckless/Light-me-up" rel="noopener" data-api_path="/albums/102383"&gt;&lt;em&gt;Light Me Up&lt;/em&gt;&lt;/a&gt;. From this, three singles were released: &lt;a href="https://genius.com/The-pretty-reckless-make-me-wanna-die-lyrics" rel="noopener" data-api_path="/songs/238268"&gt;“Make Me Wanna Die”&lt;/a&gt;, &lt;a href="https://genius.com/The-pretty-reckless-miss-nothing-lyrics" rel="noopener" data-api_path="/songs/431541"&gt;“Miss Nothing”&lt;/a&gt;, and &lt;a href="https://genius.com/The-pretty-reckless-just-tonight-lyrics" rel="noopener" data-api_path="/songs/238271"&gt;“Just Tonight”&lt;/a&gt;. Upon its release, the album gained favourable reviews from critics, with &lt;a href="http://www.allmusic.com/album/light-me-up-mw0002032905" rel="noopener nofollow"&gt;&lt;em&gt;AllMusic&lt;/em&gt;&lt;/a&gt; praising Taylor Momsen for&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;coming across as the strongest and bitchiest female vocalist to front an alt-rock band since &lt;a href="https://genius.com/artists/Garbage" rel="noopener" data-api_path="/artists/18769"&gt;Garbage&lt;/a&gt;’s &lt;a href="https://genius.com/artists/Shirley-manson" rel="noopener" data-api_path="/artists/25893"&gt;Shirley Manson&lt;/a&gt;.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Their second studio album, &lt;a href="https://genius.com/albums/The-pretty-reckless/Going-to-hell" rel="noopener" data-api_path="/albums/90649"&gt;&lt;em&gt;Going to Hell&lt;/em&gt;&lt;/a&gt;, was released on March 12 2014, and debuted at number five on the &lt;em&gt;Billboard 200&lt;/em&gt;. This marked their first top ten album. Five singles were spawned from &lt;em&gt;Going to Hell&lt;/em&gt;, including &lt;a href="https://genius.com/The-pretty-reckless-heaven-knows-lyrics" rel="noopener" data-api_path="/songs/429979"&gt;“Heaven Knows”&lt;/a&gt; which &lt;a href="http://www.billboard.com/articles/news/5944869/taylor-momsens-the-pretty-reckless-cracks-rock-radios-boys-club" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt;&lt;/a&gt; described as “&lt;a href="https://genius.com/Queen-we-will-rock-you-lyrics" rel="noopener" data-api_path="/songs/55045"&gt;Queen’s “We Will Rock You”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Joan-jett-and-the-blackhearts" rel="noopener" data-api_path="/artists/73858"&gt;Joan Jett&lt;/a&gt; vocals.”&lt;/p&gt;\n\n&lt;p&gt;The lead single from The Pretty Reckless’ third studio album, &lt;a href="https://genius.com/The-pretty-reckless-take-me-down-lyrics" rel="noopener" data-api_path="/songs/2820905"&gt;&lt;em&gt;Take Me Down&lt;/em&gt;&lt;/a&gt; was released on July 15 2016.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Nothing-more', 'annotations': {'description': '&lt;p&gt;Nothing More is an American rock band from San Antonio, Texas. The band was formed in 2003 by longtime friends &lt;a href="https://genius.com/artists/Jonny-hawkins" rel="noopener" data-api_path="/artists/1046517"&gt;Jonny Hawkins&lt;/a&gt; and &lt;a href="https://genius.com/artists/Mark-vollelunga" rel="noopener" data-api_path="/artists/1151031"&gt;Mark Vollelunga&lt;/a&gt; after meeting and playing together throughout their school years.&lt;/p&gt;\n\n&lt;p&gt;Their debut album, &lt;a href="https://genius.com/albums/Nothing-more/Shelter" rel="noopener" data-api_path="/albums/306950"&gt;&lt;em&gt;Shelter&lt;/em&gt;&lt;/a&gt;, was released in 2004 with a lineup consisting of vocalist Josh Klaus, guitarists Mark Vollelunga and &lt;a href="https://genius.com/artists/Josh-kercheville" rel="noopener" data-api_path="/artists/1151033"&gt;Josh Kercheville&lt;/a&gt;, bassist Matt Reynolds, and drummer Jonny Hawkins. Nothing More had a hard time keeping a consistent lineup, going through several members but still failing to gain traction and secure a record label. Klaus and Reynolds were replaced by Travis Cox and &lt;a href="https://genius.com/artists/Daniel-oliver" rel="noopener" data-api_path="/artists/1151030"&gt;Daniel Oliver&lt;/a&gt; shortly after the release of Shelter, however, Cox was later swapped for &lt;a href="https://genius.com/artists/Trey-graham" rel="noopener" data-api_path="/artists/1151044"&gt;Trey Graham&lt;/a&gt; in 2006.&lt;/p&gt;\n\n&lt;p&gt;With Graham as their vocalist, they released their second album, &lt;a href="https://genius.com/albums/Nothing-more/Save-you-save-me" rel="noopener" data-api_path="/albums/177566"&gt;&lt;em&gt;Save You/Save Me&lt;/em&gt;&lt;/a&gt;, in 2007. However, despite finding some touring success with the album, the band found that they didn’t appreciate the direction that they were heading with Graham’s mainstream pop influence, which consequently leads to the band firing Graham.  After the departure of Graham in 2007 and Kercheville in 2008, the band was settled with core members Hawkins, Vollelunga, and Oliver. They continued in the pursuit of finding their preferred style and creative process, despite the hardships the band faced. Hawkins began to suffer from depression from a number of personal issues, most notably his mother’s fight with cancer and eventual passing.&lt;/p&gt;\n\n&lt;p&gt;It wasn’t long after that Hawkins opted to become the band’s vocalist and frontman, the band deciding that a major change was needed to move forward. This resulted in the first album, &lt;a href="https://genius.com/albums/Nothing-more/The-few-not-fleeting" rel="noopener" data-api_path="/albums/251732"&gt;&lt;em&gt;The Few Not Fleeting&lt;/em&gt;&lt;/a&gt;, to feature Hawkins as the vocalist in 2009. With the main members now largely responsible for the creative control of the band, the album took on more of a progressive/alternative rock sound, delving into the genres that would later define their future albums and mainstream success. This new approach was ultimately the first step in the right direction as they were finally able to find a sound they resonated with, untouched by outside influences. The album’s lyrics took a lot from Hawkins\' struggles, including the first track of the album, “&lt;a href="https://genius.com/Nothing-more-gone-lyrics" rel="noopener" data-api_path="/songs/2162909"&gt;Gone&lt;/a&gt;”, which speaks about his mother’s battle against cancer.&lt;/p&gt;\n\n&lt;p&gt;After years of being unable to find a record label, the band struck gold with their fifth and self-titled album, &lt;a href="https://genius.com/albums/Nothing-more/Nothing-more" rel="noopener" data-api_path="/albums/181520"&gt;&lt;em&gt;Nothing More&lt;/em&gt;&lt;/a&gt;, which was released independently in 2013. Only a day after playing for a second time at the &lt;a href="https://aftershockfestival.com/" rel="noopener nofollow"&gt;Aftershock Festival&lt;/a&gt; in September of the very same year, the long period of searching for a record contract was over. They finally entered a five-album deal with &lt;a href="https://genius.com/artists/Eleven-seven-music" rel="noopener" data-api_path="/artists/1114170"&gt;Eleven Seven Music&lt;/a&gt; and re-released the album in 2014. The album was highly received the second time around, earning them a breakthrough into the mainstream and the #33 spot on the &lt;a href="https://www.billboard.com/charts/billboard-200/2014-07-11" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt;. They had found success with rock radio and found a handful of their songs surfacing onto the &lt;a href="https://www.billboard.com/music/nothing-more/chart-history/RTT" rel="noopener nofollow"&gt;Mainstream Rock Chart&lt;/a&gt;. “&lt;a href="https://genius.com/Nothing-more-this-is-the-time-ballast-lyrics" rel="noopener" data-api_path="/songs/716375"&gt;This is the Time (Ballast)&lt;/a&gt;” hit #2, followed closely by “&lt;a href="https://genius.com/Nothing-more-heres-to-the-heartache-lyrics" rel="noopener" data-api_path="/songs/610542"&gt;Here’s To The Heartache&lt;/a&gt;” which charted at #4, “&lt;a href="https://genius.com/Nothing-more-jenny-lyrics" rel="noopener" data-api_path="/songs/610548"&gt;Jenny&lt;/a&gt;” at # 6, and “&lt;a href="https://genius.com/Nothing-more-mr-mtv-lyrics" rel="noopener" data-api_path="/songs/599289"&gt;Mr. MTV&lt;/a&gt;” at #12.&lt;/p&gt;\n\n&lt;p&gt;The fifth and latest album, &lt;a href="https://genius.com/albums/Nothing-more/The-stories-we-tell-ourselves" rel="noopener" data-api_path="/albums/348614"&gt;&lt;em&gt;The Stories We Tell Ourselves&lt;/em&gt;&lt;/a&gt;, was released in 2017. “&lt;a href="https://genius.com/Nothing-more-go-to-war-lyrics" rel="noopener" data-api_path="/songs/3130998"&gt;Go To War&lt;/a&gt;” was the first of five promotional singles made public prior to the album. Debuting at #15 on the &lt;a href="https://www.billboard.com/charts/billboard-200/2017-10-06" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt;, the album was nominated for &lt;a href="https://en.wikipedia.org/wiki/Grammy_Award_for_Best_Rock_Album" rel="noopener nofollow"&gt;Best Rock Album&lt;/a&gt; at the 2018 Grammy Awards, with “Go To War” nominated for Best Rock Performance and &lt;a href="https://en.wikipedia.org/wiki/Grammy_Award_for_Best_Rock_Song" rel="noopener nofollow"&gt;Best Rock Song&lt;/a&gt; as well. Later in the very same month, the single topped the &lt;a href="https://www.billboard.com/charts/hot-mainstream-rock-tracks/2017-12-01" rel="noopener nofollow"&gt;Billboard Mainstream Rock&lt;/a&gt; chart at #1.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/In-this-moment', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://inthismomentofficial.com/" rel="noopener nofollow"&gt;&lt;strong&gt;In This Moment&lt;/strong&gt;&lt;/a&gt; is a heavy metal band based out of Los Angeles, California. They are best known for songs such as &lt;a href="https://genius.com/In-this-moment-whore-lyrics" rel="noopener" data-api_path="/songs/733989"&gt;“Whore”&lt;/a&gt; and &lt;a href="https://genius.com/In-this-moment-blood-lyrics" rel="noopener" data-api_path="/songs/733985"&gt;“Blood.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The band was formed in 2005 by lead singer &lt;a href="https://genius.com/artists/Maria-brink" rel="noopener" data-api_path="/artists/162554"&gt;Maria Brink&lt;/a&gt; and guitarist &lt;a href="https://genius.com/artists/Chris-howorth" rel="noopener" data-api_path="/artists/1169166"&gt;Chris Howorth&lt;/a&gt;. They feature three additional members as well. Originally known as ‘Dying Star’ before swapping members and direction, &lt;strong&gt;In This Moment&lt;/strong&gt; released their first album, &lt;a href="https://genius.com/albums/In-this-moment/Beautiful-tragedy" rel="noopener" data-api_path="/albums/134494"&gt;&lt;em&gt;Beautiful Tragedy&lt;/em&gt;&lt;/a&gt; in early 2007.&lt;/p&gt;\n\n&lt;p&gt;They blew up in 2012 with the release of their hit album, &lt;a href="https://genius.com/albums/In-this-moment/Blood-deluxe-edition" rel="noopener" data-api_path="/albums/122295"&gt;&lt;em&gt;Blood&lt;/em&gt;&lt;/a&gt;—debuting at #15 on on the &lt;a href="https://www.billboard.com/music/in-this-moment/chart-history/billboard-200/song/755499" rel="noopener nofollow"&gt;*Billboard 200&lt;/a&gt; and achieving gold-certified status with the RIAA.&lt;/p&gt;\n\n&lt;p&gt;Two years later, their follow-up effort, &lt;a href="https://genius.com/albums/In-this-moment/Black-widow" rel="noopener" data-api_path="/albums/121203"&gt;&lt;em&gt;Black Widow&lt;/em&gt;&lt;/a&gt;, reached &lt;a href="https://www.billboard.com/music/in-this-moment/chart-history/billboard-200/song/869785" rel="noopener nofollow"&gt;#8&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Trapt', 'annotations': {'description': '&lt;p&gt;Trapt is an American rock band that formed in Los Gatos, California in August 1997, best known for their 2003 hit “Headstrong”. Drummer Monty Montgomery &lt;a href="http://www.shavemagazine.com/entertainment/080801#ixzz5etkqZU3O" rel="noopener nofollow"&gt;explained&lt;/a&gt; the origin of the band’s name:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was born out of a youthful angst, feeling that the world around was controlling and restricting, and literally trapping us.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Chevelle', 'annotations': {'description': '&lt;p&gt;Chevelle is an American rock band that formed in 1995 in the Chicago suburb of &lt;a href="https://www.google.com/maps/place/Grayslake,+IL+60030/@41.985579,-87.9702456,9.25z/data=!4m5!3m4!1s0x880f9a91390e6fdd:0x3a7645a25c2eb3b7!8m2!3d42.3444664!4d-88.041746" rel="noopener nofollow"&gt;Grayslake, Illinois&lt;/a&gt;. The band was originally composed of brothers: &lt;a href="https://genius.com/artists/pete-loeffler" rel="noopener" data-api_path="/artists/402817"&gt;Pete Loeffler&lt;/a&gt; (lead vocals and guitar), &lt;a href="https://genius.com/artists/sam-loeffler" rel="noopener" data-api_path="/artists/1129659"&gt;Sam Loeffler&lt;/a&gt; (drums and percussion) and &lt;a href="https://genius.com/artists/joe-loeffler" rel="noopener" data-api_path="/artists/1190555"&gt;Joe Loeffler&lt;/a&gt; (bass and backing vocals). When Joe left the band in 2005, &lt;a href="https://genius.com/artists/geno-lenardo" rel="noopener" data-api_path="/artists/659415"&gt;Geno Lenardo&lt;/a&gt; subbed in as the bassist until he was replaced by Pete and Sam’s brother-in-law, &lt;a href="https://genius.com/artists/dean-bernardini" rel="noopener" data-api_path="/artists/1129661"&gt;Dean Bernardini&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Chevelle has sold over four million albums in the United States.The band’s first studio album, &lt;a href="https://genius.com/albums/chevelle/point-1" rel="noopener" data-api_path="/albums/157105"&gt;Point #1&lt;/a&gt;, was released on a small record label called &lt;a href="https://genius.com/artists/squint-entertainment" rel="noopener" data-api_path="/artists/1120934"&gt;Squint Entertainment&lt;/a&gt;. Chevelle’s second album, &lt;a href="https://genius.com/albums/chevelle/wonder-whats-next" rel="noopener" data-api_path="/albums/133193"&gt;Wonder What’s Next&lt;/a&gt; (October 8, 2002), was certified Platinum after a debut at No. 14 on the United States albums chart, Billboard 200.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/chevelle/this-type-of-thinking-could-do-us-in" rel="noopener" data-api_path="/albums/157106"&gt;This Type of Thinking (Could Do Us In)&lt;/a&gt; (September 21, 2004), the band’s third album, debuted at No. 8 and has been certified Gold.&lt;/p&gt;\n\n&lt;p&gt;Chevelle followed with releases &lt;a href="https://genius.com/albums/chevelle/vena-sera" rel="noopener" data-api_path="/albums/22909"&gt;Vena Sera&lt;/a&gt; (April 3, 2007), &lt;a href="https://genius.com/albums/chevelle/sci-fi-crimes" rel="noopener" data-api_path="/albums/90873"&gt;Sci-Fi Crimes&lt;/a&gt; (August 31, 2009), &lt;a href="https://genius.com/albums/chevelle/hats-off-to-the-bull" rel="noopener" data-api_path="/albums/157107"&gt;Hats Off to the Bull&lt;/a&gt; (December 6, 2011), &lt;a href="https://genius.com/albums/chevelle/la-gorgola" rel="noopener"&gt;La Gárgola&lt;/a&gt; (April 1, 2014), and &lt;a href="https://genius.com/albums/chevelle/the-north-corridor" rel="noopener" data-api_path="/albums/152210"&gt;The North Corridor&lt;/a&gt; (July 8, 2016).&lt;/p&gt;\n\n&lt;p&gt;Other releases include two live albums, two live DVDs and two b-Sides and rarities compilations.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Static-x', 'annotations': {'description': '&lt;p&gt;Static-X was an American industrial metal band from Los Angeles, California formed in 1994. The line-up fluctuated over the years, but always held constant with band founder, frontman, vocalist, and guitarist Wayne Static. Founders of the band were Wayne Static and original drummer for Static-X Ken Jay. The band rose to fame with their 1999 debut album “Wisconsin Death Trip” where the band’s heavy industrial metal sound found attention within the burgeoning nu metal movement of the late 1990s, with the album eventually going platinum in the United States. The band released five more albums over the course of the next decade: “Machine” in 2001, “Shadow Zone” in 2003, “Start a War” in 2005, “Cannibal” in 2007, and “Cult of Static” in 2009. Shortly after their last album’s release, the band entered a hiatus while Static worked on his solo album “Pighammer” in 2011. Static briefly reformed Static-X in 2012, using only members of his solo album’s touring band, before officially breaking up in June 2013. On November 1, 2014, Wayne Static died at the age of 48. R.I.P.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/1c1d6ef6aebd9297b4ad1d5299546066.638x403x1.jpg" alt="" width="638" height="403" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Tremonti', 'annotations': {'description': '&lt;p&gt;Tremonti is a heavy metal band founded and fronted by lead vocalist and guitarist Mark Tremonti. The band is also referred to as “The Tremonti Project.”&lt;br&gt;\nThe band also consists of rhythm guitarist &lt;a href="https://genius.com/artists/Eric-friedman" rel="noopener" data-api_path="/artists/1633366"&gt;Eric Friedman&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Garrett-Whitlock" rel="noopener" data-api_path="/artists/1633367"&gt;Garrett Whitlock&lt;/a&gt;, and bassist &lt;a href="https://genius.com/artists/Wolfgang-van-halen" rel="noopener" data-api_path="/artists/1043193"&gt;Wolfgang Van Halen&lt;/a&gt;. What originally started as a Mark Tremonti solo project evolved into a fully fledged band after the release of the group’s first album, All I Was, in July 2012.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Shinedown', 'annotations': {'description': '&lt;p&gt;Shinedown is an American hard rock band from Jacksonville, Florida, formed in 2001 and founded by members Brent Smith (vocals), Brad Stewart (bass), Jasin Todd (guitar), and Barry Kerch (drums).&lt;/p&gt;\n\n&lt;p&gt;Smith originally performed as the frontman and lead singer of a band titled &lt;a href="https://genius.com/artists/Dreve" rel="noopener" data-api_path="/artists/1192441"&gt;Dreve&lt;/a&gt; in the mid-1990’s. The only member to be signed to a label was Brent Smith, as the record label was unhappy with Dreve and were dropped prior to releasing an album.&lt;/p&gt;\n\n&lt;p&gt;During the span of their first five albums, a few lineup changes followed, making the band’s only two remaining original members Smith and Kerch.&lt;/p&gt;\n\n&lt;p&gt;Since their inception, the group has released &lt;em&gt;Leave a Whisper&lt;/em&gt;, &lt;em&gt;Us and Them&lt;/em&gt;, &lt;em&gt;The Sound of Madness&lt;/em&gt;, &lt;em&gt;Amaryllis&lt;/em&gt;, and &lt;em&gt;Threat to Survival&lt;/em&gt;, along with &lt;em&gt;Attention Attention&lt;/em&gt;. Over their 18 year span, they have sold more than six million albums worldwide.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Lamb-of-god', 'annotations': {'description': '&lt;p&gt;Lamb of God is a groove metal band from Richmond, Virginia. Originally they went by the name “&lt;a href="https://genius.com/artists/Burn-the-priest" rel="noopener" data-api_path="/artists/367651"&gt;Burn The Priest&lt;/a&gt;” and even released an album. The band underwent a lineup change and didn’t want to give the impression that they were satanic, so they changed their name.&lt;/p&gt;\n\n&lt;p&gt;In July of 2019, it was confirmed that the band had parted ways with drummer Chris Adler, bringing in Art Cruz from Winds of Plague to take over behind the kit.&lt;/p&gt;\n\n&lt;p&gt;Band lineup as of July 2019:&lt;br&gt;\nRandy Blythe – Vocals&lt;br&gt;\nMark Morton – Guitar&lt;br&gt;\nWillie Adler – Guitar&lt;br&gt;\nJohn Campbell – Bass&lt;br&gt;\nArt Cruz – Drums&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/All-that-remains', 'annotations': {'description': '&lt;p&gt;All That Remains is an American metal band that was formed in 1998 by frontman &lt;a href="https://genius.com/artists/Phil-labonte" rel="noopener" data-api_path="/artists/1002170"&gt;Phil Labonte&lt;/a&gt;. The band initially started off as a side project for Labonte whilst he was the vocalist for &lt;a href="https://genius.com/artists/Shadows-fall" rel="noopener" data-api_path="/artists/186967"&gt;Shadows Fall&lt;/a&gt;, another metal band from Massachusetts, but became his full time focus after leaving in 1999.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Discography:&lt;/strong&gt;&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Behind-silence-and-solitude" rel="noopener" data-api_path="/albums/245604"&gt;&lt;em&gt;Behind Silence and Solitude&lt;/em&gt;&lt;/a&gt; (2002)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/This-darkened-heart" rel="noopener" data-api_path="/albums/245953"&gt;&lt;em&gt;This Darkened Heart&lt;/em&gt;&lt;/a&gt; (2004)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/The-fall-of-ideals" rel="noopener" data-api_path="/albums/160837"&gt;&lt;em&gt;The Fall of Ideals&lt;/em&gt;&lt;/a&gt; (2006)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Overcome" rel="noopener" data-api_path="/albums/87449"&gt;&lt;em&gt;Overcome&lt;/em&gt;&lt;/a&gt; (2008)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/For-we-are-many" rel="noopener" data-api_path="/albums/122296"&gt;&lt;em&gt;For We Are Many&lt;/em&gt;&lt;/a&gt; (2010)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/A-war-you-cannot-win" rel="noopener" data-api_path="/albums/79877"&gt;&lt;em&gt;A War You Cannot Win&lt;/em&gt;&lt;/a&gt; (2012)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/The-order-of-things" rel="noopener" data-api_path="/albums/229242"&gt;&lt;em&gt;The Order of Things&lt;/em&gt;&lt;/a&gt; (2015)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Madness" rel="noopener" data-api_path="/albums/336822"&gt;&lt;em&gt;Madness&lt;/em&gt;&lt;/a&gt; (2017)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Victim-of-the-new-disease" rel="noopener" data-api_path="/albums/462333"&gt;&lt;em&gt;Victim of the New Disease&lt;/em&gt;&lt;/a&gt; (2018)&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Members&lt;/strong&gt;:&lt;br&gt;\n&lt;a href="https://genius.com/artists/Phil-labonte" rel="noopener" data-api_path="/artists/1002170"&gt;&lt;strong&gt;Phil Labonte&lt;/strong&gt;&lt;/a&gt; – Lead vocals (1998–present), Piano (2003–2004)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Mike-martin-all-that-remains" rel="noopener" data-api_path="/artists/1002171"&gt;&lt;strong&gt;Mike Martin&lt;/strong&gt;&lt;/a&gt; – Rhythm Guitar (2004–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-costa" rel="noopener" data-api_path="/artists/1002168"&gt;&lt;strong&gt;Jason Costa&lt;/strong&gt;&lt;/a&gt; – Drums (2007–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Aaron-patrick" rel="noopener" data-api_path="/artists/1494706"&gt;&lt;strong&gt;Aaron Patrick&lt;/strong&gt;&lt;/a&gt; – Bass, Backing vocals (2015–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-richardson" rel="noopener" data-api_path="/artists/977977"&gt;&lt;strong&gt;Jason Richardson&lt;/strong&gt;&lt;/a&gt; – Lead Guitar (2018–present)&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Oli-herbert" rel="noopener" data-api_path="/artists/1002169"&gt;Oli Herbert&lt;/a&gt; – Lead Guitar (1998–2018)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jeanne-sagan" rel="noopener" data-api_path="/artists/1493860"&gt;Jeanne Sagan&lt;/a&gt; – Bass, Backing vocals (2006–2015)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Shannon-lucas" rel="noopener" data-api_path="/artists/656082"&gt;Shannon Lucas&lt;/a&gt; – Drums (2006)&lt;br&gt;\nMichael Bartlett – Drums (1998–2006)&lt;br&gt;\nMatt Deis – Bass (2003–2005)&lt;br&gt;\nChris Bartlett – Rhythm Guitar (1998–2004)&lt;br&gt;\nDan Egan – Bass (1998–2003)&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/4cab701c551fd2f3faf3013f57ab7bf5.700x400x1.jpg" alt="" width="700" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;center&gt;&lt;small&gt;Jason R, Mike, Phil, Jason C and Aaron&lt;small&gt;&lt;/small&gt;&lt;/small&gt;&lt;/center&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Within-temptation', 'annotations': {'description': '&lt;p&gt;Within Temptation is a Dutch symphonic metal band founded in April 1995 by vocalist Sharon den Adel and guitarist Robert Westerholt. They have always been classified by critics as gothic metal, although the “gothic” influence varies with each album. Their most prominent and well-known sound is described as symphonic metal.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jacoby-shaddix', 'annotations': {'description': '&lt;p&gt;Jacoby Dakota Shaddix (born July 28, 1976) is an American musician, singer, songwriter, rapper, TV presenter and actor. He is best known as being the founding member and the continuous lead singer of the California-based rock band Papa Roach since the band’s formation in 1993.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sevendust', 'annotations': {'description': '&lt;p&gt;Sevendust was officially formed in April 1997 after attempting to name themselves “Rumblefish” and later “Crawlspace,” both of which were names already taken by other bands. The name refers to the popular insecticide “Sevin Dust” which Hornsby saw in his grandmother’s garage&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/I-prevail', 'annotations': {'description': '&lt;p&gt;Since their formation in 2013, the post-hardcore Detroit-based band has quickly garnered a global fan base with their potent mixture of aggressive rock, electronic arrangements, and seamless melodic elements. Their current lineup consists of clean vocalist &lt;a href="https://genius.com/artists/Brian-burkheiser" rel="noopener" data-api_path="/artists/1137411"&gt;Brian Burkheiser&lt;/a&gt;, unclean vocalist &lt;a href="https://genius.com/artists/Eric-vanlerberghe" rel="noopener" data-api_path="/artists/1137412"&gt;Eric Vanlerberghe&lt;/a&gt;, lead guitarist and studio bassist &lt;a href="https://genius.com/artists/Steve-menoian" rel="noopener" data-api_path="/artists/1137413"&gt;Steve Menoian&lt;/a&gt;, and rhythm guitarist &lt;a href="https://genius.com/artists/Dylan-bowman" rel="noopener" data-api_path="/artists/1138618"&gt;Dylan Bowman&lt;/a&gt;, and Gabe Helguera on the drums.&lt;/p&gt;\n\n&lt;p&gt;I Prevail first gained popularity after &lt;a href="https://www.youtube.com/watch?v=czb_CZfWko8" rel="noopener nofollow"&gt;posting a cover&lt;/a&gt; of &lt;a href="https://genius.com/I-prevail-blank-space-lyrics" rel="noopener" data-api_path="/songs/731773"&gt;“Blank Space”&lt;/a&gt; by &lt;a href="https://genius.com/artists/Taylor-swift" rel="noopener" data-api_path="/artists/1177"&gt;Taylor Swift&lt;/a&gt; on YouTube the first of December in 2014. It was later added as a bonus track to Fearless Records\' &lt;a href="https://genius.com/albums/Fearless-records/Punk-goes-pop-volume-6" rel="noopener" data-api_path="/albums/113789"&gt;&lt;em&gt;Punk Goes Pop Vol. 6.&lt;/em&gt;&lt;/a&gt; Ten days later, two singles for their debut EP were released, &lt;a href="https://genius.com/I-prevail-love-lust-and-liars-lyrics" rel="noopener" data-api_path="/songs/731763"&gt;“Love, Lust, and Liars”&lt;/a&gt; and &lt;a href="https://genius.com/I-prevail-the-enemy-lyrics" rel="noopener" data-api_path="/songs/731770"&gt;“The Enemy”&lt;/a&gt; Shortly after in January 2015, I Prevail released the EP &lt;a href="https://genius.com/albums/I-prevail/Heart-vs-mind" rel="noopener" data-api_path="/albums/122120"&gt;&lt;em&gt;Heart vs. Mind.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In June of 2016, I Prevail announced their debut album &lt;a href="https://genius.com/albums/I-prevail/Lifelines" rel="noopener" data-api_path="/albums/158244"&gt;&lt;em&gt;Lifelines&lt;/em&gt;&lt;/a&gt; would be released in October. &lt;a href="https://genius.com/I-prevail-scars-lyrics" rel="noopener" data-api_path="/songs/2800405"&gt;“Scars”&lt;/a&gt; was the first single, released July 1st, followed by &lt;a href="https://genius.com/I-prevail-stuck-in-your-head-lyrics" rel="noopener" data-api_path="/songs/2837208"&gt;“Stuck in Your Head”&lt;/a&gt; and &lt;a href="https://genius.com/I-prevail-come-and-get-it-lyrics" rel="noopener" data-api_path="/songs/2870351"&gt;“Come and Get It”&lt;/a&gt; released August 14 and September 28, respectively.&lt;/p&gt;\n\n&lt;p&gt;I Prevail toured all summer long on the Vans Warped Tour in 2017. At the Loudwire Music Awards, their song &lt;a href="https://genius.com/I-prevail-alone-lyrics" rel="noopener" data-api_path="/songs/2886622"&gt;“Alone”&lt;/a&gt; won Hard Rock Song of the Year.&lt;/p&gt;\n\n&lt;p&gt;In 2019, I Prevail released a series of singles before their second LP &lt;a href="https://genius.com/albums/I-prevail/Trauma" rel="noopener" data-api_path="/albums/506060"&gt;&lt;em&gt;Trauma&lt;/em&gt;&lt;/a&gt; was released on March 29. The first single released on February 18 was &lt;a href="https://genius.com/I-prevail-bow-down-lyrics" rel="noopener" data-api_path="/songs/4328458"&gt;“Bow Down,”&lt;/a&gt; immediately followed by &lt;a href="https://genius.com/I-prevail-breaking-down-lyrics" rel="noopener" data-api_path="/songs/4337810"&gt;“Breaking Down”&lt;/a&gt; a couple hours later. &lt;a href="https://genius.com/I-prevail-paranoid-lyrics" rel="noopener" data-api_path="/songs/4337807"&gt;“Paranoid”&lt;/a&gt; was released on March 18.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Staind', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/Staind" rel="noopener nofollow"&gt;Staind&lt;/a&gt; was an American rock band, formed in 1995 in Springfield, Massachusetts. For years, the band consisted of lead vocalist and rhythm guitarist &lt;a href="https://genius.com/artists/Aaron-lewis" rel="noopener" data-api_path="/artists/347635"&gt;Aaron Lewis&lt;/a&gt;, lead guitarist Mike Mushok, bassist and backing vocalist Johnny April, and drummer Jon Wysocki (who left in May 2011). To date, the band has recorded seven studio albums: &lt;a href="https://genius.com/albums/Staind/Tormented" rel="noopener" data-api_path="/albums/243184"&gt;&lt;em&gt;Tormented&lt;/em&gt;&lt;/a&gt; (1996), &lt;a href="https://genius.com/albums/Staind/Dysfunction" rel="noopener" data-api_path="/albums/160795"&gt;&lt;em&gt;Dysfunction&lt;/em&gt;&lt;/a&gt; (1999), &lt;a href="https://genius.com/albums/Staind/Break-the-cycle" rel="noopener" data-api_path="/albums/42347"&gt;&lt;em&gt;Break the Cycle&lt;/em&gt;&lt;/a&gt; (2001), &lt;a href="https://genius.com/albums/Staind/14-shades-of-grey" rel="noopener" data-api_path="/albums/80503"&gt;&lt;em&gt;14 Shades of Grey&lt;/em&gt;&lt;/a&gt; (2003), &lt;a href="https://genius.com/albums/Staind/Chapter-v" rel="noopener" data-api_path="/albums/492820"&gt;&lt;em&gt;Chapter V&lt;/em&gt;&lt;/a&gt; (2005), &lt;a href="https://genius.com/albums/Staind/The-illusion-of-progress" rel="noopener" data-api_path="/albums/149841"&gt;&lt;em&gt;The Illusion of Progress&lt;/em&gt;&lt;/a&gt; (2008), and their self-titled album &lt;a href="https://genius.com/albums/Staind/Staind" rel="noopener" data-api_path="/albums/91487"&gt;&lt;em&gt;Staind&lt;/em&gt;&lt;/a&gt;(2011).&lt;/p&gt;\n\n&lt;p&gt;On May 20, 2011, Staind announced that the band and long-time drummer Jon Wysocki had parted ways. In November 2011 Sam Giancarelli was announced as the new drummer.&lt;/p&gt;\n\n&lt;p&gt;In July 2012 the band announced it was taking a hiatus after releasing 7 albums over 14 years. The band did not perform again until April 27, 2014 at the &lt;em&gt;Welcome To Rockville Festival&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;In late 2014 the band went back on hiatus while Aaron Lewis played solo shows and began work on his second studio album &lt;a href="https://genius.com/albums/Aaron-lewis/Sinner" rel="noopener" data-api_path="/albums/157423"&gt;&lt;em&gt;Sinner&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In an interview in September 2016 Aaron Lewis stated that the band will likely stay in hiatus for the “foreseeable future”.&lt;/p&gt;\n\n&lt;p&gt;In September 2019, Staind made their return to touring after the release of Lewis\' 2019 album &lt;a href="https://genius.com/albums/Aaron-lewis/State%20I\'m%20In" rel="noopener"&gt;&lt;em&gt;State I’m In&lt;/em&gt;&lt;/a&gt; at the &lt;em&gt;Louder than Life Festival&lt;/em&gt; with Aaron Lewis commenting earlier &lt;a href="https://www.altpress.com/news/aaron-lewis-stained-new-album/" rel="noopener nofollow"&gt;what he thinks a new Staind album would sound like&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Finger-eleven', 'annotations': {'description': '&lt;p&gt;Finger Eleven is a Canadian rock band from Burlington, Ontario, formed in 1990. They have released seven total studio albums (six as Finger Eleven and one as Rainbow Butt Monkeys), with their album The Greyest of Blue Skies bringing them into the mainstream. The 2003 self-titled album achieved Gold status in the United States and Platinum in Canada, largely from the success of the single “One Thing”, which marked the band’s first placing on the US Hot 100 Chart at number 16. Their 2007 album, Them vs. You vs. Me, launched the single “Paralyzer”, which went on to top numerous charts including the Canadian Hot 100 and both US rock charts, as well as reaching No. 6 on the US Hot 100 and No. 12 on the Australian Singles Chart.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Shanti-dope', 'annotations': {'description': '&lt;p&gt;Shanti Dope is a 16-year-old rapper from Manila who started writing verses in 2013 following the footsteps of local rappers who use songwriting as a way to tell stories. Influenced by the idea of storytelling through rap, his first long verse got him into rapper Smugglaz 2015 album &lt;em&gt;Walking Distance.&lt;/em&gt; 2017 marks the year he comes out with his own &lt;a href="https://genius.com/albums/Shanti-dope/Shanti-dope" rel="noopener" data-api_path="/albums/372273"&gt;self-titled EP&lt;/a&gt; with Universal Records.&lt;/p&gt;\n\n&lt;p&gt;Along with Smugglaz, he counts as influences Loonie, Ron Henley, and Gloc-9 whose wordplay, context, rhymes, and narratives he aspires for in his own work. The name Shanti Dope meanwhile is borne of the influence of his father, who was a practitioner of Krishna Consciousness. Shanti is the hindi word for “peace,” which, alongside “dope” could mean “Peace is my natural drug.” This call for peace, given songs that actually speak of injustice and inequality, that insists on discussing the state of the nation, is what sets him apart from many rappers his age.&lt;/p&gt;\n\n&lt;p&gt;In less than a week after &lt;a href="https://genius.com/albums/Shanti-dope/Materyal" rel="noopener" data-api_path="/albums/386802"&gt;&lt;em&gt;Materyal&lt;/em&gt;&lt;/a&gt; EP release, the carrier single “Nadarang” shot straight to the #1 spot on Spotify PH’s Top 50 Viral Chart. Not only that, three other songs from the EP entered the chart as well — “Materyal” (#10), “Shantidope” (#15) and “Norem” (#50).&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rahzel', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Johan-olsen', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Corey-taylor', 'annotations': {'description': '&lt;p&gt;Corey Todd Taylor (born December 8, 1973) is an American musician, singer, songwriter, actor, and author, best known as the lead singer and lyricist of the bands &lt;a href="http://www.genius.com/artists/Slipknot" rel="noopener" data-api_path="/artists/20222"&gt;Slipknot&lt;/a&gt; and &lt;a href="http://www.genius.com/artists/Stone-sour" rel="noopener" data-api_path="/artists/59680"&gt;Stone Sour&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Taylor formed Stone Sour in 1992, playing in the Des Moines area, and working on a demo. He joined Slipknot in 1997 to replace their original vocalist and has subsequently released five studio albums with them. After the first two Slipknot albums went Platinum, Taylor revived Stone Sour to record an album and tour in 2002. He has worked with several bands, including Junk Beer Kidnap Band, Korn, Disturbed, Apocalyptica, Anthrax, and Soulfly. Taylor was ranked at #86 in Hit Parader’s Top 100 Metal Vocalists of All Time. He was also named the seventh greatest heavy metal frontman by NME. Taylor was also found, by VVN Music, to possess the second-widest vocal range of any known singer in popular music with a range of five and a half octaves. He was beaten only by Mike Patton (six octaves).&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Pop-evil', 'annotations': {'description': '&lt;p&gt;Pop Evil is an American rock band that was formed in North Muskegon, Michigan in 2001 by Leigh Kakaty. He then added Dave Grahs, Dylan Allison, and Jamie Nummer.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Fever-333', 'annotations': {'description': '&lt;p&gt;Fever 333, formerly named The Fever 333 and originally named &lt;a href="http://www.deadpress.co.uk/interview-the-fever-333-09-06-2018" rel="noopener nofollow"&gt;The Fever&lt;/a&gt;, are a &lt;a href="https://genius.com/tags/post-hardcore" rel="noopener"&gt;post-hardcore&lt;/a&gt;, &lt;a href="https://genius.com/tags/rapcore" rel="noopener"&gt;rapcore&lt;/a&gt; supergroup comprised of vocalist &lt;a href="https://genius.com/artists/Jason-aalon-butler" rel="noopener" data-api_path="/artists/160810"&gt;Jason Aalon Butler&lt;/a&gt; (formerly &lt;a href="https://genius.com/artists/letlive" rel="noopener" data-api_path="/artists/60812"&gt;letlive&lt;/a&gt;), drummer Aric Improta (&lt;a href="https://genius.com/artists/night-verses" rel="noopener" data-api_path="/artists/368024"&gt;Night Verses&lt;/a&gt;), and guitarist Stephen Harrison (formerly &lt;a href="https://genius.com/artists/the-chariot" rel="noopener" data-api_path="/artists/34208"&gt;The Chariot&lt;/a&gt;).&lt;/p&gt;\n\n&lt;p&gt;In the wake of letlive’s break-up in April 2017, Butler announced this project as a &lt;a href="https://www.youtube.com/watch?v=fQpFc6tqvjQ" rel="noopener nofollow"&gt;live pop-up event&lt;/a&gt; for American Independence Day on July 4th. It was hosted in the parking lot of Randy’s Donuts in his hometown of Inglewood(LA), California. The band played three songs as a political and art statement: &lt;a href="https://genius.com/Fever-333-were-coming-in-lyrics" rel="noopener" data-api_path="/songs/3152208"&gt;“We’re Coming In,”&lt;/a&gt; &lt;a href="https://genius.com/Fever-333-hunting-season-lyrics" rel="noopener" data-api_path="/songs/3152221"&gt;“Hunting Season,”&lt;/a&gt; and “Endgame,” which was later turned into &lt;a href="https://genius.com/Fever-333-prey-for-me-3-lyrics" rel="noopener" data-api_path="/songs/4081771"&gt;“PREY FOR ME/3,”&lt;/a&gt; and released on their debut LP.&lt;/p&gt;\n\n&lt;p&gt;In the months following the short pop-up show, the band periodically dropped studio recordings of “We’re Coming In,” and “Hunting Season,” with a music video to accompany both.&lt;/p&gt;\n\n&lt;p&gt;In November 2017, the single &lt;a href="https://genius.com/Fever-333-walking-in-my-shoes-lyrics" rel="noopener" data-api_path="/songs/3308740"&gt;“Walking in My Shoes”&lt;/a&gt; was released prior to the release of their debut EP, &lt;a href="https://genius.com/albums/Fever-333/Made-an-america" rel="noopener" data-api_path="/albums/412827"&gt;&lt;em&gt;Made An America&lt;/em&gt;&lt;/a&gt; on March 23, 2018. It was released on Roadrunner Records and 333 Wreckords also aided in the marketing of the EP.&lt;/p&gt;\n\n&lt;p&gt;In May 2018, a stand-alone single and music video was released titled &lt;a href="https://genius.com/Fever-333-trigger-lyrics" rel="noopener" data-api_path="/songs/3738476"&gt;“Trigger”&lt;/a&gt; that discusses gun violence issues in America. A remix of “Made an America” was released in September featuring &lt;a href="https://genius.com/artists/Blink-182" rel="noopener" data-api_path="/artists/13373"&gt;blink-182&lt;/a&gt; drummer &lt;a href="https://genius.com/artists/Travis-barker" rel="noopener" data-api_path="/artists/1604"&gt;Travis Barker&lt;/a&gt; and rapper &lt;a href="https://genius.com/artists/Vic-mensa" rel="noopener" data-api_path="/artists/18814"&gt;Vic Mensa&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;With the announcement of the band’s debut LP came a single; in November 2017 &lt;a href="https://genius.com/Fever-333-burn-it-lyrics" rel="noopener" data-api_path="/songs/4078637"&gt;“BURN IT”&lt;/a&gt; was released. The LP &lt;a href="https://genius.com/albums/Fever-333/Strength-in-numb333rs" rel="noopener" data-api_path="/albums/477972"&gt;&lt;em&gt;STRENGTH IN NUMB333RS&lt;/em&gt;&lt;/a&gt; was released on January 2019.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Otep', 'annotations': {'description': '&lt;p&gt;Otep is an American heavy metal band from Los Angeles, California. They were formed in 2000. They have released two EPs, six studio albums, and one live album.&lt;/p&gt;\n\n&lt;p&gt;The current members are Otep Shamaya (vocals), Ari Mihalopoulos (guitar), Justin Kier (drums), and Andrew Barnes (bass).&lt;/p&gt;\n\n&lt;p&gt;They are currently signed with Napalm Records.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://s3.amazonaws.com/filepicker-images-rapgenius/bDemK54aRAqCcSEnUG3U_otep.jpg" alt=""&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Tesseract', 'annotations': {'description': '&lt;p&gt;TesseracT is a progressive metal band, from Milton Keynes, England. They were formed in 2003, by lead guitarist and producer &lt;a href="https://genius.com/artists/Acle-kahney" rel="noopener" data-api_path="/artists/336114"&gt;Acle Kahney&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2011, their debut album &lt;a href="https://genius.com/albums/Tesseract/One" rel="noopener" data-api_path="/albums/209026"&gt;&lt;em&gt;One&lt;/em&gt;&lt;/a&gt; was released. The album won them the 2012 &lt;a href="https://www.loudersound.com/features/vote-now-in-the-2018-progressive-music-awards" rel="noopener nofollow"&gt;Progressive Music Award&lt;/a&gt; for ‘New Blood’.&lt;/p&gt;\n\n&lt;p&gt;They’ve had three albums hit the &lt;a href="https://www.billboard.com/music/tesseract/chart-history" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt; over the years. &lt;a href="https://genius.com/albums/Tesseract/Altered-state" rel="noopener" data-api_path="/albums/131755"&gt;&lt;em&gt;Altered State&lt;/em&gt;&lt;/a&gt; hit #94, &lt;a href="https://genius.com/albums/Tesseract/Polaris" rel="noopener" data-api_path="/albums/131577"&gt;&lt;em&gt;Polaris&lt;/em&gt;&lt;/a&gt; at #120, and &lt;a href="https://genius.com/albums/Tesseract/Sonder" rel="noopener" data-api_path="/albums/401219"&gt;&lt;em&gt;Sonder&lt;/em&gt;&lt;/a&gt; at #198.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Textures', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Toothgrinder', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Toothgrinder" rel="noopener" data-api_path="/artists/661918"&gt;Toothgrinder&lt;/a&gt; is an American metal band from Asbury Park, New Jersey.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Machine-head', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/After-the-burial', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://atbevergreen.com/?fbclid=IwAR13FXLepizwlCGbGmwd7Bvn25x3FzT0lQw2JyIGYHSQs2M1JAN-I1cELP8" rel="noopener nofollow"&gt;After the Burial&lt;/a&gt; is a Progressive Metal-/Deathcore band who also falls under the Djent-Genre.&lt;br&gt;\nThey formed in 2004 in Minneapolis, Minnesota and are curryntly signed to &lt;a href="https://genius.com/artists/Sumerian-records" rel="noopener" data-api_path="/artists/1015469"&gt;Sumerian Records&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;They are best known for their eight-stringed Guitars and heavy breakdowns&lt;/p&gt;\n\n&lt;p&gt;Their latest Album &lt;a href="https://genius.com/albums/After-the-burial/Evergreen" rel="noopener" data-api_path="/albums/508233"&gt;Evergreen&lt;/a&gt; was released in April, 2019&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Dan-carle" rel="noopener" data-api_path="/artists/1097984"&gt;Dan Carle&lt;/a&gt; – Drums&lt;br&gt;\n&lt;a href="https://genius.com/artists/Anthony-notarmaso" rel="noopener" data-api_path="/artists/1097983"&gt;Anthony Notarmaso&lt;/a&gt; – Vocals&lt;br&gt;\nAdrian Oropeza – Bass&lt;br&gt;\n&lt;a href="https://genius.com/artists/Trent-hafdahl" rel="noopener" data-api_path="/artists/1097982"&gt;Trent Hafdahl&lt;/a&gt; – Guitar&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Amon-amarth', 'annotations': {'description': '&lt;p&gt;Amon Amarth is a Swedish melodic death metal band. They are most famous for the themes within their music, which typically relate to Norse mythology and its gods.&lt;/p&gt;\n\n&lt;p&gt;Band Lineup:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Johan-hegg" rel="noopener" data-api_path="/artists/660045"&gt;Johan Hegg&lt;/a&gt; – Vocals&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Ted-lundstrom" rel="noopener" data-api_path="/artists/660042"&gt;Ted Lundström&lt;/a&gt; – Bass&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Johan-soderberg" rel="noopener" data-api_path="/artists/660044"&gt;Johan Söderberg&lt;/a&gt; – Guitar&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Olavi-mikkonen" rel="noopener" data-api_path="/artists/660043"&gt;Olavi Mikkonen&lt;/a&gt; – Guitar&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Jocke-wallgreen" rel="noopener" data-api_path="/artists/2444322"&gt;Jocke Wallgren&lt;/a&gt; – Drums&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Avatar-the-last-airbender', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Avatar: The Last Airbender&lt;/em&gt; is an American animated television series that aired for three seasons (referred to as “books” in each episode’s title card) on &lt;a href="http://www.nick.com/" rel="noopener nofollow"&gt;Nickelodeon&lt;/a&gt; from 2005 to 2008.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Avatar: The Last Airbender&lt;/em&gt; is set in an Asiatic world in which some people are able to manipulate the classical elements by use of psychokinetic variants of Chinese martial arts, known as “bending”. The show combines the styles of anime and American cartoons, and relies on the imagery of various East Asian, Inuit, Southeast Asian, South Asian, and New World societies.&lt;/p&gt;\n\n&lt;p&gt;The series follows the adventures of protagonist twelve-year-old &lt;a href="http://avatar.wikia.com/wiki/Aang" rel="noopener nofollow"&gt;Aang&lt;/a&gt;, the Avatar, and his friends, who must bring peace and unity to the world by ending the &lt;a href="http://avatar.wikia.com/wiki/Ozai" rel="noopener nofollow"&gt;Fire Lord&lt;/a&gt;’s war against the other three nations.&lt;/p&gt;\n\n&lt;p&gt;In 2012, a sequel, &lt;em&gt;&lt;a href="https://genius.com/artists/The-legend-of-korra" rel="noopener" data-api_path="/artists/986116"&gt;The Legend of Korra&lt;/a&gt;&lt;/em&gt;, aired in Nickelodeon, set 70 years after the end of the series.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Within-the-ruins', 'annotations': {'description': '&lt;p&gt;Within the Ruins is an American deathcore band from Westfield, Massachusetts. They are currently signed to E1 Music and Good Fight Music. The group has released five albums and three EPs.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-hu', 'annotations': {'description': '&lt;p&gt;The HU is a band from Mongolia that blends heavy metal and traditional Mongolian throat singing. Their first two videos (“Yuve Yuve Yu” and “Wolf Totem”) immediately went viral garnering the band over 30 million views. The explosive reaction to The HU resulted in a number of features about the band in international media such as NPR, ET India Times, Playboy Mexico, Jack Canal+Fr, Hong Kong 01, DW News Germany and others.&lt;/p&gt;\n\n&lt;p&gt;The band’s name The HU, is the Mongolian root word for human being. They call their style “Hunnu Rock”…inspired by the Hunnu, an ancient Mongolian empire, known as The Huns in western culture. Some of the band’s lyrics include old Mongolian war cries and poetry.&lt;/p&gt;\n\n&lt;p&gt;Founded in 2016 in Ulaanbaatar, Mongolia by their producer Dashka, along with the members Gala, Jaya, Temka, and Enkush. The HU combines Rock Music with traditional Mongolian instrumentation like the Morin Khuur (horsehead fiddle), Tovshuur (Mongolian guitar), Tumur Khuur (jaw harp), guttural throating singing and the bombastic bass and drums of rock. All four members have earned Bachelor’s or higher degrees in music and have several years of touring experience throughout Asia and the Pacific Rim.&lt;/p&gt;\n\n&lt;p&gt;Since the formation of the band, they’ve been working on their first album, The Gereg. The word Gereg was used as the first Diplomatic “Passport” by the Mongol empire during the time of Genghis Khan. The album contains nine songs including viral hits “Yuve Yuve Yu” and “Wolf Totem”, and was released on September 13, 2019 via Eleven Seven Music.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bobaflex', 'annotations': {'description': '&lt;p&gt;BOBAFLEX is known as one of the hardest working bands in the country. Renowned for their high energy, live shows and relentless touring the band was formed in 1998 by brothers Shaun and Marty McCoy. The brothers are known for their ancestral ties to the most infamous family feud in American history between the Hatfield and McCoy.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Atreyu', 'annotations': {'description': '&lt;p&gt;Atreyu is a &lt;a href="https://genius.com/tags/metalcore" rel="noopener"&gt;metalcore&lt;/a&gt; band founded in Orange County, California in 1998. The band’s name originated from the book/movie The Neverending Story. They have seven full-length albums, the most recent from 2018.&lt;/p&gt;\n\n&lt;p&gt;Vocals: &lt;a href="https://genius.com/artists/Alex-varkatzas" rel="noopener" data-api_path="/artists/1319804"&gt;Alex Varkatzas&lt;/a&gt;&lt;br&gt;\nGuitar: &lt;a href="https://genius.com/artists/Dan-jacobs" rel="noopener" data-api_path="/artists/1415910"&gt;Dan Jacobs&lt;/a&gt;&lt;br&gt;\nGuitar: &lt;a href="https://genius.com/artists/Travis-miguel" rel="noopener" data-api_path="/artists/1415909"&gt;Travis Miguel&lt;/a&gt;&lt;br&gt;\nBass: &lt;a href="https://genius.com/artists/Marc-mcknight" rel="noopener" data-api_path="/artists/1415911"&gt;Marc “Porter” McKnight&lt;/a&gt;&lt;br&gt;\nDrummer/vocals: &lt;a href="https://genius.com/artists/Brandon-saller" rel="noopener" data-api_path="/artists/458806"&gt;Brandon Saller&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Thrice', 'annotations': {'description': '&lt;p&gt;Thrice is an American rock band that formed in Irvine, California in 1998. The four members of Thrice are &lt;a href="https://genius.com/artists/Dustin-kensrue" rel="noopener" data-api_path="/artists/226427"&gt;Dustin Kensrue&lt;/a&gt;, &lt;a href="https://genius.com/artists/Teppei-teranishi" rel="noopener" data-api_path="/artists/214366"&gt;Teppei Teranishi&lt;/a&gt;, &lt;a href="https://genius.com/artists/Eddie-breckenridge" rel="noopener" data-api_path="/artists/503878"&gt;Eddie Breckenridge&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Riley-breckenridge" rel="noopener" data-api_path="/artists/503879"&gt;Riley Breckenridge&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band name &lt;a href="http://dyingscene.com/news/why-did-they-choose-the-name-thrice/" rel="noopener nofollow"&gt;came from an inside joke&lt;/a&gt;: A friend claimed that he had beaten the computer game Frogger twice, but Dustin Kensrue responded that he had beaten the game “thrice”. Lacking better ideas, &lt;a href="https://www.youtube.com/watch?v=K4dFVxNizuY&amp;amp;feature=youtu.be&amp;amp;t=1m24s" rel="noopener nofollow"&gt;they chose it as their band name for their first show&lt;/a&gt;, but &lt;a href="https://www.reddit.com/r/PostHardcore/comments/20y31d/i_am_dustin_kensrue_ask_me_anything_go/cg7tb1i" rel="noopener nofollow"&gt;never loved it and considered changing it every album for the next ten years&lt;/a&gt; until finally accepting it.&lt;/p&gt;\n\n&lt;p&gt;Their style early on was characterized by fast tempos, unusual time signatures, heavy distorted guitars, and screaming – falling somewhere between punk and hardcore.&lt;/p&gt;\n\n&lt;p&gt;Their musical style evolved significantly over time and they’ve shown themselves to be skilled and eclectic as musicians and songwriters, retaining some of their older style while expanding into other genres as well. Thrice songs cover a spectrum of genres including acoustic, electronic, hardcore, punk, grunge, blues, and folk. The band often writes the &lt;a href="https://www.youtube.com/watch?v=UmB3ot7YYPc&amp;amp;t=22m45s" rel="noopener nofollow"&gt;music and lyrics to reflect the same emotional and thematic content&lt;/a&gt; and their &lt;a href="http://www.premierguitar.com/articles/24510-the-gray-area-thrices-dustin-kensrue-and-teppei-teranishi?page=2" rel="noopener nofollow"&gt;songwriting process is very democratic&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;From &lt;a href="https://www.guitar.com/articles/thrice-no-identity-crisis-here" rel="noopener nofollow"&gt;early on&lt;/a&gt; to &lt;a href="http://www.ccmmagazine.com/features/don-t-think-thrice-it-s-all-right/" rel="noopener nofollow"&gt;Alchemy&lt;/a&gt; to &lt;a href="http://www.theaquarian.com/2016/06/15/an-interview-with-thrice-to-be-everywhere/" rel="noopener nofollow"&gt;more recently&lt;/a&gt;, lead singer Dustin Kensrue has written the lyrics to nearly every track. His lyrics are finely crafted and often have multiple layers of meaning. About his message, Kensrue &lt;a href="http://www.laweekly.com/music/thrice-return-to-reclaim-their-place-among-post-hardcores-best-bands-6957122" rel="noopener nofollow"&gt;has said&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I want my music to be engaging for humans in general, not just a specific subset of someone that believes something. There’s enough shared experience for us as humans to communicate meaningfully through conversation and art, even with people that you don’t agree with.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Many of Thrice’s lyrics are poetic, though others read more like prose essays. Both from his lyrics and interviews, it is evident that Kensrue is a &lt;a href="https://www.youpak.com/watch?v=K4dFVxNizuY&amp;amp;t=1h31m36s" rel="noopener nofollow"&gt;voracious reader and deep thinker&lt;/a&gt; [1:31:36]. He &lt;a href="http://www.rocksound.tv/features/read/thrice-major-minor-by-dustin-kensrue?" rel="noopener nofollow"&gt;is a Protestant Christian&lt;/a&gt; and frequently &lt;a href="http://theindiespiritualist.com/2011/10/19/the-passion-of-dustin-kensrue-an-interview-with-the-frontman-of-thrice/" rel="noopener nofollow"&gt;uses themes&lt;/a&gt; and &lt;a href="http://vanderbilthustler.com/ac/qa-with-musician-dustin-kensrue.html" rel="noopener nofollow"&gt;allusions from the Bible&lt;/a&gt; – and sometimes direct quotations. In the same vein, there are numerous references in Kensrue’s lyrics to work by Christian writers &lt;a href="https://www.youtube.com/watch?v=UmB3ot7YYPc&amp;amp;t=36m00s" rel="noopener nofollow"&gt;including C.S. Lewis&lt;/a&gt; (&lt;a href="http://www.magnetmagazine.com/2010/01/08/from-the-desk-of-thrice-c-s-lewis-space-trilogy/" rel="noopener nofollow"&gt;Dustin’s favorite author&lt;/a&gt;) and G.K. Chesterton. Additionally, Kensrue gets inspiration for lyrics from historical people and events, novels, films, Greek philosophy, and a host of other subjects. Regardless of the subject, the feelings and subjects explored in their tracks are personally meaningful to the band.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Righteous-vendetta', 'annotations': {'description': '&lt;p&gt;Righteous Vendetta is an American Metalcore band founded in Cody, Wyoming.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Wage-war', 'annotations': {'description': '&lt;p&gt;Originating in Central Florida, Wage War gathers inspiration from several different sub-genres of metal, explaining their wide range of appeal to metal heads everywhere. White Chapel, The Devil Wears Prada, and August Burns Red are just a few of their influences.&lt;/p&gt;\n\n&lt;p&gt;Mixing the anger and angst of Hardcore Metal with a positive message of redemption and hope. Wage War has a bright future ahead of them.&lt;/p&gt;\n\n&lt;p&gt;The current lineup consists of unclean vocalist Briton Bond, lead guitarist and backing vocalist Seth Blake, rhythm guitarist and clean vocalist Cody Quistad, bass guitarist and backing vocalist Chris Gaylord and drummer and percussionist Stephen Kleusener.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bad-wolves', 'annotations': {'description': '&lt;p&gt;Bad Wolves is an American metal band formed in 2017 led by Tommy Vext as lead vocals followed by John Boecklin on drums, Doc Coyle as lead guitar, Chris Cain on the rhythm guitar, and Kyle Konkiel on the bass guitar. In May 2017, Bad Wolves released their debut single, “Learn to Live”, in November 2017, Bad Wolves released their second single, “Toast to the Ghost”, and on January 18, 2018, they released a third single, which was a cover of “Zombie” (originally by &lt;a href="https://genius.com/artists/The-cranberries" rel="noopener" data-api_path="/artists/31849"&gt;The Cranberries&lt;/a&gt;). Bad Wolves then finally released their debut studio album, “Disobey”, on May 11, 2018.&lt;br&gt;\nBad Wolves is managed by the Zoltan Bathory of Five Finger Death Punch.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sabaton', 'annotations': {'description': '&lt;p&gt;Sabaton’s main themes are based on war and historical battles with a focus on WWI and WWII while other battles, wars, and historical figures are also prominently featured on their compositions.&lt;/p&gt;\n\n&lt;p&gt;Sabaton specializes on power metal and was formed in Falun, Sweden during 1999.&lt;/p&gt;\n\n&lt;p&gt;Current members:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Joakim-broden" rel="noopener" data-api_path="/artists/508137"&gt;Joakim Brodén&lt;/a&gt; – Singer and Frontman&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Par-sundstrom" rel="noopener" data-api_path="/artists/508138"&gt;Pär Sundström&lt;/a&gt; – Bass Guitar&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Chris-rorland" rel="noopener" data-api_path="/artists/1735042"&gt;Chris Rörland&lt;/a&gt; – Guitar&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Tommy-johansson" rel="noopener" data-api_path="/artists/1812647"&gt;Tommy Johansson&lt;/a&gt; – Guitar&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Hannes-van-dahl" rel="noopener" data-api_path="/artists/1803205"&gt;Hannes van Dahl&lt;/a&gt; – Drums&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;Former members:&lt;br&gt;\n* Oskar Montelius&lt;br&gt;\n* Rikard Sundén&lt;br&gt;\n* Richard Larsson&lt;br&gt;\n* Daniel Mullback&lt;br&gt;\n* Daniel Mÿhr&lt;br&gt;\n* Robban Bäck&lt;br&gt;\n* Thorbjörn Englund&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Behemoth', 'annotations': {'description': '&lt;p&gt;Hailing from    Gdańsk, Poland and beginning their career in 1991, the band has gone through several (sub) genre changes; traditionally being labeled &lt;em&gt;blackened death metal&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band was originally called &lt;em&gt;Baphomet&lt;/em&gt; but changed their name as too many other bands shared that name at the time.&lt;/p&gt;\n\n&lt;p&gt;The band’s lyrics are generally along &lt;a href="https://en.wikipedia.org/wiki/Occult" rel="noopener nofollow"&gt;occult&lt;/a&gt;, &lt;a href="https://en.wikipedia.org/wiki/Satanism" rel="noopener nofollow"&gt;Satanic&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Thelema" rel="noopener nofollow"&gt;thelemic&lt;/a&gt; themes. This courted controversy in 2007 when the All-Polish Committee for Defense Against Sects   distributed a list of bands that allegedly promoted Satanism and murder in an effort to restrict the bands freedom to play in Poland. However, it never was officially endorsed.&lt;/p&gt;\n\n&lt;p&gt;The band won the Polish Music Fryderyk Album of the Year (Heavy Metal) Award in 2010 for &lt;a href="https://genius.com/albums/Behemoth/Evangelion" rel="noopener" data-api_path="/albums/42448"&gt;&lt;em&gt;Evangelion&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Dream-evil', 'annotations': {'description': '&lt;p&gt;Dream Evil is a heavy metal band from Sweden, assembled by producer Fredrik Nordström in 1999. Producer Fredrik Nordström had the ambition of creating a power metal band of his own for a long time, but had difficulty finding anyone with musical ideals similar to his own. However, while on holiday in the Greek islands during the year of 1999, Nordström met the young guitarist Gus G (from Firewind). The musicians got along quite well, despite an age difference of over a decade. Plans for a band commenced – Gus had already been planning to relocate to Gothenburg, and upon his arrival he looked up Fredrik at Studio Fredman to begin writing.&lt;/p&gt;\n\n&lt;p&gt;The first person asked to join the new band was Snowy Shaw (from King Diamond, Mercyful Fate and Notre Dame), but the drummer initially refused their invitation. He would later change his mind and agreed to play on the band’s debut album in a session capacity.&lt;/p&gt;\n\n&lt;p&gt;Vocalist Niklas Isfeldt had done backing vocals for some of HammerFall’s songs produced by Nordström, and since he was not involved in any major projects at the time, he agreed to take the position. He also brought along his longtime friend and Pure-X bandmate Peter Stålfors, who assumed bass duties.&lt;/p&gt;\n\n&lt;p&gt;Up until the moment the first promotional photos were shot, the entire band had never been in the same place at the same time before. Some members did not even know each other.&lt;/p&gt;\n\n&lt;p&gt;The band soon got a deal with Century Media Records, and intended to name themselves Dragonslayer due to the medieval and fantastical themes of the songs written by Gus and Nordström. The label did not find the name original enough, and thus the band settled for the name Dream Evil, inspired by the Dio album of the same name.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/b411c09c6dfb042234233b39972eaa41.1000x563x1.jpg" alt="" width="1000" height="563" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Red', 'annotations': {'description': '&lt;p&gt;RED is an American Christian alternative rock/metal band from Pennsylvania. The band’s name &lt;a href="https://www.newreleasetoday.com/article.php?article_id=22" rel="noopener nofollow"&gt;represents&lt;/a&gt; the blood of Christ. The band was formed by twin brothers Anthony (lead guitar) and Randy (bass) Armstrong, Michael Barnes (lead vocals), and Andrew Hendrix (drums) in 2002. The band started out as a CCM cover band for local youth groups, until they grew tired of the genre, wanting to make more personal music with a nu-metal/post-grunge sound.&lt;/p&gt;\n\n&lt;p&gt;Later in 2004, &lt;a href="https://genius.com/artists/jasen-rauch" rel="noopener" data-api_path="/artists/338260"&gt;Jasen Rauch&lt;/a&gt; joined the band as an additional guitarist, eventually becoming one of the main songwriters. The band started recording demos with the help of Grammy-nominated rock producer &lt;a href="https://genius.com/artists/rob-graves" rel="noopener" data-api_path="/artists/91665"&gt;Rob Graves&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Not long after, the band was signed to Essential Records, a subdivision of Provident Label Group, owned by Sony Music Entertainment. Around the same time, Hendrix decided to leave his role as drummer, later being replaced by Hayden Lamb (twin brother of Hunter Lamb, the ex-guitarist of &lt;a href="https://genius.com/artists/paramore" rel="noopener" data-api_path="/artists/22531"&gt;Paramore&lt;/a&gt;). This led to the release of the debut album &lt;a href="https://genius.com/albums/red/end-of-silence" rel="noopener" data-api_path="/albums/119280"&gt;&lt;em&gt;End of Silence&lt;/em&gt;&lt;/a&gt;. The album was most known for it’s singles &lt;a href="https://genius.com/Red-breathe-into-me-lyrics" rel="noopener" data-api_path="/songs/428086"&gt;Breathe Into Me&lt;/a&gt; and &lt;a href="https://genius.com/Red-already-over-lyrics" rel="noopener" data-api_path="/songs/65832"&gt;Already Over&lt;/a&gt; and was eventually nominated for a Grammy for Best Rock Gospel Album in 2007.&lt;br&gt;\nAs the band prepared for their sophomore album, &lt;a href="https://genius.com/albums/Red/Innocence-instinct" rel="noopener" data-api_path="/albums/119282"&gt;&lt;em&gt;Innocence &amp;amp; Instinct&lt;/em&gt;&lt;/a&gt;, the band was involved in a car-crash on the highway damaging their van and gear. From this, Hayden Lamb was injured, leading Joe Rickard to take over for him as the drummer.&lt;/p&gt;\n\n&lt;p&gt;Shortly after the release of the album in 2009, Jasen Rauch decided to leave the band, to pursue producing and songwriting, which eventually led to him becoming the lead guitarist for &lt;a href="https://genius.com/artists/breaking-benjamin" rel="noopener" data-api_path="/artists/21856"&gt;Breaking Benjamin&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The third album, &lt;a href="https://genius.com/albums/Red/Until-we-have-faces" rel="noopener" data-api_path="/albums/119281"&gt;&lt;em&gt;Until We Have Faces&lt;/em&gt;&lt;/a&gt;, led to the band’s first television performance appearing on Conan, then The Tonight Show Starring Jay Leno a week later. Rickard later departed from the band after finishing the “&lt;a href="https://genius.com/albums/Red/Release-the-panic-recalibrated" rel="noopener" data-api_path="/albums/127681"&gt;recalibrated&lt;/a&gt;” version of the fourth album &lt;a href="https://genius.com/albums/Red/Release-the-panic" rel="noopener" data-api_path="/albums/119283"&gt;&lt;em&gt;Release the Panic&lt;/em&gt;&lt;/a&gt;, joining the Swedish heavy metal band &lt;a href="https://genius.com/artists/in-flames" rel="noopener" data-api_path="/artists/17320"&gt;In Flames&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2015, the band released &lt;a href="https://genius.com/albums/Red/Of-beauty-and-rage" rel="noopener" data-api_path="/albums/119379"&gt;&lt;em&gt;of Beauty and Rage&lt;/em&gt;&lt;/a&gt;, an album funded by PledgeMusic, having Dan Johnson of &lt;a href="https://genius.com/artists/love-and-death" rel="noopener" data-api_path="/artists/106178"&gt;Love &amp;amp; Death&lt;/a&gt; as the studio and touring drummer. In the Fall of 2017, Red released &lt;a href="https://genius.com/albums/red/gone" rel="noopener" data-api_path="/albums/369504"&gt;&lt;em&gt;Gone&lt;/em&gt;&lt;/a&gt;, another PledgeMusic funded album, having Rickard return as the studio drummer.&lt;/p&gt;\n\n&lt;p&gt;2019 saw Red go independent for the first time being funded solely by the fans via PledgeMusic. It also saw the official membership of Dan Johnson as the drummer for the band. They released their single &lt;a href="https://genius.com/red-the-evening-hate-lyrics" rel="noopener" data-api_path="/songs/4577772"&gt;The Evening Hate&lt;/a&gt; that June along with a 13+ minute music video created by the band.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Whitechapel', 'annotations': {'description': '&lt;p&gt;Whitechapel is an American &lt;a href="https://genius.com/tags/deathcore" rel="noopener"&gt;deathcore&lt;/a&gt; band from Knoxville, Tennessee. Founded by current vocalist Phil Bozeman, current guitarist Ben Savage, and former guitarist Brandon Cagle in February of 2006. Naming after the Whitechapel District in East London, England, referencing the series of murders as known as Jack the Ripper.&lt;/p&gt;\n\n&lt;p&gt;The band has released 6 studio albums so far.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Heaven-shall-burn', 'annotations': {'description': '&lt;p&gt;HEAVEN SHALL BURN have continued to evolve into an auditory monster that cannot be pigeonholed into any specific genre and where other bands show signs of easing back on their aggression, HEAVEN SHALL BURN do the exact opposite and continue to focus their attack, while remaining steadfast about bringing to light social and ecological injustices through their lyrical content. HEAVEN SHALL BURN have always strived to inspire the listener to educate themselves about injustices of the past as well as current issues while leading the charge towards a more socially und ecologically aware and positive lifestyle.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Soil', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://www.soiltheband.com/bio/" rel="noopener nofollow"&gt;SOiL&lt;/a&gt;, is an American rock band that was formed in Chicago, Illinois in 1997. Most known for their songs “Halo”, “Unreal” and “Redefine”.&lt;/p&gt;\n\n&lt;p&gt;When the song “Halo” was released it got a lot of attention and a lot of labels wanted to sign the band. They decided to sign with &lt;a href="https://www.jayrecords.com/" rel="noopener nofollow"&gt;J Records&lt;/a&gt; and achieved mainstream success with their major label debut, &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/Scars" rel="noopener" data-api_path="/albums/274484"&gt;Scars&lt;/a&gt;&lt;/em&gt;, in 2001. The songs “Halo” and “Unreal” got the band exposure on MTV.&lt;br&gt;\nThey even won Metal Edge magazine’s 2001 Readers’ Choice Award for “Next Big Thing”.&lt;/p&gt;\n\n&lt;p&gt;In 2004 they released their second album &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/Redefine" rel="noopener" data-api_path="/albums/224050"&gt;Re*de*fi*ne&lt;/a&gt;&lt;/em&gt; through J Records,  and embarked on a worldwide tour. In late 2004 frontman Ryan McCombs &lt;a href="http://www.blabbermouth.net/news/soil-confirm-singer-s-departure/" rel="noopener nofollow"&gt;left the group&lt;/a&gt;. He would go on to become the new vocalist of &lt;a href="https://genius.com/artists/Drowning-pool" rel="noopener" data-api_path="/artists/15619"&gt;Drowning Pool&lt;/a&gt; the following year.&lt;/p&gt;\n\n&lt;p&gt;After McCombs departure the band recruited AJ Cavalier as its new singer and released two more studio albums &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/True-self" rel="noopener" data-api_path="/albums/252125"&gt;True Self&lt;/a&gt;&lt;/em&gt; in 2006 and &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/Picture-perfect" rel="noopener" data-api_path="/albums/172278"&gt;Picture Perfect&lt;/a&gt;&lt;/em&gt; in 2009.&lt;/p&gt;\n\n&lt;p&gt;In 2011, SOiL reunited with Ryan McCombs for a 10th anniversairy tour of their debut album, Scars. He stayed with the band and they released a new album in 2013, entitled “&lt;a href="https://genius.com/albums/Soil/Whole" rel="noopener" data-api_path="/albums/211905"&gt;Whole&lt;/a&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/Slipknot_(band)', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'start_year': '1995', 'abstract': 'Slipknot is an American heavy metal band formed in Des Moines, Iowa, in 1995 by percussionist Shawn Crahan, drummer Joey Jordison and bassist Paul Gray. After several lineup changes in its early years, the band settled on nine members for more than a decade: Crahan, Jordison, Gray, Craig Jones, Mick Thomson, Corey Taylor, Sid Wilson, Chris Fehn, and Jim Root. Gray died on May 24, 2010, and was replaced during 2011–2014 by guitarist Donnie Steele. Jordison was dismissed from the band on December 12, 2013. Steele left during the recording sessions for .5: The Gray Chapter. The band found replacements in Alessandro Venturella on bass and Jay Weinberg on drums. After the departure of Jordison, as of December 2013 the only founding member in the current lineup is percussionist Crahan. Fehn was also dismissed from the band in March 2019 prior to the writing of We Are Not Your Kind. Slipknot is well known for its attention-grabbing image, aggressive style of music, and energetic and chaotic live shows. The band rapidly rose to fame following the release of their eponymous debut album in 1999. The 2001 follow-up album, Iowa, although darker in tone, made the band more popular. After a brief hiatus, Slipknot returned in 2004 with Vol. 3: (The Subliminal Verses), before going on another hiatus and returning in 2008 with its fourth album, All Hope Is Gone, which debuted at number one on the Billboard 200 chart. After another long hiatus, Slipknot released its fifth studio album, .5: The Gray Chapter, in 2014. Their sixth studio album, We Are Not Your Kind, was released on August 9, 2019. The band has released two live albums titled 9.0: Live and Day of the Gusano: Live in Mexico, a compilation album titled Antennas to Hell, and five live DVDs. The band has sold 30 million records worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Avenged_Sevenfold', 'artist_name': 'Avenged Sevenfold', 'wiki': 'http://en.wikipedia.org/wiki/Avenged_Sevenfold', 'hometown': 'http://dbpedia.org/resource/Huntington_Beach,_California', 'start_year': '1999', 'abstract': 'Avenged Sevenfold (sometimes abbreviated as A7X) is an American heavy metal band from Huntington Beach, California, formed in 1999. The band\'s current lineup consists of lead vocalist M. Shadows, rhythm guitarist and backing vocalist Zacky Vengeance, lead guitarist and backing vocalist Synyster Gates, bassist and backing vocalist Johnny Christ, and drummer Brooks Wackerman. Avenged Sevenfold is known for its diverse rock sound and dramatic imagery in album covers and merchandise. The band emerged with a metalcore sound on their debut album Sounding the Seventh Trumpet and continued this sound through their second album Waking the Fallen. However, the band\'s style had evolved by the group\'s third album and first major label release, City of Evil, into a heavy metal and hard rock style. The band continued to explore new sounds with its self-titled release and enjoyed continued mainstream success before their drummer, James "The Rev" Sullivan, died in 2009. Despite his death, Avenged Sevenfold continued on with the help of drummer Mike Portnoy (Dream Theater), and released and toured in support of their fifth album Nightmare in 2010, which debuted on the top spot of the Billboard 200, their first number one debut. In 2011 drummer Arin Ilejay joined the band on tours and recording. The band\'s sixth studio album Hail to the King, which was released in 2013, marked the only Avenged Sevenfold album featuring Ilejay. Hail to the King charted as number 1 on the Billboard 200, the UK Albums chart, as well as the Finnish, Brazilian, Canadian, and Irish charts. In late 2014, Ilejay left the band, and was replaced by former Bad Religion drummer Brooks Wackerman, but the lineup change was not announced to the public until 2015. The band then surprise-released their seventh studio album titled The Stage on October 28, 2016, which debuted as number 4 on the Billboard 200 chart in the US. The Stage is their first conceptual album and it marked another stylistic change for the band, moving towards a progressive metal sound. To date, Avenged Sevenfold has released seven studio albums, one live album/DVD, two compilation albums and eighteen singles and have sold over 8 million albums worldwide, and their records have received numerous certification awards, including five platinum album awards from their home country\'s institution (RIAA). They have also created four original songs for the Call of Duty: Black Ops series, all of which were compiled together in the 2018 EP Black Reign. The band were ranked No. 47 on Loudwire\'s list of Top 50 Metal Bands of All Time.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Pantera', 'artist_name': 'Pantera', 'wiki': 'http://en.wikipedia.org/wiki/Pantera', 'hometown': 'http://dbpedia.org/resource/Arlington,_Texas', 'start_year': '1981', 'end_year': '2003', 'abstract': "Pantera (/pænˈtɛrə/) was an American heavy metal band from Arlington, Texas, formed in 1981. The group's best-known lineup consisted of the Abbott brothers (drummer Vinnie Paul and guitarist Dimebag Darrell), along with vocalist Phil Anselmo and bassist Rex Brown. In addition to their development and popularization of the groove metal subgenre, Pantera is credited (along with others, such as Testament, Sepultura and Machine Head) for being part of the second wave of thrash metal scene from the late 1980s to early-to-mid 1990s. Pantera is regarded as one of the most successful and influential bands in heavy metal history, having sold around 20 million records worldwide and having received four Grammy nominations. Having started as a glam metal band, Pantera released three albums in the mid-1980s with lead vocalist Terry Glaze (Metal Magic, Projects in the Jungle, and I Am the Night). Looking for a new and heavier sound, Pantera hired Anselmo in 1987 and released Power Metal in 1988. They secured a record deal with major label Atco the following year. Their fifth album, 1990's Cowboys from Hell, popularized the groove metal genre, while its 1992 follow-up Vulgar Display of Power achieved an even heavier sound. Far Beyond Driven (1994) debuted at number one on the Billboard 200. Tensions began to surface among the band members when Anselmo became addicted to heroin in 1995; he almost died from an overdose in 1996. These tensions resulted in the recording sessions for The Great Southern Trendkill (1996) being held separately. The ongoing tension lasted for another seven years, during which only one studio album, Reinventing the Steel (2000), was recorded. Pantera went on hiatus in 2001 but lingering disputes led to the band breaking up in 2003. The Abbott brothers went on to form Damageplan while Anselmo continued to work on several side projects, including Down, which Brown joined as well. On December 8, 2004, Dimebag Darrell was shot and killed on stage by a mentally unstable fan during a Damageplan concert in Columbus, Ohio. Vinnie Paul went on to form Hellyeah after his brother's death, and died of heart failure in 2018, leaving Brown and Anselmo as the only surviving members of the band's best-known lineup."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/System_of_a_Down', 'artist_name': 'System of a Down', 'wiki': 'http://en.wikipedia.org/wiki/System_of_a_Down', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'start_year': '1994', 'end_year': '2006', 'abstract': 'System of a Down (also known as SoaD or simply System) is an Armenian-American heavy metal band formed in Glendale, California, in 1994. It currently consists of members Serj Tankian (lead vocals, keyboards), Daron Malakian (guitar, vocals), Shavo Odadjian (bass, backing vocals), and John Dolmayan (drums), who replaced original drummer Andy Khachaturian in 1997. The band achieved commercial success with the release of five studio albums, three of which debuted at number one on the US Billboard 200. System of a Down has been nominated for four Grammy Awards and their song "B.Y.O.B." won a Grammy Award for Best Hard Rock Performance in 2006. The band went on hiatus in 2006 and reunited in 2010. Other than two new songs in 2020 ("Protect the Land" and "Genocidal Humanoidz"), System of a Down has not released a full-length record since the Mezmerize and Hypnotize albums in 2005. The band has sold over 40 million records worldwide, while two of their singles "Aerials" and "Hypnotize" reached number one on Billboard\'s Alternative Songs chart. All members of System of a Down are of Armenian descent, being born to Armenian immigrants or immigrating from Armenia themselves.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Alice_in_Chains', 'artist_name': 'Alice in Chains', 'wiki': 'http://en.wikipedia.org/wiki/Alice_in_Chains', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '1987', 'end_year': '2002', 'abstract': "Alice in Chains (often abbreviated as AIC) is an American rock band from Seattle, Washington, formed in 1987 by guitarist and vocalist Jerry Cantrell and drummer Sean Kinney, who later recruited bassist Mike Starr and lead vocalist Layne Staley. Starr was replaced by Mike Inez in 1993. William DuVall joined the band in 2006 as co-lead vocalist and rhythm guitarist, replacing Staley, who died in 2002. The band took its name from Staley's previous group, the glam metal band Alice N' Chains. Often associated with grunge music, Alice in Chains' sound incorporates heavy metal elements. The band is known for its distinctive vocal style, which often included the harmonized vocals between Staley and Cantrell (and later Cantrell and DuVall). Cantrell started to sing lead vocals on the 1992 acoustic EP Sap, and his role continued to grow in the following albums, making Alice in Chains a two-vocal band. Alice in Chains rose to international fame as part of the grunge movement of the early 1990s, along with other Seattle bands such as Nirvana, Pearl Jam, and Soundgarden. They achieved success during the era with the albums Facelift (1990), Dirt (1992), Alice in Chains (1995), as well as the EP Jar of Flies (1994). Although never officially disbanding, Alice in Chains was plagued by extended inactivity from 1996 onward, due to Staley's substance abuse, which resulted in his death in 2002. The band regrouped in 2006, with DuVall taking over as lead vocalist full-time, and they have since released three more albums: Black Gives Way to Blue (2009), The Devil Put Dinosaurs Here (2013), and Rainier Fog (2018). Alice in Chains have sold over 30 million records worldwide, and over 14 million records in the US alone. The band has had 18 Top 10 songs on Billboard's Mainstream Rock Tracks chart, 5 No. 1 hits, and received 11 Grammy Award nominations. The band was ranked number 34 on VH1's 100 Greatest Artists of Hard Rock and was ranked as the 15th greatest live band by Hit Parader. Since its formation, Alice in Chains has released six studio albums, three EPs, three live albums, four compilations, two DVDs, 43 music videos, and 32 singles."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sepultura', 'artist_name': 'Sepultura', 'wiki': 'http://en.wikipedia.org/wiki/Sepultura', 'hometown': 'http://dbpedia.org/resource/Minas_Gerais', 'start_year': '1984', 'abstract': 'Sepultura (Portuguese: [ˌsepuwˈtuɾɐ], "grave") is a Brazilian heavy metal band from Belo Horizonte. Formed in 1984 by brothers Max and Igor Cavalera, the band was a major force in the groove metal, thrash metal and death metal genres during the late 1980s and early 1990s, with their later experiments drawing influence from alternative metal, world music, nu metal, hardcore punk, and industrial metal. Sepultura has also been credited as one of the second wave of thrash metal acts from the late 1980s to early-to-mid-1990s, along with bands like Pantera, Testament, Sacred Reich, Dark Angel, Vio-lence, Forbidden, Death Angel, and Machine Head. The band has had several lineup changes throughout its existence, with Max and Igor Cavalera departing in 1996 and 2006, respectively. Sepultura\'s current lineup consists of vocalist Derrick Green (who replaced Max in 1998), guitarist Andreas Kisser, bassist Paulo Jr. and drummer Eloy Casagrande (who replaced Igor\'s successor Jean Dolabella in 2011). Since Igor Cavalera\'s departure in 2006, there have been no original members left in the band. Although Paulo Jr. joined Sepultura shortly after its formation in late 1984 and is the longest serving member, he did not play on any of the band\'s studio albums until Chaos A.D. (1993). Kisser, who replaced onetime guitarist Jairo Guedz, has appeared on all of Sepultura\'s records since their second full-length Schizophrenia (1987); he also recorded bass guitar until Chaos A.D.. Sepultura has released fifteen studio albums to date, the latest being Quadra (2020). Their most successful records are Beneath the Remains (1989), Arise (1991), Chaos A.D. (1993), and Roots (1996). Sepultura has sold over three million units in the United States and almost 20 million worldwide, gaining multiple gold and platinum records around the globe, including in countries as diverse as France, Australia, Indonesia, United States, Cyprus, and their native Brazil.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Disturbed_(band)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'start_year': '1994', 'end_year': '2011', 'abstract': 'Disturbed is an American heavy metal band from Chicago, formed in 1994. The band includes vocalist David Draiman, guitarist/keyboardist Dan Donegan, bassist John Moyer and drummer Mike Wengren. Donegan and Wengren have been involved in the band since its inception, with Moyer replacing former bassist Steve "Fuzz" Kmak and Draiman replacing original lead vocalist Erich Awalt. The band has released seven studio albums, five of which have consecutively debuted at number one on the Billboard 200. Disturbed went into hiatus in October 2011, during which the band\'s members focused on various side projects, and returned in June 2015, releasing their first album in four years, Immortalized in August 2015. They also released two live albums, Music as a Weapon II in February 2004 and Disturbed: Live at Red Rocks in November 2016. Disturbed has sold over 17 million records worldwide, making them one of the most successful rock bands in the modern era alongside Slipknot and Godsmack, among others.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Godsmack', 'artist_name': 'Godsmack', 'wiki': 'http://en.wikipedia.org/wiki/Godsmack', 'hometown': 'http://dbpedia.org/resource/Lawrence,_Massachusetts', 'start_year': '1995', 'abstract': 'Godsmack is an American rock band from Lawrence, Massachusetts, formed in 1995. The band is composed of founder, frontman and songwriter Sully Erna, guitarist Tony Rombola, bassist Robbie Merrill and drummer Shannon Larkin. Since its formation, Godsmack has released seven studio albums, one EP (The Other Side), four DVDs, one compilation album (Good Times, Bad Times... Ten Years of Godsmack), and one live album (Live &amp; Inspired). The band has released three consecutive number-one albums (Faceless, IV and The Oracle) on the Billboard 200. The band also has 25 top ten rock radio hits, including 18 songs in the top five. The band\'s seventh album, When Legends Rise was released on April 27, 2018. Since its inception, Godsmack has toured with Ozzfest on more than one occasion and has toured with many other large tours and festivals, including supporting its albums with its own arena tours. In honor of the band\'s success and the release of their sixth studio album, 1000hp, Mayor Marty Walsh declared August 6 as "Godsmack Day" in the city of Boston.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Motörhead', 'artist_name': 'Motörhead', 'wiki': 'http://en.wikipedia.org/wiki/Motörhead', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1975', 'end_year': '2015', 'abstract': 'Motörhead (/ˈmoʊtərhɛd/) were an English rock band formed in London in 1975 by Lemmy (lead vocals, bass), Larry Wallis (guitar), and Lucas Fox (drums). Lemmy was also the primary songwriter and only constant member. The band are often considered a precursor to the new wave of British heavy metal, which re-energised heavy metal in the late 1970s and early 1980s. Though several guitarists and drummers have played in Motörhead, most of their best-selling albums and singles feature drummer Phil "Philthy Animal" Taylor and guitarist "Fast" Eddie Clarke. Motörhead released 22 studio albums, 10 live recordings, 12 compilation albums, and five EPs over a career spanning 40 years. Usually a power trio, they had particular success in the early 1980s with several successful singles in the UK Top 40 chart. The albums Overkill, Bomber, Ace of Spades, and particularly the live album No Sleep \'til Hammersmith cemented Motörhead\'s reputation as a top-tier rock band. The band are ranked number 26 on VH1\'s 100 Greatest Artists of Hard Rock. As of 2016, they have sold more than 15 million albums worldwide. Most often classified as heavy metal, Motörhead has been credited with being part of and influencing numerous musical scenes, thrash metal and speed metal especially. Lemmy, however, always insisted that they were a rock and roll band. He said that they had more in common with punk bands, but with their own unique sound, Motörhead is embraced in both punk and metal scenes. Their lyrics typically covered such topics as war, good versus evil, abuse of power, promiscuous sex, substance abuse, and, most famously, gambling, the latter theme being the focus of their hit song "Ace of Spades". Lemmy died on 28 December 2015 from cardiac arrhythmia and congestive heart failure, after being diagnosed with prostate cancer. The day after his death, drummer Mikkey Dee and guitarist Phil Campbell both confirmed that Motörhead had disbanded. By 2018, all three members of Motörhead\'s best-known lineup (Lemmy, Taylor, and Clarke) had died.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Gojira_(band)', 'artist_name': 'Gojira', 'wiki': 'http://en.wikipedia.org/wiki/Gojira_(band)', 'hometown': 'http://dbpedia.org/resource/Landes_(department)', 'start_year': '1996', 'abstract': 'Gojira is a French heavy metal band from Ondres. Founded as Godzilla in 1996, the band\'s lineup—brothers Joe (lead vocals, rhythm guitar) and Mario Duplantier (drums), Christian Andreu (lead guitar), and Jean-Michel Labadie (bass)—has been the same since the band changed its name to Gojira in 2001. Gojira has been known for their progressive and technical death metal styles and their spiritual and environmentally-themed lyrics. The band has gone "from the utmost obscurity during the first half of their career to widespread global recognition in the second". Gojira\'s first two albums, Terra Incognita (2001) and The Link (2003), and powerful live performances established their reputation as a leading French metal band. Maciste All\'Inferno was a silent film score composed and performed for a one-night show in Bordeaux. Their third album, the critically-acclaimed From Mars to Sirius (2005) with "Backbone", "The Heaviest Matter of the Universe", and "Flying Whales", was covered in the British metal press. The band then signed with Prosthetic Records, which gave them visibility in North America. The follow-up album, The Way of All Flesh (2008), charted on the Billboard 200, and Gojira later launched their first overseas headlining tour. The band began recording the Sea Shepherd EP in a collaborative framework involving several metal musicians. In 2011, Gojira signed with Roadrunner Records. The band released L\'Enfant Sauvage (2012) and Magma (2016), which peaked at number thirty-four and twenty-four respectively on the Billboard 200. Gojira shelved death metal in favor of a more straightforward style on Magma, the band\'s breakthrough album. In 2020, they released their first Billboard-charting single, "Another World". The chart-topping Fortitude (2021) was the best-selling album in the US during its first week. With a DIY approach, the band produce their albums at their own recording studios in France and New York City. Gojira has released seven studio albums, three live DVDs, and is the first French band to top the Billboard Hard Rock Albums chart. Gojira is considered one of France\'s most successful exports to the US. The band has received Grammy Award nominations for Best Rock Album for Magma and Best Metal Performance for the singles "Silvera" and "Amazonia". Gojira holds the record for the loudest concert (and sound) ever recorded at the Stade de France. Throughout their career, the band has been involved in environmental, human- and animal-rights activism.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Ghost_(singer)', 'artist_name': 'Ghost', 'wiki': 'http://en.wikipedia.org/wiki/Ghost_(singer)', 'start_year': '1993', 'abstract': 'Carlton Hylton (born 1974), better known as Ghost, is a Jamaican singjay performer. He is best known for songs such as the dancehall hit "Body Guard". He gained his first notice in 1993 singing for Clifton "Specialist" Dillon on ragga songs, partnering with DJ Culture as rapper. Ghost was a member of Monster Shack Crew in 1996. He joined Jamaican singer Tony Curtis on 1997\'s "Wine", produced by Classical People for Opera House Production. In 1998 he wrote "What Have You Done" with Anthony Cameron, released as a single produced by Red Rose &amp; Malvo during sessions for their compilation album How You Fi Sey Dat? Hylton picked up the nickname "Ghost" as a child in Kingston, Jamaica, from the reaction of other children to his appearance in head bandages after being hit by a bicycle in the road. In 2020, Ghost released the Christian worship song "Humbly Before Thee" under the Ghetto Youths International label.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rammstein', 'artist_name': 'Rammstein', 'wiki': 'http://en.wikipedia.org/wiki/Rammstein', 'hometown': 'http://dbpedia.org/resource/Berlin', 'start_year': '1994', 'abstract': 'Rammstein (German pronunciation: [ˈʁamʃtaɪn], lit. "ramming stone") is a German Neue Deutsche Härte band formed in Berlin in 1994. The band\'s lineup—consisting of lead vocalist Till Lindemann, lead guitarist Richard Kruspe, rhythm guitarist Paul Landers, bassist Oliver Riedel, drummer Christoph Schneider, and keyboardist Christian "Flake" Lorenz—has remained unchanged throughout their history, along with their approach to songwriting, which consists of Lindemann writing and singing the lyrics over instrumental pieces the rest of the band have completed beforehand. Prior to their formation, some members were associated with the punk rock acts Feeling B and First Arsch. After winning a local contest, Rammstein were able to record demos and send them to different record labels, eventually signing with Motor Music. Working with producer Jacob Hellner, they released their debut album Herzeleid in 1995. Though the album initially sold poorly, the band gained popularity through their live performances and the album eventually reached No. 6 in Germany. Their second album, Sehnsucht, was released in 1997 and debuted at No. 1 in Germany, resulting in a worldwide tour lasting nearly four years and spawning the successful singles "Engel" and "Du hast" and the live album Live aus Berlin (1999). Following the tour, Rammstein signed with major label Universal Music and released Mutter in 2001. Six singles were released from the album, all charting in countries throughout Europe. The lead single, "Sonne", reached No. 2 in Germany. Rammstein released Reise, Reise in 2004 and had two more singles reach No. 2 in Germany: "Mein Teil" and "Amerika"; the former song reached No. 1 in Spain, becoming their first No. 1 single. Their fifth album, Rosenrot, was released in 2005, and the lead single, "Benzin", reached No. 6 in Germany. Their second live album, Völkerball, was released in 2006. The band released their sixth album, Liebe ist für alle da, in 2009, with its lead single, "Pussy", becoming their first No. 1 hit in Germany despite having a controversial music video that featured hardcore pornography. The band then entered a recording hiatus and toured for several years, releasing the Made in Germany greatest hits album as well as the Rammstein in Amerika and Paris live albums. After a decade without new music, Rammstein returned in 2019 with the song "Deutschland", which became their second No. 1 hit in Germany. Their untitled seventh studio album was released in May 2019 and reached No. 1 in 14 countries. Rammstein were one of the first bands to emerge within the Neue Deutsche Härte genre, with their debut album leading the music press to coin the term, and their style of music has generally had a positive reception from music critics. Commercially, the band have been very successful, earning many No. 1 albums as well as gold and platinum certifications in countries around the world. Their grand live performances, which often feature pyrotechnics, have contributed to their popularity growth. Despite success, the band have been subject to some controversies, with their overall image having been criticized; for instance, the song "Ich tu dir weh" forced its parent album Liebe ist für alle da to be re-released in Germany with the song removed due to its sexually explicit lyrics.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Mudvayne', 'artist_name': 'Mudvayne', 'wiki': 'http://en.wikipedia.org/wiki/Mudvayne', 'hometown': 'http://dbpedia.org/resource/Peoria,_Illinois', 'start_year': '1996', 'end_year': '2010', 'abstract': 'Mudvayne is an American heavy metal band from Peoria, Illinois, formed in 1996. They are known for their sonic experimentation, innovative album art, face and body paint, masks and uniforms. The band has sold over six million records worldwide, including nearly three million in the United States. The group consist of guitarist Greg Tribbett, drummer Matthew McDonough, lead vocalist Chad Gray and bassist Ryan Martinie. Formed in 1996, Mudvayne became popular in the late-1990s Peoria, Illinois underground music scene. The band released an EP, Kill, I Oughtta, in 1997 and a successful debut album, L.D. 50, in 2000. They had global success with The End of All Things to Come (2002), Lost and Found (2005) and The New Game (2008). After one more album, Mudvayne (2009), the band went on hiatus in 2010 and reunited in 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Deftones', 'artist_name': 'Deftones', 'wiki': 'http://en.wikipedia.org/wiki/Deftones', 'hometown': 'http://dbpedia.org/resource/Sacramento,_California', 'start_year': '1988', 'abstract': 'Deftones is an American alternative metal band formed in Sacramento, California in 1988. It was formed by Chino Moreno (lead vocals, rhythm guitar), Stephen Carpenter (lead guitar), Abe Cunningham (drums), and Dominic Garcia (bass). During their first five years, the band\'s lineup changed several times, but stabilized in 1993 when Cunningham rejoined after his departure in 1990; by this time, Chi Cheng was bassist. The lineup remained stable for fifteen years, with the exception of keyboardist and turntablist Frank Delgado being added in 1999. The band is known as one of the most experimental groups to have come from the alternative metal scene. Deftones have released nine albums since their inception. After the lineup settled in 1993, the band secured a recording contract with Maverick Records, and subsequently released their debut album Adrenaline in 1995. Promoting the album by touring exhaustively with other bands in the scene, Deftones managed to gain a dedicated fan base through word of mouth. Their second album Around the Fur was released in 1997, reached chart positions along with its singles, and became the band\'s first to receive certification from the RIAA. The band found even further success with their third album White Pony (2000), which saw a transition away from their earlier, more aggressive sound into a more experimental direction. Its lead single "Change (In the House of Flies)" is the band\'s most commercially successful single, and the track "Elite" won a Grammy Award for Best Metal Performance; it was also the band\'s first of three albums to be certified platinum in the United States. Their self-titled fourth album was released in 2003. While the group\'s critical success continued, sales proved to be lackluster compared to White Pony. Deftones\' fifth studio effort, Saturday Night Wrist, was released in 2006. While critically acclaimed, the album’s production was marred by creative tensions and personal issues within the band, some of which influenced its material. In 2008, while Deftones were working on an album tentatively titled Eros, Cheng was involved in a traffic collision. As a result, he was left in a minimally conscious state until his death in 2013 of cardiac arrest. After Cheng\'s accident, Deftones halted production on Eros. Quicksand bassist Sergio Vega, who had filled in as a touring member to replace Cheng, later became his permanent replacement. The band released Diamond Eyes in 2010 and embarked on a triple-headline tour with Alice in Chains and Mastodon throughout North America. Their seventh and eighth albums, Koi No Yokan (2012) and Gore (2016) respectively, saw the band continue to move in an increasingly experimental direction and were released to critical acclaim. Their latest album, Ohms, was released on September 25, 2020, receiving significant critical praise. They have sold more than 10 million albums worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Hatebreed', 'artist_name': 'Hatebreed', 'wiki': 'http://en.wikipedia.org/wiki/Hatebreed', 'hometown': 'http://dbpedia.org/resource/Bridgeport,_Connecticut', 'start_year': '1994', 'abstract': 'Hatebreed is an American metalcore band from Bridgeport, Connecticut, formed in 1994. The band released its debut album Satisfaction is the Death of Desire in 1997, which gave the band a cult following. The band signed to Universal Records and released Perseverance in 2002, which hit the Billboard 200. Combining elements of hardcore and heavy metal, the band is often described as a metalcore, hardcore punk, and beatdown hardcore band. They have played a major role in the Connecticut hardcore scene.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Mastodon_(band)', 'artist_name': 'Mastodon', 'wiki': 'http://en.wikipedia.org/wiki/Mastodon_(band)', 'hometown': 'http://dbpedia.org/resource/Atlanta', 'start_year': '2000', 'abstract': 'Mastodon is an American heavy metal band from Atlanta, Georgia, formed in 2000. The group is composed of Troy Sanders (bass/vocals), Brent Hinds (lead guitar/vocals), Bill Kelliher (rhythm guitar/backing vocals), and Brann Dailor (drums/vocals). Mastodon has released eight studio albums, as well as a number of other releases. The band\'s 2002 debut album, Remission, garnered significant critical acclaim for its unique sound. Mastodon\'s second full-length release, Leviathan, is a concept album based on the novel Moby-Dick by Herman Melville. Three magazines awarded the record Album of the Year in 2004: Revolver, Kerrang! and Terrorizer. The song "Colony of Birchmen" from the band\'s third album (released in 2006), Blood Mountain, was nominated for a Grammy Award for Best Metal Performance in 2007. Blood Mountain was followed in 2009 by Crack the Skye, and in 2011 by The Hunter, which debuted at No. 10 on the Billboard 200 chart and achieved major commercial success in the United States. The Hunter features the song "Curl of the Burl", which was nominated for a Grammy for Best Hard Rock/Metal Performance in 2012. Mastodon\'s 2014 album, Once More \'Round the Sun, peaked at No. 6 on the Billboard 200 chart and features the band\'s third Grammy-nominated song, "High Road". The band\'s seventh album, Emperor of Sand, was released on March 31, 2017, and features the band\'s most commercially successful song to date, "Show Yourself", which peaked at No. 4 on the US Billboard Mainstream Rock Songs chart in June 2017. The followup single, "Steambreather", peaked at number 18 on the same chart in October 2017. The album\'s opening track, "Sultan\'s Curse", earned the band their first Grammy award. Emperor of Sand was the band\'s first album to receive a Grammy nomination; it was nominated for Best Rock Album. Mastodon\'s eighth album Hushed and Grim was released on October 29, 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Marilyn_Manson_(band)', 'artist_name': 'Marilyn Manson', 'wiki': 'http://en.wikipedia.org/wiki/Marilyn_Manson_(band)', 'hometown': 'http://dbpedia.org/resource/Fort_Lauderdale,_Florida', 'start_year': '1989', 'abstract': 'Marilyn Manson is an American rock band formed by namesake lead singer Marilyn Manson and guitarist Daisy Berkowitz in Fort Lauderdale, Florida, in 1989. Originally named Marilyn Manson &amp; the Spooky Kids, they gained a local cult following in South Florida in the early 1990s with their theatrical live performances. In 1993, they were the first act signed to Trent Reznor\'s Nothing Records label. Until 1996, the name of each member was created by combining the first name of a female sex symbol and the last name of a serial killer, for example Marilyn Monroe and Charles Manson. Their lineup has changed between many of their album releases; the eponymous lead singer is the only remaining original member. In the past, band members dressed in outlandish makeup and costumes, and engaged in intentionally shocking behavior both onstage and off. Their lyrics often received criticism for their anti-religious sentiment and references to sex, violence and drugs, while their live performances were frequently called offensive and obscene. On several occasions, protests and petitions led to the group being blocked from performing, with at least three US states passing legislation banning the group from performing at state-owned venues. They released a number of platinum-selling albums, including Antichrist Superstar (1996) and Mechanical Animals (1998). These albums, along with their highly stylized music videos and worldwide touring, brought public recognition to Marilyn Manson. In 1999, news media, infamously, falsely blamed the band for influencing the perpetrators of the Columbine High School massacre. As this controversy began to wane throughout the 2000s, so did the band\'s mainstream popularity. Despite this, Jon Wiederhorn of MTV, in June 2003, referred to Marilyn Manson as "the only true artist today". Marilyn Manson is widely regarded as being one of the most iconic and controversial figures in rock music, with the band and its lead singer influencing numerous other groups and musicians, both in metal-associated acts and also in wider popular culture. VH1 ranked Marilyn Manson as the seventy-eighth best rock band on their 100 Great Artists of Hard Rock. They were inducted into the Kerrang! Hall of Fame in 2000, and have been nominated for four Grammy Awards. In the U.S., the band has seen ten of its releases debut in the top ten, including two number-one albums. Marilyn Manson have sold in excess of 50 million records worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Killswitch_Engage', 'artist_name': 'Killswitch Engage', 'wiki': 'http://en.wikipedia.org/wiki/Killswitch_Engage', 'hometown': 'http://dbpedia.org/resource/Westfield,_Massachusetts', 'start_year': '1999', 'abstract': 'Killswitch Engage is an American metalcore band from Westfield, Massachusetts, formed in 1999 after the disbanding of Overcast and Aftershock. Killswitch Engage\'s current lineup consists of vocalist Jesse Leach, guitarists Joel Stroetzel and Adam Dutkiewicz, bassist Mike D\'Antonio, and drummer Justin Foley. The band has released eight studio albums and two live performance albums. Their eighth studio album, Atonement, was released on August 16, 2019. Killswitch Engage rose to fame with its 2004 release The End of Heartache, which peaked at number 21 on the Billboard 200, and was certified gold by the RIAA in December 2007 for over 500,000 shipments in the United States. The title track, "The End of Heartache", was nominated for a Grammy Award in 2005 for Best Metal Performance, and a live DVD titled (Set This) World Ablaze was released in 2005. Killswitch Engage has performed at festivals such as Soundwave Festival, Wacken Open Air, Reading and Leeds Festivals, Ozzfest, Download Festival, Rock on the Range, Rock am Ring, Mayhem Festival, Monsters of Rock, Pointfest, Knotfest and Heavy MTL. The band has sold over four million records in the U.S. and has been considered notable within the New Wave of American Heavy Metal, and has also been considered one of the earliest leading forces of the metalcore genre.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Trivium_(band)', 'artist_name': 'Trivium', 'wiki': 'http://en.wikipedia.org/wiki/Trivium_(band)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'start_year': '1999', 'abstract': 'Trivium is an American heavy metal band from Orlando, Florida, formed in 1999. The band comprises vocalist and guitarist Matt Heafy, guitarist Corey Beaulieu, bassist Paolo Gregoletto, and drummer Alex Bent. The band\'s debut album Ember to Inferno was their only album released through Lifeforce Records in 2003. After getting signed to Roadrunner Records in 2004, the band has released nine studio albums and over twenty singles. Their tenth studio album, In the Court of the Dragon, was released on October 8, 2021. The band has sold over one million albums worldwide and was nominated for a Grammy for the song "Betrayer" at the 61st Annual Grammy Awards in 2019 for Best Metal Performance.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Drowning_Pool', 'artist_name': 'Drowning Pool', 'wiki': 'http://en.wikipedia.org/wiki/Drowning_Pool', 'hometown': 'http://dbpedia.org/resource/Dallas', 'start_year': '1996', 'abstract': "Drowning Pool is an American rock band formed in Dallas, Texas in 1996. The band was named after the 1975 film The Drowning Pool. Since its formation, the band has consisted of guitarist C.J. Pierce, bassist Stevie Benton, and drummer Mike Luce, as well as a revolving cast of vocalists, the latest being Jasen Moreno. After the release of their debut album, Sinner (2001), original vocalist Dave Williams was found dead on August 14, 2002 from heart disease. Jason Jones, who replaced Williams in 2003, recorded one album, Desensitized (2004), but left in 2005 due to musical differences. Ryan McCombs of Chicago-based band SOiL, later replaced Jones and released two albums, Full Circle (2007) and Drowning Pool (2010), making it the first time Drowning Pool had not switched singers after just one album. However, McCombs left the band in 2011 to rejoin SOiL. Jasen Moreno was announced as McCombs' replacement in 2012, and the band has since recorded two albums with him: Resilience (2013) and Hellelujah (2016)."}</t>
+    <t>{'url': 'https://genius.com/artists/Lauren-bennett', 'annotations': {'description': '&lt;p&gt;Lauren Bennett (born June 23, 1989) is an English singer, dancer and model.&lt;br&gt;\nShe was a member of the girl groups Paradiso Girls and G.R.L.&lt;/p&gt;\n\n&lt;p&gt;Actually she runs a band called &lt;a href="https://genius.com/artists/Bennett" rel="noopener" data-api_path="/artists/1474216"&gt;&lt;em&gt;BENNETT&lt;/em&gt;&lt;/a&gt; along her brother Ryan Bennett.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Marshmello-and-anne-marie', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Marshmello" rel="noopener" data-api_path="/artists/582361"&gt;Marshmello&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/artists/Anne-marie" rel="noopener" data-api_path="/artists/296675"&gt;Anne-Marie&lt;/a&gt; is truly a dynamic duo with their collaboration  &lt;a href="https://genius.com/Marshmello-and-anne-marie-friends-lyrics" rel="noopener" data-api_path="/songs/3348299"&gt;“FRIENDS”&lt;/a&gt; landing a #4 spot on &lt;a href="https://spotifycharts.com/regional" rel="noopener nofollow"&gt;Spotify’s Global Top 50&lt;/a&gt; list. Marshmello is an American electronic dance music producer and DJ.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Spice-girls', 'annotations': {'description': '&lt;p&gt;Spice Girls are an all-girl group that dominated the international pop charts in the ‘90s. After they dropped their debut album &lt;a href="https://genius.com/albums/Spice-girls/Spice" rel="noopener" data-api_path="/albums/21802"&gt;&lt;em&gt;Spice&lt;/em&gt;&lt;/a&gt; in 1996, they became a global pop phenomenon, often compared to the Beatles. The group was made up of five members:&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Mel-b" rel="noopener" data-api_path="/artists/351972"&gt;Mel B&lt;/a&gt; – Scary Spice,&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Melanie-c" rel="noopener" data-api_path="/artists/8584"&gt;Mel C&lt;/a&gt; – Sporty Spice,&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Victoria-beckham" rel="noopener" data-api_path="/artists/51099"&gt;Victoria&lt;/a&gt; – Posh Spice,&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Emma-bunton" rel="noopener" data-api_path="/artists/8316"&gt;Emma&lt;/a&gt; – Baby Spice,&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Geri-halliwell" rel="noopener" data-api_path="/artists/364273"&gt;Geri&lt;/a&gt; – Ginger Spice.&lt;/p&gt;\n\n&lt;p&gt;The group formed in 1994 after Heart Management put an ad in &lt;em&gt;The Stage&lt;/em&gt; magazine that &lt;a href="http://www.rollingstone.com/music/news/spice-girls-too-hot-to-handle-19970710#ixzz4AYP3UkDc" rel="noopener nofollow"&gt;read&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;R.U. 18-23 with the ability to sing/dance. R.U. streetwise, outgoing, ambitious and dedicated?&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The entire group attended the audition after reading the ad, except Geri and Emma (Emma replaced a short-lived member – Michelle Stephenson – fired from the group, and Geri missed the first audition). The band released their first single &lt;a href="https://genius.com/Spice-girls-wannabe-lyrics" rel="noopener" data-api_path="/songs/89740"&gt;“Wannabe”&lt;/a&gt; in 1996 and they quickly became a global phenomenon.&lt;/p&gt;\n\n&lt;p&gt;The group disintegrated by the end of the decade after releasing their third and final album &lt;em&gt;Forever,&lt;/em&gt; which was received with lukewarm reviews. Though they have reunited for &lt;a href="http://www.thesun.co.uk/sol/homepage/showbiz/bizarre/6577927/Spice-Girls-reuniting-for-20th-anniversary-tour.html" rel="noopener nofollow"&gt;multiple tours&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Traveling-wilburys', 'annotations': {'description': '&lt;p&gt;The Traveling Wilburys were a supergroup formed by &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt;, &lt;a href="https://genius.com/artists/George-harrison" rel="noopener" data-api_path="/artists/33327"&gt;George Harrison&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jeff-lynne" rel="noopener" data-api_path="/artists/34990"&gt;Jeff Lynne&lt;/a&gt;, &lt;a href="https://genius.com/artists/Roy-orbison" rel="noopener" data-api_path="/artists/47372"&gt;Roy Orbison&lt;/a&gt; (who passed away between the first and second album), and Tom Petty. On the album, the members were credited as brothers in the fictional Wilbury family, though they changed their pseudonyms after their first album.&lt;/p&gt;\n\n&lt;p&gt;The name itself is an inside joke: When faced with minor recording errors during his 1987 &lt;em&gt;Cloud Nine&lt;/em&gt; sessions, Harrison would joke to co-writer/producer Lynne “we’ll bury ‘em in the mix”, soon referring to such problems as “will-bury’s”. The suggested band name “Trembling Wilburys” was changed at Lynne’s suggestion to “Traveling Wilburys”.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.cheatsheet.com/entertainment/george-harrison-named-traveling-wilburys-slang-term-used-recording-studio.html/?fbclid=IwAR1RQJqaJsnAS4NtpfkmUwg3jlisqwCpBo8w43mDRBf37UPjkTIu5JRyXcQ" rel="noopener nofollow"&gt;genesis of the band&lt;/a&gt; was Harrison’s record label asking him for an additional song to use as a bonus track on the European “This Is Love” single from &lt;em&gt;Cloud Nine&lt;/em&gt;. While Harrison and Lynne were having dinner with Orbison, he asked to join their recording session and watch. Harrison contacted Dylan to ask if they could use his home studio in Malibu, California. Then Harrison stopped by Petty’s house to get his guitar, and he joined the session as well. The outcome of that session was “Handle With Care” – a song &lt;a href="http://www.jefflynnesongs.com/popup.php?data=HandleWithCare198810_popupplus" rel="noopener nofollow"&gt;deemed&lt;/a&gt; “too good” to be used as an obscure b-side.&lt;/p&gt;\n\n&lt;p&gt;The group released two albums, Vol. 1 and Vol. 3. Vol. 1 netted them a Grammy award for the Best Rock Performance by a Duo or Group and two international hits with “Handle With Care” and “End Of Line” (though in the US, they were minor hits).&lt;/p&gt;\n\n&lt;p&gt;Documentary:&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/SUQ_gj-biIc?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Of-monsters-and-men', 'annotations': {'description': '&lt;p&gt;Of Monsters and Men is an Icelandic folk band from Keflavík, Iceland, formed in 2010. The band consists of lead singers and guitarists &lt;a href="https://genius.com/artists/Nanna-bryndis-hilmarsdottir" rel="noopener" data-api_path="/artists/102029"&gt;Nanna Bryndís Hilmarsdóttir&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ragnar-orhallsson" rel="noopener" data-api_path="/artists/393570"&gt;Ragnar “Raggi” Þórhallsson,&lt;/a&gt; guitarist &lt;a href="https://genius.com/artists/Brynjar-leifsson" rel="noopener" data-api_path="/artists/685038"&gt;Brynjar Leifsson&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Arnar-rosenkranz-hilmarsson" rel="noopener" data-api_path="/artists/393569"&gt;Arnar Rósenkranz Hilmarsson&lt;/a&gt; and bassist &lt;a href="https://genius.com/artists/Kristjan-pall-kristjansson" rel="noopener" data-api_path="/artists/1053642"&gt;Kristján Páll Kristjánsson&lt;/a&gt;. Their debut album, &lt;a href="https://genius.com/albums/Of-monsters-and-men/My-head-is-an-animal" rel="noopener" data-api_path="/albums/688607"&gt;&lt;em&gt;My Head Is An Animal&lt;/em&gt;&lt;/a&gt;, first released in 2011, and its lead single, &lt;a href="https://genius.com/Of-monsters-and-men-little-talks-lyrics" rel="noopener" data-api_path="/songs/68718"&gt;“Little Talks”&lt;/a&gt; were successful worldwide. In 2015, their sophomore album, &lt;a href="https://genius.com/albums/Of-monsters-and-men/Beneath-the-skin" rel="noopener" data-api_path="/albums/121632"&gt;&lt;em&gt;Beneath the Skin&lt;/em&gt;&lt;/a&gt; was released to generally positive reviews and is the band’s highest charting album, reaching #3 on Billboard’s Top 200.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Men-without-hats', 'annotations': {'description': '&lt;p&gt;Canadian new wave group from Montréal, Québec, formed in 1980 and initially active until 1993. They reformed in 2010.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Matthew-wilder', 'annotations': {'description': '&lt;p&gt;Matthew Wilder is an American musician, composer and record producer. In 1983, he had a Top 5 hit titled “&lt;a href="https://genius.com/Matthew-wilder-break-my-stride-lyrics" rel="noopener" data-api_path="/songs/2019574"&gt;Break My Stride&lt;/a&gt;”. He is also known for his film and production work, producing albums such as No Doubt’s &lt;em&gt;Tragic Kingdom&lt;/em&gt; and contributing to the music in Disney’s 1998 film &lt;em&gt;Mulan&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Vampire-weekend', 'annotations': {'description': '&lt;p&gt;Vampire Weekend is an American indie rock band known for their complex lyrics and unorthodox production. Consisting of &lt;a href="https://genius.com/artists/Ezra-koenig" rel="noopener" data-api_path="/artists/44145"&gt;Ezra Koenig&lt;/a&gt;, &lt;a href="https://genius.com/artists/Baio" rel="noopener" data-api_path="/artists/547647"&gt;Chris Baio&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Chris-tomson" rel="noopener" data-api_path="/artists/642694"&gt;Chris Tomson&lt;/a&gt;, they have released four albums: &lt;a href="https://genius.com/albums/Vampire-weekend/Vampire-weekend" rel="noopener" data-api_path="/albums/11626"&gt;&lt;em&gt;Vampire Weekend&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Vampire-weekend/Contra" rel="noopener" data-api_path="/albums/11705"&gt;&lt;em&gt;Contra&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Vampire-weekend/Modern-vampires-of-the-city" rel="noopener" data-api_path="/albums/30135"&gt;&lt;em&gt;Modern Vampires of the City&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/Vampire-weekend/Father-of-the-bride" rel="noopener" data-api_path="/albums/438579"&gt;&lt;em&gt;Father of the Bride&lt;/em&gt;&lt;/a&gt;, which was originally known under the working title &lt;em&gt;Mitsubishi Macchiato&lt;/em&gt;. The latter two debuted at number one on the &lt;em&gt;Billboard&lt;/em&gt; 200, making them the first previously unknown independently signed to do so.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Rostam" rel="noopener" data-api_path="/artists/491040"&gt;Rostam Batmanglij&lt;/a&gt; was a member (mainly working on production and synths throughout his time) until January 2016, when he left to pursue solo projects. However, he contributed to their fourth album, Father of the Bride, which released in the Spring of 2019.&lt;/p&gt;\n\n&lt;p&gt;The band got their name the summer before Koenig’s sophmore year of college. He wanted to make an East Coast version of the 80s vampire film &lt;a href="https://www.imdb.com/title/tt0093437/" rel="noopener nofollow"&gt;&lt;em&gt;The Lost Boys&lt;/em&gt;&lt;/a&gt; and titled his version &lt;em&gt;Vampire Weekend&lt;/em&gt;. They originally considered calling themselves Weekend, but there was another band with that name. It was probably in reference to the Godard film &lt;a href="https://www.imdb.com/title/tt0062480/" rel="noopener nofollow"&gt;&lt;em&gt;Week-End&lt;/em&gt;&lt;/a&gt;, which is about dissolute youth revolutionaries in the 1968 tumult in France. &lt;a href="http://www.wunderkammermag.com/music-reviews/vampire-weekend-contra" rel="noopener nofollow"&gt;They allude to the film both in the “Mansard Roof” and “Oxford Comma” videos.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;With the release of &lt;em&gt;Modern Vampires of the City&lt;/em&gt;, Vampire Weekend has likened their first three albums to a trilogy. Koenig &lt;a href="http://www.nytimes.com/2013/05/12/arts/music/vampire-weekends-evolution-in-modern-vampires-of-the-city.html?pagewanted=all" rel="noopener nofollow"&gt;told Jon Pareles of the &lt;em&gt;New York Times&lt;/em&gt;&lt;/a&gt; as much in May 2013:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It reminded me of &lt;em&gt;Brideshead Revisited&lt;/em&gt;. The naïve joyous school days in the beginning. Then the expansion of the world, travel, seeing other places, learning a little bit more about how people live. And then the end is a little bit of growing up, starting to think more seriously about your life and your faith. If people could look at our three albums as a bildungsroman, I’d be O.K. with that.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Flavorwire has compiled a map similar to our &lt;a href="http://www.genius.com/rapmap" rel="noopener" data-api_path="/users/956434"&gt;Rap Map&lt;/a&gt; of &lt;a href="http://flavorwire.com/390035/an-interactive-map-of-vampire-weekends-many-geographical-references" rel="noopener nofollow"&gt;every location mentioned in Vampire Weekend songs.&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Gin-blossoms', 'annotations': {'description': '&lt;p&gt;Gin Blossoms is an American rock band formed in 1987 in Tempe, Arizona. They rose to prominence following the 1992 release of their first major label album, New Miserable Experience, and the first single released from that album, “Hey Jealousy”. “Hey Jealousy” became a Top 25 hit and went gold, and New Miserable Experience eventually went quadruple platinum; four other charting singles were released from the album. The band’s follow-up album, Congratulations I’m Sorry (1996), went platinum and the single “As Long as It Matters” was nominated for a Grammy Award. Gin Blossoms broke up in 1997. Since reuniting in 2001, the band has released Major Lodge Victory in 2006, No Chocolate Cake in 2010, and Mixed Reality in 2018.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/50_Cent', 'artist_name': '50 Cent', 'wiki': 'http://en.wikipedia.org/wiki/50_Cent', 'birth_date': '06 July 1975', 'start_year': '1996', 'abstract': 'Curtis James Jackson III (born July 6, 1975), known professionally as 50 Cent, is an American rapper, actor, and entrepreneur. Known for his impact in the hip hop industry, he has been described as a "master of the nuanced art of lyrical brevity". Born in the South Jamaica neighborhood of Queens, Jackson began selling drugs at age 12 during the 1980s crack epidemic. He later began pursuing a musical career and in 2000 he produced Power of the Dollar for Columbia Records, but days before the planned release he was shot and the album was never released. In 2002, after 50 Cent released the compilation album Guess Who\'s Back?, he was discovered by Eminem and signed to Shady Records, under the aegis of Dr. Dre\'s Aftermath Entertainment and Interscope Records. With the aid of Eminem and Dr. Dre (who produced his first major-label album Get Rich or Die Tryin\'), 50 Cent became one of the world\'s best selling rappers and rose to prominence as de facto leader of East Coast hip hop group G-Unit. In 2003, he founded G-Unit Records, signing his G-Unit associates Young Buck, Lloyd Banks and Tony Yayo. 50 Cent had similar commercial and critical success with his second album, The Massacre, which was released in 2005. He underwent musical changes by his fifth album, Animal Ambition (2014), and is currently working on his sixth studio album. He executive-produced and starred in the television series Power (2014–2020) and is slated to produce its spin-offs. 50 Cent has sold over 30 million albums worldwide and won several awards, including a Grammy Award, thirteen Billboard Music Awards, six World Music Awards, three American Music Awards and four BET Awards. As an actor, Jackson appeared in the semi-autobiographical film Get Rich or Die Tryin\' (2005), the war film Home of the Brave (2006), and the crime thriller film Righteous Kill (2008). 50 Cent was ranked the sixth-best artist of the 2000s and the third-best rapper (behind Eminem and Nelly) by Billboard. Rolling Stone ranked Get Rich or Die Tryin\' and "In da Club" in its lists of the "100 Best Albums of the 2000s" and "100 Best Songs of the 2000s" at numbers 37 and 13, respectively.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Stone_Sour', 'artist_name': 'Stone Sour', 'wiki': 'http://en.wikipedia.org/wiki/Stone_Sour', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'start_year': '1992', 'end_year': '1997', 'abstract': 'Stone Sour is an American rock band formed in Des Moines, Iowa, in 1992. The band performed for five years before disbanding in 1997. They reunited in 2000 and since 2015, the group has consisted of Corey Taylor (lead vocals, guitar), Josh Rand (guitar), Christian Martucci (guitar), Johny Chow (bass) and Roy Mayorga (drums). Longtime members Joel Ekman (drums, percussion) and Shawn Economaki (bass guitar) left the band in 2006 and 2011, respectively. Former lead guitarist Jim Root left in 2014. To date, Stone Sour has released six studio albums: Stone Sour (2002); Come What(ever) May (2006); Audio Secrecy (2010); House of Gold &amp; Bones – Part 1 (2012); House of Gold &amp; Bones – Part 2 (2013) and Hydrograd (2017). They also released a digital live album, Live in Moscow, in 2007. Their album, Hydrograd was released in June 2017 and is their first album to feature guitarist Christian Martucci and bassist Johny Chow. Stone Sour earned the group two Grammy Award nominations, both for Best Metal Performance, for the singles "Get Inside", in 2003, and "Inhale", in 2004. From their album Come What(ever) May, the group received another Grammy Award nomination for Best Metal Performance for the single "30/30-150", in 2007. The band has sold 2.1 million albums in the United States as of April 2017.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Robert_Miles', 'artist_name': 'Robert Miles', 'wiki': 'http://en.wikipedia.org/wiki/Robert_Miles', 'hometown': 'http://dbpedia.org/resource/Friuli', 'birth_date': '03 November 1969', 'death_date': '09 May 2017', 'start_year': '1984', 'end_year': '2017', 'abstract': 'Roberto Concina (3 November 1969 – 9 May 2017), known professionally as Robert Miles, was an Italian record producer, composer, musician and DJ. His 1995 composition "Children" sold more than 5 million copies and topped the charts worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Simple_Plan', 'artist_name': 'Simple Plan', 'wiki': 'http://en.wikipedia.org/wiki/Simple_Plan', 'hometown': 'http://dbpedia.org/resource/Montreal', 'start_year': '1999', 'abstract': "Simple Plan is a Canadian rock band from Montreal, Quebec formed in 1999. The band's lineup consists of Pierre Bouvier (lead vocals and bass), Chuck Comeau (drums), Jeff Stinco (lead guitar), and Sébastien Lefebvre (rhythm guitar, backing vocals), with all four performing with the group since its inception. David Desrosiers (bass and backing vocals) joined the band in early 2000 and departed in July 2020 due to sexual misconduct accusations. The band has released five studio albums: No Pads, No Helmets...Just Balls (2002), Still Not Getting Any... (2004), Simple Plan (2008), Get Your Heart On! (2011), and Taking One for the Team (2016). The band has also released an EP titled Get Your Heart On – The Second Coming! (2013), in addition to two live albums: Live in Japan 2002 (2003) and MTV Hard Rock Live (2005). The band performed at the Vans Warped Tour every year from 1999 to 2005, and in 2011, 2013, 2015, and 2018. The band also performed at the 2010 Winter Olympics closing ceremony, along with The X Factor Australia. In December 2012, the band performed at Mood Indigo, the college festival of IIT Bombay in Mumbai, India. In 2004, the band participated in the movie New York Minute, starring the Olsen twins, Mary-Kate and Ashley. Simple Plan also performed O Canada at the 2016 NHL Winter Classic. They also performed the theme music for and were featured on an episode of What's New, Scooby-Doo?."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Gnarls_Barkley', 'artist_name': 'Gnarls Barkley', 'wiki': 'http://en.wikipedia.org/wiki/Gnarls_Barkley', 'hometown': 'http://dbpedia.org/resource/Atlanta', 'start_year': '2003', 'end_year': '2010', 'abstract': 'Gnarls Barkley is an American soul duo, composed of singer-songwriter CeeLo Green and producer Danger Mouse. They released their debut studio album, St. Elsewhere, in 2006. It contained their hit single "Crazy", which peaked at number two on the US Hot 100 and topped the UK Singles Chart. It was nominated at the 2007 Grammy Awards for Record of the Year, and was platinum certified for shipping over 1,000,000 records. St. Elsewhere also received a nomination for Album of the Year. The Odd Couple, their second studio album, was scheduled for release in April 2008, but due to a leak of the album over the internet, they decided to release it early. The album in its entirety received good reviews, but it did not have as much commercial success as their first album.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Fine_Young_Cannibals', 'artist_name': 'Fine Young Cannibals', 'wiki': 'http://en.wikipedia.org/wiki/Fine_Young_Cannibals', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'start_year': '1984', 'end_year': '1992', 'abstract': 'Fine Young Cannibals (FYC) were a British pop rock band formed in Birmingham, England, in 1984, by bassist David Steele, guitarist Andy Cox (both formerly of The Beat), and singer Roland Gift (formerly of the Akrylykz). Their self-titled 1985 debut album contained "Johnny Come Home" and a cover of "Suspicious Minds", two songs that were top 40 hits in the UK, Canada, Australia and many European countries. Their 1989 album, The Raw &amp; the Cooked, topped the UK and US album charts, and contained their two Billboard Hot 100 number ones: "She Drives Me Crazy" and "Good Thing". In 1990, the band won two Brit Awards: Best British Group, and Best British Album (for The Raw &amp; the Cooked). Their name came from the 1960 film All the Fine Young Cannibals starring Robert Wagner and Natalie Wood.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Justin_Timberlake', 'artist_name': 'Justin Timberlake', 'wiki': 'http://en.wikipedia.org/wiki/Justin_Timberlake', 'birth_date': '31 January 1981', 'start_year': '1992', 'abstract': 'Justin Randall Timberlake (born January 31, 1981) is an American singer, songwriter, record producer and actor. He is one of the world\'s best-selling music artists, with sales of over 88 million records worldwide. Timberlake is the recipient of numerous awards and accolades, including ten Grammy Awards, four Primetime Emmy Awards, three Brit Awards, nine Billboard Music Awards, the Contemporary Icon Award by the Songwriters Hall of Fame, and the Michael Jackson Video Vanguard Award. According to Billboard, he is the best performing male soloist in the history of the Mainstream Top 40. Born and raised in Tennessee, he appeared on the television shows Star Search and The All-New Mickey Mouse Club as a child. In the late 1990s, Timberlake rose to prominence as one of the two lead vocalists and youngest member of NSYNC, which eventually became one of the best-selling boy bands of all time. Timberlake won two Grammy Awards for his R&amp;B-focused debut solo album Justified (2002) and its single "Cry Me a River". Another single from the album, "Rock Your Body", was also successful. His critically acclaimed second album FutureSex/LoveSounds (2006), characterized by its diversity in music genres, debuted atop the U.S. Billboard 200 and spawned the Hot 100 consecutive number-one singles with "SexyBack" (featuring Timbaland), "My Love" (featuring T.I.), and "What Goes Around... Comes Around". Established as a solo artist worldwide, his first two albums both exceeded sales of 10 million copies, as he continued producing records and collaborating with other artists. From 2008 through 2012, Timberlake focused on his acting career, effectively putting his music career on hiatus. He held starring roles in the films The Social Network, Bad Teacher, Friends with Benefits, and In Time. Timberlake resumed his music career in 2013 with his third and fourth albums The 20/20 Experience and The 20/20 Experience – 2 of 2, exploring neo soul styles, partly inspired by the expansive song structures of 1960s and 1970s rock. The former became the best-selling album of the year and spawned the top three singles "Suit &amp; Tie" (featuring Jay-Z) and "Mirrors". Timberlake voiced Branch in DreamWorks Animation\'s Trolls (2016), whose soundtrack includes his fifth Billboard Hot 100 chart-topping single, "Can\'t Stop the Feeling!", which earned him a Academy Award nomination. His fifth studio album Man of the Woods (2018) became his fourth number-one album in the US. Supported by the two top ten singles, "Filthy" and "Say Something" (featuring Chris Stapleton), it concluded 2018 as the sixth best-selling album of the year.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Orchestral_Manoeuvres_in_the_Dark', 'artist_name': 'Orchestral Manoeuvres in the Dark', 'wiki': 'http://en.wikipedia.org/wiki/Orchestral_Manoeuvres_in_the_Dark', 'hometown': 'http://dbpedia.org/resource/Merseyside', 'start_year': '1978', 'end_year': '1996', 'abstract': 'Orchestral Manoeuvres in the Dark (OMD) are an English electronic band formed in Wirral, Merseyside, in 1978. The group consists of co-founders Andy McCluskey (vocals, bass guitar) and Paul Humphreys (keyboards, vocals), along with Martin Cooper (various instruments) and Stuart Kershaw (drums); McCluskey has been the only constant member. Regarded as pioneers of electronic music, OMD combined an experimental, minimalist ethos with pop sensibilities, becoming central figures in the late-1970s/early-1980s emergence of synth-pop. McCluskey and Humphreys led precursor group the Id from 1977–1978, and re-recorded their track "Electricity" as OMD\'s debut single in 1979. Weathering an "uncool" image and a degree of hostility from music critics, the band gained popularity throughout Europe with the 1980 anti-war song "Enola Gay", and achieved broader recognition via Architecture &amp; Morality (1981) and its three hit singles. Although later reappraised, Dazzle Ships (1983) was seen as overly challenging, and eroded European support. The group embraced a more radio-friendly sound on Junk Culture (1984); this change in direction led to greater success in the United States, and yielded the 1986 hit, "If You Leave". In 1989, creative differences saw Humphreys and other members form the spin-off band the Listening Pool, leaving McCluskey the only remaining member of OMD. The group returned with a new line-up and explored the dance-pop genre: Sugar Tax (1991) and its initial singles were hits in Europe. By the mid-1990s, however, electronic music had been supplanted by alternative rock, and both OMD and the Listening Pool disbanded in 1996. McCluskey later conceived pop girl group Atomic Kitten, for whom he served as a principal songwriter, while Humphreys formed the duo Onetwo alongside Propaganda vocalist Claudia Brücken. In 2006, the band reformed with Humphreys and McCluskey working on material closer in sound to their early output; The Punishment of Luxury (2017) was the group\'s seventh top 10 entry on the UK Albums Chart. They have also achieved 12 top 20 hits on the UK Singles Chart, as well as three top 20 hits on the US Billboard Hot 100. An influence on many later artists, OMD have sold over 40 million records worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Camouflage_(band)', 'artist_name': 'Camouflage', 'wiki': 'http://en.wikipedia.org/wiki/Camouflage_(band)', 'hometown': 'http://dbpedia.org/resource/Bietigheim-Bissingen', 'start_year': '1983', 'abstract': 'Camouflage is a German synth-pop trio consisting of lead singer (b. May 2, 1966), Heiko Maile and . Their only Billboard Hot 100 hit was "The Great Commandment", which reached No. 59 in 1988, and spent three weeks at No. 1 on the Dance Club Songs chart. They also had two additional minor dance hits in 1989.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Desireless', 'artist_name': 'Desireless', 'wiki': 'http://en.wikipedia.org/wiki/Desireless', 'birth_date': '25 December 1952', 'start_year': '1986', 'end_year': '1986', 'abstract': 'Claudie Fritsch-Mentrop (born 25 December 1952), known by her stage name Desireless (French pronunciation: \u200b[deziʁlɛs]), is a French singer. Between 1986 and 1988, her hit single "Voyage, voyage" made it to number one on many European and Asian single charts. According to her official website, Desireless still releases new albums and performs live, and she released a new album with Operation of the Sun (Antoine Aureche) accompanied by a worldwide tour from 2012 onward.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Big_Ali', 'artist_name': 'Big Ali', 'wiki': 'http://en.wikipedia.org/wiki/Big_Ali', 'birth_date': '25 February 1978', 'start_year': '2001', 'abstract': 'Ali Fitzgerald Moore (born February 25, 1978), better known by his stage name Big Ali and formerly Breakingz and Grimer, is an American hip hop recording artist, DJ and composer born in Queens, New York. He has been based in Paris, France, since 2001. He is signed to Up Music, a Warner Music label.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kanye_West', 'artist_name': 'Kanye West', 'wiki': 'http://en.wikipedia.org/wiki/Kanye_West', 'birth_date': '08 June 1977', 'start_year': '1996', 'abstract': 'Ye (/jeɪ/ YAY; born Kanye Omari West, June 8, 1977), commonly known by his birth name, is an American rapper, record producer, and fashion designer. Born in Atlanta and raised in Chicago, West gained recognition as a producer for Roc-A-Fella Records in the early 2000s, producing singles for several artists and developing the "chipmunk soul" sampling style. Intent on pursuing a solo career as a rapper, West released his debut album, The College Dropout (2004), to critical and commercial success, and founded the record label GOOD Music. West explored diverse musical elements such as orchestral arrangements, synthesizers, and autotune on the acclaimed albums Late Registration (2005), Graduation (2007), and 808s &amp; Heartbreak (2008). Drawing inspiration from maximalism and minimalism respectively, his fifth album My Beautiful Dark Twisted Fantasy (2010) and sixth album Yeezus (2013) were also released to critical and commercial successes. West also diversified musical styles on The Life of Pablo (2016) and Ye (2018), and explored Christian and gospel music on Jesus Is King (2019). After a series of delays, West\'s highly anticipated tenth album, Donda, was released in 2021. West\'s discography also includes the full-length collaborative albums Watch the Throne (2011) with Jay-Z and Kids See Ghosts (2018) with Kid Cudi. West\'s outspoken views and life outside of music have received significant media coverage. He has been a frequent source of controversy for his conduct at award shows, on social media, and in other public settings—his comments on the music and fashion industries, U.S. politics, race, and slavery have been generally polarized. His Christian faith and marriage to Kim Kardashian have also been sources of media attention. West is frequently lauded as one of hip hop\'s greatest artists, with his music also being recognized among the world\'s highest-selling and most acclaimed. As a fashion designer, he has collaborated with Nike, Louis Vuitton, The Gap, and A.P.C. on clothing and footwear, and leads the Yeezy collaboration with Adidas. In 2020, he launched an unsuccessful independent presidential campaign that primarily advocated for a consistent life ethic. He is the founder and head of the creative content company DONDA. One of the world\'s best-selling music artists, with over 160 million records sold, West has won 22 Grammy Awards, the joint tenth-most of all time. Among his other awards are the Billboard Artist Achievement Award, a joint-record three Brit Awards for Best International Male Solo Artist and the Michael Jackson Video Vanguard Award. Six of his albums were included on Rolling Stone\'s 2020 500 Greatest Albums of All Time list; the same publication named him one of the 100 Greatest Songwriters of All Time. West holds the joint record (with Bob Dylan) for most albums (4) topping the annual Pazz &amp; Jop critic poll, and has the 5th most appearances on the Billboard Hot 100 (133 entries). Time magazine named him one of the 100 most influential people in the world in 2005 and 2015. A billionaire, Forbes estimates his net worth at $1.8 billion as of 2021.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sugar_Ray', 'artist_name': 'Sugar Ray', 'wiki': 'http://en.wikipedia.org/wiki/Sugar_Ray', 'hometown': 'http://dbpedia.org/resource/Newport_Beach,_California', 'start_year': '1986', 'abstract': 'Sugar Ray is an American rock band formed in Newport Beach, California, in 1986. Originally playing heavier nu metal style music, the band achieved mainstream popularity in 1997 with their more pop-influenced single "Fly". The song\'s success led the band to shift its style dramatically to the more radio-friendly pop sound with their subsequent releases. Their best-selling album, 14:59, was released in 1999, and featured popular singles "Every Morning", "Someday", followed by a self-titled album in 2001 featuring the single "When It\'s Over". The band would release two further albums, In the Pursuit of Leisure (2003) and Music for Cougars (2009), though the albums and respective singles generally sold far less. The band continued to tour into the 2010s. In 2019, ten years after the band\'s last album, they announced their seventh studio album, Little Yachty, in June 2019. The lead single, "Make It Easy", was released the same month.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/NewDad', 'artist_name': 'NewDad', 'wiki': 'http://en.wikipedia.org/wiki/NewDad', 'hometown': 'http://dbpedia.org/resource/Republic_of_Ireland', 'start_year': '2020', 'abstract': 'NewDad are an Irish Indie rock band from Galway, Ireland. Their music has been compared to The Cure, Beabadoobee, and Just Mustard by NME magazine. Atwood Magazine wrote of the group: "The band oozes personality with cynical but honest lyrics, colorful visual components, and poignant messages about coping with the, albeit painful, formative experiences." The group have appeared at the Green Man Festival in Wales, The Pitchfork Music Festival in Paris, and on the Irish televesion program Other Voices.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jamiroquai', 'artist_name': 'Jamiroquai', 'wiki': 'http://en.wikipedia.org/wiki/Jamiroquai', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1992', 'abstract': 'Jamiroquai (/dʒəˈmɪrəkwaɪ/) are an English funk and acid jazz band from London. Formed in 1992, they are fronted by vocalist Jay Kay, and were prominent in the London-based funk and acid jazz movement of the 1990s. They built on their acid jazz sound in their early releases and later drew from rock, disco, electronic and Latin music genres. Lyrically, the group have addressed social and environmental justice. Kay has remained as the only original member through several line-up changes. The band made their debut under Acid Jazz Records, but they subsequently found mainstream success under Sony. While under this label, three of their albums have charted at number one in the UK, including Emergency on Planet Earth (1993), Synkronized (1999) and A Funk Odyssey (2001). The band\'s 1998 single, "Deeper Underground", was also number one in their native country. Jamiroquai has sold more than 26 million albums worldwide as of 2017. Their third album, Travelling Without Moving (1996), received a Guinness World Record for the best-selling funk album in history. The music video for its lead single, "Virtual Insanity", also contributed to the band\'s success. The song was named Video of the Year at the 1997 MTV Video Music Awards and earned the band a Grammy Award in 1998.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Supertramp', 'artist_name': 'Supertramp', 'wiki': 'http://en.wikipedia.org/wiki/Supertramp', 'hometown': 'http://dbpedia.org/resource/England', 'start_year': '2015', 'end_year': '2015', 'abstract': 'Supertramp were an English rock band formed in London, England in mid 1969. Marked by the individual songwriting of founders Roger Hodgson (vocals, keyboards, and guitars) and Rick Davies (vocals and keyboards), they are distinguished for blending progressive rock and pop styles as well as for a sound that relied heavily on Wurlitzer electric piano. The group\'s line-up changed numerous times throughout their career, with Davies being the only consistent member throughout the decades. Other longtime members included bassist Dougie Thomson, drummer Bob Siebenberg, and saxophonist John Helliwell. The band were initially a prog-rock group, but starting with their third album, Crime of the Century (1974), they began moving towards a more pop-oriented sound. They reached their commercial peak with 1979\'s Breakfast in America, which yielded the international top 10 singles "The Logical Song", "Breakfast in America", "Goodbye Stranger", and "Take the Long Way Home". Their other top 40 hits included "Dreamer" (1974), "Give a Little Bit", (1977) and "It\'s Raining Again" (1982). In 1983, Hodgson left the group to pursue a solo career. Davies took over as the band\'s sole leader until 1988, after which they disbanded and periodically reformed in various configurations. As of 2007, Supertramp album sales exceeded 60 million. They attained significant popularity in North America, Europe, South Africa, and Australia. Their highest sales levels were in Canada, where they had two diamond-certified (ten-times platinum) albums (Crime of the Century and Breakfast in America), and their only number 1 singles anywhere ("The Logical Song" and "Dreamer").'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Ace_of_Base', 'artist_name': 'Ace of Base', 'wiki': 'http://en.wikipedia.org/wiki/Ace_of_Base', 'hometown': 'http://dbpedia.org/resource/Gothenburg', 'start_year': '1987', 'abstract': 'Ace of Base is a Swedish pop group, formed in 1990, originally consisting of siblings Jonas, Linn and Jenny Berggren, with Ulf Ekberg. They achieved worldwide success following the release of their debut album Happy Nation in 1992. Later re-issued as The Sign, it was certified nine times platinum in the United States, and was the best-selling album of 1994. One of the most successful debut albums of all time, it was the first to produce three No. 1 singles on the Billboard Mainstream Top 40 chart: "All That She Wants", "The Sign" and "Don\'t Turn Around". They continued to score hit singles throughout the 1990s, with songs such as "Beautiful Life", "Lucky Love", "Cruel Summer" and "Life Is a Flower". By 2002, they had sold a total of 30 million copies of their first four studio albums, making them the third most successful Swedish group of all time, behind ABBA and Roxette. Despite being largely inactive since 2012, the group has never officially disbanded. In the last decade, they have released a number of demo tracks; first via their Facebook page, then in 2015 on the compilation album Hidden Gems. An expanded two-disc edition was included in the 2020 boxset All That She Wants: The Classic Collection. Jenny Berggren continues to perform the group\'s hits in solo concerts around the world.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jennifer_Paige', 'artist_name': 'Jennifer Paige', 'wiki': 'http://en.wikipedia.org/wiki/Jennifer_Paige', 'birth_date': '03 September 1973', 'start_year': '1995', 'abstract': 'Jennifer Paige (née Scoggins; born September 3, 1973) is an American singer best known for the 1998 pop hit "Crush".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/James_Blunt', 'artist_name': 'James Blunt', 'wiki': 'http://en.wikipedia.org/wiki/James_Blunt', 'birth_date': '22 February 1974', 'start_year': '2003', 'abstract': 'James Hillier Blount (born 22 February 1974), better known as James Blunt, is an English singer, songwriter, multi-instrumentalist, and record producer. A former reconnaissance officer in the Life Guards regiment of the British Army, he served under NATO during the 1999 Kosovo War. After leaving the military, he rose to fame in 2004 with the release of his debut album Back to Bedlam, achieving worldwide fame with the singles "You\'re Beautiful" and "Goodbye My Lover". Blunt\'s first album has sold over 11 million copies worldwide, topping the UK Albums Chart and peaking at number two in the US. "You\'re Beautiful" was number one in the UK, the US and a dozen other countries. Back to Bedlam was the best-selling album of the 2000s in the UK, and is one of the best-selling albums in UK chart history. Blunt has since sold over 20 million records worldwide. He has received several awards, including two Brit Awards—winning Best British Male in 2006—two MTV Video Music Awards, and two Ivor Novello Awards, as well as receiving five Grammy Award nominations and an Honorary Doctorate for Music in 2016 by the University of Bristol.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Indochine_(band)', 'artist_name': 'Indochine', 'wiki': 'http://en.wikipedia.org/wiki/Indochine_(band)', 'hometown': 'http://dbpedia.org/resource/Paris', 'start_year': '1981', 'abstract': 'Indochine (French pronunciation: \u200b[ɛ̃dɔʃin]) is a French pop rock and new wave band formed in Paris in 1981. They became very successful in the Francophonie, Europe and Latin America in the 1980s, with songs like "L\'Aventurier" and "Canary Bay". Following the release of several critically acclaimed, but commercially unsuccessful, albums in the 1990s, the group returned to stardom with the release of Paradize in 2002. The band has sold over 13 million albums and singles, making them the best selling French band.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Boney_M.', 'artist_name': 'Boney M.', 'wiki': 'http://en.wikipedia.org/wiki/Boney_M.', 'hometown': 'http://dbpedia.org/resource/West_Germany', 'start_year': '1974', 'end_year': '1986', 'abstract': 'Boney M. was a Euro-Caribbean vocal group created by German record producer Frank Farian, who was the group\'s primary songwriter. Originally based in West Germany, the four original members of the group\'s official line-up were Liz Mitchell and Marcia Barrett from Jamaica, Maizie Williams from Montserrat and Bobby Farrell, a performing artist from Aruba. The group was formed in 1976 and achieved popularity during the disco era of the late 1970s. Since the 1980s, various line-ups of the band have performed with different personnel. The band has sold around 80 million records worldwide and is known for international hits including "Daddy Cool", "Ma Baker", "Belfast", "Sunny", "Rasputin", "Mary\'s Boy Child – Oh My Lord" and "Rivers of Babylon".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Tiësto', 'artist_name': 'Tiësto', 'wiki': 'http://en.wikipedia.org/wiki/Tiësto', 'birth_date': '17 January 1969', 'start_year': '1994', 'abstract': 'Tijs Michiel Verwest OON (Dutch pronunciation: [ˈtɛis miˈxil vərˈʋɛst]; born 17 January 1969), known professionally as Tiësto (/tiˈɛstoʊ/ tee-ES-toh, Dutch: [ˈcɛstoː]), is a Dutch DJ and record producer from Breda, North Brabant. He was voted "the Greatest DJ of All Time" by Mix magazine in a 2010/2011 poll amongst fans. In 2013, he was voted by DJ Mag readers as the "best DJ of the last 20 years". He is also regarded as the "Godfather of EDM" by many sources. In 1997, he founded the label Black Hole Recordings with Arny Bink, where he released the Magik and In Search of Sunrise CD series. Tiësto met producer Dennis Waakop Reijers in 1998; the two have worked together extensively since then. From 1998 to 2000, Tiësto collaborated with Ferry Corsten under the name Gouryella. His 2000 remix of Delerium\'s "Silence" featuring Sarah McLachlan exposed him to more mainstream audiences. In 2001, he released his first solo album, In My Memory, which gave him several major hits that launched his career. He was voted World No. 1 DJ by DJ Magazine in its annual Top 100 DJs readership poll consecutively for three years from 2002 to 2004. Just after releasing his second studio album Just Be he performed live at the 2004 Summer Olympics opening ceremony in Athens, the first DJ to play live on stage at an Olympics. In April 2007 Tiësto launched his radio show Tiësto\'s Club Life on Radio 538 in the Netherlands and released his third studio album Elements of Life. The album reached number one on the Belgian album chart as well on Billboard Top Electronic Albums in the U.S. and received a nomination for a Grammy Award in 2008. Tiësto released his fourth studio album Kaleidoscope in October 2009, followed by A Town Called Paradise in June 2014. He won the Grammy Award for Best Remixed Recording, Non-Classical for his remixed version of John Legend\'s hit "All of Me" at the 57th Annual Grammy Awards.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Linkin_Park', 'abstract': 'Linkin Park is an American rock band from Agoura Hills, California. The band\'s current lineup comprises vocalist/rhythm guitarist/keyboardist Mike Shinoda, lead guitarist Brad Delson, bassist Dave Farrell, DJ/turntablist Joe Hahn and drummer Rob Bourdon, all of whom are founding members. Vocalists Mark Wakefield and Chester Bennington are former members of the band. Categorized as alternative rock, Linkin Park\'s earlier music spanned a fusion of heavy metal and hip hop, while their later music features more electronica and pop elements. Formed in 1996, Linkin Park rose to international fame with their debut studio album, Hybrid Theory (2000), which became certified Diamond by the Recording Industry Association of America (RIAA). Released during the peak of the nu metal scene, the album\'s singles\' heavy airplay on MTV led the singles "One Step Closer", "Crawling" and "In the End" all to chart highly on the Mainstream Rock chart; the latter crossed over to the pop chart. Their second album, Meteora (2003), continued the band\'s success. The band explored experimental sounds on their third album, Minutes to Midnight (2007). By the end of the decade, Linkin Park was among the most successful and popular rock acts. The band continued to explore a wider variation of musical types on their fourth album, A Thousand Suns (2010), layering their music with more electronic sounds. The band\'s fifth album, Living Things (2012), combined musical elements from all of their previous records. Their sixth album, The Hunting Party (2014), returned to a heavier rock sound, and their seventh album, One More Light (2017), was their first pop-oriented record. Linkin Park went on a hiatus when longtime lead vocalist Bennington died by suicide in July 2017. In April 2020, bassist Dave Farrell revealed the band was working on new music. Linkin Park is among the best-selling bands of the 21st century and the world\'s best-selling music artists, having sold over 100 million records worldwide. They have won two Grammy Awards, six American Music Awards, two Billboard Music Awards, four MTV Video Music Awards, 10 MTV Europe Music Awards and three World Music Awards. In 2003, MTV2 named Linkin Park the sixth-greatest band of the music video era and the third-best of the new millennium. Billboard ranked Linkin Park No. 19 on the Best Artists of the Decade list. In 2012, the band was voted as the greatest artist of the 2000s in a Bracket Madness poll on VH1. In 2014, the band was declared as "The Biggest Rock Band in the World Right Now" by Kerrang!.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kasabian', 'artist_name': 'Kasabian', 'wiki': 'http://en.wikipedia.org/wiki/Kasabian', 'hometown': 'http://dbpedia.org/resource/Leicester', 'start_year': '1997', 'abstract': 'Kasabian (/kəˈseɪbiən/ kə-SAY-bee-ən) are an English rock band formed in Leicester in 1997 by Tom Meighan, Sergio Pizzorno, Chris Karloff, and Chris Edwards. Drummer Ian Matthews joined in 2004. Karloff left the band in 2006 and founded a new band called Black Onassis. Jay Mehler joined as touring lead guitarist in 2006, leaving for Liam Gallagher\'s Beady Eye in 2013, to be replaced by Tim Carter. Meighan left the band in July 2020. In 2010 and 2014, Kasabian won the Q Awards for "Best Act in the World Today", while they were also named "Best Live Act" at the 2014 Q Awards and the 2007 and 2018 NME Awards. The band\'s music is often described as "indie rock", but Pizzorno has said he "hates indie bands" and does not feel Kasabian fit into that category. Kasabian have released six studio albums – Kasabian (2004), Empire (2006), West Ryder Pauper Lunatic Asylum (2009), Velociraptor! (2011), 48:13 (2014), and For Crying Out Loud (2017). The band\'s music has been described as a mix between The Stone Roses and Primal Scream with the swagger of Oasis. Their music has won them several awards and recognition in the media, including a Brit Award in 2010 for Best British Group, and their live performances have received praise, the most notable of which was their appearance as headliners at the 2014 Glastonbury Festival.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Eddie_Rabbitt', 'artist_name': 'Eddie Rabbitt', 'wiki': 'http://en.wikipedia.org/wiki/Eddie_Rabbitt', 'birth_date': '27 November 1941', 'death_date': '07 May 1998', 'start_year': '1964', 'end_year': '1998', 'abstract': 'Edward Thomas Rabbitt (November 27, 1941 – May 7, 1998) was an American country music singer and songwriter. His career began as a songwriter in the late 1960s, springboarding to a recording career after composing hits such as "Kentucky Rain" for Elvis Presley in 1970 and "Pure Love" for Ronnie Milsap in 1974. Later in the 1970s, Rabbitt helped to develop the crossover-influenced sound of country music prevalent in the 1980s with such hits as "Suspicions", "I Love a Rainy Night" (a number-one hit single on the Billboard Hot 100), and "Every Which Way but Loose" (the theme from the film of the same title). His duets "Both to Each Other (Friends and Lovers)" with Juice Newton and "You and I" with Crystal Gayle later appeared on the soap operas Days of Our Lives and All My Children.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Chainsmokers', 'artist_name': 'The Chainsmokers', 'wiki': 'http://en.wikipedia.org/wiki/The_Chainsmokers', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2012', 'abstract': 'The Chainsmokers is an American electronic DJ and production duo consisting of Alexander "Alex" Pall and Andrew "Drew" Taggart. They started out by releasing remixes of songs by indie artists. The EDM-pop duo achieved a breakthrough with their 2014 song "#Selfie", which became a top twenty single in several countries. They have won a Grammy award, two American Music Awards, seven Billboard Music Awards and nine iHeartRadio Music Awards. According to Forbes 2019 list of highest paid celebrities, the Chainsmokers were the highest paid DJs, dethroning Calvin Harris after six years. Their debut EP, Bouquet, was released in October 2015 and featured the single "Roses" which reached the top 10 on the US Billboard Hot 100. "Don\'t Let Me Down", featuring American singer Daya, became their first top-five single on the Billboard chart and won the Grammy Award for Best Dance Recording at the 59th awards ceremony. Their single "Closer", featuring American singer-songwriter Halsey, became their first number-one single on the Billboard chart. The duo\'s second EP, Collage, was released in November 2016. Their debut studio album, Memories...Do Not Open, was released in April 2017 and topped the US Billboard 200 chart. Their second album, Sick Boy, was released in December 2018. Their third studio album, World War Joy was released in December 2019.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Hard_(band)', 'artist_name': 'Hard', 'wiki': 'http://en.wikipedia.org/wiki/Hard_(band)', 'hometown': 'http://dbpedia.org/resource/Hungary', 'start_year': '2004', 'abstract': 'Hard is a Hungarian hard rock supergroup formed in late 2004 in Budapest, Hungary by József Kalapács (ex-vocalist of Pokolgép and Omen, currently also singing in Kalapács) and Gábor Mirkovics (ex-bass guitarist of Edda Művek). The rest of the band consisted of guitarist Zsolt Csillik (ex-Dance, Jack Daniels and Fix), keyboardist Dénes Makovics (also known for playing saxophone in Bikini) and drummer Zoltán Váry (ex-Sing Sing, ex-Zero-G, guitars–vocals for the Hungarian KISS tribute band KISS Forever Band). In 2005, Ferenc Béres arrived to fill in the position of Dénes Makovics, who was a session member for the studio recording of the first release, “Égni kell”. He played in EDDA Művek and Fix beforehand. In 2007, Váry left because of the German success of KISS Forever Band (he couldn\'t concentrate on Hard enough), so Donászy arrived, who also played in e.g. Beatrice. In 2007 Hard reformed for an international introduction with singer . The album Traveler was released in 2008. The material has since been remixed by the producer Beau Hill in 2008. In 2009, Swedish vocalist and guitarist Björn Lodin was confirmed as the new singer for Hard. Björn is known for his work with Swedish rockers Baltimoore. Platinum-selling Hungarian guitar virtuoso Endre Csillag has also joined the ranks along with drummer Balázs Hornyák. The band start recording their new CD together in the Autumn with Björn Lodin also handling the production duties. The new, as yet untitled album, is scheduled for release on BLP Music, March 2010. "Love Goes With Anything" is the debut single from the new line-up and was released in November 2009.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/La_Bouche', 'artist_name': 'La Bouche', 'wiki': 'http://en.wikipedia.org/wiki/La_Bouche', 'hometown': 'http://dbpedia.org/resource/Frankfurt', 'start_year': '1994', 'end_year': '2002', 'abstract': 'La Bouche (French for "The Mouth", pronounced [la buʃ]) is a German electronic dance music duo best known for the hits "Be My Lover", "Sweet Dreams", "You Won\'t Forget Me" and "Tonight is the Night". La Bouche was founded in 1994 by record producer Frank Farian in Frankfurt am Main. He worked together with techno DJ Ulli Brenner and producer Amir Saraf to produce the music, while American singer Melanie Thornton and American rapper-singer Lane McCray fronted the act. Thornton and McCray had already worked together in music, prior to La Bouche\'s creation. Thornton departed La Bouche in 2000, continuing her career as a solo singer. On November 24, 2001, Melanie Thornton died in the Crossair Flight 3597 crash in Zürich, Switzerland. As a tribute to the singer, Farian released "In Your Life", a previously unreleased song featuring vocals recorded earlier with Thornton and McCray. Farian later decided to release a compilation album in 2002 featuring remixes of Thornton\'s biggest La Bouche hits. McCray continues to tour the world as La Bouche, keeping the brand alive. In 2015, McCray pulled Hungarian-born singer Sophie Cairo out of obscurity to be the new official singer of the act. A new official remix titled "Sweet Dreams 2017" was released featuring vocals from McCray and Cairo.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/AronChupa', 'artist_name': 'AronChupa', 'wiki': 'http://en.wikipedia.org/wiki/AronChupa', 'birth_date': '30 March 1991', 'start_year': '2012', 'abstract': 'Aron Michael Ekberg (born 30 March 1991), better known by his stage name AronChupa, is a Swedish singer, record producer, songwriter, artist and DJ. His 2014 song "I\'m an Albatraoz" reached number 1 on the Swedish Singles Chart and in Denmark, and top 10 in many charts across Europe. It also reached number 25 in the UK and number 10 in the US dance charts. His younger sister, Nora Ekberg, better known professionally as Little Sis Nora, provided the vocals for the track and starred in the music video, but never appeared as featured artist on the track. The music video has surpassed 1.2 billion views on YouTube.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Charli_XCX', 'artist_name': 'Charli XCX', 'wiki': 'http://en.wikipedia.org/wiki/Charli_XCX', 'birth_date': '02 August 1992', 'start_year': '2007', 'abstract': 'Charlotte Emma Aitchison (born 2 August 1992), known professionally as Charli XCX, is an English singer and songwriter. Born in Cambridge and raised in Start Hill, Essex, she began posting songs on Myspace in 2008, which led to her discovery by a promoter who invited her to perform at warehouse raves. In 2010, she signed a recording contract with Asylum Records, releasing a series of singles and mixtapes throughout 2011 and 2012. In 2012, Charli XCX rose to prominence with the Icona Pop collaboration "I Love It", which became an international success, reaching top 10 in North America and Europe. Her debut studio album, True Romance (2013), was released that year to critical acclaim but failed to meet commercial expectations. In 2014, she contributed the hook and bridge to "Fancy" by rapper Iggy Azalea, which finished the year as one of the best-selling singles worldwide and was nominated for two Grammy Awards. The same year, Charli XCX released "Boom Clap", which became her first solo top-ten single on the Billboard Hot 100. Her second studio album, the punk-influenced Sucker, was released at the end of the year, and spawned the successful singles "Break the Rules" and "Doing It". In 2015, Charli XCX began working alongside producers associated with the UK collective PC Music, developing a more experimental sound and image. While working on her third album, she released the Vroom Vroom EP (2016) and the mixtapes Number 1 Angel and Pop 2 (both 2017), as well as a series of singles including the BPI-certified "After the Afterparty", "Boys", and "1999". Her third and fourth studio albums, Charli (2019) and How I\'m Feeling Now (2020), received widespread acclaim; the latter was created within a span of six weeks during the COVID-19 lockdowns. In 2021, Charli XCX co-wrote and provided vocals on the Jax Jones and Joel Corry single "Out Out". The singer\'s fifth album, Crash, is scheduled for release in March 2022. In addition to her solo work, Charli XCX has co-written songs for other artists, including Iggy Azalea\'s "Beg for It" (2014), Selena Gomez\'s "Same Old Love" (2015), Blondie\'s "Tonight" (2017), and the Shawn Mendes and Camila Cabello collaboration "Señorita" (2019).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Soul_Asylum', 'artist_name': 'Soul Asylum', 'wiki': 'http://en.wikipedia.org/wiki/Soul_Asylum', 'hometown': 'http://dbpedia.org/resource/Minneapolis', 'start_year': '1981', 'abstract': 'Soul Asylum is an American alternative rock band formed in 1981 in Minneapolis, Minnesota. Their 1993 hit "Runaway Train" won the Grammy Award for Best Rock Song. The band was originally called Loud Fast Rules, with a lineup consisting of Dave Pirner, Dan Murphy, Karl Mueller, and Pat Morley. They changed their name to Soul Asylum in 1983. Morley was replaced by Grant Young in 1984. The band recorded three albums with Twin/Tone Records and two with A&amp;M Records, with little commercial success. In 1992, they released the triple-platinum album Grave Dancers Union, featuring "Runaway Train". The band played at the inauguration of President Bill Clinton early the next year. They also scored a platinum record with the album Let Your Dim Light Shine three years later. In 1998 they recorded Candy from a Stranger. Mueller was diagnosed with cancer in 2004, and the band organized a benefit concert on his behalf. Mueller died a year later. The band released four more albums over the next 15 years. Their most recent was Hurry Up and Wait in 2020, their twelfth studio release.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Vita_(rapper)', 'artist_name': 'Vita', 'wiki': 'http://en.wikipedia.org/wiki/Vita_(rapper)', 'start_year': '1998', 'end_year': '1998', 'abstract': 'LaVita Raynor, known simply as Vita, is an American rapper and actress. She is most known as an actress for playing DMX\'s "side chick" Kionna in the 1998 film Belly. As a rapper she is known for her appearances on the songs Lapdance by N.E.R.D, Put It on Me by Ja Rule, and Down 4 U by Irv Gotti. Her sister is Kima Raynor of Total. In 2014, Vita was included in Billboard\'s list of the "31 Female Rappers Who Changed Hip-Hop".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'artist_name': 'Rage Against the Machine', 'wiki': 'http://en.wikipedia.org/wiki/Rage_Against_the_Machine', 'abstract': "Rage Against the Machine (often abbreviated as RATM or shortened to Rage) is an American rock band from Los Angeles, California. Formed in 1991, the group consists of vocalist Zack de la Rocha, bassist and backing vocalist Tim Commerford, guitarist Tom Morello, and drummer Brad Wilk. Their songs express revolutionary political views. As of 2010, they have sold over 16 million records worldwide. The band was nominated for induction into the Rock &amp; Roll Hall of Fame in their first year of eligibility in 2017, then again in 2018, 2019, and 2021, though the bids failed. Rage Against the Machine released its self-titled debut album in 1992 to commercial and critical success, leading to a slot in the 1993 Lollapalooza festival; in 2003, the album was ranked number 368 on Rolling Stone's list of the 500 greatest albums of all time. The follow-up albums, Evil Empire (1996) and The Battle of Los Angeles (1999), were also successful; both albums topped the Billboard 200 chart. During their initial nine-year run, Rage Against the Machine became a popular and influential band, and had a large influence on the nu metal genre which came to prominence during the second half of the 1990s. They were also ranked No. 33 on VH1's 100 Greatest Artists of Hard Rock. In 2000, Rage Against the Machine released the cover album Renegades and disbanded after growing creative differences led to De la Rocha's departure. De la Rocha started a low-profile solo career, while the rest of the band formed the rock supergroup Audioslave with Chris Cornell, the former frontman of Soundgarden; Audioslave recorded three albums before disbanding in 2007. The same year, Rage Against the Machine announced a reunion and performed together for the first time in seven years at the Coachella Valley Music and Arts Festival in April 2007. Within the next four years, minus a sabbatical in 2009, the band continued to perform at more live venues and festivals around the world before going on hiatus once again in 2011. In 2016, Morello, Commerford and Wilk formed a new band, Prophets of Rage, with B-Real, Chuck D, and DJ Lord; that band released one EP and one full-length studio album before disbanding in 2019. After an eight-year hiatus, Rage Against the Machine announced in November 2019 that they were reuniting for a world tour, which was initially scheduled to start in 2020 but was ultimately postponed to 2021 and again to 2022, due to the COVID-19 pandemic."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/4_Non_Blondes', 'artist_name': '4 Non Blondes', 'wiki': 'http://en.wikipedia.org/wiki/4_Non_Blondes', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1989', 'end_year': '1989', 'abstract': '4 Non Blondes was an American alternative rock band from San Francisco, California, active from 1989 to 1994. Their only album, Bigger, Better, Faster, More! spent 59 weeks on the Billboard 200 and sold 1.5 million copies between 1992 and 1994. They hit the charts in 1993 with the release of the album\'s second single, "What\'s Up?". Originally, the band was all-female, with lead singer Linda Perry, bassist Christa Hillhouse, guitarist Shaunna Hall, and drummer Wanda Day. However, along with Day being replaced by Dawn Richardson (drums), Hall was replaced by Roger Rocha (guitar) before the release of the album. Lead singer Linda Perry left the band in 1994, and the remaining members disbanded shortly thereafter.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/5_Seconds_of_Summer', 'artist_name': '5 Seconds of Summer', 'wiki': 'http://en.wikipedia.org/wiki/5_Seconds_of_Summer', 'hometown': 'http://dbpedia.org/resource/Australia', 'start_year': '2011', 'abstract': '5 Seconds of Summer, often shortened to 5SOS (pronounced as \'5 sos\'), are an Australian pop rock band from Sydney, New South Wales, formed in late 2011. The group consists of lead vocalist and rhythm guitarist Luke Hemmings, lead guitarist Michael Clifford, bassist Calum Hood, and drummer Ashton Irwin. Originally beginning their career as YouTube celebrities, they rose to international fame while touring with English-Irish boy band One Direction on their Take Me Home Tour. Since 2014, 5 Seconds of Summer have sold more than 10 million albums, sold over 2 million concert tickets worldwide, and the band\'s songs streams surpass 7 billion, making them one of the most successful Australian musical exports in history. In early 2014, the band released "She Looks So Perfect" which topped the charts in four countries. Their self-titled debut album was released in 2014, peaking at number one in 11 countries. The band released their second album Sounds Good Feels Good in 2015, topping the charts in 8 countries. The band\'s third album Youngblood, released in 2018, was a commercial success and became their third number one album in their home country. In the US, 5 Seconds of Summer became the first Australian act to achieve three number one albums on the Billboard 200 album chart. They also became the first band (not vocal group) to have their first three full-length albums debut at the top in the US. The album\'s single, "Youngblood" is the fourth highest selling Australian single of the 2010-2019 decade and is the eleventh best-selling single in Australian history, selling over five million adjusted copies worldwide within the first six months of its release. With the release of "Youngblood", 5 Seconds of Summer became the first Australian act in 13 years to top ARIA year-end chart and remain the second longest stint at number one in ARIA chart history. In 2020, the band released their fourth studio album Calm. The album was a commercial success, receiving positive reviews from critics, charting in more than 25 countries on multiple charts, peaking in the 10 top on 17 charts and debuting atop the charts in 4 countries. With Calm earning the band their fourth consecutive number one in their home country, 5 Seconds of Summer became the second Australian band in history to have their first four full-length studio albums debut at number one on the ARIA albums chart. All singles from the band\'s four studio albums, as well as all four albums, have charted in multiple countries, received multiple official sale certifications, and have been featured in numerous weekly and year-end charts, as well as making an appearance on decade-end charts. The band has received numerous accolades and awards, including being honored with the prestigious APRA Outstanding International Achievement Award in 2019, being placed on Billboard\'s Top Artists of the 2010s chart, which lists the most popular and successful artists of the 2010-2019 decade and being credited in the exclusive APRA AMCOS 1,000,000,000 List in 2020. As of mid-2020, the band\'s estimated net worth is approximately US$81 million.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Republica', 'artist_name': 'Republica', 'wiki': 'http://en.wikipedia.org/wiki/Republica', 'hometown': 'http://dbpedia.org/resource/Windsor,_Berkshire', 'start_year': '2008', 'abstract': 'Republica are an English alternative rock band, formed in 1994. The height of their popularity spanned from 1996 to 1999. The current line-up consists of Saffron (vocals), Tim Dorney (keyboards), Johnny Male (guitar), Conor Lawrence (drums). The Republica sound was described by the band as "technopop punk rock". The band went on hiatus in 2001 and reunited in 2008. Republica are best known for the single "Ready to Go".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Offspring', 'artist_name': 'The Offspring', 'wiki': 'http://en.wikipedia.org/wiki/The_Offspring', 'hometown': 'http://dbpedia.org/resource/Garden_Grove,_California', 'start_year': '1984', 'abstract': 'The Offspring is an American rock band from Garden Grove, California, formed in 1984. Originally formed under the name Manic Subsidal, the band\'s lineup consists of lead vocalist and rhythm guitarist Bryan "Dexter" Holland, bassist Todd Morse and lead guitarist Kevin "Noodles" Wasserman. Over the course of their 37-year career, they have released ten studio albums and experienced multiple lineup changes, most noticeably with their drummers. Their longest-serving drummer was Ron Welty, who replaced original drummer James Lilja in 1987, and stayed with the band for 16 years; he was replaced by Atom Willard in 2003, and then four years later by former drummer Pete Parada. Gregory "Greg K." Kriesel, one of the co-founders of the Offspring, was their bassist until 2018 when he parted ways due to business disputes with the band, leaving Holland as the sole remaining original member. Kriesel was replaced by Todd Morse of H2O, who had been the Offspring\'s touring guitarist since 2009. The Offspring is often credited—alongside fellow California punk bands Green Day and Rancid—for reviving mainstream interest in punk rock in the 1990s. They have sold over 40 million records worldwide, making them one of the best-selling punk rock bands in history. After achieving a local following with their early releases, including their 1989 self-titled debut album and the vinyl-only EP Baghdad (1991), The Offspring signed with Epitaph Records and released two albums for the independent label, Ignition (1992) and Smash (1994). Smash, which contained the band\'s first major hit "Come Out and Play", propelled punk rock into the mainstream and holds the distinction as one of the best-selling albums released on an independent record label, selling over eleven million copies worldwide. The success of Smash attracted attention from major labels, including Columbia Records, with whom The Offspring signed in 1996; their first album for the label, Ixnay on the Hombre (1997), did not match the success of its predecessor, but received critical acclaim and gold and platinum awards. The band\'s fifth album, Americana (1998), regained their previous level of popularity, obtaining support from MTV and radio, and selling over five million units in the US. The Offspring has since released five more albums: Conspiracy of One (2000), Splinter (2003), Rise and Fall, Rage and Grace (2008), Days Go By (2012) and Let the Bad Times Roll (2021).'}</t>
+  </si>
+  <si>
+    <t>{'artist': "http://dbpedia.org/resource/Sinéad_O'Connor", 'artist_name': "Sinéad O'Connor", 'wiki': "http://en.wikipedia.org/wiki/Sinéad_O'Connor", 'birth_date': '08 December 1966', 'start_year': '1986', 'end_year': '2021', 'abstract': 'Shuhada Sadaqat (born Sinéad Marie Bernadette O\'Connor on 8 December 1966 and still known by her birth name, Sinéad O\'Connor) is an Irish singer-songwriter. Her debut album, The Lion and the Cobra, released in 1987, charted internationally and her single "Nothing Compares 2 U", released in 1990, was named the number one world single by the Billboard Music Awards. Since then, while maintaining her singing career, she has occasionally encountered controversy, partly due to her statements and gestures. These include her ordination as a priest, despite being a woman with a Roman Catholic background, and strongly expressing views on organised religion, women\'s rights, war, and child abuse. In addition to her ten solo albums, her work includes many singles, songs for films, collaborations with many other artists, and appearances at charity fundraising concerts. In 2017, O\'Connor changed her name to Magda Davitt. After converting to Islam in 2018, she changed it to Shuhada Sadaqat. However, she continues to record and perform under her birth name.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Live_(band)', 'artist_name': 'Live', 'wiki': 'http://en.wikipedia.org/wiki/Live_(band)', 'hometown': 'http://dbpedia.org/resource/York,_Pennsylvania', 'start_year': '1984', 'end_year': '2009', 'abstract': 'Live (/laɪv/, often typeset as LĪVE or +LĪVE+) is an American rock band formed in York, Pennsylvania in 1984, consisting of Ed Kowalczyk (lead vocals, rhythm guitar), Chad Taylor (lead guitar, backing vocals), Patrick Dahlheimer (bass), and Chad Gracey (drums). The band started to gain attention following their single "Operation Spirit (The Tyranny of Tradition)", the video for which got regular airplay on MTV, and the moderate success of their second album, Mental Jewelry. Their biggest success came in 1994, with their third album, Throwing Copper, which sold eight million copies in the U.S. The band had a string of hit singles in the mid-1990s, including "Lightning Crashes", which stayed at the top of the Billboard Hot Mainstream Rock Tracks chart for ten consecutive weeks and the Modern Rock Tracks (now Alternative Songs) chart for nine weeks from February 25 to April 22, 1995. The band has sold over twenty million albums worldwide. When touring, Live has used additional musicians, including Ed Kowalczyk\'s younger brother Adam, British keyboardist Michael "Railo" Railton, rhythm guitarist Christopher Thorn of Blind Melon, and guitarist Zak Loy of Alpha Rev. In 2009, Ed Kowalczyk left the band; he was replaced by singer Chris Shinn and the band released the album The Turn in October 2014. Kowalczyk rejoined in December 2016 and in 2018, they released a new EP, Local 717.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Beloved_(band)', 'artist_name': 'The Beloved', 'wiki': 'http://en.wikipedia.org/wiki/The_Beloved_(band)', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1983', 'abstract': 'The Beloved are a British electronic music group best known for the singles "Sweet Harmony", "The Sun Rising", "Hello", "Your Love Takes Me Higher", and "Satellite". Originally a post-punk/new wave band formed in 1983, they underwent a change of direction in the late 1980s to a house/alternative dance sound and experienced chart success in the UK and elsewhere.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Alien_Ant_Farm', 'artist_name': 'Alien Ant Farm', 'wiki': 'http://en.wikipedia.org/wiki/Alien_Ant_Farm', 'hometown': 'http://dbpedia.org/resource/Riverside,_California', 'start_year': '1996', 'abstract': 'Alien Ant Farm is an American rock band that formed in Riverside, California in 1996. They have released five studio albums and sold over 5 million units worldwide. The band\'s cover of Michael Jackson\'s "Smooth Criminal" topped the Billboard Alternative songs charts in 2001, and was featured in the film American Pie 2. They released their debut album Greatest Hits independently in 1999, then signed to DreamWorks Records in 2000. Their second album ANThology was released in 2001 and has been certified platinum by the RIAA, selling over one million copies and reaching number 11 on the Billboard 200. Following up that was their third album, TruANT, released in 2003. The album was produced by brothers Robert and Dean DeLeo of Stone Temple Pilots, and made it to number 42 on the Billboard 200. In 2005 the band recorded their next album 3rd Draft, however its release was denied by the label after Geffen bought out DreamWorks. It was eventually released in 2006 as Up in the Attic, charting at number 114 on the Billboard 200. After several years of sporadic touring, the band\'s fifth studio album Always and Forever was released in February 2015.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Demi_Lovato', 'artist_name': 'Demi Lovato', 'wiki': 'http://en.wikipedia.org/wiki/Demi_Lovato', 'birth_date': '20 August 1992', 'start_year': '2002', 'abstract': 'Demetria Devonne Lovato (/ləˈvɑːtoʊ/ lə-VAH-toh; born August 20, 1992) is an American singer, songwriter, and actor. After appearing on the children\'s television series Barney &amp; Friends (2002–2004), Lovato rose to prominence as Mitchie Torres in the musical television film Camp Rock (2008) and its sequel Camp Rock 2: The Final Jam (2010); the former film\'s soundtrack contained "This Is Me", Lovato\'s debut single and duet with Joe Jonas, which peaked at number nine on the Billboard Hot 100. After signing with Hollywood Records, Lovato released their pop rock debut album, Don\'t Forget (2008), which debuted at number two on the Billboard 200. Its follow-up, Here We Go Again (2009), debuted at number one in the U.S., while its title track reached number 15 on the Hot 100. Lovato\'s third studio album, Unbroken (2011), experimented with pop and R&amp;B and spawned the U.S. platinum-certified single "Skyscraper". They released their eponymous fourth album in 2013, which debuted at number three on the Billboard 200, and contained the top-ten international hit "Heart Attack". Lovato\'s fifth and sixth albums, Confident (2015) and Tell Me You Love Me (2017), infused soul and mature themes; they earned a Grammy Award nomination for Confident, while "Sorry Not Sorry", the lead single from Tell Me You Love Me, became their highest-charting single in the U.S., reaching number six. After a hiatus, Lovato released their seventh album, Dancing with the Devil... the Art of Starting Over (2021), which reached number two on the Billboard 200. On television, Lovato has starred as the titular character on the sitcom Sonny with a Chance (2009–2011), served as a judge on the music competition series The X Factor USA for its second and third seasons, and appeared as a recurring character on the musical comedy Glee (2013–2014) and the sitcom Will &amp; Grace (2020). They also starred in the television drama film Princess Protection Program (2009), the animated comedy film Smurfs: The Lost Village (2017), and the musical comedy Eurovision Song Contest: The Story of Fire Saga (2020). Lovato has sold over 24 million records in the United States and has also received numerous accolades, including an MTV Video Music Award, 14 Teen Choice Awards, five People\'s Choice Awards, two Latin American Music Awards, a Guinness World Record, and was included on the Time 100 annual list in 2017. An activist for several social causes, Lovato\'s struggles with an eating disorder and substance abuse have been well-documented by the media, in response to which they published a book, Staying Strong: 365 Days a Year (2013), and released the documentaries Demi Lovato: Simply Complicated (2017) and Demi Lovato: Dancing with the Devil (2021).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Audioslave', 'artist_name': 'Audioslave', 'wiki': 'http://en.wikipedia.org/wiki/Audioslave', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'start_year': '2001', 'end_year': '2007', 'abstract': "Audioslave was an American rock supergroup formed in Glendale, California, in 2001. The four-piece band consisted of Soundgarden's lead singer and rhythm guitarist Chris Cornell with Rage Against the Machine members Tom Morello (lead guitar), Tim Commerford (bass/backing vocals), and Brad Wilk (drums). Critics first described Audioslave as a combination of Soundgarden and Rage Against the Machine, but by the band's second album, Out of Exile, it was noted that they had established a separate identity. Their unique sound was created by blending 1970s hard rock and 1990s alternative rock, with musical influences that included 1960s funk, soul and R&amp;B. As with Rage Against the Machine, the band prided themselves on the fact that all sounds on their albums were produced using only guitars, bass, drums, and vocals, with emphasis on Cornell's wide vocal range and Morello's unconventional guitar solos. In their six years together, Audioslave released three albums, received three Grammy nominations, sold more than eight million records worldwide and became the first American rock band to perform an open-air concert in Cuba. They disbanded in February 2007 after Cornell issued a statement announcing that he was leaving the band. Later that year, Cornell and Morello released solo albums, and Morello, Commerford, and Wilk reunited with Zack de la Rocha for the Rage Against the Machine Reunion Tour. Audioslave reunited to perform at Prophets of Rage's Anti-Inaugural Ball, which took place on January 20, 2017. Cornell's death later that year precluded any chance of further reunions."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Metro_Station_(band)', 'artist_name': 'Metro Station', 'wiki': 'http://en.wikipedia.org/wiki/Metro_Station_(band)', 'start_year': '2006', 'end_year': '2010', 'abstract': 'Metro Station is an American pop rock band that was formed in Los Angeles, California by singer Mason Musso and bassist/guitarist Trace Cyrus. In late 2006, the band signed a recording contract with Columbia Records and RED Ink Records. The band is best known for the top 10 Billboard hit single "Shake It" from the group\'s self-titled debut album. In 2010, tension between Cyrus and Musso caused the band to go on hiatus. In 2011, the band returned, however, it was announced that Cyrus was no longer a part of the group and Musso had purchased the rights to the name. An EP entitled Middle of the Night was released in 2013, which was led by the single "Every Time I Touch You". In 2014, Cyrus and a new drummer, Spencer Steffan, came to the band, and a new single entitled "Love &amp; War" was released. In 2015, the band released a second full-length album, titled Savior. After this, the band went on a U.S and European tour, announcing an EP called Bury Me My Love along with a U.S. 10-year anniversary tour. Just before the tour started, the band announced it would be their final tour and that they were breaking up. They reunited once again in 2019 and released the single "I Hate Society" in 2020. The band is often described as a scene pop band due to the members\' sense of fashion and the band\'s unique blend of various pop styles.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Men_at_Work', 'artist_name': 'Men at Work', 'wiki': 'http://en.wikipedia.org/wiki/Men_at_Work', 'hometown': 'http://dbpedia.org/resource/Victoria_(Australia)', 'start_year': '1978', 'end_year': '1986', 'abstract': 'Men at Work are an Australian rock band formed in Melbourne in 1978 and best known for breakthrough hits such as "Who Can It Be Now?" and "Down Under". Its founding member and frontman is Colin Hay, who performs on lead vocals and guitar. After playing as an acoustic duo with Ron Strykert during 1978–79, Hay formed the group with Strykert playing bass guitar and Jerry Speiser on drums. They were soon joined by Greg Ham on flute, saxophone, and keyboards and John Rees on bass guitar, with Strykert switching back to lead guitar. The group was managed by Russell Depeller, a friend of Hay, whom he met at La Trobe University. This line-up achieved national and international success during the early to mid 1980s. In January 1983, they were the first Australian artists to have a simultaneous No. 1 album and No. 1 single on the United States Billboard charts: Business as Usual (released on 9 November 1981) and "Down Under" (1981), respectively. With the same works, they achieved the distinction of a simultaneous No. 1 album and No. 1 single on the Australian, New Zealand, and United Kingdom charts. Their second album Cargo (2 May 1983) was also No. 1 in Australia, No. 2 in New Zealand, No. 3 in the US, and No. 8 in the UK. Their third album Two Hearts (3 April 1985) reached the top 20 in Australia and top 50 in the US. They won the Grammy Award for Best New Artist in 1983, they were inducted into the ARIA Hall of Fame in 1994, and they have sold over 30 million albums worldwide. In May 2001, "Down Under" was listed at No. 4 on the APRA Top 30 Australian songs and Business as Usual appeared in the book 100 Best Australian Albums (October 2010). In 1984, Speiser and Rees were asked to leave the group, leaving Hay, Ham and Strykert. During the recording of the Two Hearts album, Strykert decided to leave. Soon after the release of Two Hearts, Ham left also, leaving Hay as the sole remaining member. From 1996 until 2002 Hay and Ham toured the world as Men at Work. On 19 April 2012, Ham was found dead at his home from an apparent heart attack. In 2019, Hay revived the Men at Work moniker and began touring with the assistance of a backing band including none of the other original members.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Korn', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'start_year': '1993', 'abstract': 'Korn (stylized as KoЯn) is an American nu metal band from Bakersfield, California, formed in 1993. The band is notable for pioneering the nu metal genre and bringing it into the mainstream. Originally formed in 1993 by three members of the band L.A.P.D., Korn\'s current lineup features founding members James "Munky" Shaffer (rhythm guitar), Reginald "Fieldy" Arvizu (bass), Brian "Head" Welch (lead guitar, backing vocals), and Jonathan Davis (lead vocals, bagpipes), with the addition of Ray Luzier (drums) in 2007, replacing the band\'s first drummer, David Silveria. Korn made a demo tape, Neidermayer\'s Mind, in 1993, which was distributed free to record companies and on request to members of the public. Their debut album, Korn, was released in 1994, followed by Life Is Peachy in 1996. The band first experienced mainstream success with Follow the Leader (1998) and Issues (1999), both of which debuted at number one on the Billboard 200. The band\'s mainstream success continued with Untouchables (2002), Take a Look in the Mirror (2003) and See You on the Other Side (2005). A compilation album, Greatest Hits Vol. 1, was released in 2004, spanning a decade of singles and concluding the band\'s recording contract with Immortal Records and Epic Records. They signed to Virgin Records, releasing See You on the Other Side in 2005, and an untitled album in 2007. Korn\'s other recent albums, Korn III: Remember Who You Are (2010) and The Path of Totality (2011), were released via Roadrunner Records, The Paradigm Shift (2013) being released via Prospect Park and Caroline Records. The Serenity of Suffering, saw their return to Roadrunner Records. Their latest album, The Nothing, was released on September 13, 2019. As of 2018, Korn had sold more than 40 million records worldwide. Twelve of the band\'s official releases have peaked in the top ten of the Billboard 200, eight of which have peaked in the top five. Seven official releases are certified platinum by the Recording Industry Association of America (RIAA), two are certified double platinum, one is certified triple platinum, one is certified five times platinum and two are certified Gold. Korn has released seven video albums and 39 music videos. The band has released 41 singles, 28 of which have charted. Korn has earned two Grammy Awards out of eight nominations and two MTV Video Music Awards out of eleven nominations.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Mousse_T.', 'artist_name': 'Mousse T.', 'wiki': 'http://en.wikipedia.org/wiki/Mousse_T.', 'hometown': 'http://dbpedia.org/resource/Turkish_people', 'birth_date': '02 October 1966', 'start_year': '1989', 'abstract': 'Mustafa Gundogdu (Turkish: Mustafa Gündoğdu, [mustɑˈfɑ ɟynˈdoːdu]; born 2 October 1966), best known under his stage name Mousse T., is a German-Turkish DJ, record producer, film composer and judge on season 15 of Deutschland sucht den Superstar, the German version of Pop Idol. He is best known for the 1998 house hit "Horny \'98" (famous for the hook "I\'m horny") and for his collaboration with Tom Jones on the 2000 hit "Sex Bomb", from Jones\' 1999 album Reload. Mousse T. is one of the first producers of house music in his country, alongside contemporaries Boris Dlugosch, DJ Tonka and Ian Pooley.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Megadeth', 'artist_name': 'Megadeth', 'wiki': 'http://en.wikipedia.org/wiki/Megadeth', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2004', 'abstract': 'Megadeth is an American heavy metal band formed in Los Angeles in 1983 by vocalist/guitarist Dave Mustaine and bassist David Ellefson. Known for their technically complex guitar work and musicianship, Megadeth is one of the "big four" of American thrash metal along with Metallica, Anthrax, and Slayer, responsible for the genre\'s development and popularization. Their music features complex arrangements and fast rhythm sections, and lyrical themes of death, war, politics, personal relationships, and religion. In 1985, Megadeth released its debut album, Killing Is My Business... and Business Is Good!, on the independent record label Combat Records, to moderate success. It caught the attention of bigger labels, which led to Megadeth signing with Capitol Records. Their first major-label album, Peace Sells... but Who\'s Buying?, was released in 1986 and was a major hit with the underground metal scene. Band members\' substance abuse issues and personal disputes had brought Megadeth negative publicity during the late 1980s. Nonetheless, the band went on to release a number of platinum-selling albums, including So Far, So Good... So What! (1988), Rust in Peace (1990), and Countdown to Extinction (1992). These albums, along with worldwide tours, brought them public recognition. Megadeth has had numerous guitarists, drummers and bassists throughout its 38-year career, with Mustaine being the only remaining original member of the group. The band temporarily disbanded in 2002 when Mustaine suffered an arm injury and re-established in 2004 without Ellefson, who had taken legal action against him. Ellefson settled out of court and rejoined in 2010, but was fired from the band in 2021 amid allegations of sexual misconduct. Megadeth\'s current lineup includes Mustaine, guitarist Kiko Loureiro and drummer Dirk Verbeuren; former bassist James LoMenzo currently serves as touring bassist. Megadeth has sold 38 million records worldwide, earned platinum certification in the United States for six of its fifteen studio albums, and received twelve Grammy nominations. Megadeth won its first Grammy Award in 2017 for the song "Dystopia" in the Best Metal Performance category. The band\'s mascot, Vic Rattlehead, regularly appears on album artwork and live shows. The group has drawn controversy for its music and lyrics, including album bans and canceled concerts; MTV refused to play two of the band\'s music videos that the network considered to condone suicide. Megadeth has hosted its own music festival Gigantour, several times since July 2005, and held its first annual MegaCruise in October 2019.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/M83_(band)', 'artist_name': 'M83', 'wiki': 'http://en.wikipedia.org/wiki/M83_(band)', 'hometown': 'http://dbpedia.org/resource/Antibes', 'start_year': '1999', 'abstract': 'M83 is a French electronic music project formed in Antibes, Alpes-Maritimes in 1999 and currently based in Los Angeles, California. The band\'s primary member is vocalist, songwriter, multi-instrumentalist and record producer Anthony Gonzalez. The band was initially formed as a duo also with Nicolas Fromageau; it has released eight albums and two soundtracks, including the Grammy Award-nominated Hurry Up, We\'re Dreaming. Gonzalez and Fromageau parted ways shortly after touring their second album Dead Cities, Red Seas &amp; Lost Ghosts. Gonzalez records primarily on his own, with other artists as guest musicians. The band is signed to Mute Records and found international success in 2011 with the single "Midnight City". Their most recent album DSVII (the sequel of Digital Shades Vol. 1) was released on 20 September 2019.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Corey_Hart_(singer)', 'artist_name': 'Corey Hart', 'wiki': 'http://en.wikipedia.org/wiki/Corey_Hart_(singer)', 'birth_date': '31 May 1962', 'start_year': '1980', 'abstract': 'Corey Mitchell Hart (born May 31, 1962) is a Canadian singer, musician and songwriter known for his hit singles "Sunglasses at Night" and "Never Surrender". He has sold over 16 million records worldwide and recorded nine US Billboard Top 40 hits. In Canada, 30 of Hart\'s recordings have been Top 40 hits, including 11 in the Top 10, over the course of over 35 years in the music industry. Nominated for the Grammy Award for Best New Artist in 1984, Hart is an inductee of both Canada\'s Music Hall of Fame and Canada\'s Walk of Fame, and is also a multiple Juno award nominee and winner, including the Diamond Award for his best-selling album Boy in the Box. He has also been honoured by the American Society of Composers, Authors and Publishers (ASCAP) and the Society of Composers, Authors and Music Publishers of Canada (SOCAN).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Alpha_Blondy', 'artist_name': 'Alpha Blondy', 'wiki': 'http://en.wikipedia.org/wiki/Alpha_Blondy', 'birth_date': '01 January 1953', 'start_year': '1981', 'abstract': 'Seydou Koné (French pronunciation: \u200b[sɛdu kɔne]; born January 1, 1953 in Dimbokro), better known by his stage name Alpha Blondy, is an Ivorian reggae singer and international recording artist. Many of his songs are politically and socially motivated, and are mainly sung in his native language Dyula, French and English, though he occasionally uses other languages, for example, Arabic or Hebrew.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bee_Gees', 'artist_name': 'Bee Gees', 'wiki': 'http://en.wikipedia.org/wiki/Bee_Gees', 'start_year': '1958', 'end_year': '2003', 'abstract': 'The Bee Gees were a music group formed in 1958, featuring brothers Barry, Robin and Maurice Gibb. The trio were especially successful as a popular music act in the late 1960s and early 1970s, and later as prominent performers of the disco music era in the mid- to late 1970s. The group sang recognisable three-part tight harmonies; Robin\'s clear vibrato lead vocals were a hallmark of their earlier hits, while Barry\'s R&amp;B falsetto became their signature sound during the mid- to late 1970s and 1980s. The Bee Gees wrote all of their own hits, as well as writing and producing several major hits for other artists. The Bee Gees have occasionally been referred to as The Disco Kings. Born on the Isle of Man to English parents, the Gibb brothers lived in Chorlton, Manchester, England until the late 1950s. There, in 1955, they formed the skiffle/rock and roll group the Rattlesnakes. The family then moved to Redcliffe, in the Moreton Bay Region, Queensland, Australia, later to Cribb Island. After achieving their first chart success in Australia as the Bee Gees with "Spicks and Specks" (their twelfth single), they returned to the UK in January 1967, when producer Robert Stigwood began promoting them to a worldwide audience. The Bee Gees\' Saturday Night Fever soundtrack (1977) was the turning point of their career, with both the film and soundtrack having a cultural impact throughout the world, enhancing the disco scene\'s mainstream appeal. They won five Grammy Awards for Saturday Night Fever, including Album of the Year. The Bee Gees have sold over 120 million records worldwide (with estimates as high as over 220 million), making them among the best-selling music artists of all time. They were inducted into the Rock and Roll Hall of Fame in 1997; the presenter of the award to "Britain\'s First Family of Harmony" was Brian Wilson, historical leader of the Beach Boys, another "family act" featuring three harmonising brothers. The Bee Gees\' Hall of Fame citation says, "Only Elvis Presley, the Beatles, Michael Jackson, Garth Brooks and Paul McCartney have outsold the Bee Gees." With nine #1 hits on the Billboard Hot 100 The Bee Gees are the third-most successful band in Billboard charts history behind only The Beatles and The Supremes. Following Maurice\'s sudden death in January 2003 at the age of 53, Barry and Robin retired the group\'s name after 45 years of activity. In 2009, Robin announced that he and Barry had agreed that the Bee Gees would re-form and perform again. Robin died in May 2012, aged 62, after a prolonged period of failing health, leaving Barry as the only surviving member of the group.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sublime_(band)', 'artist_name': 'Sublime', 'wiki': 'http://en.wikipedia.org/wiki/Sublime_(band)', 'hometown': 'http://dbpedia.org/resource/Long_Beach,_California', 'start_year': '1988', 'end_year': '1996', 'abstract': 'Sublime was an American reggae rock and ska punk band from Long Beach, California, formed in 1988. The band\'s line-up, unchanged until their breakup, consisted of Bradley Nowell (vocals and guitar), Eric Wilson (bass), and Bud Gaugh (drums). Lou Dog, Nowell\'s dalmatian, was the mascot of the band. Nowell died of a heroin overdose in 1996, resulting in Sublime\'s breakup. In 1997, songs such as "What I Got", "Santeria", "Wrong Way", "Doin\' Time", and "April 29, 1992 (Miami)" were released to U.S. radio. Sublime released three studio albums, one live album, five compilation albums (one of which also contains never-before released material), three EPs, and one box set. Although their first two albums—40oz. to Freedom (1992) and Robbin\' the Hood (1994)—were quite popular in the United States, Sublime did not experience major commercial success until 1996 with their self-titled third album, released two months after Nowell\'s death, which peaked at No. 13 on the Billboard 200, and spawned the single "What I Got", which remains the band\'s only No. 1 hit single (on the Billboard Alternative Songs chart) in their musical career. As of 2009, the band has sold over 17 million albums worldwide, including about 10 million in the U.S. alone. Michael "Miguel" Happoldt and Marshall "Ras MG" Goodman contributed to several Sublime songs. In 2009, the surviving members attempted to reform the band with Rome Ramirez, a young guitarist and admitted Sublime fan from California. However, not long after performing at Cypress Hill\'s Smokeout Festival, a Los Angeles judge banned the new lineup from using the Sublime name as they needed permission from Nowell\'s estate, which owns the rights to the Sublime name. This prompted the lineup of Wilson, Gaugh and Ramirez to change their name to Sublime with Rome, which has since released three albums, although Gaugh left the group shortly after the release of their 2011 debut Yours Truly.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Phum_Viphurit', 'artist_name': 'Phum Viphurit', 'wiki': 'http://en.wikipedia.org/wiki/Phum_Viphurit', 'birth_date': '16 August 1995', 'start_year': '2014', 'abstract': 'Viphurit Siritip (Thai: วิภูริศ ศิริทิพย์, born 1995), known by his nickname Phum (ภูมิ), is a Thai singer-songwriter. He achieved international fame in 2018 from his single "Lover Boy". His music demonstrates influences of various genres, especially neo soul.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Peter_Tosh', 'artist_name': 'Peter Tosh', 'wiki': 'http://en.wikipedia.org/wiki/Peter_Tosh', 'birth_date': '19 October 1944', 'death_date': '11 September 1987', 'start_year': '1961', 'end_year': '1987', 'abstract': 'Peter Tosh, OM (born Winston Hubert McIntosh; 19 October\u200a 1944 – 11 September 1987) was a Jamaican reggae musician. Along with Bob Marley and Bunny Wailer, he was one of the core members of the band the Wailers (1963–1976), after which he established himself as a successful solo artist and a promoter of Rastafari. He was murdered in 1987 during a home invasion.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Clairo', 'artist_name': 'Clairo', 'wiki': 'http://en.wikipedia.org/wiki/Clairo', 'hometown': 'http://dbpedia.org/resource/Carlisle,_Massachusetts', 'birth_date': '18 August 1998', 'start_year': '2012', 'abstract': 'Claire Elizabeth Cottrill (born August 18, 1998), known professionally as Clairo, is an American singer-songwriter. Born in Atlanta, Georgia, and raised in Carlisle, Massachusetts, she began posting music on the internet at age 13. Clairo rose to prominence following the viral success of the music video for her lo-fi single "Pretty Girl" in 2017. She subsequently signed a record deal with Fader Label, where she released her debut EP Diary 001 (2018). Her debut studio album Immunity (2019) received critical acclaim and spawned the singles "Bags" and "Sofia", the latter of which became her first single to chart on the Billboard Hot 100. Cottrill\'s second studio album, Sling, was released in 2021. Upon its release, the album received critical acclaim and saw commercial success, debuting in the top 20 of the US Billboard 200.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Montell_Jordan', 'artist_name': 'Montell Jordan', 'wiki': 'http://en.wikipedia.org/wiki/Montell_Jordan', 'birth_date': '03 December 1968', 'start_year': '1991', 'abstract': 'Montell Du\'Sean Barnett Jordan (born, December 3, 1968) is an American pastor, singer, songwriter, and record producer. Best known for his 1995 single "This Is How We Do It", Jordan was the primary male solo artist on Def Jam\'s Def Soul imprint until leaving the label in 2003. In 2010, Jordan left the music business to become the worship leader at Victory World Church in Norcross, Georgia.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Pendulum_(ambient_band)', 'artist_name': 'Pendulum', 'wiki': 'http://en.wikipedia.org/wiki/Pendulum_(ambient_band)', 'hometown': 'http://dbpedia.org/resource/Victoria_(Australia)', 'start_year': '1994', 'end_year': '1994', 'abstract': 'Pendulum was an ambient house Australian group, active from 1994–1998. They are best known for their 1997 single "Coma".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Veronicas', 'artist_name': 'The Veronicas', 'wiki': 'http://en.wikipedia.org/wiki/The_Veronicas', 'hometown': 'http://dbpedia.org/resource/Albany_Creek', 'start_year': '2004', 'abstract': 'The Veronicas are an Australian pop duo from Brisbane. The group was formed in 2004 by identical twin sisters Lisa and Jessica Origliasso. In 2005, the Veronicas released their debut studio album, titled The Secret Life of..., which peaked at number two on the Australian Album Chart and was certified 4× platinum by Australian Recording Industry Association (ARIA) for selling over 280,000 copies. The album spawned five singles, led by "4ever", three of which were top ten singles in Australia. In 2007, the duo released their second studio album, Hook Me Up, which also peaked at number two in Australia and was certified 2× platinum for selling over 140,000 copies. The album garnered four Australian top ten singles. The album\'s title track, "Hook Me Up", was the Veronicas\' first number one single in Australia, while "Untouched" was an international top-ten hit. Following a lengthy hiatus (broken only by the July 2012 release of the Australian top-40 single "Lolita" and various gigs for their fans), in September 2014, the Veronicas released "You Ruin Me", the first single from their self-titled third studio album. The song debuted at number one on the ARIA Charts, becoming the women\'s second chart-topping single and their first to debut in the top spot. It also charted in United States and United Kingdom. The album was released both physically and digitally on 21 November 2014. In 2016, they hosted the ARIA Music Awards. They spent most of the period between 2016 and 2021 releasing gold and platinum singles in Australia, leading to the release of both their fourth and fifth albums, Godzilla and Human, in May and June 2021, respectively. In October 2020, the sisters were announced as competing celebrity contestants on the fifth season of The Celebrity Apprentice Australia in 2021.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Milli_Vanilli', 'artist_name': 'Milli Vanilli', 'wiki': 'http://en.wikipedia.org/wiki/Milli_Vanilli', 'hometown': 'http://dbpedia.org/resource/Munich', 'start_year': '1997', 'end_year': '1998', 'abstract': "Milli Vanilli was a German-French R&amp;B duo from Munich. The group was founded by Frank Farian in 1988 and consisted of Fab Morvan and Rob Pilatus. Their debut album, All or Nothing in Europe, reconfigured as Girl You Know It's True in the United States, achieved international success and brought them a Grammy Award for Best New Artist on 21 February 1990. They became one of the most popular pop acts in the late 1980s and early 1990s, with millions of records sold. However, their success turned to infamy when it was discovered that Morvan and Pilatus did not sing any of the vocals on their music releases. They ended up returning their Grammy Award for Best New Artist. They recorded a comeback album in 1998 titled Back and in Attack, but its release was cancelled after Pilatus died at the age of 32."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Matchbox_Twenty', 'artist_name': 'Matchbox Twenty', 'wiki': 'http://en.wikipedia.org/wiki/Matchbox_Twenty', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'start_year': '1995', 'end_year': '2004', 'abstract': "Matchbox Twenty (also known as Matchbox 20 and MB20) is an American rock band formed in Orlando, Florida, in 1995. The group currently consists of Rob Thomas (lead vocals, guitar, keyboards), Brian Yale (bass guitar), Paul Doucette (drums, rhythm guitar, backing vocals), and Kyle Cook (lead guitar, vocals). Matchbox Twenty rose to international fame with their debut album, Yourself or Someone Like You (1996), which was certified 12× Platinum (diamond) in the United States and multi-platinum in Australia, Canada, and New Zealand. Their second album, Mad Season, released in 2000, charted in the top three on the Billboard 200 and was certified 4× Platinum in the United States. Their third album, More Than You Think You Are, released in 2002, was certified 2× Platinum in the United States. The band then went on hiatus in 2004 after rhythm guitarist Adam Gaynor's departure. As a result, Paul Doucette took over rhythm guitar when the band reunited in 2007. They released a compilation album, Exile on Mainstream, which was certified Gold in the United States. After the release, the band toured to support it. Matchbox Twenty then took another hiatus while Rob Thomas embarked on a successful solo career but reunited again in 2010. On September 4, 2012, the band released their fourth studio album, North, which debuted at number one on the Billboard 200."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Yazz', 'artist_name': 'Yazz', 'wiki': 'http://en.wikipedia.org/wiki/Yazz', 'birth_date': '19 May 1960', 'start_year': '1988', 'abstract': 'Yazz (born Yasmin Evans, 19 May 1960) is an English pop singer, who remains best known for her 1988 UK number one single "The Only Way Is Up". Some of her records are credited to Yazz and the Plastic Population.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bruce_Springsteen', 'artist_name': 'Bruce Springsteen', 'wiki': 'http://en.wikipedia.org/wiki/Bruce_Springsteen', 'birth_date': '23 September 1949', 'abstract': 'Bruce Frederick Joseph Springsteen (born September 23, 1949) is an American singer, songwriter, and musician. He has released twenty studio albums, many of which feature his backing band the E Street Band. Originally from the Jersey Shore, he is one of the originators of the heartland rock style of music, combining mainstream rock musical style with narrative songs about working class American life. During a career that has spanned five decades, Springsteen has become known for his poetic, socially conscious lyrics and energetic stage performances, sometimes lasting up to four hours in length. He has been nicknamed "the Boss". Springsteen released his first two albums, Greetings from Asbury Park, N.J. and The Wild, the Innocent &amp; the E Street Shuffle in 1973, both of which failed to earn him a large audience. He changed his style and reached worldwide popularity with Born to Run in 1975. It was followed by Darkness on the Edge of Town (1978) and The River (1980), which topped the US Billboard 200 chart. His first album without the E Street Band was Nebraska (1982). Born in the U.S.A. (1984), which reunited Springsteen with the E Street Band, became his most commercially successful album and one of the best-selling albums of all time. Seven of its singles reached the top 10 of the Billboard Hot 100, including the well-known title track. Springsteen recorded his next three albums, Tunnel of Love (1987), Human Touch (1992), and Lucky Town (1992) using mostly session musicians. He re-assembled the E Street Band for 1995\'s Greatest Hits and The Ghost of Tom Joad. His last release of the 1990s was the EP Blood Brothers (1996). Springsteen dedicated his 2002 album The Rising to the victims of the September 11 attacks. Springsteen released two more folk albums, Devils &amp; Dust (2005) and We Shall Overcome: The Seeger Sessions (2006), followed by two more albums with the E Street Band: Magic (2007) and Working on a Dream (2009). His next two albums, Wrecking Ball (2012) and High Hopes (2014), topped album charts worldwide. His latest releases include the solo Western Stars (2019) and E Street Band-featuring Letter to You (2020). Among the album era\'s prominent acts, Springsteen has sold more than 150 million records worldwide and more than 64 million albums in the United States, making him one of the world\'s best-selling music artists. He has earned numerous awards for his work, including 20 Grammy Awards, two Golden Globes, an Academy Award, and a Special Tony Award (for Springsteen on Broadway). Springsteen was inducted into both the Songwriters Hall of Fame and the Rock and Roll Hall of Fame in 1999, received the Kennedy Center Honors in 2009, named MusiCares person of the year in 2013, and awarded the Presidential Medal of Freedom by President Barack Obama in 2016. He is ranked 23rd on Rolling Stone\'s list of the Greatest Artists of All Time.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Hives', 'artist_name': 'The Hives', 'wiki': 'http://en.wikipedia.org/wiki/The_Hives', 'hometown': 'http://dbpedia.org/resource/Fagersta', 'start_year': '1993', 'abstract': 'The Hives are a Swedish rock band that rose to prominence in the early 2000s during the Garage Rock Revival. Their mainstream success came with the release of the album Veni Vidi Vicious, containing the single "Hate to Say I Told You So". The band has been acclaimed by music critics as one of the best live rock bands. The Hives have released five studio albums: Barely Legal (1997), Veni Vidi Vicious (2000), Tyrannosaurus Hives (2004), The Black and White Album (2007) and Lex Hives (2012). They have one compilation album, Your New Favourite Band (2001) and they have issued a live DVD, Tussles in Brussels (2005).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Alexandra_Stan', 'artist_name': 'Alexandra Stan', 'wiki': 'http://en.wikipedia.org/wiki/Alexandra_Stan', 'birth_date': '10 June 1989', 'start_year': '2009', 'abstract': 'Alexandra Ioana Stan (born 10 June 1989) is a Romanian singer-songwriter. Born in the city of Constanța, she made her worldwide breakthrough with the 2010 single "Mr. Saxobeat", which was written and produced by Marcel Prodan and Andrei Nemirschi. They had previously discovered Stan at a karaoke bar in 2009 and signed her to their label, Maan Records. "Mr. Saxobeat" had followed the singer\'s debut single, "Lollipop (Param Pam Pam)" (2009), which brought her moderate fame in Romania. "Mr. Saxobeat" quickly achieved commercial success locally and abroad, reaching number one in several countries and gathering various certifications. Saxobeats, Stan\'s debut studio album, was released in August 2011 and features the follow-up singles "Get Back (ASAP)" (2011) and "Lemonade" (2012), which had moderate success in Europe. An alleged altercation with Prodan in 2013 and a lawsuit against him preceded the release of Stan\'s second album, Unlocked, which would eventually be issued in August 2014. Two of its singles, "Dance" (2014) and "Cherry Pop" (2014), were successful in Japan. Stan\'s third studio album, Alesta, was released in March 2016 and included a collaboration with Inna and Daddy Yankee on "We Wanna" (2015); the single went on to reach the top 60 in several countries. Mami, her fourth record, followed in 2018. Preceding the release of its last single was Stan\'s feature on Manuel Riva\'s "Miami" (2018), which peaked within the top ten in Romania and on Billboard\'s Dance Club Songs chart. Stan has received a number of awards and nominations, including the European Border Breakers Award, a Japan Gold Disc Award, an MTV Europe Music Award and two Romanian Music Awards. She is also referred to as one of the most successful Romanian artists alongside Inna.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Chickenfoot', 'artist_name': 'Chickenfoot', 'wiki': 'http://en.wikipedia.org/wiki/Chickenfoot', 'hometown': 'http://dbpedia.org/resource/Baja_California_Sur', 'start_year': '2008', 'end_year': '2012', 'abstract': 'Chickenfoot is a hard rock supergroup formed in 2008. The group consists of vocalist Sammy Hagar (ex-Van Halen and Montrose), bassist Michael Anthony (also ex-Van Halen), guitarist Joe Satriani, and drummer Chad Smith (Red Hot Chili Peppers). Due to Smith\'s consistent recording and touring commitments to the Red Hot Chili Peppers, Kenny Aronoff joined the group in 2011 as a touring replacement drummer. While the band has not formally announced a breakup, in June 2016 Smith said that he had doubts about its survival due to their busy schedules. The group has released two studio albums, one live album, and one box set. While the band\'s name and logo are a disparaging term for the peace symbol, the "footprint of the chicken", bassist Michael Anthony asserts that the name originated from initial jam sessions between Hagar, Smith, and himself: "there are three talons on a chicken\'s foot and there are three of us." Anthony later stated: "it was just supposed to be a bullshit name that we\'d used for a while, and then [when] the rumors spread about the band, everybody used that name so we thought, \'fuck it, let\'s call it Chickenfoot\'—it all comes down to the music anyway." Chickenfoot\'s second studio album, Chickenfoot III, was released on September 27, 2011.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Royal_Blood_(band)', 'artist_name': 'Royal Blood', 'wiki': 'http://en.wikipedia.org/wiki/Royal_Blood_(band)', 'hometown': 'http://dbpedia.org/resource/Worthing', 'start_year': '2011', 'abstract': "Royal Blood are an English rock duo formed by Mike Kerr (vocals, bass guitar) and Ben Thatcher (drums) in Worthing in 2011. Their sound is anchored by Kerr's unique bass playing style, which sees him using various effects pedals and amps to make his bass guitar sound like a standard electric guitar and bass guitar at the same time. Their self-titled debut album was released in August 2014, with their second album How Did We Get So Dark? following in June 2017, and their third album Typhoons in April 2021."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Judas_Priest', 'artist_name': 'Judas Priest', 'wiki': 'http://en.wikipedia.org/wiki/Judas_Priest', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'start_year': '1969', 'abstract': 'Judas Priest are an English heavy metal band formed in Birmingham in 1969. They have sold over 50 million copies of their albums, and are frequently ranked as one of the greatest metal bands of all time. Despite an innovative and pioneering body of work in the latter half of the 1970s, the band had struggled with indifferent record production and a lack of major commercial success until 1980, when they rose to commercial success with the album British Steel. The band\'s membership has seen much turnover, including a revolving cast of drummers in the 1970s and the departure of singer Rob Halford in 1992. Tim "Ripper" Owens, formerly of Winter\'s Bane, replaced Halford in 1996 and recorded two albums with Judas Priest, before Halford returned to the band in 2003. The current line-up consists of Halford, guitarists Glenn Tipton and Richie Faulkner, bassist Ian Hill and drummer Scott Travis. The band\'s best-selling album is 1982\'s Screaming for Vengeance, with their most commercially successful line-up featuring Hill, Halford, Tipton, guitarist K. K. Downing, and drummer Dave Holland. Tipton and Hill are the only two members of the band to appear on every album. Halford\'s operatic vocal style and the twin guitar sound of Downing and Tipton have been a major influence on heavy metal bands. Judas Priest\'s image of leather, spikes, and other taboo articles of clothing were widely influential during the glam metal era of the 1980s. The Guardian referred to British Steel as the record that defines heavy metal. Despite a decline in exposure during the mid 1990s, the band has once again seen a resurgence, including worldwide tours, being inaugural inductees into the VH1 Rock Honors in 2006, receiving a Grammy Award for Best Metal Performance in 2010, and having their songs featured in video games such as Guitar Hero and the Rock Band series. Judas Priest were nominated for the Rock and Roll Hall of Fame\'s class of 2020 but were not elected.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Samantha_Fox', 'artist_name': 'Samantha Fox', 'wiki': 'http://en.wikipedia.org/wiki/Samantha_Fox', 'birth_date': '15 April 1966', 'start_year': '1986', 'abstract': 'Samantha Karen Fox (born 15 April 1966) is an English singer and former glamour model. In 1983, at age 16, she began appearing as a topless model on Page 3 of British tabloid newspaper The Sun, and continued as a Page 3 girl until 1986. During this time, Fox became the most popular pin-up girl of her era, as well as one of the most photographed British women of the 1980s. In 1986, she launched a pop music career with her debut single "Touch Me (I Want Your Body)", which peaked at number one in 17 countries, and became the first of her three top 10 singles on the UK Singles Chart. Fox also had three songs reach the top 10 on the US Billboard Hot 100: "Touch Me (I Want Your Body)", "Naughty Girls (Need Love Too)" and "I Wanna Have Some Fun". In 1988, Fox received a Brit Award nomination for Best British Female Artist. She has also appeared in a number of films and reality television shows, and has occasionally worked as a television presenter.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': 'http://en.wikipedia.org/wiki/Evanescence', 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'start_year': '1995', 'end_year': '1995', 'abstract': 'Evanescence is an American rock band founded in Little Rock, Arkansas, in 1995 by singer, pianist, and keyboardist Amy Lee and guitarist Ben Moody. After recording independent albums, the band released their first full-length album, Fallen, on Wind-up Records in 2003. On the strength of hit singles "Bring Me to Life" and "My Immortal", Fallen sold more than 17 million copies worldwide and helped the band win two Grammy Awards out of six nominations. A year later, Evanescence released their first live album, Anywhere but Home, which sold more than one million copies worldwide. In 2006, the band released their second studio album, The Open Door, which sold more than five million copies. The band reconvened in June 2009 with a new lineup; their next studio album, Evanescence, was released in 2011. It debuted at the top of the Billboard 200 chart with 127,000 copies in sales. The album also debuted at number one on four other different Billboard charts; the Rock Albums, Digital Albums, Alternative Albums, and the Hard Rock Albums charts. The band spent 2012 on tour in promotion of their latest album with other bands including The Pretty Reckless and Fair to Midland. Troy McLawhorn also became a full-time band member during this time. Following the end of the album\'s tour cycle in 2012, the band entered another hiatus. In 2015, Evanescence emerged from hiatus and announced they would resume touring; however, they stated that new Evanescence material was not being produced, as Lee was focusing on a solo project instead. In addition, Balsamo left the band and was replaced by Jen Majura. In March 2017, Lee stated Evanescence was working on a fourth album for release later in 2017; Synthesis was released worldwide on November 10, 2017, and marked a stylistic change in the band\'s sound. On March 26, 2021, the band released their fifth studio album, The Bitter Truth. The lineup of the group changed several times over the course of the first two studio albums\' productions and promotions: David Hodges left in 2002, co-founder Moody left in 2003 (mid-tour), followed by guitarist John LeCompt and drummer Rocky Gray in 2007, and Terry Balsamo in 2015. As a result, none of the band\'s five studio albums feature the same lineup. The latter two changes led to a hiatus, with temporary band members contributing to tour performances.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Pixies_(band)', 'artist_name': 'Pixies', 'wiki': 'http://en.wikipedia.org/wiki/Pixies_(band)', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'start_year': '1986', 'end_year': '1993', 'abstract': 'The Pixies are an American alternative rock band formed in 1986 in Boston, Massachusetts. Until 2013, the band comprised Black Francis (vocals, rhythm guitar, songwriter), Joey Santiago (lead guitar), Kim Deal (bass, backing vocals) and David Lovering (drums). The band disbanded acrimoniously in 1993 but reunited in 2004. After Deal left in 2013, the Pixies hired Kim Shattuck as a touring bassist; she was replaced the same year by Paz Lenchantin, who became a permanent member in 2016. The Pixies are associated with the 1990s alternative rock boom, and draw on elements including punk rock and surf rock. Their music is known for its dynamic "loud-quiet-loud" shifts and song structures. Francis is the Pixies\' primary songwriter; his often surreal lyrics cover offbeat subjects such as extraterrestrials, incest, and biblical violence. They achieved modest popularity in the US but were more successful in Europe. Their jarring pop sound influenced acts such as Nirvana, Radiohead, the Smashing Pumpkins, and Weezer. Their popularity grew in the years after their break-up, leading to a 2004 reunion and sold-out world tours.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/KC_and_the_Sunshine_Band', 'artist_name': 'KC &amp; The Sunshine Band', 'wiki': 'http://en.wikipedia.org/wiki/KC_and_the_Sunshine_Band', 'hometown': 'http://dbpedia.org/resource/Miami', 'start_year': '1973', 'abstract': 'KC and the Sunshine Band is an American disco and funk band which was founded in 1973 in Hialeah, Florida. Their best-known songs include the hits "That\'s the Way (I Like It)", "(Shake, Shake, Shake) Shake Your Booty", "I\'m Your Boogie Man", "Keep It Comin\' Love", "Get Down Tonight", "Boogie Shoes", "Please Don\'t Go" and "Give It Up". The band took its name from lead vocalist Harry Wayne Casey\'s last name (\'KC\') and the \'Sunshine Band\' from KC\'s home state of Florida, the Sunshine State. The group has had six top 10 singles, five number one singles and a number two single on the Billboard Hot 100 chart.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Will.i.am', 'artist_name': 'will.i.am', 'wiki': 'http://en.wikipedia.org/wiki/Will.i.am', 'birth_date': '15 March 1975', 'start_year': '1988', 'abstract': 'William James Adams Jr. (born March 15, 1975), known professionally as will.i.am (pronounced "Will-I-am"), is an American rapper, singer, songwriter, and record producer. He is the founding and lead member of the musical group Black Eyed Peas. As a solo artist, will.i.am has released four albums, beginning with Lost Change (2001), through Atlantic Records. His second solo outing, Must B 21, was released on September 23, 2003. The track "Go!" was regularly used as the theme for the NBA Live 2005 and Madden NFL 2005 seasons. The third album, Songs About Girls, was released on September 25, 2007. He released his fourth studio album, #willpower, in 2013. As a music producer, will.i.am has worked for other artists including A.R. Rahman, Cheryl, Michael Jackson, Justin Bieber, Kesha, Britney Spears, Miley Cyrus, David Guetta, U2, Rihanna, Lady Gaga, Usher, Justin Timberlake, Nicki Minaj, 2NE1, and Baby Kaely. In collaborations and with the Black Eyed Peas, he has a total of 41 top-40 entries on the UK Singles Chart since 1998, and has sold 9.4 million singles in the UK. In addition to his music career, will.i.am has also been a judge and mentor on the television talent show series The Voice UK (2012–present), The Voice Australia (2014), and The Voice Kids (2017–present).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Huey_Lewis_and_the_News', 'artist_name': 'Huey Lewis &amp; The News', 'wiki': 'http://en.wikipedia.org/wiki/Huey_Lewis_and_the_News', 'hometown': 'http://dbpedia.org/resource/San_Francisco', 'start_year': '1979', 'abstract': 'Huey Lewis and the News is an American rock band based in San Francisco, California. They had a run of hit singles during the 1980s and early 1990s, eventually achieving 19 top ten singles across the Billboard Hot 100, Adult Contemporary, and Mainstream Rock charts. Their most successful album, Sports, was released in 1983. The album, along with its videos being featured on MTV, catapulted the group to worldwide fame. Their popularity expanded when the hit song "The Power of Love" was featured in the 1985 film Back to the Future. "The Power of Love" reached number one on the Billboard Hot 100 singles chart and was nominated for the Academy Award for Best Original Song.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Dandy_Warhols', 'artist_name': 'The Dandy Warhols', 'wiki': 'http://en.wikipedia.org/wiki/The_Dandy_Warhols', 'hometown': 'http://dbpedia.org/resource/Oregon', 'start_year': '1994', 'abstract': 'The Dandy Warhols are an American alternative rock band, formed in Portland, Oregon in 1994 by singer-guitarist Courtney Taylor-Taylor and guitarist Peter Holmström. They were later joined by keyboardist Zia McCabe and drummer Eric Hedford. Hedford left in 1998 and was replaced by Taylor-Taylor\'s cousin Brent DeBoer. The band\'s name is a play on the name of American pop artist Andy Warhol. The band gained recognition after they were signed to Capitol Records and released their major label album debut, ...The Dandy Warhols Come Down, in 1997. In 2001, the band rose to new levels of fame after their song "Bohemian Like You" enjoyed extensive exposure due to being featured in a Vodafone advertisement. The Dandy Warhols were the subject of the 2004 documentary film Dig!, along with San Francisco psychedelic outfit The Brian Jonestown Massacre. They have released 10 studio albums, two compilation albums, six EPs, and 27 singles to date.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Human_League', 'artist_name': 'The Human League', 'wiki': 'http://en.wikipedia.org/wiki/The_Human_League', 'abstract': 'The Human League are an English synth-pop band formed in Sheffield in 1977. Initially an experimental electronic outfit, the group signed to Virgin Records in 1979 and later attained widespread commercial success with their third album Dare in 1981. The album contained four hit singles, including the UK/US number one hit "Don\'t You Want Me". The band received the Brit Award for Best British Breakthrough Act in 1982. Further hits followed throughout the 1980s and into the 1990s, including "Mirror Man", "(Keep Feeling) Fascination", "The Lebanon", "Human" (a US No. 1) and "Tell Me When". The only constant band member since 1977 has been lead singer and songwriter Philip Oakey. Keyboard players Martyn Ware and Ian Craig Marsh both left the band in 1980 to form Heaven 17. Under Oakey\'s leadership, the Human League then evolved into a commercially successful New Pop band, with a new line-up including female vocalists Joanne Catherall and Susan Ann Sulley. Since the mid-1990s, the band have essentially been a trio of Oakey, Catherall and Sulley with various sidemen. Since 1978, the Human League have released nine studio albums, two remix albums, one live album, six EPs, 30 singles and several compilation albums. They have had five albums and 15 Top 20 singles and had sold more than 20 million records worldwide by 2010. As an early techno-pop act that received extensive MTV airplay, they are regarded as one of the leading artists of the 1980s Second British Invasion of the US.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/AC/DC', 'artist_name': 'AC/DC', 'wiki': 'http://en.wikipedia.org/wiki/AC/DC', 'hometown': 'http://dbpedia.org/resource/New_South_Wales', 'start_year': '1973', 'end_year': '1973', 'abstract': 'AC/DC are an Australian rock band formed in Sydney in 1973 by Scottish-born brothers Malcolm and Angus Young. Their music has been variously described as hard rock, blues rock, and heavy metal, but the band themselves call it simply "rock and roll". AC/DC underwent several line-up changes before releasing their first album, 1975\'s High Voltage. Membership subsequently stabilised around the Young brothers, singer Bon Scott, drummer Phil Rudd, and bassist Mark Evans. Evans was fired from the band in 1977 and replaced by Cliff Williams, who has appeared on every AC/DC album since 1978\'s Powerage. In February 1980, about seven months after the release of their breakthrough album Highway to Hell, Scott died of acute alcohol poisoning after a night of heavy drinking. The group considered disbanding but elected to stay together, bringing in longtime Geordie vocalist Brian Johnson as Scott\'s replacement. Later that year, the band released their first album with Johnson, Back in Black, which was dedicated to Scott\'s memory. The album launched AC/DC to new heights of success and became one of the best selling albums of all time. The band\'s eighth studio album, For Those About to Rock We Salute You (1981), was their first album to reach number one in the United States. Prior to the release of 1983\'s Flick of the Switch, Rudd left the band and was replaced by Simon Wright, being in turn replaced by Chris Slade in 1989. The band experienced a commercial resurgence in the early nineties with the release of 1990\'s The Razors Edge. Rudd returned to the band in 1994, replacing Slade and appearing on the band\'s next five albums. Their fifteenth studio album Black Ice was the second-highest-selling album of 2008, and their biggest chart hit since For Those About to Rock, eventually reaching No.1 worldwide. The band\'s line-up remained the same for twenty years, until 2014 with Malcolm Young\'s retirement due to early-onset dementia (he died in 2017) and Rudd\'s legal troubles. Malcolm was replaced by his nephew Stevie Young, who debuted on AC/DC\'s 2014 album Rock or Bust, and on its accompanying tour, previous drummer Chris Slade filled in for Rudd. In 2016, Johnson was advised to stop touring due to worsening hearing loss. Guns N\' Roses frontman Axl Rose stepped in as the band\'s vocalist for the remainder of that year\'s dates. Long-term bass player and background vocalist Cliff Williams retired from AC/DC at the end of the Rock or Bust tour in 2016 and the group entered a four-year hiatus. A reunion of the Rock or Bust lineup was announced in September 2020 and the band\'s seventeenth studio album Power Up was released two months later. AC/DC have sold more than 200 million records worldwide, including 75 million albums in the United States, making them the ninth-highest-selling artist in the United States and the 16th-best-selling artist worldwide. Back in Black has sold an estimated 50 million units worldwide, making it the third-highest-selling album by any artist, and the highest-selling album by any band. The album has sold 22 million units in the US, where it is the sixth-highest-selling album of all time. AC/DC ranked fourth on VH1\'s list of the "100 Greatest Artists of Hard Rock" and were named the seventh "Greatest Heavy Metal Band of All Time" by MTV. In 2004, AC/DC ranked No. 72 on the Rolling Stone list of the "100 Greatest Artists of All Time". Producer Rick Rubin, who wrote an essay on the band for the Rolling Stone list, referred to AC/DC as "the greatest rock and roll band of all time". In 2010, VH1 ranked AC/DC number 23 in its list of the "100 Greatest Artists of All Time".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kygo', 'artist_name': 'Kygo', 'wiki': 'http://en.wikipedia.org/wiki/Kygo', 'hometown': 'http://dbpedia.org/resource/Bergen', 'birth_date': '11 September 1991', 'start_year': '2010', 'abstract': 'Kyrre Gørvell-Dahll (born 11 September 1991), better known by his stage name Kygo (Norwegian: [ˈkỳːɡuː]), is a Norwegian DJ, songwriter and record producer. He garnered international attention with his December 2013 remix of the track "I See Fire" by Ed Sheeran and his December 2014 single "Firestone" featuring Conrad Sewell. In late 2015, he became the fastest artist to reach 1 billion streams on Spotify, and by June 2016, he had reached 2 billion streams on Spotify. Kygo has since released several singles, such as "Stole the Show", "Here for You" and "Stay" in 2015, "It Ain\'t Me" in 2017 and a 2019 remix of "Higher Love" performed by Whitney Houston, all of which have debuted on several international charts. His debut album, Cloud Nine, was released on 13 May 2016. Kygo became the first house music producer to perform at an Olympics closing ceremony on 21 August 2016 at the 2016 Rio Olympics. In March 2018, Billboard ranked Kygo 3rd on its 2018 ranking of dance musicians titled Billboard Dance 100. In 2018, he was ranked 32 on DJ Mag\'s top 100 DJs of the world, and in October 2019 he was ranked 42. Kygo\'s stage name is derived from the first two letters of his first and last names. Kygo was his automatically made username on Itslearning and that is how he got the idea to use it as his artist name.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Justice_(singer)', 'artist_name': 'Justice', 'wiki': 'http://en.wikipedia.org/wiki/Justice_(singer)', 'start_year': '2011', 'abstract': 'Justice, born Lauren Justice, is an American female pop recording artist.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Iann_Dior', 'artist_name': 'Iann Dior', 'wiki': 'http://en.wikipedia.org/wiki/Iann_Dior', 'hometown': 'http://dbpedia.org/resource/Corpus_Christi,_Texas', 'birth_date': '25 March 1999', 'start_year': '2017', 'abstract': 'Michael Ian Olmo (born March 25, 1999), known professionally as Iann Dior (stylized in all lowercase), is an American rapper, singer, and songwriter. Olmo is most well-known for his 2020 hit single "Mood", a collaboration with fellow American rapper 24kGoldn. The song peaked at number one on the Billboard Hot 100 and became his first and highest-charting song till date. Olmo\'s other popular songs include "emotions", "gone girl" (with Trippie Redd), "Sick and Tired" (with Machine Gun Kelly and Travis Barker), and "Prospect" (with Lil Baby). Olmo has released 1 mixtape ("nothings ever good enough"), 1 studio album ("Industry Plant"), and 2 EPs ("I\'m Gone" and "Still Here"). His second studio album, "On To Better Things", is expected to be released in early 2022 after its initial release date of December 10, 2021 was delayed by his label, 10K Projects.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Irene_Cara', 'artist_name': 'Irene Cara', 'wiki': 'http://en.wikipedia.org/wiki/Irene_Cara', 'birth_date': '18 March 1959', 'abstract': 'Irene Cara Escalera (born March 18, 1959) known professionally as Irene Cara, is an American singer, songwriter, dancer, and actress. Cara sang and co-wrote the song "Flashdance... What a Feeling" (from the film Flashdance), for which she won an Academy Award for Best Original Song and a Grammy Award for Best Female Pop Vocal Performance in 1984. Cara is also known for playing the role of Coco Hernandez in the 1980 film Fame, and for recording the film\'s title song "Fame". Prior to her success with Fame, Cara portrayed the title character Sparkle Williams in the original 1976 musical drama film Sparkle.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Charlie_Puth', 'artist_name': 'Charlie Puth', 'wiki': 'http://en.wikipedia.org/wiki/Charlie_Puth', 'birth_date': '02 December 1991', 'start_year': '2009', 'abstract': 'Charles Otto Puth Jr. (/puːθ/; born December 2, 1991) is an American singer, songwriter, and record producer. His initial exposure came through the viral success of his song videos uploaded to YouTube. After initially signing with eleveneleven after performing on The Ellen DeGeneres Show, Puth began contributing to songs and albums for other artists, as well as creating lite solo material and covers of popular songs. With primary intent on a solo career, Atlantic Records and Artist Partner Group eventually sought the artist and released his debut single, "Marvin Gaye" (featuring Meghan Trainor), in 2015. His next single and first feature, "See You Again", which he co-wrote, co-produced, and performed with Atlantic label-mate Wiz Khalifa for the Furious 7 soundtrack as a tribute to actor Paul Walker. It peaked at number one on the US Billboard Hot 100 for 12 non-consecutive weeks. After the success of "See You Again", he gained worldwide recognition for multiple subsequent releases, including his next single, "One Call Away". The single reached number 12 on the Billboard Hot 100. Puth\'s debut studio album, Nine Track Mind, was released in January 2016 to moderate commercial success despite generally negative reviews from critics. The album was preceded by the singles "One Call Away" and "We Don\'t Talk Anymore" (featuring Selena Gomez), which peaked at number 12 and number 9 respectively on the Billboard Hot 100. In 2017, he released two songs, "Attention" and "How Long", with the former peaking at number 5 on the Billboard Hot 100. Both were included on his second studio album, Voicenotes (2018), with ameliorated critical reception and a peak of number 4 on the Billboard 200. In 2019, Puth released the singles "I Warned Myself", "Mother" and "Cheating on You". The following year, Puth released singles "Girlfriend" and "Hard on Yourself."'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/A_Flock_of_Seagulls', 'artist_name': 'A Flock of Seagulls', 'wiki': 'http://en.wikipedia.org/wiki/A_Flock_of_Seagulls', 'hometown': 'http://dbpedia.org/resource/Liverpool', 'start_year': '1979', 'end_year': '1986', 'abstract': 'A Flock of Seagulls is an English new wave band formed in Liverpool in 1979. The group, whose best-known line-up comprised Mike Score, Ali Score, Frank Maudsley and Paul Reynolds, hit the peak of their chart success in the early 1980s. The group had a string of international hit singles including "I Ran (So Far Away)" (1982), "Space Age Love Song" (1982), "Wishing (If I Had a Photograph of You)" (1982), and "The More You Live, the More You Love" (1984). Their video for "I Ran (So Far Away)" received airplay on MTV during the Second British Invasion. The band won a Grammy Award in 1983 for their instrumental "D.N.A." (1982). In 2018 the members of the original lineup came together to record an album with the Prague Philharmonic Orchestra entitled Ascension.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Seeb_(music_producers)', 'artist_name': 'Seeb', 'wiki': 'http://en.wikipedia.org/wiki/Seeb_(music_producers)', 'start_year': '2015', 'abstract': 'Seeb (sometimes stylized as SEEB or SeeB) is a Norwegian EDM record production duo made up of Simen Eriksrud and Espen Berg. Their name is made up of the initials (first letter of given name and surname) of the original duo.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Everything_but_the_Girl', 'artist_name': 'Everything but the Girl', 'wiki': 'http://en.wikipedia.org/wiki/Everything_but_the_Girl', 'hometown': 'http://dbpedia.org/resource/East_Riding_of_Yorkshire', 'start_year': '1982', 'end_year': '2000', 'abstract': 'Everything but the Girl (occasionally referred to as EBTG) were an English musical duo, formed in Kingston upon Hull, England in 1982, consisting of lead singer and occasional guitarist Tracey Thorn and guitarist, keyboardist, producer and singer Ben Watt. Everything but the Girl has received eight gold and two platinum album BPI Certifications in the UK, and one gold album RIAA Certification in the US. They had four top ten singles and twelve top forty singles in the UK. Their biggest hit song "Missing" charted high in several countries and reached number two on the U.S. Billboard Hot 100 in 1995 and spent over seven months on the UK Singles Chart thanks to an extremely popular remix by Todd Terry which later led to a Brit Award nomination for Best British Single. The duo have also been nominated for MTV, EMA and Ivor Novello Awards and received an award from the BMI for sales of over 3 million in the UK alone. Watt and Thorn are also a couple, though they are very private about their relationship and personal life. While their relationship started during their time at university, it was not a publicised fact that they were romantically involved, or that they had subsequently married. They are currently inactive, and have not performed publicly since 2000. Thorn has said in interviews she dislikes performing live and will no longer sing in front of a live audience. Both Thorn and Watt have released several solo albums, but have expressed that it is unlikely that they will record again as EBTG.'}</t>
   </si>
   <si>
     <t>{'artist': 'http://dbpedia.org/resource/Rob_Zombie', 'artist_name': 'Rob Zombie', 'wiki': 'http://en.wikipedia.org/wiki/Rob_Zombie', 'birth_date': '12 January 1965', 'start_year': '1985', 'abstract': 'Robert Bartleh Cummings (born January 12, 1965), known professionally as Rob Zombie, is an American singer, songwriter, filmmaker, and voice actor. He is a founding member of the heavy metal band White Zombie, releasing four studio albums with the band. He is the older brother of Spider One, the lead vocalist of the industrial metal band Powerman 5000. Zombie\'s first solo effort was a 1996 song titled "Hands of Death (Burn Baby Burn)", written and performed with Alice Cooper. It went on to receive a nomination for Best Metal Performance at the 39th Annual Grammy Awards. In 1997, he began working on his debut solo studio album, Hellbilly Deluxe, which was released in August 1998. A month later, Zombie officially disbanded White Zombie. Hellbilly Deluxe went on to sell over three million copies worldwide and spawned three singles. Zombie directed the horror film House of 1000 Corpses in 2000, though the controversial project was not released until 2003. His second studio album, The Sinister Urge (2001), became his second platinum album in the U.S. Zombie directed The Devil\'s Rejects (2005), a direct sequel to his prior film House of 1000 Corpses. The project received a more positive reception than its predecessor. His third studio album, Educated Horses (2006), was a departure from his earlier recordings. The album became his third to enter the top ten of the Billboard 200, but saw a decrease in sales compared to his previous releases. Deciding to focus on his directing career, Zombie directed the horror film Halloween (2007), a remake of the 1978 horror classic of the same name. The film became Zombie\'s highest-grossing film to date, though was generally received negatively by critics. He later directed Halloween II (2009), which failed to match the success of its predecessor. He released the animated film The Haunted World of El Superbeasto that same year. Zombie returned to music with the release of his fourth studio album, Hellbilly Deluxe 2 (2010). The album peaked at number eight in the U.S., where it sold over 200,000 copies. In 2012, Zombie released a second remix album and directed the horror film The Lords of Salem, which was released in 2013; that year he also released his fifth studio album Venomous Rat Regeneration Vendor. Later he directed the horror film 31. Zombie released his next solo album, The Electric Warlock Acid Witch Satanic Orgy Celebration Dispenser, in 2016, followed nearly five years later by his seventh studio album, The Lunar Injection Kool Aid Eclipse Conspiracy (2021). Since the beginning of his music career, Zombie\'s music and lyrics have featured notable horror and sci-fi themes. His live shows have been praised for their elaborate shock rock theatricality. Since beginning his solo career, Zombie has sold an estimated fifteen million albums worldwide.'}</t>
   </si>
   <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bullet_for_My_Valentine', 'artist_name': 'Bullet for My Valentine', 'wiki': 'http://en.wikipedia.org/wiki/Bullet_for_My_Valentine', 'hometown': 'http://dbpedia.org/resource/Bridgend', 'start_year': '1998', 'abstract': "Bullet for My Valentine, often abbreviated as BFMV, are a Welsh heavy metal band from Bridgend, formed in 1998. The band is currently composed of Matthew Tuck (lead vocals, rhythm guitar), Michael Paget (lead guitar, backing vocals), Jason Bowld (drums) and Jamie Mathias (bass guitar, backing vocals). Former members include Michael Thomas, Jason James and Nick Crandle; the latter were on bass. They were formed under the name Jeff Killed John and started their music career by covering songs by Metallica and Nirvana. Jeff Killed John recorded six songs which were not released; two of these tracks were reworked later in their career as Bullet for My Valentine. A change of style from that of Jeff Killed John led the band to change their name. In 2002, the band secured a five-album deal with Sony BMG. The band has stated that their music is influenced by classic metal acts such as Metallica, Iron Maiden and Slayer. The band is part of the Cardiff music scene. Bullet for My Valentine's debut album The Poison was released on 3 October 2005 in the United Kingdom and on 14 February 2006 in the United States to coincide with Valentine's Day, in a nod to the band's name. The album entered the U.S. Billboard 200 at number 128. It was certified gold by the Recording Industry Association of America. The band made appearances at the Download Festival and Kerrang! XXV, and undertook a U.S. tour with Rob Zombie. Bullet for My Valentine's second studio album, Scream Aim Fire, was released on 28 January 2008 and debuted at number four on the Billboard 200. The band's third album, Fever, was released on 26 April 2010 and debuted at number three on the Billboard 200. On 8 February 2013, the band released their fourth studio album, Temper Temper, which peaked at number 13 on the Billboard 200. On 14 August 2015, the band released their fifth studio album, Venom, which peaked at number 8 on the Billboard 200. On 29 June 2018, the band released their sixth studio album, Gravity. Their self-titled seventh studio album was released on 5 November 2021. The band has sold over one million albums in the United States and over 3,000,000 albums worldwide and are the most-successful act in the Kerrang! Awards category of Best British Band with three wins."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Korn', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'start_year': '1993', 'abstract': 'Korn (stylized as KoЯn) is an American nu metal band from Bakersfield, California, formed in 1993. The band is notable for pioneering the nu metal genre and bringing it into the mainstream. Originally formed in 1993 by three members of the band L.A.P.D., Korn\'s current lineup features founding members James "Munky" Shaffer (rhythm guitar), Reginald "Fieldy" Arvizu (bass), Brian "Head" Welch (lead guitar, backing vocals), and Jonathan Davis (lead vocals, bagpipes), with the addition of Ray Luzier (drums) in 2007, replacing the band\'s first drummer, David Silveria. Korn made a demo tape, Neidermayer\'s Mind, in 1993, which was distributed free to record companies and on request to members of the public. Their debut album, Korn, was released in 1994, followed by Life Is Peachy in 1996. The band first experienced mainstream success with Follow the Leader (1998) and Issues (1999), both of which debuted at number one on the Billboard 200. The band\'s mainstream success continued with Untouchables (2002), Take a Look in the Mirror (2003) and See You on the Other Side (2005). A compilation album, Greatest Hits Vol. 1, was released in 2004, spanning a decade of singles and concluding the band\'s recording contract with Immortal Records and Epic Records. They signed to Virgin Records, releasing See You on the Other Side in 2005, and an untitled album in 2007. Korn\'s other recent albums, Korn III: Remember Who You Are (2010) and The Path of Totality (2011), were released via Roadrunner Records, The Paradigm Shift (2013) being released via Prospect Park and Caroline Records. The Serenity of Suffering, saw their return to Roadrunner Records. Their latest album, The Nothing, was released on September 13, 2019. As of 2018, Korn had sold more than 40 million records worldwide. Twelve of the band\'s official releases have peaked in the top ten of the Billboard 200, eight of which have peaked in the top five. Seven official releases are certified platinum by the Recording Industry Association of America (RIAA), two are certified double platinum, one is certified triple platinum, one is certified five times platinum and two are certified Gold. Korn has released seven video albums and 39 music videos. The band has released 41 singles, 28 of which have charted. Korn has earned two Grammy Awards out of eight nominations and two MTV Video Music Awards out of eleven nominations.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Skrillex', 'artist_name': 'Skrillex', 'wiki': 'http://en.wikipedia.org/wiki/Skrillex', 'birth_date': '15 January 1988', 'start_year': '2004', 'abstract': 'Sonny John Moore (born January 15, 1988), known professionally as Skrillex, is an American DJ, record producer, musician, singer and songwriter. Growing up in Northeast Los Angeles and in Northern California, he joined the American post-hardcore band From First to Last as the lead singer in 2004, and recorded two studio albums with the band (Dear Diary, My Teen Angst Has a Body Count, 2004, and Heroine, 2006) before leaving to pursue a solo career in 2007. He began his first tour as a solo artist in late 2007. After recruiting a new band lineup, Moore joined the Alternative Press Tour to support bands such as All Time Low and The Rocket Summer, and appeared on the cover of Alternative Press\' annual "100 Bands You Need to Know" issue. After releasing the Gypsyhook EP in 2009, Moore was scheduled to record his debut studio album, Bells, with producer Noah Shain. He ceased production of the album, however, and began performing under the name Skrillex, distributing the My Name Is Skrillex EP for free download on his official MySpace page. Subsequently, he released the Scary Monsters and Nice Sprites EP in late–2010 and More Monsters and Sprites EP in mid–2011, both of which have since become moderate commercial successes. On November 30, 2011, he received five Grammy Award nominations at the 54th Grammy Awards, including Best New Artist and won three: "Best Dance/Electronica Album", "Best Dance Recording", and "Best Remixed Recording, Non-Classical". On December 5, 2011, the BBC announced that he had been nominated for their Sound of 2012 poll. On December 12, 2011, he was also named MTV\'s Electronic Dance Music Artist of the Year. Skrillex has won eight Grammy Awards, more than any other electronic dance music artist. Skrillex has collaborated with Diplo and Boys Noize to form the groups of Jack Ü and Dog Blood respectively. It was announced on Moore\'s 29th birthday, he reunited with From First to Last and released a single named "Make War". In 2017, Skrillex produced and mixed 8, the eighth studio album by rock band Incubus. In July 2017, Skrillex released another single featuring debuting solo artist Poo Bear.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Three_Days_Grace', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'start_year': '1997', 'abstract': 'Three Days Grace is a Canadian rock band formed in Norwood, Ontario in 1997. The band\'s original iteration was called "Groundswell" and played in various local Norwood back-yard parties and area establishments from 1993 to 1996. Based in Toronto, the band\'s original line-up consisted of guitarist and lead vocalist Adam Gontier, drummer and backing vocalist Neil Sanderson, and bassist Brad Walst. In 2003, Barry Stock was recruited as the band\'s lead guitarist, making them a four-member band. In 2013, Gontier left the band and was replaced by My Darkest Days\' vocalist Matt Walst, who is also the younger brother of Brad Walst. Currently signed to RCA Records, they have released six studio albums, each at three-year intervals: Three Days Grace in 2003, One-X in 2006, Life Starts Now in 2009, Transit of Venus in 2012, Human in 2015, and Outsider in 2018. Their upcoming seventh studio album Explosions is due to be released on May 6, 2022. The first three albums have been RIAA certified 2x platinum, 3x platinum, and platinum, respectively, in the United States. In Canada, they have been certified by Music Canada as platinum, triple platinum, and double platinum, respectively. The band has had 15 No. 1 songs on the Billboard Hot Mainstream Rock Tracks chart, and three No. 1 hits on Alternative Songs.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/Breaking_Benjamin', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'start_year': '1999', 'end_year': '2010', 'abstract': 'Breaking Benjamin is an American rock band from Wilkes-Barre, Pennsylvania, formed in 1999 by lead singer and guitarist Benjamin Burnley and drummer Jeremy Hummel. The first lineup of the band also included guitarist Aaron Fink and bassist Mark Klepaski. This lineup released two albums, Saturate (2002) and We Are Not Alone (2004), before Hummel was replaced by Chad Szeliga in 2005. The band released two more studio albums, Phobia (2006) and Dear Agony (2009), before entering an extended hiatus in early 2010 due to Burnley\'s recurring illnesses. Amid the hiatus, the release of a compilation album, Shallow Bay: The Best of Breaking Benjamin (2011), unauthorized by Burnley, brought about legal trouble within the band resulting in the dismissal of Fink and Klepaski. Szeliga later announced his departure in 2013 citing creative differences. Burnley remained the sole member of the band until late 2014, when the current lineup was announced, including bassist and backing vocalist Aaron Bruch, guitarist and backing vocalist Keith Wallen, guitarist Jasen Rauch, and drummer Shaun Foist. The band afterward released Dark Before Dawn (2015) and Ember (2018), which debuted at number one and three on the Billboard 200, respectively. Following these albums, the band released another compilation, Aurora (2020), featuring reworked acoustic versions of past songs along with one original new song. Despite significant lineup changes, the band\'s musical style and lyrical content have remained consistent, with Burnley serving as the primary composer and lead vocalist since the band\'s inception. The band has commonly been noted for its formulaic hard rock tendencies with angst-heavy lyrics, swelling choruses, and "crunching" guitars. In the United States alone, the band has sold more than 7 million units and yielded three RIAA-certified platinum records, two gold records, and several certified singles, including two multi-platinum, two platinum, and five gold. The band has also produced one number one record on the Billboard 200.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Five_Finger_Death_Punch', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'start_year': '2005', 'abstract': 'Five Finger Death Punch, also abbreviated as 5FDP or FFDP, is an American heavy metal band from Las Vegas, Nevada, formed in 2005. The band originally consisted of vocalist Ivan Moody, rhythm guitarist Zoltan Bathory, lead guitarist Caleb Andrew Bingham, bassist Matt Snell, and drummer Jeremy Spencer. Bingham was replaced by guitarist Darrell Roberts in 2006, who was then replaced by Jason Hook in 2009. Bassist Matt Snell departed from the band in 2010, and was replaced by in 2011. Spencer then departed the band in 2018 due to recurring back issues, and was replaced by Charlie Engen, making rhythm guitarist Bathory the only remaining founding member of the band. In October 2020, British guitarist Andy James became the band\'s lead guitarist, replacing Jason Hook. Five Finger Death Punch\'s debut album The Way of the Fist was released in 2007, which began achieving rapid success and selling over 500,000 copies in the United States. The 2009 follow-up album War Is the Answer further increased their popularity, selling over 1,000,000 copies and got certified Platinum by the RIAA, the band\'s third album, American Capitalist, was released on October 11, 2011, and achieved Platinum status. The following four albums—The Wrong Side of Heaven and the Righteous Side of Hell, Volume 1 (2013), The Wrong Side of Heaven and the Righteous Side of Hell, Volume 2 (2013), Got Your Six (2015), and And Justice for None (2018)—have all been certified Platinum and Gold, making Five Finger Death Punch one of the most successful heavy metal bands of the decade. The band has played international music festivals including Mayhem Festival in 2008, 2010 and 2013, and Download Festival in 2009, 2010, 2013, 2015, and 2017. The band released their eighth studio album, F8, in 2020. Five Finger Death Punch are the recipients of the RadioContraband Rock Radio Awards for "Indie Artist of the Year" in 2011, 2012, 2013, and 2014. They were also honored with the Radio Contraband Rock Radio Award for Album (American Capitalist) and Song of the Year ("Coming Down") in 2012 and "Video of the Year" for "Wrong Side of Heaven" in 2014. To date, Five Finger Death Punch has released eight studio albums, one live album, two compilation albums, one extended play (EP) and 32 singles.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rob_Halford', 'artist_name': 'Rob Halford', 'wiki': 'http://en.wikipedia.org/wiki/Rob_Halford', 'hometown': 'http://dbpedia.org/resource/Walsall', 'birth_date': '25 August 1951', 'start_year': '1969', 'abstract': 'Robert John Arthur Halford (born 25 August 1951) is an English singer and songwriter. He is best known as the lead vocalist of the heavy metal band Judas Priest, which was formed in 1969 and has received accolades such as the 2010 Grammy Award for Best Metal Performance. He has been noted for his powerful, wide-ranging voice and trademark leather-and-studs image, both of which have become iconic in heavy metal. He has also been involved with several side projects, including Fight, Two, and Halford. AllMusic said of Halford, "There have been few vocalists in the history of heavy metal whose singing style has been as influential and instantly recognizable... able to effortlessly alternate between a throaty growl and an ear-splitting falsetto." He was ranked at No. 33 on the list of greatest voices in rock by Planet Rock listeners in 2009. He has also been nicknamed "Metal God" by fans.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Maria_Brink', 'artist_name': 'Maria Brink', 'wiki': 'http://en.wikipedia.org/wiki/Maria_Brink', 'birth_date': '18 December 1977', 'start_year': '2004', 'abstract': 'Maria Brink (born December 18, 1977) is an American singer and songwriter, best known as the frontwoman of American rock band In This Moment. The band has gone on to release seven studio albums and receive four nominations, two from Alternative Press Music Awards, one from Grammy Awards, and one from Loudwire Music Awards. Brink has been awarded "Rock Goddess of the Year" in the third (2013) and fifth (2015) Annual Loudwire Music Awards, "Hottest Chick in Metal" in 2010, one of eleven women in heavy metal who matter by Yell! Magazine in 2012, and was recognized by Revolver Magazine as one of the "25 Hottest Chicks in Hard Rock &amp; Metal".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Max_Cavalera', 'artist_name': 'Max Cavalera', 'wiki': 'http://en.wikipedia.org/wiki/Max_Cavalera', 'birth_date': '04 August 1969', 'start_year': '1984', 'abstract': 'Massimiliano Antonio "Max" Cavalera (Portuguese pronunciation: [masimiliˈɐnu ɐ̃ˈtonju kɐvɐˈleɾɐ], born August 4, 1969) is a Brazilian singer, guitarist, and songwriter who currently plays in heavy metal bands Soulfly, Cavalera Conspiracy, and Killer Be Killed. In 1984, he co-founded the death metal/thrash metal band Sepultura with his brother Igor Cavalera and was the band\'s lead singer and rhythm guitarist until 1996. Cavalera was also involved in a short-lived side project called Nailbomb.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Jamey_Jasta', 'artist_name': 'Jamey Jasta', 'wiki': 'http://en.wikipedia.org/wiki/Jamey_Jasta', 'hometown': 'http://dbpedia.org/resource/New_Haven,_Connecticut', 'birth_date': '07 August 1977', 'start_year': '1991', 'abstract': 'Jamey Jasta (born James Vincent Shanahan; August 7, 1977) is an American singer and songwriter from New Haven, Connecticut. He is best known as the lead vocalist of metalcore band Hatebreed and sludge metal band Kingdom of Sorrow. Jasta also fronts metalcore band Icepick. Prior to Hatebreed, Jasta fronted the hardcore band Jasta 14. Jasta owns Stillborn Records, a hardcore- and metal-based record-label from West Haven, and "rock-themed apparel"-line called Hatewear. In 2011, Jasta released a solo album entitled Jasta, collaborating with Randy Blythe and Mark Morton (Lamb of God), Zakk Wylde, Philip Labonte (All That Remains), and Tim Lambesis (As I Lay Dying). Jasta was the host for MTV\'s Headbangers Ball from 2003 to 2007. Jasta created the music for "Stat of the Day" for the nationally syndicated radio and TV talk show, The Dan Patrick Show. Jasta appeared on air with Dan Patrick on January 25, 2013 discussing the making of the song. He, as of 2013, refrains from smoking, drinking, and doing drugs but does not affiliate himself with the straight edge subculture. Jasta\'s debut solo album, Jasta, was released on July 26, 2011, through eOne Music. In Europe, the album was released via Century Media Records. AllMusic scored the album 4 out of 5 stars, while Blabbermouth.net gave it 6.5 out of 10 stars. In 2018, Jasta produced Dee Snider\'s fourth solo album, For the Love of Metal. He is also producing the follow-up that will be released in the summer of 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Seether', 'artist_name': 'Seether', 'wiki': 'http://en.wikipedia.org/wiki/Seether', 'hometown': 'http://dbpedia.org/resource/Pretoria', 'start_year': '1999', 'abstract': 'Seether are a South African rock band founded in 1999 in Pretoria, Gauteng. The band originally performed under the name "Saron Gas" until 2002, when they moved to the United States and changed it to Seether to avoid confusion with the deadly chemical known as sarin gas. Lead vocalist and guitarist Shaun Morgan is the band\'s longest serving member, bassist Dale Stewart joined shortly after formation while drummer John Humphrey joined them for the band\'s second album. Since 2018, the band has been employing second guitarist Corey Lowery. Several notable guitarists like Corey\'s brother Clint and Troy McLawhorn have toured or recorded with the band, however, Shaun has recorded most guitar parts for the band\'s records. Seether gained mainstream popularity in 2002 with their US Active Rock number one single "Fine Again". Their success was sustained in 2004 with the single "Broken", which peaked at number 20 on the Billboard Hot 100. They have experienced continued success with many number one hits on the Hot Mainstream Rock Tracks chart, such as "Remedy", "Fake It", "Country Song", "Words as Weapons", "Let You Down" and "Dangerous". The band has released eight studio albums; their most recent, Si Vis Pacem, Para Bellum, was released on 28 August 2020.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Amy_Lee_(saxophonist)', 'artist_name': 'Amy Lee', 'wiki': 'http://en.wikipedia.org/wiki/Amy_Lee_(saxophonist)', 'hometown': 'http://dbpedia.org/resource/North_Adams,_Massachusetts', 'abstract': "Amy Lee is an American saxophonist, composer and arranger. She has played with a variety of musicians and singers, and is best known for being a member of Jimmy Buffett's Coral Reefer Band. Lee was born in North Adams, Massachusetts and studied music at the University of Miami. After graduating, she moved to Atlanta, Georgia. While living in Atlanta, Lee met Charles Neville of The Neville Brothers and began playing for his group Diversity at the New Orleans Jazz and Heritage Festival. Her first album performance was in 1990 on Richard Smallwood's Portrait. After playing with Diversity for six years at the Festival, Lee was introduced to Jimmy Buffett by Neville, and in 1991, she joined Buffett's Coral Reefer Band, where she recorded and toured until 2006. During her career, Lee has recorded for gospel singer Luther Barnes and rap group Y'all So Stupid. She has also acted as a performer, arranger and writer for radio and television commercials. Lee released her first solo album in 1999, a jazz record titled Inside the Outside. A second album, Use Me, was released in 2004. All of her solo music is released on her independent label Publick Ptomaine Music."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Meshuggah', 'artist_name': 'Meshuggah', 'wiki': 'http://en.wikipedia.org/wiki/Meshuggah', 'hometown': 'http://dbpedia.org/resource/Umeå', 'start_year': '1987', 'abstract': 'Meshuggah (/məˈʃʊɡə/) is a Swedish extreme metal band formed in Umeå in 1987. The band\'s current lineup consists of lead vocalist Jens Kidman, lead guitarist Fredrik Thordendal, drummer Tomas Haake, rhythm guitarist Mårten Hagström and bassist Dick Lövgren. Since its formation, the band has released eight studio albums, six EPs and eight music videos. Their latest studio album, The Violent Sleep of Reason, was released on 7 October 2016. Meshuggah has become known for their innovative musical style and their complex, polymetered song structures and polyrhythms. They rose to fame as a significant act in extreme underground music, became an influence for modern metal bands, and gained a cult following. The band was labelled as one of the ten most important hard rock and heavy metal bands by Rolling Stone and as the most important band in metal by Alternative Press. In the late 2000s, the band was an inspiration for the djent subgenre. In 2006 and 2009, Meshuggah was nominated for two Swedish Grammis Awards for their albums Catch Thirtythree and obZen, respectively. In 2018, the band was nominated for a Grammy Award for their song "Clockworks" under the "Best Metal Performance" category. The band has performed in various international festivals, including Ozzfest and Download, and embarked on the obZen world tour from 2008 to 2010, and also the "Ophidian Trek".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Alter_Bridge', 'artist_name': 'Alter Bridge', 'wiki': 'http://en.wikipedia.org/wiki/Alter_Bridge', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'start_year': '2004', 'abstract': 'Alter Bridge is an American rock band from Orlando, Florida. The band was formed in 2004 by vocalist/rhythm guitarist Myles Kennedy, lead guitarist Mark Tremonti, bassist Brian Marshall and drummer Scott Phillips. After their former band Creed became inactive in 2003, Tremonti and Phillips formed a new band with former bandmate Marshall and new member Kennedy; Alter Bridge was formally unveiled in January 2004, months before Creed\'s official breakup in June. After signing with Wind-up Records, Alter Bridge released its debut album One Day Remains in August 2004, much of which was written by Tremonti the previous year. The album reached No. 5 on the U.S. Billboard 200 and, despite mixed reviews, was certified gold by the Recording Industry Association of America in November 2004. This was followed in October 2007 by the more positively reviewed Blackbird, which marked the beginning of a long partnership between the band and producer Michael Baskette. The album reached No. 13 in the U.S. and was certified silver by the British Phonographic Industry. Following continued activities with the members\' other bands and side projects, Alter Bridge released AB III in October 2010, which achieved critical acclaim and commercial success on Roadrunner Records, with the album\'s lead single "Isolation" topping the Billboard Mainstream Rock chart. Alter Bridge released Fortress to further acclaim in September 2013, as the band\'s members continued splitting their time between various projects. The Last Hero followed on Napalm Records in October 2016, becoming the band\'s first album since its debut to reach the top ten of the Billboard 200, and its first to reach the top five of the UK Albums Chart. Alter Bridge\'s sixth studio album, Walk the Sky, was released in October 2019. This was followed up with Walk The Sky 2.0 in November 2020.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Stone_Sour', 'artist_name': 'Stone Sour', 'wiki': 'http://en.wikipedia.org/wiki/Stone_Sour', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'start_year': '1992', 'end_year': '1997', 'abstract': 'Stone Sour is an American rock band formed in Des Moines, Iowa, in 1992. The band performed for five years before disbanding in 1997. They reunited in 2000 and since 2015, the group has consisted of Corey Taylor (lead vocals, guitar), Josh Rand (guitar), Christian Martucci (guitar), Johny Chow (bass) and Roy Mayorga (drums). Longtime members Joel Ekman (drums, percussion) and Shawn Economaki (bass guitar) left the band in 2006 and 2011, respectively. Former lead guitarist Jim Root left in 2014. To date, Stone Sour has released six studio albums: Stone Sour (2002); Come What(ever) May (2006); Audio Secrecy (2010); House of Gold &amp; Bones – Part 1 (2012); House of Gold &amp; Bones – Part 2 (2013) and Hydrograd (2017). They also released a digital live album, Live in Moscow, in 2007. Their album, Hydrograd was released in June 2017 and is their first album to feature guitarist Christian Martucci and bassist Johny Chow. Stone Sour earned the group two Grammy Award nominations, both for Best Metal Performance, for the singles "Get Inside", in 2003, and "Inhale", in 2004. From their album Come What(ever) May, the group received another Grammy Award nomination for Best Metal Performance for the single "30/30-150", in 2007. The band has sold 2.1 million albums in the United States as of April 2017.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Fozzy', 'artist_name': 'Fozzy', 'wiki': 'http://en.wikipedia.org/wiki/Fozzy', 'hometown': 'http://dbpedia.org/resource/Atlanta', 'start_year': '1999', 'abstract': 'Fozzy is an American heavy metal band formed in Atlanta, Georgia, in 1999 by lead singer Chris Jericho, lead guitarist Rich Ward and drummer Frank Fontsere, who are the longest-serving members of the band and have appeared on all band\'s releases, although Fontsere left in 2005 and rejoined in 2009. The band\'s current lineup consists of Jericho, Ward, Fontsere, rhythm guitarist Billy Grey and bassist P. J. Farley. Jericho has characterized the band by saying, "If Metallica and Journey had a bastard child, it would be Fozzy." As of October 2020, the band has released seven studio albums and one live album. Their first two albums consist of primarily cover songs with some original material, while their albums since have made original material the primary focus.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Volbeat', 'artist_name': 'Volbeat', 'wiki': 'http://en.wikipedia.org/wiki/Volbeat', 'hometown': 'http://dbpedia.org/resource/Copenhagen', 'start_year': '2001', 'abstract': "Volbeat are a Danish rock band formed in Copenhagen in 2001. They play a fusion of rock and roll, heavy metal and rockabilly. Their current line-up consists of vocalist and guitarist Michael Poulsen, guitarist Rob Caggiano, drummer Jon Larsen and bassist Kaspar Boye Larsen. The band is signed to Dutch label Mascot Records and has released seven studio albums and one DVD. All of their studio albums have been certified gold in Denmark. Their second album Rock the Rebel/Metal the Devil received platinum status, and their 2010 release Beyond Hell/Above Heaven was subject to widespread international critical acclaim, receiving double platinum in Denmark, platinum in Finland and Germany, and gold in the United States, Sweden and Austria. Volbeat's seventh album, Rewind, Replay, Rebound, was released on 2 August 2019. Their eighth album, Servant of the Mind, was released on 3 December 2021."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Linkin_Park', 'abstract': 'Linkin Park is an American rock band from Agoura Hills, California. The band\'s current lineup comprises vocalist/rhythm guitarist/keyboardist Mike Shinoda, lead guitarist Brad Delson, bassist Dave Farrell, DJ/turntablist Joe Hahn and drummer Rob Bourdon, all of whom are founding members. Vocalists Mark Wakefield and Chester Bennington are former members of the band. Categorized as alternative rock, Linkin Park\'s earlier music spanned a fusion of heavy metal and hip hop, while their later music features more electronica and pop elements. Formed in 1996, Linkin Park rose to international fame with their debut studio album, Hybrid Theory (2000), which became certified Diamond by the Recording Industry Association of America (RIAA). Released during the peak of the nu metal scene, the album\'s singles\' heavy airplay on MTV led the singles "One Step Closer", "Crawling" and "In the End" all to chart highly on the Mainstream Rock chart; the latter crossed over to the pop chart. Their second album, Meteora (2003), continued the band\'s success. The band explored experimental sounds on their third album, Minutes to Midnight (2007). By the end of the decade, Linkin Park was among the most successful and popular rock acts. The band continued to explore a wider variation of musical types on their fourth album, A Thousand Suns (2010), layering their music with more electronic sounds. The band\'s fifth album, Living Things (2012), combined musical elements from all of their previous records. Their sixth album, The Hunting Party (2014), returned to a heavier rock sound, and their seventh album, One More Light (2017), was their first pop-oriented record. Linkin Park went on a hiatus when longtime lead vocalist Bennington died by suicide in July 2017. In April 2020, bassist Dave Farrell revealed the band was working on new music. Linkin Park is among the best-selling bands of the 21st century and the world\'s best-selling music artists, having sold over 100 million records worldwide. They have won two Grammy Awards, six American Music Awards, two Billboard Music Awards, four MTV Video Music Awards, 10 MTV Europe Music Awards and three World Music Awards. In 2003, MTV2 named Linkin Park the sixth-greatest band of the music video era and the third-best of the new millennium. Billboard ranked Linkin Park No. 19 on the Best Artists of the Decade list. In 2012, the band was voted as the greatest artist of the 2000s in a Bracket Madness poll on VH1. In 2014, the band was declared as "The Biggest Rock Band in the World Right Now" by Kerrang!.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': 'http://en.wikipedia.org/wiki/Evanescence', 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'start_year': '1995', 'end_year': '1995', 'abstract': 'Evanescence is an American rock band founded in Little Rock, Arkansas, in 1995 by singer, pianist, and keyboardist Amy Lee and guitarist Ben Moody. After recording independent albums, the band released their first full-length album, Fallen, on Wind-up Records in 2003. On the strength of hit singles "Bring Me to Life" and "My Immortal", Fallen sold more than 17 million copies worldwide and helped the band win two Grammy Awards out of six nominations. A year later, Evanescence released their first live album, Anywhere but Home, which sold more than one million copies worldwide. In 2006, the band released their second studio album, The Open Door, which sold more than five million copies. The band reconvened in June 2009 with a new lineup; their next studio album, Evanescence, was released in 2011. It debuted at the top of the Billboard 200 chart with 127,000 copies in sales. The album also debuted at number one on four other different Billboard charts; the Rock Albums, Digital Albums, Alternative Albums, and the Hard Rock Albums charts. The band spent 2012 on tour in promotion of their latest album with other bands including The Pretty Reckless and Fair to Midland. Troy McLawhorn also became a full-time band member during this time. Following the end of the album\'s tour cycle in 2012, the band entered another hiatus. In 2015, Evanescence emerged from hiatus and announced they would resume touring; however, they stated that new Evanescence material was not being produced, as Lee was focusing on a solo project instead. In addition, Balsamo left the band and was replaced by Jen Majura. In March 2017, Lee stated Evanescence was working on a fourth album for release later in 2017; Synthesis was released worldwide on November 10, 2017, and marked a stylistic change in the band\'s sound. On March 26, 2021, the band released their fifth studio album, The Bitter Truth. The lineup of the group changed several times over the course of the first two studio albums\' productions and promotions: David Hodges left in 2002, co-founder Moody left in 2003 (mid-tour), followed by guitarist John LeCompt and drummer Rocky Gray in 2007, and Terry Balsamo in 2015. As a result, none of the band\'s five studio albums feature the same lineup. The latter two changes led to a hiatus, with temporary band members contributing to tour performances.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bring_Me_the_Horizon', 'artist_name': 'Bring Me the Horizon', 'wiki': 'http://en.wikipedia.org/wiki/Bring_Me_the_Horizon', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'start_year': '2004', 'abstract': "Bring Me the Horizon (often abbreviated as BMTH) are a British rock band formed in Sheffield in 2004. The group consists of lead vocalist Oliver Sykes, guitarist Lee Malia, bassist Matt Kean, drummer Matt Nicholls and keyboardist Jordan Fish. They are signed to RCA Records globally and Columbia Records exclusively in the United States. The band released their debut album Count Your Blessings in 2006. Upon release, the album's sound polarised listeners, and was met with critical disdain. The band began to break away from their controversial sound with Suicide Season (2008), which was a creative, critical and commercial turning point for the band. Bring Me the Horizon released their third album, There Is a Hell Believe Me I've Seen It. There Is a Heaven Let's Keep It a Secret., in 2010, propelling them to greater international fame, whilst incorporating influences from classical music, electronica and pop. Their major label debut, Sempiternal (2013) achieved Gold certification in Australia (35,000) and Silver in the United Kingdom (60,000). That's the Spirit (2015) debuted at number two in the UK Albums Chart and the US Billboard 200. Their sixth studio album Amo (2019) became their first UK chart topper. As well as these six studio albums, they have also released two extended plays and two live albums. They have received four Kerrang! Awards, including two for Best British Band and one for Best Live Band, and have been nominated for two Grammy Awards. The style of their early work, including their debut album Count Your Blessings, has been described primarily as deathcore, but they started to adopt a more eclectic style of metalcore on later albums. Furthermore, That's the Spirit marked a shift in their sound to less aggressive rock music styles. Amo saw a shift into different genres, such as electronica, pop and hip hop."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rise_Against', 'artist_name': 'Rise Against', 'wiki': 'http://en.wikipedia.org/wiki/Rise_Against', 'hometown': 'http://dbpedia.org/resource/Chicago', 'start_year': '1999', 'abstract': 'Rise Against is an American punk rock band from Chicago, formed in 1999. The group\'s current line-up comprises vocalist/rhythm guitarist Tim McIlrath, lead guitarist Zach Blair, bassist Joe Principe and drummer Brandon Barnes. Rooted in hardcore punk and melodic hardcore, Rise Against\'s music emphasizes melody, catchy hooks, an aggressive sound and playstyle, and rapid tempos. Lyrically, the band is known for their outspoken social commentary, covering a wide range of topics such as political injustice, animal rights, humanitarianism, and environmentalism. The band spent its first four years signed to the independent record label Fat Wreck Chords, on which they released two studio albums, The Unraveling (2001) and Revolutions per Minute (2003). Both the albums were met with underground success, and in 2003 the band signed with the major label Dreamworks, which was absorbed by Geffen. Rise Against\'s major label debut Siren Song of the Counter Culture (2004) brought the band mainstream success, largely in part to the popularity of the singles "Give It All" and "Swing Life Away". The band\'s next album, The Sufferer &amp; the Witness (2006), peaked at number ten on the Billboard 200 in the United States, and was Rise Against\'s first album to chart in countries outside of North America. With the release of Appeal to Reason (2008), Rise Against\'s music shifted toward a more accessible and radio-friendly sound, with greater emphasis on production value. The album\'s third single, "Savior", broke the record for the most consecutive weeks spent on both the Hot Rock Songs and Alternative Songs charts. Rise Against\'s popularity grew with the release of Endgame (2011), which peaked at number two on the Billboard 200, and charted highly worldwide. The band\'s 7th and 8th albums, The Black Market (2014) and Wolves (2017) continued the trend of commercial success, and both peaked with the top ten on the Billboard 200. Rise Against is also known for their advocacy of progressivism, supporting organizations such as Amnesty International and the It Gets Better Project. The band actively promotes animal rights and most of the members are straight edge, PETA supporters and vegetarians.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Metallica', 'artist_name': 'Metallica', 'wiki': 'http://en.wikipedia.org/wiki/Metallica', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '1981', 'abstract': 'Metallica is an American heavy metal band. The band was formed in 1981 in Los Angeles by vocalist/guitarist James Hetfield and drummer Lars Ulrich, and has been based in San Francisco for most of its career. The band\'s fast tempos, instrumentals and aggressive musicianship made them one of the founding "big four" bands of thrash metal, alongside Megadeth, Anthrax and Slayer. Metallica\'s current lineup comprises founding members and primary songwriters Hetfield and Ulrich, longtime lead guitarist Kirk Hammett, and bassist Robert Trujillo. Guitarist Dave Mustaine (who went on to form Megadeth after being fired from the band) and bassists Ron McGovney, Cliff Burton (who died in a bus accident in Sweden in 1986) and Jason Newsted are former members of the band. After two albums on Megaforce Records and signing to major label Elektra in 1984, Metallica first found commercial success with the release of its third album, Master of Puppets (1986), which has been described as one of the heaviest and most influential thrash metal albums. Their next album, ...And Justice for All (1988), was also successful and gave Metallica their first Grammy Award nomination. Its eponymous fifth album, Metallica (1991), the band\'s first not to root predominantly in thrash metal, appealed to a more mainstream audience, achieving substantial commercial success and selling over 16 million copies in the United States to date, making it the best-selling album of the SoundScan era. After experimenting with different genres and directions in subsequent releases, the band returned to its thrash metal roots with the release of its ninth album, Death Magnetic (2008), which drew similar praise to that of the band\'s earlier albums. Their most recent album is Hardwired... to Self-Destruct, released in 2016. In 2000, Metallica led the case against the peer-to-peer file sharing service Napster, in which the band and several other artists filed lawsuits against the service for sharing their copyright-protected material without consent; after reaching a settlement, Napster became a pay-to-use service in 2003. Metallica was the subject of the acclaimed 2004 documentary film Metallica: Some Kind of Monster, which documented the troubled production of the band\'s eighth album, St. Anger (2003), and the internal struggles within the band at the time. In 2009, Metallica was inducted into the Rock and Roll Hall of Fame. The band wrote the screenplay for and starred in the 2013 IMAX concert film Metallica: Through the Never, in which the band performed live against a fictional thriller storyline. Metallica has released ten studio albums, four live albums, a cover album, five extended plays, 37 singles and 39 music videos. The band has won nine Grammy Awards from 23 nominations, and its last six studio albums (beginning with Metallica) have consecutively debuted at number one on the Billboard 200. Metallica ranks as one of the most commercially successful bands of all time, having sold over 125 million albums worldwide as of 2018. Metallica has been listed as one of the greatest artists of all time by magazines such as Rolling Stone, which ranked them at no. 61 on its 100 Greatest Artists of All Time list. As of 2017, Metallica is the third best-selling music artist since Nielsen SoundScan began tracking sales in 1991, selling a total of 58 million albums in the United States.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Papa_Roach', 'artist_name': 'Papa Roach', 'wiki': 'http://en.wikipedia.org/wiki/Papa_Roach', 'hometown': 'http://dbpedia.org/resource/Vacaville,_California', 'start_year': '1993', 'abstract': 'Papa Roach is an American rock band from Vacaville, California, formed in 1993. The original lineup consisted of lead vocalist Jacoby Shaddix, guitarist Jerry Horton, drummer Dave Buckner, bassist Will James, and trombonist Ben Luther. After two EPs, James left and was replaced by Tobin Esperance. The band independently released two more EPs before signing with DreamWorks Records in 1999, subsequently releasing the triple-platinum Infest in 2000, the gold album Lovehatetragedy in 2002 and the platinum album Getting Away with Murder in 2004. A year after The Paramour Sessions, Buckner left in 2007, and was replaced by Tony Palermo. Papa Roach then made Metamorphosis (2009), Time for Annihilation (2010), The Connection (2012), F.E.A.R. (2015), and Crooked Teeth (2017). Their tenth studio album, Who Do You Trust?, was released on January 18, 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Skillet_(band)', 'artist_name': 'Skillet', 'wiki': 'http://en.wikipedia.org/wiki/Skillet_(band)', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'start_year': '1996', 'abstract': 'Skillet is an American Christian rock band formed in Memphis, Tennessee, in 1996. The band currently consists of husband John Cooper (lead vocals, bass) and wife Korey Cooper (rhythm guitar, keyboards, backing vocals) along with Jen Ledger (drums, vocals) and Seth Morrison (lead guitar). The band has released ten albums, two of which, Collide and Comatose, received Grammy nominations. Two of their albums, Comatose and Awake, are certified Platinum and Double Platinum respectively by the RIAA, while Rise and Unleashed are certified Gold as of June 29, 2020. Five of their songs, "Whispers in the Dark", "Hero", "Monster", "Awake and Alive", and "Feel Invincible", are certified Platinum, while another four, "Rebirthing", "Comatose", "Not Gonna Die", and "The Resistance" are certified Gold. Skillet went through several line-up changes early in their career, leaving founder John Cooper as the only original member remaining in the band. They are known for a relentless touring schedule, which garnered them a top five ranking in the Hardest Working Bands of 2010 by Songkick.com.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Theory_of_a_Deadman', 'artist_name': 'Theory of a Deadman', 'wiki': 'http://en.wikipedia.org/wiki/Theory_of_a_Deadman', 'hometown': 'http://dbpedia.org/resource/North_Delta', 'start_year': '1999', 'abstract': 'Theory of a Deadman (abbreviated as Theory or TOAD) is a Canadian rock band from North Delta, British Columbia. Formed in 1999, the band is currently signed to Roadrunner Records as well as 604 Records. The band includes traits of music styles, such as country and acoustic, in addition to their post-grunge and alternative rock foundation. Nine of their singles have entered the top ten of the US Billboard Mainstream Rock chart, including four songs that peaked at number one: "Bad Girlfriend", "Lowlife", "Rx (Medicate)" and "History of Violence".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Thousand_Foot_Krutch', 'artist_name': 'Thousand Foot Krutch', 'wiki': 'http://en.wikipedia.org/wiki/Thousand_Foot_Krutch', 'hometown': 'http://dbpedia.org/resource/Peterborough,_Ontario', 'start_year': '1995', 'end_year': '2017', 'abstract': 'Thousand Foot Krutch (often abbreviated TFK) is a Canadian Christian rock band formed in Peterborough, Ontario, in 1997. The band has released eight studio albums, two live albums, and three remix albums. The band currently consists of founding member Trevor McNevan (vocals, guitar), Steve Augustine (drums), and Joel Bruyere (bass, backing vocals). Since forming, Thousand Foot Krutch has sold over 1.1 million albums and reached No. 1 on the Billboard Hard Rock Albums Chart twice.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Puddle_of_Mudd', 'artist_name': 'Puddle of Mudd', 'wiki': 'http://en.wikipedia.org/wiki/Puddle_of_Mudd', 'hometown': 'http://dbpedia.org/resource/Kansas_City,_Missouri', 'start_year': '1991', 'abstract': 'Puddle of Mudd is an American rock band formed in Kansas City, Missouri, in 1991. To date, the band has sold over seven million albums and has had a string of No. 1 mainstream rock singles in the United States. Their major-label debut Come Clean has sold over five million copies. They have released an extended play, an independent album and five studio albums, with their latest being Welcome to Galvania in September 2019. Puddle of Mudd has been described as post-grunge, nu metal, hard rock, and alternative metal.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Saliva_(band)', 'artist_name': 'Saliva', 'wiki': 'http://en.wikipedia.org/wiki/Saliva_(band)', 'hometown': 'http://dbpedia.org/resource/Bartlett,_Tennessee', 'start_year': '1996', 'abstract': 'Saliva is an American rock band, formed in Memphis, Tennessee, in 1996. Saliva released their self-titled debut album on August 26, 1997, through Rockingchair Records, a label owned and operated by Mark Yoshida. The release was recorded and produced by Bill Pappas at Rockingchair Studios. They were signed to Island Records and went on to release their second studio album Every Six Seconds. Saliva later released their third studio album titled Back into Your System on November 12, 2002, which reached No. 19 on the Billboard 200. Back into Your System launched one of Saliva\'s most successful songs, "Always", reaching No. 51 on the Billboard Hot 100 and No. 1 on the Modern Rock Chart. Three years after Survival of the Sickest, Saliva released Blood Stained Love Story on January 23, 2007, repeating Back into Your System\'s chart performance at No. 19 on the Billboard 200. Its first single, "Ladies and Gentlemen", peaked at No. 2 on the Mainstream Rock Chart.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Halestorm', 'artist_name': 'Halestorm', 'wiki': 'http://en.wikipedia.org/wiki/Halestorm', 'hometown': 'http://dbpedia.org/resource/Red_Lion,_Pennsylvania', 'start_year': '1997', 'abstract': 'Halestorm is an American rock band from Red Lion, Pennsylvania, consisting of lead vocalist and guitarist Lzzy Hale, her brother drummer and percussionist Arejay Hale, guitarist Joe Hottinger, and bassist Josh Smith. The group\'s self-titled debut album was released on April 28, 2009, through Atlantic Records. Their second album The Strange Case Of... was released on April 10, 2012. Its lead single "Love Bites (So Do I)" won the Grammy Award for Best Hard Rock/Metal Performance on February 10, 2013. Their third album, Into the Wild Life (2015), peaked at number five on the Billboard 200. The band\'s fourth album, Vicious (2018), debuted at number eight on the chart, becoming their second top 10 record. Halestorm is well known for their near non-stop touring, often performing as many as 250 shows a year. Since 2006 they have toured with many hard rock and heavy metal acts including Alice Cooper, Alter Bridge, Chevelle, Seether, Staind, Papa Roach, Trapt, Three Days Grace, Theory of a Deadman, Buckcherry, In This Moment, Disturbed, Shinedown, Avenged Sevenfold, Stone Sour, Skillet, Hellyeah, Heaven &amp; Hell, Evanescence, The Pretty Reckless, Starset, Sevendust, Dorothy, Lita Ford, Godsmack, Bullet for My Valentine, New Years Day, and Stitched Up Heart. Halestorm appeared on the first annual Rockstar Energy Drink Uproar Festival, and in October 2010 the band traveled to Japan to participate in the Loud Park Festival. Halestorm also appeared on the 2010 Taste of Chaos tour. After concerts were cancelled in 2020 due to the COVID-19 pandemic, Halestorm launched #RoadieStrong, a fundraiser for Live Nation Entertainment’s Crew Nation fund to support live show crews. The effort was also supported by Avenged Sevenfold, Shinedown, and other artists.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Muse_(band)', 'artist_name': 'Muse', 'wiki': 'http://en.wikipedia.org/wiki/Muse_(band)', 'hometown': 'http://dbpedia.org/resource/Teignmouth', 'start_year': '1994', 'abstract': 'Muse are an English rock band from Teignmouth, Devon, formed in 1994. The band consists of Matt Bellamy (lead vocals, guitar, keyboards), Chris Wolstenholme (bass guitar, backing vocals), and Dominic Howard (drums). Muse released their debut album, Showbiz, in 1999, showcasing Bellamy\'s falsetto and a melancholic alternative rock style. Their second album, Origin of Symmetry (2001), incorporated wider instrumentation and romantic classical influences and earned them a reputation for energetic live performances. Absolution (2003) saw further classical influence, with strings on tracks such as "Butterflies and Hurricanes", and was the first of six consecutive UK number-one albums. Black Holes and Revelations (2006) incorporated electronic and pop elements, displayed in singles such as "Supermassive Black Hole", and brought Muse wider international success. The Resistance (2009) and The 2nd Law (2012) explored themes of government oppression and civil uprising and cemented Muse as one of the world\'s major stadium acts. Rolling Stone stated the band possessed "stadium-crushing songs". Topping the US Billboard 200, their seventh album, Drones (2015), was a concept album about drone warfare and returned to a harder rock sound. Their eighth album, Simulation Theory (2018), prominently featured synthesisers and was influenced by science fiction and the simulation hypothesis. Muse have won numerous awards, including two Grammy Awards, two Brit Awards, five MTV Europe Music Awards and eight NME Awards. In 2012 they received the Ivor Novello Award for International Achievement from the British Academy of Songwriters, Composers and Authors. By June 2016, they had sold over 20 million albums worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sick_Puppies', 'artist_name': 'Sick Puppies', 'wiki': 'http://en.wikipedia.org/wiki/Sick_Puppies', 'hometown': 'http://dbpedia.org/resource/Sydney', 'start_year': '1997', 'abstract': 'Sick Puppies are an Australian rock band formed in Sydney in 1997. After releasing their debut album, Welcome to the Real World in 2001, the band rose to prominence in 2006 when their song "All the Same" was uploaded, along with a video, to YouTube. The video supported the Free Hugs Campaign, which was launched in Sydney, and has since received over 78 million views on the website. This success was followed up with their second studio album, Dressed Up as Life in 2007, which entered the Billboard 200 at number 181. Their third studio album, Tri-Polar, came out on 14 July 2009. The band\'s fourth studio album, Connect was released on 16 July 2013. They released their fifth studio album, Fury on 20 May 2016 with new vocalist Bryan Scott after Shimon Moore was kicked out of the band in October 2014.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Saving_Abel', 'artist_name': 'Saving Abel', 'wiki': 'http://en.wikipedia.org/wiki/Saving_Abel', 'hometown': 'http://dbpedia.org/resource/Corinth,_Mississippi', 'start_year': '2004', 'abstract': 'Saving Abel is an American rock band from Corinth, Mississippi, founded in 2004 by Jared Weeks and Jason Null. The band is named after the biblical story of Cain and Abel, in which a man named Cain kills his brother Abel. Band member Jason Null thought up the band title saying "I Googled the story of Cain and Abel and found a line about \'there was no saving Abel,\' which just jumped out at me." Lead singer Jared Weeks left the band at the end of 2013 to pursue a solo career, but returned in 2021, replacing Scott Austin.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/3_Doors_Down', 'artist_name': '3 Doors Down', 'wiki': 'http://en.wikipedia.org/wiki/3_Doors_Down', 'hometown': 'http://dbpedia.org/resource/Escatawpa,_Mississippi', 'start_year': '1996', 'abstract': '3 Doors Down is an American rock band from Escatawpa, Mississippi, that formed in 1996. The band originally consisted of Brad Arnold (lead vocals, drums), Matt Roberts (lead guitar, backing vocals), and Todd Harrell (bass guitar). The band rose to international fame with their first single, "Kryptonite", which placed in the top three on the Billboard Hot 100 chart. The band then signed with Republic Records and released their debut album, The Better Life, in 2000. The album was the 11th-best-selling album of the year and was certified 6x platinum in the United States. The group was later joined by drummer Richard Liles, who played during the tour for their first album. The band\'s second album, Away from the Sun (2002), continued the band\'s success; it debuted at No. 8 on the Billboard 200 chart, went multi-platinum in the U.S. like its predecessor, and spawned the hits "When I\'m Gone" and "Here Without You". The band toured extensively for two years. Daniel Adair played drums on tour from 2002 to 2006. This configuration played nearly 1,000 shows across the world following the release of Away from the Sun. In 2005, Greg Upchurch (Puddle of Mudd) joined to play drums to replace Adair. 3 Doors Down released their third album, Seventeen Days, in 2005. The album debuted at No. 1 on the Billboard 200 chart and was certified platinum within one month of release. The band continued their success with their next two albums, 3 Doors Down (2008) and Time of My Life (2011), debuting at No. 1 and No. 3 respectively on the Billboard 200 chart. Their latest album, Us and the Night, was released in 2016; they were working on new material for a seventh studio album as of 2019. The band has been primarily described as post-grunge and alternative rock, while occasionally crossing into hard rock, and Southern rock. Their lyrical content contains overarching themes of angst, rebellion, revenge, yearning, and abandonment. 3 Doors Down has sold 30 million copies worldwide. Original guitarist Matt Roberts departed in 2012, owing to health issues. He was replaced by Chet Roberts, who was formerly Chris Henderson\'s guitar tech. Harrell was fired from the band in 2013 after being charged with vehicular homicide, and was replaced by bassist Justin Biltonen.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Pretty_Reckless', 'artist_name': 'The Pretty Reckless', 'wiki': 'http://en.wikipedia.org/wiki/The_Pretty_Reckless', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2009', 'abstract': 'The Pretty Reckless is an American rock band from New York City, formed in 2009. The band consists of Taylor Momsen (lead vocals, rhythm guitar), Ben Phillips (lead guitar, backing vocals), Mark Damon (bass), and Jamie Perkins (drums). The band released their debut studio album, Light Me Up, in August 2010. The album spawned three moderately successful singles, most notably "Make Me Wanna Die". The band released the Hit Me Like a Man EP in early 2012. In March 2014, the band released their second studio album, Going to Hell, which included the singles "Heaven Knows" and "Messed Up World" which topped the US and UK rock charts. The band\'s third studio album, Who You Selling For, was released on October 21, 2016, by Razor &amp; Tie. The album spawned the single "Take Me Down", which earned the band their fourth number one on the US rock chart. The band\'s fourth studio album, Death by Rock and Roll, was released on February 12, 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Nothing_More', 'artist_name': 'Nothing More', 'wiki': 'http://en.wikipedia.org/wiki/Nothing_More', 'hometown': 'http://dbpedia.org/resource/San_Antonio', 'start_year': '2003', 'abstract': 'Nothing More is an American rock band from San Antonio, Texas. Formed in 2003, the band spent much of the 2000s recording independent albums and struggling to maintain a steady lineup or attract record label interest. Towards the end of the decade, the band\'s long-time drummer, Jonny Hawkins, decided to switch to being the band\'s frontman and lead vocalist, stabilizing the band\'s core lineup along with other long-time members Mark Vollelunga (guitar) and Daniel Oliver (bass). The band self-funded and recorded their fourth studio album, Nothing More, over the course of three years and used it to gain the attention of Eleven Seven Music record label, who signed the band to a five album record contract upon hearing it. The album became the band\'s breakthrough release in 2014, with multiple charting singles, including "This is the Time (Ballast)", which hit number 1 on the Mediabase Active Rock chart and number 2 on the Billboard Mainstream Rock chart, and "Mr. MTV", "Jenny" and "Here\'s to the Heartache" all charting in the top 15 of both charts. The band began working on a follow-up in 2016 while continuing to tour in support of their self-titled release, and in September 2017, released their fifth studio album - their second on a major record label - The Stories We Tell Ourselves. The lead single, "Go to War", outperformed the prior singles, topping the Mainstream Rock chart, and the release earned the band three Grammy Award nominations; Best Rock Album for the album, and Best Rock Song and Best Rock Performance for "Go to War". The band continued to promote the release moving into 2018, releasing singles, "Do You Really Want It?" and "Just Say When", and embarking on multiple North American tours into 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/In_This_Moment', 'artist_name': 'In This Moment', 'wiki': 'http://en.wikipedia.org/wiki/In_This_Moment', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '2005', 'abstract': "In This Moment is an American rock band from Los Angeles, California, formed by singer Maria Brink and guitarist Chris Howorth in 2005. They found drummer Jeff Fabb and started the band as Dying Star. Unhappy with their musical direction, they changed their name to In This Moment and gained two band members, guitarist Blake Bunzel and bassist Josh Newell. In 2005, bassist Newell left the band and was replaced by Jesse Landry. Their debut album, Beautiful Tragedy, was released in 2007. Their follow up, titled The Dream was released the following year debuting at number 73 on the Billboard 200. The band's third album, A Star-Crossed Wasteland was released in 2010, and their fourth album titled Blood was released in August 2012 and debuted at number 15. Their fifth album titled Black Widow was released in November 2014 and debuted at number 8, their highest position in the charts to date. Ritual, their sixth, was released in the summer of 2017 and debuted at number 23. Their seventh studio album, Mother was released on March 27, 2020. They have received two nominations of Alternative Press Music Awards, including two for Best Hard Rock Artist and one for Best Live Band. They have also received a Grammy nomination for Best Metal Performance. The band's line-up has changed several times. Landry was replaced by Kyle Konkiel in 2009 and Konkiel was replaced by Travis Johnson in 2010. Jeff Fabb and Blake Bunzel left the band in 2011, and were replaced by Tom Hane and Randy Weitzel respectively. In March 2016, drummer Tom Hane announced his departure from the band and was replaced by Kent Diimmel, formerly of 3 By Design. Throughout their career, the band has performed on several notable tours and festivals including Ozzfest in 2007 and 2008; Warped Tour in 2009; Download Festival in 2009, 2013, and 2018; Mayhem Festival in 2010; Music as a Weapon V tour in 2011; Uproar Festival in 2012; Rock on the Range in 2012, 2013, and 2015; Carnival of Madness tour in 2013; Knotfest in 2014; Rockfest and Rocklahoma in 2015; Carolina Rebellion in 2018; Louder Than Life in 2017 and 2019; Aftershock in 2014, 2017, and 2021; and Welcome to Rockville in 2013, 2015, 2017, and 2019."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Trapt', 'artist_name': 'Trapt', 'wiki': 'http://en.wikipedia.org/wiki/Trapt', 'hometown': 'http://dbpedia.org/resource/Los_Gatos,_California', 'start_year': '1995', 'abstract': 'Trapt is an American rock band formed in Los Gatos, California. It consists of vocalist Chris Taylor Brown, bassist Pete Charell and guitarist Brendan Hengle. They have recorded eight studio albums to date: Amalgamation (1999), Trapt (2002), Someone in Control (2005), Only Through the Pain (2008), No Apologies (2010), Reborn (2013), DNA (2016), and Shadow Work (2020). Trapt is best known for their 2002 hit "Headstrong".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Chevelle_(band)', 'artist_name': 'Chevelle', 'wiki': 'http://en.wikipedia.org/wiki/Chevelle_(band)', 'hometown': 'http://dbpedia.org/resource/Grayslake,_Illinois', 'start_year': '1995', 'abstract': "Chevelle is an American rock band formed in Grayslake, Illinois, in 1995. The band was originally composed of two brothers, Pete Loeffler (lead vocals and guitar) and Sam Loeffler (drums and percussion), along with Matt Scott (bass and backing vocals). Scott was replaced by Sam and Pete's brother, Joe Loeffler, in 1996. When Joe left the band in 2005, Geno Lenardo subbed in as the touring bassist until he was replaced by Pete and Sam's brother-in-law, Dean Bernardini. Bernardini departed from the band in 2019, and in 2021, Kemble Walters joined the band as a touring bassist. The band's first studio album, Point #1, was released on a small record label called Squint Entertainment. Chevelle's second album, Wonder What's Next (2002), was certified double platinum by the RIAA after a debut at No. 14 on the United States albums chart, Billboard 200. This Type of Thinking (Could Do Us In) (2004), the band's third album debuted at No. 8 and has been certified platinum. Chevelle has since released six more albums: Vena Sera (2007), Sci-Fi Crimes (2009), Hats Off to the Bull (2011), La Gárgola (2014), The North Corridor (2016), and their latest Niratias (2021). Other releases from Chevelle include two live albums, DVDs and a compilation of band favorites."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Tremonti_(band)', 'artist_name': 'Tremonti', 'wiki': 'http://en.wikipedia.org/wiki/Tremonti_(band)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'start_year': '2011', 'abstract': "Tremonti is an American heavy metal band founded and fronted by lead vocalist and guitarist Mark Tremonti, best known as the lead guitarist of rock bands Creed and Alter Bridge. The band also consists of rhythm guitarist Eric Friedman, bassist Tanner Keegan and drummer Ryan Bennett. Bassist Wolfgang Van Halen and drummer Garrett Whitlock are former members of the band. Mark Tremonti's Creed and Alter Bridge bandmate Brian Marshall was also a touring member in 2012. What originally started as a Mark Tremonti solo project evolved into a fully fledged band that has released five studio albums: All I Was in July 2012, Cauterize in June 2015, Dust in April 2016, A Dying Machine in June 2018 and Marching in Time in September 2021. The band's music is a departure from Mark Tremonti's main bands, featuring more of a speed metal influence with melodic vocals."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Shinedown', 'artist_name': 'Shinedown', 'wiki': 'http://en.wikipedia.org/wiki/Shinedown', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'start_year': '2001', 'abstract': "Shinedown is an American rock band from Jacksonville, Florida, formed by singer Brent Smith in 2001 after the dissolution of Dreve, his previous band. Smith, still under contract with record label Atlantic Records, recruited the band's original lineup of Jasin Todd as guitarist, Brad Stewart on bass, and Barry Kerch on drums. Consistent for the first two album cycles, a few lineup changes followed in the late 2000s, eventually stabilizing with Smith and Kerch alongside Zach Myers on guitar and Eric Bass on bass. The group has released six studio albums: Leave a Whisper (2003), Us and Them (2005), The Sound of Madness (2008), Amaryllis (2012), Threat to Survival (2015), and Attention Attention (2018). Shinedown has the most number one singles on the Billboard Mainstream Rock charts out of any band, with 16, and all of their released singles have reached the top 5 on the chart. Additionally, on June 3, 2021 Shinedown was ranked #1 by Billboard on the Greatest of All Time Mainstreams Rock Artists chart released to celebrate the Mainstream Rock Chart's 40th Anniversary. To date, the band has sold more than 10 million records."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Lamb_of_God_(band)', 'artist_name': 'Lamb of God', 'wiki': 'http://en.wikipedia.org/wiki/Lamb_of_God_(band)', 'hometown': 'http://dbpedia.org/resource/Richmond,_Virginia', 'start_year': '1994', 'abstract': 'Lamb of God (sometimes abbreviated as LoG) is an American heavy metal band from Richmond, Virginia. Formed in 1994 as Burn the Priest, the group consists of bassist John Campbell, vocalist Randy Blythe, guitarists Mark Morton and Willie Adler, and drummer Art Cruz. The band is considered a significant member of the new wave of American heavy metal movement. Since their formation, Lamb of God has released ten studio albums: Burn the Priest (as Burn the Priest) (1999), New American Gospel (2000), As the Palaces Burn (2003), Ashes of the Wake (2004), Sacrament (2006), Wrath (2009), Resolution (2012), VII: Sturm und Drang (2015), Legion: XX (as Burn the Priest) (2018), and Lamb of God (2020). The band has also released one live album, one compilation album, three DVDs, two EPs, and twenty-eight singles. The band\'s cumulative sales equal almost two million in the United States, including two albums certified Gold by the RIAA; their latest album, a self-titled effort, was released in 2020. In 2010 and 2011 the band received Grammy nominations for songs from their 2009 album Wrath. They also received a nomination in 2016 for their song "512". Lamb of God has toured with the Ozzfest twice. Other appearances include Download Festival and Sonisphere Festival in the UK, Soundwave Festival, Mayhem Festival 2010 and Gigantour. From 2008 to 2010 they toured as part of Metallica\'s World Magnetic Tour, and supported Slayer on their final world tour in 2018 and 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/All_That_Remains_(band)', 'artist_name': 'All That Remains', 'wiki': 'http://en.wikipedia.org/wiki/All_That_Remains_(band)', 'hometown': 'http://dbpedia.org/resource/Springfield,_Massachusetts', 'start_year': '1998', 'abstract': "All That Remains is an American heavy metal band from Springfield, Massachusetts, formed in 1998. They have released nine studio albums, a live CD and DVD, and have sold over a million records worldwide. The group currently consists of vocalist Philip Labonte, rhythm guitarist Mike Martin, former Diecast drummer Jason Costa, and lead guitarist Jason Richardson, with Labonte being the last remaining original member. In spite of this, the band's line-up had remained consistent from the release of 2008's Overcome until 2015's The Order of Things, spanning four albums. This line-up changed, however, in September 2015, when long-time bassist Jeanne Sagan left the band, with Patrick taking her place and then again on February 5, 2019, when the band confirmed that Jason Richardson would be joining the band to replace the deceased lead guitarist and original member, Oli Herbert. In 2021, Aaron Patrick parted ways with All That Remains to focus on his other band, Bury Your Dead."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Within_Temptation', 'artist_name': 'Within Temptation', 'wiki': 'http://en.wikipedia.org/wiki/Within_Temptation', 'hometown': 'http://dbpedia.org/resource/Waddinxveen', 'start_year': '1996', 'abstract': 'Within Temptation is a Dutch symphonic metal band founded in April 1996 by vocalist Sharon den Adel and guitarist Robert Westerholt. They have been classified by critics as gothic metal and symphonic metal, although each album contains other influences outside these genres. Their most prominent and well-known sound is described as symphonic metal, although their earlier material, such as debut album Enter, was mostly gothic metal, with Enter also having a hint of doom metal. In an interview, den Adel said they fell into a symphonic rock genre with various influences. In a later interview with Dutch music platform 3VOOR12, den Adel stated that "We consider ourselves more an atmospheric melodic symphonic metal/rock band... In my opinion, we are not a gothic band but we have gothic elements". After the release of their debut album Enter in 1997, the band became prominent in the Dutch underground scene. It was not until 2001 that they became known to the general public, with the single "Ice Queen" from their second album Mother Earth, which reached No. 2 on the Dutch charts. This was followed by the band winning the Conamus Exportprijs, a Dutch music award, four years in a row, and a fifth in 2016. Their next albums The Silent Force (2004) and The Heart of Everything (2007) debuted at No. 1 on the Dutch charts. In 2008, they released Black Symphony, a live album recorded with the Metropole Orchestra. This was followed in 2009 by An Acoustic Night at the Theatre, another live album, this time with acoustic renditions of the songs. The band\'s fifth studio album, The Unforgiving, was released in March 2011 and was one part of a transmedia effort, alongside both a comic book series and a series of short films that together encompass a story. The album saw the band increasingly venturing on new musical territories outside symphonic metal. Their sixth studio album, Hydra, was released in early 2014 in Japan, Europe, and the United States. The album advanced the band\'s exploration of new musical genres and features guest appearances from various artists: Finnish singer Tarja Turunen, who appears in the lead single "Paradise (What About Us?)"; Howard Jones, former vocalist of American metalcore band Killswitch Engage; Dave Pirner, lead vocalist of American alternative rock band Soul Asylum; and American rapper Xzibit. The band had extensive airplay on BBC Radio 2 in the United Kingdom with one of the songs from the album, "Whole World Is Watching" featuring Pirner. Their latest studio album, Resist, was released in January 2019 and incorporates influences from other musical styles such as industrial and EDM. By 2016, the band had already sold more than 3.5 million albums worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Jacoby_Shaddix', 'artist_name': 'Jacoby Shaddix', 'wiki': 'http://en.wikipedia.org/wiki/Jacoby_Shaddix', 'birth_date': '28 July 1976', 'start_year': '1993', 'abstract': 'Jacoby Dakota Shaddix (born July 28, 1976) is an American singer, songwriter, rapper, TV presenter and actor. He is best known as the founding member and the continuous lead singer of the California-based rock band Papa Roach since the band\'s formation in 1993. Shaddix served as the host of the MTV show Scarred for the entirety of the show\'s cycle, presenting both seasons and all 20 episodes of the show, which spanned from April 10 to September 18, 2007. Shaddix would ultimately leave the show due to touring demands with Papa Roach. The name of the show was based on the Papa Roach song "Scars". Shaddix is one of the co-owners of a rock-inspired clothing line with designer Jeff Henry called "Lovers Are Lunatics", with the focus being described as "to create a brand that represents the rock community and showcases their unique creative vision".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sevendust', 'artist_name': 'Sevendust', 'wiki': 'http://en.wikipedia.org/wiki/Sevendust', 'hometown': 'http://dbpedia.org/resource/Atlanta', 'start_year': '1994', 'abstract': 'Sevendust is an American rock band from Atlanta, Georgia, formed in 1994 by bassist Vince Hornsby, drummer Morgan Rose, and guitarist John Connolly. After their first demo, lead vocalist Lajon Witherspoon and guitarist Clint Lowery joined the group. Following a few name changes, the members settled on the name Sevendust and released their self-titled debut album on April 15, 1997, which sold only 310 copies in its first week but ultimately achieved gold certification through touring and support from their label, TVT Records. Since formation, Sevendust have attained success with three consecutive RIAA gold-certified albums, a Grammy nomination, and have sold millions of records worldwide. The group has released a total of thirteen studio albums, including a reissue of their debut as Sevendust: Definitive Edition, which contains five new tracks and a DVD.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/I_Prevail', 'artist_name': 'I Prevail', 'wiki': 'http://en.wikipedia.org/wiki/I_Prevail', 'hometown': 'http://dbpedia.org/resource/Southfield,_Michigan', 'start_year': '2013', 'abstract': 'I Prevail is an American metalcore band formed in Southfield, Michigan, in 2013. They released their debut EP Heart vs. Mind (2014) and rose to popularity from releasing a metal cover of Taylor Swift\'s "Blank Space" as a single, which eventually was certified platinum in the US. The band has since released two studio albums, Lifelines (2016) and Trauma (2019). The band found success with their original material as well, with the singles "Breaking Down" and "Hurricane" performing well on rock radio, the single "Bow Down" being nominated for the Grammy Award for Best Metal Performance in 2019, and Trauma being nominated for the Grammy Award for Best Rock Album the same year.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Staind', 'artist_name': 'Staind', 'wiki': 'http://en.wikipedia.org/wiki/Staind', 'hometown': 'http://dbpedia.org/resource/Springfield,_Massachusetts', 'start_year': '1995', 'end_year': '2012', 'abstract': 'Staind (/steɪnd/ STAYND) is an American rock band formed in Springfield, Massachusetts, in 1995. The original lineup consisted of lead vocalist and rhythm guitarist Aaron Lewis, lead guitarist Mike Mushok, bassist and backing vocalist Johnny April, and drummer Jon Wysocki. The lineup has been stable outside of the 2011 departure of Wysocki, who was replaced by Sal Giancarelli. Staind has recorded seven studio albums: Tormented (1996), Dysfunction (1999), Break the Cycle (2001), 14 Shades of Grey (2003), Chapter V (2005), The Illusion of Progress (2008), and Staind (2011). The band\'s activity became more sporadic after their self-titled release, with Lewis pursuing a solo country music career and Mushok subsequently joining the band Saint Asonia, but they have continued to tour on and off in the following years. In 2016, Lewis reiterated that the band had not broken up, and would possibly create another album, but that his then-current focus was on his solo career. The band reunited more permanently in 2019 for several shows, continuing with live appearances in 2020. Many of their singles have reached high positions on US rock and all-format charts as well, including "It\'s Been Awhile", "Fade", "Price to Play", "So Far Away", and "Right Here".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Finger_Eleven', 'artist_name': 'Finger Eleven', 'wiki': 'http://en.wikipedia.org/wiki/Finger_Eleven', 'hometown': 'http://dbpedia.org/resource/Burlington,_Ontario', 'start_year': '1990', 'abstract': 'Finger Eleven is a Canadian rock band from Burlington, Ontario, formed in 1990. They have released seven studio albums (six as Finger Eleven and one as Rainbow Butt Monkeys), with their album The Greyest of Blue Skies bringing them into the mainstream. Their 2003 self-titled album achieved Gold status in the United States and Platinum in Canada, largely from the success of the single "One Thing", which marked the band\'s first placing on the US Hot 100 Chart at number 16. Their 2007 album, Them vs. You vs. Me launched the single "Paralyzer", which went on to top the Canadian Hot 100 and both US rock charts, as well as reaching No. 6 on the US Hot 100 and No. 12 on the Australian Singles Chart. They won the Juno Award for Rock Album of the Year in 2008. The same album was later certified gold in the US and multi-platinum in Canada. They released their sixth studio album, Life Turns Electric, on October 5, 2010; it was nominated as Best Rock Album of the Year at the Juno Awards of 2011. Five Crooked Lines, their 7th studio album, was released in 2015. Between 1995 and 2016, Finger Eleven was among the top 75 best-selling Canadian artists in Canada and among the top 25 best-selling Canadian bands in Canada.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Dope_(band)', 'artist_name': 'Dope', 'wiki': 'http://en.wikipedia.org/wiki/Dope_(band)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1997', 'abstract': 'Dope is an American heavy metal band from New York City, formed in 1997. The band has released six full-length studio albums with their most recent studio album, Blood Money Part 1, being released on October 28, 2016. The lineup currently consists of founding member and lead singer Edsel Dope, guitarist Virus, bassist Acey Slade, and drummer Daniel Fox.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rahzel', 'artist_name': 'Rahzel', 'wiki': 'http://en.wikipedia.org/wiki/Rahzel', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'birth_date': '06 October 1966', 'abstract': 'Rozell Manely Brown (born October 6, 1966) is an American beatboxer and rapper, formerly a member of the Roots. Rahzel is known for an ability to sing or rap while simultaneously beatboxing, as evidenced in his performances of "Iron Man" and his signature song "If Your Mother Only Knew", a hidden track on Make the Music 2000. His talents are showcased in various solo projects as well as on Ben Harper\'s 2000 single "Steal My Kisses." He also provided his own voice on video games SSX and SSX Tricky. Rahzel was featured on the album True Love by Toots and the Maytals, which won the Grammy Award in 2004 for Best Reggae Album, and showcased many notable musicians including Björk, Willie Nelson, Eric Clapton, Jeff Beck, Trey Anastasio, Gwen Stefani / No Doubt, Ben Harper, Bonnie Raitt, Manu Chao, The Roots, Ryan Adams, Keith Richards, Toots Hibbert, Paul Douglas, Jackie Jackson, Ken Boothe, and The Skatalites.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Corey_Taylor', 'artist_name': 'Corey Taylor', 'wiki': 'http://en.wikipedia.org/wiki/Corey_Taylor', 'birth_date': '08 December 1973', 'start_year': '1992', 'abstract': 'Corey Todd Taylor (born December 8, 1973) is an American singer, musician, songwriter and actor. He is known as the lead vocalist and lyricist of the bands Slipknot and Stone Sour. Taylor co-founded Stone Sour with drummer Joel Ekman in 1992, playing in the Des Moines area, and working on a demo. He joined Slipknot in 1997 to replace their original vocalist and has subsequently released six studio albums with them. After the first two Slipknot albums went Platinum, Taylor revived Stone Sour to record an album and tour in 2002. His debut solo studio album, CMFT, was released on October 2, 2020, by Roadrunner Records. He has worked with several bands, including Junk Beer Kidnap Band, Korn, Disturbed, Apocalyptica, Code Orange, Anthrax, Steel Panther, Falling in Reverse, and Soulfly.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Pop_Evil', 'artist_name': 'Pop Evil', 'wiki': 'http://en.wikipedia.org/wiki/Pop_Evil', 'hometown': 'http://dbpedia.org/resource/Muskegon,_Michigan', 'start_year': '2001', 'abstract': 'Pop Evil is an American rock band that was formed in North Muskegon, Michigan, in 2001 by Leigh Kakaty. The band\'s roots reside in TenFive, a group formed in the late-1990s by Kakaty and guitarist Jason Reed. Pop Evil won the Radio Contraband Rock Radio Award for "Song of the Year" for "Trenches" in 2013.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Fever_333', 'artist_name': 'Fever 333', 'wiki': 'http://en.wikipedia.org/wiki/Fever_333', 'hometown': 'http://dbpedia.org/resource/Inglewood,_California', 'start_year': '2017', 'abstract': "Fever 333 or the Fever 333 (both stylized in all caps) is an American rock band formed in Inglewood, California, United States, in July 2017. The three-piece band consists of former Letlive vocalist Jason Aalon Butler, former the Chariot guitarist Stephen Harrison and Night Verses drummer Aric Improta. The band's debut extended play (EP), Made an America, was released on March 23, 2018. The group is signed to Roadrunner Records and 333 Wreckords. Their first LP Strength in Numb333rs was released a year later and its second EP Wrong Generation was released in 2020."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Otep', 'artist_name': 'Otep', 'wiki': 'http://en.wikipedia.org/wiki/Otep', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2000', 'abstract': 'Otep is an American heavy metal band from Los Angeles, California, formed in 2000. They have released two EPs, eight studio albums, and one live album. As of December 2013, they are no longer under their previous label Victory Records and currently are signed with Napalm Records.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Tesseract_(band)', 'artist_name': 'TesseracT', 'wiki': 'http://en.wikipedia.org/wiki/Tesseract_(band)', 'hometown': 'http://dbpedia.org/resource/Milton_Keynes', 'start_year': '2003', 'abstract': 'Tesseract (often stylized as TesseracT) are an English progressive metal band from Milton Keynes. The band, formed in 2003, consists of Daniel Tompkins (lead vocals), Alec "Acle" Kahney (lead guitar and producer), James Monteith (rhythm guitar), Amos Williams (bass, backing vocals) and Jay Postones (drums, percussion). The band is currently signed to Kscope. They are credited as one of the bands to pioneer the djent movement in progressive metal. As of 2018, Tesseract have released four studio albums: One, Altered State, Polaris and Sonder, as well as a live album, Odyssey/Scala, and the extended plays Concealing Fate, Perspective and Errai.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Textures_(band)', 'artist_name': 'Textures', 'wiki': 'http://en.wikipedia.org/wiki/Textures_(band)', 'hometown': 'http://dbpedia.org/resource/Tilburg', 'start_year': '2001', 'end_year': '2017', 'abstract': 'Textures were a Dutch progressive metalcore band, formed in 2001. Textures\' lineup revolved around founding members Jochem Jacobs, Stef Broks, Bart Hennephof, and bassist Remko Tielemans who joined in 2007. Since 2010, vocalist Daniël de Jongh and keyboardist Uri Dijk have been with the band. Textures first came to the spotlight with their debut album Polars with Listenable Records which won an Essent Award for "Most Promising Act" in 2004. Since then, the band released 2 more albums with Listenable Records, 2006\'s Drawing Circles and 2008\'s Silhouettes after signing to Nuclear Blast records.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Toothgrinder', 'artist_name': 'Toothgrinder', 'wiki': 'http://en.wikipedia.org/wiki/Toothgrinder', 'hometown': 'http://dbpedia.org/resource/Asbury_Park,_New_Jersey', 'start_year': '2010', 'abstract': 'Toothgrinder is an American progressive metal band from Asbury Park, New Jersey.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Machine_Head_(band)', 'artist_name': 'Machine Head', 'wiki': 'http://en.wikipedia.org/wiki/Machine_Head_(band)', 'hometown': 'http://dbpedia.org/resource/Oakland,_California', 'start_year': '1991', 'abstract': 'Machine Head is an American heavy metal band from Oakland, California. The band was formed in 1991 by vocalist/guitarist Robb Flynn, who remains the only original member of the band. Machine Head\'s aggressive musicianship made it one of the pioneering bands in the new wave of American heavy metal. Its current lineup comprises Flynn, bassist Jared MacEachern, guitarist Wacław Kiełtyka and drummer Matt Alston. Bassist Adam Duce, guitarists Logan Mader, Ahrue Luster and Phil Demmel, and drummers Tony Costanza, Chris Kontos and Dave McClain are former members of the band; Mader and Kontos toured with the band in 2019 and 2020 as part of the 25th anniversary tour for its first album, Burn My Eyes (1994). Machine Head\'s first four albums earned the band a growing fan base in Europe, however the band would not have success in the United States until later releases. The band drew controversy with its fourth album, Supercharger (2001), which was released three weeks after the September 11 attacks; its only single, "Crashing Around You", and its music video (which featured burning buildings) was pulled from all media outlets. The band nearly disbanded in 2002 after negotiating off its label Roadrunner Records as a result of the controversy, however the band would eventually re-sign with the label. Having experimented with elements of groove metal and nu metal in its early releases, Machine Head changed to a more traditional thrash metal sound and longer songs with its sixth album, The Blackening (2007), which drew critical acclaim and was chosen as Album of the Decade by Metal Hammer in 2010; the album\'s first single, "Aesthetics of Hate", also earned the band a Grammy Award nomination. The band achieved similar success with its following two albums, Unto the Locust (2011) and Bloodstone &amp; Diamonds (2014), before returning to its nu metal roots with the band\'s ninth album, Catharsis (2018). Machine Head has released nine studio albums, two live albums, one video album, 13 singles and 15 music videos. Four of the band\'s studio albums have been certified silver in the United Kingdom, and the band\'s highest peak on the Billboard 200 came with Bloodstone &amp; Diamonds at number 21. As of 2013, the band has sold over three million records worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/After_the_Burial', 'artist_name': 'After the Burial', 'wiki': 'http://en.wikipedia.org/wiki/After_the_Burial', 'hometown': 'http://dbpedia.org/resource/Minnesota', 'start_year': '2004', 'abstract': 'After the Burial is an American progressive metal band from Minneapolis, Minnesota. They are currently signed to Sumerian Records and have released five of their six full-length albums through the label. Since their inception in 2004, the band has gone through two vocalist changes, two drummer changes, the departure and death of founding rhythm guitarist Justin Lowe, and the departure of bassist Lerichard Foral. Lead guitarist Trent Hafdahl remains the sole remaining founding member. They are considered key contributors to the development of subgenres such as djent and progressive metalcore.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Amon_Amarth', 'artist_name': 'Amon Amarth', 'wiki': 'http://en.wikipedia.org/wiki/Amon_Amarth', 'hometown': 'http://dbpedia.org/resource/Stockholm_County', 'start_year': '1992', 'abstract': 'Amon Amarth (/əˈmɒn əˈmɑːrθ/) is a Swedish melodic death metal band from Tumba, formed in 1992. The band takes its name from the Sindarin name of Mount Doom, a volcano in J. R. R. Tolkien′s Middle-earth. Their lyrics mostly deal with Viking mythology and history, and so they have been sometimes erroneously labeled “Viking metal,” although the band insists they play melodic death metal. The band is composed of lead guitarist Olavi Mikkonen, vocalist Johan Hegg, bassist Ted Lundström, rhythm guitarist Johan Söderberg, and drummer Jocke Wallgren. Amon Amarth has released eleven studio albums, one compilation album, one EP, one video album, and ten music videos. Their first studio album, Once Sent from the Golden Hall, debuted in 1998. Five more studio releases followed, before the band saw its breakthrough with the 2008 album Twilight of the Thunder God, which debuted at No. 10 on the Swedish album charts and No. 50 on the US Billboard 200. Four more albums, Surtur Rising, Deceiver of the Gods, Jomsviking, and Berserker followed in 2011, 2013, 2016, and 2019 respectively.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Avatar_(band)', 'artist_name': 'Avatar', 'wiki': 'http://en.wikipedia.org/wiki/Avatar_(band)', 'hometown': 'http://dbpedia.org/resource/Gothenburg', 'start_year': '2001', 'abstract': 'Avatar is a Swedish heavy metal band, formed in Gothenburg in 2001. The band has released eight studio albums, the most recent being Hunter Gatherer in 2020. The band has had some success on US rock radio, notably with their song "New Land", which peaked at number 20 on the Billboard Mainstream Rock Songs chart in May 2017.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Within_the_Ruins', 'artist_name': 'Within the Ruins', 'wiki': 'http://en.wikipedia.org/wiki/Within_the_Ruins', 'hometown': 'http://dbpedia.org/resource/Westfield,_Massachusetts', 'start_year': '2003', 'abstract': 'Within the Ruins is an American progressive metalcore/deathcore band from Westfield, Massachusetts, United States. They are currently signed to eOne Music and Good Fight Music. The group has released six studio albums and three EPs.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Atreyu', 'artist_name': 'Atreyu', 'wiki': 'http://en.wikipedia.org/wiki/Atreyu', 'hometown': 'http://dbpedia.org/resource/Yorba_Linda,_California', 'start_year': '1998', 'end_year': '2011', 'abstract': 'Atreyu is an American metalcore band from Yorba Linda, California, formed in 1998. The band currently consists of clean vocalist Brandon Saller, guitarists Dan Jacobs and Travis Miguel, bassist and unclean vocalist Marc "Porter" McKnight, and drummer Kyle Rosa. The band have released eight studio albums: Suicide Notes and Butterfly Kisses (2002), The Curse (2004), A Death-Grip on Yesterday (2006), Lead Sails Paper Anchor (2007), Congregation of the Damned (2009), Long Live (2015), In Our Wake (2018) and Baptize (2021).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Thrice', 'artist_name': 'Thrice', 'wiki': 'http://en.wikipedia.org/wiki/Thrice', 'hometown': 'http://dbpedia.org/resource/Irvine,_California', 'start_year': '1999', 'end_year': '2012', 'abstract': "Thrice is an American rock band from Irvine, California, formed in 1998. The group was founded by guitarist/vocalist Dustin Kensrue and lead guitarist Teppei Teranishi while they were in high school. Early in their career, the band was known for fast, hard music based in heavily distorted guitars, prominent lead guitar lines, and frequent changes in complex time signatures. This style is exemplified on their second album, The Illusion of Safety (2002) and their third album The Artist in the Ambulance (2003). Their fourth album Vheissu (2005) made significant changes by incorporating electronic beats, keyboards, and a more experimental sound. In 2007 and 2008, Thrice released The Alchemy Index, consisting of two studio albums that together make a four-part, 24-song cycle. Each of the four six-song EPs of the Alchemy Index features significantly different styles, based on different aspects of the band's musical esthetic which reflect the elemental themes of fire, water, air and earth, both lyrically and musically. The band's seventh album, Beggars, was released on August 11, 2009, and their eighth, Major/Minor on September 20, 2011. The most recent albums feature a refined combination of the band's different experiments and explorations. In 2011, Thrice announced a final tour and an imminent hiatus. Kensrue and Teranishi decided to reform the band in 2015 after attending a Brand New concert. In 2016, Thrice released their first post-reunion album, To Be Everywhere Is to Be Nowhere. The band's tenth album, Palms, was released in 2018. Their eleventh studio album Horizons/East was released in September 2021. Each album released by Thrice has had a portion of its sales proceeds donated to a new charitable organization."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Righteous_Vendetta', 'artist_name': 'Righteous Vendetta', 'wiki': 'http://en.wikipedia.org/wiki/Righteous_Vendetta', 'hometown': 'http://dbpedia.org/resource/Cody,_Wyoming', 'start_year': '2008', 'abstract': 'Righteous Vendetta is an American metalcore band that originated in Cody, Wyoming.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Wage_War', 'artist_name': 'Wage War', 'wiki': 'http://en.wikipedia.org/wiki/Wage_War', 'hometown': 'http://dbpedia.org/resource/Ocala,_Florida', 'start_year': '2010', 'abstract': 'Wage War is an American metalcore band formed in Ocala, Florida in 2010 under the name Empires. The band consists of lead vocalist Briton Bond, lead guitarist Seth Blake, rhythm guitarist and clean vocalist Cody Quistad, bassist Chris Gaylord, and drummer Stephen Kluesener. The band has released four studio albums and one EP. The band self-released one EP, The Fall of Kings in 2011. In 2015, the band signed to Fearless Records. The band released their first studio album, Blueprints, on November 27, 2015. Their second studio album Deadweight was released on August 4, 2017. Their third studio album, Pressure, was released on August 30, 2019. Their fourth studio album, Manic, was released on October 1, 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bad_Wolves', 'artist_name': 'Bad Wolves', 'wiki': 'http://en.wikipedia.org/wiki/Bad_Wolves', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2017', 'abstract': 'Bad Wolves is an American heavy metal band formed in 2017. Initially finding fame from their first single, a cover of the Cranberries\' 1994 hit "Zombie", the band proceeded to find further success with a number of songs topping the Billboard Mainstream Rock songs chart, including "Remember When", "Killing Me Slowly", and "Sober". To date, the band has released three studio albums, Disobey (2018), N.A.T.I.O.N. (2019) and Dear Monsters (2021). In January 2021, Vext left the band and was replaced by Daniel "DL" Lasckiewicz. Tensions ensued between Vext and the band, resulting in legal proceedings including Better Noise Music.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sabaton_(band)', 'artist_name': 'Sabaton', 'wiki': 'http://en.wikipedia.org/wiki/Sabaton_(band)', 'hometown': 'http://dbpedia.org/resource/Falun', 'start_year': '1999', 'abstract': 'Sabaton (Swedish: [ˈsɑ̂ːbaˌtɔn]) is a Swedish heavy metal band from Falun. Most of their nine albums are written about war. Their latest album The Great War (2019) reached number 1 on Swedish and German music charts.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Behemoth_(band)', 'artist_name': 'Behemoth', 'wiki': 'http://en.wikipedia.org/wiki/Behemoth_(band)', 'hometown': 'http://dbpedia.org/resource/Gdańsk', 'start_year': '1991', 'abstract': 'Behemoth is a Polish extreme metal band from Gdańsk, formed in 1991. They are considered to have played an important role in establishing the Polish extreme metal underground. Until the late 1990s, the band played a traditional black metal style with heathen lyrical content, but soon changed to that of occult and thelemic themes written by their lead vocalist Nergal and Krzysztof Azarewicz. With the 1999 release of Satanica, the band demonstrated their presence in the death metal scene, while retaining their own signature style characterized by the drum work of Inferno and multi-layered vocals. Despite Behemoth having been labeled as death metal or thrash metal-influenced, Nergal has mentioned that he does not like the band to be labeled.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Dream_Evil', 'artist_name': 'Dream Evil', 'wiki': 'http://en.wikipedia.org/wiki/Dream_Evil', 'hometown': 'http://dbpedia.org/resource/Gothenburg', 'start_year': '1999', 'abstract': 'Dream Evil is a Swedish heavy metal band, assembled by producer Fredrik Nordström in 1999.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Uisce_Beatha_(band)', 'artist_name': 'Red', 'wiki': 'http://en.wikipedia.org/wiki/Uisce_Beatha_(band)', 'hometown': 'http://dbpedia.org/resource/London,_Ontario', 'start_year': '1990', 'end_year': '1990', 'abstract': 'Uisce Beatha was a 1990s Canadian folk rock band based initially in London, Ontario and after 1993 in Halifax, Nova Scotia. The band took its name from the Irish name for whisky, meaning water of life. Their music ranged from Celtic to punk.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Whitechapel_(band)', 'artist_name': 'Whitechapel', 'wiki': 'http://en.wikipedia.org/wiki/Whitechapel_(band)', 'hometown': 'http://dbpedia.org/resource/Knoxville,_Tennessee', 'start_year': '2006', 'abstract': "Whitechapel is an American deathcore band from Knoxville, Tennessee. The band is named after the Whitechapel district in East London, England, where Jack the Ripper committed a series of murders. The group comprises vocalist Phil Bozeman, guitarists Ben Savage, Alex Wade, and Zach Householder, drummer Alex Rüdinger and bassist Gabe Crisp. Founded in 2006 by Bozeman and Savage, the band has released seven studio albums and fourteen music videos, and are currently signed to Metal Blade Records. Whitechapel's 2010 album A New Era of Corruption, sold around 10,600 copies in the United States in its first week of release and debuted at position No. 43 on the Billboard 200 chart. The band's self-titled fourth album was released in 2012 and debuted at No. 47 on the Billboard 200, selling roughly 9,200 copies in its first week. In 2014 the band released their fifth full-length album, Our Endless War to generally positive reviews. The album sold roughly 16,000 copies in its first week and debuted at No. 10 on the Billboard 200. They released their sixth full-length album Mark of the Blade in 2016 to greater critical acclaim, selling roughly 8,000 copies in the first week of its release. In 2019, Whitechapel released their seventh album, The Valley, which debuted at No. 143 on the Billboard 200 also to critical acclaim. Their newest album, Kin, was released on October 29, 2021."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Heaven_Shall_Burn', 'artist_name': 'Heaven Shall Burn', 'wiki': 'http://en.wikipedia.org/wiki/Heaven_Shall_Burn', 'hometown': 'http://dbpedia.org/resource/Saalfeld', 'start_year': '1996', 'abstract': "Heaven Shall Burn are a German extreme metal band from Saalfeld, formed in 1996. The band consists of vocalist Marcus Bischoff, guitarists Maik Weichert and Alexander Dietz, bassist Eric Bischoff and drummer Christian Bass. They are currently signed to Century Media. They have released eight studio albums, as well as a number of other records. One of their albums, Veto, entered the German Album Charts at #2 in 2013, with their latest, Of Truth and Sacrifice, reaching number 1. Heaven Shall Burn's musical style has been described as metalcore, melodic death metal and deathcore. Their lyrics often express heavy support for anti-racism and anti-fascism. They also have lyrics about resistance, oppression and animal rights. All members are vegans or vegetarians and most follow or followed a straight edge lifestyle."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Soil_(British_band)', 'artist_name': 'Soil', 'wiki': 'http://en.wikipedia.org/wiki/Soil_(British_band)', 'hometown': 'http://dbpedia.org/resource/Manchester', 'start_year': '1984', 'end_year': '1987', 'abstract': 'Soil was a British indie pop group, formed in Manchester in 1984, by North Manchester school-friends, Kevin Siddall (songwriter/guitar), Lee Bennett (bass guitar) and Rob Kerford (drums), and University of Manchester student, Matthew Karas (songwriter/vocals/keyboards/harmonica). Kerford left the group, just before the first gig, and Matthew\'s neighbour, Ravi Low-Beer, stood in on drums. Low-Beer, Kerford and guitarist, Siddall, all played drums on the four song cassette, Too Ill to Close the Door, which was duplicated and distributed by the group, and reviewed in City Life and the Manchester Evening News. After auditioning a few drummers, Gary Farrell, from Stretford, joined the group. In this line-up, Soil supported The Smiths in Kilburn, on 23 October 1986, at Morrissey\'s invitation. This was the concert at which The Smiths\' live album, Rank, was recorded. Karas had given Morrissey a cassette during a chance encounter, and received a postcard shortly afterwards. In the same year, Soil played at venues around Manchester, and regularly appeared at The Boardwalk. They also supported Easterhouse on a short UK tour. Their only release was a flexi-single on the cover of Debris fanzine, edited by Dave Haslam. The track, "Front Room". was played on BBC Radio 1 by John Peel several times, as well as on the local radio stations, BBC Radio Manchester and Red Rose Radio. Karas and Kevin recorded three jingles for the BBC Radio Manchester show, Meltdown, which were played weekly for several months. Soon after the Smiths concert, both Farrell and Bennett left the group. Karas and Siddall played one concert with a backing tape, before recruiting bass guitarist, Phil Morris, and drummer, Ged O\'Brien, who played at their final performance at The Boardwalk in 1987. Karas and Siddall have written and recorded sporadically since 1987, but have not released anything or performed in public. They played a short set in 2013, at Karas\' 50th birthday party. Karas played bass guitar and harmonica with The Fallen Leaves from 2009 until 2021, and has been playing various instruments, writing and arranging with Glassglue since 2003.'}</t>
+    <t>{'artist': 'http://dbpedia.org/resource/Lauren_Bennett', 'artist_name': 'Lauren Bennett', 'wiki': 'http://en.wikipedia.org/wiki/Lauren_Bennett', 'birth_date': '23 June 1989', 'start_year': '2007', 'abstract': 'Lauren Diane Bennett (born 23 June 1989) is an English singer, dancer, and model who was a member of the girl group G.R.L.. Bennett has also worked with the Paradiso Girls, CeeLo Green, Robin Antin and the Pussycat Dolls, and LMFAO. She was featured on the lattermost\'s 2011 track "Party Rock Anthem," which became her first number one single in the United Kingdom and United States.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Marshmello', 'artist_name': 'Marshmello', 'wiki': 'http://en.wikipedia.org/wiki/Marshmello', 'birth_date': '19 May 1992', 'start_year': '2015', 'abstract': 'Christopher Comstock (born May 19, 1992), known professionally as Marshmello, is an American electronic music producer and DJ. His songs "Silence", "Wolves", "Friends", "Happier", and "Alone" have been certified multi-platinum in several countries and appeared in the Top 30 of the Billboard Hot 100. His musical style includes groove-oriented, synth and bass-heavy electronic dance music. He is managed by Moe Shalizi. Marshmello first gained international recognition in early 2015 by publishing remixes online. His debut studio album, Joytime, was released in January 2016, which included the lead single and Marshmello\'s debut single "Keep It Mello". "Alone", a platinum-certified single was released in May 2016 via the Canadian record label Monstercat. Having peaked on the US Billboard Hot 100 at number 60, it became his first single to be certified platinum in the US and Canada with over 1 million copies of certified units. That year, he released three subsequent singles. In 2017, after releasing singles such as "Chasing Colors", "Twinbow" and "Moving On", Marshmello collaborated with American R&amp;B singer Khalid to release "Silence" as a single, which was certified platinum and multi-platinum in eight countries. Succeeding another single, one of his bestselling singles, a collaboration with American singer Selena Gomez, titled "Wolves" was released. In 2018, he released "Friends", a collaboration with British singer Anne-Marie. Months later, his second studio album, Joytime II, was released with singles "Tell Me" and "Check This Out". "Happier", a collaboration with British band Bastille, was released in August and became his highest charting song on the Billboard Hot 100 at #2. In 2019, he earned $40 million, ranking second on the list of highest paid DJs compiled by Forbes. In 2020, he and American rapper Juice Wrld released "Come &amp; Go", from the latter\'s posthumous album Legends Never Die; the song reached number two on the Billboard Hot 100, matching "Happier" as his highest charting song. In 2021, his album Shockwave earned him a Grammy nomination. Marshmello wears a custom white helmet, resembling a marshmallow, for public appearances and in his music videos. His identity was initially a secret, but was confirmed by Forbes to be Chris Comstock in April 2017.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Spice_Girls', 'artist_name': 'Spice Girls', 'wiki': 'http://en.wikipedia.org/wiki/Spice_Girls', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1994', 'end_year': '2000', 'abstract': 'The Spice Girls are a British girl group formed in 1994. The group comprises Melanie Brown, also known as Mel B ("Scary Spice"), Melanie Chisholm, or Melanie C ("Sporty Spice"), Emma Bunton ("Baby Spice"), Geri Halliwell ("Ginger Spice") and Victoria Beckham ("Posh Spice"). With their "girl power" mantra, the Spice Girls redefined the girl group concept by targeting a young female fanbase. They led the teen pop resurgence of the 1990s, were major parts of the Cool Britannia and Second British Invasion movements, and became pop culture icons of the decade. The Spice Girls formed through auditions held by managers Bob and Chris Herbert, who wanted to create a girl group to compete with the British boy bands popular at the time. They signed to Virgin Records and released their debut single "Wannabe" in 1996, which reached number one in the charts of 37 countries. Their debut album, Spice (1996), sold more than 23 million copies worldwide, becoming the best-selling album by a female group in history. The follow-up, Spiceworld (1997) sold more than 14 million copies worldwide. Both albums encapsulated the group\'s dance-pop style and message of female empowerment, with vocal and songwriting contributions shared equally by the members. In 1997, a film starring the Spice Girls, Spice World, was released; it was a critical flop but a commercial success. In May 1998, Halliwell left the Spice Girls, citing exhaustion and creative differences. Forever (2000), the only Spice Girls album without Halliwell, achieved weaker sales. At the end of 2000, the Spice Girls entered a hiatus to concentrate on their solo careers. They reunited for two concert tours, the Return of the Spice Girls (2007–2008) and Spice World (2019), both of which won the Billboard Live Music Award for highest-grossing engagements. Viva Forever!, a musical based on the Spice Girls\' music, opened in 2012; it was a critical and commercial flop and closed in 2013. Measures of the Spice Girls\' success include international record sales, iconic symbolism such as Halliwell\'s Union Jack dress, a major motion picture, Spice World (1997), and the highest-grossing concert tours by an all-female group from 2000 to 2020. Under the guidance of their mentor and manager Simon Fuller, their endorsement deals and merchandise made them one of most successful marketing engines ever, with a global gross income estimated at $500–800 million by May 1998. Their media exposure, according to Music Week writer Paul Gorman, helped usher in an era of celebrity obsession in pop culture. The Spice Girls have sold 100 million records worldwide, making them the bestselling girl group of all time, one of the bestselling artists, and the most successful British pop act since the Beatles. Their awards include five Brit Awards, three American Music Awards, four Billboard Music Awards, three MTV Europe Music Awards and one MTV Video Music Award. In 2000, they became the youngest recipients of the Brit Award for Outstanding Contribution to Music. According to Rolling Stone journalist and biographer David Sinclair, the Spice Girls were the most widely recognised group since the Beatles.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Traveling_Wilburys', 'artist_name': 'Traveling Wilburys', 'wiki': 'http://en.wikipedia.org/wiki/Traveling_Wilburys', 'hometown': 'http://dbpedia.org/resource/Billboard_200', 'start_year': '1988', 'end_year': '1991', 'abstract': 'The Traveling Wilburys (sometimes shortened to the Wilburys) were a British–American supergroup consisting of Bob Dylan, George Harrison, Jeff Lynne, Roy Orbison and Tom Petty. Originating from an idea discussed by Harrison and Lynne during the sessions for Harrison\'s 1987 album Cloud Nine, the band formed in April 1988 after the five members united to record a bonus track for Harrison\'s next European single. When this collaboration, "Handle with Care", was deemed too good for such a limited release, the group agreed to record a full album, titled Traveling Wilburys Vol. 1. Following Orbison\'s death in December 1988, the Wilburys released a second album, which they titled Traveling Wilburys Vol. 3, in 1990. The project\'s work received much anticipation given the diverse nature of the singer-songwriters. The band members adopted tongue-in-cheek pseudonyms as half-brothers from the fictional Wilbury family of travelling musicians. Vol. 1 was a critical and commercial success, helping to revitalise Dylan\'s and Petty\'s respective careers. In 1990, the album won the Grammy for Best Rock Performance by a Duo or Group. Although Harrison envisaged a series of Wilburys albums and a film about the band, produced through his company HandMade, the group\'s final release was in February 1991. After several years of unavailability, the two Wilburys albums were reissued by the Harrison estate in the 2007 box set The Traveling Wilburys Collection. The box set included a DVD containing their music videos and a documentary on the band\'s formation.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Of_Monsters_and_Men', 'artist_name': 'Of Monsters and Men', 'wiki': 'http://en.wikipedia.org/wiki/Of_Monsters_and_Men', 'hometown': 'http://dbpedia.org/resource/Iceland', 'start_year': '2010', 'abstract': 'Of Monsters and Men is an Icelandic indie folk/rock band formed in Reykjavík in 2010. The members are lead singer and guitarist Nanna Bryndís Hilmarsdóttir, singer and guitarist Ragnar "Raggi" Þórhallsson, lead guitarist Brynjar Leifsson, drummer Arnar Rósenkranz Hilmarsson and bassist Kristján Páll Kristjánsson. The band won the Músíktilraunir in 2010, an annual battle of the bands competition in Iceland. In 2011, Of Monsters and Men released an EP titled Into the Woods. The band\'s 2011 debut album My Head Is an Animal, reached the No.1 position in Australia, Iceland, Ireland and the US Rock and Alternative charts, while peaking at No. 6 on the US Billboard 200 album chart, No. 3 in the UK, and Top 20 of most European charts and Canada. Its lead single "Little Talks" was an international success, reaching the Top 10 in most music charts in Europe, including No. 1 in Ireland and Iceland, and No. 1 on US Alternative Songs. Of Monsters and Men won the 2013 European Border Breakers Awards.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Men_Without_Hats', 'artist_name': 'Men Without Hats', 'wiki': 'http://en.wikipedia.org/wiki/Men_Without_Hats', 'hometown': 'http://dbpedia.org/resource/Montreal', 'start_year': '1977', 'end_year': '1993', 'abstract': 'Men Without Hats are a Canadian new wave and synth-pop band, originally from Montreal, Quebec. Their music is characterized by the baritone voice of their lead singer Ivan Doroschuk, as well as their elaborate use of synthesizers and electronic processing. They achieved their greatest popularity in the 1980s with "The Safety Dance", a worldwide top ten hit (No. 3 in the United States), and "Pop Goes the World". After a hiatus for most of the 1990s and 2000s, Doroschuk reformed the band in 2010, and released Love in the Age of War (2012). The group, based in Vancouver, has continued to perform, including tour dates announced in support of the release of two studio albums, Men Without Hats Again (Parts 1 &amp; 2), in 2021 and 2022 respectively.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Matthew_Wilder', 'artist_name': 'Matthew Wilder', 'wiki': 'http://en.wikipedia.org/wiki/Matthew_Wilder', 'birth_date': '24 January 1953', 'start_year': '1972', 'abstract': 'Matthew Wilder (né Weiner; January 24, 1953) is an American singer, musician, and record producer. In early 1984, his single "Break My Stride" hit No. 2 on the Cash Box chart and No. 5 on the Billboard Hot 100. He also did the singing voice for Ling in the Disney animated feature film Mulan and wrote the music for the songs featured in the movie.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Vampire_Weekend', 'artist_name': 'Vampire Weekend', 'wiki': 'http://en.wikipedia.org/wiki/Vampire_Weekend', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2006', 'abstract': 'Vampire Weekend is an American rock band from New York City, formed in 2006 and currently signed to Columbia Records. The band was formed by lead vocalist and guitarist Ezra Koenig, multi-instrumentalist Rostam Batmanglij, drummer Chris Tomson, and bassist Chris Baio. The band\'s eponymous first album Vampire Weekend (2008)—which included the singles "Mansard Roof", "A-Punk", "Oxford Comma", "Cape Cod Kwassa Kwassa", and "The Kids Don\'t Stand a Chance"—was acclaimed by critics for its world music influences. Their following album, Contra (2010), was similarly acclaimed and garnered strong commercial success. Their third studio album, Modern Vampires of the City (2013), won the group the Grammy Award for Best Alternative Music Album. Batmanglij departed the group in early 2016. The band\'s fourth album, Father of the Bride, was released in 2019, and earned them a second Grammy win for Best Alternative Music Album. The album was also nominated for the Grammy Award for Album of the Year.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Gin_Blossoms', 'artist_name': 'Gin Blossoms', 'wiki': 'http://en.wikipedia.org/wiki/Gin_Blossoms', 'hometown': 'http://dbpedia.org/resource/Tempe,_Arizona', 'start_year': '2001', 'abstract': 'Gin Blossoms is an American rock band formed in 1987 in Tempe, Arizona. They rose to prominence following the 1992 release of their first major label album, New Miserable Experience, and the first single released from that album, "Hey Jealousy". "Hey Jealousy" became a Top 25 hit and went gold, and New Miserable Experience eventually went quadruple platinum; four other charting singles were released from the album. The band\'s follow-up album, Congratulations I\'m Sorry (1996), went platinum and the single "As Long as It Matters" was nominated for a Grammy Award. Gin Blossoms broke up in 1997. Since reuniting in 2001, the band has released Major Lodge Victory in 2006, No Chocolate Cake in 2010, and Mixed Reality in 2018. Gin Blossoms has been described as an alternative rock band and as a jangle pop band. According to Rolling Stone, the band excels at "marrying world-weary lyrics with ebullient melodies." In 2017, the Salina Journal described Gin Blossoms as a "Tempe, Ariz.-based indie band [acclaimed] by critics and fans alike for its chiming guitars, introspective lyrics and catchy pop-rock melodies," adding that "Gin Blossoms has maintained its longevity by being mostly a road band." The group is known for the "Mill Avenue sound", or "southwestern sound", similar to other bands from Arizona such as The Sidewinders, The Refreshments, The Meat Puppets, and Dead Hot Workshop.'}</t>
   </si>
   <si>
     <t>{'place_name': 'Des Moines, Iowa', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Des_Moines%2C_Iowa', 'place': 'http://sws.geonames.org/4853828/', 'postal_code': '50333', 'geo_link': 'http://www.geonames.org/4853828/des-moines.html', 'lat': '41.590833333333336', 'long': '-93.62083333333334', 'population': '203433'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Huntington Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dwyer_Middle_School', 'place': 'http://sws.geonames.org/5358705/', 'postal_code': '92648', 'geo_link': 'http://www.geonames.org/5346952/ethel-dwyer-middle-school.html', 'lat': '33.69277777777778', 'long': '-118.00027777777778', 'population': '189992'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Arlington, Texas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Arlington%2C_Texas', 'place': 'http://sws.geonames.org/4671240/', 'postal_code': '76015', 'geo_link': 'http://www.geonames.org/4671240/arlington.html', 'lat': '32.705', 'long': '-97.12277777777778', 'population': '365438'}</t>
+    <t>{'place_name': 'Friuli', 'country_code': 'IT', 'wiki': 'http://en.wikipedia.org/wiki/Friuli', 'place': 'http://sws.geonames.org/3165071/', 'geo_link': 'http://www.geonames.org/3165071/provincia-di-udine.html', 'lat': '46.166666666666664', 'long': '13.0', 'population': '535430'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Montreal', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Montreal', 'place': 'http://sws.geonames.org/6077243/', 'geo_link': 'http://www.geonames.org/6077243/montreal.html', 'lat': '45.5', 'long': '-73.56666666666666', 'population': '1600000'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Atlanta', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Atlanta', 'place': 'http://sws.geonames.org/4180439/', 'postal_code': '30305', 'geo_link': 'http://www.geonames.org/4180439/atlanta.html', 'lat': '33.755', 'long': '-84.39', 'population': '420003'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Birmingham', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Birmingham', 'place': 'http://sws.geonames.org/3333125/', 'geo_link': 'http://www.geonames.org/2655603/birmingham.html', 'lat': '52.48305555555555', 'long': '-1.8936111111111111', 'population': '984333'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Merseyside', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Merseyside', 'place': 'http://sws.geonames.org/2642713/', 'geo_link': 'http://www.geonames.org/2642713/merseyside.html', 'lat': '53.4', 'long': '-3.0', 'population': '1353600'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bietigheim-Bissingen', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Bietigheim-Bissingen', 'place': 'http://sws.geonames.org/2949012/', 'geo_link': 'http://www.geonames.org/2949012/bietigheim-bissingen.html', 'lat': '48.96666666666667', 'long': '9.133333333333333', 'population': '41769'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Newport Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Newport_Beach%2C_California', 'place': 'http://sws.geonames.org/5376889/', 'geo_link': 'http://www.geonames.org/5376889/newport-beach.html', 'lat': '33.61666666666667', 'long': '-117.8975'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Republic of Ireland', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Republic_of_Ireland', 'place': 'http://sws.geonames.org/2963597/', 'geo_link': 'http://www.geonames.org/2963597/ireland.html', 'lat': '53', 'long': '-8', 'population': '4622917'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'England', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/England', 'place': 'http://sws.geonames.org/6269131/', 'geo_link': 'http://www.geonames.org/6269131/england.html', 'lat': '51.5', 'long': '-0.11666666666666667', 'population': '50000000'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Gothenburg', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Gothenburg', 'place': 'http://sws.geonames.org/2711537/', 'geo_link': 'http://www.geonames.org/2711537/goeteborg.html', 'lat': '57.7', 'long': '11.966666666666667', 'population': '504084'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Paris', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Paris', 'place': 'http://sws.geonames.org/2988507/', 'postal_code': '75000', 'geo_link': 'http://www.geonames.org/2968815/paris.html', 'lat': '48.8567', 'long': '2.3508', 'population': '2257981'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Leicester', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Leicester', 'place': 'http://sws.geonames.org/3333165/', 'geo_link': 'http://www.geonames.org/2644668/leicester.html', 'lat': '52.63333333333333', 'long': '-1.1333333333333333', 'population': '339239'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Hungary', 'country_code': 'HU', 'wiki': 'http://en.wikipedia.org/wiki/Hungary', 'place': 'http://sws.geonames.org/719819/', 'geo_link': 'http://www.geonames.org/719819/hungary.html', 'lat': '47', 'long': '20', 'population': '9982000'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Frankfurt', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Frankfurt', 'place': 'http://sws.geonames.org/6553153/', 'geo_link': 'http://www.geonames.org/2925533/frankfurt-am-main.html', 'lat': '50.11666666666667', 'long': '8.683333333333334', 'population': '650000'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Minneapolis', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Minneapolis', 'place': 'http://sws.geonames.org/5037649/', 'postal_code': '55484', 'geo_link': 'http://www.geonames.org/5037649/minneapolis.html', 'lat': '44.983333333333334', 'long': '-93.26666666666667', 'population': '382578'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Australia', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Australia', 'place': 'http://sws.geonames.org/2077456/', 'geo_link': 'http://www.geonames.org/2077456/commonwealth-of-australia.html', 'lat': '-25', 'long': '135', 'population': '21515754'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Windsor, Berkshire', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Windsor%2C_Berkshire', 'place': 'http://sws.geonames.org/2633842/', 'geo_link': 'http://www.geonames.org/2633842/windsor.html', 'lat': '51.4791', 'long': '-0.6095', 'population': '28324'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Garden Grove, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Garden_Grove%2C_California', 'place': 'http://sws.geonames.org/5351515/', 'postal_code': '92844', 'geo_link': 'http://www.geonames.org/5351515/garden-grove.html', 'lat': '33.778888888888886', 'long': '-117.96027777777778', 'population': '170883'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'York, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/York%2C_Pennsylvania', 'place': 'http://sws.geonames.org/4562407/', 'postal_code': '17402', 'geo_link': 'http://www.geonames.org/4562407/york.html', 'lat': '39.96277777777778', 'long': '-76.72805555555556', 'population': '43718'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Riverside, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A0%D0%B8%D0%B2%D0%B5%D1%80%D1%81%D0%B0%D0%B9%D0%B4_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5387877/', 'postal_code': '92501', 'geo_link': 'http://www.geonames.org/5387877/riverside.html', 'lat': '33.948055555555555', 'long': '-117.39611111111111', 'population': '303871'}</t>
   </si>
   <si>
     <t>{'place_name': 'Glendale, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Glendale%2C_California', 'place': 'http://sws.geonames.org/5352423/', 'postal_code': '91208', 'geo_link': 'http://www.geonames.org/5352423/glendale.html', 'lat': '34.14611111111111', 'long': '-118.255', 'population': '191719'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Minas Gerais', 'country_code': 'BR', 'wiki': 'http://en.wikipedia.org/wiki/Minas_Gerais', 'place': 'http://sws.geonames.org/3457153/', 'geo_link': 'http://www.geonames.org/3457153/minas-gerais.html', 'lat': '-18', 'long': '-43.95', 'population': '19595309'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Chicago', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Chicago', 'place': 'http://sws.geonames.org/4887398/', 'postal_code': '60633', 'geo_link': 'http://www.geonames.org/4887398/chicago.html', 'lat': '41.83694444444444', 'long': '-87.68472222222222', 'population': '2695598'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Lawrence, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lawrence%2C_Massachusetts', 'place': 'http://sws.geonames.org/4941720/', 'postal_code': '01841', 'geo_link': 'http://www.geonames.org/4941720/lawrence.html', 'lat': '42.706944444444446', 'long': '-71.16361111111111', 'population': '76377'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Landes (department)', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Landes_(department)', 'place': 'http://sws.geonames.org/3007866/', 'geo_link': 'http://www.geonames.org/3007866/departement-des-landes.html', 'lat': '44', 'long': '-0.8333333333333334', 'population': '392592'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Berlin', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Berlin', 'place': 'http://sws.geonames.org/6547383/', 'postal_code': '10967', 'geo_link': 'http://www.geonames.org/2950157/land-berlin.html', 'lat': '52.5', 'long': '13.145833333333334', 'population': '3426354'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Peoria, Illinois', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Peoria%2C_Illinois', 'place': 'http://sws.geonames.org/4905687/', 'postal_code': '61638', 'geo_link': 'http://www.geonames.org/4905687/peoria.html', 'lat': '40.72083333333333', 'long': '-89.60944444444445', 'population': '115007'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sacramento, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A2%D0%B0%D0%B8%D0%BD%D1%81%D1%82%D0%B2%D0%BE', 'place': 'http://sws.geonames.org/5389489/', 'postal_code': '94258', 'geo_link': 'http://www.geonames.org/5389489/sacramento.html', 'lat': '38.55555555555556', 'long': '-121.46888888888888', 'population': '466488'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bridgeport, Connecticut', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bridgeport%2C_Connecticut', 'place': 'http://sws.geonames.org/5282804/', 'postal_code': '06610', 'geo_link': 'http://www.geonames.org/5282804/bridgeport.html', 'lat': '41.18638888888889', 'long': '-73.19555555555556', 'population': '144229'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Atlanta', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Atlanta', 'place': 'http://sws.geonames.org/4180439/', 'postal_code': '30305', 'geo_link': 'http://www.geonames.org/4180439/atlanta.html', 'lat': '33.755', 'long': '-84.39', 'population': '420003'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Fort Lauderdale, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Fort_Lauderdale%2C_Florida', 'place': 'http://sws.geonames.org/4155966/', 'postal_code': '33320', 'geo_link': 'http://www.geonames.org/4155966/fort-lauderdale.html', 'lat': '26.133333333333333', 'long': '-80.15', 'population': '165521'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Westfield, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Westfield%2C_Massachusetts', 'place': 'http://sws.geonames.org/4955190/', 'postal_code': '01085', 'geo_link': 'http://www.geonames.org/4955190/westfield.html', 'lat': '42.125', 'long': '-72.75', 'population': '41094'}</t>
+    <t>{'place_name': 'Victoria (Australia)', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Victoria_(Australia)', 'place': 'http://sws.geonames.org/2145234/', 'geo_link': 'http://www.geonames.org/2145234/state-of-victoria.html', 'lat': '37.0', 'long': '145', 'population': '5354042'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bakersfield, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bakersfield%2C_California', 'place': 'http://sws.geonames.org/5325738/', 'postal_code': '93308', 'geo_link': 'http://www.geonames.org/5325738/bakersfield.html', 'lat': '35.36666666666667', 'long': '-119.01666666666667', 'population': '347483'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Antibes', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Antibes', 'place': 'http://sws.geonames.org/3037456/', 'postal_code': '06600', 'geo_link': 'http://www.geonames.org/3037456/antibes.html', 'lat': '43.5808', 'long': '7.1239', 'population': '76393'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Long Beach, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9B%D0%BE%D0%BD%D0%B3-%D0%91%D0%B8%D1%87_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5367929/', 'postal_code': '90853', 'geo_link': 'http://www.geonames.org/5367929/long-beach.html', 'lat': '33.76833333333333', 'long': '-118.19555555555556', 'population': '462257'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Carlisle, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Carlisle%2C_Massachusetts', 'place': 'http://sws.geonames.org/4932328/', 'postal_code': '01741', 'geo_link': 'http://www.geonames.org/4932328/carlisle.html', 'lat': '42.52916666666667', 'long': '-71.35', 'population': '4799'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Munich', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Munich', 'place': 'http://sws.geonames.org/2867714/', 'geo_link': 'http://www.geonames.org/2867714/munich.html', 'lat': '48.13333333333333', 'long': '11.566666666666666', 'population': '1260391'}</t>
   </si>
   <si>
     <t>{'place_name': 'Orlando, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Orlando%2C_Florida', 'place': 'http://sws.geonames.org/4167147/', 'postal_code': '32832', 'geo_link': 'http://www.geonames.org/4167147/orlando.html', 'lat': '28.41583333333333', 'long': '-81.29888888888888', 'population': '238300'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Dallas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dallas', 'place': 'http://sws.geonames.org/4684888/', 'postal_code': '75221', 'geo_link': 'http://www.geonames.org/4684888/dallas.html', 'lat': '32.77583333333333', 'long': '-96.79666666666667', 'population': '1197816'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bridgend', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Bridgend', 'place': 'http://sws.geonames.org/2654755/', 'geo_link': 'http://www.geonames.org/2654755/bridgend.html', 'lat': '51.5072', 'long': '-3.5784', 'population': '39429'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bakersfield, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bakersfield%2C_California', 'place': 'http://sws.geonames.org/5325738/', 'postal_code': '93308', 'geo_link': 'http://www.geonames.org/5325738/bakersfield.html', 'lat': '35.36666666666667', 'long': '-119.01666666666667', 'population': '347483'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Wilkes-Barre, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Wilkes-Barre%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5219488/', 'geo_link': 'http://www.geonames.org/5219488/wilkes-barre.html', 'lat': '41.24444444444445', 'long': '-75.87805555555556', 'population': '41498'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Las Vegas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Las_Vegas', 'place': 'http://sws.geonames.org/5506956/', 'postal_code': '89106', 'geo_link': 'http://www.geonames.org/5506956/las-vegas.html', 'lat': '36.175', 'long': '-115.13638888888889', 'population': '583756'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Walsall', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Walsall', 'place': 'http://sws.geonames.org/2634853/', 'geo_link': 'http://www.geonames.org/2634853/walsall.html', 'lat': '52.58', 'long': '-1.98', 'population': '172141'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'New Haven, Connecticut', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_Haven%2C_Connecticut', 'place': 'http://sws.geonames.org/4839366/', 'postal_code': '06507', 'geo_link': 'http://www.geonames.org/4839366/new-haven.html', 'lat': '41.31', 'long': '-72.92361111111111', 'population': '129779'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Pretoria', 'country_code': 'ZA', 'wiki': 'http://en.wikipedia.org/wiki/Pretoria', 'place': 'http://sws.geonames.org/964137/', 'geo_link': 'http://www.geonames.org/964137/pretoria.html', 'lat': '-25.746111111111112', 'long': '28.188055555555554', 'population': '1619438'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'North Adams, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/North_Adams%2C_Massachusetts', 'place': 'http://sws.geonames.org/4945486/', 'postal_code': '01247', 'geo_link': 'http://www.geonames.org/4945486/north-adams.html', 'lat': '42.7', 'long': '-73.11666666666666', 'population': '13708'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Umeå', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Ume%C3%A5', 'place': 'http://sws.geonames.org/602150/', 'geo_link': 'http://www.geonames.org/602150/umea.html', 'lat': '63.825', 'long': '20.26388888888889', 'population': '74005'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Copenhagen', 'country_code': 'DK', 'wiki': 'http://en.wikipedia.org/wiki/Copenhagen', 'place': 'http://sws.geonames.org/2618425/', 'geo_link': 'http://www.geonames.org/2618425/copenhagen.html', 'lat': '55.67611111111111', 'long': '12.568333333333333', 'population': '1153615'}</t>
+    <t>{'place_name': 'Fagersta', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Fagersta', 'place': 'http://sws.geonames.org/2715656/', 'geo_link': 'http://www.geonames.org/2715656/fagersta.html', 'lat': '60.00416666666667', 'long': '15.793333333333333', 'population': '10432'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Baja California Sur', 'country_code': 'MX', 'wiki': 'http://en.wikipedia.org/wiki/Baja_California_Sur', 'place': 'http://sws.geonames.org/4017698/', 'geo_link': 'http://www.geonames.org/4017698/estado-de-baja-california-sur.html', 'lat': '25.85', 'long': '-111.96666666666667', 'population': '475586'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Worthing', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Worthing', 'place': 'http://sws.geonames.org/2633521/', 'geo_link': 'http://www.geonames.org/2633521/worthing.html', 'lat': '50.81471111111111', 'long': '-0.3713861111111111', 'population': '99110'}</t>
   </si>
   <si>
     <t>{'place_name': 'Little Rock, Arkansas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Little_Rock%2C_Arkansas', 'place': 'http://sws.geonames.org/4119403/', 'postal_code': '72223', 'geo_link': 'http://www.geonames.org/4119403/little-rock.html', 'lat': '34.736111111111114', 'long': '-92.33111111111111', 'population': '193524'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Sheffield', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Sheffield', 'place': 'http://sws.geonames.org/3333193/', 'geo_link': 'http://www.geonames.org/2638077/sheffield.html', 'lat': '53.38361111111111', 'long': '-1.4669444444444444', 'population': '447047'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Vacaville, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Vacaville%2C_California', 'place': 'http://sws.geonames.org/5405228/', 'postal_code': '95688', 'geo_link': 'http://www.geonames.org/5405228/vacaville.html', 'lat': '38.35388888888889', 'long': '-121.97277777777778', 'population': '92428'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Memphis, Tennessee', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BC%D1%84%D0%B8%D1%81_%28%D0%A2%D0%B5%D0%BD%D0%BD%D0%B5%D1%81%D1%81%D0%B8%29', 'place': 'http://sws.geonames.org/4641239/', 'postal_code': '38173', 'geo_link': 'http://www.geonames.org/4641239/memphis.html', 'lat': '35.1175', 'long': '-89.97111111111111', 'population': '646889'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Peterborough, Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Peterborough%2C_Ontario', 'place': 'http://sws.geonames.org/6101645/', 'geo_link': 'http://www.geonames.org/6101645/peterborough.html', 'lat': '44.3', 'long': '-78.31666666666666', 'population': '75877'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Kansas City, Missouri', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Kansas_City%2C_Missouri', 'place': 'http://sws.geonames.org/4393217/', 'postal_code': '64196', 'geo_link': 'http://www.geonames.org/4393217/kansas-city.html', 'lat': '39.09972222222222', 'long': '-94.57833333333333', 'population': '459787'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bartlett, Tennessee', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bartlett%2C_Tennessee', 'place': 'http://sws.geonames.org/4604183/', 'geo_link': 'http://www.geonames.org/4604183/bartlett.html', 'lat': '35.223055555555554', 'long': '-89.8411111111111', 'population': '54613'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Teignmouth', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Teignmouth', 'place': 'http://sws.geonames.org/2636132/', 'geo_link': 'http://www.geonames.org/2636132/teignmouth.html', 'lat': '50.5515', 'long': '-3.4886', 'population': '15498'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sydney', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Sydney', 'place': 'http://sws.geonames.org/2147714/', 'geo_link': 'http://www.geonames.org/2147714/sydney.html', 'lat': '33.865', 'long': '151.20944444444444', 'population': '4627345'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Corinth, Mississippi', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Corinth%2C_Mississippi', 'place': 'http://sws.geonames.org/4422713/', 'postal_code': '38834', 'geo_link': 'http://www.geonames.org/4422713/corinth.html', 'lat': '34.937222222222225', 'long': '-88.51527777777778', 'population': '14573'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Escatawpa, Mississippi', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Escatawpa%2C_Mississippi', 'place': 'http://sws.geonames.org/4425816/', 'postal_code': '39552', 'geo_link': 'http://www.geonames.org/4425816/escatawpa.html', 'lat': '30.489166666666666', 'long': '-88.55111111111111', 'population': '3722'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'San Antonio', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Antonio', 'place': 'http://sws.geonames.org/4726206/', 'postal_code': '78233', 'geo_link': 'http://www.geonames.org/4726206/san-antonio.html', 'lat': '29.416666666666668', 'long': '-98.5', 'population': '1327407'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Los Gatos, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Mulberry_School', 'place': 'http://sws.geonames.org/5373574/', 'postal_code': '95033', 'geo_link': 'http://www.geonames.org/5368518/los-gatos.html', 'lat': '37.236111111111114', 'long': '-121.96166666666667', 'population': '29413'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Grayslake, Illinois', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Grayslake%2C_Illinois', 'place': 'http://sws.geonames.org/4894465/', 'postal_code': '60030', 'geo_link': 'http://www.geonames.org/4894465/grayslake.html', 'lat': '42.348333333333336', 'long': '-88.0325', 'population': '20957'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Jacksonville, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Jacksonville%2C_Florida', 'place': 'http://sws.geonames.org/4160021/', 'postal_code': '32232', 'geo_link': 'http://www.geonames.org/4160021/jacksonville.html', 'lat': '30.336944444444445', 'long': '-81.6613888888889', 'population': '821784'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Richmond, Virginia', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A0%D0%B8%D1%87%D0%BC%D0%BE%D0%BD%D0%B4_%28%D0%92%D0%B8%D1%80%D0%B4%D0%B6%D0%B8%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/4781708/', 'postal_code': '23249', 'geo_link': 'http://www.geonames.org/4781708/richmond.html', 'lat': '37.53333333333333', 'long': '-77.46666666666667', 'population': '204214'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Springfield, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Springfield%2C_Massachusetts', 'place': 'http://sws.geonames.org/4951788/', 'postal_code': '01111', 'geo_link': 'http://www.geonames.org/4951788/springfield.html', 'lat': '42.10138888888889', 'long': '-72.59027777777777', 'population': '153060'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Waddinxveen', 'country_code': 'NL', 'wiki': 'http://en.wikipedia.org/wiki/Waddinxveen', 'place': 'http://sws.geonames.org/2745096/', 'geo_link': 'http://www.geonames.org/2745095/gemeente-waddinxveen.html', 'lat': '52.05', 'long': '4.65', 'population': '25338'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Southfield, Michigan', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Southfield%2C_Michigan', 'place': 'http://sws.geonames.org/5010643/', 'geo_link': 'http://www.geonames.org/5010643/township-of-southfield.html', 'lat': '42.47972222222222', 'long': '-83.245'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Burlington, Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Burlington%2C_Ontario', 'place': 'http://sws.geonames.org/5911592/', 'geo_link': 'http://www.geonames.org/5911592/burlington.html', 'lat': '43.31666666666667', 'long': '-79.8', 'population': '164415'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Muskegon, Michigan', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Muskegon%2C_Michigan', 'place': 'http://sws.geonames.org/5003132/', 'postal_code': '49440', 'geo_link': 'http://www.geonames.org/5003132/muskegon.html', 'lat': '43.23416666666667', 'long': '-86.24833333333333', 'population': '38401'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Inglewood, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Inglewood%2C_California', 'place': 'http://sws.geonames.org/5359488/', 'postal_code': '90302', 'geo_link': 'http://www.geonames.org/5359488/inglewood.html', 'lat': '33.9575', 'long': '-118.34611111111111', 'population': '109673'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Milton Keynes', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Milton_Keynes', 'place': 'http://sws.geonames.org/2642465/', 'geo_link': 'http://www.geonames.org/2642465/milton-keynes.html', 'lat': '52.04', 'long': '-0.76', 'population': '184506'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Tilburg', 'country_code': 'NL', 'wiki': 'http://en.wikipedia.org/wiki/Tilburg', 'place': 'http://sws.geonames.org/2746301/', 'geo_link': 'http://www.geonames.org/2746300/gemeente-tilburg.html', 'lat': '51.55', 'long': '5.083333333333333', 'population': '210270'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Asbury Park, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Asbury_Park%2C_New_Jersey', 'place': 'http://sws.geonames.org/5095281/', 'postal_code': '07712', 'geo_link': 'http://www.geonames.org/5095281/asbury-park.html', 'lat': '40.222884', 'long': '-74.010232', 'population': '16116'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Oakland, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Oakland%2C_California', 'place': 'http://sws.geonames.org/5378538/', 'postal_code': '94601', 'geo_link': 'http://www.geonames.org/5378538/oakland.html', 'lat': '37.80444444444444', 'long': '-122.27083333333333', 'population': '390724'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Minnesota', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Minnesota', 'place': 'http://sws.geonames.org/5037779/', 'geo_link': 'http://www.geonames.org/5037779/minnesota.html', 'lat': '46.25024', 'long': '-94.25055', 'population': '5141953'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Stockholm County', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Stockholm_County', 'place': 'http://sws.geonames.org/2673722/', 'geo_link': 'http://www.geonames.org/2673722/stockholm.html', 'lat': '59.5', 'long': '18', 'population': '2127006'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Gothenburg', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Gothenburg', 'place': 'http://sws.geonames.org/2711537/', 'geo_link': 'http://www.geonames.org/2711537/goeteborg.html', 'lat': '57.7', 'long': '11.966666666666667', 'population': '504084'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Yorba Linda, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Yorba_Linda%2C_California', 'place': 'http://sws.geonames.org/5410902/', 'postal_code': '92886', 'geo_link': 'http://www.geonames.org/5410902/yorba-linda.html', 'lat': '33.888551', 'long': '-117.813231', 'population': '64234'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Irvine, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Irvine%2C_California', 'place': 'http://sws.geonames.org/5359777/', 'postal_code': '92619', 'geo_link': 'http://www.geonames.org/5359777/irvine.html', 'lat': '33.669444444444444', 'long': '-117.82305555555556', 'population': '212375'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Cody, Wyoming', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Cody_Middle_School', 'place': 'http://sws.geonames.org/5821597/', 'postal_code': '82414', 'geo_link': 'http://www.geonames.org/5821593/cody.html', 'lat': '44.52333333333333', 'long': '-109.05722222222222', 'population': '9520'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Ocala, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Ocala%2C_Florida', 'place': 'http://sws.geonames.org/4166673/', 'postal_code': '34472', 'geo_link': 'http://www.geonames.org/4166673/ocala.html', 'lat': '29.18777777777778', 'long': '-82.13055555555556', 'population': '56315'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Falun', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Falun', 'place': 'http://sws.geonames.org/2715459/', 'geo_link': 'http://www.geonames.org/2715459/falun.html', 'lat': '60.60722222222222', 'long': '15.63111111111111', 'population': '36477'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Gdańsk', 'country_code': 'PL', 'wiki': 'http://en.wikipedia.org/wiki/Gda%C5%84sk', 'place': 'http://sws.geonames.org/7531002/', 'geo_link': 'http://www.geonames.org/3099434/gdansk.html', 'lat': '54.36666666666667', 'long': '18.633333333333333', 'population': '461865'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'London, Ontario', 'country_code': 'CA', 'wiki': 'http://uk.wikipedia.org/wiki/%D0%9B%D0%BE%D0%BD%D0%B4%D0%BE%D0%BD_(%D0%9E%D0%BD%D1%82%D0%B0%D1%80%D1%96%D0%BE)', 'place': 'http://sws.geonames.org/6058560/', 'geo_link': 'http://www.geonames.org/6058560/london.html', 'lat': '42.9837', 'long': '-81.2497', 'population': '346765'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Knoxville, Tennessee', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Knoxville%2C_Tennessee', 'place': 'http://sws.geonames.org/4634946/', 'postal_code': '37920', 'geo_link': 'http://www.geonames.org/4634946/knoxville.html', 'lat': '35.97277777777778', 'long': '-83.94222222222223', 'population': '178874'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Saalfeld', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Saalfeld', 'place': 'http://sws.geonames.org/2842688/', 'geo_link': 'http://www.geonames.org/2842688/saalfeld.html', 'lat': '50.65', 'long': '11.366666666666667', 'population': '28023'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Manchester', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Manchester', 'place': 'http://sws.geonames.org/3333169/', 'geo_link': 'http://www.geonames.org/3333169/manchester.html', 'lat': '53.46666666666667', 'long': '-2.2333333333333334'}</t>
+    <t>{'place_name': 'Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Massachusetts', 'place': 'http://sws.geonames.org/6254926/', 'geo_link': 'http://www.geonames.org/6254926/massachusetts.html', 'lat': '42.36565', 'long': '-71.10832', 'population': '6433422'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Miami', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Miami', 'place': 'http://sws.geonames.org/4164138/', 'postal_code': '33176', 'geo_link': 'http://www.geonames.org/4164138/miami.html', 'lat': '25.775277777777777', 'long': '-80.2088888888889', 'population': '399457'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'San Francisco', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Francisco', 'place': 'http://sws.geonames.org/5391997/', 'postal_code': '94118', 'geo_link': 'http://www.geonames.org/5391959/san-francisco.html', 'lat': '37.78333333333333', 'long': '-122.41666666666667', 'population': '805235'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Oregon', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Oregon', 'place': 'http://sws.geonames.org/5744337/', 'geo_link': 'http://www.geonames.org/5744337/oregon.html', 'lat': '44.00013', 'long': '-120.50139', 'population': '3642919'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'New South Wales', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/New_South_Wales', 'place': 'http://sws.geonames.org/2155400/', 'geo_link': 'http://www.geonames.org/2155400/state-of-new-south-wales.html', 'lat': '32.16166666666667', 'long': '146', 'population': '6917658'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bergen', 'country_code': 'NO', 'wiki': 'http://en.wikipedia.org/wiki/Bergen', 'place': 'http://sws.geonames.org/3161733/', 'geo_link': 'http://www.geonames.org/3161733/bergen.html', 'lat': '60.38944444444444', 'long': '5.33', 'population': '252051'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Corpus Christi, Texas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Corpus_Christi%2C_Texas', 'place': 'http://sws.geonames.org/4683416/', 'postal_code': '78402', 'geo_link': 'http://www.geonames.org/4683416/corpus-christi.html', 'lat': '27.74277777777778', 'long': '-97.40194444444444', 'population': '305215'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Liverpool', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Liverpool', 'place': 'http://sws.geonames.org/3333167/', 'geo_link': 'http://www.geonames.org/2644210/liverpool.html', 'lat': '53.4', 'long': '-2.9833333333333334', 'population': '468945'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'East Riding of Yorkshire', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/East_Riding_of_Yorkshire', 'place': 'http://sws.geonames.org/2650345/', 'geo_link': 'http://www.geonames.org/2650345/east-riding-of-yorkshire.html', 'lat': '53.916666666666664', 'long': '-0.5', 'population': '587100'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Iceland', 'country_code': 'IS', 'wiki': 'http://en.wikipedia.org/wiki/Iceland', 'place': 'http://sws.geonames.org/2629691/', 'geo_link': 'http://www.geonames.org/2629691/republic-of-iceland.html', 'lat': '65', 'long': '-18', 'population': '308910'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Tempe, Arizona', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Tempe%2C_Arizona', 'place': 'http://sws.geonames.org/5317058/', 'postal_code': '85287', 'geo_link': 'http://www.geonames.org/5317058/tempe.html', 'lat': '33.41277777777778', 'long': '-111.94305555555556', 'population': '161719'}</t>
   </si>
 </sst>
 </file>
@@ -1849,19 +1768,16 @@
         <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" t="s">
-        <v>403</v>
+        <v>305</v>
       </c>
       <c r="G2">
-        <v>1.780654668807983</v>
+        <v>2.819687128067017</v>
       </c>
       <c r="H2">
-        <v>0.1874721050262451</v>
+        <v>2.559325695037842</v>
       </c>
       <c r="I2">
-        <v>0.09384679794311523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1878,19 +1794,19 @@
         <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G3">
-        <v>1.390295505523682</v>
+        <v>1.321027755737305</v>
       </c>
       <c r="H3">
-        <v>1.51537013053894</v>
+        <v>1.959492444992065</v>
       </c>
       <c r="I3">
-        <v>0.06265163421630859</v>
+        <v>0.2386164665222168</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1907,19 +1823,19 @@
         <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G4">
-        <v>1.608820915222168</v>
+        <v>1.317100763320923</v>
       </c>
       <c r="H4">
-        <v>1.421567916870117</v>
+        <v>21.89858150482178</v>
       </c>
       <c r="I4">
-        <v>0.1093220710754395</v>
+        <v>0.3326888084411621</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1936,19 +1852,19 @@
         <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G5">
-        <v>1.671579599380493</v>
+        <v>1.329374551773071</v>
       </c>
       <c r="H5">
-        <v>0.1405007839202881</v>
+        <v>1.371750354766846</v>
       </c>
       <c r="I5">
-        <v>0.06264758110046387</v>
+        <v>0.06826877593994141</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1965,19 +1881,19 @@
         <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G6">
-        <v>1.468450546264648</v>
+        <v>1.467221736907959</v>
       </c>
       <c r="H6">
-        <v>1.655644416809082</v>
+        <v>1.412353754043579</v>
       </c>
       <c r="I6">
-        <v>0.1095585823059082</v>
+        <v>0.1112039089202881</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1994,19 +1910,19 @@
         <v>213</v>
       </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G7">
-        <v>1.624614953994751</v>
+        <v>1.309560537338257</v>
       </c>
       <c r="H7">
-        <v>1.37460994720459</v>
+        <v>2.501687049865723</v>
       </c>
       <c r="I7">
-        <v>0.07813000679016113</v>
+        <v>0.0683443546295166</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2023,19 +1939,16 @@
         <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F8" t="s">
-        <v>409</v>
+        <v>311</v>
       </c>
       <c r="G8">
-        <v>1.624887228012085</v>
+        <v>1.164721250534058</v>
       </c>
       <c r="H8">
-        <v>1.343171358108521</v>
+        <v>22.94994115829468</v>
       </c>
       <c r="I8">
-        <v>0.09372115135192871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2052,19 +1965,19 @@
         <v>215</v>
       </c>
       <c r="E9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G9">
-        <v>1.249971628189087</v>
+        <v>1.318351268768311</v>
       </c>
       <c r="H9">
-        <v>1.390063762664795</v>
+        <v>1.33533763885498</v>
       </c>
       <c r="I9">
-        <v>0.06244754791259766</v>
+        <v>0.1137359142303467</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2081,19 +1994,19 @@
         <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F10" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G10">
-        <v>1.5308518409729</v>
+        <v>2.761728048324585</v>
       </c>
       <c r="H10">
-        <v>1.639966726303101</v>
+        <v>1.711654663085938</v>
       </c>
       <c r="I10">
-        <v>0.09403419494628906</v>
+        <v>0.1065411567687988</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2110,19 +2023,16 @@
         <v>217</v>
       </c>
       <c r="E11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F11" t="s">
-        <v>412</v>
+        <v>314</v>
       </c>
       <c r="G11">
-        <v>1.343436002731323</v>
+        <v>1.241941928863525</v>
       </c>
       <c r="H11">
-        <v>1.484024047851562</v>
+        <v>1.007543563842773</v>
       </c>
       <c r="I11">
-        <v>0.07810616493225098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2138,14 +2048,11 @@
       <c r="D12" t="s">
         <v>218</v>
       </c>
-      <c r="E12" t="s">
-        <v>318</v>
-      </c>
       <c r="G12">
-        <v>1.655858278274536</v>
+        <v>1.341324806213379</v>
       </c>
       <c r="H12">
-        <v>0.1405887603759766</v>
+        <v>14.62854051589966</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2165,19 +2072,16 @@
         <v>219</v>
       </c>
       <c r="E13" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" t="s">
-        <v>413</v>
+        <v>315</v>
       </c>
       <c r="G13">
-        <v>1.54651927947998</v>
+        <v>1.370462656021118</v>
       </c>
       <c r="H13">
-        <v>1.608994245529175</v>
+        <v>0.8544154167175293</v>
       </c>
       <c r="I13">
-        <v>0.1090807914733887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2193,20 +2097,14 @@
       <c r="D14" t="s">
         <v>220</v>
       </c>
-      <c r="E14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F14" t="s">
-        <v>414</v>
-      </c>
       <c r="G14">
-        <v>1.280713796615601</v>
+        <v>2.234757661819458</v>
       </c>
       <c r="H14">
-        <v>1.562396764755249</v>
+        <v>11.90132474899292</v>
       </c>
       <c r="I14">
-        <v>0.07809829711914062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2223,19 +2121,16 @@
         <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>321</v>
-      </c>
-      <c r="F15" t="s">
-        <v>415</v>
+        <v>316</v>
       </c>
       <c r="G15">
-        <v>1.155975103378296</v>
+        <v>2.190835952758789</v>
       </c>
       <c r="H15">
-        <v>1.516034126281738</v>
+        <v>12.50621438026428</v>
       </c>
       <c r="I15">
-        <v>0.09393429756164551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2252,19 +2147,19 @@
         <v>222</v>
       </c>
       <c r="E16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F16" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G16">
-        <v>1.31196117401123</v>
+        <v>1.394801378250122</v>
       </c>
       <c r="H16">
-        <v>1.530884504318237</v>
+        <v>22.66953611373901</v>
       </c>
       <c r="I16">
-        <v>0.06248998641967773</v>
+        <v>0.1050930023193359</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2281,19 +2176,19 @@
         <v>223</v>
       </c>
       <c r="E17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F17" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G17">
-        <v>1.437389612197876</v>
+        <v>1.640234231948853</v>
       </c>
       <c r="H17">
-        <v>1.499603986740112</v>
+        <v>22.53842234611511</v>
       </c>
       <c r="I17">
-        <v>0.1093850135803223</v>
+        <v>0.1095786094665527</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2310,19 +2205,19 @@
         <v>224</v>
       </c>
       <c r="E18" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F18" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G18">
-        <v>1.546728610992432</v>
+        <v>1.827952861785889</v>
       </c>
       <c r="H18">
-        <v>2.405687093734741</v>
+        <v>1.530894756317139</v>
       </c>
       <c r="I18">
-        <v>0.06226706504821777</v>
+        <v>0.06222224235534668</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2339,19 +2234,19 @@
         <v>225</v>
       </c>
       <c r="E19" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F19" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G19">
-        <v>1.15597677230835</v>
+        <v>1.687325716018677</v>
       </c>
       <c r="H19">
-        <v>1.40591287612915</v>
+        <v>1.359063148498535</v>
       </c>
       <c r="I19">
-        <v>0.109349250793457</v>
+        <v>0.1091108322143555</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2368,19 +2263,19 @@
         <v>226</v>
       </c>
       <c r="E20" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F20" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G20">
-        <v>1.406163692474365</v>
+        <v>1.546504497528076</v>
       </c>
       <c r="H20">
-        <v>2.20237135887146</v>
+        <v>22.76089525222778</v>
       </c>
       <c r="I20">
-        <v>0.07809615135192871</v>
+        <v>0.1096305847167969</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2397,19 +2292,16 @@
         <v>227</v>
       </c>
       <c r="E21" t="s">
-        <v>327</v>
-      </c>
-      <c r="F21" t="s">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="G21">
-        <v>1.234085321426392</v>
+        <v>1.218729496002197</v>
       </c>
       <c r="H21">
-        <v>1.468398571014404</v>
+        <v>0.876093864440918</v>
       </c>
       <c r="I21">
-        <v>0.09373116493225098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2426,13 +2318,13 @@
         <v>228</v>
       </c>
       <c r="E22" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G22">
-        <v>0.9531686305999756</v>
+        <v>1.48399543762207</v>
       </c>
       <c r="H22">
-        <v>1.186955451965332</v>
+        <v>2.390089273452759</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2452,19 +2344,19 @@
         <v>229</v>
       </c>
       <c r="E23" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F23" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G23">
-        <v>1.405914545059204</v>
+        <v>1.327850580215454</v>
       </c>
       <c r="H23">
-        <v>5.357864618301392</v>
+        <v>22.54256463050842</v>
       </c>
       <c r="I23">
-        <v>0.09396457672119141</v>
+        <v>0.1093389987945557</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2481,19 +2373,16 @@
         <v>230</v>
       </c>
       <c r="E24" t="s">
-        <v>330</v>
-      </c>
-      <c r="F24" t="s">
-        <v>423</v>
+        <v>325</v>
       </c>
       <c r="G24">
-        <v>1.515250682830811</v>
+        <v>1.296635627746582</v>
       </c>
       <c r="H24">
-        <v>1.702723979949951</v>
+        <v>1.954329967498779</v>
       </c>
       <c r="I24">
-        <v>0.06245923042297363</v>
+        <v>0.06242752075195312</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2510,13 +2399,13 @@
         <v>231</v>
       </c>
       <c r="E25" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G25">
-        <v>1.671493291854858</v>
+        <v>1.390556573867798</v>
       </c>
       <c r="H25">
-        <v>0.1874990463256836</v>
+        <v>1.061981439590454</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2536,16 +2425,16 @@
         <v>232</v>
       </c>
       <c r="E26" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G26">
-        <v>1.718380451202393</v>
+        <v>1.906074047088623</v>
       </c>
       <c r="H26">
-        <v>1.577520847320557</v>
+        <v>11.40328812599182</v>
       </c>
       <c r="I26">
-        <v>0.09394454956054688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2562,19 +2451,19 @@
         <v>233</v>
       </c>
       <c r="E27" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F27" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G27">
-        <v>1.827908515930176</v>
+        <v>1.07808256149292</v>
       </c>
       <c r="H27">
-        <v>1.218422174453735</v>
+        <v>1.530643939971924</v>
       </c>
       <c r="I27">
-        <v>0.07789278030395508</v>
+        <v>0.1562342643737793</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2590,11 +2479,14 @@
       <c r="D28" t="s">
         <v>234</v>
       </c>
+      <c r="E28" t="s">
+        <v>329</v>
+      </c>
       <c r="G28">
-        <v>1.151695251464844</v>
+        <v>1.312485694885254</v>
       </c>
       <c r="H28">
-        <v>38.71830010414124</v>
+        <v>0.9370131492614746</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2614,19 +2506,19 @@
         <v>235</v>
       </c>
       <c r="E29" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F29" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G29">
-        <v>1.240879774093628</v>
+        <v>2.125240087509155</v>
       </c>
       <c r="H29">
-        <v>8.737159729003906</v>
+        <v>1.624373435974121</v>
       </c>
       <c r="I29">
-        <v>0.1013383865356445</v>
+        <v>0.09394097328186035</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2643,19 +2535,19 @@
         <v>236</v>
       </c>
       <c r="E30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F30" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G30">
-        <v>1.313841819763184</v>
+        <v>1.67151665687561</v>
       </c>
       <c r="H30">
-        <v>1.270216464996338</v>
+        <v>1.437159538269043</v>
       </c>
       <c r="I30">
-        <v>0.06999063491821289</v>
+        <v>0.09372973442077637</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2672,16 +2564,19 @@
         <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="F31" t="s">
+        <v>416</v>
       </c>
       <c r="G31">
-        <v>1.422981262207031</v>
+        <v>1.32780933380127</v>
       </c>
       <c r="H31">
-        <v>5.010539531707764</v>
+        <v>1.296299934387207</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>0.2186989784240723</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2698,13 +2593,13 @@
         <v>238</v>
       </c>
       <c r="E32" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G32">
-        <v>1.374525785446167</v>
+        <v>1.374637603759766</v>
       </c>
       <c r="H32">
-        <v>5.677733421325684</v>
+        <v>22.16707444190979</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2724,19 +2619,16 @@
         <v>239</v>
       </c>
       <c r="E33" t="s">
-        <v>338</v>
-      </c>
-      <c r="F33" t="s">
-        <v>427</v>
+        <v>334</v>
       </c>
       <c r="G33">
-        <v>1.206098079681396</v>
+        <v>2.43683123588562</v>
       </c>
       <c r="H33">
-        <v>2.863658428192139</v>
+        <v>1.642364025115967</v>
       </c>
       <c r="I33">
-        <v>0.1234598159790039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2753,19 +2645,19 @@
         <v>240</v>
       </c>
       <c r="E34" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F34" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G34">
-        <v>1.093036651611328</v>
+        <v>1.327817440032959</v>
       </c>
       <c r="H34">
-        <v>5.386476755142212</v>
+        <v>1.452860593795776</v>
       </c>
       <c r="I34">
-        <v>0.09389543533325195</v>
+        <v>0.1249730587005615</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2782,19 +2674,16 @@
         <v>241</v>
       </c>
       <c r="E35" t="s">
-        <v>340</v>
-      </c>
-      <c r="F35" t="s">
-        <v>429</v>
+        <v>336</v>
       </c>
       <c r="G35">
-        <v>1.278834342956543</v>
+        <v>1.390536785125732</v>
       </c>
       <c r="H35">
-        <v>0.1519215106964111</v>
+        <v>0.7964529991149902</v>
       </c>
       <c r="I35">
-        <v>0.0646204948425293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2811,19 +2700,16 @@
         <v>242</v>
       </c>
       <c r="E36" t="s">
-        <v>341</v>
-      </c>
-      <c r="F36" t="s">
-        <v>430</v>
+        <v>337</v>
       </c>
       <c r="G36">
-        <v>1.366125106811523</v>
+        <v>1.452806949615479</v>
       </c>
       <c r="H36">
-        <v>2.600810050964355</v>
+        <v>8.388962984085083</v>
       </c>
       <c r="I36">
-        <v>0.1093862056732178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2840,19 +2726,19 @@
         <v>243</v>
       </c>
       <c r="E37" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F37" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G37">
-        <v>1.031206607818604</v>
+        <v>1.452963590621948</v>
       </c>
       <c r="H37">
-        <v>2.445056676864624</v>
+        <v>1.516977548599243</v>
       </c>
       <c r="I37">
-        <v>0.06254720687866211</v>
+        <v>0.1093189716339111</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2869,19 +2755,19 @@
         <v>244</v>
       </c>
       <c r="E38" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F38" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="G38">
-        <v>1.284216165542603</v>
+        <v>1.859157800674438</v>
       </c>
       <c r="H38">
-        <v>2.46979832649231</v>
+        <v>1.374674558639526</v>
       </c>
       <c r="I38">
-        <v>0.1194119453430176</v>
+        <v>0.06225872039794922</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2898,19 +2784,19 @@
         <v>245</v>
       </c>
       <c r="E39" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F39" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G39">
-        <v>1.342055797576904</v>
+        <v>1.359319448471069</v>
       </c>
       <c r="H39">
-        <v>3.313599824905396</v>
+        <v>1.359054803848267</v>
       </c>
       <c r="I39">
-        <v>0.1117744445800781</v>
+        <v>0.109088659286499</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2927,19 +2813,19 @@
         <v>246</v>
       </c>
       <c r="E40" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F40" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G40">
-        <v>1.484299898147583</v>
+        <v>1.374376535415649</v>
       </c>
       <c r="H40">
-        <v>0.1405773162841797</v>
+        <v>1.733728408813477</v>
       </c>
       <c r="I40">
-        <v>0.0624847412109375</v>
+        <v>0.07837653160095215</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2956,13 +2842,13 @@
         <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G41">
-        <v>1.734229564666748</v>
+        <v>1.437161207199097</v>
       </c>
       <c r="H41">
-        <v>0.1559402942657471</v>
+        <v>0.9062943458557129</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2978,23 +2864,20 @@
       <c r="C42" t="s">
         <v>148</v>
       </c>
-      <c r="D42" t="s">
-        <v>248</v>
-      </c>
       <c r="E42" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F42" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G42">
-        <v>1.561897993087769</v>
+        <v>0.530881404876709</v>
       </c>
       <c r="H42">
-        <v>0.265514612197876</v>
+        <v>1.608845472335815</v>
       </c>
       <c r="I42">
-        <v>0.1093969345092773</v>
+        <v>0.1095104217529297</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3008,22 +2891,22 @@
         <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E43" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F43" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="G43">
-        <v>1.780829191207886</v>
+        <v>1.827661275863647</v>
       </c>
       <c r="H43">
-        <v>1.234082460403442</v>
+        <v>1.452904224395752</v>
       </c>
       <c r="I43">
-        <v>0.06248688697814941</v>
+        <v>0.06259703636169434</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3037,22 +2920,22 @@
         <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E44" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F44" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="G44">
-        <v>1.249412298202515</v>
+        <v>1.406105756759644</v>
       </c>
       <c r="H44">
-        <v>0.4373595714569092</v>
+        <v>1.265369176864624</v>
       </c>
       <c r="I44">
-        <v>0.0940248966217041</v>
+        <v>0.1091835498809814</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3066,22 +2949,19 @@
         <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>350</v>
-      </c>
-      <c r="F45" t="s">
-        <v>434</v>
+        <v>346</v>
       </c>
       <c r="G45">
-        <v>1.82765793800354</v>
+        <v>1.452695846557617</v>
       </c>
       <c r="H45">
-        <v>2.874319314956665</v>
+        <v>1.702685832977295</v>
       </c>
       <c r="I45">
-        <v>0.06278395652770996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3095,22 +2975,22 @@
         <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E46" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F46" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G46">
-        <v>1.233894348144531</v>
+        <v>1.265177488327026</v>
       </c>
       <c r="H46">
-        <v>0.1559808254241943</v>
+        <v>1.468254804611206</v>
       </c>
       <c r="I46">
-        <v>0.09399962425231934</v>
+        <v>0.1564435958862305</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3124,22 +3004,19 @@
         <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E47" t="s">
-        <v>352</v>
-      </c>
-      <c r="F47" t="s">
-        <v>436</v>
+        <v>348</v>
       </c>
       <c r="G47">
-        <v>1.655864238739014</v>
+        <v>1.280840158462524</v>
       </c>
       <c r="H47">
-        <v>1.780981540679932</v>
+        <v>1.640232801437378</v>
       </c>
       <c r="I47">
-        <v>0.06248307228088379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3153,19 +3030,16 @@
         <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>254</v>
-      </c>
-      <c r="E48" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="G48">
-        <v>1.499649047851562</v>
+        <v>2.296541929244995</v>
       </c>
       <c r="H48">
-        <v>2.108870983123779</v>
+        <v>9.982064485549927</v>
       </c>
       <c r="I48">
-        <v>0.1093437671661377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3179,22 +3053,22 @@
         <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E49" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F49" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="G49">
-        <v>0.9838888645172119</v>
+        <v>0.9372742176055908</v>
       </c>
       <c r="H49">
-        <v>1.858723402023315</v>
+        <v>1.593291759490967</v>
       </c>
       <c r="I49">
-        <v>0.1720869541168213</v>
+        <v>0.1094305515289307</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3208,22 +3082,22 @@
         <v>156</v>
       </c>
       <c r="D50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E50" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F50" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G50">
-        <v>0.9369823932647705</v>
+        <v>1.359318494796753</v>
       </c>
       <c r="H50">
-        <v>0.1405696868896484</v>
+        <v>1.6558678150177</v>
       </c>
       <c r="I50">
-        <v>0.09399008750915527</v>
+        <v>0.07784104347229004</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3237,22 +3111,19 @@
         <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>356</v>
-      </c>
-      <c r="F51" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="G51">
-        <v>1.437426805496216</v>
+        <v>1.405913829803467</v>
       </c>
       <c r="H51">
-        <v>0.1718375682830811</v>
+        <v>21.94843339920044</v>
       </c>
       <c r="I51">
-        <v>0.06248331069946289</v>
+        <v>0.09373283386230469</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3266,19 +3137,22 @@
         <v>158</v>
       </c>
       <c r="D52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E52" t="s">
-        <v>357</v>
+        <v>352</v>
+      </c>
+      <c r="F52" t="s">
+        <v>418</v>
       </c>
       <c r="G52">
-        <v>1.030836582183838</v>
+        <v>2.265139102935791</v>
       </c>
       <c r="H52">
-        <v>1.593374490737915</v>
+        <v>1.374901533126831</v>
       </c>
       <c r="I52">
-        <v>0.0624847412109375</v>
+        <v>0.07784509658813477</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3292,22 +3166,22 @@
         <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E53" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F53" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="G53">
-        <v>1.281179904937744</v>
+        <v>1.390280723571777</v>
       </c>
       <c r="H53">
-        <v>0.1563906669616699</v>
+        <v>22.62051820755005</v>
       </c>
       <c r="I53">
-        <v>0.09349298477172852</v>
+        <v>0.1564943790435791</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3321,22 +3195,19 @@
         <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E54" t="s">
-        <v>359</v>
-      </c>
-      <c r="F54" t="s">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="G54">
-        <v>1.171367883682251</v>
+        <v>1.359318494796753</v>
       </c>
       <c r="H54">
-        <v>15.4492449760437</v>
+        <v>1.078896760940552</v>
       </c>
       <c r="I54">
-        <v>0.0939486026763916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3350,22 +3221,19 @@
         <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E55" t="s">
-        <v>360</v>
-      </c>
-      <c r="F55" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="G55">
-        <v>1.202851533889771</v>
+        <v>1.249442338943481</v>
       </c>
       <c r="H55">
-        <v>1.640354156494141</v>
+        <v>0.9529087543487549</v>
       </c>
       <c r="I55">
-        <v>0.06259775161743164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3379,22 +3247,19 @@
         <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E56" t="s">
-        <v>361</v>
-      </c>
-      <c r="F56" t="s">
-        <v>443</v>
+        <v>356</v>
       </c>
       <c r="G56">
-        <v>1.296615839004517</v>
+        <v>1.483975887298584</v>
       </c>
       <c r="H56">
-        <v>1.437150001525879</v>
+        <v>1.546551704406738</v>
       </c>
       <c r="I56">
-        <v>0.124924898147583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3408,22 +3273,22 @@
         <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E57" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F57" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="G57">
-        <v>1.234004735946655</v>
+        <v>1.405916690826416</v>
       </c>
       <c r="H57">
-        <v>1.42131781578064</v>
+        <v>1.671507596969604</v>
       </c>
       <c r="I57">
-        <v>0.06271648406982422</v>
+        <v>0.1252014636993408</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3437,22 +3302,19 @@
         <v>164</v>
       </c>
       <c r="D58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E58" t="s">
-        <v>363</v>
-      </c>
-      <c r="F58" t="s">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="G58">
-        <v>1.780779600143433</v>
+        <v>1.312427043914795</v>
       </c>
       <c r="H58">
-        <v>2.890010118484497</v>
+        <v>1.108879804611206</v>
       </c>
       <c r="I58">
-        <v>0.1248848438262939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3466,22 +3328,19 @@
         <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E59" t="s">
-        <v>364</v>
-      </c>
-      <c r="F59" t="s">
-        <v>434</v>
+        <v>359</v>
       </c>
       <c r="G59">
-        <v>1.312188386917114</v>
+        <v>2.202744245529175</v>
       </c>
       <c r="H59">
-        <v>4.467825889587402</v>
+        <v>3.686487913131714</v>
       </c>
       <c r="I59">
-        <v>0.1093502044677734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3495,22 +3354,22 @@
         <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E60" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F60" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="G60">
-        <v>1.312453269958496</v>
+        <v>1.40592622756958</v>
       </c>
       <c r="H60">
-        <v>0.6248574256896973</v>
+        <v>3.014904022216797</v>
       </c>
       <c r="I60">
-        <v>0.06221723556518555</v>
+        <v>0.1249763965606689</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3524,22 +3383,19 @@
         <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E61" t="s">
-        <v>366</v>
-      </c>
-      <c r="F61" t="s">
-        <v>447</v>
+        <v>361</v>
       </c>
       <c r="G61">
-        <v>1.530854225158691</v>
+        <v>1.265591144561768</v>
       </c>
       <c r="H61">
-        <v>0.437161922454834</v>
+        <v>3.78007960319519</v>
       </c>
       <c r="I61">
-        <v>0.06275773048400879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3553,16 +3409,22 @@
         <v>168</v>
       </c>
       <c r="D62" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="E62" t="s">
+        <v>362</v>
+      </c>
+      <c r="F62" t="s">
+        <v>425</v>
       </c>
       <c r="G62">
-        <v>1.218501091003418</v>
+        <v>1.640481472015381</v>
       </c>
       <c r="H62">
-        <v>10.90340542793274</v>
+        <v>1.499655246734619</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>0.1090950965881348</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3576,22 +3438,19 @@
         <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E63" t="s">
-        <v>367</v>
-      </c>
-      <c r="F63" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="G63">
-        <v>1.49964714050293</v>
+        <v>1.062193393707275</v>
       </c>
       <c r="H63">
-        <v>1.484247207641602</v>
+        <v>1.547003030776978</v>
       </c>
       <c r="I63">
-        <v>0.1093499660491943</v>
+        <v>0.06254005432128906</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3605,22 +3464,22 @@
         <v>170</v>
       </c>
       <c r="D64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E64" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F64" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="G64">
-        <v>1.343579053878784</v>
+        <v>0.952744722366333</v>
       </c>
       <c r="H64">
-        <v>0.1715984344482422</v>
+        <v>1.530885457992554</v>
       </c>
       <c r="I64">
-        <v>0.04694890975952148</v>
+        <v>0.1095819473266602</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3634,22 +3493,22 @@
         <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E65" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F65" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="G65">
-        <v>1.31196141242981</v>
+        <v>1.374887228012085</v>
       </c>
       <c r="H65">
-        <v>1.421543836593628</v>
+        <v>1.624771118164062</v>
       </c>
       <c r="I65">
-        <v>0.06248116493225098</v>
+        <v>0.07789349555969238</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3663,22 +3522,19 @@
         <v>172</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E66" t="s">
-        <v>370</v>
-      </c>
-      <c r="F66" t="s">
-        <v>450</v>
+        <v>366</v>
       </c>
       <c r="G66">
-        <v>1.421571254730225</v>
+        <v>1.406066417694092</v>
       </c>
       <c r="H66">
-        <v>1.922109603881836</v>
+        <v>0.9526717662811279</v>
       </c>
       <c r="I66">
-        <v>0.1092886924743652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3692,22 +3548,19 @@
         <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E67" t="s">
-        <v>371</v>
-      </c>
-      <c r="F67" t="s">
-        <v>451</v>
+        <v>367</v>
       </c>
       <c r="G67">
-        <v>1.218459129333496</v>
+        <v>0.9529049396514893</v>
       </c>
       <c r="H67">
-        <v>1.686860322952271</v>
+        <v>1.718423128128052</v>
       </c>
       <c r="I67">
-        <v>0.06248760223388672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3721,19 +3574,22 @@
         <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E68" t="s">
-        <v>372</v>
+        <v>368</v>
+      </c>
+      <c r="F68" t="s">
+        <v>432</v>
       </c>
       <c r="G68">
-        <v>1.328057050704956</v>
+        <v>1.687101125717163</v>
       </c>
       <c r="H68">
-        <v>1.07787036895752</v>
+        <v>2.12449049949646</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>0.1091201305389404</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3747,22 +3603,19 @@
         <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E69" t="s">
-        <v>373</v>
-      </c>
-      <c r="F69" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="G69">
-        <v>1.234199047088623</v>
+        <v>1.702721357345581</v>
       </c>
       <c r="H69">
-        <v>1.311963081359863</v>
+        <v>2.077633380889893</v>
       </c>
       <c r="I69">
-        <v>0.1249654293060303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3776,22 +3629,22 @@
         <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E70" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F70" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="G70">
-        <v>1.156190633773804</v>
+        <v>1.233817577362061</v>
       </c>
       <c r="H70">
-        <v>1.35916543006897</v>
+        <v>1.734196424484253</v>
       </c>
       <c r="I70">
-        <v>0.07787895202636719</v>
+        <v>0.1249706745147705</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3805,22 +3658,22 @@
         <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E71" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F71" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G71">
-        <v>1.640241384506226</v>
+        <v>1.187218427658081</v>
       </c>
       <c r="H71">
-        <v>0.2187035083770752</v>
+        <v>1.796720266342163</v>
       </c>
       <c r="I71">
-        <v>0.0624845027923584</v>
+        <v>0.07810211181640625</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3834,22 +3687,22 @@
         <v>178</v>
       </c>
       <c r="D72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E72" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F72" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
       <c r="G72">
-        <v>0.9215471744537354</v>
+        <v>1.843461036682129</v>
       </c>
       <c r="H72">
-        <v>0.1561455726623535</v>
+        <v>1.437160968780518</v>
       </c>
       <c r="I72">
-        <v>0.1094202995300293</v>
+        <v>0.09358000755310059</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3863,22 +3716,19 @@
         <v>179</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E73" t="s">
-        <v>377</v>
-      </c>
-      <c r="F73" t="s">
-        <v>444</v>
+        <v>373</v>
       </c>
       <c r="G73">
-        <v>1.405899524688721</v>
+        <v>7.139017820358276</v>
       </c>
       <c r="H73">
-        <v>1.609098196029663</v>
+        <v>23.83841156959534</v>
       </c>
       <c r="I73">
-        <v>0.07788896560668945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3892,22 +3742,22 @@
         <v>180</v>
       </c>
       <c r="D74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E74" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F74" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G74">
-        <v>1.124967813491821</v>
+        <v>1.515262842178345</v>
       </c>
       <c r="H74">
-        <v>0.9060325622558594</v>
+        <v>1.71852707862854</v>
       </c>
       <c r="I74">
-        <v>0.09373092651367188</v>
+        <v>0.1249394416809082</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3921,16 +3771,22 @@
         <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="E75" t="s">
+        <v>375</v>
+      </c>
+      <c r="F75" t="s">
+        <v>436</v>
       </c>
       <c r="G75">
-        <v>1.046858310699463</v>
+        <v>1.68710994720459</v>
       </c>
       <c r="H75">
-        <v>12.71550750732422</v>
+        <v>1.452781677246094</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>0.07810187339782715</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3944,19 +3800,22 @@
         <v>182</v>
       </c>
       <c r="D76" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E76" t="s">
-        <v>379</v>
+        <v>376</v>
+      </c>
+      <c r="F76" t="s">
+        <v>437</v>
       </c>
       <c r="G76">
-        <v>1.23408031463623</v>
+        <v>0.9062962532043457</v>
       </c>
       <c r="H76">
-        <v>1.577759981155396</v>
+        <v>5.186280250549316</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>0.1090774536132812</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3969,23 +3828,17 @@
       <c r="C77" t="s">
         <v>183</v>
       </c>
-      <c r="D77" t="s">
-        <v>283</v>
-      </c>
       <c r="E77" t="s">
-        <v>380</v>
-      </c>
-      <c r="F77" t="s">
-        <v>454</v>
+        <v>377</v>
       </c>
       <c r="G77">
-        <v>1.234084844589233</v>
+        <v>0.6404788494110107</v>
       </c>
       <c r="H77">
-        <v>9.997603416442871</v>
+        <v>21.87073636054993</v>
       </c>
       <c r="I77">
-        <v>0.1093807220458984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3999,22 +3852,22 @@
         <v>184</v>
       </c>
       <c r="D78" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E78" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F78" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="G78">
-        <v>1.468253612518311</v>
+        <v>1.046628952026367</v>
       </c>
       <c r="H78">
-        <v>1.702573299407959</v>
+        <v>7.015804052352905</v>
       </c>
       <c r="I78">
-        <v>0.07825446128845215</v>
+        <v>0.1091697216033936</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4028,22 +3881,22 @@
         <v>185</v>
       </c>
       <c r="D79" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E79" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F79" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="G79">
-        <v>1.421610832214355</v>
+        <v>1.265457630157471</v>
       </c>
       <c r="H79">
-        <v>1.437309980392456</v>
+        <v>1.577983617782593</v>
       </c>
       <c r="I79">
-        <v>0.09366393089294434</v>
+        <v>0.06222343444824219</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4057,22 +3910,19 @@
         <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E80" t="s">
-        <v>383</v>
-      </c>
-      <c r="F80" t="s">
-        <v>457</v>
+        <v>380</v>
       </c>
       <c r="G80">
-        <v>0.9372067451477051</v>
+        <v>1.359317541122437</v>
       </c>
       <c r="H80">
-        <v>1.5777428150177</v>
+        <v>10.34116768836975</v>
       </c>
       <c r="I80">
-        <v>0.06249713897705078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4086,22 +3936,22 @@
         <v>187</v>
       </c>
       <c r="D81" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E81" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F81" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="G81">
-        <v>1.031002044677734</v>
+        <v>1.249934911727905</v>
       </c>
       <c r="H81">
-        <v>1.374653100967407</v>
+        <v>1.374674558639526</v>
       </c>
       <c r="I81">
-        <v>0.2187843322753906</v>
+        <v>0.1091179847717285</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4115,22 +3965,22 @@
         <v>188</v>
       </c>
       <c r="D82" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E82" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F82" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="G82">
-        <v>1.28118634223938</v>
+        <v>1.655727863311768</v>
       </c>
       <c r="H82">
-        <v>2.171360969543457</v>
+        <v>1.249441623687744</v>
       </c>
       <c r="I82">
-        <v>0.07787203788757324</v>
+        <v>0.06274318695068359</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4144,22 +3994,19 @@
         <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E83" t="s">
-        <v>386</v>
-      </c>
-      <c r="F83" t="s">
-        <v>460</v>
+        <v>383</v>
       </c>
       <c r="G83">
-        <v>1.046625137329102</v>
+        <v>1.437419176101685</v>
       </c>
       <c r="H83">
-        <v>2.062016010284424</v>
+        <v>1.01526141166687</v>
       </c>
       <c r="I83">
-        <v>0.1718292236328125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4173,22 +4020,22 @@
         <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E84" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F84" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="G84">
-        <v>1.437370777130127</v>
+        <v>1.827463865280151</v>
       </c>
       <c r="H84">
-        <v>2.030755043029785</v>
+        <v>0.7967119216918945</v>
       </c>
       <c r="I84">
-        <v>0.1247732639312744</v>
+        <v>0.1093249320983887</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4202,22 +4049,16 @@
         <v>191</v>
       </c>
       <c r="D85" t="s">
-        <v>291</v>
-      </c>
-      <c r="E85" t="s">
-        <v>388</v>
-      </c>
-      <c r="F85" t="s">
-        <v>462</v>
+        <v>289</v>
       </c>
       <c r="G85">
-        <v>1.015453815460205</v>
+        <v>1.234086990356445</v>
       </c>
       <c r="H85">
-        <v>1.515265703201294</v>
+        <v>9.373010635375977</v>
       </c>
       <c r="I85">
-        <v>0.1092815399169922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4231,22 +4072,19 @@
         <v>192</v>
       </c>
       <c r="D86" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E86" t="s">
-        <v>389</v>
-      </c>
-      <c r="F86" t="s">
-        <v>463</v>
+        <v>385</v>
       </c>
       <c r="G86">
-        <v>1.389992713928223</v>
+        <v>1.265340805053711</v>
       </c>
       <c r="H86">
-        <v>1.452783346176147</v>
+        <v>1.484022378921509</v>
       </c>
       <c r="I86">
-        <v>0.07814502716064453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4260,22 +4098,19 @@
         <v>193</v>
       </c>
       <c r="D87" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E87" t="s">
-        <v>390</v>
-      </c>
-      <c r="F87" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="G87">
-        <v>1.249933242797852</v>
+        <v>1.687103033065796</v>
       </c>
       <c r="H87">
-        <v>1.671746253967285</v>
+        <v>0.8433854579925537</v>
       </c>
       <c r="I87">
-        <v>0.2028446197509766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4289,16 +4124,22 @@
         <v>194</v>
       </c>
       <c r="D88" t="s">
-        <v>294</v>
+        <v>292</v>
+      </c>
+      <c r="E88" t="s">
+        <v>387</v>
+      </c>
+      <c r="F88" t="s">
+        <v>443</v>
       </c>
       <c r="G88">
-        <v>1.093492746353149</v>
+        <v>1.046538829803467</v>
       </c>
       <c r="H88">
-        <v>12.37207341194153</v>
+        <v>1.280863046646118</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>0.09389615058898926</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4312,13 +4153,16 @@
         <v>195</v>
       </c>
       <c r="D89" t="s">
-        <v>295</v>
+        <v>293</v>
+      </c>
+      <c r="E89" t="s">
+        <v>388</v>
       </c>
       <c r="G89">
-        <v>0.9841184616088867</v>
+        <v>1.68712306022644</v>
       </c>
       <c r="H89">
-        <v>11.30985760688782</v>
+        <v>1.46853232383728</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4335,22 +4179,22 @@
         <v>196</v>
       </c>
       <c r="D90" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E90" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F90" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="G90">
-        <v>1.124735832214355</v>
+        <v>1.202860832214355</v>
       </c>
       <c r="H90">
-        <v>1.515255451202393</v>
+        <v>22.51089787483215</v>
       </c>
       <c r="I90">
-        <v>0.1405961513519287</v>
+        <v>0.1091187000274658</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4363,23 +4207,14 @@
       <c r="C91" t="s">
         <v>197</v>
       </c>
-      <c r="D91" t="s">
-        <v>297</v>
-      </c>
-      <c r="E91" t="s">
-        <v>392</v>
-      </c>
-      <c r="F91" t="s">
-        <v>465</v>
-      </c>
       <c r="G91">
-        <v>1.702721834182739</v>
+        <v>0.6404430866241455</v>
       </c>
       <c r="H91">
-        <v>1.546506404876709</v>
+        <v>9.466492891311646</v>
       </c>
       <c r="I91">
-        <v>0.1405906677246094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4393,22 +4228,19 @@
         <v>198</v>
       </c>
       <c r="D92" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E92" t="s">
-        <v>393</v>
-      </c>
-      <c r="F92" t="s">
-        <v>466</v>
+        <v>390</v>
       </c>
       <c r="G92">
-        <v>1.063149452209473</v>
+        <v>0.9997639656066895</v>
       </c>
       <c r="H92">
-        <v>2.14011549949646</v>
+        <v>0.8123364448547363</v>
       </c>
       <c r="I92">
-        <v>0.2341148853302002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4422,22 +4254,19 @@
         <v>199</v>
       </c>
       <c r="D93" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E93" t="s">
-        <v>394</v>
-      </c>
-      <c r="F93" t="s">
-        <v>467</v>
+        <v>391</v>
       </c>
       <c r="G93">
-        <v>1.484029769897461</v>
+        <v>1.218455791473389</v>
       </c>
       <c r="H93">
-        <v>1.530885934829712</v>
+        <v>21.93323040008545</v>
       </c>
       <c r="I93">
-        <v>0.140592098236084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4451,22 +4280,19 @@
         <v>200</v>
       </c>
       <c r="D94" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E94" t="s">
-        <v>395</v>
-      </c>
-      <c r="F94" t="s">
-        <v>456</v>
+        <v>392</v>
       </c>
       <c r="G94">
-        <v>1.640470027923584</v>
+        <v>1.093606948852539</v>
       </c>
       <c r="H94">
-        <v>2.780357599258423</v>
+        <v>1.313066959381104</v>
       </c>
       <c r="I94">
-        <v>0.2343249320983887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4480,22 +4306,22 @@
         <v>201</v>
       </c>
       <c r="D95" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E95" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F95" t="s">
-        <v>468</v>
+        <v>409</v>
       </c>
       <c r="G95">
-        <v>1.452771902084351</v>
+        <v>1.577540874481201</v>
       </c>
       <c r="H95">
-        <v>2.186972856521606</v>
+        <v>1.468550443649292</v>
       </c>
       <c r="I95">
-        <v>0.09372949600219727</v>
+        <v>0.09372401237487793</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4509,22 +4335,19 @@
         <v>202</v>
       </c>
       <c r="D96" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E96" t="s">
-        <v>397</v>
-      </c>
-      <c r="F96" t="s">
-        <v>469</v>
+        <v>394</v>
       </c>
       <c r="G96">
-        <v>1.265354633331299</v>
+        <v>1.187284708023071</v>
       </c>
       <c r="H96">
-        <v>1.827625036239624</v>
+        <v>1.468656778335571</v>
       </c>
       <c r="I96">
-        <v>0.187497615814209</v>
+        <v>0.06238746643066406</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4538,22 +4361,22 @@
         <v>203</v>
       </c>
       <c r="D97" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E97" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F97" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="G97">
-        <v>1.015558481216431</v>
+        <v>1.249703168869019</v>
       </c>
       <c r="H97">
-        <v>2.405692338943481</v>
+        <v>1.358962774276733</v>
       </c>
       <c r="I97">
-        <v>0.0934898853302002</v>
+        <v>0.09381270408630371</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4567,22 +4390,22 @@
         <v>204</v>
       </c>
       <c r="D98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E98" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F98" t="s">
-        <v>470</v>
+        <v>402</v>
       </c>
       <c r="G98">
-        <v>1.531176805496216</v>
+        <v>0.9529049396514893</v>
       </c>
       <c r="H98">
-        <v>2.468225717544556</v>
+        <v>22.44969797134399</v>
       </c>
       <c r="I98">
-        <v>0.1247072219848633</v>
+        <v>0.093994140625</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4596,22 +4419,19 @@
         <v>205</v>
       </c>
       <c r="D99" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E99" t="s">
-        <v>400</v>
-      </c>
-      <c r="F99" t="s">
-        <v>471</v>
+        <v>397</v>
       </c>
       <c r="G99">
-        <v>1.249696016311646</v>
+        <v>1.312348604202271</v>
       </c>
       <c r="H99">
-        <v>1.562104463577271</v>
+        <v>0.983975887298584</v>
       </c>
       <c r="I99">
-        <v>0.07811450958251953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4625,22 +4445,22 @@
         <v>206</v>
       </c>
       <c r="D100" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E100" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F100" t="s">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="G100">
-        <v>1.015151739120483</v>
+        <v>1.45278263092041</v>
       </c>
       <c r="H100">
-        <v>1.749585866928101</v>
+        <v>5.186259746551514</v>
       </c>
       <c r="I100">
-        <v>0.1249752044677734</v>
+        <v>0.1874711513519287</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4654,22 +4474,22 @@
         <v>207</v>
       </c>
       <c r="D101" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E101" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F101" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="G101">
-        <v>1.124735116958618</v>
+        <v>1.171560764312744</v>
       </c>
       <c r="H101">
-        <v>1.562360525131226</v>
+        <v>22.41795063018799</v>
       </c>
       <c r="I101">
-        <v>0.07810568809509277</v>
+        <v>0.1408913135528564</v>
       </c>
     </row>
   </sheetData>

--- a/lod_analysis/excels/artists.xlsx
+++ b/lod_analysis/excels/artists.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="424">
   <si>
     <t>artist_id</t>
   </si>
@@ -40,1291 +40,1240 @@
     <t>geonames_download_time</t>
   </si>
   <si>
-    <t>3q7HBObVc0L8jNeTe5Gofh</t>
-  </si>
-  <si>
-    <t>49qiE8dj4JuNdpYGRPdKbF</t>
-  </si>
-  <si>
-    <t>2YVF0Ou5zIc4mpgtLIlGN0</t>
-  </si>
-  <si>
-    <t>2p4FqHnazRucYQHyDCdBrJ</t>
-  </si>
-  <si>
-    <t>5SbkVQYYzlw1kte75QIabH</t>
+    <t>2rGm8R7YDTbqDCVlNssQyL</t>
+  </si>
+  <si>
+    <t>4RVnAU35WRWra6OZ3CbbMA</t>
+  </si>
+  <si>
+    <t>3YcBF2ttyueytpXtEzn1Za</t>
+  </si>
+  <si>
+    <t>4VhL8KLjVso4vLfOLVViTb</t>
+  </si>
+  <si>
+    <t>3HVdAiMNjYrQIKlOGxoGh5</t>
+  </si>
+  <si>
+    <t>4463nfFMmK1cwAWBQDwT5e</t>
+  </si>
+  <si>
+    <t>3oAazIwC0nAYkOKVQPUC38</t>
+  </si>
+  <si>
+    <t>08yf5A2nS4XEeNvabDXqyg</t>
+  </si>
+  <si>
+    <t>12Chz98pHFMPJEknJQMWvI</t>
+  </si>
+  <si>
+    <t>1jQDgp9Fak4WYVZedWLF4G</t>
+  </si>
+  <si>
+    <t>4e5V1Q2dKCzbLVMQ8qbTn6</t>
+  </si>
+  <si>
+    <t>0oSGxfWSnnOXhD2fKuz2Gy</t>
+  </si>
+  <si>
+    <t>4W48hZAnAHVOC2c8WH8pcq</t>
+  </si>
+  <si>
+    <t>0X2BH1fck6amBIoJhDVmmJ</t>
+  </si>
+  <si>
+    <t>5veVxxPm1vzgi6pO2iVA8L</t>
+  </si>
+  <si>
+    <t>2bcrMsFlF632EQ6VZERWFu</t>
+  </si>
+  <si>
+    <t>5ksRONqssB7BR161NTtJAm</t>
+  </si>
+  <si>
+    <t>4iudEcmuPlYNdbP3e1bdn1</t>
+  </si>
+  <si>
+    <t>5NGO30tJxFlKixkPSgXcFE</t>
+  </si>
+  <si>
+    <t>34v5MVKeQnIo0CWYMbbrPf</t>
+  </si>
+  <si>
+    <t>1HxJeLhIuegM3KgvPn8sTa</t>
+  </si>
+  <si>
+    <t>3XHO7cRUPCLOr6jwp8vsx5</t>
+  </si>
+  <si>
+    <t>4kYSro6naA4h99UJvo89HB</t>
+  </si>
+  <si>
+    <t>0Je74SitssvJg1w4Ra2EK7</t>
+  </si>
+  <si>
+    <t>3aBkeBhwadnWMWoVJ2CxJC</t>
+  </si>
+  <si>
+    <t>1Fmb52lZ6Jv7FMWXXTPO3K</t>
+  </si>
+  <si>
+    <t>2y8Jo9CKhJvtfeKOsYzRdT</t>
+  </si>
+  <si>
+    <t>2aYJ5LAta2ScCdfLhKgZOY</t>
+  </si>
+  <si>
+    <t>3Y10boYzeuFCJ4Qgp53w6o</t>
+  </si>
+  <si>
+    <t>14Gi3Uph96lpNB3utkoVAD</t>
+  </si>
+  <si>
+    <t>4tX2TplrkIP4v05BNC903e</t>
+  </si>
+  <si>
+    <t>6BkcAbUkfIBM4XudxieMq8</t>
+  </si>
+  <si>
+    <t>1aX2dmV8XoHYCOQRxjPESG</t>
+  </si>
+  <si>
+    <t>6zFYqv1mOsgBRQbae3JJ9e</t>
+  </si>
+  <si>
+    <t>2SwhNukah1MYpLR594PnuC</t>
+  </si>
+  <si>
+    <t>4f9iBmdUOhQWeP7dcAn1pf</t>
+  </si>
+  <si>
+    <t>2RE8NwNxsOyuNZDD0jRxHP</t>
+  </si>
+  <si>
+    <t>4A0TivfinfALCAMJqqjZIk</t>
+  </si>
+  <si>
+    <t>3r17AfJCCUqC9Lf0OAc73G</t>
+  </si>
+  <si>
+    <t>6lHL3ubAMgSasKjNqKb8HF</t>
+  </si>
+  <si>
+    <t>5nCi3BB41mBaMH9gfr6Su0</t>
+  </si>
+  <si>
+    <t>3NZE8jDD2cCzd4vUyZ5CQQ</t>
+  </si>
+  <si>
+    <t>3TQ9JTBI2n2hfo7aRONEYV</t>
+  </si>
+  <si>
+    <t>7LnaAXbDVIL75IVPnndf7w</t>
+  </si>
+  <si>
+    <t>4EnEZVjo3w1cwcQYePccay</t>
+  </si>
+  <si>
+    <t>4opTS86dN9uO313J9CE8xg</t>
+  </si>
+  <si>
+    <t>4yiQZ8tQPux8cPriYMWUFP</t>
+  </si>
+  <si>
+    <t>1YB5pnFfL7Y2vjRJLPxaLU</t>
+  </si>
+  <si>
+    <t>2wpWOzQE5TpA0dVnh5YD08</t>
+  </si>
+  <si>
+    <t>6TLwD7HPWuiOzvXEa3oCNe</t>
+  </si>
+  <si>
+    <t>0z4gvV4rjIZ9wHck67ucSV</t>
+  </si>
+  <si>
+    <t>7bvcQXJHkFiN1ppIN3q4fi</t>
+  </si>
+  <si>
+    <t>2dd5mrQZvg6SmahdgVKDzh</t>
+  </si>
+  <si>
+    <t>69Mj3u4FTUrpyeGNSIaU6F</t>
+  </si>
+  <si>
+    <t>6XyY86QOPPrYVGvF9ch6wz</t>
+  </si>
+  <si>
+    <t>4gzpq5DPGxSnKTe4SA8HAU</t>
+  </si>
+  <si>
+    <t>7uhvDINTTiD0XBrP9fquN1</t>
+  </si>
+  <si>
+    <t>0Nn9YwJzcaeuU1jJL06e3r</t>
+  </si>
+  <si>
+    <t>6T5tfhQCknKG4UnH90qGnz</t>
+  </si>
+  <si>
+    <t>7wqtxqI3eo7Gn1P7SpP6cQ</t>
+  </si>
+  <si>
+    <t>4njdEjTnLfcGImKZu1iSrz</t>
+  </si>
+  <si>
+    <t>6Rx1JKzBrSzoKQtmbVmBnM</t>
+  </si>
+  <si>
+    <t>5xUf6j4upBrXZPg6AI4MRK</t>
+  </si>
+  <si>
+    <t>27T030eWyCQRmDyuvr1kxY</t>
+  </si>
+  <si>
+    <t>2jzc5TC5TVFLXQlBNiIUzE</t>
+  </si>
+  <si>
+    <t>4rGrN4XDYhP6dUAZMvcuHr</t>
   </si>
   <si>
     <t>20p5D2KrE8CGuOjHtxsyTp</t>
   </si>
   <si>
-    <t>31TPClRtHm23RisEBtV3X7</t>
-  </si>
-  <si>
-    <t>7wJ9NwdRWtN92NunmXuwBk</t>
-  </si>
-  <si>
-    <t>2YTbBGa3Tf2rRPhiJxWoUN</t>
-  </si>
-  <si>
-    <t>1yjAx9cww4f1QuAaN3dUI2</t>
-  </si>
-  <si>
-    <t>6TLwD7HPWuiOzvXEa3oCNe</t>
-  </si>
-  <si>
-    <t>4LqXqd68BBoEk9RDYeS0ls</t>
-  </si>
-  <si>
-    <t>6qqNVTkY8uBg9cP3Jd7DAH</t>
-  </si>
-  <si>
-    <t>5K4W6rqBFWDnAN6FQUkS6x</t>
-  </si>
-  <si>
-    <t>4uN3DsfENc7dp0OLO0FEIb</t>
-  </si>
-  <si>
-    <t>4EnEZVjo3w1cwcQYePccay</t>
-  </si>
-  <si>
-    <t>6J7biCazzYhU3gM9j1wfid</t>
-  </si>
-  <si>
-    <t>3JsMj0DEzyWc0VDlHuy9Bx</t>
-  </si>
-  <si>
-    <t>5ksRONqssB7BR161NTtJAm</t>
-  </si>
-  <si>
-    <t>26PDtWYDJ1KD0brukKsJH1</t>
-  </si>
-  <si>
-    <t>7KMqksf0UMdyA0UCf4R3ux</t>
-  </si>
-  <si>
-    <t>7knmbOGe07k85GmK50vACB</t>
-  </si>
-  <si>
-    <t>54R6Y0I7jGUCveDTtI21nb</t>
-  </si>
-  <si>
-    <t>2o5jDhtHVPhrJdv3cEQ99Z</t>
-  </si>
-  <si>
-    <t>6XyY86QOPPrYVGvF9ch6wz</t>
-  </si>
-  <si>
-    <t>11wRdbnoYqRddKBrpHt4Ue</t>
-  </si>
-  <si>
-    <t>0jgAONnsHxrwAlhkMUVS78</t>
-  </si>
-  <si>
-    <t>69GGBxA162lTqCwzJG5jLp</t>
-  </si>
-  <si>
-    <t>14Gi3Uph96lpNB3utkoVAD</t>
-  </si>
-  <si>
-    <t>488v7rQzthLNK22r0UvMie</t>
-  </si>
-  <si>
-    <t>5vCOdeiQt9LyzdI87kt5Sh</t>
-  </si>
-  <si>
-    <t>25uiPmTg16RbhZWAqwLBy5</t>
-  </si>
-  <si>
-    <t>02da1vDJ2hWqfK7aJL6SJm</t>
-  </si>
-  <si>
-    <t>3ot6fEzKvRrCnWy5BWlnxU</t>
-  </si>
-  <si>
-    <t>2d0hyoQ5ynDBnkvAbJKORj</t>
-  </si>
-  <si>
-    <t>0Je74SitssvJg1w4Ra2EK7</t>
-  </si>
-  <si>
-    <t>5Rl15oVamLq7FbSb0NNBNy</t>
-  </si>
-  <si>
-    <t>06YQ6XwCdPUn8rAXV70gge</t>
-  </si>
-  <si>
-    <t>5LfGQac0EIXyAN8aUwmNAQ</t>
-  </si>
-  <si>
-    <t>4sD9znwiVFx9cgRPZ42aQ1</t>
-  </si>
-  <si>
-    <t>6eoJpTIlcuxJNjV5fDzDJH</t>
-  </si>
-  <si>
-    <t>46h3caIKtqPlEfRHuSdibg</t>
-  </si>
-  <si>
-    <t>6TZdvF1kFzwnQLgHQynzsO</t>
-  </si>
-  <si>
-    <t>6S2OmqARrzebs0tKUEyXyp</t>
-  </si>
-  <si>
-    <t>2ziB7fzrXBoh1HUPS6sVFn</t>
-  </si>
-  <si>
-    <t>7vXwfZyDp3spzIVNXDaTPN</t>
-  </si>
-  <si>
-    <t>63yrD80RY3RNEM2YDpUpO8</t>
-  </si>
-  <si>
-    <t>0f3EsoviYnRKTkmayI3cux</t>
-  </si>
-  <si>
-    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
-  </si>
-  <si>
-    <t>5N6EzjkOoyABhNZJggeXi6</t>
-  </si>
-  <si>
-    <t>1Yox196W7bzVNZI7RBaPnf</t>
-  </si>
-  <si>
-    <t>63MQldklfxkjYDoUE4Tppz</t>
-  </si>
-  <si>
-    <t>0smy8yDrRoI4CnhpOuthg0</t>
-  </si>
-  <si>
-    <t>41ekW4MXG59xJMXR8dX1OG</t>
-  </si>
-  <si>
-    <t>1LZEQNv7sE11VDY3SdxQeN</t>
-  </si>
-  <si>
-    <t>0EdvGhlC1FkGItLOWQzG4J</t>
-  </si>
-  <si>
-    <t>5mqguTgtaoCMNMZD6txCh6</t>
-  </si>
-  <si>
-    <t>0oea1hwGMfUxZbLxJc1XUN</t>
-  </si>
-  <si>
-    <t>3l0CmX0FuQjFxr8SK7Vqag</t>
-  </si>
-  <si>
-    <t>0iVrCROxeyon7MZUW3MfzT</t>
-  </si>
-  <si>
-    <t>7MqnCTCAX6SsIYYdJCQj9B</t>
-  </si>
-  <si>
-    <t>1dIdBZaaHRW2bDTkHNfWln</t>
-  </si>
-  <si>
-    <t>3vRclCt9VnNhYIxFMQCxuM</t>
-  </si>
-  <si>
-    <t>3Ngh2zDBRPEriyxQDAMKd1</t>
-  </si>
-  <si>
-    <t>5ApKaVHAStk5kAuyBW1wG8</t>
-  </si>
-  <si>
-    <t>3eqjTLE0HfPfh78zjh6TqT</t>
-  </si>
-  <si>
-    <t>4DToQR3aKrHQSSRzSz8Nzt</t>
-  </si>
-  <si>
-    <t>0BmLNz4nSLfoWYW1cYsElL</t>
-  </si>
-  <si>
-    <t>416gMRzj1LnFJvSBF5PO2R</t>
-  </si>
-  <si>
-    <t>2S5hlvw4CMtMGswFtfdK15</t>
-  </si>
-  <si>
-    <t>2tRsMl4eGxwoNabM08Dm4I</t>
-  </si>
-  <si>
-    <t>0ym94xKp2PIOJtTZKpxbAa</t>
-  </si>
-  <si>
-    <t>5nGIFgo0shDenQYSE0Sn7c</t>
-  </si>
-  <si>
-    <t>6zvul52xwTWzilBZl6BUbT</t>
-  </si>
-  <si>
-    <t>3mQBpAOMWYqAZyxtyeo4Lo</t>
-  </si>
-  <si>
-    <t>085pc2PYOi8bGKj0PNjekA</t>
+    <t>2u0gw0uCWBMiqV7h0N8kai</t>
+  </si>
+  <si>
+    <t>43ZHCT0cAZBISjO8DG9PnE</t>
+  </si>
+  <si>
+    <t>0lZoBs4Pzo7R89JM9lxwoT</t>
+  </si>
+  <si>
+    <t>5yG7ZAZafVaAlMTeBybKAL</t>
+  </si>
+  <si>
+    <t>0z5DFXmhT4ZNzWElsM7V89</t>
+  </si>
+  <si>
+    <t>5sD1ZLf2dGQ9gQ3YJl1eAd</t>
+  </si>
+  <si>
+    <t>7Ln80lUS6He07XvHI8qqHH</t>
+  </si>
+  <si>
+    <t>2TzHIUhVpeeDxyJPpQfnV3</t>
+  </si>
+  <si>
+    <t>4LLpKhyESsyAXpc4laK94U</t>
+  </si>
+  <si>
+    <t>3C6chBmZ9wzisBhoh8G2nK</t>
+  </si>
+  <si>
+    <t>3SYGWAHCe31oykdeUPpoJp</t>
+  </si>
+  <si>
+    <t>1VBflYyxBhnDc9uVib98rw</t>
+  </si>
+  <si>
+    <t>3TNt4aUIxgfy9aoaft5Jj2</t>
+  </si>
+  <si>
+    <t>057gc1fxmJ2vkctjQJ7Tal</t>
+  </si>
+  <si>
+    <t>4y5wqoJUmlvr9xV6l5lO4b</t>
+  </si>
+  <si>
+    <t>1l8Fu6IkuTP0U5QetQJ5Xt</t>
   </si>
   <si>
     <t>7A9yZMTrFZcgEWAX2kBfK6</t>
   </si>
   <si>
-    <t>7siPLyFwRFYQkKgWKJ5Sod</t>
-  </si>
-  <si>
-    <t>1aX2dmV8XoHYCOQRxjPESG</t>
-  </si>
-  <si>
-    <t>711MCceyCBcFnzjGY4Q7Un</t>
-  </si>
-  <si>
-    <t>23fqKkggKUBHNkbKtXEls4</t>
-  </si>
-  <si>
-    <t>1gR0gsQYfi6joyO1dlp76N</t>
-  </si>
-  <si>
-    <t>6ASri4ePR7RlsvIQgWPJpS</t>
-  </si>
-  <si>
-    <t>3ngKsDXZAssmljeXCvEgOe</t>
-  </si>
-  <si>
-    <t>3oZa8Xs6IjlIUGLAhVyK4G</t>
-  </si>
-  <si>
-    <t>6VuMaDnrHyPL1p4EHjYLi7</t>
-  </si>
-  <si>
-    <t>0uAjBatvB4ubpd4kCfjmNt</t>
-  </si>
-  <si>
-    <t>5iNrZmtVMtYev5M9yoWpEq</t>
-  </si>
-  <si>
-    <t>13ccXrK7AmXb4TddMkE7jy</t>
-  </si>
-  <si>
-    <t>6x9QLdzo6eBZxJ1bHsDkjg</t>
-  </si>
-  <si>
-    <t>3HVdAiMNjYrQIKlOGxoGh5</t>
-  </si>
-  <si>
-    <t>2jLE4BoXHriQ96JagEtiDP</t>
-  </si>
-  <si>
-    <t>64KEffDW9EtZ1y2vBYgq8T</t>
-  </si>
-  <si>
-    <t>0uq5PttqEjj3IH1bzwcrXF</t>
-  </si>
-  <si>
-    <t>2hO4YtXUFJiUYS2uYFvHNK</t>
-  </si>
-  <si>
-    <t>4dwdTW1Lfiq0cM8nBAqIIz</t>
-  </si>
-  <si>
-    <t>34PLzyi7CdXUekiLHYyqXq</t>
-  </si>
-  <si>
-    <t>3bmFPbLMiLxtR9tFrTcKcP</t>
-  </si>
-  <si>
-    <t>5BvJzeQpmsdsFp4HGUYUEx</t>
-  </si>
-  <si>
-    <t>6kXp61QMZFPcKMcRPqoiVj</t>
-  </si>
-  <si>
-    <t>50 Cent</t>
-  </si>
-  <si>
-    <t>Stone Sour</t>
-  </si>
-  <si>
-    <t>Robert Miles</t>
-  </si>
-  <si>
-    <t>Simple Plan</t>
-  </si>
-  <si>
-    <t>Gnarls Barkley</t>
+    <t>2tIP7SsRs7vjIcLrU85W8J</t>
+  </si>
+  <si>
+    <t>3M4ThdJR28z9eSMcQHAZ5G</t>
+  </si>
+  <si>
+    <t>5EvFsr3kj42KNv97ZEnqij</t>
+  </si>
+  <si>
+    <t>19ra5tSw0tWufvUp8GotLo</t>
+  </si>
+  <si>
+    <t>6VX2R9L0O0d6qPvqGuIH7b</t>
+  </si>
+  <si>
+    <t>2rblp9fJo16ZPTcKDtlmKW</t>
+  </si>
+  <si>
+    <t>5gxynDEKwNDgxGJmJjZyte</t>
+  </si>
+  <si>
+    <t>5P5FTygHyx2G57oszR3Wot</t>
+  </si>
+  <si>
+    <t>0Grjlu7ncIuCaSYvCs9fcd</t>
+  </si>
+  <si>
+    <t>7ip3CWlgPZbQHvgJpmcGSS</t>
+  </si>
+  <si>
+    <t>0yNLKJebCb8Aueb54LYya3</t>
+  </si>
+  <si>
+    <t>15UsOTVnJzReFVN1VCnxy4</t>
+  </si>
+  <si>
+    <t>6TcnmlCSxihzWOQJ8k0rNS</t>
+  </si>
+  <si>
+    <t>1Cs0zKBU1kc0i8ypK3B9ai</t>
+  </si>
+  <si>
+    <t>4phGZZrJZRo4ElhRtViYdl</t>
+  </si>
+  <si>
+    <t>5BcAKTbp20cv7tC5VqPFoC</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Kylie Minogue</t>
+  </si>
+  <si>
+    <t>Incubus</t>
+  </si>
+  <si>
+    <t>Bridgit Mendler</t>
+  </si>
+  <si>
+    <t>Rob Zombie</t>
+  </si>
+  <si>
+    <t>Laura Branigan</t>
+  </si>
+  <si>
+    <t>Sirah</t>
+  </si>
+  <si>
+    <t>Billy Talent</t>
+  </si>
+  <si>
+    <t>Muse</t>
+  </si>
+  <si>
+    <t>The Biz</t>
+  </si>
+  <si>
+    <t>Collective Soul</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>The Temper Trap</t>
+  </si>
+  <si>
+    <t>Ellie Goulding</t>
+  </si>
+  <si>
+    <t>Bruno Martini</t>
+  </si>
+  <si>
+    <t>The Bravery</t>
+  </si>
+  <si>
+    <t>Ace of Base</t>
+  </si>
+  <si>
+    <t>Silverchair</t>
+  </si>
+  <si>
+    <t>The Police</t>
+  </si>
+  <si>
+    <t>John Newman</t>
+  </si>
+  <si>
+    <t>Jack Ü</t>
+  </si>
+  <si>
+    <t>alt-J</t>
+  </si>
+  <si>
+    <t>Cardi B</t>
+  </si>
+  <si>
+    <t>4 Non Blondes</t>
+  </si>
+  <si>
+    <t>Rob Thomas</t>
+  </si>
+  <si>
+    <t>Joan Jett &amp; The Blackhearts</t>
+  </si>
+  <si>
+    <t>Rod Stewart</t>
+  </si>
+  <si>
+    <t>Cobra Starship</t>
+  </si>
+  <si>
+    <t>Scissor Sisters</t>
+  </si>
+  <si>
+    <t>Hard-FI</t>
+  </si>
+  <si>
+    <t>Tom Petty and the Heartbreakers</t>
+  </si>
+  <si>
+    <t>Dr. Alban</t>
+  </si>
+  <si>
+    <t>The Human League</t>
+  </si>
+  <si>
+    <t>Billy Joel</t>
+  </si>
+  <si>
+    <t>Steve Edwards</t>
+  </si>
+  <si>
+    <t>Rag'n'Bone Man</t>
+  </si>
+  <si>
+    <t>Kool Moe Dee</t>
+  </si>
+  <si>
+    <t>Funk Wav</t>
+  </si>
+  <si>
+    <t>Fergie</t>
+  </si>
+  <si>
+    <t>Mýa</t>
+  </si>
+  <si>
+    <t>fun.</t>
+  </si>
+  <si>
+    <t>Spacehog</t>
+  </si>
+  <si>
+    <t>Sir Mix-A-Lot</t>
+  </si>
+  <si>
+    <t>Jamie Foxx</t>
+  </si>
+  <si>
+    <t>N.W.A.</t>
+  </si>
+  <si>
+    <t>Skid Row</t>
+  </si>
+  <si>
+    <t>Gwen Stefani</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>Bronski Beat</t>
+  </si>
+  <si>
+    <t>Oliver Tree</t>
+  </si>
+  <si>
+    <t>Akon</t>
+  </si>
+  <si>
+    <t>Joss Stone</t>
+  </si>
+  <si>
+    <t>PSY</t>
+  </si>
+  <si>
+    <t>The J. Geils Band</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>The Hooters</t>
+  </si>
+  <si>
+    <t>The Knack</t>
+  </si>
+  <si>
+    <t>DNCE</t>
+  </si>
+  <si>
+    <t>Salt-N-Pepa</t>
+  </si>
+  <si>
+    <t>AWOLNATION</t>
+  </si>
+  <si>
+    <t>Hayley Williams</t>
+  </si>
+  <si>
+    <t>Soundgarden</t>
+  </si>
+  <si>
+    <t>Scorpions</t>
+  </si>
+  <si>
+    <t>a-ha</t>
+  </si>
+  <si>
+    <t>Caesars</t>
   </si>
   <si>
     <t>Fine Young Cannibals</t>
   </si>
   <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
-    <t>Orchestral Manoeuvres In The Dark</t>
-  </si>
-  <si>
-    <t>Camouflage</t>
-  </si>
-  <si>
-    <t>Desireless</t>
-  </si>
-  <si>
-    <t>Oliver Tree</t>
-  </si>
-  <si>
-    <t>Big Ali</t>
-  </si>
-  <si>
-    <t>Billie Eilish</t>
-  </si>
-  <si>
-    <t>Kanye West</t>
-  </si>
-  <si>
-    <t>Sugar Ray</t>
-  </si>
-  <si>
-    <t>N.W.A.</t>
-  </si>
-  <si>
-    <t>Jamiroquai</t>
-  </si>
-  <si>
-    <t>Supertramp</t>
-  </si>
-  <si>
-    <t>Ace of Base</t>
-  </si>
-  <si>
-    <t>Jennifer Paige</t>
-  </si>
-  <si>
-    <t>James Blunt</t>
-  </si>
-  <si>
-    <t>Indochine</t>
-  </si>
-  <si>
-    <t>Boney M.</t>
-  </si>
-  <si>
-    <t>Tiësto</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
-  </si>
-  <si>
-    <t>Kasabian</t>
-  </si>
-  <si>
-    <t>Eddie Rabbitt</t>
-  </si>
-  <si>
-    <t>The Chainsmokers</t>
-  </si>
-  <si>
-    <t>Hard-FI</t>
-  </si>
-  <si>
-    <t>La Bouche</t>
-  </si>
-  <si>
-    <t>AronChupa</t>
-  </si>
-  <si>
-    <t>Charli XCX</t>
-  </si>
-  <si>
-    <t>Soul Asylum</t>
-  </si>
-  <si>
-    <t>Vita</t>
-  </si>
-  <si>
-    <t>Rage Against The Machine</t>
-  </si>
-  <si>
-    <t>4 Non Blondes</t>
-  </si>
-  <si>
-    <t>5 Seconds of Summer</t>
-  </si>
-  <si>
-    <t>Republica</t>
-  </si>
-  <si>
-    <t>The Offspring</t>
-  </si>
-  <si>
-    <t>Sinéad O'Connor</t>
-  </si>
-  <si>
-    <t>Live</t>
-  </si>
-  <si>
-    <t>The Beloved</t>
-  </si>
-  <si>
-    <t>Alien Ant Farm</t>
-  </si>
-  <si>
-    <t>Demi Lovato</t>
-  </si>
-  <si>
-    <t>Audioslave</t>
-  </si>
-  <si>
-    <t>Metro Station</t>
-  </si>
-  <si>
-    <t>Melanie Martinez</t>
-  </si>
-  <si>
-    <t>Men At Work</t>
-  </si>
-  <si>
-    <t>Korn</t>
-  </si>
-  <si>
-    <t>Mousse T.</t>
-  </si>
-  <si>
-    <t>Megadeth</t>
-  </si>
-  <si>
-    <t>M83</t>
-  </si>
-  <si>
-    <t>Corey Hart</t>
-  </si>
-  <si>
-    <t>Alpha Blondy</t>
-  </si>
-  <si>
-    <t>Bee Gees</t>
-  </si>
-  <si>
-    <t>Sublime</t>
-  </si>
-  <si>
-    <t>Phum Viphurit</t>
-  </si>
-  <si>
-    <t>Peter Tosh</t>
-  </si>
-  <si>
-    <t>Clairo</t>
-  </si>
-  <si>
-    <t>Montell Jordan</t>
-  </si>
-  <si>
-    <t>Pendulum</t>
-  </si>
-  <si>
-    <t>The Veronicas</t>
-  </si>
-  <si>
-    <t>Milli Vanilli</t>
-  </si>
-  <si>
-    <t>Matchbox Twenty</t>
-  </si>
-  <si>
-    <t>Yazz</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>The Hives</t>
-  </si>
-  <si>
-    <t>Alexandra Stan</t>
-  </si>
-  <si>
-    <t>Chickenfoot</t>
-  </si>
-  <si>
-    <t>Royal Blood</t>
-  </si>
-  <si>
-    <t>Judas Priest</t>
-  </si>
-  <si>
-    <t>Samantha Fox</t>
-  </si>
-  <si>
-    <t>Evanescence</t>
-  </si>
-  <si>
-    <t>Pixies</t>
-  </si>
-  <si>
-    <t>KC &amp; The Sunshine Band</t>
-  </si>
-  <si>
-    <t>will.i.am</t>
+    <t>Wet Wet Wet</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Duran Duran</t>
+  </si>
+  <si>
+    <t>Iggy Azalea</t>
+  </si>
+  <si>
+    <t>Erasure</t>
+  </si>
+  <si>
+    <t>Blind Melon</t>
+  </si>
+  <si>
+    <t>Arctic Monkeys</t>
+  </si>
+  <si>
+    <t>Katrina &amp; The Waves</t>
+  </si>
+  <si>
+    <t>Mac Miller</t>
+  </si>
+  <si>
+    <t>Naked Eyes</t>
+  </si>
+  <si>
+    <t>Miranda Cosgrove</t>
+  </si>
+  <si>
+    <t>Icona Pop</t>
+  </si>
+  <si>
+    <t>Yeah Yeah Yeahs</t>
+  </si>
+  <si>
+    <t>The Buggles</t>
+  </si>
+  <si>
+    <t>Carl Ward</t>
+  </si>
+  <si>
+    <t>Fifth Harmony</t>
   </si>
   <si>
     <t>Huey Lewis &amp; The News</t>
   </si>
   <si>
-    <t>The Dandy Warhols</t>
-  </si>
-  <si>
-    <t>The Human League</t>
-  </si>
-  <si>
-    <t>AC/DC</t>
-  </si>
-  <si>
-    <t>Kygo</t>
-  </si>
-  <si>
-    <t>Justice</t>
-  </si>
-  <si>
-    <t>iann dior</t>
-  </si>
-  <si>
-    <t>Eagle-Eye Cherry</t>
-  </si>
-  <si>
-    <t>Irene Cara</t>
-  </si>
-  <si>
-    <t>Charlie Puth</t>
-  </si>
-  <si>
-    <t>A Flock Of Seagulls</t>
-  </si>
-  <si>
-    <t>Seeb</t>
-  </si>
-  <si>
-    <t>Everything But The Girl</t>
-  </si>
-  <si>
-    <t>Sisqo</t>
-  </si>
-  <si>
-    <t>Rob Zombie</t>
-  </si>
-  <si>
-    <t>Lauren Bennett</t>
-  </si>
-  <si>
-    <t>Marshmello</t>
-  </si>
-  <si>
-    <t>Spice Girls</t>
-  </si>
-  <si>
-    <t>Traveling Wilburys</t>
-  </si>
-  <si>
-    <t>Of Monsters and Men</t>
-  </si>
-  <si>
-    <t>Men Without Hats</t>
-  </si>
-  <si>
-    <t>Matthew Wilder</t>
-  </si>
-  <si>
-    <t>Vampire Weekend</t>
-  </si>
-  <si>
-    <t>Gin Blossoms</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/50-cent', 'annotations': {'description': '&lt;p&gt;Curtis James Jackson III (born July 6, 1975), better known by his stage name &lt;strong&gt;50 Cent&lt;/strong&gt;, is an American rapper, entrepreneur, investor, record producer, and actor.&lt;/p&gt;\n\n&lt;p&gt;After recording a never-released album with Columbia, 50 got on his grind and rose to fame via a string of well-received mixtapes, thus setting the template for rap stardom in the modern era.&lt;/p&gt;\n\n&lt;p&gt;50’s crowning success came in 2003 with the release of the album &lt;em&gt;Get Rich or Die Tryin\'&lt;/em&gt; which sold 872,000 copies in four days and was certified 8x platinum by the RIAA. Since that monster hit, he has continued to make music while also delving into movies, sports drinks, video games, mass charity campaigns, and more.&lt;/p&gt;\n\n&lt;p&gt;The moniker 50 Cent might seem like an unusual, downright humble name for a rapper, but it has nothing to do with the cash in Jackson’s pocket. He adopted the name after his criminal past as a drug dealer and a subsequent conviction. Trying to better himself, he saw “50 Cent” &lt;a href="https://www.vanityfair.com/hollywood/2013/03/50-cent-bullet-shrapnel-tongue" rel="noopener nofollow"&gt;as a metaphor for &lt;em&gt;change&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Curtis James Jackson III', "Curtis '50 Cent' Jackson", 'Curtis Jackson']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Stone-sour', 'annotations': {'description': '&lt;p&gt;Stone Sour is an American rock band formed in Des Moines, Iowa in 1992.&lt;/p&gt;\n\n&lt;p&gt;Stone Sour earned the group two Grammy Award nominations, both for Best Metal Performance, for the singles “Get Inside”, in 2003, and “Inhale”, in 2004. The album went on to become RIAA certified Gold.&lt;/p&gt;\n\n&lt;p&gt;In 2006, following the release of &lt;em&gt;Come What(ever) May&lt;/em&gt;, the group received another Grammy Award nomination for Best Metal Performance for the single “30/30-150”.&lt;/p&gt;\n\n&lt;p&gt;Stone Sour has sold over four million albums worldwide.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Robert-miles', 'annotations': {'description': '&lt;p&gt;Roberto Concina (born November, 3, 1969 and dead May, 9 2017,, or as he is better known, Robert Miles, was an electronica and house producer who rose to fame in 1996 for his smash hit debut album Dreamland which peaked at #2 on the Swiss charts and sold platinum in nearly half a dozen countries. He is best known for the internationally renowned #1 hit “Children.”&lt;/p&gt;', 'alternate_names': ['Roberto Concina']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Simple-plan', 'annotations': {'description': '&lt;p&gt;Simple Plan, the multi-platinum, Montreal-based band boasts worldwide sales topping 10 million\xa0and have accumulated over 1 billion streams across all streaming platforms\xa0.\xa0They’ve received numerous awards including\xa0Teen Choice Award, JUNO Fan Choice Award, Allan Slaight Humanitarian Spirit Award, NRJ award, Allan Waters Humanitarian Award,\xa0among others.\xa0The band has collaborated with many multi-platinum artists Mark Hoppus (Blink-182), Rivers Cuomo (Weezer), Sean Paul and Natasha Bedingfield, among others.\xa0The band has played in over 55 countries, including Israel, Indonesia, China, Peru, India, the United Arab Emirates and Russia.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Gnarls-barkley', 'annotations': {'description': '&lt;p&gt;Gnarls Barkley is the soul-music duo consisting of producer &lt;a href="https://genius.com/artists/Danger-mouse" rel="noopener" data-api_path="/artists/8957"&gt;Danger Mouse&lt;/a&gt; and singer &lt;a href="https://genius.com/artists/Cee-lo-green" rel="noopener" data-api_path="/artists/4413"&gt;Cee-Lo Green&lt;/a&gt;, having released two studio albums together before moving into a long period of inactivity, beginning in 2008 despite recent rumors of new record releases.&lt;/p&gt;\n\n&lt;p&gt;Wielding a name that literally comes from a parody of NBA superstar Charles Barkley’s name, Gnarls Barkley is a sonic and lyrical tour-de-force, often cryptically elaborating on Green’s complex, neurotic conscience over expertly crafted beats from Danger Mouse. Originally rising to prominence with massive hit &lt;a href="https://genius.com/Gnarls-barkley-crazy-lyrics" rel="noopener" data-api_path="/songs/21248"&gt;“Crazy”&lt;/a&gt;, Gnarls Barkley made a name for itself in the late 00s alternative/soul scene. Gnarls Barkley’s typically equipped with a glossy, eerie set of production values and equally evocative lyrics, and it pays off. The duo has successfully pirouetted on thicker subjects like &lt;a href="https://genius.com/1637528" rel="noopener" data-api_path="/referents/1637528"&gt;materialism&lt;/a&gt;, &lt;a href="https://genius.com/Gnarls-barkley-surprise-lyrics" rel="noopener" data-api_path="/songs/21243"&gt;loneliness&lt;/a&gt;, &lt;a href="https://genius.com/8699602" rel="noopener" data-api_path="/referents/8699602"&gt;schizophrenic behavior&lt;/a&gt; and &lt;a href="https://genius.com/1637488" rel="noopener" data-api_path="/referents/1637488"&gt;glorification&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Impressionable, and highly nuanced, Gnarls Barkley is certainly a soul act for the ages – contemplative and very, very honest.&lt;/p&gt;', 'alternate_names': []}}</t>
+    <t>The Kid LAROI</t>
+  </si>
+  <si>
+    <t>The Fratellis</t>
+  </si>
+  <si>
+    <t>Shaggy</t>
+  </si>
+  <si>
+    <t>George Michael</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>MC Hammer</t>
+  </si>
+  <si>
+    <t>Steve Winwood</t>
+  </si>
+  <si>
+    <t>Daughtry</t>
+  </si>
+  <si>
+    <t>New Radicals</t>
+  </si>
+  <si>
+    <t>Peter Schilling</t>
+  </si>
+  <si>
+    <t>New Order</t>
+  </si>
+  <si>
+    <t>XXXTENTACION</t>
+  </si>
+  <si>
+    <t>Third Eye Blind</t>
+  </si>
+  <si>
+    <t>David Guetta</t>
+  </si>
+  <si>
+    <t>Jason Mraz</t>
+  </si>
+  <si>
+    <t>Macklemore &amp; Ryan Lewis</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dna-battle-rapper', 'annotations': {'description': '&lt;p&gt;Born in Queens, New York on April 17, 1991, Eric St. John (aka DNA) is an American battle rapper and MC, and is one of the most-viewed English-speaking battle rappers of all time.&lt;/p&gt;\n\n&lt;p&gt;Starting his battle career on Grind Time Now, DNA is known for his wordplay, schemes, charisma, and sense of humor in the ring.  He has used these strengths to create multiple classics and otherwise solid battles on leagues like URL, King of the Dot, Don’t Flop, and many more.&lt;/p&gt;\n\n&lt;p&gt;Below is a list of all of DNA’s league battles (in chronological order):&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2009&lt;/b&gt;&lt;br&gt;\n#1. Amzilla vs. DNA (4-11-2009^)&lt;br&gt;\n#2. DNA vs. Prophit (5-28-2009^)&lt;br&gt;\n#3. DNA vs. AKA (6-29-2009^)&lt;br&gt;\n#4. DNA vs. Lil\' Farnum (7-11-2009)&lt;br&gt;\n#5. DNA vs. Loe Pesci (9-1-2009)&lt;br&gt;\n#6. DNA vs. Pnut (9-4-2009)&lt;br&gt;\n#7. &lt;a href="https://genius.com/Grind-time-now-dna-vs-rone-2009-lyrics" rel="noopener" data-api_path="/songs/2330317"&gt;DNA vs. Rone (9-30-2009^)&lt;/a&gt;&lt;br&gt;\n#8. &lt;a href="https://genius.com/Grind-time-now-soul-khan-and-dna-vs-rone-and-zm-lyrics" rel="noopener" data-api_path="/songs/2329572"&gt;DNA &amp;amp; Soul Khan vs. Rone &amp;amp; ZM (12-23-2009)&lt;/a&gt;&lt;br&gt;\n#9. Rich Dolarz vs. DNA (12-23-2009)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2010&lt;/b&gt;&lt;br&gt;\n#10. Oun P vs. DNA (2-6-2010)&lt;br&gt;\n#11. Tsu Surf vs. DNA (2-27-2010)&lt;br&gt;\n#12. Big T vs. DNA (9-26-2010)&lt;br&gt;\n#13. &lt;a href="https://genius.com/Time-is-money-dna-vs-t-rex-lyrics" rel="noopener" data-api_path="/songs/4351726"&gt;DNA vs. T-Rex (10-?-2010)&lt;/a&gt;&lt;br&gt;\n#14. Gage vs. DNA (12-27-2010^)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2011&lt;/b&gt;&lt;br&gt;\n#15. &lt;a href="https://genius.com/Urltv-dna-vs-yung-ill-lyrics" rel="noopener" data-api_path="/songs/4295037"&gt;DNA vs. Yung Ill (3-27-2011)&lt;/a&gt;&lt;br&gt;\n#16. DNA vs. X-Factor (8-7-2011)&lt;br&gt;\n#17. &lt;a href="https://genius.com/King-of-the-dot-dizaster-vs-dna-lyrics" rel="noopener" data-api_path="/songs/149911"&gt;Dizaster vs. DNA (11-5-2011)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2012&lt;/b&gt;&lt;br&gt;\n#18. &lt;a href="https://genius.com/Urltv-dna-vs-tech-9-lyrics" rel="noopener" data-api_path="/songs/4433935"&gt;DNA vs. Tech 9 (3-25-2012)&lt;/a&gt;&lt;br&gt;\n#19. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-eurgh-lyrics" rel="noopener" data-api_path="/songs/2823267"&gt;DNA vs. Eurgh (6-9-2012)&lt;/a&gt;&lt;br&gt;\n#20. &lt;a href="https://genius.com/Urltv-dna-vs-e-ness-lyrics" rel="noopener" data-api_path="/songs/7119637"&gt;DNA vs. E. Ness (8-19-2012)&lt;/a&gt;&lt;br&gt;\n#21. DNA vs. Sensa (10-24-2012)&lt;br&gt;\n#22. Michael Blackson vs. DNA (10-25-2012^)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2013&lt;/b&gt;&lt;br&gt;\n#23. &lt;a href="https://genius.com/Urltv-dna-vs-k-shine-lyrics" rel="noopener" data-api_path="/songs/2445743"&gt;DNA vs. K-Shine (3-8-2013)&lt;/a&gt;&lt;br&gt;\n#24. DNA vs. Anecdote (3-16-2013)&lt;br&gt;\n#25. &lt;a href="https://genius.com/King-of-the-dot-the-saurus-vs-dna-lyrics" rel="noopener" data-api_path="/songs/3124095"&gt;The Saurus vs. DNA (3-22-2013)&lt;/a&gt;&lt;br&gt;\n#26. S. Youngin vs DNA (3-29-13)&lt;br&gt;\n#27. Unanymous &amp;amp; Chris Leese vs. Charlie Clips &amp;amp; DNA (4-27-2013)&lt;br&gt;\n#28. &lt;a href="https://genius.com/Dont-flop-arsonal-vs-dna-lyrics" rel="noopener" data-api_path="/songs/226905"&gt;Arsonal vs. DNA (4-27-2013)&lt;/a&gt;&lt;br&gt;\n#29. &lt;a href="https://genius.com/Urltv-dna-vs-chilla-jones-lyrics" rel="noopener" data-api_path="/songs/2442324"&gt;DNA vs. Chilla Jones (6-23-2013)&lt;/a&gt;&lt;br&gt;\n#30. &lt;a href="https://genius.com/King-of-the-dot-charron-vs-dna-lyrics" rel="noopener" data-api_path="/songs/2434650"&gt;Charron vs. DNA (8-23-2013)&lt;/a&gt;&lt;br&gt;\n#31. Pass vs. DNA (10-12-2013)&lt;br&gt;\n#32. DNA vs. Midwest Miles (10-19-2013)&lt;br&gt;\n#33. &lt;a href="https://genius.com/Urltv-b-magic-vs-dna-lyrics" rel="noopener" data-api_path="/songs/2437750"&gt;B Magic vs. DNA (10-26-2013)&lt;/a&gt;&lt;br&gt;\n#34. DNA &amp;amp; Cortez vs. Scizzahz &amp;amp; Wizard (11-9-2013)&lt;br&gt;\n#35. Villun vs. DNA (11-10-2013)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2014&lt;/b&gt;&lt;br&gt;\n#36. DNA vs. Calicoe (1-5-2014)&lt;br&gt;\n#37. Arcane vs. DNA (1-24-2014)&lt;br&gt;\n#38. DNA vs Young Kannon (3-24-2014) (Vaulted)&lt;br&gt;\n#39. &lt;a href="https://genius.com/Urltv-dna-vs-prez-mafia-lyrics" rel="noopener" data-api_path="/songs/5053412"&gt;DNA vs. Prez Mafia (5-17-2014)&lt;/a&gt;&lt;br&gt;\n#40. DNA vs. Celebrity Cell (5-31-2014)&lt;br&gt;\n#41. DNA vs. Ill Will (6-7-2014)&lt;br&gt;\n#42. &lt;a href="https://genius.com/King-of-the-dot-ar-and-talksic-vs-dna-and-charron-lyrics" rel="noopener" data-api_path="/songs/2866136"&gt;AR &amp;amp; Talksic vs. DNA &amp;amp; Charron (9-24-2014^)&lt;/a&gt;&lt;br&gt;\n#43. &lt;a href="https://genius.com/Urltv-tay-roc-vs-dna-lyrics" rel="noopener" data-api_path="/songs/2407818"&gt;Tay Roc vs. DNA (9-26-2014)&lt;/a&gt;&lt;br&gt;\n#44. DNA vs. Sketch Menace (10-4-2014)&lt;br&gt;\n#45. DNA vs. Sonny Bamboo (11-1-2014)&lt;br&gt;\n#46. DNA vs. M. Ciddy (11-8-2014)&lt;br&gt;\n#47. Cruger vs. DNA (11-15-2014)&lt;br&gt;\n#48. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-rone-2014-lyrics" rel="noopener" data-api_path="/songs/2322297"&gt;DNA vs. Rone (REMATCH) [11-22-2014]&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2015&lt;/b&gt;&lt;br&gt;\n#49. &lt;a href="https://genius.com/King-of-the-dot-illmaculate-vs-dna-lyrics" rel="noopener" data-api_path="/songs/3363364"&gt;Illmaculate vs. DNA (2-7-2015)&lt;/a&gt;&lt;br&gt;\n#50. DNA vs. Chess (3-27-2015)&lt;br&gt;\n#51. DNA &amp;amp; K-Shine vs. John John Da Don &amp;amp; Syahboy (4-4-2015)&lt;br&gt;\n#52. &lt;a href="https://genius.com/Urltv-serius-jones-vs-dna-lyrics" rel="noopener" data-api_path="/songs/5369135"&gt;Serius Jones vs. DNA (5-9-2015)&lt;/a&gt;&lt;br&gt;\n#53. Charlie Clips vs. DNA (6-5-2015)&lt;br&gt;\n#54. Hitman Holla &amp;amp; Aye Verb vs. DNA &amp;amp; K-Shine (6-20-2015)&lt;br&gt;\n#55. Marv Won &amp;amp; Quest MCody vs. DNA &amp;amp; K-Shine (6-27-2015)&lt;br&gt;\n#56. DNA vs. Rosenberg Raw (7-5-2015)&lt;br&gt;\n#57. DNA &amp;amp; K-Shine vs. Chess &amp;amp; Steams (7-24-2015)&lt;br&gt;\n#58. 40 B.A.R.R.S &amp;amp; Bonnie Godiva vs. DNA &amp;amp; K-Shine (8-9-2015)&lt;br&gt;\n#59. DNA vs. Cityy Towers (9-13-2015)&lt;br&gt;\n#60. DNA &amp;amp; K-Shine vs. Chess &amp;amp; Steams (REMATCH) [9-25-2015]&lt;br&gt;\n#61. DNA vs. Real Deal (10-10-2015)&lt;br&gt;\n#62. DNA vs. Syahboy (10-18-2015)&lt;br&gt;\n#63. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-dirtbag-dan-lyrics" rel="noopener" data-api_path="/songs/2821630"&gt;DNA vs. Dirtbag Dan (10-24-2015)&lt;/a&gt;&lt;br&gt;\n#64. CoJay vs. DNA (11-14-2015)&lt;br&gt;\n#65. Deffinition vs. DNA (11-15-2015)&lt;br&gt;\n#66. &lt;a href="https://genius.com/Dont-flop-charron-and-100-bulletz-vs-dna-and-k-shine-lyrics" rel="noopener" data-api_path="/songs/2483295"&gt;Charron &amp;amp; 100 Bulletz vs. DNA &amp;amp; K-Shine (11-28-2015)&lt;/a&gt;&lt;br&gt;\n#67. DNA vs. Brizz Rawsteen (12-12-2015)&lt;br&gt;\n#68. DNA &amp;amp; K-Shine vs. Math Hoffa &amp;amp; Cortez (12-20-2015)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2016&lt;/b&gt;&lt;br&gt;\n#69. &lt;a href="https://genius.com/Black-ice-cartel-dna-vs-danja-zone-lyrics" rel="noopener" data-api_path="/songs/3352909"&gt;DNA vs. Danja Zone (1-10-2016)&lt;/a&gt;&lt;br&gt;\n#70. K-Shine &amp;amp; DNA vs. E. Farrell &amp;amp; JeFFrey (1-30-2016)&lt;br&gt;\n#71. DNA vs. Vicci (2-13-2016)&lt;br&gt;\n#72. Arrow vs. DNA (2-20-2016)&lt;br&gt;\n#73. Arsonal &amp;amp; Shotgun Suge vs. DNA &amp;amp; K-Shine (2-28-2016)&lt;br&gt;\n#74. &lt;a href="https://genius.com/Urltv-tsu-surf-and-tay-roc-vs-k-shine-and-dna-lyrics" rel="noopener" data-api_path="/songs/2468773"&gt;Tsu Surf &amp;amp; Tay Roc vs. K-Shine &amp;amp; DNA (3-26-2016)&lt;/a&gt;&lt;br&gt;\n#75. Ty Law vs. DNA (3-26-2016)&lt;br&gt;\n#76. DNA vs. Bangz (5-15-2016)&lt;br&gt;\n#77. Philly Swain vs. DNA (5-22-2016)&lt;br&gt;\n#78. DNA &amp;amp; K-Shine vs. Frankie Wapps &amp;amp; Jaze Juice (5-22-2016)&lt;br&gt;\n#79. DNA vs. Troy Brown (6-5-2016)&lt;br&gt;\n#80. &lt;a href="https://genius.com/King-of-the-dot-dizaster-vs-dna-2016-lyrics" rel="noopener" data-api_path="/songs/2818721"&gt;Dizaster vs. DNA (6-25-2016)&lt;/a&gt;&lt;br&gt;\n#81. &lt;a href="https://genius.com/Urltv-tsu-surf-and-tay-roc-vs-k-shine-and-dna-rematch-lyrics" rel="noopener" data-api_path="/songs/3868848"&gt;Tsu Surf &amp;amp; Tay Roc vs. K-Shine &amp;amp; DNA (REMATCH) [7-9-2016]&lt;/a&gt;&lt;br&gt;\n#82. DNA vs. Chef Trez (7-16-2016)&lt;br&gt;\n#83. Krome vs. DNA (7-22-2016)&lt;br&gt;\n#84. Don Marino vs. DNA (7-28-2016)&lt;br&gt;\n#85. DNA vs. Jae Lyrics (8-20-2016)&lt;br&gt;\n#86. KG The Poet vs. DNA (9-11-2016)&lt;br&gt;\n#87. DNA vs. Rad B (10-23-2016)&lt;br&gt;\n#88. DNA vs. Loso (11-5-2016)&lt;br&gt;\n#89. DNA vs. Joey Gambello (12-17-2016)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2017&lt;/b&gt;&lt;br&gt;\n#90. DNA vs. T-Dubb-O (1-15-2017)&lt;br&gt;\n#91. Pat Stay vs. DNA (1-22-2017)&lt;br&gt;\n#92. Biz Barker vs. DNA (1-29-2017)&lt;br&gt;\n#93. &lt;a href="https://genius.com/King-of-the-dot-a-ward-vs-dna-lyrics" rel="noopener" data-api_path="/songs/3072521"&gt;A. Ward vs. DNA (4-14-2017)&lt;/a&gt;&lt;br&gt;\n#94. Scoop vs. DNA (4-30-2017)&lt;br&gt;\n#95. DNA vs. Reed Dollaz (6-10-2017)&lt;br&gt;\n#96. DNA vs. Haixian (6-17-2017)&lt;br&gt;\n#97. DNA &amp;amp; K-Shine vs. X-Factor &amp;amp; Midwest Miles (6-24-2017)&lt;br&gt;\n#98. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-jimz-lyrics" rel="noopener" data-api_path="/songs/3335689"&gt;DNA vs. Jimz (7-22-2017)&lt;/a&gt;&lt;br&gt;\n#99. DNA vs. 7 Weaponz (7-23-2017)&lt;br&gt;\n#100. DNA &amp;amp; K-Shine vs. Stoopidbars &amp;amp; Swiiffjay (7-30-2017)&lt;br&gt;\n#101. Shotgun Suge vs. DNA (8-5-2017)&lt;br&gt;\n#102. DNA &amp;amp; K-Shine vs. Drugz &amp;amp; Quban (8-19-2017)&lt;br&gt;\n#103. DNA vs. Young Herb (8-19-2017)&lt;br&gt;\n#104. DNA vs. Murdock (9-9-2017)&lt;br&gt;\n#105. QP &amp;amp; Qleen Paper vs. DNA &amp;amp; K-Shine (9-17-2017)&lt;br&gt;\n#106. Tetsho Vintage vs. DNA (9-30-2017)&lt;br&gt;\n#107. DNA vs. Big Kannon (11-4-2017)&lt;br&gt;\n#108. &lt;a href="https://genius.com/Urltv-dna-vs-rum-nitty-lyrics" rel="noopener" data-api_path="/songs/3484197"&gt;DNA vs. Rum Nitty (11-11-2017)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2018&lt;/b&gt;&lt;br&gt;\n#109. Charlie Clips &amp;amp; DNA vs. Big Kannon &amp;amp; Young Kannon (2-3-2018)&lt;br&gt;\n#110. Scotty vs. DNA (3-3-2018)&lt;br&gt;\n#111. E. Ness vs. DNA (3-24-2018)&lt;br&gt;\n#112. DNA vs. O-Red (5-12-2018)&lt;br&gt;\n#113. &lt;a href="https://genius.com/Urltv-dna-vs-jc-lyrics" rel="noopener" data-api_path="/songs/4001239"&gt;DNA vs. JC (6-23-2018)&lt;/a&gt;&lt;br&gt;\n#114. &lt;a href="https://genius.com/Urltv-dna-vs-nu-jerzey-twork-lyrics" rel="noopener" data-api_path="/songs/3902545"&gt;DNA vs. Nu Jerzey Twork (8-11-2018)&lt;/a&gt;&lt;br&gt;\n#115. &lt;a href="https://genius.com/Urltv-dna-vs-danny-myers-lyrics" rel="noopener" data-api_path="/songs/4034604"&gt;DNA vs. Danny Myers (10-13-2018)&lt;/a&gt;&lt;br&gt;\n#116. Mr. Tongue Twister vs. DNA (10-19-2018)&lt;br&gt;\n#117. DNA vs. Quill (10-20-2018)&lt;br&gt;\n#118. DNA vs. Big Hann (11-24-2018)&lt;br&gt;\n#119. &lt;a href="https://genius.com/Urltv-dna-vs-mickey-factz-lyrics" rel="noopener" data-api_path="/songs/4163877"&gt;DNA vs. Mickey Factz (12-15-2018)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2019&lt;/b&gt;&lt;br&gt;\n#120. DNA vs. MVP (2-10-2019)&lt;br&gt;\n#121. DNA &amp;amp; K-Shine vs. Killa B &amp;amp; Showstoppa (3-30-2019)&lt;br&gt;\n#122. DNA vs. Heiron (7-4-2019)&lt;br&gt;\n#123. &lt;a href="https://genius.com/Urltv-nwx-vs-efb-lyrics" rel="noopener" data-api_path="/songs/4806403"&gt;DNA &amp;amp; K-Shine vs. Rum Nitty &amp;amp; Geechi Gotti (8-10-2019)&lt;/a&gt;&lt;br&gt;\n#124. Nu Jerzey Twork &amp;amp; Shotgun Suge vs. DNA &amp;amp; K-Shine (9-7-2019)&lt;br&gt;\n#125. &lt;a href="https://genius.com/Urltv-dna-vs-geechi-gotti-lyrics" rel="noopener" data-api_path="/songs/4931484"&gt;DNA vs. Geechi Gotti (10-5-2019)&lt;/a&gt;&lt;br&gt;\n#126. &lt;a href="https://genius.com/Urltv-dna-vs-t-top-lyrics" rel="noopener" data-api_path="/songs/4933028"&gt;DNA vs. T-Top (10-5-2019)&lt;/a&gt;&lt;br&gt;\n#127. DNA vs. Bill Collector (10-6-2019)&lt;br&gt;\n#128. DNA vs. Chilla Jones (10-26-2019) [Rematch]&lt;br&gt;\n#129. &lt;a href="https://genius.com/Urltv-aye-verb-vs-dna-lyrics" rel="noopener" data-api_path="/songs/5108959"&gt;Aye Verb vs. DNA (12-14-2019)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2020&lt;/b&gt;&lt;br&gt;\n#130. DNA vs. Drugz (3-7-2020)&lt;br&gt;\n#131. John John Da Don vs. DNA (4-4-2020)&lt;br&gt;\n#132. DNA &amp;amp; K-Shine vs. A. Ward &amp;amp; Loso (4-12-2020)#&lt;br&gt;\n#133. &lt;a href="https://genius.com/Urltv-dna-vs-viixen-the-assassin-lyrics" rel="noopener" data-api_path="/songs/6077897"&gt;DNA vs. Viixen The Assassin (10-17-2020)&lt;/a&gt;&lt;br&gt;\n#134. &lt;a href="https://genius.com/Urltv-dna-vs-lu-castro-lyrics" rel="noopener" data-api_path="/songs/6219429"&gt;DNA vs. Lu Castro (11-22-2020)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2021&lt;/b&gt;&lt;br&gt;\n#135. &lt;a href="https://genius.com/Urltv-dna-vs-geechi-gotti-rematch-lyrics" rel="noopener" data-api_path="/songs/6424712"&gt;DNA vs. Geechi Gotti (1-9-2021)&lt;/a&gt;&lt;br&gt;\n#136. &lt;a href="https://genius.com/Urltv-dna-vs-ave-lyrics" rel="noopener" data-api_path="/songs/6414953"&gt;DNA vs. Ave (1-23-2021)&lt;/a&gt;&lt;br&gt;\n#137. Rum Nitty &amp;amp; Jey The Nitewing vs. DNA &amp;amp; Don Marino (3-27-2021)&lt;br&gt;\n#138. DNA vs. B. Dot (6-12-2021)&lt;br&gt;\n#139. DNA vs. King Los (11-6-2021)&lt;br&gt;\n#140. DNA vs. Real Sikh (12-18-2021)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2022&lt;/b&gt;&lt;br&gt;\n#141. DNA vs. Hollow Da Don (2-26-2022)&lt;/p&gt;\n\n&lt;p&gt;#Denotes that the battle was done remotely. The date it was recorded is not known. Date given is based off when it was released on YouTube.&lt;br&gt;\n^ Denotes that the official date is not known for this battle, so the listing is based off the YouTube release date.&lt;/p&gt;', 'alternate_names': ['Eric St. John', 'DNA GTFOH']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kylie-minogue', 'annotations': {'description': '&lt;p&gt;Kylie Minogue is an Australian singer, songwriter, and actress. Often referred to as the Goddess of Pop with a career spanning over 30 years, she has transformed from girl-next-door soap star to ‘90s pop starlet, and short-lived indie darling to bona fide superstar.&lt;/p&gt;\n\n&lt;p&gt;Kylie earned her first big break on the Australian soap opera &lt;em&gt;Neighbours&lt;/em&gt;, playing tomboy mechanic Charlene Mitchell. An on-screen romance with &lt;a href="https://genius.com/artists/Jason-donovan" rel="noopener" data-api_path="/artists/178714"&gt;Jason Donovan&lt;/a&gt; – who played Scott Robinson – blossomed into a real-life relationship, and their wedding on the soap drew in millions of viewers. However, her real ambition was a successful career in music, and by 1988 her debut album, &lt;a href="https://genius.com/albums/Kylie-minogue/Kylie" rel="noopener" data-api_path="/albums/20524"&gt;&lt;em&gt;Kylie&lt;/em&gt;&lt;/a&gt;, was released, reaching #1 in the UK and Australia. Notching up 10 UK Top 3 singles by 1993, she was one of the defining popstars of the early ‘90s. Her follow-ups to the debut album – &lt;a href="https://genius.com/albums/Kylie-minogue/Enjoy-yourself" rel="noopener" data-api_path="/albums/101051"&gt;&lt;em&gt;Enjoy Yourself&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kylie-minogue/Rhythm-of-love" rel="noopener" data-api_path="/albums/19623"&gt;&lt;em&gt;Rhythm of Love&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Kylie-minogue/Enjoy-yourself" rel="noopener" data-api_path="/albums/101051"&gt;&lt;em&gt;Let’s Get To It&lt;/em&gt;&lt;/a&gt; – all reached the Top 15 in the UK.&lt;/p&gt;\n\n&lt;p&gt;With a blossoming relationship with late &lt;a href="https://genius.com/artists/Inxs" rel="noopener" data-api_path="/artists/43898"&gt;INXS&lt;/a&gt; frontman Michael Hutchence, Kylie was encouraged to be more ambitious with her image and sound. As such, she left her former label, PWL, and released the daring &lt;a href="https://genius.com/Kylie-minogue-confide-in-me-lyrics" rel="noopener" data-api_path="/songs/121304"&gt;“Confide In Me”&lt;/a&gt; in early 1994. Critics praised her re-invention, and the single restored the success she had somewhat lost with her previous album. &lt;a href="https://genius.com/albums/Kylie-minogue/Impossible-princess" rel="noopener" data-api_path="/albums/101167"&gt;&lt;em&gt;Impossible Princess&lt;/em&gt;&lt;/a&gt; was another critical success but failed to make much of an impact on the charts, which led some media outlets to believe that her “15 minutes of fame” were over.&lt;/p&gt;\n\n&lt;p&gt;By the turn of the century, Kylie signed with Parlophone and returned head-first to pure pop with the comeback single, &lt;a href="https://genius.com/kylie-minogue-spinning-around-lyrics" rel="noopener" data-api_path="/songs/121298"&gt;“Spinning Around”&lt;/a&gt;. A resounding success, it – and its parent album, &lt;a href="https://genius.com/albums/Kylie-minogue/Light-years" rel="noopener" data-api_path="/albums/20477"&gt;&lt;em&gt;Light Years&lt;/em&gt;&lt;/a&gt; – set the benchmark for her most successful single yet to follow shortly after. &lt;a href="https://genius.com/Kylie-minogue-cant-get-you-out-of-my-head-lyrics" rel="noopener" data-api_path="/songs/121287"&gt;“Can’t Get You Out of My Head”&lt;/a&gt; was one of the best-selling and most-heard singles of the 2000s, and even reached #7 in the US, a market that she had all but vanished from. &lt;a href="https://genius.com/albums/Kylie-minogue/Fever" rel="noopener" data-api_path="/albums/28967"&gt;&lt;em&gt;Fever&lt;/em&gt;&lt;/a&gt; spawned a number of other hit singles, and earned her her first GRAMMY award for &lt;a href="https://genius.com/kylie-minogue-come-into-my-world-lyrics" rel="noopener" data-api_path="/songs/425208"&gt;“Come Into My World”&lt;/a&gt;. 2003 saw the release of the R&amp;amp;B-inflected &lt;a href="https://genius.com/albums/Kylie-minogue/Body-language" rel="noopener" data-api_path="/albums/29021"&gt;&lt;em&gt;Body Language&lt;/em&gt;&lt;/a&gt;, which included the sultry single &lt;a href="https://genius.com/Kylie-minogue-slow-lyrics" rel="noopener" data-api_path="/songs/418883"&gt;“Slow”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The following year, Kylie released a career-encompassing greatest hits collection, &lt;a href="https://genius.com/albums/Kylie-minogue/Ultimate-kylie" rel="noopener" data-api_path="/albums/123493"&gt;&lt;em&gt;Ultimate Kylie&lt;/em&gt;&lt;/a&gt;, and embarked on a world tour in 2005. Just as she finished the UK leg, she was given a devastating diagnosis of breast cancer, which sent her into recluse for many months. By 2006, she resumed the tour and began work on her 10th studio album. &lt;a href="https://genius.com/albums/Kylie-minogue/X" rel="noopener" data-api_path="/albums/99022"&gt;&lt;em&gt;X&lt;/em&gt;&lt;/a&gt; was preceded by the single “2 Hearts”, and was a triumphant return to form. 2010’s &lt;a href="https://genius.com/albums/Kylie-minogue/Aphrodite" rel="noopener" data-api_path="/albums/99366"&gt;&lt;em&gt;Aphrodite&lt;/em&gt;&lt;/a&gt; signaled a move towards dance-pop and electro, and included the hit single &lt;a href="https://genius.com/Kylie-minogue-les-sex-lyrics" rel="noopener" data-api_path="/songs/383790"&gt;“All the Lovers”&lt;/a&gt;. In 2012, Kylie celebrated her 25th year in the industry with an orchestral greatest hits, &lt;a href="https://genius.com/albums/Kylie-minogue/The-abbey-road-sessions" rel="noopener" data-api_path="/albums/172157"&gt;&lt;em&gt;The Abbey Road Sessions&lt;/em&gt;&lt;/a&gt;. Her 12th studio album, &lt;a href="https://genius.com/albums/Kylie-minogue/Kiss-me-once" rel="noopener" data-api_path="/albums/84268"&gt;&lt;em&gt;Kiss Me Once&lt;/em&gt;&lt;/a&gt;, followed in 2014, and the following year she released her first holiday album, &lt;a href="https://genius.com/albums/Kylie-minogue/Kylie-christmas" rel="noopener" data-api_path="/albums/132269"&gt;&lt;em&gt;Kylie Christmas&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In early 2017, Kylie left her long-time label, Parlophone, and signed with BMG Rights Management to release her 14th studio album. &lt;a href="https://genius.com/albums/Kylie-minogue/Golden" rel="noopener" data-api_path="/albums/393266"&gt;&lt;em&gt;Golden&lt;/em&gt;&lt;/a&gt;, released on April 6, 2018, features the country-pop single &lt;a href="https://genius.com/Kylie-minogue-dancing-lyrics" rel="noopener" data-api_path="/songs/3427142"&gt;“Dancing”&lt;/a&gt; and is said to overall have a more country-influenced sound, inspired by her writing trip in Nashville. &lt;em&gt;Golden&lt;/em&gt; became her sixth UK Number One album and her first to be atop the charts in both the UK and her native Australia since 2001’s &lt;a href="https://genius.com/albums/Kylie-minogue/Fever" rel="noopener" data-api_path="/albums/28967"&gt;&lt;em&gt;Fever&lt;/em&gt;&lt;/a&gt;. Owing to the success of the album, she played Glastonbury’s esteemed &lt;em&gt;Legends&lt;/em&gt; slot the following June and released an updated greatest hits. &lt;em&gt;Step Back in Time: The Definitive Collection&lt;/em&gt; became her second UK and Australian chart-topper in 18 months, with its accompanying tour and aforementioned Glastonbury performance receiving critical acclaim. Eschewing the typical extended break between albums, Kylie will release the aptly-titled &lt;em&gt;DISCO&lt;/em&gt; on November 6. Its lead single, “Say Something,” was released on July 23 alongside the announcement of the album.&lt;/p&gt;', 'alternate_names': ['Kylie Ann Minogue']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Incubus', 'annotations': {'description': '&lt;p&gt;Incubus is an American alternative rock band from Calabasas, California. The band was formed in 1991 by vocalist Brandon Boyd, lead guitarist Mike Einziger, and drummer Jose Pasillas while enrolled in Calabasas High School. Incubus later expanded to include bassist Alex “Dirk Lance” Katunich, and Gavin “DJ Lyfe” Koppell; both of whom were eventually replaced by bassist Ben Kenney and DJ Kilmore respectively.&lt;/p&gt;\n\n&lt;p&gt;Incubus has attained commercial success, reaching multi-platinum sales, as well as releasing several successful singles, &lt;a href="https://genius.com/Incubus-dig-lyrics" rel="noopener" data-api_path="/songs/313626"&gt;Dig&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/Incubus-drive-lyrics" rel="noopener" data-api_path="/songs/108451"&gt;Drive&lt;/a&gt; especially.&lt;/p&gt;\n\n&lt;p&gt; The band have undergone many style changes over their long careers. Their early work, &lt;i&gt;Fungus Amongus&lt;/i&gt; (1995) and &lt;i&gt;S.C.I.E.N.C.E.&lt;/i&gt; (1997) were aggressive and clunky Funk Metal inspired by 80’s bands, such as the &lt;a href="https://genius.com/artists/Red-hot-chili-peppers" rel="noopener" data-api_path="/artists/1460"&gt;Red Hot Chili Peppers&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt; As the band earned mainstream recognition in the late 90’s and early 00’s their style matured significantly. Their albums &lt;a href="https://genius.com/albums/Incubus/Make-yourself" rel="noopener" data-api_path="/albums/26607"&gt;&lt;i&gt;Make Yourself&lt;/i&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Incubus/Morning-view" rel="noopener" data-api_path="/albums/80202"&gt;&lt;i&gt;Morning View&lt;/i&gt;&lt;/a&gt; evolved into a more Post-Grunge sound.&lt;/p&gt;\n\n&lt;p&gt; The Band’s success continued with the album &lt;i&gt;A Crow Left of the Murder…&lt;/i&gt; (2004). Their sixth studio album, &lt;a href="https://www.billboard.com/music/Incubus/chart-history/TLP" rel="noopener nofollow"&gt;Light Grenades, debuted at #1&lt;/a&gt;, their first and only #1 album.&lt;/p&gt;\n\n&lt;p&gt;Incubus\' first greatest hits album &lt;i&gt;Monuments and Melodies&lt;/i&gt; came out in June 2009. With their 2011 album &lt;i&gt;If Not Now, When?&lt;/i&gt; the band developed a more Pop-Rock style. The band released their eighth studio album, titled 8, on April 21, 2017.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bridgit-mendler', 'annotations': {'description': '&lt;p&gt;Bridgit Claire Mendler, known by just &lt;strong&gt;Bridgit Mendler&lt;/strong&gt; (born December 18, 1992), is an American singer-songwriter and actress.&lt;/p&gt;\n\n&lt;p&gt;She started her acting career in 2004, starring in the animated Indian film, &lt;a href="https://en.wikipedia.org/wiki/The_Legend_of_Buddha" rel="noopener nofollow"&gt;&lt;em&gt;The Legend of Buddha&lt;/em&gt;&lt;/a&gt;. In 2007, Mendler had an acting role as  Pamela in &lt;a href="https://en.wikipedia.org/wiki/Alice_Upside_Down" rel="noopener nofollow"&gt;&lt;em&gt;Alice Upside Down&lt;/em&gt;&lt;/a&gt;. Bridgit has had a lot of acting roles in TV shows and films, such as &lt;a href="https://goo.gl/exFnZw" rel="noopener nofollow"&gt;&lt;em&gt;The Clique&lt;/em&gt;&lt;/a&gt;(2008), &lt;a href="https://en.wikipedia.org/wiki/Labor_Pains" rel="noopener nofollow"&gt;&lt;em&gt;Labor Pains&lt;/em&gt;&lt;/a&gt;(2009) and &lt;a href="https://en.wikipedia.org/wiki/Wizards_of_Waverly_Place" rel="noopener nofollow"&gt;&lt;em&gt;Wizards of Waverly Place&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Mendler starred as the lead character in Disney Channel’s &lt;a href="https://en.wikipedia.org/wiki/Good_Luck_Charlie" rel="noopener nofollow"&gt;&lt;em&gt;Good Luck Charlie&lt;/em&gt;&lt;/a&gt; as Teddy Duncan. The show aired on &lt;a href="https://en.wikipedia.org/wiki/Disney_Channel" rel="noopener nofollow"&gt;&lt;em&gt;Disney Channel&lt;/em&gt;&lt;/a&gt; from April 4, 2010, to February 16, 2014.&lt;/p&gt;\n\n&lt;p&gt;In 2012, she released her debut LP, &lt;a href="https://genius.com/albums/Bridgit-mendler/Hello-my-name-is" rel="noopener" data-api_path="/albums/22851"&gt;&lt;em&gt;Hello My Name Is…&lt;/em&gt;&lt;/a&gt;. The album debuted at number 30 on the US Billboard 200 and has sold over 200,00 copies.&lt;/p&gt;\n\n&lt;p&gt;After starring as the lead role in &lt;em&gt;Good Luck Charlie&lt;/em&gt;, Bridgit didn’t release music until mid-2016. In 2016, she released her first single featuring Kaiydo, called &lt;a href="https://genius.com/Bridgit-mendler-atlantis-lyrics" rel="noopener" data-api_path="/songs/2844293"&gt;“Atlantis”&lt;/a&gt;. After releasing her first single, she released an EP, &lt;a href="https://genius.com/albums/Bridgit-mendler/Nemesis" rel="noopener" data-api_path="/albums/165240"&gt;&lt;em&gt;Nemesis&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In February 2017, Bridgit released (Temperamental Love ft. Devontée] (&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;a href="https://genius.com/Bridgit-mendler-temperamental-love-lyrics" data-api_path="/songs/2974122"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://images.genius.com/655cb62f35345ec7a2ca8325c5bf17de.1000x1000x1.jpg" width="1000" height="1000" data-animated="false"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Bridgit Mendler (Ft. Devontée) - Temperamental Love&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Genius&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;Temperamental Love Lyrics: Uh, uh / Girl, you ain\'t the only one that\'s all alone / Hell, I\'m only seeing you on the phone / What\'s a FaceTime? I need face-to-face time / Calls being dropped, you think it\'s&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;) and in March released the collaboration with Pell called [Can’t Bring This Down] (&lt;div class="embedly_preview"&gt;\n&lt;a href="https://genius.com/Bridgit-mendler-cant-bring-this-down-lyrics" data-api_path="/songs/2992079"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://images.genius.com/bef7fcd513aaf3af1a7d07d647656dd3.1000x1000x1.jpg" width="1000" height="1000" data-animated="false"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Bridgit Mendler (Ft. Pell) - Can\'t Bring This Down&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Genius&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;Can\'t Bring This Down Lyrics: Shake my head like this / You better stop it / Too high, too quick / You are the one / I never felt like this / If I\'m being honest / I can\'t bring this down / Yeah, yeah, yeah&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;). In late August, Mendler released [Diving ft. RKCB] (&lt;div class="embedly_preview"&gt;\n&lt;a href="https://genius.com/Bridgit-mendler-diving-lyrics" data-api_path="/songs/3178641"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://images.genius.com/888383edb1102bfef48a6b66cfceb6b2.939x939x1.jpg" width="939" height="939" data-animated="false"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Bridgit Mendler (Ft. RKCB) - Diving&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Genius&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;Diving Lyrics: There was a time that / I still felt love now I / Don\'t know you, but I got a / Trail of thoughts / That keep us connected and blue / Now I\'m at the elevation from a / Different&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;) on the 5-year anniversary of Ready Or Not.\n\n&lt;p&gt;As of May 2018, Mendler is part of a graduate program at MIT and states that she will still release another album eventually.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Rob-zombie', 'annotations': {'description': '&lt;p&gt;Rob Zombie (born Robert Bartleh Cummings; January 12, 1965) is an American musician, film director, screenwriter and film producer. Zombie rose to fame as a founding member of the heavy metal band &lt;a href="https://genius.com/artists/White-zombie" rel="noopener" data-api_path="/artists/165622"&gt;White Zombie&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Robert Zombie', 'Robert W. Zombie', 'Robert Wolfgang Zombie', 'Robert Cummings', 'Robert B. Cummings', 'Robert Bartleh Cummings']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Laura-branigan', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Laura Branigan&lt;/strong&gt; (1952–2004) was an American pop singer whose hits included such songs as “&lt;a href="https://genius.com/Laura-branigan-gloria-lyrics" rel="noopener" data-api_path="/songs/748588"&gt;Gloria&lt;/a&gt;” (1982), “&lt;a href="https://genius.com/Laura-branigan-solitaire-lyrics" rel="noopener" data-api_path="/songs/1309267"&gt;Solitaire&lt;/a&gt;” (1983), “&lt;a href="https://genius.com/Laura-branigan-how-am-i-supposed-to-live-without-you-lyrics" rel="noopener" data-api_path="/songs/1247235"&gt;How Am I Supposed to Live Without You&lt;/a&gt;” (1983), and “&lt;a href="https://genius.com/Laura-branigan-shattered-glass-lyrics" rel="noopener" data-api_path="/songs/2284872"&gt;Shattered Glass&lt;/a&gt;” (1987).&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/62a95c7bacaf06110343f0d361cb529c.736x743x1.jpg" alt="" width="736" height="743" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['Laura Ann Branigan']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sirah', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Sarah Mitchell', 'Sara Elizabeth Mitchell']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Billy-talent', 'annotations': {'description': '&lt;p&gt;Billy Talent is a Canadian punk rock band from Mississauga, Ontario. They formed in 1993, under the name Pezz, with &lt;a href="https://genius.com/artists/Benjamin-kowalewicz" rel="noopener" data-api_path="/artists/1086993"&gt;Benjamin Kowalewicz&lt;/a&gt; as the lead vocalist, &lt;a href="https://genius.com/artists/Ian-dsa" rel="noopener" data-api_path="/artists/160987"&gt;Ian D\'Sa&lt;/a&gt; on guitar, bassist Jon Gallant and drummer Aaron Solowoniuk. After changing their name to Billy Talent in 2001, they achieved mainstream success with their &lt;a href="https://genius.com/albums/Billy-talent/Billy-talent" rel="noopener" data-api_path="/albums/15576"&gt;first self-titled studio album&lt;/a&gt;, and have released 5 albums to date.&lt;/p&gt;\n\n&lt;p&gt;The band members met at the &lt;a href="https://en.wikipedia.org/w/index.php?title=Our_Lady_of_Mount_Carmel_Secondary_School" rel="noopener nofollow"&gt;Our Lady of Mount Carmel Secondary School&lt;/a&gt;, which they all attended, and the lineup has stayed the same ever since, though drummer Aaron Solowoniuk could not take part in the recording of the &lt;em&gt;&lt;a href="https://genius.com/albums/Billy-talent/Afraid-of-heights" rel="noopener" data-api_path="/albums/154750"&gt;Afraid of Heights&lt;/a&gt;&lt;/em&gt; album due to &lt;a href="http://www.cbc.ca/news/entertainment/billy-talent-aaron-solowoniuk-1.3405698" rel="noopener nofollow"&gt;complications from the multiple sclerosis&lt;/a&gt; he was diagnosed with in his mid-20s, being thus replaced by friend and fellow drummer &lt;a href="https://genius.com/artists/Jordan-hastings" rel="noopener" data-api_path="/artists/31259"&gt;Jordan Hastings&lt;/a&gt; from &lt;a href="https://genius.com/artists/Alexisonfire" rel="noopener" data-api_path="/artists/31263"&gt;Alexisonfire&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Pezz']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Muse', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.muse.mu/" rel="noopener nofollow"&gt;Muse&lt;/a&gt; is an English rock band from Teignmouth, Devon, consisting of &lt;a href="http://www.musewiki.org/Matthew_Bellamy" rel="noopener nofollow"&gt;Matthew Bellamy&lt;/a&gt; (guitarist, keyboardist, singer, songwriter, middle of the picture), &lt;a href="http://www.musewiki.org/Christopher_Wolstenholme" rel="noopener nofollow"&gt;Christopher Wolstenholme&lt;/a&gt; (bassist, background vocalist, to the left of the picture), and &lt;a href="http://www.musewiki.org/Dominic_Howard" rel="noopener nofollow"&gt;Dominic Howard&lt;/a&gt; (drummer, to the right of the picture). They often infuse classical piano and strings (and sometimes even choirs) with catchy guitar and piano hooks.&lt;/p&gt;\n\n&lt;p&gt;Muse is mostly known due to their alternative genre of music and also their &lt;a href="https://en.wikipedia.org/wiki/List_of_awards_and_nominations_received_by_Muse" rel="noopener nofollow"&gt;live performances&lt;/a&gt;.&lt;br&gt;\n&lt;a href="http://www.musewiki.org/Radiohead" rel="noopener nofollow"&gt;Some have compared Muse to other bands such as Radiohead&lt;/a&gt;; Though this analogy has faded during past years since Muse has changed its taste.&lt;/p&gt;\n\n&lt;p&gt;The band always has an Apocalyptic background theme in their albums; In every album, there is a different apocalyptic perspective. &lt;em&gt;&lt;a href="https://genius.com/Muse-showbiz-lyrics" rel="noopener" data-api_path="/songs/200054"&gt;Showbiz&lt;/a&gt;&lt;/em&gt; (Anxiety), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Origin-of-symmetry" rel="noopener" data-api_path="/albums/21027"&gt;Origin of Symmetry&lt;/a&gt;&lt;/em&gt; (Mental Disorder), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Absolution" rel="noopener" data-api_path="/albums/18003"&gt;Absolution&lt;/a&gt;&lt;/em&gt; (Religion and atheism), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Black-holes-and-revelations" rel="noopener" data-api_path="/albums/18443"&gt;Black Holes and Revelations&lt;/a&gt;&lt;/em&gt; (Alien’s Attack), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/The-resistance" rel="noopener" data-api_path="/albums/11837"&gt;The Resistance&lt;/a&gt;&lt;/em&gt; (Mind Control), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/The-2nd-law" rel="noopener" data-api_path="/albums/20776"&gt;The 2nd Law&lt;/a&gt;&lt;/em&gt; (The 2nd Law of thermodynamics and the world moving toward destruction – Entropy), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Drones" rel="noopener" data-api_path="/albums/121389"&gt;Drones&lt;/a&gt;&lt;/em&gt; (War) and &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Simulation-theory" rel="noopener" data-api_path="/albums/403783"&gt;Simulation Theory&lt;/a&gt;&lt;/em&gt; (Life is a simulation and we should escape this fragile world and move toward the bigger picture).&lt;/p&gt;\n\n&lt;p&gt;Their official website is &lt;a href="http://muse.mu/" rel="noopener nofollow"&gt;muse.mu&lt;/a&gt;.&lt;br&gt;\nFor more information about the band, check out &lt;a href="http://musewiki.org/" rel="noopener nofollow"&gt;musewiki.org&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Collective-soul', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/David-bowie', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.davidbowie.com/" rel="noopener nofollow"&gt;David Bowie&lt;/a&gt; (1947 – 2016) was a British musician, and one of the most iconic rock stars with a widely diverse career where he frequently changed his appearance and musical style, resulting in an acclaimed  discography comparable to other stalwarts such as &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt; and &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt;. In 1966 David Robert Jones chose the surname “Bowie” (as in a Bowie knife, or a Jagger) to cut out any association with teen idol &lt;a href="https://genius.com/artists/Davy-jones" rel="noopener" data-api_path="/artists/386169"&gt;Davy Jones&lt;/a&gt;. Enduring many early missteps, his music had a seminal lift-off with &lt;a href="https://genius.com/David-bowie-space-oddity-lyrics" rel="noopener" data-api_path="/songs/112817"&gt;“Space Oddity”&lt;/a&gt;, used in the BBC’s coverage of the 1969 &lt;a href="http://www.telegraph.co.uk/news/science/space/5871370/Apollo-11-moon-landing-Moon-music.html" rel="noopener nofollow"&gt;Apollo 11 moon landing&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The single rose to #5 in the UK charts as a result of his Top of the Pops performance.  The sci-fi rubric of the song about a fictional character, Major Tom, foreshadowed his future 1972 breakthrough.  In the meantime, Bowie remained a cult figure. 1971’s landmark album, &lt;a href="https://genius.com/albums/David-bowie/Hunky-dory" rel="noopener" data-api_path="/albums/24468"&gt;&lt;em&gt;Hunky Dory&lt;/em&gt;&lt;/a&gt; went largely unnoticed, despite being his first Major RCA release.&lt;/p&gt;\n\n&lt;p&gt;By early 1972, Bowie not only commanded notice, he set the plaform(s) for a genre.  His alter-ego, an androgynous alien that dazzled and shocked, did not mask the brilliance of his musical acumen: it put the public spotlight on it.  Cut from the punk rock performance debauchery of &lt;a href="https://genius.com/artists/Iggy-pop" rel="noopener" data-api_path="/artists/21273"&gt;Iggy Pop&lt;/a&gt; with the alternative underground, aloof artistry of &lt;a href="https://genius.com/artists/Lou-reed" rel="noopener" data-api_path="/artists/13277"&gt;Lou Reed&lt;/a&gt;, Ziggy Stardust was the main-man-alien lead in his conceptual &lt;a href="https://genius.com/albums/David-bowie/The-rise-and-fall-of-ziggy-stardust-and-the-spiders-from-mars" rel="noopener" data-api_path="/albums/18495"&gt;breakthrough album&lt;/a&gt;, and the public persona which haunted him beyond Ziggy’s expiration date.  Ziggy’s “fall” in the plot of the album’s theme took on an ambiguous direction, which drove &lt;a href="https://genius.com/albums/David-bowie/alladin-sane" rel="noopener"&gt;&lt;em&gt;Aladdin Sane&lt;/em&gt;&lt;/a&gt;’s zigzagging broader musical strokes without a conceptual framework.  And yet it framed, over time, the penultimate image of Ziggy, as an icon, emblem, fashion-plate, rock-saint, emoji, etc.&lt;/p&gt;\n\n&lt;p&gt;Bowie used his new-found popularity to move to America, and dabble with new musical directions and cocaine. &lt;a href="https://genius.com/albums/David-bowie/diamond-dogs" rel="noopener" data-api_path="/albums/46048"&gt;&lt;em&gt;Diamond Dogs&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/David-bowie/young-americans" rel="noopener" data-api_path="/albums/76501"&gt;&lt;em&gt;Young Americans&lt;/em&gt;&lt;/a&gt; continue to divide critics, but &lt;a href="https://genius.com/albums/David-bowie/station-to-station" rel="noopener" data-api_path="/albums/32130"&gt;&lt;em&gt;Station To Station&lt;/em&gt;&lt;/a&gt; found Bowie at a new creative peak, despite escalating drug use and related health issues.&lt;/p&gt;\n\n&lt;p&gt;Moving back to Europe helped Bowie reach even greater musical heights. He recorded his iconic “Berlin Trilogy” – &lt;a href="https://genius.com/albums/David-bowie/low" rel="noopener" data-api_path="/albums/28910"&gt;&lt;em&gt;Low&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/David-bowie/heroes" rel="noopener" data-api_path="/albums/28200"&gt;&lt;em&gt;“Heroes”&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/David-bowie/Lodger" rel="noopener" data-api_path="/albums/76513"&gt;&lt;em&gt;Lodger&lt;/em&gt;&lt;/a&gt;, with &lt;a href="https://genius.com/artists/Brian-eno" rel="noopener" data-api_path="/artists/29972"&gt;Brian Eno&lt;/a&gt; and &lt;a href="https://genius.com/artists/Tony-visconti" rel="noopener" data-api_path="/artists/37268"&gt;Tony Visconti&lt;/a&gt; (despite the name, only &lt;em&gt;Heroes&lt;/em&gt; was recorded in Berlin), and produced Iggy Pop’s first two solo albums. This was followed by the hard-rocking &lt;a href="https://genius.com/albums/David-bowie/Scary-monsters-and-super-creeps" rel="noopener" data-api_path="/albums/76520"&gt;&lt;em&gt;Scary Monsters (And Super Creeps)&lt;/em&gt;&lt;/a&gt;, and disco-influenced &lt;a href="https://genius.com/albums/David-bowie/Let-s-dance" rel="noopener" data-api_path="/albums/26657"&gt;&lt;em&gt;Let’s Dance&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Bowie entered a period of critical apathy during the 1980s, as albums like &lt;a href="https://genius.com/albums/David-bowie/Tonight" rel="noopener" data-api_path="/albums/76500"&gt;&lt;em&gt;Tonight&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/David-bowie/Never-let-me-down" rel="noopener" data-api_path="/albums/76508"&gt;&lt;em&gt;Never Let Me Down&lt;/em&gt;&lt;/a&gt; fell relatively flat. These were his &lt;a href="https://genius.com/artists/Tin-machine" rel="noopener" data-api_path="/artists/359829"&gt;Tin Machine&lt;/a&gt; days, and they paved the way for a renaissance of huge proportions, with albums such as &lt;a href="https://genius.com/albums/David-bowie/1-outside" rel="noopener" data-api_path="/albums/76519"&gt;&lt;em&gt;1. Outside&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/David-bowie/Earthling" rel="noopener" data-api_path="/albums/76522"&gt;&lt;em&gt;Earthling&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/David-bowie/Heathen" rel="noopener" data-api_path="/albums/47864"&gt;&lt;em&gt;Heathen&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/David-bowie/Reality" rel="noopener" data-api_path="/albums/76523"&gt;&lt;em&gt;Reality&lt;/em&gt;&lt;/a&gt; reclaiming his status as a number one pop star. Radio silence then ensued for much of the 2000s, until he surprisingly issued 2013’s &lt;a href="https://genius.com/albums/David-bowie/The-next-day" rel="noopener" data-api_path="/albums/26468"&gt;&lt;em&gt;The Next Day&lt;/em&gt;&lt;/a&gt;, recorded in secret and released to critical acclaim.&lt;/p&gt;\n\n&lt;p&gt;David Bowie passed away on January 10, 2016, due to cancer, two days after his 69th birthday and the release of his final album, &lt;a href="https://genius.com/albums/David-bowie/Blackstar" rel="noopener" data-api_path="/albums/138144"&gt;&lt;em&gt;Blackstar&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['David R. Jones', 'Ziggy Stardust', 'David Robert Jones']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-temper-trap', 'annotations': {'description': '&lt;p&gt;The Temper Trap is an Australian indie rock band that formed in 2005. The core members are Dougy Mandagi on vocals, Jonathon Aherne on bass guitar, Toby Dundas on drums, Lorenzo Sillitto on lead guitar and Joseph Greer on keyboards and guitar.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ellie-goulding', 'annotations': {'description': '&lt;p&gt;Elena Jane “Ellie” Goulding (born 30 December 1986) – is an English singer-songwriter. In 2010, she became the second artist to both &lt;a href="http://news.bbc.co.uk/1/hi/entertainment/8442389.stm" rel="noopener nofollow"&gt;top the BBC’s annual Sound of… poll&lt;/a&gt; and win &lt;a href="http://www.brits.co.uk/britstv/2010-critics-choice-ellie-goulding" rel="noopener nofollow"&gt;the Critics\' Choice Award at the Brit Awards&lt;/a&gt; in the same year, following &lt;a href="https://genius.com/artists/Adele" rel="noopener" data-api_path="/artists/2300"&gt;Adele’s&lt;/a&gt; win of both in 2008. Originally her music incorporated elements of folk, pop, electronica, and folktronica.&lt;/p&gt;\n\n&lt;p&gt;In July 2009, Goulding signed with Polydor Records, and released her debut EP &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/An-introduction-to-ellie-goulding" rel="noopener" data-api_path="/albums/177255"&gt;An Introduction to Ellie Goulding&lt;/a&gt;&lt;/em&gt;, later that year. Her debut single, &lt;a href="https://genius.com/Ellie-goulding-under-the-sheets-lyrics" rel="noopener" data-api_path="/songs/157218"&gt;“Under The Sheets”&lt;/a&gt; was then released in November.&lt;/p&gt;\n\n&lt;p&gt;In 2010 Goulding recorded and released her debut record &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Lights" rel="noopener" data-api_path="/albums/34852"&gt;Lights&lt;/a&gt;&lt;/em&gt;, which spawned four charting singles in the UK, the biggest of which “&lt;a href="https://genius.com/Ellie-goulding-starry-eyed-lyrics" rel="noopener" data-api_path="/songs/52959"&gt;Starry Eyes&lt;/a&gt;” peaked at #4 in the UK and charted in many European countries and Australia.&lt;/p&gt;\n\n&lt;p&gt;At the end of the year the album’s reissue &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Bright-lights" rel="noopener" data-api_path="/albums/18640"&gt;Bright Lights&lt;/a&gt;&lt;/em&gt; was released, and spawned two singles: &lt;a href="https://genius.com/Ellie-goulding-lights-lyrics" rel="noopener" data-api_path="/songs/79697"&gt;“Lights”&lt;/a&gt; and a cover of &lt;a href="https://genius.com/artists/Elton-john" rel="noopener" data-api_path="/artists/560"&gt;Elton John’s&lt;/a&gt; “&lt;a href="https://genius.com/Ellie-goulding-your-song-lyrics" rel="noopener" data-api_path="/songs/198880"&gt;Your Song&lt;/a&gt;.” The former of which propelled Goulding into international stardom after becoming a sleeper hit in the United States, eventually peaking at #2 after almost a year of the song charting.&lt;/p&gt;\n\n&lt;p&gt;In 2012, Goulding’s sophomore record &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Halcyon" rel="noopener" data-api_path="/albums/20565"&gt;Halcyon&lt;/a&gt;&lt;/em&gt; was released, featuring lead single “&lt;a href="https://genius.com/Ellie-goulding-anything-could-happen-lyrics" rel="noopener" data-api_path="/songs/85737"&gt;“Anything Could Happen”&lt;/a&gt;, which was another U.S. hit.&lt;/p&gt;\n\n&lt;p&gt;It’s re-issue, &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Halcyon-days" rel="noopener" data-api_path="/albums/42358"&gt;Halcyon Days&lt;/a&gt;&lt;/em&gt; saw critical acclaim for Goulding’s happier lyrical content and musical exploration into EDM. Its lead single, &lt;a href="https://genius.com/Ellie-goulding-burn-lyrics" rel="noopener" data-api_path="/songs/183325"&gt;“Burn”&lt;/a&gt; was a top 20 hit in the United States, becoming a mega-success worldwide.&lt;/p&gt;\n\n&lt;p&gt;Goulding’s vocal connection with EDM has been explored through collaborations with &lt;a href="https://genius.com/artists/Calvin-harris" rel="noopener" data-api_path="/artists/2069"&gt;Calvin Harris&lt;/a&gt;, on hits “&lt;a href="https://genius.com/Calvin-harris-i-need-your-love-lyrics" rel="noopener" data-api_path="/songs/154286"&gt;I Need Your Love&lt;/a&gt;,” and “&lt;a href="https://genius.com/Calvin-harris-outside-lyrics" rel="noopener" data-api_path="/songs/546962"&gt;Outside&lt;/a&gt;”, as well as songs with &lt;a href="https://genius.com/Major-lazer-powerful-lyrics" rel="noopener" data-api_path="/songs/1363351"&gt;Major Lazer&lt;/a&gt;, &lt;a href="https://genius.com/Clean-bandit-mama-lyrics" rel="noopener" data-api_path="/songs/3983995"&gt;Clean Bandit&lt;/a&gt;, &lt;a href="https://genius.com/Zedd-and-lucky-date-fall-into-the-sky-lyrics" rel="noopener" data-api_path="/songs/342832"&gt;Zedd&lt;/a&gt;, &lt;a href="https://genius.com/Ellie-goulding-stay-awake-lyrics" rel="noopener" data-api_path="/songs/198928"&gt;Madeon&lt;/a&gt;, and &lt;a href="https://genius.com/Kygo-and-ellie-goulding-first-time-lyrics" rel="noopener" data-api_path="/songs/3066143"&gt;Kygo&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The beginning of 2015 began with Goulding releasing her biggest hit to date, &lt;a href="https://genius.com/Ellie-goulding-love-me-like-you-do-lyrics/" rel="noopener" data-api_path="/songs/665379"&gt;“Love Me Like You Do”&lt;/a&gt;“ for the &lt;a href="https://genius.com/albums/Various-artists/Fifty-shades-of-grey-original-motion-picture-soundtrack" rel="noopener" data-api_path="/albums/118063"&gt;50 Shades of Grey Soundtrack&lt;/a&gt;. The song was acclaimed by critics and peaked at #1 around the world and #3 in the United States. The song garnered her a Best Pop Solo Performance Grammy Nomination.&lt;/p&gt;\n\n&lt;p&gt;Goulding later re-upped on her pop game with 2015’s &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Delirium" rel="noopener" data-api_path="/albums/131217"&gt;Delirium&lt;/a&gt;&lt;/em&gt;. The album incorporated Goulding’s affiliation with club bangers and explored a poppier sound than her original albums. The album’s lead single &lt;a href="https://genius.com/Ellie-goulding-on-my-mind-lyrics/" rel="noopener" data-api_path="/songs/2308425"&gt;“On My Mind”&lt;/a&gt; became an international success, and received media attention as speculated to be an answer song to &lt;a href="https://genius.com/artists/Ed-sheeran" rel="noopener" data-api_path="/artists/12418"&gt;Ed Sheeran’s&lt;/a&gt; “&lt;a href="https://genius.com/Ed-sheeran-dont-lyrics" rel="noopener" data-api_path="/songs/403031"&gt;Don’t.&lt;/a&gt;” The album’s third single, &lt;a href="https://genius.com/%28/Ellie-goulding-something-in-the-way-you-move-lyrics/" rel="noopener"&gt;“Something In The Way You Move”&lt;/a&gt; was another hit, peaking at #43 on the Hot 100.&lt;/p&gt;\n\n&lt;p&gt;2018 saw Goulding prepare for her fourth record. “&lt;a href="https://genius.com/Ellie-goulding-and-diplo-close-to-me-lyrics" rel="noopener" data-api_path="/songs/4037296"&gt;Close To Me&lt;/a&gt;” with &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt; and featuring &lt;a href="https://genius.com/artists/Swae-lee" rel="noopener" data-api_path="/artists/209139"&gt;Swae Lee&lt;/a&gt; saw success, peaking at #24 in the U.S, and she followed these up with 2019’s “&lt;a href="https://genius.com/Ellie-goulding-flux-lyrics" rel="noopener" data-api_path="/songs/4202475"&gt;Flux&lt;/a&gt;” and “&lt;a href="https://genius.com/Ellie-goulding-sixteen-lyrics" rel="noopener" data-api_path="/songs/4427896"&gt;Sixteen&lt;/a&gt;” which are assumed to be album singles.&lt;/p&gt;', 'alternate_names': ['Elena Jane Goulding']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alok-zeeba-and-bruno-martini', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-bravery', 'annotations': {'description': '&lt;p&gt;Formed in New York City in 2003, The Bravery was a post-punk revival group consisting of lead vocalist Sam Endicott, guitarist Michael Zakarin, keyboardist John Conway, bassist Mike Hindert and drummer Anthony Burulcich. The band released three dance-rock albums before “taking a hiatus” in 2012. Currently, the group has no plans to get back together.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ace-of-base', 'annotations': {'description': '&lt;p&gt;Ace of Base Is a Swedish pop group who scored a string of international hits in the early-to-mid 1990s. They’re best known for their upbeat reggae-tinged dance-pop songs, including &lt;a href="https://genius.com/Ace-of-base-the-sign-lyrics" rel="noopener" data-api_path="/songs/120213"&gt;“The Sign”&lt;/a&gt;, which was the biggest hit of 1994, according to The Billboard US chart.&lt;/p&gt;\n\n&lt;p&gt;The group’s core lineup consisted of producers &lt;a href="https://genius.com/artists/Ulf-ekberg" rel="noopener" data-api_path="/artists/669002"&gt;Ulf “Buddha” Ekberg&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jonas-berggren" rel="noopener" data-api_path="/artists/669001"&gt;Jonas “Joker” Berggren&lt;/a&gt;, along with singers &lt;a href="https://genius.com/artists/Malin-berggren" rel="noopener" data-api_path="/artists/1212896"&gt;Malin “Linn” Berggren&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jenny-berggren" rel="noopener" data-api_path="/artists/352130"&gt;Jenny Berggren&lt;/a&gt; (the three Berggrens are siblings). In the early ’90s, their debut single &lt;a href="https://genius.com/Ace-of-base-wheel-of-fortune-lyrics" rel="noopener" data-api_path="/songs/1674536"&gt;“Wheel of Fortune”&lt;/a&gt; became a hit in Scandinavia, which led to the group connecting with producer &lt;a href="https://genius.com/artists/Denniz-pop" rel="noopener" data-api_path="/artists/39124"&gt;Denniz Pop&lt;/a&gt; (who would later spawn the careers Backstreet Boys, Britney Spears, and Max Martin).&lt;/p&gt;\n\n&lt;p&gt;After the group’s 1992 debut &lt;a href="https://genius.com/albums/Ace-of-base/Happy-nation" rel="noopener" data-api_path="/albums/28819"&gt;&lt;em&gt;Happy Nation&lt;/em&gt;&lt;/a&gt; became an international hit (going on to sell 21 million copies), it was re-released in North America in 1993 as &lt;a href="https://genius.com/albums/Ace-of-base/The-sign" rel="noopener" data-api_path="/albums/148640"&gt;&lt;em&gt;The Sign&lt;/em&gt;&lt;/a&gt;. Three singles from the album became top five pop hits in the US, including &lt;a href="https://genius.com/Ace-of-base-all-that-she-wants-lyrics" rel="noopener" data-api_path="/songs/434050"&gt;“All That She Wants”&lt;/a&gt; (#2), &lt;a href="https://genius.com/Ace-of-base-dont-turn-around-lyrics" rel="noopener" data-api_path="/songs/1405061"&gt;“Don’t Turn Around”&lt;/a&gt; (#4), and “The Sign” (#1 for six weeks). &lt;em&gt;The Sign&lt;/em&gt; went on to sell over 10 million copies.&lt;/p&gt;\n\n&lt;p&gt;The group’s 1995 album &lt;a href="https://genius.com/albums/Ace-of-base/The-bridge" rel="noopener" data-api_path="/albums/148660"&gt;&lt;em&gt;The Bridge&lt;/em&gt;&lt;/a&gt; sold 7 million copies worldwide, including 2 million in the US. The album’s most successful single was &lt;a href="https://genius.com/Ace-of-base-beautiful-life-lyrics" rel="noopener" data-api_path="/songs/1256263"&gt;“Beautiful Life,”&lt;/a&gt; which topped the US Dance chart and reached #15 on the Hot 100.&lt;/p&gt;\n\n&lt;p&gt;Following the formal departure of singer Linn in 2007, the band performed a series of concerts as a trio in Europe and Asia between 2007 and 2009. Jenny Berggren said in November 2009 that she would be taking an indefinite leave of absence from the band to focus on a solo career. In 2009, Jonas and Ulf recruited two new female vocalists, Clara Hagman and Julia Williamson, and released &lt;a href="https://genius.com/albums/Ace-of-base/The-golden-ratio" rel="noopener" data-api_path="/albums/237379"&gt;&lt;em&gt;The Golden Ratio&lt;/em&gt;&lt;/a&gt; in September 2010.&lt;/p&gt;\n\n&lt;p&gt;In 2012, it was confirmed that Clara Hagman and Julia Williamson had left the group. The group released the compilation &lt;a href="https://genius.com/albums/Ace-of-base/Hidden-gems" rel="noopener" data-api_path="/albums/148662"&gt;&lt;em&gt;Hidden Gems&lt;/em&gt;&lt;/a&gt;, featuring previously unreleased tracks and deep cuts. The band is currently on hiatus indefinitely, with the members publicly stating that a reunion is unlikely.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Silverchair', 'annotations': {'description': '&lt;p&gt;Silverchair were an alternative rock band from &lt;a href="http://en.wikipedia.org/wiki/Newcastle,_New_South_Wales" rel="noopener nofollow"&gt;Newcastle&lt;/a&gt; in New South Wales, Australia, who released their first album, &lt;a href="https://genius.com/albums/Silverchair/Frogstomp" rel="noopener" data-api_path="/albums/115213"&gt;&lt;em&gt;Frogstomp&lt;/em&gt;&lt;/a&gt; when they were &lt;strong&gt;only 15 years old&lt;/strong&gt;. Originally named Innocent Criminals, they changed their name to one influenced by &lt;a href="https://genius.com/artists/C-s-lewis" rel="noopener" data-api_path="/artists/41113"&gt;C.S. Lewis\'&lt;/a&gt; novel, &lt;a href="http://en.wikipedia.org/wiki/The_Silver_Chair" rel="noopener nofollow"&gt;The Silver Chair&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Childhood friends who went to the same school, Silverchair came to public prominence after winning an Australian national TV competition, to which they submitted the demo of &lt;a href="https://genius.com/Silverchair-tomorrow-lyrics" rel="noopener" data-api_path="/songs/586400"&gt;“Tomorrow”&lt;/a&gt;.  The prize?  A professionally recorded song and music video for “Tomorrow”.&lt;/p&gt;\n\n&lt;p&gt;The record companies lapped it up and a bidding war began; Murmur Records, a subsidiary of Sony, signed Silverchair to a three album deal.  It was a clever move: “Tomorrow” stayed at &lt;a href="http://australian-charts.com/showitem.asp?interpret=Silverchair&amp;amp;titel=Tomorrow&amp;amp;cat=s" rel="noopener nofollow"&gt;number 1 on the Australian ARIA singles chart for 6 straight weeks&lt;/a&gt; , while the album that followed &lt;a href="https://genius.com/albums/Silverchair/Frogstomp" rel="noopener" data-api_path="/albums/115213"&gt;&lt;em&gt;Frogstomp&lt;/em&gt;&lt;/a&gt; debuted at &lt;a href="http://australian-charts.com/showitem.asp?interpret=Silverchair&amp;amp;titel=Frogstomp&amp;amp;cat=a" rel="noopener nofollow"&gt;number 1 on the Australian charts, remaining there for 3 weeks&lt;/a&gt;. The album eventually went 9x Platinum in Australia, 6x Platinum in New Zealand, and triple Platinum in both the USA and Canada.  &lt;em&gt;Frogstomp&lt;/em&gt; was also a critical success, winning five awards at the ARIA awards in 1995.  This is even more incredible when one takes into consideration that the album was recorded in 9 days.  The band followed this all up with tours supporting the &lt;a href="https://genius.com/artists/Red-hot-chili-peppers" rel="noopener" data-api_path="/artists/1460"&gt;Red Hot Chilli Peppers&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-ramones" rel="noopener" data-api_path="/artists/765"&gt;The Ramones&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;While their follow ups to &lt;em&gt;Frogstomp&lt;/em&gt; did not achieve its impressive sales, they were also major commercial successes:&lt;br&gt;\n&lt;a href="http://.../" rel="noopener nofollow"&gt;&lt;em&gt;Freak Show&lt;/em&gt;&lt;/a&gt; debuted at number 1 on the ARIA charts, and both it and &lt;a href="https://genius.com/albums/Silverchair/Neon-ballroom" rel="noopener" data-api_path="/albums/29624"&gt;Neon Ballroom&lt;/a&gt; achieved 5x platinum status in Australia, double platinum in New Zealand and platinum in both Canada and the USA.  Fourth album, &lt;a href="http://.../" rel="noopener nofollow"&gt;Diorama&lt;/a&gt; also won 5 awards at the ARIA, whilst their fifth and final album &lt;a href="http://.../" rel="noopener nofollow"&gt;&lt;em&gt;Young Modern&lt;/em&gt;&lt;/a&gt; won 6 ARIA awards.  &lt;em&gt;Young Modern&lt;/em&gt; was their 5th consecutive album to enter the charts at number 1, making them the first artist to accomplish this.&lt;/p&gt;\n\n&lt;p&gt;The band went into &lt;a href="http://chairpage.com/news/item/346/" rel="noopener nofollow"&gt;indefinite hibernation in 2011&lt;/a&gt;.  After 20 years of playing together, they were one of Australia’s most successful music exports and one of the few bands outside of Seattle to effectively emulate &lt;strong&gt;and continue&lt;/strong&gt; the success of the grunge/post-grunge sound.&lt;/p&gt;\n\n&lt;p&gt;List of band members:&lt;/p&gt;\n\n&lt;p&gt;Daniel Johns (guitar, lead vocals) 1992 – 2011&lt;br&gt;\nChris Joannou (bass guitar) 1992 – 2011&lt;br&gt;\nBen Gillies (drums) 1992 – 2011&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-police', 'annotations': {'description': '&lt;p&gt;The Police were an English rock band formed in London in 1977. For the majority of their history, the band consisted of &lt;a href="https://genius.com/artists/Sting" rel="noopener" data-api_path="/artists/679"&gt;Sting&lt;/a&gt; (lead vocals, bass), &lt;a href="https://genius.com/artists/Andy-summers" rel="noopener" data-api_path="/artists/54960"&gt;Andy Summers&lt;/a&gt; (guitar) and &lt;a href="https://genius.com/artists/Stewart-copeland" rel="noopener" data-api_path="/artists/54959"&gt;Stewart Copeland&lt;/a&gt; (drums). The Police became globally popular in the late 1970s and are generally regarded as one of the first new wave groups to achieve mainstream success, playing a style of rock that was influenced by punk, reggae, and jazz.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/John-newman', 'annotations': {'description': '&lt;p&gt;John Newman is an English soul singer with an unique voice. With a UK #1 thanks to &lt;a href="https://genius.com/John-newman-love-me-again-lyrics" rel="noopener" data-api_path="/songs/207291"&gt;“Love Me Again”&lt;/a&gt;, it’s sure that he’ll see some success in the United States.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jack-u', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Skrillex" rel="noopener" data-api_path="/artists/15496"&gt;Skrillex&lt;/a&gt; x &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Jack Ü is a duo consisting of long time friends &lt;a href="https://genius.com/artists/Skrillex" rel="noopener" data-api_path="/artists/15496"&gt;Skrillex&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt;. The project was first conceived in 2013. After playing live shows together for a long while prior, Jack Ü released their first official single “&lt;a href="https://genius.com/Jack-u-take-u-there-lyrics" rel="noopener" data-api_path="/songs/488007"&gt;Take Ü There&lt;/a&gt;” featuring vocals from Kiesza on September 17, 2014. Once the single had gained traction, on February 3, 2015, they announced that they would be working with &lt;a href="https://genius.com/artists/Missy-elliott" rel="noopener" data-api_path="/artists/1529"&gt;Missy Elliott&lt;/a&gt; on a remix of “&lt;a href="https://genius.com/Jack-u-take-u-there-missy-elliott-remix-lyrics" rel="noopener" data-api_path="/songs/707670"&gt;Take Ü There&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;The duo’s debut album “&lt;a href="https://genius.com/albums/Jack-u/Skrillex-and-diplo-present-jack-u" rel="noopener" data-api_path="/albums/120512"&gt;Skrillex and Diplo Present Jack Ü&lt;/a&gt;” was then released on 27 February 2015 and was met with overwhelmingly positive reviews whilst also winning a Grammy for Best Dance/Electronica Album &amp;amp; Best Dance Recording for &lt;a href="https://genius.com/Jack-u-where-are-u-now-lyrics" rel="noopener" data-api_path="/songs/713548"&gt;Where Are Ü Now&lt;/a&gt; with Pop musician &lt;a href="https://genius.com/artists/Justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The group is currently thought to be on a hiatus, although not disbanded completely. Although being officially released as a solo &lt;a href="https://genius.com/artists/diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt; record, &lt;a href="https://genius.com/Diplo-get-it-right-lyrics" rel="noopener" data-api_path="/songs/3314337"&gt;Get It Right&lt;/a&gt; features co-production from the other side of the duo in &lt;a href="https://genius.com/artists/Skrillex" rel="noopener" data-api_path="/artists/15496"&gt;Skrillex&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Skrillex &amp; Diplo']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alt-j', 'annotations': {'description': '&lt;p&gt;alt-J is an English indie rock band that consists of vocalist and guitarist Joe Newman, keyboardist and bassist Gus Unger-Hamilton and drummer Thom Green. Gwil Sainsbury was the band’s bassist before &lt;a href="http://www.nme.com/news/alt-j/74837" rel="noopener nofollow"&gt;leaving the band in early 2014&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Formed at Leeds University and signed to a label in Cambridge, UK, the band originally made songs on Garageband before releasing them under the pseudonym &lt;em&gt;∆&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;∆’s name takes a little explaining. Pronounced &lt;em&gt;alt-J&lt;/em&gt;, the delta sign is inserted when you press alt and J on a Mac keyboard.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cardi-b', 'annotations': {'description': '&lt;p&gt;Born on October 11, 1992, and raised in The Bronx, New York, Belcalis Marlenis Almánzar—under the stage name Cardi B—is a rapper and TV personality known for her friendly attitude. From 2015 to 2017 she starred on the TV show &lt;a href="http://www.imdb.com/title/tt1718437/" rel="noopener nofollow"&gt;&lt;em&gt;Love &amp;amp; Hip Hop&lt;/em&gt;&lt;/a&gt;, on which she landed a role after she became popular on the internet due to her personality and stripping endeavors. Following her departure from the series, she attained success in music with her chart-topping summer smash &lt;a href="https://genius.com/Cardi-b-bodak-yellow-lyrics" rel="noopener" data-api_path="/songs/3095483"&gt;“Bodak Yellow.”&lt;/a&gt; She is married to &lt;a href="https://genius.com/artists/Migos" rel="noopener" data-api_path="/artists/44080"&gt;Migos&lt;/a&gt; member &lt;a href="https://genius.com/artists/Offset" rel="noopener" data-api_path="/artists/88813"&gt;Offset&lt;/a&gt;. Cardi also gave birth to Kulture Kiari Cephus, Offset’s fourth child and Cardi’s first.&lt;/p&gt;\n\n&lt;p&gt;Cardi began her music career in 2015 and released &lt;a href="https://genius.com/albums/Cardi-b/Gangsta-bitch-music-vol-2" rel="noopener" data-api_path="/albums/325262"&gt;two installments&lt;/a&gt; of her &lt;a href="https://genius.com/albums/Cardi-b/Gangsta-bitch-music-vol-1" rel="noopener" data-api_path="/albums/569050"&gt;&lt;em&gt;Gangsta Bitch Music&lt;/em&gt;&lt;/a&gt; mixtapes series up until January 2017. The tapes went by relatively quietly but caught the attention of Atlantic Records, where &lt;a href="https://www.vibe.com/2017/03/cardi-b-atlantic-records/" rel="noopener nofollow"&gt;Cardi inked a deal&lt;/a&gt; in February of 2017. Shortly after, Cardi proved her worth when she entered the mainstream music scene with the release of her smash single “Bodak Yellow” on June 16, 2017. The single obtained the top spot on the &lt;em&gt;Billboard&lt;/em&gt; Hot 100, which marked the first time a female rapper achieved this since &lt;a href="https://genius.com/artists/Lauryn-hill" rel="noopener" data-api_path="/artists/448"&gt;Lauryn Hill&lt;/a&gt; did the same with &lt;a href="https://genius.com/Lauryn-hill-doo-wop-that-thing-lyrics" rel="noopener" data-api_path="/songs/822"&gt;“Doo Wop (That Thing)”&lt;/a&gt; in 1999. “Bodak Yellow” was certified 5x Multi-Platinum by the RIAA on February 28, 2018, for selling 5 million units in the US.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.billboard.com/articles/columns/hip-hop/8021967/cardi-b-offset-migos-relationship-timeline-engaged" rel="noopener nofollow"&gt;Speculations of a relationship&lt;/a&gt; between Cardi B and Offset arose in early 2017 after the two were repeatedly sighted together. On October 29, 2017, &lt;a href="https://www.billboard.com/articles/columns/hip-hop/8015031/cardi-b-migos-offset-engaged-powerhouse-philadelphia-bodak-yellow" rel="noopener nofollow"&gt;Offset proposed to Cardi&lt;/a&gt; on stage at a Philadelphia show. They have collaborated on what was at one point Cardi’s most popular single, &lt;a href="https://genius.com/Cardi-b-lick-remix-lyrics" rel="noopener" data-api_path="/songs/2992163"&gt;“Lick,”&lt;/a&gt; Migos\' &lt;a href="https://genius.com/Migos-nicki-minaj-and-cardi-b-motorsport-lyrics" rel="noopener" data-api_path="/songs/3291049"&gt;“MotorSport,”&lt;/a&gt; &lt;a href="https://genius.com/Quality-control-um-yea-lyrics" rel="noopener" data-api_path="/songs/3355240"&gt;“Um Yea,”&lt;/a&gt; and &lt;a href="https://genius.com/Cardi-b-drip-lyrics" rel="noopener" data-api_path="/songs/3626310"&gt;“Drip.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Following her engagement and the success of “Bodak Yellow,” Cardi released the follow-up single &lt;a href="https://genius.com/Cardi-b-bartier-cardi-lyrics" rel="noopener" data-api_path="/songs/3344378"&gt;“Bartier Cardi”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/21-savage" rel="noopener" data-api_path="/artists/430404"&gt;21 Savage&lt;/a&gt; just in time for Christmas. Cardi followed that up with features on the Multi-Platinum singles &lt;a href="https://genius.com/G-eazy-no-limit-lyrics" rel="noopener" data-api_path="/songs/3151905"&gt;“No Limit”&lt;/a&gt; with G-Eazy and A$AP Rocky, and &lt;a href="https://genius.com/Bruno-mars-finesse-remix-lyrics" rel="noopener" data-api_path="/songs/3411476"&gt;“Finesse (Remix)”&lt;/a&gt; with Bruno Mars. Cardi released her debut album, &lt;a href="https://genius.com/albums/Cardi-b/Invasion-of-privacy" rel="noopener" data-api_path="/albums/384474"&gt;&lt;em&gt;Invasion of Privacy&lt;/em&gt;&lt;/a&gt;, on April 6, 2018.&lt;/p&gt;\n\n&lt;p&gt;On January 2nd, 2018, Cardi B &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8085800/cardi-b-the-beatles-ashanti-hot-100-top-10" rel="noopener nofollow"&gt;became the third artist (and first rapper)&lt;/a&gt; to have her first three &lt;em&gt;Billboard&lt;/em&gt; Hot 100 entries (“Bodak Yellow,” “No Limit,” and “MotorSport”) in the chart’s top 10 simultaneously, joining only &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ashanti" rel="noopener" data-api_path="/artists/2675"&gt;Ashanti&lt;/a&gt; in achieving the feat.&lt;/p&gt;\n\n&lt;p&gt;She also became the first female rapper in history to achieve four #1 singles on the &lt;em&gt;Billboard&lt;/em&gt; Hot 100.&lt;/p&gt;', 'alternate_names': ['Belcalis Almánzar', 'Belcalis Marlenis Almánzar', 'Bacardi', 'Bardi']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/4-non-blondes', 'annotations': {'description': '&lt;p&gt;4 Non Blondes began in 1989 as four San Fransciso lesbians who built a local following &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;and got&lt;/a&gt; ‘a lot of press’ in the area, attracting a number of record labels who smelled a hit in their ballad “What’s Up?” – a song so powerful that bass player Christa Hillhouse actually &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;stopped having sex&lt;/a&gt; and ran down the hall when she first heard Linda Perry playing the song to express how much she liked it.&lt;/p&gt;\n\n&lt;p&gt;The band chose Interscope Records and recorded at a studio in Calabasas, California. During these sessions, drummer Wanda Day &lt;a href="https://en.slowradio.com/artists/4-non-blondes" rel="noopener nofollow"&gt;was fired&lt;/a&gt; due to drug problems (she later died in 1997) and guitarist Shaunna Hall left the band over differences with the album’s producer, who &lt;a href="https://web.archive.org/web/20121028192212/http://www.sfbg.com/40/01/noise_miss_understood.html" rel="noopener nofollow"&gt;told Day’s replacement&lt;/a&gt; “the record is not happening with your guitar player”.&lt;/p&gt;\n\n&lt;p&gt;In 1992, Interscope released “Dear Mr President” as the album’s first single. It found small success in the UK and reached the bottom of the top 40 in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=4+Non+Blondes&amp;amp;titel=Dear+Mr%2E+President&amp;amp;cat=s" rel="noopener nofollow"&gt;New Zealand&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;When “What’s Up?” was released as the second single, the band rocketed into international stardom. It &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=4+Non+Blondes&amp;amp;titel=What%27s+Up%3F&amp;amp;cat=s" rel="noopener nofollow"&gt;topped the charts&lt;/a&gt; in seven countries, reached #2 in three more (including &lt;a href="http://www.officialcharts.com/artist/28984/4-non-blondes/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;) and peaked at #14 in the US, &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;making them&lt;/a&gt; the first openly lesbian group to reach the top 40 there.&lt;/p&gt;\n\n&lt;p&gt;“Spaceman” was the group’s third single. It &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=4+Non+Blondes&amp;amp;titel=Spaceman&amp;amp;cat=s" rel="noopener nofollow"&gt;reached the top 40&lt;/a&gt; in six countries overseas and would be their last to chart anywhere. “Drifting” was the album’s fourth and final single, aside from the &lt;a href="https://www.discogs.com/4-Non-Blondes-Superfly/release/7263997" rel="noopener nofollow"&gt;Spain-only release&lt;/a&gt; of “Superfly”.&lt;/p&gt;\n\n&lt;p&gt;Two more songs were released in 1994 on film soundtracks as the band began work on a follow-up album. However, Perry &lt;a href="https://web.archive.org/web/20121028192212/http://www.sfbg.com/40/01/noise_miss_understood.html" rel="noopener nofollow"&gt;began writing&lt;/a&gt; melancholy music in the direction of Pink Floyd’s &lt;em&gt;Dark Side of the Moon&lt;/em&gt;, the rest of the band wanted to continue making rock songs like “Superfly”, and the label &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;kept pressuring them&lt;/a&gt; to come up with “What’s Up, version 2”.&lt;/p&gt;\n\n&lt;p&gt;Perry left by the end of the year and released two solo albums on Interscope Records in 1996 and 1999. She claims to have &lt;a href="https://web.archive.org/web/20121028192212/http://www.sfbg.com/40/01/noise_miss_understood.html" rel="noopener nofollow"&gt;told her A&amp;amp;R rep&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“I will kill myself if you do not let me off this label. I am so unhappy with you guys. I will never write you another ‘What’s Up’, so why would you hold onto me?”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Perry got her wish and was released from Interscope due to poor sales of those solo albums. By then, she’d blown through all of the money she’d made from 4 Non Blondes. But three weeks after becoming broke, P!nk seeked her out and they began a lucrative songwriting partnership beginning with the Perry-penned #4 smash hit &lt;a href="https://genius.com/P-nk-get-the-party-started-lyrics" rel="noopener" data-api_path="/songs/195076"&gt;“Get The Party Started”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2011, Perry &lt;a href="https://www.rollingstone.com/music/music-news/linda-perry-forms-new-band-admits-she-never-liked-4-non-blondes-234661/" rel="noopener nofollow"&gt;told Rolling Stone&lt;/a&gt; she would not be performing “What’s Up?” or any other 4 Non Blonde songs with her new band Deep Dark Robot because she didn’t like &lt;em&gt;Bigger, Better, Faster, More&lt;/em&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wasn’t really a big fan of my band. I didn’t like the record at all. ‘Drifting’ was the only song I loved. I did love ‘What’s Up?’ but I hated the production. When I heard our record for the first time I cried. It didn’t sound like me. It made me belligerent and a real asshole. I wanted to say, ‘We’re a fucking, bad-ass cool band. We’re not that fluffy polished bullshit that you’re listening to.’ It was really difficult.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Rob-thomas', 'annotations': {'description': '&lt;p&gt;The lead singer of Alt-Rock band &lt;a href="https://genius.com/artists/Matchbox-twenty" rel="noopener" data-api_path="/artists/71892"&gt;Matchbox Twenty&lt;/a&gt;, best known for the 1999 hit &lt;a href="https://genius.com/Santana-smooth-lyrics" rel="noopener" data-api_path="/songs/114915"&gt;‘Smooth’&lt;/a&gt;, his collaboration with &lt;a href="https://genius.com/artists/Santana" rel="noopener" data-api_path="/artists/8439"&gt;Santana&lt;/a&gt;, has won a total of 3 Grammy Awards, provided vocals for 8 albums total and written songs for artists such as Mick Jagger and Pat Green.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Rob-thomas/Chip-tooth-smile" rel="noopener" data-api_path="/albums/505362"&gt;‘Chip Tooth Smile’&lt;/a&gt;, released April 2019, has been compared to Bruce Springsteen’s work in both sound and design, and peaked at 13 on Billboard 200.&lt;/p&gt;\n\n&lt;p&gt;Thomas has also founded the charity &lt;a href="https://www.sidewalkangelsfoundation.org/" rel="noopener nofollow"&gt;Sidewalk Angels&lt;/a&gt; with his wife Marisol, which provides funds for no-kill animal shelters and rescue organizations.&lt;/p&gt;', 'alternate_names': ['Robert K. Thomas', 'Robert Kelly Thomas']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Joan-jett-and-the-blackhearts', 'annotations': {'description': '&lt;p&gt;After splitting with &lt;a href="https://genius.com/artists/The-runaways" rel="noopener" data-api_path="/artists/37911"&gt;The Runaways&lt;/a&gt;, and releasing her first solo album, &lt;a href="https://genius.com/artists/Joan-jett" rel="noopener" data-api_path="/artists/63682"&gt;Joan Jett&lt;/a&gt; placed an ad in LA Weekly looking for bandmates. Gary Ryan, Eric Ambel, and Danny “Furious” O\'Brien joined her, creating the orginial Blackhearts lineup.&lt;br&gt;\nAfter their initial tour though, O\'Brien was replaced with Lee Crystal.&lt;/p&gt;\n\n&lt;p&gt;Early on, keeping the band afloat was not easy. Joan and producer &lt;a href="https://genius.com/artists/Kenny-laguna" rel="noopener" data-api_path="/artists/73857"&gt;Kenny Laguna&lt;/a&gt; struggled, sometimes selling copies of albums from the trunk of his car. Eventually unable to keep up with the demand for Joan Jett’s album, they signed with Boardwalk Records.&lt;/p&gt;\n\n&lt;p&gt;In 1981 the band released their first album together, &lt;a href="https://genius.com/albums/Joan-jett-and-the-blackhearts/I-love-rock-n-roll" rel="noopener" data-api_path="/albums/46351"&gt;&lt;em&gt;I Love Rock N Roll&lt;/em&gt;&lt;/a&gt;. The band’s line up has continued to change over the years.&lt;/p&gt;\n\n&lt;p&gt;To date the band has ten studio albums, with two additional albums released under just “Joan Jett.”&lt;br&gt;\nTheir current line up is Joan Jett, Dougie Needles, Hal B. Selzer, and Thommy Price.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Rod-stewart', 'annotations': {'description': '&lt;p&gt;A legend in the rock-n-roll genre, Roderick “Rod” Stewart has sold over 100 million records worldwide with a career spanning over 60 years. He has had 6 consecutive number one albums in the UK, and his tally of 62 UK hit singles includes 31 that reached the top ten, six of which gained the #1 position, including has had 16 top ten singles in the US, with four reaching #1 on the Billboard Hot 100.&lt;/p&gt;', 'alternate_names': ['Roderick Stewart', 'Roderick David Stewart']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cobra-starship', 'annotations': {'description': '&lt;p&gt;Cobra Starship was an American dance-pop band originating from New York City. The band originally started as a solo project by frontman &lt;a href="https://genius.com/artists/Gabe-saporta" rel="noopener" data-api_path="/artists/39647"&gt;Gabe Saporta&lt;/a&gt;, previously of &lt;a href="https://genius.com/artists/Midtown" rel="noopener" data-api_path="/artists/365306"&gt;Midtown&lt;/a&gt;. Saporta has embezzled that the idea of Cobra Starship was formed after Saporta went on a vision quest in the Arizona deserts and began building the idea for a synthpop band, however he has stated in the past that this was just a joke.&lt;/p&gt;\n\n&lt;p&gt;The band started off when Saporta posted a parody of &lt;a href="https://genius.com/artists/Gwen-stefani" rel="noopener" data-api_path="/artists/1893"&gt;Gwen Stefani’s&lt;/a&gt; &lt;a href="https://genius.com/Gwen-stefani-hollaback-girl-lyrics" rel="noopener" data-api_path="/songs/4385"&gt;“Hollaback Girl”&lt;/a&gt; titled &lt;a href="https://genius.com/Cobra-starship-hollaback-boy-lyrics" rel="noopener" data-api_path="/songs/461691"&gt;“Hollaback Boy”&lt;/a&gt;, which become popular on the internet. This eventually led to Cobra Starship being signed to Decaydance Records, an imprint of Fueled By Ramen owned by &lt;a href="https://genius.com/artists/Fall-out-boy" rel="noopener" data-api_path="/artists/7811"&gt;Fall Out Boy&lt;/a&gt; bassist &lt;a href="https://genius.com/artists/Pete-wentz" rel="noopener" data-api_path="/artists/214001"&gt;Pete Wentz&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band’s 2006 debut album &lt;a href="https://genius.com/albums/Cobra-starship/While-the-city-sleeps-we-rule-the-streets" rel="noopener" data-api_path="/albums/106746"&gt;&lt;em&gt;While The City Sleeps, We Rule The Streets&lt;/em&gt;&lt;/a&gt; was all written, recorded, and co-produced by Saporta, with production help from &lt;a href="https://genius.com/artists/Ryland-blackinton" rel="noopener" data-api_path="/artists/648572"&gt;Ryland Blackinton&lt;/a&gt; and &lt;a href="https://genius.com/artists/Alex-suarez" rel="noopener" data-api_path="/artists/451305"&gt;Alex Suarez&lt;/a&gt;, who  at the time were both writing music for &lt;a href="https://genius.com/artists/This-is-ivy-league" rel="noopener" data-api_path="/artists/354914"&gt;This Is Ivy League&lt;/a&gt;. The two of them joined the band shortly after the debut was released. The song &lt;a href="https://genius.com/Cobra-starship-snakes-on-a-plane-bring-it-lyrics" rel="noopener" data-api_path="/songs/461649"&gt;“Snakes On A Plane (Bring It)”&lt;/a&gt;, which was included on the album, was written for the 2006 film &lt;a href="https://en.wikipedia.org/wiki/Snakes_on_a_Plane" rel="noopener nofollow"&gt;&lt;em&gt;Snakes On A Plane&lt;/em&gt;&lt;/a&gt; and became a minor hit. The song featured the vocal talents of &lt;a href="https://genius.com/artists/Maja-ivarsson" rel="noopener" data-api_path="/artists/73113"&gt;Maja Ivarsson&lt;/a&gt; of The Sounds, &lt;a href="https://genius.com/artists/William-beckett" rel="noopener" data-api_path="/artists/219977"&gt;William Beckett&lt;/a&gt; of &lt;a href="https://genius.com/artists/The-academy-is" rel="noopener" data-api_path="/artists/174495"&gt;The Academy Is…&lt;/a&gt; and &lt;a href="https://genius.com/artists/Travie-mccoy" rel="noopener" data-api_path="/artists/667"&gt;Travie McCoy&lt;/a&gt; of &lt;a href="https://genius.com/artists/Gym-class-heroes" rel="noopener" data-api_path="/artists/1083"&gt;Gym Class Heroes&lt;/a&gt;. Beckett also helped co-wrote the single.&lt;/p&gt;\n\n&lt;p&gt;After the album was released, Saporta further enlisted the help of &lt;a href="https://genius.com/artists/Nate-novarro" rel="noopener" data-api_path="/artists/1147451"&gt;Nate Novarro&lt;/a&gt; and &lt;a href="https://genius.com/artists/Vicky-t" rel="noopener" data-api_path="/artists/1053219"&gt;Victoria Asher&lt;/a&gt; to become part of the band. Cobra’s 2007 sophomore album &lt;a href="https://genius.com/albums/Cobra-starship/Viva-la-cobra" rel="noopener" data-api_path="/albums/47156"&gt;&lt;em&gt;¡Viva La Cobra!&lt;/em&gt;&lt;/a&gt; was produced by Fall Out Boy vocalist &lt;a href="https://genius.com/artists/Patrick-stump" rel="noopener" data-api_path="/artists/6343"&gt;Patrick Stump&lt;/a&gt; and was the first album the whole band was included on. The band went on to make 2009’s &lt;a href="https://genius.com/albums/Cobra-starship/Hot-mess" rel="noopener" data-api_path="/albums/106747"&gt;&lt;em&gt;Hot Mess&lt;/em&gt;&lt;/a&gt;, their best-selling album, and their final album &lt;a href="https://genius.com/albums/Cobra-starship/Night-shades" rel="noopener" data-api_path="/albums/13481"&gt;&lt;em&gt;Night Shades&lt;/em&gt;&lt;/a&gt; in 2011. They announced their dissolution on November 10, 2015.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Scissor-sisters', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/Scissor_Sisters" rel="noopener nofollow"&gt;Scissor Sisters&lt;/a&gt; are an American pop group formed in 2001. Forged in the “gay nightlife scene of New York,” the band took its name from the female same-sex sexual activity tribadism. Its members include Jake Shears and Ana Matronic as vocalists, Babydaddy as a multi-instrumentalist, Del Marquis as the lead guitarist/bassist, and Randy Real as the drummer. Scissor Sisters incorporate diverse and innovative styles in their music, but tend to sway towards pop rock, glam rock, nu-disco, and electroclash.&lt;/p&gt;\n\n&lt;p&gt;Scissor Sisters have performed around the world and become well-recognized for their controversial and transgressive live performances. They’ve collaborated with a number of other well-known pop musicians, including Elton John and Kylie Minogue. In 2004, U2’s lead vocalist Bono described Scissor Sisters as “the best pop group in the world”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Hard-fi', 'annotations': {'description': '&lt;p&gt;Hard-Fi are an English rock band formed in Staines, Surrey in 2003. The band’s members are Richard Archer (lead vocals and guitar), Kai Stephens (bass guitar and backing vocals) and Steve Kemp (drums and backing vocals).&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tom-petty-and-the-heartbreakers', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Tom-petty" rel="noopener" data-api_path="/artists/20785"&gt;Tom Petty&lt;/a&gt; and the Heartbreakers – an L.A.-based gang of sharp-dressed garage-rock refugees from Gainsville, Florida – released their debut LP in November 1976, featuring two tracks which are now part of their long list of hits, &lt;a href="https://genius.com/Tom-petty-and-the-heartbreakers-breakdown-lyrics" rel="noopener" data-api_path="/songs/1624339"&gt;“Breakdown”&lt;/a&gt; and &lt;a href="https://genius.com/Tom-petty-and-the-heartbreakers-american-girl-lyrics" rel="noopener" data-api_path="/songs/110440"&gt;“American Girl.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Since that first LP in ‘76, the band’s style  has epitomized and largely defined the American &lt;a href="http://80music.about.com/od/genresmovements/p/heartlandrock.htm" rel="noopener nofollow"&gt;“heartland rock” movement&lt;/a&gt; – a vintage-guitar twang, hard lyric truth, and searing vocal attitude.&lt;/p&gt;\n\n&lt;p&gt;Tom Petty and the Heartbreakers have been nominated for &lt;a href="http://www.grammy.com/artist/tom-petty-the-heartbreakers" rel="noopener nofollow"&gt;17 Grammy awards&lt;/a&gt; and sold more than 80 million records worldwide, making them one of the world’s &lt;a href="http://www.belpernews.co.uk/what-s-on/out-about/top-talent-at-the-flowerpot-1-5359458" rel="noopener nofollow"&gt;best-selling bands of all-time.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Their album &lt;em&gt;Hypnotic Eye,&lt;/em&gt; released on July 29th, 2014, represents the band’s &lt;a href="http://www.billboard.com/articles/columns/chart-beat/6207083/tom-petty-1-album-first-billboard-200-hypnotic-eye-heartbreakers" rel="noopener nofollow"&gt;first number one album&lt;/a&gt; to debut on the &lt;em&gt;Billboard 200&lt;/em&gt; charts after &lt;a href="http://www.forbes.com/sites/hughmcintyre/2014/08/07/after-37-years-tom-petty-and-the-heartbreakers-nab-first-1-album/#20077d9f64de" rel="noopener nofollow"&gt;37 years&lt;/a&gt; of hit singles.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dr-alban', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-human-league', 'annotations': {'description': '&lt;p&gt;The Human League are a synth pop band from Sheffield, England, formed in 1977. They generated a string of synthesizer-backed dance pop hits throughout the 80s. David Bowie dubbed the group “the sound of the future” in 1981.&lt;/p&gt;\n\n&lt;p&gt;The band is best known for its third studio album released in 1981, &lt;a href="https://genius.com/albums/The-human-league/Dare" rel="noopener" data-api_path="/albums/111021"&gt;&lt;em&gt;Dare!&lt;/em&gt;&lt;/a&gt; The fourth single from &lt;em&gt;Dare&lt;/em&gt;, &lt;a href="https://genius.com/The-human-league-dont-you-want-me-lyrics" rel="noopener" data-api_path="/songs/501821"&gt;“Don’t You Want Me,”&lt;/a&gt; catapulted to #1 in the UK and US.&lt;/p&gt;\n\n&lt;p&gt;Phil Oakey is the only core member of the group. The band’s first incarnation was as an arty all-male synthesizer group, composed of Oakey, Martyn Ware, and Ian Craig Marsh. In the 1980s, Ware and Marsh left the group after continued conflicts with Oakey—they went on to form &lt;a href="https://genius.com/artists/Heaven-17" rel="noopener" data-api_path="/artists/100911"&gt;Heaven 17&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Oakey then recruited two 17-year-old girls, Susan Ann Sulley and Joanne Catherall to be background singers and dancers after his then-girlfriend saw them performing a complex routine to Visage’s &lt;a href="https://genius.com/Visage-fade-to-grey-lyrics" rel="noopener" data-api_path="/songs/321565"&gt;“Fade To Grey”&lt;/a&gt; in a local nightclub. Since 1987, The Human League has remained a trio composed of Oakey, Sulley and Catherall.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Billy-joel', 'annotations': {'description': '&lt;p&gt;Billy Joel (born May 9, 1949) is an American pianist, singer/songwriter, producer, and composer who ranks as one of the most iconic and influential artists from the mid to late 20th century.&lt;/p&gt;\n\n&lt;p&gt;He is the sixth best-selling recording artist and the third best-selling solo artist in the United States, wrote a total of 121 songs that achieved 33 Top 40 hits in the US, a 6-time Grammy winner out of 23 nominations, and one of the best-selling recording artists of all-time with 150 million albums sold worldwide.&lt;/p&gt;\n\n&lt;p&gt;Joel has since continued to tour and sells out in stadiums globally. He also delved into classical music composition, arranging an album, &lt;em&gt;Fantasies and Delusions&lt;/em&gt; released in 2001, opened a motorcycle shop on his native Long Island, and is now regarded as one of the most influential musicians of the 20th century. Among his numerous accolades, he was inducted in the Songwriters Hall of Fame in 1992, bestowed with the Kennedy Center Honors in 2013, and awarded the Gershwin Prize for Popular Song by the Library of Congress in 2014.&lt;/p&gt;', 'alternate_names': ['William Joel', 'William M. Joel', 'William Martin Joel']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Steve-edwards', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ragnbone-man', 'annotations': {'description': '&lt;p&gt;Neo-blues &amp;amp; soul singer Rory Graham was born and raised in the small town of Uckfield in the south-east of England.&lt;/p&gt;\n\n&lt;p&gt;Growing up on early blues and soul, he taught himself to sing by mimicking &lt;a href="https://genius.com/artists/Muddy-waters" rel="noopener" data-api_path="/artists/65145"&gt;Muddy Waters&lt;/a&gt;, before discovering hip-hop. Starting out in music at age 15 as an MC with a local drum\'n\'bass crew, he progressed to hip-hop open-mike nights in nearby Brighton, where he later moved, teaming up with local hip-hop crew the Rum Committee. At the same time, he continued to practice singing in private. Aged 19, he took part in a blues open-mike night at the encouragement of his father, and the rapturous response to his singing boosted his confidence enough to make him consider it as a career rather than rapping.&lt;/p&gt;\n\n&lt;p&gt;Graham’s moniker came from his childhood memories of he and his grandfather watching repeats of the British ‘60s sitcom &lt;a href="https://www.imdb.com/title/tt0057785/" rel="noopener nofollow"&gt;Steptoe and Son&lt;/a&gt;, about a pair of rag-and-bone men – dirt-poor street collectors who in bygone days would go around gathering up rubbish in an attempt to find useful rags, bones, and scrap metal that could be sold to merchants for a few pennies.&lt;/p&gt;\n\n&lt;p&gt;He released his debut EP, &lt;a href="https://genius.com/albums/Ragnbone-man/Bluestown-ep" rel="noopener" data-api_path="/albums/313556"&gt;&lt;em&gt;Bluestown&lt;/em&gt;&lt;/a&gt;, in 2012, followed by several EPs in the next few years, the highest profile of which were &lt;a href="https://genius.com/albums/Ragnbone-man/Wolves-ep" rel="noopener" data-api_path="/albums/255214"&gt;&lt;em&gt;Wolves&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Ragnbone-man/Disfigured-ep" rel="noopener" data-api_path="/albums/122041"&gt;&lt;em&gt;Disfigured&lt;/em&gt;&lt;/a&gt; in 2015. His early releases were more acoustic, but evolved toward a more electronic sound with hip-hop-styled beats. In 2013, he signed a publishing deal with &lt;a href="https://genius.com/artists/Warner-chappell-music" rel="noopener" data-api_path="/artists/1152704"&gt;Warner Chappell&lt;/a&gt;, allowing him to give up his day job as a carer for people with Asperger’s Syndrome. His increasing profile brought him to the attention of &lt;a href="https://genius.com/artists/Columbia-records" rel="noopener" data-api_path="/artists/30372"&gt;Columbia Records&lt;/a&gt;, who signed him in 2016. His debut single for Columbia, “&lt;a href="https://genius.com/Ragnbone-man-human-lyrics" rel="noopener" data-api_path="/songs/2825019"&gt;Human&lt;/a&gt;,” dropped in September of that year and was a big hit in several European countries, topping the charts in Germany. The single was taken from his &lt;a href="https://genius.com/albums/Ragnbone-man/Human" rel="noopener" data-api_path="/albums/286794"&gt;debut album&lt;/a&gt;, which released the following year.&lt;/p&gt;', 'alternate_names': ['Rory Charles Graham', 'Rory Graham', 'Rag ’n’ Bone']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kool-moe-dee', 'annotations': {'description': '&lt;p&gt;Kool Moe Dee is one of rap’s earliest stars. Starting his career in the early ‘70s, he formed the legendary Treacherous Three with DJ Easy Lee, Special K, and L.A. Sunshine.&lt;/p&gt;\n\n&lt;p&gt;After the group’s first break-up in ‘84, Kool Moe Dee went solo, establishing himself as one of hip-hop’s first big stars with his breakout solo album, &lt;a href="https://genius.com/albums/Kool-moe-dee/How-ya-like-me-now" rel="noopener" data-api_path="/albums/4541"&gt;&lt;em&gt;“How Ya Like Me Now?”&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He became one of the first hip-hop acts to get a Grammy, and became the first to perform at the Grammy’s.&lt;/p&gt;\n\n&lt;p&gt;Kool Moe Dee is now mostly remembered for his feud with &lt;a href="https://genius.com/artists/Ll-cool-j" rel="noopener" data-api_path="/artists/848"&gt;LL Cool J&lt;/a&gt;, where they exchanged musical punches that entertained hip-hop heads for years, with the winner of the feud still being debated to this day.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Fergie', 'annotations': {'description': '&lt;p&gt;Fergie Duhamel, born Stacy Ann Ferguson, started her career in television. She starred in six seasons of &lt;em&gt;Kids Incorporated&lt;/em&gt; before leaving the show in 1989. Fergie would venture through a couple of gigs including music group &lt;a href="https://genius.com/artists/Wild-orchid" rel="noopener" data-api_path="/artists/360903"&gt;Wild Orchid&lt;/a&gt; before landing success with one of the most recognizable band of the 2000s: &lt;a href="https://genius.com/artists/Black-eyed-peas" rel="noopener" data-api_path="/artists/425"&gt;Black Eyed Peas&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Joining the band in 2003, with her first feature on hit single &lt;a href="https://genius.com/Black-eyed-peas-where-is-the-love-lyrics" rel="noopener" data-api_path="/songs/10680"&gt;“Where is the Love?”"&lt;/a&gt;, Fergie, &lt;a href="https://genius.com/artists/William" rel="noopener" data-api_path="/artists/713"&gt;\u200bwill.i.am&lt;/a&gt;, &lt;a href="https://genius.com/artists/Apldeap" rel="noopener" data-api_path="/artists/47060"&gt;Apl.de.ap&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Taboo" rel="noopener" data-api_path="/artists/5181"&gt;Taboo&lt;/a&gt; reached mainstream success as the Black Eyed Peas grew in renown and popularity as a pop-hiphop group. After releasing the commercially successful album &lt;em&gt;&lt;a href="https://genius.com/albums/Black-eyed-peas-monkey-business" rel="noopener"&gt;Monkey Business&lt;/a&gt;&lt;/em&gt; with the Black Eyed Peas in mid-2005, Fergie ventured into her solo career with a debut album that continues to be her greatest work: &lt;em&gt;&lt;a href="https://genius.com/albums/The-Dutchess" rel="noopener"&gt;The Dutchess&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Released in 2006, the record brought Fergie five multi-platinum singles, including &lt;a href="https://genius.com/Fergie-glamorous-lyrics" rel="noopener" data-api_path="/songs/32326"&gt;“Glamorous”&lt;/a&gt;, &lt;a href="https://genius.com/Fergie-big-girls-dont-cry-lyrics" rel="noopener" data-api_path="/songs/268843"&gt;“Big Girls Don’t Cry”&lt;/a&gt;, and &lt;a href="https://genius.com/Fergie-fergalicious-lyrics" rel="noopener" data-api_path="/songs/32275"&gt;“Fergalicious”&lt;/a&gt;. The latter has catapulted Fergie into pop culture relevance, and the term “fergalicious” or some variation of it is never put to rest in American pop culture.&lt;/p&gt;\n\n&lt;p&gt;With the Black Eyed Peas, Fergie climbed to even greater heights, with singles &lt;a href="https://genius.com/Black-eyed-peas-boom-boom-pow" rel="noopener"&gt;“Boom Boom Pow”&lt;/a&gt; and &lt;a href="https://genius.com/Black-eyed-i-gotta-feeling" rel="noopener"&gt;“I Gotta Feeling”&lt;/a&gt; dominating 2009.&lt;/p&gt;\n\n&lt;p&gt;Fergie later got a &lt;a href="http://www.dailymail.co.uk/tvshowbiz/article-2040842/Fergie-unveils-wax-figure-doppelg-nger-Madame-Tussauds.html" rel="noopener nofollow"&gt;Madame Tussauds figure&lt;/a&gt;, headlined the &lt;a href="https://www.youtube.com/watch?v=11T2B9NH8yM" rel="noopener nofollow"&gt;Super Bowl halftime show with the rest of the band&lt;/a&gt;; and &lt;a href="https://www.avon.com/product/39692/outspoken-by-fergie-eau-de-parfum-spray?setlang=en" rel="noopener nofollow"&gt;released her own fragrance &lt;em&gt;Outspoken&lt;/em&gt;&lt;/a&gt;. She returned to her solo career in 2014 with &lt;a href="https://genius.com/Fergie-la-love-la-la-lyrics" rel="noopener" data-api_path="/songs/520238"&gt;“L.A. LOVE”&lt;/a&gt; and &lt;a href="https://genius.com/Fergie-milf-lyrics" rel="noopener" data-api_path="/songs/2710603"&gt;“M.I.L.F. $”&lt;/a&gt; in 2016.&lt;/p&gt;\n\n&lt;p&gt;Fergie has fearlessly imprinted the face of modern pop music. The world can only wait to see what she will conquer next.&lt;/p&gt;', 'alternate_names': ['Stacy Ann Ferguson', 'Stacy Ferguson']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mya', 'annotations': {'description': '&lt;p&gt;Mýa Marie Harrison is a Grammy-winning R&amp;amp;B artist, songwriter, and actress. In &lt;a href="https://en.wikipedia.org/wiki/M%C3%BDa" rel="noopener nofollow"&gt;1998, she signed with Interscope Records&lt;/a&gt; and released her debut album the same year. The album was a commercial success in the United States and produced the top ten single “It’s All About Me”. &lt;em&gt;Fear of Flying&lt;/em&gt;, her second album, was released in 2000 and became a worldwide success, boosted by the success of its second single “Case of the Ex”.&lt;/p&gt;\n\n&lt;p&gt;In 2003, Mýa released her third album; &lt;em&gt;Moodring&lt;/em&gt;. It peaked at #3 on the Billboard 200 and featured a range of new sounds such as techno, pop rock, and soul. In 2005, Mýa left &lt;a href="https://en.wikipedia.org/wiki/M%C3%BDa#1998%E2%80%932001:_M%C3%BDa,_Fear_of_Flying_and_Lady_Marmalade" rel="noopener nofollow"&gt;A&amp;amp;M Records in exchange for Universal Motown.&lt;/a&gt; Later in 2007, she released he album &lt;em&gt;Liberation&lt;/em&gt;, but only in Japan. In 2008, she &lt;a href="https://en.wikipedia.org/wiki/M%C3%BDa#1998%E2%80%932001:_M%C3%BDa,_Fear_of_Flying_and_Lady_Marmalade" rel="noopener nofollow"&gt;left Universal Motown and moved to Japanese record label, Manhattan Records.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;There, she released her fifth studio album &lt;em&gt;Sugar &amp;amp; Spice&lt;/em&gt;. Later on &lt;a href="https://en.wikipedia.org/wiki/K.I.S.S._%28Keep_It_Sexy_%26_Simple" rel="noopener nofollow"&gt;she founded her own record label&lt;/a&gt; and released the album &lt;em&gt;K.I.S.S.: Keep It Sexy &amp;amp; Simple&lt;/em&gt; in 2011(in both the US and Japan). Her eighth album, &lt;em&gt;Smoove Jones&lt;/em&gt;,  debuted at &lt;a href="https://en.wikipedia.org/wiki/M%C3%BDa#2014%E2%80%932017:_EP_series_and_Smoove_Jones" rel="noopener nofollow"&gt;number thirty on Billboard’s Top R&amp;amp;B/Hip-Hop Albums chart and received a Grammy nomination.&lt;/a&gt; Her recent project &lt;em&gt;T.K.O. (The Knock Out)&lt;/em&gt; was released in 2018 on the same day of her debut album.&lt;/p&gt;', 'alternate_names': ['Mýa Harrison', 'Mýa M. Harrison', 'Mýa Marie Harrison']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Fun', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Fun&lt;/strong&gt; (often stylized as &lt;strong&gt;fun.&lt;/strong&gt;) is an American indie pop band comprising of &lt;a href="https://genius.com/artists/Nate-ruess" rel="noopener" data-api_path="/artists/30424"&gt;Nate Ruess&lt;/a&gt;, formerly of &lt;a href="https://genius.com/artists/The-format" rel="noopener" data-api_path="/artists/61116"&gt;The Format&lt;/a&gt;, Andrew Dost (&lt;a href="https://genius.com/artists/Anathallo" rel="noopener" data-api_path="/artists/214530"&gt;Anathallo&lt;/a&gt;) and &lt;a href="https://genius.com/artists/Jack-antonoff" rel="noopener" data-api_path="/artists/264329"&gt;Jack Antonoff&lt;/a&gt; (&lt;a href="https://genius.com/artists/Steel-train" rel="noopener" data-api_path="/artists/357760"&gt;Steel Train&lt;/a&gt;). Over the course of seven years, fun. has released two albums: their debut &lt;em&gt;Aim and Ignite&lt;/em&gt; in 2009 and their latest &lt;em&gt;Some Nights&lt;/em&gt; in February, 2012.&lt;/p&gt;\n\n&lt;p&gt;Armed with anthemic, towering lyrics and electric vocals, fun. is among the most recent crop of indie-pop bands to cross into the mainstream. fun.’s success is attributed most majorly to the youthful “&lt;a href="https://genius.com/Fun-we-are-young-lyrics" rel="noopener" data-api_path="/songs/63985"&gt;We Are Young&lt;/a&gt;” featuring Janelle Monáe. A smash on the Billboard Hot 100 after a &lt;a href="https://www.youtube.com/watch?v=9bcYwfsb8rw" rel="noopener nofollow"&gt;memorable cover&lt;/a&gt; on &lt;em&gt;Glee&lt;/em&gt;, the song is arguably fun.’s most defining track. Yet their discography has layers of depth past “Young” – the experimental “&lt;a href="https://genius.com/Fun-stars-lyrics" rel="noopener" data-api_path="/songs/71574"&gt;Stars&lt;/a&gt;,” the existential “&lt;a href="https://genius.com/Fun-some-nights%20lyrics" rel="noopener"&gt;Some Nights&lt;/a&gt;” (which also received significant commercial success), the nihilistic “&lt;a href="https://genius.com/Fun-barlights-lyrics" rel="noopener" data-api_path="/songs/195977"&gt;Barlights&lt;/a&gt;,” the persevering “&lt;a href="https://genius.com/Fun-carry-on-lyrics" rel="noopener" data-api_path="/songs/71564"&gt;Carry On&lt;/a&gt;” – fun. is definitely a lyrically poignant and musically delectable group.&lt;/p&gt;\n\n&lt;p&gt;As of 2015, the group is on hiatus, with each member off working on solo projects. Lead singer Ruess released his solo debut, &lt;em&gt;Grand Romantic&lt;/em&gt;, in June of the same year; guitarist Antonoff formed &lt;a href="https://genius.com/artists/Bleachers" rel="noopener" data-api_path="/artists/158659"&gt;Bleachers&lt;/a&gt; and released &lt;em&gt;Strange Desire&lt;/em&gt; in July 2014; Dost composed the soundtrack to the Jack-Black-led comedy, &lt;em&gt;The D Train&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Spacehog', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sir-mix-a-lot', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Anthony Ray', 'Anthony L. Ray']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jamie-foxx', 'annotations': {'description': '&lt;p&gt;Eric Marlon Bishop (born December 13, 1967), known professionally by his stage name Jamie Foxx, is an American actor, singer, songwriter and comedian.&lt;/p&gt;\n\n&lt;p&gt;Although his acting career overthrew his musical career, it was still loaded with a ton of hit singles, most popular of which being “Just Like Me” featuring &lt;a href="https://genius.com/artists/ti" rel="noopener" data-api_path="/artists/85"&gt;T.I.&lt;/a&gt;, “Blame It” featuring &lt;a href="https://genius.com/artists/t-pain" rel="noopener" data-api_path="/artists/337"&gt;T-Pain&lt;/a&gt;, “She Got Her Own” featuring &lt;a href="https://genius.com/artists/ne-yo" rel="noopener" data-api_path="/artists/375"&gt;Ne-Yo&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/artists/fabolous" rel="noopener" data-api_path="/artists/3"&gt;Fabolous&lt;/a&gt;, and “Fall For Your Type” featuring &lt;a href="https://genius.com/artists/drake" rel="noopener" data-api_path="/artists/130"&gt;Drake&lt;/a&gt;. He also made an iconic appearance on &lt;a href="https://genius.com/artists/kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt;’s single, “Gold Digger” in 2005.&lt;/p&gt;', 'alternate_names': ['Eric Bishop', 'Eric Marlon Bishop', 'Jaime Foxx']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Nwa', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Eazy-e" rel="noopener" data-api_path="/artists/496"&gt;Eazy-E&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dr-dre" rel="noopener" data-api_path="/artists/123"&gt;Dr.\xa0Dre&lt;/a&gt;, &lt;a href="https://genius.com/artists/Ice-cube" rel="noopener" data-api_path="/artists/186"&gt;Ice Cube&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mc-ren" rel="noopener" data-api_path="/artists/1436"&gt;MC Ren&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dj-yella" rel="noopener" data-api_path="/artists/7973"&gt;DJ Yella&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Arabian-prince" rel="noopener" data-api_path="/artists/3183"&gt;Arabian Prince&lt;/a&gt; initially formed the collective known as “the world’s most dangerous group,” N.W.A.—Niggaz With Attitudes.&lt;/p&gt;\n\n&lt;p&gt;Following Ice Cube’s stint in &lt;a href="https://genius.com/artists/Cia" rel="noopener" data-api_path="/artists/1064"&gt;C.I.A.&lt;/a&gt; and Dre and Yella’s departure from the &lt;a href="https://genius.com/artists/World-class-wreckin-cru" rel="noopener" data-api_path="/artists/11169"&gt;World Class Wreckin Cru&lt;/a&gt;, they got together with Compton hustler Eric “Eazy-E” Wright, who formed Ruthless Records and released Eazy’s single &lt;a href="https://genius.com/Eazy-e-boyz-n-the-hood-lyrics" rel="noopener" data-api_path="/songs/380408"&gt;“Boyz n the Hood,”&lt;/a&gt; written by Cube and produced by Dre. A compilation entitled &lt;em&gt;N.W.A. and the Posse&lt;/em&gt; was released in 1987 but the group’s seminal debut, &lt;a href="https://genius.com/albums/Nwa/Straight-outta-compton" rel="noopener" data-api_path="/albums/7242"&gt;&lt;em&gt;Straight Outta Compton&lt;/em&gt;&lt;/a&gt;, was released on August 8, 1988. It led to the rise of gangsta rap and West Coast hip-hop in general with their tales of “reality rap” from the streets of Compton and South Central Los Angeles. Their song “Fuck tha Police” even put the group on the hit list of the FBI.&lt;/p&gt;\n\n&lt;p&gt;Arabian Prince was the first to leave the group in 1988 over a financial dispute. Ice Cube left N.W.A. in 1989 after his own financial dispute, leading to the other members to diss him on their subsequent releases: the 1990 EP &lt;a href="https://genius.com/albums/Nwa/100-miles-and-runnin" rel="noopener" data-api_path="/albums/11052"&gt;&lt;em&gt;100 Miles and Runnin\'&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Nwa/Efil4zaggin" rel="noopener" data-api_path="/albums/7232"&gt;&lt;em&gt;EFIL4ZAGGIN&lt;/em&gt;&lt;/a&gt;, which was released in 1991 and peaked at #1 on the Billboard 200 chart. &lt;a href="https://genius.com/artists/The-doc" rel="noopener" data-api_path="/artists/1129"&gt;The D.O.C.&lt;/a&gt;, who contributed to &lt;em&gt;Straight Outta Compton&lt;/em&gt; and was still recovering from a car accident that severly altered his strong voice, wrote more rhymes for Dr. Dre and Eazy-E on the &lt;em&gt;EFIL4ZAGGIN&lt;/em&gt; album in attempt to fill the void left by Cube.&lt;/p&gt;\n\n&lt;p&gt;Following N.W.A.’s jabs, Ice Cube threw the knockout blow to the group with his track &lt;a href="https://genius.com/Ice-cube-no-vaseline-lyrics" rel="noopener" data-api_path="/songs/761"&gt;“No Vaseline,”&lt;/a&gt; which, in part, led to Dr. Dre leaving N.W.A. and Ruthless Records with his own financial dispute similar to Cube’s two years earlier. Dre and The D.O.C. went on to establish Death Row Records with Suge Knight in 1992, where Dre would innovate the G-Funk sound and further establish the success of the West Coast sound in hip-hop.&lt;/p&gt;\n\n&lt;p&gt;After back-and-forth disses between &lt;a href="https://genius.com/Dr-dre-fuck-wit-dre-day-and-everybodys-celebratin-lyrics" rel="noopener" data-api_path="/songs/1398"&gt;Dr. Dre&lt;/a&gt; and &lt;a href="https://genius.com/Eazy-e-real-muthaphuckkin-gs-lyrics" rel="noopener" data-api_path="/songs/902"&gt;Eazy-E&lt;/a&gt;, plans for an N.W.A. reunion were in the discussion stages when Eazy-E died of AIDS in 1995. Ice Cube, Dr. Dre, and MC Ren have since reunited to record the tracks &lt;a href="https://genius.com/Nwa-chin-check-lyrics" rel="noopener" data-api_path="/songs/4833"&gt;“Chin Check”&lt;/a&gt; and &lt;a href="https://genius.com/Ice-cube-hello-lyrics" rel="noopener" data-api_path="/songs/23066"&gt;“Hello.”&lt;/a&gt; In 2015, a biographical drama titled &lt;a href="https://www.imdb.com/title/tt1398426/" rel="noopener nofollow"&gt;&lt;em&gt;Straight Outta Compton&lt;/em&gt;&lt;/a&gt; was released to critical acclaim and a box office gross of over $200 million worldwide. The group was inducted into the Rock and Roll Hall of Fame in 2016.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f7c82b07938f54dd0f3a32ec6349c0be.500x220x1.png" alt="" width="500" height="220" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['Niggaz Wit Attitudes', 'Niggaz With Attitudes', 'Dr. Dre x Ice Cube x Eazy-E x MC Ren x DJ Yella', '(N.W.A.) The D.O.C']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Skid-row', 'annotations': {'description': '&lt;p&gt;Skid Row is a rock band from New Jersey, USA. The band was formed in 1986 by bassist Rachel Bolan and guitarist Dave Sabo. Sabo and Bolan went to the same high school and met at a guitar store where Sabo worked. These two would play in Bolan’s garage and they soon recruited more band members via newspapers ads and performed in local clubs.&lt;/p&gt;\n\n&lt;p&gt;The band then released its debut album titled &lt;a href="https://genius.com/albums/Skid-row/Skid-row" rel="noopener" data-api_path="/albums/28408"&gt;&lt;em&gt;Skid Row&lt;/em&gt;&lt;/a&gt; in 1989 and the album was an immediate success and went 5x platinum. Skid Row’s &lt;a href="https://genius.com/albums/Skid-row/Slave-to-the-grind" rel="noopener" data-api_path="/albums/189045"&gt;second album&lt;/a&gt; went 2x platinum&lt;/p&gt;\n\n&lt;p&gt;Skid Row released a &lt;a href="https://genius.com/albums/Skid-row/Subhuman-race" rel="noopener" data-api_path="/albums/209337"&gt;third album&lt;/a&gt; in 1994 after a one year hiatus. The album charted on the top 40. The rest of Skid Row’s releases were not as successful as the first few.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;Current Members&lt;/strong&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Dave-the-snake-sabo" rel="noopener" data-api_path="/artists/1033447"&gt;Dave “The Snake” Sabo&lt;/a&gt; – Guitar, Backing Vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Rachel-bolan" rel="noopener" data-api_path="/artists/1004507"&gt;Rachel Bolan&lt;/a&gt; – Bass, Backing Vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Scotti-hill" rel="noopener" data-api_path="/artists/2479393"&gt;Scotti Hill&lt;/a&gt; – guitar, Backing Vocals&lt;br&gt;\nRob Hammersmith – Drums, Backing vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Zp-theart" rel="noopener" data-api_path="/artists/1188919"&gt;ZP Theart&lt;/a&gt; – Lead Vocals&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Gwen-stefani', 'annotations': {'description': '&lt;p&gt;Gwen Renée Stefani, known simply as Gwen Stefani, is an American singer and songwriter, born on October 3, 1969 in Fullerton, California. She started her musical career as the lead singer in the American pop-rock band, &lt;a href="https://genius.com/artists/No-doubt" rel="noopener" data-api_path="/artists/24421"&gt;No Doubt&lt;/a&gt;, in the early ‘90s. The band has achieved major success with their 1995 album &lt;a href="https://genius.com/albums/No-doubt/Tragic-kingdom" rel="noopener" data-api_path="/albums/43506"&gt;&lt;em&gt;Tragic Kingdom&lt;/em&gt;&lt;/a&gt;, which spawned the hit singles &lt;a href="https://genius.com/No-doubt-just-a-girl-lyrics" rel="noopener" data-api_path="/songs/210348"&gt;“Just a Girl”&lt;/a&gt; and &lt;a href="https://genius.com/No-doubt-dont-speak-lyrics" rel="noopener" data-api_path="/songs/208107"&gt;“Don’t Speak”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2004, Stefani released her first solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/Love-angel-music-baby" rel="noopener" data-api_path="/albums/6076"&gt;&lt;em&gt;Love. Angel. Music. Baby.&lt;/em&gt;&lt;/a&gt;, which spawned the hit songs &lt;a href="https://genius.com/Gwen-stefani-rich-girl-lyrics" rel="noopener" data-api_path="/songs/32729"&gt;“Rich Girl”&lt;/a&gt;, &lt;a href="https://genius.com/Gwen-stefani-hollaback-girl-lyrics" rel="noopener" data-api_path="/songs/4385"&gt;“Hollaback Girl”&lt;/a&gt;, and &lt;a href="https://genius.com/Gwen-stefani-what-you-waiting-for-lyrics" rel="noopener" data-api_path="/songs/284592"&gt;“What You Waiting For?”&lt;/a&gt;; all three songs went number one on the Billboard Hot 100 chart, and also became the first US music download to sell one million copies.&lt;/p&gt;\n\n&lt;p&gt;In 2006, Stefani released her second solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/The-sweet-escape" rel="noopener" data-api_path="/albums/22036"&gt;&lt;em&gt;The Sweet Escape&lt;/em&gt;&lt;/a&gt;, which spawned singles &lt;a href="https://genius.com/Gwen-stefani-the-sweet-escape-lyrics" rel="noopener" data-api_path="/songs/90487"&gt;“The Sweet Escape”&lt;/a&gt; and &lt;a href="https://genius.com/Gwen-stefani-wind-it-up-lyrics" rel="noopener" data-api_path="/songs/423090"&gt;“Wind It Up”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2016, she released her third solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/This-is-what-the-truth-feels-like" rel="noopener" data-api_path="/albums/113812"&gt;&lt;em&gt;This Is What the Truth Feels Like&lt;/em&gt;&lt;/a&gt;, which became her first solo number-one album to chart on the Billboard 200. The album had hit songs such as, &lt;a href="https://genius.com/Gwen-stefani-make-me-like-you-lyrics" rel="noopener" data-api_path="/songs/2417511"&gt;“Make Me Like You”&lt;/a&gt; and &lt;a href="https://genius.com/Gwen-stefani-used-to-love-you-lyrics" rel="noopener" data-api_path="/songs/2332048"&gt;“Used to Love You”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Gwen Renée Stefani Shelton', 'Gwen Renée Stefani']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sabrina-carpenter', 'annotations': {'description': '&lt;p&gt;Philadelphia-born Sabrina Annlynn Carpenter (born May 11, 1999) is an American singer-songwriter and actress. She made her debut as a child actress in Season 12, Episode 12 of &lt;em&gt;Law &amp;amp; Order: Special Victims Unit&lt;/em&gt;. In 2013 and 2014, she lent her voice to Princess Vivian on Disney Junior’s &lt;em&gt;Sofia The First&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2014, Carpenter landed her first major acting role as Maya Hart on Disney’s &lt;em&gt;Girl Meets World&lt;/em&gt;, a spinoff of the hit sitcom &lt;em&gt;Boy Meets World&lt;/em&gt;. The same year, she released her first single, &lt;a href="https://genius.com/Sabrina-carpenter-cant-blame-a-girl-for-trying-lyrics" rel="noopener" data-api_path="/songs/556794"&gt;“Can’t Blame A Girl For Trying”&lt;/a&gt;, which received a Radio Disney Music Award.&lt;/p&gt;\n\n&lt;p&gt;In 2014, after signing with Hollywood Records, she released her debut EP, &lt;a href="https://genius.com/albums/Sabrina-carpenter/Can-t-blame-a-girl-for-trying-ep" rel="noopener" data-api_path="/albums/240834"&gt;&lt;em&gt;Can’t Blame a Girl for Trying&lt;/em&gt;&lt;/a&gt;. In 2015, she released her debut studio album, &lt;a href="https://genius.com/albums/Sabrina-carpenter/eyes-wide-open" rel="noopener" data-api_path="/albums/121108"&gt;&lt;em&gt;Eyes Wide Open&lt;/em&gt;&lt;/a&gt;. In 2016, lead single &lt;a href="https://genius.com/Sabrina-carpenter-on-purpose-lyrics" rel="noopener" data-api_path="/songs/2828724"&gt;&lt;em&gt;On Purpose&lt;/em&gt;&lt;/a&gt; preceded the release of her second studio album &lt;a href="https://genius.com/albums/Sabrina-carpenter/Evolution" rel="noopener" data-api_path="/albums/168270"&gt;&lt;em&gt;EVOLution&lt;/em&gt;&lt;/a&gt;, in which she experimented with a more mature pop sound and elements of dance and tropical house.&lt;/p&gt;\n\n&lt;p&gt;In 2018, the Philly pop star dropped her third album, &lt;a href="https://genius.com/albums/Sabrina-carpenter/Singular-act-i" rel="noopener" data-api_path="/albums/352892"&gt;&lt;em&gt;Singular: Act I&lt;/em&gt;&lt;/a&gt;, followed by &lt;a href="https://genius.com/albums/Sabrina-carpenter/Singular-act-ii" rel="noopener" data-api_path="/albums/509686"&gt;&lt;em&gt;Act II&lt;/em&gt;&lt;/a&gt; a year later.&lt;/p&gt;', 'alternate_names': ['Sabrina Annlynn Carpenter']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bronski-beat', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Oliver-tree', 'annotations': {'description': '&lt;p&gt;Oliver Tree Nickell (Born June 29, 1993) is a vocalist, producer, and prolific scooter rider hailing from Santa Cruz, California. On March 27, 2016, Oliver released a video on Vine, entitled, &lt;a href="https://youtu.be/_hhAd8C4SvY" rel="noopener nofollow"&gt;“I’m Turbo”&lt;/a&gt;, which was the first appearance of his persona, Turbo.&lt;/p&gt;\n\n&lt;p&gt;He released music under the name Tree before “When I’m Down”, his upbeat dance song with collaborator Whethan went viral, leading him to sign with Atlantic Records in 2017.&lt;/p&gt;\n\n&lt;p&gt;The genre-defying &lt;a href="https://genius.com/albums/Oliver-tree/Alien-boy-ep" rel="noopener" data-api_path="/albums/403753"&gt;&lt;i&gt;Alien Boy&lt;/i&gt;&lt;/a&gt; EP, the world’s first glimpse at Oliver’s potential, followed the next year and earned tens of millions of streams. Known for his big-budget music videos and the comedic clips posted on his social media, Oliver joined The Chainsmokers on select dates of their tour and played many festivals while attracting attention to his unique and unorthodox fashion sense.&lt;/p&gt;\n\n&lt;p&gt;The Huffington Post described Oliver as “an enigma of genre. While (Oliver is) primarily a pianist, guitarist, and producer, his real-instruments-based-production incorporates rap, male and female vocal harmonies, poetic lyrics, strings and a hearty dose of synth…”&lt;/p&gt;\n\n&lt;p&gt;Oliver’s debut album, &lt;a href="https://genius.com/albums/Oliver-tree/Ugly-is-beautiful" rel="noopener" data-api_path="/albums/487099"&gt;&lt;i&gt;Ugly is Beautiful&lt;/i&gt;&lt;/a&gt;, released July 17th, to astonishing fanfare, reaching top 3 on the iTunes charts within 24 hours of it being released.&lt;/p&gt;\n\n&lt;p&gt;Oliver followed up the release of Ugly is Beautiful almost a year later with a Deluxe edition of the album that released on May 28th, 2021.&lt;/p&gt;', 'alternate_names': ['Tree', 'Oliver Tree Nickell']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Akon', 'annotations': {'description': '&lt;p&gt;Akon (born Aliaume Akon Thiam), is a Senegalese-American Grammy-nominated and platinum-selling rapper, songwriter, singer and businessman. His trademark is singing the word ‘convict’ at the beginning of most of his songs.&lt;/p&gt;\n\n&lt;p&gt;Akon was born in the US but &lt;a href="https://wbssmedia.com/artists/detail/645" rel="noopener nofollow"&gt;spent much&lt;/a&gt; of childhood in the West African country Senegal. There, he learned to play five instruments including the djembe, guitar and drums. Early on Akon &lt;a href="http://www.hollywood.com/general/akon-sued-for-150-million-by-former-business-partner-report-60686814/" rel="noopener nofollow"&gt;signed a deal with&lt;/a&gt; Elektra Records, but was later dropped from the label.&lt;/p&gt;\n\n&lt;p&gt;His &lt;a href="http://www.hollywood.com/general/akon-sued-for-150-million-by-former-business-partner-report-60686814/" rel="noopener nofollow"&gt;career took off&lt;/a&gt; when Lil Zane introduced Akon to music executive DeVyne Stephens, who signed him to his label UpFront Records &lt;a href="http://www.hollywood.com/general/akon-sued-for-150-million-by-former-business-partner-report-60686814/" rel="noopener nofollow"&gt;and became his&lt;/a&gt; longtime manager and business partner.&lt;/p&gt;\n\n&lt;p&gt;Akon’s music with Stephens, specifically “Lonely”, caught the attention of SRC Records (under Universal). SRC’s A&amp;amp;R man Jerome Foster and CEO Steve Rifkind flew to Atlanta on a private plane &lt;a href="https://wbssmedia.com/artists/detail/645" rel="noopener nofollow"&gt;to sign him&lt;/a&gt;. His 2004 debut album &lt;em&gt;Trouble&lt;/em&gt; scored two international smash hits with “Locked Up” and “Lonely”, the latter topping the pop chart &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon&amp;amp;titel=Lonely&amp;amp;cat=s" rel="noopener nofollow"&gt;in seven countries&lt;/a&gt; and reaching the top 5 in seven more including &lt;a href="https://www.billboard.com/music/akon/chart-history" rel="noopener nofollow"&gt;the US&lt;/a&gt; and &lt;a href="http://www.officialcharts.com/artist/14451/akon/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;That year, Akon launched Konvict Music – a record label that would release Akon’s next albums in addition to albums by T-Pain and Sway. In 2005, Akon made two guest appearances during the success of &lt;em&gt;Trouble&lt;/em&gt; that were also successful: the Young Jeezy song “Soul Survivor” which did well in the US and UK, and “Moonshine” with Savage which was a huge hit in Australia and New Zealand.&lt;/p&gt;\n\n&lt;p&gt;His 2006 sophomore album &lt;em&gt;Konvicted&lt;/em&gt; spawned three international chart-toppers: “Smack That” featuring Eminem (top 10 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon+feat%2E+Eminem&amp;amp;titel=Smack+That&amp;amp;cat=s" rel="noopener nofollow"&gt;in twelve countries&lt;/a&gt;), “I Wanna Love You” featuring Snoop Dogg (top 20 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon+feat%2E+Snoop+Dogg&amp;amp;titel=I+Wanna+Love+You&amp;amp;cat=s" rel="noopener nofollow"&gt;in ten countries&lt;/a&gt;), and “Don’t Matter” (top 10 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon+feat%2E+Snoop+Dogg&amp;amp;titel=I+Wanna+Love+You&amp;amp;cat=s" rel="noopener nofollow"&gt;in five countries&lt;/a&gt;). The album was &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=AKON&amp;amp;ti=KONVICTED" rel="noopener nofollow"&gt;certified platinum&lt;/a&gt; within seven weeks, eventually reaching triple platinum a year later. Also that year, he made a guest appearance on the Gwen Stefani song “The Sweet Escape”, a top 10 song &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Gwen+Stefani+feat%2E+Akon&amp;amp;titel=The+Sweet+Escape&amp;amp;cat=s" rel="noopener nofollow"&gt;in twelve countries&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;2007 and 2008 saw Akon make several more guest appearances with various artists, giving him eight more US top 40 hits with scattered international success – the biggest being “Dangerous” with Kardinal Offishal, taken from an album he’d executive-produced.&lt;/p&gt;\n\n&lt;p&gt;Akon’s third album &lt;em&gt;Freedom&lt;/em&gt; was internationally successful in late 2008 with three singles reaching the top 10 in several countries, but it did not equal the success of his previous albums. During this time, Akon also remixed “Wanna Be Startin\' Somethin\'” for the 25th anniversary re-release of Michael Jackson’s &lt;em&gt;Thriller&lt;/em&gt;, &lt;a href="https://wbssmedia.com/artists/detail/645" rel="noopener nofollow"&gt;launched a clothing line&lt;/a&gt;, and founded KonLive Distribution (the label that signed Lady Gaga and released her first three albums) with Jimmy Iovine.&lt;/p&gt;\n\n&lt;p&gt;Since 2009, Akon has continued to collaborate with several artists, his most successful being the &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=David+Guetta+feat%2E+Akon&amp;amp;titel=Sexy+Bitch&amp;amp;cat=s" rel="noopener nofollow"&gt;international chart topper&lt;/a&gt; “Sexy Bitch” with David Guetta. His other work includes being one-third of the rap supergroup Flipsyde, heavy involvement in “We Are the World 25 for Haiti”, and co-writing for artists like NKOTB and Whitney Houston.&lt;/p&gt;\n\n&lt;p&gt;Outside of music, Akon has appeared in the films &lt;em&gt;Black November&lt;/em&gt; and &lt;em&gt;American Heist&lt;/em&gt; and founded &lt;a href="http://akonlightingafrica.com/our-activities/overview/" rel="noopener nofollow"&gt;Akon Lighting Africa&lt;/a&gt;, an effort to provide electricity via solar energy to African villages without power. His fourth album, a five-part concept album tentatively titled &lt;em&gt;Stadium&lt;/em&gt;, was in the works in 2010, but aside from &lt;a href="https://www.billboard.com/articles/news/6429405/akon-new-album-stadium" rel="noopener nofollow"&gt;teasing random singles&lt;/a&gt; like “To Each His Own”, “Whole Lot” and “Just A Man”, the full project did not materialize. Instead, Akon released two albums in 2019 and a mixtape in 2020.&lt;/p&gt;', 'alternate_names': ['Aliune Akon Thiam', 'Aliaune Damala Badara Akon Thiam', 'Aliaune Thiam']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Joss-stone', 'annotations': {'description': '&lt;p&gt;Joscelyn Eve Stoker (born 11 April 1987), better known by her stage name Joss Stone, is an English singer, songwriter and actress. She rose to fame in late 2003 with her multi-platinum debut album, The Soul Sessions, which made the 2004 Mercury Prize shortlist. Her second album, the similarly multi-platinum Mind Body &amp;amp; Soul (2004), topped the UK Albums Chart for one week and spawned the top ten hit “You Had Me”, Stone’s most successful single on the UK Singles Chart to date. Both the album and single received one nomination at the 2005 Grammy Awards, while Stone herself was nominated for Best New Artist, and in an annual BBC poll of music critics, Sound of 2004, was ranked fifth as a predicted breakthrough act of 2004. She became the youngest British female singer to top the UK Albums Chart. Stone’s third album, Introducing Joss Stone, released in March 2007, achieved gold record status by the RIAA and yielded the second-ever highest debut for a British female solo artist on the Billboard 200, and became Stone’s first top five album in the US.&lt;/p&gt;\n\n&lt;p&gt;She released her fourth album, Colour Me Free!, on 20 October 2009, which reached the top 10 on Billboard. Stone released her fifth album, LP1, on 22 July 2011, which reached the top 10 on Billboard. Throughout her career, Stone has sold 14 million records worldwide, establishing herself as one of the best-selling soul artists of the 2000s, and the best-selling British artists of her time. Her first three albums have sold over 2,722,000 copies in the US, while her first two albums have sold over 2 million copies in the UK.&lt;/p&gt;\n\n&lt;p&gt;Stone has earned numerous accolades, including two Brit Awards and one Grammy Award out of five nominations. She also made her film acting debut in 2006 with the fantasy adventure film Eragon, and made her television debut portraying Anne of Cleves in the Showtime series The Tudors in 2009. Stone was the youngest woman on the 2006 Sunday Times Rich List—an annual list of the UK’s wealthiest people—with £6 million. In 2012, her net worth was estimated to be £10 million, making her the fifth richest British musician under 30. The Soul Sessions Vol. 2 (2012) is her fourth consecutive album to reach the top 10 on the Billboard 200.&lt;/p&gt;', 'alternate_names': ['Joscelyn Stoker', 'Joscelyn Eve Stoker']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Psy', 'annotations': {'description': '&lt;p&gt;Park Jae-sang, better known by his stage name Psy, stylized PSY, is a South Korean singer, songwriter, rapper, dancer, record producer and television personality.&lt;/p&gt;\n\n&lt;p&gt;His earlier efforts showcased his comedic stylings within the Korean music world, but none matched that off 2012’s &lt;a href="https://genius.com/Psy-gangnam-style-lyrics" rel="noopener" data-api_path="/songs/88368"&gt;“Gangnam Style”&lt;/a&gt;, which would eventually hit more than 4 billion views on YouTube. In 2013, he was also made the official South Korean &lt;a href="https://web.archive.org/web/20200810111413/http://travel.cnn.com/psy-named-korea-tourism-ambassador-877941/" rel="noopener nofollow"&gt;tourism ambassador&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Psy also founded the South Korean label &lt;a href="https://genius.com/artists/P-nation" rel="noopener" data-api_path="/artists/160396"&gt;P-Nation&lt;/a&gt; with artists such as &lt;a href="https://genius.com/artists/Crush" rel="noopener" data-api_path="/artists/51935"&gt;Crush&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jessi" rel="noopener" data-api_path="/artists/672794"&gt;Jessi&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dawn-korea-rapper" rel="noopener" data-api_path="/artists/1469207"&gt;Dawn&lt;/a&gt;, &lt;a href="https://genius.com/artists/Hyuna" rel="noopener" data-api_path="/artists/27893"&gt;HyunA&lt;/a&gt;, and himself.&lt;/p&gt;', 'alternate_names': ['Park Jae-Sang (박재상)']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-j-geils-band', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Linkin-park', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/albums/Linkin-park/Hybrid-theory" rel="noopener" data-api_path="/albums/15321"&gt;&lt;em&gt;Hybrid Theory&lt;/em&gt;&lt;/a&gt; isn’t just the title of Linkin Park’s chart-topping debut album, but a career mission statement.&lt;/p&gt;\n\n&lt;p&gt;From day one, the same six players (lead vocalist &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt;, drummer/percussionist &lt;a href="https://genius.com/artists/Rob-bourdon" rel="noopener" data-api_path="/artists/643808"&gt;Rob Bourdon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Brad-delson" rel="noopener" data-api_path="/artists/177201"&gt;Brad Delson&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Dave-farrell" rel="noopener" data-api_path="/artists/635618"&gt;Dave ‘Phoenix’ Farrell&lt;/a&gt;, DJ/Programmer &lt;a href="https://genius.com/artists/Joe-hahn" rel="noopener" data-api_path="/artists/271318"&gt;Joe Hahn&lt;/a&gt;, and keyboardist, guitarist, and co-lead vocals &lt;a href="https://genius.com/artists/Mike-shinoda" rel="noopener" data-api_path="/artists/4431"&gt;Mike Shinoda&lt;/a&gt;) built the band by fusing all their favorite styles of music into one unmistakable signature sound. With each album, Linkin Park defiantly challenges themselves and their fans by blasting into new musical territory. After setting the template for rock that incorporated hip-hop influences with &lt;em&gt;Hybrid Theory&lt;/em&gt; and &lt;a href="https://genius.com/albums/Linkin-park/Meteora" rel="noopener" data-api_path="/albums/5986"&gt;&lt;em&gt;Meteora&lt;/em&gt;&lt;/a&gt;, they shifted gears completely and defied expectations with the polychromatic &lt;a href="https://genius.com/albums/Linkin-park/Minutes-to-midnight" rel="noopener" data-api_path="/albums/16008"&gt;&lt;em&gt;Minutes to Midnight&lt;/em&gt;&lt;/a&gt;, and again with the esoteric &lt;a href="https://genius.com/albums/Linkin-park/A-thousand-suns" rel="noopener" data-api_path="/albums/15414"&gt;&lt;em&gt;A Thousand Suns&lt;/em&gt;&lt;/a&gt;, before melding a piece of them all into 2012’s &lt;a href="https://genius.com/albums/Linkin-park/Living-things" rel="noopener" data-api_path="/albums/16392"&gt;&lt;em&gt;LIVING THINGS&lt;/em&gt;&lt;/a&gt;. With their 2014 release and heaviest offering in years, &lt;a href="https://genius.com/albums/Linkin-park/The-hunting-party" rel="noopener" data-api_path="/albums/100521"&gt;&lt;em&gt;The Hunting Party&lt;/em&gt;&lt;/a&gt;, Linkin Park manage to capture their ever-innovative spirit with a hunger seldom seen in bands on their seventh album. &lt;a href="https://genius.com/albums/Linkin-park/One-more-light" rel="noopener" data-api_path="/albums/330664"&gt;&lt;em&gt;One More Light&lt;/em&gt;&lt;/a&gt; (2017) is an interesting personal album, filled with a lot of emotion.&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, on July 20, 2017, Chester unexpectedly &lt;a href="http://www.tmz.com/2017/07/20/linkin-park-singer-chester-bennington-dead-commits-suicide/" rel="noopener nofollow"&gt;died by suicide&lt;/a&gt;, shocking and saddening both fans and his own band members alike.&lt;/p&gt;\n\n&lt;p&gt;As for the band’s name, they were originally called Hybrid Theory, but trademark issues with a band called Hybrid forced the band to rethink their name. According to &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names/P1" rel="noopener nofollow"&gt;&lt;em&gt;Alternative Press&lt;/em&gt;&lt;/a&gt;, Bennington suggested “Lincoln Park” since he had to drive past there after band practice to get home. However, the domain name “lincolnpark.com” cost more than the band could afford so they changed the spelling to Linkin Park. It was also suggested that the name change would help them appear right next to Limp Bizkit at record stores.&lt;/p&gt;', 'alternate_names': ['Hybrid Theory', 'Xero', 'MMM...COOKIES']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Coldplay', 'annotations': {'description': '&lt;p&gt;Coldplay is a British rock band, formed in 1997 by University College London classmates &lt;a href="https://genius.com/artists/Chris-martin" rel="noopener" data-api_path="/artists/353"&gt;Chris Martin&lt;/a&gt; (vocals, guitar, piano), &lt;a href="https://genius.com/artists/Jonny-buckland" rel="noopener" data-api_path="/artists/182604"&gt;Jonny Buckland&lt;/a&gt; (guitar) and &lt;a href="https://genius.com/artists/Guy-berryman" rel="noopener" data-api_path="/artists/173684"&gt;Guy Berryman&lt;/a&gt; (bass), along with drummer &lt;a href="https://genius.com/artists/Will-champion" rel="noopener" data-api_path="/artists/182605"&gt;Will Champion&lt;/a&gt;. The band’s name comes from &lt;a href="https://web.archive.org/web/20170809171008/http://www.coldplay.com/newsdetail.php?id=80" rel="noopener nofollow"&gt;Tim Crompton&lt;/a&gt;, a student who was in the same university as the members (University College London) at the time. They were previously known as Pectoralz, then changed their name to Starfish in 1997 &lt;a href="https://kiisfm.iheart.com/content/2021-06-15-24-facts-you-need-to-know-about-our-2021-iheartradio-music-festival-lineup/" rel="noopener nofollow"&gt;before finally settling on the name Coldplay&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Once they issued their debut, &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/Parachutes" rel="noopener" data-api_path="/albums/18002"&gt;Parachutes&lt;/a&gt;&lt;/em&gt; in 2000, many saw them as a &lt;a href="https://genius.com/artists/Radiohead" rel="noopener" data-api_path="/artists/604"&gt;Radiohead&lt;/a&gt; knock-off. No doubt, Coldplay’s sound —elegant, melodic, vaguely spacey and very dramatic — bore plenty of similarity to mid-1990s Radiohead. But the group’s hooks, sharpened by frontman Chris Martin’s ability to pull heartstrings, and the their willingness to evolve their sound, gave Coldplay staying power. The greatest examples are second album &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/A-rush-of-blood-to-the-head" rel="noopener" data-api_path="/albums/17979"&gt;A Rush of Blood to the Head&lt;/a&gt;&lt;/em&gt; (2002), which was generally considered to be musically and lyrically more mature and sophisticated, and less obviously the product of one particular influence, and the fourth one &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/A-rush-of-blood-to-the-head" rel="noopener" data-api_path="/albums/17979"&gt;Viva La Vida or Death and All His Friends&lt;/a&gt;&lt;/em&gt; (2008), where producer &lt;a href="https://genius.com/artists/Brian-eno" rel="noopener" data-api_path="/artists/29972"&gt;Brian Eno&lt;/a&gt; influenced the band to broaden their sound and led to various sonic landscapes. Both won the Grammy Award for Best Rock Album and spawned sucessful singles such as &lt;a href="https://genius.com/Coldplay-clocks-lyrics" rel="noopener" data-api_path="/songs/53753"&gt;“Clocks”&lt;/a&gt;, &lt;a href="https://genius.com/Coldplay-viva-la-vida-lyrics" rel="noopener" data-api_path="/songs/49192"&gt;“Viva la Vida”&lt;/a&gt;, &lt;a href="https://genius.com/Coldplay-in-my-place-lyrics" rel="noopener" data-api_path="/songs/77596"&gt;“In My Place”&lt;/a&gt;, &lt;a href="https://genius.com/Coldplay-violet-hill-lyrics" rel="noopener" data-api_path="/songs/64086"&gt;“Violet Hill”&lt;/a&gt; and &lt;a href="https://genius.com/Coldplay-the-scientist-lyrics" rel="noopener" data-api_path="/songs/77594"&gt;“The Scientist”&lt;/a&gt;.&lt;br&gt;\nColdplay also proved they can use truly rock sounds in their albums, as shown in &lt;a href="https://genius.com/albums/Coldplay/X-y" rel="noopener" data-api_path="/albums/11506"&gt;&lt;em&gt;X&amp;amp;Y&lt;/em&gt;&lt;/a&gt;, and juggle with more electronics albums like &lt;a href="https://genius.com/albums/Coldplay/Mylo-xyloto" rel="noopener" data-api_path="/albums/12250"&gt;&lt;em&gt;Mylo Xyloto&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Coldplay/Ghost-stories" rel="noopener" data-api_path="/albums/85921"&gt;&lt;em&gt;Ghost Stories&lt;/em&gt;&lt;/a&gt; or &lt;a href="https://genius.com/albums/Coldplay/A-head-full-of-dreams" rel="noopener" data-api_path="/albums/134218"&gt;&lt;em&gt;A Head Full of Dreams&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;As a result, the band became one of the most commercially successful acts of the new millennium, with over 80 million albums sold – even if along with the acclaim came a vocal opposition, due to the supposedly derivative nature, the overtly emotional lyrics, and the fact they’re good-mannered English boys instead of wild rockstars. As a result, Coldplay are thought as either a punchline showing all that’s wrong with 21st century rock, or a really good if overplayed band with songs tailor made for stadium performances.&lt;/p&gt;', 'alternate_names': ['Starfish']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-hooters', 'annotations': {'description': '&lt;p&gt;The Hooters are an American rock band from Philadelphia, Pennsylvania, United States. They combine elements of rock, reggae, ska, and folk music to create their sound. The Hooters first gained major commercial success in the United States in the mid-1980s due to heavy radio airplay and MTV rotation of several songs including “All You Zombies”, “Day by Day”, “And We Danced” and “Where Do the Children Go”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-knack', 'annotations': {'description': '&lt;p&gt;The Knack was an American rock band based in Los Angeles that rose to fame with their first single, “My Sharona”, an international number-one hit in 1979.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/e7da446954646ea01484e56a690d87de.800x531x1.jpg" alt="" width="800" height="531" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dnce', 'annotations': {'description': '&lt;p&gt;In 2015, &lt;a href="https://genius.com/artists/Joe-jonas" rel="noopener" data-api_path="/artists/16515"&gt;Joe Jonas&lt;/a&gt; announced his first project since the &lt;a href="https://genius.com/artists/Jonas-brothers" rel="noopener" data-api_path="/artists/8436"&gt;Jonas Brothers&lt;/a&gt; officially split: a band called DNCE. Joe recruited guitarist &lt;a href="https://genius.com/artists/Jinjoo-lee" rel="noopener" data-api_path="/artists/1035785"&gt;JinJoo Lee&lt;/a&gt;, bassist and keyboardist &lt;a href="https://genius.com/artists/Cole-whittle" rel="noopener" data-api_path="/artists/1006070"&gt;Cole Whittle&lt;/a&gt;, and drummer &lt;a href="https://genius.com/artists/Jack-lawless" rel="noopener" data-api_path="/artists/1035786"&gt;Jack Lawless&lt;/a&gt;, who worked with Joe back in his JB days.&lt;/p&gt;\n\n&lt;p&gt;JinJoo &lt;a href="http://www.dnce.com/2015/10/23/interview-magazine-with-dnce/" rel="noopener nofollow"&gt;told &lt;em&gt;Interview Magazine&lt;/em&gt;&lt;/a&gt; the meaning of the band’s name.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;‘DNCE’ is ‘dance’ without an A. It’s not a perfect word, and you don’t have to be a perfect dancer to dance. Life is just sometimes not perfect.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;On September 14, 2015, the band premiered their debut single, &lt;a href="https://genius.com/DNCE-cake-by-the-ocean-lyrics" rel="noopener" data-api_path="/songs/2306268"&gt;“Cake By the Ocean,”&lt;/a&gt; on New York’s Z100. The song blew up and soon found a place in the background of an AT&amp;amp;T commercial. This drove more people to check out their music and boosted sales and popularity.&lt;/p&gt;\n\n&lt;p&gt;On October 23rd, 2015, the &lt;a href="https://genius.com/albums/Dnce/Swaay-ep" rel="noopener" data-api_path="/albums/133124"&gt;&lt;em&gt;SWAAY&lt;/em&gt; EP&lt;/a&gt; was released, and a few months later the band announced they would be touring with &lt;a href="https://genius.com/artists/Selena-gomez" rel="noopener" data-api_path="/artists/45372"&gt;Selena Gomez&lt;/a&gt; in the summer of 2016.&lt;/p&gt;\n\n&lt;p&gt;On November 18th, 2016, the &lt;a href="https://genius.com/albums/Dnce/Dnce" rel="noopener" data-api_path="/albums/222215"&gt;self-titled debut album&lt;/a&gt; was released.&lt;/p&gt;\n\n&lt;p&gt;On June 15th, 2018, the &lt;a href="https://genius.com/albums/Dnce/People-to-people-ep" rel="noopener" data-api_path="/albums/397299"&gt;&lt;em&gt;People to People&lt;/em&gt; EP&lt;/a&gt; was released. This was their last project until their hiatus due to Jonas and Lawless continuing with the Jonas Brothers starting from February 28th, 2019. As of now, they are on hiatus.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Salt-n-pepa', 'annotations': {'description': '&lt;p&gt;Salt-N-Pepa is arguably the most successful female rap group of all time. The group began with Cheryl “Salt” James and Sandra “Pepa” Denton meeting while studying to be nurses. James got Denton a job at a Sears department store, where her boyfriend Hurby “Luv Bug” Azor also worked. Azor was studying music production and he asked them to help on &lt;a href="https://www.washingtonpost.com/archive/lifestyle/1994/05/27/salt-n-pepa-taking-control/a969fdd2-c2e2-4b7a-bc48-f83dadb3d13d/?utm_term=.db33642e0b2e" rel="noopener nofollow"&gt;a school project&lt;/a&gt;, an answer record to Doug E. Fresh’s “The Show” they named &lt;a href="https://genius.com/Salt-n-pepa-the-showstopper-is-stupid-fresh-lyrics" rel="noopener" data-api_path="/songs/2147764"&gt;“The Showstopper”&lt;/a&gt; – recorded in 1985 under the name Supernature.&lt;/p&gt;\n\n&lt;p&gt;After the legendary Queens DJ Marley Marl played “The Showstopper” on his radio show, the group &lt;a href="https://i-d.vice.com/en_uk/article/d3p9nv/salt-n-pepa-hip-hop-90s-interview-music" rel="noopener nofollow"&gt;began getting booked for shows&lt;/a&gt;. One lyric in “The Showstopper” was ‘We the salt and pepper’, and people kept requesting ‘that salt and pepper song’, so &lt;a href="https://i-d.vice.com/en_uk/article/d3p9nv/salt-n-pepa-hip-hop-90s-interview-music" rel="noopener nofollow"&gt;they changed their name&lt;/a&gt; to Salt-N-Pepa. Deejay Deidra “Spinderella” Ropa was added soon after.&lt;/p&gt;\n\n&lt;p&gt;SNP’s debut album &lt;a href="https://genius.com/albums/Salt-n-pepa/Hot-cool-and-vicious" rel="noopener" data-api_path="/albums/8996"&gt;&lt;em&gt;Hot, Cool, &amp;amp; Vicious&lt;/em&gt;&lt;/a&gt; originally spawned a minor hit in the UK with &lt;a href="https://genius.com/Salt-n-pepa-my-mike-sounds-nice-lyrics" rel="noopener" data-api_path="/songs/2144116"&gt;“My Mike Sounds Nice”&lt;/a&gt; in early 1987. But it was the re-release of a remix of “Push It”, originally a quickly-thrown together b-side for their fall ‘87 single “Tramp”, that shot the group into international stardom. The song reached the top 10 in eleven countries &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Salt-N-Pepa&amp;amp;titel=Push+It&amp;amp;cat=s" rel="noopener nofollow"&gt;around the world&lt;/a&gt; in 1988.&lt;/p&gt;\n\n&lt;p&gt;The group had continued international success throughout first half of the 1990s with hits like “Expression”, “Do You Really Want Me”, “You Showed Me”, &lt;a href="https://genius.com/Salt-n-pepa-shoop-lyrics" rel="noopener" data-api_path="/songs/3464"&gt;“Shoop”&lt;/a&gt; and &lt;a href="https://genius.com/Salt-n-pepa-whatta-man-lyrics" rel="noopener" data-api_path="/songs/51518"&gt;“Whatta Man”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/En-vogue" rel="noopener" data-api_path="/artists/8571"&gt;En Vogue&lt;/a&gt;. Their 1991 hit &lt;a href="https://genius.com/Salt-n-pepa-lets-talk-about-sex-lyrics" rel="noopener" data-api_path="/songs/41354"&gt;“Let’s Talk About Sex”&lt;/a&gt; was used to raise awareness about the AIDS epidemic in the United States at the time. SNP won a Grammy for Best Rap Performance by a Duo or Group in 1994 for &lt;a href="https://genius.com/Salt-n-pepa-none-of-your-business-lyrics" rel="noopener" data-api_path="/songs/354653"&gt;“None of Your Business”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The group released their last album &lt;em&gt;Brand New&lt;/em&gt; in 1997, featuring a modest hit &lt;a href="https://genius.com/Salt-n-pepa-r-u-ready-lyrics" rel="noopener" data-api_path="/songs/41370"&gt;“R U Ready,”&lt;/a&gt; before disbanding. SNP &lt;a href="https://i-d.vice.com/en_uk/article/d3p9nv/salt-n-pepa-hip-hop-90s-interview-music" rel="noopener nofollow"&gt;continues to tour&lt;/a&gt; and make television appearances, including the VH-1 reality series &lt;em&gt;The Salt-N-Pepa Show&lt;/em&gt; and &lt;em&gt;Let’s Talk About Pep&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Awolnation', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;AWOLNATION&lt;/strong&gt; is an American rock band, formed in 2010 by frontman &lt;a href="https://genius.com/artists/Aaron-bruno" rel="noopener" data-api_path="/artists/333935"&gt;Aaron Bruno&lt;/a&gt;. Aaron is now joined by &lt;a href="https://genius.com/artists/Zach-irons" rel="noopener" data-api_path="/artists/1255544"&gt;Zach Irons&lt;/a&gt; on guitar, &lt;a href="https://genius.com/artists/Isaac-carpenter" rel="noopener" data-api_path="/artists/1065594"&gt;Isaac Carpenter&lt;/a&gt; on drums, Mike Goldman on bass, and &lt;a href="https://genius.com/artists/Daniel-saslow" rel="noopener" data-api_path="/artists/1255543"&gt;Daniel Saslow&lt;/a&gt; on keyboard. They are best known for their hit song, “&lt;a href="https://genius.com/Awolnation-sail-lyrics" rel="noopener" data-api_path="/songs/64894"&gt;Sail&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;The band’s name comes from frontman Aaron Bruno’s high school nickname, “AWOL.” Aaron &lt;a href="http://www.mtv.com/video-clips/u133eg/aaron-bruno-breaks-down-the-name-awolnation" rel="noopener nofollow"&gt;explains to MTV&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was either given or I claimed the nickname AWOL in high school at a certain point. So, I went with the name AWOL because I’ve always enjoyed the option of leaving social circumstances without having to explain myself. I attached “NATION” to “AWOL” and created AWOLNATION as, hopefully, a musical metaphor for a place to escape, to get through the day.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In that same interview, Aaron said of the band’s lyrics&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s important to me that people interpret the lyrics and sort of the concept and the message for their own and not read into it literally. Because, a lot of stuff in the lyrics are metaphors for life situations I’ve been in and I encourage people to create their own meaning out of it all.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The band’s sound can best be described as alternative rock. While AWOLNATION’s first two albums, &lt;a href="https://genius.com/albums/Awolnation/Megalithic-symphony-deluxe-edition" rel="noopener" data-api_path="/albums/150516"&gt;&lt;em&gt;Megalithic Symphony&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Awolnation/Run" rel="noopener" data-api_path="/albums/118809"&gt;&lt;em&gt;Run&lt;/em&gt;&lt;/a&gt; feature electronic rock styling, their most recent album, &lt;a href="https://genius.com/albums/Awolnation/Here-come-the-runts" rel="noopener" data-api_path="/albums/379232"&gt;&lt;em&gt;Here Come the Runts&lt;/em&gt;&lt;/a&gt; purposefully departed from this, in search of a more authentic sound.&lt;/p&gt;\n\n&lt;p&gt;The band crafted one of the most influential songs in years with the chart-topping, record-breaking track “&lt;a href="https://genius.com/Awolnation-sail-lyrics" rel="noopener" data-api_path="/songs/64894"&gt;Sail&lt;/a&gt;.” The first single off the gold-certified full-length debut album, &lt;a href="https://genius.com/albums/Awolnation/Megalithic-symphony" rel="noopener" data-api_path="/albums/14688"&gt;Megalithic Symphony&lt;/a&gt;, “Sail” was certified 6x platinum in the US and holds the record for the most weeks on the Billboard Hot 100 chart by an independent artist, the second longest for any artist. The song has also achieved global success: certified 10x platinum in Norway, 6x platinum in Canada, 3x platinum in Sweden, 2x platinum in Australia and New Zealand, platinum in Switzerland, gold in Austria, Germany, and the UK. The song was also notably &lt;a href="https://genius.com/Awolnation-sail-tde-remix-lyrics" rel="noopener" data-api_path="/songs/132580"&gt;remixed&lt;/a&gt; with &lt;a href="https://genius.com/artists/Tde" rel="noopener" data-api_path="/artists/1108010"&gt;TDE&lt;/a&gt;, featuring &lt;a href="https://genius.com/artists/Kendrick-lamar" rel="noopener" data-api_path="/artists/1421"&gt;Kendrick Lamar&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ab-soul" rel="noopener" data-api_path="/artists/2049"&gt;Ab-Soul&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Their critically-acclaimed sophomore release &lt;a href="https://genius.com/albums/Awolnation/Run" rel="noopener" data-api_path="/albums/118809"&gt;&lt;em&gt;Run&lt;/em&gt;&lt;/a&gt; spawned three other Top 10 US singles – Top 5 tracks “&lt;a href="https://genius.com/Awolnation-i-am-lyrics" rel="noopener" data-api_path="/songs/726013"&gt;I Am&lt;/a&gt;” and “&lt;a href="https://genius.com/Awolnation-woman-woman-lyrics" rel="noopener" data-api_path="/songs/727477"&gt;Woman Woman&lt;/a&gt;,” as well as their first #1 hit on the Billboard Alternative Chart, “&lt;a href="https://genius.com/Awolnation-hollow-moon-bad-wolf-lyrics" rel="noopener" data-api_path="/songs/691574"&gt;Hollow Moon (Bad Wolf)&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;AWOLNATION released their third studio album, &lt;a href="https://genius.com/albums/Awolnation/Here-come-the-runts" rel="noopener" data-api_path="/albums/379232"&gt;&lt;em&gt;Here Come the Runts&lt;/em&gt;&lt;/a&gt;, in February 2018 via Red Bull Records. The album features the singles “&lt;a href="https://genius.com/Awolnation-passion-lyrics" rel="noopener" data-api_path="/songs/3270748"&gt;Passion&lt;/a&gt;,” “&lt;a href="https://genius.com/Awolnation-seven-sticks-of-dynamite-lyrics" rel="noopener" data-api_path="/songs/3306167"&gt;Seven Sticks of Dynamite&lt;/a&gt;,” and current Top 20 Alt Rock hit, “&lt;a href="https://genius.com/Awolnation-handyman-lyrics" rel="noopener" data-api_path="/songs/3306273"&gt;Handyman&lt;/a&gt;.”&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Hayley-williams', 'annotations': {'description': '&lt;p&gt;Hayley Williams is an American singer born on December 27, 1988; she is the lead vocalist, songwriter, and keyboardist of the Rock/Pop-Punk band &lt;a href="https://genius.com/artists/Paramore" rel="noopener" data-api_path="/artists/22531"&gt;Paramore&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Hayley came to light in the music scene when she was only 16 years old and released with the band their debut album &lt;a href="https://genius.com/albums/Paramore/All-we-know-is-falling" rel="noopener" data-api_path="/albums/28192"&gt;&lt;em&gt;All We Know Is Falling&lt;/em&gt;&lt;/a&gt; which reached number 8 on the UK Rock Chart. It was their second album, the Platinum-certified &lt;a href="https://genius.com/albums/Paramore/Riot" rel="noopener" data-api_path="/albums/25380"&gt;&lt;em&gt;Riot!&lt;/em&gt;&lt;/a&gt; from 2007, that gave the band and Hayley worldwide recognition. She would go on to make three more albums with the band: &lt;a href="https://genius.com/albums/Paramore/Brand-new-eyes" rel="noopener" data-api_path="/albums/19097"&gt;&lt;i&gt;Brand New Eyes&lt;/i&gt;&lt;/a&gt; released in 2009, &lt;a href="https://genius.com/albums/Paramore/Paramore" rel="noopener" data-api_path="/albums/28272"&gt;&lt;i&gt;Paramore&lt;i&gt;&lt;/i&gt;&lt;/i&gt;&lt;/a&gt; released in 2013, and &lt;a href="https://genius.com/albums/Paramore/After-laughter" rel="noopener" data-api_path="/albums/340733"&gt;&lt;i&gt;After Laughter&lt;/i&gt;&lt;/a&gt; released in 2017.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Hayley was featured on the B.o.B single, &lt;a href="https://genius.com/Bob-airplanes-lyrics" rel="noopener" data-api_path="/songs/428"&gt;“Airplanes”&lt;/a&gt;, which was a commercial success reaching No.1 in the UK and No.2 in the US. She has come to be featured on several other commercially successful singles such as Zedd’s &lt;a href="https://genius.com/Zedd-stay-the-night-lyrics" rel="noopener" data-api_path="/songs/216074"&gt;“Stay the Night”&lt;/a&gt; in 2013 and New Found Glory’s &lt;a href="https://genius.com/New-found-glory-vicious-love-lyrics" rel="noopener" data-api_path="/songs/530919"&gt;“Vicious Love”&lt;/a&gt; in 2014. Regardless, Hayley’s main focus remains in her band, Paramore.&lt;/p&gt;\n\n&lt;p&gt;In 2020 she released her solo debut &lt;a href="https://genius.com/Hayley-williams-simmer-lyrics" rel="noopener" data-api_path="/songs/5190196"&gt;“Simmer”&lt;/a&gt;, and announced her debut album &lt;a href="https://genius.com/albums/Hayley-williams/Petals-for-armor" rel="noopener" data-api_path="/albums/595868"&gt;&lt;em&gt;Petals For Armor&lt;/em&gt;&lt;/a&gt;, which was released in May the same year.&lt;/p&gt;\n\n&lt;p&gt;Besides the music, in 2016, she released her own hair dye company, &lt;a href="https://www.gooddyeyoung.com/" rel="noopener nofollow"&gt;Good Dye Young&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Hayley Nichole Williams', 'Hayley Williams of Paramore', 'Hayley Williams from Paramore']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Soundgarden', 'annotations': {'description': '&lt;p&gt;One of the biggest rock bands out of Seattle, Soundgarden was formed in 1984 by singer and rhythm guitarist &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt;, lead guitarist &lt;a href="https://genius.com/artists/Kim-thayil" rel="noopener" data-api_path="/artists/564464"&gt;Kim Thayil&lt;/a&gt;, and bassist Hiro Yamamoto. &lt;a href="https://genius.com/artists/Matt-cameron" rel="noopener" data-api_path="/artists/564462"&gt;Matt Cameron&lt;/a&gt; became the band’s full-time drummer in 1986, while bassist &lt;a href="https://genius.com/artists/Ben-shepherd" rel="noopener" data-api_path="/artists/564463"&gt;Ben Shepherd&lt;/a&gt; became a permanent replacement for Yamamoto in 1990. While one of the creators of the Grunge alternative rock and the first to sign to a major label, they only rose to stardom once the genre was popularized by &lt;a href="https://genius.com/artists/Nirvana" rel="noopener" data-api_path="/artists/12712"&gt;Nirvana&lt;/a&gt;, &lt;a href="https://genius.com/artists/Pearl-jam" rel="noopener" data-api_path="/artists/22696"&gt;Pearl Jam&lt;/a&gt; and &lt;a href="https://genius.com/artists/Alice-in-chains" rel="noopener" data-api_path="/artists/32179"&gt;Alice in Chains&lt;/a&gt; in the early 90s. After achieving great success with 1994’s &lt;em&gt;&lt;a href="https://genius.com/albums/Soundgarden/Superunknown" rel="noopener" data-api_path="/albums/25916"&gt;Superunknown&lt;/a&gt;&lt;/em&gt;, the band decided to call it quits three years later due to internal squabbles. Eventually they reunited in 2010, releasing new album &lt;em&gt;&lt;a href="https://genius.com/albums/Soundgarden/King-animal" rel="noopener" data-api_path="/albums/26866"&gt;King Animal&lt;/a&gt;&lt;/em&gt; two years later. Frontman Chris Cornell committed suicide in a Detroit hotel room on May 17, 2017. He was 52 years old.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Scorpions', 'annotations': {'description': '&lt;p&gt;Scorpions is a Hard Rock/Heavy Metal band formed in Hannover, Germany. The band was founded in 1965 and their debut album “Lonesome Crow” was released 1972. They released 5 more albums throught the 70’s, some of which, are considered to be their best ones, but their big break out was in the 80’s with albums like “Blackout” and “Love at First Sting”. In this decade, songs like “The Zoo”, “Blackout”, “No One Like You”,  “Rock You Like a Hurricane” and “Still loving You” became hits on the charts and overall classics of  the band. The 90´s started with their eleventh album “Crazy World” that included classics like “Hit Between the Eyes”, “Send Me and Angel” and “Wind of Change” (this last one became a became an icon of the  end of the cold war era). After that, they released 8 more albums with succesful tours across the world. With a 50+ years career, they’re considered one of the most important and influential Heavy Metal bands ever.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Caesars', 'annotations': {'description': '&lt;p&gt;Caesars was a four member band formed in Stockholm in 1993. They released their first EP in 1995 and their third studio-album ‘Love for the Streets’ in their native country in 2002. It was the album that carried their biggest hit ‘Jerk it out’ which gained global success when it appeared in a wildly broadcasted commercial in 2005.&lt;br&gt;\nThey released their last full-length album called “Strawberry Weed” in 2008.&lt;br&gt;\nIn 2012 the band’s guitarist Joakim Åhlund stated that they’d “put the band on ice”, and they haven’t released anything since.&lt;/p&gt;', 'alternate_names': ["Caesar's Palace"]}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Fine-young-cannibals', 'annotations': {'description': '&lt;p&gt;Their name came from the 1960 film &lt;em&gt;All the Fine Young Cannibals&lt;/em&gt;&lt;/p&gt;', 'alternate_names': ['A Drum Machine and a Trumpet', 'Two Men']}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/Justin-timberlake', 'annotations': {'description': '&lt;p&gt;Justin Randall Timberlake (born January 31, 1981) is an American singer, songwriter, and actor. Born in Memphis, Tennessee, he appeared on the television shows &lt;em&gt;Star Search&lt;/em&gt; and &lt;em&gt;The All-New Mickey Mouse Club&lt;/em&gt; as a child. In the late 1990s, Timberlake rose to prominence as one of the two lead vocalists and youngest member of the boy band &lt;a href="https://genius.com/artists/N-sync" rel="noopener" data-api_path="/artists/8625"&gt;NSYNC&lt;/a&gt;, which eventually became one of the best-selling boy bands of all time.&lt;/p&gt;\n\n&lt;p&gt;In 2002, Timberlake released his solo debut, &lt;em&gt;Justified,&lt;/em&gt; with some help from The Neptunes and Timbaland on production. Timbaland and Timberlake would continue their collaboration on 2006’s &lt;em&gt;FutueSex/LoveSounds&lt;/em&gt;, on which Timbaland produced all but two tracks.&lt;/p&gt;', 'alternate_names': ['Justin Randall', 'Justin R. Timberlake', 'Justin Randall Timberlake']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Orchestral-manoeuvres-in-the-dark', 'annotations': {'description': '&lt;p&gt;Orchestral Manoeuvres in the Dark began as a synth-pop duo in Merseyside, England. Paul Humphreys and Andy McCluskey played together in The Id before joining forces as Orchestral Manoeuvres.&lt;/p&gt;', 'alternate_names': ['OMD']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Camouflage', 'annotations': {'description': '&lt;p&gt;Camouflage is a German synth-pop trio consisting of lead singer Marcus Meyn, Heiko Maile and Oliver Kreyssig.&lt;br&gt;\nTheir only Billboard Hot 100 hit was “The Great Commandment”, which earned No. 59 place in 1988, and earned three weeks at No. 1 on the US dance chart. They also had two additional minor dance hits in 1989 out which “Love Is A Shield reached No. 9 on the German chart. They were included in the music compilation listing ‘Tucker Rock’ in December of 2018. This honor was validated by the band’s listing on the Pandora Station by the same name.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Desireless', 'annotations': {'description': '&lt;p&gt;Claudie Fritsch-Mentrop, known by her stage name Desireless (born 25 December 1952, Paris, France), is a French singer. Between 1986 and 1988, her hit single “Voyage, voyage” made it to number one in many European and Asian single charts and sold over five million copies.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Oliver-tree', 'annotations': {'description': '&lt;p&gt;Oliver Tree Nickell (Born June 29, 1993) is a vocalist, producer, and prolific scooter rider hailing from Santa Cruz, California. On March 27, 2016, Oliver released a video on Vine, entitled, &lt;a href="https://youtu.be/_hhAd8C4SvY" rel="noopener nofollow"&gt;“I’m Turbo”&lt;/a&gt;, which was the first appearance of his persona, Turbo.&lt;/p&gt;\n\n&lt;p&gt;He released music under the name Tree before “When I’m Down”, his upbeat dance song with collaborator Whethan went viral, leading him to sign with Atlantic Records in 2017.&lt;/p&gt;\n\n&lt;p&gt;The genre-defying &lt;a href="https://genius.com/albums/Oliver-tree/Alien-boy-ep" rel="noopener" data-api_path="/albums/403753"&gt;&lt;i&gt;Alien Boy&lt;/i&gt;&lt;/a&gt; EP, the world’s first glimpse at Oliver’s potential, followed the next year and earned tens of millions of streams. Known for his big-budget music videos and the comedic clips posted on his social media, Oliver joined The Chainsmokers on select dates of their tour and played many festivals while attracting attention to his unique and unorthodox fashion sense.&lt;/p&gt;\n\n&lt;p&gt;The Huffington Post described Oliver as “an enigma of genre. While (Oliver is) primarily a pianist, guitarist, and producer, his real-instruments-based-production incorporates rap, male and female vocal harmonies, poetic lyrics, strings and a hearty dose of synth…”&lt;/p&gt;\n\n&lt;p&gt;Oliver’s debut album, &lt;a href="https://genius.com/albums/Oliver-tree/Ugly-is-beautiful" rel="noopener" data-api_path="/albums/487099"&gt;&lt;i&gt;Ugly is Beautiful&lt;/i&gt;&lt;/a&gt;, released July 17th, to astonishing fanfare, reaching top 3 on the iTunes charts within 24 hours of it being released.&lt;/p&gt;\n\n&lt;p&gt;Oliver followed up the release of Ugly is Beautiful almost a year later with a Deluxe edition of the album that released on May 28th, 2021.&lt;/p&gt;', 'alternate_names': ['Tree', 'Oliver Tree Nickell']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Big-ali', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Billie-eilish', 'annotations': {'description': '&lt;p&gt;Billie Eilish Pirate Baird O\'Connell (b. December 18, 2001), known professionally as Billie Eilish, is an American singer and songwriter born and raised in Los Angeles, California.&lt;/p&gt;\n\n&lt;p&gt;Working alongside her older brother &lt;a href="https://genius.com/artists/Finneas" rel="noopener" data-api_path="/artists/615565"&gt;Finneas&lt;/a&gt;, her co-writer and producer, she’s taken the internet by storm with her haunting vocals and eerily beautiful lyrics and genre-defying production that was poised to breakout.&lt;/p&gt;\n\n&lt;p&gt;For Billie, creating music wasn’t always her niche—dancing was. Born and raised in the entertainment mecca of Los Angeles, from a family comprised of musicians and actors, Billie was enthralled in the spotlight of dance. However, amid a &lt;a href="https://www.interviewmagazine.com/music/discovery-billie-eilish" rel="noopener nofollow"&gt;growth plate injury in 2015&lt;/a&gt;, she was in practice for a recital dancing eleven hours a week for, she became an underground pop sensation.&lt;/p&gt;\n\n&lt;p&gt;Singing and songwriting had never been unknown to Billie, having &lt;a href="http://www.bbc.com/news/entertainment-arts-40580489" rel="noopener nofollow"&gt;written her first song at four and joined the Los Angeles Children’s Choir at eight&lt;/a&gt;. &lt;a href="https://www.harpersbazaar.com/culture/art-books-music/a13040159/billie-eilish-interview/" rel="noopener nofollow"&gt;So when her dance instructor was looking for a song to choreograph&lt;/a&gt;, Billie, with help from Finneas, created &lt;a href="https://genius.com/Billie-eilish-ocean-eyes-lyrics" rel="noopener" data-api_path="/songs/2403346"&gt;“ocean eyes.”&lt;/a&gt; The two also agreed to upload it to SoundCloud, where it went viral with over two million streams, landing her a record deal with Interscope.&lt;/p&gt;\n\n&lt;p&gt;From there, &lt;a href="https://open.spotify.com/artist/6qqNVTkY8uBg9cP3Jd7DAH" rel="noopener nofollow"&gt;several remixes spawned and a follow-up single&lt;/a&gt; &lt;a href="https://genius.com/Billie-eilish-six-feet-under-lyrics" rel="noopener" data-api_path="/songs/2800298"&gt;“Six Feet Under”&lt;/a&gt; &lt;a href="https://open.spotify.com/artist/6qqNVTkY8uBg9cP3Jd7DAH" rel="noopener nofollow"&gt;was released the following year.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In 2017, she released her debut EP, &lt;a href="https://genius.com/albums/Billie-eilish/Dont-smile-at-me-ep" rel="noopener" data-api_path="/albums/353310"&gt;&lt;i&gt;dont smile at me&lt;/i&gt;&lt;/a&gt;, which received mainstream applause and landed her a spot on Apple Music’s showcase for upcoming artists, &lt;a href="https://itunes.apple.com/us/show/up-next-billie-eilish/1271486673" rel="noopener nofollow"&gt;&lt;i&gt;UpNext&lt;/i&gt;.&lt;/a&gt; The EP also hit the top 40 on the &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8467303/billboard-200-chart-moves-billie-eilishs-dont-smile-at-me-top-40" rel="noopener nofollow"&gt;&lt;i&gt;Billboard 200&lt;/i&gt;&lt;/a&gt; on July 19th.&lt;/p&gt;\n\n&lt;p&gt;On March 29th, 2019, Billie Eilish released her highly anticipated debut album, &lt;a href="https://genius.com/albums/Billie-eilish/When-we-all-fall-asleep-where-do-we-go" rel="noopener" data-api_path="/albums/418893"&gt;&lt;em&gt;WHEN WE ALL FALL ASLEEP, WHERE DO WE GO?&lt;/em&gt;&lt;/a&gt; — a record centered around Eilish’s fascination with dreams and nightmares. Two weeks before its release, the album was officially &lt;a href="https://www.macrumors.com/2019/03/22/billie-eilish-breaks-record-pre-adding/" rel="noopener nofollow"&gt;given the title&lt;/a&gt; of “most pre-saved album of all time on Apple Music,” with over 800,000 to its name.&lt;/p&gt;\n\n&lt;p&gt;In 2020, Billie Eilish was nominated for 6 categories for the &lt;a href="https://www.grammy.com/grammys/news/2020-grammy-awards-nominations-complete-winners-list" rel="noopener nofollow"&gt;62nd Grammy Awards&lt;/a&gt; ceremony, alongside with her brother Finneas. She was nominated in the five main categories (“Album of the Year”, “Best New Artist”, “Best Pop Solo Performance”, “Song of the Year”, Record of the Year") and “Best Pop Vocal Album”. Finneas was nominated in “Producer of the Year – non classical” and he won. Eilish won 5 Grammys in the 62nd ceremony: Album of the Year (“WHEN WE ALL FALL ASLEEP, WHERE DO WE GO ?”), Song of the Year (“bad guy”), Record of the Year (“bad guy”), Best New Artist and Best Pop Vocal Album (“WHEN WE ALL FALL ASLEEP, WHERE DO WE GO ?).&lt;/p&gt;\n\n&lt;p&gt;In 2021, Billie and Finneas also won in the &lt;a href="https://www.grammy.com/grammys/news/2021-grammys-complete-winners-nominees-list" rel="noopener nofollow"&gt;63rd Grammy Awards&lt;/a&gt; with two categories: Best Song Written for a Visual Media (“&lt;a href="https://genius.com/Billie-eilish-no-time-to-die-lyrics" rel="noopener" data-api_path="/songs/5173169"&gt;No Time To Die&lt;/a&gt;”, for the last James Bond movie) and Record of the Year (“&lt;a href="https://genius.com/Billie-eilish-everything-i-wanted-lyrics" rel="noopener" data-api_path="/songs/5013279"&gt;everything i wanted&lt;/a&gt;”, released in 2019).&lt;/p&gt;\n\n&lt;p&gt;On April 26, 2021, Billie Eilish &lt;a href="https://twitter.com/billieeilish/status/1386711797906898946" rel="noopener nofollow"&gt;teased&lt;/a&gt; the album’s title track, &lt;a href="https://genius.com/Billie-eilish-happier-than-ever-lyrics" rel="noopener" data-api_path="/songs/6533253"&gt;&lt;em&gt;Happier Than Ever.&lt;/em&gt;&lt;/a&gt; Shortly after, &lt;a href="https://twitter.com/kelsucker/status/1387018534337843200" rel="noopener nofollow"&gt;billboards&lt;/a&gt; appeared in different locations that revealed the album’s title and release date of July 30, 2021, and an &lt;a href="https://www.instagram.com/p/COLIii2FB_R/?utm_source=ig_web_copy_link" rel="noopener nofollow"&gt;Instagram post&lt;/a&gt; from April 27 revealed the album’s cover artwork and announced the release of a new single on April 29, 2021. Eilish &lt;a href="https://www.musictimes.com/articles/82556/20210730/billie-eilish-breaks-record-happier-listen.htm" rel="noopener nofollow"&gt;broke her previous record&lt;/a&gt; for the most pre-saved album with a whopping 1,028,000 pre-saves for &lt;em&gt;Happier Than Ever.&lt;/em&gt;&lt;/p&gt;', 'alternate_names': ["Billie Eilish O'Connell", "Billie O'Connell", "Billie Eilish Pirate Baird O'Connell"]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Kanye-west', 'annotations': {'description': '&lt;p&gt;The ubiquitous &lt;a href="https://www.kanyewest.com/" rel="noopener nofollow"&gt;Kanye West&lt;/a&gt;—from his famous quip, &lt;a href="http://www.youtube.com/watch?v=zIUzLpO1kxI" rel="noopener nofollow"&gt;“George Bush doesn’t care about black people,”&lt;/a&gt; to &lt;a href="http://www.youtube.com/watch?v=1z8gCZ7zpsQ#t=43" rel="noopener nofollow"&gt;“I\'ma let you finish,”&lt;/a&gt; to marrying &lt;a href="https://genius.com/artists/Kim-kardashian" rel="noopener" data-api_path="/artists/55920"&gt;Kim Kardashian&lt;/a&gt; (and later divorcing her), to announcing that he’s &lt;a href="http://www.cnn.com/2015/08/31/politics/kanye-west-2020-running-for-president-vma/" rel="noopener nofollow"&gt;running for President&lt;/a&gt;, and admitting his &lt;a href="https://twitter.com/kanyewest/status/989179757651574784" rel="noopener nofollow"&gt;love for President Trump&lt;/a&gt;—you can see that he’s a staple of the tabloids and the entertainment world, industry-wide.&lt;/p&gt;\n\n&lt;p&gt;That certainly doesn’t take anything away from his music; as a matter of fact, it only seems to add to his fortuitous career. For instance, his 2010 album, &lt;a href="https://genius.com/albums/Kanye-west/My-beautiful-dark-twisted-fantasy" rel="noopener" data-api_path="/albums/4343"&gt;&lt;em&gt;My Beautiful Dark Twisted Fantasy&lt;/em&gt;&lt;/a&gt;, was universally praised by fans and critics alike; it was recorded during the backlash he received from the Swift interruption and during his break-up with then-girlfriend &lt;a href="https://genius.com/artists/Amber-rose" rel="noopener" data-api_path="/artists/16391"&gt;Amber Rose&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He has scored other well-known hits, as well, from each of his previous studio albums—such as &lt;a href="https://genius.com/Kanye-west-stronger-lyrics" rel="noopener" data-api_path="/songs/525"&gt;“Stronger,”&lt;/a&gt; &lt;a href="https://genius.com/Kanye-west-heartless-lyrics" rel="noopener" data-api_path="/songs/526"&gt;“Heartless,”&lt;/a&gt; and &lt;a href="https://genius.com/Kanye-west-gold-digger-lyrics" rel="noopener" data-api_path="/songs/1267"&gt;“Gold Digger.”&lt;/a&gt; Each of his albums has been a massive critical and commercial success, including his collaboration album with &lt;a href="https://genius.com/artists/Jay-z" rel="noopener" data-api_path="/artists/2"&gt;JAY-Z&lt;/a&gt;, &lt;a href="https://genius.com/albums/Jay-z-and-kanye-west/Watch-the-throne" rel="noopener" data-api_path="/albums/350432"&gt;&lt;em&gt;Watch the Throne&lt;/em&gt;&lt;/a&gt;. As of 2021, West has won an astounding &lt;a href="https://www.grammy.com/grammys/artists/kanye-west" rel="noopener nofollow"&gt;22 Grammys&lt;/a&gt;, as the second most decorated hip-hop artist in Grammy history, only behind JAY-Z’s record-holding 23 wins.&lt;/p&gt;\n\n&lt;p&gt;Kanye’s sixth solo album, &lt;a href="https://genius.com/albums/Kanye-west/Yeezus" rel="noopener" data-api_path="/albums/34024"&gt;&lt;em&gt;Yeezus&lt;/em&gt;&lt;/a&gt;, polarized his fan base and the general public but was heaped with rave reviews by music critics. In 2016, West released his seventh and most delayed body of work, &lt;a href="https://genius.com/albums/Kanye-west/The-Life-of-Pablo" rel="noopener" data-api_path="/albums/120604"&gt;&lt;em&gt;The Life of Pablo&lt;/em&gt;&lt;/a&gt;, which was &lt;a href="http://www.independent.co.uk/arts-entertainment/music/news/kanye-west-life-of-pablo-illegally-downloaded-500,000-times-already-a6878741.html" rel="noopener nofollow"&gt;illegally downloaded over 500,000 times,&lt;/a&gt; frustrating fans after its TIDAL-exclusive release. West notably updated the album multiple times on TIDAL after its release.&lt;/p&gt;\n\n&lt;p&gt;Quite possibly West’s most surprising contribution to the music industry was his production streak during the summer of 2018, in which he produced five albums. Among these was a collaborative project with &lt;a href="https://genius.com/artists/Kid-cudi" rel="noopener" data-api_path="/artists/68"&gt;Kid Cudi&lt;/a&gt;, titled &lt;a href="https://genius.com/albums/Kids-see-ghosts/Kids-see-ghosts" rel="noopener" data-api_path="/albums/425948"&gt;&lt;em&gt;KIDS SEE GHOSTS&lt;/em&gt;&lt;/a&gt;; along with his eighth studio album, &lt;a href="https://genius.com/albums/Kanye-west/Ye" rel="noopener" data-api_path="/albums/424304"&gt;&lt;em&gt;ye&lt;/em&gt;&lt;/a&gt;, which tied &lt;a href="https://genius.com/artists/Eminem" rel="noopener" data-api_path="/artists/45"&gt;Eminem&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt; for &lt;a href="https://www.nytimes.com/2018/06/11/arts/music/kanye-west-ye-billboard-no-1-chart.html" rel="noopener nofollow"&gt;eight consecutive chart-topping releases&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The public’s love for Kanye West has been apparent from the get-go, and each of his solo albums, barring his 2004 debut, &lt;a href="https://genius.com/albums/Kanye-west/The-college-dropout" rel="noopener" data-api_path="/albums/4342"&gt;&lt;em&gt;The College Dropout&lt;/em&gt;&lt;/a&gt;, has peaked at #1 on the U.S. &lt;a href="https://www.billboard.com/music/kanye-west/chart-history/billboard-200" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt; 200&lt;/a&gt; Album Chart. Another major standout, 2008’s &lt;a href="https://genius.com/albums/Kanye-west/808s-heartbreak" rel="noopener" data-api_path="/albums/4339"&gt;&lt;em&gt;808s &amp;amp; Heartbreak&lt;/em&gt;&lt;/a&gt;, is largely credited with influencing the next generation of rappers; from the emphasis on heavy beats and melodic instrumentals to the use of auto-tune.&lt;/p&gt;\n\n&lt;p&gt;His ninth studio album, &lt;em&gt;Yandhi&lt;/em&gt;, was originally scheduled to be released on September 29, 2018, and then again on November 26, 2018. However, West rescheduled the album release, because he felt it wasn’t finished yet. On August 29, 2019, Kim Kardashian-West teased a new Kanye album tracklist &lt;a href="https://twitter.com/KimKardashian/status/1167154538643513344?s=19" rel="noopener nofollow"&gt;via Twitter&lt;/a&gt;, with the title &lt;a href="https://genius.com/albums/Kanye-west/Jesus-is-king" rel="noopener" data-api_path="/albums/558030"&gt;&lt;em&gt;Jesus is King&lt;/em&gt;. &lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Kanye seemed to confirm this by clearing his official website and posting the same image of the tracklist with the expected drop date at the bottom, September 27, 2019; almost a year after &lt;em&gt;Yandhi&lt;/em&gt; was supposed to be released. However, the release was delayed to October 25th, to release along with his accompanying documentary.&lt;/p&gt;\n\n&lt;p&gt;Furthermore, after years of claiming he would run for President, he finally &lt;a href="https://twitter.com/kanyewest/status/1279575273365594112?s=20" rel="noopener nofollow"&gt;announced so on Twitter&lt;/a&gt; which was met with much controversy, many claiming it was a publicity stunt for his forthcoming album, &lt;a href="https://genius.com/albums/Kanye-west/Donda" rel="noopener" data-api_path="/albums/579559"&gt;&lt;em&gt;Donda&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On August 24, 2021, West applied to have his name changed from Kanye Omari West to Ye, he cited “personal reasons” for the change. On October 18, 2021, the request was granted. West had alluded to wishing to change his name since 2018 and had used Ye as a nickname for several years prior. In a &lt;a href="https://www.newsweek.com/why-has-kanye-west-changed-his-name-ye-meaning-explained-1640228" rel="noopener nofollow"&gt;June 2018 interview&lt;/a&gt;, he explained:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I believe ‘ye’ is the most commonly used word in the Bible. In the Bible it means you. So, I’m you. I’m us. It’s us. It went from being Kanye, which means the only one, to just Ye. Just being a reflection of our good, our bad, our confused – everything. It’s more of a reflection of who we are [as] beings.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': ['Ye', 'Kanye', 'Yeezus', 'Kanye Omari West', 'Mr. West', 'Yeezy', 'Louis Vuitton Don', 'Yandhi', 'Martin Louis The King Jr', 'Christian Genius Billionaire', 'Kanye O. West']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sugar-ray', 'annotations': {'description': '&lt;p&gt;Sugar Ray is an American rock band from Newport Beach, California. Originally forming in 1986. They originally played rap-rock, with early singles like “Iron Mic” and “Mean Machine”. The band achieved mainstream popularity in 1997 with their more pop-influenced single, “Fly”. The song’s success led the band to shift its style dramatically to the more radio-friendly pop sound with their newer releases. Their best-selling album, 14:59, was released in 1999, and featured popular singles “Every Morning”, “Someday”, and “When It’s Over”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Nwa', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Eazy-e" rel="noopener" data-api_path="/artists/496"&gt;Eazy-E&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dr-dre" rel="noopener" data-api_path="/artists/123"&gt;Dr.\xa0Dre&lt;/a&gt;, &lt;a href="https://genius.com/artists/Ice-cube" rel="noopener" data-api_path="/artists/186"&gt;Ice Cube&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mc-ren" rel="noopener" data-api_path="/artists/1436"&gt;MC Ren&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dj-yella" rel="noopener" data-api_path="/artists/7973"&gt;DJ Yella&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Arabian-prince" rel="noopener" data-api_path="/artists/3183"&gt;Arabian Prince&lt;/a&gt; initially formed the collective known as “the world’s most dangerous group,” N.W.A.—Niggaz With Attitudes.&lt;/p&gt;\n\n&lt;p&gt;Following Ice Cube’s stint in &lt;a href="https://genius.com/artists/Cia" rel="noopener" data-api_path="/artists/1064"&gt;C.I.A.&lt;/a&gt; and Dre and Yella’s departure from the &lt;a href="https://genius.com/artists/World-class-wreckin-cru" rel="noopener" data-api_path="/artists/11169"&gt;World Class Wreckin Cru&lt;/a&gt;, they got together with Compton hustler Eric “Eazy-E” Wright, who formed Ruthless Records and released Eazy’s single &lt;a href="https://genius.com/Eazy-e-boyz-n-the-hood-lyrics" rel="noopener" data-api_path="/songs/380408"&gt;“Boyz n the Hood,”&lt;/a&gt; written by Cube and produced by Dre. A compilation entitled &lt;em&gt;N.W.A. and the Posse&lt;/em&gt; was released in 1987 but the group’s seminal debut, &lt;a href="https://genius.com/albums/Nwa/Straight-outta-compton" rel="noopener" data-api_path="/albums/7242"&gt;&lt;em&gt;Straight Outta Compton&lt;/em&gt;&lt;/a&gt;, was released on August 8, 1988. It led to the rise of gangsta rap and West Coast hip-hop in general with their tales of “reality rap” from the streets of Compton and South Central Los Angeles. Their song “Fuck tha Police” even put the group on the hit list of the FBI.&lt;/p&gt;\n\n&lt;p&gt;Arabian Prince was the first to leave the group in 1988 over a financial dispute. Ice Cube left N.W.A. in 1989 after his own financial dispute, leading to the other members to diss him on their subsequent releases: the 1990 EP &lt;a href="https://genius.com/albums/Nwa/100-miles-and-runnin" rel="noopener" data-api_path="/albums/11052"&gt;&lt;em&gt;100 Miles and Runnin\'&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Nwa/Efil4zaggin" rel="noopener" data-api_path="/albums/7232"&gt;&lt;em&gt;EFIL4ZAGGIN&lt;/em&gt;&lt;/a&gt;, which was released in 1991 and peaked at #1 on the Billboard 200 chart. &lt;a href="https://genius.com/artists/The-doc" rel="noopener" data-api_path="/artists/1129"&gt;The D.O.C.&lt;/a&gt;, who contributed to &lt;em&gt;Straight Outta Compton&lt;/em&gt; and was still recovering from a car accident that severly altered his strong voice, wrote more rhymes for Dr. Dre and Eazy-E on the &lt;em&gt;EFIL4ZAGGIN&lt;/em&gt; album in attempt to fill the void left by Cube.&lt;/p&gt;\n\n&lt;p&gt;Following N.W.A.’s jabs, Ice Cube threw the knockout blow to the group with his track &lt;a href="https://genius.com/Ice-cube-no-vaseline-lyrics" rel="noopener" data-api_path="/songs/761"&gt;“No Vaseline,”&lt;/a&gt; which, in part, led to Dr. Dre leaving N.W.A. and Ruthless Records with his own financial dispute similar to Cube’s two years earlier. Dre and The D.O.C. went on to establish Death Row Records with Suge Knight in 1992, where Dre would innovate the G-Funk sound and further establish the success of the West Coast sound in hip-hop.&lt;/p&gt;\n\n&lt;p&gt;After back-and-forth disses between &lt;a href="https://genius.com/Dr-dre-fuck-wit-dre-day-and-everybodys-celebratin-lyrics" rel="noopener" data-api_path="/songs/1398"&gt;Dr. Dre&lt;/a&gt; and &lt;a href="https://genius.com/Eazy-e-real-muthaphuckkin-gs-lyrics" rel="noopener" data-api_path="/songs/902"&gt;Eazy-E&lt;/a&gt;, plans for an N.W.A. reunion were in the discussion stages when Eazy-E died of AIDS in 1995. Ice Cube, Dr. Dre, and MC Ren have since reunited to record the tracks &lt;a href="https://genius.com/Nwa-chin-check-lyrics" rel="noopener" data-api_path="/songs/4833"&gt;“Chin Check”&lt;/a&gt; and &lt;a href="https://genius.com/Ice-cube-hello-lyrics" rel="noopener" data-api_path="/songs/23066"&gt;“Hello.”&lt;/a&gt; In 2015, a biographical drama titled &lt;a href="https://www.imdb.com/title/tt1398426/" rel="noopener nofollow"&gt;&lt;em&gt;Straight Outta Compton&lt;/em&gt;&lt;/a&gt; was released to critical acclaim and a box office gross of over $200 million worldwide. The group was inducted into the Rock and Roll Hall of Fame in 2016.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f7c82b07938f54dd0f3a32ec6349c0be.500x220x1.png" alt="" width="500" height="220" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['Niggaz Wit Attitudes', 'Niggaz With Attitudes', 'Dr. Dre x Ice Cube x Eazy-E x MC Ren x DJ Yella', '(N.W.A.) The D.O.C']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jamiroquai', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Jamiroquai&lt;/strong&gt; is an acid-jazz band formed in London in 1992. It’s led by frontman &lt;a href="https://genius.com/artists/Jason-kay" rel="noopener" data-api_path="/artists/2521215"&gt;Jay Kay&lt;/a&gt;, the band’s best-known and only remaining original member. Early Jamiroquai records were known for the use of a didgeridoo, played by &lt;a href="https://genius.com/artists/Wallis-buchanan" rel="noopener" data-api_path="/artists/989947"&gt;Wallis Buchanan&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The name “Jamiroquai” is a portmanteau of “jam session” and the Native American “Iroquoi” tribe. Jay Kay’s interest in Native Americans can be seen clearly in the video for &lt;a href="https://genius.com/Jamiroquai-too-young-to-die-lyrics" rel="noopener" data-api_path="/songs/2165125"&gt;“Too Young To Die.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;As of January 2017, Jamiroquai is:&lt;br&gt;\n– Jay Kay&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Derrick-mckenzie" rel="noopener" data-api_path="/artists/514811"&gt;Derrick McKenzie&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Sola-akingbola" rel="noopener" data-api_path="/artists/989949"&gt;Sola Akingbola&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Rob-harris" rel="noopener" data-api_path="/artists/430309"&gt;Rob Harris&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Matthew-johnson" rel="noopener" data-api_path="/artists/669257"&gt;Matthew Johnson&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Paul-turner" rel="noopener" data-api_path="/artists/531823"&gt;Paul Turner&lt;/a&gt;&lt;br&gt;\n– Jim Corry&lt;br&gt;\n– Malcolm Strachan&lt;/p&gt;\n\n&lt;p&gt;The group’s 7th album titled &lt;a href="https://genius.com/albums/Jamiroquai/Automaton" rel="noopener" data-api_path="/albums/327380"&gt;&lt;em&gt;Automaton&lt;/em&gt;&lt;/a&gt; was released on 31 March, 2017, nearly 6,5 years after the release of &lt;a href="https://genius.com/albums/Jamiroquai/Rock-dust-light-star" rel="noopener" data-api_path="/albums/125040"&gt;&lt;em&gt;Rock Dust Light Star.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Supertramp', 'annotations': {'description': '&lt;p&gt;Supertramp are an English rock band formed in 1969 (assuming this name in 1970). Their style oscillates between progressive rock and a more mainstream pop rock. The band’s work is marked by the songwriting of founders Rick Davies and Roger Hodgson and the prominent use of Wurlitzer electric piano and saxophone.&lt;/p&gt;\n\n&lt;p&gt;Garnering tremendous success in the latter half of the ‘70s, Supertramp created several very popular and recognisable hit singles, beginning with &lt;a href="https://genius.com/Supertramp-school-lyrics" rel="noopener" data-api_path="/songs/307015"&gt;School&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-dreamer-lyrics" rel="noopener" data-api_path="/songs/732412"&gt;Dreamer&lt;/a&gt; off their 1974 commercial breakthrough, &lt;a href="https://genius.com/albums/Supertramp/Crime-of-the-century" rel="noopener" data-api_path="/albums/67354"&gt;&lt;em&gt;Crime Of The Century&lt;/em&gt;&lt;/a&gt;. 1977’s &lt;a href="https://genius.com/albums/Supertramp/Even-in-the-quietest-moments" rel="noopener" data-api_path="/albums/147348"&gt;&lt;em&gt;Even In The Quietest Moments…&lt;/em&gt;&lt;/a&gt; saw two more Hodgson-penned highlights in &lt;a href="https://genius.com/Supertramp-give-a-little-bit-lyrics" rel="noopener" data-api_path="/songs/967668"&gt;Give A Little Bit&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-fools-overture-lyrics" rel="noopener" data-api_path="/songs/1645350"&gt;Fool’s Overture&lt;/a&gt;, before the band and its leading duo reached their peak with the band’s top-selling record, 1979’s &lt;a href="https://genius.com/albums/Supertramp/Breakfast-in-america" rel="noopener" data-api_path="/albums/82564"&gt;&lt;em&gt;Breakfast In America&lt;/em&gt;&lt;/a&gt;. This album alone includes no less than 6 popular tracks: four of Hodgson’s (&lt;a href="https://genius.com/Supertramp-the-logical-song-lyrics" rel="noopener" data-api_path="/songs/440468"&gt;The Logical Song&lt;/a&gt;, &lt;a href="https://genius.com/Supertramp-take-the-long-way-home-lyrics" rel="noopener" data-api_path="/songs/482326"&gt;Take The Long Way Home&lt;/a&gt;, &lt;a href="https://genius.com/Supertramp-child-of-vision-lyrics" rel="noopener" data-api_path="/songs/477112"&gt;Child Of Vision&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-breakfast-in-america-lyrics" rel="noopener" data-api_path="/songs/482324"&gt;the title track&lt;/a&gt;) and the two most well-known of Davies’ creations, &lt;a href="https://genius.com/Supertramp-gone-hollywood-lyrics" rel="noopener" data-api_path="/songs/482321"&gt;Gone Hollywood&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-goodbye-stranger-lyrics" rel="noopener" data-api_path="/songs/361826"&gt;Goodbye Stranger&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The next album would be the last including Roger Hodgson, after which Richard Davies helmed the band alone into the ‘80s and the rise of digital synthesizers.&lt;/p&gt;\n\n&lt;p&gt;While Supertramp still exists, the latest album by the band was released in 2002.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Ace-of-base', 'annotations': {'description': '&lt;p&gt;Ace of Base Is a Swedish pop group who scored a string of international hits in the early-to-mid 1990s. They’re best known for their upbeat reggae-tinged dance-pop songs, including &lt;a href="https://genius.com/Ace-of-base-the-sign-lyrics" rel="noopener" data-api_path="/songs/120213"&gt;“The Sign”&lt;/a&gt;, which was the biggest hit of 1994, according to The Billboard US chart.&lt;/p&gt;\n\n&lt;p&gt;The group’s core lineup consisted of producers &lt;a href="https://genius.com/artists/Ulf-ekberg" rel="noopener" data-api_path="/artists/669002"&gt;Ulf “Buddha” Ekberg&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jonas-berggren" rel="noopener" data-api_path="/artists/669001"&gt;Jonas “Joker” Berggren&lt;/a&gt;, along with singers &lt;a href="https://genius.com/artists/Malin-berggren" rel="noopener" data-api_path="/artists/1212896"&gt;Malin “Linn” Berggren&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jenny-berggren" rel="noopener" data-api_path="/artists/352130"&gt;Jenny Berggren&lt;/a&gt; (the three Berggrens are siblings). In the early ’90s, their debut single &lt;a href="https://genius.com/Ace-of-base-wheel-of-fortune-lyrics" rel="noopener" data-api_path="/songs/1674536"&gt;“Wheel of Fortune”&lt;/a&gt; became a hit in Scandinavia, which led to the group connecting with producer &lt;a href="https://genius.com/artists/Denniz-pop" rel="noopener" data-api_path="/artists/39124"&gt;Denniz Pop&lt;/a&gt; (who would later spawn the careers Backstreet Boys, Britney Spears, and Max Martin).&lt;/p&gt;\n\n&lt;p&gt;After the group’s 1992 debut &lt;a href="https://genius.com/albums/Ace-of-base/Happy-nation" rel="noopener" data-api_path="/albums/28819"&gt;&lt;em&gt;Happy Nation&lt;/em&gt;&lt;/a&gt; became an international hit (going on to sell 21 million copies), it was re-released in North America in 1993 as &lt;a href="https://genius.com/albums/Ace-of-base/The-sign" rel="noopener" data-api_path="/albums/148640"&gt;&lt;em&gt;The Sign&lt;/em&gt;&lt;/a&gt;. Three singles from the album became top five pop hits in the US, including &lt;a href="https://genius.com/Ace-of-base-all-that-she-wants-lyrics" rel="noopener" data-api_path="/songs/434050"&gt;“All That She Wants”&lt;/a&gt; (#2), &lt;a href="https://genius.com/Ace-of-base-dont-turn-around-lyrics" rel="noopener" data-api_path="/songs/1405061"&gt;“Don’t Turn Around”&lt;/a&gt; (#4), and “The Sign” (#1 for six weeks). &lt;em&gt;The Sign&lt;/em&gt; went on to sell over 10 million copies.&lt;/p&gt;\n\n&lt;p&gt;The group’s 1995 album &lt;a href="https://genius.com/albums/Ace-of-base/The-bridge" rel="noopener" data-api_path="/albums/148660"&gt;&lt;em&gt;The Bridge&lt;/em&gt;&lt;/a&gt; sold 7 million copies worldwide, including 2 million in the US. The album’s most successful single was &lt;a href="https://genius.com/Ace-of-base-beautiful-life-lyrics" rel="noopener" data-api_path="/songs/1256263"&gt;“Beautiful Life,”&lt;/a&gt; which topped the US Dance chart and reached #15 on the Hot 100.&lt;/p&gt;\n\n&lt;p&gt;Following the formal departure of singer Linn in 2007, the band performed a series of concerts as a trio in Europe and Asia between 2007 and 2009. Jenny Berggren said in November 2009 that she would be taking an indefinite leave of absence from the band to focus on a solo career. In 2009, Jonas and Ulf recruited two new female vocalists, Clara Hagman and Julia Williamson, and released &lt;a href="https://genius.com/albums/Ace-of-base/The-golden-ratio" rel="noopener" data-api_path="/albums/237379"&gt;&lt;em&gt;The Golden Ratio&lt;/em&gt;&lt;/a&gt; in September 2010.&lt;/p&gt;\n\n&lt;p&gt;In 2012, it was confirmed that Clara Hagman and Julia Williamson had left the group. The group released the compilation &lt;a href="https://genius.com/albums/Ace-of-base/Hidden-gems" rel="noopener" data-api_path="/albums/148662"&gt;&lt;em&gt;Hidden Gems&lt;/em&gt;&lt;/a&gt;, featuring previously unreleased tracks and deep cuts. The band is currently on hiatus indefinitely, with the members publicly stating that a reunion is unlikely.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jennifer-paige', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Jennifer Scoggins', 'Jennifer P. Scoggins', 'Jennifer Paige Scoggins']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/James-blunt', 'annotations': {'description': '&lt;p&gt;A former British Army officer, singer/songwriter James Blunt is a thoughtful performer with a knack for crafting melodic contemporary soft rock tunes.&lt;/p&gt;\n\n&lt;p&gt;Born in Tidworth, Wiltshire, England in 1974 to a family with a long military history, Blunt entered the Army after graduating from the Royal Military Academy Sandhurst. Ultimately achieving the rank of captain, Blunt served with the NATO peacekeeping force in Kosovo and finished out his time in the military as a member of the Life Guard Regiment in the British Household Cavalry. Having long been interested in music, Blunt wasted no time in pursuing a pop career after leaving the Army.&lt;/p&gt;\n\n&lt;p&gt;A subsequent performance at the South by Southwest festival in Austin, Texas brought Blunt to the attention of 4 Non Blondes singer/producer Linda Perry, who signed Blunt to her Custard Records label.&lt;/p&gt;\n\n&lt;p&gt;Released in 2005, Blunt’s debut album, &lt;a href="https://genius.com/albums/James-blunt/Back-to-bedlam" rel="noopener" data-api_path="/albums/48390"&gt;&lt;em&gt;Back to Bedlam&lt;/em&gt;&lt;/a&gt;, and its hit single, &lt;a href="https://genius.com/James-blunt-youre-beautiful-lyrics" rel="noopener" data-api_path="/songs/95061"&gt;“You’re Beautiful”&lt;/a&gt;, were hugely successful – the single hit number one in over a dozen countries, and sold over ten million copies worldwide.&lt;/p&gt;\n\n&lt;p&gt;Blunt toured for much of 2005 and 2006, then released the two-disc “odds and sods” CD/DVD &lt;a href="https://genius.com/albums/James-blunt/Chasing-time-the-bedlam-sessions" rel="noopener" data-api_path="/albums/354560"&gt;&lt;em&gt;Chasing Time: The Bedlam Sessions&lt;/em&gt;&lt;/a&gt; in 2006. He had been writing songs while on the road, and brought Back to Bedlam producer Tom Rothrock in again to record. (The songs featured writing collaborations with Mark Batson, Jimmy Hogarth, Steve McEwan, and Max Martin, while the recordings featured Blunt’s live backing band.)&lt;/p&gt;\n\n&lt;p&gt;His sophomore effort, &lt;a href="https://genius.com/albums/James-blunt/All-the-lost-souls" rel="noopener" data-api_path="/albums/113071"&gt;&lt;em&gt;All the Lost Souls&lt;/em&gt;&lt;/a&gt;, featuring the leadoff single &lt;a href="https://genius.com/James-blunt-1973-lyrics" rel="noopener" data-api_path="/songs/531200"&gt;“1973”&lt;/a&gt;, finally dropped in September 2007.&lt;/p&gt;\n\n&lt;p&gt;Disillusioned by success and what he felt as a perceived loss of artistic credibility, Blunt took a break from music before coming back in 2010 with his third full-length effort, &lt;a href="https://genius.com/albums/James-blunt/Some-kind-of-trouble" rel="noopener" data-api_path="/albums/18815"&gt;&lt;em&gt;Some Kind of Trouble&lt;/em&gt;&lt;/a&gt;, a more optimistic, spontaneous album influenced by ‘70s U.S. pop/rock, which sold well despite not being critically well-received.&lt;/p&gt;\n\n&lt;p&gt;In 2012 he returned to the studio with Tom Rothrock to track his fourth album, &lt;a href="https://genius.com/albums/James-blunt/Moon-landing" rel="noopener" data-api_path="/albums/110213"&gt;&lt;em&gt;Moon Landing&lt;/em&gt;&lt;/a&gt;. Featuring &lt;a href="https://genius.com/James-blunt-miss-america-lyrics" rel="noopener" data-api_path="/songs/493595"&gt;“Miss America,”&lt;/a&gt; Blunt’s tribute to the late Whitney Houston, and the country-folk-influenced single &lt;a href="https://genius.com/James-blunt-bonfire-heart-lyrics" rel="noopener" data-api_path="/songs/197282"&gt;“Bonfire Heart,”&lt;/a&gt; the record was released in October 2013.&lt;/p&gt;\n\n&lt;p&gt;Roughly four years passed before Blunt would release another album. He returned in early 2017 with his fifth studio album, &lt;a href="https://genius.com/albums/James-blunt/The-afterlove" rel="noopener" data-api_path="/albums/327366"&gt;&lt;em&gt;The Afterlove&lt;/em&gt;&lt;/a&gt;, which featured songwriting assistance from Blunt’s friend &lt;a href="https://genius.com/artists/Ed-sheeran" rel="noopener" data-api_path="/artists/12418"&gt;Ed Sheeran&lt;/a&gt; and OneRepublic’s &lt;a href="https://genius.com/artists/Ryan-tedder" rel="noopener" data-api_path="/artists/1653"&gt;Ryan Tedder&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['James Hillier Blount']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Indochine', 'annotations': {'description': '&lt;p&gt;Indochine est un groupe de pop rock français formé en 1981. Composé de &lt;strong&gt;Nicolas Sirkis&lt;/strong&gt; (chanson), de &lt;strong&gt;Marc Éliard&lt;/strong&gt; (basse), d\'&lt;strong&gt;Olivier Gérard&lt;/strong&gt; (guitare, clavier) et de &lt;strong&gt;Ludwig Dahlberg&lt;/strong&gt; (batterie), le groupe est célèbre pour &lt;em&gt;L’Aventurier&lt;/em&gt;, &lt;em&gt;Trois nuits par semaine&lt;/em&gt;, &lt;em&gt;Alice et June&lt;/em&gt; ou plus récemment &lt;em&gt;College Boy&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Indochine is a French Pop/Rock and New Wave band formed in Paris in 1981 and they have been active since. Indochine’s current members are:&lt;br&gt;\nNicola Sirkis (vocals, guitar, synthesizer, harmonica), Marc Eliard (bass), Boris Jardel (guitar), Oli de Sat (keyboards and guitar), Ludwig Dahlberg (drums)&lt;br&gt;\nThe band has won multiple awards but the most outstanding awards is &lt;em&gt;MTV Europe Music Awards&lt;/em&gt; for &lt;strong&gt;Best French Act&lt;/strong&gt; in 2003.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/74a7b525cd1d48555cdb7695419ca95c.1000x667x1.jpg" alt="" width="1000" height="667" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt; &lt;a href="https://commons.wikimedia.org/wiki/File:Indochine-Meteor-1.jpg" rel="noopener nofollow"&gt;Météor Tour d\'Indochine (Neosis-Kane, Wikipédia)&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Boney-m', 'annotations': {'description': '&lt;p&gt;Boney M. is a Euro-Caribbean vocal group created by German record producer Frank Farian. Originally based in West Germany, the four original members of the group’s official line-up were Liz Mitchell and Marcia Barrett from Jamaica, Maizie Williams from Montserrat and Bobby Farrell, a performing-artist from Aruba. The group was formed in 1976 and achieved popularity during the disco era of the late 1970s. Since the 1980s, various line-ups of the band have performed with different personnel.&lt;/p&gt;\n\n&lt;p&gt;The band has sold around 100 million records worldwide and is known for huge international hits such as “Daddy Cool”, “Ma Baker”, “Sunny”, “Rasputin”, “Mary’s Boy Child – Oh My Lord” and “Rivers of Babylon”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Tiesto-and-dzeko', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Linkin-park', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/albums/Linkin-park/Hybrid-theory" rel="noopener" data-api_path="/albums/15321"&gt;&lt;em&gt;Hybrid Theory&lt;/em&gt;&lt;/a&gt; isn’t just the title of Linkin Park’s chart-topping debut album, but a career mission statement.&lt;/p&gt;\n\n&lt;p&gt;From day one, the same six players (lead vocalist &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt;, drummer/percussionist &lt;a href="https://genius.com/artists/Rob-bourdon" rel="noopener" data-api_path="/artists/643808"&gt;Rob Bourdon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Brad-delson" rel="noopener" data-api_path="/artists/177201"&gt;Brad Delson&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Dave-farrell" rel="noopener" data-api_path="/artists/635618"&gt;Dave ‘Phoenix’ Farrell&lt;/a&gt;, DJ/Programmer &lt;a href="https://genius.com/artists/Joe-hahn" rel="noopener" data-api_path="/artists/271318"&gt;Joe Hahn&lt;/a&gt;, and keyboardist, guitarist, and co-lead vocals &lt;a href="https://genius.com/artists/Mike-shinoda" rel="noopener" data-api_path="/artists/4431"&gt;Mike Shinoda&lt;/a&gt;) built the band by fusing all their favorite styles of music into one unmistakable signature sound. With each album, Linkin Park defiantly challenges themselves and their fans by blasting into new musical territory. After setting the template for rock that incorporated hip-hop influences with &lt;em&gt;Hybrid Theory&lt;/em&gt; and &lt;a href="https://genius.com/albums/Linkin-park/Meteora" rel="noopener" data-api_path="/albums/5986"&gt;&lt;em&gt;Meteora&lt;/em&gt;&lt;/a&gt;, they shifted gears completely and defied expectations with the polychromatic &lt;a href="https://genius.com/albums/Linkin-park/Minutes-to-midnight" rel="noopener" data-api_path="/albums/16008"&gt;&lt;em&gt;Minutes to Midnight&lt;/em&gt;&lt;/a&gt;, and again with the esoteric &lt;a href="https://genius.com/albums/Linkin-park/A-thousand-suns" rel="noopener" data-api_path="/albums/15414"&gt;&lt;em&gt;A Thousand Suns&lt;/em&gt;&lt;/a&gt;, before melding a piece of them all into 2012’s &lt;a href="https://genius.com/albums/Linkin-park/Living-things" rel="noopener" data-api_path="/albums/16392"&gt;&lt;em&gt;LIVING THINGS&lt;/em&gt;&lt;/a&gt;. With their 2014 release and heaviest offering in years, &lt;a href="https://genius.com/albums/Linkin-park/The-hunting-party" rel="noopener" data-api_path="/albums/100521"&gt;&lt;em&gt;The Hunting Party&lt;/em&gt;&lt;/a&gt;, Linkin Park manage to capture their ever-innovative spirit with a hunger seldom seen in bands on their seventh album. &lt;a href="https://genius.com/albums/Linkin-park/One-more-light" rel="noopener" data-api_path="/albums/330664"&gt;&lt;em&gt;One More Light&lt;/em&gt;&lt;/a&gt; (2017) is an interesting personal album, filled with a lot of emotion.&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, on July 20, 2017, Chester unexpectedly &lt;a href="http://www.tmz.com/2017/07/20/linkin-park-singer-chester-bennington-dead-commits-suicide/" rel="noopener nofollow"&gt;died by suicide&lt;/a&gt;, shocking and saddening both fans and his own band members alike.&lt;/p&gt;\n\n&lt;p&gt;As for the band’s name, they were originally called Hybrid Theory, but trademark issues with a band called Hybrid forced the band to rethink their name. According to &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names/P1" rel="noopener nofollow"&gt;&lt;em&gt;Alternative Press&lt;/em&gt;&lt;/a&gt;, Bennington suggested “Lincoln Park” since he had to drive past there after band practice to get home. However, the domain name “lincolnpark.com” cost more than the band could afford so they changed the spelling to Linkin Park. It was also suggested that the name change would help them appear right next to Limp Bizkit at record stores.&lt;/p&gt;', 'alternate_names': ['Hybrid Theory', 'Xero', 'MMM...COOKIES']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Kasabian', 'annotations': {'description': '&lt;p&gt;Kasabian are a British rock band, formed in Leicester, England in 1997. It consists of singer Tom Meighan, guitarist and singer Sergio Pizzorno, bassist Chris Edwards, drummer Ian Matthews and guitarist Tim Carter, plus touring members Ben Kealey and Gary Alesbrook. Kasabian have released six studio albums to date.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Eddie-rabbitt', 'annotations': {'description': '&lt;p&gt;Edward Thomas Rabbitt was born November 27, 1941 in Brooklyn, New York to Irish immigrant parents.  He was raised in East Orange, New Jersey.  On his 35th birthday, he married Janine Girardi.  They had three children.  One daughter, Demelza, and two sons, Timmy &amp;amp; Tommy.  Timmy was born with biliary atresia and died in childhood after a failed liver transplant intended to save his life.  In March 1997, Eddie learned that he had lung cancer.  He passed away on May 7, 1998.  Rabbitt received several awards over the years.  The Academy of Country Music Awards Top New Male Vocalist in 1977.  Music City News Country Songwriter of the Year and BMI’s Robert J. Burton Award for &lt;a href="https://genius.com/Eddie-rabbitt-suspicions-lyrics" rel="noopener" data-api_path="/songs/2278080"&gt;“Suspicions”&lt;/a&gt; in 1979. 1980 brought BMI’s Song of the Year for “Suspicions.”  In 1996 he pulled in BMI’s Three Million-Air Award and Two Million-Air Awards for &lt;a href="https://genius.com/Eddie-rabbitt-i-love-a-rainy-night-lyrics" rel="noopener" data-api_path="/songs/146840"&gt;“I Love a Rainy Night”&lt;/a&gt; and &lt;a href="https://genius.com/Eddie-rabbitt-kentucky-rain-lyrics" rel="noopener" data-api_path="/songs/1030438"&gt;“Kentucky Rain”&lt;/a&gt;, respectively.  He was inducted into the Nashville Songwriters Hall of Fame the year of his death, 1998.  Eddie’s final #1 hit came in 1989 with &lt;a href="https://genius.com/Eddie-rabbitt-on-second-thought-lyrics" rel="noopener" data-api_path="/songs/2263489"&gt;“On Second Thought”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Edward Rabbitt', 'Edward Thomas Rabbitt']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-chainsmokers', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://thechainsmokers.com/" rel="noopener nofollow"&gt;The Chainsmokers&lt;/a&gt; are a New York City-based duo consisting of &lt;a href="https://genius.com/artists/andrew-taggart" rel="noopener" data-api_path="/artists/660558"&gt;Andrew Taggart&lt;/a&gt; and &lt;a href="https://genius.com/artists/alex-pall" rel="noopener" data-api_path="/artists/567252"&gt;Alex Pall&lt;/a&gt;. They write and produce their songs, and often feature guest vocalists.&lt;/p&gt;\n\n&lt;p&gt;The duo rose to fame with their 2014 viral hit, &lt;a href="https://genius.com/The-chainsmokers-selfie-lyrics" rel="noopener" data-api_path="/songs/375924"&gt;“#Selfie”&lt;/a&gt; and then broke into the mainstream with their hit song &lt;a href="https://genius.com/The-chainsmokers-roses-lyrics" rel="noopener" data-api_path="/songs/2138429"&gt;“Roses”&lt;/a&gt; and their debut EP &lt;a href="https://genius.com/albums/The-chainsmokers/Bouquet-ep" rel="noopener" data-api_path="/albums/133672"&gt;&lt;em&gt;Bouquet&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In &lt;a href="https://www.youtube.com/watch?v=joC69WPyQqU" rel="noopener nofollow"&gt;a March 2016 YouTube video&lt;/a&gt;, the duo talked about plans to release songs featuring their vocals. This was proven when &lt;a href="https://genius.com/The-chainsmokers-closer-lyrics" rel="noopener" data-api_path="/songs/2458848"&gt;“Closer”&lt;/a&gt; was released on July 2016 with Andrew Taggart as co-vocalist, alongside American singer-songwriter &lt;a href="https://genius.com/artists/halsey" rel="noopener" data-api_path="/artists/228636"&gt;Halsey&lt;/a&gt;. “Closer” became both The Chainsmokers and Halsey’s most famous song.&lt;/p&gt;\n\n&lt;p&gt;2016 proved to be a breakout year for The Chainsmokers, with original songs &lt;a href="https://genius.com/The-chainsmokers-dont-let-me-down-lyrics" rel="noopener" data-api_path="/songs/2416822"&gt;“Don’t Let Me Down”&lt;/a&gt; and &lt;a href="https://genius.com/The-chainsmokers-closer-lyrics" rel="noopener" data-api_path="/songs/2458848"&gt;“Closer,”&lt;/a&gt; both certified platinum and headlining their sophomore EP &lt;a href="https://genius.com/albums/The-chainsmokers/Collage-ep" rel="noopener" data-api_path="/albums/269796"&gt;&lt;em&gt;Collage&lt;/em&gt;&lt;/a&gt;. The duo finished off their most successful year yet with &lt;a href="https://www.grammy.com/artist/the-chainsmokers" rel="noopener nofollow"&gt;three GRAMMY nominations&lt;/a&gt;, winning one GRAMMY for Best Dance Recording for “Don’t Let Me Down.”&lt;/p&gt;\n\n&lt;p&gt;Following their first GRAMMY win, the duo announced their debut LP, &lt;a href="https://genius.com/albums/The-chainsmokers/Memories-do-not-open" rel="noopener" data-api_path="/albums/330516"&gt;&lt;i&gt;Memories…Do Not Open&lt;/i&gt;&lt;/a&gt;, on February 12, 2017 in &lt;a href="https://www.youtube.com/watch?v=ghvjz1_RKyo" rel="noopener nofollow"&gt;a red carpet interview with Entertainment Weekly&lt;/a&gt;. The album was released on April 7, 2017, and was followed by a US tour titled “Memories: Do Not Open.”&lt;/p&gt;\n\n&lt;p&gt;The duo achieved further commercial success in 2017, with the releases of &lt;a href="https://genius.com/The-chainsmokers-paris-lyrics" rel="noopener" data-api_path="/songs/2944779"&gt;“Paris”&lt;/a&gt; and &lt;a href="https://genius.com/The-chainsmokers-and-coldplay-something-just-like-this-lyrics" rel="noopener" data-api_path="/songs/2998843"&gt;“Something Just Like This”&lt;/a&gt; helping The Chainsmokers &lt;a href="http://www.billboard.com/articles/columns/chart-beat/7710297/hot-100-chainsmokers-three-songs-top-ten-ed-sheeran-number-one" rel="noopener nofollow"&gt;tie The Beatles and the Bee Gees with three simultaneous songs on the &lt;em&gt;Billboard Hot 100&lt;/em&gt;’s Top 10&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After going on a hiatus of releasing songs, the duo returned in January 2018 with the release of &lt;a href="https://genius.com/The-chainsmokers-sick-boy-lyrics" rel="noopener" data-api_path="/songs/3113471"&gt;“Sick Boy”&lt;/a&gt;, the first single from their second album &lt;a href="https://genius.com/albums/The-chainsmokers/Sick-boy" rel="noopener" data-api_path="/albums/461201"&gt;of the same name&lt;/a&gt;. The Chainsmokers\' plan to build an album by releasing a song roughly every month was &lt;a href="https://www.billboard.com/articles/business/8257719/inside-the-chainsmokers-plan-rethink-album-cycle" rel="noopener nofollow"&gt;detailed in a Billboard article&lt;/a&gt;. The album spawned the minor hits of &lt;a href="https://genius.com/The-chainsmokers-this-feeling-lyrics" rel="noopener" data-api_path="/songs/3944273"&gt;“This Feeling”&lt;/a&gt;, &lt;a href="https://genius.com/The-chainsmokers-sick-boy-lyrics" rel="noopener" data-api_path="/songs/3113471"&gt;“Sick Boy”&lt;/a&gt;, &lt;a href="https://genius.com/The-chainsmokers-side-effects-lyrics" rel="noopener" data-api_path="/songs/3857798"&gt;“Side Effects”&lt;/a&gt;, and &lt;a href="https://genius.com/The-chainsmokers-everybody-hates-me-lyrics" rel="noopener" data-api_path="/songs/3516743"&gt;“Everybody Hates Me”&lt;/a&gt; which peaked at numbers 50, 65, 66, and 100, respectively, &lt;a href="https://www.billboard.com/music/the-chainsmokers/chart-history/hot-100" rel="noopener nofollow"&gt;on the Billboard Hot 100&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The duo wasted no time in announcing their third album, &lt;a href="https://genius.com/albums/The-chainsmokers/World-war-joy" rel="noopener" data-api_path="/albums/502022"&gt;&lt;em&gt;World War Joy&lt;/em&gt;&lt;/a&gt;, along with &lt;a href="https://www.instagram.com/p/BtyFtipAdph/?utm_source=ig_web_copy_link" rel="noopener nofollow"&gt;their second arena tour&lt;/a&gt; set for the Fall of 2019. The first single off the album, &lt;a href="https://genius.com/The-chainsmokers-who-do-you-love-lyrics" rel="noopener" data-api_path="/songs/4287454"&gt;“Who Do You Love”&lt;/a&gt; with Australian pop-rock group &lt;a href="https://genius.com/artists/5-seconds-of-summer" rel="noopener" data-api_path="/artists/64610"&gt;5 Seconds of Summer&lt;/a&gt; became an instant hit, rising up the charts where it peaked at number 54 on the Hot 100 and was certified Platinum by the RIAA. The album also spawned two other hits in the form of the Platinum single &lt;a href="https://genius.com/The-chainsmokers-and-bebe-rexha-call-you-mine-lyrics" rel="noopener" data-api_path="/songs/4587720"&gt;“Call You Mine”&lt;/a&gt; with American singer/songwriter &lt;a href="https://genius.com/artists/Bebe-rexha" rel="noopener" data-api_path="/artists/104044"&gt;Bebe Rexha&lt;/a&gt; and the Gold single &lt;a href="https://genius.com/The-chainsmokers-and-illenium-takeaway-lyrics" rel="noopener" data-api_path="/songs/3554433"&gt;“Takeaway”&lt;/a&gt; with the American DJ/producer &lt;a href="https://genius.com/artists/Illenium" rel="noopener" data-api_path="/artists/582595"&gt;Illenium&lt;/a&gt; and featuring Nashville-based recording artist &lt;a href="https://genius.com/artists/Lennon-stella" rel="noopener" data-api_path="/artists/376704"&gt;Lennon Stella&lt;/a&gt;, both of which charted on the Billboard Hot 100 at the number 56 and 69 spot, respectively. The album as a whole was released on December 6, 2019, debuting at #65 on the Billboard 200 albums chart and at #1 on the Billboard Top Dance/Electronic Albums chart, &lt;a href="https://www.billboard.com/articles/business/chart-beat/8546815/chainsmokers-debut-number-1-top-dance-electronic-albums" rel="noopener nofollow"&gt;shipping 14,000 units in its first week&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On February 24, 2020 the duo &lt;a href="https://www.instagram.com/p/B89Qw0jg7uo/" rel="noopener nofollow"&gt;announced they would be going on a social media hiatus&lt;/a&gt; to focus on the creation of their fourth, currently untitled studio album. The duo finally came out of hiatus after almost two years on January 6, 2022, &lt;a href="https://www.instagram.com/p/CYZQHy3BIIZ/" rel="noopener nofollow"&gt;announcing the upcoming release&lt;/a&gt; of &lt;a href="https://genius.com/The-chainsmokers-high-lyrics" rel="noopener" data-api_path="/songs/7563883"&gt;“High”&lt;/a&gt;, their first new music since 2019. The song released on January 28, 2022 and &lt;a href="https://www.billboard.com/artist/the-chainsmokers/chart-history/hsi/" rel="noopener nofollow"&gt;charted at #57 on the Hot 100&lt;/a&gt; during its first week, making a &lt;a href="https://headlineplanet.com/home/2022/01/29/the-chainsmokers-high-closed-day-one-with-over-1250-pop-radio-plays/" rel="noopener nofollow"&gt;massive impact on pop radio&lt;/a&gt; and immediately debuting inside the top 30 on pop radio.&lt;/p&gt;\n\n&lt;p&gt;To date, the duo has &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=The+chainsmokers&amp;amp;col=format&amp;amp;ord=desc#search_section" rel="noopener nofollow"&gt;certified sales&lt;/a&gt; of over 50 million singles and nearly 5 million albums in the United States alone.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Hard-fi', 'annotations': {'description': '&lt;p&gt;Hard-Fi are an English rock band formed in Staines, Surrey in 2003. The band’s members are Richard Archer (lead vocals and guitar), Kai Stephens (bass guitar and backing vocals) and Steve Kemp (drums and backing vocals).&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/La-bouche', 'annotations': {'description': '&lt;p&gt;La Bouche is a duo, created in 1987. Their career started to take off when they released “Sweet Dreams” and “Be My Lover” which both were hits on the Billboard Hot 100, peaking at #13 and #6, respectively. In 2018, They came back with a new single called ‘Night After Night’.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Aronchupa', 'annotations': {'description': '&lt;p&gt;Aron Michael Ekberg (AronChupa) is a rapper, singer, songwriter, DJ, record producer, and record label owner from Sweden.&lt;/p&gt;\n\n&lt;p&gt;Aron started his career as a &lt;a href="http://www.lol-la.com/interview-swedish-soccer-player-turned-dj-aronchupa-talks-im-an-albatraoz-much-more/" rel="noopener nofollow"&gt;soccer player&lt;/a&gt;, and later created an electro-hip hop group called Albatraoz (Signed to Sony Music Sweden), along with his friends/members of the soccer club he played for.&lt;/p&gt;\n\n&lt;p&gt;His most Popular song is &lt;a href="https://genius.com/Aronchupa-im-an-albatraoz-lyrics" rel="noopener" data-api_path="/songs/582508"&gt;“I’m an Albatroz,”&lt;/a&gt; and his only album so far is &lt;a href="https://play.spotify.com/album/1PoAlIDkhgVSoX7oskyAF1" rel="noopener nofollow"&gt;&lt;em&gt;Russ&lt;/em&gt;&lt;/a&gt;, released in 2014.&lt;/p&gt;', 'alternate_names': ['Aron Ekberg', 'Aron Michael Ekberg']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Charli-xcx', 'annotations': {'description': '&lt;p&gt;Charlotte Emma Aitchison (born 2 August 1992), known professionally as Charli XCX, is an English singer-songwriter known for her eclectic style. She began making music at fourteen, and her debut release was a 2008 limited-edition album aptly titled &lt;a href="https://genius.com/albums/Charli-xcx/14" rel="noopener" data-api_path="/albums/112231"&gt;&lt;em&gt;14&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;By 2010, Charli signed to &lt;a href="https://genius.com/artists/Atlantic-records" rel="noopener" data-api_path="/artists/68978"&gt;Atlantic Records&lt;/a&gt;, and released her debut single &lt;a href="https://genius.com/Charli-xcx-stay-away-lyrics" rel="noopener" data-api_path="/songs/138395"&gt;“Stay Away”&lt;/a&gt; in May 2011. She released her “real” debut album, &lt;a href="https://genius.com/albums/Charli-xcx/True-romance" rel="noopener" data-api_path="/albums/31411"&gt;&lt;em&gt;True Romance&lt;/em&gt;&lt;/a&gt;, in 2013. The record met critical acclaim but failed to attain much commercial success. Charli’s true breakthrough came with the release of hit collaborations like Iggy Azalea’s &lt;a href="https://genius.com/Iggy-azalea-fancy-lyrics" rel="noopener" data-api_path="/songs/352612"&gt;“Fancy”&lt;/a&gt; and Icona Pop’s &lt;a href="https://genius.com/Icona-pop-i-love-it-lyrics" rel="noopener" data-api_path="/songs/78587"&gt;“I Love It.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In April 2014, Charli found solo success with &lt;a href="https://genius.com/Charli-xcx-boom-clap-lyrics" rel="noopener" data-api_path="/songs/402853"&gt;“Boom Clap,”&lt;/a&gt; which was featured on the soundtrack of &lt;a href="https://genius.com/albums/Various-artists/The-fault-in-our-stars-music-from-the-motion-picture" rel="noopener" data-api_path="/albums/101354"&gt;&lt;em&gt;The Fault in Our Stars&lt;/em&gt;&lt;/a&gt;. It’s now certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=Charli+XCX&amp;amp;ti=Boom+Clap#search_section" rel="noopener nofollow"&gt;triple platinum&lt;/a&gt; in the United States and &lt;a href="https://www.bpi.co.uk/brit-certified/" rel="noopener nofollow"&gt;gold&lt;/a&gt; in her native United Kingdom. Her sophomore album, &lt;a href="https://genius.com/albums/Charli-xcx/Sucker" rel="noopener" data-api_path="/albums/110738"&gt;&lt;em&gt;Sucker&lt;/em&gt;&lt;/a&gt;, was a pop-punk oriented effort and enjoyed more success than her debut. &lt;a href="https://genius.com/Charli-xcx-break-the-rules-lyrics" rel="noopener" data-api_path="/songs/499525"&gt;“Break The Rules,”&lt;/a&gt; &lt;a href="https://genius.com/Charli-xcx-doing-it-lyrics" rel="noopener" data-api_path="/songs/616885"&gt;“Doing It”&lt;/a&gt; (featuring &lt;a href="https://genius.com/artists/Rita-ora" rel="noopener" data-api_path="/artists/17853"&gt;Rita Ora&lt;/a&gt;), and &lt;a href="https://genius.com/Charli-xcx-famous-lyrics" rel="noopener" data-api_path="/songs/609342"&gt;“Famous”&lt;/a&gt; all performed well on the UK singles chart.&lt;/p&gt;\n\n&lt;p&gt;By 2015, Charli began work on a third studio album, teaming up with &lt;em&gt;PC Music&lt;/em&gt; artists and affiliates such as &lt;a href="https://genius.com/artists/Sophie" rel="noopener" data-api_path="/artists/210722"&gt;SOPHIE&lt;/a&gt;, &lt;a href="https://genius.com/artists/Danny-l-harle" rel="noopener" data-api_path="/artists/210725"&gt;Danny L Harle&lt;/a&gt; and &lt;a href="https://genius.com/artists/A-g-cook" rel="noopener" data-api_path="/artists/210974"&gt;A. G. Cook&lt;/a&gt; to create harsher, more electronic music. Critics hailed the &lt;a href="https://genius.com/albums/Charli-xcx/Vroom-vroom-ep" rel="noopener" data-api_path="/albums/144811"&gt;&lt;em&gt;Vroom Vroom&lt;/em&gt;&lt;/a&gt; EP as a groundbreaking new form of pop. Despite this, her record label was dissatisfied with how the singles were performing: &lt;a href="https://genius.com/Charli-xcx-after-the-afterparty-lyrics" rel="noopener" data-api_path="/songs/2880792"&gt;“After the Afterparty”&lt;/a&gt; and &lt;a href="https://genius.com/Charli-xcx-boys-lyrics" rel="noopener" data-api_path="/songs/3151350"&gt;“Boys”&lt;/a&gt; both reached the UK Top 40 but had little success elsewhere.&lt;/p&gt;\n\n&lt;p&gt;Defying her label’s commercial expectations, she released two “mixtapes” in 2017: &lt;a href="https://genius.com/albums/Charli-xcx/Number-1-angel" rel="noopener" data-api_path="/albums/329741"&gt;&lt;em&gt;Number 1 Angel&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Charli-xcx/Pop-2" rel="noopener" data-api_path="/albums/385021"&gt;&lt;em&gt;Pop 2&lt;/em&gt;&lt;/a&gt;, which featured collaborations with the likes of &lt;a href="https://genius.com/artists/M" rel="noopener" data-api_path="/artists/21871"&gt;MØ&lt;/a&gt;, &lt;a href="https://genius.com/artists/Cupcakke" rel="noopener" data-api_path="/artists/576538"&gt;\u200bCupcakKe&lt;/a&gt;, &lt;a href="https://genius.com/artists/Carly-rae-jepsen" rel="noopener" data-api_path="/artists/21150"&gt;Carly Rae Jepsen&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Tove-lo" rel="noopener" data-api_path="/artists/127642"&gt;Tove Lo&lt;/a&gt;. Critics again reacted positively to these releases, with the latter attaining an 84 score on Metacritic.&lt;/p&gt;\n\n&lt;p&gt;Throughout 2018, she released a handful of singles, including formerly-unreleased fan favorites &lt;a href="https://genius.com/Charli-xcx-girls-night-out-lyrics" rel="noopener" data-api_path="/songs/2429535"&gt;“Girls Night Out”&lt;/a&gt; and &lt;a href="https://genius.com/Charli-xcx-no-angel-lyrics" rel="noopener" data-api_path="/songs/2907544"&gt;“No Angel,”&lt;/a&gt;. From May to August, Charli joined pop superstar &lt;a href="https://genius.com/artists/Taylor-swift" rel="noopener" data-api_path="/artists/1177"&gt;Taylor Swift&lt;/a&gt; on her &lt;a href="https://genius.com/albums/taylor-swift/reputation" rel="noopener" data-api_path="/albums/350247"&gt;&lt;em&gt;reputation&lt;/em&gt;&lt;/a&gt; Stadium Tour, introducing her to a whole new audience.&lt;/p&gt;\n\n&lt;p&gt;The following summer, she released a 15 song &lt;a href="https://genius.com/albums/Charli-xcx/Charli" rel="noopener" data-api_path="/albums/390866"&gt;self-titled&lt;/a&gt; album, featuring many previous collaborators. Notable new collaborators for the project included &lt;a href="https://genius.com/artists/Troye-sivan" rel="noopener" data-api_path="/artists/161507"&gt;Troye Sivan&lt;/a&gt;, &lt;a href="https://genius.com/artists/Big-freedia" rel="noopener" data-api_path="/artists/148814"&gt;Big Freedia&lt;/a&gt;, &lt;a href="https://genius.com/artists/Planet-1999" rel="noopener" data-api_path="/artists/1837106"&gt;Planet 1999&lt;/a&gt;, &lt;a href="https://genius.com/artists/Christine-and-the-queens" rel="noopener" data-api_path="/artists/327334"&gt;Christine and the Queens&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Lizzo" rel="noopener" data-api_path="/artists/84514"&gt;Lizzo&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2020, she recorded a new project almost entirely during the first few months of the Covid-19 global pandemic: &lt;em&gt;&lt;a href="https://genius.com/albums/Charli-xcx/How-im-feeling-now" rel="noopener" data-api_path="/albums/621267"&gt;how i’m feeling now&lt;/a&gt;.&lt;/em&gt; The project was created largely with the help of Cook and &lt;a href="https://genius.com/artists/Bon-iver" rel="noopener" data-api_path="/artists/589"&gt;Bon Iver&lt;/a&gt; producer &lt;a href="https://genius.com/artists/Bj-burton" rel="noopener" data-api_path="/artists/623586"&gt;BJ Burton&lt;/a&gt;. A documentary about the project’s recording, called &lt;em&gt;&lt;a href="https://www.dazeddigital.com/music/article/51906/1/charli-xcx-quarantine-documentary-alone-together-premiere-virtual-sxsw" rel="noopener nofollow"&gt;Alone Together&lt;/a&gt;&lt;/em&gt;, premiered at SXSW the following spring.&lt;/p&gt;', 'alternate_names': ['Charlotte Aitchison', 'Charlotte Emma Aitchison']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Soul-asylum', 'annotations': {'description': '&lt;p&gt;Soul Asylum is an American alternative rock band formed in 1981 in Minneapolis, Minnesota, best known for the Grammy-winning 1993 hit “Runaway Train”. The band was originally called Loud Fast Rules, with a lineup consisting of Dave Pirner, Dan Murphy, Karl Mueller, and Pat Morley. They changed their name to Soul Asylum in 1983. Morley was replaced by Grant Young in 1984. The band recorded three albums with Twin/Tone Records and two with A&amp;amp;M Records, with little commercial success. In 1992, they released the triple-platinum album Grave Dancers Union, featuring “Runaway Train”. The band played at the inauguration of President Bill Clinton early the next year. They also scored a platinum record with the album Let Your Dim Light Shine three years later.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f7ed8205179ddd2b4c40090997cd9664.653x827x1.jpg" alt="" width="653" height="827" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Vita', 'annotations': {'description': '&lt;p&gt;LaVita Raynor (born September 25, 1981) known simply as Vita, is an American rapper, lingerie designer and actress. She is most known as an actress for playing DMX’s side chick Kionna in the 1998 film Belly.&lt;/p&gt;', 'alternate_names': ['LaVita Gwendolyn Raynor', 'L. Raymor', 'L. Raynor', 'Hot Totti', 'LaVita Raynor']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rage-against-the-machine', 'annotations': {'description': '&lt;p&gt;Formed in Los Angeles in 1991, Rage Against the Machine are critically acclaimed for their aggressive, politically charged rhymes. During the 1990s, they found huge success with their politicised image, broad array of influences and punk attitudes. The band represents an important intersection in 90s culture – between the musical expression of urban black rebels (hip-hop, funk) and their white counterpart (metal, punk rock).&lt;/p&gt;\n\n&lt;p&gt;Accompanying a musical fusion of punk, hip-hop and metal, the lyricism of frontman &lt;a href="https://genius.com/artists/Zack-de-la-rocha" rel="noopener" data-api_path="/artists/9775"&gt;Zack de la Rocha&lt;/a&gt; provides a fiery critique of corporate America, government oppression, and cultural imperialism. Both de la Rocha and guitarist &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt; were &lt;a href="http://www.rollingstone.com/music/artists/rage-against-the-machine/biography" rel="noopener nofollow"&gt;born into activist families&lt;/a&gt;, influential to shaping the band’s political views and activism. De la Rocha’s father devoted his artistic work to Chicano causes, and Morello was raised by a civil rights activist mother and a Kenyan rebel-turned-diplomat father.&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine view their music as a &lt;a href="http://www.musicfanclubs.org/rage/articles/juice00.htm" rel="noopener nofollow"&gt;vehicle for social activism&lt;/a&gt;, and de la Rocha has explained this by saying:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’m interested in spreading those ideas through art, because music has the power to cross borders, to break military sieges and to establish real dialogue.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Over their career, Rage Against the Machine have &lt;a href="http://www.rollingstone.com/music/news/the-battle-of-rage-against-the-machine-19991125" rel="noopener nofollow"&gt;championed numerous causes&lt;/a&gt;, including death-row inmate Mumia Abu-Jamal’s fight for a new trial, the Zapatista freedom fighters in Mexico, and the treatment of sweatshop workers. The band’s leftist and revolutionary political views are further represented in almost all of their songs, and this politically fuelled commentary is key to their identity. Notable examples of these beliefs are discussed in &lt;a href="https://genius.com/Rage-against-the-machine-killing-in-the-name-lyrics" rel="noopener" data-api_path="/songs/4569"&gt;“Killing in the Name”&lt;/a&gt; (addressing racism and police corruption), &lt;a href="https://genius.com/Rage-against-the-machine-wake-up-lyrics" rel="noopener" data-api_path="/songs/39712"&gt;“Wake Up”&lt;/a&gt; (addressing racism in the American government), and &lt;a href="https://genius.com/Rage-against-the-machine-freedom-lyrics" rel="noopener" data-api_path="/songs/39703"&gt;“Freedom”&lt;/a&gt; (supporting imprisoned American-Indian activist Leonard Peltier).&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine split up in 2000, with three of the band members joining &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;’s &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt; to form rock supergroup &lt;a href="https://genius.com/artists/Audioslave" rel="noopener" data-api_path="/artists/39547"&gt;Audioslave&lt;/a&gt;. They reunited in 2007, and since then have sporadically performed major live events, but are yet to record any new material. In May 2016, it was revealed that &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt;, &lt;a href="https://genius.com/artists/Brad-wilk" rel="noopener" data-api_path="/artists/646889"&gt;Brad Wilk&lt;/a&gt; and &lt;a href="https://genius.com/artists/Tim-commerford" rel="noopener" data-api_path="/artists/646888"&gt;Tim Commerford&lt;/a&gt; had united with &lt;a href="https://genius.com/artists/Chuck-d" rel="noopener" data-api_path="/artists/1884"&gt;Chuck D&lt;/a&gt; of &lt;a href="https://genius.com/artists/Public-enemy" rel="noopener" data-api_path="/artists/203"&gt;Public Enemy&lt;/a&gt; and &lt;a href="https://genius.com/artists/B-real" rel="noopener" data-api_path="/artists/998"&gt;B-Real&lt;/a&gt; of &lt;a href="https://genius.com/artists/Cypress-hill" rel="noopener" data-api_path="/artists/1317"&gt;Cypress Hill&lt;/a&gt; to form the supergroup, &lt;a href="https://genius.com/artists/Prophets-of-rage" rel="noopener" data-api_path="/artists/980209"&gt;Prophets of Rage&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/4-non-blondes', 'annotations': {'description': '&lt;p&gt;4 Non Blondes began in 1989 as four San Fransciso lesbians who built a local following &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;and got&lt;/a&gt; ‘a lot of press’ in the area, attracting a number of record labels who smelled a hit in their ballad “What’s Up?” – a song so powerful that bass player Christa Hillhouse actually &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;stopped having sex&lt;/a&gt; and ran down the hall when she first heard Linda Perry playing the song to express how much she liked it.&lt;/p&gt;\n\n&lt;p&gt;The band chose Interscope Records and recorded at a studio in Calabasas, California. During these sessions, drummer Wanda Day &lt;a href="https://en.slowradio.com/artists/4-non-blondes" rel="noopener nofollow"&gt;was fired&lt;/a&gt; due to drug problems (she later died in 1997) and guitarist Shaunna Hall left the band over differences with the album’s producer, who &lt;a href="https://web.archive.org/web/20121028192212/http://www.sfbg.com/40/01/noise_miss_understood.html" rel="noopener nofollow"&gt;told Day’s replacement&lt;/a&gt; “the record is not happening with your guitar player”.&lt;/p&gt;\n\n&lt;p&gt;In 1992, Interscope released “Dear Mr President” as the album’s first single. It found small success in the UK and reached the bottom of the top 40 in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=4+Non+Blondes&amp;amp;titel=Dear+Mr%2E+President&amp;amp;cat=s" rel="noopener nofollow"&gt;New Zealand&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;When “What’s Up?” was released as the second single, the band rocketed into international stardom. It &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=4+Non+Blondes&amp;amp;titel=What%27s+Up%3F&amp;amp;cat=s" rel="noopener nofollow"&gt;topped the charts&lt;/a&gt; in seven countries, reached #2 in three more (including &lt;a href="http://www.officialcharts.com/artist/28984/4-non-blondes/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;) and peaked at #14 in the US, &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;making them&lt;/a&gt; the first openly lesbian group to reach the top 40 there.&lt;/p&gt;\n\n&lt;p&gt;“Spaceman” was the group’s third single. It &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=4+Non+Blondes&amp;amp;titel=Spaceman&amp;amp;cat=s" rel="noopener nofollow"&gt;reached the top 40&lt;/a&gt; in six countries overseas and would be their last to chart anywhere. “Drifting” was the album’s fourth and final single, aside from the &lt;a href="https://www.discogs.com/4-Non-Blondes-Superfly/release/7263997" rel="noopener nofollow"&gt;Spain-only release&lt;/a&gt; of “Superfly”.&lt;/p&gt;\n\n&lt;p&gt;Two more songs were released in 1994 on film soundtracks as the band began work on a follow-up album. However, Perry &lt;a href="https://web.archive.org/web/20121028192212/http://www.sfbg.com/40/01/noise_miss_understood.html" rel="noopener nofollow"&gt;began writing&lt;/a&gt; melancholy music in the direction of Pink Floyd’s &lt;em&gt;Dark Side of the Moon&lt;/em&gt;, the rest of the band wanted to continue making rock songs like “Superfly”, and the label &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;kept pressuring them&lt;/a&gt; to come up with “What’s Up, version 2”.&lt;/p&gt;\n\n&lt;p&gt;Perry left by the end of the year and released two solo albums on Interscope Records in 1996 and 1999. She claims to have &lt;a href="https://web.archive.org/web/20121028192212/http://www.sfbg.com/40/01/noise_miss_understood.html" rel="noopener nofollow"&gt;told her A&amp;amp;R rep&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“I will kill myself if you do not let me off this label. I am so unhappy with you guys. I will never write you another ‘What’s Up’, so why would you hold onto me?”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Perry got her wish and was released from Interscope due to poor sales of those solo albums. By then, she’d blown through all of the money she’d made from 4 Non Blondes. But three weeks after becoming broke, P!nk seeked her out and they began a lucrative songwriting partnership beginning with the Perry-penned #4 smash hit &lt;a href="https://genius.com/P-nk-get-the-party-started-lyrics" rel="noopener" data-api_path="/songs/195076"&gt;“Get The Party Started”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2011, Perry &lt;a href="https://www.rollingstone.com/music/music-news/linda-perry-forms-new-band-admits-she-never-liked-4-non-blondes-234661/" rel="noopener nofollow"&gt;told Rolling Stone&lt;/a&gt; she would not be performing “What’s Up?” or any other 4 Non Blonde songs with her new band Deep Dark Robot because she didn’t like &lt;em&gt;Bigger, Better, Faster, More&lt;/em&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wasn’t really a big fan of my band. I didn’t like the record at all. ‘Drifting’ was the only song I loved. I did love ‘What’s Up?’ but I hated the production. When I heard our record for the first time I cried. It didn’t sound like me. It made me belligerent and a real asshole. I wanted to say, ‘We’re a fucking, bad-ass cool band. We’re not that fluffy polished bullshit that you’re listening to.’ It was really difficult.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/5-seconds-of-summer', 'annotations': {'description': '&lt;p&gt;5 Seconds of Summer is an Australian pop-punk band composed of &lt;a href="https://genius.com/artists/Luke-hemmings" rel="noopener" data-api_path="/artists/550520"&gt;Luke Hemmings&lt;/a&gt;, &lt;a href="https://genius.com/artists/calum-hood" rel="noopener" data-api_path="/artists/550521"&gt;Calum Hood&lt;/a&gt;, &lt;a href="https://genius.com/artists/ashton-irwin" rel="noopener" data-api_path="/artists/588148"&gt;Ashton Irwin&lt;/a&gt;, and &lt;a href="https://genius.com/artists/michael-clifford" rel="noopener" data-api_path="/artists/579752"&gt;Michael Clifford&lt;/a&gt;. They formed in 2011 and rose to international fame when &lt;a href="https://genius.com/artists/One-direction" rel="noopener" data-api_path="/artists/19657"&gt;One Direction&lt;/a&gt; found their covers of songs on YouTube in 2013. Shortly afterwards, they released their award winning single &lt;a href="https://genius.com/5-seconds-of-summer-she-looks-so-perfect-lyrics" rel="noopener" data-api_path="/songs/369417"&gt;“She Looks So Perfect.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Their first EP, &lt;em&gt;&lt;a href="https://genius.com/albums/5-seconds-of-summer/Somewhere-new-ep" rel="noopener" data-api_path="/albums/91763"&gt;Somewhere New,&lt;/a&gt;&lt;/em&gt; was released December 7th, 2012, and featured &lt;a href="https://genius.com/5-seconds-of-summer-unpredictable-lyrics" rel="noopener" data-api_path="/songs/434646"&gt;“Unpredictable,”&lt;/a&gt; &lt;a href="https://genius.com/5-seconds-of-summer-out-of-my-limit-lyrics" rel="noopener" data-api_path="/songs/397002"&gt;“Out of My Limit,”&lt;/a&gt; &lt;a href="https://genius.com/5-seconds-of-summer-beside-you-lyrics" rel="noopener" data-api_path="/songs/397096"&gt;“Beside You,”&lt;/a&gt; and &lt;a href="https://genius.com/5-seconds-of-summer-gotta-get-out-lyrics" rel="noopener" data-api_path="/songs/639510"&gt;“Gotta Get Out”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band’s &lt;a href="https://genius.com/albums/5-seconds-of-summer/5-seconds-of-summer" rel="noopener" data-api_path="/albums/541746"&gt;self-titled&lt;/a&gt; debut studio album was released June 27th, 2014. &lt;a href="https://genius.com/5-seconds-of-summer-she-looks-so-perfect-lyrics" rel="noopener" data-api_path="/songs/369417"&gt;“She Looks So Perfect,”&lt;/a&gt; &lt;a href="https://genius.com/5-seconds-of-summer-dont-stop-lyrics" rel="noopener" data-api_path="/songs/429626"&gt;“Don’t Stop,”&lt;/a&gt; &lt;a href="https://genius.com/5-seconds-of-summer-amnesia-lyrics" rel="noopener" data-api_path="/songs/460168"&gt;“Amnesia,”&lt;/a&gt; and &lt;a href="https://genius.com/5-seconds-of-summer-good-girls-lyrics" rel="noopener" data-api_path="/songs/432668"&gt;“Good Girls”&lt;/a&gt; were released as singles, each earning a music video. &lt;a href="https://genius.com/5-seconds-of-summer-beside-you-lyrics" rel="noopener" data-api_path="/songs/397096"&gt;“Beside You”&lt;/a&gt; was remastered and put on the album.&lt;/p&gt;\n\n&lt;p&gt;Their sophomore album, &lt;em&gt;&lt;a href="https://genius.com/albums/5-seconds-of-summer/Sounds-good-feels-good" rel="noopener" data-api_path="/albums/129054"&gt;Sounds Good Feels Good&lt;/a&gt;&lt;/em&gt;, came out on October 23rd, 2015. The album was preceded by lead single &lt;a href="https://genius.com/5-seconds-of-summer-shes-kinda-hot-lyrics" rel="noopener" data-api_path="/songs/2243400"&gt;“She’s Kinda Hot,”&lt;/a&gt; which gave fans a preview of the band’s new pop punk sound.&lt;/p&gt;\n\n&lt;p&gt;In early 2018, they broadcasted their new sound and released two singles, &lt;a href="https://genius.com/5-seconds-of-summer-want-you-back-lyrics" rel="noopener" data-api_path="/songs/3529304"&gt;“Want You Back”&lt;/a&gt; and &lt;a href="https://genius.com/5-seconds-of-summer-youngblood-lyrics" rel="noopener" data-api_path="/songs/3593894"&gt;“Youngblood”&lt;/a&gt; in preparation for their third album. They released their third studio album &lt;a href="https://genius.com/albums/5-seconds-of-summer/Youngblood" rel="noopener" data-api_path="/albums/405224"&gt;&lt;em&gt;Youngblood&lt;/em&gt;&lt;/a&gt; on June 15th, 2018, topping charts worldwide within hours of its release.&lt;/p&gt;\n\n&lt;p&gt;In May 2019, 5SOS debuted &lt;a href="https://genius.com/5-seconds-of-summer-easier-lyrics" rel="noopener" data-api_path="/songs/4565635"&gt;“Easier,”&lt;/a&gt; the first offering from their fourth studio album, &lt;a href="https://genius.com/albums/5-seconds-of-summer/Calm" rel="noopener" data-api_path="/albums/531462"&gt;&lt;em&gt;CALM&lt;/em&gt;&lt;/a&gt;. On August 23, they released &lt;a href="https://genius.com/5-seconds-of-summer-teeth-lyrics" rel="noopener" data-api_path="/songs/4787875"&gt;“Teeth”&lt;/a&gt; as the second single from the album, and in February 2020, they released &lt;a href="https://genius.com/5-seconds-of-summer-no-shame-lyrics" rel="noopener" data-api_path="/songs/5059411"&gt;“No Shame”&lt;/a&gt; as the third single. “Old Me” was released on March 6 as the fourth single, and “Wildflower” was released on March 25 as the fifth single before the album was released on March 27.&lt;/p&gt;', 'alternate_names': ['5SOS', 'Five Seconds Of Summer']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Republica', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-offspring', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;The Offspring&lt;/strong&gt; is an American punk rock band from &lt;a href="http://en.wikipedia.org/wiki/Huntington_Beach,_California" rel="noopener nofollow"&gt;Huntington Beach, California&lt;/a&gt;, formed in 1984. The current line-up of the band includes: Brian Keith “Dexter” Holland (vocals, guitar), Kevin “Noodles” Wasserman (lead guitar), Todd Morse (bass), and Pete Parada (drums).&lt;/p&gt;\n\n&lt;p&gt;The Offspring is currently one of the biggest punk rock acts, along with the likes of &lt;a href="http://https.genius.com/artists/green-day" rel="noopener" data-api_path="/artists/632"&gt;Green Day,&lt;/a&gt; &lt;a href="http://https.genius.com/artists/rancid" rel="noopener" data-api_path="/artists/30419"&gt;Rancid,&lt;/a&gt; and &lt;a href="http://https.genius.com/artists/sublime" rel="noopener" data-api_path="/artists/659"&gt;Sublime,&lt;/a&gt; all of which come from California. The Offspring and other groups are credited for reviving main-stream punk rock, though it isn’t as popular as it was in the ‘80s.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sinead-oconnor', 'annotations': {'description': '&lt;p&gt;Sinéad O\'Connor (who goes by Shuhada\' Sadaqat in her private life) is an Irish singer-songwriter who rose to fame in the late 80s with her album &lt;em&gt;The Lion and the Cobra&lt;/em&gt; and achieved worldwide success with her cover of Prince’s “Nothing Compares 2 U”.&lt;/p&gt;\n\n&lt;p&gt;O\'Connor was discovered in 1985 when Nigel Grainge of Ensign Records saw her band Ton Ton Macoute perform. Although he was not fond of the band’s music, he was impressed by O\'Connor’s ‘amazing voice’. Grainge had O\'Connor record four songs with Karl Wallinger (World Party) and &lt;a href="https://www.oldies.com/artist-biography/Sinead-OConnor.html" rel="noopener nofollow"&gt;signed her to his label&lt;/a&gt;. O\'Connor’s first single was the song “Heroine” which she co-wrote with U2’s guitarist The Edge for the film &lt;em&gt;Captive&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Her debut album &lt;em&gt;The Lion and the Cobra&lt;/em&gt; was a sensation when it was released in 1987, reaching gold record status and &lt;a href="https://www.grammy.com/grammys/artists/sin%C3%A9ad-oconnor" rel="noopener nofollow"&gt;earning&lt;/a&gt; a Best Female Rock Vocal Performance Grammy nomination. O\'Connor’s debut single “Troy” charted in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=Troy&amp;amp;cat=s" rel="noopener nofollow"&gt;The Netherlands and Belgium&lt;/a&gt;, and “Mandinka”, released in late 1987, cracked the top 20 &lt;a href="http://www.officialcharts.com/artist/24657/sinead-o\'connor/" rel="noopener nofollow"&gt;in the UK&lt;/a&gt; and top 30 in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=Mandinka&amp;amp;cat=s" rel="noopener nofollow"&gt;three other European countries&lt;/a&gt;, helping her album chart well &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=The+Lion+And+The+Cobra&amp;amp;cat=a" rel="noopener nofollow"&gt;in Europe&lt;/a&gt;. Spin Magazine &lt;a href="https://www.spin.com/featured/sinead-oconnor-interview-spin-30-cover-story/" rel="noopener nofollow"&gt;described&lt;/a&gt; the album as a “remarkable, still-spine-tingling first record”.&lt;/p&gt;\n\n&lt;p&gt;In 1990, the lead single from her sophomore album &lt;em&gt;I Do Not Want What I Haven’t Got&lt;/em&gt;, a cover of the Prince-penned song “Nothing Compares 2 U” (originally performed by &lt;a href="https://genius.com/The-family-nothing-compares-2-u-lyrics" rel="noopener" data-api_path="/songs/2891977"&gt;The Family&lt;/a&gt;), became an &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=Nothing+Compares+2+U&amp;amp;cat=s" rel="noopener nofollow"&gt;international smash hit&lt;/a&gt;, topping the charts in eleven countries including &lt;a href="http://www.officialcharts.com/artist/24657/sinead-o\'connor/" rel="noopener nofollow"&gt;the UK&lt;/a&gt; and &lt;a href="https://www.billboard.com/music/sinead-oconnor/chart-history/hot-100" rel="noopener nofollow"&gt;the US&lt;/a&gt;, propelling O\'Connor into worldwide stardom. Its second single “The Emperor’s New Clothes” was a top 30 hit &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=The+Emperor%27s+New+Clothes&amp;amp;cat=s" rel="noopener nofollow"&gt;in several European countries&lt;/a&gt;, but only a modest one &lt;a href="https://www.billboard.com/music/sinead-oconnor/chart-history/hot-100" rel="noopener nofollow"&gt;in the US&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Almost immediately, controversy brewed around O\'Connor. A canceled Saturday Night Live performance was followed by &lt;a href="https://www.theguardian.com/music/2012/sep/21/sinead-o-connor-pope-photo" rel="noopener nofollow"&gt;ripping a photo&lt;/a&gt; of the Pope in half on the show two years later. She refused to allow the American National Anthem be sung before one of her concerts, leading to a local FM station banning her music and a senator calling for the boycotting of her shows. She refused to attend the 1990 Grammys despite receiving &lt;a href="https://www.grammy.com/grammys/artists/sin%C3%A9ad-oconnor" rel="noopener nofollow"&gt;four nominations&lt;/a&gt;. And she claimed a meeting with Prince included a threat that he was going to beat her, which he denied.&lt;/p&gt;\n\n&lt;p&gt;Her subsequent releases through the 90’s found &lt;a href="https://dutchcharts.nl/artist/Sinead_O\'Connor" rel="noopener nofollow"&gt;moderate success&lt;/a&gt; &lt;a href="http://www.officialcharts.com/artist/24657/sinead-o\'connor/" rel="noopener nofollow"&gt;overseas&lt;/a&gt;, and though album sales in the US &lt;a href="https://www.billboard.com/music/sinead-oconnor/chart-history/billboard-200" rel="noopener nofollow"&gt;were marginal&lt;/a&gt;, she had no further hits there. After 2000’s &lt;em&gt;Faith And Courage&lt;/em&gt;, O\'Connor’s success worldwide &lt;a href="https://dutchcharts.nl/artist/Sinead_O\'Connor" rel="noopener nofollow"&gt;diminished&lt;/a&gt;, with her songs only charting modestly in Ireland.&lt;/p&gt;\n\n&lt;p&gt;In addition to a fading career, a suicide attempt in 1999, three short-lived marriages between 2001-2012, and &lt;a href="https://www.news.com.au/entertainment/celebrity-life/celebrity-kids/sinead-oconnors-worrying-message-after-losing-custody-of-her-child/news-story/0a607587e38640e6fcfd183bde84d4ab" rel="noopener nofollow"&gt;losing custody&lt;/a&gt; of her son left her in a deteriorated mental state that culminated in a 12-minute profanity-laced video on her Facebook page in 2017 where she &lt;a href="https://www.telegraph.co.uk/news/2017/08/08/sinead-oconnor-sparks-fears-mental-health-posting-tearful-video/" rel="noopener nofollow"&gt;talks about&lt;/a&gt; wanting to kill herself. A month later she &lt;a href="https://variety.com/2017/tv/news/sinead-oconnor-dr-phil-interview-video-1202555641/" rel="noopener nofollow"&gt;appeared on a talk show&lt;/a&gt; stating, “I’m very excited to be getting some proper help”. However, in 2018 she changed her name from Sinéad O\'Connor to Magda Davitt, then to Shuhada Sadaqat, converted to Islam and &lt;a href="https://consequenceofsound.net/2018/11/sinead-oconnor-twitter/" rel="noopener nofollow"&gt;tweeted&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;What I’m about to say is something so racist I never thought my soul could ever feel it. But truly I never wanna spend time with white people again (if that’s what non-muslims are called). Not for one moment, for any reason. They are disgusting … If its ‘Crazy’ to care. Then by all means, spank my ass and call me Fruity loops.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In 2019, O\'Connor released a demo of new song “Milestones” and announced a new upcoming LP &lt;em&gt;No Mud No Lotus&lt;/em&gt; (also the title of a 2014 book by Zen Master Thich Nhat Hanh) was scheduled for release later in the year, but a cover of gospel singer Mahalia Jackson’s “Trouble Of The World”, a song &lt;a href="https://www.hotpress.com/music/exclusive-sinead-oconnor-talks-trouble-of-the-world-in-the-next-issue-of-hot-press-22828112" rel="noopener nofollow"&gt;in support&lt;/a&gt; of the Black Lives Matter cause, appeared in 2020 instead. In June 2021, she &lt;a href="https://www.spin.com/2021/06/sinead-oconnor-retirement/" rel="noopener nofollow"&gt;announced&lt;/a&gt; her retirement from music, revealing that her upcoming album &lt;em&gt;No Veteran Dies Alone&lt;/em&gt; will be her last, and added to her claims of abuse by Prince back in the 1990s in her memoir &lt;em&gt;&lt;a href="https://www.npr.org/2021/06/01/992501997/sinead-oconnor-has-a-new-memoir-and-no-regrets" rel="noopener nofollow"&gt;Rememberings&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': ['Magda Davitt', "Sinead O'connor"]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-beloved', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alien-ant-farm', 'annotations': {'description': '&lt;p&gt;Alien Ant Farm is an American rock band &lt;a href="http://www.mtv.com/news/1454457/alien-ant-farm-injured-in-bus-accident/" rel="noopener nofollow"&gt;of childhood friends&lt;/a&gt; formed in Riverside, California, in 1995. Their name comes &lt;a href="https://www.fredericksburg.com/calendar/charity_fundraisers/alien-ant-farm-at-hard-times/event_262095da-7025-11e4-9677-c392b372c9ea.html" rel="noopener nofollow"&gt;from an idea&lt;/a&gt; original guitarist Terry Corso had about aliens and the Earth:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was just my daydream about our planet being seeded by entities from other dimensions.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After self-releasing two EPs, AAF released their first &lt;a href="https://www.discogs.com/Alien-Ant-Farm-Greatest-Hits/release/3402074" rel="noopener nofollow"&gt;full album&lt;/a&gt; &lt;em&gt;Greatest Hits&lt;/em&gt; on Chick Music Records, featuring the original recordings of two future hits “Movies” and a cover of Michael Jackson’s “Smooth Criminal” (listed as “Slick Thief”). The &lt;a href="http://archives.starbulletin.com/2005/08/19/features/index3.html" rel="noopener nofollow"&gt;album won&lt;/a&gt; Best Independent Album at that year’s LA Music Awards and, through a friendship with Papa Roach, AAF was signed to DreamWorks Records.&lt;/p&gt;\n\n&lt;p&gt;In 2001 AAF released &lt;em&gt;ANThology&lt;/em&gt; with “Movies” as the band’s first single. It originally reached #53 in the UK and #18 on the &lt;a href="https://www.billboard.com/music/alien-ant-farm/chart-history/alternative-songs" rel="noopener nofollow"&gt;US Alternative Chart&lt;/a&gt; in the first half of 2001. Next “Smooth Criminal” was released and it became an international smash hit, reaching the top 30 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Smooth+Criminal&amp;amp;cat=s" rel="noopener nofollow"&gt;in fifteen countries&lt;/a&gt;. While “Criminal” was gaining steam, AAF toured with Linkin Park and Papa Roach, traveled with The Warped Tour, and headlined an MTV Fall Tour.&lt;/p&gt;\n\n&lt;p&gt;The success of “Criminal” shot “Movies” up to #5 in the UK and the top 30 in &lt;a href="https://australian-charts.com/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Movies&amp;amp;cat=s" rel="noopener nofollow"&gt;Australia &amp;amp; New Zealand&lt;/a&gt; in early 2002. The band appeared at several European festivals that year, Australia’s Big Day Out and headlined in Japan.  On the way to a festival in Spain, the band’s tour bus &lt;a href="http://www.mtv.com/news/1454457/alien-ant-farm-injured-in-bus-accident/" rel="noopener nofollow"&gt;collided with&lt;/a&gt; a parked truck, killing the bus driver and injuring several members of the band and their crew, one ending up in a coma.&lt;/p&gt;\n\n&lt;p&gt;In 2003, AAF released &lt;em&gt;Truant&lt;/em&gt; and &lt;a href="http://genxsummer.com/alienantfarm.html" rel="noopener nofollow"&gt;toured Europe&lt;/a&gt; with Metallica. The album’s lead single “These Days” was a minor Alternative and Rock hit in the US. The follow-up single “Glow” reached #5 &lt;a href="https://charts.nz/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Glow&amp;amp;cat=s" rel="noopener nofollow"&gt;in New Zealand&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;DreamWorks Records was soon after sold to Universal and the band was placed under Universal’s Geffen Records, who shelved the band’s fourth album. AAF &lt;a href="http://www.popentertainment.com/alienantfarm.htm" rel="noopener nofollow"&gt;responded by&lt;/a&gt; bootlegging it and selling ‘a few thousand’ copies to fans.&lt;/p&gt;\n\n&lt;p&gt;Eventually Geffen relented and allowed the release of the album on a different label owned by Universal. The song “Forgive And Forget” was added and it was released as &lt;em&gt;Up In The Attic&lt;/em&gt; in 2006. None of the album’s singles charted. Its lack of success led to an &lt;a href="https://answerstoall.com/language/why-did-alien-ant-farm-break-up/" rel="noopener nofollow"&gt;unannounced 2007 breakup&lt;/a&gt;, that would only last until 2008. The band then toured for a few years before beginning work on their fifth album &lt;em&gt;Always And Forever&lt;/em&gt; in 2012, which found little success upon release in 2015.&lt;/p&gt;\n\n&lt;p&gt;Since then, the band continues to tour, taking part in 2016’s Make America Rock Again tour with Saliva, Saving Abel, Tantric, Trapt, Crazy Town and 12 Stones, as well as 2018’s Gen-X Summer Tour with Buckcherry, Lit and POD. As of summer 2018, the band had &lt;a href="http://genxsummer.com/alienantfarm.html" rel="noopener nofollow"&gt;sold over 5 million units&lt;/a&gt; worldwide.  In 2020, during their Covid-19 quarantine, AAF released another 80s cover, this time Wham’s “Everything She Wants”. Its  &lt;a href="https://www.youtube.com/watch?v=Kfg4t-PAcBg" rel="noopener nofollow"&gt;music video&lt;/a&gt; features cameos by several famous musicians.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Demi-lovato', 'annotations': {'description': '&lt;p&gt;Demetria Devonne “Demi” Lovato (born August 20, 1992) is an American singer-songwriter, musician, and actor. Lovato &lt;a href="https://www.hollywoodreporter.com/news/music-news/demi-lovato-non-binary-pronouns-they-them-1234955698/" rel="noopener nofollow"&gt;identifies&lt;/a&gt; as non-binary and uses they/them pronouns. They made their debut as a child actor in &lt;a href="https://www.imdb.com/title/tt0144701/" rel="noopener nofollow"&gt;&lt;em&gt;Barney &amp;amp; Friends&lt;/em&gt;&lt;/a&gt;. In 2008, they came to prominence as a starring cast member in the television film &lt;a href="https://www.imdb.com/title/tt1055366/" rel="noopener nofollow"&gt;&lt;em&gt;Camp Rock&lt;/em&gt;&lt;/a&gt;. They signed to &lt;a href="https://genius.com/artists/Hollywood-records" rel="noopener" data-api_path="/artists/58977"&gt;Hollywood Records&lt;/a&gt; the same year, and released their debut studio album &lt;a href="https://genius.com/albums/Demi-lovato/Dont-forget" rel="noopener" data-api_path="/albums/29162"&gt;&lt;em&gt;Don’t Forget&lt;/em&gt;&lt;/a&gt; in September 2008. It has been &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=Demi+Lovato&amp;amp;ti=Don%27t+Forget#search_section" rel="noopener nofollow"&gt;certified Gold&lt;/a&gt; by the Recording Industry Association of America (RIAA). In 2009, Lovato was commissioned for their Disney Channel television series, &lt;a href="https://www.imdb.com/title/tt1252374/" rel="noopener nofollow"&gt;&lt;em&gt;Sonny with a Chance&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;As of 2021, they have released seven studio albums: &lt;em&gt;Don’t Forget&lt;/em&gt;, &lt;a href="https://genius.com/albums/Demi-lovato/Here-we-go-again" rel="noopener" data-api_path="/albums/40337"&gt;&lt;em&gt;Here We Go Again&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Demi-lovato/Unbroken" rel="noopener" data-api_path="/albums/15632"&gt;&lt;em&gt;Unbroken&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Demi-lovato/Demi" rel="noopener" data-api_path="/albums/34708"&gt;&lt;em&gt;Demi&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Demi-lovato/Confident" rel="noopener" data-api_path="/albums/130936"&gt;&lt;em&gt;Confident&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Demi-lovato/Tell-me-you-love-me" rel="noopener" data-api_path="/albums/364894"&gt;&lt;em&gt;Tell Me You Love Me&lt;/em&gt;&lt;/a&gt; and most recently, &lt;a href="https://genius.com/albums/Demi-lovato/Dancing-with-the-devil-the-art-of-starting-over" rel="noopener" data-api_path="/albums/439486"&gt;&lt;em&gt;Dancing With the Devil…The Art of Starting Over&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Demetria Lovato', 'Demetria Devonne Lovato']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Audioslave', 'annotations': {'description': '&lt;p&gt;Audioslave was an American rock supergroup that formed in Los Angeles, California in 2001 and disbanded in 2007. Its members consisted of lead vocalist/rhythm guitarist &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt; (who at the time broke away from the band &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;), lead guitarist &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/tim-commerford" rel="noopener" data-api_path="/artists/646888"&gt;Tim Commerford&lt;/a&gt;, and drummer &lt;a href="https://genius.com/artists/brad-wilk" rel="noopener" data-api_path="/artists/646889"&gt;Brad Wilk&lt;/a&gt; (all three of which were members of the then-broken-up band &lt;a href="https://genius.com/artists/Rage-against-the-machine" rel="noopener" data-api_path="/artists/1499"&gt;Rage Against the Machine&lt;/a&gt;). Thus, they were initially described as a combination of both bands, but by the time their 2005 album &lt;em&gt;Out of Exile&lt;/em&gt; came out, they became noted as being their own band.&lt;/p&gt;\n\n&lt;p&gt;They produced three studio albums and received just as many Grammy nominations over their six years of existence, and were the first American rock band to perform an open-air concert in Cuba. Their biggest hit was &lt;a href="https://genius.com/Audioslave-like-a-stone-lyrics" rel="noopener" data-api_path="/songs/121557"&gt;“Like A Stone”&lt;/a&gt; from their 2002 self-titled debut album.&lt;/p&gt;\n\n&lt;p&gt;They broke up in 2007 due to “irresolvable personality conflicts as well as musical differences”, according to Cornell, which was later solidified by the reunion tour of Rage and solo album releases by Morello and Cornell in the same year.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Metro-station', 'annotations': {'description': '&lt;p&gt;Metro Station is an American pop band that was formed in Los Angeles by &lt;a href="https://genius.com/artists/Trace-cyrus" rel="noopener" data-api_path="/artists/59818"&gt;Trace Cyrus&lt;/a&gt; and &lt;a href="https://genius.com/artists/Mason-musso" rel="noopener" data-api_path="/artists/681526"&gt;Mason Musso&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Melanie-martinez', 'annotations': {'description': '&lt;p&gt;Melanie Adele Martinez (born April 28, 1995) is an American singer-songwriter born in Astoria, Queens and raised in Baldwin, New York.&lt;/p&gt;\n\n&lt;p&gt;Born to Dominican and Puerto Rican parents, Melanie first rose to fame on the Emmy Award-winning TV show &lt;a href="http://NBC.com/the-voice" rel="noopener nofollow"&gt;&lt;em&gt;The Voice USA&lt;/em&gt;&lt;/a&gt; at the age of 17. Although she did not win, Melanie was inspired to produce their first single &lt;a href="https://genius.com/Melanie-martinez-dollhouse-lyrics" rel="noopener" data-api_path="/songs/381520"&gt;“Dollhouse”&lt;/a&gt;, followed by their sophomore single&lt;a href="https://genius.com/Melanie-martinez-carousel-lyrics" rel="noopener" data-api_path="/songs/435278"&gt;“Carousel”&lt;/a&gt; was used in &lt;a href="https://www.youtube.com/watch?v=bE1cV4TgWiw" rel="noopener nofollow"&gt;promos for &lt;em&gt;American Horror Story: Freak Show&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Starting her independent career, Melanie signed with &lt;a href="https://genius.com/artists/Atlantic-records" rel="noopener" data-api_path="/artists/68978"&gt;&lt;em&gt;Atlantic Records&lt;/em&gt;&lt;/a&gt;. In 2014, Melanie would release their debut EP &lt;a href="https://genius.com/albums/Melanie-martinez/Dollhouse" rel="noopener" data-api_path="/albums/117979"&gt;&lt;em&gt;Dollhouse&lt;/em&gt;&lt;/a&gt;, which introduced her alter-ego Cry Baby and would lay the foundation for their first studio album &lt;a href="https://genius.com/albums/Melanie-martinez/Cry-baby" rel="noopener" data-api_path="/albums/125507"&gt;&lt;em&gt;Cry Baby&lt;/em&gt;&lt;/a&gt;, which debuted August 14, 2015 and featured &lt;a href="https://genius.com/artists/Kinetics" rel="noopener" data-api_path="/artists/12128"&gt;Kinetics&lt;/a&gt; and &lt;a href="https://genius.com/artists/One-love" rel="noopener" data-api_path="/artists/28165"&gt;One Love&lt;/a&gt; as its producers.&lt;/p&gt;\n\n&lt;p&gt;On December 4, 2017, Melanie would be embroiled in controversy, after singer-songwriter &lt;a href="https://genius.com/artists/Timothy-heller" rel="noopener" data-api_path="/artists/1274650"&gt;Timothy Heller&lt;/a&gt;, a former close friend, accused her of sexual assault and rape. Melanie addressed the accusation, saying that “[Timothy] had never said no to what we chose to do together”, and asserting that Heller’s statements were false. Melanie then took a four-year-hiatus from actively producing music.&lt;/p&gt;\n\n&lt;p&gt;On September 6, 2019, Melanie released their second studio album &lt;a href="https://genius.com/albums/Melanie-martinez/K-12" rel="noopener" data-api_path="/albums/413895"&gt;&lt;em&gt;K-12&lt;/em&gt;&lt;/a&gt;, which was accompanied by her &lt;a href="https://www.youtube.com/watch?v=2HtaIvb61Uk&amp;amp;list=PLhpyBoWxiusije5j7TXxcRjUF0fcPsw83" rel="noopener nofollow"&gt;self-directed film&lt;/a&gt; of the same name.&lt;/p&gt;\n\n&lt;p&gt;On September 25, 2020, Melanie released a follow-up EP: &lt;a href="https://genius.com/albums/Melanie-martinez/After-school" rel="noopener" data-api_path="/albums/592434"&gt;&lt;em&gt;After School&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Melanie’s dreamy but dark aesthetic and unique style of writing, singing, and story-telling has garnered her an enormous fanbase. On songs like &lt;a href="https://genius.com/melanie-martinez-mrs-potato-head-lyrics" rel="noopener" data-api_path="/songs/2266331"&gt;“Mrs. Potato Head”&lt;/a&gt; and &lt;a href="https://genius.com/melanie-martinez-dollhouse-lyrics" rel="noopener" data-api_path="/songs/381520"&gt;“Dollhouse”&lt;/a&gt; Melanie comments on issues in today’s society, and on other songs like &lt;a href="https://genius.com/melanie-martinez-alphabet-boy-lyrics" rel="noopener" data-api_path="/songs/654738"&gt;“Alphabet Boy”&lt;/a&gt; and &lt;a href="https://genius.com/melanie-martinez-cry-baby-lyrics" rel="noopener" data-api_path="/songs/390271"&gt;“Cry Baby”&lt;/a&gt; she gives listeners a relatable glimpse into their personal life.&lt;/p&gt;\n\n&lt;p&gt;Melanie cites other alternative artists &lt;a href="https://genius.com/artists/Lana-del-rey" rel="noopener" data-api_path="/artists/15740"&gt;Lana Del Rey&lt;/a&gt;, &lt;a href="https://genius.com/artists/Regina-spektor" rel="noopener" data-api_path="/artists/19191"&gt;Regina Spektor&lt;/a&gt;, &lt;a href="https://genius.com/artists/Feist" rel="noopener" data-api_path="/artists/18072"&gt;Feist&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fiona-apple" rel="noopener" data-api_path="/artists/653"&gt;Fiona Apple&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Marina-and-the-diamonds" rel="noopener" data-api_path="/artists/27048"&gt;Marina and the Diamonds&lt;/a&gt; as major influences on her music.&lt;/p&gt;\n\n&lt;p&gt;In addition to her accounts on Instagram, Twitter, and Facebook, Melanie also uses &lt;a href="http://melaniemartinezmusic.tumblr.com/" rel="noopener nofollow"&gt;Tumblr,&lt;/a&gt; &lt;a href="https://www.youtube.com/user/Melmartinezx3" rel="noopener nofollow"&gt;YouTube,&lt;/a&gt; and her &lt;a href="http://melaniemartinezmusic.com/?frontpage-true" rel="noopener nofollow"&gt;official website&lt;/a&gt; to connect with fans.&lt;/p&gt;', 'alternate_names': ['Melanie A. Martinez', 'Melanie Adele Martinez']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Men-at-work', 'annotations': {'description': '&lt;p&gt;Formed in 1978 with Colin Hay, Jerry Speiser, and Ron Strykert (Greg Ham and John Rees later joined the band in the early 1980s)&lt;br&gt;\nHad their biggest hit in 1981 with “Down Under”&lt;br&gt;\nPerformed at the closing ceremony of the 2000 Summer Olympics in Sydney, Australia&lt;br&gt;\nBroke up in 1986; reformed in 1996 only to break up again six years later. The band occasionally reunited until 2012.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Korn', 'annotations': {'description': '&lt;p&gt;Bakersfield friends James “Munky” Shaffer, Reginald “Fieldy” Arvizu and David Silveria &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;formed the funk-rock band LAPD&lt;/a&gt; in 1989 and moved to Los Angeles with another friend Brian “Head” Welch as their roadie. Later, with Welch as second guitarist, the band named themselves Creep and recorded a demo with pal Ross Robinson.&lt;/p&gt;\n\n&lt;p&gt;However, when Shaffer and Welch visited family in Bakersfield, they met Jonathan Davis who added a darker, goth-tinged edge to the band’s heavy groove. &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;Robinson recalled&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The band wasn’t dark yet; it had, like, killer grooves and good riffs, but there was some happy edge to it. And when (Davis) walked into the room, it went dark and goth. Basically, during the first song, to audition in the rehearsal room, he started freaking the hell out [laughs]. You couldn’t hear his voice, but you felt chills all over your body, and it was instantly like, “Oh my God, yeah – he’s the one.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;They chose the name Korn (based on &lt;a href="https://www.youtube.com/watch?v=ZYnk4layQqs" rel="noopener nofollow"&gt;a gross story&lt;/a&gt; Davis once overheard) and recorded four songs &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;inspired by acts like&lt;/a&gt; Pantera, Ice Cube, Duran Duran, Cypress Hill, The Cure, Primus and potentially anything in between. That demo attracted Immortal Records. Their debut album only peaked at #72 in the US, but over time became the seed that sprouted into a whole new style of heavy music most commonly called nu-metal. &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;Davis explained&lt;/a&gt; in 2015:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;At the time in rock, there was nothing new or different, and it felt so stagnant. And here come these guys from Bakersfield with this bouncing sound, and I’m screaming my throat out, being super emotional and bringing up all this weird shit … It changed everything, man. And I’m not saying that because I was in the band, but I started seeing kids in baggy clothes and metal kids in Adidas.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Korn’s second album &lt;em&gt;Life Is Peachy&lt;/em&gt; began to expand the band’s sound from just dark and serious into frivolity, with a light-hearted cover of “Low Rider” and the band’s first almost-hit in the US “ADIDAS”. The formula worked in the UK where all three singles reached the top 30.&lt;/p&gt;\n\n&lt;p&gt;It was the band’s third album &lt;em&gt;Follow The Leader&lt;/em&gt;, another collection of dark songs mixed in with some silly ones, that broke the band in the US. Despite two of its singles only reaching the top 20 on two rock charts (but not crossing over to mainstream success), Korn became &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;what Noisey called&lt;/a&gt; “the biggest band in the fucking world”.&lt;/p&gt;\n\n&lt;p&gt;With an established sound, the band continued releasing successful albums and playing to packed arenas through the 2000s. But aside from their experimental tenth album &lt;em&gt;The Path Of Totality&lt;/em&gt; – a mixing of metal and dubstep – their albums remained formulaic and predictable. They are still best remembered for their self-titled debut and third album &lt;em&gt;Follow The Leader&lt;/em&gt;. In 2005, it was common to refer to Korn as a band whose best albums are &lt;a href="https://www.nme.com/reviews/album/reviews-nme-6437" rel="noopener nofollow"&gt;their odd-numbered ones&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The received wisdom about Korn is that they deliver on the odd numbers. Album one, ‘Korn’, revitalised metal, dragging it out of the middle ages into the modern era. Album three, ‘Follow The Leader’, took the form into the mainstream, blowing boundaries and preconceptions. Album four, ‘Issues’, was dense and impenetrable.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Welch quit in 2005 after having “Revelation of Christ” and Silveria left silently in 2006, but years later &lt;a href="https://www.ultimate-guitar.com/news/general_music_news/jonathan_davis_on_david_silveria_reunion_never_never_again.html" rel="noopener nofollow"&gt;revealed&lt;/a&gt; one reason for leaving was that he “was being asked to be a puppet and dumb down my playing” while producers made “cookie cutter Korn songs”. Welch later rejoined in 2013.&lt;/p&gt;\n\n&lt;p&gt;The band’s lifestyles have changed drastically over the band’s three-decade career, moving away from the spoils of excess to inspiring others to overcome their addictions and depression. In 2016, Davis &lt;a href="https://www.theguardian.com/music/2016/oct/21/korn-serenity-of-suffering-jonathan-davis-interview" rel="noopener nofollow"&gt;told The Guardian&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Nothing brings more joy into my fucking heart than seeing our music help a kid who is depressed, or suicidal, or going through an episode. That’s the payoff to me, that’s why we keep coming out here, that’s why we keep making records. Because we like to see people smile.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;As of 2020, the band has released 13 albums. The first seven are certified platinum and the band is &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;widely recognized as&lt;/a&gt; a pioneer of “one of heavy music’s biggest paradigm shifts”. They’re credited with creating the genre ‘nu-metal’ – a label &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;Davis originally rejected&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’d like to find that fucking writer that coined that term, nu-metal … Yeah, we’re heavy and downtuned, but metal, to me, is like Judas Priest and Iron Maiden. That’s metal, man. I always thought of us as a funk band, that funky groovy shit.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Mousse-t', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Mustafa Gündoğdu']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Megadeth', 'annotations': {'description': '&lt;p&gt;After being &lt;a href="http://loudwire.com/dave-mustaine-fired-from-metallica-anniversary/" rel="noopener nofollow"&gt;kicked out of&lt;/a&gt; &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt;, Dave Mustaine decided to form a thrash metal band that not only rivaled his former band, but played faster, more technical metal. Along with bassist David ‘Junior’ Ellefson and a revolving door of guitarists and drummers, Mustaine &lt;a href="https://genius.com/Megadeth-set-the-world-afire-lyrics" rel="noopener" data-api_path="/songs/92396"&gt;set the world afire&lt;/a&gt; as Megadeth became known as the world’s state-of-the-art speed metal band throughout the 80s and the early 90s. One of the &lt;a href="https://genius.com/discussions/169443-Rank-the-big-four" rel="noopener"&gt;Big Four&lt;/a&gt; of &lt;a href="https://en.wikipedia.org/wiki/The_Big_Four:_Live_from_Sofia,_Bulgaria" rel="noopener nofollow"&gt;thrash metal&lt;/a&gt;, Megadeth remains one of metal’s most popular acts today.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;However, Dave Mustaine’s fledgling band got off to a shaky start. Initially unable to find like-minded individuals, it was not until an altercation with his (underage) downstairs neighbours Dave Ellefson and Greg Handevidt, that led to him buying them beer and forming the first incarnation of the band with drummer Dijon Carruthers in 1983.&lt;/p&gt;\n\n&lt;p&gt;The band was named after a political pamphlet that referred to a “megadeath” (one million deaths by nuclear explosion):&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The arsenal of megadeath can’t be rid no matter what the peace treaties come to&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After a few line-up changes, including &lt;a href="https://genius.com/artists/Slayer" rel="noopener" data-api_path="/artists/6596"&gt;Slayer&lt;/a&gt; guitarist Kerry King, the band settled on the first stable Megadeth line-up of the two Daves (Mustaine and Ellefson), guitarist Chris Poland, and drummer Gar Samuelson. Together they released 1985’s &lt;em&gt;&lt;a href="https://genius.com/albums/Megadeth/Killing-is-my-business-and-business-is-good" rel="noopener" data-api_path="/albums/22489"&gt;Killing Is My Business… and Business Is Good&lt;/a&gt;&lt;/em&gt; and 1986’s well-received &lt;em&gt;&lt;a href="https://genius.com/albums/Megadeth/Peace-sells-but-who-s-buying" rel="noopener" data-api_path="/albums/22490"&gt;Peace Sells… but Who’s Buying?&lt;/a&gt;&lt;/em&gt;, which both featured band mascot &lt;a href="https://en.wikipedia.org/wiki/Vic_Rattlehead" rel="noopener nofollow"&gt;Vic Rattlehead&lt;/a&gt; (a homage to both &lt;a href="http://maiden-world.com/articles/history-of-eddie.html" rel="noopener nofollow"&gt;Eddie the Head&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Mot%C3%B6rhead#Cover_art" rel="noopener nofollow"&gt;Snaggletooth&lt;/a&gt;) on the front cover. &lt;em&gt;Peace Sells… but Who’s Buying?&lt;/em&gt; included political themes, which in addition to the technical guitar work on display, became a staple of future Megadeth. Ironically, given the circumstances around Mustaine’s Metallica firing, both Poland and Samuelson were fired soon after &lt;em&gt;Peace Sells… but Who’s Buying?&lt;/em&gt; for excessive drug (heroin) abuse.&lt;/p&gt;\n\n&lt;p&gt;1988’s &lt;a href="https://genius.com/albums/Megadeth/So-far-so-good-so-what" rel="noopener" data-api_path="/albums/22492"&gt;&lt;em&gt;So Far, So Good… So What!&lt;/em&gt;&lt;/a&gt; continued in a similar vein both lyrically and musically, but was less cohesive than &lt;em&gt;Peace Sells… but Who’s Buying?&lt;/em&gt;, perhaps due to the line-up change, questionable mixing/engineering and alcohol/drug addiction. The subsequent firing of Jeff Young and Chuck Behler and newfound sobriety of Mustaine, led to the classic Megadeth line-up: the two Daves, Nick Menza on drums, and Marty Friedman on guitars. They started with great success, producing the Grammy-nominated and definitive thrash metal album, &lt;a href="https://genius.com/albums/Megadeth/Rust-in-peace" rel="noopener" data-api_path="/albums/16297"&gt;&lt;em&gt;Rust in Peace&lt;/em&gt;&lt;/a&gt;, with the popular singles &lt;a href="https://genius.com/Megadeth-holy-wars-the-punishment-due-lyrics" rel="noopener" data-api_path="/songs/109944"&gt;“Holy Wars… the Punishment Due”&lt;/a&gt; and &lt;a href="https://genius.com/Megadeth-hangar-18-lyrics" rel="noopener" data-api_path="/songs/118018"&gt;“Hangar 18”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;This classic line-up stayed together throughout the 90s, receiving six consecutive Grammy nominations (losing twice to Metallica and twice to &lt;a href="https://genius.com/artists/Nine-inch-nails" rel="noopener" data-api_path="/artists/12757"&gt;Nine Inch Nails&lt;/a&gt;), however the frustration of not achieving the same success as Metallica led Megadeth to progressively eschew their signature fast-paced thrash metal sound for a more traditional heavy metal and Hard Rock sound, culminating in the 1999’s incredibly poorly-received &lt;a href="https://genius.com/albums/Megadeth/Risk" rel="noopener" data-api_path="/albums/27049"&gt;&lt;em&gt;Risk&lt;/em&gt;&lt;/a&gt;. An attempt to right ship, with &lt;a href="https://genius.com/albums/Megadeth/The-world-needs-a-hero" rel="noopener" data-api_path="/albums/27366"&gt;&lt;em&gt;The World Needs a Hero&lt;/em&gt;&lt;/a&gt; was unsuccessful and following a nerve injury to Mustaine’s left arm, he disbanded Megadeth.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;With a comeback album, &lt;a href="https://genius.com/albums/Megadeth/The-system-has-failed" rel="noopener" data-api_path="/albums/28083"&gt;&lt;em&gt;The System has Failed&lt;/em&gt;&lt;/a&gt; in 2004, that saw a return to Megadeth’s thrash metal and speed metal roots, the band begun to regain the popularity it had lost in the late 90s, with increasing acclaim with each subsequent album. 2007’s &lt;a href="https://genius.com/albums/Megadeth/United-abominations" rel="noopener" data-api_path="/albums/28084"&gt;&lt;em&gt;United Abominations&lt;/em&gt;&lt;/a&gt; was the band’s highest-charting album since 1994’s &lt;a href="https://genius.com/albums/Megadeth/Youthanasia" rel="noopener" data-api_path="/albums/24189"&gt;&lt;em&gt;Youthanasia&lt;/em&gt;&lt;/a&gt; and was voted Metal album of the year by Guitar World. 2009’s &lt;a href="https://genius.com/albums/Megadeth/Endgame" rel="noopener" data-api_path="/albums/28104"&gt;&lt;em&gt;Endgame&lt;/em&gt;&lt;/a&gt; contained Grammy-nominated single &lt;a href="https://genius.com/Megadeth-headcrusher-lyrics" rel="noopener" data-api_path="/songs/116278"&gt;“Head Crusher”&lt;/a&gt;, and 2011’s &lt;a href="https://genius.com/albums/Megadeth/Th1rt3en" rel="noopener" data-api_path="/albums/28106"&gt;&lt;em&gt;TH1RT3EN&lt;/em&gt;&lt;/a&gt; contained three Grammy-nominated singles (and the return of Dave Ellefson to the band).&lt;/p&gt;\n\n&lt;p&gt;This increase in popularity was evident when the band’s fourteenth album &lt;a href="https://genius.com/albums/Megadeth/Super-collider" rel="noopener" data-api_path="/albums/74399"&gt;&lt;em&gt;Super Collider&lt;/em&gt;&lt;/a&gt; debuted at number six on the Billboard chart in 2013. &lt;a href="https://genius.com/albums/Megadeth/Dystopia" rel="noopener" data-api_path="/albums/141136"&gt;&lt;em&gt;Dystopia&lt;/em&gt;&lt;/a&gt;, their fifteenth album, was expected to be released on October 2nd, 2015, but was eventually delayed to January 22nd, 2016.&lt;/p&gt;\n\n&lt;p&gt;Following Mustaine’s Throat Cancer diagnosis and recovery, the band reconvened to work on their next album. On May 2021, following leaked private videos, Mustaine announced that the band had once again parted ways with David Ellefson. Mustaine confirmed the bass tracks recorded by Ellefson would not appear on the album and would be re-recorded by a different bassist, but he didn’t reveal the bassist’s name. Former bass player James LoMenzo filled in for the band’s tour. The new album called &lt;em&gt;The Sick, the Dying… and the Dead!&lt;/em&gt; is scheduled to be released in the spring of 2022.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n\n\n&lt;h3&gt;Members&lt;/h3&gt;\n\n\n\n\n&lt;h4&gt;Current&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://www.metal-archives.com/artists/Dave_Mustaine/184" rel="noopener nofollow"&gt;Dave Mustaine&lt;/a&gt; – vocals, guitars (1983–2002; 2004–present)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Kiko_Loureiro/3826" rel="noopener nofollow"&gt;Kiko Loureiro&lt;/a&gt; – guitars (2015–present)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Dirk_Verbeuren/1391" rel="noopener nofollow"&gt;Dirk Verbeuren&lt;/a&gt; – drums (2016–present)&lt;/p&gt;\n\n&lt;h4&gt;Past&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://www.metal-archives.com/artists/David_Ellefson/218" rel="noopener nofollow"&gt;David Ellefson&lt;/a&gt; – bass (1983–2002; 2010–2021)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Greg_Handevidt/2702" rel="noopener nofollow"&gt;Greg Handevidt&lt;/a&gt; – guitars (1983)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Dijon_Carruthers/2763" rel="noopener nofollow"&gt;Dijon Carruthers&lt;/a&gt; – drums (1983)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Lee_Rauch/2768" rel="noopener nofollow"&gt;Lee Rausch&lt;/a&gt; – drums (1984)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chris_Poland/2716" rel="noopener nofollow"&gt;Chris Poland&lt;/a&gt; – guitars (1984–1987)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Gar_Samuelson/2772" rel="noopener nofollow"&gt;Gar Samuelson&lt;/a&gt; – drums (1984–1987)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Jeff_Young/2723" rel="noopener nofollow"&gt;Jeff Young&lt;/a&gt; – guitars (1987–1989)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chuck_Behler/2774" rel="noopener nofollow"&gt;Chuck Behler&lt;/a&gt; – drums (1987–1989)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Nick_Menza/2790" rel="noopener nofollow"&gt;Nick Menza&lt;/a&gt; – drums (1989–1998)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Marty_Friedman/2741" rel="noopener nofollow"&gt;Marty Friedman&lt;/a&gt; – guitars (1990–2000)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Jimmy_DeGrasso/2793" rel="noopener nofollow"&gt;Jimmy DeGrasso&lt;/a&gt; – drums (1998–2002)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Al_Pitrelli/2748" rel="noopener nofollow"&gt;Al Pitrelli&lt;/a&gt; – guitars (2000–2002)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Glen_Drover/2754" rel="noopener nofollow"&gt;Glen Drover&lt;/a&gt; – guitars (2004–2008)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Shawn_Drover/223" rel="noopener nofollow"&gt;Shawn Drover&lt;/a&gt; – drums (2004–2014)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/James_MacDonough/2833" rel="noopener nofollow"&gt;James MacDonough&lt;/a&gt; – bass (2004–2006)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/James_LoMenzo/2836" rel="noopener nofollow"&gt;James LoMenzo&lt;/a&gt; – bass (2006–2010)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chris_Broderick/215" rel="noopener nofollow"&gt;Chris Broderick&lt;/a&gt; – guitars (2008–2014)&lt;/p&gt;\n\n&lt;h4&gt;Touring&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://www.metal-archives.com/artists/Kerry_King/267" rel="noopener nofollow"&gt;Kerry King&lt;/a&gt; – guitars (1984)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Mike_Albert/139584" rel="noopener nofollow"&gt;Mike Albert&lt;/a&gt; – guitars (1985)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chris_Adler/10965" rel="noopener nofollow"&gt;Chris Adler&lt;/a&gt; – drums (2015–2016)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Tony_Laureano/434" rel="noopener nofollow"&gt;Tony Laureano&lt;/a&gt; – drums (2015–2016)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/James_LoMenzo/2836" rel="noopener nofollow"&gt;James LoMenzo&lt;/a&gt; – bass (2021–present)&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/M83', 'annotations': {'description': '&lt;p&gt;M83 is a French electronic/shoegaze/pop band from Antibes, formed in 2001 by Anthony Gonzalez and Nicolas Fromageau. Gonzalez remains the primary member of the band after Fromageau’s departure after the release of their second album. The band is named after the spiral galaxy Messier 83, and its musical aesthetic is influenced by shoegaze in its extensive use of reverb effects and lyrics spoken softly over loud instrumentals, although M83’s songs employ considerably less guitar than most shoegaze bands.&lt;/p&gt;\n\n&lt;p&gt;After the release of the crossover smash hit “Midnight City” from their 2011 double album &lt;em&gt;Hurry Up, We’re Dreaming&lt;/em&gt;, M83 gained massive mainstream recognition, and has continued to tour and make music for movies and television.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Corey-hart', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Corey Mitchell Hart']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alpha-blondy', 'annotations': {'description': "&lt;p&gt;Hailing from the Cote d'Ivoire, Alpha Blondy is among the world’s most popular reggae artists. With his 12-piece band Solar System, Blondy offers a reggae beat with a distinctive African cast. Calling himself an African Rasta, Blondy creates Jah-centered anthems promoting morality, love, peace, and social consciousness. With a range that moves from sensitivity to rage over injustice, much of Blondy’s music empathizes with the impoverished and those on society’s fringe. Blondy is also a staunch supporter of African unity, and to this end, he sings to Muslim audiences in Hebrew and sings in Arabic to Israelis. Some of his best-known songs include “Cocody Rock,” “Jerusalem,” and “Apartheid Is Nazism.”&lt;/p&gt;", 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bee-gees', 'annotations': {'description': '&lt;p&gt;The three Gibb brothers were very close as children and spent most of their time together. Barry was born in 1946, and his twin brothers Maurice and Robin were born in 1949. Together, they went on to become one of the most popular bands of the 1970s.&lt;/p&gt;\n\n&lt;p&gt;The Bee Gees have sold more than 220 million records worldwide, and functioned as a group almost continuously from 1958 to 2003, when Maurice Gibb &lt;a href="http://www.theguardian.com/world/2003/jan/13/arts.artsnews" rel="noopener nofollow"&gt;suddenly died during a coma&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sublime', 'annotations': {'description': '&lt;p&gt;Sublime was an American ska punk and alternative rock band from Long Beach, California, formed in 1988. The band’s line-up, unchanged until their breakup, consisted of Bradley Nowell (vocals and guitar), Eric Wilson (bass) and Bud Gaugh (drums). Lou Dog, Nowell’s dalmatian, was the mascot of the band. Michael ‘Miguel’ Happoldt and Marshall Goodman “Ras MG” contributed to and co-wrote several Sublime songs. Nowell died of a heroin overdose in 1996. In 1997, posthumous songs such as “Santeria”, “Wrong Way”, “Doin\' Time”, and “April 29, 1992 (Miami)” were released to U.S. radio.&lt;/p&gt;\n\n&lt;p&gt;Sublime released three studio albums, one live album, five compilation albums (one of which also contains never-before released material), three EPs and one box set. Although their first two albums (40oz. to Freedom [1992] and Robbin\' the Hood [1994]) were quite popular in the United States, Sublime did not experience major commercial success until 1996 with their self-titled third album. Released two months after Nowell’s death, it peaked at number 13 on the Billboard 200 and spawned the single “What I Got”, which remains the band’s only number one hit single (on the Billboard Alternative Songs chart) in their musical career. As of 2009, the band has sold over 17 million albums worldwide, including about 10 million in the U.S. alone.&lt;/p&gt;\n\n&lt;p&gt;See also &lt;a href="https://genius.com/artists/Sublime-with-rome" rel="noopener" data-api_path="/artists/21304"&gt;Sublime With Rome&lt;/a&gt;, a collaboration between Eric Wilson and vocalist/guitarist &lt;a href="https://genius.com/artists/Rome-ramirez" rel="noopener" data-api_path="/artists/44898"&gt;Rome Ramirez&lt;/a&gt; who managed to release a few albums of their own.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Phum-viphurit', 'annotations': {'description': '&lt;p&gt;Phum Viphurit is a Thai born, New Zealand raised, Bangkok resident singer-songwriter.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Peter-tosh', 'annotations': {'description': '&lt;p&gt;Hubert Winston McIntosh (October 19, 1944 – September 11, 1987), better known by his stage name Peter Tosh, was a talented reggae multi-instrumentalist, songwriter, and vocalist from Jamaica. In addition to being a founding member of &lt;a href="https://genius.com/artists/The-wailers" rel="noopener" data-api_path="/artists/16126"&gt;The Wailers&lt;/a&gt;, Tosh would go on to distinguish himself as one of the biggest reggae artists of the 1970’s and 1980’s.&lt;/p&gt;\n\n&lt;p&gt;Many of the songs that he wrote for the Wailers were influenced by the prevailing &lt;a href="http://www.jamaicaobserver.com/news/the-making-of-peter-tosh-live-at-the-one-love-peace-concert_131076" rel="noopener nofollow"&gt;political and economic repression.&lt;/a&gt; Sung with his rich baritone, Wailer hits like &lt;a href="https://genius.com/The-wailers-no-sympathy-lyrics" rel="noopener" data-api_path="/songs/809985"&gt;“No Sympathy,”&lt;/a&gt; &lt;a href="https://genius.com/The-wailers-400-years-lyrics" rel="noopener" data-api_path="/songs/810134"&gt;“400 Years,”&lt;/a&gt; and “&lt;a href="https://genius.com/The-wailers-stop-that-train-lyrics" rel="noopener" data-api_path="/songs/306027"&gt;Stop That Train"&lt;/a&gt; all reflect his response to the political and social situation of the oppressed. He also co-wrote one of the most celebrated reggae anthems, &lt;a href="https://genius.com/The-wailers-get-up-stand-up-lyrics" rel="noopener" data-api_path="/songs/4743273"&gt;“Get Up, Stand Up,”&lt;/a&gt; with Bob Marley.&lt;/p&gt;\n\n&lt;p&gt;By the time The Wailers\' released their 1973 album, &lt;em&gt;Burnin\'&lt;/em&gt;, Tosh &lt;a href="https://web.archive.org/web/20120709081953/http://lareviewofbooks.org/article.php?type=&amp;amp;id=688&amp;amp;fulltext=1&amp;amp;media=" rel="noopener nofollow"&gt;had begun to chafe&lt;/a&gt; at Island Records insistence on marketing the group as Bob Marley &amp;amp; The Wailers. Resentful of the perception that he was merely backing up his old friend (Bob Marley), Tosh decided to become a solo artist. His 1976 debut album, &lt;a href="https://genius.com/albums/Peter-tosh/Legalize-it" rel="noopener" data-api_path="/albums/27664"&gt;&lt;em&gt;Legalize It&lt;/em&gt;,&lt;/a&gt; spent two weeks in the &lt;a href="https://www.billboard.com/music/peter-tosh/chart-history/billboard-200/song/194689" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt; and even got platinum certified. Its title track &lt;a href="http://petertosh.com/legalize-it-jamaicas-weed-decriminalization-explained-by-the-wailers-lyrics-of-peter-tosh/" rel="noopener nofollow"&gt;became an international mantra&lt;/a&gt; as it espoused decriminalizing the use and possession of marijuana.&lt;/p&gt;\n\n&lt;p&gt;Tosh was murdered by robbers at the age of 42, he died &lt;a href="https://www.nytimes.com/1987/09/13/world/gunmen-kill-peter-tosh-reggae-star-in-jamaica.html" rel="noopener nofollow"&gt;from gunshot wounds&lt;/a&gt; sustained during a home invasion in 1987. In 2012, Tosh was posthumously awarded Jamaica’s &lt;a href="http://www.jamaicaobserver.com/news/Peter-Tosh-heads-national-honours-list_12208356" rel="noopener nofollow"&gt;Order of Merit&lt;/a&gt;, and a museum commemorating his life has been open to the public in Kingston, Jamaica since 2016.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Clairo', 'annotations': {'description': '&lt;p&gt;Claire Elizabeth Cottrill (born August 18, 1998), better known by her stage name Clairo, is an American singer-songwriter from Atlanta, Georgia.&lt;/p&gt;\n\n&lt;p&gt;She was born in Atlanta, GA, where she lived for seven years, and then she moved to Bellevue, WA and eventually Carlisle, MA.&lt;/p&gt;\n\n&lt;p&gt;Her parents are marketing executive &lt;a href="https://en.wikipedia.org/wiki/Geoff_Cottrill" rel="noopener nofollow"&gt;Geoff Cottrill&lt;/a&gt; and photographer &lt;a href="https://www.allisoncottrillphotography.com/" rel="noopener nofollow"&gt;Allie E. Cottrill&lt;/a&gt;, who influenced her music taste. Clairo told &lt;a href="https://youtu.be/2RsucCjZlvk?t=34" rel="noopener nofollow"&gt;Beats 1&lt;/a&gt;, “My dad is the reason why I love &lt;a href="https://genius.com/artists/Al-green" rel="noopener" data-api_path="/artists/1610"&gt;Al Green&lt;/a&gt; so much, and my mom is the reason why I love &lt;a href="https://genius.com/artists/Cocteau-twins" rel="noopener" data-api_path="/artists/138662"&gt;Cocteau Twins&lt;/a&gt; so much.”&lt;/p&gt;\n\n&lt;p&gt;Clairo’s first EP, titled &lt;a href="https://genius.com/albums/Clairo/Do-u-wanna-fall-in-love" rel="noopener" data-api_path="/albums/369340"&gt;&lt;em&gt;Do U Wanna Fall In Love?&lt;/em&gt;&lt;/a&gt;, was released in December of 2014.&lt;/p&gt;\n\n&lt;p&gt;She originally rose to prominence with her song “&lt;a href="https://genius.com/Clairo-pretty-girl-lyrics" rel="noopener" data-api_path="/songs/3185563"&gt;Pretty Girl&lt;/a&gt;”, which was released in 2017 and soon went viral. Her first full-length, &lt;em&gt;&lt;a href="https://genius.com/albums/Clairo/Immunity" rel="noopener" data-api_path="/albums/531649"&gt;Immunity&lt;/a&gt;,&lt;/em&gt; was released in 2019.&lt;/p&gt;', 'alternate_names': ['Claire Elizabeth Cottrill', 'Claire Cottrill', 'DJ Baby Benz']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Montell-jordan', 'annotations': {'description': '&lt;p&gt;Montell Du\'Sean Barnett (born December 3, 1968 in Los Angeles, CA), known professionally as Montell Jordan, is an American singer, songwriter and record producer, best known for his 1995 single “&lt;a href="https://genius.com/Montell-jordan-this-is-how-we-do-it-lyrics" rel="noopener" data-api_path="/songs/49817"&gt;This Is How We Do It&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Jordan was the primary male solo artist on &lt;a href="https://en.wikipedia.org/wiki/Def_Jam_Recordings" rel="noopener nofollow"&gt;Def Jam&lt;/a&gt;’s Def Soul imprint until leaving the label in 2003.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Jordan left the music business to become the worship leader at &lt;a href="https://en.wikipedia.org/wiki/Victory_World_Church" rel="noopener nofollow"&gt;Victory World Church&lt;/a&gt; in Norcross, Georgia.&lt;/p&gt;', 'alternate_names': ["Montell Du'Sean Barnett Jordan"]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Pendulum', 'annotations': {'description': '&lt;p&gt;Pendulum is an Australian/British drum and bass group, known for incorporating rock-inspired guitar riffs into their songs. The group was on hiatus from 2012 to 2016, after which they returned to perform in Ultra Music Festival as a live act.&lt;/p&gt;\n\n&lt;p&gt;The members in the band include &lt;a href="https://genius.com/artists/Rob-swire" rel="noopener" data-api_path="/artists/47976"&gt;Rob Swire&lt;/a&gt; and &lt;a href="https://genius.com/artists/Gareth-mcgrillen" rel="noopener" data-api_path="/artists/61592"&gt;Gareth McGrillen&lt;/a&gt; (in which they also worked as &lt;a href="https://genius.com/artists/Knife-party" rel="noopener" data-api_path="/artists/62572"&gt;Knife Party&lt;/a&gt; during the Hiatus),  Ben Mount on MC, Peredur ap Gwynedd on guitar, and KJ Sawka on Drums (Paul Kodish used to be on the drums from when the live band was formed in 2006 to 2009). In events where Pendulum does DJ Sets, MC Ben Mount and Paul Harding perform as DJs.&lt;/p&gt;\n\n&lt;p&gt;After many years without releases, Pendulum is set to release a new remix album in 2018 entitled &lt;em&gt;Reworks&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-veronicas', 'annotations': {'description': '&lt;p&gt;Hailing from Brisbane, Australia, identical twins Jess and Lisa Origliasso formed The Veronicas in 2005. Their style has changed over the years from pop rock, to dance and electro pop. They released two successful albums &lt;a href="https://genius.com/albums/The-veronicas/The-secret-life-of" rel="noopener" data-api_path="/albums/120322"&gt;&lt;em&gt;The Secret Life Of…&lt;/em&gt;&lt;/a&gt; (2005) and &lt;a href="https://genius.com/albums/The-veronicas/Hook-me-up" rel="noopener" data-api_path="/albums/110066"&gt;&lt;em&gt;Hook Me Up&lt;/em&gt;&lt;/a&gt; (2007) before a lengthy hiatus, during which they experimented in music and did low-profile projects. This was partly due to contract issues with their label at the time, Warner Music.&lt;/p&gt;\n\n&lt;p&gt;In 2014, they released &lt;a href="https://genius.com/albums/The-veronicas/the-veronicas" rel="noopener" data-api_path="/albums/121206"&gt;&lt;em&gt;The Veronicas&lt;/em&gt;&lt;/a&gt; as a statement of a renewed identity. They described the album as their version of ‘progressive pop’. Jess said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;If things were one dimensional on the first and second record, like, we would say exactly how we felt, and it was all just, total passion, we really didn’t overthink it, we just put down what we were feeling, [this record] is more, 3D-4D… There’s more depth and there’s more thought, and more light and shade."&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Their latest single &lt;a href="https://genius.com/The-veronicas-in-my-blood-lyrics" rel="noopener" data-api_path="/songs/2492568"&gt;“In My Blood”&lt;/a&gt; was certified platinum in Australia. The Veronicas are expected to release a new album in 2017.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Milli-vanilli', 'annotations': {'description': '&lt;p&gt;Milli Vanilli was a German pop/R&amp;amp;B group that rose to fame in the late 1980s. After winning a Grammy for Best New Artist, it was revealed that the two “members” of the group, Rob Pilatus and Fab Morvan, were frauds. &lt;a href="http://articles.latimes.com/1990-11-16/entertainment/ca-4894_1_milli-vanilli" rel="noopener nofollow"&gt;They had not performed any of the music themselves&lt;/a&gt;, and had lip-synced all of their performances. Numerous lawsuits were filed after this revelation and their Grammy was revoked, marking the first time a Grammy had ever been rescinded from an artist.&lt;/p&gt;\n\n&lt;p&gt;Their debut album, &lt;em&gt;&lt;a href="https://genius.com/albums/Milli-vanilli/Girl-you-know-it-s-true" rel="noopener" data-api_path="/albums/122205"&gt;Girl You Know It’s True&lt;/a&gt;&lt;/em&gt;, went 6x Platinum before being completely deleted from the catalog of Arista Records, making it one of the largest-selling albums ever to be taken out of print.&lt;/p&gt;\n\n&lt;p&gt;After the controversy, Milli Vanilli split into two different groups. Rob Pilatus and Fab Morvan became Rob &amp;amp; Fab, and released a self-titled album that commercially flopped, selling only around 2,000 copies. The actual studio performers formed The Real Milli Vanilli (also known as Try ‘N’ B to avoid any name recognition), and released an album called &lt;em&gt;The Moment of Truth&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Pilatus and Morvan later reunited in 1997 and attempted to rebuild Milli Vanilli. They recorded a new album and planned a tour in 1998. The night before the start of the promotional tour for the album, &lt;a href="https://www.rollingstone.com/music/news/milli-vanillis-rob-pilatus-dead-at-33-19980406" rel="noopener nofollow"&gt;Pilatus was found dead&lt;/a&gt; from a suspected alcohol and prescription drug overdose. Though his death was ruled accidental, it is commonly believed to be a suicide. Morvan went on to release a solo album, 2003’s &lt;em&gt;Love Revolution&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Matchbox-twenty', 'annotations': {'description': "&lt;p&gt;Upon the release of their debut album, Yourself or Someone Like You, in fall 1996, Matchbox Twenty was pigeonholed as one of the legions of post-grunge guitar bands that roamed the American pop scene in the middle of that decade. As their first single, “Push,” climbed the charts, it was widely assumed (at least by cynical critics) that they were a one-hit wonder, but Yourself or Someone Like You continued to spin off singles well into 1998. By that time, the group’s blend of ‘70s arena rock and early-'90s American alt-rock – closer to Pearl Jam and maybe R.E.M. than Nirvana – had become the sound of mainstream American rock. That transition slipped underneath the radar of many pop music critics and fans. Yourself or Someone Like You sold millions of copies without ever truly dominating the charts – by 1998, it had gone platinum five times; by 2000, ten times. At no time did the record top the charts, but it was always around, a staple of modern rock, adult alternative, and Top 40 radio alike. Matchbox Twenty was omnipresent because they managed to blend the structure and sentiment of '70s arena rock with '90s hard rock, thereby winning a large audience by seeming simultaneously classicist and modern. They were a little more classicist than modern, but that’s the reason why they became America’s most popular rock band of the late '90s – even if nobody quite realized they had achieved that status.&lt;/p&gt;\n\n&lt;p&gt;The de facto leader of Matchbox Twenty is lead singer and songwriter Rob Thomas. An Army brat born on a military base in Germany, Thomas spent much of his childhood between his mother’s house in Florida and his grandmother’s place in South Carolina. The stress of the constant movement spilled over into his schoolwork, and he dropped out of high school at the age of 17. He spent some time wandering around the Southeast, singing in a variety of rock bands before he made Orlando, Florida his home base. There, he met bassist Brian Yale and drummer Paul Doucette, and the three spent several years drifting through local bands before Matchbox Twenty officially formed. They rounded out the lineup with Adam Gaynor (rhythm guitar, vocals), who had previously worked at the Criteria Recording Studios in Miami, and Kyle Cook (lead guitar), a former student of the Atlanta Institute of Music.&lt;/p&gt;\n\n&lt;p&gt;The band hooked up with Collective Soul producer Matt Serletic and recorded a batch of demos, which helped the band secure gigs throughout the U.S. Soon, the band signed to Lava, a subsidiary of Atlantic Records, and recorded its debut, Yourself or Someone Like You, also with Serletic. The album was released in October 1996 to little attention, but Matchbox Twenty continued to tour America, cultivating a fan base. They eventually landed their single “Long Day” on several influential radio stations, which paved the way for their breakthrough hit, “Push.” In spring 1997, “Push” began climbing its way to the top of the modern rock charts, as it received heavy airplay from radio and MTV. By the summer, the single was in the modern rock Top Ten, and Yourself or Someone Like You had reached the album Top 40 and gone gold.&lt;/p&gt;\n\n&lt;p&gt;As it turns out, “Push” wasn’t the culmination of their work but the beginning of a somewhat surprising success story. During fall 1997, the record picked up momentum, as “3am” became a bigger hit than “Push,” propelling Yourself or Someone Like You to multi-platinum status. Early in 1998, the group was named Best New Band by Rolling Stone’s annual reader’s poll – proof that, even if Matchbox Twenty wasn’t winning critics, they were winning over a wide, mainstream audience. The band and its debut album continued to sell at a steady pace throughout the year as the singles “Real World” and “Back 2 Good” joined “Push” and “3am” as radio favorites. Throughout it all, Matchbox Twenty stayed on the road, at home and abroad. They did well in foreign territories, including Canada, but they truly connected with Australia, where they went platinum eight times; in neighboring New Zealand, the band went quintuple platinum.&lt;/p&gt;\n\n&lt;p&gt;Matchbox Twenty reserved 1999 as the year to record their eagerly anticipated second album, but they didn’t disappear from the spotlight, due to the unexpected success of “Smooth,” a Santana song co-written and sung by Rob Thomas. “Smooth” was one of many songs sung by celebrities on Santana’s cameo-studded comeback album Supernatural, but it was the one chosen as the lead single. A wise choice, as it turned out, since it became a true pop phenomenon, topping many radio charts and driving Supernatural to multi-platinum sales and many industry awards. Throughout the second half of 1999, “Smooth” was inescapable, as it and Supernatural sat on the top of the pop charts. Its success brought more attention to Matchbox Twenty, and Yourself or Someone Like You rocketed to over ten million copies sold – which now qualified it for the RIAA’s Diamond Award, which is only granted to records that have moved over ten million units. On top of that, Thomas was named BMI’s 1999 Pop Songwriter of the Year, for “Smooth” and his work with Matchbox Twenty. Early in 2000, Thomas won three Grammys for “Smooth” – Song of the Year, Record of the Year, and Best Pop Collaboration with Vocals.&lt;/p&gt;\n\n&lt;p&gt;All of this success happened as Matchbox Twenty was recording their second album, again with producer Matt Serletic. The success raised expectations for the new album, entitled Mad Season, which was released in May 2000. Two years later, the band emerged with its third album, More Than You Think You Are. With this particular record, the band shared songwriting duties as a whole for the first time ever. Despite, or perhaps because of, the band’s success and frequent touring, Matchbox Twenty decided to take a break from recording and in 2005, Thomas released his debut solo album, Something to Be. Featuring a more polished funk and dance-influenced sound, the album sold well and spawned several hit songs, including “Lonely No More” and “This Is How a Heart Breaks.” In 2007, the reunited Matchbox Twenty – with Doucette now on guitar replacing Gaynor, who left the band in 2005, and Push Stars' Ryan MacMillan on drums – delivered the hits collection Exile on Mainstream which included a bonus EP of new tracks. North, the band’s fourth studio album, and first official release since 2002, arrived in September 2012.&lt;/p&gt;", 'alternate_names': ['Matchbox 20']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Yazz', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bruce-springsteen', 'annotations': {'description': '&lt;p&gt;Bruce Springsteen is a rock ‘n’ roll icon from the great state of New Jersey. Nicknamed “The Boss,” he’s known for spirited sax-powered anthems about working-class people making their way in the world. Backed by the trusty E Street Band, he’s sold more than 120 million records, won numerous awards (including 20 Grammys and an Oscar), sold out stadiums around the globe, and earned a place alongside his teenage heroes in the Rock and Roll Hall of Fame.&lt;/p&gt;\n\n&lt;p&gt;Although he’s a living legend who ranks among the most important artists in rock history, Springsteen wasn’t an overnight success. Around the time of his first album, 1973’s &lt;em&gt;Greetings from Asbury Park, N.J.&lt;/em&gt;, he was dismissed as just another “new Dylan"—some scruffy folk singer with a decent vocabulary looking to follow in Bob’s footsteps. In the decade that followed, Springsteen proved himself to be much more.&lt;/p&gt;\n\n&lt;p&gt;His breakthrough came with his third album, 1975’s &lt;em&gt;Born to Run&lt;/em&gt;. The record hit No. 3 on the Billboard 200 and landed the singer-songwriter on the cover of both &lt;em&gt;Time&lt;/em&gt; and &lt;em&gt;Newsweek&lt;/em&gt;. Bruce nabbed his first chart-topping album five years later with &lt;em&gt;The River&lt;/em&gt;, and in 1984, he went global with &lt;em&gt;Born in the U.S.A.&lt;/em&gt;, a critical and commercial smash that produced seven Top 10 singles.&lt;/p&gt;\n\n&lt;p&gt;With its mix of upbeat rock ‘n’ roll and hard-hitting lyrics about unemployment, racism, and the collapse of the American dream, &lt;em&gt;Born in the U.S.A.&lt;/em&gt; captures much of what makes Springsteen such a unique artist. More than 30 years later, he remains a spokesman for baby boomers and a hero to young rock fans looking for an example of a guy who’s never sold out or phoned it in. He speaks truth to power—then jumps up on the piano and cues the sax solo.&lt;/p&gt;\n\n&lt;p&gt;To this day, the Boss gives three-hour concerts that typically end with him inviting fans onstage to groove along to “Dancing In the Dark,” one of his ‘80s favorites. Many have called on him to run for president, but don’t expect him to quit his day job.&lt;/p&gt;', 'alternate_names': ['Bruce Frederick Joseph Springsteen']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-hives', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://www.thehivesbroadcastingservice.com/" rel="noopener nofollow"&gt;The Hives&lt;/a&gt; are a Swedish garage punk band that rose to prominence in the early 2000’s during the post-punk revival. Their mainstream success came with the release of their 2000 album &lt;em&gt;Veni Vidi Vicious&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Vocals – &lt;a href="https://genius.com/artists/Howlin-pelle-almqvist" rel="noopener" data-api_path="/artists/1047323"&gt;Howlin\' Pelle Almqvist&lt;/a&gt;&lt;br&gt;\nGuitar (Lead) – &lt;a href="https://genius.com/artists/Nicholaus-arson" rel="noopener" data-api_path="/artists/1047325"&gt;Nicholaus Arson&lt;/a&gt;&lt;br&gt;\nGuitar  (Rhythm) – &lt;a href="https://genius.com/artists/Vigilante-carlstroem" rel="noopener" data-api_path="/artists/1047324"&gt;Vigilante Carlstroem&lt;/a&gt;&lt;br&gt;\nBass – &lt;a href="https://genius.com/artists/The-johan-and-only" rel="noopener" data-api_path="/artists/538846"&gt;The Johan and Only&lt;/a&gt;&lt;br&gt;\nDrums – &lt;a href="https://genius.com/artists/Chris-dangerous" rel="noopener" data-api_path="/artists/1047327"&gt;Chris Dangerous&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Former Members:&lt;br&gt;\nBass – &lt;a href="https://genius.com/artists/Dr-matt-destruction" rel="noopener" data-api_path="/artists/1047326"&gt;Dr. Matt Destruction&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alexandra-stan', 'annotations': {'description': '&lt;p&gt;Born on June 10, 1989 in &lt;a href="https://en.wikipedia.org/wiki/Constan%C8%9Ba" rel="noopener nofollow"&gt;Constanța&lt;/a&gt;, &lt;b&gt;Alexandra Stan&lt;/b&gt; is a Romanian singer-songwriter.&lt;/p&gt;\n\n&lt;p&gt;After she was invited to sing in a televised show at the age of 15, she eventually participated in various music-related contests, including the Mamaia Music Festival in 2009. Producers and songwriters &lt;a href="https://genius.com/artists/Marcel-prodan" rel="noopener" data-api_path="/artists/61567"&gt;Marcel Prodan&lt;/a&gt; and &lt;a href="https://genius.com/artists/Andrei-nemirschi" rel="noopener" data-api_path="/artists/491341"&gt;Andrei Nemirschi&lt;/a&gt; discovered Stan that year at a karaoke bar in Constanța. They offered her a record deal with their label &lt;i&gt;Maan Records&lt;/i&gt;, which she accepted, and later went on to record a promotional single titled “&lt;a href="https://genius.com/Alexandra-stan-show-me-the-way-lyrics" rel="noopener" data-api_path="/songs/485119"&gt;Show Me the Way&lt;/a&gt;”. Her debut single, “&lt;a href="https://genius.com/Alexandra-stan-lollipop-param-pam-pam-lyrics" rel="noopener" data-api_path="/songs/485101"&gt;Lollipop (Param Pam Pam)&lt;/a&gt;”, released on December 16, 2009,  was given notable radio airplay. The song’s provocative, low-budget music video was criticized by some viewers for emphasizing her physical and not her vocal qualities.&lt;/p&gt;\n\n&lt;p&gt;In 2011, Stan made her international breakthrough with the single “&lt;a href="https://genius.com/Alexandra-stan-mr-saxobeat-lyrics" rel="noopener" data-api_path="/songs/601770"&gt;Mr. Saxobeat&lt;/a&gt;”. The song first achieved success in Romania, where it peaked at number one on the Romanian Top 100 for eight consecutive weeks. It then became acclaimed worldwide, topping the record charts in several other countries, and selling almost one million copies in less than year. At the 2011 Romanian Music Awards, Stan and “Mr. Saxobeat” won several awards and nominations. Stan also won the Best Romanian Act and a nomination for Best European Act at the 2011 MTV Europe Music Awards.&lt;/p&gt;\n\n&lt;p&gt;The follow-up single “&lt;a href="https://genius.com/Alexandra-stan-get-back-asap-lyrics" rel="noopener" data-api_path="/songs/482269"&gt;Get Back&lt;/a&gt;”, achieved modest success and reached the top 10 in Finland and Romania, and the top 20 in other European countries. The singer’s debut studio album &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Saxobeats" rel="noopener" data-api_path="/albums/108678"&gt;Saxobeats&lt;/a&gt;&lt;/i&gt; was released in August 2011, and was moderately successful in Japan and Europe. Her chart success followed in 2012 with “&lt;a href="https://genius.com/Alexandra-stan-lemonade-lyrics" rel="noopener" data-api_path="/songs/482278"&gt;Lemonade&lt;/a&gt;”, which was certified Gold in Italy. The release of Stan’s second studio album was postponed following &lt;a href="https://en.wikipedia.org/wiki/Dec._No._5946/212/2015" rel="noopener nofollow"&gt;an alleged violent incident&lt;/a&gt; between her and Prodan, in June 2013. The case attracted widespread media coverage in Romania. Later that year, the singer launched a campaign against domestic violence called “Nu bate! Mai bine cântă!”.&lt;/p&gt;\n\n&lt;p&gt;Her comeback single, “&lt;a href="https://genius.com/Alexandra-stan-thanks-for-leaving-lyrics" rel="noopener" data-api_path="/songs/485130"&gt;Thanks for Leaving&lt;/a&gt;”, was released in April 2014, which she said was personal. The follow-up “&lt;a href="https://genius.com/Alexandra-stan-cherry-pop-lyrics" rel="noopener" data-api_path="/songs/482258"&gt;Cherry Pop&lt;/a&gt;” became the most sought-after ringtone on the Recochoku service in Japan within two hours of its release, while “&lt;a href="https://genius.com/Alexandra-stan-dance-lyrics" rel="noopener" data-api_path="/songs/482271"&gt;Dance&lt;/a&gt;” experienced similar success on its release. &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Unlocked" rel="noopener" data-api_path="/albums/121207"&gt;Unlocked&lt;/a&gt;&lt;/i&gt;, Stan’s second studio album, was premiered on August 27, 2014, and charted within the top 30 in Japan. The music video for “&lt;a href="https://genius.com/Alexandra-stan-give-me-your-everything-lyrics" rel="noopener" data-api_path="/songs/2025862"&gt;Give Me Your Everything&lt;/a&gt;”, the fourth single from &lt;i&gt;Unlocked&lt;/i&gt;, caused controversy for a scene that features Stan wearing a robe inscribed with masonic symbols.&lt;/p&gt;\n\n&lt;p&gt;In June 2015, Stan released “&lt;a href="https://genius.com/Alexandra-stan-and-inna-we-wanna-lyrics" rel="noopener" data-api_path="/songs/2131883"&gt;We Wanna&lt;/a&gt;”, a collaboration with Romanian singer &lt;a href="https://genius.com/artists/Inna" rel="noopener" data-api_path="/artists/22636"&gt;INNA&lt;/a&gt; and American reggaeton performer &lt;a href="https://genius.com/artists/Daddy-yankee" rel="noopener" data-api_path="/artists/1823"&gt;Daddy Yankee&lt;/a&gt;. The track reached the top 60 in multiple countries including Romania, Argentina and Italy. It was certified Gold in the latter region. In November 2015, she released the single “&lt;a href="https://genius.com/Alexandra-stan-i-did-it-mama-lyrics" rel="noopener" data-api_path="/songs/2387162"&gt;I Did It, Mama!&lt;/a&gt;”, which reached the top ten in Romania. The singer’s third studio album &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Alesta-international-version" rel="noopener" data-api_path="/albums/399505"&gt;Alesta&lt;/a&gt;&lt;/i&gt; followed in March 2016. It debuted at number 34 on the Japanese Albums Chart.&lt;/p&gt;\n\n&lt;p&gt;The singer joined the supergroup &lt;a href="https://genius.com/artists/G-girls" rel="noopener" data-api_path="/artists/678090"&gt;G Girls&lt;/a&gt; along with &lt;a href="https://genius.com/artists/Antonia" rel="noopener" data-api_path="/artists/37365"&gt;Antonia&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lori" rel="noopener" data-api_path="/artists/135505"&gt;Lori&lt;/a&gt;, and INNA, and premiered the single “&lt;a href="https://genius.com/G-girls-call-the-police-lyrics" rel="noopener" data-api_path="/songs/2486651"&gt;Call the Police&lt;/a&gt;”, which was successful in Poland.&lt;/p&gt;\n\n&lt;p&gt;To promote the launch of &lt;a href="https://en.wikipedia.org/wiki/Virgin_Radio_Romania" rel="noopener nofollow"&gt;Virgin Radio Romania&lt;/a&gt; in early 2017, Stan recorded &lt;a href="https://genius.com/Alexandra-stan-like-a-virgin-lyrics" rel="noopener" data-api_path="/songs/2966851"&gt;a cover version&lt;/a&gt; of &lt;a href="https://genius.com/artists/Madonna" rel="noopener" data-api_path="/artists/276"&gt;Madonna&lt;/a&gt;’s song “&lt;a href="https://genius.com/Madonna-like-a-virgin-lyrics" rel="noopener" data-api_path="/songs/151415"&gt;Like a Virgin&lt;/a&gt;”, saying she was a fan of it. She also recorded “&lt;a href="https://genius.com/Alexandra-stan-favorite-game-lyrics" rel="noopener" data-api_path="/songs/3335724"&gt;Favorite Game&lt;/a&gt;” for the soundtrack of the Japanese movie &lt;i&gt;Miko Girl&lt;/i&gt;.&lt;/p&gt;\n\n&lt;p&gt;In April 2018, Stan released her fourth studio album titled &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Mami-international-version_" rel="noopener"&gt;Mami&lt;/a&gt;&lt;/i&gt;, which peaked at number 119 in Japan. Stan contributed guest vocals on &lt;a href="https://genius.com/artists/Manuel-riva" rel="noopener" data-api_path="/artists/1411574"&gt;Manuel Riva&lt;/a&gt;’s track “&lt;a href="https://genius.com/Manuel-riva-miami-lyrics" rel="noopener" data-api_path="/songs/3566370"&gt;Miami&lt;/a&gt;”, which reached the top ten on the US Dance Club Songs chart. It also reached the top 10 in Romania. The singer opened the 2018 Neversea Festival, which had selected “Miami” as its anthem. At the 2018 Beirut International Awards Festival, Stan was awarded a special prize for her career, after being referred to as one of the most successful Romanian artists alongside INNA.&lt;/p&gt;', 'alternate_names': ['Alexandra Ioana Stan']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Chickenfoot', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Royal-blood', 'annotations': {'description': '&lt;p&gt;Two piece rock band (consisting of members Mike Kerr and Ben Thatcher) with only bass and drums, formed in Brighton UK. Their sound is expanded by the use of effects to fill the space where other instruments would normally be.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Judas-priest', 'annotations': {'description': '&lt;p&gt;Judas Priest is a British heavy metal band from Birmingham, England. Formed in 1969, Judas Priest is one of the most influential and pioneering heavy metal bands of all time. Emerged at the beginning of the new wave of British heavy metal movement, their influence, while mainly &lt;a href="https://genius.com/artists/Rob-halford" rel="noopener" data-api_path="/artists/162143"&gt;Rob Halford&lt;/a&gt;’s operatic vocal style and the twin guitar sound, has been adopted by many bands. Their image of leather, spikes and other taboo articles of clothing were widely influential during the 1980s.&lt;/p&gt;\n\n&lt;p&gt;Despite an innovative and pioneering body of work in the latter half of the 1970s, the band struggled with indifferently-produced records, repeated changes of drummer and a lack of major commercial success or attention until 1980, when they adopted a more simplified sound on the album &lt;a href="https://genius.com/albums/Judas-priest/British-steel" rel="noopener" data-api_path="/albums/107404"&gt;&lt;em&gt;British Steel&lt;/em&gt;&lt;/a&gt;, which helped shoot them to rock superstar status.&lt;/p&gt;\n\n&lt;p&gt;The band was originally formed under the name Freight by schoolmates &lt;a href="https://genius.com/artists/Kk-downing" rel="noopener" data-api_path="/artists/454885"&gt;Kenneth “K. K.” Downing&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ian-hill" rel="noopener" data-api_path="/artists/989418"&gt;Ian Hill&lt;/a&gt; in 1969. Joined by vocalist &lt;a href="https://genius.com/artists/Al-atkins" rel="noopener" data-api_path="/artists/348935"&gt;Al Atkins&lt;/a&gt; and drummer John Ellis, the band played their first concert in 1971. Atkins\' previous band was called Judas Priest, which was named after a &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt; song called &lt;a href="https://genius.com/Bob-dylan-the-ballad-of-frankie-lee-and-judas-priest-lyrics" rel="noopener" data-api_path="/songs/117556"&gt;“The Ballad of Frankie Lee and Judas Priest,”&lt;/a&gt; yet the members decided it was the best name for the new band. After performing numerous shows, in 1971, Ellis was replaced by &lt;a href="https://genius.com/artists/Alan-skip-moore" rel="noopener" data-api_path="/artists/1061405"&gt;Alan “Skip” Moore&lt;/a&gt;, and by the end of the year, Chris Campbell replaced Moore. Atkins and Campbell left the band in 1973 and were replaced by vocalist &lt;a href="https://genius.com/artists/Rob-halford" rel="noopener" data-api_path="/artists/162143"&gt;Rob Halford&lt;/a&gt; and drummer &lt;a href="https://genius.com/artists/John-hinch" rel="noopener" data-api_path="/artists/1061410"&gt;John Hinch&lt;/a&gt;. The band was joined by &lt;a href="https://genius.com/artists/Glenn-tipton" rel="noopener" data-api_path="/artists/344759"&gt;Glenn Tipton&lt;/a&gt; as the second guitarist, before recording their debut album.&lt;/p&gt;\n\n&lt;p&gt;In September 1974, Judas Priest released their first studio album &lt;a href="https://genius.com/albums/Judas-priest/Rocka-rolla" rel="noopener" data-api_path="/albums/117846"&gt;&lt;em&gt;Rocka Rolla&lt;/em&gt;&lt;/a&gt;. The album was produced by  &lt;a href="https://genius.com/artists/Rodger-bain" rel="noopener" data-api_path="/artists/40465"&gt;Rodger Bain&lt;/a&gt; who also produced &lt;a href="https://genius.com/artists/Black-sabbath" rel="noopener" data-api_path="/artists/1121"&gt;Black Sabbath&lt;/a&gt;’s first three albums. It was the only album to feature drummer &lt;a href="https://genius.com/artists/John-hinch" rel="noopener" data-api_path="/artists/1061410"&gt;John Hinch&lt;/a&gt; who left the band and was replaced by &lt;a href="https://genius.com/artists/Alan-skip-moore" rel="noopener" data-api_path="/artists/1061405"&gt;Alan “Skip” Moore&lt;/a&gt;. In 1976, the band released their second full-length album, &lt;a href="https://genius.com/albums/Judas-priest/Sad-wings-of-destiny" rel="noopener" data-api_path="/albums/117851"&gt;&lt;em&gt;Sad Wings of Destiny&lt;/em&gt;&lt;/a&gt;. This is considered the album on which Judas Priest consolidated their heavy metal sound and image. &lt;em&gt;Sad Wings of Destiny&lt;/em&gt; caught the attention of &lt;a href="https://genius.com/artists/Columbia-records" rel="noopener" data-api_path="/artists/30372"&gt;CBS Records&lt;/a&gt;. The band signed with CBS and received a budget for their next album. In 1977, Judas Priest released their third studio album &lt;a href="https://genius.com/albums/Judas-priest/Sin-after-sin" rel="noopener" data-api_path="/albums/77035"&gt;&lt;em&gt;Sin After Sin&lt;/em&gt;&lt;/a&gt; which was their major-label debut. It was produced by &lt;a href="https://genius.com/artists/Deep-purple" rel="noopener" data-api_path="/artists/34310"&gt;Deep Purple&lt;/a&gt;’s bassist &lt;a href="https://genius.com/artists/Roger-glover" rel="noopener" data-api_path="/artists/103632"&gt;Roger Glover&lt;/a&gt;. After Moore’s departure, &lt;a href="https://genius.com/artists/Simon-phillips" rel="noopener" data-api_path="/artists/69710"&gt;Simon Phillips&lt;/a&gt; recorded the drum tracks for the album, but he didn’t join the band as a permanent member of Judas Priest. The band hired drummer &lt;a href="https://genius.com/artists/Les-binks" rel="noopener" data-api_path="/artists/1425882"&gt;Les Binks&lt;/a&gt; on Glover’s recommendation.&lt;/p&gt;\n\n&lt;p&gt;Judas Priest recorded their fourth album &lt;a href="https://genius.com/albums/Judas-priest/Stained-class" rel="noopener" data-api_path="/albums/118087"&gt;&lt;em&gt;Stained Class&lt;/em&gt;&lt;/a&gt;, in 1978. This is the first album to feature the band’s now-classic logo, replacing the Gothic Script logo which appeared on the band’s previous albums. Later that year, the band released their fifth studio album &lt;a href="https://genius.com/albums/Judas-priest/Killing-machine" rel="noopener" data-api_path="/albums/118085"&gt;&lt;em&gt;Killing Machine&lt;/em&gt;&lt;/a&gt;. It was retitled &lt;em&gt;Hell Bent for Leather&lt;/em&gt; for its United States release in early 1979. The album pushed Judas Priest towards a more commercial sound. At about the same time, Judas Priest adopted their leather-and-studs image, inspired by &lt;a href="https://genius.com/artists/Rob-halford" rel="noopener" data-api_path="/artists/162143"&gt;Rob Halford&lt;/a&gt;’s interest in leather culture. In 1979, the band released their first live album &lt;a href="https://genius.com/albums/Judas-priest/Unleashed-in-the-east" rel="noopener" data-api_path="/albums/599675"&gt;&lt;em&gt;Unleashed in the East&lt;/em&gt;&lt;/a&gt;. It became the band’s best-selling album up to that point. In late 1979, drummer &lt;a href="https://genius.com/artists/Les-binks" rel="noopener" data-api_path="/artists/1425882"&gt;Les Binks&lt;/a&gt; left the band and was replaced by &lt;a href="https://genius.com/artists/Dave-holland" rel="noopener" data-api_path="/artists/643497"&gt;Dave Holland&lt;/a&gt; of &lt;a href="https://genius.com/artists/Trapeze" rel="noopener" data-api_path="/artists/365802"&gt;Trapeze&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;…&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n\n\n&lt;h3&gt;Members&lt;/h3&gt;\n\n\n\n\n&lt;h4&gt;Current&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Ian-hill" rel="noopener" data-api_path="/artists/989418"&gt;Ian Hill&lt;/a&gt; – bass (1970–1992, 1996–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Rob-halford" rel="noopener" data-api_path="/artists/162143"&gt;Rob Halford&lt;/a&gt; – vocals (1973–1992, 2003–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Glenn-tipton" rel="noopener" data-api_path="/artists/344759"&gt;Glenn Tipton&lt;/a&gt; – guitars, keyboards (1974–1992, 1996–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Scott-travis" rel="noopener" data-api_path="/artists/1061401"&gt;Scott Travis&lt;/a&gt; – drums (1989–1992, 1996-present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Richie-faulkner" rel="noopener" data-api_path="/artists/580538"&gt;Richie Faulkner&lt;/a&gt; – guitars (2011-present)&lt;/p&gt;\n\n&lt;h4&gt;Past&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Kk-downing" rel="noopener" data-api_path="/artists/454885"&gt;K. K. Downing&lt;/a&gt; – guitars (1970–1992, 1996–2011)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Al-atkins" rel="noopener" data-api_path="/artists/348935"&gt;Al Atkins&lt;/a&gt; – vocals (1970–1973)&lt;br&gt;\n&lt;a href="https://genius.com/artists/John-ellis-drummer" rel="noopener"&gt;John Ellis&lt;/a&gt; – drums (1970-1971)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Alan-skip-moore" rel="noopener" data-api_path="/artists/1061405"&gt;Alan “Skip” Moore&lt;/a&gt; – drums (1971, 1975–1976)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Chris-campbell" rel="noopener" data-api_path="/artists/1249723"&gt;Chris Campbell&lt;/a&gt; – drums (1971–1973)&lt;br&gt;\n&lt;a href="https://genius.com/artists/John-hinch" rel="noopener" data-api_path="/artists/1061410"&gt;John Hinch&lt;/a&gt; – drums (1973–1975)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Les-binks" rel="noopener" data-api_path="/artists/1425882"&gt;Les Binks&lt;/a&gt; – drums (1977–1979)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Dave-holland" rel="noopener" data-api_path="/artists/643497"&gt;Dave Holland&lt;/a&gt; – drums (1979–1989)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Tim-ripper-owens" rel="noopener" data-api_path="/artists/374763"&gt;Tim “Ripper” Owens&lt;/a&gt; – vocals (1996–2003)&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Samantha-fox', 'annotations': {'description': '&lt;p&gt;Samantha Karen Fox (born April 15, 1966) is an English singer-songwriter and actress. She rose to fame in the 1980s as a Page 3 model, but became a legitimate star after the release of her debut single, “&lt;a href="https://genius.com/Samantha-fox-touch-me-i-want-your-body-lyrics" rel="noopener" data-api_path="/songs/1929749"&gt;Touch Me (I Want Your Body)&lt;/a&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Evanescence', 'annotations': {'description': '&lt;p&gt;Evanescence is an American rock band founded in Little Rock, Arkansas in 1995 by singer/pianist Amy Lee and guitarist Ben Moody. Evanescence was originally promoted in Christian stores. Later, the band made it clear they did not want to be considered part of the Christian rock genre, like fellow Wind-up Records artists Creed. Some of their most popular hits include: “&lt;a href="https://genius.com/Evanescence-bring-me-to-life-lyrics" rel="noopener" data-api_path="/songs/67202"&gt;Bring Me to Life&lt;/a&gt;,” “&lt;a href="https://genius.com/Evanescence-my-immortal-lyrics" rel="noopener" data-api_path="/songs/113158"&gt;My Immortal&lt;/a&gt;,” and “&lt;a href="https://genius.com/Evanescence-what-you-want-lyrics" rel="noopener" data-api_path="/songs/218592"&gt;What You Want&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;In 2014, the band &lt;a href="https://twitter.com/AmyLeeEV/status/446110328418349056" rel="noopener nofollow"&gt;parted ways&lt;/a&gt; with their long-term record label Wind-Up and became independent artists. In late 2016, they released a &lt;em&gt;Ultimate Collection&lt;/em&gt; box set featuring all their albums along with the 2000 demo album &lt;a href="https://genius.com/albums/Evanescence/Origin" rel="noopener" data-api_path="/albums/45335"&gt;&lt;em&gt;Origin&lt;/em&gt;&lt;/a&gt; and a B-sides compilation &lt;a href="https://genius.com/albums/Evanescence/Lost-whispers" rel="noopener" data-api_path="/albums/332896"&gt;&lt;em&gt;Lost Whispers&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In November 2017, they released their fourth album, &lt;a href="https://genius.com/albums/Evanescence/Synthesis" rel="noopener" data-api_path="/albums/363298"&gt;&lt;em&gt;Synthesis&lt;/em&gt;&lt;/a&gt;, featuring a reimagining of some of their past songs plus two new original songs with the spotlight on full orchestra and electronics.&lt;/p&gt;\n\n&lt;p&gt;Their fifth album, &lt;a href="https://genius.com/albums/Evanescence/The-bitter-truth" rel="noopener" data-api_path="/albums/624604"&gt;&lt;em&gt;The Bitter Truth&lt;/em&gt;&lt;/a&gt;, was released in March 2021.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Pixies', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;“In 1988, the Pixies sounded like no other band. By 1991, every band sounded like the Pixies.”&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;Pixies are an American alternative rock band which formed in Boston, Massachusetts, United States in 1986. The band consists of &lt;a href="https://genius.com/artists/Frank-black" rel="noopener" data-api_path="/artists/184148"&gt;Charles “Black Francis” Thompson IV&lt;/a&gt; (vocals, guitar; also known as ‘’Frank Black’‘), &lt;a href="https://genius.com/artists/Joey-santiago" rel="noopener" data-api_path="/artists/1122511"&gt;Joey Santiago&lt;/a&gt; (lead guitar) and &lt;a href="https://genius.com/artists/David-lovering" rel="noopener" data-api_path="/artists/1003552"&gt;David Lovering&lt;/a&gt; (drums). Until 2013, the band also featured &lt;a href="https://genius.com/artists/Kim-deal" rel="noopener" data-api_path="/artists/28934"&gt;Kim Deal&lt;/a&gt; on bass and vocals. The band officially split in 1993 and reunited in 2004. They went on hiatus in 2007, with each band member pursuing projects of their own, only to reunite in 2009, with the announcement of a new tour commencing in Europe that summer.&lt;/p&gt;\n\n&lt;p&gt;The band’s style of alternative rock music is heavily influenced by punk and surf rock, and while highly melodic, is capable of being tremendously abrasive at the same time. Francis is the Pixies’ primary songwriter and singer and has a distinctly desperate, yowling delivery. He has typically written cryptic songs about offbeat subjects, such as UFOs and surrealism. References to mental instability, violent Biblical imagery, and physical injury feature in many of the band’s songs.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Kc-and-the-sunshine-band', 'annotations': {'description': "&lt;p&gt;KC and the Sunshine Band are an American disco and funk band, founded in 1973 in Hialeah, Florida. Their best-known songs include the hits “That’s the Way (I Like It)”, “(Shake, Shake, Shake) Shake Your Booty”, “I’m Your Boogie Man”, “Keep It Comin' Love”, “Get Down Tonight”, “Boogie Shoes”, “Please Don’t Go” and “Give It Up”. The band took its name from lead vocalist Harry Wayne Casey’s last name (“KC”) and the “Sunshine Band” from KC’s home state of Florida, the Sunshine State. The group scored 6 top 10 singles, 5 number one singles and one number two single on the Billboard Hot 100 chart.&lt;/p&gt;", 'alternate_names': []}}</t>
+    <t>{'url': 'https://genius.com/artists/Wet-wet-wet', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Elvis-presley', 'annotations': {'description': '&lt;p&gt;Elvis Aaron Presley (January 8, 1935 – August 16, 1977) was an American performer that spanned all media—music, film, and historic live concerts—with a vehement passion that earned him the moniker, “The King of Rock and Roll.”&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.elvis.com/about/bio" rel="noopener nofollow"&gt;Elvis Presley&lt;/a&gt; was born in Tupelo, Mississippi to Gladys and Vernon Presley.  At the age of 13, he moved with his family to Memphis, Tennessee. Elvis began to explore the blues scene prevalent in Memphis and the culture it encompassed.&lt;/p&gt;\n\n&lt;p&gt;In August 1953, he walked into Sun Records to record a song for his mother’s birthday.  Manager of Sun Records &lt;a href="https://genius.com/artists/Sam-phillips" rel="noopener" data-api_path="/artists/62225"&gt;Sam Phillips&lt;/a&gt; took note of his unique voice and persona, and invited Elvis back to the studio in July 1954, where he ultimately recorded his first true single, &lt;a href="https://genius.com/Elvis-presley-thats-all-right-lyrics" rel="noopener" data-api_path="/songs/197868"&gt;“That’s All Right,”&lt;/a&gt; with &lt;a href="https://genius.com/Elvis-presley-blue-moon-of-kentucky-lyrics" rel="noopener" data-api_path="/songs/197100"&gt;“Blue Moon of Kentucky”&lt;/a&gt; as the B-side.&lt;/p&gt;\n\n&lt;p&gt;Elvis was soon noticed by Colonel Tom Parker, considered one of the best promoters in the industry.  This partnership was pivotal to Elvis\' career, but considered &lt;a href="http://www.elvisinfonet.com/spotlight_thedarksideofcolonelparker.html" rel="noopener nofollow"&gt;controversial and toxic&lt;/a&gt; by his friends, family, and biographers.  Parker moved him to RCA Records, and his first RCA single – &lt;a href="https://genius.com/Elvis-presley-heartbreak-hotel-lyrics" rel="noopener" data-api_path="/songs/119855"&gt;“Heartbreak Hotel”&lt;/a&gt; – was released in January 1956 and became a number one hit in the U.S.  Elvismania had truly begun.&lt;/p&gt;\n\n&lt;p&gt;In March of 1958, Elvis was inducted into the U.S. Army.  During his army career, two pivotal events occurred that affected the rest of his life.  First, his mother Gladys died on August 14, 1958.  Completely and utterly devoted to his mother, Elvis truly never recovered from her death. However, while stationed in West Germany, Elvis met 14-year-old &lt;a href="http://priscilla.elvispresley.com.au/" rel="noopener nofollow"&gt;Priscilla Beaulieu&lt;/a&gt;, whom he dated for seven years before marrying her on May 1, 1967.  They had one daughter, Lisa Marie, on February 1, 1968.&lt;/p&gt;\n\n&lt;p&gt;After being discharged from the army, Elvis continued to release singles, but was also pushed into a heavy film-making schedule, making sub-par, formulaic films that were hits at the box office, but &lt;a href="http://www.elvis-history-blog.com/elvis-film-career.html" rel="noopener nofollow"&gt;destroyed critically&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 1968, Elvis was depressed and unsatisfied with his career, and his popularity was sinking.  However, on December 3, 1968, a television special, &lt;a href="http://www.elvis-history-blog.com/elvis-comeback.html" rel="noopener nofollow"&gt;&lt;em&gt;Singer Presents Elvis&lt;/em&gt;&lt;/a&gt;, aired—a small concert that was his first live performance since 1961.  More famously known as the &lt;em&gt;‘68 Comeback Special&lt;/em&gt;, it revitalized his career, especially as a live performer.&lt;/p&gt;\n\n&lt;p&gt;Despite his success and renewed pride in his career, Elvis\' &lt;a href="http://www.express.co.uk/entertainment/music/606337/The-last-days-Elvis-drugs-obesity-and-a-nurse" rel="noopener nofollow"&gt;health and personal life&lt;/a&gt; was declining.  His marriage fell apart, and he and Priscilla divorced in October 1973.  Four years later, on August 16, 1977, Elvis\' fiance, Ginger Alden, found him on the bathroom floor, unresponsive.  &lt;a href="http://www.nytimes.com/learning/general/onthisday/big/0816.html" rel="noopener nofollow"&gt;He was pronounced dead at 3:30 pm at Baptist Memorial Hospital.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Elvis Presley’s life was short, but his legacy is vast.  He &lt;a href="http://www.elvis.net/guinness/guinnessframe.html" rel="noopener nofollow"&gt;holds the record&lt;/a&gt; for most singles on the U.S. charts (149), most RIAA certificates by a single artist (235), most number one albums in the U.S. by a solo artist (nine), and many more groundbreaking achievements.  But his legacy is not just remembered in numbers alone.  Elvis began a new era for music and pop culture. For many, he was the leader in a new movement of raw, powerful music and performances, uninhibited by the rules of yesteryear.  As Rev. Al Green said, &lt;a href="http://www.houstonpress.com/music/elvis-30-famous-quotes-about-the-king-6772855" rel="noopener nofollow"&gt;“He broke the ice for all of us.”&lt;/a&gt; He inspired many artists after him, including The Beatles, Jackie Wilson, Led Zeppelin, Bob Dylan, Rick Nelson, and many, many, more.&lt;/p&gt;\n\n&lt;p&gt;Perhaps Elvis Presley is best remembered in this touching quote from one of his biggest fans, Bruce Springsteen:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was like he came along and whispered some dream in everybody’s ear, and somehow we all dreamed it.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': ['Elvis Aaron Presley']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Duran-duran', 'annotations': {'description': '&lt;p&gt;DURAN DURAN has a total of over 80 million records sold, 18 American hit singles, 30 UK top 30 tunes, and a global presence which guarantees them huge concert audiences on five continents. They’ve managed to fuse pop music, art, technology and fashion with a unique sense of style and confidence. Princess Diana also admitted that Duran Duran was her favourite Band among others.&lt;/p&gt;\n\n&lt;p&gt;Bassist John Taylor has said &lt;a href="http://thequietus.com/articles/17506-coke-wet-arcadia-versus-the-power-station-by-simon-price" rel="noopener nofollow"&gt;the original vision&lt;/a&gt; for the band’s sound was ‘to fuse the Sex Pistols and Chic’ after hearing those two bands back-to-back on a pub jukebox one night.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Iggy-azalea', 'annotations': {'description': '&lt;p&gt;Amethyst Amelia Kelly (b. June 7, 1990), better known by her stage name &lt;b&gt;Iggy Azalea&lt;/b&gt;, is an Australian rapper and songwriter signed to Island Records and Roc Nation. After being raised in a small town called Mullumbimby and feeling like an outsider, in 2006, at the age of 16, she moved to the United States to pursue a career in hip hop music, stating that she was drawn to the birthplace of rap, and resided in the Southern part of the country.&lt;/p&gt;\n\n&lt;p&gt;Moving from Miami to Houston to Atlanta, Iggy absorbed the Southern-style drawl of her surroundings and released her debut project, a mixtape titled &lt;a href="https://genius.com/albums/Iggy-azalea/Ignorant-art" rel="noopener" data-api_path="/albums/12993"&gt;&lt;em&gt;Ignorant Art&lt;/em&gt;&lt;/a&gt; in September 2011, shortly after relocating to Los Angeles. Iggy commented that she made it “with intent to make people question and redefine old ideals.” The project’s raw electronic sound accentuated her unique style that would become a trademark throughout her career. Prior to the release of the mixtape, she had been sharing &lt;a href="https://genius.com/Iggy-azalea-hell-of-a-life-remix-lyrics" rel="noopener" data-api_path="/songs/323629"&gt;several&lt;/a&gt; &lt;a href="https://genius.com/Iggy-azalea-two-times-lyrics" rel="noopener" data-api_path="/songs/118421"&gt;home&lt;/a&gt; &lt;a href="https://genius.com/Iggy-azalea-drugs-lyrics" rel="noopener" data-api_path="/songs/63259"&gt;videos&lt;/a&gt; on her YouTube channel as an underground rapper and her debut music video for “&lt;a href="https://genius.com/Iggy-azalea-pu-y-lyrics" rel="noopener" data-api_path="/songs/58489"&gt;Pu$$y&lt;/a&gt;” quickly went viral due to its explicit nature. In 2012, Iggy became the first female and the first non-American rapper to be featured on &lt;em&gt;XXL&lt;/em&gt;’s annual &lt;a href="https://genius.com/Macklemore-xxl-freshman-cypher-2-lyrics" rel="noopener" data-api_path="/songs/74206"&gt;Freshman Class&lt;/a&gt; cover issue.&lt;/p&gt;\n\n&lt;p&gt;Iggy then aligned herself with the self-proclaimed “King of the South” &lt;a href="https://genius.com/artists/Ti" rel="noopener" data-api_path="/artists/85"&gt;T.I.&lt;/a&gt;, who executive produced her free EP &lt;a href="https://genius.com/albums/Iggy-azalea/Glory" rel="noopener" data-api_path="/albums/19753"&gt;&lt;em&gt;Glory&lt;/em&gt;&lt;/a&gt; released in July 2012 through his Grand Hustle imprint, which included their popular collaboration “&lt;a href="https://genius.com/Iggy-azalea-murda-bizness-lyrics" rel="noopener" data-api_path="/songs/69507"&gt;Murda Bizness&lt;/a&gt;”. Later that year, she was featured on the &lt;a href="https://genius.com/Bet-grand-hustle-cypher-lyrics" rel="noopener" data-api_path="/songs/92103"&gt;Hustle Gang Cypher&lt;/a&gt; at the BET Hip Hop Awards. In October 2012, Iggy released her second mixtape &lt;a href="https://genius.com/albums/Iggy-azalea/Trapgold" rel="noopener" data-api_path="/albums/21937"&gt;&lt;em&gt;TrapGold&lt;/em&gt;&lt;/a&gt;, produced entirely by &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt; and &lt;a href="https://genius.com/artists/1st-down-of-fki" rel="noopener"&gt;1st Down&lt;/a&gt; of &lt;a href="https://genius.com/artists/Fki" rel="noopener" data-api_path="/artists/15379"&gt;FKi&lt;/a&gt;. In the following year, she was selected as the tour opening act for the likes of &lt;a href="https://genius.com/artists/Beyonce" rel="noopener" data-api_path="/artists/498"&gt;Beyoncé&lt;/a&gt; and &lt;a href="https://genius.com/artists/Nas" rel="noopener" data-api_path="/artists/56"&gt;Nas&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Iggy’s debut studio album &lt;a href="https://genius.com/albums/Iggy-azalea/The-new-classic" rel="noopener" data-api_path="/albums/28238"&gt;&lt;em&gt;The New Classic&lt;/em&gt;&lt;/a&gt; was finally released in April 2014 after she secured significant label deals with Island Def Jam and Mercury Records in the previous year. It topped the US &lt;em&gt;Billboard&lt;/em&gt; Top R&amp;amp;B/Hip-Hop Albums making her the first non-American female rapper to reach the summit of the chart. The album was promoted by a number of single releases: the acclaimed autobiographical “&lt;a href="https://genius.com/Iggy-azalea-work-lyrics" rel="noopener" data-api_path="/songs/117463"&gt;Work&lt;/a&gt;”, “&lt;a href="https://genius.com/Iggy-azalea-bounce-lyrics" rel="noopener" data-api_path="/songs/145628"&gt;Bounce&lt;/a&gt;”, “&lt;a href="https://genius.com/Iggy-azalea-change-your-life-lyrics" rel="noopener" data-api_path="/songs/206949"&gt;Change Your Life&lt;/a&gt;” and the US &lt;em&gt;Billboard&lt;/em&gt; Hot 100 chart-topping single “&lt;a href="https://genius.com/Iggy-azalea-fancy-lyrics" rel="noopener" data-api_path="/songs/352612"&gt;Fancy&lt;/a&gt;”, which made Iggy only the fourth female rapper in the history of that chart to reach number one, claiming the longest-leading reign with seven consecutive weeks. She also went on to achieve three top ten hits simultaneously on the Hot 100 along with her feature on &lt;a href="https://genius.com/Ariana-grande" rel="noopener" data-api_path="/users/2528152"&gt;Ariana Grande&lt;/a&gt;’s “&lt;a href="https://genius.com/Ariana-grande-problem-lyrics" rel="noopener" data-api_path="/songs/405888"&gt;Problem&lt;/a&gt;” and the fifth single from the album, “&lt;a href="https://genius.com/Iggy-azalea-black-widow-lyrics" rel="noopener" data-api_path="/songs/406511"&gt;Black Widow&lt;/a&gt;,” later that year. &lt;em&gt;The New Classic&lt;/em&gt; garnered Iggy four Grammy Award nominations, among many other awards and accolades. In November 2014, the album was reissued in a repackaged version titled &lt;a href="https://genius.com/albums/Iggy-azalea/Reclassified" rel="noopener" data-api_path="/albums/113809"&gt;&lt;em&gt;Reclassified&lt;/em&gt;&lt;/a&gt; featuring five newly recorded songs, including “&lt;a href="https://genius.com/Iggy-azalea-beg-for-it-lyrics" rel="noopener" data-api_path="/songs/539567"&gt;Beg For It&lt;/a&gt;” and “&lt;a href="https://genius.com/Iggy-azalea-trouble-lyrics" rel="noopener" data-api_path="/songs/590819"&gt;Trouble&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;Iggy has also notably collaborated with various other artists such as &lt;a href="https://genius.com/artists/Jennifer-lopez" rel="noopener" data-api_path="/artists/2487"&gt;Jennifer Lopez&lt;/a&gt;, &lt;a href="https://genius.com/artists/Wiz-khalifa" rel="noopener" data-api_path="/artists/310"&gt;Wiz Khalifa&lt;/a&gt; and &lt;a href="https://genius.com/artists/Britney-spears" rel="noopener" data-api_path="/artists/1052"&gt;Britney Spears&lt;/a&gt;, having amassed hundred millions of streams. In one of the more unlikely crossover success stories, Iggy became one of the most polarizing figures in the music industry suffering a tirade of social media backlash over race and hip-hop culture, but the lightning rod rapper &lt;a href="http://abcnews.go.com/GMA/iggy-azalea-missy-elliot-lil-kim-support-criticism/story?id=37865215" rel="noopener nofollow"&gt;credits&lt;/a&gt; the many that have supported her instead, naming some of the women she grew up idolizing particularly &lt;a href="https://genius.com/artists/Missy-elliott" rel="noopener" data-api_path="/artists/1529"&gt;Missy Elliott&lt;/a&gt; and &lt;a href="https://genius.com/artists/Lil-kim" rel="noopener" data-api_path="/artists/411"&gt;Lil\' Kim&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Iggy-azalea/Digital-distortion" rel="noopener" data-api_path="/albums/141471"&gt;&lt;em&gt;Digital Distortion&lt;/em&gt;&lt;/a&gt; had been announced as her sophomore project in 2016 but was ultimately scrapped due to label issues. It was slated to include the singles “&lt;a href="https://genius.com/Iggy-azalea-team-lyrics" rel="noopener" data-api_path="/songs/2398025"&gt;Team&lt;/a&gt;”, “&lt;a href="https://genius.com/Iggy-azalea-mo-bounce-lyrics" rel="noopener" data-api_path="/songs/3011565"&gt;Mo Bounce&lt;/a&gt;”, and “&lt;a href="https://genius.com/Iggy-azalea-switch-lyrics" rel="noopener" data-api_path="/songs/3059119"&gt;Switch&lt;/a&gt;”. In late 2017, Iggy revealed she had parted ways with Def Jam Recordings. She joined Island Records in the following year by releasing the single “&lt;a href="https://genius.com/Iggy-azalea-savior-lyrics" rel="noopener" data-api_path="/songs/3422449"&gt;Savior&lt;/a&gt;.” Her first full project in four years titled &lt;a href="https://genius.com/albums/Iggy-azalea/Survive-the-summer-ep" rel="noopener" data-api_path="/albums/379350"&gt;&lt;em&gt;Survive The Summer&lt;/em&gt;&lt;/a&gt; was preceded by the single “&lt;a href="https://genius.com/Iggy-azalea-kream-lyrics" rel="noopener" data-api_path="/songs/3798091"&gt;Kream&lt;/a&gt;” and was finally released on August 3rd, 2018.&lt;/p&gt;\n\n&lt;p&gt;Months after the EP Iggy decided to part ways with her label and be independent. In 2019 she released three singles under her own label Bad Dream Records, the songs &lt;a href="https://genius.com/Iggy-azalea-sally-walker-lyrics" rel="noopener" data-api_path="/songs/4151688"&gt;“Sally Walker,”&lt;/a&gt; &lt;a href="https://genius.com/Iggy-azalea-started-lyrics" rel="noopener" data-api_path="/songs/4308182"&gt;“Started,”&lt;/a&gt; and &lt;a href="https://genius.com/Iggy-azalea-fuck-it-up-lyrics" rel="noopener" data-api_path="/songs/4209478"&gt;“Fuck It Up\'&lt;/a&gt; (with &lt;a href="https://genius.com/artists/Kash-doll" rel="noopener" data-api_path="/artists/331400"&gt;Kash Doll&lt;/a&gt;). The tracks are part of her first full project in five years, her sophomore studio album &lt;a href="https://genius.com/albums/Iggy-azalea/In-my-defense" rel="noopener" data-api_path="/albums/467630"&gt;&lt;em&gt;In My Defense&lt;/em&gt;&lt;/a&gt; that was released on July 19, 2019.&lt;/p&gt;\n\n&lt;p&gt;Soon after that her EP &lt;a href="https://genius.com/albums/Iggy-azalea/Wicked-lips-ep" rel="noopener" data-api_path="/albums/566060"&gt;&lt;em&gt;Wicked Lips&lt;/em&gt;&lt;/a&gt; was released after a short delay due to her being five months pregnant at the time, spawning the lead single &lt;a href="https://genius.com/Iggy-azalea-and-alice-chater-lola-lyrics" rel="noopener" data-api_path="/songs/4939709"&gt;“Lola”&lt;/a&gt;. In 2020 after releasing the Tinashe assisted &lt;a href="https://genius.com/Iggy-azalea-and-tinashe-dance-like-nobodys-watching-lyrics" rel="noopener" data-api_path="/songs/5866911"&gt;“Dance Like Nobody’s Watching”&lt;/a&gt; Iggy Azalea announced her third official studio album titled &lt;a href="https://genius.com/albums/Iggy-azalea/End-of-an-era-deluxe-version" rel="noopener" data-api_path="/albums/801062"&gt;&lt;em&gt;End Of An Era&lt;/em&gt;&lt;/a&gt; released on August 13, 2021. The project’s first official single “Sip It” was released on April 2, 2021 along with the B-side “Brazil”. The second official single of the project “I Am The Strip Club” was released on July 2, 2021.&lt;/p&gt;', 'alternate_names': ['Amethyst Kelly', 'Amethyst Amelia Kelly']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Erasure', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/49fb726842ac1beeb5661ce204e0c7a7.906x428x1.jpg" alt="" width="906" height="428" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Erasure are an English synthpop duo that formed in London in 1985. Since then, singer/lyricist &lt;a href="https://genius.com/artists/Andy-bell" rel="noopener" data-api_path="/artists/350629"&gt;Andy Bell&lt;/a&gt; (left) and composer/producer &lt;a href="https://genius.com/artists/Vince-clarke" rel="noopener" data-api_path="/artists/494624"&gt;Vince Clarke&lt;/a&gt; (right) have unleashed 18 albums and dozens of singles and EPs onto the charts. Their latest album, &lt;a href="https://genius.com/albums/Erasure/The-neon" rel="noopener" data-api_path="/albums/643348"&gt;&lt;em&gt;The Neon&lt;/em&gt;&lt;/a&gt;, is slated for release on August 2020.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Blind-melon', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Arctic-monkeys', 'annotations': {'description': '&lt;p&gt;Arctic Monkeys is an English rock band formed in 2002 in High Green, a suburb of Sheffield, England. The band consists of &lt;a href="https://genius.com/artists/Alex-turner" rel="noopener" data-api_path="/artists/26178"&gt;Alex Turner&lt;/a&gt; (lead vocals, rhythm/lead guitar), &lt;a href="https://genius.com/artists/Matt-helders" rel="noopener" data-api_path="/artists/50537"&gt;Matt Helders&lt;/a&gt; (drums, vocals), &lt;a href="https://genius.com/artists/Jamie-cook" rel="noopener" data-api_path="/artists/398363"&gt;Jamie Cook&lt;/a&gt; (lead/rhythm guitar) and &lt;a href="https://genius.com/artists/Nick-omalley" rel="noopener" data-api_path="/artists/397891"&gt;Nick O\'Malley&lt;/a&gt; (bass, backing vocals). Former band member Andy Nicholson (bass guitar, backing vocals) left the band in 2006 shortly after their debut album was released. Their sound has changed extensively from album to album, gradually evolving from raw, youthful post-punk revival music to R ‘n’ B and jazz-inspired experiments.&lt;/p&gt;\n\n&lt;p&gt;All four original members of the band were devoted fans of hip-hop when they were younger, a genre that would have an immense influence on their later work, but it was the sound of &lt;a href="https://genius.com/artists/The-strokes" rel="noopener" data-api_path="/artists/12524"&gt;The Strokes&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-libertines" rel="noopener" data-api_path="/artists/20920"&gt;The Libertines&lt;/a&gt; that would help shape their early style. The Arctic Monkeys became one of the first bands to find fame and recognition purely through internet publicity and social media; the Arctics used to sell their demos CDs at a bar where Alex Turner used to work, but due to the limited number of CDs, their fans started to upload them on the internet.&lt;/p&gt;\n\n&lt;p&gt;Initially, they refused to sign a record contract with any label through fear that they would want the band to change their songs, going as far as to refuse scouts guaranteed entry into their gigs. However, they eventually signed with Domino because of the “do it yourself” attitude of founder, Lawrence Bell, who ran the label from his own house.&lt;/p&gt;\n\n&lt;p&gt;The group released their scrappy, spirited debut &lt;a href="https://genius.com/albums/Arctic-monkeys/Whatever-people-say-i-am-that-s-what-i-m-not" rel="noopener" data-api_path="/albums/13108"&gt;&lt;em&gt;Whatever People Say I Am, That’s What I’m Not&lt;/em&gt;&lt;/a&gt; in 2006, an album that spawned their first UK No. 1 singles, &lt;a href="https://genius.com/Arctic-monkeys-i-bet-you-look-good-on-the-dancefloor-lyrics" rel="noopener" data-api_path="/songs/74885"&gt;“I Bet You Look Good on the Dancefloor”&lt;/a&gt; and &lt;a href="https://genius.com/Arctic-monkeys-when-the-sun-goes-down-lyrics" rel="noopener" data-api_path="/songs/75362"&gt;“When the Sun Goes Down”.&lt;/a&gt; They followed it up with &lt;a href="https://genius.com/albums/Arctic-monkeys/Favourite-worst-nightmare" rel="noopener" data-api_path="/albums/14401"&gt;&lt;em&gt;Favourite Worst Nightmare&lt;/em&gt;&lt;/a&gt; in 2007, which took on a more mature lyrical direction, with tighter, more accessible hooks and melodies and more polished production. Their most accessible album to date is &lt;a href="https://genius.com/albums/Arctic-monkeys/Am" rel="noopener" data-api_path="/albums/37951"&gt;&lt;em&gt;AM&lt;/em&gt;&lt;/a&gt;, which contains some of their catchiest and most notable singles, including the indie hit &lt;a href="https://genius.com/albums/Arctic-monkeys/Do-i-wanna-know-single" rel="noopener" data-api_path="/albums/333036"&gt;“Do I Wanna Know?.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Arctic Monkeys subsequently took a five-year break from releasing albums, before returning with their polarising sixth studio album &lt;a href="https://genius.com/albums/Arctic-monkeys/Tranquility-base-hotel-casino" rel="noopener" data-api_path="/albums/398288"&gt;&lt;em&gt;Tranquility Base Hotel and Casino&lt;/em&gt;&lt;/a&gt; in 2018.&lt;/p&gt;', 'alternate_names': ['Death Ramps']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Katrina-and-the-waves', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mac-miller', 'annotations': {'description': '&lt;p&gt;Malcolm James McCormick (Jan. 19, 1992 – Sept. 7, 2018), who performed as &lt;strong&gt;Mac Miller&lt;/strong&gt;, was an American rapper and producer from Pittsburgh, Pennsylvania. Since releasing his &lt;a href="https://genius.com/albums/Mac-miller/But-my-mackin-ain-t-easy" rel="noopener" data-api_path="/albums/12181"&gt;first mixtape&lt;/a&gt; at just 15 years old, he became one of the leaders of the new school of young and highly talented “weirdos.”&lt;/p&gt;\n\n&lt;p&gt;Mac’s credibility in the rap game increased ten-fold and resulted in a slew of quality releases, including 2012’s &lt;em&gt;&lt;a href="https://genius.com/albums/Mac-miller/Macadelic" rel="noopener" data-api_path="/albums/15274"&gt;Macadelic&lt;/a&gt;&lt;/em&gt; mixtape, his second studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Mac-miller/Watching-movies-with-the-sound-off" rel="noopener" data-api_path="/albums/30268"&gt;Watching Movies With The Sound Off&lt;/a&gt;&lt;/em&gt;, and his critically-acclaimed 2014 mixtape &lt;em&gt;&lt;a href="https://genius.com/albums/Mac-miller/Faces" rel="noopener" data-api_path="/albums/98206"&gt;Faces&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;He had multiple alter-egos, most notably his producer alias &lt;a href="https://genius.com/artists/Larry-fisherman" rel="noopener" data-api_path="/artists/31881"&gt;Larry Fisherman&lt;/a&gt; and his sick and twisted pitched-up persona (à la &lt;a href="https://genius.com/artists/Quasimoto" rel="noopener" data-api_path="/artists/2092"&gt;Quasimoto,&lt;/a&gt;) &lt;a href="https://genius.com/artists/Delusional-thomas" rel="noopener" data-api_path="/artists/85358"&gt;Delusional Thomas.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Mac spent the early part of his career with &lt;a href="http://www.rostrumrecords.com/" rel="noopener nofollow"&gt;Rostrum Records&lt;/a&gt; until he left on the first month of 2014, becoming an independent artist. In October 2014, he created his own label called “REMember Music” with Warner Bros Records. He capitalized ‘REM’ in tribute to his friend Reuben Eli Mitrani, who tragically died at just 20.&lt;/p&gt;\n\n&lt;p&gt;Mac Miller behind the scenes at Genius:&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;&lt;iframe class="embedly-embed" src="https://cdn.embedly.com/widgets/media.html?src=https%3A%2F%2Fplayers.brightcove.net%2Fpages%2Fv1%2Findex.html%3FaccountId%3D4863540648001%26playerId%3DHklmClHkx%26videoId%3D5237522114001%26mode%3Diframe&amp;amp;url=http%3A%2F%2Fplayers.brightcove.net%2F4863540648001%2FHklmClHkx_default%2Findex.html%3FvideoId%3D5237522114001&amp;amp;image=http%3A%2F%2Fbrightcove.vo.llnwd.net%2Fe1%2Fpd%2F4863540648001%2F4863540648001_5237530493001_5237522114001-vs.jpg%3FpubId%3D4863540648001%26videoId%3D5237522114001&amp;amp;key=e898f7f22a3443a6893439149a6fb36f&amp;amp;type=text%2Fhtml&amp;amp;schema=brightcove" width="800" height="450" scrolling="no" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;\n\n&lt;p&gt;On September 7th, 2018, TMZ &lt;a href="http://www.tmz.com/2018/09/07/mac-miller-dead-dies/" rel="noopener nofollow"&gt;reported&lt;/a&gt; that Mac Miller passed away at the young age of 26 in his San Fernando Valley home due to an apparent drug overdose, making his fifth studio album, &lt;a href="https://genius.com/albums/Mac-miller/Swimming" rel="noopener" data-api_path="/albums/433528"&gt;&lt;em&gt;Swimming&lt;/em&gt;&lt;/a&gt;, his last body of work while he was alive. Mac Miller always had issues with drug addiction and drug abuse, both of which were constant themes in his music.&lt;/p&gt;', 'alternate_names': ['Larry Lovestein', "Smoke Mo' Purp", 'Malcolm McCormick', 'Easy Mac', 'M. McCormick', 'Malcolm James McCormick', 'EZ Mac']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Naked-eyes', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Miranda-cosgrove', 'annotations': {'description': '&lt;p&gt;Miranda Cosgrove is an American actress and singer. Her career began at the age of three, when she appeared in television commercials. Her film debut came in 2003, when she played Summer Hathaway in School of Rock. She appeared in a number of minor television roles over several years before coming to prominence as Megan Parker on the Nickelodeon TV series Drake &amp;amp; Josh. A few years later, she landed the role of Carly Shay, the lead character in the Nickelodeon TV series iCarly.&lt;/p&gt;\n\n&lt;p&gt;As of May 2010, Cosgrove earned $180,000 per episode of iCarly, making her the second-highest-paid child star on television. Following the success of iCarly, a &lt;a href="https://genius.com/albums/Various-artists/Icarly-soundtrack" rel="noopener" data-api_path="/albums/122122"&gt;soundtrack album&lt;/a&gt; was released in June 2008, in which she performed four songs. Her debut album, &lt;em&gt;Sparks Fly&lt;/em&gt;, was released on April 27, 2010.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Icona-pop', 'annotations': {'description': '&lt;p&gt;Arguably one of the most anthemic musical duos out there, the pair of Swedish electropop women together known as Icona Pop have been impacting the charts and the dance floors since 2009. Comprised of Stockholm-raised Caroline Hjelt and Aino Jawo, who met accidentally at a party, Icona Pop seeks to make among the world’s best dancepop and synthpop music. The two came to the spotlight initially with the powerfully spunky &lt;a href="https://genius.com/Icona-pop-manners-lyrics" rel="noopener" data-api_path="/songs/121961"&gt;“Manners”&lt;/a&gt; as part of 2011 EP &lt;em&gt;Nights Like This&lt;/em&gt;, drawing attention from &lt;em&gt;NME&lt;/em&gt; and &lt;em&gt;The Guardian&lt;/em&gt;, among other publications.&lt;/p&gt;\n\n&lt;p&gt;In the late spring of 2012, Icona Pop gave the world a pre-release single off their debut album &lt;a href="https://genius.com/albums/Icona-pop/icona-pop" rel="noopener" data-api_path="/albums/124734"&gt;&lt;em&gt;Icona Pop&lt;/em&gt;&lt;/a&gt; and the EP &lt;a href="https://genius.com/albums/Icona-pop/Iconic-EP" rel="noopener"&gt;&lt;em&gt;Iconic&lt;/em&gt;&lt;/a&gt; – the would-be titanic hit &lt;a href="https://genius.com/Icona-pop-i-love-it-lyrics" rel="noopener" data-api_path="/songs/78587"&gt;“I Love It”&lt;/a&gt; featuring the rising UK artist &lt;a href="https://genius.com/artists/Charli-xcx" rel="noopener" data-api_path="/artists/45349"&gt;Charli XCX&lt;/a&gt; and producer &lt;a href="https://genius.com/artists/Patrik-berger" rel="noopener" data-api_path="/artists/45369"&gt;Patrik Berger&lt;/a&gt;, of &lt;a href="https://genius.com/artists/Robyn" rel="noopener" data-api_path="/artists/1182"&gt;Robyn&lt;/a&gt; fame. The maximalist track, anthemic and nihilistic, found itself on the soundtracks of many major projects, namely &lt;em&gt;Girls&lt;/em&gt;, &lt;em&gt;The Vampire Desires&lt;/em&gt;, &lt;em&gt;Glee&lt;/em&gt; and many commercials. “I Love It” eventually rolled to a Top 10 hit status on the Billboard charts and topped the UK Singles chart, selling over 4 million downloads worldwide. The eponymous album faltered chart-wise, but the rest of the album was no less significant than “I Love It” in shaping the synthpop artists\' signature sound. The two also found themselves opening the North American leg of &lt;a href="https://genius.com/artists/Marina-and-the-diamonds" rel="noopener" data-api_path="/artists/27048"&gt;Marina and the Diamonds&lt;/a&gt;‘ tour accompanying Diamandis’ &lt;em&gt;Electra Heart&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Come 2013, the duo pushed out the feminist &lt;a href="https://genius.com/Icona-pop-girlfriend-lyrics" rel="noopener" data-api_path="/songs/158502"&gt;“Girlfriend”&lt;/a&gt;, interpolating a &lt;a href="https://genius.com/artists/2pac" rel="noopener" data-api_path="/artists/59"&gt;2Pac&lt;/a&gt; track, which previewed Icona Pop’s debut international album, &lt;a href="https://genius.com/albums/Icona-pop/This-is-icona-pop" rel="noopener" data-api_path="/albums/121246"&gt;&lt;em&gt;This Is…Icona Pop&lt;/em&gt;&lt;/a&gt;, after the releases of “I Love It” and &lt;a href="https://genius.com/Icona-pop-we-got-the-world-lyrics" rel="noopener" data-api_path="/songs/1865855"&gt;“We Got The World”&lt;/a&gt; in 2012. &lt;a href="https://genius.com/Icona-pop-all-night-lyrics" rel="noopener" data-api_path="/songs/194135"&gt;“All Night”&lt;/a&gt; came not long after, topping the Billboard dance chart. &lt;em&gt;This Is…&lt;/em&gt; marked the true establishment of the Swedes into the dance scene, with its jam-packed nature of maximalist, genre-bending tracks and youthful lyrics of dual emotions. The next year, in 2014, the Swedish duo released &lt;a href="https://genius.com/Icona-pop-get-lost-lyrics" rel="noopener" data-api_path="/songs/461816"&gt;“Get Lost”&lt;/a&gt;, and worked as opening acts of Miley Cyrus and Katy Perry.&lt;/p&gt;\n\n&lt;p&gt;In 2015, Icona Pop released dance chart topper &lt;a href="https://genius.com/Icona-pop-emergency-lyrics" rel="noopener" data-api_path="/songs/1912355"&gt;“Emergency”&lt;/a&gt;, featured on the enormously popular video game &lt;em&gt;FIFA 16&lt;/em&gt;. The infectious hit previewed an EP of the same name, and Icona Pop was soon announced as an opening act for the massively popular 2015 One Direction tour. In March of 2016, the Swedes debuted their track &lt;a href="https://genius.com/Icona-pop-someone-who-can-dance-lyrics" rel="noopener" data-api_path="/songs/2428544"&gt;“Someone Who Can Dance”&lt;/a&gt; at the Swedish Grammys, to relative critical excitement. In October of the same year, the duo released &lt;a href="https://genius.com/Icona-pop-brightside-lyrics" rel="noopener" data-api_path="/songs/2882216"&gt;“Brightside”&lt;/a&gt;, an anthem celebrating their friendship. In June 2017, &lt;a href="https://genius.com/Icona-pop-girls-girls-lyrics" rel="noopener" data-api_path="/songs/3110204"&gt;“GIRLS GIRLS”&lt;/a&gt; was released. In October of 2018, the duo came back with a disco song &lt;a href="https://genius.com/Icona-pop-rhythm-in-my-blood-lyrics" rel="noopener" data-api_path="/songs/3955727"&gt;“Rhythm in My Blood”&lt;/a&gt;. It’s quite apparent that Icona Pop have the potential to change the state of musical maximalism and synthpop for the ages, provided the right tools – who knows what kind of anthem they’ll pump out next?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Yeah-yeah-yeahs', 'annotations': {'description': '&lt;p&gt;An Art-Punk band formed out of New York’s Post-Punk Revival scene in the late 1990s / early 2000s, the Yeah Yeah Yeahs are composed of lead vocalist Karen O, guitarist Nick Zinner, and drummer Brian Chase. Best songs include “Maps”, “Y Control”, “Cheated Hearts”, “Turn Into”, “Zero”, and “Heads Will Roll”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Carl-ward', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Fifth-harmony', 'annotations': {'description': '&lt;p&gt;Fifth Harmony is a girl group that formed out of contestants on the 2012 edition of &lt;em&gt;The X Factor USA&lt;/em&gt;, chosen by &lt;a href="https://genius.com/artists/Simon-cowell" rel="noopener" data-api_path="/artists/653533"&gt;Simon Cowell&lt;/a&gt;: &lt;a href="https://genius.com/artists/Ally-brooke-hernandez" rel="noopener" data-api_path="/artists/653060"&gt;Ally Brooke Hernandez,&lt;/a&gt; &lt;a href="https://genius.com/artists/Normani-kordei" rel="noopener" data-api_path="/artists/636165"&gt;Normani Kordei,&lt;/a&gt; &lt;a href="https://genius.com/artists/Lauren-jauregui" rel="noopener" data-api_path="/artists/653062"&gt;Lauren Jauregui,&lt;/a&gt; &lt;a href="https://genius.com/artists/Dinah-jane-hansen" rel="noopener" data-api_path="/artists/653061"&gt;Dinah Jane Hansen,&lt;/a&gt; and &lt;a href="https://genius.com/artists/Camila-cabello" rel="noopener" data-api_path="/artists/609667"&gt;Camila Cabello&lt;/a&gt;. Despite being eliminated at third place, Fifth Harmony moved on to being signed with Syco Music.&lt;/p&gt;\n\n&lt;p&gt;Their first album, &lt;a href="https://genius.com/albums/Fifth-harmony/Reflection" rel="noopener" data-api_path="/albums/117788"&gt;&lt;em&gt;Reflection&lt;/em&gt;,&lt;/a&gt; was released on February 3rd, 2015, and peaked at number 5 on the Billboard 200, becoming their second top ten on that chart following their 2013 EP, &lt;a href="https://genius.com/albums/Fifth-harmony/Better-together" rel="noopener" data-api_path="/albums/46107"&gt;&lt;em&gt;Better Together.&lt;/em&gt;&lt;/a&gt; The album also merited their first top 40 single, &lt;a href="https://genius.com/Fifth-harmony-sledgehammer-lyrics" rel="noopener" data-api_path="/songs/575010"&gt;“Sledgehammer.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Their second album,\xa0&lt;a href="https://genius.com/albums/Fifth-harmony/7-27" rel="noopener" data-api_path="/albums/144962"&gt;&lt;em&gt;7/27&lt;/em&gt;,&lt;/a&gt;\xa0was released on May 27th, 2016 and debuted at number 4 on the Billboard 200, making it the group’s highest charting album to date. Its lead single, &lt;a href="https://genius.com/Fifth-harmony-work-from-home-lyrics" rel="noopener" data-api_path="/songs/2427392"&gt;“Work From Home”&lt;/a&gt; featuring rapper &lt;a href="https://genius.com/artists/Ty-dolla-sign" rel="noopener" data-api_path="/artists/25005"&gt;Ty Dolla Sign,&lt;/a&gt; catapulted the girls even further into mainstream success. The track debuted on the Billboard Hot 100 at #12 and reached #4 after 13 weeks and became the girls\' highest-charting single in the U.S. and the first top-five single in the country by a girl group since &lt;a href="https://genius.com/The-pussycat-dolls-buttons-lyrics" rel="noopener" data-api_path="/songs/2865650"&gt;“Buttons”&lt;/a&gt; by &lt;a href="https://genius.com/artists/The-pussycat-dolls" rel="noopener" data-api_path="/artists/8390"&gt;The Pussycat Dolls.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;On December 19th of 2016, it was &lt;a href="https://twitter.com/FifthHarmony/status/810711337789771776" rel="noopener nofollow"&gt;announced via Twitter&lt;/a&gt; that &lt;a href="https://genius.com/artists/Camila-cabello" rel="noopener" data-api_path="/artists/609667"&gt;Camila Cabello&lt;/a&gt; would be breaking apart from the group to further pursue solo endeavors.&lt;/p&gt;\n\n&lt;p&gt;On June 2, 2017, Fifth Harmony released “&lt;a href="https://genius.com/Fifth-harmony-down-lyrics" rel="noopener" data-api_path="/songs/3102103"&gt;Down&lt;/a&gt;” as the first single as a four-piece group, featuring rapper &lt;a href="https://genius.com/artists/Gucci-mane" rel="noopener" data-api_path="/artists/13"&gt;Gucci Mane&lt;/a&gt;. Their &lt;a href="https://genius.com/albums/Fifth-harmony/Fifth-harmony" rel="noopener" data-api_path="/albums/344985"&gt;self-titled third album&lt;/a&gt; followed on August 25, 2017.&lt;/p&gt;\n\n&lt;p&gt;On March 19, 2018, after almost six years of being a band, the group posted this statement to their social medias announcing their hiatus to “pursue solo endeavours:”&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;blockquote class="twitter-tweet"&gt;&lt;a href="https://twitter.com/fifthharmony/status/975718651595771904"&gt;&lt;/a&gt;&lt;/blockquote&gt;\n&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;\n&lt;/div&gt;', 'alternate_names': ['5th Harmony']}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Huey-lewis-and-the-news', 'annotations': {'description': '&lt;p&gt;Huey Lewis and the News is a pop rock band from San Francisco who had a series of hit singles in the 1980s and early 90s. They’re best known for their “instantly memorable hooks, driven home with economical precision by a tight bar band,” &lt;a href="http://www.allmusic.com/album/sports-mw0000195256" rel="noopener nofollow"&gt;[1]&lt;/a&gt; especially in their back-to-back multiplatinum albums &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Sports" rel="noopener" data-api_path="/albums/125836"&gt;&lt;em&gt;Sports&lt;/em&gt;&lt;/a&gt; (1983) and &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore&lt;/em&gt;&lt;/a&gt; (1986). Their song &lt;a href="https://genius.com/Huey-lewis-and-the-news-hip-to-be-square-lyrics" rel="noopener" data-api_path="/songs/147345"&gt;“Hip to be Square,”&lt;/a&gt; on &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore!&lt;/em&gt;&lt;/a&gt;, was made famous in a scene in &lt;em&gt;American Psycho&lt;/em&gt;, in which Pat Bateman says:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;In ‘87, Huey released &lt;em&gt;Fore!&lt;/em&gt;, their most accomplished album. I think their undisputed masterpiece is “Hip to Be Square,” a song so catchy most people probably don’t listen to the lyrics. But they &lt;em&gt;should&lt;/em&gt;, because it’s not just about the pleasures of conformity, and the importance of trends, it’s also a personal statement about the band itself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The band got its start when singer and harmonica player &lt;a href="https://genius.com/artists/Huey-lewis" rel="noopener" data-api_path="/artists/61400"&gt;Huey Lewis&lt;/a&gt; and keyboardist &lt;a href="https://genius.com/artists/Sean-hopper" rel="noopener" data-api_path="/artists/582291"&gt;Sean Hopper&lt;/a&gt; hooked up with a Bay Area jazz-funk band called &lt;a href="https://genius.com/artists/Clover" rel="noopener" data-api_path="/artists/355320"&gt;Clover&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After &lt;em&gt;Fore!&lt;/em&gt; the band declined in stature, and the lineup changed substantially. They recorded the theme song to the 2008 movie &lt;em&gt;Pineapple Express&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/The-dandy-warhols', 'annotations': {'description': '&lt;p&gt;The Dandy Warhols are an American rock band, formed in Portland, Oregon, in 1994 by singer-guitarist Courtney Taylor-Taylor and guitarist Peter Holmström, who were joined by keyboardist Zia McCabe and drummer Eric Hedford. Hedford left in 1998 and was replaced by Taylor-Taylor’s cousin Brent DeBoer.&lt;/p&gt;\n\n&lt;p&gt;The band gained recognition after they were signed to Capitol Records and released their major label album debut, &lt;a href="https://genius.com/albums/The-dandy-warhols/Come-on-feel-the-dandy-warhols" rel="noopener" data-api_path="/albums/127512"&gt;&lt;em&gt;…The Dandy Warhols Come Down&lt;/em&gt;&lt;/a&gt;, in 1997. In 2001, the band rose to new levels of fame after their song &lt;a href="https://genius.com/The-dandy-warhols-bohemian-like-you-lyrics" rel="noopener" data-api_path="/songs/98433"&gt;“Bohemian Like You”&lt;/a&gt; enjoyed extensive exposure thanks to its being featured in a Vodafone advertisement. The Dandy Warhols have released eight studio albums to date.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-human-league', 'annotations': {'description': '&lt;p&gt;The Human League are a synth pop band from Sheffield, England, formed in 1977. They generated a string of synthesizer-backed dance pop hits throughout the 80s. David Bowie dubbed the group “the sound of the future” in 1981.&lt;/p&gt;\n\n&lt;p&gt;The band is best known for its third studio album released in 1981, &lt;a href="https://genius.com/albums/The-human-league/Dare" rel="noopener" data-api_path="/albums/111021"&gt;&lt;em&gt;Dare!&lt;/em&gt;&lt;/a&gt; The fourth single from &lt;em&gt;Dare&lt;/em&gt;, &lt;a href="https://genius.com/The-human-league-dont-you-want-me-lyrics" rel="noopener" data-api_path="/songs/501821"&gt;“Don’t You Want Me,”&lt;/a&gt; catapulted to #1 in the UK and US.&lt;/p&gt;\n\n&lt;p&gt;Phil Oakey is the only core member of the group. The band’s first incarnation was as an arty all-male synthesizer group, composed of Oakey, Martyn Ware, and Ian Craig Marsh. In the 1980s, Ware and Marsh left the group after continued conflicts with Oakey—they went on to form &lt;a href="https://genius.com/artists/Heaven-17" rel="noopener" data-api_path="/artists/100911"&gt;Heaven 17&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Oakey then recruited two 17-year-old girls, Susan Ann Sulley and Joanne Catherall to be background singers and dancers after his then-girlfriend saw them performing a complex routine to Visage’s &lt;a href="https://genius.com/Visage-fade-to-grey-lyrics" rel="noopener" data-api_path="/songs/321565"&gt;“Fade To Grey”&lt;/a&gt; in a local nightclub. Since 1987, The Human League has remained a trio composed of Oakey, Sulley and Catherall.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Ac-dc', 'annotations': {'description': '&lt;p&gt;AC/DC is an Australian rock band, formed in 1973 by brothers &lt;a href="https://genius.com/artists/Malcolm-young" rel="noopener" data-api_path="/artists/539433"&gt;Malcolm&lt;/a&gt; and &lt;a href="https://genius.com/artists/Angus-young" rel="noopener" data-api_path="/artists/539432"&gt;Angus Young&lt;/a&gt;, who have remained the sole constant members (though Malcolm left prior to the recording of 2015’s &lt;em&gt;Rock or Bust&lt;/em&gt; due to medical issues and has since died). Commonly classified as hard rock, they are considered pioneers of heavy metal and are sometimes classified as such, though they themselves have always classified their music as simply “rock and roll”. To date, they are one of the highest grossing bands of all time.&lt;/p&gt;\n\n&lt;p&gt;But when their vocalist, Bon Scott died after a night out in London, the group wanted to disband. That didn’t happen. Instead, Scott was replaced with Brian Johnson. Their only statement to Scott’s Death was that he had “drunken himself to Death.”&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names" rel="noopener nofollow"&gt;Malcolm and Angus Young came up with the band name&lt;/a&gt; after their sister saw “AC/DC” on the side of an electric sewing machine, and ended up asking, “Why not AC/DC?”&lt;/p&gt;\n\n&lt;p&gt;As of 2010, AC/DC had sold more than 200 million albums worldwide, including 71 million albums in the United States alone. 1980’s &lt;em&gt;&lt;a href="https://genius.com/albums/ac-dc/back-in-black" rel="noopener" data-api_path="/albums/17546"&gt;Back in Black&lt;/a&gt;&lt;/em&gt;, the first album with singer &lt;a href="https://genius.com/artists/Brian-johnson" rel="noopener" data-api_path="/artists/158121"&gt;Brian Johnson&lt;/a&gt;, has sold an estimated 49 million units worldwide, making it the third highest-selling album by any artist, and the second highest-selling album by any band, behind &lt;a href="https://genius.com/artists/Pink-floyd" rel="noopener" data-api_path="/artists/694"&gt;Pink Floyd&lt;/a&gt;’s &lt;em&gt;&lt;a href="https://genius.com/albums/pink-floyd/the-dark-side-of-the-moon" rel="noopener" data-api_path="/albums/14530"&gt;Dark Side of The Moon&lt;/a&gt;&lt;/em&gt; and &lt;a href="https://genius.com/artists/Michael-jackson" rel="noopener" data-api_path="/artists/835"&gt;Michael Jackson&lt;/a&gt;’s &lt;em&gt;&lt;a href="https://genius.com/albums/Michael-jackson-thriller" rel="noopener"&gt;Thriller&lt;/a&gt;&lt;/em&gt;. The album has sold 22 million units in the U.S. alone, where it is the fifth-highest-selling album of all-time. AC/DC ranked fourth on VH1’s list of the “100 Greatest Artists of Hard Rock” and was named the seventh “Greatest Heavy Metal Band of All Time” by MTV. In 2004, AC/DC was ranked number 72 in the Rolling Stone list of the “100 Greatest Artists of All Time”. In 2010, AC/DC were ranked number 23 on the VH1 list of the “100 Greatest Artists of All Time”.&lt;/p&gt;\n\n&lt;p&gt;Members:&lt;br&gt;\n-&lt;a href="https://genius.com/artists/Angus-young" rel="noopener" data-api_path="/artists/539432"&gt;Angus Young&lt;/a&gt; – lead guitar (1973–present)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Cliff-williams" rel="noopener" data-api_path="/artists/379851"&gt;Cliff Williams&lt;/a&gt; – bass guitar, backing vocals (1977–2016[retired following the Rock or Bust Tour])&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Stevie-young" rel="noopener" data-api_path="/artists/21918"&gt;Stevie Young&lt;/a&gt; – rhythm guitar, backing vocals (1988 [touring member], 2014–present)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Chris-slade" rel="noopener" data-api_path="/artists/270232"&gt;Chris Slade&lt;/a&gt; – drums (1989–1994, 2015–present)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Brian-johnson" rel="noopener" data-api_path="/artists/158121"&gt;Brian Johnson&lt;/a&gt; – lead and backing vocals (1980–2016 [Indefinite Hiatus])&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Axl-rose" rel="noopener" data-api_path="/artists/101616"&gt;Axl Rose&lt;/a&gt; – lead vocals (2016 [touring member])&lt;/p&gt;\n\n&lt;p&gt;Former members&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Malcolm-young" rel="noopener" data-api_path="/artists/539433"&gt;Malcolm Young&lt;/a&gt; – rhythm guitar, backing vocals (1973–2014)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Dave-evans" rel="noopener" data-api_path="/artists/386528"&gt;Dave Evans&lt;/a&gt; – lead vocals (1973–1974)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Bon-scott" rel="noopener" data-api_path="/artists/576622"&gt;Bon Scott&lt;/a&gt; – lead vocals (1974–1980)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Mark-evans" rel="noopener" data-api_path="/artists/1001993"&gt;Mark Evans&lt;/a&gt; – bass guitar (1975–1977)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Phil-rudd" rel="noopener" data-api_path="/artists/640042"&gt;Phil Rudd&lt;/a&gt; – drums (1975–1983, 1994–2015)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Simon-wright" rel="noopener" data-api_path="/artists/459346"&gt;Simon Wright&lt;/a&gt; – drums (1983–1989)&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Kygo', 'annotations': {'description': '&lt;p&gt;Kyrre Gørvell-Dahll (born on September 11, 1991), better known by his stage name, &lt;strong&gt;Kygo&lt;/strong&gt;, is a Norwegian DJ and record producer born in Singapore. He grew up in Bergen, Vestland.&lt;/p&gt;\n\n&lt;p&gt;A remix of &lt;a href="https://genius.com/artists/ed-sheeran" rel="noopener" data-api_path="/artists/12418"&gt;Ed Sheeran’s&lt;/a&gt; &lt;a href="https://genius.com/Ed-sheeran-i-see-fire-lyrics" rel="noopener" data-api_path="/songs/255107"&gt;“I See Fire”&lt;/a&gt; started his career, but he’s mostly known for his hits &lt;a href="https://genius.com/kygo-firestone-lyrics" rel="noopener" data-api_path="/songs/601430"&gt;“Firestone”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Conrad-sewell" rel="noopener" data-api_path="/artists/336753"&gt;Conrad Sewell&lt;/a&gt; and &lt;a href="https://genius.com/kygo-stole-the-show-lyrics" rel="noopener" data-api_path="/songs/725422"&gt;“Stole the Show”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Parson-james" rel="noopener" data-api_path="/artists/336702"&gt;Parson James&lt;/a&gt;. At the end of 2015, Kygo released his third hit-single &lt;a href="https://genius.com/Kygo-stay-lyrics" rel="noopener" data-api_path="/songs/2381894"&gt;“Stay”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/Maty-noyes" rel="noopener" data-api_path="/artists/554061"&gt;Maty Noyes&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On 13 May 2016, Kygo released his debut studio album &lt;a href="https://genius.com/albums/Kygo/Cloud-nine" rel="noopener" data-api_path="/albums/143924"&gt;&lt;em&gt;Cloud Nine&lt;/em&gt;&lt;/a&gt; with less popular tracks like &lt;a href="https://genius.com/Kygo-raging-lyrics" rel="noopener" data-api_path="/songs/2448177"&gt;“Raging”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/Kodaline" rel="noopener" data-api_path="/artists/28458"&gt;Kodaline&lt;/a&gt; and &lt;a href="https://genius.com/Kygo-carry-me-lyrics" rel="noopener" data-api_path="/songs/2432553"&gt;“Carry Me”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/Julia-michaels" rel="noopener" data-api_path="/artists/409643"&gt;Julia Michaels&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;He went on making more tracks and released &lt;a href="https://genius.com/Kygo-it-aint-me-lyrics" rel="noopener" data-api_path="/songs/2971662"&gt;“It Ain’t Me”&lt;/a&gt; with vocals from &lt;a href="https://genius.com/artists/Selena-gomez" rel="noopener" data-api_path="/artists/45372"&gt;Selena Gomez&lt;/a&gt; being the first single of his sophomore album. This song peaked on the charts for months.&lt;/p&gt;', 'alternate_names': ['Kyrre Gørvell-Dahll']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Victoria-justice', 'annotations': {'description': '&lt;p&gt;Victoria Justice (born February 19, 1993) is an American actress, singer-songwriter, and dancer. She debuted as an actress at the age of 10 and has since appeared in several films and television series including the Nickelodeon series &lt;a href="https://en.wikipedia.org/wiki/Zoey_101" rel="noopener nofollow"&gt;Zoey 101&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Victorious" rel="noopener nofollow"&gt;Victorious&lt;/a&gt;. When not filming or recording music, Victoria is participating in several charity events.&lt;/p&gt;', 'alternate_names': ['Victoria Dawn Justice']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Iann-dior', 'annotations': {'description': '&lt;p&gt;Michael Ian Olmo (b. March 25, 1999), better known by his stage name &lt;strong&gt;iann dior&lt;/strong&gt;, is a recording artist from Arecibo, Puerto Rico. He moved to Corpus Christi, Texas at a young age, where he grew up for most of his early life.&lt;/p&gt;\n\n&lt;p&gt;He began releasing music in 2017 under the mononym &lt;b&gt;Olmo&lt;/b&gt;, and stage name &lt;b&gt;Lil Rock&lt;/b&gt;, though his come-up is a blur due to having it seemingly covered following his signing.&lt;/p&gt;\n\n&lt;p&gt;With his first release under &lt;a href="https://genius.com/artists/Internet-money" rel="noopener" data-api_path="/artists/1025407"&gt;Internet Money&lt;/a&gt; for &lt;a href="https://genius.com/Iann-dior-cutthroat-lyrics" rel="noopener" data-api_path="/songs/4280641"&gt;“cutthroat,”&lt;/a&gt; iann worked with producer &lt;a href="https://genius.com/artists/Nick-mira" rel="noopener" data-api_path="/artists/485229"&gt;Nick Mira&lt;/a&gt; who has produced for artists such as &lt;a href="https://genius.com/artists/Juice-wrld" rel="noopener" data-api_path="/artists/1237094"&gt;Juice WRLD&lt;/a&gt;, &lt;a href="https://genius.com/artists/Xxxtentacion" rel="noopener" data-api_path="/artists/396565"&gt;XXXTENTACION&lt;/a&gt; and &lt;a href="https://genius.com/artists/Lil-skies" rel="noopener" data-api_path="/artists/1015007"&gt;Lil Skies&lt;/a&gt;. He has worked with artists such as &lt;a href="https://genius.com/artists/Bernard-jabs" rel="noopener" data-api_path="/artists/407353"&gt;Bernard Jabs&lt;/a&gt; and &lt;a href="https://genius.com/artists/Pnb-rock" rel="noopener" data-api_path="/artists/248458"&gt;PnB Rock&lt;/a&gt; on his tracks &lt;a href="https://genius.com/Iann-dior-molly-lyrics" rel="noopener" data-api_path="/songs/4312665"&gt;“molly”&lt;/a&gt; and &lt;a href="https://genius.com/Iann-dior-romance361-lyrics" rel="noopener" data-api_path="/songs/4329896"&gt;“romance361”&lt;/a&gt; respectively.&lt;/p&gt;\n\n&lt;p&gt;iann quickly gained attention in early 2019, with him signing to &lt;a href="https://genius.com/artists/Tenthousand-projects" rel="noopener" data-api_path="/artists/1399195"&gt;TenThousand Projects&lt;/a&gt; in the following April.&lt;/p&gt;\n\n&lt;p&gt;On November 8, 2019, iann dropped his debut studio album, &lt;a href="https://genius.com/albums/Iann-dior/Industry-plant" rel="noopener" data-api_path="/albums/532639"&gt;&lt;em&gt;Industry Plant&lt;/em&gt;&lt;/a&gt;. The project included featured artists such as &lt;a href="https://genius.com/artists/Trippie-redd" rel="noopener" data-api_path="/artists/1086436"&gt;Trippie Redd&lt;/a&gt;, &lt;a href="https://genius.com/artists/Gunna" rel="noopener" data-api_path="/artists/91049"&gt;Gunna&lt;/a&gt; and &lt;a href="https://genius.com/artists/Travis-barker" rel="noopener" data-api_path="/artists/1604"&gt;Travis Barker&lt;/a&gt; on the tracks &lt;a href="https://genius.com/Iann-dior-gone-girl-lyrics" rel="noopener" data-api_path="/songs/4654510"&gt;“gone girl,”&lt;/a&gt; &lt;a href="https://genius.com/Iann-dior-strings-lyrics" rel="noopener" data-api_path="/songs/4874879"&gt;“Strings”&lt;/a&gt; and &lt;a href="https://genius.com/Iann-dior-darkside-lyrics" rel="noopener" data-api_path="/songs/4833977"&gt;“Darkside”&lt;/a&gt; respectively.&lt;/p&gt;\n\n&lt;p&gt;The artist planned releasing his first studio EP, &lt;a href="https://genius.com/albums/Iann-dior/Im-gone" rel="noopener" data-api_path="/albums/579140"&gt;&lt;em&gt;I’m Gone&lt;/em&gt;&lt;/a&gt; on June 5, 2020. However, due to tumultuous conditions particularly in the United States around the time with the &lt;a href="https://www.instagram.com/explore/tags/blacklivesmatter/" rel="noopener nofollow"&gt;#BlackLivesMatter&lt;/a&gt; movement, iann dior postponed the release of the EP to June 12, 2020. This project contained features with artists such as &lt;a href="https://genius.com/artists/Travis-barker" rel="noopener" data-api_path="/artists/1604"&gt;Travis Barker&lt;/a&gt; and &lt;a href="https://genius.com/artists/Machine-gun-kelly" rel="noopener" data-api_path="/artists/1665"&gt;Machine Gun Kelly&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;iann dior and his friend &lt;a href="https://genius.com/artists/24kGoldn" rel="noopener" data-api_path="/artists/1450588"&gt;24kGoldn&lt;/a&gt; released a collaboration single named &lt;a href="https://genius.com/24kgoldn-mood-lyrics" rel="noopener" data-api_path="/songs/5596421"&gt;“Mood”&lt;/a&gt; on July 24, 2020. Both have previously worked together on albums such as &lt;em&gt;Industry Plant&lt;/em&gt; and &lt;a href="https://genius.com/albums/Iann-dior/Nothings-ever-good-enough" rel="noopener" data-api_path="/albums/519998"&gt;&lt;em&gt;nothings ever good enough&lt;/em&gt;&lt;/a&gt;. During the week ending October 24, 2020, “Mood” &lt;a href="https://twitter.com/chartdata/status/1318241688326995971" rel="noopener nofollow"&gt;peaked at #1&lt;/a&gt; on the Hot 100. It is both 24kGoldn and iann dior’s &lt;a href="https://twitter.com/chartdata/status/1318241844669665281" rel="noopener nofollow"&gt;first song to top the chart&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Olmo', '\u200bsad boy dior', 'Lil Rock', 'Michael Ian Olmo', 'Michael I. Olmo', 'Michael Olmo']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Eagle-eye-cherry', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Eagle-Eye Lanoo Cherry']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Irene-cara', 'annotations': {'description': '&lt;p&gt;An 80s pop star. Most famous for her work on the Flashdance soundtrack and her role in Fame.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Charlie-puth', 'annotations': {'description': '&lt;p&gt;Charlie Puth is an American singer-songwriter who started by making and covering songs on &lt;a href="https://www.youtube.com/user/CharliesVlogs" rel="noopener nofollow"&gt;his YouTube channel.&lt;/a&gt; His big break came when he was featured on the &lt;em&gt;Furious 7&lt;/em&gt; song &lt;a href="https://genius.com/Wiz-khalifa-see-you-again" rel="noopener"&gt;“See You Again,”&lt;/a&gt; which he had written for a friend who passed away in a similar accident. The song reached #1 on the &lt;em&gt;Billboard&lt;/em&gt; Hot 100 and stayed there for twelve weeks, becoming the longest-running rap number one along with Eminem’s &lt;a href="https://genius.com/Eminem-lose-yourself-lyrics" rel="noopener" data-api_path="/songs/207"&gt;“Lose Yourself.”&lt;/a&gt; The song’s iconic music video was also the most viewed video on all of YouTube for a short amount of time when it passed PSY’s &lt;a href="https://genius.com/Psy-gangnam-style-lyrics" rel="noopener" data-api_path="/songs/88368"&gt;“Gangnam Style”&lt;/a&gt; in July 2017.&lt;/p&gt;\n\n&lt;p&gt;His first project, &lt;a href="https://genius.com/albums/Charlie-puth/The-otto-tunes" rel="noopener" data-api_path="/albums/333753"&gt;&lt;em&gt;The Otto Tunes,&lt;/em&gt;&lt;/a&gt; was released in 2010, with the title being a play on his middle name, Otto, and autotune. His second release, &lt;a href="https://genius.com/albums/charlie-puth/ego" rel="noopener" data-api_path="/albums/245154"&gt;&lt;em&gt;Ego,&lt;/em&gt;&lt;/a&gt; was also self-produced and dropped in October 2013.&lt;/p&gt;\n\n&lt;p&gt;His major-label debut &lt;a href="https://genius.com/albums/Charlie-puth/Nine-track-mind" rel="noopener" data-api_path="/albums/129375"&gt;&lt;em&gt;Nine Track Mind&lt;/em&gt;&lt;/a&gt; was released January 29, 2016, and lead single &lt;a href="https://genius.com/Charlie-puth-marvin-gaye-lyrics" rel="noopener" data-api_path="/songs/706298"&gt;“Marvin Gaye”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Meghan-trainor" rel="noopener" data-api_path="/artists/201194"&gt;Meghan Trainor&lt;/a&gt; topped the charts in the UK and reached the top twenty-five in the US, peaking at #21. His next single &lt;a href="https://genius.com/Charlie-puth-one-call-away-lyrics" rel="noopener" data-api_path="/songs/2276633"&gt;“One Call Away”&lt;/a&gt; fared even better, hitting #12 in the US and establishing Puth as a full-blown star as opposed to a two-hit wonder. A deluxe edition of the record was released in November 2016.&lt;/p&gt;\n\n&lt;p&gt;The next year saw the release of &lt;a href="https://genius.com/Charlie-puth-attention-lyrics" rel="noopener" data-api_path="/songs/3060662"&gt;“Attention”&lt;/a&gt; and eventually &lt;a href="https://genius.com/albums/Charlie-puth/Voicenotes" rel="noopener" data-api_path="/albums/367901"&gt;&lt;em&gt;Voicenotes,&lt;/em&gt;&lt;/a&gt; Charlie’s second studio album.&lt;/p&gt;\n\n&lt;p&gt;Puth has what is known as &lt;a href="https://www.earmaster.com/wiki/ear-training/perfect-pitch-relative-pitch.html" rel="noopener nofollow"&gt;perfect pitch,&lt;/a&gt; the ability to identify a note by ear. This talent allowed him to &lt;a href="http://www.independent.co.uk/arts-entertainment/music/charlie-puth-interview-being-bullied-for-pitch-perfect-talent-and-selena-gomezs-advice-on-dealing-a6841501.html" rel="noopener nofollow"&gt;step in for a church organist&lt;/a&gt; and played all of the songs that were part of the service from memory.&lt;/p&gt;', 'alternate_names': ['Charlie Otto Puth', 'Charles Otto Puth Jr.']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/A-flock-of-seagulls', 'annotations': {'description': '&lt;p&gt;A Flock of Seagulls are an English new wave band formed by brothers Mike and Ali Score in Liverpool in 1980. They are famous for their international hits “I Ran”, “Space Age Love Song,” “Wishing (If I Had a Photograph of You)” and “The More You Live, the More You Love” – and infamous for the unique hairstyle of frontman Mike Score, which was &lt;a href="http://www.worcestermag.com/2017/04/26/mike-score-still-flying-with-flock-of-seagulls" rel="noopener nofollow"&gt;accidentally created one night&lt;/a&gt; as the band was rushing to get on stage.&lt;/p&gt;\n\n&lt;p&gt;Originally named Level 7, the members were at a Stranglers concert when the singer &lt;a href="http://www.worcestermag.com/2017/04/26/mike-score-still-flying-with-flock-of-seagulls" rel="noopener nofollow"&gt;looked directly at them&lt;/a&gt; and sang the lyric &lt;a href="https://genius.com/15461027" rel="noopener" data-api_path="/referents/15461027"&gt;“a flock of seagulls!”&lt;/a&gt; They took this as a sign to change their name.&lt;/p&gt;\n\n&lt;p&gt;Their 1982 self-titled debut album has been called “a pioneering mixture of angular guitar riffs, skewed melodies and vibrant synths” that found &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=A+Flock+Of+Seagulls&amp;amp;titel=A+Flock+Of+Seagulls&amp;amp;cat=a" rel="noopener nofollow"&gt;international success&lt;/a&gt; including a #10 peak &lt;a href="https://www.billboard.com/music/a-flock-of-seagulls/chart-history/billboard-200" rel="noopener nofollow"&gt;in the US&lt;/a&gt;. The single “I Ran” was a massive hit, reaching the top 10 in four countries and making the top 50 in four others. The follow-up single “Space Age Love Song” was also a success, reaching the top 30 in three countries.&lt;/p&gt;\n\n&lt;p&gt;“Wishing (If I Had A Photograph Of You)”, the lead single of their sophomore album &lt;em&gt;Listen&lt;/em&gt;, reached the top 10 in four countries, their first and only in their homeland &lt;a href="http://www.officialcharts.com/artist/19502/a-flock-of-seagulls/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;. The next two singles performed well &lt;a href="http://www.officialcharts.com/artist/19502/a-flock-of-seagulls/" rel="noopener nofollow"&gt;in the UK&lt;/a&gt; but had sporadic success elsewhere.&lt;/p&gt;\n\n&lt;p&gt;A third album &lt;em&gt;The Story of a Young Heart&lt;/em&gt; spawned the band’s final hit “The More You Live, The More You Love”, performing admirably in six countries. Their fourth album &lt;em&gt;Dream Come True&lt;/em&gt; made no impact outside of the UK in 1986. The band broke up later that year when the Score brothers &lt;a href="https://www.axs.com/whatever-happened-to-a-flock-of-seagulls-112566" rel="noopener nofollow"&gt;had a falling out&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Mike Score revived the band a couple years later on his own, moving to Philedelphia and &lt;a href="https://yeahthatstheticket.wordpress.com/2015/08/29/1988-11-18-a-flock-of-seagulls/" rel="noopener nofollow"&gt;recruiting local musicians&lt;/a&gt;. But both a 1989 single and a 1995 album &lt;em&gt;The Light at the End of the World&lt;/em&gt; did not chart internationally.&lt;/p&gt;\n\n&lt;p&gt;In 2003 the band &lt;a href="https://www.rollingstone.com/music/music-lists/where-are-they-now-1982s-biggest-pop-acts-20600/a-flock-of-seagulls-65603/" rel="noopener nofollow"&gt;briefly reunited&lt;/a&gt; for a one-off performance on the VH1 series &lt;em&gt;Bands Reunited&lt;/em&gt;, followed by a brief tour of the US, but frontman Mike Score &lt;a href="https://www.billboard.com/articles/columns/rock/8457384/a-flock-of-seagulls-reunion-new-album-interview" rel="noopener nofollow"&gt;later shared&lt;/a&gt; “that didn’t work out well for me”. However in 2017, August Day Records approached him to reunite the band again to re-record their songs with an orchestra. He agreed and the four original members were assembled to create &lt;em&gt;Ascension&lt;/em&gt; in 2018, re-recordings of their earlier songs with accompaniment by the Prague Philharmonic Orchestra. A second orchestral album &lt;em&gt;String Theory&lt;/em&gt; &lt;a href="https://www.iconvsicon.com/2021/06/28/a-flock-of-seagulls-return-with-say-you-love-me-single-from-their-new-album-string-theory/" rel="noopener nofollow"&gt;arrived in 2021&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Seeb', 'annotations': {'description': '&lt;p&gt;Seeb is a Norwegian EDM production duo from Oslo, Norway, comprised of &lt;a href="https://genius.com/artists/Simen-eriksrud" rel="noopener" data-api_path="/artists/993370"&gt;Simen Eriksrud&lt;/a&gt; and &lt;a href="https://genius.com/artists/Espen-berg" rel="noopener" data-api_path="/artists/1055228"&gt;Espen Berg&lt;/a&gt;. The name ‘Seeb’ comes from the initials of the first and last names of the duo respectively.&lt;/p&gt;\n\n&lt;p&gt;The duo’s breakthrough came in 2015 with their remix of Mike Posner’s, &lt;a href="https://genius.com/Mike-posner-i-took-a-pill-in-ibiza-seeb-remix-lyrics" rel="noopener" data-api_path="/songs/2435615"&gt;“I Took A Pill In Ibiza,”&lt;/a&gt; which received high acclaim worldwide, reaching number one in the UK, Norway, and the Netherlands. They followed this up in 2016 with the release of their debut EP, &lt;a href="https://genius.com/albums/Seeb/Intro-to-seeb-ep" rel="noopener" data-api_path="/albums/660279"&gt;&lt;em&gt;Intro to Seeb&lt;/em&gt;&lt;/a&gt;, comprised of two singles and four remixes produced by the duo.&lt;/p&gt;\n\n&lt;p&gt;In 2017, the duo released their biggest collaboration yet, &lt;a href="https://genius.com/Onerepublic-and-seeb-rich-love-lyrics" rel="noopener" data-api_path="/songs/3155565"&gt;“Rich Love”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Onerepublic" rel="noopener" data-api_path="/artists/934"&gt;OneRepublic&lt;/a&gt; before releasing their second EP, &lt;a href="https://genius.com/albums/Seeb/Nice-to-meet-you" rel="noopener" data-api_path="/albums/421642"&gt;&lt;em&gt;Nice to Meet You&lt;/em&gt;&lt;/a&gt; in 2018, featuring six original songs produced by the duo.&lt;/p&gt;\n\n&lt;p&gt;They continued their success into 2019 releasing more singles and collaborating with a range of artists such as &lt;a href="https://genius.com/artists/Highasakite" rel="noopener" data-api_path="/artists/235814"&gt;Highasakite&lt;/a&gt; on &lt;a href="https://genius.com/Seeb-and-highasakite-free-to-go-lyrics" rel="noopener" data-api_path="/songs/4464424"&gt;“Free To Go”&lt;/a&gt; and &lt;a href="https://genius.com/artists/Justin-jesso" rel="noopener" data-api_path="/artists/1220431"&gt;Justin Jesso&lt;/a&gt; on &lt;a href="https://genius.com/Justin-jesso-and-seeb-bigger-than-lyrics" rel="noopener" data-api_path="/songs/5021730"&gt;“Bigger Than,”&lt;/a&gt; which saw them win the &lt;a href="https://spellemann.no/detalj/8071" rel="noopener nofollow"&gt;Spellemanprisen Pop Group of the Year Award&lt;/a&gt; for 2019. In 2020, they released their debut album, &lt;a href="https://genius.com/albums/Seeb/Sad-in-scandinavia" rel="noopener" data-api_path="/albums/643895"&gt;&lt;em&gt;Sad in Scandinavia&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Everything-but-the-girl', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.genius.com/9b2a35be2e15fab3ed53f7c328e07795.620x387x1.jpg" alt="" width="620" height="387" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Originating at the turn of the 1980s as a leader of the lite-jazz movement, Everything but the Girl became an unlikely success story more than a decade later, emerging at the vanguard of the fusion between pop and electronica.&lt;/p&gt;\n\n&lt;p&gt;Founded in 1982 by Hull University students Tracey Thorn  and Ben Watt, the duo took their name from a sign placed in the window of a local furniture shop, which claimed “for your bedroom needs, we sell everything but the girl.” At the time of their formation, both vocalist Thorn and songwriter/multi-instrumentalist Watt were already signed independently to the Cherry Red label; Thorn was a member of the sublime Marine Girls, while Watt had issued several solo singles and also collaborated with Robert Wyatt.&lt;/p&gt;\n\n&lt;p&gt;Everything but the Girl debuted in 1982 with a samba interpretation of Cole Porter’s “Night and Day”; the single was a success on the U.K. independent charts, but the duo nonetheless went on hiatus as Thorn recorded a solo EP, A Distant Shore, while Watt checked in with the full-length North Marine Drive in 1983. EBTG soon reunited to record a cover of the Jam’s “English Rose” for an NME sampler; the track so impressed former Jam frontman Paul Weller that he invited the duo to contribute to the 1984 LP Cafe Bleu, the debut from his new project, the Style Council.&lt;/p&gt;\n\n&lt;p&gt;Everything but the Girl’s own beguiling 1984 debut, Eden, followed on the heels of the single “Each and Every One,” a U.K. Top 40 hit. The jazz-pop confections of the group’s early work gave way to shimmering jangle rock by the time of 1985’s Love Not Money, while a subtle country influence crept into the mix for 1986’s lush, orchestral Baby, the Stars Shine Bright. The beautifully spare Idlewild followed in 1988, spawning the single “I Don’t Want to Talk About It,” a poignant cover of a song by the late Crazy Horse guitarist Danny Whitten which became EBTG’s biggest hit to date, landing at the number three spot on the British charts.&lt;/p&gt;\n\n&lt;p&gt;Watt and Thorn traveled to Los Angeles to record 1990’s slick, commercial The Language of Life, produced by Tommy LiPuma and featuring a guest appearance by jazz great Stan Getz. After a return to pop textures with 1991’s Worldwide, Everything but the Girl mounted a series of club performances which resulted in 1992’s Acoustic, a spartan set of covers (including Elvis Costello’s “Alison,” Bruce Springsteen’s “Tougher Than the Rest,” and Mickey &amp;amp; Sylvia’s “Love Is Strange”) which presaged the coming ascendancy of the “Unplugged” concept. In the wake of the record’s release, Watt fell prey to Churg-Strauss Syndrome, a rare auto-immune system disease which brought him to the brink of death; after a year in recovery, he wrote several new songs which the duo recorded for inclusion on Home Movies, a 1993 hits collection.&lt;/p&gt;\n\n&lt;p&gt;In 1994, EBTG collaborated with trip-hop innovators Massive Attack on their LP Protection; Thorn’s vocal turn highlighted the hit title track, and the cinematic Massive Attack sound clearly informed Everything but the Girl’s own 1994 effort, Amplified Heart, another strong and eclectic outing featuring an appearance by guitar great Richard Thompson. In 1995 the soulful single “Missing” was innovatively remixed by Todd Terry, and after first becoming a club sensation the track blossomed as a major international hit, reaching the number two position on the U.S. pop charts. More importantly, Terry’s remix, combined with the lessons of the Massive Attack sessions, launched the duo into an entirely new – and equally satisfying – musical direction: with 1996’s brilliant Walking Wounded, Everything but the Girl dove headfirst into electronica, crafting sophisticated, assured excursions into trip-hop and drum\'n\'bass. In 1999, the duo reappeared with Temperamental. Back to Mine was issued by Ultra in spring 2001.&lt;/p&gt;\n\n&lt;p&gt;~ Jason Ankeny, Rovi&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rob-zombie', 'annotations': {'description': '&lt;p&gt;Rob Zombie (born Robert Bartleh Cummings; January 12, 1965) is an American musician, film director, screenwriter and film producer. Zombie rose to fame as a founding member of the heavy metal band &lt;a href="https://genius.com/artists/White-zombie" rel="noopener" data-api_path="/artists/165622"&gt;White Zombie&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Robert Zombie', 'Robert W. Zombie', 'Robert Wolfgang Zombie', 'Robert Cummings', 'Robert B. Cummings', 'Robert Bartleh Cummings']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Lauren-bennett', 'annotations': {'description': '&lt;p&gt;Lauren Bennett (born June 23, 1989) is an English singer, dancer and model.&lt;br&gt;\nShe was a member of the girl groups Paradiso Girls and G.R.L.&lt;/p&gt;\n\n&lt;p&gt;Actually she runs a band called &lt;a href="https://genius.com/artists/Bennett" rel="noopener" data-api_path="/artists/1474216"&gt;&lt;em&gt;BENNETT&lt;/em&gt;&lt;/a&gt; along her brother Ryan Bennett.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Marshmello-and-anne-marie', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Marshmello" rel="noopener" data-api_path="/artists/582361"&gt;Marshmello&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/artists/Anne-marie" rel="noopener" data-api_path="/artists/296675"&gt;Anne-Marie&lt;/a&gt; is truly a dynamic duo with their collaboration  &lt;a href="https://genius.com/Marshmello-and-anne-marie-friends-lyrics" rel="noopener" data-api_path="/songs/3348299"&gt;“FRIENDS”&lt;/a&gt; landing a #4 spot on &lt;a href="https://spotifycharts.com/regional" rel="noopener nofollow"&gt;Spotify’s Global Top 50&lt;/a&gt; list. Marshmello is an American electronic dance music producer and DJ.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Spice-girls', 'annotations': {'description': '&lt;p&gt;Spice Girls are an all-girl group that dominated the international pop charts in the ‘90s. After they dropped their debut album &lt;a href="https://genius.com/albums/Spice-girls/Spice" rel="noopener" data-api_path="/albums/21802"&gt;&lt;em&gt;Spice&lt;/em&gt;&lt;/a&gt; in 1996, they became a global pop phenomenon, often compared to the Beatles. The group was made up of five members:&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Mel-b" rel="noopener" data-api_path="/artists/351972"&gt;Mel B&lt;/a&gt; – Scary Spice,&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Melanie-c" rel="noopener" data-api_path="/artists/8584"&gt;Mel C&lt;/a&gt; – Sporty Spice,&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Victoria-beckham" rel="noopener" data-api_path="/artists/51099"&gt;Victoria&lt;/a&gt; – Posh Spice,&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Emma-bunton" rel="noopener" data-api_path="/artists/8316"&gt;Emma&lt;/a&gt; – Baby Spice,&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Geri-halliwell" rel="noopener" data-api_path="/artists/364273"&gt;Geri&lt;/a&gt; – Ginger Spice.&lt;/p&gt;\n\n&lt;p&gt;The group formed in 1994 after Heart Management put an ad in &lt;em&gt;The Stage&lt;/em&gt; magazine that &lt;a href="http://www.rollingstone.com/music/news/spice-girls-too-hot-to-handle-19970710#ixzz4AYP3UkDc" rel="noopener nofollow"&gt;read&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;R.U. 18-23 with the ability to sing/dance. R.U. streetwise, outgoing, ambitious and dedicated?&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The entire group attended the audition after reading the ad, except Geri and Emma (Emma replaced a short-lived member – Michelle Stephenson – fired from the group, and Geri missed the first audition). The band released their first single &lt;a href="https://genius.com/Spice-girls-wannabe-lyrics" rel="noopener" data-api_path="/songs/89740"&gt;“Wannabe”&lt;/a&gt; in 1996 and they quickly became a global phenomenon.&lt;/p&gt;\n\n&lt;p&gt;The group disintegrated by the end of the decade after releasing their third and final album &lt;em&gt;Forever,&lt;/em&gt; which was received with lukewarm reviews. Though they have reunited for &lt;a href="http://www.thesun.co.uk/sol/homepage/showbiz/bizarre/6577927/Spice-Girls-reuniting-for-20th-anniversary-tour.html" rel="noopener nofollow"&gt;multiple tours&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Traveling-wilburys', 'annotations': {'description': '&lt;p&gt;The Traveling Wilburys were a supergroup formed by &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt;, &lt;a href="https://genius.com/artists/George-harrison" rel="noopener" data-api_path="/artists/33327"&gt;George Harrison&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jeff-lynne" rel="noopener" data-api_path="/artists/34990"&gt;Jeff Lynne&lt;/a&gt;, &lt;a href="https://genius.com/artists/Roy-orbison" rel="noopener" data-api_path="/artists/47372"&gt;Roy Orbison&lt;/a&gt; (who passed away between the first and second album), and Tom Petty. On the album, the members were credited as brothers in the fictional Wilbury family, though they changed their pseudonyms after their first album.&lt;/p&gt;\n\n&lt;p&gt;The name itself is an inside joke: When faced with minor recording errors during his 1987 &lt;em&gt;Cloud Nine&lt;/em&gt; sessions, Harrison would joke to co-writer/producer Lynne “we’ll bury ‘em in the mix”, soon referring to such problems as “will-bury’s”. The suggested band name “Trembling Wilburys” was changed at Lynne’s suggestion to “Traveling Wilburys”.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.cheatsheet.com/entertainment/george-harrison-named-traveling-wilburys-slang-term-used-recording-studio.html/?fbclid=IwAR1RQJqaJsnAS4NtpfkmUwg3jlisqwCpBo8w43mDRBf37UPjkTIu5JRyXcQ" rel="noopener nofollow"&gt;genesis of the band&lt;/a&gt; was Harrison’s record label asking him for an additional song to use as a bonus track on the European “This Is Love” single from &lt;em&gt;Cloud Nine&lt;/em&gt;. While Harrison and Lynne were having dinner with Orbison, he asked to join their recording session and watch. Harrison contacted Dylan to ask if they could use his home studio in Malibu, California. Then Harrison stopped by Petty’s house to get his guitar, and he joined the session as well. The outcome of that session was “Handle With Care” – a song &lt;a href="http://www.jefflynnesongs.com/popup.php?data=HandleWithCare198810_popupplus" rel="noopener nofollow"&gt;deemed&lt;/a&gt; “too good” to be used as an obscure b-side.&lt;/p&gt;\n\n&lt;p&gt;The group released two albums, Vol. 1 and Vol. 3. Vol. 1 netted them a Grammy award for the Best Rock Performance by a Duo or Group and two international hits with “Handle With Care” and “End Of Line” (though in the US, they were minor hits).&lt;/p&gt;\n\n&lt;p&gt;Documentary:&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/SUQ_gj-biIc?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Of-monsters-and-men', 'annotations': {'description': '&lt;p&gt;Of Monsters and Men is an Icelandic folk band from Keflavík, Iceland, formed in 2010. The band consists of lead singers and guitarists &lt;a href="https://genius.com/artists/Nanna-bryndis-hilmarsdottir" rel="noopener" data-api_path="/artists/102029"&gt;Nanna Bryndís Hilmarsdóttir&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ragnar-orhallsson" rel="noopener" data-api_path="/artists/393570"&gt;Ragnar “Raggi” Þórhallsson,&lt;/a&gt; guitarist &lt;a href="https://genius.com/artists/Brynjar-leifsson" rel="noopener" data-api_path="/artists/685038"&gt;Brynjar Leifsson&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Arnar-rosenkranz-hilmarsson" rel="noopener" data-api_path="/artists/393569"&gt;Arnar Rósenkranz Hilmarsson&lt;/a&gt; and bassist &lt;a href="https://genius.com/artists/Kristjan-pall-kristjansson" rel="noopener" data-api_path="/artists/1053642"&gt;Kristján Páll Kristjánsson&lt;/a&gt;. Their debut album, &lt;a href="https://genius.com/albums/Of-monsters-and-men/My-head-is-an-animal" rel="noopener" data-api_path="/albums/688607"&gt;&lt;em&gt;My Head Is An Animal&lt;/em&gt;&lt;/a&gt;, first released in 2011, and its lead single, &lt;a href="https://genius.com/Of-monsters-and-men-little-talks-lyrics" rel="noopener" data-api_path="/songs/68718"&gt;“Little Talks”&lt;/a&gt; were successful worldwide. In 2015, their sophomore album, &lt;a href="https://genius.com/albums/Of-monsters-and-men/Beneath-the-skin" rel="noopener" data-api_path="/albums/121632"&gt;&lt;em&gt;Beneath the Skin&lt;/em&gt;&lt;/a&gt; was released to generally positive reviews and is the band’s highest charting album, reaching #3 on Billboard’s Top 200.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Men-without-hats', 'annotations': {'description': '&lt;p&gt;Canadian new wave group from Montréal, Québec, formed in 1980 and initially active until 1993. They reformed in 2010.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Matthew-wilder', 'annotations': {'description': '&lt;p&gt;Matthew Wilder is an American musician, composer and record producer. In 1983, he had a Top 5 hit titled “&lt;a href="https://genius.com/Matthew-wilder-break-my-stride-lyrics" rel="noopener" data-api_path="/songs/2019574"&gt;Break My Stride&lt;/a&gt;”. He is also known for his film and production work, producing albums such as No Doubt’s &lt;em&gt;Tragic Kingdom&lt;/em&gt; and contributing to the music in Disney’s 1998 film &lt;em&gt;Mulan&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Vampire-weekend', 'annotations': {'description': '&lt;p&gt;Vampire Weekend is an American indie rock band known for their complex lyrics and unorthodox production. Consisting of &lt;a href="https://genius.com/artists/Ezra-koenig" rel="noopener" data-api_path="/artists/44145"&gt;Ezra Koenig&lt;/a&gt;, &lt;a href="https://genius.com/artists/Baio" rel="noopener" data-api_path="/artists/547647"&gt;Chris Baio&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Chris-tomson" rel="noopener" data-api_path="/artists/642694"&gt;Chris Tomson&lt;/a&gt;, they have released four albums: &lt;a href="https://genius.com/albums/Vampire-weekend/Vampire-weekend" rel="noopener" data-api_path="/albums/11626"&gt;&lt;em&gt;Vampire Weekend&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Vampire-weekend/Contra" rel="noopener" data-api_path="/albums/11705"&gt;&lt;em&gt;Contra&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Vampire-weekend/Modern-vampires-of-the-city" rel="noopener" data-api_path="/albums/30135"&gt;&lt;em&gt;Modern Vampires of the City&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/Vampire-weekend/Father-of-the-bride" rel="noopener" data-api_path="/albums/438579"&gt;&lt;em&gt;Father of the Bride&lt;/em&gt;&lt;/a&gt;, which was originally known under the working title &lt;em&gt;Mitsubishi Macchiato&lt;/em&gt;. The latter two debuted at number one on the &lt;em&gt;Billboard&lt;/em&gt; 200, making them the first previously unknown independently signed to do so.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Rostam" rel="noopener" data-api_path="/artists/491040"&gt;Rostam Batmanglij&lt;/a&gt; was a member (mainly working on production and synths throughout his time) until January 2016, when he left to pursue solo projects. However, he contributed to their fourth album, Father of the Bride, which released in the Spring of 2019.&lt;/p&gt;\n\n&lt;p&gt;The band got their name the summer before Koenig’s sophmore year of college. He wanted to make an East Coast version of the 80s vampire film &lt;a href="https://www.imdb.com/title/tt0093437/" rel="noopener nofollow"&gt;&lt;em&gt;The Lost Boys&lt;/em&gt;&lt;/a&gt; and titled his version &lt;em&gt;Vampire Weekend&lt;/em&gt;. They originally considered calling themselves Weekend, but there was another band with that name. It was probably in reference to the Godard film &lt;a href="https://www.imdb.com/title/tt0062480/" rel="noopener nofollow"&gt;&lt;em&gt;Week-End&lt;/em&gt;&lt;/a&gt;, which is about dissolute youth revolutionaries in the 1968 tumult in France. &lt;a href="http://www.wunderkammermag.com/music-reviews/vampire-weekend-contra" rel="noopener nofollow"&gt;They allude to the film both in the “Mansard Roof” and “Oxford Comma” videos.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;With the release of &lt;em&gt;Modern Vampires of the City&lt;/em&gt;, Vampire Weekend has likened their first three albums to a trilogy. Koenig &lt;a href="http://www.nytimes.com/2013/05/12/arts/music/vampire-weekends-evolution-in-modern-vampires-of-the-city.html?pagewanted=all" rel="noopener nofollow"&gt;told Jon Pareles of the &lt;em&gt;New York Times&lt;/em&gt;&lt;/a&gt; as much in May 2013:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It reminded me of &lt;em&gt;Brideshead Revisited&lt;/em&gt;. The naïve joyous school days in the beginning. Then the expansion of the world, travel, seeing other places, learning a little bit more about how people live. And then the end is a little bit of growing up, starting to think more seriously about your life and your faith. If people could look at our three albums as a bildungsroman, I’d be O.K. with that.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Flavorwire has compiled a map similar to our &lt;a href="http://www.genius.com/rapmap" rel="noopener" data-api_path="/users/956434"&gt;Rap Map&lt;/a&gt; of &lt;a href="http://flavorwire.com/390035/an-interactive-map-of-vampire-weekends-many-geographical-references" rel="noopener nofollow"&gt;every location mentioned in Vampire Weekend songs.&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Gin-blossoms', 'annotations': {'description': '&lt;p&gt;Gin Blossoms is an American rock band formed in 1987 in Tempe, Arizona. They rose to prominence following the 1992 release of their first major label album, New Miserable Experience, and the first single released from that album, “Hey Jealousy”. “Hey Jealousy” became a Top 25 hit and went gold, and New Miserable Experience eventually went quadruple platinum; four other charting singles were released from the album. The band’s follow-up album, Congratulations I’m Sorry (1996), went platinum and the single “As Long as It Matters” was nominated for a Grammy Award. Gin Blossoms broke up in 1997. Since reuniting in 2001, the band has released Major Lodge Victory in 2006, No Chocolate Cake in 2010, and Mixed Reality in 2018.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/50_Cent', 'artist_name': '50 Cent', 'wiki': 'http://en.wikipedia.org/wiki/50_Cent', 'birth_date': '06 July 1975', 'start_year': '1996', 'abstract': 'Curtis James Jackson III (born July 6, 1975), known professionally as 50 Cent, is an American rapper, actor, and entrepreneur. Known for his impact in the hip hop industry, he has been described as a "master of the nuanced art of lyrical brevity". Born in the South Jamaica neighborhood of Queens, Jackson began selling drugs at age 12 during the 1980s crack epidemic. He later began pursuing a musical career and in 2000 he produced Power of the Dollar for Columbia Records, but days before the planned release he was shot and the album was never released. In 2002, after 50 Cent released the compilation album Guess Who\'s Back?, he was discovered by Eminem and signed to Shady Records, under the aegis of Dr. Dre\'s Aftermath Entertainment and Interscope Records. With the aid of Eminem and Dr. Dre (who produced his first major-label album Get Rich or Die Tryin\'), 50 Cent became one of the world\'s best selling rappers and rose to prominence as de facto leader of East Coast hip hop group G-Unit. In 2003, he founded G-Unit Records, signing his G-Unit associates Young Buck, Lloyd Banks and Tony Yayo. 50 Cent had similar commercial and critical success with his second album, The Massacre, which was released in 2005. He underwent musical changes by his fifth album, Animal Ambition (2014), and is currently working on his sixth studio album. He executive-produced and starred in the television series Power (2014–2020) and is slated to produce its spin-offs. 50 Cent has sold over 30 million albums worldwide and won several awards, including a Grammy Award, thirteen Billboard Music Awards, six World Music Awards, three American Music Awards and four BET Awards. As an actor, Jackson appeared in the semi-autobiographical film Get Rich or Die Tryin\' (2005), the war film Home of the Brave (2006), and the crime thriller film Righteous Kill (2008). 50 Cent was ranked the sixth-best artist of the 2000s and the third-best rapper (behind Eminem and Nelly) by Billboard. Rolling Stone ranked Get Rich or Die Tryin\' and "In da Club" in its lists of the "100 Best Albums of the 2000s" and "100 Best Songs of the 2000s" at numbers 37 and 13, respectively.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Stone_Sour', 'artist_name': 'Stone Sour', 'wiki': 'http://en.wikipedia.org/wiki/Stone_Sour', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'start_year': '1992', 'end_year': '1997', 'abstract': 'Stone Sour is an American rock band formed in Des Moines, Iowa, in 1992. The band performed for five years before disbanding in 1997. They reunited in 2000 and since 2015, the group has consisted of Corey Taylor (lead vocals, guitar), Josh Rand (guitar), Christian Martucci (guitar), Johny Chow (bass) and Roy Mayorga (drums). Longtime members Joel Ekman (drums, percussion) and Shawn Economaki (bass guitar) left the band in 2006 and 2011, respectively. Former lead guitarist Jim Root left in 2014. To date, Stone Sour has released six studio albums: Stone Sour (2002); Come What(ever) May (2006); Audio Secrecy (2010); House of Gold &amp; Bones – Part 1 (2012); House of Gold &amp; Bones – Part 2 (2013) and Hydrograd (2017). They also released a digital live album, Live in Moscow, in 2007. Their album, Hydrograd was released in June 2017 and is their first album to feature guitarist Christian Martucci and bassist Johny Chow. Stone Sour earned the group two Grammy Award nominations, both for Best Metal Performance, for the singles "Get Inside", in 2003, and "Inhale", in 2004. From their album Come What(ever) May, the group received another Grammy Award nomination for Best Metal Performance for the single "30/30-150", in 2007. The band has sold 2.1 million albums in the United States as of April 2017.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Robert_Miles', 'artist_name': 'Robert Miles', 'wiki': 'http://en.wikipedia.org/wiki/Robert_Miles', 'hometown': 'http://dbpedia.org/resource/Friuli', 'birth_date': '03 November 1969', 'death_date': '09 May 2017', 'start_year': '1984', 'end_year': '2017', 'abstract': 'Roberto Concina (3 November 1969 – 9 May 2017), known professionally as Robert Miles, was an Italian record producer, composer, musician and DJ. His 1995 composition "Children" sold more than 5 million copies and topped the charts worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Simple_Plan', 'artist_name': 'Simple Plan', 'wiki': 'http://en.wikipedia.org/wiki/Simple_Plan', 'hometown': 'http://dbpedia.org/resource/Montreal', 'start_year': '1999', 'abstract': "Simple Plan is a Canadian rock band from Montreal, Quebec formed in 1999. The band's lineup consists of Pierre Bouvier (lead vocals and bass), Chuck Comeau (drums), Jeff Stinco (lead guitar), and Sébastien Lefebvre (rhythm guitar, backing vocals), with all four performing with the group since its inception. David Desrosiers (bass and backing vocals) joined the band in early 2000 and departed in July 2020 due to sexual misconduct accusations. The band has released five studio albums: No Pads, No Helmets...Just Balls (2002), Still Not Getting Any... (2004), Simple Plan (2008), Get Your Heart On! (2011), and Taking One for the Team (2016). The band has also released an EP titled Get Your Heart On – The Second Coming! (2013), in addition to two live albums: Live in Japan 2002 (2003) and MTV Hard Rock Live (2005). The band performed at the Vans Warped Tour every year from 1999 to 2005, and in 2011, 2013, 2015, and 2018. The band also performed at the 2010 Winter Olympics closing ceremony, along with The X Factor Australia. In December 2012, the band performed at Mood Indigo, the college festival of IIT Bombay in Mumbai, India. In 2004, the band participated in the movie New York Minute, starring the Olsen twins, Mary-Kate and Ashley. Simple Plan also performed O Canada at the 2016 NHL Winter Classic. They also performed the theme music for and were featured on an episode of What's New, Scooby-Doo?."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Gnarls_Barkley', 'artist_name': 'Gnarls Barkley', 'wiki': 'http://en.wikipedia.org/wiki/Gnarls_Barkley', 'hometown': 'http://dbpedia.org/resource/Atlanta', 'start_year': '2003', 'end_year': '2010', 'abstract': 'Gnarls Barkley is an American soul duo, composed of singer-songwriter CeeLo Green and producer Danger Mouse. They released their debut studio album, St. Elsewhere, in 2006. It contained their hit single "Crazy", which peaked at number two on the US Hot 100 and topped the UK Singles Chart. It was nominated at the 2007 Grammy Awards for Record of the Year, and was platinum certified for shipping over 1,000,000 records. St. Elsewhere also received a nomination for Album of the Year. The Odd Couple, their second studio album, was scheduled for release in April 2008, but due to a leak of the album over the internet, they decided to release it early. The album in its entirety received good reviews, but it did not have as much commercial success as their first album.'}</t>
+    <t>{'url': 'https://genius.com/artists/The-kid-laroi', 'annotations': {'description': '&lt;p&gt;Charlton Kenneth-Jeffery Howard (b. August 17, 2003), better known as The Kid Laroi (stylized as The Kid LAROI), is an Australian rapper/singer hailing from South Sydney.&lt;/p&gt;\n\n&lt;p&gt;Originally from the Redfern/Waterloo area, The Kid Laroi’s precocious talent impressed the Australian underground hip-hop scene. His first demo &lt;a href="https://genius.com/The-kid-laroi-disconnect-demo-lyrics" rel="noopener" data-api_path="/songs/3882778"&gt;“Disconnect”&lt;/a&gt; was &lt;a href="http://www.abc.net.au/triplej/programs/triplej-breakfast/ue-high-finalist-the-kid-laroi/10077264" rel="noopener nofollow"&gt;even selected as a &lt;em&gt;Triple J&lt;/em&gt; Unearthed High 2018 finalist&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He soon caught the attention of American rappers &lt;a href="https://genius.com/artists/lil-skies" rel="noopener" data-api_path="/artists/1015007"&gt;Lil Skies&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Juice-wrld" rel="noopener" data-api_path="/artists/1237094"&gt;Juice WRLD&lt;/a&gt;. In early January 2019, Laroi toured with Juice WRLD during his Australian tour. It was announced shortly after the tour with Juice that he would also be the supporting act of &lt;a href="https://genius.com/artists/denzel-curry" rel="noopener" data-api_path="/artists/16690"&gt;Denzel Curry&lt;/a&gt;’s Sydney concert. This opened up more opportunities, including a career-changing slot at &lt;em&gt;Rolling Loud&lt;/em&gt; 2019 for the then 16 year old.&lt;/p&gt;\n\n&lt;p&gt;Laroi soon relocated to the US, utilising a strong social media presence to build a rapidly growing fanbase. In June 2020, Laroi and late mentor Juice WRLD released their long-awaited collaboration titled &lt;a href="https://genius.com/The-kid-laroi-and-juice-wrld-go-lyrics" rel="noopener" data-api_path="/songs/5288212"&gt;“GO,“&lt;/a&gt; which &lt;a href="https://www.billboard.com/music/juice-wrld/chart-history/HSI/song/1208449" rel="noopener nofollow"&gt;peaked at #52&lt;/a&gt; on the &lt;em&gt;Billboard&lt;/em&gt; charts.&lt;/p&gt;\n\n&lt;p&gt;Laroi released his debut studio mixtape, &lt;a href="https://genius.com/albums/The-kid-laroi/F-ck-love" rel="noopener" data-api_path="/albums/599735"&gt;&lt;em&gt;F*CK LOVE&lt;/em&gt;&lt;/a&gt;, on July 24, 2020. The mixtape showed a young artist experimenting with different musical styles resembling more of a melodic blend of pop and emo rap, as he sang and rapped on issues of love and broken hearts.&lt;/p&gt;\n\n&lt;p&gt;In November 2020, Laroi released a deluxe version of this mixtape, titled &lt;a href="https://genius.com/albums/The-kid-laroi/F-ck-love-savage" rel="noopener" data-api_path="/albums/672580"&gt;&lt;i&gt;F*CK LOVE (SAVAGE)&lt;/i&gt;&lt;/a&gt;. The project was led by the hit track &lt;a href="https://genius.com/The-kid-laroi-so-done-lyrics" rel="noopener" data-api_path="/songs/5289231"&gt;“SO DONE”&lt;/a&gt; and ultimately saw five of its seven tracks reach the &lt;em&gt;Billboard Hot 100&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;For the majority of this time, Laroi had been signed to &lt;a href="https://genius.com/artists/lil-bibby" rel="noopener" data-api_path="/artists/33238"&gt;Lil Bibby&lt;/a&gt; management &lt;a href="https://genius.com/artists/Grade-a-productions" rel="noopener" data-api_path="/artists/669837"&gt;Grade A Productions&lt;/a&gt; and Columbia Records/Sony Music Australia. In June 2021, it was announced that Laroi would be managed by &lt;a href="https://www.nme.com/en_au/news/music/the-kid-laroi-joins-scooter-braun-projects-management-roster-2956308" rel="noopener nofollow"&gt;none other than Scooter Braun&lt;/a&gt;, famous for managing &lt;a href="https://genius.com/artists/justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt; and &lt;a href="https://genius.com/artists/ariana-grande" rel="noopener" data-api_path="/artists/26507"&gt;Ariana Grande&lt;/a&gt; amongst others.&lt;/p&gt;\n\n&lt;p&gt;In July 2021, Laroi released another deluxe version of his mixtape titled &lt;a href="https://genius.com/albums/The-kid-laroi/F-ck-love-3-over-you" rel="noopener" data-api_path="/albums/695020"&gt;&lt;em&gt;F&lt;/em&gt;CK LOVE 3: Over You*&lt;/a&gt;. The mixtape featured a star-studded features list including Justin Bieber, Machine Gun Kelly and Polo G. The mixtape debuted at #1 on the Billboard Global 200, making Laroi the &lt;a href="https://www.abc.net.au/triplej/news/musicnews/the-kid-laroi-1-billboard-200-us-chart-records-f*ck-love/13479922" rel="noopener nofollow"&gt;youngest artist to make #1 since Billie Eilish in 2019&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Laroi’s debut album is expected to drop in late 2021/early 2022.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;Howard’s moniker ‘Laroi’ is derived from his Indigenous Australian roots, namely the &lt;a href="https://en.wikipedia.org/wiki/Gamilaraay" rel="noopener nofollow"&gt;Gamilaraay/Gomeroi/Kamilaroi/Gamilaroi&lt;/a&gt; people of northern inland New South Wales. They are one of the four largest Indigenous nations in Australia.&lt;/p&gt;\n\n&lt;p&gt;The name is formed from “gamil”, meaning “no”, and the suffix -(b)araay, bearing the sense of “having”. It is a common practice among Australian tribes to have themselves identified according to their respective words for “no”. Unfortunately, the spoken language is considered to have died out by the 1950s, although anthropological research seeks to piece it together once more.&lt;/p&gt;', 'alternate_names': ['Charlton Kenneth-Jeffery Howard', 'Charlton Howard', 'Laroi']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-fratellis', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/The-fratellis" rel="noopener" data-api_path="/artists/23288"&gt;The Fratellis&lt;/a&gt; is a three-part Scottish rock band from Glasgow who formed in 2005. The band name originated from the crime family from the famous movie, “&lt;a href="https://en.wikipedia.org/wiki/The_Goonies#Plot" rel="noopener nofollow"&gt;The Goonies&lt;/a&gt;”. When translated from Italian—Fratelli means brother—indicating that they are brothers despite having no blood-relation.&lt;/p&gt;\n\n&lt;p&gt;The trio released their first EP (&lt;a href="https://en.wikipedia.org/wiki/The_Fratellis_%28EP" rel="noopener nofollow"&gt;The Fratellis EP&lt;/a&gt;), the EP featured one of their most popular songs to date, “&lt;a href="https://genius.com/The-fratellis-creepin-up-the-backstairs-lyrics" rel="noopener" data-api_path="/songs/1270557"&gt;Creepin’ Up The Backstairs&lt;/a&gt;”. The EP eventually led to their first big break when &lt;a href="https://genius.com/The-fratellis-creepin-up-the-backstairs-lyrics" rel="noopener" data-api_path="/songs/1270557"&gt;Jim Gellatly&lt;/a&gt; had heard the EP he immediately invited them to perform a few songs on his &lt;a href="http://www.beatscene.net/" rel="noopener nofollow"&gt;Beatscene show&lt;/a&gt; (which aired on &lt;a href="http://www.capitalfm.com/scotland/" rel="noopener nofollow"&gt;Galaxy Scotland&lt;/a&gt;).&lt;/p&gt;\n\n&lt;p&gt;Once the radio show had gone public &lt;a href="http://www.falloutrecords.com/" rel="noopener nofollow"&gt;Fallout Records&lt;/a&gt; quickly snapped The Fratellis up. Quickly resulting in their debut album, and their most prevalent album to date; &lt;a href="https://genius.com/albums/The-fratellis/Costello-music" rel="noopener" data-api_path="/albums/19783"&gt;Costello Music&lt;/a&gt;. This album catapulted the band into success winning &lt;a href="http://www.brits.co.uk/history/shows/2007#" rel="noopener nofollow"&gt;Brit Award for British Breakthrough Act&lt;/a&gt; in 2007. Afterwards, The Fratellis went onto support massive UK-rock act &lt;a href="http://www.genius.com/artists/kasabian" rel="noopener" data-api_path="/artists/20020"&gt;Kasabian&lt;/a&gt; before their ten-date tour which included Manchester, London and their hometown Glasgow. “&lt;a href="https://www.youtube.com/watch?v=RYhQ8hLhuPY" rel="noopener nofollow"&gt;Baby Fratelli&lt;/a&gt;” was involved in the British drama &lt;a href="https://en.wikipedia.org/wiki/Hot_Fuzz" rel="noopener nofollow"&gt;Hot Fuzz&lt;/a&gt;, where comical duo &lt;a href="https://en.wikipedia.org/wiki/Nick_Frost" rel="noopener nofollow"&gt;Nick Frost&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Simon_Pegg" rel="noopener nofollow"&gt;Simon Pegg&lt;/a&gt; starred.&lt;/p&gt;\n\n&lt;p&gt;After an astonishing result from their debut album and a slight hiatus, they were ready to bring out more music for their fans. The release of&lt;br&gt;\n“&lt;a href="https://genius.com/albums/The-fratellis/Here-we-stand" rel="noopener" data-api_path="/albums/207791"&gt;Here We Stand&lt;/a&gt;” came in June 2008. This album made them popular worldwide as they were asked to play shows from all over the U.S. — which they sold out. In the eyes of the public, The Fratellis were proper Scottish stars after the release of their single, “&lt;a href="https://genius.com/The-fratellis-look-out-sunshine-lyrics" rel="noopener" data-api_path="/songs/1631717"&gt;Look Out Sunshine!&lt;/a&gt;” it was released that all proceeds from said single were donated to &lt;a href="https://www.teenagecancertrust.org/about-us/our-story/music/royal-albert-hall/previous-shows/2008" rel="noopener nofollow"&gt;Teenage Cancer Trust&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2013 it was announced that there was a third album finished and given a date of October 2013 as an official release. The album led to even more success as another highly successful tour came which featured the UK, US, Europe and Japan. Announcing more dates in Russia shortly after.&lt;br&gt;\nHowever, in September 2014 The Fratellis secretly released a free EP on &lt;a href="http://www.thefratellis.com/" rel="noopener nofollow"&gt;their website&lt;/a&gt;, named “&lt;a href="https://genius.com/albums/The-fratellis/The-soul-crush-ep" rel="noopener" data-api_path="/albums/144763"&gt;The Soul Crush EP&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Showing a tremendous work ethic only a year later another album was announced and released in August 2015 through &lt;a href="http://cookingvinyl.com/" rel="noopener nofollow"&gt;Cooking Vinyl Records&lt;/a&gt;.&lt;br&gt;\nNearing the end of 2016, they marked the &lt;a href="http://thefratellis.com/site/costello-music-celebrating-its-10th-anniversary/" rel="noopener nofollow"&gt;10th Anniversary&lt;/a&gt; since the release of Costello Music by playing sixteen separate shows throughout a two month period.&lt;/p&gt;\n\n&lt;p&gt;Despite their chosen genre and sales declining The Fratellis released another album, “&lt;a href="https://genius.com/albums/The-fratellis/In-your-own-sweet-time" rel="noopener" data-api_path="/albums/378523"&gt;In Your Own Sweet Time&lt;/a&gt;” which came with the help of producer &lt;a href="https://genius.com/artists/Tony-hoffer" rel="noopener" data-api_path="/artists/61426"&gt;Tony Hoffer&lt;/a&gt;.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;LINE-UP&lt;/strong&gt;&lt;br&gt;\nLead Vocals/Guitar – Jon Fratelli (John Lawler)&lt;br&gt;\nBass Guitar – Barry “Baz” Fratelli (Barry Wallace)&lt;br&gt;\nDrummer/Backing – Mince Fratelli (Gordon McRory)&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;TOURING MEMBERS&lt;/strong&gt;&lt;br&gt;\nKeyboards/Piano – Will Foster&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Shaggy', 'annotations': {'description': '&lt;p&gt;Orville Richard Burrell CD (born October 22, 1968), known mostly by his stage name Shaggy, is a Jamaican reggae fusion singer and deejay. He took his nickname from Shaggy Rogers, from the cartoon Scooby Doo.&lt;/p&gt;\n\n&lt;p&gt;He was born on October 22, 1968 in Kingston, Jamaica. In 1975 he and his family moved to Brooklyn, New York.&lt;/p&gt;\n\n&lt;p&gt;The singer released his first hit “Oh Carolina” in 1993, which was a dancehall re-make of a ska hit by the Folkes Brothers.&lt;br&gt;\nIn 1995 he published his most famous hit “Boombastic”.&lt;br&gt;\nIn 2000, Shaggy released the album Hot Shot, which was certified 6x Platinum in the U.S. The album featured the singles “It Wasn’t Me” and “Angel”.&lt;/p&gt;', 'alternate_names': ['Mr. Boombastic', 'Orville Burrell', 'Orville Richard Burrell', 'Orville R. Burrell']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/George-michael', 'annotations': {'description': '&lt;p&gt;George Michael was an English singer, songwriter, and producer.  He was born &lt;a href="http://www.bbc.com/news/entertainment-arts-15925376" rel="noopener nofollow"&gt;Georgios Kyriacos Panayiotou on June 25, 1963&lt;/a&gt;, in East Finchley, London.  His mother Lesley Angold Panayiotou was an English dancer and his father Kyriakos “Jack” Panayiotou was a Greek Cypriot restaurateur.&lt;/p&gt;\n\n&lt;p&gt;From 1981 to 1986, Michael was a member of the pop duo &lt;a href="https://genius.com/artists/Wham" rel="noopener" data-api_path="/artists/15441"&gt;Wham!&lt;/a&gt;, which he formed with childhood friend &lt;a href="https://genius.com/artists/Andrew-ridgeley" rel="noopener" data-api_path="/artists/351162"&gt;Andrew Ridgeley&lt;/a&gt;. The duo went on to sell over 28 million albums before their amicable split.&lt;/p&gt;\n\n&lt;p&gt;After going solo in 1987, Michael became known for his provocative and massively popular pop music. His debut solo album, &lt;em&gt;&lt;a href="https://genius.com/albums/George-michael/Faith" rel="noopener" data-api_path="/albums/26960"&gt;Faith&lt;/a&gt;&lt;/em&gt;, went on to sell more than 20 million copies.&lt;/p&gt;\n\n&lt;p&gt;Michael passed away at the age of 53 on December 25, 2016 of a &lt;a href="http://www.cnn.com/2017/03/07/europe/george-michael-death-natural-causes-coroner/" rel="noopener nofollow"&gt;heart condition&lt;/a&gt;. At the time of his death, Michael had sold more than &lt;a href="http://www.billboard.com/articles/news/7633292/george-michael-dead" rel="noopener nofollow"&gt;115 million records worldwide&lt;/a&gt;, making him one of the best selling music artists of all time.&lt;/p&gt;', 'alternate_names': ['Georgios Kyriacos Panayiotou', 'G.K. Panayiotou']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/September', 'annotations': {'description': '&lt;p&gt;Petra Marklund, also known as September, is a Swedish singer, songwriter, and television presenter. Whilst she has had a string of hit singles in her homeland, she is best-known worldwide for the song “&lt;a href="https://genius.com/September-cry-for-you-original-version-lyrics" rel="noopener" data-api_path="/songs/1652839"&gt;Cry for You&lt;/a&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mc-hammer', 'annotations': {'description': '&lt;p&gt;Stanley Kirk Burrell (born 30 March 1962), better known by his stage name &lt;a href="https://genius.com/artists/Mc-hammer" rel="noopener" data-api_path="/artists/1039"&gt;MC Hammer&lt;/a&gt;, is an American rapper, dancer, entrepreneur, spokesman and occasional actor from Oakland, California. He had his greatest commercial success and popularity from the late 1980s until the late 1990s. Remembered for his rapid rise to fame, Hammer is known for his hit records (such as “&lt;a href="https://genius.com/Mc-hammer-u-cant-touch-this-lyrics" rel="noopener" data-api_path="/songs/2161"&gt;U Can’t Touch This&lt;/a&gt;” and “&lt;a href="https://genius.com/Mc-hammer-2-legit-2-quit-lyrics" rel="noopener" data-api_path="/songs/22245"&gt;2 Legit 2 Quit&lt;/a&gt;”), flashy dance movements, choreography and his trademark Hammer pants. Hammer’s superstar-status and entertaining showmanship made him a household name and &lt;a href="https://genius.com/artists/Hip-hop" rel="noopener" data-api_path="/artists/15296"&gt;Hip-Hop&lt;/a&gt; icon. He has sold more than fifty million records worldwide.&lt;/p&gt;\n\n&lt;p&gt;A multi-award winner, &lt;a href="https://genius.com/artists/Mc-hammer" rel="noopener" data-api_path="/artists/1039"&gt;MC Hammer&lt;/a&gt; is considered a pioneer and innovator of pop rap, and is the first &lt;a href="https://genius.com/artists/Hip-hop" rel="noopener" data-api_path="/artists/15296"&gt;Hip-Hop&lt;/a&gt; artist to achieve diamond status for an album. Hammer was later considered a sellout due in part to overexposure as an entertainer, and as a result of being too “commercial” when &lt;a href="https://genius.com/artists/Rap" rel="noopener" data-api_path="/artists/25080"&gt;Rap&lt;/a&gt; was “hardcore”, then his image later becoming increasingly “gritty” to once again adapt to the ever-changing landscape of rap. Burrell became a preacher during the late 1990s with a Christian ministry program called MC Hammer and Friends. Additionally, he starred in a Saturday morning cartoon called Hammerman in 1991 and was executive producer of his own reality show called Hammertime which aired during the summer of 2009. Prior to becoming ordained, Hammer signed to &lt;a href="https://genius.com/artists/Suge-knight" rel="noopener" data-api_path="/artists/660037"&gt;Suge Knight&lt;/a&gt;’s &lt;a href="https://genius.com/artists/Death-row-records" rel="noopener" data-api_path="/artists/149462"&gt;Death Row Records&lt;/a&gt; in 1995.&lt;/p&gt;\n\n&lt;p&gt;Throughout his career, Hammer has managed his own recording business. As a result, he has created and produced his own acts including Oaktown’s 3.5.7, Common Unity, Special Generation, Analise, One Cause One Effect, Teabag, Dom Kimberley, Geeman, DRS, Pleasure Ellis, B Angie B, Stooge Playaz, Ho Frat Hoo! and Wee Wee, among others. A part of additional record labels, he has collaborated and has been associated with &lt;a href="https://genius.com/artists/2pac" rel="noopener" data-api_path="/artists/59"&gt;2Pac&lt;/a&gt;, Teddy Riley, Felton Pilate, &lt;a href="https://genius.com/artists/Tha-dogg-pound" rel="noopener" data-api_path="/artists/464"&gt;Tha Dogg Pound&lt;/a&gt;, The Whole 9, Deion Sanders, and &lt;a href="https://genius.com/artists/Big-daddy-kane" rel="noopener" data-api_path="/artists/202"&gt;Big Daddy Kane&lt;/a&gt;, as well as others.&lt;/p&gt;', 'alternate_names': ['Stanley Burrell', 'Stanley Kirk Burrell', 'Hammer']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Steve-winwood', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/Steve_Winwood" rel="noopener nofollow"&gt;Steven Lawrence Winwood&lt;/a&gt; is most famous for his solo work, including two number one hits &lt;a href="https://genius.com/Steve-winwood-higher-love-lyrics" rel="noopener" data-api_path="/songs/700681"&gt;Higher Love&lt;/a&gt; and &lt;a href="https://genius.com/Steve-winwood-roll-with-it-lyrics" rel="noopener" data-api_path="/songs/443038"&gt;Roll with It&lt;/a&gt;, and for being the member of two supergroups, &lt;a href="https://genius.com/artists/Traffic" rel="noopener" data-api_path="/artists/1129889"&gt;Traffic&lt;/a&gt; and &lt;a href="https://genius.com/artists/Blind-faith" rel="noopener" data-api_path="/artists/139433"&gt;Blind Faith&lt;/a&gt;, along with helping found the &lt;a href="https://genius.com/artists/Blind-faith" rel="noopener" data-api_path="/artists/139433"&gt;Spencer Davis Group&lt;/a&gt; at fourteen years old.&lt;/p&gt;\n\n&lt;p&gt;Speaking of which, Mozart had nothing on Winwood as a keyboard virtuoso:&lt;/p&gt;\n\n&lt;p&gt;As a boy in middle school, little Stevie Winwood played the Hammond synth for Blues gods and Rock &amp;amp; Roll founders like  &lt;a href="https://genius.com/artists/Muddy-waters" rel="noopener" data-api_path="/artists/65145"&gt;Muddy Waters&lt;/a&gt;, &lt;a href="https://genius.com/artists/John-lee-hooker" rel="noopener" data-api_path="/artists/59462"&gt;John Lee Hooker&lt;/a&gt;, &lt;a href="https://genius.com/artists/Howlin-wolf" rel="noopener" data-api_path="/artists/65010"&gt;Howlin\' Wolf&lt;/a&gt;, &lt;a href="https://genius.com/artists/Bb-king" rel="noopener" data-api_path="/artists/1107"&gt;B.B. King&lt;/a&gt;, &lt;a href="https://genius.com/artists/Chuck-berry" rel="noopener" data-api_path="/artists/19340"&gt;Chuck Berry&lt;/a&gt; and &lt;a href="https://genius.com/artists/Bo-diddley" rel="noopener" data-api_path="/artists/133941"&gt;Bo Diddley&lt;/a&gt;, when they toured in Britain. We’d list more, but it’s exhausting to link all of those names.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/VwqsmNR_Q1M?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;&lt;br&gt;\nStevie Winwood playing keyboard at 15 years old.', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Daughtry', 'annotations': {'description': '&lt;p&gt;Daughtry is an American rock band formed and fronted by namesake Chris Daughtry, who was a finalist on the fifth season of American Idol. Their self-titled debut album was released in November 2006. The album reached number one on the Billboard 200, went on to sell more than four million copies in the United States, and has been certified quadruple platinum by the RIAA. Daughtry was also named the best-selling album of 2007 by Billboard, becoming the fastest-selling debut rock album in Soundscan history. The album produced four top 20 hits on the Billboard Hot 100, including top five hits “It’s Not Over” and “Home”.&lt;/p&gt;\n\n&lt;p&gt;The band’s second album, Leave This Town, was released in July 2009. It debuted at number one on the Billboard 200 chart, becoming Daughtry’s second number one album in the United States. To date, Leave This Town has sold over 1.3 million copies in the United States and has been certified platinum by the RIAA. The album’s lead single, “No Surprise,” became the band’s fifth top-20 hit on the Hot 100. Their third studio album, Break the Spell was released in November 2011. It debuted inside the top ten on the Billboard 200 chart and has been certified Gold by the RIAA. Daughtry’s fourth studio album, Baptized was released on November 19, 2013 and it debuted at number six on the 200 chart, selling approximately 90,000 units. To date, Daughtry has sold over 8 million albums and over 22.6 million digital tracks in the U.S.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/New-radicals', 'annotations': {'description': '&lt;p&gt;New Radicals were an incredibly short lived band started by songwriter Gregg Alexander and former child actress Danielle Brisebois; (best known today for playing Archie Bunker’s nephew, Stephanie Mills, in the show All in The Family and it’s spinoff, Archie Bunker’s Place; also an accomplished songwriter) all other members were just session musicians.&lt;/p&gt;\n\n&lt;p&gt;The band released only two singles from their only album before breaking up, the worldwide smash hit &lt;a href="https://genius.com/New-radicals-you-get-what-you-give-lyrics" rel="noopener" data-api_path="/songs/103482"&gt;“You Get What You Give”&lt;/a&gt; and &lt;a href="https://genius.com/New-radicals-someday-well-know-lyrics" rel="noopener" data-api_path="/songs/1030504"&gt;“Someday We’ll Know”&lt;/a&gt; (the latter better known for the &lt;a href="https://genius.com/Mandy-moore-someday-well-know-lyrics" rel="noopener" data-api_path="/songs/356222"&gt;Mandy Moore and Jon Foreman (of Switchfoot fame) cover for the A Walk to Remember soundtrack.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The band broke up around the time of their final single, “Someday We’ll Know” which failed to chart to chart in the US except in the Billboard Adult Pop Songs category. It’s been speculated that the reason of the failure was because it the bands\' break up overshadowed the single and it gave their record label MCA little reason to promote.&lt;/p&gt;\n\n&lt;p&gt;While they were only around for one album, both Alexander and Brisebois are still in the music industry. Alexander would later win a Grammy for writing the Santana and Michelle Branch hit, “The Game of Love” and would become a prolific songwriter. Danielle Brisebois would go on to write the hit Natasha Bedingfield song, “Unwritten.”&lt;br&gt;\nEventually both of them would reunite to write the soundtrack to the film “Begin Again” in 2014.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Peter-schilling', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Pierre Schilling', 'Pierre Michael Schilling']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/New-order', 'annotations': {'description': '&lt;p&gt;“It doesn’t take a genius to tell me what I am.” This is the lyric uttered in the dance-pop song, &lt;a href="https://genius.com/New-order-all-the-way-lyrics" rel="noopener" data-api_path="/songs/995553"&gt;“All the Way”&lt;/a&gt; from &lt;a href="https://genius.com/albums/New-order/Technique" rel="noopener" data-api_path="/albums/28108"&gt;&lt;em&gt;Technique&lt;/em&gt;&lt;/a&gt;, the band’s most dance-infused album to date. With catchy hooks from Bernard Sumner, keyboards from &lt;a href="https://genius.com/artists/Gillian-gilbert" rel="noopener" data-api_path="/artists/541294"&gt;Gillian Gilbert&lt;/a&gt;, basslines from &lt;a href="https://genius.com/artists/Peter-hook" rel="noopener" data-api_path="/artists/647006"&gt;Peter Hook&lt;/a&gt; to &lt;a href="https://genius.com/artists/Tom-chapman" rel="noopener" data-api_path="/artists/1071882"&gt;Tom Chapman&lt;/a&gt;, and everyone else, New Order rose from the ashes of what was once &lt;a href="https://genius.com/artists/Joy-division" rel="noopener" data-api_path="/artists/28034"&gt;Joy Division&lt;/a&gt;. Of course, neither of the bands are directed towards fascism.&lt;/p&gt;\n\n&lt;p&gt;With one of their best-selling 12" single for them and the best-selling 12" single of all time, &lt;a href="https://genius.com/albums/New-order/Blue-monday" rel="noopener" data-api_path="/albums/28105"&gt;&lt;em&gt;Blue Monday&lt;/em&gt;&lt;/a&gt; fuses techno with dance, and justified one of dance’s most splendid artists. With &lt;a href="https://genius.com/albums/New-order/Movement" rel="noopener" data-api_path="/albums/132073"&gt;&lt;em&gt;Movement&lt;/em&gt;&lt;/a&gt;, their debut album, they give tribute to Ian Curtis and their previous incarnation, Joy Division. With &lt;a href="https://genius.com/albums/New-order/Power-corruption-and-lies" rel="noopener" data-api_path="/albums/58486"&gt;&lt;em&gt;Power, Corruption, &amp;amp; Lies&lt;/em&gt;&lt;/a&gt;, they prove that they deliver catchy hooks, as well as synthesis. &lt;a href="https://genius.com/albums/New-order/Low-life" rel="noopener" data-api_path="/albums/138759"&gt;&lt;em&gt;Low-Life&lt;/em&gt;&lt;/a&gt;’s coming-of-age backstory gives way to one of their most recognized singles, &lt;a href="https://genius.com/New-order-the-perfect-kiss-lyrics" rel="noopener" data-api_path="/songs/1299965"&gt;“The Perfect Kiss”&lt;/a&gt;. Late-night clubs can host &lt;a href="https://genius.com/albums/New-order/Brotherhood" rel="noopener" data-api_path="/albums/30834"&gt;&lt;em&gt;Brotherhood&lt;/em&gt;&lt;/a&gt;, one of New Order’s darkest albums centering on substances, teenagers, nights out, and more. If you like to liven things up a bit, &lt;a href="https://genius.com/New-order-fine-time-lyrics" rel="noopener" data-api_path="/songs/116295"&gt;&lt;em&gt;Fine Time&lt;/em&gt;&lt;/a&gt; as well as &lt;em&gt;Technique&lt;/em&gt; can give you the fun side of things, and 80’s techno merged with 90’s polychromatic neo-psychedelia. Alternative rock dominate their most previous albums: &lt;em&gt;Republic&lt;/em&gt;, &lt;em&gt;Get Ready&lt;/em&gt;, and &lt;em&gt;Waiting for the Siren’s Call&lt;/em&gt;. With rock infused with alternative, &lt;em&gt;Lost Sirens&lt;/em&gt; introduces eight tracks left out of &lt;em&gt;Waiting for the Siren’s Call&lt;/em&gt;, as well as Peter hook’s final album recorded with New Order, and the only album produced from archival recordings.&lt;/p&gt;\n\n&lt;p&gt;On 25 September 2015, New Order released &lt;em&gt;Music Complete&lt;/em&gt;, their first studio album in 10 years. With its catchy pop hooks and funk center, the album received favorable reviews.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Xxxtentacion', 'annotations': {'description': '&lt;p&gt;Jahseh Dwayne Ricardo Onfroy (January 23, 1998 – June 18, 2018) was born in Plantation and raised in Lauderhill, Broward County, Florida)—better known by his stage name, XXXTENTACION (pronounced &lt;em&gt;xxx-tenta-ción&lt;/em&gt;)—was an established force in the Florida Soundcloud rap scene. He became widely known for his uniquely raw and aggressive approach to music. &lt;a href="https://www.youtube.com/watch?v=ILhZrraMtK8" rel="noopener nofollow"&gt;X claimed&lt;/a&gt; that his varied artistic influences range from alternative rock bands such as &lt;a href="https://genius.com/artists/Nirvana" rel="noopener" data-api_path="/artists/12712"&gt;Nirvana&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-fray" rel="noopener" data-api_path="/artists/7807"&gt;The Fray&lt;/a&gt; to distinguished rappers like &lt;a href="https://genius.com/artists/Lil-Wayne" rel="noopener" data-api_path="/artists/4"&gt;Lil Wayne&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-notorious-big" rel="noopener" data-api_path="/artists/22"&gt;The Notorious B.I.G&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;His breakout hit &lt;a href="https://genius.com/Xxxtentacion-look-at-me-lyrics" rel="noopener" data-api_path="/songs/2441478"&gt;“Look At Me”&lt;/a&gt; was &lt;a href="https://soundcloud.com/rojasonthebeat/look-at-me-ft-xxxtentacion" rel="noopener nofollow"&gt;first released on Soundcloud&lt;/a&gt; in 2015, and then edited and re-released for his 2017 mixtape &lt;a href="https://genius.com/albums/Xxxtentacion/Revenge" rel="noopener" data-api_path="/albums/344273"&gt;&lt;em&gt;Revenge&lt;/em&gt;&lt;/a&gt;. This scored him an &lt;a href="https://www.youtube.com/watch?v=7B9v_5pWjAg" rel="noopener nofollow"&gt;appearance&lt;/a&gt; in the &lt;a href="http://www.xxlmag.com/news/2017/06/2017-xxl-freshman-cover/" rel="noopener nofollow"&gt;&lt;em&gt;XXL&lt;/em&gt; Freshman Class of 2017&lt;/a&gt;. He took the 10th spot, meaning he was voted in by the fans.&lt;/p&gt;\n\n&lt;p&gt;X frequently collaborated with his friend and fellow South Florida rapper, &lt;a href="https://genius.com/artists/Ski-mask-the-slump-god" rel="noopener" data-api_path="/artists/396531"&gt;Ski Mask The Slump God&lt;/a&gt;. He met Ski in juvenile detention and founded the music collective, &lt;a href="https://genius.com/artists/Members-only" rel="noopener" data-api_path="/artists/1072775"&gt;Members Only&lt;/a&gt;, with him.&lt;/p&gt;\n\n&lt;p&gt;X released his debut album, &lt;a href="https://genius.com/albums/Xxxtentacion/17" rel="noopener" data-api_path="/albums/342174"&gt;&lt;em&gt;17&lt;/em&gt;&lt;/a&gt;, in 2017 which peaked at #2 on the &lt;a href="https://www.billboard.com/charts/billboard-200" rel="noopener nofollow"&gt;US &lt;em&gt;Billboard&lt;/em&gt; 200&lt;/a&gt;. He followed that up with his second album, &lt;a href="https://genius.com/albums/Xxxtentacion/Question-mark" rel="noopener" data-api_path="/albums/397606"&gt;&lt;em&gt;?&lt;/em&gt;&lt;/a&gt; in early 2018. It became his first #1 album, and one of its two lead singles, &lt;a href="https://genius.com/Xxxtentacion-sad-lyrics" rel="noopener" data-api_path="/songs/3430186"&gt;“SAD!,”&lt;/a&gt; later became his first #1 song after his death.&lt;/p&gt;\n\n&lt;p&gt;On June 18, 2018, X was tragically shot to death in Deerfield Beach, Florida. According to police reports and surveillance recordings, multiple men planned to rob X after they discovered he was carrying a significant amount of cash with him. The men demanded that X leave his vehicle and hand over his money, but the rapper refused and was &lt;a href="http://www.tmz.com/2018/06/18/xxxtentacion-shot-dead-miami/" rel="noopener nofollow"&gt;subsequently shot in the neck&lt;/a&gt;. The Broward County Sheriff’s Department later confirmed his death in &lt;a href="https://twitter.com/browardsheriff/status/1008838726599004161" rel="noopener nofollow"&gt;a tweet&lt;/a&gt;. X was 20 years old.&lt;/p&gt;\n\n&lt;p&gt;In what is now an eerie message &lt;a href="https://twitter.com/X_XsalvadorX_X/status/1008822539248979970" rel="noopener nofollow"&gt;uploaded to his Instagram&lt;/a&gt; several months before his untimely death, X described how he wanted to be remembered:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;If I’m gonna die or ever be a sacrifice, I wanna make sure that my life made at least 5 million kids happy or they found some sort of answers or resolve in my life.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Following his death, X’s mother Cleopatra Bernard posted a &lt;a href="https://www.instagram.com/p/BkTQdl3hvuN/?taken-by=cleo_ohsojazzy" rel="noopener nofollow"&gt;picture of a sonogram&lt;/a&gt; to &lt;a href="https://www.instagram.com/Cleo_OhSoJazzy/" rel="noopener nofollow"&gt;her personal Instagram&lt;/a&gt;, previewing X’s unborn child. On November 24, 2018, an update was given by X’s mother about his baby, now named Gekyume. This was &lt;a href="https://youtu.be/g-RwLGLEcgc?t=5" rel="noopener nofollow"&gt;a word X created on his Instagram&lt;/a&gt; meaning a “different state or next universe of thought.” On January 26, 2019, Gekyume was born.&lt;/p&gt;\n\n&lt;p&gt;In the time following the rapper’s passing, multiple posthumous verses and choruses were released to the public by several artists, including his first posthumous song with &lt;a href="https://genius.com/artists/Trippie-redd" rel="noopener" data-api_path="/artists/1086436"&gt;Trippie Redd&lt;/a&gt;. The track was titled &lt;a href="https://genius.com/Trippie-redd-and-xxxtentacion-ghost-busters-lyrics" rel="noopener" data-api_path="/songs/3556910"&gt;“Ghost Busters”&lt;/a&gt; and features Ski Mask and &lt;a href="https://genius.com/artists/Quavo" rel="noopener" data-api_path="/artists/61600"&gt;Quavo&lt;/a&gt;. Other notable posthumous features include his records with &lt;a href="https://genius.com/Lil-peep-and-xxxtentacion-falling-down-lyrics" rel="noopener" data-api_path="/songs/3906162"&gt;Lil Peep&lt;/a&gt; and &lt;a href="https://genius.com/Lil-wayne-dont-cry-lyrics" rel="noopener" data-api_path="/songs/3985334"&gt;Lil Wayne&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;X’s first posthumous album, &lt;a href="https://genius.com/albums/Xxxtentacion/Skins" rel="noopener" data-api_path="/albums/424173"&gt;&lt;em&gt;SKINS&lt;/em&gt;&lt;/a&gt;, was released on December 7, 2018. The album was his shortest project to date and includes a sole feature from &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt;. X’s final posthumous album, &lt;a href="https://genius.com/albums/Xxxtentacion/Bad-vibes-forever" rel="noopener" data-api_path="/albums/471489"&gt;&lt;em&gt;Bad Vibes Forever&lt;/em&gt;&lt;/a&gt;, was released on December 6 2019 and highlighted many old X songs released solely on his SoundCloud or previously unreleased snippets.&lt;/p&gt;\n\n&lt;p&gt;Information concerning an official documentary about X was teased on his &lt;a href="https://www.instagram.com/xxxtentacion/?hl=en" rel="noopener nofollow"&gt;Instagram&lt;/a&gt;  and &lt;a href="https://www.youtube.com/watch?v=5ZXFPPV3pnE" rel="noopener nofollow"&gt;YouTube channel&lt;/a&gt; one year after his death.&lt;/p&gt;', 'alternate_names': ['Jahseh Onfroy', 'XXX', 'Yung Dagger Dick', 'Jahseh Dwayne Onfroy', 'Jahseh', 'Jahseh Dwayne Ricardo Onfroy', 'MAKE OUT HILL', 'Jahseh D. R. Onfroy', 'Jah', 'Jahseh D. Onfroy', 'Dagger Dick']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Third-eye-blind', 'annotations': {'description': '&lt;p&gt;Third Eye Blind from San Francisco Mission District Mostly guitars with other things knocking around Riffs and deep beats Lyrics are expanded in a kinda hip hop way That wrong thing you’re not supposed to say- we say it Black on Black pretty much from the beginning It took us so long to get things this way but it really feels like we are underway now Jacked on coffee we are a fabulously disorganized bunch We seek impact with friends try to surf whenever we can dirty jokes looking out for each other we have eyes and a voice so no surprise when we speak the fuck up We care about shit No sequencers no backing tracks not a DJ group We believe in the gathering power of music Guess you could say we are a motherfucking rock band Born in shadow, made of lions, loud as fuck&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/David-guetta', 'annotations': {'description': '&lt;p&gt;Pierre David Guetta, better known simply as &lt;strong&gt;David Guetta&lt;/strong&gt;, is a French DJ and producer. He first got a taste of the limelight with his 2009 album &lt;em&gt;One Love&lt;/em&gt; which included the hit singles “When Love Takes Over”, “Gettin\' Over You”, and “Sexy Bitch”, all three of which reached #1 in the UK and charted high internationally.&lt;/p&gt;\n\n&lt;p&gt;His 2011 album, &lt;em&gt;Nothing but the Beat&lt;/em&gt;, continued this success, containing the hit singles “Where Them Girls At”, “Little Bad Girl”, “Without You”, “Titanium” and “Turn Me On”.&lt;/p&gt;\n\n&lt;p&gt;His sixth album &lt;em&gt;Listen&lt;/em&gt; was released in 2014, and includes chart-toppers “Lovers on the Sun”, “Dangerous”, and “Hey Mama.” Most recently, in 2017, he released “2U” with Justin Bieber and “Dirty Sexy Money” in 2018 with Afrojack, Charli XCX and French Montana.&lt;/p&gt;\n\n&lt;p&gt;Pierre David Guetta, plus connu sous le nom de David Guetta, est un DJ français et producteur. Il prend d\'abord avant-goût du milieu avec son album de 2009 “One Love” qui comprenait les hits “When Love Takes Over”, “Gettin\' Over You”, et “Sexy Bitch”, les trois chansons sont arrivées premières au Royaume-uni et très dans les classements internationalement.&lt;/p&gt;\n\n&lt;p&gt;Son album de 2011 “Nothing but the Beat” l\'a fait continué sur sa lancée, contenant les titres à succès “Where Them Girls At”, “Little Bad Girl”, “Without You”, “Titanium” et “Turn Me On”.&lt;/p&gt;\n\n&lt;p&gt;Son sixième album “Listen est sorti en 2014 et comprend notamment les titres "Lovers on the Sun”, “Dangerous” et “Hey Mama”. Plus récemment, en 2017, il a sorti “2U” avec Justin Bieber et “Dirty Sexy Money” en 2018 avec Afrojack, Charli XCX et French Montana.&lt;/p&gt;', 'alternate_names': ['Pierre David Guetta']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jason-mraz', 'annotations': {'description': "&lt;p&gt;Jason Thomas Mraz, born June 23, 1977, released his debut album, &lt;em&gt;Waiting for My Rocket to Come&lt;/em&gt;, which contained the hit single “The Remedy (I Won’t Worry)”, in 2002, but it was not until the release of his second album, Mr. A-Z, in 2005, that Mraz achieved major commercial success. The album peaked at number five on the Billboard 200 and sold over 100,000 copies in the US. In 2008, Mraz released his third studio album, We Sing. We Dance. We Steal Things. The album debuted at number three on the Billboard 200 and was a commercial success worldwide, peaking in the top ten of many international charts&lt;/p&gt;\n\n&lt;p&gt;Mraz’s international breakthrough came with the release of the single “I’m Yours” from the album We Sing. We Dance. We Steal Things. The single peaked at number six on the Billboard Hot 100, giving Mraz his first top ten single. The song was on the Hot 100 for 76 weeks, beating the previous record of 69 weeks held by LeAnn Rimes' “How Do I Live”. The song was a commercial success in the US, receiving a 5x platinum certification from the RIAA for sales of over five million. The song was successful internationally, topping the charts in New Zealand and Norway and peaking in the top ten of multiple international charts&lt;/p&gt;", 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Macklemore-and-ryan-lewis', 'annotations': {'description': '&lt;p&gt;Macklemore &amp;amp; Ryan Lewis are a hip-hop duo from Seattle, Washington, comprised of rapper &lt;a href="https://genius.com/artists/Macklemore" rel="noopener" data-api_path="/artists/2026"&gt;&lt;strong&gt;Macklemore&lt;/strong&gt;&lt;/a&gt; and producer &lt;a href="https://genius.com/artists/Ryan-lewis" rel="noopener" data-api_path="/artists/2025"&gt;&lt;strong&gt;Ryan Lewis&lt;/strong&gt;&lt;/a&gt; which formed in 2008. Together they have made two studio albums &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/The-heist" rel="noopener" data-api_path="/albums/22968"&gt;&lt;em&gt;The Heist&lt;/em&gt;&lt;/a&gt;, in 2012, and &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/This-unruly-mess-i-ve-made" rel="noopener" data-api_path="/albums/141904"&gt;&lt;em&gt;This Unruly Mess I’ve Made&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt; &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/The-heist" rel="noopener" data-api_path="/albums/22968"&gt;&lt;em&gt;The Heist&lt;/em&gt;&lt;/a&gt; spawned two number one singles &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-cant-hold-us-lyrics" rel="noopener" data-api_path="/songs/57234"&gt;“Can’t Hold Us”&lt;/a&gt; and &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-thrift-shop-lyrics" rel="noopener" data-api_path="/songs/86538"&gt;“Thrift Shop”&lt;/a&gt; by mixing poppy, likeable beats with catchy hooks. They also had a hit with the gay rights song &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-same-love-lyrics" rel="noopener" data-api_path="/songs/81672"&gt;“Same Love”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/Mary-lambert" rel="noopener" data-api_path="/artists/22717"&gt;Mary Lambert&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Their second album &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/This-unruly-mess-i-ve-made" rel="noopener" data-api_path="/albums/141904"&gt;&lt;em&gt;This Unruly Mess I’ve Made&lt;/em&gt;&lt;/a&gt; was released in February\u200b 2016, preceded by the single &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-downtown-lyrics" rel="noopener" data-api_path="/songs/2291611"&gt;“Downtown”&lt;/a&gt; featuring hip-hop legends &lt;a href="https://genius.com/artists/Grandmaster-melle-mel" rel="noopener" data-api_path="/artists/9911"&gt;Grandmaster Melle Mell&lt;/a&gt; and &lt;a href="https://genius.com/artists/Grandmaster-caz" rel="noopener" data-api_path="/artists/5137"&gt;Grandmaster Caz&lt;/a&gt;.  They also released the &lt;a href="http://pitchfork.com/thepitch/1003-macklemores-white-privilege-ii-is-a-mess-but-we-should-talk-about-it/" rel="noopener nofollow"&gt;controversial&lt;/a&gt; song &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-white-privilege-ii-lyrics" rel="noopener" data-api_path="/songs/2411196"&gt;“White Privilege II”&lt;/a&gt; as a promotional single, which explored the ideas of white privilege and the Black Lives Matter movement.&lt;/p&gt;\n\n&lt;p&gt;In 2016, Macklemore and Ryan Lewis amicably split for the time being and Macklemore has since released &lt;a href="https://genius.com/albums/Macklemore/Gemini" rel="noopener" data-api_path="/albums/358991"&gt;a solo album&lt;/a&gt;. However, one cannot rule out the possibility that there will be more Macklemore &amp;amp; Ryan Lewis music in the future.&lt;/p&gt;', 'alternate_names': ['Ryan Lewis &amp; Macklemore']}}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/DNA_(duo)', 'artist_name': 'DNA', 'wiki': 'http://en.wikipedia.org/wiki/DNA_(duo)', 'hometown': 'http://dbpedia.org/resource/Bath,_Somerset', 'start_year': '1988', 'end_year': '1998', 'abstract': 'DNA was the name taken by English electronic music producers Nick Batt and Neal Slateford, best known for releasing a remix of Suzanne Vega\'s "Tom\'s Diner" in 1990. As well as "Tom\'s Diner", the duo remixed two other Suzanne Vega tracks: "Rusted Pipe" in 1991, and a radio mix of "Rosemary" in 2000. After a brief lull, the duo reappeared with a mix of the Loreena McKennitt track "The Mummers\' Dance", which reached number one on the US Billboard Hot 100 Airplay chart in 1997. Batt worked extensively with Goldfrapp on their albums Felt Mountain, Black Cherry and Supernature, receiving an Ivor Novello Award for co-writing the Black Cherry track "Strict Machine".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kylie_Minogue', 'artist_name': 'Kylie Minogue', 'wiki': 'http://en.wikipedia.org/wiki/Kylie_Minogue', 'birth_date': '28 May 1968', 'start_year': '1979', 'abstract': 'Kylie Ann Minogue AO, OBE (/mɪˈnoʊɡ/; born 28 May 1968), also known mononymously as Kylie, is an Australian singer and actress. Minogue is the highest-selling female Australian artist of all time, having sold over 80 million records worldwide. She has been recognised for reinventing herself in music and fashion, for which she is referred to by the European press as the "Princess of Pop" and a style icon. Her accolades include a Grammy Award, three Brit Awards and 17 ARIA Music Awards. Born and raised in Melbourne, Minogue first achieved recognition starring in the Australian soap opera Neighbours, playing tomboy mechanic Charlene Robinson. She gained prominence as a recording artist in the late 1980s and released four bubblegum and dance-pop-influenced studio albums produced by Stock Aitken Waterman. By the early 1990s, she had amassed several top ten singles in the UK and Australia, including "I Should Be So Lucky", "The Loco-Motion", "Hand on Your Heart", and "Better the Devil You Know". Taking more creative control over her music, Minogue signed with Deconstruction Records in 1993 and released Kylie Minogue (1994) and Impossible Princess (1997), both of which received positive reviews. She returned to mainstream dance-oriented music with 2000\'s Light Years, including the number-one hits "Spinning Around" and "On a Night Like This". The follow-up, Fever (2001), was an international breakthrough for Minogue, becoming her best-selling album to date. Two of its singles, "Love at First Sight" and "In Your Eyes", became hits, but its lead single, "Can\'t Get You Out of My Head" became one of the most successful singles of the 2000s, selling over five million units. Minogue continued reinventing her image and experimenting with a range of genres on her subsequent albums, which spawned successful singles such as "Slow", "2 Hearts", "All the Lovers", "Santa Baby", "Timebomb" and "Dancing". With her 2020 album Disco, she became the first female artist to have a chart-topping album in the UK for five consecutive decades. Minogue made her film debut in The Delinquents (1989) and portrayed Cammy in Street Fighter (1994). She has also appeared in the films Moulin Rouge! (2001), Jack &amp; Diane, Holy Motors (2012) and San Andreas (2015). In 2014, she appeared as a judge on the third series of The Voice UK and The Voice Australia. Her other ventures include product endorsements, children\'s books, fashion, and charitable work. Minogue was appointed an Officer of the Order of the British Empire in the 2008 New Year Honours for services to music. She was appointed by the French government as a Chevalier (knight) of the Ordre des Arts et des Lettres for her contribution to the enrichment of French culture. In 2005, while Minogue was on tour, she was diagnosed with breast cancer. She was awarded an honorary Doctor of Health Science (D.H.Sc.) degree by Anglia Ruskin University in 2011 for her work in raising awareness for breast cancer. At the 2011 ARIA Music Awards, she was inducted by the Australian Recording Industry Association into the ARIA Hall of Fame. She was appointed Officer of the Order of Australia (AO) in the 2019 Australia Day Honours.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Incubus_(band)', 'artist_name': 'Incubus', 'wiki': 'http://en.wikipedia.org/wiki/Incubus_(band)', 'hometown': 'http://dbpedia.org/resource/Calabasas,_California', 'start_year': '1991', 'abstract': 'Incubus is an American rock band from Calabasas, California. The band was formed in 1991 by vocalist Brandon Boyd, lead guitarist Mike Einziger, and drummer José Pasillas while enrolled in Calabasas High School and later expanded to include bassist Alex "Dirk Lance" Katunich, and Gavin "DJ Lyfe" Koppell; both of whom were eventually replaced by bassist Ben Kenney and DJ Kilmore, respectively. Incubus has attained commercial success, reaching multi-platinum sales, as well as releasing several successful singles. After their first two albums, Fungus Amongus (1995) and S.C.I.E.N.C.E. (1997), the band earned mainstream recognition with the release of their 1999 album Make Yourself which spawned several hits, including the band\'s highest charting song "Drive." Success continued with the albums Morning View (2001) and A Crow Left of the Murder... (2004). Their sixth studio album, Light Grenades, debuted at No. 1 in 2006 and was followed by Incubus\'s first greatest hits album Monuments and Melodies in June 2009 and the band\'s 2011 album, If Not Now, When?. Incubus also released an EP, Trust Fall (Side A), in early 2015, and two years later, the band released their eighth studio album, titled 8, on April 21, 2017. A second EP, Trust Fall (Side B), was released on April 17, 2020. Worldwide, Incubus has sold over 19 million albums.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Rob_Zombie', 'artist_name': 'Rob Zombie', 'wiki': 'http://en.wikipedia.org/wiki/Rob_Zombie', 'birth_date': '12 January 1965', 'start_year': '1985', 'abstract': 'Robert Bartleh Cummings (born January 12, 1965), known professionally as Rob Zombie, is an American singer, songwriter, filmmaker, and voice actor. He is a founding member of the heavy metal band White Zombie, releasing four studio albums with the band. He is the older brother of Spider One, the lead vocalist of the industrial metal band Powerman 5000. Zombie\'s first solo effort was a 1996 song titled "Hands of Death (Burn Baby Burn)", written and performed with Alice Cooper. It went on to receive a nomination for Best Metal Performance at the 39th Annual Grammy Awards. In 1997, he began working on his debut solo studio album, Hellbilly Deluxe, which was released in August 1998. A month later, Zombie officially disbanded White Zombie. Hellbilly Deluxe went on to sell over three million copies worldwide and spawned three singles. Zombie directed the horror film House of 1000 Corpses in 2000, though the controversial project was not released until 2003. His second studio album, The Sinister Urge (2001), became his second platinum album in the U.S. Zombie directed The Devil\'s Rejects (2005), a direct sequel to his prior film House of 1000 Corpses. The project received a more positive reception than its predecessor. His third studio album, Educated Horses (2006), was a departure from his earlier recordings. The album became his third to enter the top ten of the Billboard 200, but saw a decrease in sales compared to his previous releases. Deciding to focus on his directing career, Zombie directed the horror film Halloween (2007), a remake of the 1978 horror classic of the same name. The film became Zombie\'s highest-grossing film to date, though was generally received negatively by critics. He later directed Halloween II (2009), which failed to match the success of its predecessor. He released the animated film The Haunted World of El Superbeasto that same year. Zombie returned to music with the release of his fourth studio album, Hellbilly Deluxe 2 (2010). The album peaked at number eight in the U.S., where it sold over 200,000 copies. In 2012, Zombie released a second remix album and directed the horror film The Lords of Salem, which was released in 2013; that year he also released his fifth studio album Venomous Rat Regeneration Vendor. Later he directed the horror film 31. Zombie released his next solo album, The Electric Warlock Acid Witch Satanic Orgy Celebration Dispenser, in 2016, followed nearly five years later by his seventh studio album, The Lunar Injection Kool Aid Eclipse Conspiracy (2021). Since the beginning of his music career, Zombie\'s music and lyrics have featured notable horror and sci-fi themes. His live shows have been praised for their elaborate shock rock theatricality. Since beginning his solo career, Zombie has sold an estimated fifteen million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Laura_Branigan', 'artist_name': 'Laura Branigan', 'wiki': 'http://en.wikipedia.org/wiki/Laura_Branigan', 'birth_date': '03 July 1952', 'death_date': '26 August 2004', 'abstract': 'Laura Ann Branigan (July 3, 1952 – August 26, 2004) was an American singer, songwriter, and actress. Her signature song, the platinum-certified 1982 single "Gloria", stayed on the U.S. Billboard Hot 100 for 36 weeks, then a record for a female artist, peaking at No. 2. It also reached number one in Australia and Canada. In 1984, she reached number one in Canada and Germany with the U.S. No. 4 hit "Self Control". She also had success in the United Kingdom with both "Gloria" and "Self Control" making the Top 10 in the UK Singles Chart. Seeing her greatest level of success in the 1980s, Branigan\'s other singles included the Top 10 hit "Solitaire" (1983), the U.S. AC chart number one "How Am I Supposed to Live Without You" (1983), the Australian No. 2 hit "Ti amo" (1984), her return to the top 40 "The Power of Love" (1987), the top hit 15 dance "Shattered Glass." Her most successful album was 1984\'s platinum-selling Self Control. She also contributed songs to motion picture and television soundtracks, including the Grammy and Academy Award-winning Flashdance soundtrack (1983), and the Ghostbusters soundtrack (1984), and also Miami Vice (1984). In 1985, she won the Tokyo Music Festival with the song "The Lucky One". Her chart success began to wane as the decade closed and after her last two albums Laura Branigan (1990) and Over My Heart (1993) garnered little attention, she generally retired from public life for the rest of the 1990s. She began returning to performing in the early 2000s, most notably appearing as Janis Joplin in the off-Broadway musical Love, Janis. As she was recording new music and preparing a comeback to the music industry, she died at her home in August 2004 from a previously undiagnosed cerebral aneurysm. Branigan and her music saw renewed popularity and public interest in 2019 in the US after "Gloria" was adopted by the NHL\'s St. Louis Blues as their unofficial victory song while they completed a historic mid-season turnaround to win their first Stanley Cup in franchise history, leading to the song entering ice hockey lore as an "unlikely championship anthem". Branigan\'s legacy manager and representative Kathy Golik embraced the trend and traveled to St. Louis to publicly represent Branigan among the Blues fanbase during the 2019 Stanley Cup Playoffs, later stating her belief that Branigan and "Gloria" "will forever be intertwined" with the Blues and the city of St. Louis.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sirah_(rapper)', 'artist_name': 'Sirah', 'wiki': 'http://en.wikipedia.org/wiki/Sirah_(rapper)', 'hometown': 'http://dbpedia.org/resource/New_York_(state)', 'birth_date': '28 July 1988', 'start_year': '2007', 'abstract': 'Sara Elizabeth Mitchell (born July 28, 1988), better known by her stage name Sirah /ˈsaɪrə/, is an American hip hop recording artist based in Los Angeles. She collaborated with Skrillex, on "WEEKENDS!!!", "Kyoto" and the hit single "Bangarang".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Billy_Talent', 'artist_name': 'Billy Talent', 'wiki': 'http://en.wikipedia.org/wiki/Billy_Talent', 'hometown': 'http://dbpedia.org/resource/Mississauga', 'start_year': '1993', 'abstract': "Billy Talent is a Canadian rock band from Mississauga, Ontario. They formed in 1993 with lead vocalist Benjamin Kowalewicz, guitarist Ian D'Sa, bassist Jonathan Gallant, and drummer Aaron Solowoniuk. There have been no lineup changes, although Solowoniuk is currently taking a hiatus from the band due to a relapse of multiple sclerosis, and Jordan Hastings is currently filling in for him. In the 28 years since their inception, Billy Talent has sold over a million physical albums in Canada alone and nearly 3 million albums internationally. Between 1995 and 2016, Billy Talent were the 27th best-selling Canadian artist in Canada and among the top 10 best-selling Canadian bands in Canada. The band existed for almost a decade before mainstream success. The members met and played in Our Lady of Mount Carmel Secondary School under the name Pezz and remained underground in Toronto's indie music scene until 2001. The band renamed itself Billy Talent after running into legal trouble with the old name. It was then that Kowalewicz's connection with an employee of Warner Music Canada's A&amp;R department landed the band a record deal and launched them into mainstream success. Since then, Billy Talent has made three multi-platinum records in Canada and continues to expand their success overseas; this included touring for 20 months supporting their second album. They released their third album, Billy Talent III, on July 14, 2009, and their fourth album, Dead Silence, on September 4, 2012. Dead Silence was followed up by a full UK tour throughout October and November 2012. To commemorate the longevity since the release of their first studio album, the band has released a greatest hits album entitled Hits on November 4, 2014. In 2015, they began to prepare material for their fifth studio album. Just before entering the studio, drummer Aaron Solowoniuk decided to sit out the recording sessions while he continued his longstanding battle with multiple sclerosis. Fellow Canadian Jordan Hastings was quickly recruited to play as Solowoniuk's studio stand-in, and, in early 2016, the group completed work on Afraid of Heights, which was released in July of that year."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Muse_(band)', 'artist_name': 'Muse', 'wiki': 'http://en.wikipedia.org/wiki/Muse_(band)', 'hometown': 'http://dbpedia.org/resource/Teignmouth', 'start_year': '1994', 'abstract': 'Muse are an English rock band from Teignmouth, Devon, formed in 1994. The band consists of Matt Bellamy (lead vocals, guitar, keyboards), Chris Wolstenholme (bass guitar, backing vocals), and Dominic Howard (drums). Muse released their debut album, Showbiz, in 1999, showcasing Bellamy\'s falsetto and a melancholic alternative rock style. Their second album, Origin of Symmetry (2001), incorporated wider instrumentation and romantic classical influences and earned them a reputation for energetic live performances. Absolution (2003) saw further classical influence, with strings on tracks such as "Butterflies and Hurricanes", and was the first of six consecutive UK number-one albums. Black Holes and Revelations (2006) incorporated electronic and pop elements, displayed in singles such as "Supermassive Black Hole", and brought Muse wider international success. The Resistance (2009) and The 2nd Law (2012) explored themes of government oppression and civil uprising and cemented Muse as one of the world\'s major stadium acts. Rolling Stone stated the band possessed "stadium-crushing songs". Topping the US Billboard 200, their seventh album, Drones (2015), was a concept album about drone warfare and returned to a harder rock sound. Their eighth album, Simulation Theory (2018), prominently featured synthesisers and was influenced by science fiction and the simulation hypothesis. Muse have won numerous awards, including two Grammy Awards, two Brit Awards, five MTV Europe Music Awards and eight NME Awards. In 2012 they received the Ivor Novello Award for International Achievement from the British Academy of Songwriters, Composers and Authors. By June 2016, they had sold over 20 million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Collective_Soul', 'artist_name': 'Collective Soul', 'wiki': 'http://en.wikipedia.org/wiki/Collective_Soul', 'hometown': 'http://dbpedia.org/resource/Stockbridge,_Georgia', 'start_year': '1992', 'abstract': 'Collective Soul is an American rock band originally from Stockbridge, Georgia. Now based in Atlanta, the group consists of lead vocalist Ed Roland, rhythm guitarist Dean Roland, bassist Will Turpin, drummer Johnny Rabb, and lead guitarist Jesse Triplett. Formed in 1992, Collective Soul released their Hints, Allegations, and Things Left Unsaid album on the independent label Rising Storm Records in 1993. The band went from obscurity to popularity that year after the song "Shine" became an underground hit based on radio play. The album was re-released in 1994 under major label Atlantic Records. Collective Soul released a self-titled album in March 1995. Considered by Ed Roland to be the band\'s true debut album, Collective Soul spent 76 weeks on the Billboard 200 charts and went triple-platinum, becoming the band\'s highest-selling album. The singles "December", "The World I Know", and "Where the River Flows" each reached No. 1 on the Mainstream Rock charts. About two years later, Collective Soul released Disciplined Breakdown. Although not as successful in sales as their previous two albums, Disciplined Breakdown contained two No. 1 Mainstream Rock chart hits with "Precious Declaration" and "Listen". The band released a fourth studio album, Dosage, in 1999. The album\'s first single, "Heavy", spent a then record-breaking 15 weeks on the top spot of the Mainstream Rock charts. The band released Blender in 2000, their fifth and final album with the original starting lineup, as lead guitarist Ross Childress left the band in 2001. About two weeks after Childress\' departure, Collective Soul released Seven Year Itch, a compilation of their greatest hits between 1994 and 2001. Collective Soul established their own label, El Music Group, prior to releasing Youth in 2004. The band recorded a live album with the Atlanta Symphony Youth Orchestra in 2005, titled Home, and released it in 2006. Original drummer Shane Evans departed from the band at the end of 2005. Collective Soul has since released four more albums: Afterwords (2007), a second self-titled album (2009), See What You Started by Continuing (2015), and Blood (2019).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/David_Bowie', 'artist_name': 'David Bowie', 'wiki': 'http://en.wikipedia.org/wiki/David_Bowie', 'birth_date': '08 January 1947', 'death_date': '10 January 2016', 'start_year': '1962', 'end_year': '2016', 'abstract': 'David Robert Jones OAL (8 January 1947 – 10 January 2016), known professionally as David Bowie (/ˈboʊi/ BOH-ee), was an English singer-songwriter and actor. A leading figure in the music industry, Bowie is regarded as one of the most influential musicians of the 20th century. He was acclaimed by critics and musicians, particularly for his innovative work during the 1970s. His career was marked by reinvention and visual presentation, and his music and stagecraft had a significant impact on popular music. Bowie developed an interest in music as a child. He studied art, music and design before embarking on a professional career as a musician in 1963. "Space Oddity", released in 1969, was his first top-five entry on the UK Singles Chart. After a period of experimentation, he re-emerged in 1972 during the glam rock era with his flamboyant and androgynous alter ego Ziggy Stardust. The character was spearheaded by the success of Bowie\'s single "Starman" and album The Rise and Fall of Ziggy Stardust and the Spiders from Mars, which won him widespread popularity. In 1975, Bowie\'s style shifted towards a sound he characterised as "plastic soul", initially alienating many of his UK fans but garnering him his first major US crossover success with the number-one single "Fame" and the album Young Americans. In 1976, Bowie starred in the cult film The Man Who Fell to Earth, directed by Nicolas Roeg, and released Station to Station. In 1977, he further confounded expectations with the electronic-inflected album Low, the first of three collaborations with Brian Eno that came to be known as the "Berlin Trilogy". "Heroes" (1977) and Lodger (1979) followed; each album reached the UK top five and received lasting critical praise. After uneven commercial success in the late 1970s, Bowie had three number-one hits: the 1980 single "Ashes to Ashes", its album Scary Monsters (and Super Creeps), and "Under Pressure" (a 1981 collaboration with Queen). He reached his peak commercial success in 1983 with Let\'s Dance: its title track topped both the UK and US charts. Throughout the 1990s and 2000s, Bowie continued to experiment with musical styles, including industrial and jungle. He also continued acting: his roles included Major Jack Celliers in Merry Christmas, Mr. Lawrence (1983), Jareth the Goblin King in Labyrinth (1986), Pontius Pilate in The Last Temptation of Christ (1988), and Nikola Tesla in The Prestige (2006), among other film and television appearances and cameos. He stopped touring after 2004 and his last live performance was at a charity event in 2006. In 2013, Bowie returned from a decade-long recording hiatus with The Next Day. He remained musically active until his death from liver cancer at his home in New York City. He died two days after both his 69th birthday and the release of his final album, Blackstar (2016). During his lifetime, his record sales, estimated at over 100 million records worldwide, made him one of the best-selling music artists of all time. In the UK, he was awarded ten platinum, eleven gold and eight silver album certifications, and released 11 number-one albums. In the US, he received five platinum and nine gold certifications. He was inducted into the Rock and Roll Hall of Fame in 1996. Rolling Stone named him among the greatest artists in history and – after his death – the "greatest rock star ever".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Temper_Trap', 'artist_name': 'The Temper Trap', 'wiki': 'http://en.wikipedia.org/wiki/The_Temper_Trap', 'hometown': 'http://dbpedia.org/resource/Melbourne', 'start_year': '2005', 'abstract': 'The Temper Trap are an Australian indie rock band formed in 2005 by Dougy Mandagi, Jonathon Aherne, and Toby Dundas. In 2008, the group relocated from Melbourne to London. The band released their debut album Conditions in June 2009 to favourable reviews and commercial success; it peaked at No. 9 on the ARIA Albums Chart and into the top 30 on the UK Albums Chart. Its lead single, "Sweet Disposition", peaked in the top 10 on the Belgian, Irish and UK Singles Charts and reached No. 14 on the ARIA Singles Chart. At the ARIA Music Awards of 2010 in November, The Temper Trap won Best Group and Most Popular Australian Single for "Sweet Disposition". Their eponymous second album was released in late May/early June 2012 under Liberation Music (AUS), Infectious Records (UK) and Glassnote Records (US). The album won the band Best Rock Album, and they also won Best Group at the 2012 ARIA Awards. In October 2013 guitarist Lorenzo Sillitto left the band, during the recording of the third album.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Ellie_Goulding', 'artist_name': 'Ellie Goulding', 'wiki': 'http://en.wikipedia.org/wiki/Ellie_Goulding', 'birth_date': '30 December 1986', 'start_year': '2009', 'abstract': 'Elena Jane Goulding (/ˈɡoʊldɪŋ/ GOHL-ding; born 30 December 1986) is an English singer and songwriter. Her career began when she met record producers Starsmith and Frankmusik, and she was later spotted by Jamie Lillywhite, who later became her manager and A&amp;R. After signing to Polydor Records in July 2009, Goulding released her debut extended play, An Introduction to Ellie Goulding later that year. In 2010, she became the second artist to top the BBC\'s annual Sound of... poll and win the Critics\' Choice Award at the Brit Awards in the same year. She released her debut studio album, Lights, in 2010; it debuted at No.\u20091 on the UK Albums Chart and has sold over 850,000 copies in the United Kingdom. In November 2010, the album was reissued as Bright Lights, which spawned two singles: a cover of Elton John\'s "Your Song" which was selected for the first John Lewis Christmas advert, reached No.\u20092 on the UK Singles Chart, and "Lights", which became Goulding\'s highest-charting single on the US Billboard Hot 100 to date, peaking at No.\u20092. Goulding\'s second studio album, Halcyon, was released in October 2012. "Anything Could Happen" preceded the album as the lead single. The album debuted at No.\u20092 on the UK Albums Chart, and after 65 weeks, it reached No.\u20091. Halcyon debuted at No.\u20099 on the US Billboard 200. Halcyon Days, a repackaged edition of Halcyon, was released in August 2013, generating singles, such as "Burn", which became her first No.\u20091 single in the UK. At the 2014 Brit Awards, she received the award for British Female Solo Artist. Goulding released her third studio album, titled Delirium, on 6 November 2015, with "On My Mind" as the album\'s lead single. In December 2015, she received her first Grammy Award nomination for Best Pop Solo Performance for her single "Love Me Like You Do". Her fourth studio album Brightest Blue was released on 17 July 2020, becoming her third to top the UK Albums Chart, and her fourth consecutive RIAA certified album.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Bravery', 'artist_name': 'The Bravery', 'wiki': 'http://en.wikipedia.org/wiki/The_Bravery', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2003', 'end_year': '2011', 'abstract': 'The Bravery is an American rock band, formed in New York City in 2003. The band consists of lead vocalist Sam Endicott, guitarist Michael Zakarin, keyboardist John Conway, bassist Mike Hindert and drummer Anthony Burulcich. They are best known for their 2005 top 10 UK single "An Honest Mistake" and their certified gold 2008 single "Believe". Before their initial split, they released three studio albums: The Bravery (2005), The Sun and the Moon (2007) and Stir the Blood (2009). They also released a remixed edition of their second album, called The Sun and the Moon Complete, in 2008, as well as an Internet live album called Live at the Wiltern Theater in 2010. The group\'s music is mostly post-punk, dance-influenced rock. The band were inactive from the early 2010s onward, with Endicott confirming the band\'s indefinite hiatus in April 2014. On July 31st 2021, The Bravery\'s website confirmed the return of the group.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Ace_of_Base', 'artist_name': 'Ace of Base', 'wiki': 'http://en.wikipedia.org/wiki/Ace_of_Base', 'hometown': 'http://dbpedia.org/resource/Gothenburg', 'start_year': '1987', 'abstract': 'Ace of Base is a Swedish pop group, formed in 1990, originally consisting of siblings Jonas, Linn and Jenny Berggren, with Ulf Ekberg. They achieved worldwide success following the release of their debut album Happy Nation in 1992. Later re-issued as The Sign, it was certified nine times platinum in the United States, and was the best-selling album of 1994. One of the most successful debut albums of all time, it was the first to produce three No. 1 singles on the Billboard Mainstream Top 40 chart: "All That She Wants", "The Sign" and "Don\'t Turn Around". They continued to score hit singles throughout the 1990s, with songs such as "Beautiful Life", "Lucky Love", "Cruel Summer" and "Life Is a Flower". By 2002, they had sold a total of 30 million copies of their first four studio albums, making them the third most successful Swedish group of all time, behind ABBA and Roxette. Despite being largely inactive since 2012, the group has never officially disbanded. In the last decade, they have released a number of demo tracks; first via their Facebook page, then in 2015 on the compilation album Hidden Gems. An expanded two-disc edition was included in the 2020 boxset All That She Wants: The Classic Collection. Jenny Berggren continues to perform the group\'s hits in solo concerts around the world.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Silverchair', 'artist_name': 'Silverchair', 'wiki': 'http://en.wikipedia.org/wiki/Silverchair', 'hometown': 'http://dbpedia.org/resource/Australia', 'start_year': '1992', 'end_year': '2011', 'abstract': 'Silverchair were an Australian rock band, which formed in 1992 as Innocent Criminals in Newcastle, New South Wales, with Ben Gillies on drums, Daniel Johns on vocals and guitars, and Chris Joannou on bass guitar. The group got their big break in mid-1994 when they won a national demo competition conducted by SBS TV show Nomad and ABC radio station Triple J. The band was signed by Murmur and were successful in Australia and internationally. Silverchair have sold over 8 million albums worldwide. Silverchair have won more ARIA Music Awards than any other artist in history, earning 21 wins from 49 nominations. They also received six APRA Awards, with Johns winning three songwriting awards in 2008. All five of their studio albums debuted at number one on the ARIA Albums Chart: Frogstomp (1995), Freak Show (1997), Neon Ballroom (1999), Diorama (2002), and Young Modern (2007). Three singles reached number-one on the related ARIA Singles Chart: "Tomorrow" (1994), "Freak" (1997), and "Straight Lines" (2007). Silverchair\'s alternative rock sound evolved throughout their career, differing styles on specific albums growing more ambitious over the years, from grunge on their debut to more recent work displaying orchestral and art rock influences. The songwriting and singing of Johns had evolved steadily while the band had developed an increased element of complexity. In 2003, following the release of Diorama, the band announced a hiatus, during which time members recorded with side projects the Dissociatives, the Mess Hall, and Tambalane. Silverchair reunited at the 2005 Wave Aid concerts. In 2007, they released their fifth album, Young Modern, and played the Across the Great Divide tour with contemporaries Powderfinger. In May 2011, Silverchair announced an indefinite hiatus.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Police', 'artist_name': 'The Police', 'wiki': 'http://en.wikipedia.org/wiki/The_Police', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1977', 'abstract': 'The Police were an English rock band formed in London in 1977. For most of their history the line-up consisted of primary songwriter Sting (lead vocals, bass guitar), Andy Summers (guitar) and Stewart Copeland (drums, percussion). The Police became globally popular in the late 1970s and early 1980s. Emerging in the British new wave scene, they played a style of rock influenced by punk, reggae, and jazz. Their 1978 debut album, Outlandos d\'Amour, reached No. 6 on the UK Albums Chart on the strength of the singles "Roxanne" and "Can\'t Stand Losing You". Their second album, Reggatta de Blanc (1979), became the first of four consecutive No. 1 studio albums in the UK and Australia; its first two singles, "Message in a Bottle" and "Walking on the Moon", became their first UK number ones. Their next two albums, Zenyatta Mondatta (1980) and Ghost in the Machine (1981), led to further critical and commercial success with two songs, "Don\'t Stand So Close to Me" and "Every Little Thing She Does Is Magic", becoming UK number-one singles and Top 5 hits in other countries; the latter album and single were their breakthrough into the US as both reached the Top 3 there. Their final studio album, Synchronicity (1983), was No. 1 in the UK, Canada, Australia, Italy and the US, selling over 8 million copies in the US. Its lead single, "Every Breath You Take", became their fifth UK number one, and only US number one. During this time, the band were considered one of the leaders of the Second British Invasion of the US; in 1983 Rolling Stone labelled them "the first British New Wave act to break through in America on a grand scale, and possibly the biggest band in the world." The Police disbanded in 1986, but reunited in early 2007 for a one-off world tour that ended in August 2008. They were the world\'s highest-earning musicians in 2008, due to their reunion tour. The Police have sold over 75 million records, making them one of the best-selling bands of all time. The band won a number of music awards, including six Grammy Awards, two Brit Awards—winning Best British Group once, and an MTV Video Music Award. In 2003, they were inducted into the Rock and Roll Hall of Fame. Four of their five studio albums appeared on Rolling Stone\'s list of the "500 Greatest Albums of All Time". The band were included among both Rolling Stone\'s and VH1\'s lists of the "100 Greatest Artists of All Time".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/John_Newman_(singer)', 'artist_name': 'John Newman', 'wiki': 'http://en.wikipedia.org/wiki/John_Newman_(singer)', 'birth_date': '16 June 1990', 'start_year': '2012', 'abstract': 'John William Peter Newman (born 16 June 1990) is an English singer, songwriter, musician and record producer. He is best known for the track "Love Me Again" which peaked at number one on the UK Singles Chart in July 2013 and appeared in FIFA 14, as well as co-writing and singing on Rudimental\'s 2012 singles "Feel the Love" and "Not Giving In", which peaked at number one and number 14 on the chart, respectively. In 2014, he featured in the Calvin Harris single "Blame", which also topped the UK charts. At the 2014 Brit Awards, Newman was nominated for three Brit Awards, including for British Male Solo Artist. As of February 2014, Newman has sold over 1.3 million records in the UK alone.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jack_Ü', 'artist_name': 'Jack Ü', 'wiki': 'http://en.wikipedia.org/wiki/Jack_Ü', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2013', 'end_year': '2016', 'abstract': 'Jack Ü is a American DJ duo consisting of electronic music producers Skrillex and Diplo, formed in 2013. They released their first official single, "Take Ü There", featuring vocals from Kiesza, on September 17, 2014. On February 3, 2015, the duo announced that they would be working with Missy Elliott on a remix of "Take Ü There". They released their first and only album, Skrillex and Diplo Present Jack Ü, on February 27, 2015. Jack Ü performed at Ultra Music Festival Miami in 2014. They also performed at Ultra Music Festival in 2015 with the entire "Jack Ü crew", featuring live contributions from CL, Kai, Diddy, Kiesza and Justin Bieber. According to Skrillex, the collaboration is called \'Jack Ü\' because it refers to how the music "jacks you up" with its high energy beats and bassline. The Ü (U with umlaut) letter appears in titles of all of its singles and is usually stylized to look like a smiley.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/ALT_(band)', 'artist_name': 'ALT', 'wiki': 'http://en.wikipedia.org/wiki/ALT_(band)', 'start_year': '1994', 'end_year': '1995', 'abstract': "ALT was a one-off band, featuring former New Zealand band Split Enz frontman Tim Finn, Northern Irish singer/songwriter Andy White and the frontman of the Irish band Hothouse Flowers, Liam Ó Maonlaí, that recorded and played together in 1995. The band's name was created out of the letters of their first names. They released two albums. The first was the studio album Altitude, was recorded in Periscope Studios in Melbourne, Australia. It had thirteen tracks, and it included references and influences to the musical and cultural traditions in which the participants grew up. The second was Bootleg, a live recording from The Continental in Sydney, Australia. Both albums were recorded and released in 1994–1995. They toured briefly around Europe after the album was released. Finn re-recorded an ALT song as the title track and first song for his 2001 EP, What You've Done. The ALT version is the second track of that EP. Finn also included his new take on the song in the Feeding the Gods album the same year. In 2004, Ó Maonlaí joined Finn on stage in Dublin, during a Finn Brothers concert, and they performed one of the ALT songs. The three have worked together on each other's solo projects from time to time."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/4_Non_Blondes', 'artist_name': '4 Non Blondes', 'wiki': 'http://en.wikipedia.org/wiki/4_Non_Blondes', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1989', 'end_year': '1989', 'abstract': '4 Non Blondes was an American alternative rock band from San Francisco, California, active from 1989 to 1994. Their only album, Bigger, Better, Faster, More! spent 59 weeks on the Billboard 200 and sold 1.5 million copies between 1992 and 1994. They hit the charts in 1993 with the release of the album\'s second single, "What\'s Up?". Originally, the band was all-female, with lead singer Linda Perry, bassist Christa Hillhouse, guitarist Shaunna Hall, and drummer Wanda Day. However, along with Day being replaced by Dawn Richardson (drums), Hall was replaced by Roger Rocha (guitar) before the release of the album. Lead singer Linda Perry left the band in 1994, and the remaining members disbanded shortly thereafter.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Rob_Thomas_(musician)', 'artist_name': 'Rob Thomas', 'wiki': 'http://en.wikipedia.org/wiki/Rob_Thomas_(musician)', 'hometown': 'http://dbpedia.org/resource/Sarasota,_Florida', 'birth_date': '14 February 1972', 'start_year': '1990', 'abstract': 'Robert Kelly Thomas (born February 14, 1972) is an American singer, songwriter, and multi-instrumentalist best known for being the lead singer of the rock band Matchbox Twenty. Thomas also records and performs as a solo artist, with "Lonely No More" released in 2005 becoming his biggest solo chart success. Thomas received three Grammy Awards for co-writing and singing on the 1999 hit "Smooth" by Santana and it also was his first song as a solo artist. He has also been a songwriter for artists such as Willie Nelson, Mick Jagger, Marc Anthony, Pat Green, Taylor Hicks, Travis Tritt, and Daughtry. Since 1996, his band has released a string of hit singles to radio, including "Push", "3AM", "Real World", "Back 2 Good", "Bent", "If You\'re Gone", "Mad Season", "Disease", "Unwell", "Bright Lights", "How Far We\'ve Come", and "She\'s So Mean". In 2004, the Songwriters Hall of Fame awarded Thomas its first Hal David Starlight Award, recognizing young songwriters who have already had a lasting influence in the music industry.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Rod_Stewart', 'artist_name': 'Rod Stewart', 'wiki': 'http://en.wikipedia.org/wiki/Rod_Stewart', 'birth_date': '10 January 1945', 'start_year': '1961', 'abstract': 'Sir Roderick David Stewart CBE (born 10 January 1945) is a British rock and pop singer, songwriter, and record producer. Born and raised in London, he is of Scottish and English ancestry. With his distinctive raspy singing voice, Stewart is one of the best-selling music artists of all time, having sold over 250 million records worldwide. He has had 10 number-one albums and 31 top ten singles in the UK, 6 of which reached number one. Stewart has had 16 top ten singles in the US, with four reaching number one on the Billboard Hot 100. He was knighted in the 2016 Birthday Honours for services to music and charity. Stewart\'s music career began in 1962 when he took up busking with a harmonica. In 1963, he joined The Dimensions as harmonica player and vocalist. In 1964, Stewart joined Long John Baldry and the All Stars before moving to the Jeff Beck Group in 1967. Joining Faces in 1969, he also maintained a solo career releasing his debut album that same year. Stewart\'s early albums were a fusion of rock, folk music, soul music, and R&amp;B. His third album, 1971\'s Every Picture Tells a Story, was his breakthrough, topping the charts in the UK, US, Canada and Australia, as did its ballad "Maggie May". His 1972 follow-up album, Never a Dull Moment, also reached number one in the UK and Australia, while going top three in the US and Canada. Its single, "You Wear It Well", topped the chart in the UK and was a moderate hit elsewhere. After a handful more UK top ten hits, Stewart announced the breakup of the Faces in 1975. His next few singles were ballads with "Sailing", off the 1975 UK and Australian number-one album, Atlantic Crossing, becoming a hit in the UK and the Netherlands (number one), Germany (number four) and other countries, but barely charting in North America. A Night on the Town (1976), his fifth straight chart-topper in the UK, began a three-album run of going number one or top three in North America, the UK and Australia with each release. That album\'s "Tonight\'s the Night (Gonna Be Alright)" spent almost two months at number one in the US and Canada, and made the top five in other countries. Foot Loose &amp; Fancy Free (1977) featured the major hit "You\'re In My Heart (The Final Acclaim)" as well as the rocker "Hot Legs". Blondes Have More Fun (1978) and its disco-tinged "Da Ya Think I\'m Sexy" both went to number one in Canada, Australia and the US, with "Da Ya Think I\'m Sexy" also hitting number one in the UK and the top ten in other countries. Stewart\'s albums regularly hit the upper rungs of the charts in the Netherlands throughout the 70s and in Sweden from 1975 onward. After a disco and new wave period in the late 1970s and early 1980s, Stewart\'s music turned to a soft rock/middle-of-the-road style, with most of his albums reaching the top ten in the UK, Germany and Sweden, but faring less well in the US. The single "Rhythm of My Heart" was a top five hit in the UK, US and other countries, with its source album, 1991\'s Vagabond Heart, becoming, at number ten in the US and number two in the UK, his highest charting album in a decade. In 1993, he collaborated with Bryan Adams and Sting on the power ballad "All for Love", which went to number one in many countries. In the early 2000s, he released a series of successful albums interpreting the Great American Songbook. In 2008, Billboard magazine ranked him the 17th most successful artist on the "Billboard Hot 100 All-Time Top Artists". A Grammy and Brit Award recipient, he was voted at No. 33 in Q Magazine\'s list of the Top 100 Greatest Singers of all time As a solo artist, Stewart was inducted into the US Rock and Roll Hall of Fame in 1994, the UK Music Hall of Fame in 2006, and he was inducted a second time into the US Rock and Roll Hall of Fame in 2012 as a member of Faces.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Cobra_Starship', 'artist_name': 'Cobra Starship', 'wiki': 'http://en.wikipedia.org/wiki/Cobra_Starship', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2005', 'end_year': '2015', 'abstract': 'Cobra Starship was an American dance-pop band founded in 2006 by Gabe Saporta (ex-Midtown), and headquartered in New York City, New York. He recorded the first album as a solo project, While the City Sleeps, We Rule the Streets. Saporta later enlisted guitarist Ryland Blackinton, bassist Alex Suarez, drummer Nate Novarro, and keytarist Victoria Asher, all of whom provide backing vocals. Over ten years, Cobra Starship produced four albums and two Billboard Hot 100 top 10 singles. The group released its debut album, While the City Sleeps, We Rule the Streets, in 2006, which contained the single "Snakes on a Plane (Bring It)". The band released its second album, ¡Viva La Cobra!, on October 23, 2007. Their third album, Hot Mess, was released on August 11, 2009. Their fourth and final album, Night Shades, was released on August 30, 2011, in the US and October 28, 2011, in the UK. Cobra Starship officially announced its dissolution on November 10, 2015.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Scissor_Sisters', 'artist_name': 'Scissor Sisters', 'wiki': 'http://en.wikipedia.org/wiki/Scissor_Sisters', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2000', 'end_year': '2012', 'abstract': 'Scissor Sisters are an American pop rock band formed in 2001. Forged in the "gay nightlife scene of New York", the band took its name from the female same-sex sexual activity tribadism. Its members include Jake Shears and Ana Matronic as vocalists, Babydaddy as multi-instrumentalist, Del Marquis as lead guitar/bassist, and Randy Real (who replaced Paddy Boom) as drummer. Scissor Sisters incorporates diverse and eclectic styles in their music, but tends to sway towards pop rock, glam rock, nu-disco, and electroclash. The band came to prominence following the release of their Grammy-nominated and chart-topping disco version of "Comfortably Numb" and subsequent debut album Scissor Sisters (2004). The album was a success, particularly in the UK where it reached number one, was the best-selling album of 2004, was later certified platinum by the BPI, and earned them three BRIT Awards in 2005. All five of its singles reached positions within the top 20 of the UK Singles Chart while "Filthy/Gorgeous" scored the band their first number one on Billboard\'s Hot Dance Club Songs, despite the album\'s meager success in their native US. The album continued its success in countries around Europe, in Australia and in Canada before the release of the band\'s second studio album Ta-Dah (2006), their second consecutive UK number one album which produced their first UK number one single "I Don\'t Feel Like Dancin\'". Their third studio album Night Work (2010) displayed a shift towards a more club-oriented sound, charting at number two on the UK Albums Chart, number one on Billboard\'s Top Independent Albums chart and in the top 10 of several international territories. The band released their fourth studio album Magic Hour in May 2012. Scissor Sisters has performed around the world and have become recognized for their controversial and transgressive live performances. They also collaborated with a number of other well-known pop musicians, including Elton John and Kylie Minogue; these particular collaborations have been received positively by both critics and other notable figures. In 2004, Bono, lead vocalist of rock band U2, described Scissor Sisters as "the best pop group in the world". They also collaborated with Global Cool in 2007 on one of their green lifestyle campaigns.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Hard_(band)', 'artist_name': 'Hard', 'wiki': 'http://en.wikipedia.org/wiki/Hard_(band)', 'hometown': 'http://dbpedia.org/resource/Hungary', 'start_year': '2004', 'abstract': 'Hard is a Hungarian hard rock supergroup formed in late 2004 in Budapest, Hungary by József Kalapács (ex-vocalist of Pokolgép and Omen, currently also singing in Kalapács) and Gábor Mirkovics (ex-bass guitarist of Edda Művek). The rest of the band consisted of guitarist Zsolt Csillik (ex-Dance, Jack Daniels and Fix), keyboardist Dénes Makovics (also known for playing saxophone in Bikini) and drummer Zoltán Váry (ex-Sing Sing, ex-Zero-G, guitars–vocals for the Hungarian KISS tribute band KISS Forever Band). In 2005, Ferenc Béres arrived to fill in the position of Dénes Makovics, who was a session member for the studio recording of the first release, “Égni kell”. He played in EDDA Művek and Fix beforehand. In 2007, Váry left because of the German success of KISS Forever Band (he couldn\'t concentrate on Hard enough), so Donászy arrived, who also played in e.g. Beatrice. In 2007 Hard reformed for an international introduction with singer . The album Traveler was released in 2008. The material has since been remixed by the producer Beau Hill in 2008. In 2009, Swedish vocalist and guitarist Björn Lodin was confirmed as the new singer for Hard. Björn is known for his work with Swedish rockers Baltimoore. Platinum-selling Hungarian guitar virtuoso Endre Csillag has also joined the ranks along with drummer Balázs Hornyák. The band start recording their new CD together in the Autumn with Björn Lodin also handling the production duties. The new, as yet untitled album, is scheduled for release on BLP Music, March 2010. "Love Goes With Anything" is the debut single from the new line-up and was released in November 2009.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Tom_Petty_and_the_Heartbreakers', 'artist_name': 'Tom Petty and the Heartbreakers', 'wiki': 'http://en.wikipedia.org/wiki/Tom_Petty_and_the_Heartbreakers', 'abstract': 'Tom Petty and the Heartbreakers were an American rock band from Gainesville, Florida. Formed in 1976, the band originally comprised Tom Petty (lead singer, guitar), Mike Campbell (lead guitarist), Ron Blair (bass guitar), Stan Lynch (drums), and Benmont Tench (keyboards). In 1981, Blair, weary of the touring lifestyle, departed the band. His replacement, Howie Epstein, stayed with the band for the next two decades. In 1991, Scott Thurston joined the band as a multi-instrumentalist—mostly on rhythm guitar and second keyboards. In 1994, Steve Ferrone replaced Lynch on drums. Blair returned to the Heartbreakers in 2002, the year before Epstein\'s death. The band had a long string of hit singles including "Breakdown", "American Girl", "Refugee", "The Waiting", "Learning to Fly", and "Mary Jane\'s Last Dance", among many others, that stretched over several decades of work. The band\'s music was characterized as both Southern rock and heartland rock, cited alongside artists such as Bruce Springsteen, Bob Seger, and John Mellencamp as progenitors of that genre that arose in the late 1970s and 1980s. While the heartland rock movement waned in the 1990s, the band remained active and popular, touring regularly until Petty\'s death in 2017, after which the Heartbreakers disbanded. Their final studio album, Hypnotic Eye, was released in 2014. The band was inducted into the Rock and Roll Hall of Fame in 2002, their first year of eligibility. Although most of their material was produced and performed under the name "Tom Petty and the Heartbreakers", Petty released three solo albums, the most successful of which was Full Moon Fever (1989). In these releases, some members of the band contributed as collaborators, producing and performing as studio musicians.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Dr._Alban', 'artist_name': 'Dr. Alban', 'wiki': 'http://en.wikipedia.org/wiki/Dr._Alban', 'hometown': 'http://dbpedia.org/resource/Sweden', 'birth_date': '26 August 1957', 'start_year': '1980', 'abstract': 'Alban Uzoma Nwapa (born 26 August 1957), better known by his stage name Dr. Alban, is a Nigerian-Swedish recording artist and producer with his own record label, Dr. Records. His music can best be described as Eurodance/hip-hop reggae in a dancehall style. He has sold an estimated 16 million records worldwide and is most famous for his worldwide 1992 hit "It\'s My Life", from the album One Love.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Human_League', 'artist_name': 'The Human League', 'wiki': 'http://en.wikipedia.org/wiki/The_Human_League', 'abstract': 'The Human League are an English synth-pop band formed in Sheffield in 1977. Initially an experimental electronic outfit, the group signed to Virgin Records in 1979 and later attained widespread commercial success with their third album Dare in 1981. The album contained four hit singles, including the UK/US number one hit "Don\'t You Want Me". The band received the Brit Award for Best British Breakthrough Act in 1982. Further hits followed throughout the 1980s and into the 1990s, including "Mirror Man", "(Keep Feeling) Fascination", "The Lebanon", "Human" (a US No. 1) and "Tell Me When". The only constant band member since 1977 has been lead singer and songwriter Philip Oakey. Keyboard players Martyn Ware and Ian Craig Marsh both left the band in 1980 to form Heaven 17. Under Oakey\'s leadership, the Human League then evolved into a commercially successful New Pop band, with a new line-up including female vocalists Joanne Catherall and Susan Ann Sulley. Since the mid-1990s, the band have essentially been a trio of Oakey, Catherall and Sulley with various sidemen. Since 1978, the Human League have released nine studio albums, two remix albums, one live album, six EPs, 30 singles and several compilation albums. They have had five albums and 15 Top 20 singles and had sold more than 20 million records worldwide by 2010. As an early techno-pop act that received extensive MTV airplay, they are regarded as one of the leading artists of the 1980s Second British Invasion of the US.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Billy_Joel', 'artist_name': 'Billy Joel', 'wiki': 'http://en.wikipedia.org/wiki/Billy_Joel', 'birth_date': '09 May 1949', 'start_year': '1964', 'abstract': 'William Martin Joel (born May 9, 1949) is an American singer-songwriter and composer. Commonly nicknamed the "Piano Man" after his first major hit and signature song of the same name as well as the similarly named 1973 album, he has led a commercially successful career as a solo artist since the 1970s, having released 12 studio albums from 1971 to 1993 as well as one studio album in 2001. He is one of the best-selling music artists of all time, as well as the seventh-best-selling recording artist and the fourth-best-selling solo artist in the United States, with over 150 million records sold worldwide. His 1985 compilation album, Greatest Hits Vol. 1 &amp; 2, is one of the best-selling albums in the United States. Joel was born in 1949 in the Bronx, New York, and grew up on Long Island, both places that influenced his music. Growing up, he took piano lessons at his mother\'s insistence. After dropping out of high school to pursue a musical career, Joel took part in two short-lived bands, The Hassles and Attila, before signing a record deal with Family Productions and kicking off a solo career in 1971 with his first release Cold Spring Harbor. In 1972, Joel caught the attention of Columbia Records after a live radio performance of the song "Captain Jack" became popular in Philadelphia, prompting him to sign a new record deal with the company and release his second album, Piano Man, in 1973. After releasing the albums Streetlife Serenade and Turnstiles in 1974 and 1976 respectively, Joel released his critical and commercial breakthrough album, The Stranger, in 1977. This album became Columbia\'s best-selling release, selling over 10 million copies and spawning several hit singles, including "Just the Way You Are", "Movin\' Out (Anthony\'s Song)", "Only the Good Die Young", and "She\'s Always a Woman"; another song on this album, "Scenes from an Italian Restaurant", is Joel\'s favorite of his own songs and has become a staple of his live shows. Joel\'s next album, 52nd Street, was released in 1978 and became his first album to peak at No.1 on the Billboard 200 chart. Joel released his seventh studio album, Glass Houses, in 1980 in an attempt to further establish himself as a rock artist; this release featured "It\'s Still Rock and Roll to Me" (Joel\'s first single to top the Billboard Hot 100 chart), "You May Be Right", "Don\'t Ask Me Why", and "Sometimes a Fantasy". His next album, The Nylon Curtain, was released in 1982, and stemmed from a desire from Joel to create more lyrically and melodically ambitious music. An Innocent Man, released in 1983, served as an homage to genres of music which Joel had grown up with in the 1950s, such as rhythm and blues and doo-wop; this release featured "Uptown Girl" and "The Longest Time", two of his best-known songs. After releasing the albums The Bridge and Storm Front in 1986 and 1989 respectively, Joel released his twelfth studio album, River of Dreams, in 1993. He went on to release Fantasies and Delusions, a 2001 album featuring classical compositions composed by Joel and performed by British-Korean pianist Richard Hyung-ki Joo. Joel provided voiceover work in 1988 for the Disney animated film Oliver &amp; Company, in which he played the character Dodger with his song, "Why Should I Worry?", and contributed to the soundtracks to several different films, including Easy Money, Ruthless People, and Honeymoon in Vegas. Across the 20 years of his solo career, Joel produced 33 top 40 hits in the U.S., all of which he wrote himself, and three of which ("It\'s Still Rock and Roll to Me", "Tell Her About It", and "We Didn\'t Start the Fire") peaked at the top of the Billboard Hot 100 charts. Joel has been nominated for 23 Grammy Awards, winning five of them, including Album of the Year for 52nd Street. Joel was inducted into the Songwriters Hall of Fame (1992), the Rock and Roll Hall of Fame (1999), and the Long Island Music Hall of Fame (2006). In 2001, Joel received the Johnny Mercer Award from the Songwriters Hall of Fame. In 2013, Joel received the Kennedy Center Honors for influencing American culture through the arts. Since the advent of his solo career, Joel has held a successful touring career, holding live performances across the globe in which he sings several of his written songs. In 1987, he became one of the first artists to hold a rock tour in the Soviet Union following the country\'s alleviation of the ban on rock music. Despite largely retiring from writing and releasing pop music following the release of River of Dreams, he continues to tour; he frequently performs at Madison Square Garden.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Steve_Edwards_(singer)', 'artist_name': 'Steve Edwards', 'wiki': 'http://en.wikipedia.org/wiki/Steve_Edwards_(singer)', 'start_year': '1993', 'abstract': 'Stephen Neil Edwards, better known by his stage name Steve Edwards, is an English house music singer and songwriter from Sheffield, England. He has collaborated with several house music producers.'}</t>
+  </si>
+  <si>
+    <t>{'artist': "http://dbpedia.org/resource/Rag'n'Bone_Man", 'artist_name': "Rag'n'Bone Man", 'wiki': "http://en.wikipedia.org/wiki/Rag'n'Bone_Man", 'abstract': 'Rory Charles Graham (born 29 January 1985), better known as Rag\'n\'Bone Man, is an English singer and songwriter. He is known for his deep baritone voice. His first hit single, "Human", was released in 2016, and his debut album of the same name was released in 2017. At the 2017 Brit Awards, he was named British Breakthrough Act and received the Critics\' Choice Award.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kool_Moe_Dee', 'artist_name': 'Kool Moe Dee', 'wiki': 'http://en.wikipedia.org/wiki/Kool_Moe_Dee', 'birth_date': '08 August 1962', 'start_year': '1978', 'abstract': 'Mohandas Dewese (born August 8, 1962), better known by his stage name Kool Moe Dee, is an American rapper, writer and actor. Considered one of the forerunners of the new jack swing sound in hip hop, he gained fame in the 1980s as a member of one of the pioneering groups in hip hop music, the Treacherous Three, and for his later solo career. During his career he released a total of seven studio albums (five of them solo), with 1994\'s Interlude being the last to date. His fast and aggressive rap style influenced following rap figures such as Big Daddy Kane, Beastie Boys, KRS-One, Rakim, Will Smith, N.W.A, Tupac Shakur, Nas, Jay-Z, among others. Among his most famous songs are "Go See the Doctor", "Wild Wild West" and "How Ya Like Me Now". Kool Moe Dee was ranked No. 33 on About.com\'s list of the 50 Greatest MCs of Our Time (1987–2007).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Fergie_(DJ)', 'artist_name': 'Fergie', 'wiki': 'http://en.wikipedia.org/wiki/Fergie_(DJ)', 'hometown': 'http://dbpedia.org/resource/Larne', 'birth_date': '16 November 1979', 'start_year': '1993', 'abstract': 'Robert Ferguson (born 16 November 1979), known professionally as Fergie, is a Northern Irish DJ and electronic music artist from Larne. He has been an internationally touring DJ and a music producer for over 20 years. He presented a radio show on BBC Radio 1 for over four years while recording 13 Essential Mixes for the station. He was featured in the DJ Mag Top 100 DJs poll seven years in a row and currently holds the record for the highest new entry since the poll began, achieved when he was voted 8th in 2000. Fergie played his first DJ set at the age of 14, standing on an upturned milk crate. He met Tony De Vit who invited him to England and would become Fergie\'s mentor. His career escalated in the 1990s when he played mainly hard house in his DJ sets at club nights such as Trade, Godskitchen, Sundissential, Golden, and Passion (where he had DJ residencies). He achieved UK Singles Chart success in the early 2000s with releases such as his remix of "Meet Her at the Love Parade". Throughout the 2000s his DJ sets became more house and techno orientated. He DJed in Ibiza every summer at nightclubs such as Amnesia, Privilege and Space. He released multiple DJ mixes including two via the Ministry of Sound record label and magazine covermounted CDs for Mixmag and DJ Mag. He also wrote a regular column for Mixmag. He founded the Excentric Muzik record label in 2007. He has released his debut artist album "Dynamite &amp; Laserbeams" on the label in 2010. He currently resides in Las Vegas and has been a resident DJ at the Hakkasan Nightclub at the MGM Grand and at the Omnia nightclub of Caesars Palace since they both opened. He also has a DJ residency in Las Vegas at Wet Republic. He is working under the name Fergie (DJ).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Mýa', 'artist_name': 'Mýa', 'wiki': 'http://en.wikipedia.org/wiki/Mýa', 'birth_date': '10 October 1979', 'start_year': '1996', 'abstract': 'Mýa Marie Harrison (/ˈmaɪə/; born October 10, 1979) is an American singer, songwriter, dancer, and actress. Born into a musical family, before entering the music industry she appeared on BET\'s Teen Summit. Signed in 1996 to Interscope Records, she released her eponymous debut album in April 1998. A critical and commercial success, the album produced her first top ten single "It\'s All About Me". Subsequent singles, "Ghetto Supastar (That Is What You Are)" and "Take Me There", continued to raise her profile and attained chart success worldwide, with the former garnering her first Grammy nomination. Fear of Flying, her second album, was released in April 2000 and became a worldwide success, boosted by the success of its singles "Case of the Ex" and "Free". Harrison continued her rise to prominence in 2002 when she won her first Grammy Award in the category for Best Pop Collaboration with Vocals for her rendition of Labelle\'s 1975 hit "Lady Marmalade" along with Pink, Christina Aguilera and Lil\' Kim, which topped the charts globally. Taking a more active role in the production of her music, Harrison released her third studio album, the eccentric Moodring, in July 2003. The album produced the single "My Love Is Like...Wo" and was certified gold by the RIAA. Following a label change and a delay in her fourth studio album, Harrison went independent and recorded two exclusive albums for the Japanese music market, Sugar &amp; Spice (2008) and K.I.S.S. (Keep It Sexy &amp; Simple) (2011). In between recording those two albums, she launched her own independent record label Planet 9 and competed in Dancing with the Stars – season nine; finishing in second place. As an independent artist, Harrison continues to regularly release music. Beginning in 2014, she released a trio of R&amp;B-rooted EPs, With Love (2014), Sweet XVI (2014), and Love Elevation Suite (2015). In 2016, Harrison released her seventh album, the Grammy-nominated Smoove Jones. The follow-up, TKO (The Knock Out), arrived in April 2018 to commemorate the twentieth anniversary of her debut album. In addition to a music career, Harrison crossed over into acting and made her feature-film debut in 1999\'s thriller In Too Deep starring LL Cool J and Omar Epps. She continued to appear in supporting roles in films such as Chicago (2002), Dirty Dancing: Havana Nights (2004), Shall We Dance? (2004), and Cursed (2005). Harrison\'s contribution to music has earned her many accolades in the fields of pop and R&amp;B music categories. In 2009, Billboard listed Mýa as one of their Hot 100 Artists of the 2000s; placing her in the 97th position. As of October 2020, she has sold over 3.2 million albums in the U.S. and 7 million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Fun_(band)', 'artist_name': 'Fun.', 'wiki': 'http://en.wikipedia.org/wiki/Fun_(band)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2008', 'end_year': '2015', 'abstract': 'Fun (stylized fun.) is an American pop rock band based in New York City. The band was formed by Nate Ruess (then-former lead singer of the Format), Andrew Dost (formerly of Anathallo), and Jack Antonoff (of Steel Train and Bleachers). Fun has released two albums: Aim and Ignite in August 2009 and Some Nights in February 2012. The band is best known for three hit singles from Some Nights: Grammy Award-winning "We Are Young" featuring Janelle Monáe, "Some Nights", and "Carry On". "We Are Young" reached number one on the U.S. Billboard Hot 100 and Digital Songs charts. It also peaked at number one in the United Kingdom. "Some Nights" was released as the album\'s second single in June 2012, peaking at number three on the Hot 100 chart and becoming Fun\'s second Top 10 single, as well as the band\'s second song to reach platinum status in the United States. In 2013, "We Are Young" won the Grammy award for Song of the Year and the band won Best New Artist. Additionally, Fun was a nominee for four other Grammy Awards: Record of the Year and Best Pop Duo or Group Performance (both for "We Are Young") along with Album of the Year and Best Pop Vocal Album (both for Some Nights).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Spacehog', 'artist_name': 'Spacehog', 'wiki': 'http://en.wikipedia.org/wiki/Spacehog', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1994', 'end_year': '2002', 'abstract': 'Spacehog are an English rock band formed in 1994 in New York City. Their music is heavily influenced by David Bowie, Queen, and T. Rex. The band\'s best known single is "In the Meantime".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/NewDad', 'artist_name': 'NewDad', 'wiki': 'http://en.wikipedia.org/wiki/NewDad', 'hometown': 'http://dbpedia.org/resource/Republic_of_Ireland', 'start_year': '2020', 'abstract': 'NewDad are an Irish Indie rock band from Galway, Ireland. Their music has been compared to The Cure, Beabadoobee, and Just Mustard by NME magazine. Atwood Magazine wrote of the group: "The band oozes personality with cynical but honest lyrics, colorful visual components, and poignant messages about coping with the, albeit painful, formative experiences." The group have appeared at the Green Man Festival in Wales, The Pitchfork Music Festival in Paris, and on the Irish televesion program Other Voices.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Skid_Row_(Irish_band)', 'artist_name': 'Skid Row', 'wiki': 'http://en.wikipedia.org/wiki/Skid_Row_(Irish_band)', 'hometown': 'http://dbpedia.org/resource/Dublin', 'start_year': '1967', 'end_year': '1972', 'abstract': 'Skid Row were an Irish blues rock band of the late 1960s and early 1970s, based in Dublin and fronted by bass guitarist Brendan "Brush" Shiels. It was the first band in which future Thin Lizzy members Phil Lynott and Gary Moore played professionally.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Gwen_Stefani', 'artist_name': 'Gwen Stefani', 'wiki': 'http://en.wikipedia.org/wiki/Gwen_Stefani', 'birth_date': '03 October 1969', 'start_year': '1986', 'abstract': 'Gwen Renée Stefani (/stəˈfɑːni/; born October 3, 1969) is an American singer and songwriter. She is a co-founder, lead vocalist, and the primary songwriter of the band No Doubt, whose singles include "Just a Girl", "Spiderwebs", and "Don\'t Speak", from their 1995 breakthrough studio album Tragic Kingdom, as well as "Hey Baby" and "It\'s My Life" from later albums. During the band\'s hiatus, Stefani embarked on a solo pop career in 2004 by releasing her debut studio album Love. Angel. Music. Baby. Inspired by pop music from the 1980s, the album was a critical and commercial success. It spawned six singles, including "What You Waiting For?", "Rich Girl", "Hollaback Girl", and "Cool". "Hollaback Girl" reached number one on the Billboard Hot 100 chart while also becoming the first US download to sell one million copies. In 2006, Stefani released her second studio album, The Sweet Escape. Among the singles were "Wind It Up" and "The Sweet Escape", the latter of which was number three on the Billboard Hot 100 year-end chart of 2007. Her third solo album, This Is What the Truth Feels Like (2016), was her first solo album to reach number one on the Billboard 200 chart. Her fourth solo album and first full-length Christmas-themed album, You Make It Feel Like Christmas, was released in 2017 and charted 19 tracks on Billboard\'s Holiday Digital Song Sales component chart in the United States. Stefani has released several singles with Blake Shelton, including "Nobody but You" (2020), which reached number 18 in the US. Stefani has won three Grammy Awards. As a solo artist, she has received an American Music Award, Brit Award, World Music Award, and two Billboard Music Awards. In 2003, she debuted her clothing line L.A.M.B. and expanded her collection with the 2005 Harajuku Lovers line, inspired by Japanese culture and fashion. Billboard magazine ranked Stefani the 54th most successful artist and 37th most successful Hot 100 artist of the 2000–2009 decade. VH1 ranked her 13th on their "100 Greatest Women in Music" list in 2012. Including her work with No Doubt, Stefani has sold more than 30 million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sabrina_(Filipino_singer)', 'artist_name': 'Sabrina', 'wiki': 'http://en.wikipedia.org/wiki/Sabrina_(Filipino_singer)', 'birth_date': '30 December 1989', 'start_year': '2006', 'abstract': 'Roli Alexandra Xanxan Orial (born 30 December 1989), also known by her stage name Sabrina Orial or simply Sabrina and Sabrinatics, is a Filipina recording artist and acoustic singer of cover versions.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bronski_Beat', 'artist_name': 'Bronski Beat', 'wiki': 'http://en.wikipedia.org/wiki/Bronski_Beat', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1983', 'end_year': '1995', 'abstract': 'Bronski Beat were a British synthpop trio which achieved success in the mid-1980s, particularly with the 1984 chart hit "Smalltown Boy", from their debut album The Age of Consent. "Smalltown Boy" was their only US Billboard Hot 100 single. All members of the band were openly gay and their songs reflected this, often containing political commentary on gay-related issues. The initial line-up, which recorded the majority of the band\'s hits, consisted of Jimmy Somerville (vocals), Steve Bronski (born Steven William Forrest, keyboards, percussion) and Larry Steinbachek (keyboards, percussion). Somerville left Bronski Beat in 1985, and went on to have success as lead singer of the Communards and as a solo artist. He was replaced by vocalist John Foster, with whom the band continued to have hits in the UK and Europe through 1986. Foster left Bronski Beat after their second album, and the band used a series of vocalists before dissolving in 1995. Steve Bronski revived the band in 2016, recording new material with 1990s member Ian Donaldson. Steinbachek died later that year.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Akon', 'artist_name': 'Akon', 'wiki': 'http://en.wikipedia.org/wiki/Akon', 'birth_date': '16 April 1973', 'start_year': '1996', 'abstract': 'Aliaune Damala Badara Akon Thiam (/ˈeɪkɒn/; born April 16, 1973), also known mononymously as Akon, is a Senegalese-American singer, songwriter, record producer, and entrepreneur from New Jersey. He rose to prominence in 2004 following the release of "Locked Up" (featuring Styles P), the first single from his debut album Trouble (2004), followed by the second single "Lonely". His second album, Konvicted (2006), received three Grammy Award nominations for Best Contemporary R&amp;B Album, and for Best Rap/Sung Collaboration for "Smack That" (featuring Eminem) and "I Wanna Love You" (featuring Snoop Dogg). Both singles became Billboard Hot 100 top ten hits, followed up by "Don\'t Matter" and "Sorry, Blame It on Me". His third studio album Freedom (2008) was led by the single "Right Now (Na Na Na)". Akon often provides vocals as a featured artist and is currently credited with over 300 guest appearances and more than 35 Billboard Hot 100 songs, resulting in five Grammy Award nominations. He is the first solo artist to hold both the number one and two spots simultaneously on the Billboard Hot 100 charts twice. Akon has had four songs certified as 3× platinum, three songs certified as 2× platinum, more than ten songs certified as 1× platinum and more than ten songs certified as gold by the RIAA. He was listed by Guinness World Records as the number-one selling artist for master ringtones in the world. Along with his own musical career, Akon later founded two successful record labels, Konvict Muzik and KonLive Distribution. The labels cultivated a multitude of successful acts, such as Lady Gaga, T-Pain, R. City, Kardinal Offishall, Jeffree Star, and Red Café, among others. Akon sports a concurrent career in producing and songwriting records mainly for artists on his respective labels, as well as for other mainstream artists including Michael Jackson, Snoop Dogg, Lionel Richie, Leona Lewis, Sean Paul, and Whitney Houston. Forbes ranked Akon 80th (Power Rank) in the Forbes Celebrity 100 in 2010 and 5th in the 40 Most Powerful Celebrities in Africa list, in 2011. Billboard ranked Akon No. 6 on the list of Top Digital Songs Artists of the decade.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Joss_Stone', 'artist_name': 'Joss Stone', 'wiki': 'http://en.wikipedia.org/wiki/Joss_Stone', 'birth_date': '11 April 1987', 'start_year': '2001', 'abstract': 'Joscelyn Eve Stoker (born 11 April 1987), known professionally as Joss Stone, is a British singer and actress. She rose to fame in late 2003 with her multi-platinum debut album, The Soul Sessions, which made the 2004 Mercury Prize shortlist. Her second album, the similarly multi-platinum Mind Body &amp; Soul (2004), topped the UK Albums Chart and spawned the top ten hit "You Had Me", Stone\'s most successful single on the UK Singles Chart to date. Both the album and single received one nomination at the 2005 Grammy Awards, while Stone herself was nominated for Best New Artist, and in an annual BBC poll of music critics, Sound of 2004, was ranked fifth as a predicted breakthrough act of 2004. She became the youngest British female singer to top the UK Albums Chart. Stone\'s third album, Introducing Joss Stone, released in March 2007, achieved gold record status by the RIAA and yielded the second-ever highest debut for a British female solo artist on the Billboard 200, and became Stone\'s first top five album in the US. She released her fourth album, Colour Me Free!, in 2009, which reached the top 10 on Billboard. Stone released her fifth album, LP1, in 2011, which reached the top 10 on Billboard. Throughout her career, Stone has sold 15 million records worldwide, establishing herself as one of the best-selling soul artists of the 2000s, and the best-selling British artists of her time. Her first three albums have sold over 2,722,000 copies in the US, while her first two albums have sold over 2 million copies in the UK. Stone has earned several awards including two Brit Awards and one Grammy Award out of five nominations. She made her film acting debut in 2006 with the fantasy adventure film Eragon, and made her television debut portraying Anne of Cleves in the Showtime series The Tudors in 2009. Stone was the youngest woman on the 2006 Sunday Times Rich List—an annual list of the UK\'s wealthiest people—with £6 million. In 2012, her net worth was estimated to be £10 million, making her the fifth richest British musician under 30. The Soul Sessions Vol. 2 (2012) is her fourth consecutive album to reach the top 10 on the Billboard 200, with Australian producer Cam Noble.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Psy', 'artist_name': 'Psy', 'wiki': 'http://en.wikipedia.org/wiki/Psy', 'birth_date': '31 December 1977', 'start_year': '2001', 'abstract': 'Park Jae-sang (Korean: 박재상; Hanja: 朴載相, IPA: [pɐk̚.t͡ɕεsɐŋ]; born December 31, 1977), known professionally as Psy (stylized in all caps as PSY) (싸이; /saɪ/ SY; Korean: [s͈ai]), is a South Korean singer, rapper, songwriter, and record producer. Psy is known domestically for his humorous videos and stage performances, and internationally for his hit single "Gangnam Style". The song\'s refrain was entered into The Yale Book of Quotations as one of the most famous quotations of 2012. On October 23, 2012, Psy met United Nations Secretary-General Ban Ki-moon at the UN Headquarters where Ban expressed his desire to work with the singer because of his "unlimited global reach". On December 21, 2012, his music video for "Gangnam Style" exceeded one billion views on YouTube, becoming the first video to do so in the website\'s history. Psy was subsequently recognized by the media as the King of YouTube. On May 31, 2014, the video for Psy\'s "Gangnam Style" hit two billion views. As of March 2021, it is the eighth most viewed video on YouTube, with over 4 billion views. In December 2012, MTV noted Psy\'s rise from being little known outside South Korea, to being hailed as the "Viral Star of 2012". On December 31, 2012, Psy performed in a globally televised New Year\'s Eve celebration with American rapper MC Hammer on-stage in front of a live audience of over a million people in Times Square, New York City. Following his departure from YG Entertainment in 2018, he founded his own company, P Nation, in 2019.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_J._Geils_Band', 'artist_name': 'The J. Geils Band', 'wiki': 'http://en.wikipedia.org/wiki/The_J._Geils_Band', 'hometown': 'http://dbpedia.org/resource/Worcester,_Massachusetts', 'start_year': '1968', 'end_year': '1985', 'abstract': 'The J. Geils Band /ˌdʒeɪ ˈɡaɪlz/ was an American rock band formed in 1967, in Worcester, Massachusetts, under the leadership of guitarist John "J." Geils. The original band members included vocalist Peter Wolf, harmonica and saxophone player Richard "Magic Dick" Salwitz, drummer Stephen Bladd, vocalist/keyboardist Seth Justman, and bassist Danny Klein. Wolf and Justman served as principal songwriters. The band played R&amp;B-influenced blues rock during the 1970s and soon achieved commercial success before moving towards a more mainstream radio-friendly sound in the early 1980s, which brought the band to its commercial peak. They performed a mix of cover songs of classic blues and R&amp;B songs, along with original compositions written by primarily by Wolf and Justman, as well as some group compositions written under the pseudonymous name Juke Joint Jimmy, representing compositions credited to the entire band as a whole. After Wolf left the band in 1983 to pursue a solo career, the band released one more album in 1984 with Justman on lead vocals, before breaking up in 1985. Beginning in 1999, the band had several reunions prior to the death of its namesake, J. Geils, on April 11, 2017. The band first released several Top 40 singles in the early 1970s, including a cover of the song "Lookin\' for a Love" by The Valentinos (which reached No. 39 on the Billboard Hot 100 in 1972), as well as the single "Give It to Me" (No. 30 in 1973). Their biggest hits included "Must of Got Lost" (No. 12 in 1975), "Come Back" (No. 32 in 1980), "Love Stinks" (which reached No. 38 in 1980 and was featured in several films), "Centerfold" (No. 1 in 1982), and "Freeze-Frame" (No. 4 in 1982).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Linkin_Park', 'abstract': 'Linkin Park is an American rock band from Agoura Hills, California. The band\'s current lineup comprises vocalist/rhythm guitarist/keyboardist Mike Shinoda, lead guitarist Brad Delson, bassist Dave Farrell, DJ/turntablist Joe Hahn and drummer Rob Bourdon, all of whom are founding members. Vocalists Mark Wakefield and Chester Bennington are former members of the band. Categorized as alternative rock, Linkin Park\'s earlier music spanned a fusion of heavy metal and hip hop, while their later music features more electronica and pop elements. Formed in 1996, Linkin Park rose to international fame with their debut studio album, Hybrid Theory (2000), which became certified Diamond by the Recording Industry Association of America (RIAA). Released during the peak of the nu metal scene, the album\'s singles\' heavy airplay on MTV led the singles "One Step Closer", "Crawling" and "In the End" all to chart highly on the Mainstream Rock chart; the latter crossed over to the pop chart. Their second album, Meteora (2003), continued the band\'s success. The band explored experimental sounds on their third album, Minutes to Midnight (2007). By the end of the decade, Linkin Park was among the most successful and popular rock acts. The band continued to explore a wider variation of musical types on their fourth album, A Thousand Suns (2010), layering their music with more electronic sounds. The band\'s fifth album, Living Things (2012), combined musical elements from all of their previous records. Their sixth album, The Hunting Party (2014), returned to a heavier rock sound, and their seventh album, One More Light (2017), was their first pop-oriented record. Linkin Park went on a hiatus when longtime lead vocalist Bennington died by suicide in July 2017. In April 2020, bassist Dave Farrell revealed the band was working on new music. Linkin Park is among the best-selling bands of the 21st century and the world\'s best-selling music artists, having sold over 100 million records worldwide. They have won two Grammy Awards, six American Music Awards, two Billboard Music Awards, four MTV Video Music Awards, 10 MTV Europe Music Awards and three World Music Awards. In 2003, MTV2 named Linkin Park the sixth-greatest band of the music video era and the third-best of the new millennium. Billboard ranked Linkin Park No. 19 on the Best Artists of the Decade list. In 2012, the band was voted as the greatest artist of the 2000s in a Bracket Madness poll on VH1. In 2014, the band was declared as "The Biggest Rock Band in the World Right Now" by Kerrang!.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Coldplay', 'artist_name': 'Coldplay', 'wiki': 'http://en.wikipedia.org/wiki/Coldplay', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1996', 'abstract': 'Coldplay are a British rock band formed in London in 1996. The band consists of vocalist, rhythm guitarist, and pianist Chris Martin; lead guitarist Jonny Buckland; bassist Guy Berryman; drummer Will Champion; and creative director Phil Harvey. They met at University College London and began playing music together from 1996 to 1998, first calling themselves Pectoralz and then Starfish. Coldplay released two EPs, Safety in 1998 and The Blue Room in 1999. The latter was their first release under a major record label, Parlophone. Coldplay achieved worldwide fame with the release of the song "Yellow" in 2000, followed in the same year by their debut album Parachutes, which was nominated for the Mercury Prize. The band\'s second album, A Rush of Blood to the Head (2002), was released to critical acclaim. Their next record, X&amp;Y, was the best-selling album worldwide of 2005; the Brian Eno-produced fourth studio album, Viva la Vida or Death and All His Friends (2008), was the best-selling album of that year and earned the band three Grammy Awards. In 2011, Coldplay released their fifth studio album, Mylo Xyloto, which topped the charts in over 34 countries and was the UK\'s best-selling rock album of 2011. The band have since released Ghost Stories (2014), A Head Full of Dreams (2015), Everyday Life (2019) and Music of the Spheres (2021). Coldplay have sold more than 100 million albums worldwide, making them one of the world\'s best-selling music artists. They have won numerous awards throughout their career, including nine Brit Awards, seven MTV Video Music Awards, eight MTV Europe Music Awards and seven Grammy Awards from 36 nominations. The band\'s first three albums — Parachutes (2000), A Rush of Blood to the Head (2002), and X&amp;Y (2005) — are among the best-selling albums in UK chart history. In December 2009, Rolling Stone readers voted the group the fourth-best artist of the 2000s and Q magazine included the group in their Artists of the Century list. Coldplay have supported various social and political causes, such as Oxfam\'s Make Trade Fair campaign and Amnesty International. They have also performed at charity projects, including Band Aid 20, Live 8, Global Citizen Festival, Sound Relief, Hope for Haiti Now: A Global Benefit for Earthquake Relief, One Love Manchester, The Secret Policeman\'s Ball, Sport Relief and the UK Teenage Cancer Trust.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Hooters', 'artist_name': 'The Hooters', 'wiki': 'http://en.wikipedia.org/wiki/The_Hooters', 'hometown': 'http://dbpedia.org/resource/Philadelphia', 'start_year': '1980', 'abstract': 'The Hooters are an American rock band from Philadelphia, Pennsylvania, United States. They combine elements of rock, reggae, ska, and folk music to create their sound. The Hooters first gained major commercial success in the United States in the mid-1980s due to heavy radio airplay and MTV rotation of several songs including "All You Zombies", "Day by Day", "And We Danced" and "Where Do the Children Go". They opened the Philadelphia portion of the Live Aid benefit concert in 1985. In Europe, they had success with the singles "All You Zombies" and "Johnny B" but their breakthrough across Europe came with the single "Satellite". During the late 1980s and 1990s, The Hooters found significant commercial success internationally, especially in Europe, where they played at The Wall Concert in Berlin in 1990. The Hooters have staged successful tours in Europe and 2007 saw the release of their first album of new material since 1993, Time Stand Still. Their most recent release was Give the Music Back: Live Double Album, released in 2017.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Knack', 'artist_name': 'The Knack', 'wiki': 'http://en.wikipedia.org/wiki/The_Knack', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1996', 'end_year': '2010', 'abstract': 'The Knack was an American rock band based in Los Angeles that rose to fame with its first single, "My Sharona", an international number-one hit in 1979.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/DNCE', 'artist_name': 'DNCE', 'wiki': 'http://en.wikipedia.org/wiki/DNCE', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2015', 'end_year': '2019', 'abstract': 'DNCE was an American dance-rock group. The group consists of vocalist Joe Jonas, drummer Jack Lawless, bassist and keyboardist Cole Whittle, and guitarist JinJoo Lee. The group signed with Republic Records, who released their debut single, "Cake by the Ocean", in September 2015. The song reached the top 10 on several charts, including on the US Billboard Hot 100, where it peaked at No. 9. Their debut extended play, Swaay, was released about a month later. Their self-titled debut studio album was released in November 2016. They were also nominated for Favorite New Artist for the 2016 Kids\' Choice Awards and Best Song to Lip Sync and Best Anthem for the 2016 Radio Disney Music Awards. The group performed at the 2017 Fashion Meets Music Festival. Following the reunion of the Jonas Brothers in 2019, the group has entered an indefinite hiatus.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/SALT_(quartet)', 'artist_name': 'SALT', 'wiki': 'http://en.wikipedia.org/wiki/SALT_(quartet)', 'hometown': 'http://dbpedia.org/resource/Huddinge_Municipality', 'start_year': '2000', 'abstract': 'SALT is a Swedish barbershop quartet that won the Sweet Adelines International competition Quartet Championship for 2007 in Las Vegas, Nevada in October 2006. Sweet Adelines, "one of the world\'s largest singing organizations for women", has members over five continents who belong to more than 1200 quartets. SALT\'s November 2008 feature performance in Anaheim, California was noted by the Vasa Order of America. At the time of winning the Sweet Adelines competition, SALT included tenor Anna Öhman, lead Annika Andersson; baritone Anna-Stina Gerdin, and bass Susanna Berndts. The quartet announced its retirement on Facebook in June 2012 "after singing together for 13 years".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Awolnation', 'artist_name': 'Awolnation', 'wiki': 'http://en.wikipedia.org/wiki/Awolnation', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2009', 'abstract': 'Awolnation (stylized in all caps) is an American rock band, formed and fronted by Aaron Bruno, formerly of Under the Influence of Giants, Home Town Hero, and Insurgence. The band is signed to Better Noise Music, formerly being signed to Red Bull Records, and their first EP, Back from Earth, was released on iTunes on May 18, 2010. They released their first studio album, Megalithic Symphony, on March 15, 2011; it featured their most notable hit, "Sail", which peaked at number 17 on the Billboard Hot 100, number 4 on the Billboard Rock Songs chart, and number 5 on the Billboard Alternative Songs chart. The song has been certified 6× platinum by the RIAA and has sold 6,000,000 copies in the United States. As of February 29, 2016, the album has been certified platinum. The band\'s second studio album, Run, was released on March 17, 2015. The band\'s third studio album, Here Come the Runts, was released on February 2, 2018. Their fourth studio album, Angel Miners &amp; the Lightning Riders, was released on April 24, 2020.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Hayley_Williams', 'artist_name': 'Hayley Williams', 'wiki': 'http://en.wikipedia.org/wiki/Hayley_Williams', 'birth_date': '27 December 1988', 'start_year': '2003', 'abstract': 'Hayley Nichole Williams (born December 27, 1988) is an American singer, songwriter, musician, and businesswoman who is best known as the lead vocalist, primary songwriter, and keyboardist of the rock band Paramore. Born and raised in Mississippi, Williams moved to Franklin, Tennessee, at the age of 13 just after her parents divorced in 2002. In 2004, she formed Paramore alongside Josh Farro, Zac Farro, and Jeremy Davis. The band currently consists of Hayley Williams, Zac Farro and Taylor York. The band has released five studio albums: All We Know Is Falling (2005), Riot! (2007), Brand New Eyes (2009), Paramore (2013), and After Laughter (2017). Williams released her debut solo single, "Simmer", on January 22, 2020, and announced on the same day that her debut studio album, Petals for Armor, would be released on May 8, 2020. The album was preceded by two EPs entitled Petals for Armor I and II that make up the first two-thirds of the album. Her second solo record, Flowers for Vases / Descansos, was released less than a year later on February 5, 2021. Aside from Paramore and preceding her solo career, Williams recorded the song "Teenagers" for the soundtrack of Jennifer\'s Body (2009) and has collaborated with artists such as October Fall, The Chariot, Set Your Goals, Zedd and New Found Glory. In 2010, she was featured on the single "Airplanes" by B.o.B. It peaked at number two on the U.S. Billboard Hot 100. A sequel to the song, "Airplanes, Part II", features new verses from B.o.B. and a verse from Eminem, while Williams\' vocals remain the same. This collaboration led to a Grammy nomination for Best Pop Collaboration with Vocals. Other ventures in which Williams has explored include online beauty and music series Kiss-Off on Popular TV launched in 2015 and the hair-dye company Good Dye Young, launched in 2016.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Soundgarden', 'artist_name': 'Soundgarden', 'wiki': 'http://en.wikipedia.org/wiki/Soundgarden', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '1984', 'end_year': '1997', 'abstract': 'Soundgarden was an American rock band formed in Seattle, Washington, in 1984 by singer and rhythm guitarist Chris Cornell, lead guitarist Kim Thayil (both of whom are the only members to appear in every incarnation of the band), and bassist Hiro Yamamoto. Matt Cameron became the band\'s full-time drummer in 1986, while bassist Ben Shepherd became a permanent replacement for Yamamoto in 1990. The band dissolved in 1997 and re-formed in 2010. Following Cornell\'s death in 2017 and a year of uncertainty of the band\'s future, Thayil declared in October 2018 that the band was finished; they did, however, reunite in January 2019 for a one-off concert in tribute to Cornell. Soundgarden are associated with grunge, a style of alternative rock that developed in Seattle. After releasing two EPs on the Seattle-based label Sub-Pop in 1987 and 1988, their debut album, Ultramega OK was released on the California-based independent label SST Records in 1989. Although the album did not sell well nationally, it gained critical acclaim and was nominated for a Grammy award in 1990. They recorded their second album, Louder Than Love, independently but had signed with major label A&amp;M Records in the interim, and released the album as their major label debut. Unlike their debut, which had failed to chart, Louder Than Love peaked at number 108 on the Billboard 200 album chart. Released the same day as fellow Seattle grunge act Nirvana\'s album Nevermind, their third album Badmotorfinger would bring Soundgarden to national acclaim for the first time, buoyed by the popularity of the singles "Jesus Christ Pose", "Outshined", and "Rusty Cage", the album would reach number 39 on the Billboard 200 and has been certified double-platinum by the RIAA. Soundgarden was one of the seminal creators of grunge, a style of alternative rock that developed in Seattle, and was the first of a number of grunge bands to sign to the record label Sub Pop. Soundgarden was also one of the first grunge bands to sign to a major label (A&amp;M Records in 1989), though they did not achieve commercial success until they popularized the genre in the early 1990s with Seattle contemporaries Alice in Chains, Pearl Jam, and Nirvana. Soundgarden achieved its biggest success with the 1994 album Superunknown, which debuted at number one on the Billboard 200 and yielded the Grammy Award-winning singles "Spoonman" and "Black Hole Sun". In 1996, the band experimented with new sonic textures on their follow-up album Down on the Upside, which debuted at number 2 on the Billboard 200 and spawned several hit singles of its own, including "Burden in My Hand" and "Blow Up the Outside World". In 1997, the band broke up due to internal strife over its creative direction and exhaustion from touring. After more than a decade of working on projects and other bands, Soundgarden reunited in 2010, and Republic Records released their sixth and final studio album, King Animal, two years later. As of 2019, Soundgarden sold more than 14 million records in the United States, and an estimated 30 million worldwide. VH1 ranked Soundgarden at number 14 in their special 100 Greatest Artists of Hard Rock.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Scorpions_(band)', 'artist_name': 'Scorpions', 'wiki': 'http://en.wikipedia.org/wiki/Scorpions_(band)', 'hometown': 'http://dbpedia.org/resource/Hanover', 'start_year': '1965', 'abstract': 'Scorpions are a German rock band formed in 1965 in Hanover by Rudolf Schenker. Since the band\'s inception, its musical style has ranged from hard rock, heavy metal, glam metal, and soft rock. The lineup from 1978 to 1992 was the most successful incarnation of the group, and included Klaus Meine (vocals), Rudolf Schenker (rhythm guitar), Matthias Jabs (lead guitar), Francis Buchholz (bass), and Herman Rarebell (drums). The band\'s only continuous member has been Schenker, although Meine has appeared on all of Scorpions\' studio albums, while Jabs has been a consistent member since 1978, and bassist Paweł Mąciwoda and drummer Mikkey Dee have been in the band since 2003 and 2016 respectively. During the mid-1970s, with guitarist Uli Jon Roth (who replaced Schenker\'s younger brother Michael) part of the line-up, the music of the Scorpions was defined as hard rock. After Roth\'s departure in 1978, Schenker and Meine managed to take control of the group, giving them almost all the power to compose music and write lyrics. Matthias Jabs joined in 1978, and with the melodic rock he played and the influence of producer Dieter Dierks in the band, the Scorpions changed their sound to melodic heavy metal mixed with lyrical "power rock ballads", which is evident in the album Lovedrive (1979), which began the evolution of the band\'s sound, developed later in several of their albums. Over the next decade, the band achieved influence, approval from music critics, and significant commercial success with the albums Animal Magnetism (1980), Blackout (1982), Love at First Sting (1984), the live recording World Wide Live (1985), Savage Amusement (1988), their best-selling compilation Best of Rockers \'n\' Ballads (1989), and Crazy World (1990), all awarded at least one platinum award in the United States. The band has released twelve consecutive studio albums that were in the top 10 in Germany, one of which reached No. 1, as well as three consecutive albums that were in the top 10 in the Billboard 200 in the United States. Scorpions are estimated to have sold over 100 million records around the world, making them one of the best-selling hard rock and heavy metal bands. One of their most recognized hits is "Wind of Change" (from Crazy World), a symbolic anthem of the political changes in Eastern Europe in the late 1980s and early 1990s and the fall of the Berlin Wall, and it remains as one of the best-selling singles in the world with over 14 million copies. Two of the songs on their ninth studio album Love at First Sting, "Rock You Like a Hurricane" and "Still Loving You", are some of the most influential and popular works, both in heavy metal music and among rock ballads, defined as "rock anthem" and "a true hymn of love".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/A_(band)', 'artist_name': 'A', 'wiki': 'http://en.wikipedia.org/wiki/A_(band)', 'hometown': 'http://dbpedia.org/resource/Suffolk', 'start_year': '2008', 'abstract': 'A are a British alternative rock band from Suffolk, England, which formed in 1993. They have released four albums and two live mini-albums, and had a top ten hit with "Nothing" in 2002. Shortly after releasing their fourth album, Teen Dance Ordinance, in 2005, the band briefly split. In 2007 A reunited for a one-off gig, and have been touring sporadically ever since, most recently playing the main stage at Download Pilot on June 19th 2021. They have not released any further albums since 2005.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Caesars_(band)', 'artist_name': 'Caesars', 'wiki': 'http://en.wikipedia.org/wiki/Caesars_(band)', 'abstract': 'Caesars are a Swedish indie rock band from Stockholm, formed in 1995. In their native country, the band was originally known as Caesars Palace, a name which was changed to avoid conflicting with the name of the Las Vegas hotel. In the rest of Scandinavia they are known as Twelve Caesars.'}</t>
   </si>
   <si>
     <t>{'artist': 'http://dbpedia.org/resource/Fine_Young_Cannibals', 'artist_name': 'Fine Young Cannibals', 'wiki': 'http://en.wikipedia.org/wiki/Fine_Young_Cannibals', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'start_year': '1984', 'end_year': '1992', 'abstract': 'Fine Young Cannibals (FYC) were a British pop rock band formed in Birmingham, England, in 1984, by bassist David Steele, guitarist Andy Cox (both formerly of The Beat), and singer Roland Gift (formerly of the Akrylykz). Their self-titled 1985 debut album contained "Johnny Come Home" and a cover of "Suspicious Minds", two songs that were top 40 hits in the UK, Canada, Australia and many European countries. Their 1989 album, The Raw &amp; the Cooked, topped the UK and US album charts, and contained their two Billboard Hot 100 number ones: "She Drives Me Crazy" and "Good Thing". In 1990, the band won two Brit Awards: Best British Group, and Best British Album (for The Raw &amp; the Cooked). Their name came from the 1960 film All the Fine Young Cannibals starring Robert Wagner and Natalie Wood.'}</t>
   </si>
   <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Justin_Timberlake', 'artist_name': 'Justin Timberlake', 'wiki': 'http://en.wikipedia.org/wiki/Justin_Timberlake', 'birth_date': '31 January 1981', 'start_year': '1992', 'abstract': 'Justin Randall Timberlake (born January 31, 1981) is an American singer, songwriter, record producer and actor. He is one of the world\'s best-selling music artists, with sales of over 88 million records worldwide. Timberlake is the recipient of numerous awards and accolades, including ten Grammy Awards, four Primetime Emmy Awards, three Brit Awards, nine Billboard Music Awards, the Contemporary Icon Award by the Songwriters Hall of Fame, and the Michael Jackson Video Vanguard Award. According to Billboard, he is the best performing male soloist in the history of the Mainstream Top 40. Born and raised in Tennessee, he appeared on the television shows Star Search and The All-New Mickey Mouse Club as a child. In the late 1990s, Timberlake rose to prominence as one of the two lead vocalists and youngest member of NSYNC, which eventually became one of the best-selling boy bands of all time. Timberlake won two Grammy Awards for his R&amp;B-focused debut solo album Justified (2002) and its single "Cry Me a River". Another single from the album, "Rock Your Body", was also successful. His critically acclaimed second album FutureSex/LoveSounds (2006), characterized by its diversity in music genres, debuted atop the U.S. Billboard 200 and spawned the Hot 100 consecutive number-one singles with "SexyBack" (featuring Timbaland), "My Love" (featuring T.I.), and "What Goes Around... Comes Around". Established as a solo artist worldwide, his first two albums both exceeded sales of 10 million copies, as he continued producing records and collaborating with other artists. From 2008 through 2012, Timberlake focused on his acting career, effectively putting his music career on hiatus. He held starring roles in the films The Social Network, Bad Teacher, Friends with Benefits, and In Time. Timberlake resumed his music career in 2013 with his third and fourth albums The 20/20 Experience and The 20/20 Experience – 2 of 2, exploring neo soul styles, partly inspired by the expansive song structures of 1960s and 1970s rock. The former became the best-selling album of the year and spawned the top three singles "Suit &amp; Tie" (featuring Jay-Z) and "Mirrors". Timberlake voiced Branch in DreamWorks Animation\'s Trolls (2016), whose soundtrack includes his fifth Billboard Hot 100 chart-topping single, "Can\'t Stop the Feeling!", which earned him a Academy Award nomination. His fifth studio album Man of the Woods (2018) became his fourth number-one album in the US. Supported by the two top ten singles, "Filthy" and "Say Something" (featuring Chris Stapleton), it concluded 2018 as the sixth best-selling album of the year.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Orchestral_Manoeuvres_in_the_Dark', 'artist_name': 'Orchestral Manoeuvres in the Dark', 'wiki': 'http://en.wikipedia.org/wiki/Orchestral_Manoeuvres_in_the_Dark', 'hometown': 'http://dbpedia.org/resource/Merseyside', 'start_year': '1978', 'end_year': '1996', 'abstract': 'Orchestral Manoeuvres in the Dark (OMD) are an English electronic band formed in Wirral, Merseyside, in 1978. The group consists of co-founders Andy McCluskey (vocals, bass guitar) and Paul Humphreys (keyboards, vocals), along with Martin Cooper (various instruments) and Stuart Kershaw (drums); McCluskey has been the only constant member. Regarded as pioneers of electronic music, OMD combined an experimental, minimalist ethos with pop sensibilities, becoming central figures in the late-1970s/early-1980s emergence of synth-pop. McCluskey and Humphreys led precursor group the Id from 1977–1978, and re-recorded their track "Electricity" as OMD\'s debut single in 1979. Weathering an "uncool" image and a degree of hostility from music critics, the band gained popularity throughout Europe with the 1980 anti-war song "Enola Gay", and achieved broader recognition via Architecture &amp; Morality (1981) and its three hit singles. Although later reappraised, Dazzle Ships (1983) was seen as overly challenging, and eroded European support. The group embraced a more radio-friendly sound on Junk Culture (1984); this change in direction led to greater success in the United States, and yielded the 1986 hit, "If You Leave". In 1989, creative differences saw Humphreys and other members form the spin-off band the Listening Pool, leaving McCluskey the only remaining member of OMD. The group returned with a new line-up and explored the dance-pop genre: Sugar Tax (1991) and its initial singles were hits in Europe. By the mid-1990s, however, electronic music had been supplanted by alternative rock, and both OMD and the Listening Pool disbanded in 1996. McCluskey later conceived pop girl group Atomic Kitten, for whom he served as a principal songwriter, while Humphreys formed the duo Onetwo alongside Propaganda vocalist Claudia Brücken. In 2006, the band reformed with Humphreys and McCluskey working on material closer in sound to their early output; The Punishment of Luxury (2017) was the group\'s seventh top 10 entry on the UK Albums Chart. They have also achieved 12 top 20 hits on the UK Singles Chart, as well as three top 20 hits on the US Billboard Hot 100. An influence on many later artists, OMD have sold over 40 million records worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Camouflage_(band)', 'artist_name': 'Camouflage', 'wiki': 'http://en.wikipedia.org/wiki/Camouflage_(band)', 'hometown': 'http://dbpedia.org/resource/Bietigheim-Bissingen', 'start_year': '1983', 'abstract': 'Camouflage is a German synth-pop trio consisting of lead singer (b. May 2, 1966), Heiko Maile and . Their only Billboard Hot 100 hit was "The Great Commandment", which reached No. 59 in 1988, and spent three weeks at No. 1 on the Dance Club Songs chart. They also had two additional minor dance hits in 1989.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Desireless', 'artist_name': 'Desireless', 'wiki': 'http://en.wikipedia.org/wiki/Desireless', 'birth_date': '25 December 1952', 'start_year': '1986', 'end_year': '1986', 'abstract': 'Claudie Fritsch-Mentrop (born 25 December 1952), known by her stage name Desireless (French pronunciation: \u200b[deziʁlɛs]), is a French singer. Between 1986 and 1988, her hit single "Voyage, voyage" made it to number one on many European and Asian single charts. According to her official website, Desireless still releases new albums and performs live, and she released a new album with Operation of the Sun (Antoine Aureche) accompanied by a worldwide tour from 2012 onward.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Big_Ali', 'artist_name': 'Big Ali', 'wiki': 'http://en.wikipedia.org/wiki/Big_Ali', 'birth_date': '25 February 1978', 'start_year': '2001', 'abstract': 'Ali Fitzgerald Moore (born February 25, 1978), better known by his stage name Big Ali and formerly Breakingz and Grimer, is an American hip hop recording artist, DJ and composer born in Queens, New York. He has been based in Paris, France, since 2001. He is signed to Up Music, a Warner Music label.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Kanye_West', 'artist_name': 'Kanye West', 'wiki': 'http://en.wikipedia.org/wiki/Kanye_West', 'birth_date': '08 June 1977', 'start_year': '1996', 'abstract': 'Ye (/jeɪ/ YAY; born Kanye Omari West, June 8, 1977), commonly known by his birth name, is an American rapper, record producer, and fashion designer. Born in Atlanta and raised in Chicago, West gained recognition as a producer for Roc-A-Fella Records in the early 2000s, producing singles for several artists and developing the "chipmunk soul" sampling style. Intent on pursuing a solo career as a rapper, West released his debut album, The College Dropout (2004), to critical and commercial success, and founded the record label GOOD Music. West explored diverse musical elements such as orchestral arrangements, synthesizers, and autotune on the acclaimed albums Late Registration (2005), Graduation (2007), and 808s &amp; Heartbreak (2008). Drawing inspiration from maximalism and minimalism respectively, his fifth album My Beautiful Dark Twisted Fantasy (2010) and sixth album Yeezus (2013) were also released to critical and commercial successes. West also diversified musical styles on The Life of Pablo (2016) and Ye (2018), and explored Christian and gospel music on Jesus Is King (2019). After a series of delays, West\'s highly anticipated tenth album, Donda, was released in 2021. West\'s discography also includes the full-length collaborative albums Watch the Throne (2011) with Jay-Z and Kids See Ghosts (2018) with Kid Cudi. West\'s outspoken views and life outside of music have received significant media coverage. He has been a frequent source of controversy for his conduct at award shows, on social media, and in other public settings—his comments on the music and fashion industries, U.S. politics, race, and slavery have been generally polarized. His Christian faith and marriage to Kim Kardashian have also been sources of media attention. West is frequently lauded as one of hip hop\'s greatest artists, with his music also being recognized among the world\'s highest-selling and most acclaimed. As a fashion designer, he has collaborated with Nike, Louis Vuitton, The Gap, and A.P.C. on clothing and footwear, and leads the Yeezy collaboration with Adidas. In 2020, he launched an unsuccessful independent presidential campaign that primarily advocated for a consistent life ethic. He is the founder and head of the creative content company DONDA. One of the world\'s best-selling music artists, with over 160 million records sold, West has won 22 Grammy Awards, the joint tenth-most of all time. Among his other awards are the Billboard Artist Achievement Award, a joint-record three Brit Awards for Best International Male Solo Artist and the Michael Jackson Video Vanguard Award. Six of his albums were included on Rolling Stone\'s 2020 500 Greatest Albums of All Time list; the same publication named him one of the 100 Greatest Songwriters of All Time. West holds the joint record (with Bob Dylan) for most albums (4) topping the annual Pazz &amp; Jop critic poll, and has the 5th most appearances on the Billboard Hot 100 (133 entries). Time magazine named him one of the 100 most influential people in the world in 2005 and 2015. A billionaire, Forbes estimates his net worth at $1.8 billion as of 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sugar_Ray', 'artist_name': 'Sugar Ray', 'wiki': 'http://en.wikipedia.org/wiki/Sugar_Ray', 'hometown': 'http://dbpedia.org/resource/Newport_Beach,_California', 'start_year': '1986', 'abstract': 'Sugar Ray is an American rock band formed in Newport Beach, California, in 1986. Originally playing heavier nu metal style music, the band achieved mainstream popularity in 1997 with their more pop-influenced single "Fly". The song\'s success led the band to shift its style dramatically to the more radio-friendly pop sound with their subsequent releases. Their best-selling album, 14:59, was released in 1999, and featured popular singles "Every Morning", "Someday", followed by a self-titled album in 2001 featuring the single "When It\'s Over". The band would release two further albums, In the Pursuit of Leisure (2003) and Music for Cougars (2009), though the albums and respective singles generally sold far less. The band continued to tour into the 2010s. In 2019, ten years after the band\'s last album, they announced their seventh studio album, Little Yachty, in June 2019. The lead single, "Make It Easy", was released the same month.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/NewDad', 'artist_name': 'NewDad', 'wiki': 'http://en.wikipedia.org/wiki/NewDad', 'hometown': 'http://dbpedia.org/resource/Republic_of_Ireland', 'start_year': '2020', 'abstract': 'NewDad are an Irish Indie rock band from Galway, Ireland. Their music has been compared to The Cure, Beabadoobee, and Just Mustard by NME magazine. Atwood Magazine wrote of the group: "The band oozes personality with cynical but honest lyrics, colorful visual components, and poignant messages about coping with the, albeit painful, formative experiences." The group have appeared at the Green Man Festival in Wales, The Pitchfork Music Festival in Paris, and on the Irish televesion program Other Voices.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Jamiroquai', 'artist_name': 'Jamiroquai', 'wiki': 'http://en.wikipedia.org/wiki/Jamiroquai', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1992', 'abstract': 'Jamiroquai (/dʒəˈmɪrəkwaɪ/) are an English funk and acid jazz band from London. Formed in 1992, they are fronted by vocalist Jay Kay, and were prominent in the London-based funk and acid jazz movement of the 1990s. They built on their acid jazz sound in their early releases and later drew from rock, disco, electronic and Latin music genres. Lyrically, the group have addressed social and environmental justice. Kay has remained as the only original member through several line-up changes. The band made their debut under Acid Jazz Records, but they subsequently found mainstream success under Sony. While under this label, three of their albums have charted at number one in the UK, including Emergency on Planet Earth (1993), Synkronized (1999) and A Funk Odyssey (2001). The band\'s 1998 single, "Deeper Underground", was also number one in their native country. Jamiroquai has sold more than 26 million albums worldwide as of 2017. Their third album, Travelling Without Moving (1996), received a Guinness World Record for the best-selling funk album in history. The music video for its lead single, "Virtual Insanity", also contributed to the band\'s success. The song was named Video of the Year at the 1997 MTV Video Music Awards and earned the band a Grammy Award in 1998.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Supertramp', 'artist_name': 'Supertramp', 'wiki': 'http://en.wikipedia.org/wiki/Supertramp', 'hometown': 'http://dbpedia.org/resource/England', 'start_year': '2015', 'end_year': '2015', 'abstract': 'Supertramp were an English rock band formed in London, England in mid 1969. Marked by the individual songwriting of founders Roger Hodgson (vocals, keyboards, and guitars) and Rick Davies (vocals and keyboards), they are distinguished for blending progressive rock and pop styles as well as for a sound that relied heavily on Wurlitzer electric piano. The group\'s line-up changed numerous times throughout their career, with Davies being the only consistent member throughout the decades. Other longtime members included bassist Dougie Thomson, drummer Bob Siebenberg, and saxophonist John Helliwell. The band were initially a prog-rock group, but starting with their third album, Crime of the Century (1974), they began moving towards a more pop-oriented sound. They reached their commercial peak with 1979\'s Breakfast in America, which yielded the international top 10 singles "The Logical Song", "Breakfast in America", "Goodbye Stranger", and "Take the Long Way Home". Their other top 40 hits included "Dreamer" (1974), "Give a Little Bit", (1977) and "It\'s Raining Again" (1982). In 1983, Hodgson left the group to pursue a solo career. Davies took over as the band\'s sole leader until 1988, after which they disbanded and periodically reformed in various configurations. As of 2007, Supertramp album sales exceeded 60 million. They attained significant popularity in North America, Europe, South Africa, and Australia. Their highest sales levels were in Canada, where they had two diamond-certified (ten-times platinum) albums (Crime of the Century and Breakfast in America), and their only number 1 singles anywhere ("The Logical Song" and "Dreamer").'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Ace_of_Base', 'artist_name': 'Ace of Base', 'wiki': 'http://en.wikipedia.org/wiki/Ace_of_Base', 'hometown': 'http://dbpedia.org/resource/Gothenburg', 'start_year': '1987', 'abstract': 'Ace of Base is a Swedish pop group, formed in 1990, originally consisting of siblings Jonas, Linn and Jenny Berggren, with Ulf Ekberg. They achieved worldwide success following the release of their debut album Happy Nation in 1992. Later re-issued as The Sign, it was certified nine times platinum in the United States, and was the best-selling album of 1994. One of the most successful debut albums of all time, it was the first to produce three No. 1 singles on the Billboard Mainstream Top 40 chart: "All That She Wants", "The Sign" and "Don\'t Turn Around". They continued to score hit singles throughout the 1990s, with songs such as "Beautiful Life", "Lucky Love", "Cruel Summer" and "Life Is a Flower". By 2002, they had sold a total of 30 million copies of their first four studio albums, making them the third most successful Swedish group of all time, behind ABBA and Roxette. Despite being largely inactive since 2012, the group has never officially disbanded. In the last decade, they have released a number of demo tracks; first via their Facebook page, then in 2015 on the compilation album Hidden Gems. An expanded two-disc edition was included in the 2020 boxset All That She Wants: The Classic Collection. Jenny Berggren continues to perform the group\'s hits in solo concerts around the world.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Jennifer_Paige', 'artist_name': 'Jennifer Paige', 'wiki': 'http://en.wikipedia.org/wiki/Jennifer_Paige', 'birth_date': '03 September 1973', 'start_year': '1995', 'abstract': 'Jennifer Paige (née Scoggins; born September 3, 1973) is an American singer best known for the 1998 pop hit "Crush".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/James_Blunt', 'artist_name': 'James Blunt', 'wiki': 'http://en.wikipedia.org/wiki/James_Blunt', 'birth_date': '22 February 1974', 'start_year': '2003', 'abstract': 'James Hillier Blount (born 22 February 1974), better known as James Blunt, is an English singer, songwriter, multi-instrumentalist, and record producer. A former reconnaissance officer in the Life Guards regiment of the British Army, he served under NATO during the 1999 Kosovo War. After leaving the military, he rose to fame in 2004 with the release of his debut album Back to Bedlam, achieving worldwide fame with the singles "You\'re Beautiful" and "Goodbye My Lover". Blunt\'s first album has sold over 11 million copies worldwide, topping the UK Albums Chart and peaking at number two in the US. "You\'re Beautiful" was number one in the UK, the US and a dozen other countries. Back to Bedlam was the best-selling album of the 2000s in the UK, and is one of the best-selling albums in UK chart history. Blunt has since sold over 20 million records worldwide. He has received several awards, including two Brit Awards—winning Best British Male in 2006—two MTV Video Music Awards, and two Ivor Novello Awards, as well as receiving five Grammy Award nominations and an Honorary Doctorate for Music in 2016 by the University of Bristol.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Indochine_(band)', 'artist_name': 'Indochine', 'wiki': 'http://en.wikipedia.org/wiki/Indochine_(band)', 'hometown': 'http://dbpedia.org/resource/Paris', 'start_year': '1981', 'abstract': 'Indochine (French pronunciation: \u200b[ɛ̃dɔʃin]) is a French pop rock and new wave band formed in Paris in 1981. They became very successful in the Francophonie, Europe and Latin America in the 1980s, with songs like "L\'Aventurier" and "Canary Bay". Following the release of several critically acclaimed, but commercially unsuccessful, albums in the 1990s, the group returned to stardom with the release of Paradize in 2002. The band has sold over 13 million albums and singles, making them the best selling French band.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Boney_M.', 'artist_name': 'Boney M.', 'wiki': 'http://en.wikipedia.org/wiki/Boney_M.', 'hometown': 'http://dbpedia.org/resource/West_Germany', 'start_year': '1974', 'end_year': '1986', 'abstract': 'Boney M. was a Euro-Caribbean vocal group created by German record producer Frank Farian, who was the group\'s primary songwriter. Originally based in West Germany, the four original members of the group\'s official line-up were Liz Mitchell and Marcia Barrett from Jamaica, Maizie Williams from Montserrat and Bobby Farrell, a performing artist from Aruba. The group was formed in 1976 and achieved popularity during the disco era of the late 1970s. Since the 1980s, various line-ups of the band have performed with different personnel. The band has sold around 80 million records worldwide and is known for international hits including "Daddy Cool", "Ma Baker", "Belfast", "Sunny", "Rasputin", "Mary\'s Boy Child – Oh My Lord" and "Rivers of Babylon".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Tiësto', 'artist_name': 'Tiësto', 'wiki': 'http://en.wikipedia.org/wiki/Tiësto', 'birth_date': '17 January 1969', 'start_year': '1994', 'abstract': 'Tijs Michiel Verwest OON (Dutch pronunciation: [ˈtɛis miˈxil vərˈʋɛst]; born 17 January 1969), known professionally as Tiësto (/tiˈɛstoʊ/ tee-ES-toh, Dutch: [ˈcɛstoː]), is a Dutch DJ and record producer from Breda, North Brabant. He was voted "the Greatest DJ of All Time" by Mix magazine in a 2010/2011 poll amongst fans. In 2013, he was voted by DJ Mag readers as the "best DJ of the last 20 years". He is also regarded as the "Godfather of EDM" by many sources. In 1997, he founded the label Black Hole Recordings with Arny Bink, where he released the Magik and In Search of Sunrise CD series. Tiësto met producer Dennis Waakop Reijers in 1998; the two have worked together extensively since then. From 1998 to 2000, Tiësto collaborated with Ferry Corsten under the name Gouryella. His 2000 remix of Delerium\'s "Silence" featuring Sarah McLachlan exposed him to more mainstream audiences. In 2001, he released his first solo album, In My Memory, which gave him several major hits that launched his career. He was voted World No. 1 DJ by DJ Magazine in its annual Top 100 DJs readership poll consecutively for three years from 2002 to 2004. Just after releasing his second studio album Just Be he performed live at the 2004 Summer Olympics opening ceremony in Athens, the first DJ to play live on stage at an Olympics. In April 2007 Tiësto launched his radio show Tiësto\'s Club Life on Radio 538 in the Netherlands and released his third studio album Elements of Life. The album reached number one on the Belgian album chart as well on Billboard Top Electronic Albums in the U.S. and received a nomination for a Grammy Award in 2008. Tiësto released his fourth studio album Kaleidoscope in October 2009, followed by A Town Called Paradise in June 2014. He won the Grammy Award for Best Remixed Recording, Non-Classical for his remixed version of John Legend\'s hit "All of Me" at the 57th Annual Grammy Awards.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Linkin_Park', 'abstract': 'Linkin Park is an American rock band from Agoura Hills, California. The band\'s current lineup comprises vocalist/rhythm guitarist/keyboardist Mike Shinoda, lead guitarist Brad Delson, bassist Dave Farrell, DJ/turntablist Joe Hahn and drummer Rob Bourdon, all of whom are founding members. Vocalists Mark Wakefield and Chester Bennington are former members of the band. Categorized as alternative rock, Linkin Park\'s earlier music spanned a fusion of heavy metal and hip hop, while their later music features more electronica and pop elements. Formed in 1996, Linkin Park rose to international fame with their debut studio album, Hybrid Theory (2000), which became certified Diamond by the Recording Industry Association of America (RIAA). Released during the peak of the nu metal scene, the album\'s singles\' heavy airplay on MTV led the singles "One Step Closer", "Crawling" and "In the End" all to chart highly on the Mainstream Rock chart; the latter crossed over to the pop chart. Their second album, Meteora (2003), continued the band\'s success. The band explored experimental sounds on their third album, Minutes to Midnight (2007). By the end of the decade, Linkin Park was among the most successful and popular rock acts. The band continued to explore a wider variation of musical types on their fourth album, A Thousand Suns (2010), layering their music with more electronic sounds. The band\'s fifth album, Living Things (2012), combined musical elements from all of their previous records. Their sixth album, The Hunting Party (2014), returned to a heavier rock sound, and their seventh album, One More Light (2017), was their first pop-oriented record. Linkin Park went on a hiatus when longtime lead vocalist Bennington died by suicide in July 2017. In April 2020, bassist Dave Farrell revealed the band was working on new music. Linkin Park is among the best-selling bands of the 21st century and the world\'s best-selling music artists, having sold over 100 million records worldwide. They have won two Grammy Awards, six American Music Awards, two Billboard Music Awards, four MTV Video Music Awards, 10 MTV Europe Music Awards and three World Music Awards. In 2003, MTV2 named Linkin Park the sixth-greatest band of the music video era and the third-best of the new millennium. Billboard ranked Linkin Park No. 19 on the Best Artists of the Decade list. In 2012, the band was voted as the greatest artist of the 2000s in a Bracket Madness poll on VH1. In 2014, the band was declared as "The Biggest Rock Band in the World Right Now" by Kerrang!.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Kasabian', 'artist_name': 'Kasabian', 'wiki': 'http://en.wikipedia.org/wiki/Kasabian', 'hometown': 'http://dbpedia.org/resource/Leicester', 'start_year': '1997', 'abstract': 'Kasabian (/kəˈseɪbiən/ kə-SAY-bee-ən) are an English rock band formed in Leicester in 1997 by Tom Meighan, Sergio Pizzorno, Chris Karloff, and Chris Edwards. Drummer Ian Matthews joined in 2004. Karloff left the band in 2006 and founded a new band called Black Onassis. Jay Mehler joined as touring lead guitarist in 2006, leaving for Liam Gallagher\'s Beady Eye in 2013, to be replaced by Tim Carter. Meighan left the band in July 2020. In 2010 and 2014, Kasabian won the Q Awards for "Best Act in the World Today", while they were also named "Best Live Act" at the 2014 Q Awards and the 2007 and 2018 NME Awards. The band\'s music is often described as "indie rock", but Pizzorno has said he "hates indie bands" and does not feel Kasabian fit into that category. Kasabian have released six studio albums – Kasabian (2004), Empire (2006), West Ryder Pauper Lunatic Asylum (2009), Velociraptor! (2011), 48:13 (2014), and For Crying Out Loud (2017). The band\'s music has been described as a mix between The Stone Roses and Primal Scream with the swagger of Oasis. Their music has won them several awards and recognition in the media, including a Brit Award in 2010 for Best British Group, and their live performances have received praise, the most notable of which was their appearance as headliners at the 2014 Glastonbury Festival.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Eddie_Rabbitt', 'artist_name': 'Eddie Rabbitt', 'wiki': 'http://en.wikipedia.org/wiki/Eddie_Rabbitt', 'birth_date': '27 November 1941', 'death_date': '07 May 1998', 'start_year': '1964', 'end_year': '1998', 'abstract': 'Edward Thomas Rabbitt (November 27, 1941 – May 7, 1998) was an American country music singer and songwriter. His career began as a songwriter in the late 1960s, springboarding to a recording career after composing hits such as "Kentucky Rain" for Elvis Presley in 1970 and "Pure Love" for Ronnie Milsap in 1974. Later in the 1970s, Rabbitt helped to develop the crossover-influenced sound of country music prevalent in the 1980s with such hits as "Suspicions", "I Love a Rainy Night" (a number-one hit single on the Billboard Hot 100), and "Every Which Way but Loose" (the theme from the film of the same title). His duets "Both to Each Other (Friends and Lovers)" with Juice Newton and "You and I" with Crystal Gayle later appeared on the soap operas Days of Our Lives and All My Children.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Chainsmokers', 'artist_name': 'The Chainsmokers', 'wiki': 'http://en.wikipedia.org/wiki/The_Chainsmokers', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2012', 'abstract': 'The Chainsmokers is an American electronic DJ and production duo consisting of Alexander "Alex" Pall and Andrew "Drew" Taggart. They started out by releasing remixes of songs by indie artists. The EDM-pop duo achieved a breakthrough with their 2014 song "#Selfie", which became a top twenty single in several countries. They have won a Grammy award, two American Music Awards, seven Billboard Music Awards and nine iHeartRadio Music Awards. According to Forbes 2019 list of highest paid celebrities, the Chainsmokers were the highest paid DJs, dethroning Calvin Harris after six years. Their debut EP, Bouquet, was released in October 2015 and featured the single "Roses" which reached the top 10 on the US Billboard Hot 100. "Don\'t Let Me Down", featuring American singer Daya, became their first top-five single on the Billboard chart and won the Grammy Award for Best Dance Recording at the 59th awards ceremony. Their single "Closer", featuring American singer-songwriter Halsey, became their first number-one single on the Billboard chart. The duo\'s second EP, Collage, was released in November 2016. Their debut studio album, Memories...Do Not Open, was released in April 2017 and topped the US Billboard 200 chart. Their second album, Sick Boy, was released in December 2018. Their third studio album, World War Joy was released in December 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Hard_(band)', 'artist_name': 'Hard', 'wiki': 'http://en.wikipedia.org/wiki/Hard_(band)', 'hometown': 'http://dbpedia.org/resource/Hungary', 'start_year': '2004', 'abstract': 'Hard is a Hungarian hard rock supergroup formed in late 2004 in Budapest, Hungary by József Kalapács (ex-vocalist of Pokolgép and Omen, currently also singing in Kalapács) and Gábor Mirkovics (ex-bass guitarist of Edda Művek). The rest of the band consisted of guitarist Zsolt Csillik (ex-Dance, Jack Daniels and Fix), keyboardist Dénes Makovics (also known for playing saxophone in Bikini) and drummer Zoltán Váry (ex-Sing Sing, ex-Zero-G, guitars–vocals for the Hungarian KISS tribute band KISS Forever Band). In 2005, Ferenc Béres arrived to fill in the position of Dénes Makovics, who was a session member for the studio recording of the first release, “Égni kell”. He played in EDDA Művek and Fix beforehand. In 2007, Váry left because of the German success of KISS Forever Band (he couldn\'t concentrate on Hard enough), so Donászy arrived, who also played in e.g. Beatrice. In 2007 Hard reformed for an international introduction with singer . The album Traveler was released in 2008. The material has since been remixed by the producer Beau Hill in 2008. In 2009, Swedish vocalist and guitarist Björn Lodin was confirmed as the new singer for Hard. Björn is known for his work with Swedish rockers Baltimoore. Platinum-selling Hungarian guitar virtuoso Endre Csillag has also joined the ranks along with drummer Balázs Hornyák. The band start recording their new CD together in the Autumn with Björn Lodin also handling the production duties. The new, as yet untitled album, is scheduled for release on BLP Music, March 2010. "Love Goes With Anything" is the debut single from the new line-up and was released in November 2009.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/La_Bouche', 'artist_name': 'La Bouche', 'wiki': 'http://en.wikipedia.org/wiki/La_Bouche', 'hometown': 'http://dbpedia.org/resource/Frankfurt', 'start_year': '1994', 'end_year': '2002', 'abstract': 'La Bouche (French for "The Mouth", pronounced [la buʃ]) is a German electronic dance music duo best known for the hits "Be My Lover", "Sweet Dreams", "You Won\'t Forget Me" and "Tonight is the Night". La Bouche was founded in 1994 by record producer Frank Farian in Frankfurt am Main. He worked together with techno DJ Ulli Brenner and producer Amir Saraf to produce the music, while American singer Melanie Thornton and American rapper-singer Lane McCray fronted the act. Thornton and McCray had already worked together in music, prior to La Bouche\'s creation. Thornton departed La Bouche in 2000, continuing her career as a solo singer. On November 24, 2001, Melanie Thornton died in the Crossair Flight 3597 crash in Zürich, Switzerland. As a tribute to the singer, Farian released "In Your Life", a previously unreleased song featuring vocals recorded earlier with Thornton and McCray. Farian later decided to release a compilation album in 2002 featuring remixes of Thornton\'s biggest La Bouche hits. McCray continues to tour the world as La Bouche, keeping the brand alive. In 2015, McCray pulled Hungarian-born singer Sophie Cairo out of obscurity to be the new official singer of the act. A new official remix titled "Sweet Dreams 2017" was released featuring vocals from McCray and Cairo.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/AronChupa', 'artist_name': 'AronChupa', 'wiki': 'http://en.wikipedia.org/wiki/AronChupa', 'birth_date': '30 March 1991', 'start_year': '2012', 'abstract': 'Aron Michael Ekberg (born 30 March 1991), better known by his stage name AronChupa, is a Swedish singer, record producer, songwriter, artist and DJ. His 2014 song "I\'m an Albatraoz" reached number 1 on the Swedish Singles Chart and in Denmark, and top 10 in many charts across Europe. It also reached number 25 in the UK and number 10 in the US dance charts. His younger sister, Nora Ekberg, better known professionally as Little Sis Nora, provided the vocals for the track and starred in the music video, but never appeared as featured artist on the track. The music video has surpassed 1.2 billion views on YouTube.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Charli_XCX', 'artist_name': 'Charli XCX', 'wiki': 'http://en.wikipedia.org/wiki/Charli_XCX', 'birth_date': '02 August 1992', 'start_year': '2007', 'abstract': 'Charlotte Emma Aitchison (born 2 August 1992), known professionally as Charli XCX, is an English singer and songwriter. Born in Cambridge and raised in Start Hill, Essex, she began posting songs on Myspace in 2008, which led to her discovery by a promoter who invited her to perform at warehouse raves. In 2010, she signed a recording contract with Asylum Records, releasing a series of singles and mixtapes throughout 2011 and 2012. In 2012, Charli XCX rose to prominence with the Icona Pop collaboration "I Love It", which became an international success, reaching top 10 in North America and Europe. Her debut studio album, True Romance (2013), was released that year to critical acclaim but failed to meet commercial expectations. In 2014, she contributed the hook and bridge to "Fancy" by rapper Iggy Azalea, which finished the year as one of the best-selling singles worldwide and was nominated for two Grammy Awards. The same year, Charli XCX released "Boom Clap", which became her first solo top-ten single on the Billboard Hot 100. Her second studio album, the punk-influenced Sucker, was released at the end of the year, and spawned the successful singles "Break the Rules" and "Doing It". In 2015, Charli XCX began working alongside producers associated with the UK collective PC Music, developing a more experimental sound and image. While working on her third album, she released the Vroom Vroom EP (2016) and the mixtapes Number 1 Angel and Pop 2 (both 2017), as well as a series of singles including the BPI-certified "After the Afterparty", "Boys", and "1999". Her third and fourth studio albums, Charli (2019) and How I\'m Feeling Now (2020), received widespread acclaim; the latter was created within a span of six weeks during the COVID-19 lockdowns. In 2021, Charli XCX co-wrote and provided vocals on the Jax Jones and Joel Corry single "Out Out". The singer\'s fifth album, Crash, is scheduled for release in March 2022. In addition to her solo work, Charli XCX has co-written songs for other artists, including Iggy Azalea\'s "Beg for It" (2014), Selena Gomez\'s "Same Old Love" (2015), Blondie\'s "Tonight" (2017), and the Shawn Mendes and Camila Cabello collaboration "Señorita" (2019).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Soul_Asylum', 'artist_name': 'Soul Asylum', 'wiki': 'http://en.wikipedia.org/wiki/Soul_Asylum', 'hometown': 'http://dbpedia.org/resource/Minneapolis', 'start_year': '1981', 'abstract': 'Soul Asylum is an American alternative rock band formed in 1981 in Minneapolis, Minnesota. Their 1993 hit "Runaway Train" won the Grammy Award for Best Rock Song. The band was originally called Loud Fast Rules, with a lineup consisting of Dave Pirner, Dan Murphy, Karl Mueller, and Pat Morley. They changed their name to Soul Asylum in 1983. Morley was replaced by Grant Young in 1984. The band recorded three albums with Twin/Tone Records and two with A&amp;M Records, with little commercial success. In 1992, they released the triple-platinum album Grave Dancers Union, featuring "Runaway Train". The band played at the inauguration of President Bill Clinton early the next year. They also scored a platinum record with the album Let Your Dim Light Shine three years later. In 1998 they recorded Candy from a Stranger. Mueller was diagnosed with cancer in 2004, and the band organized a benefit concert on his behalf. Mueller died a year later. The band released four more albums over the next 15 years. Their most recent was Hurry Up and Wait in 2020, their twelfth studio release.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Vita_(rapper)', 'artist_name': 'Vita', 'wiki': 'http://en.wikipedia.org/wiki/Vita_(rapper)', 'start_year': '1998', 'end_year': '1998', 'abstract': 'LaVita Raynor, known simply as Vita, is an American rapper and actress. She is most known as an actress for playing DMX\'s "side chick" Kionna in the 1998 film Belly. As a rapper she is known for her appearances on the songs Lapdance by N.E.R.D, Put It on Me by Ja Rule, and Down 4 U by Irv Gotti. Her sister is Kima Raynor of Total. In 2014, Vita was included in Billboard\'s list of the "31 Female Rappers Who Changed Hip-Hop".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'artist_name': 'Rage Against the Machine', 'wiki': 'http://en.wikipedia.org/wiki/Rage_Against_the_Machine', 'abstract': "Rage Against the Machine (often abbreviated as RATM or shortened to Rage) is an American rock band from Los Angeles, California. Formed in 1991, the group consists of vocalist Zack de la Rocha, bassist and backing vocalist Tim Commerford, guitarist Tom Morello, and drummer Brad Wilk. Their songs express revolutionary political views. As of 2010, they have sold over 16 million records worldwide. The band was nominated for induction into the Rock &amp; Roll Hall of Fame in their first year of eligibility in 2017, then again in 2018, 2019, and 2021, though the bids failed. Rage Against the Machine released its self-titled debut album in 1992 to commercial and critical success, leading to a slot in the 1993 Lollapalooza festival; in 2003, the album was ranked number 368 on Rolling Stone's list of the 500 greatest albums of all time. The follow-up albums, Evil Empire (1996) and The Battle of Los Angeles (1999), were also successful; both albums topped the Billboard 200 chart. During their initial nine-year run, Rage Against the Machine became a popular and influential band, and had a large influence on the nu metal genre which came to prominence during the second half of the 1990s. They were also ranked No. 33 on VH1's 100 Greatest Artists of Hard Rock. In 2000, Rage Against the Machine released the cover album Renegades and disbanded after growing creative differences led to De la Rocha's departure. De la Rocha started a low-profile solo career, while the rest of the band formed the rock supergroup Audioslave with Chris Cornell, the former frontman of Soundgarden; Audioslave recorded three albums before disbanding in 2007. The same year, Rage Against the Machine announced a reunion and performed together for the first time in seven years at the Coachella Valley Music and Arts Festival in April 2007. Within the next four years, minus a sabbatical in 2009, the band continued to perform at more live venues and festivals around the world before going on hiatus once again in 2011. In 2016, Morello, Commerford and Wilk formed a new band, Prophets of Rage, with B-Real, Chuck D, and DJ Lord; that band released one EP and one full-length studio album before disbanding in 2019. After an eight-year hiatus, Rage Against the Machine announced in November 2019 that they were reuniting for a world tour, which was initially scheduled to start in 2020 but was ultimately postponed to 2021 and again to 2022, due to the COVID-19 pandemic."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/4_Non_Blondes', 'artist_name': '4 Non Blondes', 'wiki': 'http://en.wikipedia.org/wiki/4_Non_Blondes', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1989', 'end_year': '1989', 'abstract': '4 Non Blondes was an American alternative rock band from San Francisco, California, active from 1989 to 1994. Their only album, Bigger, Better, Faster, More! spent 59 weeks on the Billboard 200 and sold 1.5 million copies between 1992 and 1994. They hit the charts in 1993 with the release of the album\'s second single, "What\'s Up?". Originally, the band was all-female, with lead singer Linda Perry, bassist Christa Hillhouse, guitarist Shaunna Hall, and drummer Wanda Day. However, along with Day being replaced by Dawn Richardson (drums), Hall was replaced by Roger Rocha (guitar) before the release of the album. Lead singer Linda Perry left the band in 1994, and the remaining members disbanded shortly thereafter.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/5_Seconds_of_Summer', 'artist_name': '5 Seconds of Summer', 'wiki': 'http://en.wikipedia.org/wiki/5_Seconds_of_Summer', 'hometown': 'http://dbpedia.org/resource/Australia', 'start_year': '2011', 'abstract': '5 Seconds of Summer, often shortened to 5SOS (pronounced as \'5 sos\'), are an Australian pop rock band from Sydney, New South Wales, formed in late 2011. The group consists of lead vocalist and rhythm guitarist Luke Hemmings, lead guitarist Michael Clifford, bassist Calum Hood, and drummer Ashton Irwin. Originally beginning their career as YouTube celebrities, they rose to international fame while touring with English-Irish boy band One Direction on their Take Me Home Tour. Since 2014, 5 Seconds of Summer have sold more than 10 million albums, sold over 2 million concert tickets worldwide, and the band\'s songs streams surpass 7 billion, making them one of the most successful Australian musical exports in history. In early 2014, the band released "She Looks So Perfect" which topped the charts in four countries. Their self-titled debut album was released in 2014, peaking at number one in 11 countries. The band released their second album Sounds Good Feels Good in 2015, topping the charts in 8 countries. The band\'s third album Youngblood, released in 2018, was a commercial success and became their third number one album in their home country. In the US, 5 Seconds of Summer became the first Australian act to achieve three number one albums on the Billboard 200 album chart. They also became the first band (not vocal group) to have their first three full-length albums debut at the top in the US. The album\'s single, "Youngblood" is the fourth highest selling Australian single of the 2010-2019 decade and is the eleventh best-selling single in Australian history, selling over five million adjusted copies worldwide within the first six months of its release. With the release of "Youngblood", 5 Seconds of Summer became the first Australian act in 13 years to top ARIA year-end chart and remain the second longest stint at number one in ARIA chart history. In 2020, the band released their fourth studio album Calm. The album was a commercial success, receiving positive reviews from critics, charting in more than 25 countries on multiple charts, peaking in the 10 top on 17 charts and debuting atop the charts in 4 countries. With Calm earning the band their fourth consecutive number one in their home country, 5 Seconds of Summer became the second Australian band in history to have their first four full-length studio albums debut at number one on the ARIA albums chart. All singles from the band\'s four studio albums, as well as all four albums, have charted in multiple countries, received multiple official sale certifications, and have been featured in numerous weekly and year-end charts, as well as making an appearance on decade-end charts. The band has received numerous accolades and awards, including being honored with the prestigious APRA Outstanding International Achievement Award in 2019, being placed on Billboard\'s Top Artists of the 2010s chart, which lists the most popular and successful artists of the 2010-2019 decade and being credited in the exclusive APRA AMCOS 1,000,000,000 List in 2020. As of mid-2020, the band\'s estimated net worth is approximately US$81 million.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Republica', 'artist_name': 'Republica', 'wiki': 'http://en.wikipedia.org/wiki/Republica', 'hometown': 'http://dbpedia.org/resource/Windsor,_Berkshire', 'start_year': '2008', 'abstract': 'Republica are an English alternative rock band, formed in 1994. The height of their popularity spanned from 1996 to 1999. The current line-up consists of Saffron (vocals), Tim Dorney (keyboards), Johnny Male (guitar), Conor Lawrence (drums). The Republica sound was described by the band as "technopop punk rock". The band went on hiatus in 2001 and reunited in 2008. Republica are best known for the single "Ready to Go".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Offspring', 'artist_name': 'The Offspring', 'wiki': 'http://en.wikipedia.org/wiki/The_Offspring', 'hometown': 'http://dbpedia.org/resource/Garden_Grove,_California', 'start_year': '1984', 'abstract': 'The Offspring is an American rock band from Garden Grove, California, formed in 1984. Originally formed under the name Manic Subsidal, the band\'s lineup consists of lead vocalist and rhythm guitarist Bryan "Dexter" Holland, bassist Todd Morse and lead guitarist Kevin "Noodles" Wasserman. Over the course of their 37-year career, they have released ten studio albums and experienced multiple lineup changes, most noticeably with their drummers. Their longest-serving drummer was Ron Welty, who replaced original drummer James Lilja in 1987, and stayed with the band for 16 years; he was replaced by Atom Willard in 2003, and then four years later by former drummer Pete Parada. Gregory "Greg K." Kriesel, one of the co-founders of the Offspring, was their bassist until 2018 when he parted ways due to business disputes with the band, leaving Holland as the sole remaining original member. Kriesel was replaced by Todd Morse of H2O, who had been the Offspring\'s touring guitarist since 2009. The Offspring is often credited—alongside fellow California punk bands Green Day and Rancid—for reviving mainstream interest in punk rock in the 1990s. They have sold over 40 million records worldwide, making them one of the best-selling punk rock bands in history. After achieving a local following with their early releases, including their 1989 self-titled debut album and the vinyl-only EP Baghdad (1991), The Offspring signed with Epitaph Records and released two albums for the independent label, Ignition (1992) and Smash (1994). Smash, which contained the band\'s first major hit "Come Out and Play", propelled punk rock into the mainstream and holds the distinction as one of the best-selling albums released on an independent record label, selling over eleven million copies worldwide. The success of Smash attracted attention from major labels, including Columbia Records, with whom The Offspring signed in 1996; their first album for the label, Ixnay on the Hombre (1997), did not match the success of its predecessor, but received critical acclaim and gold and platinum awards. The band\'s fifth album, Americana (1998), regained their previous level of popularity, obtaining support from MTV and radio, and selling over five million units in the US. The Offspring has since released five more albums: Conspiracy of One (2000), Splinter (2003), Rise and Fall, Rage and Grace (2008), Days Go By (2012) and Let the Bad Times Roll (2021).'}</t>
-  </si>
-  <si>
-    <t>{'artist': "http://dbpedia.org/resource/Sinéad_O'Connor", 'artist_name': "Sinéad O'Connor", 'wiki': "http://en.wikipedia.org/wiki/Sinéad_O'Connor", 'birth_date': '08 December 1966', 'start_year': '1986', 'end_year': '2021', 'abstract': 'Shuhada Sadaqat (born Sinéad Marie Bernadette O\'Connor on 8 December 1966 and still known by her birth name, Sinéad O\'Connor) is an Irish singer-songwriter. Her debut album, The Lion and the Cobra, released in 1987, charted internationally and her single "Nothing Compares 2 U", released in 1990, was named the number one world single by the Billboard Music Awards. Since then, while maintaining her singing career, she has occasionally encountered controversy, partly due to her statements and gestures. These include her ordination as a priest, despite being a woman with a Roman Catholic background, and strongly expressing views on organised religion, women\'s rights, war, and child abuse. In addition to her ten solo albums, her work includes many singles, songs for films, collaborations with many other artists, and appearances at charity fundraising concerts. In 2017, O\'Connor changed her name to Magda Davitt. After converting to Islam in 2018, she changed it to Shuhada Sadaqat. However, she continues to record and perform under her birth name.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Live_(band)', 'artist_name': 'Live', 'wiki': 'http://en.wikipedia.org/wiki/Live_(band)', 'hometown': 'http://dbpedia.org/resource/York,_Pennsylvania', 'start_year': '1984', 'end_year': '2009', 'abstract': 'Live (/laɪv/, often typeset as LĪVE or +LĪVE+) is an American rock band formed in York, Pennsylvania in 1984, consisting of Ed Kowalczyk (lead vocals, rhythm guitar), Chad Taylor (lead guitar, backing vocals), Patrick Dahlheimer (bass), and Chad Gracey (drums). The band started to gain attention following their single "Operation Spirit (The Tyranny of Tradition)", the video for which got regular airplay on MTV, and the moderate success of their second album, Mental Jewelry. Their biggest success came in 1994, with their third album, Throwing Copper, which sold eight million copies in the U.S. The band had a string of hit singles in the mid-1990s, including "Lightning Crashes", which stayed at the top of the Billboard Hot Mainstream Rock Tracks chart for ten consecutive weeks and the Modern Rock Tracks (now Alternative Songs) chart for nine weeks from February 25 to April 22, 1995. The band has sold over twenty million albums worldwide. When touring, Live has used additional musicians, including Ed Kowalczyk\'s younger brother Adam, British keyboardist Michael "Railo" Railton, rhythm guitarist Christopher Thorn of Blind Melon, and guitarist Zak Loy of Alpha Rev. In 2009, Ed Kowalczyk left the band; he was replaced by singer Chris Shinn and the band released the album The Turn in October 2014. Kowalczyk rejoined in December 2016 and in 2018, they released a new EP, Local 717.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Beloved_(band)', 'artist_name': 'The Beloved', 'wiki': 'http://en.wikipedia.org/wiki/The_Beloved_(band)', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1983', 'abstract': 'The Beloved are a British electronic music group best known for the singles "Sweet Harmony", "The Sun Rising", "Hello", "Your Love Takes Me Higher", and "Satellite". Originally a post-punk/new wave band formed in 1983, they underwent a change of direction in the late 1980s to a house/alternative dance sound and experienced chart success in the UK and elsewhere.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Alien_Ant_Farm', 'artist_name': 'Alien Ant Farm', 'wiki': 'http://en.wikipedia.org/wiki/Alien_Ant_Farm', 'hometown': 'http://dbpedia.org/resource/Riverside,_California', 'start_year': '1996', 'abstract': 'Alien Ant Farm is an American rock band that formed in Riverside, California in 1996. They have released five studio albums and sold over 5 million units worldwide. The band\'s cover of Michael Jackson\'s "Smooth Criminal" topped the Billboard Alternative songs charts in 2001, and was featured in the film American Pie 2. They released their debut album Greatest Hits independently in 1999, then signed to DreamWorks Records in 2000. Their second album ANThology was released in 2001 and has been certified platinum by the RIAA, selling over one million copies and reaching number 11 on the Billboard 200. Following up that was their third album, TruANT, released in 2003. The album was produced by brothers Robert and Dean DeLeo of Stone Temple Pilots, and made it to number 42 on the Billboard 200. In 2005 the band recorded their next album 3rd Draft, however its release was denied by the label after Geffen bought out DreamWorks. It was eventually released in 2006 as Up in the Attic, charting at number 114 on the Billboard 200. After several years of sporadic touring, the band\'s fifth studio album Always and Forever was released in February 2015.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Demi_Lovato', 'artist_name': 'Demi Lovato', 'wiki': 'http://en.wikipedia.org/wiki/Demi_Lovato', 'birth_date': '20 August 1992', 'start_year': '2002', 'abstract': 'Demetria Devonne Lovato (/ləˈvɑːtoʊ/ lə-VAH-toh; born August 20, 1992) is an American singer, songwriter, and actor. After appearing on the children\'s television series Barney &amp; Friends (2002–2004), Lovato rose to prominence as Mitchie Torres in the musical television film Camp Rock (2008) and its sequel Camp Rock 2: The Final Jam (2010); the former film\'s soundtrack contained "This Is Me", Lovato\'s debut single and duet with Joe Jonas, which peaked at number nine on the Billboard Hot 100. After signing with Hollywood Records, Lovato released their pop rock debut album, Don\'t Forget (2008), which debuted at number two on the Billboard 200. Its follow-up, Here We Go Again (2009), debuted at number one in the U.S., while its title track reached number 15 on the Hot 100. Lovato\'s third studio album, Unbroken (2011), experimented with pop and R&amp;B and spawned the U.S. platinum-certified single "Skyscraper". They released their eponymous fourth album in 2013, which debuted at number three on the Billboard 200, and contained the top-ten international hit "Heart Attack". Lovato\'s fifth and sixth albums, Confident (2015) and Tell Me You Love Me (2017), infused soul and mature themes; they earned a Grammy Award nomination for Confident, while "Sorry Not Sorry", the lead single from Tell Me You Love Me, became their highest-charting single in the U.S., reaching number six. After a hiatus, Lovato released their seventh album, Dancing with the Devil... the Art of Starting Over (2021), which reached number two on the Billboard 200. On television, Lovato has starred as the titular character on the sitcom Sonny with a Chance (2009–2011), served as a judge on the music competition series The X Factor USA for its second and third seasons, and appeared as a recurring character on the musical comedy Glee (2013–2014) and the sitcom Will &amp; Grace (2020). They also starred in the television drama film Princess Protection Program (2009), the animated comedy film Smurfs: The Lost Village (2017), and the musical comedy Eurovision Song Contest: The Story of Fire Saga (2020). Lovato has sold over 24 million records in the United States and has also received numerous accolades, including an MTV Video Music Award, 14 Teen Choice Awards, five People\'s Choice Awards, two Latin American Music Awards, a Guinness World Record, and was included on the Time 100 annual list in 2017. An activist for several social causes, Lovato\'s struggles with an eating disorder and substance abuse have been well-documented by the media, in response to which they published a book, Staying Strong: 365 Days a Year (2013), and released the documentaries Demi Lovato: Simply Complicated (2017) and Demi Lovato: Dancing with the Devil (2021).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Audioslave', 'artist_name': 'Audioslave', 'wiki': 'http://en.wikipedia.org/wiki/Audioslave', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'start_year': '2001', 'end_year': '2007', 'abstract': "Audioslave was an American rock supergroup formed in Glendale, California, in 2001. The four-piece band consisted of Soundgarden's lead singer and rhythm guitarist Chris Cornell with Rage Against the Machine members Tom Morello (lead guitar), Tim Commerford (bass/backing vocals), and Brad Wilk (drums). Critics first described Audioslave as a combination of Soundgarden and Rage Against the Machine, but by the band's second album, Out of Exile, it was noted that they had established a separate identity. Their unique sound was created by blending 1970s hard rock and 1990s alternative rock, with musical influences that included 1960s funk, soul and R&amp;B. As with Rage Against the Machine, the band prided themselves on the fact that all sounds on their albums were produced using only guitars, bass, drums, and vocals, with emphasis on Cornell's wide vocal range and Morello's unconventional guitar solos. In their six years together, Audioslave released three albums, received three Grammy nominations, sold more than eight million records worldwide and became the first American rock band to perform an open-air concert in Cuba. They disbanded in February 2007 after Cornell issued a statement announcing that he was leaving the band. Later that year, Cornell and Morello released solo albums, and Morello, Commerford, and Wilk reunited with Zack de la Rocha for the Rage Against the Machine Reunion Tour. Audioslave reunited to perform at Prophets of Rage's Anti-Inaugural Ball, which took place on January 20, 2017. Cornell's death later that year precluded any chance of further reunions."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Metro_Station_(band)', 'artist_name': 'Metro Station', 'wiki': 'http://en.wikipedia.org/wiki/Metro_Station_(band)', 'start_year': '2006', 'end_year': '2010', 'abstract': 'Metro Station is an American pop rock band that was formed in Los Angeles, California by singer Mason Musso and bassist/guitarist Trace Cyrus. In late 2006, the band signed a recording contract with Columbia Records and RED Ink Records. The band is best known for the top 10 Billboard hit single "Shake It" from the group\'s self-titled debut album. In 2010, tension between Cyrus and Musso caused the band to go on hiatus. In 2011, the band returned, however, it was announced that Cyrus was no longer a part of the group and Musso had purchased the rights to the name. An EP entitled Middle of the Night was released in 2013, which was led by the single "Every Time I Touch You". In 2014, Cyrus and a new drummer, Spencer Steffan, came to the band, and a new single entitled "Love &amp; War" was released. In 2015, the band released a second full-length album, titled Savior. After this, the band went on a U.S and European tour, announcing an EP called Bury Me My Love along with a U.S. 10-year anniversary tour. Just before the tour started, the band announced it would be their final tour and that they were breaking up. They reunited once again in 2019 and released the single "I Hate Society" in 2020. The band is often described as a scene pop band due to the members\' sense of fashion and the band\'s unique blend of various pop styles.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Men_at_Work', 'artist_name': 'Men at Work', 'wiki': 'http://en.wikipedia.org/wiki/Men_at_Work', 'hometown': 'http://dbpedia.org/resource/Victoria_(Australia)', 'start_year': '1978', 'end_year': '1986', 'abstract': 'Men at Work are an Australian rock band formed in Melbourne in 1978 and best known for breakthrough hits such as "Who Can It Be Now?" and "Down Under". Its founding member and frontman is Colin Hay, who performs on lead vocals and guitar. After playing as an acoustic duo with Ron Strykert during 1978–79, Hay formed the group with Strykert playing bass guitar and Jerry Speiser on drums. They were soon joined by Greg Ham on flute, saxophone, and keyboards and John Rees on bass guitar, with Strykert switching back to lead guitar. The group was managed by Russell Depeller, a friend of Hay, whom he met at La Trobe University. This line-up achieved national and international success during the early to mid 1980s. In January 1983, they were the first Australian artists to have a simultaneous No. 1 album and No. 1 single on the United States Billboard charts: Business as Usual (released on 9 November 1981) and "Down Under" (1981), respectively. With the same works, they achieved the distinction of a simultaneous No. 1 album and No. 1 single on the Australian, New Zealand, and United Kingdom charts. Their second album Cargo (2 May 1983) was also No. 1 in Australia, No. 2 in New Zealand, No. 3 in the US, and No. 8 in the UK. Their third album Two Hearts (3 April 1985) reached the top 20 in Australia and top 50 in the US. They won the Grammy Award for Best New Artist in 1983, they were inducted into the ARIA Hall of Fame in 1994, and they have sold over 30 million albums worldwide. In May 2001, "Down Under" was listed at No. 4 on the APRA Top 30 Australian songs and Business as Usual appeared in the book 100 Best Australian Albums (October 2010). In 1984, Speiser and Rees were asked to leave the group, leaving Hay, Ham and Strykert. During the recording of the Two Hearts album, Strykert decided to leave. Soon after the release of Two Hearts, Ham left also, leaving Hay as the sole remaining member. From 1996 until 2002 Hay and Ham toured the world as Men at Work. On 19 April 2012, Ham was found dead at his home from an apparent heart attack. In 2019, Hay revived the Men at Work moniker and began touring with the assistance of a backing band including none of the other original members.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Korn', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'start_year': '1993', 'abstract': 'Korn (stylized as KoЯn) is an American nu metal band from Bakersfield, California, formed in 1993. The band is notable for pioneering the nu metal genre and bringing it into the mainstream. Originally formed in 1993 by three members of the band L.A.P.D., Korn\'s current lineup features founding members James "Munky" Shaffer (rhythm guitar), Reginald "Fieldy" Arvizu (bass), Brian "Head" Welch (lead guitar, backing vocals), and Jonathan Davis (lead vocals, bagpipes), with the addition of Ray Luzier (drums) in 2007, replacing the band\'s first drummer, David Silveria. Korn made a demo tape, Neidermayer\'s Mind, in 1993, which was distributed free to record companies and on request to members of the public. Their debut album, Korn, was released in 1994, followed by Life Is Peachy in 1996. The band first experienced mainstream success with Follow the Leader (1998) and Issues (1999), both of which debuted at number one on the Billboard 200. The band\'s mainstream success continued with Untouchables (2002), Take a Look in the Mirror (2003) and See You on the Other Side (2005). A compilation album, Greatest Hits Vol. 1, was released in 2004, spanning a decade of singles and concluding the band\'s recording contract with Immortal Records and Epic Records. They signed to Virgin Records, releasing See You on the Other Side in 2005, and an untitled album in 2007. Korn\'s other recent albums, Korn III: Remember Who You Are (2010) and The Path of Totality (2011), were released via Roadrunner Records, The Paradigm Shift (2013) being released via Prospect Park and Caroline Records. The Serenity of Suffering, saw their return to Roadrunner Records. Their latest album, The Nothing, was released on September 13, 2019. As of 2018, Korn had sold more than 40 million records worldwide. Twelve of the band\'s official releases have peaked in the top ten of the Billboard 200, eight of which have peaked in the top five. Seven official releases are certified platinum by the Recording Industry Association of America (RIAA), two are certified double platinum, one is certified triple platinum, one is certified five times platinum and two are certified Gold. Korn has released seven video albums and 39 music videos. The band has released 41 singles, 28 of which have charted. Korn has earned two Grammy Awards out of eight nominations and two MTV Video Music Awards out of eleven nominations.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Mousse_T.', 'artist_name': 'Mousse T.', 'wiki': 'http://en.wikipedia.org/wiki/Mousse_T.', 'hometown': 'http://dbpedia.org/resource/Turkish_people', 'birth_date': '02 October 1966', 'start_year': '1989', 'abstract': 'Mustafa Gundogdu (Turkish: Mustafa Gündoğdu, [mustɑˈfɑ ɟynˈdoːdu]; born 2 October 1966), best known under his stage name Mousse T., is a German-Turkish DJ, record producer, film composer and judge on season 15 of Deutschland sucht den Superstar, the German version of Pop Idol. He is best known for the 1998 house hit "Horny \'98" (famous for the hook "I\'m horny") and for his collaboration with Tom Jones on the 2000 hit "Sex Bomb", from Jones\' 1999 album Reload. Mousse T. is one of the first producers of house music in his country, alongside contemporaries Boris Dlugosch, DJ Tonka and Ian Pooley.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Megadeth', 'artist_name': 'Megadeth', 'wiki': 'http://en.wikipedia.org/wiki/Megadeth', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2004', 'abstract': 'Megadeth is an American heavy metal band formed in Los Angeles in 1983 by vocalist/guitarist Dave Mustaine and bassist David Ellefson. Known for their technically complex guitar work and musicianship, Megadeth is one of the "big four" of American thrash metal along with Metallica, Anthrax, and Slayer, responsible for the genre\'s development and popularization. Their music features complex arrangements and fast rhythm sections, and lyrical themes of death, war, politics, personal relationships, and religion. In 1985, Megadeth released its debut album, Killing Is My Business... and Business Is Good!, on the independent record label Combat Records, to moderate success. It caught the attention of bigger labels, which led to Megadeth signing with Capitol Records. Their first major-label album, Peace Sells... but Who\'s Buying?, was released in 1986 and was a major hit with the underground metal scene. Band members\' substance abuse issues and personal disputes had brought Megadeth negative publicity during the late 1980s. Nonetheless, the band went on to release a number of platinum-selling albums, including So Far, So Good... So What! (1988), Rust in Peace (1990), and Countdown to Extinction (1992). These albums, along with worldwide tours, brought them public recognition. Megadeth has had numerous guitarists, drummers and bassists throughout its 38-year career, with Mustaine being the only remaining original member of the group. The band temporarily disbanded in 2002 when Mustaine suffered an arm injury and re-established in 2004 without Ellefson, who had taken legal action against him. Ellefson settled out of court and rejoined in 2010, but was fired from the band in 2021 amid allegations of sexual misconduct. Megadeth\'s current lineup includes Mustaine, guitarist Kiko Loureiro and drummer Dirk Verbeuren; former bassist James LoMenzo currently serves as touring bassist. Megadeth has sold 38 million records worldwide, earned platinum certification in the United States for six of its fifteen studio albums, and received twelve Grammy nominations. Megadeth won its first Grammy Award in 2017 for the song "Dystopia" in the Best Metal Performance category. The band\'s mascot, Vic Rattlehead, regularly appears on album artwork and live shows. The group has drawn controversy for its music and lyrics, including album bans and canceled concerts; MTV refused to play two of the band\'s music videos that the network considered to condone suicide. Megadeth has hosted its own music festival Gigantour, several times since July 2005, and held its first annual MegaCruise in October 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/M83_(band)', 'artist_name': 'M83', 'wiki': 'http://en.wikipedia.org/wiki/M83_(band)', 'hometown': 'http://dbpedia.org/resource/Antibes', 'start_year': '1999', 'abstract': 'M83 is a French electronic music project formed in Antibes, Alpes-Maritimes in 1999 and currently based in Los Angeles, California. The band\'s primary member is vocalist, songwriter, multi-instrumentalist and record producer Anthony Gonzalez. The band was initially formed as a duo also with Nicolas Fromageau; it has released eight albums and two soundtracks, including the Grammy Award-nominated Hurry Up, We\'re Dreaming. Gonzalez and Fromageau parted ways shortly after touring their second album Dead Cities, Red Seas &amp; Lost Ghosts. Gonzalez records primarily on his own, with other artists as guest musicians. The band is signed to Mute Records and found international success in 2011 with the single "Midnight City". Their most recent album DSVII (the sequel of Digital Shades Vol. 1) was released on 20 September 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Corey_Hart_(singer)', 'artist_name': 'Corey Hart', 'wiki': 'http://en.wikipedia.org/wiki/Corey_Hart_(singer)', 'birth_date': '31 May 1962', 'start_year': '1980', 'abstract': 'Corey Mitchell Hart (born May 31, 1962) is a Canadian singer, musician and songwriter known for his hit singles "Sunglasses at Night" and "Never Surrender". He has sold over 16 million records worldwide and recorded nine US Billboard Top 40 hits. In Canada, 30 of Hart\'s recordings have been Top 40 hits, including 11 in the Top 10, over the course of over 35 years in the music industry. Nominated for the Grammy Award for Best New Artist in 1984, Hart is an inductee of both Canada\'s Music Hall of Fame and Canada\'s Walk of Fame, and is also a multiple Juno award nominee and winner, including the Diamond Award for his best-selling album Boy in the Box. He has also been honoured by the American Society of Composers, Authors and Publishers (ASCAP) and the Society of Composers, Authors and Music Publishers of Canada (SOCAN).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Alpha_Blondy', 'artist_name': 'Alpha Blondy', 'wiki': 'http://en.wikipedia.org/wiki/Alpha_Blondy', 'birth_date': '01 January 1953', 'start_year': '1981', 'abstract': 'Seydou Koné (French pronunciation: \u200b[sɛdu kɔne]; born January 1, 1953 in Dimbokro), better known by his stage name Alpha Blondy, is an Ivorian reggae singer and international recording artist. Many of his songs are politically and socially motivated, and are mainly sung in his native language Dyula, French and English, though he occasionally uses other languages, for example, Arabic or Hebrew.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bee_Gees', 'artist_name': 'Bee Gees', 'wiki': 'http://en.wikipedia.org/wiki/Bee_Gees', 'start_year': '1958', 'end_year': '2003', 'abstract': 'The Bee Gees were a music group formed in 1958, featuring brothers Barry, Robin and Maurice Gibb. The trio were especially successful as a popular music act in the late 1960s and early 1970s, and later as prominent performers of the disco music era in the mid- to late 1970s. The group sang recognisable three-part tight harmonies; Robin\'s clear vibrato lead vocals were a hallmark of their earlier hits, while Barry\'s R&amp;B falsetto became their signature sound during the mid- to late 1970s and 1980s. The Bee Gees wrote all of their own hits, as well as writing and producing several major hits for other artists. The Bee Gees have occasionally been referred to as The Disco Kings. Born on the Isle of Man to English parents, the Gibb brothers lived in Chorlton, Manchester, England until the late 1950s. There, in 1955, they formed the skiffle/rock and roll group the Rattlesnakes. The family then moved to Redcliffe, in the Moreton Bay Region, Queensland, Australia, later to Cribb Island. After achieving their first chart success in Australia as the Bee Gees with "Spicks and Specks" (their twelfth single), they returned to the UK in January 1967, when producer Robert Stigwood began promoting them to a worldwide audience. The Bee Gees\' Saturday Night Fever soundtrack (1977) was the turning point of their career, with both the film and soundtrack having a cultural impact throughout the world, enhancing the disco scene\'s mainstream appeal. They won five Grammy Awards for Saturday Night Fever, including Album of the Year. The Bee Gees have sold over 120 million records worldwide (with estimates as high as over 220 million), making them among the best-selling music artists of all time. They were inducted into the Rock and Roll Hall of Fame in 1997; the presenter of the award to "Britain\'s First Family of Harmony" was Brian Wilson, historical leader of the Beach Boys, another "family act" featuring three harmonising brothers. The Bee Gees\' Hall of Fame citation says, "Only Elvis Presley, the Beatles, Michael Jackson, Garth Brooks and Paul McCartney have outsold the Bee Gees." With nine #1 hits on the Billboard Hot 100 The Bee Gees are the third-most successful band in Billboard charts history behind only The Beatles and The Supremes. Following Maurice\'s sudden death in January 2003 at the age of 53, Barry and Robin retired the group\'s name after 45 years of activity. In 2009, Robin announced that he and Barry had agreed that the Bee Gees would re-form and perform again. Robin died in May 2012, aged 62, after a prolonged period of failing health, leaving Barry as the only surviving member of the group.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sublime_(band)', 'artist_name': 'Sublime', 'wiki': 'http://en.wikipedia.org/wiki/Sublime_(band)', 'hometown': 'http://dbpedia.org/resource/Long_Beach,_California', 'start_year': '1988', 'end_year': '1996', 'abstract': 'Sublime was an American reggae rock and ska punk band from Long Beach, California, formed in 1988. The band\'s line-up, unchanged until their breakup, consisted of Bradley Nowell (vocals and guitar), Eric Wilson (bass), and Bud Gaugh (drums). Lou Dog, Nowell\'s dalmatian, was the mascot of the band. Nowell died of a heroin overdose in 1996, resulting in Sublime\'s breakup. In 1997, songs such as "What I Got", "Santeria", "Wrong Way", "Doin\' Time", and "April 29, 1992 (Miami)" were released to U.S. radio. Sublime released three studio albums, one live album, five compilation albums (one of which also contains never-before released material), three EPs, and one box set. Although their first two albums—40oz. to Freedom (1992) and Robbin\' the Hood (1994)—were quite popular in the United States, Sublime did not experience major commercial success until 1996 with their self-titled third album, released two months after Nowell\'s death, which peaked at No. 13 on the Billboard 200, and spawned the single "What I Got", which remains the band\'s only No. 1 hit single (on the Billboard Alternative Songs chart) in their musical career. As of 2009, the band has sold over 17 million albums worldwide, including about 10 million in the U.S. alone. Michael "Miguel" Happoldt and Marshall "Ras MG" Goodman contributed to several Sublime songs. In 2009, the surviving members attempted to reform the band with Rome Ramirez, a young guitarist and admitted Sublime fan from California. However, not long after performing at Cypress Hill\'s Smokeout Festival, a Los Angeles judge banned the new lineup from using the Sublime name as they needed permission from Nowell\'s estate, which owns the rights to the Sublime name. This prompted the lineup of Wilson, Gaugh and Ramirez to change their name to Sublime with Rome, which has since released three albums, although Gaugh left the group shortly after the release of their 2011 debut Yours Truly.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Phum_Viphurit', 'artist_name': 'Phum Viphurit', 'wiki': 'http://en.wikipedia.org/wiki/Phum_Viphurit', 'birth_date': '16 August 1995', 'start_year': '2014', 'abstract': 'Viphurit Siritip (Thai: วิภูริศ ศิริทิพย์, born 1995), known by his nickname Phum (ภูมิ), is a Thai singer-songwriter. He achieved international fame in 2018 from his single "Lover Boy". His music demonstrates influences of various genres, especially neo soul.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Peter_Tosh', 'artist_name': 'Peter Tosh', 'wiki': 'http://en.wikipedia.org/wiki/Peter_Tosh', 'birth_date': '19 October 1944', 'death_date': '11 September 1987', 'start_year': '1961', 'end_year': '1987', 'abstract': 'Peter Tosh, OM (born Winston Hubert McIntosh; 19 October\u200a 1944 – 11 September 1987) was a Jamaican reggae musician. Along with Bob Marley and Bunny Wailer, he was one of the core members of the band the Wailers (1963–1976), after which he established himself as a successful solo artist and a promoter of Rastafari. He was murdered in 1987 during a home invasion.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Clairo', 'artist_name': 'Clairo', 'wiki': 'http://en.wikipedia.org/wiki/Clairo', 'hometown': 'http://dbpedia.org/resource/Carlisle,_Massachusetts', 'birth_date': '18 August 1998', 'start_year': '2012', 'abstract': 'Claire Elizabeth Cottrill (born August 18, 1998), known professionally as Clairo, is an American singer-songwriter. Born in Atlanta, Georgia, and raised in Carlisle, Massachusetts, she began posting music on the internet at age 13. Clairo rose to prominence following the viral success of the music video for her lo-fi single "Pretty Girl" in 2017. She subsequently signed a record deal with Fader Label, where she released her debut EP Diary 001 (2018). Her debut studio album Immunity (2019) received critical acclaim and spawned the singles "Bags" and "Sofia", the latter of which became her first single to chart on the Billboard Hot 100. Cottrill\'s second studio album, Sling, was released in 2021. Upon its release, the album received critical acclaim and saw commercial success, debuting in the top 20 of the US Billboard 200.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Montell_Jordan', 'artist_name': 'Montell Jordan', 'wiki': 'http://en.wikipedia.org/wiki/Montell_Jordan', 'birth_date': '03 December 1968', 'start_year': '1991', 'abstract': 'Montell Du\'Sean Barnett Jordan (born, December 3, 1968) is an American pastor, singer, songwriter, and record producer. Best known for his 1995 single "This Is How We Do It", Jordan was the primary male solo artist on Def Jam\'s Def Soul imprint until leaving the label in 2003. In 2010, Jordan left the music business to become the worship leader at Victory World Church in Norcross, Georgia.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Pendulum_(ambient_band)', 'artist_name': 'Pendulum', 'wiki': 'http://en.wikipedia.org/wiki/Pendulum_(ambient_band)', 'hometown': 'http://dbpedia.org/resource/Victoria_(Australia)', 'start_year': '1994', 'end_year': '1994', 'abstract': 'Pendulum was an ambient house Australian group, active from 1994–1998. They are best known for their 1997 single "Coma".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Veronicas', 'artist_name': 'The Veronicas', 'wiki': 'http://en.wikipedia.org/wiki/The_Veronicas', 'hometown': 'http://dbpedia.org/resource/Albany_Creek', 'start_year': '2004', 'abstract': 'The Veronicas are an Australian pop duo from Brisbane. The group was formed in 2004 by identical twin sisters Lisa and Jessica Origliasso. In 2005, the Veronicas released their debut studio album, titled The Secret Life of..., which peaked at number two on the Australian Album Chart and was certified 4× platinum by Australian Recording Industry Association (ARIA) for selling over 280,000 copies. The album spawned five singles, led by "4ever", three of which were top ten singles in Australia. In 2007, the duo released their second studio album, Hook Me Up, which also peaked at number two in Australia and was certified 2× platinum for selling over 140,000 copies. The album garnered four Australian top ten singles. The album\'s title track, "Hook Me Up", was the Veronicas\' first number one single in Australia, while "Untouched" was an international top-ten hit. Following a lengthy hiatus (broken only by the July 2012 release of the Australian top-40 single "Lolita" and various gigs for their fans), in September 2014, the Veronicas released "You Ruin Me", the first single from their self-titled third studio album. The song debuted at number one on the ARIA Charts, becoming the women\'s second chart-topping single and their first to debut in the top spot. It also charted in United States and United Kingdom. The album was released both physically and digitally on 21 November 2014. In 2016, they hosted the ARIA Music Awards. They spent most of the period between 2016 and 2021 releasing gold and platinum singles in Australia, leading to the release of both their fourth and fifth albums, Godzilla and Human, in May and June 2021, respectively. In October 2020, the sisters were announced as competing celebrity contestants on the fifth season of The Celebrity Apprentice Australia in 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Milli_Vanilli', 'artist_name': 'Milli Vanilli', 'wiki': 'http://en.wikipedia.org/wiki/Milli_Vanilli', 'hometown': 'http://dbpedia.org/resource/Munich', 'start_year': '1997', 'end_year': '1998', 'abstract': "Milli Vanilli was a German-French R&amp;B duo from Munich. The group was founded by Frank Farian in 1988 and consisted of Fab Morvan and Rob Pilatus. Their debut album, All or Nothing in Europe, reconfigured as Girl You Know It's True in the United States, achieved international success and brought them a Grammy Award for Best New Artist on 21 February 1990. They became one of the most popular pop acts in the late 1980s and early 1990s, with millions of records sold. However, their success turned to infamy when it was discovered that Morvan and Pilatus did not sing any of the vocals on their music releases. They ended up returning their Grammy Award for Best New Artist. They recorded a comeback album in 1998 titled Back and in Attack, but its release was cancelled after Pilatus died at the age of 32."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Matchbox_Twenty', 'artist_name': 'Matchbox Twenty', 'wiki': 'http://en.wikipedia.org/wiki/Matchbox_Twenty', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'start_year': '1995', 'end_year': '2004', 'abstract': "Matchbox Twenty (also known as Matchbox 20 and MB20) is an American rock band formed in Orlando, Florida, in 1995. The group currently consists of Rob Thomas (lead vocals, guitar, keyboards), Brian Yale (bass guitar), Paul Doucette (drums, rhythm guitar, backing vocals), and Kyle Cook (lead guitar, vocals). Matchbox Twenty rose to international fame with their debut album, Yourself or Someone Like You (1996), which was certified 12× Platinum (diamond) in the United States and multi-platinum in Australia, Canada, and New Zealand. Their second album, Mad Season, released in 2000, charted in the top three on the Billboard 200 and was certified 4× Platinum in the United States. Their third album, More Than You Think You Are, released in 2002, was certified 2× Platinum in the United States. The band then went on hiatus in 2004 after rhythm guitarist Adam Gaynor's departure. As a result, Paul Doucette took over rhythm guitar when the band reunited in 2007. They released a compilation album, Exile on Mainstream, which was certified Gold in the United States. After the release, the band toured to support it. Matchbox Twenty then took another hiatus while Rob Thomas embarked on a successful solo career but reunited again in 2010. On September 4, 2012, the band released their fourth studio album, North, which debuted at number one on the Billboard 200."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Yazz', 'artist_name': 'Yazz', 'wiki': 'http://en.wikipedia.org/wiki/Yazz', 'birth_date': '19 May 1960', 'start_year': '1988', 'abstract': 'Yazz (born Yasmin Evans, 19 May 1960) is an English pop singer, who remains best known for her 1988 UK number one single "The Only Way Is Up". Some of her records are credited to Yazz and the Plastic Population.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bruce_Springsteen', 'artist_name': 'Bruce Springsteen', 'wiki': 'http://en.wikipedia.org/wiki/Bruce_Springsteen', 'birth_date': '23 September 1949', 'abstract': 'Bruce Frederick Joseph Springsteen (born September 23, 1949) is an American singer, songwriter, and musician. He has released twenty studio albums, many of which feature his backing band the E Street Band. Originally from the Jersey Shore, he is one of the originators of the heartland rock style of music, combining mainstream rock musical style with narrative songs about working class American life. During a career that has spanned five decades, Springsteen has become known for his poetic, socially conscious lyrics and energetic stage performances, sometimes lasting up to four hours in length. He has been nicknamed "the Boss". Springsteen released his first two albums, Greetings from Asbury Park, N.J. and The Wild, the Innocent &amp; the E Street Shuffle in 1973, both of which failed to earn him a large audience. He changed his style and reached worldwide popularity with Born to Run in 1975. It was followed by Darkness on the Edge of Town (1978) and The River (1980), which topped the US Billboard 200 chart. His first album without the E Street Band was Nebraska (1982). Born in the U.S.A. (1984), which reunited Springsteen with the E Street Band, became his most commercially successful album and one of the best-selling albums of all time. Seven of its singles reached the top 10 of the Billboard Hot 100, including the well-known title track. Springsteen recorded his next three albums, Tunnel of Love (1987), Human Touch (1992), and Lucky Town (1992) using mostly session musicians. He re-assembled the E Street Band for 1995\'s Greatest Hits and The Ghost of Tom Joad. His last release of the 1990s was the EP Blood Brothers (1996). Springsteen dedicated his 2002 album The Rising to the victims of the September 11 attacks. Springsteen released two more folk albums, Devils &amp; Dust (2005) and We Shall Overcome: The Seeger Sessions (2006), followed by two more albums with the E Street Band: Magic (2007) and Working on a Dream (2009). His next two albums, Wrecking Ball (2012) and High Hopes (2014), topped album charts worldwide. His latest releases include the solo Western Stars (2019) and E Street Band-featuring Letter to You (2020). Among the album era\'s prominent acts, Springsteen has sold more than 150 million records worldwide and more than 64 million albums in the United States, making him one of the world\'s best-selling music artists. He has earned numerous awards for his work, including 20 Grammy Awards, two Golden Globes, an Academy Award, and a Special Tony Award (for Springsteen on Broadway). Springsteen was inducted into both the Songwriters Hall of Fame and the Rock and Roll Hall of Fame in 1999, received the Kennedy Center Honors in 2009, named MusiCares person of the year in 2013, and awarded the Presidential Medal of Freedom by President Barack Obama in 2016. He is ranked 23rd on Rolling Stone\'s list of the Greatest Artists of All Time.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Hives', 'artist_name': 'The Hives', 'wiki': 'http://en.wikipedia.org/wiki/The_Hives', 'hometown': 'http://dbpedia.org/resource/Fagersta', 'start_year': '1993', 'abstract': 'The Hives are a Swedish rock band that rose to prominence in the early 2000s during the Garage Rock Revival. Their mainstream success came with the release of the album Veni Vidi Vicious, containing the single "Hate to Say I Told You So". The band has been acclaimed by music critics as one of the best live rock bands. The Hives have released five studio albums: Barely Legal (1997), Veni Vidi Vicious (2000), Tyrannosaurus Hives (2004), The Black and White Album (2007) and Lex Hives (2012). They have one compilation album, Your New Favourite Band (2001) and they have issued a live DVD, Tussles in Brussels (2005).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Alexandra_Stan', 'artist_name': 'Alexandra Stan', 'wiki': 'http://en.wikipedia.org/wiki/Alexandra_Stan', 'birth_date': '10 June 1989', 'start_year': '2009', 'abstract': 'Alexandra Ioana Stan (born 10 June 1989) is a Romanian singer-songwriter. Born in the city of Constanța, she made her worldwide breakthrough with the 2010 single "Mr. Saxobeat", which was written and produced by Marcel Prodan and Andrei Nemirschi. They had previously discovered Stan at a karaoke bar in 2009 and signed her to their label, Maan Records. "Mr. Saxobeat" had followed the singer\'s debut single, "Lollipop (Param Pam Pam)" (2009), which brought her moderate fame in Romania. "Mr. Saxobeat" quickly achieved commercial success locally and abroad, reaching number one in several countries and gathering various certifications. Saxobeats, Stan\'s debut studio album, was released in August 2011 and features the follow-up singles "Get Back (ASAP)" (2011) and "Lemonade" (2012), which had moderate success in Europe. An alleged altercation with Prodan in 2013 and a lawsuit against him preceded the release of Stan\'s second album, Unlocked, which would eventually be issued in August 2014. Two of its singles, "Dance" (2014) and "Cherry Pop" (2014), were successful in Japan. Stan\'s third studio album, Alesta, was released in March 2016 and included a collaboration with Inna and Daddy Yankee on "We Wanna" (2015); the single went on to reach the top 60 in several countries. Mami, her fourth record, followed in 2018. Preceding the release of its last single was Stan\'s feature on Manuel Riva\'s "Miami" (2018), which peaked within the top ten in Romania and on Billboard\'s Dance Club Songs chart. Stan has received a number of awards and nominations, including the European Border Breakers Award, a Japan Gold Disc Award, an MTV Europe Music Award and two Romanian Music Awards. She is also referred to as one of the most successful Romanian artists alongside Inna.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Chickenfoot', 'artist_name': 'Chickenfoot', 'wiki': 'http://en.wikipedia.org/wiki/Chickenfoot', 'hometown': 'http://dbpedia.org/resource/Baja_California_Sur', 'start_year': '2008', 'end_year': '2012', 'abstract': 'Chickenfoot is a hard rock supergroup formed in 2008. The group consists of vocalist Sammy Hagar (ex-Van Halen and Montrose), bassist Michael Anthony (also ex-Van Halen), guitarist Joe Satriani, and drummer Chad Smith (Red Hot Chili Peppers). Due to Smith\'s consistent recording and touring commitments to the Red Hot Chili Peppers, Kenny Aronoff joined the group in 2011 as a touring replacement drummer. While the band has not formally announced a breakup, in June 2016 Smith said that he had doubts about its survival due to their busy schedules. The group has released two studio albums, one live album, and one box set. While the band\'s name and logo are a disparaging term for the peace symbol, the "footprint of the chicken", bassist Michael Anthony asserts that the name originated from initial jam sessions between Hagar, Smith, and himself: "there are three talons on a chicken\'s foot and there are three of us." Anthony later stated: "it was just supposed to be a bullshit name that we\'d used for a while, and then [when] the rumors spread about the band, everybody used that name so we thought, \'fuck it, let\'s call it Chickenfoot\'—it all comes down to the music anyway." Chickenfoot\'s second studio album, Chickenfoot III, was released on September 27, 2011.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Royal_Blood_(band)', 'artist_name': 'Royal Blood', 'wiki': 'http://en.wikipedia.org/wiki/Royal_Blood_(band)', 'hometown': 'http://dbpedia.org/resource/Worthing', 'start_year': '2011', 'abstract': "Royal Blood are an English rock duo formed by Mike Kerr (vocals, bass guitar) and Ben Thatcher (drums) in Worthing in 2011. Their sound is anchored by Kerr's unique bass playing style, which sees him using various effects pedals and amps to make his bass guitar sound like a standard electric guitar and bass guitar at the same time. Their self-titled debut album was released in August 2014, with their second album How Did We Get So Dark? following in June 2017, and their third album Typhoons in April 2021."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Judas_Priest', 'artist_name': 'Judas Priest', 'wiki': 'http://en.wikipedia.org/wiki/Judas_Priest', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'start_year': '1969', 'abstract': 'Judas Priest are an English heavy metal band formed in Birmingham in 1969. They have sold over 50 million copies of their albums, and are frequently ranked as one of the greatest metal bands of all time. Despite an innovative and pioneering body of work in the latter half of the 1970s, the band had struggled with indifferent record production and a lack of major commercial success until 1980, when they rose to commercial success with the album British Steel. The band\'s membership has seen much turnover, including a revolving cast of drummers in the 1970s and the departure of singer Rob Halford in 1992. Tim "Ripper" Owens, formerly of Winter\'s Bane, replaced Halford in 1996 and recorded two albums with Judas Priest, before Halford returned to the band in 2003. The current line-up consists of Halford, guitarists Glenn Tipton and Richie Faulkner, bassist Ian Hill and drummer Scott Travis. The band\'s best-selling album is 1982\'s Screaming for Vengeance, with their most commercially successful line-up featuring Hill, Halford, Tipton, guitarist K. K. Downing, and drummer Dave Holland. Tipton and Hill are the only two members of the band to appear on every album. Halford\'s operatic vocal style and the twin guitar sound of Downing and Tipton have been a major influence on heavy metal bands. Judas Priest\'s image of leather, spikes, and other taboo articles of clothing were widely influential during the glam metal era of the 1980s. The Guardian referred to British Steel as the record that defines heavy metal. Despite a decline in exposure during the mid 1990s, the band has once again seen a resurgence, including worldwide tours, being inaugural inductees into the VH1 Rock Honors in 2006, receiving a Grammy Award for Best Metal Performance in 2010, and having their songs featured in video games such as Guitar Hero and the Rock Band series. Judas Priest were nominated for the Rock and Roll Hall of Fame\'s class of 2020 but were not elected.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Samantha_Fox', 'artist_name': 'Samantha Fox', 'wiki': 'http://en.wikipedia.org/wiki/Samantha_Fox', 'birth_date': '15 April 1966', 'start_year': '1986', 'abstract': 'Samantha Karen Fox (born 15 April 1966) is an English singer and former glamour model. In 1983, at age 16, she began appearing as a topless model on Page 3 of British tabloid newspaper The Sun, and continued as a Page 3 girl until 1986. During this time, Fox became the most popular pin-up girl of her era, as well as one of the most photographed British women of the 1980s. In 1986, she launched a pop music career with her debut single "Touch Me (I Want Your Body)", which peaked at number one in 17 countries, and became the first of her three top 10 singles on the UK Singles Chart. Fox also had three songs reach the top 10 on the US Billboard Hot 100: "Touch Me (I Want Your Body)", "Naughty Girls (Need Love Too)" and "I Wanna Have Some Fun". In 1988, Fox received a Brit Award nomination for Best British Female Artist. She has also appeared in a number of films and reality television shows, and has occasionally worked as a television presenter.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': 'http://en.wikipedia.org/wiki/Evanescence', 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'start_year': '1995', 'end_year': '1995', 'abstract': 'Evanescence is an American rock band founded in Little Rock, Arkansas, in 1995 by singer, pianist, and keyboardist Amy Lee and guitarist Ben Moody. After recording independent albums, the band released their first full-length album, Fallen, on Wind-up Records in 2003. On the strength of hit singles "Bring Me to Life" and "My Immortal", Fallen sold more than 17 million copies worldwide and helped the band win two Grammy Awards out of six nominations. A year later, Evanescence released their first live album, Anywhere but Home, which sold more than one million copies worldwide. In 2006, the band released their second studio album, The Open Door, which sold more than five million copies. The band reconvened in June 2009 with a new lineup; their next studio album, Evanescence, was released in 2011. It debuted at the top of the Billboard 200 chart with 127,000 copies in sales. The album also debuted at number one on four other different Billboard charts; the Rock Albums, Digital Albums, Alternative Albums, and the Hard Rock Albums charts. The band spent 2012 on tour in promotion of their latest album with other bands including The Pretty Reckless and Fair to Midland. Troy McLawhorn also became a full-time band member during this time. Following the end of the album\'s tour cycle in 2012, the band entered another hiatus. In 2015, Evanescence emerged from hiatus and announced they would resume touring; however, they stated that new Evanescence material was not being produced, as Lee was focusing on a solo project instead. In addition, Balsamo left the band and was replaced by Jen Majura. In March 2017, Lee stated Evanescence was working on a fourth album for release later in 2017; Synthesis was released worldwide on November 10, 2017, and marked a stylistic change in the band\'s sound. On March 26, 2021, the band released their fifth studio album, The Bitter Truth. The lineup of the group changed several times over the course of the first two studio albums\' productions and promotions: David Hodges left in 2002, co-founder Moody left in 2003 (mid-tour), followed by guitarist John LeCompt and drummer Rocky Gray in 2007, and Terry Balsamo in 2015. As a result, none of the band\'s five studio albums feature the same lineup. The latter two changes led to a hiatus, with temporary band members contributing to tour performances.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Pixies_(band)', 'artist_name': 'Pixies', 'wiki': 'http://en.wikipedia.org/wiki/Pixies_(band)', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'start_year': '1986', 'end_year': '1993', 'abstract': 'The Pixies are an American alternative rock band formed in 1986 in Boston, Massachusetts. Until 2013, the band comprised Black Francis (vocals, rhythm guitar, songwriter), Joey Santiago (lead guitar), Kim Deal (bass, backing vocals) and David Lovering (drums). The band disbanded acrimoniously in 1993 but reunited in 2004. After Deal left in 2013, the Pixies hired Kim Shattuck as a touring bassist; she was replaced the same year by Paz Lenchantin, who became a permanent member in 2016. The Pixies are associated with the 1990s alternative rock boom, and draw on elements including punk rock and surf rock. Their music is known for its dynamic "loud-quiet-loud" shifts and song structures. Francis is the Pixies\' primary songwriter; his often surreal lyrics cover offbeat subjects such as extraterrestrials, incest, and biblical violence. They achieved modest popularity in the US but were more successful in Europe. Their jarring pop sound influenced acts such as Nirvana, Radiohead, the Smashing Pumpkins, and Weezer. Their popularity grew in the years after their break-up, leading to a 2004 reunion and sold-out world tours.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/KC_and_the_Sunshine_Band', 'artist_name': 'KC &amp; The Sunshine Band', 'wiki': 'http://en.wikipedia.org/wiki/KC_and_the_Sunshine_Band', 'hometown': 'http://dbpedia.org/resource/Miami', 'start_year': '1973', 'abstract': 'KC and the Sunshine Band is an American disco and funk band which was founded in 1973 in Hialeah, Florida. Their best-known songs include the hits "That\'s the Way (I Like It)", "(Shake, Shake, Shake) Shake Your Booty", "I\'m Your Boogie Man", "Keep It Comin\' Love", "Get Down Tonight", "Boogie Shoes", "Please Don\'t Go" and "Give It Up". The band took its name from lead vocalist Harry Wayne Casey\'s last name (\'KC\') and the \'Sunshine Band\' from KC\'s home state of Florida, the Sunshine State. The group has had six top 10 singles, five number one singles and a number two single on the Billboard Hot 100 chart.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Will.i.am', 'artist_name': 'will.i.am', 'wiki': 'http://en.wikipedia.org/wiki/Will.i.am', 'birth_date': '15 March 1975', 'start_year': '1988', 'abstract': 'William James Adams Jr. (born March 15, 1975), known professionally as will.i.am (pronounced "Will-I-am"), is an American rapper, singer, songwriter, and record producer. He is the founding and lead member of the musical group Black Eyed Peas. As a solo artist, will.i.am has released four albums, beginning with Lost Change (2001), through Atlantic Records. His second solo outing, Must B 21, was released on September 23, 2003. The track "Go!" was regularly used as the theme for the NBA Live 2005 and Madden NFL 2005 seasons. The third album, Songs About Girls, was released on September 25, 2007. He released his fourth studio album, #willpower, in 2013. As a music producer, will.i.am has worked for other artists including A.R. Rahman, Cheryl, Michael Jackson, Justin Bieber, Kesha, Britney Spears, Miley Cyrus, David Guetta, U2, Rihanna, Lady Gaga, Usher, Justin Timberlake, Nicki Minaj, 2NE1, and Baby Kaely. In collaborations and with the Black Eyed Peas, he has a total of 41 top-40 entries on the UK Singles Chart since 1998, and has sold 9.4 million singles in the UK. In addition to his music career, will.i.am has also been a judge and mentor on the television talent show series The Voice UK (2012–present), The Voice Australia (2014), and The Voice Kids (2017–present).'}</t>
+    <t>{'artist': 'http://dbpedia.org/resource/Wet_Wet_Wet', 'artist_name': 'Wet Wet Wet', 'wiki': 'http://en.wikipedia.org/wiki/Wet_Wet_Wet', 'hometown': 'http://dbpedia.org/resource/Clydebank', 'start_year': '1982', 'end_year': '1997', 'abstract': 'Wet Wet Wet are a Scottish soft rock band formed in 1982. They scored a number of hits in the UK charts and around the world in the 1980s and 1990s. The band is composed of Graeme Clark (bass, vocals), Tommy Cunningham (drums, vocals), Neil Mitchell (keyboards, piano, vocals) and, since 2018, lead vocalist and former Liberty X singer Kevin Simm, who replaced founding member Marti Pellow after he left during the previous year. A fifth, unofficial member, Graeme Duffin (lead guitar, vocals), has been with them since 1983. The band were named Best British Newcomer at the 1988 Brit Awards. They are best known for their 1994 cover of The Troggs\' 1960s hit "Love Is All Around", which was used on the soundtrack to the film Four Weddings and a Funeral. It was a huge international success and spent 15 weeks atop the British charts. One week before potentially equalling the record for the most consecutive weeks at number 1 on the UK singles chart, held by Bryan Adams\' "(Everything I Do) I Do It for You", it dropped to number two.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Elvis_Presley', 'artist_name': 'Elvis Presley', 'wiki': 'http://en.wikipedia.org/wiki/Elvis_Presley', 'birth_date': '08 January 1935', 'death_date': '16 August 1977', 'abstract': 'Elvis Aaron Presley (January 8, 1935 – August 16, 1977) was an American singer and actor. Dubbed the "King of Rock and Roll", he is regarded as one of the most significant cultural icons of the 20th century. His energized interpretations of songs and sexually provocative performance style, combined with a singularly potent mix of influences across color lines during a transformative era in race relations, led him to both great success and initial controversy. Presley was born in Tupelo, Mississippi, and relocated to Memphis, Tennessee, with his family when he was 13 years old. His music career began there in 1954, recording at Sun Records with producer Sam Phillips, who wanted to bring the sound of African-American music to a wider audience. Presley, on rhythm acoustic guitar, and accompanied by lead guitarist Scotty Moore and bassist Bill Black, was a pioneer of rockabilly, an uptempo, backbeat-driven fusion of country music and rhythm and blues. In 1955, drummer D. J. Fontana joined to complete the lineup of Presley\'s classic quartet and RCA Victor acquired his contract in a deal arranged by Colonel Tom Parker, who would manage him for more than two decades. Presley\'s first RCA Victor single, "Heartbreak Hotel", was released in January 1956 and became a number-one hit in the United States. Within a year, RCA would sell ten million Presley singles. With a series of successful network television appearances and chart-topping records, Presley became the leading figure of the newly popular sound of rock and roll. In November 1956, Presley made his film debut in Love Me Tender. Drafted into military service in 1958, Presley relaunched his recording career two years later with some of his most commercially successful work. He held few concerts, however, and guided by Parker, proceeded to devote much of the 1960s to making Hollywood films and soundtrack albums, most of them critically derided. In 1968, following a seven-year break from live performances, he returned to the stage in the acclaimed television comeback special Elvis, which led to an extended Las Vegas concert residency and a string of highly profitable tours. In 1973, Presley gave the first concert by a solo artist to be broadcast around the world, Aloha from Hawaii. Years of prescription drug abuse and unhealthy eating habits severely compromised his health, and he died suddenly in 1977 at his Graceland estate at the age of 42. Having sold over 500 million records worldwide, Presley is recognized as the best-selling solo music artist of all time by Guinness World Records. He was commercially successful in many genres, including pop, country, R&amp;B, adult contemporary, and gospel. Presley won three Grammy Awards, received the Grammy Lifetime Achievement Award at age 36, and has been inducted into multiple music halls of fame. He holds several records, including the most RIAA certified gold and platinum albums, the most albums charted on the Billboard 200, the most number-one albums by a solo artist on the UK Albums Chart, and the most number-one singles by any act on the UK Singles Chart. In 2018, Presley was posthumously awarded the Presidential Medal of Freedom by Donald Trump.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Duran_Duran', 'artist_name': 'Duran Duran', 'wiki': 'http://en.wikipedia.org/wiki/Duran_Duran', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'start_year': '1978', 'abstract': 'Duran Duran (/djʊˌræn djʊˈræn/) are an English new wave band formed in Birmingham in 1978. The group was a leading band in the MTV-driven Second British Invasion of the US in the 1980s. The group was formed by keyboardist Nick Rhodes and bassist John Taylor, with the later addition of drummer Roger Taylor, and after numerous personnel changes, guitarist Andy Taylor (none of the Taylors are related) and lead singer Simon Le Bon. These five members featured in the most commercially successful line-up. When Duran Duran emerged they were generally considered part of the New Romantic scene, along with bands such as Spandau Ballet and Visage. The video age catapulted Duran Duran into the mainstream with the introduction of the 24-hour music channel MTV. Many of their videos were shot on 35 mm film, which gave a much more polished look than was standard at the time. They also collaborated with professional film directors to take the quality a step further, often teaming up with Australian director Russell Mulcahy for some of their most memorable video offerings. In 1984, the band was an early innovator with video technology in its live stadium shows. The band was one of the most successful acts of the 1980s, though by the end of the decade, membership and music style changes challenged the band before a resurgence in the early 1990s. After a couple of minor singles, the band\'s first major hit was "Girls on Film" (1981), from their self-titled debut album, the popularity of which was enhanced by a controversial music video, which in heavily edited form, played in rotation on MTV. The band\'s breakthrough album was Rio (1982), their second album, which peaked at number six on the Billboard 200 album chart in the US, number two in the United Kingdom, and number one in Australia and Canada. The songs "Rio" and "Hungry Like the Wolf", which featured cinematic music videos, became two of their biggest hits, with the latter winning the inaugural Grammy Award for Best Music Video in 1984. Their follow-up third album Seven and the Ragged Tiger became their only UK number one album; it also reached top ten status in the US, Canada, Australia, and several other countries, and featured the US and UK number one single "The Reflex". In 1985, the band topped the US charts with the single "A View to a Kill" from the soundtrack of the film of the same name. Andy Taylor and Roger Taylor both left before the recording of the band\'s fourth album, 1986\'s Notorious, which was produced by Nile Rogers and featured the top ten single, also named "Notorious". The band spent the rest of the 1980s and early 1990s continuing to release albums and singles, to only moderate success. Their comeback album, 1993\'s Duran Duran (commonly called The Wedding Album) returned the band to their former superstar status, featuring two top-ten worldwide hits "Ordinary World" and "Come Undone". A 1995 album of cover songs, Thank You, produced a minor hit in the critically acclaimed cover of Lou Reed\'s "Perfect Day", but was otherwise critically panned. After John Taylor left in 1997, the band released a number of albums and singles which (compared to prior releases) underperformed on the sales charts. A full reunion of the original lineup of LeBon, Rhodes, and all three Taylors in 2001 led to a number of highly successful concert tours and the 2004 album Astronaut, which reached number 3 in the UK and top 40 in numerous other countries. The album\'s lead single "(Reach Up for The) Sunrise" was an international dance hit, and reached number five in the UK. Andy Taylor left again in 2006, and the band has released four additional albums, with the most recent being Future Past in October, 2021. Duran Duran has sold over 100 million records, making them one of the world\'s best-selling music artists. They achieved 30 top 40 singles in the U.K., 14 singles in the top 10 of the UK Singles Chart and 21 in the US Billboard Hot 100. The band have won numerous awards throughout their career: two Brit Awards including the 2004 award for Outstanding Contribution to Music, two Grammy Awards, an MTV Video Music Award for Lifetime Achievement, and a Video Visionary Award from the MTV Europe Music Awards. They were also awarded a star on the Hollywood Walk of Fame.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Iggy_Azalea', 'artist_name': 'Iggy Azalea', 'wiki': 'http://en.wikipedia.org/wiki/Iggy_Azalea', 'birth_date': '07 June 1990', 'start_year': '2011', 'abstract': 'Amethyst Amelia Kelly (born 7 June 1990), known professionally as Iggy Azalea (/əˈzeɪliə/), is an Australian rapper. At the age of 16, Azalea moved from Australia to the United States in order to pursue a career in music. Azalea earned public recognition after releasing the music videos for her songs "Pussy" and "Two Times" on YouTube, both of which gained rapid popularity. Azalea signed a recording contract with American rapper T.I.\'s label Grand Hustle shortly afterward and released her debut mixtape, Ignorant Art (2011). Azalea\'s debut studio album, The New Classic (2014), peaked among the top five on several charts worldwide, but received mixed reviews from within the industry. The album eventually topped the Billboard Top R&amp;B/Hip-Hop Albums, making Azalea the first non-American female rapper to reach the top of the chart. The New Classic was preceded by Azalea\'s debut single "Work" and chart-topping single "Fancy", which hit the U.S. Billboard Hot 100. Azalea was featured on Ariana Grande\'s single "Problem", which peaked at number two behind "Fancy". With these hits, Azalea joined the ranks of The Beatles as the only act to rank at number one and two simultaneously with their first two Hot 100 entries. In addition, she achieved three top ten hits simultaneously on the Hot 100 with the aforementioned songs and the album\'s fifth single, "Black Widow", which debuted later that year. After her debut album, Azalea released a slew of singles to build anticipation for her intended second album, Digital Distortion. However, a series of conflicts with her label, as well as personal conflicts, resulted in the project being cancelled. Consequently, Azalea switched labels, releasing the EP Survive the Summer (2018) under Island Records. Further disagreements led to Azalea becoming an independent artist and creating her own label, Bad Dreams, through a distribution deal with Empire. Her second album, In My Defense, was released in 2019, followed by another EP, Wicked Lips, that same year. Before taking a hiatus from music, Azalea released her third and final studio album, The End of an Era, in August 2021. Since her debut, Azalea has sold 70 million records worldwide, with 22 million singles in the United States alone. Azalea\'s accolades include two American Music Awards, three Billboard Music Awards, an MTV Video Music Award, a People\'s Choice Award, four Teen Choice Awards and four Grammy Award nominations. Azalea\'s official YouTube channel has accumulated 3.4 billion views, with 15 music videos receiving over 100 million views on Vevo.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Erasure', 'artist_name': 'Erasure', 'wiki': 'http://en.wikipedia.org/wiki/Erasure', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1985', 'abstract': 'Erasure (/əˈreɪʒər/) are an English synthpop duo formed in London in 1985, consisting of singer and songwriter Andy Bell with songwriter, producer and keyboardist Vince Clarke, previously known as co-founder of the band Depeche Mode. From their fourth single, "Sometimes" (1986), Erasure established themselves on the UK Singles Chart, becoming one of the most successful artists of the mid-1980s to the mid-1990s. From 1986 to 2007, the duo achieved 24 consecutive top 40 hits in the UK. By 2009, 34 of their 37 chart-eligible singles and EPs had made the UK top 40, including 17 climbing into the top 10. At the 1989 Brit Awards, Erasure won the Brit Award for Best British Group. Beyond this mainstream commercial success, Erasure are also popular within the LGBT community for whom the openly gay singer Andy Bell has become an icon in the UK. Although their debut album, Wonderland (1986) did not perform well, their second album, The Circus (1987), reached number 6 and spawned four top 20 singles on the UK charts. Their third album, The Innocents (1988) was rendered a number one and was followed the same year by the Christmas EP Crackers International (1988) peaking at number 2. It set the scene as the first in a string of albums to place in the top spot, with their next five consecutive longform releases reaching the pole position of the UK Albums Chart: the albums Wild! (1989) and Chorus (1991), the ABBA tribute EP Abba-esque (1992), the compilation Pop! The First 20 Hits (1992), then the album I Say I Say I Say (1994). Erasure\'s best-known songs are mainly from albums of this period and include the hits "Oh L\'amour", "Sometimes", "Victim of Love", "Ship of Fools", "Chains of Love", "A Little Respect", "Stop!", "Drama!", "Blue Savannah", "Star", "Chorus", "Love to Hate You", "Breath of Life", "Take a Chance on Me" (an ABBA cover), "Always" and "Run to the Sun". From 1995 onwards, Erasure\'s commercial success began to fade with the atmospheric self-titled album Erasure (1995) which, despite being a critical success, confused its audience. The mixed reception of the following album, Cowboy (1997), confirmed a decline in Erasure\'s popularity until the album Loveboat (2000), which went almost unnoticed. In the mid-2000s, however, the duo managed to make a commercial comeback in some European countries and in the United States, notably thanks to their cover album Other People\'s Songs (2003), followed by the album Nightbird (2005) which won back the fans. This return to favour gave the band their last two hit singles: "Solsbury Hill" (2003) (a Peter Gabriel song) and "Breathe" (2005). In the late 2000s, Erasure began a new commercial decline with the acoustic album Union Street (2006) followed by Light at the End of the World (2007). During the 2010s, the band\'s new albums briefly charted, with Tomorrow\'s World (2011), the Christmas album Snow Globe (2013), The Violet Flame (2014), World Be Gone (2017) and, finally, The Neon (2020). Despite the singles from this decade not managing to reach the charts, however, a solid international fanbase enables Erasure to maintain its activity through touring and online sales, not to mention the royalties attached to the catalogue of their past hits. Achieving mainstream success at home in the UK, Erasure also has a strong following abroad, especially in some European countries (mainly in Ireland, Germany, Austria, Denmark and Sweden) where the band enjoyed numerous hits. Surprisingly, Erasure has a broad audience in a few South American countries, especially in Argentina, Chile and Peru. In the US, Erasure had three hits: "Chains of Love" (1988) at number 12, their biggest chart placing ever in that country, "A Little Respect" (1988) at number 14, and "Always" (1994) at number 20. In Russia, as well as in the former Soviet bloc countries, Erasure is mostly known for the sole song "Love to Hate You" (1991). In France, "Oh L\'amour" (1986) was the only hit of the band, peaking at number 14 in the singles top 50 of that country, followed by "Sometimes" (1986) that underperformed at a low number 39 (in February 1987) and still remains to this day Erasure\'s last entry in the French singles chart. Overall in their career, Erasure have penned over 200 songs and have sold over 28 million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Blind_Melon', 'artist_name': 'Blind Melon', 'wiki': 'http://en.wikipedia.org/wiki/Blind_Melon', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '1990', 'end_year': '1999', 'abstract': 'Blind Melon is an American rock band formed in 1990 in Los Angeles, California, by five musicians: three from Mississippi, one from Pennsylvania and one from Indiana. The band currently consists of guitarists Rogers Stevens and Christopher Thorn, drummer Glen Graham, vocalist Travis Warren and bassist Nathan Towne. They are best known for their 1993 hit "No Rain", and enjoyed critical and commercial success in the early 1990s with their neo-psychedelic take on alternative rock. Blind Melon released two albums on Capitol Records – Blind Melon (1992) and Soup (1995) – before their original lead vocalist Shannon Hoon died of a drug overdose on the band\'s tour bus in New Orleans on October 21, 1995. After four years of unsuccessfully searching for a replacement for Hoon, Blind Melon officially dissolved in 1999. The remaining members reformed the band in 2006 with Warren and recorded one album with him, For My Friends (2008). Shortly after its release, Warren left Blind Melon but rejoined in 2010, when the band returned to performing occasional gigs. Blind Melon is currently working on their fourth studio album. Blind Melon has been nominated for four Grammy Awards.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Arctic_Monkeys', 'artist_name': 'Arctic Monkeys', 'wiki': 'http://en.wikipedia.org/wiki/Arctic_Monkeys', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'start_year': '2002', 'abstract': 'Arctic Monkeys are an English rock band formed in Sheffield in 2002. The group consists of Alex Turner (lead vocals, guitar, keyboards), Jamie Cook (guitar, keyboards), Nick O\'Malley (bass guitar, backing vocals), and Matt Helders (drums, backing vocals). Former band member Andy Nicholson (bass guitar, backing vocals) left the band in 2006 shortly after their debut album was released. Arctic Monkeys were heralded as one of the first bands to come to public attention via the Internet, with commentators suggesting they represented the possibility of a change in the way in which new bands are promoted and marketed. Their debut album, Whatever People Say I Am, That\'s What I\'m Not (2006), became the fastest-selling debut album in UK chart history, and has been hailed as one of the greatest debut albums. It won Best British Album at the 2007 Brit Awards. The band\'s second album, Favourite Worst Nightmare (2007), was also acclaimed by critics and won Best British Album at the 2008 BRIT Awards. They went on to release Humbug (2009) and Suck It and See (2011). The band\'s global recognition increased with their critically acclaimed fifth album AM (2013), which was supported by the global hit "Do I Wanna Know?". It topped four Billboard charts and was certified platinum in the US. At the 2014 BRIT Awards, the album became their third to win British Album of the Year. Their sixth album, Tranquility Base Hotel &amp; Casino (2018), was a major departure from the band\'s previous guitar-heavy work, instead being piano-oriented. It received a Best Alternative Music Album nomination at the 2019 Grammy Awards, their second to do so after Whatever People Say I Am, That\'s What I\'m Not. As of 2021, Arctic Monkeys have sold over 20 million records worldwide. In the United Kingdom, the band became the first independent-label band to debut at number one in the UK with their first six albums. The band have won seven Brit Awards; winning Best British Group and British Album of the Year three times; a Mercury Prize for Whatever People Say I Am, That\'s What I\'m Not, an Ivor Novello Award, and 20 NME Awards. In addition, they have been nominated for five Grammy Awards, and received Mercury Prize nominations in 2007, 2013, and 2018. Both Whatever People Say I Am, That\'s What I\'m Not and AM are included in NME\'s and different editions of Rolling Stone\'s 500 Greatest Albums of All Time lists.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Katrina_and_the_Waves', 'artist_name': 'Katrina &amp; the Waves', 'wiki': 'http://en.wikipedia.org/wiki/Katrina_and_the_Waves', 'hometown': 'http://dbpedia.org/resource/Cambridgeshire', 'start_year': '1981', 'end_year': '1999', 'abstract': 'Katrina and the Waves were a British-American rock band best known for the 1985 hit "Walking on Sunshine". They also won the 1997 Eurovision Song Contest with the song "Love Shine a Light".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Mac_Miller', 'artist_name': 'Mac Miller', 'wiki': 'http://en.wikipedia.org/wiki/Mac_Miller', 'birth_date': '19 January 1992', 'death_date': '07 September 2018', 'start_year': '2007', 'end_year': '2018', 'abstract': "Malcolm James McCormick (January 19, 1992 – September 7, 2018), known professionally as Mac Miller, was an American rapper and record producer from Pittsburgh, Pennsylvania. Miller began his career in Pittsburgh's hip hop scene in 2007, at the age of fifteen. In 2010, he signed a record deal with independent label Rostrum Records and released his breakthrough mixtapes K.I.D.S. (2010) and Best Day Ever (2011). Miller's debut studio album, Blue Slide Park (2011), became the first independently distributed debut album to top the US Billboard 200 since 1995. In 2013, he founded the record label imprint REMember Music. After his second studio album, Watching Movies with the Sound Off (2013), he left Rostrum and signed with the major label Warner Bros. Records in 2014. With them, he released four studio albums: GO:OD AM (2015), The Divine Feminine (2016), Swimming (2018), and the posthumous Circles (2020). For Swimming, he was posthumously nominated for a Grammy Award for Best Rap Album. He also served as a record producer for various artists, including himself, under the pseudonym Larry Fisherman. Miller struggled with substance abuse, which was often referenced in his lyrics. On September 7, 2018, Miller died from an accidental drug overdose of cocaine, fentanyl, and alcohol at his home, aged 26."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Naked_Eyes', 'artist_name': 'Naked Eyes', 'wiki': 'http://en.wikipedia.org/wiki/Naked_Eyes', 'abstract': 'Naked Eyes are an English new wave band that rose to prominence in the early 1980s. The band had four US top 40 singles. The group\'s first hit, "Always Something There to Remind Me", was a cover of the Burt Bacharach/Hal David standard. The band had subsequent hits with more of their own compositions, "Promises, Promises", "When the Lights Go Out", and "(What) In the Name of Love".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Icona_Pop', 'artist_name': 'Icona Pop', 'wiki': 'http://en.wikipedia.org/wiki/Icona_Pop', 'hometown': 'http://dbpedia.org/resource/Stockholm', 'start_year': '2009', 'abstract': 'Icona Pop (English: /aɪˈkɒnə pɒp/) is a Swedish electropop duo that formed in 2009, with electro house and indie pop music influences. Its two members, Caroline Hjelt and Aino Jawo, grew up in Stockholm and create what the Swedish press has described as music which "you can both laugh and cry to at the same time". They signed to TEN Music Group in 2009 and are currently also in a label deal with Ultra Music. Their biggest hit to date has been "I Love It".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Yeah_Yeah_Yeahs', 'artist_name': 'Yeah Yeah Yeahs', 'wiki': 'http://en.wikipedia.org/wiki/Yeah_Yeah_Yeahs', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2000', 'abstract': "The Yeah Yeah Yeahs are an American indie rock band formed in New York City in 2000. The group is composed of vocalist and pianist Karen O (born Karen Lee Orzolek), guitarist and keyboardist Nick Zinner, and drummer Brian Chase. They are complemented in live performances by second guitarist David Pajo (formerly of Slint and Tortoise), who joined as a touring member in 2009 and replaced Imaad Wasif, who had previously held the role. According to an interview that aired during ABC's Live from Central Park SummerStage series, the band's name was taken from modern New York City vernacular. The band has recorded four studio albums; the first, Fever to Tell, was released in 2003. The second, Show Your Bones, was released in 2006 and was named the second best album of the year by NME. Their third studio album, It's Blitz!, was released in March 2009. All three albums earned the band Grammy nominations for Best Alternative Music Album. Their fourth album, Mosquito, was released in April 2013."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Buggles', 'artist_name': 'The Buggles', 'wiki': 'http://en.wikipedia.org/wiki/The_Buggles', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1977', 'end_year': '1982', 'abstract': 'The Buggles were an English new wave band formed in London in 1977 by singer and bassist Trevor Horn and keyboardist Geoffrey Downes. They are best known for their 1979 debut single "Video Killed the Radio Star", which topped the UK Singles Chart and reached number one in 15 other countries. The duo released their first album, The Age of Plastic, in January 1980 with "Video Killed the Radio Star" as its lead single. Soon after the album\'s release, Horn and Downes joined the progressive rock band Yes, recording and releasing Drama in the process. Following a tour to promote the album, Yes disbanded in 1981. That same year, on 1 August, the music video for "Video Killed the Radio Star" became the first ever shown on MTV in the US. The following year, the Buggles released a second album, Adventures in Modern Recording. Its lack of commercial success led to the breakup of the group. Since 1998, Horn and Downes have occasionally performed the Buggles\' songs. In October 2011, the Buggles reunited to play at the British Music Experience at the O2 Arena in London. At the 2016 Progressive Music Awards, the Buggles won an "Outer Limit Award".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Fifth_Harmony', 'artist_name': 'Fifth Harmony', 'wiki': 'http://en.wikipedia.org/wiki/Fifth_Harmony', 'hometown': 'http://dbpedia.org/resource/Miami', 'start_year': '2012', 'end_year': '2018', 'abstract': 'Fifth Harmony, often shortened to 5H, is an American girl group based in Miami currently on hiatus, composed of Ally Brooke, Normani, Dinah Jane, Lauren Jauregui, and previously Camila Cabello until her departure from the group in December 2016. The group signed a joint record deal with Simon Cowell\'s label Syco Records and L.A. Reid\'s label Epic Records after forming and finishing third in the second season of the American singing competition series The X Factor in 2012. Rising to prominence by social media, the group\'s debut extended play and their three studio albums all charted within the top ten of the Billboard 200 in the United States. Following their exit from The X Factor, they released their debut single "Miss Movin\' On", preceding their extended play Better Together, certified gold in the United States. Its music video won the group the MTV Video Music Award for Artist to Watch. The group released their debut studio album Reflection in 2015, also receiving a gold certification in the country. The album included the singles "Boss", "Sledgehammer" and "Worth It". The latter achieved triple platinum certification in the United States and reached the top-ten in thirteen countries. The following year, "Work from Home", the lead single from their second album 7/27, became the group\'s first top-ten single on the Billboard Hot 100 and the first top-five by a girl group in a decade on that chart. They released their self-titled third album in 2017. Their accolades include three MTV Europe Music Awards, four MTV Video Music Awards, four iHeartRadio Music Awards, an American Music Award, a Billboard Women in Music award and ten Teen Choice Awards. Fifth Harmony has sold over 15 million units in the United States and earned 1.6 billion on-demand streams, according to Nielsen SoundScan. The group went on hiatus in March 2018, allowing the members to pursue solo projects.'}</t>
   </si>
   <si>
     <t>{'artist': 'http://dbpedia.org/resource/Huey_Lewis_and_the_News', 'artist_name': 'Huey Lewis &amp; The News', 'wiki': 'http://en.wikipedia.org/wiki/Huey_Lewis_and_the_News', 'hometown': 'http://dbpedia.org/resource/San_Francisco', 'start_year': '1979', 'abstract': 'Huey Lewis and the News is an American rock band based in San Francisco, California. They had a run of hit singles during the 1980s and early 1990s, eventually achieving 19 top ten singles across the Billboard Hot 100, Adult Contemporary, and Mainstream Rock charts. Their most successful album, Sports, was released in 1983. The album, along with its videos being featured on MTV, catapulted the group to worldwide fame. Their popularity expanded when the hit song "The Power of Love" was featured in the 1985 film Back to the Future. "The Power of Love" reached number one on the Billboard Hot 100 singles chart and was nominated for the Academy Award for Best Original Song.'}</t>
   </si>
   <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Dandy_Warhols', 'artist_name': 'The Dandy Warhols', 'wiki': 'http://en.wikipedia.org/wiki/The_Dandy_Warhols', 'hometown': 'http://dbpedia.org/resource/Oregon', 'start_year': '1994', 'abstract': 'The Dandy Warhols are an American alternative rock band, formed in Portland, Oregon in 1994 by singer-guitarist Courtney Taylor-Taylor and guitarist Peter Holmström. They were later joined by keyboardist Zia McCabe and drummer Eric Hedford. Hedford left in 1998 and was replaced by Taylor-Taylor\'s cousin Brent DeBoer. The band\'s name is a play on the name of American pop artist Andy Warhol. The band gained recognition after they were signed to Capitol Records and released their major label album debut, ...The Dandy Warhols Come Down, in 1997. In 2001, the band rose to new levels of fame after their song "Bohemian Like You" enjoyed extensive exposure due to being featured in a Vodafone advertisement. The Dandy Warhols were the subject of the 2004 documentary film Dig!, along with San Francisco psychedelic outfit The Brian Jonestown Massacre. They have released 10 studio albums, two compilation albums, six EPs, and 27 singles to date.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Human_League', 'artist_name': 'The Human League', 'wiki': 'http://en.wikipedia.org/wiki/The_Human_League', 'abstract': 'The Human League are an English synth-pop band formed in Sheffield in 1977. Initially an experimental electronic outfit, the group signed to Virgin Records in 1979 and later attained widespread commercial success with their third album Dare in 1981. The album contained four hit singles, including the UK/US number one hit "Don\'t You Want Me". The band received the Brit Award for Best British Breakthrough Act in 1982. Further hits followed throughout the 1980s and into the 1990s, including "Mirror Man", "(Keep Feeling) Fascination", "The Lebanon", "Human" (a US No. 1) and "Tell Me When". The only constant band member since 1977 has been lead singer and songwriter Philip Oakey. Keyboard players Martyn Ware and Ian Craig Marsh both left the band in 1980 to form Heaven 17. Under Oakey\'s leadership, the Human League then evolved into a commercially successful New Pop band, with a new line-up including female vocalists Joanne Catherall and Susan Ann Sulley. Since the mid-1990s, the band have essentially been a trio of Oakey, Catherall and Sulley with various sidemen. Since 1978, the Human League have released nine studio albums, two remix albums, one live album, six EPs, 30 singles and several compilation albums. They have had five albums and 15 Top 20 singles and had sold more than 20 million records worldwide by 2010. As an early techno-pop act that received extensive MTV airplay, they are regarded as one of the leading artists of the 1980s Second British Invasion of the US.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/AC/DC', 'artist_name': 'AC/DC', 'wiki': 'http://en.wikipedia.org/wiki/AC/DC', 'hometown': 'http://dbpedia.org/resource/New_South_Wales', 'start_year': '1973', 'end_year': '1973', 'abstract': 'AC/DC are an Australian rock band formed in Sydney in 1973 by Scottish-born brothers Malcolm and Angus Young. Their music has been variously described as hard rock, blues rock, and heavy metal, but the band themselves call it simply "rock and roll". AC/DC underwent several line-up changes before releasing their first album, 1975\'s High Voltage. Membership subsequently stabilised around the Young brothers, singer Bon Scott, drummer Phil Rudd, and bassist Mark Evans. Evans was fired from the band in 1977 and replaced by Cliff Williams, who has appeared on every AC/DC album since 1978\'s Powerage. In February 1980, about seven months after the release of their breakthrough album Highway to Hell, Scott died of acute alcohol poisoning after a night of heavy drinking. The group considered disbanding but elected to stay together, bringing in longtime Geordie vocalist Brian Johnson as Scott\'s replacement. Later that year, the band released their first album with Johnson, Back in Black, which was dedicated to Scott\'s memory. The album launched AC/DC to new heights of success and became one of the best selling albums of all time. The band\'s eighth studio album, For Those About to Rock We Salute You (1981), was their first album to reach number one in the United States. Prior to the release of 1983\'s Flick of the Switch, Rudd left the band and was replaced by Simon Wright, being in turn replaced by Chris Slade in 1989. The band experienced a commercial resurgence in the early nineties with the release of 1990\'s The Razors Edge. Rudd returned to the band in 1994, replacing Slade and appearing on the band\'s next five albums. Their fifteenth studio album Black Ice was the second-highest-selling album of 2008, and their biggest chart hit since For Those About to Rock, eventually reaching No.1 worldwide. The band\'s line-up remained the same for twenty years, until 2014 with Malcolm Young\'s retirement due to early-onset dementia (he died in 2017) and Rudd\'s legal troubles. Malcolm was replaced by his nephew Stevie Young, who debuted on AC/DC\'s 2014 album Rock or Bust, and on its accompanying tour, previous drummer Chris Slade filled in for Rudd. In 2016, Johnson was advised to stop touring due to worsening hearing loss. Guns N\' Roses frontman Axl Rose stepped in as the band\'s vocalist for the remainder of that year\'s dates. Long-term bass player and background vocalist Cliff Williams retired from AC/DC at the end of the Rock or Bust tour in 2016 and the group entered a four-year hiatus. A reunion of the Rock or Bust lineup was announced in September 2020 and the band\'s seventeenth studio album Power Up was released two months later. AC/DC have sold more than 200 million records worldwide, including 75 million albums in the United States, making them the ninth-highest-selling artist in the United States and the 16th-best-selling artist worldwide. Back in Black has sold an estimated 50 million units worldwide, making it the third-highest-selling album by any artist, and the highest-selling album by any band. The album has sold 22 million units in the US, where it is the sixth-highest-selling album of all time. AC/DC ranked fourth on VH1\'s list of the "100 Greatest Artists of Hard Rock" and were named the seventh "Greatest Heavy Metal Band of All Time" by MTV. In 2004, AC/DC ranked No. 72 on the Rolling Stone list of the "100 Greatest Artists of All Time". Producer Rick Rubin, who wrote an essay on the band for the Rolling Stone list, referred to AC/DC as "the greatest rock and roll band of all time". In 2010, VH1 ranked AC/DC number 23 in its list of the "100 Greatest Artists of All Time".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Kygo', 'artist_name': 'Kygo', 'wiki': 'http://en.wikipedia.org/wiki/Kygo', 'hometown': 'http://dbpedia.org/resource/Bergen', 'birth_date': '11 September 1991', 'start_year': '2010', 'abstract': 'Kyrre Gørvell-Dahll (born 11 September 1991), better known by his stage name Kygo (Norwegian: [ˈkỳːɡuː]), is a Norwegian DJ, songwriter and record producer. He garnered international attention with his December 2013 remix of the track "I See Fire" by Ed Sheeran and his December 2014 single "Firestone" featuring Conrad Sewell. In late 2015, he became the fastest artist to reach 1 billion streams on Spotify, and by June 2016, he had reached 2 billion streams on Spotify. Kygo has since released several singles, such as "Stole the Show", "Here for You" and "Stay" in 2015, "It Ain\'t Me" in 2017 and a 2019 remix of "Higher Love" performed by Whitney Houston, all of which have debuted on several international charts. His debut album, Cloud Nine, was released on 13 May 2016. Kygo became the first house music producer to perform at an Olympics closing ceremony on 21 August 2016 at the 2016 Rio Olympics. In March 2018, Billboard ranked Kygo 3rd on its 2018 ranking of dance musicians titled Billboard Dance 100. In 2018, he was ranked 32 on DJ Mag\'s top 100 DJs of the world, and in October 2019 he was ranked 42. Kygo\'s stage name is derived from the first two letters of his first and last names. Kygo was his automatically made username on Itslearning and that is how he got the idea to use it as his artist name.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Justice_(singer)', 'artist_name': 'Justice', 'wiki': 'http://en.wikipedia.org/wiki/Justice_(singer)', 'start_year': '2011', 'abstract': 'Justice, born Lauren Justice, is an American female pop recording artist.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Iann_Dior', 'artist_name': 'Iann Dior', 'wiki': 'http://en.wikipedia.org/wiki/Iann_Dior', 'hometown': 'http://dbpedia.org/resource/Corpus_Christi,_Texas', 'birth_date': '25 March 1999', 'start_year': '2017', 'abstract': 'Michael Ian Olmo (born March 25, 1999), known professionally as Iann Dior (stylized in all lowercase), is an American rapper, singer, and songwriter. Olmo is most well-known for his 2020 hit single "Mood", a collaboration with fellow American rapper 24kGoldn. The song peaked at number one on the Billboard Hot 100 and became his first and highest-charting song till date. Olmo\'s other popular songs include "emotions", "gone girl" (with Trippie Redd), "Sick and Tired" (with Machine Gun Kelly and Travis Barker), and "Prospect" (with Lil Baby). Olmo has released 1 mixtape ("nothings ever good enough"), 1 studio album ("Industry Plant"), and 2 EPs ("I\'m Gone" and "Still Here"). His second studio album, "On To Better Things", is expected to be released in early 2022 after its initial release date of December 10, 2021 was delayed by his label, 10K Projects.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Irene_Cara', 'artist_name': 'Irene Cara', 'wiki': 'http://en.wikipedia.org/wiki/Irene_Cara', 'birth_date': '18 March 1959', 'abstract': 'Irene Cara Escalera (born March 18, 1959) known professionally as Irene Cara, is an American singer, songwriter, dancer, and actress. Cara sang and co-wrote the song "Flashdance... What a Feeling" (from the film Flashdance), for which she won an Academy Award for Best Original Song and a Grammy Award for Best Female Pop Vocal Performance in 1984. Cara is also known for playing the role of Coco Hernandez in the 1980 film Fame, and for recording the film\'s title song "Fame". Prior to her success with Fame, Cara portrayed the title character Sparkle Williams in the original 1976 musical drama film Sparkle.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Charlie_Puth', 'artist_name': 'Charlie Puth', 'wiki': 'http://en.wikipedia.org/wiki/Charlie_Puth', 'birth_date': '02 December 1991', 'start_year': '2009', 'abstract': 'Charles Otto Puth Jr. (/puːθ/; born December 2, 1991) is an American singer, songwriter, and record producer. His initial exposure came through the viral success of his song videos uploaded to YouTube. After initially signing with eleveneleven after performing on The Ellen DeGeneres Show, Puth began contributing to songs and albums for other artists, as well as creating lite solo material and covers of popular songs. With primary intent on a solo career, Atlantic Records and Artist Partner Group eventually sought the artist and released his debut single, "Marvin Gaye" (featuring Meghan Trainor), in 2015. His next single and first feature, "See You Again", which he co-wrote, co-produced, and performed with Atlantic label-mate Wiz Khalifa for the Furious 7 soundtrack as a tribute to actor Paul Walker. It peaked at number one on the US Billboard Hot 100 for 12 non-consecutive weeks. After the success of "See You Again", he gained worldwide recognition for multiple subsequent releases, including his next single, "One Call Away". The single reached number 12 on the Billboard Hot 100. Puth\'s debut studio album, Nine Track Mind, was released in January 2016 to moderate commercial success despite generally negative reviews from critics. The album was preceded by the singles "One Call Away" and "We Don\'t Talk Anymore" (featuring Selena Gomez), which peaked at number 12 and number 9 respectively on the Billboard Hot 100. In 2017, he released two songs, "Attention" and "How Long", with the former peaking at number 5 on the Billboard Hot 100. Both were included on his second studio album, Voicenotes (2018), with ameliorated critical reception and a peak of number 4 on the Billboard 200. In 2019, Puth released the singles "I Warned Myself", "Mother" and "Cheating on You". The following year, Puth released singles "Girlfriend" and "Hard on Yourself."'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/A_Flock_of_Seagulls', 'artist_name': 'A Flock of Seagulls', 'wiki': 'http://en.wikipedia.org/wiki/A_Flock_of_Seagulls', 'hometown': 'http://dbpedia.org/resource/Liverpool', 'start_year': '1979', 'end_year': '1986', 'abstract': 'A Flock of Seagulls is an English new wave band formed in Liverpool in 1979. The group, whose best-known line-up comprised Mike Score, Ali Score, Frank Maudsley and Paul Reynolds, hit the peak of their chart success in the early 1980s. The group had a string of international hit singles including "I Ran (So Far Away)" (1982), "Space Age Love Song" (1982), "Wishing (If I Had a Photograph of You)" (1982), and "The More You Live, the More You Love" (1984). Their video for "I Ran (So Far Away)" received airplay on MTV during the Second British Invasion. The band won a Grammy Award in 1983 for their instrumental "D.N.A." (1982). In 2018 the members of the original lineup came together to record an album with the Prague Philharmonic Orchestra entitled Ascension.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Seeb_(music_producers)', 'artist_name': 'Seeb', 'wiki': 'http://en.wikipedia.org/wiki/Seeb_(music_producers)', 'start_year': '2015', 'abstract': 'Seeb (sometimes stylized as SEEB or SeeB) is a Norwegian EDM record production duo made up of Simen Eriksrud and Espen Berg. Their name is made up of the initials (first letter of given name and surname) of the original duo.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Everything_but_the_Girl', 'artist_name': 'Everything but the Girl', 'wiki': 'http://en.wikipedia.org/wiki/Everything_but_the_Girl', 'hometown': 'http://dbpedia.org/resource/East_Riding_of_Yorkshire', 'start_year': '1982', 'end_year': '2000', 'abstract': 'Everything but the Girl (occasionally referred to as EBTG) were an English musical duo, formed in Kingston upon Hull, England in 1982, consisting of lead singer and occasional guitarist Tracey Thorn and guitarist, keyboardist, producer and singer Ben Watt. Everything but the Girl has received eight gold and two platinum album BPI Certifications in the UK, and one gold album RIAA Certification in the US. They had four top ten singles and twelve top forty singles in the UK. Their biggest hit song "Missing" charted high in several countries and reached number two on the U.S. Billboard Hot 100 in 1995 and spent over seven months on the UK Singles Chart thanks to an extremely popular remix by Todd Terry which later led to a Brit Award nomination for Best British Single. The duo have also been nominated for MTV, EMA and Ivor Novello Awards and received an award from the BMI for sales of over 3 million in the UK alone. Watt and Thorn are also a couple, though they are very private about their relationship and personal life. While their relationship started during their time at university, it was not a publicised fact that they were romantically involved, or that they had subsequently married. They are currently inactive, and have not performed publicly since 2000. Thorn has said in interviews she dislikes performing live and will no longer sing in front of a live audience. Both Thorn and Watt have released several solo albums, but have expressed that it is unlikely that they will record again as EBTG.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rob_Zombie', 'artist_name': 'Rob Zombie', 'wiki': 'http://en.wikipedia.org/wiki/Rob_Zombie', 'birth_date': '12 January 1965', 'start_year': '1985', 'abstract': 'Robert Bartleh Cummings (born January 12, 1965), known professionally as Rob Zombie, is an American singer, songwriter, filmmaker, and voice actor. He is a founding member of the heavy metal band White Zombie, releasing four studio albums with the band. He is the older brother of Spider One, the lead vocalist of the industrial metal band Powerman 5000. Zombie\'s first solo effort was a 1996 song titled "Hands of Death (Burn Baby Burn)", written and performed with Alice Cooper. It went on to receive a nomination for Best Metal Performance at the 39th Annual Grammy Awards. In 1997, he began working on his debut solo studio album, Hellbilly Deluxe, which was released in August 1998. A month later, Zombie officially disbanded White Zombie. Hellbilly Deluxe went on to sell over three million copies worldwide and spawned three singles. Zombie directed the horror film House of 1000 Corpses in 2000, though the controversial project was not released until 2003. His second studio album, The Sinister Urge (2001), became his second platinum album in the U.S. Zombie directed The Devil\'s Rejects (2005), a direct sequel to his prior film House of 1000 Corpses. The project received a more positive reception than its predecessor. His third studio album, Educated Horses (2006), was a departure from his earlier recordings. The album became his third to enter the top ten of the Billboard 200, but saw a decrease in sales compared to his previous releases. Deciding to focus on his directing career, Zombie directed the horror film Halloween (2007), a remake of the 1978 horror classic of the same name. The film became Zombie\'s highest-grossing film to date, though was generally received negatively by critics. He later directed Halloween II (2009), which failed to match the success of its predecessor. He released the animated film The Haunted World of El Superbeasto that same year. Zombie returned to music with the release of his fourth studio album, Hellbilly Deluxe 2 (2010). The album peaked at number eight in the U.S., where it sold over 200,000 copies. In 2012, Zombie released a second remix album and directed the horror film The Lords of Salem, which was released in 2013; that year he also released his fifth studio album Venomous Rat Regeneration Vendor. Later he directed the horror film 31. Zombie released his next solo album, The Electric Warlock Acid Witch Satanic Orgy Celebration Dispenser, in 2016, followed nearly five years later by his seventh studio album, The Lunar Injection Kool Aid Eclipse Conspiracy (2021). Since the beginning of his music career, Zombie\'s music and lyrics have featured notable horror and sci-fi themes. His live shows have been praised for their elaborate shock rock theatricality. Since beginning his solo career, Zombie has sold an estimated fifteen million albums worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Lauren_Bennett', 'artist_name': 'Lauren Bennett', 'wiki': 'http://en.wikipedia.org/wiki/Lauren_Bennett', 'birth_date': '23 June 1989', 'start_year': '2007', 'abstract': 'Lauren Diane Bennett (born 23 June 1989) is an English singer, dancer, and model who was a member of the girl group G.R.L.. Bennett has also worked with the Paradiso Girls, CeeLo Green, Robin Antin and the Pussycat Dolls, and LMFAO. She was featured on the lattermost\'s 2011 track "Party Rock Anthem," which became her first number one single in the United Kingdom and United States.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Marshmello', 'artist_name': 'Marshmello', 'wiki': 'http://en.wikipedia.org/wiki/Marshmello', 'birth_date': '19 May 1992', 'start_year': '2015', 'abstract': 'Christopher Comstock (born May 19, 1992), known professionally as Marshmello, is an American electronic music producer and DJ. His songs "Silence", "Wolves", "Friends", "Happier", and "Alone" have been certified multi-platinum in several countries and appeared in the Top 30 of the Billboard Hot 100. His musical style includes groove-oriented, synth and bass-heavy electronic dance music. He is managed by Moe Shalizi. Marshmello first gained international recognition in early 2015 by publishing remixes online. His debut studio album, Joytime, was released in January 2016, which included the lead single and Marshmello\'s debut single "Keep It Mello". "Alone", a platinum-certified single was released in May 2016 via the Canadian record label Monstercat. Having peaked on the US Billboard Hot 100 at number 60, it became his first single to be certified platinum in the US and Canada with over 1 million copies of certified units. That year, he released three subsequent singles. In 2017, after releasing singles such as "Chasing Colors", "Twinbow" and "Moving On", Marshmello collaborated with American R&amp;B singer Khalid to release "Silence" as a single, which was certified platinum and multi-platinum in eight countries. Succeeding another single, one of his bestselling singles, a collaboration with American singer Selena Gomez, titled "Wolves" was released. In 2018, he released "Friends", a collaboration with British singer Anne-Marie. Months later, his second studio album, Joytime II, was released with singles "Tell Me" and "Check This Out". "Happier", a collaboration with British band Bastille, was released in August and became his highest charting song on the Billboard Hot 100 at #2. In 2019, he earned $40 million, ranking second on the list of highest paid DJs compiled by Forbes. In 2020, he and American rapper Juice Wrld released "Come &amp; Go", from the latter\'s posthumous album Legends Never Die; the song reached number two on the Billboard Hot 100, matching "Happier" as his highest charting song. In 2021, his album Shockwave earned him a Grammy nomination. Marshmello wears a custom white helmet, resembling a marshmallow, for public appearances and in his music videos. His identity was initially a secret, but was confirmed by Forbes to be Chris Comstock in April 2017.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Spice_Girls', 'artist_name': 'Spice Girls', 'wiki': 'http://en.wikipedia.org/wiki/Spice_Girls', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1994', 'end_year': '2000', 'abstract': 'The Spice Girls are a British girl group formed in 1994. The group comprises Melanie Brown, also known as Mel B ("Scary Spice"), Melanie Chisholm, or Melanie C ("Sporty Spice"), Emma Bunton ("Baby Spice"), Geri Halliwell ("Ginger Spice") and Victoria Beckham ("Posh Spice"). With their "girl power" mantra, the Spice Girls redefined the girl group concept by targeting a young female fanbase. They led the teen pop resurgence of the 1990s, were major parts of the Cool Britannia and Second British Invasion movements, and became pop culture icons of the decade. The Spice Girls formed through auditions held by managers Bob and Chris Herbert, who wanted to create a girl group to compete with the British boy bands popular at the time. They signed to Virgin Records and released their debut single "Wannabe" in 1996, which reached number one in the charts of 37 countries. Their debut album, Spice (1996), sold more than 23 million copies worldwide, becoming the best-selling album by a female group in history. The follow-up, Spiceworld (1997) sold more than 14 million copies worldwide. Both albums encapsulated the group\'s dance-pop style and message of female empowerment, with vocal and songwriting contributions shared equally by the members. In 1997, a film starring the Spice Girls, Spice World, was released; it was a critical flop but a commercial success. In May 1998, Halliwell left the Spice Girls, citing exhaustion and creative differences. Forever (2000), the only Spice Girls album without Halliwell, achieved weaker sales. At the end of 2000, the Spice Girls entered a hiatus to concentrate on their solo careers. They reunited for two concert tours, the Return of the Spice Girls (2007–2008) and Spice World (2019), both of which won the Billboard Live Music Award for highest-grossing engagements. Viva Forever!, a musical based on the Spice Girls\' music, opened in 2012; it was a critical and commercial flop and closed in 2013. Measures of the Spice Girls\' success include international record sales, iconic symbolism such as Halliwell\'s Union Jack dress, a major motion picture, Spice World (1997), and the highest-grossing concert tours by an all-female group from 2000 to 2020. Under the guidance of their mentor and manager Simon Fuller, their endorsement deals and merchandise made them one of most successful marketing engines ever, with a global gross income estimated at $500–800 million by May 1998. Their media exposure, according to Music Week writer Paul Gorman, helped usher in an era of celebrity obsession in pop culture. The Spice Girls have sold 100 million records worldwide, making them the bestselling girl group of all time, one of the bestselling artists, and the most successful British pop act since the Beatles. Their awards include five Brit Awards, three American Music Awards, four Billboard Music Awards, three MTV Europe Music Awards and one MTV Video Music Award. In 2000, they became the youngest recipients of the Brit Award for Outstanding Contribution to Music. According to Rolling Stone journalist and biographer David Sinclair, the Spice Girls were the most widely recognised group since the Beatles.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Traveling_Wilburys', 'artist_name': 'Traveling Wilburys', 'wiki': 'http://en.wikipedia.org/wiki/Traveling_Wilburys', 'hometown': 'http://dbpedia.org/resource/Billboard_200', 'start_year': '1988', 'end_year': '1991', 'abstract': 'The Traveling Wilburys (sometimes shortened to the Wilburys) were a British–American supergroup consisting of Bob Dylan, George Harrison, Jeff Lynne, Roy Orbison and Tom Petty. Originating from an idea discussed by Harrison and Lynne during the sessions for Harrison\'s 1987 album Cloud Nine, the band formed in April 1988 after the five members united to record a bonus track for Harrison\'s next European single. When this collaboration, "Handle with Care", was deemed too good for such a limited release, the group agreed to record a full album, titled Traveling Wilburys Vol. 1. Following Orbison\'s death in December 1988, the Wilburys released a second album, which they titled Traveling Wilburys Vol. 3, in 1990. The project\'s work received much anticipation given the diverse nature of the singer-songwriters. The band members adopted tongue-in-cheek pseudonyms as half-brothers from the fictional Wilbury family of travelling musicians. Vol. 1 was a critical and commercial success, helping to revitalise Dylan\'s and Petty\'s respective careers. In 1990, the album won the Grammy for Best Rock Performance by a Duo or Group. Although Harrison envisaged a series of Wilburys albums and a film about the band, produced through his company HandMade, the group\'s final release was in February 1991. After several years of unavailability, the two Wilburys albums were reissued by the Harrison estate in the 2007 box set The Traveling Wilburys Collection. The box set included a DVD containing their music videos and a documentary on the band\'s formation.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Of_Monsters_and_Men', 'artist_name': 'Of Monsters and Men', 'wiki': 'http://en.wikipedia.org/wiki/Of_Monsters_and_Men', 'hometown': 'http://dbpedia.org/resource/Iceland', 'start_year': '2010', 'abstract': 'Of Monsters and Men is an Icelandic indie folk/rock band formed in Reykjavík in 2010. The members are lead singer and guitarist Nanna Bryndís Hilmarsdóttir, singer and guitarist Ragnar "Raggi" Þórhallsson, lead guitarist Brynjar Leifsson, drummer Arnar Rósenkranz Hilmarsson and bassist Kristján Páll Kristjánsson. The band won the Músíktilraunir in 2010, an annual battle of the bands competition in Iceland. In 2011, Of Monsters and Men released an EP titled Into the Woods. The band\'s 2011 debut album My Head Is an Animal, reached the No.1 position in Australia, Iceland, Ireland and the US Rock and Alternative charts, while peaking at No. 6 on the US Billboard 200 album chart, No. 3 in the UK, and Top 20 of most European charts and Canada. Its lead single "Little Talks" was an international success, reaching the Top 10 in most music charts in Europe, including No. 1 in Ireland and Iceland, and No. 1 on US Alternative Songs. Of Monsters and Men won the 2013 European Border Breakers Awards.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Men_Without_Hats', 'artist_name': 'Men Without Hats', 'wiki': 'http://en.wikipedia.org/wiki/Men_Without_Hats', 'hometown': 'http://dbpedia.org/resource/Montreal', 'start_year': '1977', 'end_year': '1993', 'abstract': 'Men Without Hats are a Canadian new wave and synth-pop band, originally from Montreal, Quebec. Their music is characterized by the baritone voice of their lead singer Ivan Doroschuk, as well as their elaborate use of synthesizers and electronic processing. They achieved their greatest popularity in the 1980s with "The Safety Dance", a worldwide top ten hit (No. 3 in the United States), and "Pop Goes the World". After a hiatus for most of the 1990s and 2000s, Doroschuk reformed the band in 2010, and released Love in the Age of War (2012). The group, based in Vancouver, has continued to perform, including tour dates announced in support of the release of two studio albums, Men Without Hats Again (Parts 1 &amp; 2), in 2021 and 2022 respectively.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Matthew_Wilder', 'artist_name': 'Matthew Wilder', 'wiki': 'http://en.wikipedia.org/wiki/Matthew_Wilder', 'birth_date': '24 January 1953', 'start_year': '1972', 'abstract': 'Matthew Wilder (né Weiner; January 24, 1953) is an American singer, musician, and record producer. In early 1984, his single "Break My Stride" hit No. 2 on the Cash Box chart and No. 5 on the Billboard Hot 100. He also did the singing voice for Ling in the Disney animated feature film Mulan and wrote the music for the songs featured in the movie.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Vampire_Weekend', 'artist_name': 'Vampire Weekend', 'wiki': 'http://en.wikipedia.org/wiki/Vampire_Weekend', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2006', 'abstract': 'Vampire Weekend is an American rock band from New York City, formed in 2006 and currently signed to Columbia Records. The band was formed by lead vocalist and guitarist Ezra Koenig, multi-instrumentalist Rostam Batmanglij, drummer Chris Tomson, and bassist Chris Baio. The band\'s eponymous first album Vampire Weekend (2008)—which included the singles "Mansard Roof", "A-Punk", "Oxford Comma", "Cape Cod Kwassa Kwassa", and "The Kids Don\'t Stand a Chance"—was acclaimed by critics for its world music influences. Their following album, Contra (2010), was similarly acclaimed and garnered strong commercial success. Their third studio album, Modern Vampires of the City (2013), won the group the Grammy Award for Best Alternative Music Album. Batmanglij departed the group in early 2016. The band\'s fourth album, Father of the Bride, was released in 2019, and earned them a second Grammy win for Best Alternative Music Album. The album was also nominated for the Grammy Award for Album of the Year.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Gin_Blossoms', 'artist_name': 'Gin Blossoms', 'wiki': 'http://en.wikipedia.org/wiki/Gin_Blossoms', 'hometown': 'http://dbpedia.org/resource/Tempe,_Arizona', 'start_year': '2001', 'abstract': 'Gin Blossoms is an American rock band formed in 1987 in Tempe, Arizona. They rose to prominence following the 1992 release of their first major label album, New Miserable Experience, and the first single released from that album, "Hey Jealousy". "Hey Jealousy" became a Top 25 hit and went gold, and New Miserable Experience eventually went quadruple platinum; four other charting singles were released from the album. The band\'s follow-up album, Congratulations I\'m Sorry (1996), went platinum and the single "As Long as It Matters" was nominated for a Grammy Award. Gin Blossoms broke up in 1997. Since reuniting in 2001, the band has released Major Lodge Victory in 2006, No Chocolate Cake in 2010, and Mixed Reality in 2018. Gin Blossoms has been described as an alternative rock band and as a jangle pop band. According to Rolling Stone, the band excels at "marrying world-weary lyrics with ebullient melodies." In 2017, the Salina Journal described Gin Blossoms as a "Tempe, Ariz.-based indie band [acclaimed] by critics and fans alike for its chiming guitars, introspective lyrics and catchy pop-rock melodies," adding that "Gin Blossoms has maintained its longevity by being mostly a road band." The group is known for the "Mill Avenue sound", or "southwestern sound", similar to other bands from Arizona such as The Sidewinders, The Refreshments, The Meat Puppets, and Dead Hot Workshop.'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Des Moines, Iowa', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Des_Moines%2C_Iowa', 'place': 'http://sws.geonames.org/4853828/', 'postal_code': '50333', 'geo_link': 'http://www.geonames.org/4853828/des-moines.html', 'lat': '41.590833333333336', 'long': '-93.62083333333334', 'population': '203433'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Friuli', 'country_code': 'IT', 'wiki': 'http://en.wikipedia.org/wiki/Friuli', 'place': 'http://sws.geonames.org/3165071/', 'geo_link': 'http://www.geonames.org/3165071/provincia-di-udine.html', 'lat': '46.166666666666664', 'long': '13.0', 'population': '535430'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Montreal', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Montreal', 'place': 'http://sws.geonames.org/6077243/', 'geo_link': 'http://www.geonames.org/6077243/montreal.html', 'lat': '45.5', 'long': '-73.56666666666666', 'population': '1600000'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Atlanta', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Atlanta', 'place': 'http://sws.geonames.org/4180439/', 'postal_code': '30305', 'geo_link': 'http://www.geonames.org/4180439/atlanta.html', 'lat': '33.755', 'long': '-84.39', 'population': '420003'}</t>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Kid_Laroi', 'artist_name': 'The Kid Laroi', 'wiki': 'http://en.wikipedia.org/wiki/The_Kid_Laroi', 'birth_date': '17 August 2003', 'start_year': '2018', 'abstract': 'Charlton Kenneth Jeffrey Howard (born 17 August 2003), professionally known as the Kid Laroi (stylised The Kid LAROI.), is an Australian singer, rapper and songwriter. Born in Waterloo, New South Wales, he originally gained recognition from his association and friendship with Juice Wrld while he was on tour in Australia. He gained a local following before joining a partnership agreement with Lil Bibby\'s Grade A Productions and Columbia Records. and attained further popularity with his song "Go" featuring Juice Wrld, which peaked at number 52 on the Billboard Hot 100. His debut mixtape F*ck Love (2020) peaked at number one on the Australian ARIA Charts, making him the youngest Australian solo artist ever to reach the top, and also reached number one on the US Billboard 200. Additionally, Laroi\'s songs "Without You", its remix with Miley Cyrus, and "Stay" (with Justin Bieber) reached the top ten of the Billboard Hot 100, with "Stay" peaking at number one for seven non-consecutive weeks. Among his accolades, Laroi has won an APRA Award, two ARIA Awards and a National Indigenous Music Award, and been nominated for two American Music Awards, two Grammy Awards, three MTV Video Music Awards, and four People\'s Choice Awards.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Fratellis', 'artist_name': 'The Fratellis', 'wiki': 'http://en.wikipedia.org/wiki/The_Fratellis', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'start_year': '2012', 'abstract': 'The Fratellis are a Scottish rock band from Glasgow, formed in 2005. The band consists of lead vocalist and guitarist Jon Fratelli, bassist and backing vocalist Barry Fratelli, and drummer and backing vocalist Mince Fratelli. Their singles "Chelsea Dagger" and "Whistle for the Choir" were both top ten hits in the UK charts.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Shaggy_(musician)', 'artist_name': 'Shaggy', 'wiki': 'http://en.wikipedia.org/wiki/Shaggy_(musician)', 'birth_date': '22 October 1968', 'start_year': '1992', 'abstract': 'Orville Richard Burrell CD (born October 22, 1968), better known by his stage name Shaggy, is a Jamaican-American reggae musician, singer, DJ, and actor who scored hits with the songs "It Wasn\'t Me", "Boombastic", "In The Summertime", "Oh Carolina", and "Angel". He has been nominated for seven Grammy Awards, winning twice for Best Reggae Album with Boombastic in 1996 and 44/876 with Sting in 2019, and has won the Brit Award for International Male Solo Artist in 2002. In 2007, he was awarded the Jamaican Order of Distinction with the rank of Commander.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/George_Michael', 'artist_name': 'George Michael', 'wiki': 'http://en.wikipedia.org/wiki/George_Michael', 'birth_date': '25 June 1963', 'death_date': '25 December 2016', 'start_year': '1981', 'end_year': '2016', 'abstract': 'George Michael (born Georgios Kyriacos Panayiotou; 25 June 1963 – 25 December 2016) was a British singer, songwriter and record producer. Known as a leading creative force in music production, songwriting, vocal performance and visual presentation, he is regarded as one of the most significant cultural figures of the MTV era. Born in East Finchley, North London, Michael rose to fame as a member of the music duo Wham! and later embarked on a solo career. Forming the duo Wham! with Andrew Ridgeley in 1981, the band\'s first two albums, Fantastic (1983) and Make It Big (1984), reached number one on the UK Albums Chart and the US Billboard 200. Their hit singles included "Wake Me Up Before You Go-Go" and "Last Christmas". Establishing themselves as a global act, Wham! toured China in April 1985; the tour was the first visit to China by a Western popular music act, and it generated worldwide media coverage. Michael\'s first solo single, "Careless Whisper", reached number one in over 20 countries, including the UK and US. Before embarking on the production of his first solo album, Michael went on to release two more number-one singles, "A Different Corner" and "I Knew You Were Waiting (For Me)". Michael\'s debut solo album, Faith, was released in 1987, topping the UK Albums Chart and staying at number one on the Billboard 200 for 12 weeks. Globally it sold 25 million copies, and four singles from the album—"Faith", "Father Figure", "One More Try", and "Monkey"—reached number one on the Billboard Hot 100. Michael became the best-selling music artist of 1988, and Faith was awarded Album of the Year at the 1989 Grammy Awards. His second solo album, Listen Without Prejudice Vol. 1 (1990), sold approximately eight million copies and was a UK number-one. It included the Billboard Hot 100 number-one "Praying for Time" and the worldwide hit "Freedom! \'90". A 1991 duet with Elton John, "Don\'t Let the Sun Go Down on Me", was also a transatlantic number one. Michael went on to release two more multimillion-selling albums, Older (1996) and Patience (2004). Michael came out as gay in 1998. He was an active LGBT rights campaigner and HIV/AIDS charity fundraiser. Michael\'s personal life, drug use, and legal troubles made headlines during the late 1990s and 2000s, as he was arrested for public lewdness in 1998 and was arrested for multiple drug-related offences after that time. The 2005 documentary A Different Story covered his career and personal life. Michael\'s 25 Live tour spanned three tours from 2006 to 2008. Michael fell into a coma in 2011 during a bout with pneumonia, but later recovered. He performed his final concert at London\'s Earls Court in 2012. On 25 December 2016, Michael was found dead at his home in Goring-on-Thames, Oxfordshire. Michael is one of the best-selling music artists of all time, with sales of over 120 million records worldwide. He achieved seven number-one songs on the UK Singles Chart and eight number-one songs on the US Billboard Hot 100. Michael won various music awards, including two Grammy Awards, three Brit Awards, three American Music Awards, 12 Billboard Music Awards, four MTV Video Music Awards, and six Ivor Novello Awards. In 2015, he was ranked 45th in Billboard\'s list of the "Greatest Hot 100 Artists of All Time". The Radio Academy named him the most played artist on British radio during the period 1984–2004.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/September_(band)', 'artist_name': 'September', 'wiki': 'http://en.wikipedia.org/wiki/September_(band)', 'hometown': 'http://dbpedia.org/resource/Socialist_Federal_Republic_of_Yugoslavia', 'start_year': '1975', 'end_year': '1979', 'abstract': 'September was a Yugoslavian jazz rock band active between 1975 and 1979.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/MC_Hammer', 'artist_name': 'MC Hammer', 'wiki': 'http://en.wikipedia.org/wiki/MC_Hammer', 'birth_date': '30 March 1962', 'start_year': '1985', 'abstract': 'Stanley Kirk Burrell (born March 30, 1962), better known by his stage name MC Hammer (or simply Hammer), is an American rapper, songwriter, dancer and record producer who had his greatest commercial success and popularity from the late 1980s until the early 1990s. Remembered for his rapid rise to fame, Hammer is known for songs (such as "U Can\'t Touch This" and "2 Legit 2 Quit"), flashy dance movements, choreography and eponymous Hammer pants. A multi-award winner, MC Hammer is considered a "forefather/pioneer" and innovator of pop rap (incorporating elements of freestyle music) and is the first hip hop artist to achieve diamond status for an album. BET ranked Hammer as the No. 7 "Best Dancer Of All Time". Vibe\'s "The Best Rapper Ever Tournament" declared him the 17th favorite of all-time during the first round. Hammer\'s popularity and success waned by 1992 when he was labeled a sellout by the changing landscape of hip-hop music, leading to financial problems later in life, including a highly publicized bankruptcy in 1996. During this time, Hammer unsuccessfully attempted to appeal to the rise of gangsta rap. Burrell became a preacher during the late 1990s with a Christian ministry program on TBN called M.C. Hammer and Friends. Additionally, he starred in a Saturday-morning cartoon called Hammerman in 1991 and was executive producer of his own reality show called Hammertime, which aired on the A&amp;E Network during the summer of 2009. Hammer was also a television show host and dance judge on Dance Fever in 2003, was co-creator of a dance website called DanceJam.com and is a record label CEO while still performing concerts at music venues and assisting with other social media, ministry and outreach functions. Prior to becoming ordained, Hammer signed with Suge Knight\'s Death Row Records in 1995. Throughout his career, Hammer has managed his own recording business. As a result, he has created and produced his own acts including Ho Frat Hoo!, Oaktown\'s 3.5.7, Special Generation, Analise, DRS, B Angie B and Gentry Kozia. A part of additional record labels, he has associated, collaborated and recorded with Psy, VMF, Tupac Shakur, Teddy Riley, Felton Pilate, Tha Dogg Pound, The Whole 9, The Hines Brother, Deion Sanders, Big Daddy Kane, BeBe &amp; CeCe Winans and Jon Gibson.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Steve_Winwood', 'artist_name': 'Steve Winwood', 'wiki': 'http://en.wikipedia.org/wiki/Steve_Winwood', 'birth_date': '12 May 1948', 'start_year': '1961', 'abstract': 'Stephen Lawrence Winwood (born 12 May 1948) is an English singer, songwriter and musician whose genres include blue-eyed soul, rhythm and blues, blues rock and pop rock. Though primarily a vocalist and keyboard player, Winwood plays other instruments proficiently, including drums, mandolin, guitars, bass and saxophone. Winwood was a key member of several major acts of the 1960s and 1970s, including the Spencer Davis Group, Traffic and Blind Faith. Beginning in the 1980s, his solo career took off and he had a number of hit singles, including "While You See a Chance" (1980) from the album Arc of a Diver and "Valerie" (1982) from Talking Back to the Night ("Valerie" became a hit when it was re-released with a remix from Winwood\'s 1987 compilation album Chronicles). His 1986 album Back in the High Life marked his career zenith, with hit singles including "Back in the High Life Again", "The Finer Things" and the US Billboard Hot 100 number one hit "Higher Love". He found the top of the Hot 100 again with "Roll With It" (1988) from the album of the same name, with "Holding On" also charting highly the same year. While his hit singles ceased at the end of the 1980s, he continued to release new albums up to 2008, when Nine Lives, his latest album, was released. Since then, while he has not released any new albums, he still continues to tour alongside other classic rock acts, most recently in 2020 with Steely Dan. He was inducted into the Rock and Roll Hall of Fame as a member of Traffic in 2004. In 2005, Winwood was honoured as a BMI Icon at the annual BMI London Awards for his "enduring influence on generations of music makers". In 2008, Rolling Stone ranked Winwood No. 33 in its 100 Greatest Singers of All Time. Winwood has won two Grammy Awards. He was nominated twice for a Brit Award for Best British Male Artist: 1988 and 1989. In 2011, he received the Ivor Novello Award from the British Academy of Songwriters, Composers and Authors for Outstanding Song Collection.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Daughtry_(band)', 'artist_name': 'Daughtry', 'wiki': 'http://en.wikipedia.org/wiki/Daughtry_(band)', 'hometown': 'http://dbpedia.org/resource/McLeansville,_North_Carolina', 'start_year': '2006', 'abstract': 'Daughtry /ˈdɔːtri/ is an American rock band formed and fronted by namesake Chris Daughtry, who was a finalist on the fifth season of American Idol. Their self-titled debut album was released in November 2006 and reached number one on the Billboard 200. The album went on to sell more than six million copies in the United States, and has been certified six times platinum by the RIAA. Daughtry was also named the best selling album of 2007 by Billboard, becoming the fastest-selling debut rock album in Nielsen SoundScan history. The album produced four top 20 hits on the Billboard Hot 100, including top five hits "It\'s Not Over" and "Home". The band\'s second album, Leave This Town, was released in July 2009 and debuted at number one on the Billboard 200 chart, becoming Daughtry\'s second number one album in the United States. To date, Leave This Town has sold over 1.3 million copies in the United States and has been certified platinum by the RIAA. The album\'s lead single, "No Surprise", became the band\'s fifth top 20 hit on the Hot 100. Their third studio album, Break the Spell, was released in November 2011 and debuted within the top 10 on the Billboard 200 chart. The album has been certified Gold by the RIAA. Daughtry\'s fourth studio album, Baptized, was released on November 19, 2013, and debuted at number six on the Billboard 200 chart, selling approximately 90,000 units. To date, Daughtry has sold over 9 million albums and over 25.6 million digital tracks in the U.S.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/New_Radicals', 'artist_name': 'New Radicals', 'wiki': 'http://en.wikipedia.org/wiki/New_Radicals', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1997', 'end_year': '1997', 'abstract': 'New Radicals (stylized as Иew Radicals) were an American alternative rock band formed in 1997 in Los Angeles, California. The band was centered on frontman Gregg Alexander, who wrote and produced all of their songs. The band\'s only other permanent member was keyboardist and percussionist Danielle Brisebois. The band released only one album, 1998\'s Maybe You\'ve Been Brainwashed Too, an alternative rock album heavily influenced by the rock and soul of the 1970s, containing—among radio-friendly modern rock tracks and love songs—strong criticism of corporate America. The band is known for their debut single "You Get What You Give". Despite aspects of the lyrics generating minor controversy for their references to certain celebrities, the song topped the charts in Canada and New Zealand, became a top 5 hit in the United Kingdom, and was in the top 40 in the US. Tired of touring and promotional interviews, Alexander disbanded the group in mid-1999 before the release of their second single, "Someday We\'ll Know", to focus on writing and producing songs for other artists. Alexander and Brisebois\' songwriting partnership continued following the disbanding of the group, with the two being nominated for the Academy Award for Best Original Song in 2015 for their composition "Lost Stars" from the film Begin Again. Since their disbandment, the group has received numerous offers for a reunion tour or new album, but Alexander has repeatedly turned these down. However, the band finally reunited for a one off performance on January 20, 2021, at President Joe Biden\'s presidential inauguration.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Peter_Schilling', 'artist_name': 'Peter Schilling', 'wiki': 'http://en.wikipedia.org/wiki/Peter_Schilling', 'birth_date': '28 January 1956', 'start_year': '1976', 'abstract': 'Peter Schilling (born Pierre Michael Schilling; 28 January 1956) is a German synthpop musician whose songs often feature science-fiction themes like aliens, astronauts and catastrophes. He is best-known for his 1983 hit single "Major Tom (Coming Home)" which was an international success.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/New_Order_(band)', 'artist_name': 'New Order', 'wiki': 'http://en.wikipedia.org/wiki/New_Order_(band)', 'hometown': 'http://dbpedia.org/resource/Salford', 'start_year': '1980', 'end_year': '1993', 'abstract': 'New Order are an English rock band formed in 1980 by vocalist and guitarist Bernard Sumner, bassist Peter Hook and drummer Stephen Morris. The band formed after the demise of Joy Division, following the suicide of lead singer Ian Curtis; they were joined by Gillian Gilbert on keyboards later that year. New Order\'s integration of post-punk with electronic and dance music made them one of the most acclaimed and influential bands of the 1980s. They were the flagship band for Manchester-based independent record label Factory Records and its nightclub The Haçienda, and worked in long-term collaboration with graphic designer Peter Saville. While the band\'s early years were overshadowed by the legacy of Joy Division, their experience of the early 1980s New York club scene saw them increasingly incorporate dance rhythms and electronic instrumentation into their work. Their 1983 hit "Blue Monday" became the best-selling 12-inch single of all time and a popular club track. In the 1980s, they released successful albums such as Power, Corruption &amp; Lies (1983), Technique (1989), and the singles compilation Substance (1987). They disbanded in 1993 to work on individual projects before reuniting in 1998. In the years since, New Order has gone through various hiatuses and personnel changes, most prominently the departure of Hook in 2007. They released their tenth studio album, Music Complete, in 2015.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Third_Eye_Blind', 'artist_name': 'Third Eye Blind', 'wiki': 'http://en.wikipedia.org/wiki/Third_Eye_Blind', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1993', 'abstract': 'Third Eye Blind is an American rock band formed in San Francisco, California, in 1993. After years of lineup changes in the early and mid-1990s, the songwriting duo of Stephan Jenkins and Kevin Cadogan signed the band\'s first major-label recording contract with Elektra Records in 1996. The band released their self-titled debut album in 1997, with the band largely consisting of Jenkins (vocals, rhythm guitar), Cadogan (lead guitar), Arion Salazar (bass guitar), and Brad Hargreaves (drums). Shortly after the release of the band\'s second album in 1999, Blue, with the same line-up, Cadogan was released from the band under controversial circumstances. The band continued, but with many line-up changes and long gaps between album releases for the next 15 years. The band released Out of the Vein in 2003 and Ursa Major in 2009 with guitarist Tony Fredianelli, but parted ways with him shortly afterwards, leaving only Jenkins and Hargreaves as the remaining core members. The band\'s lineup stabilized again in the mid-2010s, adding Kryz Reid (lead guitar), Alex Kopp (keyboards), and Alex LeCavalier (bass guitar). The new lineup lead to increased output with less time between releases - Dopamine (2015), and a string of EPs, We Are Drugs (2016) and Thanks for Everything (2018). After Kopp was replaced by Colin Creev, a sixth studio album, Screamer (2019) was released, and a seventh studio album, Our Bande Apart, was released on September 24, 2021. The band found commercial success in the late 1990s, with Third Eye Blind and Blue certified platinum six times and single platinum in the United States, respectively. Several songs were a commercial success as well, with "Semi-Charmed Life", "Jumper", and "How\'s It Going to Be", all reaching the Top 10 of the US Billboard Hot 100, and "Never Let You Go" reaching the Top 20. Third Eye Blind has sold around 12 million records worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/David_Guetta', 'artist_name': 'David Guetta', 'wiki': 'http://en.wikipedia.org/wiki/David_Guetta', 'abstract': 'Pierre David Guetta (/ˈɡɛtə/; French pronunciation: \u200b[pjɛʁ david ɡɛta]; born 7 November 1967) is a French DJ, record producer and songwriter. He has racked up over 50 million record sales globally, with more than 10 billion streams. In 2011, 2020 and 2021, Guetta was voted the number one DJ in the DJ Mag Top 100 DJs poll. In 2013, Billboard crowned "When Love Takes Over" as the number one dance-pop collaboration of all time. Born and raised in Paris, he released his first album, Just a Little More Love, in 2002. Later, he released Guetta Blaster (2004) and Pop Life (2007). Guetta achieved mainstream success with his 2009 album One Love which included the hit singles "When Love Takes Over", "Gettin\' Over You", "Sexy Bitch" and "Memories", the first three of which reached number one in the United Kingdom. The 2011 follow-up album, Nothing but the Beat, continued this success, containing the hit singles "Where Them Girls At", "Little Bad Girl", "Without You", "Titanium" and "Turn Me On". In 2018, he released the album 7 featuring J Balvin, Nicki Minaj, Jason Derulo, Sia, G-Eazy and more. The album also featured twelve tracks by his alias Jack Back. In 2019, he started a new movement together with fellow producer MORTEN called "Future Rave". The duo released their "New Rave" EP in July 2020 for the fans to enjoy at home despite clubs being closed. Guetta and Sia reunited to release "Let\'s Love" in 2020, amidst the COVID-19 pandemic. In June 2021 Guetta sold his recorded music catalog for an amount in the region of US$100 million, with Music Business Worldwide citing a source saying it was more than that, but less than US$150 million. Guetta\'s accolades include two Grammy Awards, an American Music Award and a Billboard Music Award.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jason_Mraz', 'artist_name': 'Jason Mraz', 'wiki': 'http://en.wikipedia.org/wiki/Jason_Mraz', 'birth_date': '23 June 1977', 'start_year': '1999', 'abstract': 'Jason Thomas Mraz (/məˈræz/; born June 23, 1977) is an American guitarist, singer and songwriter. In 2002 he released his debut studio album, Waiting for My Rocket to Come, which contained the single "The Remedy (I Won\'t Worry)" that reached number 15 on the Billboard Hot 100, his first top-40 hit in the US. His second album, Mr. A-Z, released in 2005, peaked at number 5 on the Billboard 200 and sold over 100,000 copies in the US. In 2008 Mraz released his third studio album, We Sing. We Dance. We Steal Things. It debuted at number 3 on the Billboard 200 and was an international commercial success primarily due to the hit "I\'m Yours". The song peaked at number 6 on the Billboard Hot 100, giving him his first top ten single, spent a then-record 76 weeks on the Hot 100, and was certified Diamond (10x Platinum) by the RIAA in 2019. His fourth album, Love Is a Four Letter Word, peaked at number 2 on the Billboard 200, his highest-charting album to date. Mraz has won two Grammy Awards and received two additional nominations, and has also won two Teen Choice Awards, a People\'s Choice Award and the Hal David Songwriters Hall of Fame Award. He has earned Platinum and multi-Platinum certifications in over 20 countries, and has toured in North America, South America, Europe, Asia, Australia, the Middle East and parts of Africa. As of July 2014 Mraz has sold over seven million albums, and over 11.5 million downloaded singles. His musical style, from rhythmic feeling to his use of nylon string guitars, has been heavily influenced by Brazilian music.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Macklemore_&amp;_Ryan_Lewis', 'artist_name': 'Macklemore &amp; Ryan Lewis', 'wiki': 'http://en.wikipedia.org/wiki/Macklemore_&amp;_Ryan_Lewis', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '2008', 'end_year': '2017', 'abstract': 'Macklemore &amp; Ryan Lewis are an American hip hop duo, formed in 2008, from Seattle, Washington. The duo is composed of Ben Haggerty, a rapper who goes by the stage name of Macklemore, and Ryan Lewis, a record producer, DJ, and professional photographer, who met the former at a photo shoot. In 2009, they released their first collaborative effort, an EP titled VS. EP. They later followed up with VS. Redux (2010), the Grammy Award-winning album The Heist (2012) and This Unruly Mess I\'ve Made (2016). Macklemore and Lewis\' single "Thrift Shop" reached number one on the US Billboard Hot 100 in 2013. The single was soon dubbed the first song since 1994 to top the Hot 100 chart without the support of a major record label by Billboard, although Macklemore, in a slightly unusual recording contract, pays a nominal percentage of sales to use Warner Bros. Records\' radio promotion department to push his singles. Their second single, "Can\'t Hold Us", also peaked at number one on the Hot 100 Chart, making Macklemore and Lewis the first duo in the chart\'s history to have their first two singles both reach the peak position. Macklemore and Lewis released their debut studio album, The Heist, on October 9, 2012, which charted at number 2 on the US Billboard 200. The pair won four Grammy Awards at the 2014 ceremony, including Best New Artist, Best Rap Album (The Heist), Best Rap Song and Best Rap Performance ("Thrift Shop"). Their second album, This Unruly Mess I\'ve Made, was released on February 26, 2016. As of 2021, the band has sold 2 million records worldwide. On June 15, 2017, Macklemore announced that the duo were on hiatus. On October 26, 2021, Macklemore and Ryan Lewis announced that a new track, titled "Next Year", featuring pop musician Windser is set to be released on October 29, on their respective Instagram pages.'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bath, Somerset', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Bath%2C_Somerset', 'place': 'http://sws.geonames.org/2656173/', 'geo_link': 'http://www.geonames.org/2656173/bath.html', 'lat': '51.38', 'long': '-2.36', 'population': '93238'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Calabasas, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Calabasas%2C_California', 'place': 'http://sws.geonames.org/5332593/', 'postal_code': '91302', 'geo_link': 'http://www.geonames.org/5332593/calabasas.html', 'lat': '34.138333333333335', 'long': '-118.66083333333333', 'population': '23058'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Mississauga', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Mississauga', 'place': 'http://sws.geonames.org/6075357/', 'geo_link': 'http://www.geonames.org/6075357/mississauga.html', 'lat': '43.6', 'long': '-79.65', 'population': '668549'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Teignmouth', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Teignmouth', 'place': 'http://sws.geonames.org/2636132/', 'geo_link': 'http://www.geonames.org/2636132/teignmouth.html', 'lat': '50.5515', 'long': '-3.4886', 'population': '15498'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Stockbridge, Georgia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Stockbridge%2C_Georgia', 'place': 'http://sws.geonames.org/4224681/', 'postal_code': '30281', 'geo_link': 'http://www.geonames.org/4224681/stockbridge.html', 'lat': '33.534166666666664', 'long': '-84.2311111111111', 'population': '25636'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Melbourne', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Melbourne', 'place': 'http://sws.geonames.org/7839805/', 'geo_link': 'http://www.geonames.org/2158177/melbourne.html', 'lat': '37.81361111111111', 'long': '144.96305555555554', 'population': '116447'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Gothenburg', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Gothenburg', 'place': 'http://sws.geonames.org/2711537/', 'geo_link': 'http://www.geonames.org/2711537/goeteborg.html', 'lat': '57.7', 'long': '11.966666666666667', 'population': '504084'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Australia', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Australia', 'place': 'http://sws.geonames.org/2077456/', 'geo_link': 'http://www.geonames.org/2077456/commonwealth-of-australia.html', 'lat': '-25', 'long': '135', 'population': '21515754'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sarasota, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Sarasota%2C_Florida', 'place': 'http://sws.geonames.org/4172131/', 'postal_code': '34278', 'geo_link': 'http://www.geonames.org/4172131/sarasota.html', 'lat': '27.337222222222223', 'long': '-82.53527777777778', 'population': '51917'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Hungary', 'country_code': 'HU', 'wiki': 'http://en.wikipedia.org/wiki/Hungary', 'place': 'http://sws.geonames.org/719819/', 'geo_link': 'http://www.geonames.org/719819/hungary.html', 'lat': '47', 'long': '20', 'population': '9982000'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sweden', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Sweden', 'place': 'http://sws.geonames.org/2661886/', 'geo_link': 'http://www.geonames.org/2661886/kingdom-of-sweden.html', 'lat': '62', 'long': '15', 'population': '9828655'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Larne', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Larne', 'place': 'http://sws.geonames.org/2644849/', 'geo_link': 'http://www.geonames.org/2644849/larne.html', 'lat': '54.851', 'long': '-5.811', 'population': '18421'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Republic of Ireland', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Republic_of_Ireland', 'place': 'http://sws.geonames.org/2963597/', 'geo_link': 'http://www.geonames.org/2963597/ireland.html', 'lat': '53', 'long': '-8', 'population': '4622917'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Dublin', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Dublin', 'place': 'http://sws.geonames.org/7778677/', 'geo_link': 'http://www.geonames.org/2964574/dublin.html', 'lat': '53.34777777777778', 'long': '-6.259722222222222', 'population': '1024027'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Worcester, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Worcester%2C_Massachusetts', 'place': 'http://sws.geonames.org/4956184/', 'postal_code': '01604', 'geo_link': 'http://www.geonames.org/4956184/worcester.html', 'lat': '42.266666666666666', 'long': '-71.8', 'population': '181045'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Philadelphia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Philadelphia', 'place': 'http://sws.geonames.org/4560349/', 'postal_code': '19109', 'geo_link': 'http://www.geonames.org/4560349/philadelphia.html', 'lat': '39.95', 'long': '-75.16666666666667', 'population': '1526006'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Huddinge Municipality', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Huddinge_Municipality', 'place': 'http://sws.geonames.org/2704619/', 'geo_link': 'http://www.geonames.org/2704619/huddinge-kommun.html', 'lat': '59.233333333333334', 'long': '17.983333333333334', 'population': '97959'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Hanover', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Hanover', 'place': 'http://sws.geonames.org/2910831/', 'geo_link': 'http://www.geonames.org/2910831/hannover.html', 'lat': '52.36666666666667', 'long': '9.716666666666667', 'population': '515140'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Suffolk', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Suffolk', 'place': 'http://sws.geonames.org/2636561/', 'geo_link': 'http://www.geonames.org/2636561/suffolk.html', 'lat': '52.166666666666664', 'long': '1', 'population': '702100'}</t>
   </si>
   <si>
     <t>{'place_name': 'Birmingham', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Birmingham', 'place': 'http://sws.geonames.org/3333125/', 'geo_link': 'http://www.geonames.org/2655603/birmingham.html', 'lat': '52.48305555555555', 'long': '-1.8936111111111111', 'population': '984333'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Merseyside', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Merseyside', 'place': 'http://sws.geonames.org/2642713/', 'geo_link': 'http://www.geonames.org/2642713/merseyside.html', 'lat': '53.4', 'long': '-3.0', 'population': '1353600'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bietigheim-Bissingen', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Bietigheim-Bissingen', 'place': 'http://sws.geonames.org/2949012/', 'geo_link': 'http://www.geonames.org/2949012/bietigheim-bissingen.html', 'lat': '48.96666666666667', 'long': '9.133333333333333', 'population': '41769'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Newport Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Newport_Beach%2C_California', 'place': 'http://sws.geonames.org/5376889/', 'geo_link': 'http://www.geonames.org/5376889/newport-beach.html', 'lat': '33.61666666666667', 'long': '-117.8975'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Republic of Ireland', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Republic_of_Ireland', 'place': 'http://sws.geonames.org/2963597/', 'geo_link': 'http://www.geonames.org/2963597/ireland.html', 'lat': '53', 'long': '-8', 'population': '4622917'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'England', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/England', 'place': 'http://sws.geonames.org/6269131/', 'geo_link': 'http://www.geonames.org/6269131/england.html', 'lat': '51.5', 'long': '-0.11666666666666667', 'population': '50000000'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Gothenburg', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Gothenburg', 'place': 'http://sws.geonames.org/2711537/', 'geo_link': 'http://www.geonames.org/2711537/goeteborg.html', 'lat': '57.7', 'long': '11.966666666666667', 'population': '504084'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Paris', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Paris', 'place': 'http://sws.geonames.org/2988507/', 'postal_code': '75000', 'geo_link': 'http://www.geonames.org/2968815/paris.html', 'lat': '48.8567', 'long': '2.3508', 'population': '2257981'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Leicester', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Leicester', 'place': 'http://sws.geonames.org/3333165/', 'geo_link': 'http://www.geonames.org/2644668/leicester.html', 'lat': '52.63333333333333', 'long': '-1.1333333333333333', 'population': '339239'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Hungary', 'country_code': 'HU', 'wiki': 'http://en.wikipedia.org/wiki/Hungary', 'place': 'http://sws.geonames.org/719819/', 'geo_link': 'http://www.geonames.org/719819/hungary.html', 'lat': '47', 'long': '20', 'population': '9982000'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Frankfurt', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Frankfurt', 'place': 'http://sws.geonames.org/6553153/', 'geo_link': 'http://www.geonames.org/2925533/frankfurt-am-main.html', 'lat': '50.11666666666667', 'long': '8.683333333333334', 'population': '650000'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Minneapolis', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Minneapolis', 'place': 'http://sws.geonames.org/5037649/', 'postal_code': '55484', 'geo_link': 'http://www.geonames.org/5037649/minneapolis.html', 'lat': '44.983333333333334', 'long': '-93.26666666666667', 'population': '382578'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Australia', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Australia', 'place': 'http://sws.geonames.org/2077456/', 'geo_link': 'http://www.geonames.org/2077456/commonwealth-of-australia.html', 'lat': '-25', 'long': '135', 'population': '21515754'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Windsor, Berkshire', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Windsor%2C_Berkshire', 'place': 'http://sws.geonames.org/2633842/', 'geo_link': 'http://www.geonames.org/2633842/windsor.html', 'lat': '51.4791', 'long': '-0.6095', 'population': '28324'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Garden Grove, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Garden_Grove%2C_California', 'place': 'http://sws.geonames.org/5351515/', 'postal_code': '92844', 'geo_link': 'http://www.geonames.org/5351515/garden-grove.html', 'lat': '33.778888888888886', 'long': '-117.96027777777778', 'population': '170883'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'York, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/York%2C_Pennsylvania', 'place': 'http://sws.geonames.org/4562407/', 'postal_code': '17402', 'geo_link': 'http://www.geonames.org/4562407/york.html', 'lat': '39.96277777777778', 'long': '-76.72805555555556', 'population': '43718'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Riverside, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A0%D0%B8%D0%B2%D0%B5%D1%80%D1%81%D0%B0%D0%B9%D0%B4_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5387877/', 'postal_code': '92501', 'geo_link': 'http://www.geonames.org/5387877/riverside.html', 'lat': '33.948055555555555', 'long': '-117.39611111111111', 'population': '303871'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Glendale, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Glendale%2C_California', 'place': 'http://sws.geonames.org/5352423/', 'postal_code': '91208', 'geo_link': 'http://www.geonames.org/5352423/glendale.html', 'lat': '34.14611111111111', 'long': '-118.255', 'population': '191719'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Victoria (Australia)', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Victoria_(Australia)', 'place': 'http://sws.geonames.org/2145234/', 'geo_link': 'http://www.geonames.org/2145234/state-of-victoria.html', 'lat': '37.0', 'long': '145', 'population': '5354042'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bakersfield, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bakersfield%2C_California', 'place': 'http://sws.geonames.org/5325738/', 'postal_code': '93308', 'geo_link': 'http://www.geonames.org/5325738/bakersfield.html', 'lat': '35.36666666666667', 'long': '-119.01666666666667', 'population': '347483'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Antibes', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Antibes', 'place': 'http://sws.geonames.org/3037456/', 'postal_code': '06600', 'geo_link': 'http://www.geonames.org/3037456/antibes.html', 'lat': '43.5808', 'long': '7.1239', 'population': '76393'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Long Beach, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9B%D0%BE%D0%BD%D0%B3-%D0%91%D0%B8%D1%87_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5367929/', 'postal_code': '90853', 'geo_link': 'http://www.geonames.org/5367929/long-beach.html', 'lat': '33.76833333333333', 'long': '-118.19555555555556', 'population': '462257'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Carlisle, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Carlisle%2C_Massachusetts', 'place': 'http://sws.geonames.org/4932328/', 'postal_code': '01741', 'geo_link': 'http://www.geonames.org/4932328/carlisle.html', 'lat': '42.52916666666667', 'long': '-71.35', 'population': '4799'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Munich', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Munich', 'place': 'http://sws.geonames.org/2867714/', 'geo_link': 'http://www.geonames.org/2867714/munich.html', 'lat': '48.13333333333333', 'long': '11.566666666666666', 'population': '1260391'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Orlando, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Orlando%2C_Florida', 'place': 'http://sws.geonames.org/4167147/', 'postal_code': '32832', 'geo_link': 'http://www.geonames.org/4167147/orlando.html', 'lat': '28.41583333333333', 'long': '-81.29888888888888', 'population': '238300'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Fagersta', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Fagersta', 'place': 'http://sws.geonames.org/2715656/', 'geo_link': 'http://www.geonames.org/2715656/fagersta.html', 'lat': '60.00416666666667', 'long': '15.793333333333333', 'population': '10432'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Baja California Sur', 'country_code': 'MX', 'wiki': 'http://en.wikipedia.org/wiki/Baja_California_Sur', 'place': 'http://sws.geonames.org/4017698/', 'geo_link': 'http://www.geonames.org/4017698/estado-de-baja-california-sur.html', 'lat': '25.85', 'long': '-111.96666666666667', 'population': '475586'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Worthing', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Worthing', 'place': 'http://sws.geonames.org/2633521/', 'geo_link': 'http://www.geonames.org/2633521/worthing.html', 'lat': '50.81471111111111', 'long': '-0.3713861111111111', 'population': '99110'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Little Rock, Arkansas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Little_Rock%2C_Arkansas', 'place': 'http://sws.geonames.org/4119403/', 'postal_code': '72223', 'geo_link': 'http://www.geonames.org/4119403/little-rock.html', 'lat': '34.736111111111114', 'long': '-92.33111111111111', 'population': '193524'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Massachusetts', 'place': 'http://sws.geonames.org/6254926/', 'geo_link': 'http://www.geonames.org/6254926/massachusetts.html', 'lat': '42.36565', 'long': '-71.10832', 'population': '6433422'}</t>
+    <t>{'place_name': 'Clydebank', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Clydebank', 'place': 'http://sws.geonames.org/2652730/', 'geo_link': 'http://www.geonames.org/2652730/clydebank.html', 'lat': '55.8997', 'long': '-4.4006', 'population': '29867'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sheffield', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Sheffield', 'place': 'http://sws.geonames.org/3333193/', 'geo_link': 'http://www.geonames.org/2638077/sheffield.html', 'lat': '53.38361111111111', 'long': '-1.4669444444444444', 'population': '447047'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Stockholm', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Stockholm', 'place': 'http://sws.geonames.org/2673730/', 'geo_link': 'http://www.geonames.org/2673730/stockholm.html', 'lat': '59.32944444444445', 'long': '18.06861111111111', 'population': '1253309'}</t>
   </si>
   <si>
     <t>{'place_name': 'Miami', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Miami', 'place': 'http://sws.geonames.org/4164138/', 'postal_code': '33176', 'geo_link': 'http://www.geonames.org/4164138/miami.html', 'lat': '25.775277777777777', 'long': '-80.2088888888889', 'population': '399457'}</t>
@@ -1333,28 +1282,10 @@
     <t>{'place_name': 'San Francisco', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Francisco', 'place': 'http://sws.geonames.org/5391997/', 'postal_code': '94118', 'geo_link': 'http://www.geonames.org/5391959/san-francisco.html', 'lat': '37.78333333333333', 'long': '-122.41666666666667', 'population': '805235'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Oregon', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Oregon', 'place': 'http://sws.geonames.org/5744337/', 'geo_link': 'http://www.geonames.org/5744337/oregon.html', 'lat': '44.00013', 'long': '-120.50139', 'population': '3642919'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'New South Wales', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/New_South_Wales', 'place': 'http://sws.geonames.org/2155400/', 'geo_link': 'http://www.geonames.org/2155400/state-of-new-south-wales.html', 'lat': '32.16166666666667', 'long': '146', 'population': '6917658'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bergen', 'country_code': 'NO', 'wiki': 'http://en.wikipedia.org/wiki/Bergen', 'place': 'http://sws.geonames.org/3161733/', 'geo_link': 'http://www.geonames.org/3161733/bergen.html', 'lat': '60.38944444444444', 'long': '5.33', 'population': '252051'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Corpus Christi, Texas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Corpus_Christi%2C_Texas', 'place': 'http://sws.geonames.org/4683416/', 'postal_code': '78402', 'geo_link': 'http://www.geonames.org/4683416/corpus-christi.html', 'lat': '27.74277777777778', 'long': '-97.40194444444444', 'population': '305215'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Liverpool', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Liverpool', 'place': 'http://sws.geonames.org/3333167/', 'geo_link': 'http://www.geonames.org/2644210/liverpool.html', 'lat': '53.4', 'long': '-2.9833333333333334', 'population': '468945'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'East Riding of Yorkshire', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/East_Riding_of_Yorkshire', 'place': 'http://sws.geonames.org/2650345/', 'geo_link': 'http://www.geonames.org/2650345/east-riding-of-yorkshire.html', 'lat': '53.916666666666664', 'long': '-0.5', 'population': '587100'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Iceland', 'country_code': 'IS', 'wiki': 'http://en.wikipedia.org/wiki/Iceland', 'place': 'http://sws.geonames.org/2629691/', 'geo_link': 'http://www.geonames.org/2629691/republic-of-iceland.html', 'lat': '65', 'long': '-18', 'population': '308910'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Tempe, Arizona', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Tempe%2C_Arizona', 'place': 'http://sws.geonames.org/5317058/', 'postal_code': '85287', 'geo_link': 'http://www.geonames.org/5317058/tempe.html', 'lat': '33.41277777777778', 'long': '-111.94305555555556', 'population': '161719'}</t>
+    <t>{'place_name': 'Glasgow', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Glasgow', 'place': 'http://sws.geonames.org/3333231/', 'geo_link': 'http://www.geonames.org/2648579/glasgow.html', 'lat': '55.858', 'long': '-4.259', 'population': '610268'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'McLeansville, North Carolina', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/McLeansville%2C_North_Carolina', 'place': 'http://sws.geonames.org/4478715/', 'geo_link': 'http://www.geonames.org/4478715/mcleansville.html', 'lat': '36.10388888888889', 'long': '-79.66027777777778', 'population': '1021'}</t>
   </si>
 </sst>
 </file>
@@ -1768,16 +1699,19 @@
         <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="F2" t="s">
+        <v>392</v>
       </c>
       <c r="G2">
-        <v>2.819687128067017</v>
+        <v>2.296481847763062</v>
       </c>
       <c r="H2">
-        <v>2.559325695037842</v>
+        <v>1.499643087387085</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0938105583190918</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1794,19 +1728,16 @@
         <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F3" t="s">
-        <v>400</v>
+        <v>305</v>
       </c>
       <c r="G3">
-        <v>1.321027755737305</v>
+        <v>1.687314033508301</v>
       </c>
       <c r="H3">
-        <v>1.959492444992065</v>
+        <v>1.796238660812378</v>
       </c>
       <c r="I3">
-        <v>0.2386164665222168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1823,19 +1754,19 @@
         <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F4" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G4">
-        <v>1.317100763320923</v>
+        <v>1.530888080596924</v>
       </c>
       <c r="H4">
-        <v>21.89858150482178</v>
+        <v>1.812066316604614</v>
       </c>
       <c r="I4">
-        <v>0.3326888084411621</v>
+        <v>0.1093511581420898</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1851,20 +1782,14 @@
       <c r="D5" t="s">
         <v>211</v>
       </c>
-      <c r="E5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F5" t="s">
-        <v>402</v>
-      </c>
       <c r="G5">
-        <v>1.329374551773071</v>
+        <v>1.813308954238892</v>
       </c>
       <c r="H5">
-        <v>1.371750354766846</v>
+        <v>10.52852821350098</v>
       </c>
       <c r="I5">
-        <v>0.06826877593994141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1881,19 +1806,16 @@
         <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
-      </c>
-      <c r="F6" t="s">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="G6">
-        <v>1.467221736907959</v>
+        <v>1.218435764312744</v>
       </c>
       <c r="H6">
-        <v>1.412353754043579</v>
+        <v>0.1406228542327881</v>
       </c>
       <c r="I6">
-        <v>0.1112039089202881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1910,19 +1832,16 @@
         <v>213</v>
       </c>
       <c r="E7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F7" t="s">
-        <v>404</v>
+        <v>308</v>
       </c>
       <c r="G7">
-        <v>1.309560537338257</v>
+        <v>3.514785051345825</v>
       </c>
       <c r="H7">
-        <v>2.501687049865723</v>
+        <v>28.52450776100159</v>
       </c>
       <c r="I7">
-        <v>0.0683443546295166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1939,16 +1858,16 @@
         <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G8">
-        <v>1.164721250534058</v>
+        <v>1.390061140060425</v>
       </c>
       <c r="H8">
-        <v>22.94994115829468</v>
+        <v>22.15101361274719</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.09372615814208984</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1965,19 +1884,19 @@
         <v>215</v>
       </c>
       <c r="E9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F9" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="G9">
-        <v>1.318351268768311</v>
+        <v>1.421548843383789</v>
       </c>
       <c r="H9">
-        <v>1.33533763885498</v>
+        <v>1.421774625778198</v>
       </c>
       <c r="I9">
-        <v>0.1137359142303467</v>
+        <v>0.07810044288635254</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1994,19 +1913,19 @@
         <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F10" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G10">
-        <v>2.761728048324585</v>
+        <v>1.687101125717163</v>
       </c>
       <c r="H10">
-        <v>1.711654663085938</v>
+        <v>1.530882835388184</v>
       </c>
       <c r="I10">
-        <v>0.1065411567687988</v>
+        <v>0.1093475818634033</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2019,17 +1938,11 @@
       <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="D11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" t="s">
-        <v>314</v>
-      </c>
       <c r="G11">
-        <v>1.241941928863525</v>
+        <v>0.6870691776275635</v>
       </c>
       <c r="H11">
-        <v>1.007543563842773</v>
+        <v>11.16923403739929</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2046,16 +1959,22 @@
         <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="E12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F12" t="s">
+        <v>396</v>
       </c>
       <c r="G12">
-        <v>1.341324806213379</v>
+        <v>1.405886888504028</v>
       </c>
       <c r="H12">
-        <v>14.62854051589966</v>
+        <v>1.405956983566284</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1096096038818359</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2069,16 +1988,16 @@
         <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G13">
-        <v>1.370462656021118</v>
+        <v>1.530937433242798</v>
       </c>
       <c r="H13">
-        <v>0.8544154167175293</v>
+        <v>6.810890197753906</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2095,16 +2014,22 @@
         <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="E14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F14" t="s">
+        <v>397</v>
       </c>
       <c r="G14">
-        <v>2.234757661819458</v>
+        <v>1.281181573867798</v>
       </c>
       <c r="H14">
-        <v>11.90132474899292</v>
+        <v>1.749534368515015</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1091156005859375</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2118,16 +2043,16 @@
         <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G15">
-        <v>2.190835952758789</v>
+        <v>2.28096866607666</v>
       </c>
       <c r="H15">
-        <v>12.50621438026428</v>
+        <v>2.124233961105347</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2144,22 +2069,16 @@
         <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>222</v>
-      </c>
-      <c r="E16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F16" t="s">
-        <v>407</v>
+        <v>221</v>
       </c>
       <c r="G16">
-        <v>1.394801378250122</v>
+        <v>1.468627214431763</v>
       </c>
       <c r="H16">
-        <v>22.66953611373901</v>
+        <v>15.65232849121094</v>
       </c>
       <c r="I16">
-        <v>0.1050930023193359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2173,22 +2092,22 @@
         <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F17" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G17">
-        <v>1.640234231948853</v>
+        <v>1.405899524688721</v>
       </c>
       <c r="H17">
-        <v>22.53842234611511</v>
+        <v>1.436926364898682</v>
       </c>
       <c r="I17">
-        <v>0.1095786094665527</v>
+        <v>0.2499611377716064</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2202,22 +2121,22 @@
         <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F18" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="G18">
-        <v>1.827952861785889</v>
+        <v>1.484024047851562</v>
       </c>
       <c r="H18">
-        <v>1.530894756317139</v>
+        <v>21.199059009552</v>
       </c>
       <c r="I18">
-        <v>0.06222224235534668</v>
+        <v>0.1102590560913086</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2231,22 +2150,22 @@
         <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F19" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G19">
-        <v>1.687325716018677</v>
+        <v>1.421768426895142</v>
       </c>
       <c r="H19">
-        <v>1.359063148498535</v>
+        <v>1.640244245529175</v>
       </c>
       <c r="I19">
-        <v>0.1091108322143555</v>
+        <v>0.1091122627258301</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2260,22 +2179,22 @@
         <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F20" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G20">
-        <v>1.546504497528076</v>
+        <v>1.046629190444946</v>
       </c>
       <c r="H20">
-        <v>22.76089525222778</v>
+        <v>1.796223163604736</v>
       </c>
       <c r="I20">
-        <v>0.1096305847167969</v>
+        <v>0.09395503997802734</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2289,16 +2208,16 @@
         <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G21">
-        <v>1.218729496002197</v>
+        <v>1.296757698059082</v>
       </c>
       <c r="H21">
-        <v>0.876093864440918</v>
+        <v>22.1039559841156</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2315,19 +2234,22 @@
         <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E22" t="s">
-        <v>323</v>
+        <v>321</v>
+      </c>
+      <c r="F22" t="s">
+        <v>402</v>
       </c>
       <c r="G22">
-        <v>1.48399543762207</v>
+        <v>1.280948638916016</v>
       </c>
       <c r="H22">
-        <v>2.390089273452759</v>
+        <v>1.561981201171875</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1094977855682373</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2341,22 +2263,19 @@
         <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
-        <v>324</v>
-      </c>
-      <c r="F23" t="s">
-        <v>412</v>
+        <v>322</v>
       </c>
       <c r="G23">
-        <v>1.327850580215454</v>
+        <v>1.265559673309326</v>
       </c>
       <c r="H23">
-        <v>22.54256463050842</v>
+        <v>1.561898231506348</v>
       </c>
       <c r="I23">
-        <v>0.1093389987945557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2370,19 +2289,16 @@
         <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" t="s">
-        <v>325</v>
+        <v>229</v>
       </c>
       <c r="G24">
-        <v>1.296635627746582</v>
+        <v>1.937034606933594</v>
       </c>
       <c r="H24">
-        <v>1.954329967498779</v>
+        <v>9.466511726379395</v>
       </c>
       <c r="I24">
-        <v>0.06242752075195312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2396,19 +2312,22 @@
         <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E25" t="s">
-        <v>326</v>
+        <v>323</v>
+      </c>
+      <c r="F25" t="s">
+        <v>402</v>
       </c>
       <c r="G25">
-        <v>1.390556573867798</v>
+        <v>1.359045028686523</v>
       </c>
       <c r="H25">
-        <v>1.061981439590454</v>
+        <v>0.1718719005584717</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.09371137619018555</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2422,19 +2341,22 @@
         <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E26" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="F26" t="s">
+        <v>403</v>
       </c>
       <c r="G26">
-        <v>1.906074047088623</v>
+        <v>3.452543497085571</v>
       </c>
       <c r="H26">
-        <v>11.40328812599182</v>
+        <v>1.093250751495361</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>0.06248664855957031</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2448,22 +2370,16 @@
         <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E27" t="s">
-        <v>328</v>
-      </c>
-      <c r="F27" t="s">
-        <v>413</v>
+        <v>232</v>
       </c>
       <c r="G27">
-        <v>1.07808256149292</v>
+        <v>3.530416965484619</v>
       </c>
       <c r="H27">
-        <v>1.530643939971924</v>
+        <v>9.638341665267944</v>
       </c>
       <c r="I27">
-        <v>0.1562342643737793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2477,16 +2393,16 @@
         <v>134</v>
       </c>
       <c r="D28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E28" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G28">
-        <v>1.312485694885254</v>
+        <v>1.327538728713989</v>
       </c>
       <c r="H28">
-        <v>0.9370131492614746</v>
+        <v>0.9685230255126953</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2503,22 +2419,22 @@
         <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E29" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F29" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="G29">
-        <v>2.125240087509155</v>
+        <v>1.155709266662598</v>
       </c>
       <c r="H29">
-        <v>1.624373435974121</v>
+        <v>22.52618741989136</v>
       </c>
       <c r="I29">
-        <v>0.09394097328186035</v>
+        <v>0.1249756813049316</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2532,22 +2448,22 @@
         <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E30" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F30" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="G30">
-        <v>1.67151665687561</v>
+        <v>1.327962875366211</v>
       </c>
       <c r="H30">
-        <v>1.437159538269043</v>
+        <v>1.375729322433472</v>
       </c>
       <c r="I30">
-        <v>0.09372973442077637</v>
+        <v>0.06256294250488281</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2561,22 +2477,22 @@
         <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E31" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F31" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G31">
-        <v>1.32780933380127</v>
+        <v>1.218523502349854</v>
       </c>
       <c r="H31">
-        <v>1.296299934387207</v>
+        <v>0.1249668598175049</v>
       </c>
       <c r="I31">
-        <v>0.2186989784240723</v>
+        <v>0.07804560661315918</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2590,16 +2506,16 @@
         <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G32">
-        <v>1.374637603759766</v>
+        <v>1.437304496765137</v>
       </c>
       <c r="H32">
-        <v>22.16707444190979</v>
+        <v>8.34162974357605</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2616,19 +2532,22 @@
         <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E33" t="s">
-        <v>334</v>
+        <v>330</v>
+      </c>
+      <c r="F33" t="s">
+        <v>405</v>
       </c>
       <c r="G33">
-        <v>2.43683123588562</v>
+        <v>1.093476057052612</v>
       </c>
       <c r="H33">
-        <v>1.642364025115967</v>
+        <v>1.561903953552246</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.09397554397583008</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2642,22 +2561,19 @@
         <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E34" t="s">
-        <v>335</v>
-      </c>
-      <c r="F34" t="s">
-        <v>417</v>
+        <v>331</v>
       </c>
       <c r="G34">
-        <v>1.327817440032959</v>
+        <v>1.218463182449341</v>
       </c>
       <c r="H34">
-        <v>1.452860593795776</v>
+        <v>0.1249699592590332</v>
       </c>
       <c r="I34">
-        <v>0.1249730587005615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2671,16 +2587,16 @@
         <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E35" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G35">
-        <v>1.390536785125732</v>
+        <v>1.874554634094238</v>
       </c>
       <c r="H35">
-        <v>0.7964529991149902</v>
+        <v>27.02485871315002</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2697,16 +2613,16 @@
         <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E36" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G36">
-        <v>1.452806949615479</v>
+        <v>1.358788013458252</v>
       </c>
       <c r="H36">
-        <v>8.388962984085083</v>
+        <v>1.093492269515991</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2723,22 +2639,19 @@
         <v>143</v>
       </c>
       <c r="D37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E37" t="s">
-        <v>338</v>
-      </c>
-      <c r="F37" t="s">
-        <v>418</v>
+        <v>334</v>
       </c>
       <c r="G37">
-        <v>1.452963590621948</v>
+        <v>1.468401670455933</v>
       </c>
       <c r="H37">
-        <v>1.516977548599243</v>
+        <v>7.154826641082764</v>
       </c>
       <c r="I37">
-        <v>0.1093189716339111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2752,22 +2665,19 @@
         <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E38" t="s">
-        <v>339</v>
-      </c>
-      <c r="F38" t="s">
-        <v>419</v>
+        <v>335</v>
       </c>
       <c r="G38">
-        <v>1.859157800674438</v>
+        <v>1.374943256378174</v>
       </c>
       <c r="H38">
-        <v>1.374674558639526</v>
+        <v>0.9213883876800537</v>
       </c>
       <c r="I38">
-        <v>0.06225872039794922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2780,23 +2690,14 @@
       <c r="C39" t="s">
         <v>145</v>
       </c>
-      <c r="D39" t="s">
-        <v>245</v>
-      </c>
-      <c r="E39" t="s">
-        <v>340</v>
-      </c>
-      <c r="F39" t="s">
-        <v>420</v>
-      </c>
       <c r="G39">
-        <v>1.359319448471069</v>
+        <v>0.5153496265411377</v>
       </c>
       <c r="H39">
-        <v>1.359054803848267</v>
+        <v>31.44568991661072</v>
       </c>
       <c r="I39">
-        <v>0.109088659286499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2810,22 +2711,22 @@
         <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E40" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F40" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="G40">
-        <v>1.374376535415649</v>
+        <v>1.359282493591309</v>
       </c>
       <c r="H40">
-        <v>1.733728408813477</v>
+        <v>0.9371988773345947</v>
       </c>
       <c r="I40">
-        <v>0.07837653160095215</v>
+        <v>0.109351634979248</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2839,16 +2740,16 @@
         <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E41" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G41">
-        <v>1.437161207199097</v>
+        <v>1.046630144119263</v>
       </c>
       <c r="H41">
-        <v>0.9062943458557129</v>
+        <v>0.906033992767334</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2864,20 +2765,23 @@
       <c r="C42" t="s">
         <v>148</v>
       </c>
+      <c r="D42" t="s">
+        <v>246</v>
+      </c>
       <c r="E42" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F42" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="G42">
-        <v>0.530881404876709</v>
+        <v>1.561897277832031</v>
       </c>
       <c r="H42">
-        <v>1.608845472335815</v>
+        <v>5.045678853988647</v>
       </c>
       <c r="I42">
-        <v>0.1095104217529297</v>
+        <v>0.09373164176940918</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2891,22 +2795,22 @@
         <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E43" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F43" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="G43">
-        <v>1.827661275863647</v>
+        <v>1.452548503875732</v>
       </c>
       <c r="H43">
-        <v>1.452904224395752</v>
+        <v>1.406151294708252</v>
       </c>
       <c r="I43">
-        <v>0.06259703636169434</v>
+        <v>0.07810378074645996</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2920,22 +2824,16 @@
         <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
-      </c>
-      <c r="E44" t="s">
-        <v>345</v>
-      </c>
-      <c r="F44" t="s">
-        <v>423</v>
+        <v>248</v>
       </c>
       <c r="G44">
-        <v>1.406105756759644</v>
+        <v>0.9372971057891846</v>
       </c>
       <c r="H44">
-        <v>1.265369176864624</v>
+        <v>10.1391909122467</v>
       </c>
       <c r="I44">
-        <v>0.1091835498809814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2949,16 +2847,13 @@
         <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
-      </c>
-      <c r="E45" t="s">
-        <v>346</v>
+        <v>249</v>
       </c>
       <c r="G45">
-        <v>1.452695846557617</v>
+        <v>1.390299797058105</v>
       </c>
       <c r="H45">
-        <v>1.702685832977295</v>
+        <v>11.35690259933472</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2975,22 +2870,22 @@
         <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E46" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F46" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="G46">
-        <v>1.265177488327026</v>
+        <v>1.593377828598022</v>
       </c>
       <c r="H46">
-        <v>1.468254804611206</v>
+        <v>0.1249668598175049</v>
       </c>
       <c r="I46">
-        <v>0.1564435958862305</v>
+        <v>0.1093854904174805</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3004,19 +2899,22 @@
         <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E47" t="s">
-        <v>348</v>
+        <v>341</v>
+      </c>
+      <c r="F47" t="s">
+        <v>408</v>
       </c>
       <c r="G47">
-        <v>1.280840158462524</v>
+        <v>1.452786922454834</v>
       </c>
       <c r="H47">
-        <v>1.640232801437378</v>
+        <v>1.436931610107422</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>0.07828998565673828</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3030,13 +2928,16 @@
         <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="E48" t="s">
+        <v>342</v>
       </c>
       <c r="G48">
-        <v>2.296541929244995</v>
+        <v>1.468248605728149</v>
       </c>
       <c r="H48">
-        <v>9.982064485549927</v>
+        <v>22.52592468261719</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3053,22 +2954,19 @@
         <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E49" t="s">
-        <v>349</v>
-      </c>
-      <c r="F49" t="s">
-        <v>425</v>
+        <v>343</v>
       </c>
       <c r="G49">
-        <v>0.9372742176055908</v>
+        <v>1.812070608139038</v>
       </c>
       <c r="H49">
-        <v>1.593291759490967</v>
+        <v>0.8124687671661377</v>
       </c>
       <c r="I49">
-        <v>0.1094305515289307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3082,22 +2980,22 @@
         <v>156</v>
       </c>
       <c r="D50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E50" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F50" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="G50">
-        <v>1.359318494796753</v>
+        <v>1.265559196472168</v>
       </c>
       <c r="H50">
-        <v>1.6558678150177</v>
+        <v>22.44757556915283</v>
       </c>
       <c r="I50">
-        <v>0.07784104347229004</v>
+        <v>0.09373378753662109</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3111,19 +3009,16 @@
         <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
-      </c>
-      <c r="E51" t="s">
-        <v>351</v>
+        <v>255</v>
       </c>
       <c r="G51">
-        <v>1.405913829803467</v>
+        <v>1.374674558639526</v>
       </c>
       <c r="H51">
-        <v>21.94843339920044</v>
+        <v>0.1249620914459229</v>
       </c>
       <c r="I51">
-        <v>0.09373283386230469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3137,22 +3032,19 @@
         <v>158</v>
       </c>
       <c r="D52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E52" t="s">
-        <v>352</v>
-      </c>
-      <c r="F52" t="s">
-        <v>418</v>
+        <v>345</v>
       </c>
       <c r="G52">
-        <v>2.265139102935791</v>
+        <v>1.515235424041748</v>
       </c>
       <c r="H52">
-        <v>1.374901533126831</v>
+        <v>28.27460145950317</v>
       </c>
       <c r="I52">
-        <v>0.07784509658813477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3166,22 +3058,19 @@
         <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E53" t="s">
-        <v>353</v>
-      </c>
-      <c r="F53" t="s">
-        <v>427</v>
+        <v>346</v>
       </c>
       <c r="G53">
-        <v>1.390280723571777</v>
+        <v>1.374823808670044</v>
       </c>
       <c r="H53">
-        <v>22.62051820755005</v>
+        <v>0.8433945178985596</v>
       </c>
       <c r="I53">
-        <v>0.1564943790435791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3195,16 +3084,16 @@
         <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E54" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G54">
-        <v>1.359318494796753</v>
+        <v>1.452984571456909</v>
       </c>
       <c r="H54">
-        <v>1.078896760940552</v>
+        <v>1.030808210372925</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3221,19 +3110,22 @@
         <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E55" t="s">
-        <v>355</v>
+        <v>348</v>
+      </c>
+      <c r="F55" t="s">
+        <v>409</v>
       </c>
       <c r="G55">
-        <v>1.249442338943481</v>
+        <v>1.280946969985962</v>
       </c>
       <c r="H55">
-        <v>0.9529087543487549</v>
+        <v>1.577746629714966</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>0.1249723434448242</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3247,16 +3139,16 @@
         <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E56" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G56">
-        <v>1.483975887298584</v>
+        <v>1.484024286270142</v>
       </c>
       <c r="H56">
-        <v>1.546551704406738</v>
+        <v>21.18299531936646</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3273,22 +3165,22 @@
         <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E57" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F57" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="G57">
-        <v>1.405916690826416</v>
+        <v>1.359279870986938</v>
       </c>
       <c r="H57">
-        <v>1.671507596969604</v>
+        <v>1.46825385093689</v>
       </c>
       <c r="I57">
-        <v>0.1252014636993408</v>
+        <v>0.1092722415924072</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3302,19 +3194,22 @@
         <v>164</v>
       </c>
       <c r="D58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E58" t="s">
-        <v>358</v>
+        <v>351</v>
+      </c>
+      <c r="F58" t="s">
+        <v>410</v>
       </c>
       <c r="G58">
-        <v>1.312427043914795</v>
+        <v>1.312191724777222</v>
       </c>
       <c r="H58">
-        <v>1.108879804611206</v>
+        <v>22.40095233917236</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>0.1093463897705078</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3328,19 +3223,22 @@
         <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E59" t="s">
-        <v>359</v>
+        <v>352</v>
+      </c>
+      <c r="F59" t="s">
+        <v>402</v>
       </c>
       <c r="G59">
-        <v>2.202744245529175</v>
+        <v>1.374676465988159</v>
       </c>
       <c r="H59">
-        <v>3.686487913131714</v>
+        <v>1.452780723571777</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>0.06248641014099121</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3354,22 +3252,22 @@
         <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E60" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F60" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="G60">
-        <v>1.40592622756958</v>
+        <v>1.390296220779419</v>
       </c>
       <c r="H60">
-        <v>3.014904022216797</v>
+        <v>22.54132509231567</v>
       </c>
       <c r="I60">
-        <v>0.1249763965606689</v>
+        <v>0.09394502639770508</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3383,19 +3281,22 @@
         <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E61" t="s">
-        <v>361</v>
+        <v>354</v>
+      </c>
+      <c r="F61" t="s">
+        <v>411</v>
       </c>
       <c r="G61">
-        <v>1.265591144561768</v>
+        <v>1.14059042930603</v>
       </c>
       <c r="H61">
-        <v>3.78007960319519</v>
+        <v>1.390063762664795</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>0.0624854564666748</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3409,22 +3310,22 @@
         <v>168</v>
       </c>
       <c r="D62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E62" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F62" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="G62">
-        <v>1.640481472015381</v>
+        <v>1.280716896057129</v>
       </c>
       <c r="H62">
-        <v>1.499655246734619</v>
+        <v>1.405914783477783</v>
       </c>
       <c r="I62">
-        <v>0.1090950965881348</v>
+        <v>0.09372758865356445</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3438,19 +3339,19 @@
         <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E63" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G63">
-        <v>1.062193393707275</v>
+        <v>1.593144655227661</v>
       </c>
       <c r="H63">
-        <v>1.547003030776978</v>
+        <v>2.468392848968506</v>
       </c>
       <c r="I63">
-        <v>0.06254005432128906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3464,22 +3365,22 @@
         <v>170</v>
       </c>
       <c r="D64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E64" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F64" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="G64">
-        <v>0.952744722366333</v>
+        <v>1.327817678451538</v>
       </c>
       <c r="H64">
-        <v>1.530885457992554</v>
+        <v>1.515499114990234</v>
       </c>
       <c r="I64">
-        <v>0.1095819473266602</v>
+        <v>0.1405961513519287</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3493,22 +3394,22 @@
         <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E65" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F65" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="G65">
-        <v>1.374887228012085</v>
+        <v>1.343451499938965</v>
       </c>
       <c r="H65">
-        <v>1.624771118164062</v>
+        <v>1.890167236328125</v>
       </c>
       <c r="I65">
-        <v>0.07789349555969238</v>
+        <v>0.06246447563171387</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3521,20 +3422,20 @@
       <c r="C66" t="s">
         <v>172</v>
       </c>
-      <c r="D66" t="s">
-        <v>271</v>
-      </c>
       <c r="E66" t="s">
-        <v>366</v>
+        <v>359</v>
+      </c>
+      <c r="F66" t="s">
+        <v>414</v>
       </c>
       <c r="G66">
-        <v>1.406066417694092</v>
+        <v>0.5779750347137451</v>
       </c>
       <c r="H66">
-        <v>0.9526717662811279</v>
+        <v>1.593388319015503</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>0.109349250793457</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3548,16 +3449,16 @@
         <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E67" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G67">
-        <v>0.9529049396514893</v>
+        <v>1.39054274559021</v>
       </c>
       <c r="H67">
-        <v>1.718423128128052</v>
+        <v>10.10674810409546</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -3574,22 +3475,22 @@
         <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E68" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F68" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="G68">
-        <v>1.687101125717163</v>
+        <v>1.171567440032959</v>
       </c>
       <c r="H68">
-        <v>2.12449049949646</v>
+        <v>21.18297123908997</v>
       </c>
       <c r="I68">
-        <v>0.1091201305389404</v>
+        <v>0.09372758865356445</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3603,19 +3504,22 @@
         <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E69" t="s">
-        <v>369</v>
+        <v>362</v>
+      </c>
+      <c r="F69" t="s">
+        <v>416</v>
       </c>
       <c r="G69">
-        <v>1.702721357345581</v>
+        <v>1.546499729156494</v>
       </c>
       <c r="H69">
-        <v>2.077633380889893</v>
+        <v>1.515533685684204</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>0.07811903953552246</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3629,22 +3533,19 @@
         <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E70" t="s">
-        <v>370</v>
-      </c>
-      <c r="F70" t="s">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="G70">
-        <v>1.233817577362061</v>
+        <v>1.577765464782715</v>
       </c>
       <c r="H70">
-        <v>1.734196424484253</v>
+        <v>1.765192747116089</v>
       </c>
       <c r="I70">
-        <v>0.1249706745147705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3658,22 +3559,22 @@
         <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E71" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F71" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="G71">
-        <v>1.187218427658081</v>
+        <v>1.10909366607666</v>
       </c>
       <c r="H71">
-        <v>1.796720266342163</v>
+        <v>22.44780540466309</v>
       </c>
       <c r="I71">
-        <v>0.07810211181640625</v>
+        <v>0.09376168251037598</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3687,22 +3588,19 @@
         <v>178</v>
       </c>
       <c r="D72" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E72" t="s">
-        <v>372</v>
-      </c>
-      <c r="F72" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="G72">
-        <v>1.843461036682129</v>
+        <v>2.062012910842896</v>
       </c>
       <c r="H72">
-        <v>1.437160968780518</v>
+        <v>1.655847787857056</v>
       </c>
       <c r="I72">
-        <v>0.09358000755310059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3716,19 +3614,22 @@
         <v>179</v>
       </c>
       <c r="D73" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E73" t="s">
-        <v>373</v>
+        <v>366</v>
+      </c>
+      <c r="F73" t="s">
+        <v>401</v>
       </c>
       <c r="G73">
-        <v>7.139017820358276</v>
+        <v>1.437124013900757</v>
       </c>
       <c r="H73">
-        <v>23.83841156959534</v>
+        <v>1.436927080154419</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>0.09399700164794922</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3742,22 +3643,22 @@
         <v>180</v>
       </c>
       <c r="D74" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E74" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F74" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="G74">
-        <v>1.515262842178345</v>
+        <v>3.217834234237671</v>
       </c>
       <c r="H74">
-        <v>1.71852707862854</v>
+        <v>1.34343147277832</v>
       </c>
       <c r="I74">
-        <v>0.1249394416809082</v>
+        <v>0.07810664176940918</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3771,22 +3672,22 @@
         <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E75" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F75" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="G75">
-        <v>1.68710994720459</v>
+        <v>7.748153448104858</v>
       </c>
       <c r="H75">
-        <v>1.452781677246094</v>
+        <v>22.32300209999084</v>
       </c>
       <c r="I75">
-        <v>0.07810187339782715</v>
+        <v>0.124755859375</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3800,22 +3701,19 @@
         <v>182</v>
       </c>
       <c r="D76" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E76" t="s">
-        <v>376</v>
-      </c>
-      <c r="F76" t="s">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="G76">
-        <v>0.9062962532043457</v>
+        <v>1.328027963638306</v>
       </c>
       <c r="H76">
-        <v>5.186280250549316</v>
+        <v>5.202123165130615</v>
       </c>
       <c r="I76">
-        <v>0.1090774536132812</v>
+        <v>0.1091344356536865</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3828,14 +3726,17 @@
       <c r="C77" t="s">
         <v>183</v>
       </c>
+      <c r="D77" t="s">
+        <v>280</v>
+      </c>
       <c r="E77" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G77">
-        <v>0.6404788494110107</v>
+        <v>1.812071084976196</v>
       </c>
       <c r="H77">
-        <v>21.87073636054993</v>
+        <v>6.045443534851074</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -3852,22 +3753,19 @@
         <v>184</v>
       </c>
       <c r="D78" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E78" t="s">
-        <v>378</v>
-      </c>
-      <c r="F78" t="s">
-        <v>438</v>
+        <v>371</v>
       </c>
       <c r="G78">
-        <v>1.046628952026367</v>
+        <v>1.218464136123657</v>
       </c>
       <c r="H78">
-        <v>7.015804052352905</v>
+        <v>9.950773239135742</v>
       </c>
       <c r="I78">
-        <v>0.1091697216033936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3881,22 +3779,16 @@
         <v>185</v>
       </c>
       <c r="D79" t="s">
-        <v>283</v>
-      </c>
-      <c r="E79" t="s">
-        <v>379</v>
-      </c>
-      <c r="F79" t="s">
-        <v>439</v>
+        <v>282</v>
       </c>
       <c r="G79">
-        <v>1.265457630157471</v>
+        <v>1.063174724578857</v>
       </c>
       <c r="H79">
-        <v>1.577983617782593</v>
+        <v>12.09061932563782</v>
       </c>
       <c r="I79">
-        <v>0.06222343444824219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3910,19 +3802,22 @@
         <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E80" t="s">
-        <v>380</v>
+        <v>372</v>
+      </c>
+      <c r="F80" t="s">
+        <v>419</v>
       </c>
       <c r="G80">
-        <v>1.359317541122437</v>
+        <v>1.609027624130249</v>
       </c>
       <c r="H80">
-        <v>10.34116768836975</v>
+        <v>2.421305894851685</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>0.1247053146362305</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3936,22 +3831,22 @@
         <v>187</v>
       </c>
       <c r="D81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E81" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F81" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="G81">
-        <v>1.249934911727905</v>
+        <v>1.218690633773804</v>
       </c>
       <c r="H81">
-        <v>1.374674558639526</v>
+        <v>1.624617338180542</v>
       </c>
       <c r="I81">
-        <v>0.1091179847717285</v>
+        <v>0.07810783386230469</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3964,23 +3859,20 @@
       <c r="C82" t="s">
         <v>188</v>
       </c>
-      <c r="D82" t="s">
-        <v>286</v>
-      </c>
       <c r="E82" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F82" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="G82">
-        <v>1.655727863311768</v>
+        <v>0.5779540538787842</v>
       </c>
       <c r="H82">
-        <v>1.249441623687744</v>
+        <v>1.452548980712891</v>
       </c>
       <c r="I82">
-        <v>0.06274318695068359</v>
+        <v>0.09372806549072266</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3994,16 +3886,13 @@
         <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>287</v>
-      </c>
-      <c r="E83" t="s">
-        <v>383</v>
+        <v>285</v>
       </c>
       <c r="G83">
-        <v>1.437419176101685</v>
+        <v>1.312189340591431</v>
       </c>
       <c r="H83">
-        <v>1.01526141166687</v>
+        <v>11.52856063842773</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -4020,22 +3909,22 @@
         <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E84" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F84" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="G84">
-        <v>1.827463865280151</v>
+        <v>1.577714204788208</v>
       </c>
       <c r="H84">
-        <v>0.7967119216918945</v>
+        <v>1.562095403671265</v>
       </c>
       <c r="I84">
-        <v>0.1093249320983887</v>
+        <v>0.09376239776611328</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4049,16 +3938,22 @@
         <v>191</v>
       </c>
       <c r="D85" t="s">
-        <v>289</v>
+        <v>287</v>
+      </c>
+      <c r="E85" t="s">
+        <v>376</v>
+      </c>
+      <c r="F85" t="s">
+        <v>421</v>
       </c>
       <c r="G85">
-        <v>1.234086990356445</v>
+        <v>1.234118461608887</v>
       </c>
       <c r="H85">
-        <v>9.373010635375977</v>
+        <v>0.2187354564666748</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>0.1405577659606934</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4072,16 +3967,16 @@
         <v>192</v>
       </c>
       <c r="D86" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E86" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G86">
-        <v>1.265340805053711</v>
+        <v>1.749549150466919</v>
       </c>
       <c r="H86">
-        <v>1.484022378921509</v>
+        <v>1.562129020690918</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -4098,19 +3993,22 @@
         <v>193</v>
       </c>
       <c r="D87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E87" t="s">
-        <v>386</v>
+        <v>378</v>
+      </c>
+      <c r="F87" t="s">
+        <v>422</v>
       </c>
       <c r="G87">
-        <v>1.687103033065796</v>
+        <v>1.452821493148804</v>
       </c>
       <c r="H87">
-        <v>0.8433854579925537</v>
+        <v>1.60903000831604</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>0.1093137264251709</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4124,22 +4022,19 @@
         <v>194</v>
       </c>
       <c r="D88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E88" t="s">
-        <v>387</v>
-      </c>
-      <c r="F88" t="s">
-        <v>443</v>
+        <v>379</v>
       </c>
       <c r="G88">
-        <v>1.046538829803467</v>
+        <v>1.062282562255859</v>
       </c>
       <c r="H88">
-        <v>1.280863046646118</v>
+        <v>2.843040466308594</v>
       </c>
       <c r="I88">
-        <v>0.09389615058898926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4153,16 +4048,16 @@
         <v>195</v>
       </c>
       <c r="D89" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E89" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G89">
-        <v>1.68712306022644</v>
+        <v>1.421539068222046</v>
       </c>
       <c r="H89">
-        <v>1.46853232383728</v>
+        <v>2.108839750289917</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4179,22 +4074,19 @@
         <v>196</v>
       </c>
       <c r="D90" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E90" t="s">
-        <v>389</v>
-      </c>
-      <c r="F90" t="s">
-        <v>444</v>
+        <v>381</v>
       </c>
       <c r="G90">
-        <v>1.202860832214355</v>
+        <v>1.421425580978394</v>
       </c>
       <c r="H90">
-        <v>22.51089787483215</v>
+        <v>1.54651665687561</v>
       </c>
       <c r="I90">
-        <v>0.1091187000274658</v>
+        <v>0.1096115112304688</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4207,11 +4099,17 @@
       <c r="C91" t="s">
         <v>197</v>
       </c>
+      <c r="D91" t="s">
+        <v>293</v>
+      </c>
+      <c r="E91" t="s">
+        <v>382</v>
+      </c>
       <c r="G91">
-        <v>0.6404430866241455</v>
+        <v>1.202844381332397</v>
       </c>
       <c r="H91">
-        <v>9.466492891311646</v>
+        <v>21.85443568229675</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -4228,16 +4126,16 @@
         <v>198</v>
       </c>
       <c r="D92" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E92" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G92">
-        <v>0.9997639656066895</v>
+        <v>1.328031778335571</v>
       </c>
       <c r="H92">
-        <v>0.8123364448547363</v>
+        <v>21.91647267341614</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -4254,19 +4152,22 @@
         <v>199</v>
       </c>
       <c r="D93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E93" t="s">
-        <v>391</v>
+        <v>384</v>
+      </c>
+      <c r="F93" t="s">
+        <v>423</v>
       </c>
       <c r="G93">
-        <v>1.218455791473389</v>
+        <v>1.062279939651489</v>
       </c>
       <c r="H93">
-        <v>21.93323040008545</v>
+        <v>1.484022378921509</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>0.1093487739562988</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4280,19 +4181,22 @@
         <v>200</v>
       </c>
       <c r="D94" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E94" t="s">
-        <v>392</v>
+        <v>385</v>
+      </c>
+      <c r="F94" t="s">
+        <v>402</v>
       </c>
       <c r="G94">
-        <v>1.093606948852539</v>
+        <v>1.609223127365112</v>
       </c>
       <c r="H94">
-        <v>1.313066959381104</v>
+        <v>1.296536684036255</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>0.07788848876953125</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4306,22 +4210,19 @@
         <v>201</v>
       </c>
       <c r="D95" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E95" t="s">
-        <v>393</v>
-      </c>
-      <c r="F95" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="G95">
-        <v>1.577540874481201</v>
+        <v>1.374446392059326</v>
       </c>
       <c r="H95">
-        <v>1.468550443649292</v>
+        <v>22.16703176498413</v>
       </c>
       <c r="I95">
-        <v>0.09372401237487793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4335,19 +4236,19 @@
         <v>202</v>
       </c>
       <c r="D96" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E96" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G96">
-        <v>1.187284708023071</v>
+        <v>1.609028577804565</v>
       </c>
       <c r="H96">
-        <v>1.468656778335571</v>
+        <v>1.546504020690918</v>
       </c>
       <c r="I96">
-        <v>0.06238746643066406</v>
+        <v>0.09369301795959473</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4361,22 +4262,16 @@
         <v>203</v>
       </c>
       <c r="D97" t="s">
-        <v>300</v>
-      </c>
-      <c r="E97" t="s">
-        <v>395</v>
-      </c>
-      <c r="F97" t="s">
-        <v>445</v>
+        <v>299</v>
       </c>
       <c r="G97">
-        <v>1.249703168869019</v>
+        <v>2.327579975128174</v>
       </c>
       <c r="H97">
-        <v>1.358962774276733</v>
+        <v>12.9659161567688</v>
       </c>
       <c r="I97">
-        <v>0.09381270408630371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4390,22 +4285,22 @@
         <v>204</v>
       </c>
       <c r="D98" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E98" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F98" t="s">
         <v>402</v>
       </c>
       <c r="G98">
-        <v>0.9529049396514893</v>
+        <v>1.249553203582764</v>
       </c>
       <c r="H98">
-        <v>22.44969797134399</v>
+        <v>1.421531200408936</v>
       </c>
       <c r="I98">
-        <v>0.093994140625</v>
+        <v>0.1248915195465088</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4419,16 +4314,16 @@
         <v>205</v>
       </c>
       <c r="D99" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E99" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G99">
-        <v>1.312348604202271</v>
+        <v>1.374409437179565</v>
       </c>
       <c r="H99">
-        <v>0.983975887298584</v>
+        <v>7.764021396636963</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -4445,22 +4340,19 @@
         <v>206</v>
       </c>
       <c r="D100" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E100" t="s">
-        <v>398</v>
-      </c>
-      <c r="F100" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="G100">
-        <v>1.45278263092041</v>
+        <v>1.296800851821899</v>
       </c>
       <c r="H100">
-        <v>5.186259746551514</v>
+        <v>2.062045335769653</v>
       </c>
       <c r="I100">
-        <v>0.1874711513519287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4474,22 +4366,22 @@
         <v>207</v>
       </c>
       <c r="D101" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E101" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F101" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G101">
-        <v>1.171560764312744</v>
+        <v>1.45277738571167</v>
       </c>
       <c r="H101">
-        <v>22.41795063018799</v>
+        <v>22.71339273452759</v>
       </c>
       <c r="I101">
-        <v>0.1408913135528564</v>
+        <v>0.09371662139892578</v>
       </c>
     </row>
   </sheetData>

--- a/lod_analysis/excels/artists.xlsx
+++ b/lod_analysis/excels/artists.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="435">
   <si>
     <t>artist_id</t>
   </si>
@@ -40,1252 +40,1285 @@
     <t>geonames_download_time</t>
   </si>
   <si>
-    <t>2rGm8R7YDTbqDCVlNssQyL</t>
+    <t>6HD2mo0Gz8wd8IbOXYwUfN</t>
+  </si>
+  <si>
+    <t>2DlGxzQSjYe5N6G9nkYghR</t>
+  </si>
+  <si>
+    <t>5orH1OWgjAYUX8sZ5gihTv</t>
+  </si>
+  <si>
+    <t>2ZvrvbQNrHKwjT7qfGFFUW</t>
+  </si>
+  <si>
+    <t>18JD8DVlD1fakDAw7E9LFC</t>
+  </si>
+  <si>
+    <t>5iNrZmtVMtYev5M9yoWpEq</t>
+  </si>
+  <si>
+    <t>5ApKaVHAStk5kAuyBW1wG8</t>
+  </si>
+  <si>
+    <t>55Aa2cqylxrFIXC767Z865</t>
+  </si>
+  <si>
+    <t>3l0CmX0FuQjFxr8SK7Vqag</t>
+  </si>
+  <si>
+    <t>2NjfBq1NflQcKSeiDooVjY</t>
+  </si>
+  <si>
+    <t>64KEffDW9EtZ1y2vBYgq8T</t>
+  </si>
+  <si>
+    <t>4e5V1Q2dKCzbLVMQ8qbTn6</t>
+  </si>
+  <si>
+    <t>7oPgCQqMMXEXrNau5vxYZP</t>
+  </si>
+  <si>
+    <t>03ilIKH0i08IxmjKcn63ne</t>
+  </si>
+  <si>
+    <t>1g1yxsNVPhMUl9GrMjEb2o</t>
+  </si>
+  <si>
+    <t>2rblp9fJo16ZPTcKDtlmKW</t>
+  </si>
+  <si>
+    <t>56xTxG4nQMAs1GW9kvn0uA</t>
+  </si>
+  <si>
+    <t>5zzrJD2jXrE9dZ1AklRFcL</t>
+  </si>
+  <si>
+    <t>4n31svBA9GGIYxGxgrQaRK</t>
+  </si>
+  <si>
+    <t>7FIoB5PHdrMZVC3q2HE5MS</t>
+  </si>
+  <si>
+    <t>6Rx1JKzBrSzoKQtmbVmBnM</t>
+  </si>
+  <si>
+    <t>2cBh5lVMg222FFuRU7EfDE</t>
+  </si>
+  <si>
+    <t>2d0hyoQ5ynDBnkvAbJKORj</t>
+  </si>
+  <si>
+    <t>5eAWCfyUhZtHHtBdNk56l1</t>
+  </si>
+  <si>
+    <t>2BTZIqw0ntH9MvilQ3ewNY</t>
+  </si>
+  <si>
+    <t>64tNsm6TnZe2zpcMVMOoHL</t>
+  </si>
+  <si>
+    <t>2RdwBSPQiwcmiDo9kixcl8</t>
+  </si>
+  <si>
+    <t>5vCOdeiQt9LyzdI87kt5Sh</t>
+  </si>
+  <si>
+    <t>26VFTg2z8YR0cCuwLzESi2</t>
+  </si>
+  <si>
+    <t>3hozsZ9hqNq7CoBGYNlFTz</t>
+  </si>
+  <si>
+    <t>3qm84nBOXUEQ2vnTfUTTFC</t>
+  </si>
+  <si>
+    <t>4zxvC7CRGvggq9EWXOpwAo</t>
+  </si>
+  <si>
+    <t>6Ff53KvcvAj5U7Z1vojB5o</t>
+  </si>
+  <si>
+    <t>7vFpNLbCXbBFs4kFBUlkSl</t>
+  </si>
+  <si>
+    <t>540vIaP2JwjQb9dm3aArA4</t>
+  </si>
+  <si>
+    <t>07XSN3sPlIlB2L2XNcTwJw</t>
+  </si>
+  <si>
+    <t>6XyY86QOPPrYVGvF9ch6wz</t>
+  </si>
+  <si>
+    <t>3TQ9JTBI2n2hfo7aRONEYV</t>
+  </si>
+  <si>
+    <t>2u0gw0uCWBMiqV7h0N8kai</t>
+  </si>
+  <si>
+    <t>6qXwLwTLdA44HYsA26vaNU</t>
+  </si>
+  <si>
+    <t>4GLJPBj5Cdr9AgLKvLWM4n</t>
+  </si>
+  <si>
+    <t>0cwmNvclzPd8mQnoHuIksj</t>
+  </si>
+  <si>
+    <t>3XsgWn63EnA4wYZBjVyxjf</t>
+  </si>
+  <si>
+    <t>2S5hlvw4CMtMGswFtfdK15</t>
+  </si>
+  <si>
+    <t>6T5tfhQCknKG4UnH90qGnz</t>
+  </si>
+  <si>
+    <t>02QYcz7JjwzKiKGHg53rZY</t>
+  </si>
+  <si>
+    <t>3jK9MiCrA42lLAdMGUZpwa</t>
+  </si>
+  <si>
+    <t>6SLAMfhOi7UJI0fMztaK0m</t>
+  </si>
+  <si>
+    <t>7wqtxqI3eo7Gn1P7SpP6cQ</t>
+  </si>
+  <si>
+    <t>0Nn9YwJzcaeuU1jJL06e3r</t>
+  </si>
+  <si>
+    <t>32lVGr0fSRGT6okLKHiP68</t>
+  </si>
+  <si>
+    <t>7xkAwz0bQTGDSbkofyQt3U</t>
+  </si>
+  <si>
+    <t>7CajNmpbOovFoOoasH2HaY</t>
+  </si>
+  <si>
+    <t>2Zq5OUwXVGPIPw6aBrVIFq</t>
+  </si>
+  <si>
+    <t>07QEuhtrNmmZ0zEcqE9SF6</t>
+  </si>
+  <si>
+    <t>03r4iKL2g2442PT9n2UKsx</t>
+  </si>
+  <si>
+    <t>5tth2a3v0sWwV1C7bApBdX</t>
+  </si>
+  <si>
+    <t>7mlge4peaoNgzTsY6M32RB</t>
+  </si>
+  <si>
+    <t>3X0tJzVYoWlfjLYI0Ridsw</t>
+  </si>
+  <si>
+    <t>36QJpDe2go2KgaRleHCDTp</t>
+  </si>
+  <si>
+    <t>0iVrCROxeyon7MZUW3MfzT</t>
+  </si>
+  <si>
+    <t>0BmLNz4nSLfoWYW1cYsElL</t>
+  </si>
+  <si>
+    <t>7c0XG5cIJTrrAgEC3ULPiq</t>
+  </si>
+  <si>
+    <t>1Yox196W7bzVNZI7RBaPnf</t>
+  </si>
+  <si>
+    <t>4AYkFtEBnNnGuoo8HaHErd</t>
+  </si>
+  <si>
+    <t>5OfhOoKunSnuubxxRML8J3</t>
+  </si>
+  <si>
+    <t>6aq8T2RcspxVOGgMrTzjWc</t>
+  </si>
+  <si>
+    <t>4S2yOnmsWW97dT87yVoaSZ</t>
+  </si>
+  <si>
+    <t>7gP3bB2nilZXLfPHJhMdvc</t>
+  </si>
+  <si>
+    <t>6w7fc6IZlo5zwBaKT5jU1X</t>
+  </si>
+  <si>
+    <t>4P0dddbxPil35MNN9G2MEX</t>
+  </si>
+  <si>
+    <t>6BkcAbUkfIBM4XudxieMq8</t>
+  </si>
+  <si>
+    <t>2m62cc253Xvd9qYQ8d2X3d</t>
+  </si>
+  <si>
+    <t>5BvJzeQpmsdsFp4HGUYUEx</t>
+  </si>
+  <si>
+    <t>07YZf4WDAMNwqr4jfgOZ8y</t>
+  </si>
+  <si>
+    <t>5WUlDfRSoLAfcVSX1WnrxN</t>
+  </si>
+  <si>
+    <t>3AuMNF8rQAKOzjYppFNAoB</t>
+  </si>
+  <si>
+    <t>2QmLFuIDtNDmmJY3OtvinN</t>
+  </si>
+  <si>
+    <t>4sD9znwiVFx9cgRPZ42aQ1</t>
+  </si>
+  <si>
+    <t>6OXILsPD4WNJ7XiGMAkCWa</t>
+  </si>
+  <si>
+    <t>3JsMj0DEzyWc0VDlHuy9Bx</t>
+  </si>
+  <si>
+    <t>64M6ah0SkkRsnPGtGiRAbb</t>
+  </si>
+  <si>
+    <t>3DiDSECUqqY1AuBP8qtaIa</t>
+  </si>
+  <si>
+    <t>2D2qwEatKbBSKhBCfP6lyn</t>
+  </si>
+  <si>
+    <t>3TVXtAsR1Inumwj472S9r4</t>
   </si>
   <si>
     <t>4RVnAU35WRWra6OZ3CbbMA</t>
   </si>
   <si>
-    <t>3YcBF2ttyueytpXtEzn1Za</t>
-  </si>
-  <si>
-    <t>4VhL8KLjVso4vLfOLVViTb</t>
-  </si>
-  <si>
-    <t>3HVdAiMNjYrQIKlOGxoGh5</t>
-  </si>
-  <si>
-    <t>4463nfFMmK1cwAWBQDwT5e</t>
-  </si>
-  <si>
-    <t>3oAazIwC0nAYkOKVQPUC38</t>
-  </si>
-  <si>
-    <t>08yf5A2nS4XEeNvabDXqyg</t>
-  </si>
-  <si>
-    <t>12Chz98pHFMPJEknJQMWvI</t>
-  </si>
-  <si>
-    <t>1jQDgp9Fak4WYVZedWLF4G</t>
-  </si>
-  <si>
-    <t>4e5V1Q2dKCzbLVMQ8qbTn6</t>
-  </si>
-  <si>
-    <t>0oSGxfWSnnOXhD2fKuz2Gy</t>
-  </si>
-  <si>
-    <t>4W48hZAnAHVOC2c8WH8pcq</t>
-  </si>
-  <si>
-    <t>0X2BH1fck6amBIoJhDVmmJ</t>
-  </si>
-  <si>
-    <t>5veVxxPm1vzgi6pO2iVA8L</t>
-  </si>
-  <si>
-    <t>2bcrMsFlF632EQ6VZERWFu</t>
-  </si>
-  <si>
-    <t>5ksRONqssB7BR161NTtJAm</t>
-  </si>
-  <si>
-    <t>4iudEcmuPlYNdbP3e1bdn1</t>
-  </si>
-  <si>
-    <t>5NGO30tJxFlKixkPSgXcFE</t>
-  </si>
-  <si>
-    <t>34v5MVKeQnIo0CWYMbbrPf</t>
-  </si>
-  <si>
-    <t>1HxJeLhIuegM3KgvPn8sTa</t>
-  </si>
-  <si>
-    <t>3XHO7cRUPCLOr6jwp8vsx5</t>
-  </si>
-  <si>
-    <t>4kYSro6naA4h99UJvo89HB</t>
-  </si>
-  <si>
-    <t>0Je74SitssvJg1w4Ra2EK7</t>
-  </si>
-  <si>
-    <t>3aBkeBhwadnWMWoVJ2CxJC</t>
-  </si>
-  <si>
-    <t>1Fmb52lZ6Jv7FMWXXTPO3K</t>
-  </si>
-  <si>
-    <t>2y8Jo9CKhJvtfeKOsYzRdT</t>
-  </si>
-  <si>
-    <t>2aYJ5LAta2ScCdfLhKgZOY</t>
-  </si>
-  <si>
-    <t>3Y10boYzeuFCJ4Qgp53w6o</t>
-  </si>
-  <si>
-    <t>14Gi3Uph96lpNB3utkoVAD</t>
-  </si>
-  <si>
-    <t>4tX2TplrkIP4v05BNC903e</t>
-  </si>
-  <si>
-    <t>6BkcAbUkfIBM4XudxieMq8</t>
-  </si>
-  <si>
-    <t>1aX2dmV8XoHYCOQRxjPESG</t>
-  </si>
-  <si>
-    <t>6zFYqv1mOsgBRQbae3JJ9e</t>
-  </si>
-  <si>
-    <t>2SwhNukah1MYpLR594PnuC</t>
-  </si>
-  <si>
-    <t>4f9iBmdUOhQWeP7dcAn1pf</t>
-  </si>
-  <si>
-    <t>2RE8NwNxsOyuNZDD0jRxHP</t>
-  </si>
-  <si>
-    <t>4A0TivfinfALCAMJqqjZIk</t>
-  </si>
-  <si>
-    <t>3r17AfJCCUqC9Lf0OAc73G</t>
-  </si>
-  <si>
-    <t>6lHL3ubAMgSasKjNqKb8HF</t>
-  </si>
-  <si>
-    <t>5nCi3BB41mBaMH9gfr6Su0</t>
-  </si>
-  <si>
-    <t>3NZE8jDD2cCzd4vUyZ5CQQ</t>
-  </si>
-  <si>
-    <t>3TQ9JTBI2n2hfo7aRONEYV</t>
-  </si>
-  <si>
-    <t>7LnaAXbDVIL75IVPnndf7w</t>
-  </si>
-  <si>
-    <t>4EnEZVjo3w1cwcQYePccay</t>
-  </si>
-  <si>
-    <t>4opTS86dN9uO313J9CE8xg</t>
-  </si>
-  <si>
-    <t>4yiQZ8tQPux8cPriYMWUFP</t>
-  </si>
-  <si>
-    <t>1YB5pnFfL7Y2vjRJLPxaLU</t>
-  </si>
-  <si>
-    <t>2wpWOzQE5TpA0dVnh5YD08</t>
-  </si>
-  <si>
-    <t>6TLwD7HPWuiOzvXEa3oCNe</t>
-  </si>
-  <si>
-    <t>0z4gvV4rjIZ9wHck67ucSV</t>
-  </si>
-  <si>
-    <t>7bvcQXJHkFiN1ppIN3q4fi</t>
-  </si>
-  <si>
-    <t>2dd5mrQZvg6SmahdgVKDzh</t>
-  </si>
-  <si>
-    <t>69Mj3u4FTUrpyeGNSIaU6F</t>
-  </si>
-  <si>
-    <t>6XyY86QOPPrYVGvF9ch6wz</t>
-  </si>
-  <si>
-    <t>4gzpq5DPGxSnKTe4SA8HAU</t>
+    <t>0nyc9SZGLITSOJASmTZsnZ</t>
+  </si>
+  <si>
+    <t>4uN3DsfENc7dp0OLO0FEIb</t>
+  </si>
+  <si>
+    <t>1n0pe6Cx9pCNvXYkX9TTLX</t>
+  </si>
+  <si>
+    <t>3C6chBmZ9wzisBhoh8G2nK</t>
+  </si>
+  <si>
+    <t>2YTbBGa3Tf2rRPhiJxWoUN</t>
+  </si>
+  <si>
+    <t>2LhsePRtgCo4THVKULQBL7</t>
   </si>
   <si>
     <t>7uhvDINTTiD0XBrP9fquN1</t>
   </si>
   <si>
-    <t>0Nn9YwJzcaeuU1jJL06e3r</t>
-  </si>
-  <si>
-    <t>6T5tfhQCknKG4UnH90qGnz</t>
-  </si>
-  <si>
-    <t>7wqtxqI3eo7Gn1P7SpP6cQ</t>
-  </si>
-  <si>
-    <t>4njdEjTnLfcGImKZu1iSrz</t>
-  </si>
-  <si>
-    <t>6Rx1JKzBrSzoKQtmbVmBnM</t>
-  </si>
-  <si>
-    <t>5xUf6j4upBrXZPg6AI4MRK</t>
-  </si>
-  <si>
-    <t>27T030eWyCQRmDyuvr1kxY</t>
-  </si>
-  <si>
-    <t>2jzc5TC5TVFLXQlBNiIUzE</t>
-  </si>
-  <si>
-    <t>4rGrN4XDYhP6dUAZMvcuHr</t>
-  </si>
-  <si>
-    <t>20p5D2KrE8CGuOjHtxsyTp</t>
-  </si>
-  <si>
-    <t>2u0gw0uCWBMiqV7h0N8kai</t>
-  </si>
-  <si>
-    <t>43ZHCT0cAZBISjO8DG9PnE</t>
-  </si>
-  <si>
-    <t>0lZoBs4Pzo7R89JM9lxwoT</t>
-  </si>
-  <si>
-    <t>5yG7ZAZafVaAlMTeBybKAL</t>
-  </si>
-  <si>
-    <t>0z5DFXmhT4ZNzWElsM7V89</t>
-  </si>
-  <si>
-    <t>5sD1ZLf2dGQ9gQ3YJl1eAd</t>
-  </si>
-  <si>
-    <t>7Ln80lUS6He07XvHI8qqHH</t>
-  </si>
-  <si>
-    <t>2TzHIUhVpeeDxyJPpQfnV3</t>
-  </si>
-  <si>
-    <t>4LLpKhyESsyAXpc4laK94U</t>
-  </si>
-  <si>
-    <t>3C6chBmZ9wzisBhoh8G2nK</t>
-  </si>
-  <si>
-    <t>3SYGWAHCe31oykdeUPpoJp</t>
-  </si>
-  <si>
-    <t>1VBflYyxBhnDc9uVib98rw</t>
-  </si>
-  <si>
-    <t>3TNt4aUIxgfy9aoaft5Jj2</t>
-  </si>
-  <si>
-    <t>057gc1fxmJ2vkctjQJ7Tal</t>
-  </si>
-  <si>
-    <t>4y5wqoJUmlvr9xV6l5lO4b</t>
-  </si>
-  <si>
-    <t>1l8Fu6IkuTP0U5QetQJ5Xt</t>
-  </si>
-  <si>
-    <t>7A9yZMTrFZcgEWAX2kBfK6</t>
-  </si>
-  <si>
-    <t>2tIP7SsRs7vjIcLrU85W8J</t>
-  </si>
-  <si>
-    <t>3M4ThdJR28z9eSMcQHAZ5G</t>
-  </si>
-  <si>
-    <t>5EvFsr3kj42KNv97ZEnqij</t>
-  </si>
-  <si>
-    <t>19ra5tSw0tWufvUp8GotLo</t>
-  </si>
-  <si>
-    <t>6VX2R9L0O0d6qPvqGuIH7b</t>
-  </si>
-  <si>
-    <t>2rblp9fJo16ZPTcKDtlmKW</t>
-  </si>
-  <si>
-    <t>5gxynDEKwNDgxGJmJjZyte</t>
-  </si>
-  <si>
-    <t>5P5FTygHyx2G57oszR3Wot</t>
-  </si>
-  <si>
-    <t>0Grjlu7ncIuCaSYvCs9fcd</t>
-  </si>
-  <si>
-    <t>7ip3CWlgPZbQHvgJpmcGSS</t>
-  </si>
-  <si>
-    <t>0yNLKJebCb8Aueb54LYya3</t>
-  </si>
-  <si>
-    <t>15UsOTVnJzReFVN1VCnxy4</t>
-  </si>
-  <si>
-    <t>6TcnmlCSxihzWOQJ8k0rNS</t>
-  </si>
-  <si>
-    <t>1Cs0zKBU1kc0i8ypK3B9ai</t>
-  </si>
-  <si>
-    <t>4phGZZrJZRo4ElhRtViYdl</t>
-  </si>
-  <si>
-    <t>5BcAKTbp20cv7tC5VqPFoC</t>
-  </si>
-  <si>
-    <t>DNA</t>
+    <t>2ye2Wgw4gimLv2eAKyk1NB</t>
+  </si>
+  <si>
+    <t>1uNFoZAHBGtllmzznpCI3s</t>
+  </si>
+  <si>
+    <t>63yrD80RY3RNEM2YDpUpO8</t>
+  </si>
+  <si>
+    <t>4tZwfgrHOc3mvqYlEYSvVi</t>
+  </si>
+  <si>
+    <t>7Js6Lde8thlIHXggv2SCBz</t>
+  </si>
+  <si>
+    <t>4tpUmLEVLCGFr93o8hFFIB</t>
+  </si>
+  <si>
+    <t>3fMbdgg4jU18AjLCKBhRSm</t>
+  </si>
+  <si>
+    <t>Daniel Merriweather</t>
+  </si>
+  <si>
+    <t>Jennifer Lopez</t>
+  </si>
+  <si>
+    <t>Geri Halliwell</t>
+  </si>
+  <si>
+    <t>Herbie Hancock</t>
+  </si>
+  <si>
+    <t>2 Unlimited</t>
+  </si>
+  <si>
+    <t>Seeb</t>
+  </si>
+  <si>
+    <t>Yazz</t>
+  </si>
+  <si>
+    <t>Lil Wayne</t>
+  </si>
+  <si>
+    <t>Clairo</t>
+  </si>
+  <si>
+    <t>Tones And I</t>
+  </si>
+  <si>
+    <t>Marshmello</t>
+  </si>
+  <si>
+    <t>Collective Soul</t>
+  </si>
+  <si>
+    <t>Tracy Chapman</t>
+  </si>
+  <si>
+    <t>Drake Bell</t>
+  </si>
+  <si>
+    <t>Plain White T's</t>
+  </si>
+  <si>
+    <t>MC Hammer</t>
+  </si>
+  <si>
+    <t>Wanz</t>
+  </si>
+  <si>
+    <t>KT Tunstall</t>
+  </si>
+  <si>
+    <t>George Thorogood &amp; The Destroyers</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Hayley Williams</t>
+  </si>
+  <si>
+    <t>Sophie Ellis-Bextor</t>
+  </si>
+  <si>
+    <t>Rage Against The Machine</t>
+  </si>
+  <si>
+    <t>System Of A Down</t>
+  </si>
+  <si>
+    <t>Cyndi Lauper</t>
+  </si>
+  <si>
+    <t>Alice In Chains</t>
+  </si>
+  <si>
+    <t>Pharrell Williams</t>
+  </si>
+  <si>
+    <t>AronChupa</t>
+  </si>
+  <si>
+    <t>Halsey</t>
+  </si>
+  <si>
+    <t>OK Go</t>
+  </si>
+  <si>
+    <t>Guns N' Roses</t>
+  </si>
+  <si>
+    <t>Kiesza</t>
+  </si>
+  <si>
+    <t>*NSYNC</t>
+  </si>
+  <si>
+    <t>Zombie Nation</t>
+  </si>
+  <si>
+    <t>DJ Snake</t>
+  </si>
+  <si>
+    <t>KISS</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>Sir Mix-A-Lot</t>
+  </si>
+  <si>
+    <t>Wet Wet Wet</t>
+  </si>
+  <si>
+    <t>Tonic</t>
+  </si>
+  <si>
+    <t>Dragonette</t>
+  </si>
+  <si>
+    <t>Vengaboys</t>
+  </si>
+  <si>
+    <t>Ugly Kid Joe</t>
+  </si>
+  <si>
+    <t>Royal Blood</t>
+  </si>
+  <si>
+    <t>DNCE</t>
+  </si>
+  <si>
+    <t>Sasha</t>
+  </si>
+  <si>
+    <t>Anderson .Paak</t>
+  </si>
+  <si>
+    <t>Rainbow</t>
+  </si>
+  <si>
+    <t>Salt-N-Pepa</t>
+  </si>
+  <si>
+    <t>The Knack</t>
+  </si>
+  <si>
+    <t>Taylor Dayne</t>
+  </si>
+  <si>
+    <t>Belinda Carlisle</t>
+  </si>
+  <si>
+    <t>Calvin Harris</t>
+  </si>
+  <si>
+    <t>Colin Peter</t>
+  </si>
+  <si>
+    <t>Owl City</t>
+  </si>
+  <si>
+    <t>Beastie Boys</t>
+  </si>
+  <si>
+    <t>Lil' Kim</t>
+  </si>
+  <si>
+    <t>Marianne Faithfull</t>
+  </si>
+  <si>
+    <t>Suzanne Vega</t>
+  </si>
+  <si>
+    <t>Led Zeppelin</t>
+  </si>
+  <si>
+    <t>Montell Jordan</t>
+  </si>
+  <si>
+    <t>Alexandra Stan</t>
+  </si>
+  <si>
+    <t>Ty Dolla $ign</t>
+  </si>
+  <si>
+    <t>Megadeth</t>
+  </si>
+  <si>
+    <t>Madness</t>
+  </si>
+  <si>
+    <t>Mr. Big</t>
+  </si>
+  <si>
+    <t>Soft Cell</t>
+  </si>
+  <si>
+    <t>NOFX</t>
+  </si>
+  <si>
+    <t>Foster The People</t>
+  </si>
+  <si>
+    <t>The Lemonheads</t>
+  </si>
+  <si>
+    <t>Cypress Hill</t>
+  </si>
+  <si>
+    <t>Dr. Alban</t>
+  </si>
+  <si>
+    <t>The Alan Parsons Project</t>
+  </si>
+  <si>
+    <t>Vampire Weekend</t>
+  </si>
+  <si>
+    <t>Jason Derulo</t>
+  </si>
+  <si>
+    <t>Sia</t>
+  </si>
+  <si>
+    <t>Kelly Rowland</t>
+  </si>
+  <si>
+    <t>Meredith Brooks</t>
+  </si>
+  <si>
+    <t>Sinéad O'Connor</t>
+  </si>
+  <si>
+    <t>Bad Boys Blue</t>
+  </si>
+  <si>
+    <t>Supertramp</t>
+  </si>
+  <si>
+    <t>Bebe Rexha</t>
+  </si>
+  <si>
+    <t>Alicia Keys</t>
+  </si>
+  <si>
+    <t>Bodeans</t>
+  </si>
+  <si>
+    <t>Drake</t>
   </si>
   <si>
     <t>Kylie Minogue</t>
   </si>
   <si>
-    <t>Incubus</t>
-  </si>
-  <si>
-    <t>Bridgit Mendler</t>
-  </si>
-  <si>
-    <t>Rob Zombie</t>
-  </si>
-  <si>
-    <t>Laura Branigan</t>
-  </si>
-  <si>
-    <t>Sirah</t>
-  </si>
-  <si>
-    <t>Billy Talent</t>
-  </si>
-  <si>
-    <t>Muse</t>
-  </si>
-  <si>
-    <t>The Biz</t>
-  </si>
-  <si>
-    <t>Collective Soul</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>The Temper Trap</t>
-  </si>
-  <si>
-    <t>Ellie Goulding</t>
-  </si>
-  <si>
-    <t>Bruno Martini</t>
-  </si>
-  <si>
-    <t>The Bravery</t>
-  </si>
-  <si>
-    <t>Ace of Base</t>
-  </si>
-  <si>
-    <t>Silverchair</t>
-  </si>
-  <si>
-    <t>The Police</t>
-  </si>
-  <si>
-    <t>John Newman</t>
-  </si>
-  <si>
-    <t>Jack Ü</t>
-  </si>
-  <si>
-    <t>alt-J</t>
-  </si>
-  <si>
-    <t>Cardi B</t>
-  </si>
-  <si>
-    <t>4 Non Blondes</t>
-  </si>
-  <si>
-    <t>Rob Thomas</t>
-  </si>
-  <si>
-    <t>Joan Jett &amp; The Blackhearts</t>
-  </si>
-  <si>
-    <t>Rod Stewart</t>
-  </si>
-  <si>
-    <t>Cobra Starship</t>
-  </si>
-  <si>
-    <t>Scissor Sisters</t>
-  </si>
-  <si>
-    <t>Hard-FI</t>
-  </si>
-  <si>
-    <t>Tom Petty and the Heartbreakers</t>
-  </si>
-  <si>
-    <t>Dr. Alban</t>
-  </si>
-  <si>
-    <t>The Human League</t>
-  </si>
-  <si>
-    <t>Billy Joel</t>
-  </si>
-  <si>
-    <t>Steve Edwards</t>
-  </si>
-  <si>
-    <t>Rag'n'Bone Man</t>
-  </si>
-  <si>
-    <t>Kool Moe Dee</t>
-  </si>
-  <si>
-    <t>Funk Wav</t>
-  </si>
-  <si>
-    <t>Fergie</t>
-  </si>
-  <si>
-    <t>Mýa</t>
-  </si>
-  <si>
-    <t>fun.</t>
-  </si>
-  <si>
-    <t>Spacehog</t>
-  </si>
-  <si>
-    <t>Sir Mix-A-Lot</t>
-  </si>
-  <si>
-    <t>Jamie Foxx</t>
-  </si>
-  <si>
-    <t>N.W.A.</t>
-  </si>
-  <si>
-    <t>Skid Row</t>
-  </si>
-  <si>
-    <t>Gwen Stefani</t>
-  </si>
-  <si>
-    <t>Sabrina</t>
-  </si>
-  <si>
-    <t>Bronski Beat</t>
-  </si>
-  <si>
-    <t>Oliver Tree</t>
-  </si>
-  <si>
-    <t>Akon</t>
-  </si>
-  <si>
-    <t>Joss Stone</t>
-  </si>
-  <si>
-    <t>PSY</t>
-  </si>
-  <si>
-    <t>The J. Geils Band</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
-  </si>
-  <si>
-    <t>Coldplay</t>
+    <t>LEN</t>
+  </si>
+  <si>
+    <t>Sugar Ray</t>
+  </si>
+  <si>
+    <t>Real Life</t>
+  </si>
+  <si>
+    <t>Naked Eyes</t>
+  </si>
+  <si>
+    <t>Camouflage</t>
+  </si>
+  <si>
+    <t>L.V.</t>
   </si>
   <si>
     <t>The Hooters</t>
   </si>
   <si>
-    <t>The Knack</t>
-  </si>
-  <si>
-    <t>DNCE</t>
-  </si>
-  <si>
-    <t>Salt-N-Pepa</t>
-  </si>
-  <si>
-    <t>AWOLNATION</t>
-  </si>
-  <si>
-    <t>Hayley Williams</t>
-  </si>
-  <si>
-    <t>Soundgarden</t>
-  </si>
-  <si>
-    <t>Scorpions</t>
-  </si>
-  <si>
-    <t>a-ha</t>
-  </si>
-  <si>
-    <t>Caesars</t>
-  </si>
-  <si>
-    <t>Fine Young Cannibals</t>
-  </si>
-  <si>
-    <t>Wet Wet Wet</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Duran Duran</t>
-  </si>
-  <si>
-    <t>Iggy Azalea</t>
-  </si>
-  <si>
-    <t>Erasure</t>
-  </si>
-  <si>
-    <t>Blind Melon</t>
-  </si>
-  <si>
-    <t>Arctic Monkeys</t>
-  </si>
-  <si>
-    <t>Katrina &amp; The Waves</t>
-  </si>
-  <si>
-    <t>Mac Miller</t>
-  </si>
-  <si>
-    <t>Naked Eyes</t>
-  </si>
-  <si>
-    <t>Miranda Cosgrove</t>
-  </si>
-  <si>
-    <t>Icona Pop</t>
-  </si>
-  <si>
-    <t>Yeah Yeah Yeahs</t>
-  </si>
-  <si>
-    <t>The Buggles</t>
-  </si>
-  <si>
-    <t>Carl Ward</t>
-  </si>
-  <si>
-    <t>Fifth Harmony</t>
-  </si>
-  <si>
-    <t>Huey Lewis &amp; The News</t>
-  </si>
-  <si>
-    <t>The Kid LAROI</t>
-  </si>
-  <si>
-    <t>The Fratellis</t>
-  </si>
-  <si>
-    <t>Shaggy</t>
-  </si>
-  <si>
-    <t>George Michael</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>MC Hammer</t>
-  </si>
-  <si>
-    <t>Steve Winwood</t>
-  </si>
-  <si>
-    <t>Daughtry</t>
-  </si>
-  <si>
-    <t>New Radicals</t>
-  </si>
-  <si>
-    <t>Peter Schilling</t>
-  </si>
-  <si>
-    <t>New Order</t>
-  </si>
-  <si>
-    <t>XXXTENTACION</t>
-  </si>
-  <si>
-    <t>Third Eye Blind</t>
-  </si>
-  <si>
-    <t>David Guetta</t>
-  </si>
-  <si>
-    <t>Jason Mraz</t>
-  </si>
-  <si>
-    <t>Macklemore &amp; Ryan Lewis</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Dna-battle-rapper', 'annotations': {'description': '&lt;p&gt;Born in Queens, New York on April 17, 1991, Eric St. John (aka DNA) is an American battle rapper and MC, and is one of the most-viewed English-speaking battle rappers of all time.&lt;/p&gt;\n\n&lt;p&gt;Starting his battle career on Grind Time Now, DNA is known for his wordplay, schemes, charisma, and sense of humor in the ring.  He has used these strengths to create multiple classics and otherwise solid battles on leagues like URL, King of the Dot, Don’t Flop, and many more.&lt;/p&gt;\n\n&lt;p&gt;Below is a list of all of DNA’s league battles (in chronological order):&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2009&lt;/b&gt;&lt;br&gt;\n#1. Amzilla vs. DNA (4-11-2009^)&lt;br&gt;\n#2. DNA vs. Prophit (5-28-2009^)&lt;br&gt;\n#3. DNA vs. AKA (6-29-2009^)&lt;br&gt;\n#4. DNA vs. Lil\' Farnum (7-11-2009)&lt;br&gt;\n#5. DNA vs. Loe Pesci (9-1-2009)&lt;br&gt;\n#6. DNA vs. Pnut (9-4-2009)&lt;br&gt;\n#7. &lt;a href="https://genius.com/Grind-time-now-dna-vs-rone-2009-lyrics" rel="noopener" data-api_path="/songs/2330317"&gt;DNA vs. Rone (9-30-2009^)&lt;/a&gt;&lt;br&gt;\n#8. &lt;a href="https://genius.com/Grind-time-now-soul-khan-and-dna-vs-rone-and-zm-lyrics" rel="noopener" data-api_path="/songs/2329572"&gt;DNA &amp;amp; Soul Khan vs. Rone &amp;amp; ZM (12-23-2009)&lt;/a&gt;&lt;br&gt;\n#9. Rich Dolarz vs. DNA (12-23-2009)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2010&lt;/b&gt;&lt;br&gt;\n#10. Oun P vs. DNA (2-6-2010)&lt;br&gt;\n#11. Tsu Surf vs. DNA (2-27-2010)&lt;br&gt;\n#12. Big T vs. DNA (9-26-2010)&lt;br&gt;\n#13. &lt;a href="https://genius.com/Time-is-money-dna-vs-t-rex-lyrics" rel="noopener" data-api_path="/songs/4351726"&gt;DNA vs. T-Rex (10-?-2010)&lt;/a&gt;&lt;br&gt;\n#14. Gage vs. DNA (12-27-2010^)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2011&lt;/b&gt;&lt;br&gt;\n#15. &lt;a href="https://genius.com/Urltv-dna-vs-yung-ill-lyrics" rel="noopener" data-api_path="/songs/4295037"&gt;DNA vs. Yung Ill (3-27-2011)&lt;/a&gt;&lt;br&gt;\n#16. DNA vs. X-Factor (8-7-2011)&lt;br&gt;\n#17. &lt;a href="https://genius.com/King-of-the-dot-dizaster-vs-dna-lyrics" rel="noopener" data-api_path="/songs/149911"&gt;Dizaster vs. DNA (11-5-2011)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2012&lt;/b&gt;&lt;br&gt;\n#18. &lt;a href="https://genius.com/Urltv-dna-vs-tech-9-lyrics" rel="noopener" data-api_path="/songs/4433935"&gt;DNA vs. Tech 9 (3-25-2012)&lt;/a&gt;&lt;br&gt;\n#19. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-eurgh-lyrics" rel="noopener" data-api_path="/songs/2823267"&gt;DNA vs. Eurgh (6-9-2012)&lt;/a&gt;&lt;br&gt;\n#20. &lt;a href="https://genius.com/Urltv-dna-vs-e-ness-lyrics" rel="noopener" data-api_path="/songs/7119637"&gt;DNA vs. E. Ness (8-19-2012)&lt;/a&gt;&lt;br&gt;\n#21. DNA vs. Sensa (10-24-2012)&lt;br&gt;\n#22. Michael Blackson vs. DNA (10-25-2012^)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2013&lt;/b&gt;&lt;br&gt;\n#23. &lt;a href="https://genius.com/Urltv-dna-vs-k-shine-lyrics" rel="noopener" data-api_path="/songs/2445743"&gt;DNA vs. K-Shine (3-8-2013)&lt;/a&gt;&lt;br&gt;\n#24. DNA vs. Anecdote (3-16-2013)&lt;br&gt;\n#25. &lt;a href="https://genius.com/King-of-the-dot-the-saurus-vs-dna-lyrics" rel="noopener" data-api_path="/songs/3124095"&gt;The Saurus vs. DNA (3-22-2013)&lt;/a&gt;&lt;br&gt;\n#26. S. Youngin vs DNA (3-29-13)&lt;br&gt;\n#27. Unanymous &amp;amp; Chris Leese vs. Charlie Clips &amp;amp; DNA (4-27-2013)&lt;br&gt;\n#28. &lt;a href="https://genius.com/Dont-flop-arsonal-vs-dna-lyrics" rel="noopener" data-api_path="/songs/226905"&gt;Arsonal vs. DNA (4-27-2013)&lt;/a&gt;&lt;br&gt;\n#29. &lt;a href="https://genius.com/Urltv-dna-vs-chilla-jones-lyrics" rel="noopener" data-api_path="/songs/2442324"&gt;DNA vs. Chilla Jones (6-23-2013)&lt;/a&gt;&lt;br&gt;\n#30. &lt;a href="https://genius.com/King-of-the-dot-charron-vs-dna-lyrics" rel="noopener" data-api_path="/songs/2434650"&gt;Charron vs. DNA (8-23-2013)&lt;/a&gt;&lt;br&gt;\n#31. Pass vs. DNA (10-12-2013)&lt;br&gt;\n#32. DNA vs. Midwest Miles (10-19-2013)&lt;br&gt;\n#33. &lt;a href="https://genius.com/Urltv-b-magic-vs-dna-lyrics" rel="noopener" data-api_path="/songs/2437750"&gt;B Magic vs. DNA (10-26-2013)&lt;/a&gt;&lt;br&gt;\n#34. DNA &amp;amp; Cortez vs. Scizzahz &amp;amp; Wizard (11-9-2013)&lt;br&gt;\n#35. Villun vs. DNA (11-10-2013)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2014&lt;/b&gt;&lt;br&gt;\n#36. DNA vs. Calicoe (1-5-2014)&lt;br&gt;\n#37. Arcane vs. DNA (1-24-2014)&lt;br&gt;\n#38. DNA vs Young Kannon (3-24-2014) (Vaulted)&lt;br&gt;\n#39. &lt;a href="https://genius.com/Urltv-dna-vs-prez-mafia-lyrics" rel="noopener" data-api_path="/songs/5053412"&gt;DNA vs. Prez Mafia (5-17-2014)&lt;/a&gt;&lt;br&gt;\n#40. DNA vs. Celebrity Cell (5-31-2014)&lt;br&gt;\n#41. DNA vs. Ill Will (6-7-2014)&lt;br&gt;\n#42. &lt;a href="https://genius.com/King-of-the-dot-ar-and-talksic-vs-dna-and-charron-lyrics" rel="noopener" data-api_path="/songs/2866136"&gt;AR &amp;amp; Talksic vs. DNA &amp;amp; Charron (9-24-2014^)&lt;/a&gt;&lt;br&gt;\n#43. &lt;a href="https://genius.com/Urltv-tay-roc-vs-dna-lyrics" rel="noopener" data-api_path="/songs/2407818"&gt;Tay Roc vs. DNA (9-26-2014)&lt;/a&gt;&lt;br&gt;\n#44. DNA vs. Sketch Menace (10-4-2014)&lt;br&gt;\n#45. DNA vs. Sonny Bamboo (11-1-2014)&lt;br&gt;\n#46. DNA vs. M. Ciddy (11-8-2014)&lt;br&gt;\n#47. Cruger vs. DNA (11-15-2014)&lt;br&gt;\n#48. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-rone-2014-lyrics" rel="noopener" data-api_path="/songs/2322297"&gt;DNA vs. Rone (REMATCH) [11-22-2014]&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2015&lt;/b&gt;&lt;br&gt;\n#49. &lt;a href="https://genius.com/King-of-the-dot-illmaculate-vs-dna-lyrics" rel="noopener" data-api_path="/songs/3363364"&gt;Illmaculate vs. DNA (2-7-2015)&lt;/a&gt;&lt;br&gt;\n#50. DNA vs. Chess (3-27-2015)&lt;br&gt;\n#51. DNA &amp;amp; K-Shine vs. John John Da Don &amp;amp; Syahboy (4-4-2015)&lt;br&gt;\n#52. &lt;a href="https://genius.com/Urltv-serius-jones-vs-dna-lyrics" rel="noopener" data-api_path="/songs/5369135"&gt;Serius Jones vs. DNA (5-9-2015)&lt;/a&gt;&lt;br&gt;\n#53. Charlie Clips vs. DNA (6-5-2015)&lt;br&gt;\n#54. Hitman Holla &amp;amp; Aye Verb vs. DNA &amp;amp; K-Shine (6-20-2015)&lt;br&gt;\n#55. Marv Won &amp;amp; Quest MCody vs. DNA &amp;amp; K-Shine (6-27-2015)&lt;br&gt;\n#56. DNA vs. Rosenberg Raw (7-5-2015)&lt;br&gt;\n#57. DNA &amp;amp; K-Shine vs. Chess &amp;amp; Steams (7-24-2015)&lt;br&gt;\n#58. 40 B.A.R.R.S &amp;amp; Bonnie Godiva vs. DNA &amp;amp; K-Shine (8-9-2015)&lt;br&gt;\n#59. DNA vs. Cityy Towers (9-13-2015)&lt;br&gt;\n#60. DNA &amp;amp; K-Shine vs. Chess &amp;amp; Steams (REMATCH) [9-25-2015]&lt;br&gt;\n#61. DNA vs. Real Deal (10-10-2015)&lt;br&gt;\n#62. DNA vs. Syahboy (10-18-2015)&lt;br&gt;\n#63. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-dirtbag-dan-lyrics" rel="noopener" data-api_path="/songs/2821630"&gt;DNA vs. Dirtbag Dan (10-24-2015)&lt;/a&gt;&lt;br&gt;\n#64. CoJay vs. DNA (11-14-2015)&lt;br&gt;\n#65. Deffinition vs. DNA (11-15-2015)&lt;br&gt;\n#66. &lt;a href="https://genius.com/Dont-flop-charron-and-100-bulletz-vs-dna-and-k-shine-lyrics" rel="noopener" data-api_path="/songs/2483295"&gt;Charron &amp;amp; 100 Bulletz vs. DNA &amp;amp; K-Shine (11-28-2015)&lt;/a&gt;&lt;br&gt;\n#67. DNA vs. Brizz Rawsteen (12-12-2015)&lt;br&gt;\n#68. DNA &amp;amp; K-Shine vs. Math Hoffa &amp;amp; Cortez (12-20-2015)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2016&lt;/b&gt;&lt;br&gt;\n#69. &lt;a href="https://genius.com/Black-ice-cartel-dna-vs-danja-zone-lyrics" rel="noopener" data-api_path="/songs/3352909"&gt;DNA vs. Danja Zone (1-10-2016)&lt;/a&gt;&lt;br&gt;\n#70. K-Shine &amp;amp; DNA vs. E. Farrell &amp;amp; JeFFrey (1-30-2016)&lt;br&gt;\n#71. DNA vs. Vicci (2-13-2016)&lt;br&gt;\n#72. Arrow vs. DNA (2-20-2016)&lt;br&gt;\n#73. Arsonal &amp;amp; Shotgun Suge vs. DNA &amp;amp; K-Shine (2-28-2016)&lt;br&gt;\n#74. &lt;a href="https://genius.com/Urltv-tsu-surf-and-tay-roc-vs-k-shine-and-dna-lyrics" rel="noopener" data-api_path="/songs/2468773"&gt;Tsu Surf &amp;amp; Tay Roc vs. K-Shine &amp;amp; DNA (3-26-2016)&lt;/a&gt;&lt;br&gt;\n#75. Ty Law vs. DNA (3-26-2016)&lt;br&gt;\n#76. DNA vs. Bangz (5-15-2016)&lt;br&gt;\n#77. Philly Swain vs. DNA (5-22-2016)&lt;br&gt;\n#78. DNA &amp;amp; K-Shine vs. Frankie Wapps &amp;amp; Jaze Juice (5-22-2016)&lt;br&gt;\n#79. DNA vs. Troy Brown (6-5-2016)&lt;br&gt;\n#80. &lt;a href="https://genius.com/King-of-the-dot-dizaster-vs-dna-2016-lyrics" rel="noopener" data-api_path="/songs/2818721"&gt;Dizaster vs. DNA (6-25-2016)&lt;/a&gt;&lt;br&gt;\n#81. &lt;a href="https://genius.com/Urltv-tsu-surf-and-tay-roc-vs-k-shine-and-dna-rematch-lyrics" rel="noopener" data-api_path="/songs/3868848"&gt;Tsu Surf &amp;amp; Tay Roc vs. K-Shine &amp;amp; DNA (REMATCH) [7-9-2016]&lt;/a&gt;&lt;br&gt;\n#82. DNA vs. Chef Trez (7-16-2016)&lt;br&gt;\n#83. Krome vs. DNA (7-22-2016)&lt;br&gt;\n#84. Don Marino vs. DNA (7-28-2016)&lt;br&gt;\n#85. DNA vs. Jae Lyrics (8-20-2016)&lt;br&gt;\n#86. KG The Poet vs. DNA (9-11-2016)&lt;br&gt;\n#87. DNA vs. Rad B (10-23-2016)&lt;br&gt;\n#88. DNA vs. Loso (11-5-2016)&lt;br&gt;\n#89. DNA vs. Joey Gambello (12-17-2016)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2017&lt;/b&gt;&lt;br&gt;\n#90. DNA vs. T-Dubb-O (1-15-2017)&lt;br&gt;\n#91. Pat Stay vs. DNA (1-22-2017)&lt;br&gt;\n#92. Biz Barker vs. DNA (1-29-2017)&lt;br&gt;\n#93. &lt;a href="https://genius.com/King-of-the-dot-a-ward-vs-dna-lyrics" rel="noopener" data-api_path="/songs/3072521"&gt;A. Ward vs. DNA (4-14-2017)&lt;/a&gt;&lt;br&gt;\n#94. Scoop vs. DNA (4-30-2017)&lt;br&gt;\n#95. DNA vs. Reed Dollaz (6-10-2017)&lt;br&gt;\n#96. DNA vs. Haixian (6-17-2017)&lt;br&gt;\n#97. DNA &amp;amp; K-Shine vs. X-Factor &amp;amp; Midwest Miles (6-24-2017)&lt;br&gt;\n#98. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-jimz-lyrics" rel="noopener" data-api_path="/songs/3335689"&gt;DNA vs. Jimz (7-22-2017)&lt;/a&gt;&lt;br&gt;\n#99. DNA vs. 7 Weaponz (7-23-2017)&lt;br&gt;\n#100. DNA &amp;amp; K-Shine vs. Stoopidbars &amp;amp; Swiiffjay (7-30-2017)&lt;br&gt;\n#101. Shotgun Suge vs. DNA (8-5-2017)&lt;br&gt;\n#102. DNA &amp;amp; K-Shine vs. Drugz &amp;amp; Quban (8-19-2017)&lt;br&gt;\n#103. DNA vs. Young Herb (8-19-2017)&lt;br&gt;\n#104. DNA vs. Murdock (9-9-2017)&lt;br&gt;\n#105. QP &amp;amp; Qleen Paper vs. DNA &amp;amp; K-Shine (9-17-2017)&lt;br&gt;\n#106. Tetsho Vintage vs. DNA (9-30-2017)&lt;br&gt;\n#107. DNA vs. Big Kannon (11-4-2017)&lt;br&gt;\n#108. &lt;a href="https://genius.com/Urltv-dna-vs-rum-nitty-lyrics" rel="noopener" data-api_path="/songs/3484197"&gt;DNA vs. Rum Nitty (11-11-2017)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2018&lt;/b&gt;&lt;br&gt;\n#109. Charlie Clips &amp;amp; DNA vs. Big Kannon &amp;amp; Young Kannon (2-3-2018)&lt;br&gt;\n#110. Scotty vs. DNA (3-3-2018)&lt;br&gt;\n#111. E. Ness vs. DNA (3-24-2018)&lt;br&gt;\n#112. DNA vs. O-Red (5-12-2018)&lt;br&gt;\n#113. &lt;a href="https://genius.com/Urltv-dna-vs-jc-lyrics" rel="noopener" data-api_path="/songs/4001239"&gt;DNA vs. JC (6-23-2018)&lt;/a&gt;&lt;br&gt;\n#114. &lt;a href="https://genius.com/Urltv-dna-vs-nu-jerzey-twork-lyrics" rel="noopener" data-api_path="/songs/3902545"&gt;DNA vs. Nu Jerzey Twork (8-11-2018)&lt;/a&gt;&lt;br&gt;\n#115. &lt;a href="https://genius.com/Urltv-dna-vs-danny-myers-lyrics" rel="noopener" data-api_path="/songs/4034604"&gt;DNA vs. Danny Myers (10-13-2018)&lt;/a&gt;&lt;br&gt;\n#116. Mr. Tongue Twister vs. DNA (10-19-2018)&lt;br&gt;\n#117. DNA vs. Quill (10-20-2018)&lt;br&gt;\n#118. DNA vs. Big Hann (11-24-2018)&lt;br&gt;\n#119. &lt;a href="https://genius.com/Urltv-dna-vs-mickey-factz-lyrics" rel="noopener" data-api_path="/songs/4163877"&gt;DNA vs. Mickey Factz (12-15-2018)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2019&lt;/b&gt;&lt;br&gt;\n#120. DNA vs. MVP (2-10-2019)&lt;br&gt;\n#121. DNA &amp;amp; K-Shine vs. Killa B &amp;amp; Showstoppa (3-30-2019)&lt;br&gt;\n#122. DNA vs. Heiron (7-4-2019)&lt;br&gt;\n#123. &lt;a href="https://genius.com/Urltv-nwx-vs-efb-lyrics" rel="noopener" data-api_path="/songs/4806403"&gt;DNA &amp;amp; K-Shine vs. Rum Nitty &amp;amp; Geechi Gotti (8-10-2019)&lt;/a&gt;&lt;br&gt;\n#124. Nu Jerzey Twork &amp;amp; Shotgun Suge vs. DNA &amp;amp; K-Shine (9-7-2019)&lt;br&gt;\n#125. &lt;a href="https://genius.com/Urltv-dna-vs-geechi-gotti-lyrics" rel="noopener" data-api_path="/songs/4931484"&gt;DNA vs. Geechi Gotti (10-5-2019)&lt;/a&gt;&lt;br&gt;\n#126. &lt;a href="https://genius.com/Urltv-dna-vs-t-top-lyrics" rel="noopener" data-api_path="/songs/4933028"&gt;DNA vs. T-Top (10-5-2019)&lt;/a&gt;&lt;br&gt;\n#127. DNA vs. Bill Collector (10-6-2019)&lt;br&gt;\n#128. DNA vs. Chilla Jones (10-26-2019) [Rematch]&lt;br&gt;\n#129. &lt;a href="https://genius.com/Urltv-aye-verb-vs-dna-lyrics" rel="noopener" data-api_path="/songs/5108959"&gt;Aye Verb vs. DNA (12-14-2019)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2020&lt;/b&gt;&lt;br&gt;\n#130. DNA vs. Drugz (3-7-2020)&lt;br&gt;\n#131. John John Da Don vs. DNA (4-4-2020)&lt;br&gt;\n#132. DNA &amp;amp; K-Shine vs. A. Ward &amp;amp; Loso (4-12-2020)#&lt;br&gt;\n#133. &lt;a href="https://genius.com/Urltv-dna-vs-viixen-the-assassin-lyrics" rel="noopener" data-api_path="/songs/6077897"&gt;DNA vs. Viixen The Assassin (10-17-2020)&lt;/a&gt;&lt;br&gt;\n#134. &lt;a href="https://genius.com/Urltv-dna-vs-lu-castro-lyrics" rel="noopener" data-api_path="/songs/6219429"&gt;DNA vs. Lu Castro (11-22-2020)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2021&lt;/b&gt;&lt;br&gt;\n#135. &lt;a href="https://genius.com/Urltv-dna-vs-geechi-gotti-rematch-lyrics" rel="noopener" data-api_path="/songs/6424712"&gt;DNA vs. Geechi Gotti (1-9-2021)&lt;/a&gt;&lt;br&gt;\n#136. &lt;a href="https://genius.com/Urltv-dna-vs-ave-lyrics" rel="noopener" data-api_path="/songs/6414953"&gt;DNA vs. Ave (1-23-2021)&lt;/a&gt;&lt;br&gt;\n#137. Rum Nitty &amp;amp; Jey The Nitewing vs. DNA &amp;amp; Don Marino (3-27-2021)&lt;br&gt;\n#138. DNA vs. B. Dot (6-12-2021)&lt;br&gt;\n#139. DNA vs. King Los (11-6-2021)&lt;br&gt;\n#140. DNA vs. Real Sikh (12-18-2021)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2022&lt;/b&gt;&lt;br&gt;\n#141. DNA vs. Hollow Da Don (2-26-2022)&lt;/p&gt;\n\n&lt;p&gt;#Denotes that the battle was done remotely. The date it was recorded is not known. Date given is based off when it was released on YouTube.&lt;br&gt;\n^ Denotes that the official date is not known for this battle, so the listing is based off the YouTube release date.&lt;/p&gt;', 'alternate_names': ['Eric St. John', 'DNA GTFOH']}}</t>
+    <t>Metallica</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Melanie Martinez</t>
+  </si>
+  <si>
+    <t>Daft Punk</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Blondie</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Daniel-merriweather', 'annotations': {'description': "&lt;p&gt;Australian R&amp;amp;B &amp;amp; Blue-Eyed soul singer known for his 2009 ‘'Love &amp;amp; War’‘ album and duets with Adele in ’‘Water &amp;amp; A Flame’‘ and ’‘Change’‘ with Wale.&lt;/p&gt;", 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jennifer-lopez', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Jennifer Lynn Lopez&lt;/strong&gt; (born July 24, 1969), also known as J.Lo, is an American singer, actress, dancer, fashion designer, author, and producer.&lt;/p&gt;\n\n&lt;p&gt;Lopez gained her first high-profile job as a Fly Girl dancer on &lt;em&gt;In Living Color&lt;/em&gt; in 1991, where she remained a regular until she decided to pursue an acting career in 1993.&lt;/p&gt;\n\n&lt;p&gt;She ventured into the music industry in 1999 with her debut studio album &lt;em&gt;On the 6&lt;/em&gt;, preceded by the No. 1 single “If You Had My Love.”&lt;/p&gt;\n\n&lt;p&gt;With the simultaneous release of her second studio album &lt;em&gt;J.Lo&lt;/em&gt; and her romantic comedy The Wedding Planner in 2001, Lopez became the first woman to have a number one album and film in the same week. Her 2002 remix album, J to tha L–O! The Remixes, became the first in history to debut at number one on the U.S. Billboard 200. Later that year, she released her third studio album This Is Me… Her fifth studio album, Como Ama una Mujer (2007), received the highest first-week sales for a debut Spanish album in the United States. Following an unsuccessful period, she returned to prominence in 2011 with her appearance as a judge on American Idol, and released her seventh studio album Love?. Since 2017, Lopez has produced and served as a judge on World of Dance.&lt;/p&gt;\n\n&lt;p&gt;With a cumulative film gross of US$3 billion and estimated global sales of 80 million records, Lopez is regarded as the most influential Latin performer in the United States. In 2012, Forbes ranked her as the most powerful celebrity in the world, as well as the 38th most powerful woman in the world. Time listed her among the 100 most influential people in the world in 2018. Her most successful singles on the US Billboard Hot 100 include: “If You Had My Love”, “Love Don’t Cost a Thing”, “I’m Real”, “Ain’t It Funny”, “Jenny from the Block”, “All I Have”, and “On the Floor”, which is one of the best-selling singles of all time.&lt;/p&gt;', 'alternate_names': ['Jennifer L. Lopez', 'Jennifer Lynn Lopez', 'JLo']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Geri-halliwell', 'annotations': {'description': '&lt;p&gt;Geri Halliwell was born on August 6, 1972 in Watford, England. In 1994, she became “Ginger Spice” in the all-girl, British pop group the Spice Girls. Halliwell quit in 1998 to pursue her solo career, starting with her single, “Look At Me,” which sold more than 1 million copies worldwide. Since her run with the Spice Girls, Halliwell has authored a series of children’s books.&lt;/p&gt;', 'alternate_names': ['Ginger Spice', 'Geri Horner', 'Geraldine Halliwell', 'Geraldine Horner', 'Geraldine E. Halliwell', 'Geraldine E. Horner', 'Geraldine Estelle Halliwell', 'Geraldine Estelle Horner']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Herbie-hancock', 'annotations': {'description': '&lt;p&gt;Herbert Jeffrey “Herbie” Hancock (born April 12, 1940) is an American pianist, keyboardist, bandleader, composer and actor from Chicago, Illinois.&lt;/p&gt;\n\n&lt;p&gt;In 1960 he began working with &lt;a href="https://en.wikipedia.org/wiki/Donald_Byrd" rel="noopener nofollow"&gt;Donald Byrd&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Coleman_Hawkins" rel="noopener nofollow"&gt;Coleman Hawkins&lt;/a&gt;. He recorded his first solo album &lt;em&gt;“Takin\' Off”&lt;/em&gt; for Blue Note Records in 1962. &lt;em&gt;“Watermelon Man”&lt;/em&gt;. Thanks to the album he caught the attention of &lt;a href="https://genius.com/artists/Miles-Davis" rel="noopener" data-api_path="/artists/8150"&gt;Miles Davis&lt;/a&gt;, who asks, in May 1963, Hancock to join his &lt;a href="https://en.wikipedia.org/wiki/Miles_Davis_Quintet#Second_Great_Quintet_.281964.E2.80.9368.29" rel="noopener nofollow"&gt;Second Great Quintet&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In the sixties he records two important albums in jazz history: &lt;em&gt;“Empyrean Isles”&lt;/em&gt; (1964) and &lt;em&gt;“Maiden Voyage”&lt;/em&gt; (1965), both for Blue Note. During this period, Hancock also composed the score to &lt;a href="https://en.wikipedia.org/wiki/Michelangelo_Antonioni" rel="noopener nofollow"&gt;Michelangelo Antonioni&lt;/a&gt;’s film &lt;a href="https://en.wikipedia.org/wiki/Blowup" rel="noopener nofollow"&gt;Blowup&lt;/a&gt; (1966), the first of many film soundtracks he recorded in his career.&lt;/p&gt;\n\n&lt;p&gt;Hancock left Blue Note in 1969, signing with Warner Bros. Records. In the seventies he changes his style, using electronic instruments to create a blend of funk and jazz. This change culminate in album like &lt;em&gt;“Head Hunters”&lt;/em&gt;. Later he recorded many albums consisting of jazz-inflected disco and pop music. During this years he found time to record more traditional jazz while creating more commercially oriented music. His instrumental single “Rockit” was the first jazz hip-hop song and became a worldwide anthem for the breakdancers and for the hip-hop culture of the 1980s. It was also the first mainstream single to feature scratching, and also featured an innovative animated music video.&lt;/p&gt;\n\n&lt;p&gt;In 1986 Hancock performed and acted in the film ‘Round Midnight. He also wrote the score/soundtrack, for which he won an Academy Award for Original Music Score.&lt;/p&gt;\n\n&lt;p&gt;During the last decades he recorded also tribute albums (&lt;em&gt;“Gershwin’s World”&lt;/em&gt;, &lt;em&gt;“River: The Joni Letters”&lt;/em&gt;) or the album &lt;em&gt;“The New Standard”&lt;/em&gt; in which he reinterprets contemporaneous rock and R&amp;amp;B songs.&lt;/p&gt;\n\n&lt;p&gt;In his career he won &lt;a href="https://en.wikipedia.org/wiki/Herbie_Hancock#Awards" rel="noopener nofollow"&gt;many prizes&lt;/a&gt;, including one Academy Award and fourteen Grammy.&lt;/p&gt;\n\n&lt;p&gt;Herbie Hancock helped to redefine the role of a jazz rhythm section and was one of the primary architects of the post-bop sound. He was one of the first jazz musicians to embrace synthesizers and funk music. Hancock’s music is often melodic and accessible; he has had many songs “cross over” and achieved success among pop audiences.&lt;/p&gt;', 'alternate_names': ['Herbert Hancock', 'Herbert J. Hancock', 'Herbert Jeffrey Hancock', 'H. Hancock']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/2-unlimited', 'annotations': {'description': '&lt;p&gt;2 Unlimited is a dance group founded in 1991 by Belgian producers Jean-Paul DeCoster and Phil Wilde and fronted by Dutch rapper Ray Slijngaard and Dutch vocalist Anita Doth. During five years of enormous worldwide popularity, the act scored 16 chart hits, including “Get Ready for This”, “Twilight Zone”, “No Limit”, and “Tribal Dance”. During their career, they have sold 18 million records worldwide. Although they enjoyed less mainstream recognition in the United States, many of their songs have become popular themes at US sporting events, particularly in the NHL.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Seeb', 'annotations': {'description': '&lt;p&gt;Seeb is a Norwegian EDM production duo from Oslo, Norway, comprised of &lt;a href="https://genius.com/artists/Simen-eriksrud" rel="noopener" data-api_path="/artists/993370"&gt;Simen Eriksrud&lt;/a&gt; and &lt;a href="https://genius.com/artists/Espen-berg" rel="noopener" data-api_path="/artists/1055228"&gt;Espen Berg&lt;/a&gt;. The name ‘Seeb’ comes from the initials of the first and last names of the duo respectively.&lt;/p&gt;\n\n&lt;p&gt;The duo’s breakthrough came in 2015 with their remix of Mike Posner’s, &lt;a href="https://genius.com/Mike-posner-i-took-a-pill-in-ibiza-seeb-remix-lyrics" rel="noopener" data-api_path="/songs/2435615"&gt;“I Took A Pill In Ibiza,”&lt;/a&gt; which received high acclaim worldwide, reaching number one in the UK, Norway, and the Netherlands. They followed this up in 2016 with the release of their debut EP, &lt;a href="https://genius.com/albums/Seeb/Intro-to-seeb-ep" rel="noopener" data-api_path="/albums/660279"&gt;&lt;em&gt;Intro to Seeb&lt;/em&gt;&lt;/a&gt;, comprised of two singles and four remixes produced by the duo.&lt;/p&gt;\n\n&lt;p&gt;In 2017, the duo released their biggest collaboration yet, &lt;a href="https://genius.com/Onerepublic-and-seeb-rich-love-lyrics" rel="noopener" data-api_path="/songs/3155565"&gt;“Rich Love”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Onerepublic" rel="noopener" data-api_path="/artists/934"&gt;OneRepublic&lt;/a&gt; before releasing their second EP, &lt;a href="https://genius.com/albums/Seeb/Nice-to-meet-you" rel="noopener" data-api_path="/albums/421642"&gt;&lt;em&gt;Nice to Meet You&lt;/em&gt;&lt;/a&gt; in 2018, featuring six original songs produced by the duo.&lt;/p&gt;\n\n&lt;p&gt;They continued their success into 2019 releasing more singles and collaborating with a range of artists such as &lt;a href="https://genius.com/artists/Highasakite" rel="noopener" data-api_path="/artists/235814"&gt;Highasakite&lt;/a&gt; on &lt;a href="https://genius.com/Seeb-and-highasakite-free-to-go-lyrics" rel="noopener" data-api_path="/songs/4464424"&gt;“Free To Go”&lt;/a&gt; and &lt;a href="https://genius.com/artists/Justin-jesso" rel="noopener" data-api_path="/artists/1220431"&gt;Justin Jesso&lt;/a&gt; on &lt;a href="https://genius.com/Justin-jesso-and-seeb-bigger-than-lyrics" rel="noopener" data-api_path="/songs/5021730"&gt;“Bigger Than,”&lt;/a&gt; which saw them win the &lt;a href="https://spellemann.no/detalj/8071" rel="noopener nofollow"&gt;Spellemanprisen Pop Group of the Year Award&lt;/a&gt; for 2019. In 2020, they released their debut album, &lt;a href="https://genius.com/albums/Seeb/Sad-in-scandinavia" rel="noopener" data-api_path="/albums/643895"&gt;&lt;em&gt;Sad in Scandinavia&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Yazz', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Lil-wayne', 'annotations': {'description': '&lt;p&gt;Dwayne Michael Carter, Jr., better known by his stage name &lt;a href="https://genius.com/Rap-genius-the-many-nicknames-of-lil-wayne-lyrics" rel="noopener" data-api_path="/songs/212529"&gt;Lil Wayne&lt;/a&gt;, grew up in the Hollygrove neighborhood of New Orleans, Louisiana.&lt;/p&gt;\n\n&lt;p&gt;At the age of nine, Lil Wayne joined Cash Money Records as the youngest member of the label, and half of the duo, The B.G.‘z, with &lt;a href="https://genius.com/artists/Bg" rel="noopener" data-api_path="/artists/1819"&gt;B.G.&lt;/a&gt;. In 1997, Lil Wayne joined the group &lt;a href="https://genius.com/artists/Hot-boys" rel="noopener" data-api_path="/artists/1663"&gt;Hot Boys&lt;/a&gt;, which also included rappers &lt;a href="https://genius.com/artists/Juvenile" rel="noopener" data-api_path="/artists/38"&gt;Juvenile&lt;/a&gt;, &lt;a href="https://genius.com/artists/Bg" rel="noopener" data-api_path="/artists/1819"&gt;B.G.&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Young-turk" rel="noopener" data-api_path="/artists/3558"&gt;Young Turk&lt;/a&gt;. Lil Wayne gained most of his success with the group’s major selling album &lt;a href="https://genius.com/albums/Hot-boys/Guerrilla-warfare" rel="noopener" data-api_path="/albums/3680"&gt;Guerrilla Warfare&lt;/a&gt;, released in 1999. &lt;a href="http://www.guinnessworldrecords.com/world-records/rapper-with-the-most-us-hot-100-hits" rel="noopener nofollow"&gt;He has been listed in the 2012 Guinness Book Of World Records&lt;/a&gt; for the record of Most US Hot 100 Hits By A Rap Artist with 64 hits between 1999 and 2010.&lt;/p&gt;\n\n&lt;p&gt;Wayne is famous for his command of slow, witty lines and metaphorical jokes. &lt;a href="https://en.wikipedia.org/wiki/Lil_Wayne_albums_discography" rel="noopener nofollow"&gt;His discography&lt;/a&gt; includes a slew of successful mixtapes, including &lt;a href="https://genius.com/albums/Lil-wayne/The-dedication" rel="noopener" data-api_path="/albums/21532"&gt;&lt;em&gt;Dedication&lt;/em&gt; 1&lt;/a&gt;, &lt;a href="https://genius.com/albums/Lil-wayne/Dedication-2" rel="noopener" data-api_path="/albums/5004"&gt;2&lt;/a&gt;, &lt;a href="https://genius.com/albums/Lil-wayne/Dedication-3" rel="noopener" data-api_path="/albums/12981"&gt;3&lt;/a&gt;, &lt;a href="https://genius.com/albums/Lil-wayne/Dedication-4" rel="noopener" data-api_path="/albums/20748"&gt;4&lt;/a&gt;, &lt;a href="https://genius.com/albums/Lil-wayne/Dedication-5" rel="noopener" data-api_path="/albums/41879"&gt;5&lt;/a&gt; and &lt;a href="https://genius.com/albums/Lil-wayne/Dedication-6" rel="noopener" data-api_path="/albums/388686"&gt;6&lt;/a&gt;; &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-wayne/No-ceilings" rel="noopener" data-api_path="/albums/11095"&gt;No Ceilings&lt;/a&gt;;&lt;/em&gt; and &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-wayne/Da-drought-3" rel="noopener" data-api_path="/albums/5010"&gt;Da Drought 3&lt;/a&gt;&lt;/em&gt;. His albums consistently garner acclaim, with &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-wayne/Tha-carter" rel="noopener" data-api_path="/albums/4998"&gt;Tha Carter&lt;/a&gt;&lt;/em&gt; series all platinum hits. &lt;em&gt;Tha Carter&lt;/em&gt; series has been a work of Wayne’s for 13 years and continues to grow with the fifth installment, &lt;a href="https://genius.com/albums/Lil-wayne/Tha-carter-v" rel="noopener" data-api_path="/albums/98888"&gt;&lt;em&gt;Tha Carter V&lt;/em&gt;&lt;/a&gt; released in 2018 (however, it was initially supposed to be released in late 2014). Wayne keeps a regular recording schedule, with studio booths in his tour bus, home, and following him everywhere.&lt;/p&gt;', 'alternate_names': ['Dwayne Michael Carter Jr', 'Dwayne Michael Carter', 'Little Wayne', 'Young Mulah', 'Weezy F. Baby', 'Lil Tunechi', 'Lil Weezy Ana', 'Weezy', 'Dwayne Carter']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Clairo', 'annotations': {'description': '&lt;p&gt;Claire Elizabeth Cottrill (born August 18, 1998), better known by her stage name Clairo, is an American singer-songwriter from Atlanta, Georgia.&lt;/p&gt;\n\n&lt;p&gt;She was born in Atlanta, GA, where she lived for seven years, and then she moved to Bellevue, WA and eventually Carlisle, MA.&lt;/p&gt;\n\n&lt;p&gt;Her parents are marketing executive &lt;a href="https://en.wikipedia.org/wiki/Geoff_Cottrill" rel="noopener nofollow"&gt;Geoff Cottrill&lt;/a&gt; and photographer &lt;a href="https://www.allisoncottrillphotography.com/" rel="noopener nofollow"&gt;Allie E. Cottrill&lt;/a&gt;, who influenced her music taste. Clairo told &lt;a href="https://youtu.be/2RsucCjZlvk?t=34" rel="noopener nofollow"&gt;Beats 1&lt;/a&gt;, “My dad is the reason why I love &lt;a href="https://genius.com/artists/Al-green" rel="noopener" data-api_path="/artists/1610"&gt;Al Green&lt;/a&gt; so much, and my mom is the reason why I love &lt;a href="https://genius.com/artists/Cocteau-twins" rel="noopener" data-api_path="/artists/138662"&gt;Cocteau Twins&lt;/a&gt; so much.”&lt;/p&gt;\n\n&lt;p&gt;Clairo’s first EP, titled &lt;a href="https://genius.com/albums/Clairo/Do-u-wanna-fall-in-love" rel="noopener" data-api_path="/albums/369340"&gt;&lt;em&gt;Do U Wanna Fall In Love?&lt;/em&gt;&lt;/a&gt;, was released in December of 2014.&lt;/p&gt;\n\n&lt;p&gt;She originally rose to prominence with her song “&lt;a href="https://genius.com/Clairo-pretty-girl-lyrics" rel="noopener" data-api_path="/songs/3185563"&gt;Pretty Girl&lt;/a&gt;”, which was released in 2017 and soon went viral. Her first full-length, &lt;em&gt;&lt;a href="https://genius.com/albums/Clairo/Immunity" rel="noopener" data-api_path="/albums/531649"&gt;Immunity&lt;/a&gt;,&lt;/em&gt; was released in 2019.&lt;/p&gt;', 'alternate_names': ['Claire Elizabeth Cottrill', 'Claire Cottrill', 'DJ Baby Benz']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tones-and-i', 'annotations': {'description': '&lt;p&gt;Toni Watson, known by her stage-name Tones and I, is an Australian artist from Mornington Peninsula before moving to Byron Bay, New South Wales to start her music career.&lt;/p&gt;\n\n&lt;p&gt;Come February 2019, Tones uploaded her first song &lt;a href="https://genius.com/Tones-and-i-johnny-run-away-lyrics" rel="noopener" data-api_path="/songs/4358348"&gt;“Johnny Run Away.”&lt;/a&gt; Soon after, Tones found herself opening for Norway’s &lt;a href="https://genius.com/artists/Aurora" rel="noopener" data-api_path="/artists/36413"&gt;AURORA&lt;/a&gt;. Toni’s first EP, &lt;a href="https://genius.com/albums/Tones-and-i/The-kids-are-coming-ep" rel="noopener" data-api_path="/albums/545562"&gt;&lt;em&gt;The Kids Are Coming&lt;/em&gt;&lt;/a&gt;, was released on August 30, 2019 and contained her break-out hit &lt;a href="https://genius.com/Tones-and-i-dance-monkey-lyrics" rel="noopener" data-api_path="/songs/4539729"&gt;“Dance Monkey.”&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['Toni Elizabeth Watson', 'Toni Watson', 'Toni "Tones" Watson']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Marshmello-and-anne-marie', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Marshmello" rel="noopener" data-api_path="/artists/582361"&gt;Marshmello&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/artists/Anne-marie" rel="noopener" data-api_path="/artists/296675"&gt;Anne-Marie&lt;/a&gt; is truly a dynamic duo with their collaboration  &lt;a href="https://genius.com/Marshmello-and-anne-marie-friends-lyrics" rel="noopener" data-api_path="/songs/3348299"&gt;“FRIENDS”&lt;/a&gt; landing a #4 spot on &lt;a href="https://spotifycharts.com/regional" rel="noopener nofollow"&gt;Spotify’s Global Top 50&lt;/a&gt; list. Marshmello is an American electronic dance music producer and DJ.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Collective-soul', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tracy-chapman', 'annotations': {'description': '&lt;p&gt;Tracy Chapman is an american singer songwriter, best known for her songs “&lt;a href="https://genius.com/Tracy-chapman-fast-car-lyrics" rel="noopener" data-api_path="/songs/2408099"&gt;Fast Car&lt;/a&gt;” and “&lt;a href="https://genius.com/Tracy-chapman-give-me-one-reason-lyrics" rel="noopener" data-api_path="/songs/345909"&gt;Give Me One Reason&lt;/a&gt;”. She has won four Grammy Awards, including Best Rock Song.&lt;/p&gt;\n\n&lt;p&gt;Chapman released her debut album in 1988, titled &lt;a href="https://genius.com/albums/Tracy-chapman/Tracy-chapman" rel="noopener" data-api_path="/albums/146955"&gt;&lt;em&gt;Tracy Chapman&lt;/em&gt;&lt;/a&gt;, which immediately received critical praise and commercial success. Her lyrics largely focus on &lt;a href="https://www.theguardian.com/lifeandstyle/2008/oct/31/tracy-chapman-women-pop-usa" rel="noopener nofollow"&gt;social justice&lt;/a&gt; and she remains a vocal activist with non-profit human rights organizations such as Amnesty International, and she famously &lt;a href="https://www.youtube.com/watch?v=7tWE9mPM9pw" rel="noopener nofollow"&gt;performed&lt;/a&gt; “Fast Car” at the televised Nelson Mandela 70th Birthday Tribute Concert for charity in 1988.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Drake-bell', 'annotations': {'description': '&lt;p&gt;Drake Bell born June 27, 1986, is an American actor, voice actor, comedian, singer-songwriter, and multi-instrumentalist. In 2005 he independently released his debut album, Telegraph, released under Bell’s own name. His second album, It’s Only Time, was released in 2006 after signing with Universal Motown Records and debuted at #81 on the Billboard 200, selling over 23,000 copies its first week of release. It’s Only Time has sold 178,000 copies in the United States as of 2012.Bell released an EP in 2011 called A Reminder independently. In 2014, Bell released his third album, Ready Steady Go! under indie label Surfdog Records. Ready Steady Go! debuted at #182 on the Billboard 200, and sold 2,000 copies in its first week of release.&lt;/p&gt;', 'alternate_names': ['Jared Drake Bell', 'Drake Campana']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Plain-white-ts', 'annotations': {'description': '&lt;p&gt;The Plain White T’s are a rock band from Lombard, IL, USA. Their members include &lt;a href="https://genius.com/artists/Tom-higgenson" rel="noopener" data-api_path="/artists/20661"&gt;Tom Higgenson&lt;/a&gt; (Vocals, Rhythm Guitar), Dave Trio (Rhythm Guitar, Back-Up Vocals), &lt;a href="https://genius.com/artists/Sn-wlf" rel="noopener" data-api_path="/artists/1056220"&gt;Tim Lopez AKA Søn Wølf&lt;/a&gt; (Lead Guitar, Vocals, Keyboards), Mike Retondo (Bass Guitar), and De\'Mar Hamilton (Drums).&lt;/p&gt;\n\n&lt;p&gt;The band chose this name &lt;a href="http://thedailyaztec.com/19809/artsandlifestyle/under-the-scope-singer-tom-higgenson-of-plain-white-ts-tells-all/" rel="noopener nofollow"&gt;because&lt;/a&gt; “a plain white T is a plain white T. We all have one, and they never go out of style" and it symoblizes the “greaser style” of music the members all love.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mc-hammer', 'annotations': {'description': '&lt;p&gt;Stanley Kirk Burrell (born 30 March 1962), better known by his stage name &lt;a href="https://genius.com/artists/Mc-hammer" rel="noopener" data-api_path="/artists/1039"&gt;MC Hammer&lt;/a&gt;, is an American rapper, dancer, entrepreneur, spokesman and occasional actor from Oakland, California. He had his greatest commercial success and popularity from the late 1980s until the late 1990s. Remembered for his rapid rise to fame, Hammer is known for his hit records (such as “&lt;a href="https://genius.com/Mc-hammer-u-cant-touch-this-lyrics" rel="noopener" data-api_path="/songs/2161"&gt;U Can’t Touch This&lt;/a&gt;” and “&lt;a href="https://genius.com/Mc-hammer-2-legit-2-quit-lyrics" rel="noopener" data-api_path="/songs/22245"&gt;2 Legit 2 Quit&lt;/a&gt;”), flashy dance movements, choreography and his trademark Hammer pants. Hammer’s superstar-status and entertaining showmanship made him a household name and &lt;a href="https://genius.com/artists/Hip-hop" rel="noopener" data-api_path="/artists/15296"&gt;Hip-Hop&lt;/a&gt; icon. He has sold more than fifty million records worldwide.&lt;/p&gt;\n\n&lt;p&gt;A multi-award winner, &lt;a href="https://genius.com/artists/Mc-hammer" rel="noopener" data-api_path="/artists/1039"&gt;MC Hammer&lt;/a&gt; is considered a pioneer and innovator of pop rap, and is the first &lt;a href="https://genius.com/artists/Hip-hop" rel="noopener" data-api_path="/artists/15296"&gt;Hip-Hop&lt;/a&gt; artist to achieve diamond status for an album. Hammer was later considered a sellout due in part to overexposure as an entertainer, and as a result of being too “commercial” when &lt;a href="https://genius.com/artists/Rap" rel="noopener" data-api_path="/artists/25080"&gt;Rap&lt;/a&gt; was “hardcore”, then his image later becoming increasingly “gritty” to once again adapt to the ever-changing landscape of rap. Burrell became a preacher during the late 1990s with a Christian ministry program called MC Hammer and Friends. Additionally, he starred in a Saturday morning cartoon called Hammerman in 1991 and was executive producer of his own reality show called Hammertime which aired during the summer of 2009. Prior to becoming ordained, Hammer signed to &lt;a href="https://genius.com/artists/Suge-knight" rel="noopener" data-api_path="/artists/660037"&gt;Suge Knight&lt;/a&gt;’s &lt;a href="https://genius.com/artists/Death-row-records" rel="noopener" data-api_path="/artists/149462"&gt;Death Row Records&lt;/a&gt; in 1995.&lt;/p&gt;\n\n&lt;p&gt;Throughout his career, Hammer has managed his own recording business. As a result, he has created and produced his own acts including Oaktown’s 3.5.7, Common Unity, Special Generation, Analise, One Cause One Effect, Teabag, Dom Kimberley, Geeman, DRS, Pleasure Ellis, B Angie B, Stooge Playaz, Ho Frat Hoo! and Wee Wee, among others. A part of additional record labels, he has collaborated and has been associated with &lt;a href="https://genius.com/artists/2pac" rel="noopener" data-api_path="/artists/59"&gt;2Pac&lt;/a&gt;, Teddy Riley, Felton Pilate, &lt;a href="https://genius.com/artists/Tha-dogg-pound" rel="noopener" data-api_path="/artists/464"&gt;Tha Dogg Pound&lt;/a&gt;, The Whole 9, Deion Sanders, and &lt;a href="https://genius.com/artists/Big-daddy-kane" rel="noopener" data-api_path="/artists/202"&gt;Big Daddy Kane&lt;/a&gt;, as well as others.&lt;/p&gt;', 'alternate_names': ['Stanley Burrell', 'Stanley Kirk Burrell', 'Hammer']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Wanz', 'annotations': {'description': '&lt;p&gt;Wanz is a R&amp;amp;B, pop and hip-hop singer born in seattle in 1961. His career was kickstarted by the song “Thrift Shop” by &lt;a href="https://genius.com/artists/Macklemore-and-ryan-lewis" rel="noopener" data-api_path="/artists/2525"&gt;Macklemore and Ryan Lewis&lt;/a&gt;. This would end up being his biggest and only hit song to date, leading many to believe he’s just been a one hit wonder.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kt-tunstall', 'annotations': {'description': '&lt;p&gt;Kate Victoria “KT” Tunstall is a Scottish singer-songwriter from Edinburgh. She rose to fame in 2005 with her debut studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Kt-tunstall/Eye-to-the-telescope" rel="noopener" data-api_path="/albums/106424"&gt;Eye to the Telescope&lt;/a&gt;&lt;/em&gt;, which includes the singles “&lt;a href="https://genius.com/Kt-tunstall-black-horse-and-the-cherry-tree-lyrics" rel="noopener" data-api_path="/songs/458477"&gt;Black Horse &amp;amp; the Cherry Tree&lt;/a&gt;”, “&lt;a href="https://genius.com/Kt-tunstall-suddenly-i-see-lyrics" rel="noopener" data-api_path="/songs/489214"&gt;Other Side of the World&lt;/a&gt;” and her best-known song, “&lt;a href="https://genius.com/Kt-tunstall-suddenly-i-see-lyrics" rel="noopener" data-api_path="/songs/489214"&gt;Suddenly I See&lt;/a&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/George-thorogood-and-the-destroyers', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/George_Thorogood" rel="noopener nofollow"&gt;George Lawrence Thorogood&lt;/a&gt; is a maniacal master of slide blues guitar…so it’s not surprising that the majority of the songs on his band’s albums are blues covers, from &lt;a href="https://genius.com/artists/John-lee-hooker" rel="noopener" data-api_path="/artists/59462"&gt;John Lee Hooker&lt;/a&gt;, &lt;a href="https://genius.com/artists/Willie-dixon" rel="noopener" data-api_path="/artists/65011"&gt;Willie Dixon&lt;/a&gt;, &lt;a href="https://genius.com/artists/Elmore-james" rel="noopener" data-api_path="/artists/358668"&gt;Elmore James&lt;/a&gt;, &lt;a href="https://genius.com/artists/Robert-johnson" rel="noopener" data-api_path="/artists/35851"&gt;Robert Johnson&lt;/a&gt;, and others. The writing credits for his albums look like Led Zeppelin’s would if they didn’t claim credit for everyone else’s songs.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/491cd30560d453d741ddfaa061fa54f5.600x450x1.jpg" alt="" width="600" height="450" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/George-harrison', 'annotations': {'description': '&lt;p&gt;If George Harrison were merely remembered for his involvement in &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt;, his legacy would be solidified as one of rock’s greatest names. Along with staging the &lt;a href="https://www.imdb.com/title/tt0158560/" rel="noopener nofollow"&gt;world’s first benefit concert&lt;/a&gt; where major artists performed together for humanitarian relief, introducing pop culture to classical Indian music and gaining three #1 singles as a solo artist, he was also a film producer and an avid gardener.&lt;/p&gt;\n\n&lt;p&gt;In 1957, he met a young &lt;a href="https://genius.com/artists/Paul-mccartney" rel="noopener" data-api_path="/artists/1601"&gt;Paul McCartney&lt;/a&gt; on a bus they both took to school. McCartney then introduced him to &lt;a href="https://genius.com/artists/John-lennon" rel="noopener" data-api_path="/artists/16450"&gt;John Lennon&lt;/a&gt; to audition for his skiffle group, the Quarrymen. Lennon originally rejected Harrison as he thought he was too young to be the band, having just turned 15. Harrison eventually impressed Lennon with his guitar skills and was accepted as a member of the group.&lt;/p&gt;\n\n&lt;p&gt;During his time with The Beatles, Harrison was the lead guitarist, one of the singers, and contributed many songs such as &lt;a href="https://genius.com/The-beatles-taxman-lyrics" rel="noopener" data-api_path="/songs/75223"&gt;“Taxman,”&lt;/a&gt; &lt;a href="https://genius.com/The-beatles-within-you-without-you-lyrics" rel="noopener" data-api_path="/songs/76567"&gt;“Within You Without You,”&lt;/a&gt; &lt;a href="https://genius.com/The-beatles-while-my-guitar-gently-weeps-lyrics" rel="noopener" data-api_path="/songs/75670"&gt;“While My Guitar Gently Weeps,”&lt;/a&gt; &lt;a href="https://genius.com/The-beatles-here-comes-the-sun-lyrics" rel="noopener" data-api_path="/songs/87577"&gt;“Here Comes the Sun”&lt;/a&gt; and &lt;a href="https://genius.com/The-beatles-something-lyrics" rel="noopener" data-api_path="/songs/87564"&gt;“Something.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Harrison released his debut album, &lt;a href="https://genius.com/albums/George-harrison/Wonderwall-music" rel="noopener" data-api_path="/albums/345852"&gt;&lt;em&gt;Wonderwall Music&lt;/em&gt;&lt;/a&gt;, during 1968 as the soundtrack to the film &lt;em&gt;Wonderwall&lt;/em&gt;. It was the first solo album to be released by a Beatle. Harrison released another album, &lt;a href="https://genius.com/albums/George-harrison/Electronic-sound" rel="noopener" data-api_path="/albums/185269"&gt;&lt;em&gt;Electronic Sounds&lt;/em&gt;&lt;/a&gt;, before The Beatles breakup in 1970.&lt;/p&gt;\n\n&lt;p&gt;In 1970, Harrison released the critically acclaimed triple album, &lt;a href="https://genius.com/albums/George-harrison/All-things-must-pass" rel="noopener" data-api_path="/albums/41860"&gt;&lt;em&gt;All Things Must Pass&lt;/em&gt;&lt;/a&gt;. The album consisted of songs that Harrison had been collecting throughout his time with The Beatles. The album was co-produced by &lt;a href="https://genius.com/artists/Phil-spector" rel="noopener" data-api_path="/artists/29024"&gt;Phil Spector&lt;/a&gt; and made use of his famous Wall Of Sound technique. The album produced the #1 hit, &lt;a href="https://genius.com/George-harrison-my-sweet-lord-lyrics" rel="noopener" data-api_path="/songs/202126"&gt;“My Sweet Lord.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In later years, Harrison released 9 studio albums spawning two #1 singles: &lt;a href="https://genius.com/George-harrison-give-me-love-give-me-peace-on-earth-lyrics" rel="noopener" data-api_path="/songs/207155"&gt;“Give Me Love (Give Me Peace On Earth)”&lt;/a&gt; and &lt;a href="https://genius.com/George-harrison-got-my-mind-set-on-you-lyrics" rel="noopener" data-api_path="/songs/402440"&gt;“Got My Mind Set On You.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;During 1988, Harrison founded supergroup, &lt;a href="https://genius.com/artists/The-traveling-wilburys" rel="noopener" data-api_path="/artists/60612"&gt;The Travelling Wilburys&lt;/a&gt;, along with &lt;a href="https://genius.com/artists/Jeff-lynne" rel="noopener" data-api_path="/artists/34990"&gt;Jeff Lynne&lt;/a&gt;, &lt;a href="https://genius.com/artists/Tom-petty" rel="noopener" data-api_path="/artists/20785"&gt;Tom Petty&lt;/a&gt;, &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt; and &lt;a href="https://genius.com/artists/Roy-orbison" rel="noopener" data-api_path="/artists/47372"&gt;Roy Orbison&lt;/a&gt;. The group released &lt;a href="https://genius.com/albums/The-traveling-wilburys/Traveling-wilburys-vol-1" rel="noopener" data-api_path="/albums/39460"&gt;&lt;em&gt;Traveling Wilburys, Vol. 1&lt;/em&gt;&lt;/a&gt; to much success. Following Orbison’s death, the remaining members released their final album, &lt;a href="https://genius.com/albums/The-traveling-wilburys/Traveling-wilburys-vol-3" rel="noopener" data-api_path="/albums/171091"&gt;&lt;em&gt;Traveling Wilburys, Vol. 3&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;During 1970, Harrison bought Friar Park, a 62 acre mansion in Henley-on-Thames. He spent years renovating the mansion and personally caring for  it’s grounds. The cover for &lt;em&gt;All Things Must Pass&lt;/em&gt; was shot in the grounds of the mansion along with many of his music videos.&lt;/p&gt;\n\n&lt;p&gt;During the filming of &lt;a href="https://www.imdb.com/title/tt0058182/" rel="noopener nofollow"&gt;&lt;em&gt;A Hard Day’s Night&lt;/em&gt;&lt;/a&gt;, Harrison met his first wife Pattie Boyd, who played the role of a schoolgirl. They married in 1966, divorcing in 1977 on the grounds of Harrison’s infidelities. Boyd later on married Harrison’s longtime friend &lt;a href="https://genius.com/artists/Eric-clapton" rel="noopener" data-api_path="/artists/19272"&gt;Eric Clapton&lt;/a&gt;. Harrison then met Olivia Arias who was working for Harrison’s record label, &lt;a href="http://www.georgeharrison.com/dark-horse-records/" rel="noopener nofollow"&gt;Dark Horse Records&lt;/a&gt;, as a secretary. They married in 1978 and had a son, Dhani, born on August 1st, 1978.&lt;/p&gt;\n\n&lt;p&gt;In 1999, Harrison’s home was broken into by a crazed fan who stabbed him multiple times, only to be stopped by Harrison’s wife.&lt;/p&gt;\n\n&lt;p&gt;George Harrison (1943-2001) passed away at 58 to a long battle with cancer.&lt;/p&gt;', 'alternate_names': ['Nelson Wilbury']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Hayley-williams', 'annotations': {'description': '&lt;p&gt;Hayley Williams is an American singer born on December 27, 1988; she is the lead vocalist, songwriter, and keyboardist of the Rock/Pop-Punk band &lt;a href="https://genius.com/artists/Paramore" rel="noopener" data-api_path="/artists/22531"&gt;Paramore&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Hayley came to light in the music scene when she was only 16 years old and released with the band their debut album &lt;a href="https://genius.com/albums/Paramore/All-we-know-is-falling" rel="noopener" data-api_path="/albums/28192"&gt;&lt;em&gt;All We Know Is Falling&lt;/em&gt;&lt;/a&gt; which reached number 8 on the UK Rock Chart. It was their second album, the Platinum-certified &lt;a href="https://genius.com/albums/Paramore/Riot" rel="noopener" data-api_path="/albums/25380"&gt;&lt;em&gt;Riot!&lt;/em&gt;&lt;/a&gt; from 2007, that gave the band and Hayley worldwide recognition. She would go on to make three more albums with the band: &lt;a href="https://genius.com/albums/Paramore/Brand-new-eyes" rel="noopener" data-api_path="/albums/19097"&gt;&lt;i&gt;Brand New Eyes&lt;/i&gt;&lt;/a&gt; released in 2009, &lt;a href="https://genius.com/albums/Paramore/Paramore" rel="noopener" data-api_path="/albums/28272"&gt;&lt;i&gt;Paramore&lt;i&gt;&lt;/i&gt;&lt;/i&gt;&lt;/a&gt; released in 2013, and &lt;a href="https://genius.com/albums/Paramore/After-laughter" rel="noopener" data-api_path="/albums/340733"&gt;&lt;i&gt;After Laughter&lt;/i&gt;&lt;/a&gt; released in 2017.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Hayley was featured on the B.o.B single, &lt;a href="https://genius.com/Bob-airplanes-lyrics" rel="noopener" data-api_path="/songs/428"&gt;“Airplanes”&lt;/a&gt;, which was a commercial success reaching No.1 in the UK and No.2 in the US. She has come to be featured on several other commercially successful singles such as Zedd’s &lt;a href="https://genius.com/Zedd-stay-the-night-lyrics" rel="noopener" data-api_path="/songs/216074"&gt;“Stay the Night”&lt;/a&gt; in 2013 and New Found Glory’s &lt;a href="https://genius.com/New-found-glory-vicious-love-lyrics" rel="noopener" data-api_path="/songs/530919"&gt;“Vicious Love”&lt;/a&gt; in 2014. Regardless, Hayley’s main focus remains in her band, Paramore.&lt;/p&gt;\n\n&lt;p&gt;In 2020 she released her solo debut &lt;a href="https://genius.com/Hayley-williams-simmer-lyrics" rel="noopener" data-api_path="/songs/5190196"&gt;“Simmer”&lt;/a&gt;, and announced her debut album &lt;a href="https://genius.com/albums/Hayley-williams/Petals-for-armor" rel="noopener" data-api_path="/albums/595868"&gt;&lt;em&gt;Petals For Armor&lt;/em&gt;&lt;/a&gt;, which was released in May the same year.&lt;/p&gt;\n\n&lt;p&gt;Besides the music, in 2016, she released her own hair dye company, &lt;a href="https://www.gooddyeyoung.com/" rel="noopener nofollow"&gt;Good Dye Young&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Hayley Nichole Williams', 'Hayley Williams of Paramore', 'Hayley Williams from Paramore']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sophie-ellis-bextor', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Sophie Michelle Ellis-Bextor&lt;/strong&gt; (born 10 April 1979) is an English singer, songwriter and model. She first came to prominence in the late 1990s, as the lead singer of the indie rock band &lt;a href="https://genius.com/artists/Theaudience" rel="noopener" data-api_path="/artists/354722"&gt;Theaudience&lt;/a&gt;. After the group disbanded, she went solo, achieving widespread success in the early 2000s.&lt;/p&gt;\n\n&lt;p&gt;Her music is a mixture of mainstream pop, disco, nu-disco, and ‘80s electronic influences.&lt;/p&gt;', 'alternate_names': ['Sophie Michelle Ellis-Bextor']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Rage-against-the-machine', 'annotations': {'description': '&lt;p&gt;Formed in Los Angeles in 1991, Rage Against the Machine are critically acclaimed for their aggressive, politically charged rhymes. During the 1990s, they found huge success with their politicised image, broad array of influences and punk attitudes. The band represents an important intersection in 90s culture – between the musical expression of urban black rebels (hip-hop, funk) and their white counterpart (metal, punk rock).&lt;/p&gt;\n\n&lt;p&gt;Accompanying a musical fusion of punk, hip-hop and metal, the lyricism of frontman &lt;a href="https://genius.com/artists/Zack-de-la-rocha" rel="noopener" data-api_path="/artists/9775"&gt;Zack de la Rocha&lt;/a&gt; provides a fiery critique of corporate America, government oppression, and cultural imperialism. Both de la Rocha and guitarist &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt; were &lt;a href="http://www.rollingstone.com/music/artists/rage-against-the-machine/biography" rel="noopener nofollow"&gt;born into activist families&lt;/a&gt;, influential to shaping the band’s political views and activism. De la Rocha’s father devoted his artistic work to Chicano causes, and Morello was raised by a civil rights activist mother and a Kenyan rebel-turned-diplomat father.&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine view their music as a &lt;a href="http://www.musicfanclubs.org/rage/articles/juice00.htm" rel="noopener nofollow"&gt;vehicle for social activism&lt;/a&gt;, and de la Rocha has explained this by saying:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’m interested in spreading those ideas through art, because music has the power to cross borders, to break military sieges and to establish real dialogue.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Over their career, Rage Against the Machine have &lt;a href="http://www.rollingstone.com/music/news/the-battle-of-rage-against-the-machine-19991125" rel="noopener nofollow"&gt;championed numerous causes&lt;/a&gt;, including death-row inmate Mumia Abu-Jamal’s fight for a new trial, the Zapatista freedom fighters in Mexico, and the treatment of sweatshop workers. The band’s leftist and revolutionary political views are further represented in almost all of their songs, and this politically fuelled commentary is key to their identity. Notable examples of these beliefs are discussed in &lt;a href="https://genius.com/Rage-against-the-machine-killing-in-the-name-lyrics" rel="noopener" data-api_path="/songs/4569"&gt;“Killing in the Name”&lt;/a&gt; (addressing racism and police corruption), &lt;a href="https://genius.com/Rage-against-the-machine-wake-up-lyrics" rel="noopener" data-api_path="/songs/39712"&gt;“Wake Up”&lt;/a&gt; (addressing racism in the American government), and &lt;a href="https://genius.com/Rage-against-the-machine-freedom-lyrics" rel="noopener" data-api_path="/songs/39703"&gt;“Freedom”&lt;/a&gt; (supporting imprisoned American-Indian activist Leonard Peltier).&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine split up in 2000, with three of the band members joining &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;’s &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt; to form rock supergroup &lt;a href="https://genius.com/artists/Audioslave" rel="noopener" data-api_path="/artists/39547"&gt;Audioslave&lt;/a&gt;. They reunited in 2007, and since then have sporadically performed major live events, but are yet to record any new material. In May 2016, it was revealed that &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt;, &lt;a href="https://genius.com/artists/Brad-wilk" rel="noopener" data-api_path="/artists/646889"&gt;Brad Wilk&lt;/a&gt; and &lt;a href="https://genius.com/artists/Tim-commerford" rel="noopener" data-api_path="/artists/646888"&gt;Tim Commerford&lt;/a&gt; had united with &lt;a href="https://genius.com/artists/Chuck-d" rel="noopener" data-api_path="/artists/1884"&gt;Chuck D&lt;/a&gt; of &lt;a href="https://genius.com/artists/Public-enemy" rel="noopener" data-api_path="/artists/203"&gt;Public Enemy&lt;/a&gt; and &lt;a href="https://genius.com/artists/B-real" rel="noopener" data-api_path="/artists/998"&gt;B-Real&lt;/a&gt; of &lt;a href="https://genius.com/artists/Cypress-hill" rel="noopener" data-api_path="/artists/1317"&gt;Cypress Hill&lt;/a&gt; to form the supergroup, &lt;a href="https://genius.com/artists/Prophets-of-rage" rel="noopener" data-api_path="/artists/980209"&gt;Prophets of Rage&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/System-of-a-down', 'annotations': {'description': '&lt;p&gt;System of a Down, also known by the acronym ‘SOAD’ and often shortened to ‘System,’ are an Armenian four-piece rock band from Southern California, formed in 1994.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;The band achieved commercial success with the release of five studio albums, and &lt;a href="https://genius.com/albums/System-of-a-down/Toxicity" rel="noopener" data-api_path="/albums/18852"&gt;&lt;em&gt;Toxicity&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/System-of-a-down/Mezmerize" rel="noopener" data-api_path="/albums/20128"&gt;&lt;em&gt;Mezmerize&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/System-of-a-down/Hypnotize" rel="noopener" data-api_path="/albums/26057"&gt;&lt;em&gt;Hypnotize&lt;/em&gt;&lt;/a&gt; have all debuted at number one on the Billboard 200. System of a Down has been nominated for four Grammy Awards, and their song &lt;a href="https://genius.com/System-of-a-down-byob-lyrics" rel="noopener" data-api_path="/songs/75978"&gt;“B.Y.O.B.”&lt;/a&gt; won the Best Hard Rock Performance of 2006.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/6721d312ac721b756f51a7f55359521a.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(&lt;em&gt;Toxicity&lt;/em&gt;’s album art)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;The group briefly disbanded in August 2006 and reunited in November 2010, embarking on a tour for the following three years. They had two subsequent worldwide tours in 2015 and 2017.&lt;br&gt;\nThey returned with two singles, &lt;a href="https://genius.com/System-of-a-down-protect-the-land-lyrics" rel="noopener" data-api_path="/songs/6139655"&gt;“Protect the Land”&lt;/a&gt; and &lt;a href="https://genius.com/System-of-a-down-genocidal-humanoidz-lyrics" rel="noopener" data-api_path="/songs/6139659"&gt;“Genocidal Humanoidz”&lt;/a&gt; in November 2020, after fifteen years since their last studio album.&lt;/p&gt;\n\n&lt;p&gt;System of a Down has sold over 40 million records worldwide, and two of their singles, &lt;a href="https://genius.com/System-of-a-down-aerials-lyrics" rel="noopener" data-api_path="/songs/94438"&gt;“Aerials”&lt;/a&gt; and &lt;a href="https://genius.com/System-of-a-down-hypnotize-lyrics" rel="noopener" data-api_path="/songs/105732"&gt;“Hypnotize,”&lt;/a&gt; reached number one on Billboard’s Alternative Songs chart.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;The band currently consists of four Armenian Americans:&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;&lt;a href="https://genius.com/artists/Serj-tankian" rel="noopener" data-api_path="/artists/11189"&gt;Serj Tankian&lt;/a&gt;:&lt;/strong&gt; lead vocals, keyboards, guitar on occasion.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Daron-malakian" rel="noopener" data-api_path="/artists/126460"&gt;Daron Malakian&lt;/a&gt;:&lt;/strong&gt; vocals, guitar.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Shavo-odadijan" rel="noopener"&gt;Shavo Odadjian&lt;/a&gt;:&lt;/strong&gt; bass, backing vocals.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/John-dolmayan" rel="noopener" data-api_path="/artists/646522"&gt;John Dolmayan&lt;/a&gt;:&lt;/strong&gt; drums.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ee9fd1183055081763eedde0c6953a99.620x400x1.jpg" alt="" width="620" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;center&gt;&lt;small&gt;(SOAD’s actual formation)\n&lt;/small&gt;&lt;/center&gt;', 'alternate_names': ['SOAD']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cyndi-lauper', 'annotations': {'description': '&lt;p&gt;An 80’s pop starlet that skyrocketed her way to the top of the mainstream game, Cyndi Lauper has made her mark as an artist both socially and musically.&lt;/p&gt;\n\n&lt;p&gt;Beginning her solo career in the 1983 with hit debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Cyndi-lauper/She-s-so-unusual" rel="noopener" data-api_path="/albums/24258"&gt;She’s So Unusual&lt;/a&gt;&lt;/em&gt;, Lauper came to be a household name with the four top-five hits that came with the record, including breakthrough single &lt;a href="https://genius.com/Cyndi-lauper-girls-just-want-to-have-fun-lyrics" rel="noopener" data-api_path="/songs/98419"&gt;“Girls Just Wanna Have Fun”&lt;/a&gt; and the visceral, chart-topping &lt;a href="https://genius.com/Cyndi-lauper-time-after-time" rel="noopener"&gt;“Time After Time”&lt;/a&gt;. Her camp attitude, electrifying vocals, and unrelenting earworms made an impression on the general public, and she would take home Best New Artist and Best Album Package at the Grammy’s for &lt;em&gt;She’s So Unusual&lt;/em&gt;, amidst 4 other nominations. Lauper would never reach the same sort of stardom again musically following &lt;em&gt;She’s So Unusual&lt;/em&gt;, but her legacy was far from over.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;She’s So Unusual&lt;/em&gt; set the ground for her next work: &lt;em&gt;&lt;a href="https://genius.com/albums/Cyndi-lauper/True-colors" rel="noopener" data-api_path="/albums/121519"&gt;True Colors&lt;/a&gt;&lt;/em&gt;. Released in 1986, the album most notably contained title-track &lt;a href="https://genius.com/Cyndi-lauper-true-colors-lyrics" rel="noopener" data-api_path="/songs/959926"&gt;“True Colors”&lt;/a&gt;, which would grow to become a primary anthem of the gay rights movement. Lauper would later serve as a key advocate of the LGBT community, and she has fairly consistently addressed homophobia throughout her career.&lt;/p&gt;\n\n&lt;p&gt;She released seven more studio albums since then, including a notable best-hits collection and a cover album title &lt;em&gt;&lt;a href="https://genius.com/albums/Cyndi-lauper/At-last" rel="noopener" data-api_path="/albums/146158"&gt;At Last&lt;/a&gt;&lt;/em&gt;. Though none would reach the same commercial success as her previous records despite general critical acclaim, they have expanded Lauper’s sound and topical direction. She’s due to release her next album, &lt;em&gt;&lt;a href="https://genius.com/albums/Cyndi-lauper/Detour" rel="noopener" data-api_path="/albums/142867"&gt;Detour&lt;/a&gt;&lt;/em&gt; on May 2, 2016.&lt;/p&gt;\n\n&lt;p&gt;Lauper has also made a significant imprint on the theatre aspect of culture. In 2013 – 30 years after her initial solo debut – she became the sole composer and lyricist of hit Broadway musical &lt;em&gt;Kinky Boots&lt;/em&gt; to accompany Harvey Feirstein’s book. &lt;em&gt;Boots&lt;/em&gt; brought home six Tony Awards, including Best Score for Lauper, making her the first woman in history to receive the award by herself. With the award, Lauper is only missing an Oscar to become one of the legendary EGOT winners.&lt;/p&gt;\n\n&lt;p&gt;In the last 30 years, Lauper has solidified her status as a pop culture icon, selling over 50 million records in the process.&lt;/p&gt;', 'alternate_names': ['Cynthia Lauper', 'Cynthia Ann Stephanie Lauper']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alice-in-chains', 'annotations': {'description': '&lt;p&gt;Alice in Chains are a Seattle-based rock band. They rose to international fame in the early 1990s as part of the ‘grunge’ movement. They are one of the most critically and commercially acclaimed acts of the 90s. Their first 3 studio albums all went multi-platinum and they have received 8 Grammy nominations for Best Hard Rock performance (sadly, never winning once).&lt;/p&gt;\n\n&lt;p&gt;Their unique sound comes from the harmonized vocals of co-founders &lt;a href="https://genius.com/artists/layne-staley" rel="noopener" data-api_path="/artists/461445"&gt;Layne Staley&lt;/a&gt; and &lt;a href="https://genius.com/artists/jerry-cantrell" rel="noopener" data-api_path="/artists/159296"&gt;Jerry Cantrell&lt;/a&gt;, as showcased in some of their biggest songs like &lt;a href="https://genius.com/Alice-in-chains-no-excuses-lyrics" rel="noopener" data-api_path="/songs/339309"&gt;“No Excuses”&lt;/a&gt; from &lt;a href="https://genius.com/albums/alice-in-chains/jar-of-flies" rel="noopener" data-api_path="/albums/38745"&gt;&lt;em&gt;Jar of Flies&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Alice-in-chains-angry-chair-lyrics" rel="noopener" data-api_path="/songs/391256"&gt;“Angry Chair”&lt;/a&gt; from &lt;a href="https://genius.com/albums/alice-in-chains/dirt" rel="noopener" data-api_path="/albums/38159"&gt;&lt;em&gt;Dirt&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/Alice-in-chains-again-lyrics" rel="noopener" data-api_path="/songs/113953"&gt;“Again”&lt;/a&gt; from the &lt;a href="https://genius.com/albums/alice-in-chains/alice-in-chains" rel="noopener" data-api_path="/albums/27730"&gt;self-titled&lt;/a&gt; album. Cantrell also serves as the primary songwriter and guitarist of the band.&lt;/p&gt;\n\n&lt;p&gt;The band was never restricted to grunge. Cantrell believes it to be heavy metal; and indeed a lot of modern heavy metal bands &lt;a href="https://en.wikipedia.org/wiki/Alice_in_Chains#Legacy" rel="noopener nofollow"&gt;cite Alice in Chains as an influence&lt;/a&gt;, including &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt; for &lt;a href="https://genius.com/albums/Metallica/Death-magnetic" rel="noopener" data-api_path="/albums/40083"&gt;Death Magnetic&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band’s frontman, Layne Staley, suffered throughout his life from depression and substance abuse, which eventually took his life in 2002. It was a huge blow to the industry and many prominent bands recorded &lt;a href="https://genius.com/Staind-layne-lyrics" rel="noopener" data-api_path="/songs/2303320"&gt;songs&lt;/a&gt; as odes to Staley.&lt;/p&gt;\n\n&lt;p&gt;After extended inactivity, the band recruited &lt;a href="https://genius.com/artists/william-duvall" rel="noopener" data-api_path="/artists/574582"&gt;William DuVall&lt;/a&gt; and have released three successful studio albums since his inclusion.&lt;/p&gt;', 'alternate_names': ['AIC']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Pharrell-williams', 'annotations': {'description': '&lt;p&gt;Pharrell Williams (born April 5, 1973) is a record producer, singer-songwriter, rapper, and fashion designer from Virginia Beach, Virginia. Pharrell and his production partner &lt;a href="https://genius.com/artists/Chad-hugo" rel="noopener" data-api_path="/artists/26832"&gt;Chad Hugo&lt;/a&gt; formed the production duo &lt;a href="https://genius.com/artists/The-neptunes" rel="noopener" data-api_path="/artists/4617"&gt;The Neptunes&lt;/a&gt; and they have produced a number of hip-hop, R&amp;amp;B, and pop hits for artists such as &lt;a href="https://genius.com/artists/Jay-z" rel="noopener" data-api_path="/artists/2"&gt;JAY-Z&lt;/a&gt;, &lt;a href="https://genius.com/artists/Usher" rel="noopener" data-api_path="/artists/132"&gt;Usher&lt;/a&gt;, &lt;a href="https://genius.com/artists/Gwen-stefani" rel="noopener" data-api_path="/artists/1893"&gt;Gwen Stefani&lt;/a&gt;, and many more. He is also the lead vocalist and drummer of rap/rock band &lt;a href="https://genius.com/artists/Nerd" rel="noopener" data-api_path="/artists/747"&gt;N.E.R.D&lt;/a&gt;, which he formed with Hugo and &lt;a href="https://genius.com/artists/Shay-haley" rel="noopener" data-api_path="/artists/304487"&gt;Shay Haley&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After singing on a few Neptunes-produced tracks, Pharrell released his first solo single, “Frontin\'”, in 2003. He released his debut solo album, &lt;a href="https://genius.com/albums/Pharrell-williams/In-my-mind" rel="noopener" data-api_path="/albums/7541"&gt;&lt;em&gt;In My Mind&lt;/em&gt;&lt;/a&gt;, in 2006, and his second album &lt;a href="https://genius.com/albums/Pharrell-williams/G-i-r-l" rel="noopener" data-api_path="/albums/84179"&gt;&lt;em&gt;G I R L&lt;/em&gt;&lt;/a&gt; in 2014, which featured the #1 pop single &lt;a href="https://genius.com/Pharrell-williams-happy-lyrics" rel="noopener" data-api_path="/songs/154031"&gt;“Happy”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Pharrell has received a number of awards, including Billboard Music Awards and three Grammy Awards for Producer of the Year, Non-Classical (2004 with The Neptunes, 2014, 2019), as well as receiving an Oscar nomination in 2014 in the Best Original Song category for “Happy” from the &lt;em&gt;Despicable Me 2&lt;/em&gt; soundtrack. He also was a coach on the singing competition show &lt;em&gt;The Voice&lt;/em&gt; in 2014.&lt;/p&gt;\n\n&lt;p&gt;He is also the co-founder of the clothing brands Billionaire Boys Club and Ice Cream, and he also has a partnership deal with Adidas. He established the multimedia company i am OTHER in 2012 to manage all of his business ventures under one umbrella.&lt;/p&gt;', 'alternate_names': ['Pharrell', 'Skateboard P', 'Pharrell Lanscilo Williams', 'Pharrell L. Williams']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Aronchupa', 'annotations': {'description': '&lt;p&gt;Aron Michael Ekberg (AronChupa) is a rapper, singer, songwriter, DJ, record producer, and record label owner from Sweden.&lt;/p&gt;\n\n&lt;p&gt;Aron started his career as a &lt;a href="http://www.lol-la.com/interview-swedish-soccer-player-turned-dj-aronchupa-talks-im-an-albatraoz-much-more/" rel="noopener nofollow"&gt;soccer player&lt;/a&gt;, and later created an electro-hip hop group called Albatraoz (Signed to Sony Music Sweden), along with his friends/members of the soccer club he played for.&lt;/p&gt;\n\n&lt;p&gt;His most Popular song is &lt;a href="https://genius.com/Aronchupa-im-an-albatraoz-lyrics" rel="noopener" data-api_path="/songs/582508"&gt;“I’m an Albatroz,”&lt;/a&gt; and his only album so far is &lt;a href="https://play.spotify.com/album/1PoAlIDkhgVSoX7oskyAF1" rel="noopener nofollow"&gt;&lt;em&gt;Russ&lt;/em&gt;&lt;/a&gt;, released in 2014.&lt;/p&gt;', 'alternate_names': ['Aron Ekberg', 'Aron Michael Ekberg']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Halsey', 'annotations': {'description': '&lt;p&gt;Halsey is the stage name of New Jersey singer &lt;a href="https://genius.com/artists/Ashley-frangipane" rel="noopener" data-api_path="/artists/228636"&gt;Ashley Nicolette Frangipane&lt;/a&gt;. It is an anagram of her first name and taken from the &lt;a href="http://www.yelp.com/biz/halsey-street-subway-station-new-york" rel="noopener nofollow"&gt;Halsey Street subway stop&lt;/a&gt; and street in Brooklyn&amp;lt; New York where she used to live. &lt;a href="http://iamhalsey.com/aboutme" rel="noopener nofollow"&gt;The bio on her website&lt;/a&gt; reads:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I am Halsey. I will never be anything but honest. I write songs about sex and being sad.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Halsey was diagnosed with bipolar disorder when she was 17. This has greatly influenced her creative process from the start of her career. Songs like &lt;a href="https://genius.com/Halsey-control-lyrics" rel="noopener" data-api_path="/songs/726676"&gt;“Control”&lt;/a&gt; and &lt;a href="https://genius.com/Halsey-gasoline-lyrics" rel="noopener" data-api_path="/songs/2286804"&gt;“Gasoline”&lt;/a&gt; explicitly delve into her psychological and emotional battles. &lt;em&gt;Manic&lt;/em&gt;, Halsey’s third album and arguably her rawest and most emotionally vulnerable, &lt;a href="https://www.rollingstone.com/music/music-features/halsey-rebel-peace-cover-story-849084/" rel="noopener nofollow"&gt;was written in a fully manic state&lt;/a&gt; rather than a depressive one.&lt;/p&gt;\n\n&lt;p&gt;When Halsey was a teen with over 14,000 friends on MySpace, she posted covers of songs on YouTube. In 2012, she recorded &lt;a href="https://genius.com/ashley-frangipane-the-haylor-song-lyrics" rel="noopener" data-api_path="/songs/2320385"&gt;“The Haylor Song,”&lt;/a&gt; &lt;a href="https://www.youtube.com/watch?v=ehnEkmUTqyI" rel="noopener nofollow"&gt;a parody&lt;/a&gt; of &lt;a href="https://genius.com/artists/Taylor-swift" rel="noopener" data-api_path="/artists/1177"&gt;Taylor Swift&lt;/a&gt;’s hit song &lt;a href="https://genius.com/taylor-swift-i-knew-you-were-trouble-lyrics" rel="noopener" data-api_path="/songs/92224"&gt;“I Knew You Were Trouble”&lt;/a&gt; that created controversy over the nature of the lyrics. Nevertheless, she had accumulated a respectable amount of online attention, reaching 16,000 subscribers on YouTube at the age of 18.&lt;/p&gt;\n\n&lt;p&gt;In 2014, Halsey posted her first single &lt;a href="https://genius.com/halsey-ghost-lyrics" rel="noopener" data-api_path="/songs/519309"&gt;“Ghost”&lt;/a&gt; on Soundcloud, which turned heads in her direction. Her close friend Anthony &lt;a href="http://www.bbc.co.uk/newsbeat/article/34061249/how-halsey-ruled-the-world-before-releasing-debut-badlands" rel="noopener nofollow"&gt;pretended to be her manager&lt;/a&gt;, accompanying her in various meetings with different record labels. After being signed to &lt;a href="http://twitter.com/Astralwerks" rel="noopener nofollow"&gt;Astralwerks&lt;/a&gt;, she released her EP &lt;a href="https://genius.com/albums/Halsey/Room-93" rel="noopener" data-api_path="/albums/117562"&gt;&lt;em&gt;Room 93&lt;/em&gt;&lt;/a&gt; in late 2014, with four of the five tracks carrying accompanying music videos, giving the EP a “visual” feel. She was the most mentioned artist online at &lt;a href="http://www.billboard.com/articles/events/festivals/6509472/sxsw-twitter-stats-miley-cyrus-run-the-jewels" rel="noopener nofollow"&gt;SXSW 2015&lt;/a&gt;, which was evident by her ever-increasing fanbase. She reached over half a million followers on Twitter at the age of 20.&lt;/p&gt;\n\n&lt;p&gt;In anticipation of her debut effort, &lt;a href="https://genius.com/albums/Halsey/Badlands" rel="noopener" data-api_path="/albums/530224"&gt;&lt;em&gt;Badlands&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/halsey-hold-me-down" rel="noopener"&gt;“Hold Me Down”&lt;/a&gt; was released as a pre-order single, followed by &lt;a href="https://genius.com/halsey-new-americana-lyrics" rel="noopener" data-api_path="/songs/733666"&gt;“New Americana,”&lt;/a&gt; the anthem of today’s diversified generation. &lt;em&gt;Badlands&lt;/em&gt; was officially released on August 28, 2015, described by Halsey as &lt;a href="http://www.coupdemainmagazine.com/interviews/interview-halsey-her-debut-album-badlands" rel="noopener nofollow"&gt;“an angry female record”&lt;/a&gt;. It also represents her &lt;a href="http://www.coupdemainmagazine.com/interviews/interview-halsey-her-debut-album-badlands" rel="noopener nofollow"&gt;mental state&lt;/a&gt;. At Firefly Music Festival 2015, she told an &lt;a href="https://www.youtube.com/watch?v=DIdyEDFf4dA" rel="noopener nofollow"&gt;interviewer&lt;/a&gt;, “For me, it was about creating a universe and making it so that people felt like they were actually being transported somewhere.”&lt;/p&gt;\n\n&lt;p&gt;Halsey and &lt;a href="https://genius.com/artists/Justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt; got together on the Skrillex-produced track &lt;a href="https://genius.com/justin-bieber-the-feeling-lyrics" rel="noopener" data-api_path="/songs/2342330"&gt;“The Feeling,”&lt;/a&gt; which they performed together on the TODAY Show in promotion for Bieber’s fourth album &lt;a href="https://genius.com/albums/Justin-bieber/Purpose" rel="noopener" data-api_path="/albums/132311"&gt;&lt;em&gt;Purpose&lt;/em&gt;&lt;/a&gt;. In 2016, she collaborated &lt;a href="https://genius.com/artists/The-chainsmokers" rel="noopener" data-api_path="/artists/150934"&gt;The Chainsmokers&lt;/a&gt; on the song of the summer, &lt;a href="https://genius.com/the-chainsmokers-closer-lyrics" rel="noopener" data-api_path="/songs/2458848"&gt;“Closer,”&lt;/a&gt; which would go onto become her biggest hit. The Grammy-nominated earworm maintained its reign at the top of the &lt;a href="https://www.billboard.com/music/halsey/chart-history/hot-100/song/987759" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt; Hot 100 for 12 consecutive weeks.&lt;/a&gt; Halsey later dropped &lt;a href="https://genius.com/Halsey-not-afraid-anymore-lyrics" rel="noopener" data-api_path="/songs/2953972"&gt;“Not Afraid Anymore”&lt;/a&gt; for the &lt;a href="https://genius.com/albums/Various-artists/Fifty-shades-darker-original-motion-picture-soundtrack" rel="noopener" data-api_path="/albums/313068"&gt;soundtrack&lt;/a&gt; of the 2017 film &lt;em&gt;Fifty Shades Darker.&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;Halsey’s sophomore album &lt;a href="https://genius.com/albums/Halsey/Hopeless-fountain-kingdom" rel="noopener" data-api_path="/albums/334524"&gt;&lt;em&gt;hopeless fountain kingdom&lt;/em&gt;&lt;/a&gt; was released June 2, 2017. The record’s title fulfills the long-debated acronym “HFK” that she continuously hinted at through the years. The album is &lt;a href="http://www.mtv.com/news/3001539/halsey-romeo-and-juliet-hopeless-fountain-kingdom-symbolism/" rel="noopener nofollow"&gt;inspired by the story of &lt;i&gt;Romeo and Juliet&lt;/i&gt;&lt;/a&gt;. That same year, Halsey and her then-boyfriend &lt;a href="https://genius.com/artists/G-eazy" rel="noopener" data-api_path="/artists/11395"&gt;G-Eazy&lt;/a&gt; released &lt;a href="https://genius.com/G-eazy-and-halsey-him-and-i-lyrics." rel="noopener"&gt;“Him &amp;amp; I.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Halsey’s first track of 2018 was a feature on &lt;a href="https://genius.com/artists/Thirty-seconds-to-mars" rel="noopener" data-api_path="/artists/60945"&gt;Thirty Seconds to Mars\'&lt;/a&gt; &lt;a href="https://genius.com/Thirty-seconds-to-mars-love-is-madness-lyrics" rel="noopener" data-api_path="/songs/3596894"&gt;“Love Is Madness.”&lt;/a&gt; The collabo track &lt;a href="https://genius.com/Benny-blanco-halsey-and-khalid-eastside-lyrics" rel="noopener" data-api_path="/songs/3828011"&gt;“Eastside”&lt;/a&gt; saw her teaming up with &lt;a href="https://genius.com/artists/Khalid" rel="noopener" data-api_path="/artists/9932"&gt;Khalid&lt;/a&gt; and &lt;a href="https://genius.com/artists/Benny-blanco" rel="noopener" data-api_path="/artists/28906"&gt;benny blanco.&lt;/a&gt; Soon after Halsey dropped &lt;a href="https://genius.com/Halsey-without-me-lyrics" rel="noopener" data-api_path="/songs/3977187"&gt;“Without Me,”&lt;/a&gt; the first single from her then-unannounced 2020 album, she and G-Eazy &lt;a href="https://people.com/music/halsey-talks-g-eazy-split-suicide-attempt-glamour-interview/" rel="noopener nofollow"&gt;ended their on-again-off-again relationship,&lt;/a&gt; leading fans to speculate and later confirm that “Without Me” was &lt;a href="https://genius.com/15518820" rel="noopener" data-api_path="/referents/15518820"&gt;about their very public relationship.&lt;/a&gt; “Without Me” hit #1 on the Billboard Hot 100, and in honor of its charting success, she dropped a &lt;a href="https://genius.com/Halsey-without-me-remix-lyrics" rel="noopener" data-api_path="/songs/4215971"&gt;remix&lt;/a&gt; with &lt;a href="https://genius.com/artists/Juice-wrld" rel="noopener" data-api_path="/artists/1237094"&gt;the now-deceased rapper Juice WRLD&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Halsey’s 2019 began with a collaboration with English rocker &lt;a href="https://genius.com/artists/Yungblud" rel="noopener" data-api_path="/artists/1120585"&gt;YUNGBLUD&lt;/a&gt; titled &lt;a href="https://genius.com/Yungblud-and-halsey-11-minutes-lyrics" rel="noopener" data-api_path="/songs/4284170"&gt;“11 Minutes,”&lt;/a&gt; Soon after, the pair &lt;a href="https://www.kiss1027.fm/2019/02/24/halsey-addresses-dating-rumours-in-new-interview/" rel="noopener nofollow"&gt;confirmed they were dating&lt;/a&gt; The duo went on to record a cover of &lt;a href="https://genius.com/artists/Death-cab-for-cutie" rel="noopener" data-api_path="/artists/22559"&gt;Death Cab for Cutie’s&lt;/a&gt; &lt;a href="https://genius.com/Death-cab-for-cutie-i-will-follow-you-into-the-dark-lyrics" rel="noopener" data-api_path="/songs/145060"&gt;“I Will Follow You into the Dark”&lt;/a&gt; for &lt;a href="https://www.abc.net.au/triplej/" rel="noopener nofollow"&gt;triple J.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After years of friendship, Korean-pop group &lt;a href="https://genius.com/artists/Bts" rel="noopener" data-api_path="/artists/70113"&gt;BTS&lt;/a&gt; featured Halsey in &lt;a href="https://genius.com/Bts-boy-with-luv-lyrics" rel="noopener" data-api_path="/songs/4453270"&gt;“Boy With Luv,”&lt;/a&gt; which &lt;a href="https://variety.com/2019/digital/news/bts-youtube-record-boy-with-luv-halsey-1203188877/" rel="noopener nofollow"&gt;broke YouTube’s record for most views on a music video in 24 hours, with 78 million views&lt;/a&gt;. As of October 2020, the video now has over 990 million views.&lt;/p&gt;\n\n&lt;p&gt;On May 17, 2019, Halsey released the stand-alone single, &lt;a href="https://genius.com/Halsey-nightmare-lyrics" rel="noopener" data-api_path="/songs/4541747"&gt;“Nightmare,”&lt;/a&gt; initially intended to be the first single of her third album &lt;a href="https://genius.com/albums/Halsey/Manic" rel="noopener" data-api_path="/albums/488527"&gt;&lt;em&gt;Manic.&lt;/em&gt;&lt;/a&gt; Following this, &lt;a href="https://genius.com/Halsey-graveyard-lyrics" rel="noopener" data-api_path="/songs/4838396"&gt;“Graveyard”&lt;/a&gt; was released, with Halsey announcing that &lt;em&gt;Manic&lt;/em&gt; would drop in January 2020. Singles &lt;a href="https://genius.com/Halsey-finally-beautiful-stranger-lyrics" rel="noopener" data-api_path="/songs/5072613"&gt;“Finally // beautiful stranger,”&lt;/a&gt; &lt;a href="https://genius.com/Halsey-suga-and-bts-sugas-interlude-lyrics" rel="noopener" data-api_path="/songs/5072616"&gt;“SUGA’s Interlude,”&lt;/a&gt; and &lt;a href="https://genius.com/Halsey-you-should-be-sad-lyrics" rel="noopener" data-api_path="/songs/5009294"&gt;“You should be sad”&lt;/a&gt; dropped in anticipation for the album.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Manic&lt;/em&gt; is Halsey’s first album that does not “hide behind a concept"—it’s fully raw nature brings forward her most vulnerable self. She told &lt;a href="https://www.rollingstone.com/music/music-features/halsey-rebel-peace-cover-story-849084/" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt; that mania is "that thing in the back of our minds that drives us to outrageous thoughts. Like when you’re driving a car and you’re like [she mimes suddenly cutting over the wheel], or you’re on top of a building, and you’re like, ‘What if I just jump?’ … You are controlled by those impulses rather than logic and reason.”&lt;/p&gt;\n\n&lt;p&gt;Since releasing their third studio album, Manic, on Jan. 17, 2020, Halsey has delved into her artistic side in more ways than one. On November 10, 2020, Halsey released a book of poems titled I Would Leave Me If I Could, which explores topics such as mental health, sexuality, relationships, longing, and love. The book debuted on The New York Times Best Sellers list, and the cover features an original piece of artwork by Halsey called “American Woman.”&lt;/p&gt;\n\n&lt;p&gt;Alongside her recent poetry book, Halsey also revealed her makeup line, About-Face, on January 25, 2021. This line was described by Halsey as a “multi-dimension makeup brand for everyone,” promoting inclusivity, diversity, and beauty of all forms.&lt;/p&gt;\n\n&lt;p&gt;On January 27, 2021, over a year after the release of &lt;em&gt;Manic&lt;/em&gt;, Halsey announced their pregnancy, alongside a set of photos on Instagram. In the photos, she tagged boyfriend Alev Aydin’s Instagram account right over her belly.&lt;/p&gt;\n\n&lt;p&gt;In March of 2021, Halsey quietly announced their pronouns, putting “she/they” in her Instagram bio. They later spoke more on the subject in their Instagram story, saying “For those asking RE: my updated IG bio, I am happy with either pronouns.” … “The inclusion of ‘they’ in addition to ‘she’ feels most authentic to me. If you know me at all, you know what it means to me to express this outwardly. Thanks for being the best.” Halsey also said this when speaking on her gender identity and pregnancy: “I thought pregnancy would give me very strong, binary feelings about ‘womanhood,’” they wrote. “But truly, it has leveled my perception of gender entirely. My sensitivity to my body has made me hyper aware of my humanness and that’s all.”&lt;/p&gt;\n\n&lt;p&gt;On June 28, Halsey announced their fourth studio album “If I Can’t Have Love, I Want Power”. Produced by Trent Reznor and Atticus Ross, this full-length album is assumed to include their stand-alone single &lt;a href="https://genius.com/Halsey-nightmare-lyrics" rel="noopener" data-api_path="/songs/4541747"&gt;“Nightmare,”&lt;/a&gt; from 2019. On July 7, 2021, the album art was revealed along with a brief Instagram caption from Halsey, where they described it as a “concept album about the joys and horrors of pregnancy and childbirth.” Halsey continued in this caption by saying, “It was very important to me that the cover art conveyed the sentiment of my journey over the past few months. The dichotomy of the Madonna and the Whore. The idea that me as a sexual being and my body as a vessel and gift to my child are two concepts that can co-exist peacefully and powerfully. My body has belonged to the world in many different ways the past few years, and this image is my means of reclaiming my autonomy and establishing my pride and strength as a life force for my human being.” The album’s release date is set to be August 27, 2021.&lt;/p&gt;', 'alternate_names': ['Ashley Frangipane', 'Ashley N. Frangipane', 'Ashley Nicolette Frangipane']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ok-go', 'annotations': {'description': '&lt;p&gt;Formed in Chicago in 1998, OK Go; Damian Kulash, Dan Konopka, Timothy Nordwind, and Andy Ross, is an indie alternative rock band, known for their eye-catching, low-budget music videos.&lt;/p&gt;\n\n&lt;p&gt;In 2002, as Damian Kulash, Timothy Nordwind, Dan Konopka, and Andy Duncan, they released their self-titled debut, to generally positive claim, and has since attained a cult following among fans and critics alike.&lt;/p&gt;\n\n&lt;p&gt;In 2005, as Andy Duncan left, “Oh No” was released to more positive reviews, as Andy Ross joined, and “Here It Goes Again” reached #38 on the Billboard Hot 100.&lt;/p&gt;\n\n&lt;p&gt;2010’s “Of the Blue Colour of the Sky”, along with many hits, such as “White Knuckles”, “WTF?”, and “This Too Shall Pass”, was released to outstanding reviews, as praise went to conceptualization and songs. Also, with a heated debate with EMI for non-encrypted music videos, and hosting, OK Go split and formed Paracdute Recordings, and has since used that label.&lt;/p&gt;\n\n&lt;p&gt;With some time off, they returned again in 2014 with the EP “Upside Out”, which contained the hit “The Writing’s On the Wall”, which made the Billboard 100, and 3 more songs. Those songs eventually turned out to be catalogued for their most meticulous album, “Hungry Ghosts”. Taking a widely electronic route, “Hungry Ghosts” was positively praised by critics and fans alike for its electronic roots.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Guns-n-roses', 'annotations': {'description': '&lt;p&gt;Guns N\' Roses was the most dangerous band in the world in the late 80s and early 90s. Led by singer &lt;a href="https://genius.com/artists/Axl-rose" rel="noopener" data-api_path="/artists/101616"&gt;Axl Rose&lt;/a&gt; and stylish guitarist &lt;a href="https://genius.com/artists/Slash" rel="noopener" data-api_path="/artists/10939"&gt;Slash&lt;/a&gt;, they mixed the passion of blues, the heaviness of rock, and the attitude of punk, bringing forth a breath of fresh air to a music scene dominated by cheesy hair metal bands.&lt;/p&gt;\n\n&lt;p&gt;Their debut album, &lt;a href="https://genius.com/albums/Guns-n-roses/Appetite-for-destruction" rel="noopener" data-api_path="/albums/11175"&gt;&lt;em&gt;Appetite for Destruction&lt;/em&gt;&lt;/a&gt;, is the best selling debut of all-time. They outsold a headlining &lt;a href="https://genius.com/artists/Aerosmith" rel="noopener" data-api_path="/artists/533"&gt;Aerosmith&lt;/a&gt; on their first major tour, released two double albums (&lt;a href="https://genius.com/albums/Guns-n-roses/Use-your-illusion" rel="noopener" data-api_path="/albums/356776"&gt;&lt;em&gt;Use Your Illusion&lt;/em&gt;&lt;/a&gt; &lt;a href="https://genius.com/albums/Guns-n-roses/Use-your-illusion-i" rel="noopener" data-api_path="/albums/20164"&gt;&lt;em&gt;I&lt;/em&gt;&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/albums/Guns-n-roses/Use-your-illusion-ii" rel="noopener" data-api_path="/albums/25700"&gt;&lt;em&gt;II&lt;/em&gt;&lt;/a&gt;) simultaneously, and soon would play to audiences in excesses of 20,000 people.&lt;/p&gt;\n\n&lt;p&gt;However, cracks started forming in the band, as classic era drummer &lt;a href="https://genius.com/artists/Steven-Adler" rel="noopener" data-api_path="/artists/176325"&gt;Steven Adler&lt;/a&gt; was fired from the band before the “Use Your Illusion” releases and founding rhythm guitarist &lt;a href="https://genius.com/artists/Izzy-Stradlin" rel="noopener" data-api_path="/artists/176296"&gt;Izzy Stradlin&lt;/a&gt; left abruptly during the ensuing tour. They were replaced by &lt;a href="https://genius.com/artists/Matt-Sorum" rel="noopener" data-api_path="/artists/366017"&gt;Matt Sorum&lt;/a&gt; and &lt;a href="https://genius.com/artists/Gilby-Clarke" rel="noopener" data-api_path="/artists/348775"&gt;Gilby Clarke&lt;/a&gt;, respectively, with keyboardist &lt;a href="https://genius.com/artists/Dizzy-Reed" rel="noopener" data-api_path="/artists/632937"&gt;Dizzy Reed&lt;/a&gt; joining the band and expanding the group’s sound.&lt;/p&gt;\n\n&lt;p&gt;After releasing a punk-rock covers album (&lt;a href="https://genius.com/albums/Guns-n-roses/The-spaghetti-incident" rel="noopener" data-api_path="/albums/67910"&gt;&lt;em&gt;“The Spaghetti Incident?”&lt;/em&gt;&lt;/a&gt;) in 1993, progress on a follow-up album stalled due to creative differences between Rose and Slash. Tensions arose and personal conflicts caused the band to begin to fall apart. By 1998, only Rose and Reed remained in the band from the “Illusion”-era.&lt;/p&gt;\n\n&lt;p&gt;Several different lineups worked on the new album for over a decade; with musicians as diverse as punk bassist &lt;a href="https://genius.com/artists/Tommy-Stinson" rel="noopener" data-api_path="/artists/33396"&gt;Tommy Stinson&lt;/a&gt;, virtuoso guitarist &lt;a href="https://genius.com/artists/Buckethead" rel="noopener" data-api_path="/artists/362950"&gt;Buckethead&lt;/a&gt;, and several former touring members of &lt;a href="https://genius.com/artists/Nine-Inch-Nails" rel="noopener" data-api_path="/artists/12757"&gt;Nine Inch Nails&lt;/a&gt;. The result, 2008’s &lt;a href="https://genius.com/albums/Guns-n-roses/Chinese-democracy" rel="noopener" data-api_path="/albums/61296"&gt;&lt;em&gt;Chinese Democracy&lt;/em&gt;&lt;/a&gt;, was met with positive reviews but undersold expectations.&lt;/p&gt;\n\n&lt;p&gt;Rose toured heavily from 2001 until 2014 with various musicians from the “Chinese” era, before Slash and bassist &lt;a href="https://genius.com/artists/Duff-mckagan" rel="noopener" data-api_path="/artists/353742"&gt;Duff McKagan&lt;/a&gt; rejoined the band in 2016, marking the first time those three played together since 1994. The current lineup includes Rose, Slash, McKagan, Reed, “Chinese Democracy”-era rhythm guitarist Richard Fortus and drummer Frank Ferrer, and new keyboardist Melissa Reese.&lt;/p&gt;\n\n&lt;p&gt;The group’s “Not In this Lifetime…” quasi-reunion tour became a massive success, grossing over $560 million by 2019, the third highest-grossing tour of all time.&lt;/p&gt;', 'alternate_names': ['Guns and Roses']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kiesza', 'annotations': {'description': "&lt;p&gt;Kiesa Rae Ellestad, born 16 January 1989, is better known as &lt;strong&gt;Kiesza&lt;/strong&gt;. She’s a Canadian singer and multi-instrumentalist from Calgary.&lt;/p&gt;\n\n&lt;p&gt;Kiesza took part in the Young Canadians, performing tap and jazz dancing, as well as theatre. She’s also trained as a ballerina, however, a knee injury at age 15 ended her ballet career. When Ellestad was 18, she says that her parents' divorce caused her to write her first song, as a way of expressing her feelings. The same year, she heard a song of hers played on the radio.&lt;/p&gt;", 'alternate_names': ['Kiesa Ellestad', 'Kiesa Rae Ellestad']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Nsync', 'annotations': {'description': '&lt;p&gt;*NSYNC (sometimes stylized as ★NSYNC, formally stylized as ‘N Sync) was an American boy band formed in Orlando, Florida in 1995 and launched in Germany by BMG Ariola Munich. The group consisted of &lt;a href="https://genius.com/artists/Justin-timberlake" rel="noopener" data-api_path="/artists/334"&gt;Justin Timberlake&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jc-chasez" rel="noopener" data-api_path="/artists/8613"&gt;J.C. Chasez&lt;/a&gt;, &lt;a href="https://genius.com/artists/Chris-kirkpatrick" rel="noopener" data-api_path="/artists/218290"&gt;Chris Kirkpatrick&lt;/a&gt;, &lt;a href="https://genius.com/artists/Joey-fatone" rel="noopener" data-api_path="/artists/390329"&gt;Joey Fatone&lt;/a&gt; and &lt;a href="https://genius.com/artists/Lance-bass" rel="noopener" data-api_path="/artists/996500"&gt;Lance Bass&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After heavily publicized legal battles with their former manager Lou Pearlman and former record label Sony BMG, the group’s second album, &lt;em&gt;&lt;a href="https://genius.com/albums/N-sync/No-strings-attached" rel="noopener" data-api_path="/albums/6463"&gt;No Strings Attached&lt;/a&gt;&lt;/em&gt;, sold over one million copies in one day and 2.42 million copies in one week.&lt;/p&gt;\n\n&lt;p&gt;In addition to a host of Grammy Award nominations, *NSYNC has performed at the World Series, the Super Bowl and the Olympic Games, and sang or recorded with &lt;a href="https://genius.com/artists/Elton-john" rel="noopener" data-api_path="/artists/560"&gt;Elton John&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lisa-left-eye-lopes" rel="noopener" data-api_path="/artists/7393"&gt;Lisa ‘Left Eye’ Lopes&lt;/a&gt;, &lt;a href="https://genius.com/artists/Aerosmith" rel="noopener" data-api_path="/artists/533"&gt;Aerosmith&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mary-j-blige" rel="noopener" data-api_path="/artists/358"&gt;Mary J. Blige&lt;/a&gt;, &lt;a href="https://genius.com/artists/Britney-spears" rel="noopener" data-api_path="/artists/1052"&gt;Britney Spears&lt;/a&gt;, &lt;a href="https://genius.com/artists/Nelly" rel="noopener" data-api_path="/artists/148"&gt;Nelly&lt;/a&gt;, &lt;a href="https://genius.com/artists/Michael-jackson" rel="noopener" data-api_path="/artists/835"&gt;Michael Jackson&lt;/a&gt;, &lt;a href="https://genius.com/artists/Phil-collins" rel="noopener" data-api_path="/artists/3927"&gt;Phil Collins&lt;/a&gt;, &lt;a href="https://genius.com/artists/Stevie-wonder" rel="noopener" data-api_path="/artists/1602"&gt;Stevie Wonder&lt;/a&gt;, &lt;a href="https://genius.com/artists/Celine-dion" rel="noopener" data-api_path="/artists/65300"&gt;Céline Dion&lt;/a&gt; and &lt;a href="https://genius.com/artists/Gloria-estefan" rel="noopener" data-api_path="/artists/83348"&gt;Gloria Estefan&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;While *NSYNC announced a “temporary hiatus” in spring 2002, the band has not recorded new material since. The group’s official website was shut down in the summer of 2006, and in 2007, Lance Bass confirmed that the group has “definitely broken up.” They have sold over 50 million albums during their career.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Zombie-nation', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dj-snake', 'annotations': {'description': '&lt;p&gt;William Grigahcine, better known by his stage name &lt;strong&gt;DJ Snake&lt;/strong&gt;, is a French DJ, rapper and producer mixing hip hop and electronic music.&lt;br&gt;\nBorn: June 13, 1986.&lt;/p&gt;', 'alternate_names': ['W. Grigahcine', 'William Grigahcine', 'William Sami Étienne Grigahcine']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kiss', 'annotations': {'description': '&lt;p&gt;Formed in 1973 by &lt;a href="https://genius.com/artists/Gene-simmons" rel="noopener" data-api_path="/artists/354975"&gt;Gene Simmons&lt;/a&gt;, &lt;a href="https://genius.com/artists/Paul-stanley" rel="noopener" data-api_path="/artists/340440"&gt;Paul Stanley&lt;/a&gt;, &lt;a href="https://genius.com/artists/Ace-frehley" rel="noopener" data-api_path="/artists/310551"&gt;Ace Frehley&lt;/a&gt; and &lt;a href="https://genius.com/artists/Peter-criss" rel="noopener" data-api_path="/artists/358696"&gt;Peter Criss&lt;/a&gt;, KISS is a hard rock band, who are known for their elaborate stage performances.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/6dec1ddca665a2bc5d60ff51d036fe2f.800x337x1.png" alt="" width="800" height="337" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Their lineup has changed constantly, with Simmons (bass, vocals) and Stanley (rhythm guitar, vocals) being the only remaining original members. However, through the years the band’s lead guitarists and drummers (with occasional singing for both) have included &lt;a href="https://genius.com/artists/Eric-carr" rel="noopener" data-api_path="/artists/370157"&gt;Eric Carr&lt;/a&gt;, &lt;a href="https://genius.com/artists/Vinnie-vincent" rel="noopener" data-api_path="/artists/380185"&gt;Vinnie Vincent&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mark-st-john" rel="noopener" data-api_path="/artists/106602"&gt;Mark St. John&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Bruce-kulick" rel="noopener" data-api_path="/artists/361740"&gt;Bruce Kulick&lt;/a&gt;, with the current lineup consisting of &lt;a href="https://genius.com/artists/Tommy-thayer" rel="noopener" data-api_path="/artists/347802"&gt;Tommy Thayer&lt;/a&gt; (lead guitar, vocals) and &lt;a href="https://genius.com/artists/Eric-singer" rel="noopener" data-api_path="/artists/64074"&gt;Eric Singer&lt;/a&gt; (drums, vocals).&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Linkin-park', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/albums/Linkin-park/Hybrid-theory" rel="noopener" data-api_path="/albums/15321"&gt;&lt;em&gt;Hybrid Theory&lt;/em&gt;&lt;/a&gt; isn’t just the title of Linkin Park’s chart-topping debut album, but a career mission statement.&lt;/p&gt;\n\n&lt;p&gt;From day one, the same six players (lead vocalist &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt;, drummer/percussionist &lt;a href="https://genius.com/artists/Rob-bourdon" rel="noopener" data-api_path="/artists/643808"&gt;Rob Bourdon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Brad-delson" rel="noopener" data-api_path="/artists/177201"&gt;Brad Delson&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Dave-farrell" rel="noopener" data-api_path="/artists/635618"&gt;Dave ‘Phoenix’ Farrell&lt;/a&gt;, DJ/Programmer &lt;a href="https://genius.com/artists/Joe-hahn" rel="noopener" data-api_path="/artists/271318"&gt;Joe Hahn&lt;/a&gt;, and keyboardist, guitarist, and co-lead vocals &lt;a href="https://genius.com/artists/Mike-shinoda" rel="noopener" data-api_path="/artists/4431"&gt;Mike Shinoda&lt;/a&gt;) built the band by fusing all their favorite styles of music into one unmistakable signature sound. With each album, Linkin Park defiantly challenges themselves and their fans by blasting into new musical territory. After setting the template for rock that incorporated hip-hop influences with &lt;em&gt;Hybrid Theory&lt;/em&gt; and &lt;a href="https://genius.com/albums/Linkin-park/Meteora" rel="noopener" data-api_path="/albums/5986"&gt;&lt;em&gt;Meteora&lt;/em&gt;&lt;/a&gt;, they shifted gears completely and defied expectations with the polychromatic &lt;a href="https://genius.com/albums/Linkin-park/Minutes-to-midnight" rel="noopener" data-api_path="/albums/16008"&gt;&lt;em&gt;Minutes to Midnight&lt;/em&gt;&lt;/a&gt;, and again with the esoteric &lt;a href="https://genius.com/albums/Linkin-park/A-thousand-suns" rel="noopener" data-api_path="/albums/15414"&gt;&lt;em&gt;A Thousand Suns&lt;/em&gt;&lt;/a&gt;, before melding a piece of them all into 2012’s &lt;a href="https://genius.com/albums/Linkin-park/Living-things" rel="noopener" data-api_path="/albums/16392"&gt;&lt;em&gt;LIVING THINGS&lt;/em&gt;&lt;/a&gt;. With their 2014 release and heaviest offering in years, &lt;a href="https://genius.com/albums/Linkin-park/The-hunting-party" rel="noopener" data-api_path="/albums/100521"&gt;&lt;em&gt;The Hunting Party&lt;/em&gt;&lt;/a&gt;, Linkin Park manage to capture their ever-innovative spirit with a hunger seldom seen in bands on their seventh album. &lt;a href="https://genius.com/albums/Linkin-park/One-more-light" rel="noopener" data-api_path="/albums/330664"&gt;&lt;em&gt;One More Light&lt;/em&gt;&lt;/a&gt; (2017) is an interesting personal album, filled with a lot of emotion.&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, on July 20, 2017, Chester unexpectedly &lt;a href="http://www.tmz.com/2017/07/20/linkin-park-singer-chester-bennington-dead-commits-suicide/" rel="noopener nofollow"&gt;died by suicide&lt;/a&gt;, shocking and saddening both fans and his own band members alike.&lt;/p&gt;\n\n&lt;p&gt;As for the band’s name, they were originally called Hybrid Theory, but trademark issues with a band called Hybrid forced the band to rethink their name. According to &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names/P1" rel="noopener nofollow"&gt;&lt;em&gt;Alternative Press&lt;/em&gt;&lt;/a&gt;, Bennington suggested “Lincoln Park” since he had to drive past there after band practice to get home. However, the domain name “lincolnpark.com” cost more than the band could afford so they changed the spelling to Linkin Park. It was also suggested that the name change would help them appear right next to Limp Bizkit at record stores.&lt;/p&gt;', 'alternate_names': ['Hybrid Theory', 'Xero', 'MMM...COOKIES']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sir-mix-a-lot', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Anthony Ray', 'Anthony L. Ray']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Wet-wet-wet', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tonic', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dragonette', 'annotations': {'description': '&lt;p&gt;Dragonette is a Canadian electronic music band from Toronto, Ontario, formed in 2005. The band consists of singer-songwriter Martina Sorbara, bassist and producer Dan Kurtz (also in The New Deal) and drummer Joel Stouffer.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Vengaboys', 'annotations': {'description': '&lt;p&gt;Vengaboys are a very popular bubblegum pop group. The members of the group are &lt;a href="http://www.bubblegumdancer.com/project.php?id=128#ixzz5IzGQMbFa" rel="noopener nofollow"&gt;Kim Sasabone, Denise Post-Van Rijswijk, Yorick Bakker, and Donny Latupeirissa&lt;/a&gt;. They’re well-known for their cartoonish poppy songs such as “Boom, Boom, Boom, Boom!!” They’ve sold an estimated &lt;a href="https://en.wikipedia.org/wiki/Vengaboys#Discography" rel="noopener nofollow"&gt;25 million records worldwide&lt;/a&gt; and was named the “Best Selling Music Group” in 2003 by World Music Awards.&lt;/p&gt;\n\n&lt;p&gt;The group has released three albums; &lt;em&gt;Up &amp;amp; Down-The Party Album&lt;/em&gt;, &lt;em&gt;The Party Album!&lt;/em&gt;, and &lt;em&gt;The Platinum Album&lt;/em&gt;; two of the albums have achieved gold and platinum status in other countries.&lt;/p&gt;\n\n&lt;p&gt;The group took a hiatus after 2000 and returned in 2006 with a new member Donny Latupeirissa, or Ma\'Donny. In 2010, the band confirmed that their &lt;a href="https://en.wikipedia.org/wiki/Vengaboys#Discography" rel="noopener nofollow"&gt;comeback single&lt;/a&gt; would be “Rocket to Uranus” and was released in June. In 2013, they released a new single called “Hot Hot Hot”.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;The X-mas Party Album&lt;/em&gt; was released in 2014. In 2017, the band announced Party On the Dance Floor Tour.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ugly-kid-joe', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Royal-blood', 'annotations': {'description': '&lt;p&gt;Two piece rock band (consisting of members Mike Kerr and Ben Thatcher) with only bass and drums, formed in Brighton UK. Their sound is expanded by the use of effects to fill the space where other instruments would normally be.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dnce', 'annotations': {'description': '&lt;p&gt;In 2015, &lt;a href="https://genius.com/artists/Joe-jonas" rel="noopener" data-api_path="/artists/16515"&gt;Joe Jonas&lt;/a&gt; announced his first project since the &lt;a href="https://genius.com/artists/Jonas-brothers" rel="noopener" data-api_path="/artists/8436"&gt;Jonas Brothers&lt;/a&gt; officially split: a band called DNCE. Joe recruited guitarist &lt;a href="https://genius.com/artists/Jinjoo-lee" rel="noopener" data-api_path="/artists/1035785"&gt;JinJoo Lee&lt;/a&gt;, bassist and keyboardist &lt;a href="https://genius.com/artists/Cole-whittle" rel="noopener" data-api_path="/artists/1006070"&gt;Cole Whittle&lt;/a&gt;, and drummer &lt;a href="https://genius.com/artists/Jack-lawless" rel="noopener" data-api_path="/artists/1035786"&gt;Jack Lawless&lt;/a&gt;, who worked with Joe back in his JB days.&lt;/p&gt;\n\n&lt;p&gt;JinJoo &lt;a href="http://www.dnce.com/2015/10/23/interview-magazine-with-dnce/" rel="noopener nofollow"&gt;told &lt;em&gt;Interview Magazine&lt;/em&gt;&lt;/a&gt; the meaning of the band’s name.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;‘DNCE’ is ‘dance’ without an A. It’s not a perfect word, and you don’t have to be a perfect dancer to dance. Life is just sometimes not perfect.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;On September 14, 2015, the band premiered their debut single, &lt;a href="https://genius.com/DNCE-cake-by-the-ocean-lyrics" rel="noopener" data-api_path="/songs/2306268"&gt;“Cake By the Ocean,”&lt;/a&gt; on New York’s Z100. The song blew up and soon found a place in the background of an AT&amp;amp;T commercial. This drove more people to check out their music and boosted sales and popularity.&lt;/p&gt;\n\n&lt;p&gt;On October 23rd, 2015, the &lt;a href="https://genius.com/albums/Dnce/Swaay-ep" rel="noopener" data-api_path="/albums/133124"&gt;&lt;em&gt;SWAAY&lt;/em&gt; EP&lt;/a&gt; was released, and a few months later the band announced they would be touring with &lt;a href="https://genius.com/artists/Selena-gomez" rel="noopener" data-api_path="/artists/45372"&gt;Selena Gomez&lt;/a&gt; in the summer of 2016.&lt;/p&gt;\n\n&lt;p&gt;On November 18th, 2016, the &lt;a href="https://genius.com/albums/Dnce/Dnce" rel="noopener" data-api_path="/albums/222215"&gt;self-titled debut album&lt;/a&gt; was released.&lt;/p&gt;\n\n&lt;p&gt;On June 15th, 2018, the &lt;a href="https://genius.com/albums/Dnce/People-to-people-ep" rel="noopener" data-api_path="/albums/397299"&gt;&lt;em&gt;People to People&lt;/em&gt; EP&lt;/a&gt; was released. This was their last project until their hiatus due to Jonas and Lawless continuing with the Jonas Brothers starting from February 28th, 2019. As of now, they are on hiatus.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sasha', 'annotations': {'description': '&lt;p&gt;Sasha may refer to:&lt;/p&gt;\n\n&lt;ol&gt;\n&lt;li&gt;&lt;p&gt;Jamaican musician, born Karen Chin.&lt;br&gt;\nA dancehall artist, deejay, and singer, best known for her singles “Dat Sexy Body”, “Kill the Bitch”, and her featured single “I’m Still in Love with You” with Sean Paul.&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;German singer, born Sascha Schmitz.&lt;br&gt;\nA pop singer spawning hits across Europe, with gold and platinum selling albums “Dedicated to…”, “…you”, and “Surfin\' on a Backbeat”, as well as hit singles “If You Believe” and “I Feel Lonely”&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Welsh DJ, born Alexander Coe.&lt;br&gt;\nAn electronic music producer and DJ pioneering house and dance music. Best known for his mix albums, remixes, and works with John Digweed as Sasha &amp;amp; John Digweed.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;\n\n\n&lt;p&gt;&lt;img src="https://images.genius.com/fbff701e6b56d7141ee6f361eef0d1cc.1000x1000x1.png" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Anderson-paak', 'annotations': {'description': '&lt;p&gt;Brandon Paak Anderson, a.k.a. Anderson .Paak, is a singer, songwriter, producer, and drummer from Oxnard, California. He released his debut EP, &lt;em&gt;Violets Are Blue,&lt;/em&gt; under his original moniker, &lt;a href="https://www.youtube.com/watch?v=gasKY7t30io&amp;amp;t=0m9s" rel="noopener nofollow"&gt;Breezy Lovejoy&lt;/a&gt;, in 2010. He eventually began using his new stage name and released  &lt;em&gt;O.B.E. Vol. 1&lt;/em&gt; in June 2012 and &lt;em&gt;Lovejoy&lt;/em&gt; in October 2012.&lt;/p&gt;\n\n&lt;p&gt;Before his 2014 album &lt;a href="https://genius.com/albums/Anderson-paak/Venice" rel="noopener" data-api_path="/albums/128954"&gt;&lt;em&gt;Venice,&lt;/em&gt;&lt;/a&gt; .Paak officially changed his name to Anderson .Paak. When asked if his name change was symbolic of a turning point in his career by &lt;a href="http://consequenceofsound.net/2015/12/from-compton-to-malibu-the-new-life-of-anderson-paak/" rel="noopener nofollow"&gt;&lt;em&gt;Consequence of Sound&lt;/em&gt;,&lt;/a&gt; he stated:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Yeah, that was the case. […] and I felt like it was time to transition to a different name.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;With his name change, .Paak was reborn. &lt;em&gt;Venice&lt;/em&gt;, released a full two years after his last project showcased .Paak’s incredible versatility. &lt;a href="https://genius.com/Anderson-paak-milk-n-honey-lyrics" rel="noopener" data-api_path="/songs/557673"&gt;“Milk n\' Honey”&lt;/a&gt; showed .Paak’s storytelling ability. In &lt;a href="https://genius.com/Anderson-paak-the-city-lyrics" rel="noopener" data-api_path="/songs/2284324"&gt;“The City,”&lt;/a&gt; .Paak shows he can create a West Coast anthem. &lt;a href="https://genius.com/Anderson-paak-drugs-lyrics" rel="noopener" data-api_path="/songs/452769"&gt;“Drugs,”&lt;/a&gt; the single that &lt;a href="http://www.laweekly.com/music/anderson-paaks-long-hard-road-to-fame-was-worth-the-wait-7169706" rel="noopener nofollow"&gt;got .Paak noticed by Dre,&lt;/a&gt; is perhaps .Paak’s most telling song of his sound, with powerful vocals and progressive production on full display.&lt;/p&gt;\n\n&lt;p&gt;2015 was a standout year for .Paak, thanks to his guest features. Appearing on six songs from Dr. Dre’s &lt;a href="https://genius.com/albums/Dr-dre/Compton" rel="noopener" data-api_path="/albums/128418"&gt;&lt;em&gt;Compton&lt;/em&gt;&lt;/a&gt; project, as well as two songs on The Game’s &lt;a href="https://genius.com/albums/The-game/The-documentary-2-5" rel="noopener" data-api_path="/albums/132576"&gt;&lt;em&gt;The Documentary 2.5&lt;/em&gt;&lt;/a&gt;, his popularity began to skyrocket. In late 2015, .Paak released two EP’s: &lt;a href="https://genius.com/albums/Anderson-paak/The-anderson-paak-ep" rel="noopener" data-api_path="/albums/134092"&gt;&lt;em&gt;The Anderson .Paak EP&lt;/em&gt;&lt;/a&gt; in collaboration with The Blended Babies and &lt;a href="https://genius.com/albums/Nxworries/Link-up-suede" rel="noopener" data-api_path="/albums/139158"&gt;&lt;em&gt;Link Up &amp;amp; Suede&lt;/em&gt;&lt;/a&gt; as one half of &lt;a href="https://genius.com/artists/Nxworries" rel="noopener" data-api_path="/artists/339382"&gt;NxWorries&lt;/a&gt; with producer &lt;a href="https://genius.com/artists/Knxwledge" rel="noopener" data-api_path="/artists/30574"&gt;Knxwledge&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Riding the success of 2015, 2016 saw .Paak collaborate with many big name artists. Anderson was featured on Macklemore’s &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-dance-off-lyrics" rel="noopener" data-api_path="/songs/2429093"&gt;“Dance Off”,&lt;/a&gt; Domo Genesis\' &lt;a href="https://genius.com/Domo-genesis-dapper-lyrics" rel="noopener" data-api_path="/songs/2437280"&gt;“Dapper”,&lt;/a&gt; KAYTRANDA’s &lt;a href="https://genius.com/Kaytranada-glowed-up-lyrics" rel="noopener" data-api_path="/songs/2452034"&gt;“Glowed Up,”&lt;/a&gt; Snakehips &lt;a href="https://genius.com/Snakehips-money-on-me-lyrics" rel="noopener" data-api_path="/songs/2448137"&gt;“Money On Me”,&lt;/a&gt; ScHoolboy Q’s &lt;a href="https://genius.com/Schoolboy-q-blank-face-lyrics" rel="noopener" data-api_path="/songs/2670497"&gt;“Blank Face”,&lt;/a&gt; and Mac Miller’s &lt;a href="https://genius.com/Mac-miller-dang-lyrics" rel="noopener" data-api_path="/songs/2828305"&gt;“Dang!”.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In January of 2016, .Paak released his second album, &lt;a href="https://genius.com/albums/Anderson-paak/Malibu" rel="noopener" data-api_path="/albums/139522"&gt;&lt;em&gt;Malibu.&lt;/em&gt;&lt;/a&gt; The album, sixteen tracks in length, is .Paak’s strongest work to date, showing the growth he’s made since his Breezy Lovejoy days. The album was met with incredible praise, receiving an &lt;a href="http://www.metacritic.com/music/malibu/anderson-paak" rel="noopener nofollow"&gt;85 on Metacritic,&lt;/a&gt; making it one of the &lt;a href="http://www.metacritic.com/browse/albums/score/metascore/year?sort=desc&amp;amp;year_selected=2016" rel="noopener nofollow"&gt;most well-received albums of the year.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After the release of &lt;em&gt;Malibu,&lt;/em&gt; .Paak announced that he signed to Dr. Dre’s &lt;a href="http://aftermathmusic.com/" rel="noopener nofollow"&gt;Aftermath Entertainment&lt;/a&gt;. Paak was also a member of &lt;a href="http://freshman.xxlmag.com/" rel="noopener nofollow"&gt;2016’s XXL Freshman Issue&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He released his third studio album, &lt;a href="https://genius.com/albums/Anderson-paak/Oxnard" rel="noopener" data-api_path="/albums/431070"&gt;&lt;em&gt;Oxnard&lt;/em&gt;&lt;/a&gt;, on November 16, 2018. He would release two singles prior to the project: &lt;a href="https://genius.com/Anderson-paak-tints-lyrics" rel="noopener" data-api_path="/songs/3997715"&gt;“Tints”&lt;/a&gt;, featuring Kendrick Lamar, and &lt;a href="https://genius.com/Anderson-paak-who-r-u-lyrics" rel="noopener" data-api_path="/songs/4045184"&gt;“Who R U?”&lt;/a&gt;, produced in part by &lt;a href="https://genius.com/artists/Dr-dre" rel="noopener" data-api_path="/artists/123"&gt;Dr. Dre&lt;/a&gt;. The album was received well by critics, and debuted at #11 on the &lt;em&gt;Billboard&lt;/em&gt; 200. The song &lt;a href="https://genius.com/Anderson-paak-bubblin-lyrics" rel="noopener" data-api_path="/songs/2921121"&gt;“Bubblin”&lt;/a&gt; won “Best Rap Performance” at the 61st Grammy Awards on May 17, 2019.&lt;/p&gt;\n\n&lt;p&gt;On April 12, 2019, he released his fourth studio album, &lt;a href="https://genius.com/albums/Anderson-paak/Ventura" rel="noopener" data-api_path="/albums/508432"&gt;&lt;em&gt;Ventura&lt;/em&gt;&lt;/a&gt;. The star-studded project features such artists as &lt;a href="https://genius.com/artists/Andre-3000" rel="noopener" data-api_path="/artists/14266"&gt;André 3000&lt;/a&gt;, &lt;a href="https://genius.com/artists/Smokey-robinson" rel="noopener" data-api_path="/artists/1223"&gt;Smokey Robinson&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lalah-hathaway" rel="noopener" data-api_path="/artists/100354"&gt;Lalah Hathaway&lt;/a&gt;, and more. &lt;em&gt;Ventura&lt;/em&gt; would become Paak’s first US Top Ten hit, debuting at #4 on the &lt;em&gt;Billboard&lt;/em&gt; 200.&lt;/p&gt;', 'alternate_names': ['Cheeky Andy', 'Breezy Lovejoy', 'Brandon P. Anderson', 'Brandon Paak Anderson']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Rainbow-kitten-surprise', 'annotations': {'description': '&lt;p&gt;Rainbow Kitten Surprise and all five of its members hail from the mountains of Boone, North Carolina. With chilling harmonies, dynamic instrumentation, and introspective lyrics, their genre-defying sound will keep you humming their tunes all day long. The band takes influence from great artists like Modest Mouse and Kings of Leon, as much as Frank Ocean and Schoolboy Q. Their highly unusual band name is &lt;a href="https://www.redbull.tv/video/AP-1SHAEV1RH2111/interview-rainbow-kitten-surprise" rel="noopener nofollow"&gt;credited&lt;/a&gt; to a roommate of RKS. The members asked him to name the band as he was leaving the hospital, and, still under the influence of morphine, he named the band Rainbow Kitten Surprise.&lt;/p&gt;\n\n&lt;p&gt;RKS was formed in early 2013 when the first two members, Sam Melo and Darrick “Bozzy” Keller, decided to begin writing and composing music together. What started out as just two college students with acoustic guitars would soon turn into a full band with a unique sound and style.&lt;/p&gt;\n\n&lt;p&gt;After recording RKS’s first EP “Mary” in an old dorm room on the campus of Appalachian State University, the duo decided to take it up a notch by adding more members and instruments to the band. Over the next year the group widely expanded in size and sound by adding three more members: Ethan Goodpaster (Electric Guitar), Jess Haney (Drums), and Charlie Holt (Bass). In that year, RKS independently released their first album “Seven”, which was later re-released in combination with the band’s first EP as a joint album titled “Seven + Mary”. The title song, “Seven” has been featured in many places on the web including the very popular podcast by IGN, Podcast Beyond! The song “Devil Like Me” and its music video earned the band a spot in VH1’s “Make A Band Famous” contest, where they made it to the final 24 out of thousands of artists from across the US.&lt;/p&gt;\n\n&lt;p&gt;In 2015 the group released the full-length album titled “RKS” and performed at clubs and festivals over the next three years.&lt;/p&gt;\n\n&lt;p&gt;Independently, they have over 75 million streams across digital platforms and notched over 45 sold out shows on their first U.S. headline tour. Elektra Records took note and signed RKS in 2018. The band worked with GRAMMY award-winning producer &lt;a href="https://genius.com/artists/Jay-joyce" rel="noopener" data-api_path="/artists/59535"&gt;Jay Joyce&lt;/a&gt; (Cage The Elephant, Sleeper Agent) on their Elektra debut, How to: Friend, Love, Freefall. The album is being supported by a tour of the same name, with shows throughout the US and Canada.&lt;/p&gt;\n\n&lt;p&gt;The group’s main interest is producing a quality, unique, and fresh sound for all music lovers to listen to and enjoy.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Salt-n-pepa', 'annotations': {'description': '&lt;p&gt;Salt-N-Pepa is arguably the most successful female rap group of all time. The group began with Cheryl “Salt” James and Sandra “Pepa” Denton meeting while studying to be nurses. James got Denton a job at a Sears department store, where her boyfriend Hurby “Luv Bug” Azor also worked. Azor was studying music production and he asked them to help on &lt;a href="https://www.washingtonpost.com/archive/lifestyle/1994/05/27/salt-n-pepa-taking-control/a969fdd2-c2e2-4b7a-bc48-f83dadb3d13d/?utm_term=.db33642e0b2e" rel="noopener nofollow"&gt;a school project&lt;/a&gt;, an answer record to Doug E. Fresh’s “The Show” they named &lt;a href="https://genius.com/Salt-n-pepa-the-showstopper-is-stupid-fresh-lyrics" rel="noopener" data-api_path="/songs/2147764"&gt;“The Showstopper”&lt;/a&gt; – recorded in 1985 under the name Supernature.&lt;/p&gt;\n\n&lt;p&gt;After the legendary Queens DJ Marley Marl played “The Showstopper” on his radio show, the group &lt;a href="https://i-d.vice.com/en_uk/article/d3p9nv/salt-n-pepa-hip-hop-90s-interview-music" rel="noopener nofollow"&gt;began getting booked for shows&lt;/a&gt;. One lyric in “The Showstopper” was ‘We the salt and pepper’, and people kept requesting ‘that salt and pepper song’, so &lt;a href="https://i-d.vice.com/en_uk/article/d3p9nv/salt-n-pepa-hip-hop-90s-interview-music" rel="noopener nofollow"&gt;they changed their name&lt;/a&gt; to Salt-N-Pepa. Deejay Deidra “Spinderella” Ropa was added soon after.&lt;/p&gt;\n\n&lt;p&gt;SNP’s debut album &lt;a href="https://genius.com/albums/Salt-n-pepa/Hot-cool-and-vicious" rel="noopener" data-api_path="/albums/8996"&gt;&lt;em&gt;Hot, Cool, &amp;amp; Vicious&lt;/em&gt;&lt;/a&gt; originally spawned a minor hit in the UK with &lt;a href="https://genius.com/Salt-n-pepa-my-mike-sounds-nice-lyrics" rel="noopener" data-api_path="/songs/2144116"&gt;“My Mike Sounds Nice”&lt;/a&gt; in early 1987. But it was the re-release of a remix of “Push It”, originally a quickly-thrown together b-side for their fall ‘87 single “Tramp”, that shot the group into international stardom. The song reached the top 10 in eleven countries &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Salt-N-Pepa&amp;amp;titel=Push+It&amp;amp;cat=s" rel="noopener nofollow"&gt;around the world&lt;/a&gt; in 1988.&lt;/p&gt;\n\n&lt;p&gt;The group had continued international success throughout first half of the 1990s with hits like “Expression”, “Do You Really Want Me”, “You Showed Me”, &lt;a href="https://genius.com/Salt-n-pepa-shoop-lyrics" rel="noopener" data-api_path="/songs/3464"&gt;“Shoop”&lt;/a&gt; and &lt;a href="https://genius.com/Salt-n-pepa-whatta-man-lyrics" rel="noopener" data-api_path="/songs/51518"&gt;“Whatta Man”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/En-vogue" rel="noopener" data-api_path="/artists/8571"&gt;En Vogue&lt;/a&gt;. Their 1991 hit &lt;a href="https://genius.com/Salt-n-pepa-lets-talk-about-sex-lyrics" rel="noopener" data-api_path="/songs/41354"&gt;“Let’s Talk About Sex”&lt;/a&gt; was used to raise awareness about the AIDS epidemic in the United States at the time. SNP won a Grammy for Best Rap Performance by a Duo or Group in 1994 for &lt;a href="https://genius.com/Salt-n-pepa-none-of-your-business-lyrics" rel="noopener" data-api_path="/songs/354653"&gt;“None of Your Business”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The group released their last album &lt;em&gt;Brand New&lt;/em&gt; in 1997, featuring a modest hit &lt;a href="https://genius.com/Salt-n-pepa-r-u-ready-lyrics" rel="noopener" data-api_path="/songs/41370"&gt;“R U Ready,”&lt;/a&gt; before disbanding. SNP &lt;a href="https://i-d.vice.com/en_uk/article/d3p9nv/salt-n-pepa-hip-hop-90s-interview-music" rel="noopener nofollow"&gt;continues to tour&lt;/a&gt; and make television appearances, including the VH-1 reality series &lt;em&gt;The Salt-N-Pepa Show&lt;/em&gt; and &lt;em&gt;Let’s Talk About Pep&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-knack', 'annotations': {'description': '&lt;p&gt;The Knack was an American rock band based in Los Angeles that rose to fame with their first single, “My Sharona”, an international number-one hit in 1979.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/e7da446954646ea01484e56a690d87de.800x531x1.jpg" alt="" width="800" height="531" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Taylor-dayne', 'annotations': {'description': '&lt;p&gt;Leslie Wunderman (born March 7, 1962), better known by her recording and stage names Les Lee and Taylor Dayne, is an American pop and freestyle music singer-songwriter and actress. In late 1987, she scored her first major hit when her debut single &lt;a href="https://genius.com/Taylor-dayne-tell-it-to-my-heart-lyrics" rel="noopener" data-api_path="/songs/1475149"&gt;“Tell It to My Heart”&lt;/a&gt; reached No. 7 on the Hot 100. She then went on to have a string of hits in the late 1980s and early 1990s, including the No. 1 Billboard hit &lt;a href="https://genius.com/Taylor-dayne-love-will-lead-you-back-lyrics" rel="noopener" data-api_path="/songs/1786378"&gt;“Love Will Lead You Back”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Overall, she has had eighteen individual hit songs reach the top ten in Billboard magazine. These include most recently, the 2011 American and international hit &lt;a href="https://genius.com/Taylor-dayne-floor-on-fire-original-radio-mix-lyrics" rel="noopener" data-api_path="/songs/4371117"&gt;“Floor on Fire”&lt;/a&gt; and the 2008 song &lt;a href="https://genius.com/Taylor-dayne-beautiful-lyrics" rel="noopener" data-api_path="/songs/901021"&gt;“Beautiful”&lt;/a&gt;, which reached the top spot on the Billboard Hot Dance Club Play chart. She has also topped the U.S. Billboard Hot Dance Club Play chart three times. In December 2016, Billboard magazine ranked her as the 28th most successful dance artist of all-time.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Belinda-carlisle', 'annotations': {'description': '&lt;p&gt;Belinda Jo Carlisle (born August 17, 1958) is an American singer and songwriter. She gained worldwide fame as the lead singer of The Go-Go’s, one of the most successful all-female bands of all time, and went on to have a prolific career as a solo act.&lt;/p&gt;', 'alternate_names': ['Belinda J. Carlisle', 'Belinda Jo Carlisle']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Calvin-harris', 'annotations': {'description': '&lt;p&gt;Adam Richard Wiles (born 17 January 1984), better known by his stage name &lt;strong&gt;Calvin Harris&lt;/strong&gt;, is a Scottish DJ, singer, songwriter, and record producer. He collaborated with &lt;a href="https://genius.com/artists/Rihanna" rel="noopener" data-api_path="/artists/89"&gt;Rihanna&lt;/a&gt; on the international hit &lt;a href="http://rock.genius.com/Rihanna-we-found-love-lyrics" rel="noopener" data-api_path="/songs/56642"&gt;“We Found Love.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;According to Forbes, Harris &lt;a href="http://news.genius.com/Forbes-worlds-highest-paid-djs-electronic-cash-kings-lyrics" rel="noopener" data-api_path="/songs/205119"&gt;was the highest paid DJ of 2013,&lt;/a&gt; grossing an estimated $46 million.&lt;/p&gt;', 'alternate_names': ['Adam Wiles', 'Adam R. Wiles', 'Adam Richard Wiles']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Colin-petersen', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Owl-city', 'annotations': {'description': '&lt;p&gt;Originally making songs in his basement for his friends as &lt;a href="https://genius.com/artists/Sky-sailing" rel="noopener" data-api_path="/artists/360480"&gt;Sky Sailing&lt;/a&gt;, &lt;a href="https://genius.com/artists/Adam-young" rel="noopener" data-api_path="/artists/39521"&gt;Adam Young&lt;/a&gt; then discovered synth music and became Owl City, releasing two relatively unpopular albums &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Maybe-i-m-dreaming" rel="noopener" data-api_path="/albums/40282"&gt;Maybe I’m Dreaming&lt;/a&gt;&lt;/em&gt; and &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Of-june" rel="noopener" data-api_path="/albums/100523"&gt;Of June&lt;/a&gt;&lt;/em&gt; before making his hit single “&lt;a href="https://genius.com/Owl-city-fireflies-lyrics" rel="noopener" data-api_path="/songs/54831"&gt;Fireflies&lt;/a&gt;” which made his third album as Owl City, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Ocean-eyes" rel="noopener" data-api_path="/albums/12041"&gt;Ocean Eyes&lt;/a&gt;&lt;/em&gt; a hit.&lt;/p&gt;\n\n&lt;p&gt;After this worldwide success he put on two more albums, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/All-things-bright-and-beautiful" rel="noopener" data-api_path="/albums/12197"&gt;All Things Bright and Beautiful&lt;/a&gt;&lt;/em&gt; in 2011, and &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/The-midsummer-station" rel="noopener" data-api_path="/albums/20412"&gt;The Midsummer Station&lt;/a&gt;&lt;/em&gt; in 2012. In 2014 he released an EP, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Ultraviolet-ep" rel="noopener" data-api_path="/albums/105845"&gt;Ultraviolet&lt;/a&gt;&lt;/em&gt;, composed of 4 songs &lt;a href="https://genius.com/Owl-city-this-isnt-the-end-lyrics" rel="noopener" data-api_path="/songs/461949"&gt;whom one&lt;/a&gt; would appear on his following album, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Mobile-orchestra" rel="noopener" data-api_path="/albums/124470"&gt;Mobile Orchestra&lt;/a&gt;&lt;/em&gt;. Retiring from Owl City in 2016 to focus on &lt;a href="https://www.ayoungscores.com/" rel="noopener nofollow"&gt;Adam Young Scores&lt;/a&gt;, a new project made of orchestral soundtracks about historic events, he reappeared in 2017 to tease his upcoming new album &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Cinematic" rel="noopener" data-api_path="/albums/377687"&gt;Cinematic&lt;/a&gt;&lt;/em&gt;, with the release of a series of three EPs, called &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Reel-1-ep" rel="noopener" data-api_path="/albums/377817"&gt;Reel 1&lt;/a&gt;&lt;/em&gt; , &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Reel-2-ep" rel="noopener" data-api_path="/albums/399481"&gt;2&lt;/a&gt;&lt;/em&gt; and &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Reel-3-ep" rel="noopener" data-api_path="/albums/417372"&gt;3&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Beastie-boys', 'annotations': {'description': '&lt;p&gt;The Beastie Boys is a groundbreaking, pioneering, Grammy award winning rap group from New York City that has sold &lt;a href="http://nymag.com/arts/popmusic/features/beastie-boys-2011-5/index5.html" rel="noopener nofollow"&gt;over 40 million albums&lt;/a&gt; worldwide. The group has been inactive since the death of founding member Adam “MCA” Yauch in 2012. According to Bad Brains bassist Darryl Jenifer, the name &lt;a href="http://nymag.com/arts/popmusic/features/beastie-boys-2011-5/index.html" rel="noopener nofollow"&gt;came from&lt;/a&gt; the code word ‘beast’, which was yelled to alert musicians selling drugs of the presence of a policeman outside a record shop that doubled as a rehearsal space for bands in the early 1980s.&lt;/p&gt;\n\n&lt;p&gt;Originally a punk rock band named The Young Aborigines consisting of Yauch, Kate Shellenbach, Michael “Mike D” Diamond and John Berry, the band renamed themselves Beastie Boys and released the &lt;em&gt;Polly Wog Stew&lt;/em&gt; EP shortly before Berry’s exit in 1982. Berry was replaced by Adam “Ad-rock” Horowitz and the band recorded a disco-joke parody of Malcolm McLaren’s “Buffalo Gals” titled “Cookie Puss” the following year. Producer Rick Rubin took an interest in the song, envisioning the group as ‘the first white rap group’ – but without Schellenbach. Rubin founded Def Jam Records soon after and signed the group as a trio.&lt;/p&gt;\n\n&lt;p&gt;Their first rap single, 1984’s “Rock Hard”, featured an uncleared sample of AC/DC’s “Back In Black” and was &lt;a href="https://www.kerrang.com/features/10-great-malcolm-young-moments/" rel="noopener nofollow"&gt;promptly recalled&lt;/a&gt;. However, its b-side “Beastie Revolution” was &lt;a href="https://web.archive.org/web/20110826155454/http://samplinglaw.wordpress.com/2008/01/04/the-very-first-sampling-lawsuit/" rel="noopener nofollow"&gt;used without authorization&lt;/a&gt; in a British Airways commercial, resulting in a $40,000 settlement that the band used to embark upon a full-time rap career.&lt;/p&gt;\n\n&lt;p&gt;“She’s On It” followed in 1985 on the &lt;em&gt;Krush Groove&lt;/em&gt; soundtrack. That year, the band toured as the &lt;a href="https://www.billboard.com/articles/news/6516809/watch-ad-rock-discuss-beastie-boys-opening-for-madonna-jimmy-fallon-tonight-show" rel="noopener nofollow"&gt;opening act&lt;/a&gt; of Madonna’s Virgin Tour after Russell Simmons &lt;a href="https://books.google.com/books?id=RbtMDwAAQBAJ&amp;amp;pg=PA174&amp;amp;lpg=PA174&amp;amp;dq=beastie+boys+madonna+tour+1985+rubin+%22fat+boys%22&amp;amp;source=bl&amp;amp;ots=jTj-_RYgSd&amp;amp;sig=ACfU3U3Qyo8N1S9KFym_Af3NXfStbpUIwg&amp;amp;hl=en&amp;amp;sa=X&amp;amp;ved=2ahUKEwiM5oWGwI3jAhXLm-AKHRDEAdEQ6AEwDnoECAwQAQ#v=onepage&amp;amp;q=beastie%20boys%20madonna%20tour%201985%20rubin%20%22fat%20boys%22&amp;amp;f=false" rel="noopener nofollow"&gt;told her management&lt;/a&gt; Run DMC wanted $20,000 a show, but he had another rap group that only charged $500. MCA &lt;a href="http://nymag.com/arts/popmusic/features/beastie-boys-2011-5/index3.html" rel="noopener nofollow"&gt;later shared&lt;/a&gt; what their nightly set consisted of:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We did like three songs, and then I did the electric boogaloo for a minute, and then we fucked with the audience. They hated us. Kids literally in tears, parents wanting to kill us.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In the summer of 1986, “Hold It, Now Hit It” &lt;a href="https://www.billboard.com/music/beastie-boys/chart-history/r-b-hip-hop-songs" rel="noopener nofollow"&gt;reached #55&lt;/a&gt; on the US Hip Hop/R&amp;amp;B chart. &lt;em&gt;Licensed To Ill&lt;/em&gt; followed that November as two other tracks from it became minor hits on the same chart. However, it was the satirical frat-boy anthem “(You Gotta) Fight For Your Right (To Party!)” that launched the band into international stardom – reaching the top 20 in five countries in early 1987. Within weeks, four more of the album’s tracks found scattered international chart success in its wake. &lt;em&gt;Licensed To Ill&lt;/em&gt; became the first hip hop record to reach #1 in the US, topping the Billboard 200 for seven weeks and ultimately &lt;a href="https://www.billboard.com/articles/news/489107/beastie-boys-blazed-billboard-chart-history" rel="noopener nofollow"&gt;staying on the chart&lt;/a&gt; for 73 weeks as the group headlined their Licensed To Ill Tour for several months. By the end of the year, &lt;a href="https://www.theguardian.com/music/2018/oct/21/beastie-boys-book-memoir-interview" rel="noopener nofollow"&gt;they were&lt;/a&gt; “unhappy and barely speaking to one another”, with MCA and Mike D each forming their own new bands. They had also &lt;a href="http://nymag.com/arts/popmusic/features/beastie-boys-2011-5/index5.html" rel="noopener nofollow"&gt;split with&lt;/a&gt; Rubin and Def Jam over unpaid royalties.&lt;/p&gt;\n\n&lt;p&gt;In 1988, MCA flew to LA to take a role in the film &lt;em&gt;Lost Angels&lt;/em&gt;. When Ad-rock and Mike D came to visit, they attended a party hosted by Delicious Vinyl CEO Matt Dike who hooked them up with the Dust Brothers, who were fresh off their top 10 successes with Tone Loc and Young MC. This collaboration led to a drastic change in their sound and image with 1989’s funk-infused, disco-influenced &lt;em&gt;Paul’s Boutique&lt;/em&gt; – an intentional leap away from the frat-boy image they’d gained by emulating (and ridiculing) it on &lt;em&gt;Licensed To Ill&lt;/em&gt;. Despite its lead single “Hey Ladies” achieving moderate chart success in five countries including a top 40 placement in the US, the album was labeled a flop. Years later, however, it would be named one of the best albums of all time by Rolling Stone, Spin, VH1, Pitchfork and Time Magazine, and &lt;a href="https://www.rollingstone.com/music/music-news/how-the-beastie-boys-made-their-masterpiece-186788/" rel="noopener nofollow"&gt;lauded as&lt;/a&gt; “The Sgt Pepper of hip hop”, an &lt;a href="https://www.soundonsound.com/people/dust-brothers" rel="noopener nofollow"&gt;album that&lt;/a&gt; “single-handedly redefined a whole musical generation’s approach to sampling”.&lt;/p&gt;\n\n&lt;p&gt;Another massive change in sound happened with 1992’s &lt;em&gt;Check Your Head&lt;/em&gt; when The Beasties picked instruments up again, looping pieces of organic jam sessions to rap over and creating an eclectic collection of hip hop, punk, funk and rock. The band also began to transition away from misogynistic and boisterous lyrics, tackling more mature themes like peace, love, equality and spiritual enlightenment. The album reached the top 10 in the US, but its singles found little chart success there or abroad. Tours with opening acts Rollins Band, L7 and Cypress Hill demonstrated how this diverse album appealed to rock, alternative and hip hop crowds at the same time.&lt;/p&gt;\n\n&lt;p&gt;The US chart-topping 1994 album &lt;em&gt;Ill Communication&lt;/em&gt; continued this more organic sound and mature lyrical approach. The album’s lead single “Sabotage” only charted well in the UK, Canada and The Netherlands, but nonetheless became a huge underground success in the US aided by a music video directed by Spike Jonze. The album was supported with a worldwide tour, followed by &lt;a href="https://www.rollingstone.com/music/music-news/lollapalooza-round-4-courts-nirvana-beastie-boys-and-more-87865/" rel="noopener nofollow"&gt;a spot on&lt;/a&gt; Lollapalooza ‘94. Random diverse releases followed: the compilation of previous material &lt;em&gt;Some Old Bullshit&lt;/em&gt;, the punk-rooted &lt;em&gt;Aglio e Olio&lt;/em&gt;, and the instrumental &lt;em&gt;The In Sound from Way Out!&lt;/em&gt;. During this time, the group became very active with social causes like &lt;a href="https://www.pri.org/stories/2016-07-07/remember-when-beastie-boys-played-tibet-here-s-how-it-happened" rel="noopener nofollow"&gt;the Free Tibet movement&lt;/a&gt;, largely spearheaded by MCA.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Hello Nasty&lt;/em&gt; marked another large shift in sound for the group in 1998 with the incorporation of electronic elements and the addition of master turntablist Mix Master Mike. Its lead single “Intergalactic” became the group’s third and final US top 40 hit, also charting well in ten countries overseas and &lt;a href="https://www.grammy.com/grammys/artists/beastie-boys" rel="noopener nofollow"&gt;winning a Rap Grammy&lt;/a&gt; the following year. The follow-up single “Body Movin\'” found scattered success overseas, and the album shot into the top 5 in fifteen countries and earned the Beasties another Grammy. An anthology titled &lt;em&gt;The Sounds of Science&lt;/em&gt; followed in 1999. The more straightforward hip hop &lt;em&gt;To The Five Boroughs&lt;/em&gt; appeared in 2004 with a heavy focus on the group’s political views. Its lead single “Ch-Check It Out” made the top 40 in eight countries overseas, and was a minor hit in the US.&lt;/p&gt;\n\n&lt;p&gt;Five years later, the instrumental &lt;em&gt;The Mix Up&lt;/em&gt; surfaced. The Beasties had originally planned to drop &lt;em&gt;Hot Sauce Committee Part One&lt;/em&gt; in 2009, but soon after the release of the advance single “Too Many Rappers”, the group &lt;a href="https://www.rollingstone.com/music/music-news/beastie-boys-adam-yauch-reveals-he-has-cancer-251987/" rel="noopener nofollow"&gt;announced that&lt;/a&gt; MCA was diagnosed with cancer and the album was put on hold while he began treatment. A year later, the Beasties gave a tongue-in-cheek announcement that &lt;em&gt;Part One&lt;/em&gt; was being replaced by &lt;em&gt;Hot Sauce Committee Part Two&lt;/em&gt;, and would &lt;a href="https://www.clashmusic.com/news/beastie-boys-re-jig-hot-sauce-committee" rel="noopener nofollow"&gt;consist mostly&lt;/a&gt; of the songs intended for &lt;em&gt;Part One&lt;/em&gt;. “Make Some Noise” became the official lead single for &lt;em&gt;Part Two&lt;/em&gt; in 2011, accompanied by a short film titled &lt;em&gt;Fight For Your Right (Revisited)&lt;/em&gt;. The Beasties were inducted into the Rock And Roll Hall Of Fame that December, but MCA was too sick to attend. Six months later, MCA passed away. In 2014, Mike D &lt;a href="https://www.nme.com/news/music/beastie-boys-2-24-1234190" rel="noopener nofollow"&gt;revealed&lt;/a&gt; that he and Ad-rock promised him they wouldn’t make more music as the Beastie Boys after his death.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Lil-kim', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Lil\' Kim&lt;/strong&gt; (born Kimberly Denise Jones on July 11, 1974) grew up in Brooklyn, New York, living much of her adolescent life on the streets after being expelled from home.&lt;/p&gt;\n\n&lt;p&gt;Sometime between then and her super-stardom, she performed a freestyle rap for &lt;a href="https://genius.com/artists/The-notorious-big" rel="noopener" data-api_path="/artists/22"&gt;The Notorious B.I.G.&lt;/a&gt;. This got her music career started in 1995, as Biggie’s group &lt;a href="https://genius.com/artists/Junior-mafia" rel="noopener" data-api_path="/artists/129"&gt;Junior M.A.F.I.A.&lt;/a&gt;, whose debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Junior-mafia/Conspiracy" rel="noopener" data-api_path="/albums/4158"&gt;Conspiracy&lt;/a&gt;&lt;/em&gt; generated three hit singles, two of which contained verses from Lil Kim (&lt;a href="https://genius.com/Junior-mafia-i-need-you-tonight-lyrics" rel="noopener" data-api_path="/songs/24739"&gt;“I Need You Tonight”&lt;/a&gt; and &lt;a href="https://genius.com/Junior-mafia-get-money-lyrics" rel="noopener" data-api_path="/songs/145"&gt;“I Get Money”&lt;/a&gt;).&lt;/p&gt;\n\n&lt;p&gt;Lil\' Kim’s debut studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-kim/Hard-core" rel="noopener" data-api_path="/albums/4919"&gt;Hard Core&lt;/a&gt;&lt;/em&gt; (1996) earned Double Platinum status and spawned three consecutive #1 rap hits: &lt;a href="https://genius.com/Lil-kim-no-time-lyrics" rel="noopener" data-api_path="/songs/28203"&gt;“No Time”&lt;/a&gt;, &lt;a href="https://genius.com/Lil-kim-not-tonight-ladies-night-remix-lyrics" rel="noopener" data-api_path="/songs/3803"&gt;“Not Tonight (Ladies Night Remix)”&lt;/a&gt;, and &lt;a href="https://genius.com/Lil-kim-crush-on-you-lyrics" rel="noopener" data-api_path="/songs/2279119"&gt;“Crush on You”&lt;/a&gt;, a record for a female rapper. Her following albums, &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-kim/The-notorious-k-i-m" rel="noopener" data-api_path="/albums/4921"&gt;The Notorious K.I.M.&lt;/a&gt;&lt;/em&gt; (2000) and &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-kim/La-bella-mafia" rel="noopener" data-api_path="/albums/4922"&gt;La Bella Mafia (2003)&lt;/a&gt;&lt;/em&gt;, were certified Platinum, making her the only female rapper besides &lt;a href="https://genius.com/artists/Missy-elliott" rel="noopener" data-api_path="/artists/1529"&gt;Missy Elliott&lt;/a&gt; to have at least 3 platinum albums.&lt;/p&gt;\n\n&lt;p&gt;She was featured on the single, &lt;a href="https://genius.com/Lil-kim-lady-marmalade-lyrics" rel="noopener" data-api_path="/songs/32486"&gt;“Lady Marmalade”&lt;/a&gt;, which also had guest vocals by fellow recording artists &lt;a href="https://genius.com/artists/Mya" rel="noopener" data-api_path="/artists/339"&gt;Mya&lt;/a&gt;, &lt;a href="https://genius.com/artists/Pink" rel="noopener" data-api_path="/artists/345"&gt;Pink&lt;/a&gt; and &lt;a href="https://genius.com/artists/Christina-aguilera" rel="noopener" data-api_path="/artists/1211"&gt;Christina Aguilera&lt;/a&gt; (a remake of the &lt;a href="https://genius.com/Labelle-lady-marmalade-lyrics" rel="noopener" data-api_path="/songs/637943"&gt;1975 smash hit&lt;/a&gt;, originally recorded by &lt;a href="https://genius.com/artists/Patti-labelle" rel="noopener" data-api_path="/artists/1146"&gt;Patti LaBelle&lt;/a&gt;) which went to #1 on &lt;em&gt;Billboard’s&lt;/em&gt; Hot 100, making her the first female rapper to have a #1 on that chart. In addition, the remake won two MTV Video Music Awards including Video of the Year, and a Grammy Award for Best Pop Collaboration with Vocals at the 44th Grammy Awards in 2002.&lt;/p&gt;\n\n&lt;p&gt;In 2005, she served a year-long prison sentence for lying to a jury about her friends\' involvement in a shooting four years earlier. During her incarceration, her fourth album &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-kim/The-naked-truth" rel="noopener" data-api_path="/albums/4930"&gt;The Naked Truth&lt;/a&gt;&lt;/em&gt; was released. She returned to the public eye in 2009 with an appearance on &lt;em&gt;Dancing with the Stars&lt;/em&gt;. Parting ways with major labels, she remained independent in the coming years, issuing a handful of mixtapes and branching out to other creative projects. After over a decade, her fifth studio full-length album &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-kim/9" rel="noopener" data-api_path="/albums/378590"&gt;9&lt;/a&gt;&lt;/em&gt; materialized in 2019.&lt;/p&gt;\n\n&lt;p&gt;With her hardcore posturing and sexually explicit rhymes, Lil\' Kim is considered a hip-hop legend for blazing a trail for other like-minded and liberated female artists in the ‘90s and beyond. Aside from music, she is also known for her risk-taking and luxurious approach to fashion that influenced many, being often cited as a fashion icon. Throughout her life and career, the original Queen Bee has been noted for inspiring and helping others embrace their sexuality and individuality.&lt;/p&gt;', 'alternate_names': ['Kimmy Blanco', 'Kimberly Jones', 'Kimberly Denise Jones']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Marianne-faithfull', 'annotations': {'description': '&lt;p&gt;Marianne Evelyn Gabriel Faithfull, mainly known as Marianne Faithfull, was an english singer, songwriter, and actress. She is most well known for being Mick Jagger’s girlfriend in the late 60’s and for her hit single, As Tears Go By.&lt;/p&gt;', 'alternate_names': ['Marianne Evelyn Gabriel Faithfull']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Suzanne-vega', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Led-zeppelin', 'annotations': {'description': '&lt;p&gt;One of the &lt;a href="http://www.rollingstone.com/music/lists/100-greatest-artists-of-all-time-19691231/led-zeppelin-20110419" rel="noopener nofollow"&gt;greatest&lt;/a&gt; rock bands of all time, Led Zeppelin was comprised of guitarist &lt;a href="https://genius.com/artists/Jimmy-page" rel="noopener" data-api_path="/artists/9536"&gt;Jimmy Page&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/John-bonham" rel="noopener" data-api_path="/artists/652853"&gt;John Bonham&lt;/a&gt;, singer &lt;a href="https://genius.com/artists/Robert-plant" rel="noopener" data-api_path="/artists/12999"&gt;Robert Plant&lt;/a&gt; and bassist\\keyboardist &lt;a href="https://genius.com/artists/John-paul-jones" rel="noopener" data-api_path="/artists/211068"&gt;John Paul Jones&lt;/a&gt;. Following the &lt;a href="http://www.rollingstone.com/music/lists/the-10-wildest-led-zeppelin-legends-fact-checked-20121121/john-bonham-drank-40-shots-of-vodka-the-night-he-died-19691231" rel="noopener nofollow"&gt;death&lt;/a&gt; of Bonham in 1980, they went on a permanent hiatus.&lt;/p&gt;\n\n&lt;p&gt;Known for Plant’s aggressive, stunning vocal performances, Page’s iconic guitar riffs and Bonham’s exuberant drumming (as well as Jones\' groovy bass lines and keyboard arrangements—the latter of which received more prominence in the band’s later albums), they’ve sold around 300 million records worldwide. Tracks such as &lt;a href="https://genius.com/Led-zeppelin-stairway-to-heaven-lyrics" rel="noopener" data-api_path="/songs/1061"&gt;“Stairway to Heaven”&lt;/a&gt; and &lt;a href="https://genius.com/Led-zeppelin-kashmir-lyrics" rel="noopener" data-api_path="/songs/106428"&gt;“Kashmir”&lt;/a&gt; frequently make ‘greatest songs of all time’ lists, and their live shows are spoken of in hushed tones. Plant’s painful, bluesy screech, Page’s innovative guitar playing (sometimes with the use of a violin bow), Jones\' precision and Bonzo’s monstrous drum sound and extensive solos made for legendary concert performances.&lt;/p&gt;\n\n&lt;p&gt;Despite contemporaries such as &lt;a href="https://genius.com/artists/The-who" rel="noopener" data-api_path="/artists/17846"&gt;The Who&lt;/a&gt; continuing to tour and &lt;a href="https://www.youtube.com/watch?v=D4CiedGbjaQ" rel="noopener nofollow"&gt;release new music&lt;/a&gt;, both &lt;a href="http://www.musictimes.com/articles/17176/20141124/robert-plant-talks-wont-reunite-led-zeppelin-jimmy-page-talks-led-zep-ellen-watch.htm" rel="noopener nofollow"&gt;Plant&lt;/a&gt; and &lt;a href="http://www.telegraph.co.uk/culture/music/music-news/11131557/Jimmy-Page-Led-Zeppelin-arent-going-to-reunite.html" rel="noopener nofollow"&gt;Page&lt;/a&gt; have assured fans that the band will not reunite. At most, the surviving members performed with an array of drummers and bassist Paul Martinez during Live Aid (1985), Page and Plant did a combined project in the mid 90s, and the band performed with John’s son Jason Bonham (a drummer himself) in both Atlantic Records\' 40th anniversary in 1989 and a 2007 concert for Atlantic’s recently deceased founder Ahmet Ertegun (released as the lauded live album\\film &lt;em&gt;&lt;a href="http://www.ledzeppelin.com/celebrationday/" rel="noopener nofollow"&gt;Celebration Day&lt;/a&gt;&lt;/em&gt; in 2012). Their legacy remains intact.&lt;/p&gt;', 'alternate_names': ['The New Yardbirds']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Montell-jordan', 'annotations': {'description': '&lt;p&gt;Montell Du\'Sean Barnett (born December 3, 1968 in Los Angeles, CA), known professionally as Montell Jordan, is an American singer, songwriter and record producer, best known for his 1995 single “&lt;a href="https://genius.com/Montell-jordan-this-is-how-we-do-it-lyrics" rel="noopener" data-api_path="/songs/49817"&gt;This Is How We Do It&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Jordan was the primary male solo artist on &lt;a href="https://en.wikipedia.org/wiki/Def_Jam_Recordings" rel="noopener nofollow"&gt;Def Jam&lt;/a&gt;’s Def Soul imprint until leaving the label in 2003.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Jordan left the music business to become the worship leader at &lt;a href="https://en.wikipedia.org/wiki/Victory_World_Church" rel="noopener nofollow"&gt;Victory World Church&lt;/a&gt; in Norcross, Georgia.&lt;/p&gt;', 'alternate_names': ["Montell Du'Sean Barnett Jordan"]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alexandra-stan', 'annotations': {'description': '&lt;p&gt;Born on June 10, 1989 in &lt;a href="https://en.wikipedia.org/wiki/Constan%C8%9Ba" rel="noopener nofollow"&gt;Constanța&lt;/a&gt;, &lt;b&gt;Alexandra Stan&lt;/b&gt; is a Romanian singer-songwriter.&lt;/p&gt;\n\n&lt;p&gt;After she was invited to sing in a televised show at the age of 15, she eventually participated in various music-related contests, including the Mamaia Music Festival in 2009. Producers and songwriters &lt;a href="https://genius.com/artists/Marcel-prodan" rel="noopener" data-api_path="/artists/61567"&gt;Marcel Prodan&lt;/a&gt; and &lt;a href="https://genius.com/artists/Andrei-nemirschi" rel="noopener" data-api_path="/artists/491341"&gt;Andrei Nemirschi&lt;/a&gt; discovered Stan that year at a karaoke bar in Constanța. They offered her a record deal with their label &lt;i&gt;Maan Records&lt;/i&gt;, which she accepted, and later went on to record a promotional single titled “&lt;a href="https://genius.com/Alexandra-stan-show-me-the-way-lyrics" rel="noopener" data-api_path="/songs/485119"&gt;Show Me the Way&lt;/a&gt;”. Her debut single, “&lt;a href="https://genius.com/Alexandra-stan-lollipop-param-pam-pam-lyrics" rel="noopener" data-api_path="/songs/485101"&gt;Lollipop (Param Pam Pam)&lt;/a&gt;”, released on December 16, 2009,  was given notable radio airplay. The song’s provocative, low-budget music video was criticized by some viewers for emphasizing her physical and not her vocal qualities.&lt;/p&gt;\n\n&lt;p&gt;In 2011, Stan made her international breakthrough with the single “&lt;a href="https://genius.com/Alexandra-stan-mr-saxobeat-lyrics" rel="noopener" data-api_path="/songs/601770"&gt;Mr. Saxobeat&lt;/a&gt;”. The song first achieved success in Romania, where it peaked at number one on the Romanian Top 100 for eight consecutive weeks. It then became acclaimed worldwide, topping the record charts in several other countries, and selling almost one million copies in less than year. At the 2011 Romanian Music Awards, Stan and “Mr. Saxobeat” won several awards and nominations. Stan also won the Best Romanian Act and a nomination for Best European Act at the 2011 MTV Europe Music Awards.&lt;/p&gt;\n\n&lt;p&gt;The follow-up single “&lt;a href="https://genius.com/Alexandra-stan-get-back-asap-lyrics" rel="noopener" data-api_path="/songs/482269"&gt;Get Back&lt;/a&gt;”, achieved modest success and reached the top 10 in Finland and Romania, and the top 20 in other European countries. The singer’s debut studio album &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Saxobeats" rel="noopener" data-api_path="/albums/108678"&gt;Saxobeats&lt;/a&gt;&lt;/i&gt; was released in August 2011, and was moderately successful in Japan and Europe. Her chart success followed in 2012 with “&lt;a href="https://genius.com/Alexandra-stan-lemonade-lyrics" rel="noopener" data-api_path="/songs/482278"&gt;Lemonade&lt;/a&gt;”, which was certified Gold in Italy. The release of Stan’s second studio album was postponed following &lt;a href="https://en.wikipedia.org/wiki/Dec._No._5946/212/2015" rel="noopener nofollow"&gt;an alleged violent incident&lt;/a&gt; between her and Prodan, in June 2013. The case attracted widespread media coverage in Romania. Later that year, the singer launched a campaign against domestic violence called “Nu bate! Mai bine cântă!”.&lt;/p&gt;\n\n&lt;p&gt;Her comeback single, “&lt;a href="https://genius.com/Alexandra-stan-thanks-for-leaving-lyrics" rel="noopener" data-api_path="/songs/485130"&gt;Thanks for Leaving&lt;/a&gt;”, was released in April 2014, which she said was personal. The follow-up “&lt;a href="https://genius.com/Alexandra-stan-cherry-pop-lyrics" rel="noopener" data-api_path="/songs/482258"&gt;Cherry Pop&lt;/a&gt;” became the most sought-after ringtone on the Recochoku service in Japan within two hours of its release, while “&lt;a href="https://genius.com/Alexandra-stan-dance-lyrics" rel="noopener" data-api_path="/songs/482271"&gt;Dance&lt;/a&gt;” experienced similar success on its release. &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Unlocked" rel="noopener" data-api_path="/albums/121207"&gt;Unlocked&lt;/a&gt;&lt;/i&gt;, Stan’s second studio album, was premiered on August 27, 2014, and charted within the top 30 in Japan. The music video for “&lt;a href="https://genius.com/Alexandra-stan-give-me-your-everything-lyrics" rel="noopener" data-api_path="/songs/2025862"&gt;Give Me Your Everything&lt;/a&gt;”, the fourth single from &lt;i&gt;Unlocked&lt;/i&gt;, caused controversy for a scene that features Stan wearing a robe inscribed with masonic symbols.&lt;/p&gt;\n\n&lt;p&gt;In June 2015, Stan released “&lt;a href="https://genius.com/Alexandra-stan-and-inna-we-wanna-lyrics" rel="noopener" data-api_path="/songs/2131883"&gt;We Wanna&lt;/a&gt;”, a collaboration with Romanian singer &lt;a href="https://genius.com/artists/Inna" rel="noopener" data-api_path="/artists/22636"&gt;INNA&lt;/a&gt; and American reggaeton performer &lt;a href="https://genius.com/artists/Daddy-yankee" rel="noopener" data-api_path="/artists/1823"&gt;Daddy Yankee&lt;/a&gt;. The track reached the top 60 in multiple countries including Romania, Argentina and Italy. It was certified Gold in the latter region. In November 2015, she released the single “&lt;a href="https://genius.com/Alexandra-stan-i-did-it-mama-lyrics" rel="noopener" data-api_path="/songs/2387162"&gt;I Did It, Mama!&lt;/a&gt;”, which reached the top ten in Romania. The singer’s third studio album &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Alesta-international-version" rel="noopener" data-api_path="/albums/399505"&gt;Alesta&lt;/a&gt;&lt;/i&gt; followed in March 2016. It debuted at number 34 on the Japanese Albums Chart.&lt;/p&gt;\n\n&lt;p&gt;The singer joined the supergroup &lt;a href="https://genius.com/artists/G-girls" rel="noopener" data-api_path="/artists/678090"&gt;G Girls&lt;/a&gt; along with &lt;a href="https://genius.com/artists/Antonia" rel="noopener" data-api_path="/artists/37365"&gt;Antonia&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lori" rel="noopener" data-api_path="/artists/135505"&gt;Lori&lt;/a&gt;, and INNA, and premiered the single “&lt;a href="https://genius.com/G-girls-call-the-police-lyrics" rel="noopener" data-api_path="/songs/2486651"&gt;Call the Police&lt;/a&gt;”, which was successful in Poland.&lt;/p&gt;\n\n&lt;p&gt;To promote the launch of &lt;a href="https://en.wikipedia.org/wiki/Virgin_Radio_Romania" rel="noopener nofollow"&gt;Virgin Radio Romania&lt;/a&gt; in early 2017, Stan recorded &lt;a href="https://genius.com/Alexandra-stan-like-a-virgin-lyrics" rel="noopener" data-api_path="/songs/2966851"&gt;a cover version&lt;/a&gt; of &lt;a href="https://genius.com/artists/Madonna" rel="noopener" data-api_path="/artists/276"&gt;Madonna&lt;/a&gt;’s song “&lt;a href="https://genius.com/Madonna-like-a-virgin-lyrics" rel="noopener" data-api_path="/songs/151415"&gt;Like a Virgin&lt;/a&gt;”, saying she was a fan of it. She also recorded “&lt;a href="https://genius.com/Alexandra-stan-favorite-game-lyrics" rel="noopener" data-api_path="/songs/3335724"&gt;Favorite Game&lt;/a&gt;” for the soundtrack of the Japanese movie &lt;i&gt;Miko Girl&lt;/i&gt;.&lt;/p&gt;\n\n&lt;p&gt;In April 2018, Stan released her fourth studio album titled &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Mami-international-version_" rel="noopener"&gt;Mami&lt;/a&gt;&lt;/i&gt;, which peaked at number 119 in Japan. Stan contributed guest vocals on &lt;a href="https://genius.com/artists/Manuel-riva" rel="noopener" data-api_path="/artists/1411574"&gt;Manuel Riva&lt;/a&gt;’s track “&lt;a href="https://genius.com/Manuel-riva-miami-lyrics" rel="noopener" data-api_path="/songs/3566370"&gt;Miami&lt;/a&gt;”, which reached the top ten on the US Dance Club Songs chart. It also reached the top 10 in Romania. The singer opened the 2018 Neversea Festival, which had selected “Miami” as its anthem. At the 2018 Beirut International Awards Festival, Stan was awarded a special prize for her career, after being referred to as one of the most successful Romanian artists alongside INNA.&lt;/p&gt;', 'alternate_names': ['Alexandra Ioana Stan']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ty-dolla-sign', 'annotations': {'description': '&lt;p&gt;Tyrone Griffin, better known by his stage name &lt;strong&gt;Ty Dolla Sign&lt;/strong&gt; – often styled as Ty Dolla $ign, and some times shortened to Ty$ – is a hip hop artist from L.A. who was first introduced to the mainstream in early 2014 with his hit single &lt;a href="https://genius.com/Ty-dolla-sign-paranoid-lyrics" rel="noopener" data-api_path="/songs/180657"&gt;“Paranoid.”&lt;/a&gt; He dropped his debut EP, &lt;a href="https://genius.com/albums/Ty-dolla-sign/Beach-house-ep" rel="noopener" data-api_path="/albums/74606"&gt;&lt;em&gt;Beach House&lt;/em&gt;&lt;/a&gt; shortly after, and he has since signed to &lt;a href="https://genius.com/artists/wiz-khalifa" rel="noopener" data-api_path="/artists/310"&gt;Wiz Khalifa’s&lt;/a&gt; Taylor Gang Records and &lt;a href="https://genius.com/artists/DJ%20Mustard" rel="noopener" data-api_path="/artists/29780"&gt;DJ Mustards&lt;/a&gt;’s Pushaz Ink. After a string of projects including &lt;a href="https://genius.com/albums/Ty-dolla-sign/Airplane-mode" rel="noopener" data-api_path="/albums/133026"&gt;&lt;em&gt;Airplane Mode&lt;/em&gt;&lt;/a&gt; and &lt;em&gt;$ign Langauge&lt;/em&gt;, he dropped his debut LP &lt;em&gt;Free TC&lt;/em&gt; on November 13th, 2015. His 2nd album &lt;a href="https://genius.com/albums/Ty-dolla-sign/Beach-house-3-deluxe" rel="noopener" data-api_path="/albums/421591"&gt;&lt;em&gt;Beach House 3&lt;/em&gt;&lt;/a&gt; was released on October 27, 2017.&lt;/p&gt;', 'alternate_names': ['Ty Dolla Signn', 'Ty Dolla', 'Tyrone Griffin Jr.', 'Tyrone Griffin', 'Tyrone W. Griffin Jr.', 'Tyrone W. Griffin', 'Tyrone William Griffin', 'Tyrone William Griffin Jr']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Megadeth', 'annotations': {'description': '&lt;p&gt;After being &lt;a href="http://loudwire.com/dave-mustaine-fired-from-metallica-anniversary/" rel="noopener nofollow"&gt;kicked out of&lt;/a&gt; &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt;, Dave Mustaine decided to form a thrash metal band that not only rivaled his former band, but played faster, more technical metal. Along with bassist David ‘Junior’ Ellefson and a revolving door of guitarists and drummers, Mustaine &lt;a href="https://genius.com/Megadeth-set-the-world-afire-lyrics" rel="noopener" data-api_path="/songs/92396"&gt;set the world afire&lt;/a&gt; as Megadeth became known as the world’s state-of-the-art speed metal band throughout the 80s and the early 90s. One of the &lt;a href="https://genius.com/discussions/169443-Rank-the-big-four" rel="noopener"&gt;Big Four&lt;/a&gt; of &lt;a href="https://en.wikipedia.org/wiki/The_Big_Four:_Live_from_Sofia,_Bulgaria" rel="noopener nofollow"&gt;thrash metal&lt;/a&gt;, Megadeth remains one of metal’s most popular acts today.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;However, Dave Mustaine’s fledgling band got off to a shaky start. Initially unable to find like-minded individuals, it was not until an altercation with his (underage) downstairs neighbours Dave Ellefson and Greg Handevidt, that led to him buying them beer and forming the first incarnation of the band with drummer Dijon Carruthers in 1983.&lt;/p&gt;\n\n&lt;p&gt;The band was named after a political pamphlet that referred to a “megadeath” (one million deaths by nuclear explosion):&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The arsenal of megadeath can’t be rid no matter what the peace treaties come to&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After a few line-up changes, including &lt;a href="https://genius.com/artists/Slayer" rel="noopener" data-api_path="/artists/6596"&gt;Slayer&lt;/a&gt; guitarist Kerry King, the band settled on the first stable Megadeth line-up of the two Daves (Mustaine and Ellefson), guitarist Chris Poland, and drummer Gar Samuelson. Together they released 1985’s &lt;em&gt;&lt;a href="https://genius.com/albums/Megadeth/Killing-is-my-business-and-business-is-good" rel="noopener" data-api_path="/albums/22489"&gt;Killing Is My Business… and Business Is Good&lt;/a&gt;&lt;/em&gt; and 1986’s well-received &lt;em&gt;&lt;a href="https://genius.com/albums/Megadeth/Peace-sells-but-who-s-buying" rel="noopener" data-api_path="/albums/22490"&gt;Peace Sells… but Who’s Buying?&lt;/a&gt;&lt;/em&gt;, which both featured band mascot &lt;a href="https://en.wikipedia.org/wiki/Vic_Rattlehead" rel="noopener nofollow"&gt;Vic Rattlehead&lt;/a&gt; (a homage to both &lt;a href="http://maiden-world.com/articles/history-of-eddie.html" rel="noopener nofollow"&gt;Eddie the Head&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Mot%C3%B6rhead#Cover_art" rel="noopener nofollow"&gt;Snaggletooth&lt;/a&gt;) on the front cover. &lt;em&gt;Peace Sells… but Who’s Buying?&lt;/em&gt; included political themes, which in addition to the technical guitar work on display, became a staple of future Megadeth. Ironically, given the circumstances around Mustaine’s Metallica firing, both Poland and Samuelson were fired soon after &lt;em&gt;Peace Sells… but Who’s Buying?&lt;/em&gt; for excessive drug (heroin) abuse.&lt;/p&gt;\n\n&lt;p&gt;1988’s &lt;a href="https://genius.com/albums/Megadeth/So-far-so-good-so-what" rel="noopener" data-api_path="/albums/22492"&gt;&lt;em&gt;So Far, So Good… So What!&lt;/em&gt;&lt;/a&gt; continued in a similar vein both lyrically and musically, but was less cohesive than &lt;em&gt;Peace Sells… but Who’s Buying?&lt;/em&gt;, perhaps due to the line-up change, questionable mixing/engineering and alcohol/drug addiction. The subsequent firing of Jeff Young and Chuck Behler and newfound sobriety of Mustaine, led to the classic Megadeth line-up: the two Daves, Nick Menza on drums, and Marty Friedman on guitars. They started with great success, producing the Grammy-nominated and definitive thrash metal album, &lt;a href="https://genius.com/albums/Megadeth/Rust-in-peace" rel="noopener" data-api_path="/albums/16297"&gt;&lt;em&gt;Rust in Peace&lt;/em&gt;&lt;/a&gt;, with the popular singles &lt;a href="https://genius.com/Megadeth-holy-wars-the-punishment-due-lyrics" rel="noopener" data-api_path="/songs/109944"&gt;“Holy Wars… the Punishment Due”&lt;/a&gt; and &lt;a href="https://genius.com/Megadeth-hangar-18-lyrics" rel="noopener" data-api_path="/songs/118018"&gt;“Hangar 18”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;This classic line-up stayed together throughout the 90s, receiving six consecutive Grammy nominations (losing twice to Metallica and twice to &lt;a href="https://genius.com/artists/Nine-inch-nails" rel="noopener" data-api_path="/artists/12757"&gt;Nine Inch Nails&lt;/a&gt;), however the frustration of not achieving the same success as Metallica led Megadeth to progressively eschew their signature fast-paced thrash metal sound for a more traditional heavy metal and Hard Rock sound, culminating in the 1999’s incredibly poorly-received &lt;a href="https://genius.com/albums/Megadeth/Risk" rel="noopener" data-api_path="/albums/27049"&gt;&lt;em&gt;Risk&lt;/em&gt;&lt;/a&gt;. An attempt to right ship, with &lt;a href="https://genius.com/albums/Megadeth/The-world-needs-a-hero" rel="noopener" data-api_path="/albums/27366"&gt;&lt;em&gt;The World Needs a Hero&lt;/em&gt;&lt;/a&gt; was unsuccessful and following a nerve injury to Mustaine’s left arm, he disbanded Megadeth.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;With a comeback album, &lt;a href="https://genius.com/albums/Megadeth/The-system-has-failed" rel="noopener" data-api_path="/albums/28083"&gt;&lt;em&gt;The System has Failed&lt;/em&gt;&lt;/a&gt; in 2004, that saw a return to Megadeth’s thrash metal and speed metal roots, the band begun to regain the popularity it had lost in the late 90s, with increasing acclaim with each subsequent album. 2007’s &lt;a href="https://genius.com/albums/Megadeth/United-abominations" rel="noopener" data-api_path="/albums/28084"&gt;&lt;em&gt;United Abominations&lt;/em&gt;&lt;/a&gt; was the band’s highest-charting album since 1994’s &lt;a href="https://genius.com/albums/Megadeth/Youthanasia" rel="noopener" data-api_path="/albums/24189"&gt;&lt;em&gt;Youthanasia&lt;/em&gt;&lt;/a&gt; and was voted Metal album of the year by Guitar World. 2009’s &lt;a href="https://genius.com/albums/Megadeth/Endgame" rel="noopener" data-api_path="/albums/28104"&gt;&lt;em&gt;Endgame&lt;/em&gt;&lt;/a&gt; contained Grammy-nominated single &lt;a href="https://genius.com/Megadeth-headcrusher-lyrics" rel="noopener" data-api_path="/songs/116278"&gt;“Head Crusher”&lt;/a&gt;, and 2011’s &lt;a href="https://genius.com/albums/Megadeth/Th1rt3en" rel="noopener" data-api_path="/albums/28106"&gt;&lt;em&gt;TH1RT3EN&lt;/em&gt;&lt;/a&gt; contained three Grammy-nominated singles (and the return of Dave Ellefson to the band).&lt;/p&gt;\n\n&lt;p&gt;This increase in popularity was evident when the band’s fourteenth album &lt;a href="https://genius.com/albums/Megadeth/Super-collider" rel="noopener" data-api_path="/albums/74399"&gt;&lt;em&gt;Super Collider&lt;/em&gt;&lt;/a&gt; debuted at number six on the Billboard chart in 2013. &lt;a href="https://genius.com/albums/Megadeth/Dystopia" rel="noopener" data-api_path="/albums/141136"&gt;&lt;em&gt;Dystopia&lt;/em&gt;&lt;/a&gt;, their fifteenth album, was expected to be released on October 2nd, 2015, but was eventually delayed to January 22nd, 2016.&lt;/p&gt;\n\n&lt;p&gt;Following Mustaine’s Throat Cancer diagnosis and recovery, the band reconvened to work on their next album. On May 2021, following leaked private videos, Mustaine announced that the band had once again parted ways with David Ellefson. Mustaine confirmed the bass tracks recorded by Ellefson would not appear on the album and would be re-recorded by a different bassist, but he didn’t reveal the bassist’s name. Former bass player James LoMenzo filled in for the band’s tour. The new album called &lt;em&gt;The Sick, the Dying… and the Dead!&lt;/em&gt; is scheduled to be released in the spring of 2022.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n\n\n&lt;h3&gt;Members&lt;/h3&gt;\n\n\n\n\n&lt;h4&gt;Current&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://www.metal-archives.com/artists/Dave_Mustaine/184" rel="noopener nofollow"&gt;Dave Mustaine&lt;/a&gt; – vocals, guitars (1983–2002; 2004–present)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Kiko_Loureiro/3826" rel="noopener nofollow"&gt;Kiko Loureiro&lt;/a&gt; – guitars (2015–present)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Dirk_Verbeuren/1391" rel="noopener nofollow"&gt;Dirk Verbeuren&lt;/a&gt; – drums (2016–present)&lt;/p&gt;\n\n&lt;h4&gt;Past&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://www.metal-archives.com/artists/David_Ellefson/218" rel="noopener nofollow"&gt;David Ellefson&lt;/a&gt; – bass (1983–2002; 2010–2021)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Greg_Handevidt/2702" rel="noopener nofollow"&gt;Greg Handevidt&lt;/a&gt; – guitars (1983)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Dijon_Carruthers/2763" rel="noopener nofollow"&gt;Dijon Carruthers&lt;/a&gt; – drums (1983)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Lee_Rauch/2768" rel="noopener nofollow"&gt;Lee Rausch&lt;/a&gt; – drums (1984)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chris_Poland/2716" rel="noopener nofollow"&gt;Chris Poland&lt;/a&gt; – guitars (1984–1987)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Gar_Samuelson/2772" rel="noopener nofollow"&gt;Gar Samuelson&lt;/a&gt; – drums (1984–1987)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Jeff_Young/2723" rel="noopener nofollow"&gt;Jeff Young&lt;/a&gt; – guitars (1987–1989)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chuck_Behler/2774" rel="noopener nofollow"&gt;Chuck Behler&lt;/a&gt; – drums (1987–1989)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Nick_Menza/2790" rel="noopener nofollow"&gt;Nick Menza&lt;/a&gt; – drums (1989–1998)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Marty_Friedman/2741" rel="noopener nofollow"&gt;Marty Friedman&lt;/a&gt; – guitars (1990–2000)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Jimmy_DeGrasso/2793" rel="noopener nofollow"&gt;Jimmy DeGrasso&lt;/a&gt; – drums (1998–2002)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Al_Pitrelli/2748" rel="noopener nofollow"&gt;Al Pitrelli&lt;/a&gt; – guitars (2000–2002)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Glen_Drover/2754" rel="noopener nofollow"&gt;Glen Drover&lt;/a&gt; – guitars (2004–2008)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Shawn_Drover/223" rel="noopener nofollow"&gt;Shawn Drover&lt;/a&gt; – drums (2004–2014)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/James_MacDonough/2833" rel="noopener nofollow"&gt;James MacDonough&lt;/a&gt; – bass (2004–2006)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/James_LoMenzo/2836" rel="noopener nofollow"&gt;James LoMenzo&lt;/a&gt; – bass (2006–2010)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chris_Broderick/215" rel="noopener nofollow"&gt;Chris Broderick&lt;/a&gt; – guitars (2008–2014)&lt;/p&gt;\n\n&lt;h4&gt;Touring&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://www.metal-archives.com/artists/Kerry_King/267" rel="noopener nofollow"&gt;Kerry King&lt;/a&gt; – guitars (1984)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Mike_Albert/139584" rel="noopener nofollow"&gt;Mike Albert&lt;/a&gt; – guitars (1985)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chris_Adler/10965" rel="noopener nofollow"&gt;Chris Adler&lt;/a&gt; – drums (2015–2016)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Tony_Laureano/434" rel="noopener nofollow"&gt;Tony Laureano&lt;/a&gt; – drums (2015–2016)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/James_LoMenzo/2836" rel="noopener nofollow"&gt;James LoMenzo&lt;/a&gt; – bass (2021–present)&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Madness', 'annotations': {'description': '&lt;p&gt;Madness are an English ska band from Camden Town, North London, whom formed in 1976. One of the most prominent bands of the late 1970s and early 1980s 2 Tone ska revival, they continue to perform with six of the seven members of their classic line-up.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mr-bigg', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Mr. Bigg Time', 'Donald Pears II']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Soft-cell', 'annotations': {'description': '&lt;p&gt;Soft Cell is an English synthpop duo who originated in 1978 consisting of vocalist Marc Almond and instrumentalist David Ball. They are best known for their song “Tainted Love” which was released in 1981.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Nofx', 'annotations': {'description': '&lt;p&gt;Take the melody of &lt;a href="https://genius.com/artists/Descendents" rel="noopener" data-api_path="/artists/44950"&gt;The Descendents&lt;/a&gt;, some of &lt;a href="https://genius.com/artists/Bad-religion" rel="noopener" data-api_path="/artists/27995"&gt;Bad Religion’s&lt;/a&gt; political sense, add a handful of pills and there’s NOFX.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Nofx-backstage-passport-lyrics" rel="noopener" data-api_path="/songs/1845265"&gt;Screwing up since 1983&lt;/a&gt;, the Californian group is one of the most influential bands in the history of punk rock. Rising in popularity during the 90’s, but never signing to a major label, remaining true to punk’s DIY roots, they released most of their stuff themselves or through Epitaph Records (owned by fellow punk rocker Brett Gurewitz from Bad Religion).&lt;/p&gt;\n\n&lt;p&gt;Spreading sarcasm in every lyric, NOFX’s music range from hardcore punk to pop punk and even ska, but they’ve been doing it for so long and so characteristically that from the early days to their newest record, &lt;em&gt;First Ditch Effort&lt;/em&gt;, it’s instantly recognizable: it sounds like NOFX.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Foster-the-people', 'annotations': {'description': '&lt;p&gt;Foster the People is an American indie pop band formed in Los Angeles, California in 2009. The group is composed of &lt;a href="https://genius.com/artists/Mark-foster" rel="noopener" data-api_path="/artists/20731"&gt;Mark Foster&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mark-pontius" rel="noopener" data-api_path="/artists/634157"&gt;Mark Pontius&lt;/a&gt;, &lt;a href="https://genius.com/artists/Sean-cimino" rel="noopener" data-api_path="/artists/634158"&gt;Sean Cimino&lt;/a&gt; and &lt;a href="https://genius.com/artists/Isom-innis" rel="noopener" data-api_path="/artists/182399"&gt;Isom Innis&lt;/a&gt;. The group’s music, described as melodic dance-infused pop and rock, spans many genres. Tyler Halford is currently a touring member of the band. &lt;a href="https://genius.com/artists/Danyew" rel="noopener" data-api_path="/artists/479945"&gt;Phil Danyew&lt;/a&gt; toured with the band from 2014-2019, as he now has his own project, Elephant Castle. &lt;a href="https://genius.com/artists/Jacob-fink" rel="noopener" data-api_path="/artists/634156"&gt;Jacob “Cubbie” Fink&lt;/a&gt; was once a member but had left the band in 2015 after the release of their second album. &lt;a href="https://genius.com/artists/Arlene-deradoorian" rel="noopener" data-api_path="/artists/1019524"&gt;Arlene Deradoorian&lt;/a&gt; (sister of Angel Deradoorian) and &lt;a href="https://genius.com/artists/Haley-dekle" rel="noopener" data-api_path="/artists/236557"&gt;Haley Dekle&lt;/a&gt; had also provided backing vocals for the group in 2014.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-lemonheads', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cypress-hill', 'annotations': {'description': '&lt;p&gt;Cypress Hill is an West Coast – Cuban-American/Latino hip hop group originated from South Gate, California.&lt;br&gt;\nMembers of the group: &lt;a href="https://genius.com/artists/B-real" rel="noopener" data-api_path="/artists/998"&gt;B-Real&lt;/a&gt;, &lt;a href="https://genius.com/artists/Muggs" rel="noopener" data-api_path="/artists/5273"&gt;Muggs&lt;/a&gt;, &lt;a href="https://genius.com/artists/Sen-dog" rel="noopener" data-api_path="/artists/5140"&gt;Sen Dog&lt;/a&gt;, &lt;a href="https://genius.com/artists/Eric-bobo" rel="noopener" data-api_path="/artists/22889"&gt;Eric Bobo&lt;/a&gt;.&lt;br&gt;\nPast member of Cypress Hill was &lt;a href="https://genius.com/artists/Mellow-man-ace" rel="noopener" data-api_path="/artists/3583"&gt;Mellow Man Ace&lt;/a&gt;.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;h3&gt;Discography&lt;/h3&gt;\n\n&lt;p&gt;1991: &lt;a href="https://genius.com/albums/Cypress-hill/Cypress-hill" rel="noopener" data-api_path="/albums/1878"&gt;Cypress Hill&lt;/a&gt;&lt;br&gt;\n1992: &lt;a href="https://genius.com/albums/Cypress-hill/Something-for-the-blunted" rel="noopener" data-api_path="/albums/90127"&gt;Something for the Blunted&lt;/a&gt;&lt;br&gt;\n1993: &lt;a href="https://genius.com/albums/Cypress-hill/Black-sunday" rel="noopener" data-api_path="/albums/1861"&gt;Black Sunday&lt;/a&gt;&lt;br&gt;\n1995: &lt;a href="https://genius.com/albums/Cypress-hill/Cypress-hill-iii-temples-of-boom" rel="noopener" data-api_path="/albums/1886"&gt;Cypress Hill III: Temples of Boom&lt;/a&gt;&lt;br&gt;\n1996: &lt;a href="https://genius.com/albums/Cypress-hill/Unreleased-revamped" rel="noopener" data-api_path="/albums/1889"&gt;Unreleased &amp;amp; Revamped&lt;/a&gt;&lt;br&gt;\n1998: &lt;a href="https://genius.com/albums/Cypress-hill/Cypress-hill-iv" rel="noopener" data-api_path="/albums/1881"&gt;Cypress Hill IV&lt;/a&gt;&lt;br&gt;\n1999: &lt;a href="https://genius.com/albums/Cypress-hill/Los-grandes-exitos-en-espanol" rel="noopener" data-api_path="/albums/12672"&gt;Los Grandes Éxitos en Español&lt;/a&gt;&lt;br&gt;\n2000: &lt;a href="https://genius.com/albums/Cypress-hill/Skull-bones" rel="noopener" data-api_path="/albums/1862"&gt;Skull &amp;amp; Bones&lt;/a&gt;&lt;br&gt;\n2001: &lt;a href="https://genius.com/albums/Cypress-hill/Stoned-raiders" rel="noopener" data-api_path="/albums/1883"&gt;Stoned Riders&lt;/a&gt;&lt;br&gt;\n2002: Stash&lt;br&gt;\n2004: &lt;a href="https://genius.com/albums/Cypress-hill/Till-death-do-us-part" rel="noopener" data-api_path="/albums/1880"&gt;Till Death Do Us Part&lt;/a&gt;&lt;br&gt;\n2004: Smoke ‘Em If You Got \'Em&lt;br&gt;\n2010: &lt;a href="https://genius.com/albums/Cypress-hill/Rise-up" rel="noopener" data-api_path="/albums/1882"&gt;Rise Up&lt;/a&gt;&lt;br&gt;\n2012: Cypress x Rusko&lt;br&gt;\n2018: &lt;a href="https://genius.com/albums/Cypress-hill/Elephants-on-acid" rel="noopener" data-api_path="/albums/441164"&gt;Elephants On Acid&lt;/a&gt;&lt;/p&gt;\n\n&lt;hr&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dr-alban', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-alan-parsons-project', 'annotations': {'description': '&lt;p&gt;While Homer Simpson believed the &lt;a href="https://en.wikipedia.org/wiki/The_Alan_Parsons_Project" rel="noopener nofollow"&gt;Alan Parsons Project&lt;/a&gt; to be “some kind of hovercraft”, in fact its name is self-explanatory, Alan Parsons being a force in the progressive rock world who produced the Beatles\' &lt;em&gt;Abbey Road&lt;/em&gt; and Pink Floyd’s &lt;em&gt;Dark Side of the Moon&lt;/em&gt;, but also has his own recording project, which has produced its own hits over the years.&lt;/p&gt;\n\n&lt;p&gt;The one other solid fixture in this recording act is &lt;a href="https://en.wikipedia.org/wiki/Eric_Woolfson" rel="noopener nofollow"&gt;Eric Woolfson&lt;/a&gt;, a session musician and record producer with his own respectable resume.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/YXKmsvRXE4A?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Vampire-weekend', 'annotations': {'description': '&lt;p&gt;Vampire Weekend is an American indie rock band known for their complex lyrics and unorthodox production. Consisting of &lt;a href="https://genius.com/artists/Ezra-koenig" rel="noopener" data-api_path="/artists/44145"&gt;Ezra Koenig&lt;/a&gt;, &lt;a href="https://genius.com/artists/Baio" rel="noopener" data-api_path="/artists/547647"&gt;Chris Baio&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Chris-tomson" rel="noopener" data-api_path="/artists/642694"&gt;Chris Tomson&lt;/a&gt;, they have released four albums: &lt;a href="https://genius.com/albums/Vampire-weekend/Vampire-weekend" rel="noopener" data-api_path="/albums/11626"&gt;&lt;em&gt;Vampire Weekend&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Vampire-weekend/Contra" rel="noopener" data-api_path="/albums/11705"&gt;&lt;em&gt;Contra&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Vampire-weekend/Modern-vampires-of-the-city" rel="noopener" data-api_path="/albums/30135"&gt;&lt;em&gt;Modern Vampires of the City&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/Vampire-weekend/Father-of-the-bride" rel="noopener" data-api_path="/albums/438579"&gt;&lt;em&gt;Father of the Bride&lt;/em&gt;&lt;/a&gt;, which was originally known under the working title &lt;em&gt;Mitsubishi Macchiato&lt;/em&gt;. The latter two debuted at number one on the &lt;em&gt;Billboard&lt;/em&gt; 200, making them the first previously unknown independently signed to do so.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Rostam" rel="noopener" data-api_path="/artists/491040"&gt;Rostam Batmanglij&lt;/a&gt; was a member (mainly working on production and synths throughout his time) until January 2016, when he left to pursue solo projects. However, he contributed to their fourth album, Father of the Bride, which released in the Spring of 2019.&lt;/p&gt;\n\n&lt;p&gt;The band got their name the summer before Koenig’s sophmore year of college. He wanted to make an East Coast version of the 80s vampire film &lt;a href="https://www.imdb.com/title/tt0093437/" rel="noopener nofollow"&gt;&lt;em&gt;The Lost Boys&lt;/em&gt;&lt;/a&gt; and titled his version &lt;em&gt;Vampire Weekend&lt;/em&gt;. They originally considered calling themselves Weekend, but there was another band with that name. It was probably in reference to the Godard film &lt;a href="https://www.imdb.com/title/tt0062480/" rel="noopener nofollow"&gt;&lt;em&gt;Week-End&lt;/em&gt;&lt;/a&gt;, which is about dissolute youth revolutionaries in the 1968 tumult in France. &lt;a href="http://www.wunderkammermag.com/music-reviews/vampire-weekend-contra" rel="noopener nofollow"&gt;They allude to the film both in the “Mansard Roof” and “Oxford Comma” videos.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;With the release of &lt;em&gt;Modern Vampires of the City&lt;/em&gt;, Vampire Weekend has likened their first three albums to a trilogy. Koenig &lt;a href="http://www.nytimes.com/2013/05/12/arts/music/vampire-weekends-evolution-in-modern-vampires-of-the-city.html?pagewanted=all" rel="noopener nofollow"&gt;told Jon Pareles of the &lt;em&gt;New York Times&lt;/em&gt;&lt;/a&gt; as much in May 2013:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It reminded me of &lt;em&gt;Brideshead Revisited&lt;/em&gt;. The naïve joyous school days in the beginning. Then the expansion of the world, travel, seeing other places, learning a little bit more about how people live. And then the end is a little bit of growing up, starting to think more seriously about your life and your faith. If people could look at our three albums as a bildungsroman, I’d be O.K. with that.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Flavorwire has compiled a map similar to our &lt;a href="http://www.genius.com/rapmap" rel="noopener" data-api_path="/users/956434"&gt;Rap Map&lt;/a&gt; of &lt;a href="http://flavorwire.com/390035/an-interactive-map-of-vampire-weekends-many-geographical-references" rel="noopener nofollow"&gt;every location mentioned in Vampire Weekend songs.&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jason-derulo', 'annotations': {'description': '&lt;p&gt;Jason Derulo (born Jason Joel Desrouleaux), is an American singer-songwriter and dancer. Since the start of his career as a solo recording artist in 2009, Jason has sold over 30 million singles and has achieved four Top 5 singles, including “Wiggle,” “Talk Dirty,” “In My Head,” and “Whatcha Say.” He is known for singing his name at he beginning of many of his songs.&lt;/p&gt;\n\n&lt;p&gt;After producing records and writing songs for several artists, Derulo signed to minor recording label Beluga Heights. After Beluga Heights became part of the Warner Music Group, Derulo released his debut single &lt;a href="https://genius.com/Jason-derulo-whatcha-say-lyrics" rel="noopener" data-api_path="/songs/6028"&gt;“Whatcha Say”&lt;/a&gt; in May 2009. It sold over five million digital downloads, gaining an RIAA certification of triple platinum, and reaching number 1 in the U.S. and New Zealand. His debut album, &lt;a href="https://genius.com/albums/Jason-derulo/Jason-derulo" rel="noopener" data-api_path="/albums/24465"&gt;&lt;em&gt;Jason Derulo&lt;/em&gt;&lt;/a&gt;, was released on March 2, 2010.&lt;/p&gt;\n\n&lt;p&gt;He released his second studio album, &lt;a href="https://genius.com/albums/Jason-derulo/Future-history" rel="noopener" data-api_path="/albums/10922"&gt;&lt;em&gt;Future History&lt;/em&gt;&lt;/a&gt;, on September 16, 2011. It was preceded by the release of the UK number-one single &lt;a href="https://genius.com/Jason-derulo-dont-wanna-go-home-lyrics" rel="noopener" data-api_path="/songs/50793"&gt;“Don’t Wanna Go Home.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Derulo’s third international album, &lt;a href="https://genius.com/albums/Jason-derulo/Tattoos" rel="noopener" data-api_path="/albums/42060"&gt;&lt;em&gt;Tattoos&lt;/em&gt;&lt;/a&gt;, was released on September 24, 2013 featuring the singles &lt;a href="https://genius.com/Jason-derulo-marry-me-lyrics" rel="noopener" data-api_path="/songs/210478"&gt;“Marry Me”&lt;/a&gt;, &lt;a href="https://genius.com/Jason-derulo-trumpets-lyrics" rel="noopener" data-api_path="/songs/220968"&gt;“Trumpets”&lt;/a&gt;, &lt;a href="https://genius.com/Jason-derulo-talk-dirty-lyrics" rel="noopener" data-api_path="/songs/194687"&gt;“Talk Dirty”&lt;/a&gt;, and &lt;a href="https://genius.com/Jason-derulo-the-other-side-lyrics" rel="noopener" data-api_path="/songs/154542"&gt;“The Other Side”&lt;/a&gt;. Derulo reissued the album a year later under the name &lt;a href="https://genius.com/albums/Jason-derulo/Talk-dirty" rel="noopener" data-api_path="/albums/351874"&gt;&lt;em&gt;Talk Dirty&lt;/em&gt;&lt;/a&gt; with some additional songs and the single &lt;a href="https://genius.com/Jason-derulo-wiggle-lyrics" rel="noopener" data-api_path="/songs/403545"&gt;“Wiggle”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;His fourth album &lt;a href="https://genius.com/albums/Jason-derulo/Everything-is-4" rel="noopener" data-api_path="/albums/122800"&gt;&lt;em&gt;Everything is 4&lt;/em&gt;&lt;/a&gt; was released on June 2, 2015 featuring the lead single &lt;a href="https://genius.com/Jason-derulo-want-to-want-me-lyrics" rel="noopener" data-api_path="/songs/720259"&gt;“Want to Want Me”&lt;/a&gt;. It was released on March 9, 2015, and topped charts worldwide. It also reached #6 in the US. A year later he released a compilation album, &lt;a href="https://genius.com/albums/Jason-derulo/Platinum-hits" rel="noopener" data-api_path="/albums/161185"&gt;“Platinum Hits”&lt;/a&gt; featuring his 11 platinum songs plus the single &lt;a href="https://genius.com/Jason-derulo-kiss-the-sky-lyrics" rel="noopener" data-api_path="/songs/2827834"&gt;&lt;em&gt;Kiss the Sky&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;From 2017 to 2019, Derulo released singles and collaborations, most notably &lt;a href="https://genius.com/Jason-derulo-swalla-lyrics" rel="noopener" data-api_path="/songs/2945277"&gt;“Swalla”&lt;/a&gt;, &lt;a href="https://genius.com/Jason-derulo-colors-lyrics" rel="noopener" data-api_path="/songs/3529615"&gt;“Colors”&lt;/a&gt;, and &lt;a href="https://genius.com/Jason-derulo-and-david-guetta-goodbye-lyrics" rel="noopener" data-api_path="/songs/3911203"&gt;“Goodbye”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2019, Derulo released &lt;a href="https://genius.com/albums/Jason-derulo/2sides-side-1" rel="noopener" data-api_path="/albums/574060"&gt;“2 Sides (Side 1)”&lt;/a&gt;, the first of 2 sets of EPs. The second side was set to release in 2020, but has been delayed due to disputes with Warner Brothers.&lt;/p&gt;', 'alternate_names': ['Jason Joel Desrouleaux', 'Jason Desrouleaux']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sia', 'annotations': {'description': '&lt;p&gt;Sia Kate Isobelle Furler (born December 18, 1975), popularly known as Sia, is an Australian pop singer and songwriter. She is also part of the supergroup, &lt;a href="https://genius.com/artists/Lsd" rel="noopener" data-api_path="/artists/1462360"&gt;LSD&lt;/a&gt; alongside British singer, &lt;a href="https://genius.com/artists/Labrinth" rel="noopener" data-api_path="/artists/720"&gt;Labrinth&lt;/a&gt; and American DJ, &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt;. Before her solo debut, Sia also lent vocals to British acid-jazz duo, &lt;a href="https://genius.com/artists/Zero-7" rel="noopener" data-api_path="/artists/2570"&gt;Zero 7&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Her album &lt;em&gt;&lt;a href="https://genius.com/albums/Sia/1000-forms-of-fear" rel="noopener" data-api_path="/albums/104614"&gt;1000 Forms of Fear&lt;/a&gt;&lt;/em&gt; was released in 2014 and is her most successful album to date, with the top 10 single “&lt;a href="https://genius.com/Sia-chandelier-lyrics" rel="noopener" data-api_path="/songs/378195"&gt;Chandelier&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;After performing for nearly 15 years at nightclubs as well as releasing five studio albums, Sia took a hiatus from performing in 2010 when she began writing for other artists. Some of her most successful collaborations are “&lt;a href="https://genius.com/David-guetta-titanium-lyrics" rel="noopener" data-api_path="/songs/64869"&gt;Titanium&lt;/a&gt;” with &lt;a href="https://genius.com/artists/David-guetta" rel="noopener" data-api_path="/artists/2578"&gt;David Guetta&lt;/a&gt;, “&lt;a href="https://genius.com/Rihanna-diamonds-lyrics" rel="noopener" data-api_path="/songs/89794"&gt;Diamonds&lt;/a&gt;” with &lt;a href="https://genius.com/artists/Rihanna" rel="noopener" data-api_path="/artists/89"&gt;Rihanna&lt;/a&gt; and “&lt;a href="https://genius.com/Flo-rida-wild-ones-lyrics" rel="noopener" data-api_path="/songs/68266"&gt;Wild Ones&lt;/a&gt;” with &lt;a href="https://genius.com/artists/Flo-rida" rel="noopener" data-api_path="/artists/1081"&gt;Flo Rida&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Sia famously started hiding her face during her recent promotional cycles and public events. She has stated that because when she started to become a little bit famous, it felt destabilizing for her in some ways. In order for her to maintain a certain amount of privacy, she focused on writing for other artists and started covering up her face with the famous wig.&lt;/p&gt;\n\n&lt;p&gt;Sia has the most music videos with over a billion views on YouTube of all-female artists, with 5 videos having reached at least one billion views.&lt;/p&gt;\n\n&lt;p&gt;She has received a wide range of awards, including a total of 8 Grammy nominations. Sia also has had 8 of her songs go double platinum in record sales.&lt;/p&gt;\n\n&lt;p&gt;Despite this, her excursion into film was a far cry from her illustrious music career. In 2021, Sia would release a film entitled &lt;a href="https://www.imdb.com/title/tt7541720/" rel="noopener nofollow"&gt;&lt;em&gt;Music&lt;/em&gt;&lt;/a&gt;. Starring &lt;a href="https://www.imdb.com/name/nm4675650/?ref_=tt_cl_t1" rel="noopener nofollow"&gt;Maddie Ziegler&lt;/a&gt; in the title role of an autistic teen, the movie was &lt;a href="https://www.usatoday.com/story/entertainment/movies/2021/02/10/critics-slam-sia-film-music-nonsensical-and-cringe-inducing/6712473002/" rel="noopener nofollow"&gt;slammed&lt;/a&gt; by critics and Sia fans alike for its &lt;a href="https://intheirownleague.com/2021/02/20/why-music-2021-is-harmful-for-neurodivergent-representation-and-alternatives-to-consider/" rel="noopener nofollow"&gt;poor&lt;/a&gt; representation of autism and almost &lt;a href="https://www.indiewire.com/2021/02/sia-film-music-maddie-ziegler-autistic-community-1234617040/" rel="noopener nofollow"&gt;ableist&lt;/a&gt; sentiments. Following some &lt;a href="https://variety.com/2020/music/news/sia-debate-twitter-disabled-film-autism-music-1234837013/" rel="noopener nofollow"&gt;stormy&lt;/a&gt; tweets in response to criticism, Sia would &lt;a href="https://www.usatoday.com/story/entertainment/movies/2021/02/04/sia-adds-disclaimer-golden-globe-nominated-music-amid-backlash-autism-community/4386251001/" rel="noopener nofollow"&gt;delete&lt;/a&gt; her Twitter account. The film &lt;a href="https://www.rottentomatoes.com/m/music" rel="noopener nofollow"&gt;maintains&lt;/a&gt; an 8% on &lt;a href="https://rottontomatoes.com/" rel="noopener nofollow"&gt;Rotten Tomatoes&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Sia Kate Isobelle Furler', 'Sia Furler', 'Sia K. I. Furler']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kelly-rowland', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://twitter.com/KELLYROWLAND" rel="noopener nofollow"&gt;Kelendria Trene Rowland&lt;/a&gt;, also known as Kelly Rowland, was born in Atlanta, Georgia and raised in Houston, Texas. She began her music career with &lt;a href="https://en.wikipedia.org/wiki/List_of_best-selling_girl_groups#Best-selling_girl_groups_worldwide" rel="noopener nofollow"&gt;the world’s second best-selling girl group of all time&lt;/a&gt;, &lt;a href="https://genius.com/artists/Destinys-child" rel="noopener" data-api_path="/artists/2831"&gt;Destiny’s Child&lt;/a&gt;, (following the &lt;a href="https://genius.com/artists/Spice-girls" rel="noopener" data-api_path="/artists/13074"&gt;Spice Girls&lt;/a&gt;), and her solo career has maintained her status as a legendary rhythm and blues singer/songwriter. Kelly’s singing style is most comfortable in the midrange, capable of making inflections echoing the soul-divas of the R&amp;amp;B golden age, inspired by their gospel roots, including &lt;a href="https://genius.com/artists/Tina-turner" rel="noopener" data-api_path="/artists/28334"&gt;Tina Turner&lt;/a&gt;, &lt;a href="https://genius.com/artists/Aretha-franklin" rel="noopener" data-api_path="/artists/1108"&gt;Aretha Franklin&lt;/a&gt; and Kelly’s idol &lt;a href="https://genius.com/artists/Whitney-houston" rel="noopener" data-api_path="/artists/8534"&gt;Whitney Houston&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;This artist’s signature songs include &lt;a href="https://genius.com/Kelly-rowland-motivation-lyrics" rel="noopener" data-api_path="/songs/5026"&gt;“Motivation”&lt;/a&gt; which features benchmark rapper &lt;a href="https://genius.com/artists/Lil-wayne" rel="noopener" data-api_path="/artists/4"&gt;Lil Wayne&lt;/a&gt;, &lt;a href="https://genius.com/Kelly-rowland-kisses-down-low-lyrics" rel="noopener" data-api_path="/songs/128426"&gt;“Kisses Down Low”&lt;/a&gt;, a sexy summer hit, and she achieved cross-over success in Eurodance when she paired with &lt;a href="https://genius.com/artists/David-guetta" rel="noopener" data-api_path="/artists/2578"&gt;David Guetta&lt;/a&gt; for &lt;a href="https://genius.com/David-guetta-when-love-takes-over-feat-kelly-rowland-lyrics" rel="noopener"&gt;“When Love Takes Over”&lt;/a&gt;. On her most applauded tracks, Rowland shares her talents with contemporaries: old friends &lt;a href="https://genius.com/artists/Beyonce" rel="noopener" data-api_path="/artists/498"&gt;Beyoncé&lt;/a&gt;, &lt;a href="https://genius.com/artists/Michelle-williams" rel="noopener" data-api_path="/artists/35041"&gt;Michelle Williams&lt;/a&gt;, as well as new(er) friends &lt;a href="https://genius.com/artists/Fantasia" rel="noopener" data-api_path="/artists/8609"&gt;Fantasia&lt;/a&gt; and &lt;a href="https://genius.com/artists/Missy-elliott" rel="noopener" data-api_path="/artists/1529"&gt;Missy Elliott&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Kelly has received a plethora of nods from the academy and others in the industry: &lt;a href="http://kellyrowland.com/bio/" rel="noopener nofollow"&gt;“five Grammy Awards, 16 Billboard Music Awards, 15 Soul Train Awards, 4 American Music Awards, 2 MTV Video Music Awards, 1 BRIT Award, 1 BET Award, 1 NAACP Image Award, a Star on the &lt;em&gt;Hollywood Walk of Fame&lt;/em&gt;”&lt;/a&gt; and counting. 2014 was topsy-turvy for Kelly: she welcomed a bouncy baby boy into the world, but &lt;a href="http://www.usmagazine.com/celebrity-news/news/kelly-rowland-mom-doris-rowland-garrison-dies-66-2014312" rel="noopener nofollow"&gt;lost her mother one month later&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Most recently Kelly is developing her small screen resume on the hit television show &lt;a href="https://genius.com/albums/Empire-cast/Empire-season-2" rel="noopener"&gt;Empire’s second season&lt;/a&gt;, appearing as the mentally disturbed mother of the &lt;a href="https://genius.com/albums/William-shakespeare/King-lear" rel="noopener" data-api_path="/albums/25554"&gt;King Lear&lt;/a&gt; character, Lucious Lyon. The feature films &lt;a href="http://www.imdb.com/title/tt0329101/fullcredits?ref_=tt_ov_st_sm" rel="noopener nofollow"&gt;&lt;em&gt;Freddy vs. Jason&lt;/em&gt;&lt;/a&gt; and  &lt;a href="http://www.imdb.com/title/tt0379487/fullcredits?ref_=tt_ov_st_sm" rel="noopener nofollow"&gt;&lt;em&gt;the Seat Filler&lt;/em&gt;&lt;/a&gt; also included Kelly’s acting credits.&lt;/p&gt;', 'alternate_names': ['Kelendria T. Rowland', 'Kelendria Trene Rowland', 'Kelendria Rowland']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Meredith-brooks', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Meredith Ann Brooks']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sinead-oconnor', 'annotations': {'description': '&lt;p&gt;Sinéad O\'Connor (who goes by Shuhada\' Sadaqat in her private life) is an Irish singer-songwriter who rose to fame in the late 80s with her album &lt;em&gt;The Lion and the Cobra&lt;/em&gt; and achieved worldwide success with her cover of Prince’s “Nothing Compares 2 U”.&lt;/p&gt;\n\n&lt;p&gt;O\'Connor was discovered in 1985 when Nigel Grainge of Ensign Records saw her band Ton Ton Macoute perform. Although he was not fond of the band’s music, he was impressed by O\'Connor’s ‘amazing voice’. Grainge had O\'Connor record four songs with Karl Wallinger (World Party) and &lt;a href="https://www.oldies.com/artist-biography/Sinead-OConnor.html" rel="noopener nofollow"&gt;signed her to his label&lt;/a&gt;. O\'Connor’s first single was the song “Heroine” which she co-wrote with U2’s guitarist The Edge for the film &lt;em&gt;Captive&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Her debut album &lt;em&gt;The Lion and the Cobra&lt;/em&gt; was a sensation when it was released in 1987, reaching gold record status and &lt;a href="https://www.grammy.com/grammys/artists/sin%C3%A9ad-oconnor" rel="noopener nofollow"&gt;earning&lt;/a&gt; a Best Female Rock Vocal Performance Grammy nomination. O\'Connor’s debut single “Troy” charted in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=Troy&amp;amp;cat=s" rel="noopener nofollow"&gt;The Netherlands and Belgium&lt;/a&gt;, and “Mandinka”, released in late 1987, cracked the top 20 &lt;a href="http://www.officialcharts.com/artist/24657/sinead-o\'connor/" rel="noopener nofollow"&gt;in the UK&lt;/a&gt; and top 30 in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=Mandinka&amp;amp;cat=s" rel="noopener nofollow"&gt;three other European countries&lt;/a&gt;, helping her album chart well &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=The+Lion+And+The+Cobra&amp;amp;cat=a" rel="noopener nofollow"&gt;in Europe&lt;/a&gt;. Spin Magazine &lt;a href="https://www.spin.com/featured/sinead-oconnor-interview-spin-30-cover-story/" rel="noopener nofollow"&gt;described&lt;/a&gt; the album as a “remarkable, still-spine-tingling first record”.&lt;/p&gt;\n\n&lt;p&gt;In 1990, the lead single from her sophomore album &lt;em&gt;I Do Not Want What I Haven’t Got&lt;/em&gt;, a cover of the Prince-penned song “Nothing Compares 2 U” (originally performed by &lt;a href="https://genius.com/The-family-nothing-compares-2-u-lyrics" rel="noopener" data-api_path="/songs/2891977"&gt;The Family&lt;/a&gt;), became an &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=Nothing+Compares+2+U&amp;amp;cat=s" rel="noopener nofollow"&gt;international smash hit&lt;/a&gt;, topping the charts in eleven countries including &lt;a href="http://www.officialcharts.com/artist/24657/sinead-o\'connor/" rel="noopener nofollow"&gt;the UK&lt;/a&gt; and &lt;a href="https://www.billboard.com/music/sinead-oconnor/chart-history/hot-100" rel="noopener nofollow"&gt;the US&lt;/a&gt;, propelling O\'Connor into worldwide stardom. Its second single “The Emperor’s New Clothes” was a top 30 hit &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=The+Emperor%27s+New+Clothes&amp;amp;cat=s" rel="noopener nofollow"&gt;in several European countries&lt;/a&gt;, but only a modest one &lt;a href="https://www.billboard.com/music/sinead-oconnor/chart-history/hot-100" rel="noopener nofollow"&gt;in the US&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Almost immediately, controversy brewed around O\'Connor. A canceled Saturday Night Live performance was followed by &lt;a href="https://www.theguardian.com/music/2012/sep/21/sinead-o-connor-pope-photo" rel="noopener nofollow"&gt;ripping a photo&lt;/a&gt; of the Pope in half on the show two years later. She refused to allow the American National Anthem be sung before one of her concerts, leading to a local FM station banning her music and a senator calling for the boycotting of her shows. She refused to attend the 1990 Grammys despite receiving &lt;a href="https://www.grammy.com/grammys/artists/sin%C3%A9ad-oconnor" rel="noopener nofollow"&gt;four nominations&lt;/a&gt;. And she claimed a meeting with Prince included a threat that he was going to beat her, which he denied.&lt;/p&gt;\n\n&lt;p&gt;Her subsequent releases through the 90’s found &lt;a href="https://dutchcharts.nl/artist/Sinead_O\'Connor" rel="noopener nofollow"&gt;moderate success&lt;/a&gt; &lt;a href="http://www.officialcharts.com/artist/24657/sinead-o\'connor/" rel="noopener nofollow"&gt;overseas&lt;/a&gt;, and though album sales in the US &lt;a href="https://www.billboard.com/music/sinead-oconnor/chart-history/billboard-200" rel="noopener nofollow"&gt;were marginal&lt;/a&gt;, she had no further hits there. After 2000’s &lt;em&gt;Faith And Courage&lt;/em&gt;, O\'Connor’s success worldwide &lt;a href="https://dutchcharts.nl/artist/Sinead_O\'Connor" rel="noopener nofollow"&gt;diminished&lt;/a&gt;, with her songs only charting modestly in Ireland.&lt;/p&gt;\n\n&lt;p&gt;In addition to a fading career, a suicide attempt in 1999, three short-lived marriages between 2001-2012, and &lt;a href="https://www.news.com.au/entertainment/celebrity-life/celebrity-kids/sinead-oconnors-worrying-message-after-losing-custody-of-her-child/news-story/0a607587e38640e6fcfd183bde84d4ab" rel="noopener nofollow"&gt;losing custody&lt;/a&gt; of her son left her in a deteriorated mental state that culminated in a 12-minute profanity-laced video on her Facebook page in 2017 where she &lt;a href="https://www.telegraph.co.uk/news/2017/08/08/sinead-oconnor-sparks-fears-mental-health-posting-tearful-video/" rel="noopener nofollow"&gt;talks about&lt;/a&gt; wanting to kill herself. A month later she &lt;a href="https://variety.com/2017/tv/news/sinead-oconnor-dr-phil-interview-video-1202555641/" rel="noopener nofollow"&gt;appeared on a talk show&lt;/a&gt; stating, “I’m very excited to be getting some proper help”. However, in 2018 she changed her name from Sinéad O\'Connor to Magda Davitt, then to Shuhada Sadaqat, converted to Islam and &lt;a href="https://consequenceofsound.net/2018/11/sinead-oconnor-twitter/" rel="noopener nofollow"&gt;tweeted&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;What I’m about to say is something so racist I never thought my soul could ever feel it. But truly I never wanna spend time with white people again (if that’s what non-muslims are called). Not for one moment, for any reason. They are disgusting … If its ‘Crazy’ to care. Then by all means, spank my ass and call me Fruity loops.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In 2019, O\'Connor released a demo of new song “Milestones” and announced a new upcoming LP &lt;em&gt;No Mud No Lotus&lt;/em&gt; (also the title of a 2014 book by Zen Master Thich Nhat Hanh) was scheduled for release later in the year, but a cover of gospel singer Mahalia Jackson’s “Trouble Of The World”, a song &lt;a href="https://www.hotpress.com/music/exclusive-sinead-oconnor-talks-trouble-of-the-world-in-the-next-issue-of-hot-press-22828112" rel="noopener nofollow"&gt;in support&lt;/a&gt; of the Black Lives Matter cause, appeared in 2020 instead. In June 2021, she &lt;a href="https://www.spin.com/2021/06/sinead-oconnor-retirement/" rel="noopener nofollow"&gt;announced&lt;/a&gt; her retirement from music, revealing that her upcoming album &lt;em&gt;No Veteran Dies Alone&lt;/em&gt; will be her last, and added to her claims of abuse by Prince back in the 1990s in her memoir &lt;em&gt;&lt;a href="https://www.npr.org/2021/06/01/992501997/sinead-oconnor-has-a-new-memoir-and-no-regrets" rel="noopener nofollow"&gt;Rememberings&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': ['Magda Davitt', "Sinead O'connor"]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bad-boys-blue', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Supertramp', 'annotations': {'description': '&lt;p&gt;Supertramp are an English rock band formed in 1969 (assuming this name in 1970). Their style oscillates between progressive rock and a more mainstream pop rock. The band’s work is marked by the songwriting of founders Rick Davies and Roger Hodgson and the prominent use of Wurlitzer electric piano and saxophone.&lt;/p&gt;\n\n&lt;p&gt;Garnering tremendous success in the latter half of the ‘70s, Supertramp created several very popular and recognisable hit singles, beginning with &lt;a href="https://genius.com/Supertramp-school-lyrics" rel="noopener" data-api_path="/songs/307015"&gt;School&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-dreamer-lyrics" rel="noopener" data-api_path="/songs/732412"&gt;Dreamer&lt;/a&gt; off their 1974 commercial breakthrough, &lt;a href="https://genius.com/albums/Supertramp/Crime-of-the-century" rel="noopener" data-api_path="/albums/67354"&gt;&lt;em&gt;Crime Of The Century&lt;/em&gt;&lt;/a&gt;. 1977’s &lt;a href="https://genius.com/albums/Supertramp/Even-in-the-quietest-moments" rel="noopener" data-api_path="/albums/147348"&gt;&lt;em&gt;Even In The Quietest Moments…&lt;/em&gt;&lt;/a&gt; saw two more Hodgson-penned highlights in &lt;a href="https://genius.com/Supertramp-give-a-little-bit-lyrics" rel="noopener" data-api_path="/songs/967668"&gt;Give A Little Bit&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-fools-overture-lyrics" rel="noopener" data-api_path="/songs/1645350"&gt;Fool’s Overture&lt;/a&gt;, before the band and its leading duo reached their peak with the band’s top-selling record, 1979’s &lt;a href="https://genius.com/albums/Supertramp/Breakfast-in-america" rel="noopener" data-api_path="/albums/82564"&gt;&lt;em&gt;Breakfast In America&lt;/em&gt;&lt;/a&gt;. This album alone includes no less than 6 popular tracks: four of Hodgson’s (&lt;a href="https://genius.com/Supertramp-the-logical-song-lyrics" rel="noopener" data-api_path="/songs/440468"&gt;The Logical Song&lt;/a&gt;, &lt;a href="https://genius.com/Supertramp-take-the-long-way-home-lyrics" rel="noopener" data-api_path="/songs/482326"&gt;Take The Long Way Home&lt;/a&gt;, &lt;a href="https://genius.com/Supertramp-child-of-vision-lyrics" rel="noopener" data-api_path="/songs/477112"&gt;Child Of Vision&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-breakfast-in-america-lyrics" rel="noopener" data-api_path="/songs/482324"&gt;the title track&lt;/a&gt;) and the two most well-known of Davies’ creations, &lt;a href="https://genius.com/Supertramp-gone-hollywood-lyrics" rel="noopener" data-api_path="/songs/482321"&gt;Gone Hollywood&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-goodbye-stranger-lyrics" rel="noopener" data-api_path="/songs/361826"&gt;Goodbye Stranger&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The next album would be the last including Roger Hodgson, after which Richard Davies helmed the band alone into the ‘80s and the rise of digital synthesizers.&lt;/p&gt;\n\n&lt;p&gt;While Supertramp still exists, the latest album by the band was released in 2002.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bebe-rexha', 'annotations': {'description': '&lt;p&gt;Born on August 30, 1989, Bleta Rexha–widely known by her stage name Bebe Rexha, with &lt;a href="http://www.gmanetwork.com/news/story/571629/lifestyle/artandculture/bebe-rexha-music-is-about-making-people-know-they-re-not-alone" rel="noopener nofollow"&gt;Bebe meaning “bumblebee”&lt;/a&gt;–is an American singer and songwriter hailing from Brooklyn, New York. Her Albanian background and passion for music at the young age of 4 led her to pursue her love for music through Tottenville High School on Staten Island.&lt;/p&gt;\n\n&lt;p&gt;She is best known for being featured on the hit singles &lt;a href="https://genius.com/Cash-cash-take-me-home-lyrics" rel="noopener" data-api_path="/songs/286961"&gt;“Take Me Home”&lt;/a&gt; by &lt;a href="https://genius.com/artists/cash-cash" rel="noopener" data-api_path="/artists/104043"&gt;Cash Cash&lt;/a&gt;, &lt;a href="https://genius.com/David-guetta-hey-mama-lyrics" rel="noopener" data-api_path="/songs/554208"&gt;“Hey Mama”&lt;/a&gt; by &lt;a href="https://genius.com/artists/David-guetta" rel="noopener" data-api_path="/artists/2578"&gt;David Guetta&lt;/a&gt; and &lt;a href="https://genius.com/G-eazy-me-myself-and-i-lyrics" rel="noopener" data-api_path="/songs/2329765"&gt;“Me, Myself and I”&lt;/a&gt; by &lt;a href="https://genius.com/artists/g-eazy" rel="noopener" data-api_path="/artists/11395"&gt;G-Eazy&lt;/a&gt;. She is also known for being the lead vocalist of the American band &lt;a href="https://genius.com/artists/Black-cards" rel="noopener" data-api_path="/artists/160888"&gt;Black Cards&lt;/a&gt;, which was created by Pete Wentz, lead bassist of &lt;a href="https://genius.com/artists/fall-out-boy" rel="noopener" data-api_path="/artists/7811"&gt;Fall Out Boy&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;She has worked producing and writing for several different artists and most notably co-wrote the number-one US Billboard Hot 100 hit &lt;a href="https://genius.com/Eminem-the-monster-lyrics" rel="noopener" data-api_path="/songs/235732"&gt;“The Monster”&lt;/a&gt; by &lt;a href="https://genius.com/artists/eminem" rel="noopener" data-api_path="/artists/45"&gt;Eminem&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/rihanna" rel="noopener" data-api_path="/artists/89"&gt;Rihanna&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;She published two EPs in 2017: All Your Fault &lt;a href="https://genius.com/albums/Bebe-rexha/All-your-fault-pt-1" rel="noopener" data-api_path="/albums/162610"&gt;Pt. 1&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/albums/Bebe-rexha/All-your-fault-pt-2" rel="noopener" data-api_path="/albums/326236"&gt;Pt. 2&lt;/a&gt;. &lt;a href="https://genius.com/Bebe-rexha-meant-to-be-lyrics" rel="noopener" data-api_path="/songs/3182458"&gt;“Meant To Be”&lt;/a&gt;, which is in part 2, has entered US Billboard Hot 100 and is the &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8467605/meant-to-be-breaks-record-longest-rule-hot-country-songs-history" rel="noopener nofollow"&gt;longest No.1 on the Billboard Hot Country songs&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Bebe-rexha-meant-to-be-lyrics" rel="noopener" data-api_path="/songs/3182458"&gt;“Meant To Be”&lt;/a&gt; would also be later included in Bebe’s debut album &lt;a href="https://genius.com/albums/Bebe-rexha/Expectations" rel="noopener" data-api_path="/albums/379436"&gt;Expectations&lt;/a&gt;, the latter being released on June 22, 2018. The album peaked at #13 on the Billboard Hot 200.&lt;/p&gt;\n\n&lt;p&gt;On May 7th, 2021, Bebe’s highly anticipated second studio album, &lt;a href="https://genius.com/albums/Bebe-rexha/Better-mistakes" rel="noopener" data-api_path="/albums/483384"&gt;&lt;em&gt;Better Mistakes&lt;/em&gt;&lt;/a&gt;, was released. It consisted of more personal outlook on music, and featured many A-list artists, including &lt;a href="https://genius.com/artists/Travis-barker" rel="noopener" data-api_path="/artists/1604"&gt;Travis Barker&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lil-uzi-vert" rel="noopener" data-api_path="/artists/217208"&gt;Lil Uzi Vert&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Doja-cat" rel="noopener" data-api_path="/artists/139478"&gt;Doja Cat&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Bleta Rexha']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alicia-keys', 'annotations': {'description': '&lt;p&gt;Gifted with one of the finest voices of the early 21st century and exceptional talent, the famed &lt;strong&gt;Alicia Keys&lt;/strong&gt; is a recognized, award-winning R&amp;amp;B singer, songwriter, and record producer. She was born on January 25, 1981 in New York.&lt;/p&gt;\n\n&lt;p&gt;Her debut album &lt;a href="https://genius.com/albums/Alicia-keys/Songs-in-a-minor" rel="noopener" data-api_path="/albums/27929"&gt;&lt;em&gt;Songs in A Minor&lt;/em&gt;&lt;/a&gt; launched her career as she became the best-selling new artist of 2001. Her follow-up album &lt;a href="https://genius.com/albums/Alicia-keys/The-diary-of-alicia-keys" rel="noopener" data-api_path="/albums/19545"&gt;&lt;em&gt;The Diary of Alicia Keys&lt;/em&gt;&lt;/a&gt; (2003) and her album for the &lt;a href="https://genius.com/albums/Alicia-keys/Unplugged" rel="noopener" data-api_path="/albums/6333"&gt;&lt;em&gt;MTV Unplugged&lt;/em&gt;&lt;/a&gt; series in 2005 further cemented her at the top of the pop and R&amp;amp;B game. Her biggest hits are powerful ballads like &lt;a href="https://genius.com/Alicia-keys-fallin-lyrics" rel="noopener" data-api_path="/songs/344010"&gt;“Fallin\',”&lt;/a&gt; &lt;a href="https://genius.com/Alicia-keys-if-i-aint-got-you-lyrics" rel="noopener" data-api_path="/songs/276051"&gt;“If I Ain’t Got You,”&lt;/a&gt; and &lt;a href="https://genius.com/Alicia-keys-no-one-lyrics" rel="noopener" data-api_path="/songs/428036"&gt;“No One.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;On January 15, 2019 Pop/R&amp;amp;B legend and &lt;a href="https://www.grammy.com/grammys/news/alicia-keys-host-2019-grammy-awards" rel="noopener nofollow"&gt;15-time GRAMMY winner Alicia Keys&lt;/a&gt; was announced as the host of the 61st Annual GRAMMY Awards. This will be the first time Keys has been the master of ceremonies for Music’s Biggest Night.&lt;/p&gt;\n\n&lt;p&gt;Alicia Keys, whose birth name is Alicia Augello-Cook, has been married to rapper and producer &lt;a href="https://genius.com/artists/Swizz-beatz" rel="noopener" data-api_path="/artists/184"&gt;Swizz Beats&lt;/a&gt; since 2010 from whom she has two children: Egypt Daoud and Genesis Ali.&lt;/p&gt;', 'alternate_names': ['Alicia Augello-Cook', 'Alicia Augello-Cook Dean']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bodeans', 'annotations': {'description': '&lt;p&gt;The BoDeans are an American rock band from Waukesha, Wisconsin, formed in 1983.&lt;/p&gt;\n\n&lt;p&gt;The first full lineup was Kurt Neumann, vocals and lead guitar. Sam Llanas, vocals and rhythm guitar; Bob Griffin, bass. Nick Kitsos, drums.&lt;/p&gt;\n\n&lt;p&gt;In a 1987 &lt;em&gt;Rolling Stone&lt;/em&gt; magazine poll, the BoDeans were voted ‘Best New American Band’.&lt;/p&gt;\n\n&lt;p&gt;In 1993, their song “Closer to Free” was selected as the theme song for the television series “Party of Five” and became one of Billboard’s 10 most-played songs of 1996.&lt;/p&gt;\n\n&lt;p&gt;Presently, Neumann is the only remaining original member. Neumann is joined by drummer Kenny Aronoff, widely known for his work with John Cougar Mellencamp.&lt;/p&gt;\n\n&lt;p&gt;A more detailed band history is  archived at the &lt;a href="http://archive.jsonline.com/news/milwaukee/29335784.html" rel="noopener nofollow"&gt;Milwaukee Journal Sentinel&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Drake', 'annotations': {'description': '&lt;p&gt;Aubrey Drake Graham (born October 24, 1986) is a Canadian rapper, singer, songwriter, record producer, actor, and entrepreneur.&lt;/p&gt;\n\n&lt;p&gt;Drake is part of a generation of rappers, along with &lt;a href="https://genius.com/artists/Wiz-khalifa" rel="noopener" data-api_path="/artists/310"&gt;Wiz Khalifa&lt;/a&gt;, &lt;a href="https://genius.com/artists/Kid-cudi" rel="noopener" data-api_path="/artists/68"&gt;Kid Cudi&lt;/a&gt; and others, who came up through internet mixtapes. Drizzy put out three mixtapes from 2006 to 2009: &lt;a href="https://genius.com/albums/drake/room-for-improvement" rel="noopener" data-api_path="/albums/2625"&gt;&lt;em&gt;Room for Improvement,&lt;/em&gt;&lt;/a&gt; &lt;a href="https://genius.com/albums/drake/comeback-season" rel="noopener" data-api_path="/albums/2622"&gt;&lt;em&gt;Comeback Season,&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/drake/so-far-gone" rel="noopener" data-api_path="/albums/2627"&gt;&lt;em&gt;So Far Gone.&lt;/em&gt;&lt;/a&gt; These mixtapes got him the attention of &lt;a href="https://genius.com/artists/Lil-wayne" rel="noopener" data-api_path="/artists/4"&gt;Lil Wayne&lt;/a&gt;, and spawned the hit singles &lt;a href="https://genius.com/lyrics/Drake-ft-eminem-kanye-west-and-lil-wayne/Forever" rel="noopener" data-api_path="/songs/147"&gt;“Forever”&lt;/a&gt; and &lt;a href="https://genius.com/lyrics/Drake/Best-i-ever-had" rel="noopener" data-api_path="/songs/672"&gt;“Best I Ever Had,”&lt;/a&gt; the latter coming from his critically acclaimed mixtape &lt;a href="https://genius.com/albums/Drake/So-far-gone" rel="noopener" data-api_path="/albums/2627"&gt;&lt;em&gt;So Far Gone&lt;/em&gt;&lt;/a&gt;. During this period, Drake also made a slew of guest appearances on tracks by artists from &lt;a href="https://genius.com/lyrics/Dj-khaled-ft-drake-lil-wayne-rick-ross-usher-and-young-jeezy/Fed-up" rel="noopener"&gt;DJ Khaled&lt;/a&gt; to &lt;a href="https://genius.com/lyrics/Jay-z-ft-drake/Off-that" rel="noopener" data-api_path="/songs/674"&gt;JAY-Z.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Even before the release of his debut album, Drake was &lt;a href="https://www.billboard.com/articles/news/268522/rapper-drake-lil-wayne-protege-draws-heavy-hitters-to-new-york-gig/" rel="noopener nofollow"&gt;being referred to&lt;/a&gt; by Billboard as “the biggest buzz” and “possibly the most sought-after artist” in hip-hop. Reportedly three major labels were courting him in “one of the biggest bidding wars ever.” Even a New York Times &lt;a href="https://www.nytimes.com/2009/05/28/arts/music/28drak.html" rel="noopener nofollow"&gt;article began&lt;/a&gt;, “If there was a time in hip-hop before Drake, it’s tough to remember.” Drake finally signed to Lil Wayne’s Young Money Entertainment label in 2009 and his debut album &lt;a href="https://genius.com/posts/Drake-thank-me-later-all-the-lyrics-to-every-song-explained" rel="noopener"&gt;&lt;em&gt;Thank Me Later&lt;/em&gt;&lt;/a&gt; came out the following year. His second album, &lt;em&gt;&lt;a href="https://genius.com/albums/Drake/Take-care" rel="noopener" data-api_path="/albums/10787"&gt;Take Care&lt;/a&gt;&lt;/em&gt;, was released in November 2011 and ultimately led to &lt;a href="https://www.youtube.com/watch?v=fKmk6OIR9V0" rel="noopener nofollow"&gt;celebration&lt;/a&gt; with his crew for earning his first Grammy Award (for Best Rap Album). The album has been certified 4x platinum as of March 29, 2016. His third studio album, &lt;a href="https://genius.com/albums/Drake/Nothing-was-the-same" rel="noopener" data-api_path="/albums/40475"&gt;&lt;em&gt;Nothing Was The Same&lt;/em&gt;&lt;/a&gt;, was released September 24th, 2013. Two years later on February 13, 2015, Drake released &lt;em&gt;&lt;a href="https://genius.com/albums/Drake/If-you-re-reading-this-it-s-too-late" rel="noopener" data-api_path="/albums/119674"&gt;If You’re Reading This It’s Too Late&lt;/a&gt;&lt;/em&gt;. Just months after that, he released a collaborative mixtape with American rapper Future, called &lt;a href="https://genius.com/albums/Drake-and-future/What-a-time-to-be-alive" rel="noopener" data-api_path="/albums/131405"&gt;&lt;em&gt;What A Time To Be Alive&lt;/em&gt;&lt;/a&gt;. His fourth studio album, &lt;a href="https://genius.com/albums/Drake/Views" rel="noopener" data-api_path="/albums/132506"&gt;&lt;em&gt;Views&lt;/em&gt;&lt;/a&gt;, was released on April 29, 2016. Following the release of &lt;em&gt;Views&lt;/em&gt;, Drake announced the release of his new “playlist,” &lt;a href="https://genius.com/albums/Drake/More-life" rel="noopener" data-api_path="/albums/286515"&gt;&lt;em&gt;More Life,&lt;/em&gt;&lt;/a&gt; on OVOSOUND Radio. It was released on March 18, 2017.&lt;/p&gt;\n\n&lt;p&gt;On January 19, 2018, Drake surprisingly released a two-track EP, which was titled &lt;a href="https://genius.com/albums/Drake/Scary-hours" rel="noopener" data-api_path="/albums/391461"&gt;&lt;em&gt;Scary Hours&lt;/em&gt;&lt;/a&gt;. In the following weeks Drake would make a song with his friend &lt;a href="https://genius.com/artists/Blocboy-jb" rel="noopener" data-api_path="/artists/1254513"&gt;BlocBoy JB&lt;/a&gt; called &lt;a href="https://genius.com/Blocboy-jb-look-alive-lyrics" rel="noopener" data-api_path="/songs/3452330"&gt;“Look Alive”&lt;/a&gt;, the song would &lt;a href="https://genius.com/a/memphis-rapper-blocboy-jb-s-drake-collaboration-look-alive-debuts-at-no-6-on-the-hot-100?utm_source=home_recent_stories" rel="noopener" data-api_path="/articles/4356"&gt;debut at #6 on the billboard&lt;/a&gt; and would mark Drake’s 23rd Top 10 Billboard hit. After “God’s Plan” debuted and spent 11 consecutive weeks at #1 on the &lt;em&gt;Billboard&lt;/em&gt;, Drake released &lt;a href="https://genius.com/Drake-nice-for-what-lyrics" rel="noopener" data-api_path="/songs/3580132"&gt;“Nice For What”&lt;/a&gt; to continue the streak of a successful 2018. “Nice for What” would go on &lt;a href="https://genius.com/a/drake-announces-his-new-album-scorpion-replaces-himself-at-no-1-with-nice-for-what?utm_source=home_featured_stories" rel="noopener" data-api_path="/articles/4771"&gt;to replace “God’s Plan” as the #1 song on the Hot 100&lt;/a&gt;. Drake went on to release his fifth studio album &lt;a href="https://genius.com/albums/Drake/Scorpion" rel="noopener" data-api_path="/albums/420582"&gt;&lt;em&gt;Scorpion&lt;/em&gt;&lt;/a&gt; on June 29, 2018. It featured 25 tracks and was released as a double album. Upon release, it set the single day album streaming record on both Apple Music and Spotify and broke the first-week streaming record for an album in a mere three days. That week, a record-shattering seven songs from the album placed in the Billboard Hot 100’s top ten.&lt;/p&gt;\n\n&lt;p&gt;In a December 25, 2019 &lt;a href="https://www.youtube.com/watch?v=mmsasEoupO4" rel="noopener nofollow"&gt;interview with Rap Radar&lt;/a&gt;, Drake confirmed upcoming music. He followed this statement up by releasing two songs with Future, &lt;a href="https://genius.com/Future-life-is-good-lyrics" rel="noopener" data-api_path="/songs/5111026"&gt;“Life is Good”&lt;/a&gt; and &lt;a href="https://genius.com/Drake-desires-lyrics" rel="noopener" data-api_path="/songs/4825634"&gt;“Desires,”&lt;/a&gt; on January 10, 2020, and January 31, 2020, respectively. A month later, Drake would drop two tracks: &lt;a href="https://genius.com/Drake-when-to-say-when-lyrics" rel="noopener" data-api_path="/songs/5127477"&gt;“When to Say When”&lt;/a&gt; and &lt;a href="https://genius.com/Drake-chicago-freestyle-lyrics" rel="noopener" data-ap